--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CI$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CJ$286</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="75">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -260,24 +260,25 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -353,7 +354,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -400,9 +401,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,10 +417,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,14 +763,14 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV286"/>
+  <dimension ref="A1:EV285"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="BV40" sqref="BV40"/>
+      <selection pane="bottomRight" activeCell="CQ12" sqref="CQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,8 +784,8 @@
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
     <col min="74" max="80" width="9.26953125" style="1" customWidth="1"/>
     <col min="81" max="81" width="9.6328125" style="1" customWidth="1"/>
-    <col min="82" max="87" width="9.6328125" style="25" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="11.7265625" style="25" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -814,136 +820,137 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="39">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37">
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="37">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39">
         <v>2018</v>
       </c>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37">
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39">
         <v>2019</v>
       </c>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="41">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36">
+      <c r="CE9" s="41"/>
+      <c r="CF9" s="41"/>
+      <c r="CG9" s="41"/>
+      <c r="CH9" s="41">
         <v>2021</v>
       </c>
-      <c r="CI9" s="36"/>
+      <c r="CI9" s="41"/>
+      <c r="CJ9" s="41"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1189,23 +1196,26 @@
       <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="27" t="s">
+      <c r="CD10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="CE10" s="27" t="s">
+      <c r="CE10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CF10" s="27" t="s">
+      <c r="CF10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CG10" s="27" t="s">
+      <c r="CG10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="27" t="s">
+      <c r="CH10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="CI10" s="27" t="s">
+      <c r="CI10" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ10" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,25 +1465,27 @@
       <c r="CC12" s="8">
         <v>56446.877325699985</v>
       </c>
-      <c r="CD12" s="28">
+      <c r="CD12" s="27">
         <v>54429.142017296275</v>
       </c>
-      <c r="CE12" s="28">
+      <c r="CE12" s="27">
         <v>27012.413717968855</v>
       </c>
-      <c r="CF12" s="28">
+      <c r="CF12" s="27">
         <v>37620.98400344485</v>
       </c>
-      <c r="CG12" s="28">
+      <c r="CG12" s="27">
         <v>51276.382492793287</v>
       </c>
-      <c r="CH12" s="28">
+      <c r="CH12" s="27">
         <v>58651.710913371797</v>
       </c>
-      <c r="CI12" s="28">
-        <v>46793.459065030453</v>
-      </c>
-      <c r="CJ12" s="9"/>
+      <c r="CI12" s="27">
+        <v>47908.693791018057</v>
+      </c>
+      <c r="CJ12" s="27">
+        <v>40618.397647098027</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -1783,25 +1795,27 @@
       <c r="CC13" s="11">
         <v>2680.7892509557855</v>
       </c>
-      <c r="CD13" s="29">
+      <c r="CD13" s="28">
         <v>2876.7840872852312</v>
       </c>
-      <c r="CE13" s="29">
+      <c r="CE13" s="28">
         <v>1567.3513225054967</v>
       </c>
-      <c r="CF13" s="29">
+      <c r="CF13" s="28">
         <v>2729.6722210206449</v>
       </c>
-      <c r="CG13" s="29">
+      <c r="CG13" s="28">
         <v>4505.6216796295748</v>
       </c>
-      <c r="CH13" s="29">
+      <c r="CH13" s="28">
         <v>5362.4154575619768</v>
       </c>
-      <c r="CI13" s="29">
-        <v>3861.6707246932192</v>
-      </c>
-      <c r="CJ13" s="9"/>
+      <c r="CI13" s="28">
+        <v>3921.1779126417432</v>
+      </c>
+      <c r="CJ13" s="28">
+        <v>4432.987792072403</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -2111,25 +2125,27 @@
       <c r="CC14" s="11">
         <v>9996.9045516721235</v>
       </c>
-      <c r="CD14" s="29">
+      <c r="CD14" s="28">
         <v>9332.9699428358617</v>
       </c>
-      <c r="CE14" s="29">
+      <c r="CE14" s="28">
         <v>5431.6666731016112</v>
       </c>
-      <c r="CF14" s="29">
+      <c r="CF14" s="28">
         <v>5613.5086988568692</v>
       </c>
-      <c r="CG14" s="29">
+      <c r="CG14" s="28">
         <v>4832.1147367375515</v>
       </c>
-      <c r="CH14" s="29">
+      <c r="CH14" s="28">
         <v>6468.0409885199315</v>
       </c>
-      <c r="CI14" s="29">
-        <v>9442.749832667083</v>
-      </c>
-      <c r="CJ14" s="9"/>
+      <c r="CI14" s="28">
+        <v>9793.6545376371487</v>
+      </c>
+      <c r="CJ14" s="28">
+        <v>9191.3495858880615</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -2439,25 +2455,27 @@
       <c r="CC15" s="11">
         <v>973.77945132840352</v>
       </c>
-      <c r="CD15" s="29">
+      <c r="CD15" s="28">
         <v>660.75092556133814</v>
       </c>
-      <c r="CE15" s="29">
+      <c r="CE15" s="28">
         <v>404.71505125747746</v>
       </c>
-      <c r="CF15" s="29">
+      <c r="CF15" s="28">
         <v>615.67969005739315</v>
       </c>
-      <c r="CG15" s="29">
+      <c r="CG15" s="28">
         <v>531.70689191179281</v>
       </c>
-      <c r="CH15" s="29">
+      <c r="CH15" s="28">
         <v>470.48975453466392</v>
       </c>
-      <c r="CI15" s="29">
-        <v>475.89117299172682</v>
-      </c>
-      <c r="CJ15" s="9"/>
+      <c r="CI15" s="28">
+        <v>502.04619643059505</v>
+      </c>
+      <c r="CJ15" s="28">
+        <v>600.88711261233652</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -2767,25 +2785,27 @@
       <c r="CC16" s="11">
         <v>1188.0329562434067</v>
       </c>
-      <c r="CD16" s="29">
+      <c r="CD16" s="28">
         <v>1812.981954079394</v>
       </c>
-      <c r="CE16" s="29">
+      <c r="CE16" s="28">
         <v>376.39117337805163</v>
       </c>
-      <c r="CF16" s="29">
+      <c r="CF16" s="28">
         <v>495.15649386209083</v>
       </c>
-      <c r="CG16" s="29">
+      <c r="CG16" s="28">
         <v>445.71165916397956</v>
       </c>
-      <c r="CH16" s="29">
+      <c r="CH16" s="28">
         <v>482.8670087434416</v>
       </c>
-      <c r="CI16" s="29">
-        <v>343.43456652366535</v>
-      </c>
-      <c r="CJ16" s="9"/>
+      <c r="CI16" s="28">
+        <v>354.09846712160282</v>
+      </c>
+      <c r="CJ16" s="28">
+        <v>456.40913150136157</v>
+      </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -3095,25 +3115,27 @@
       <c r="CC17" s="11">
         <v>3896.2546141568387</v>
       </c>
-      <c r="CD17" s="29">
+      <c r="CD17" s="28">
         <v>3355.5325382214478</v>
       </c>
-      <c r="CE17" s="29">
+      <c r="CE17" s="28">
         <v>2501.5245453736138</v>
       </c>
-      <c r="CF17" s="29">
+      <c r="CF17" s="28">
         <v>2897.8470067760272</v>
       </c>
-      <c r="CG17" s="29">
+      <c r="CG17" s="28">
         <v>2314.3770870556236</v>
       </c>
-      <c r="CH17" s="29">
+      <c r="CH17" s="28">
         <v>2704.2435785317598</v>
       </c>
-      <c r="CI17" s="29">
-        <v>3194.0094984704519</v>
-      </c>
-      <c r="CJ17" s="9"/>
+      <c r="CI17" s="28">
+        <v>3345.2382524523723</v>
+      </c>
+      <c r="CJ17" s="28">
+        <v>3313.3224178940004</v>
+      </c>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
@@ -3423,25 +3445,27 @@
       <c r="CC18" s="11">
         <v>26147.356159545274</v>
       </c>
-      <c r="CD18" s="29">
+      <c r="CD18" s="28">
         <v>27992.057503247051</v>
       </c>
-      <c r="CE18" s="29">
+      <c r="CE18" s="28">
         <v>11271.729702735385</v>
       </c>
-      <c r="CF18" s="29">
+      <c r="CF18" s="28">
         <v>17526.625513341747</v>
       </c>
-      <c r="CG18" s="29">
+      <c r="CG18" s="28">
         <v>30655.654184141502</v>
       </c>
-      <c r="CH18" s="29">
+      <c r="CH18" s="28">
         <v>33225.197971180947</v>
       </c>
-      <c r="CI18" s="29">
-        <v>20619.400222545093</v>
-      </c>
-      <c r="CJ18" s="9"/>
+      <c r="CI18" s="28">
+        <v>20907.667326174764</v>
+      </c>
+      <c r="CJ18" s="28">
+        <v>14282.804918277967</v>
+      </c>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
@@ -3751,25 +3775,27 @@
       <c r="CC19" s="11">
         <v>1651.387081347116</v>
       </c>
-      <c r="CD19" s="29">
+      <c r="CD19" s="28">
         <v>1451.4588460696427</v>
       </c>
-      <c r="CE19" s="29">
+      <c r="CE19" s="28">
         <v>657.11867446437941</v>
       </c>
-      <c r="CF19" s="29">
+      <c r="CF19" s="28">
         <v>1835.7056867492802</v>
       </c>
-      <c r="CG19" s="29">
+      <c r="CG19" s="28">
         <v>1077.2672972378546</v>
       </c>
-      <c r="CH19" s="29">
+      <c r="CH19" s="28">
         <v>1542.6741998249934</v>
       </c>
-      <c r="CI19" s="29">
-        <v>579.78078462236283</v>
-      </c>
-      <c r="CJ19" s="9"/>
+      <c r="CI19" s="28">
+        <v>585.72133016246573</v>
+      </c>
+      <c r="CJ19" s="28">
+        <v>939.7383235064608</v>
+      </c>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -4079,25 +4105,27 @@
       <c r="CC20" s="11">
         <v>9912.3732604510333</v>
       </c>
-      <c r="CD20" s="29">
+      <c r="CD20" s="28">
         <v>6946.6062199963153</v>
       </c>
-      <c r="CE20" s="29">
+      <c r="CE20" s="28">
         <v>4801.9165751528426</v>
       </c>
-      <c r="CF20" s="29">
+      <c r="CF20" s="28">
         <v>5906.7886927808004</v>
       </c>
-      <c r="CG20" s="29">
+      <c r="CG20" s="28">
         <v>6913.9289569154098</v>
       </c>
-      <c r="CH20" s="29">
+      <c r="CH20" s="28">
         <v>8395.7819544740851</v>
       </c>
-      <c r="CI20" s="29">
-        <v>8276.5222625168481</v>
-      </c>
-      <c r="CJ20" s="9"/>
+      <c r="CI20" s="28">
+        <v>8499.089768397369</v>
+      </c>
+      <c r="CJ20" s="28">
+        <v>7400.8983653454325</v>
+      </c>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
@@ -4407,25 +4435,27 @@
       <c r="CC21" s="8">
         <v>56071.240605869185</v>
       </c>
-      <c r="CD21" s="28">
+      <c r="CD21" s="27">
         <v>58804.626629109742</v>
       </c>
-      <c r="CE21" s="28">
+      <c r="CE21" s="27">
         <v>32505.460461454451</v>
       </c>
-      <c r="CF21" s="28">
+      <c r="CF21" s="27">
         <v>43353.930792332612</v>
       </c>
-      <c r="CG21" s="28">
+      <c r="CG21" s="27">
         <v>45363.207117669983</v>
       </c>
-      <c r="CH21" s="28">
+      <c r="CH21" s="27">
         <v>49879.850979472125</v>
       </c>
-      <c r="CI21" s="28">
-        <v>38709.608839688182</v>
-      </c>
-      <c r="CJ21" s="9"/>
+      <c r="CI21" s="27">
+        <v>40166.922498051274</v>
+      </c>
+      <c r="CJ21" s="27">
+        <v>46287.03312845451</v>
+      </c>
       <c r="CK21" s="9"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
@@ -4735,25 +4765,27 @@
       <c r="CC22" s="11">
         <v>11054.87107140085</v>
       </c>
-      <c r="CD22" s="29">
+      <c r="CD22" s="28">
         <v>10627.784174922195</v>
       </c>
-      <c r="CE22" s="29">
+      <c r="CE22" s="28">
         <v>4274.3484630486419</v>
       </c>
-      <c r="CF22" s="29">
+      <c r="CF22" s="28">
         <v>7978.0223233950728</v>
       </c>
-      <c r="CG22" s="29">
+      <c r="CG22" s="28">
         <v>8386.6463101162626</v>
       </c>
-      <c r="CH22" s="29">
+      <c r="CH22" s="28">
         <v>7882.4323942537812</v>
       </c>
-      <c r="CI22" s="29">
-        <v>7027.208350820998</v>
-      </c>
-      <c r="CJ22" s="9"/>
+      <c r="CI22" s="28">
+        <v>7162.7800145312067</v>
+      </c>
+      <c r="CJ22" s="28">
+        <v>7321.373258356185</v>
+      </c>
       <c r="CK22" s="9"/>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
@@ -5063,25 +5095,27 @@
       <c r="CC23" s="11">
         <v>6882.360474809715</v>
       </c>
-      <c r="CD23" s="29">
+      <c r="CD23" s="28">
         <v>5184.3391165111143</v>
       </c>
-      <c r="CE23" s="29">
+      <c r="CE23" s="28">
         <v>3120.7355212627249</v>
       </c>
-      <c r="CF23" s="29">
+      <c r="CF23" s="28">
         <v>4804.3805390311391</v>
       </c>
-      <c r="CG23" s="29">
+      <c r="CG23" s="28">
         <v>5273.1469018777589</v>
       </c>
-      <c r="CH23" s="29">
+      <c r="CH23" s="28">
         <v>4775.5725085898248</v>
       </c>
-      <c r="CI23" s="29">
-        <v>4904.9359537922128</v>
-      </c>
-      <c r="CJ23" s="9"/>
+      <c r="CI23" s="28">
+        <v>5110.7873209523341</v>
+      </c>
+      <c r="CJ23" s="28">
+        <v>5127.1381552591502</v>
+      </c>
       <c r="CK23" s="9"/>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
@@ -5391,25 +5425,27 @@
       <c r="CC24" s="11">
         <v>17535.77311267157</v>
       </c>
-      <c r="CD24" s="29">
+      <c r="CD24" s="28">
         <v>12588.186661992386</v>
       </c>
-      <c r="CE24" s="29">
+      <c r="CE24" s="28">
         <v>12168.807582743522</v>
       </c>
-      <c r="CF24" s="29">
+      <c r="CF24" s="28">
         <v>13701.285774958433</v>
       </c>
-      <c r="CG24" s="29">
+      <c r="CG24" s="28">
         <v>15099.791007225485</v>
       </c>
-      <c r="CH24" s="29">
+      <c r="CH24" s="28">
         <v>13867.045918479249</v>
       </c>
-      <c r="CI24" s="29">
-        <v>11261.493306696613</v>
-      </c>
-      <c r="CJ24" s="9"/>
+      <c r="CI24" s="28">
+        <v>11784.218551969392</v>
+      </c>
+      <c r="CJ24" s="28">
+        <v>15905.435284192699</v>
+      </c>
       <c r="CK24" s="9"/>
       <c r="CL24" s="9"/>
       <c r="CM24" s="9"/>
@@ -5719,25 +5755,27 @@
       <c r="CC25" s="11">
         <v>20598.235946987053</v>
       </c>
-      <c r="CD25" s="29">
+      <c r="CD25" s="28">
         <v>30404.316675684051</v>
       </c>
-      <c r="CE25" s="29">
+      <c r="CE25" s="28">
         <v>12941.568894399561</v>
       </c>
-      <c r="CF25" s="29">
+      <c r="CF25" s="28">
         <v>16870.242154947966</v>
       </c>
-      <c r="CG25" s="29">
+      <c r="CG25" s="28">
         <v>16603.622898450478</v>
       </c>
-      <c r="CH25" s="29">
+      <c r="CH25" s="28">
         <v>23354.800158149272</v>
       </c>
-      <c r="CI25" s="29">
-        <v>15515.971228378359</v>
-      </c>
-      <c r="CJ25" s="9"/>
+      <c r="CI25" s="28">
+        <v>16109.13661059834</v>
+      </c>
+      <c r="CJ25" s="28">
+        <v>17933.086430646479</v>
+      </c>
       <c r="CK25" s="9"/>
       <c r="CL25" s="9"/>
       <c r="CM25" s="9"/>
@@ -6047,25 +6085,27 @@
       <c r="CC26" s="8">
         <v>192504.37455315443</v>
       </c>
-      <c r="CD26" s="28">
+      <c r="CD26" s="27">
         <v>160382.34935369136</v>
       </c>
-      <c r="CE26" s="28">
+      <c r="CE26" s="27">
         <v>40441.434287141805</v>
       </c>
-      <c r="CF26" s="28">
+      <c r="CF26" s="27">
         <v>91340.658707289302</v>
       </c>
-      <c r="CG26" s="28">
+      <c r="CG26" s="27">
         <v>115528.01967552473</v>
       </c>
-      <c r="CH26" s="28">
+      <c r="CH26" s="27">
         <v>128537.15625078051</v>
       </c>
-      <c r="CI26" s="28">
-        <v>100791.75728347593</v>
-      </c>
-      <c r="CJ26" s="9"/>
+      <c r="CI26" s="27">
+        <v>104919.88751807903</v>
+      </c>
+      <c r="CJ26" s="27">
+        <v>107888.75042416083</v>
+      </c>
       <c r="CK26" s="9"/>
       <c r="CL26" s="9"/>
       <c r="CM26" s="9"/>
@@ -6375,25 +6415,27 @@
       <c r="CC27" s="11">
         <v>163888.55372418906</v>
       </c>
-      <c r="CD27" s="29">
+      <c r="CD27" s="28">
         <v>147822.56854143695</v>
       </c>
-      <c r="CE27" s="29">
+      <c r="CE27" s="28">
         <v>34106.416729520301</v>
       </c>
-      <c r="CF27" s="29">
+      <c r="CF27" s="28">
         <v>88281.481473492124</v>
       </c>
-      <c r="CG27" s="29">
+      <c r="CG27" s="28">
         <v>107245.88624517893</v>
       </c>
-      <c r="CH27" s="29">
+      <c r="CH27" s="28">
         <v>117407.63144917498</v>
       </c>
-      <c r="CI27" s="29">
-        <v>93314.722635474129</v>
-      </c>
-      <c r="CJ27" s="9"/>
+      <c r="CI27" s="28">
+        <v>96494.609521889011</v>
+      </c>
+      <c r="CJ27" s="28">
+        <v>103601.45620046637</v>
+      </c>
       <c r="CK27" s="9"/>
       <c r="CL27" s="9"/>
       <c r="CM27" s="9"/>
@@ -6703,25 +6745,27 @@
       <c r="CC28" s="11">
         <v>498.63359315000002</v>
       </c>
-      <c r="CD28" s="29">
+      <c r="CD28" s="28">
         <v>895.28711383098755</v>
       </c>
-      <c r="CE28" s="29">
+      <c r="CE28" s="28">
         <v>20.871931768769699</v>
       </c>
-      <c r="CF28" s="29">
+      <c r="CF28" s="28">
         <v>4.5107882416510048</v>
       </c>
-      <c r="CG28" s="29">
+      <c r="CG28" s="28">
         <v>1105.678345077391</v>
       </c>
-      <c r="CH28" s="29">
+      <c r="CH28" s="28">
         <v>2190.4614078382465</v>
       </c>
-      <c r="CI28" s="29">
-        <v>3.2940701250581794</v>
-      </c>
-      <c r="CJ28" s="9"/>
+      <c r="CI28" s="28">
+        <v>11.874722334350084</v>
+      </c>
+      <c r="CJ28" s="28">
+        <v>1070.4458898966589</v>
+      </c>
       <c r="CK28" s="9"/>
       <c r="CL28" s="9"/>
       <c r="CM28" s="9"/>
@@ -7031,25 +7075,27 @@
       <c r="CC29" s="11">
         <v>25032.979233196886</v>
       </c>
-      <c r="CD29" s="29">
+      <c r="CD29" s="28">
         <v>10370.839139537815</v>
       </c>
-      <c r="CE29" s="29">
+      <c r="CE29" s="28">
         <v>2628.170361397219</v>
       </c>
-      <c r="CF29" s="29">
+      <c r="CF29" s="28">
         <v>2367.3802494111937</v>
       </c>
-      <c r="CG29" s="29">
+      <c r="CG29" s="28">
         <v>6343.2135165614418</v>
       </c>
-      <c r="CH29" s="29">
+      <c r="CH29" s="28">
         <v>1497.4417421988749</v>
       </c>
-      <c r="CI29" s="29">
-        <v>7047.3246203800363</v>
-      </c>
-      <c r="CJ29" s="9"/>
+      <c r="CI29" s="28">
+        <v>7148.5923806901101</v>
+      </c>
+      <c r="CJ29" s="28">
+        <v>2394.638718311412</v>
+      </c>
       <c r="CK29" s="9"/>
       <c r="CL29" s="9"/>
       <c r="CM29" s="9"/>
@@ -7359,25 +7405,27 @@
       <c r="CC30" s="11">
         <v>3084.2080026184885</v>
       </c>
-      <c r="CD30" s="29">
+      <c r="CD30" s="28">
         <v>1293.6545588855734</v>
       </c>
-      <c r="CE30" s="29">
+      <c r="CE30" s="28">
         <v>3685.9752644555124</v>
       </c>
-      <c r="CF30" s="29">
+      <c r="CF30" s="28">
         <v>687.28619614433512</v>
       </c>
-      <c r="CG30" s="29">
+      <c r="CG30" s="28">
         <v>833.24156870696106</v>
       </c>
-      <c r="CH30" s="29">
+      <c r="CH30" s="28">
         <v>7441.6216515684082</v>
       </c>
-      <c r="CI30" s="29">
-        <v>426.4159574967108</v>
-      </c>
-      <c r="CJ30" s="9"/>
+      <c r="CI30" s="28">
+        <v>1264.8108931655654</v>
+      </c>
+      <c r="CJ30" s="28">
+        <v>822.20961548637911</v>
+      </c>
       <c r="CK30" s="9"/>
       <c r="CL30" s="9"/>
       <c r="CM30" s="9"/>
@@ -7687,25 +7735,27 @@
       <c r="CC31" s="8">
         <v>64843.153637740761</v>
       </c>
-      <c r="CD31" s="28">
+      <c r="CD31" s="27">
         <v>56968.148167112049</v>
       </c>
-      <c r="CE31" s="28">
+      <c r="CE31" s="27">
         <v>31372.286100939084</v>
       </c>
-      <c r="CF31" s="28">
+      <c r="CF31" s="27">
         <v>47774.285411181161</v>
       </c>
-      <c r="CG31" s="28">
+      <c r="CG31" s="27">
         <v>49643.271137189586</v>
       </c>
-      <c r="CH31" s="28">
+      <c r="CH31" s="27">
         <v>53982.282164031807</v>
       </c>
-      <c r="CI31" s="28">
-        <v>51808.098582216422</v>
-      </c>
-      <c r="CJ31" s="9"/>
+      <c r="CI31" s="27">
+        <v>53251.269172972352</v>
+      </c>
+      <c r="CJ31" s="27">
+        <v>52112.261397480048</v>
+      </c>
       <c r="CK31" s="9"/>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
@@ -8015,25 +8065,27 @@
       <c r="CC32" s="11">
         <v>4828.2357672779408</v>
       </c>
-      <c r="CD32" s="29">
+      <c r="CD32" s="28">
         <v>3875.5583215915608</v>
       </c>
-      <c r="CE32" s="29">
+      <c r="CE32" s="28">
         <v>2043.15590494915</v>
       </c>
-      <c r="CF32" s="29">
+      <c r="CF32" s="28">
         <v>6592.0903751852566</v>
       </c>
-      <c r="CG32" s="29">
+      <c r="CG32" s="28">
         <v>6337.9232329612496</v>
       </c>
-      <c r="CH32" s="29">
+      <c r="CH32" s="28">
         <v>4638.5878115889464</v>
       </c>
-      <c r="CI32" s="29">
-        <v>4799.7547799570066</v>
-      </c>
-      <c r="CJ32" s="9"/>
+      <c r="CI32" s="28">
+        <v>4876.1796728694517</v>
+      </c>
+      <c r="CJ32" s="28">
+        <v>4909.5626075490409</v>
+      </c>
       <c r="CK32" s="9"/>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
@@ -8343,25 +8395,27 @@
       <c r="CC33" s="11">
         <v>10053.307604264743</v>
       </c>
-      <c r="CD33" s="29">
+      <c r="CD33" s="28">
         <v>10052.102769221423</v>
       </c>
-      <c r="CE33" s="29">
+      <c r="CE33" s="28">
         <v>4294.8472066823952</v>
       </c>
-      <c r="CF33" s="29">
+      <c r="CF33" s="28">
         <v>7284.2591576335853</v>
       </c>
-      <c r="CG33" s="29">
+      <c r="CG33" s="28">
         <v>7339.6359271655047</v>
       </c>
-      <c r="CH33" s="29">
+      <c r="CH33" s="28">
         <v>9771.2837358005982</v>
       </c>
-      <c r="CI33" s="29">
-        <v>8283.20099404141</v>
-      </c>
-      <c r="CJ33" s="9"/>
+      <c r="CI33" s="28">
+        <v>8444.8775569290501</v>
+      </c>
+      <c r="CJ33" s="28">
+        <v>8453.6218710755529</v>
+      </c>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -8671,25 +8725,27 @@
       <c r="CC34" s="11">
         <v>36693.240667690006</v>
       </c>
-      <c r="CD34" s="29">
+      <c r="CD34" s="28">
         <v>28804.845341170574</v>
       </c>
-      <c r="CE34" s="29">
+      <c r="CE34" s="28">
         <v>18100.371484198375</v>
       </c>
-      <c r="CF34" s="29">
+      <c r="CF34" s="28">
         <v>25186.565409951341</v>
       </c>
-      <c r="CG34" s="29">
+      <c r="CG34" s="28">
         <v>25905.479426830389</v>
       </c>
-      <c r="CH34" s="29">
+      <c r="CH34" s="28">
         <v>24550.686540986197</v>
       </c>
-      <c r="CI34" s="29">
-        <v>24494.575724296941</v>
-      </c>
-      <c r="CJ34" s="9"/>
+      <c r="CI34" s="28">
+        <v>25147.282965282888</v>
+      </c>
+      <c r="CJ34" s="28">
+        <v>30349.202509067174</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -8999,25 +9055,27 @@
       <c r="CC35" s="11">
         <v>13268.369598508074</v>
       </c>
-      <c r="CD35" s="29">
+      <c r="CD35" s="28">
         <v>14235.641735128489</v>
       </c>
-      <c r="CE35" s="29">
+      <c r="CE35" s="28">
         <v>6933.911505109164</v>
       </c>
-      <c r="CF35" s="29">
+      <c r="CF35" s="28">
         <v>8711.3704684109798</v>
       </c>
-      <c r="CG35" s="29">
+      <c r="CG35" s="28">
         <v>10060.232550232438</v>
       </c>
-      <c r="CH35" s="29">
+      <c r="CH35" s="28">
         <v>15021.724075656064</v>
       </c>
-      <c r="CI35" s="29">
-        <v>14230.567083921063</v>
-      </c>
-      <c r="CJ35" s="9"/>
+      <c r="CI35" s="28">
+        <v>14782.928977890964</v>
+      </c>
+      <c r="CJ35" s="28">
+        <v>8399.8744097882827</v>
+      </c>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -9164,13 +9222,13 @@
       <c r="CA36" s="9"/>
       <c r="CB36" s="9"/>
       <c r="CC36" s="9"/>
-      <c r="CD36" s="30"/>
-      <c r="CE36" s="30"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
-      <c r="CH36" s="30"/>
-      <c r="CI36" s="30"/>
-      <c r="CJ36" s="9"/>
+      <c r="CD36" s="29"/>
+      <c r="CE36" s="29"/>
+      <c r="CF36" s="29"/>
+      <c r="CG36" s="29"/>
+      <c r="CH36" s="29"/>
+      <c r="CI36" s="29"/>
+      <c r="CJ36" s="29"/>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -9480,25 +9538,27 @@
       <c r="CC37" s="13">
         <v>369865.64612246433</v>
       </c>
-      <c r="CD37" s="31">
+      <c r="CD37" s="30">
         <v>330584.26616720937</v>
       </c>
-      <c r="CE37" s="31">
+      <c r="CE37" s="30">
         <v>131331.59456750419</v>
       </c>
-      <c r="CF37" s="31">
+      <c r="CF37" s="30">
         <v>220089.85891424795</v>
       </c>
-      <c r="CG37" s="31">
+      <c r="CG37" s="30">
         <v>261810.88042317759</v>
       </c>
-      <c r="CH37" s="31">
+      <c r="CH37" s="30">
         <v>291051.00030765624</v>
       </c>
-      <c r="CI37" s="31">
-        <v>238102.923770411</v>
-      </c>
-      <c r="CJ37" s="9"/>
+      <c r="CI37" s="30">
+        <v>246246.77298012073</v>
+      </c>
+      <c r="CJ37" s="30">
+        <v>246906.44259719341</v>
+      </c>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -9646,12 +9706,13 @@
       <c r="CA38" s="14"/>
       <c r="CB38" s="14"/>
       <c r="CC38" s="14"/>
-      <c r="CD38" s="32"/>
-      <c r="CE38" s="32"/>
-      <c r="CF38" s="32"/>
-      <c r="CG38" s="32"/>
-      <c r="CH38" s="32"/>
-      <c r="CI38" s="32"/>
+      <c r="CD38" s="31"/>
+      <c r="CE38" s="31"/>
+      <c r="CF38" s="31"/>
+      <c r="CG38" s="31"/>
+      <c r="CH38" s="31"/>
+      <c r="CI38" s="31"/>
+      <c r="CJ38" s="31"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -9759,13 +9820,13 @@
       <c r="CA40" s="9"/>
       <c r="CB40" s="9"/>
       <c r="CC40" s="9"/>
-      <c r="CD40" s="30"/>
-      <c r="CE40" s="30"/>
-      <c r="CF40" s="30"/>
-      <c r="CG40" s="30"/>
-      <c r="CH40" s="30"/>
-      <c r="CI40" s="30"/>
-      <c r="CJ40" s="9"/>
+      <c r="CD40" s="29"/>
+      <c r="CE40" s="29"/>
+      <c r="CF40" s="29"/>
+      <c r="CG40" s="29"/>
+      <c r="CH40" s="29"/>
+      <c r="CI40" s="29"/>
+      <c r="CJ40" s="29"/>
       <c r="CK40" s="9"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
@@ -9912,13 +9973,13 @@
       <c r="CA41" s="9"/>
       <c r="CB41" s="9"/>
       <c r="CC41" s="9"/>
-      <c r="CD41" s="30"/>
-      <c r="CE41" s="30"/>
-      <c r="CF41" s="30"/>
-      <c r="CG41" s="30"/>
-      <c r="CH41" s="30"/>
-      <c r="CI41" s="30"/>
-      <c r="CJ41" s="9"/>
+      <c r="CD41" s="29"/>
+      <c r="CE41" s="29"/>
+      <c r="CF41" s="29"/>
+      <c r="CG41" s="29"/>
+      <c r="CH41" s="29"/>
+      <c r="CI41" s="29"/>
+      <c r="CJ41" s="29"/>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
@@ -10016,138 +10077,139 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="38">
+      <c r="B50" s="40">
         <v>2000</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40">
         <v>2001</v>
       </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38">
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40">
         <v>2002</v>
       </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38">
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40">
         <v>2003</v>
       </c>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38">
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40">
         <v>2004</v>
       </c>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38">
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40">
         <v>2005</v>
       </c>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38"/>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38">
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40">
         <v>2006</v>
       </c>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38">
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40">
         <v>2007</v>
       </c>
-      <c r="AE50" s="38"/>
-      <c r="AF50" s="38"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38">
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="40"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="40">
         <v>2008</v>
       </c>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="38"/>
-      <c r="AK50" s="38"/>
-      <c r="AL50" s="38">
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="40"/>
+      <c r="AK50" s="40"/>
+      <c r="AL50" s="40">
         <v>2009</v>
       </c>
-      <c r="AM50" s="38"/>
-      <c r="AN50" s="38"/>
-      <c r="AO50" s="38"/>
-      <c r="AP50" s="38">
+      <c r="AM50" s="40"/>
+      <c r="AN50" s="40"/>
+      <c r="AO50" s="40"/>
+      <c r="AP50" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="38"/>
-      <c r="AR50" s="38"/>
-      <c r="AS50" s="38"/>
-      <c r="AT50" s="38">
+      <c r="AQ50" s="40"/>
+      <c r="AR50" s="40"/>
+      <c r="AS50" s="40"/>
+      <c r="AT50" s="40">
         <v>2011</v>
       </c>
-      <c r="AU50" s="38"/>
-      <c r="AV50" s="38"/>
-      <c r="AW50" s="38"/>
-      <c r="AX50" s="38">
+      <c r="AU50" s="40"/>
+      <c r="AV50" s="40"/>
+      <c r="AW50" s="40"/>
+      <c r="AX50" s="40">
         <v>2012</v>
       </c>
-      <c r="AY50" s="38"/>
-      <c r="AZ50" s="38"/>
-      <c r="BA50" s="38"/>
-      <c r="BB50" s="38">
+      <c r="AY50" s="40"/>
+      <c r="AZ50" s="40"/>
+      <c r="BA50" s="40"/>
+      <c r="BB50" s="40">
         <v>2013</v>
       </c>
-      <c r="BC50" s="38"/>
-      <c r="BD50" s="38"/>
-      <c r="BE50" s="38"/>
-      <c r="BF50" s="38">
+      <c r="BC50" s="40"/>
+      <c r="BD50" s="40"/>
+      <c r="BE50" s="40"/>
+      <c r="BF50" s="40">
         <v>2014</v>
       </c>
-      <c r="BG50" s="38"/>
-      <c r="BH50" s="38"/>
-      <c r="BI50" s="38"/>
-      <c r="BJ50" s="38">
+      <c r="BG50" s="40"/>
+      <c r="BH50" s="40"/>
+      <c r="BI50" s="40"/>
+      <c r="BJ50" s="40">
         <v>2015</v>
       </c>
-      <c r="BK50" s="38"/>
-      <c r="BL50" s="38"/>
-      <c r="BM50" s="38"/>
-      <c r="BN50" s="38">
+      <c r="BK50" s="40"/>
+      <c r="BL50" s="40"/>
+      <c r="BM50" s="40"/>
+      <c r="BN50" s="40">
         <v>2016</v>
       </c>
-      <c r="BO50" s="38"/>
-      <c r="BP50" s="38"/>
-      <c r="BQ50" s="38"/>
-      <c r="BR50" s="38">
+      <c r="BO50" s="40"/>
+      <c r="BP50" s="40"/>
+      <c r="BQ50" s="40"/>
+      <c r="BR50" s="40">
         <v>2017</v>
       </c>
-      <c r="BS50" s="38"/>
-      <c r="BT50" s="38"/>
-      <c r="BU50" s="38"/>
-      <c r="BV50" s="38">
+      <c r="BS50" s="40"/>
+      <c r="BT50" s="40"/>
+      <c r="BU50" s="40"/>
+      <c r="BV50" s="40">
         <v>2018</v>
       </c>
-      <c r="BW50" s="38"/>
-      <c r="BX50" s="38"/>
-      <c r="BY50" s="38"/>
-      <c r="BZ50" s="38">
+      <c r="BW50" s="40"/>
+      <c r="BX50" s="40"/>
+      <c r="BY50" s="40"/>
+      <c r="BZ50" s="40">
         <v>2019</v>
       </c>
-      <c r="CA50" s="38"/>
-      <c r="CB50" s="38"/>
-      <c r="CC50" s="38"/>
-      <c r="CD50" s="36">
+      <c r="CA50" s="40"/>
+      <c r="CB50" s="40"/>
+      <c r="CC50" s="40"/>
+      <c r="CD50" s="41">
         <v>2020</v>
       </c>
-      <c r="CE50" s="36"/>
-      <c r="CF50" s="36"/>
-      <c r="CG50" s="36"/>
-      <c r="CH50" s="36">
+      <c r="CE50" s="41"/>
+      <c r="CF50" s="41"/>
+      <c r="CG50" s="41"/>
+      <c r="CH50" s="41">
         <v>2021</v>
       </c>
-      <c r="CI50" s="36">
+      <c r="CI50" s="41">
         <v>0</v>
       </c>
+      <c r="CJ50" s="41"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -10393,23 +10455,26 @@
       <c r="CC51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD51" s="33" t="s">
+      <c r="CD51" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE51" s="33" t="s">
+      <c r="CE51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF51" s="33" t="s">
+      <c r="CF51" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG51" s="33" t="s">
+      <c r="CG51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CH51" s="33" t="s">
+      <c r="CH51" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CI51" s="33" t="s">
+      <c r="CI51" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ51" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10659,25 +10724,27 @@
       <c r="CC53" s="8">
         <v>67838.233165777361</v>
       </c>
-      <c r="CD53" s="28">
+      <c r="CD53" s="27">
         <v>50239.675317973553</v>
       </c>
-      <c r="CE53" s="28">
+      <c r="CE53" s="27">
         <v>16928.771901072421</v>
       </c>
-      <c r="CF53" s="28">
+      <c r="CF53" s="27">
         <v>48645.403591511364</v>
       </c>
-      <c r="CG53" s="28">
+      <c r="CG53" s="27">
         <v>60932.38878891943</v>
       </c>
-      <c r="CH53" s="28">
+      <c r="CH53" s="27">
         <v>57423.533427547423</v>
       </c>
-      <c r="CI53" s="28">
-        <v>30627.160882970642</v>
-      </c>
-      <c r="CJ53" s="9"/>
+      <c r="CI53" s="27">
+        <v>31353.976043114617</v>
+      </c>
+      <c r="CJ53" s="27">
+        <v>49990.073538434743</v>
+      </c>
       <c r="CK53" s="9"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
@@ -10987,25 +11054,27 @@
       <c r="CC54" s="11">
         <v>4115.3167912525578</v>
       </c>
-      <c r="CD54" s="29">
+      <c r="CD54" s="28">
         <v>2874.7685783389529</v>
       </c>
-      <c r="CE54" s="29">
+      <c r="CE54" s="28">
         <v>560.35514235516735</v>
       </c>
-      <c r="CF54" s="29">
+      <c r="CF54" s="28">
         <v>3404.4750370093252</v>
       </c>
-      <c r="CG54" s="29">
+      <c r="CG54" s="28">
         <v>7130.9722902154635</v>
       </c>
-      <c r="CH54" s="29">
+      <c r="CH54" s="28">
         <v>5602.4276975617759</v>
       </c>
-      <c r="CI54" s="29">
-        <v>1415.5898146308377</v>
-      </c>
-      <c r="CJ54" s="9"/>
+      <c r="CI54" s="28">
+        <v>1438.9446047542453</v>
+      </c>
+      <c r="CJ54" s="28">
+        <v>5294.523529890238</v>
+      </c>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
@@ -11315,25 +11384,27 @@
       <c r="CC55" s="11">
         <v>15504.255936530148</v>
       </c>
-      <c r="CD55" s="29">
+      <c r="CD55" s="28">
         <v>9143.2892937880388</v>
       </c>
-      <c r="CE55" s="29">
+      <c r="CE55" s="28">
         <v>2006.7096295569518</v>
       </c>
-      <c r="CF55" s="29">
+      <c r="CF55" s="28">
         <v>7022.9265712486576</v>
       </c>
-      <c r="CG55" s="29">
+      <c r="CG55" s="28">
         <v>7667.9773528194155</v>
       </c>
-      <c r="CH55" s="29">
+      <c r="CH55" s="28">
         <v>6624.5506924854308</v>
       </c>
-      <c r="CI55" s="29">
-        <v>3549.6710361087744</v>
-      </c>
-      <c r="CJ55" s="9"/>
+      <c r="CI55" s="28">
+        <v>3692.2438705868017</v>
+      </c>
+      <c r="CJ55" s="28">
+        <v>11035.216052658912</v>
+      </c>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
@@ -11643,25 +11714,27 @@
       <c r="CC56" s="11">
         <v>1281.7265717204041</v>
       </c>
-      <c r="CD56" s="29">
+      <c r="CD56" s="28">
         <v>630.99332277046256</v>
       </c>
-      <c r="CE56" s="29">
+      <c r="CE56" s="28">
         <v>221.08453146539054</v>
       </c>
-      <c r="CF56" s="29">
+      <c r="CF56" s="28">
         <v>703.2270674878198</v>
       </c>
-      <c r="CG56" s="29">
+      <c r="CG56" s="28">
         <v>691.87648960265778</v>
       </c>
-      <c r="CH56" s="29">
+      <c r="CH56" s="28">
         <v>472.08647165726069</v>
       </c>
-      <c r="CI56" s="29">
-        <v>243.84409382433165</v>
-      </c>
-      <c r="CJ56" s="9"/>
+      <c r="CI56" s="28">
+        <v>267.6744895174395</v>
+      </c>
+      <c r="CJ56" s="28">
+        <v>685.35029135932018</v>
+      </c>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
@@ -11971,25 +12044,27 @@
       <c r="CC57" s="11">
         <v>1733.8450547903228</v>
       </c>
-      <c r="CD57" s="29">
+      <c r="CD57" s="28">
         <v>1444.3536752609032</v>
       </c>
-      <c r="CE57" s="29">
+      <c r="CE57" s="28">
         <v>148.89709950843277</v>
       </c>
-      <c r="CF57" s="29">
+      <c r="CF57" s="28">
         <v>605.96846933127472</v>
       </c>
-      <c r="CG57" s="29">
+      <c r="CG57" s="28">
         <v>651.07923614981655</v>
       </c>
-      <c r="CH57" s="29">
+      <c r="CH57" s="28">
         <v>406.83484191747954</v>
       </c>
-      <c r="CI57" s="29">
-        <v>140.10070159855169</v>
-      </c>
-      <c r="CJ57" s="9"/>
+      <c r="CI57" s="28">
+        <v>147.07881376922208</v>
+      </c>
+      <c r="CJ57" s="28">
+        <v>537.47082593560151</v>
+      </c>
       <c r="CK57" s="9"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
@@ -12299,25 +12374,27 @@
       <c r="CC58" s="11">
         <v>5869.8547929290116</v>
       </c>
-      <c r="CD58" s="29">
+      <c r="CD58" s="28">
         <v>3169.4542720698264</v>
       </c>
-      <c r="CE58" s="29">
+      <c r="CE58" s="28">
         <v>917.05077557288269</v>
       </c>
-      <c r="CF58" s="29">
+      <c r="CF58" s="28">
         <v>3494.9079809409272</v>
       </c>
-      <c r="CG58" s="29">
+      <c r="CG58" s="28">
         <v>3571.5903656964251</v>
       </c>
-      <c r="CH58" s="29">
+      <c r="CH58" s="28">
         <v>2670.9364891208011</v>
       </c>
-      <c r="CI58" s="29">
-        <v>1193.9675191933877</v>
-      </c>
-      <c r="CJ58" s="9"/>
+      <c r="CI58" s="28">
+        <v>1256.8628093180503</v>
+      </c>
+      <c r="CJ58" s="28">
+        <v>3835.1959278146046</v>
+      </c>
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
@@ -12627,25 +12704,27 @@
       <c r="CC59" s="11">
         <v>23030.859414708728</v>
       </c>
-      <c r="CD59" s="29">
+      <c r="CD59" s="28">
         <v>25042.410097119708</v>
       </c>
-      <c r="CE59" s="29">
+      <c r="CE59" s="28">
         <v>10528.838461103242</v>
       </c>
-      <c r="CF59" s="29">
+      <c r="CF59" s="28">
         <v>24121.143877735092</v>
       </c>
-      <c r="CG59" s="29">
+      <c r="CG59" s="28">
         <v>29667.403902739352</v>
       </c>
-      <c r="CH59" s="29">
+      <c r="CH59" s="28">
         <v>31860.372485220651</v>
       </c>
-      <c r="CI59" s="29">
-        <v>20319.745489972534</v>
-      </c>
-      <c r="CJ59" s="9"/>
+      <c r="CI59" s="28">
+        <v>20588.644189399172</v>
+      </c>
+      <c r="CJ59" s="28">
+        <v>18917.812821332624</v>
+      </c>
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
@@ -12955,25 +13034,27 @@
       <c r="CC60" s="11">
         <v>2607.1295810034371</v>
       </c>
-      <c r="CD60" s="29">
+      <c r="CD60" s="28">
         <v>1455.5527541574111</v>
       </c>
-      <c r="CE60" s="29">
+      <c r="CE60" s="28">
         <v>251.41604601939764</v>
       </c>
-      <c r="CF60" s="29">
+      <c r="CF60" s="28">
         <v>2330.2139951874751</v>
       </c>
-      <c r="CG60" s="29">
+      <c r="CG60" s="28">
         <v>1744.240915485444</v>
       </c>
-      <c r="CH60" s="29">
+      <c r="CH60" s="28">
         <v>1617.4088619919892</v>
       </c>
-      <c r="CI60" s="29">
-        <v>229.7882744410802</v>
-      </c>
-      <c r="CJ60" s="9"/>
+      <c r="CI60" s="28">
+        <v>234.80165754563831</v>
+      </c>
+      <c r="CJ60" s="28">
+        <v>1140.9773207707779</v>
+      </c>
       <c r="CK60" s="9"/>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
@@ -13283,25 +13364,27 @@
       <c r="CC61" s="11">
         <v>13695.24502284275</v>
       </c>
-      <c r="CD61" s="29">
+      <c r="CD61" s="28">
         <v>6478.8533244682494</v>
       </c>
-      <c r="CE61" s="29">
+      <c r="CE61" s="28">
         <v>2294.4202154909563</v>
       </c>
-      <c r="CF61" s="29">
+      <c r="CF61" s="28">
         <v>6962.5405925707892</v>
       </c>
-      <c r="CG61" s="29">
+      <c r="CG61" s="28">
         <v>9807.2482362108458</v>
       </c>
-      <c r="CH61" s="29">
+      <c r="CH61" s="28">
         <v>8168.9158875920421</v>
       </c>
-      <c r="CI61" s="29">
-        <v>3534.4539532011436</v>
-      </c>
-      <c r="CJ61" s="9"/>
+      <c r="CI61" s="28">
+        <v>3727.7256082240465</v>
+      </c>
+      <c r="CJ61" s="28">
+        <v>8543.5267686726638</v>
+      </c>
       <c r="CK61" s="9"/>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
@@ -13611,25 +13694,27 @@
       <c r="CC62" s="8">
         <v>56315.19254051325</v>
       </c>
-      <c r="CD62" s="28">
+      <c r="CD62" s="27">
         <v>55972.521910948439</v>
       </c>
-      <c r="CE62" s="28">
+      <c r="CE62" s="27">
         <v>28494.151594504365</v>
       </c>
-      <c r="CF62" s="28">
+      <c r="CF62" s="27">
         <v>51511.816076563227</v>
       </c>
-      <c r="CG62" s="28">
+      <c r="CG62" s="27">
         <v>47957.312665351434</v>
       </c>
-      <c r="CH62" s="28">
+      <c r="CH62" s="27">
         <v>50754.235266802687</v>
       </c>
-      <c r="CI62" s="28">
-        <v>35310.81025505552</v>
-      </c>
-      <c r="CJ62" s="9"/>
+      <c r="CI62" s="27">
+        <v>36673.348659737007</v>
+      </c>
+      <c r="CJ62" s="27">
+        <v>53659.137948630887</v>
+      </c>
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
@@ -13939,25 +14024,27 @@
       <c r="CC63" s="11">
         <v>11174.602440083234</v>
       </c>
-      <c r="CD63" s="29">
+      <c r="CD63" s="28">
         <v>9962.2516261467681</v>
       </c>
-      <c r="CE63" s="29">
+      <c r="CE63" s="28">
         <v>3711.2234840640081</v>
       </c>
-      <c r="CF63" s="29">
+      <c r="CF63" s="28">
         <v>9635.0499889738639</v>
       </c>
-      <c r="CG63" s="29">
+      <c r="CG63" s="28">
         <v>9039.5310042375459</v>
       </c>
-      <c r="CH63" s="29">
+      <c r="CH63" s="28">
         <v>7746.9850590410797</v>
       </c>
-      <c r="CI63" s="29">
-        <v>6289.2482727032229</v>
-      </c>
-      <c r="CJ63" s="9"/>
+      <c r="CI63" s="28">
+        <v>6394.1519361725368</v>
+      </c>
+      <c r="CJ63" s="28">
+        <v>8668.5217065243942</v>
+      </c>
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
@@ -14267,25 +14354,27 @@
       <c r="CC64" s="11">
         <v>7007.7323216419964</v>
       </c>
-      <c r="CD64" s="29">
+      <c r="CD64" s="28">
         <v>4847.1480105097844</v>
       </c>
-      <c r="CE64" s="29">
+      <c r="CE64" s="28">
         <v>2698.7686699210794</v>
       </c>
-      <c r="CF64" s="29">
+      <c r="CF64" s="28">
         <v>5834.3901406858122</v>
       </c>
-      <c r="CG64" s="29">
+      <c r="CG64" s="28">
         <v>5571.7040831643517</v>
       </c>
-      <c r="CH64" s="29">
+      <c r="CH64" s="28">
         <v>4687.1668514612011</v>
       </c>
-      <c r="CI64" s="29">
-        <v>4375.897908589729</v>
-      </c>
-      <c r="CJ64" s="9"/>
+      <c r="CI64" s="28">
+        <v>4553.5295070207403</v>
+      </c>
+      <c r="CJ64" s="28">
+        <v>5986.4445664686618</v>
+      </c>
       <c r="CK64" s="9"/>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
@@ -14595,25 +14684,27 @@
       <c r="CC65" s="11">
         <v>17412.311476692419</v>
       </c>
-      <c r="CD65" s="29">
+      <c r="CD65" s="28">
         <v>12140.290196134662</v>
       </c>
-      <c r="CE65" s="29">
+      <c r="CE65" s="28">
         <v>10354.796112717839</v>
       </c>
-      <c r="CF65" s="29">
+      <c r="CF65" s="28">
         <v>16277.148739046301</v>
       </c>
-      <c r="CG65" s="29">
+      <c r="CG65" s="28">
         <v>15669.733701611432</v>
       </c>
-      <c r="CH65" s="29">
+      <c r="CH65" s="28">
         <v>13743.927634881897</v>
       </c>
-      <c r="CI65" s="29">
-        <v>10038.709908185798</v>
-      </c>
-      <c r="CJ65" s="9"/>
+      <c r="CI65" s="28">
+        <v>10501.198522735152</v>
+      </c>
+      <c r="CJ65" s="28">
+        <v>18225.829885095707</v>
+      </c>
       <c r="CK65" s="9"/>
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
@@ -14923,25 +15014,27 @@
       <c r="CC66" s="11">
         <v>20720.546302095605</v>
       </c>
-      <c r="CD66" s="29">
+      <c r="CD66" s="28">
         <v>29022.832078157226</v>
       </c>
-      <c r="CE66" s="29">
+      <c r="CE66" s="28">
         <v>11729.363327801439</v>
       </c>
-      <c r="CF66" s="29">
+      <c r="CF66" s="28">
         <v>19765.22720785725</v>
       </c>
-      <c r="CG66" s="29">
+      <c r="CG66" s="28">
         <v>17676.343876338105</v>
       </c>
-      <c r="CH66" s="29">
+      <c r="CH66" s="28">
         <v>24576.155721418509</v>
       </c>
-      <c r="CI66" s="29">
-        <v>14606.954165576772</v>
-      </c>
-      <c r="CJ66" s="9"/>
+      <c r="CI66" s="28">
+        <v>15224.468693808582</v>
+      </c>
+      <c r="CJ66" s="28">
+        <v>20778.341790542123</v>
+      </c>
       <c r="CK66" s="9"/>
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
@@ -15251,25 +15344,27 @@
       <c r="CC67" s="8">
         <v>191527.62967591008</v>
       </c>
-      <c r="CD67" s="28">
+      <c r="CD67" s="27">
         <v>184278.38882881685</v>
       </c>
-      <c r="CE67" s="28">
+      <c r="CE67" s="27">
         <v>46194.673983231238</v>
       </c>
-      <c r="CF67" s="28">
+      <c r="CF67" s="27">
         <v>98079.033016766698</v>
       </c>
-      <c r="CG67" s="28">
+      <c r="CG67" s="27">
         <v>125921.35182434383</v>
       </c>
-      <c r="CH67" s="28">
+      <c r="CH67" s="27">
         <v>145929.5727557826</v>
       </c>
-      <c r="CI67" s="28">
-        <v>117448.62254201525</v>
-      </c>
-      <c r="CJ67" s="9"/>
+      <c r="CI67" s="27">
+        <v>122268.88185330947</v>
+      </c>
+      <c r="CJ67" s="27">
+        <v>111555.519239901</v>
+      </c>
       <c r="CK67" s="9"/>
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
@@ -15579,25 +15674,27 @@
       <c r="CC68" s="11">
         <v>164267.2443091225</v>
       </c>
-      <c r="CD68" s="29">
+      <c r="CD68" s="28">
         <v>172432.13705236468</v>
       </c>
-      <c r="CE68" s="29">
+      <c r="CE68" s="28">
         <v>38743.529280477451</v>
       </c>
-      <c r="CF68" s="29">
+      <c r="CF68" s="28">
         <v>95072.703002154769</v>
       </c>
-      <c r="CG68" s="29">
+      <c r="CG68" s="28">
         <v>117678.66511679393</v>
       </c>
-      <c r="CH68" s="29">
+      <c r="CH68" s="28">
         <v>135503.61169124351</v>
       </c>
-      <c r="CI68" s="29">
-        <v>108464.90520671592</v>
-      </c>
-      <c r="CJ68" s="9"/>
+      <c r="CI68" s="28">
+        <v>112150.48528369128</v>
+      </c>
+      <c r="CJ68" s="28">
+        <v>107516.39985025494</v>
+      </c>
       <c r="CK68" s="9"/>
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
@@ -15907,25 +16004,27 @@
       <c r="CC69" s="11">
         <v>459.79202753077828</v>
       </c>
-      <c r="CD69" s="29">
+      <c r="CD69" s="28">
         <v>952.98271794050095</v>
       </c>
-      <c r="CE69" s="29">
+      <c r="CE69" s="28">
         <v>29.272083586243703</v>
       </c>
-      <c r="CF69" s="29">
+      <c r="CF69" s="28">
         <v>4.5194223851542255</v>
       </c>
-      <c r="CG69" s="29">
+      <c r="CG69" s="28">
         <v>1061.7041018078767</v>
       </c>
-      <c r="CH69" s="29">
+      <c r="CH69" s="28">
         <v>2382.8817165859368</v>
       </c>
-      <c r="CI69" s="29">
-        <v>4.705297873739875</v>
-      </c>
-      <c r="CJ69" s="9"/>
+      <c r="CI69" s="28">
+        <v>16.962026802657096</v>
+      </c>
+      <c r="CJ69" s="28">
+        <v>1014.7126393457416</v>
+      </c>
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
@@ -16235,25 +16334,27 @@
       <c r="CC70" s="11">
         <v>23764.576767983799</v>
       </c>
-      <c r="CD70" s="29">
+      <c r="CD70" s="28">
         <v>9531.7450136771768</v>
       </c>
-      <c r="CE70" s="29">
+      <c r="CE70" s="28">
         <v>3101.2573632063081</v>
       </c>
-      <c r="CF70" s="29">
+      <c r="CF70" s="28">
         <v>2188.8977689507574</v>
       </c>
-      <c r="CG70" s="29">
+      <c r="CG70" s="28">
         <v>6285.6721429445324</v>
       </c>
-      <c r="CH70" s="29">
+      <c r="CH70" s="28">
         <v>1445.1984446426779</v>
       </c>
-      <c r="CI70" s="29">
-        <v>8469.9554356761346</v>
-      </c>
-      <c r="CJ70" s="9"/>
+      <c r="CI70" s="28">
+        <v>8591.6251274505375</v>
+      </c>
+      <c r="CJ70" s="28">
+        <v>2096.0150708906335</v>
+      </c>
       <c r="CK70" s="9"/>
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
@@ -16563,25 +16664,27 @@
       <c r="CC71" s="11">
         <v>3036.0165712730122</v>
       </c>
-      <c r="CD71" s="29">
+      <c r="CD71" s="28">
         <v>1361.5240448345121</v>
       </c>
-      <c r="CE71" s="29">
+      <c r="CE71" s="28">
         <v>4320.615255961241</v>
       </c>
-      <c r="CF71" s="29">
+      <c r="CF71" s="28">
         <v>812.91282327601562</v>
       </c>
-      <c r="CG71" s="29">
+      <c r="CG71" s="28">
         <v>895.31046279750126</v>
       </c>
-      <c r="CH71" s="29">
+      <c r="CH71" s="28">
         <v>6597.8809033104517</v>
       </c>
-      <c r="CI71" s="29">
-        <v>509.05660174945348</v>
-      </c>
-      <c r="CJ71" s="9"/>
+      <c r="CI71" s="28">
+        <v>1509.8094153650025</v>
+      </c>
+      <c r="CJ71" s="28">
+        <v>928.39167940969219</v>
+      </c>
       <c r="CK71" s="9"/>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
@@ -16891,25 +16994,27 @@
       <c r="CC72" s="8">
         <v>46926.418462670881</v>
       </c>
-      <c r="CD72" s="28">
+      <c r="CD72" s="27">
         <v>54013.870202664657</v>
       </c>
-      <c r="CE72" s="28">
+      <c r="CE72" s="27">
         <v>45180.568325188258</v>
       </c>
-      <c r="CF72" s="28">
+      <c r="CF72" s="27">
         <v>48170.814279113154</v>
       </c>
-      <c r="CG72" s="28">
+      <c r="CG72" s="27">
         <v>38931.399488497846</v>
       </c>
-      <c r="CH72" s="28">
+      <c r="CH72" s="27">
         <v>54991.276776979648</v>
       </c>
-      <c r="CI72" s="28">
-        <v>75422.701178661664</v>
-      </c>
-      <c r="CJ72" s="9"/>
+      <c r="CI72" s="27">
+        <v>77377.549275360623</v>
+      </c>
+      <c r="CJ72" s="27">
+        <v>50857.035861928809</v>
+      </c>
       <c r="CK72" s="9"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
@@ -17219,25 +17324,27 @@
       <c r="CC73" s="11">
         <v>2473.4036698730979</v>
       </c>
-      <c r="CD73" s="29">
+      <c r="CD73" s="28">
         <v>3809.8833581161307</v>
       </c>
-      <c r="CE73" s="29">
+      <c r="CE73" s="28">
         <v>3345.940600506096</v>
       </c>
-      <c r="CF73" s="29">
+      <c r="CF73" s="28">
         <v>5324.7342699955352</v>
       </c>
-      <c r="CG73" s="29">
+      <c r="CG73" s="28">
         <v>3399.7361086404549</v>
       </c>
-      <c r="CH73" s="29">
+      <c r="CH73" s="28">
         <v>4866.9806404204664</v>
       </c>
-      <c r="CI73" s="29">
-        <v>8237.7260682886481</v>
-      </c>
-      <c r="CJ73" s="9"/>
+      <c r="CI73" s="28">
+        <v>8350.4926399425567</v>
+      </c>
+      <c r="CJ73" s="28">
+        <v>3791.7387171800065</v>
+      </c>
       <c r="CK73" s="9"/>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
@@ -17547,25 +17654,27 @@
       <c r="CC74" s="11">
         <v>7333.7287226061126</v>
       </c>
-      <c r="CD74" s="29">
+      <c r="CD74" s="28">
         <v>10642.698961026426</v>
       </c>
-      <c r="CE74" s="29">
+      <c r="CE74" s="28">
         <v>6438.0983623157754</v>
       </c>
-      <c r="CF74" s="29">
+      <c r="CF74" s="28">
         <v>7214.57205480423</v>
       </c>
-      <c r="CG74" s="29">
+      <c r="CG74" s="28">
         <v>6145.0275592010576</v>
       </c>
-      <c r="CH74" s="29">
+      <c r="CH74" s="28">
         <v>11246.629254588155</v>
       </c>
-      <c r="CI74" s="29">
-        <v>12729.03790296767</v>
-      </c>
-      <c r="CJ74" s="9"/>
+      <c r="CI74" s="28">
+        <v>13041.375562555797</v>
+      </c>
+      <c r="CJ74" s="28">
+        <v>7749.746380407485</v>
+      </c>
       <c r="CK74" s="9"/>
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
@@ -17875,25 +17984,27 @@
       <c r="CC75" s="11">
         <v>25186.201016870127</v>
       </c>
-      <c r="CD75" s="29">
+      <c r="CD75" s="28">
         <v>25230.34730149166</v>
       </c>
-      <c r="CE75" s="29">
+      <c r="CE75" s="28">
         <v>27926.851978897888</v>
       </c>
-      <c r="CF75" s="29">
+      <c r="CF75" s="28">
         <v>25979.030605281343</v>
       </c>
-      <c r="CG75" s="29">
+      <c r="CG75" s="28">
         <v>19075.895362324642</v>
       </c>
-      <c r="CH75" s="29">
+      <c r="CH75" s="28">
         <v>22734.703139242556</v>
       </c>
-      <c r="CI75" s="29">
-        <v>38906.56009992375</v>
-      </c>
-      <c r="CJ75" s="9"/>
+      <c r="CI75" s="28">
+        <v>39833.645052084423</v>
+      </c>
+      <c r="CJ75" s="28">
+        <v>30533.02614753785</v>
+      </c>
       <c r="CK75" s="9"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
@@ -18203,25 +18314,27 @@
       <c r="CC76" s="11">
         <v>11933.085053321542</v>
       </c>
-      <c r="CD76" s="29">
+      <c r="CD76" s="28">
         <v>14330.940582030438</v>
       </c>
-      <c r="CE76" s="29">
+      <c r="CE76" s="28">
         <v>7469.6773834685027</v>
       </c>
-      <c r="CF76" s="29">
+      <c r="CF76" s="28">
         <v>9652.4773490320404</v>
       </c>
-      <c r="CG76" s="29">
+      <c r="CG76" s="28">
         <v>10310.740458331686</v>
       </c>
-      <c r="CH76" s="29">
+      <c r="CH76" s="28">
         <v>16142.963742728469</v>
       </c>
-      <c r="CI76" s="29">
-        <v>15549.377107481603</v>
-      </c>
-      <c r="CJ76" s="9"/>
+      <c r="CI76" s="28">
+        <v>16152.036020777845</v>
+      </c>
+      <c r="CJ76" s="28">
+        <v>8782.5246168034737</v>
+      </c>
       <c r="CK76" s="9"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
@@ -18368,13 +18481,13 @@
       <c r="CA77" s="9"/>
       <c r="CB77" s="9"/>
       <c r="CC77" s="9"/>
-      <c r="CD77" s="30"/>
-      <c r="CE77" s="30"/>
-      <c r="CF77" s="30"/>
-      <c r="CG77" s="30"/>
-      <c r="CH77" s="30"/>
-      <c r="CI77" s="30"/>
-      <c r="CJ77" s="9"/>
+      <c r="CD77" s="29"/>
+      <c r="CE77" s="29"/>
+      <c r="CF77" s="29"/>
+      <c r="CG77" s="29"/>
+      <c r="CH77" s="29"/>
+      <c r="CI77" s="29"/>
+      <c r="CJ77" s="29"/>
       <c r="CK77" s="9"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
@@ -18684,25 +18797,27 @@
       <c r="CC78" s="13">
         <v>362607.47384487157</v>
       </c>
-      <c r="CD78" s="31">
+      <c r="CD78" s="30">
         <v>344504.4562604035</v>
       </c>
-      <c r="CE78" s="31">
+      <c r="CE78" s="30">
         <v>136798.16580399626</v>
       </c>
-      <c r="CF78" s="31">
+      <c r="CF78" s="30">
         <v>246407.06696395442</v>
       </c>
-      <c r="CG78" s="31">
+      <c r="CG78" s="30">
         <v>273742.45276711253</v>
       </c>
-      <c r="CH78" s="31">
+      <c r="CH78" s="30">
         <v>309098.61822711234</v>
       </c>
-      <c r="CI78" s="31">
-        <v>258809.29485870307</v>
-      </c>
-      <c r="CJ78" s="9"/>
+      <c r="CI78" s="30">
+        <v>267673.7558315217</v>
+      </c>
+      <c r="CJ78" s="30">
+        <v>266061.76658889547</v>
+      </c>
       <c r="CK78" s="9"/>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
@@ -18850,12 +18965,13 @@
       <c r="CA79" s="14"/>
       <c r="CB79" s="14"/>
       <c r="CC79" s="14"/>
-      <c r="CD79" s="32"/>
-      <c r="CE79" s="32"/>
-      <c r="CF79" s="32"/>
-      <c r="CG79" s="32"/>
-      <c r="CH79" s="32"/>
-      <c r="CI79" s="32"/>
+      <c r="CD79" s="31"/>
+      <c r="CE79" s="31"/>
+      <c r="CF79" s="31"/>
+      <c r="CG79" s="31"/>
+      <c r="CH79" s="31"/>
+      <c r="CI79" s="31"/>
+      <c r="CJ79" s="31"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -18964,13 +19080,13 @@
       <c r="CA81" s="18"/>
       <c r="CB81" s="18"/>
       <c r="CC81" s="18"/>
-      <c r="CD81" s="34"/>
-      <c r="CE81" s="34"/>
-      <c r="CF81" s="34"/>
-      <c r="CG81" s="34"/>
-      <c r="CH81" s="34"/>
-      <c r="CI81" s="34"/>
-      <c r="CJ81" s="18"/>
+      <c r="CD81" s="33"/>
+      <c r="CE81" s="33"/>
+      <c r="CF81" s="33"/>
+      <c r="CG81" s="33"/>
+      <c r="CH81" s="33"/>
+      <c r="CI81" s="33"/>
+      <c r="CJ81" s="33"/>
       <c r="CK81" s="18"/>
       <c r="CL81" s="18"/>
       <c r="CM81" s="18"/>
@@ -19118,13 +19234,13 @@
       <c r="CA82" s="18"/>
       <c r="CB82" s="18"/>
       <c r="CC82" s="18"/>
-      <c r="CD82" s="34"/>
-      <c r="CE82" s="34"/>
-      <c r="CF82" s="34"/>
-      <c r="CG82" s="34"/>
-      <c r="CH82" s="34"/>
-      <c r="CI82" s="34"/>
-      <c r="CJ82" s="18"/>
+      <c r="CD82" s="33"/>
+      <c r="CE82" s="33"/>
+      <c r="CF82" s="33"/>
+      <c r="CG82" s="33"/>
+      <c r="CH82" s="33"/>
+      <c r="CI82" s="33"/>
+      <c r="CJ82" s="33"/>
       <c r="CK82" s="18"/>
       <c r="CL82" s="18"/>
       <c r="CM82" s="18"/>
@@ -19222,136 +19338,135 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="37" t="s">
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="37" t="s">
+      <c r="G91" s="40"/>
+      <c r="H91" s="40"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="37" t="s">
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
+      <c r="M91" s="40"/>
+      <c r="N91" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
-      <c r="R91" s="37" t="s">
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="40"/>
+      <c r="R91" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="37" t="s">
+      <c r="S91" s="40"/>
+      <c r="T91" s="40"/>
+      <c r="U91" s="40"/>
+      <c r="V91" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="38"/>
-      <c r="X91" s="38"/>
-      <c r="Y91" s="38"/>
-      <c r="Z91" s="37" t="s">
+      <c r="W91" s="40"/>
+      <c r="X91" s="40"/>
+      <c r="Y91" s="40"/>
+      <c r="Z91" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="38"/>
-      <c r="AB91" s="38"/>
-      <c r="AC91" s="38"/>
-      <c r="AD91" s="37" t="s">
+      <c r="AA91" s="40"/>
+      <c r="AB91" s="40"/>
+      <c r="AC91" s="40"/>
+      <c r="AD91" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="38"/>
-      <c r="AF91" s="38"/>
-      <c r="AG91" s="38"/>
-      <c r="AH91" s="37" t="s">
+      <c r="AE91" s="40"/>
+      <c r="AF91" s="40"/>
+      <c r="AG91" s="40"/>
+      <c r="AH91" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="38"/>
-      <c r="AL91" s="37" t="s">
+      <c r="AI91" s="40"/>
+      <c r="AJ91" s="40"/>
+      <c r="AK91" s="40"/>
+      <c r="AL91" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="38"/>
-      <c r="AN91" s="38"/>
-      <c r="AO91" s="38"/>
-      <c r="AP91" s="37" t="s">
+      <c r="AM91" s="40"/>
+      <c r="AN91" s="40"/>
+      <c r="AO91" s="40"/>
+      <c r="AP91" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="38"/>
-      <c r="AR91" s="38"/>
-      <c r="AS91" s="38"/>
-      <c r="AT91" s="37" t="s">
+      <c r="AQ91" s="40"/>
+      <c r="AR91" s="40"/>
+      <c r="AS91" s="40"/>
+      <c r="AT91" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="38"/>
-      <c r="AV91" s="38"/>
-      <c r="AW91" s="38"/>
-      <c r="AX91" s="37" t="s">
+      <c r="AU91" s="40"/>
+      <c r="AV91" s="40"/>
+      <c r="AW91" s="40"/>
+      <c r="AX91" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="38"/>
-      <c r="AZ91" s="38"/>
-      <c r="BA91" s="38"/>
-      <c r="BB91" s="37" t="s">
+      <c r="AY91" s="40"/>
+      <c r="AZ91" s="40"/>
+      <c r="BA91" s="40"/>
+      <c r="BB91" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="38"/>
-      <c r="BD91" s="38"/>
-      <c r="BE91" s="38"/>
-      <c r="BF91" s="37" t="s">
+      <c r="BC91" s="40"/>
+      <c r="BD91" s="40"/>
+      <c r="BE91" s="40"/>
+      <c r="BF91" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="38"/>
-      <c r="BH91" s="38"/>
-      <c r="BI91" s="38"/>
-      <c r="BJ91" s="37" t="s">
+      <c r="BG91" s="40"/>
+      <c r="BH91" s="40"/>
+      <c r="BI91" s="40"/>
+      <c r="BJ91" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="38"/>
-      <c r="BL91" s="38"/>
-      <c r="BM91" s="38"/>
-      <c r="BN91" s="37" t="s">
+      <c r="BK91" s="40"/>
+      <c r="BL91" s="40"/>
+      <c r="BM91" s="40"/>
+      <c r="BN91" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="38"/>
-      <c r="BP91" s="38"/>
-      <c r="BQ91" s="38"/>
-      <c r="BR91" s="37" t="s">
+      <c r="BO91" s="40"/>
+      <c r="BP91" s="40"/>
+      <c r="BQ91" s="40"/>
+      <c r="BR91" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="38"/>
-      <c r="BT91" s="38"/>
-      <c r="BU91" s="38"/>
-      <c r="BV91" s="37" t="s">
+      <c r="BS91" s="40"/>
+      <c r="BT91" s="40"/>
+      <c r="BU91" s="40"/>
+      <c r="BV91" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="38"/>
-      <c r="BX91" s="38"/>
-      <c r="BY91" s="38"/>
-      <c r="BZ91" s="37" t="s">
+      <c r="BW91" s="40"/>
+      <c r="BX91" s="40"/>
+      <c r="BY91" s="40"/>
+      <c r="BZ91" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="37"/>
-      <c r="CB91" s="37"/>
-      <c r="CC91" s="37"/>
-      <c r="CD91" s="36" t="s">
+      <c r="CA91" s="39"/>
+      <c r="CB91" s="39"/>
+      <c r="CC91" s="39"/>
+      <c r="CD91" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF91" s="26"/>
-      <c r="CG91" s="26"/>
-      <c r="CH91" s="26"/>
-      <c r="CI91" s="26"/>
+      <c r="CE91" s="41"/>
+      <c r="CF91" s="41"/>
+      <c r="CG91" s="35"/>
+      <c r="CH91" s="35"/>
+      <c r="CI91" s="35"/>
+      <c r="CJ91" s="35"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -19597,16 +19712,19 @@
       <c r="CC92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD92" s="33" t="s">
+      <c r="CD92" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE92" s="33" t="s">
+      <c r="CE92" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF92" s="27"/>
-      <c r="CG92" s="27"/>
-      <c r="CH92" s="27"/>
-      <c r="CI92" s="27"/>
+      <c r="CF92" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG92" s="26"/>
+      <c r="CH92" s="26"/>
+      <c r="CI92" s="26"/>
+      <c r="CJ92" s="26"/>
     </row>
     <row r="93" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
@@ -19855,17 +19973,19 @@
       <c r="CC94" s="18">
         <v>-9.1599306779590393</v>
       </c>
-      <c r="CD94" s="34">
+      <c r="CD94" s="33">
         <v>7.7579192681995579</v>
       </c>
-      <c r="CE94" s="34">
-        <v>73.229462400478127</v>
-      </c>
-      <c r="CF94" s="30"/>
-      <c r="CG94" s="30"/>
-      <c r="CH94" s="30"/>
-      <c r="CI94" s="30"/>
-      <c r="CJ94" s="9"/>
+      <c r="CE94" s="33">
+        <v>77.358063189846831</v>
+      </c>
+      <c r="CF94" s="33">
+        <v>7.9673983098866188</v>
+      </c>
+      <c r="CG94" s="29"/>
+      <c r="CH94" s="29"/>
+      <c r="CI94" s="29"/>
+      <c r="CJ94" s="29"/>
       <c r="CK94" s="9"/>
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
@@ -20170,17 +20290,19 @@
       <c r="CC95" s="18">
         <v>68.070715667901879</v>
       </c>
-      <c r="CD95" s="34">
+      <c r="CD95" s="33">
         <v>86.403125672959021</v>
       </c>
-      <c r="CE95" s="34">
-        <v>146.38194827437462</v>
-      </c>
-      <c r="CF95" s="30"/>
-      <c r="CG95" s="30"/>
-      <c r="CH95" s="30"/>
-      <c r="CI95" s="30"/>
-      <c r="CJ95" s="9"/>
+      <c r="CE95" s="33">
+        <v>150.1786202198449</v>
+      </c>
+      <c r="CF95" s="33">
+        <v>62.400003851556789</v>
+      </c>
+      <c r="CG95" s="29"/>
+      <c r="CH95" s="29"/>
+      <c r="CI95" s="29"/>
+      <c r="CJ95" s="29"/>
       <c r="CK95" s="9"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
@@ -20485,17 +20607,19 @@
       <c r="CC96" s="18">
         <v>-51.663890439673025</v>
       </c>
-      <c r="CD96" s="34">
+      <c r="CD96" s="33">
         <v>-30.696862540686695</v>
       </c>
-      <c r="CE96" s="34">
-        <v>73.846268575885347</v>
-      </c>
-      <c r="CF96" s="30"/>
-      <c r="CG96" s="30"/>
-      <c r="CH96" s="30"/>
-      <c r="CI96" s="30"/>
-      <c r="CJ96" s="9"/>
+      <c r="CE96" s="33">
+        <v>80.306619073970865</v>
+      </c>
+      <c r="CF96" s="33">
+        <v>63.736266904864351</v>
+      </c>
+      <c r="CG96" s="29"/>
+      <c r="CH96" s="29"/>
+      <c r="CI96" s="29"/>
+      <c r="CJ96" s="29"/>
       <c r="CK96" s="9"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
@@ -20800,17 +20924,19 @@
       <c r="CC97" s="18">
         <v>-45.397606081494871</v>
       </c>
-      <c r="CD97" s="34">
+      <c r="CD97" s="33">
         <v>-28.794688537899304</v>
       </c>
-      <c r="CE97" s="34">
-        <v>17.586724662969729</v>
-      </c>
-      <c r="CF97" s="30"/>
-      <c r="CG97" s="30"/>
-      <c r="CH97" s="30"/>
-      <c r="CI97" s="30"/>
-      <c r="CJ97" s="9"/>
+      <c r="CE97" s="33">
+        <v>24.049302063440209</v>
+      </c>
+      <c r="CF97" s="33">
+        <v>-2.4026417768755124</v>
+      </c>
+      <c r="CG97" s="29"/>
+      <c r="CH97" s="29"/>
+      <c r="CI97" s="29"/>
+      <c r="CJ97" s="29"/>
       <c r="CK97" s="9"/>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
@@ -21115,17 +21241,19 @@
       <c r="CC98" s="18">
         <v>-62.483224322889811</v>
       </c>
-      <c r="CD98" s="34">
+      <c r="CD98" s="33">
         <v>-73.36614368074973</v>
       </c>
-      <c r="CE98" s="34">
-        <v>-8.7559457249238619</v>
-      </c>
-      <c r="CF98" s="30"/>
-      <c r="CG98" s="30"/>
-      <c r="CH98" s="30"/>
-      <c r="CI98" s="30"/>
-      <c r="CJ98" s="9"/>
+      <c r="CE98" s="33">
+        <v>-5.922749477989953</v>
+      </c>
+      <c r="CF98" s="33">
+        <v>-7.8252760169840343</v>
+      </c>
+      <c r="CG98" s="29"/>
+      <c r="CH98" s="29"/>
+      <c r="CI98" s="29"/>
+      <c r="CJ98" s="29"/>
       <c r="CK98" s="9"/>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
@@ -21430,17 +21558,19 @@
       <c r="CC99" s="18">
         <v>-40.599952614840554</v>
       </c>
-      <c r="CD99" s="34">
+      <c r="CD99" s="33">
         <v>-19.409406771388205</v>
       </c>
-      <c r="CE99" s="34">
-        <v>27.682516822692719</v>
-      </c>
-      <c r="CF99" s="30"/>
-      <c r="CG99" s="30"/>
-      <c r="CH99" s="30"/>
-      <c r="CI99" s="30"/>
-      <c r="CJ99" s="9"/>
+      <c r="CE99" s="33">
+        <v>33.727980348589625</v>
+      </c>
+      <c r="CF99" s="33">
+        <v>14.337382551475912</v>
+      </c>
+      <c r="CG99" s="29"/>
+      <c r="CH99" s="29"/>
+      <c r="CI99" s="29"/>
+      <c r="CJ99" s="29"/>
       <c r="CK99" s="9"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
@@ -21745,17 +21875,19 @@
       <c r="CC100" s="18">
         <v>17.241888614235449</v>
       </c>
-      <c r="CD100" s="34">
+      <c r="CD100" s="33">
         <v>18.695090446019762</v>
       </c>
-      <c r="CE100" s="34">
-        <v>82.930222479884748</v>
-      </c>
-      <c r="CF100" s="30"/>
-      <c r="CG100" s="30"/>
-      <c r="CH100" s="30"/>
-      <c r="CI100" s="30"/>
-      <c r="CJ100" s="9"/>
+      <c r="CE100" s="33">
+        <v>85.487656975139856</v>
+      </c>
+      <c r="CF100" s="33">
+        <v>-18.507958606147511</v>
+      </c>
+      <c r="CG100" s="29"/>
+      <c r="CH100" s="29"/>
+      <c r="CI100" s="29"/>
+      <c r="CJ100" s="29"/>
       <c r="CK100" s="9"/>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
@@ -22060,17 +22192,19 @@
       <c r="CC101" s="18">
         <v>-34.765912280294955</v>
       </c>
-      <c r="CD101" s="34">
+      <c r="CD101" s="33">
         <v>6.2843913213488349</v>
       </c>
-      <c r="CE101" s="34">
-        <v>-11.769242428706661</v>
-      </c>
-      <c r="CF101" s="30"/>
-      <c r="CG101" s="30"/>
-      <c r="CH101" s="30"/>
-      <c r="CI101" s="30"/>
-      <c r="CJ101" s="9"/>
+      <c r="CE101" s="33">
+        <v>-10.865213100222732</v>
+      </c>
+      <c r="CF101" s="33">
+        <v>-48.807789272006005</v>
+      </c>
+      <c r="CG101" s="29"/>
+      <c r="CH101" s="29"/>
+      <c r="CI101" s="29"/>
+      <c r="CJ101" s="29"/>
       <c r="CK101" s="9"/>
       <c r="CL101" s="9"/>
       <c r="CM101" s="9"/>
@@ -22375,17 +22509,19 @@
       <c r="CC102" s="18">
         <v>-30.249509625500011</v>
       </c>
-      <c r="CD102" s="34">
+      <c r="CD102" s="33">
         <v>20.861636439189695</v>
       </c>
-      <c r="CE102" s="34">
-        <v>72.358726624762539</v>
-      </c>
-      <c r="CF102" s="30"/>
-      <c r="CG102" s="30"/>
-      <c r="CH102" s="30"/>
-      <c r="CI102" s="30"/>
-      <c r="CJ102" s="9"/>
+      <c r="CE102" s="33">
+        <v>76.993698982095452</v>
+      </c>
+      <c r="CF102" s="33">
+        <v>25.294787917345232</v>
+      </c>
+      <c r="CG102" s="29"/>
+      <c r="CH102" s="29"/>
+      <c r="CI102" s="29"/>
+      <c r="CJ102" s="29"/>
       <c r="CK102" s="9"/>
       <c r="CL102" s="9"/>
       <c r="CM102" s="9"/>
@@ -22690,17 +22826,19 @@
       <c r="CC103" s="18">
         <v>-19.097193806477591</v>
       </c>
-      <c r="CD103" s="34">
+      <c r="CD103" s="33">
         <v>-15.176995691049299</v>
       </c>
-      <c r="CE103" s="34">
-        <v>19.086480517913969</v>
-      </c>
-      <c r="CF103" s="30"/>
-      <c r="CG103" s="30"/>
-      <c r="CH103" s="30"/>
-      <c r="CI103" s="30"/>
-      <c r="CJ103" s="9"/>
+      <c r="CE103" s="33">
+        <v>23.569769287476845</v>
+      </c>
+      <c r="CF103" s="33">
+        <v>6.7654818894544917</v>
+      </c>
+      <c r="CG103" s="29"/>
+      <c r="CH103" s="29"/>
+      <c r="CI103" s="29"/>
+      <c r="CJ103" s="29"/>
       <c r="CK103" s="9"/>
       <c r="CL103" s="9"/>
       <c r="CM103" s="9"/>
@@ -23005,17 +23143,19 @@
       <c r="CC104" s="18">
         <v>-24.136190680570962</v>
       </c>
-      <c r="CD104" s="34">
+      <c r="CD104" s="33">
         <v>-25.831836020404623</v>
       </c>
-      <c r="CE104" s="34">
-        <v>64.404198945654116</v>
-      </c>
-      <c r="CF104" s="30"/>
-      <c r="CG104" s="30"/>
-      <c r="CH104" s="30"/>
-      <c r="CI104" s="30"/>
-      <c r="CJ104" s="9"/>
+      <c r="CE104" s="33">
+        <v>67.575949327781672</v>
+      </c>
+      <c r="CF104" s="33">
+        <v>-8.2307248390782775</v>
+      </c>
+      <c r="CG104" s="29"/>
+      <c r="CH104" s="29"/>
+      <c r="CI104" s="29"/>
+      <c r="CJ104" s="29"/>
       <c r="CK104" s="9"/>
       <c r="CL104" s="9"/>
       <c r="CM104" s="9"/>
@@ -23320,17 +23460,19 @@
       <c r="CC105" s="18">
         <v>-23.381710080747382</v>
       </c>
-      <c r="CD105" s="34">
+      <c r="CD105" s="33">
         <v>-7.8846425500879604</v>
       </c>
-      <c r="CE105" s="34">
-        <v>57.172433241236575</v>
-      </c>
-      <c r="CF105" s="30"/>
-      <c r="CG105" s="30"/>
-      <c r="CH105" s="30"/>
-      <c r="CI105" s="30"/>
-      <c r="CJ105" s="9"/>
+      <c r="CE105" s="33">
+        <v>63.768678445534732</v>
+      </c>
+      <c r="CF105" s="33">
+        <v>6.7179860880274731</v>
+      </c>
+      <c r="CG105" s="29"/>
+      <c r="CH105" s="29"/>
+      <c r="CI105" s="29"/>
+      <c r="CJ105" s="29"/>
       <c r="CK105" s="9"/>
       <c r="CL105" s="9"/>
       <c r="CM105" s="9"/>
@@ -23635,17 +23777,19 @@
       <c r="CC106" s="18">
         <v>-13.891501046428417</v>
       </c>
-      <c r="CD106" s="34">
+      <c r="CD106" s="33">
         <v>10.159201565926352</v>
       </c>
-      <c r="CE106" s="34">
-        <v>-7.4560655995051093</v>
-      </c>
-      <c r="CF106" s="30"/>
-      <c r="CG106" s="30"/>
-      <c r="CH106" s="30"/>
-      <c r="CI106" s="30"/>
-      <c r="CJ106" s="9"/>
+      <c r="CE106" s="33">
+        <v>-3.1604496016480113</v>
+      </c>
+      <c r="CF106" s="33">
+        <v>16.087172732815674</v>
+      </c>
+      <c r="CG106" s="29"/>
+      <c r="CH106" s="29"/>
+      <c r="CI106" s="29"/>
+      <c r="CJ106" s="29"/>
       <c r="CK106" s="9"/>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
@@ -23950,17 +24094,19 @@
       <c r="CC107" s="18">
         <v>-19.39298617035638</v>
       </c>
-      <c r="CD107" s="34">
+      <c r="CD107" s="33">
         <v>-23.185906766892259</v>
       </c>
-      <c r="CE107" s="34">
-        <v>19.892505730838138</v>
-      </c>
-      <c r="CF107" s="30"/>
-      <c r="CG107" s="30"/>
-      <c r="CH107" s="30"/>
-      <c r="CI107" s="30"/>
-      <c r="CJ107" s="9"/>
+      <c r="CE107" s="33">
+        <v>24.475917425819489</v>
+      </c>
+      <c r="CF107" s="33">
+        <v>6.3001127425238934</v>
+      </c>
+      <c r="CG107" s="29"/>
+      <c r="CH107" s="29"/>
+      <c r="CI107" s="29"/>
+      <c r="CJ107" s="29"/>
       <c r="CK107" s="9"/>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
@@ -24265,17 +24411,19 @@
       <c r="CC108" s="18">
         <v>-39.986808121274628</v>
       </c>
-      <c r="CD108" s="34">
+      <c r="CD108" s="33">
         <v>-19.855796620538726</v>
       </c>
-      <c r="CE108" s="34">
-        <v>149.22893824149622</v>
-      </c>
-      <c r="CF108" s="30"/>
-      <c r="CG108" s="30"/>
-      <c r="CH108" s="30"/>
-      <c r="CI108" s="30"/>
-      <c r="CJ108" s="9"/>
+      <c r="CE108" s="33">
+        <v>159.43661338301717</v>
+      </c>
+      <c r="CF108" s="33">
+        <v>18.116895532691117</v>
+      </c>
+      <c r="CG108" s="29"/>
+      <c r="CH108" s="29"/>
+      <c r="CI108" s="29"/>
+      <c r="CJ108" s="29"/>
       <c r="CK108" s="9"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
@@ -24580,17 +24728,19 @@
       <c r="CC109" s="18">
         <v>-34.561698295498459</v>
       </c>
-      <c r="CD109" s="34">
+      <c r="CD109" s="33">
         <v>-20.575300099548869</v>
       </c>
-      <c r="CE109" s="34">
-        <v>173.5987288711774</v>
-      </c>
-      <c r="CF109" s="30"/>
-      <c r="CG109" s="30"/>
-      <c r="CH109" s="30"/>
-      <c r="CI109" s="30"/>
-      <c r="CJ109" s="9"/>
+      <c r="CE109" s="33">
+        <v>182.92215593076224</v>
+      </c>
+      <c r="CF109" s="33">
+        <v>17.353554189702081</v>
+      </c>
+      <c r="CG109" s="29"/>
+      <c r="CH109" s="29"/>
+      <c r="CI109" s="29"/>
+      <c r="CJ109" s="29"/>
       <c r="CK109" s="9"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
@@ -24895,17 +25045,19 @@
       <c r="CC110" s="18">
         <v>121.7416476279765</v>
       </c>
-      <c r="CD110" s="34">
+      <c r="CD110" s="33">
         <v>144.6658031818564</v>
       </c>
-      <c r="CE110" s="34">
-        <v>-84.217703653156633</v>
-      </c>
-      <c r="CF110" s="30"/>
-      <c r="CG110" s="30"/>
-      <c r="CH110" s="30"/>
-      <c r="CI110" s="30"/>
-      <c r="CJ110" s="9"/>
+      <c r="CE110" s="33">
+        <v>-43.106740353961769</v>
+      </c>
+      <c r="CF110" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG110" s="29"/>
+      <c r="CH110" s="29"/>
+      <c r="CI110" s="29"/>
+      <c r="CJ110" s="29"/>
       <c r="CK110" s="9"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
@@ -25210,17 +25362,19 @@
       <c r="CC111" s="18">
         <v>-74.660572928732591</v>
       </c>
-      <c r="CD111" s="34">
+      <c r="CD111" s="33">
         <v>-85.561035880982629</v>
       </c>
-      <c r="CE111" s="34">
-        <v>168.14565463075439</v>
-      </c>
-      <c r="CF111" s="30"/>
-      <c r="CG111" s="30"/>
-      <c r="CH111" s="30"/>
-      <c r="CI111" s="30"/>
-      <c r="CJ111" s="9"/>
+      <c r="CE111" s="33">
+        <v>171.99882038429541</v>
+      </c>
+      <c r="CF111" s="33">
+        <v>1.1514191227623058</v>
+      </c>
+      <c r="CG111" s="29"/>
+      <c r="CH111" s="29"/>
+      <c r="CI111" s="29"/>
+      <c r="CJ111" s="29"/>
       <c r="CK111" s="9"/>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
@@ -25525,17 +25679,19 @@
       <c r="CC112" s="18">
         <v>-72.983613037786682</v>
       </c>
-      <c r="CD112" s="34">
+      <c r="CD112" s="33">
         <v>475.24024481303866</v>
       </c>
-      <c r="CE112" s="34">
-        <v>-88.431393948605333</v>
-      </c>
-      <c r="CF112" s="30"/>
-      <c r="CG112" s="30"/>
-      <c r="CH112" s="30"/>
-      <c r="CI112" s="30"/>
-      <c r="CJ112" s="9"/>
+      <c r="CE112" s="33">
+        <v>-65.685855101569672</v>
+      </c>
+      <c r="CF112" s="33">
+        <v>19.631329728279454</v>
+      </c>
+      <c r="CG112" s="29"/>
+      <c r="CH112" s="29"/>
+      <c r="CI112" s="29"/>
+      <c r="CJ112" s="29"/>
       <c r="CK112" s="9"/>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
@@ -25840,17 +25996,19 @@
       <c r="CC113" s="18">
         <v>-23.440998236249214</v>
       </c>
-      <c r="CD113" s="34">
+      <c r="CD113" s="33">
         <v>-5.2412902633264764</v>
       </c>
-      <c r="CE113" s="34">
-        <v>65.139698189433574</v>
-      </c>
-      <c r="CF113" s="30"/>
-      <c r="CG113" s="30"/>
-      <c r="CH113" s="30"/>
-      <c r="CI113" s="30"/>
-      <c r="CJ113" s="9"/>
+      <c r="CE113" s="33">
+        <v>69.739842999131497</v>
+      </c>
+      <c r="CF113" s="33">
+        <v>9.0801483454185217</v>
+      </c>
+      <c r="CG113" s="29"/>
+      <c r="CH113" s="29"/>
+      <c r="CI113" s="29"/>
+      <c r="CJ113" s="29"/>
       <c r="CK113" s="9"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
@@ -26155,17 +26313,19 @@
       <c r="CC114" s="18">
         <v>31.267890352720684</v>
       </c>
-      <c r="CD114" s="34">
+      <c r="CD114" s="33">
         <v>19.688246871331685</v>
       </c>
-      <c r="CE114" s="34">
-        <v>134.9186749934515</v>
-      </c>
-      <c r="CF114" s="30"/>
-      <c r="CG114" s="30"/>
-      <c r="CH114" s="30"/>
-      <c r="CI114" s="30"/>
-      <c r="CJ114" s="9"/>
+      <c r="CE114" s="33">
+        <v>138.65920662529226</v>
+      </c>
+      <c r="CF114" s="33">
+        <v>-25.52343296095863</v>
+      </c>
+      <c r="CG114" s="29"/>
+      <c r="CH114" s="29"/>
+      <c r="CI114" s="29"/>
+      <c r="CJ114" s="29"/>
       <c r="CK114" s="9"/>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
@@ -26470,17 +26630,19 @@
       <c r="CC115" s="18">
         <v>-26.992824490400196</v>
       </c>
-      <c r="CD115" s="34">
+      <c r="CD115" s="33">
         <v>-2.7936347236785792</v>
       </c>
-      <c r="CE115" s="34">
-        <v>92.863694455846911</v>
-      </c>
-      <c r="CF115" s="30"/>
-      <c r="CG115" s="30"/>
-      <c r="CH115" s="30"/>
-      <c r="CI115" s="30"/>
-      <c r="CJ115" s="9"/>
+      <c r="CE115" s="33">
+        <v>96.628125531208241</v>
+      </c>
+      <c r="CF115" s="33">
+        <v>16.05328267620088</v>
+      </c>
+      <c r="CG115" s="29"/>
+      <c r="CH115" s="29"/>
+      <c r="CI115" s="29"/>
+      <c r="CJ115" s="29"/>
       <c r="CK115" s="9"/>
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
@@ -26785,17 +26947,19 @@
       <c r="CC116" s="18">
         <v>-29.399859605092644</v>
       </c>
-      <c r="CD116" s="34">
+      <c r="CD116" s="33">
         <v>-14.76889998816948</v>
       </c>
-      <c r="CE116" s="34">
-        <v>35.326370211134645</v>
-      </c>
-      <c r="CF116" s="30"/>
-      <c r="CG116" s="30"/>
-      <c r="CH116" s="30"/>
-      <c r="CI116" s="30"/>
-      <c r="CJ116" s="9"/>
+      <c r="CE116" s="33">
+        <v>38.932413554254765</v>
+      </c>
+      <c r="CF116" s="33">
+        <v>20.497582798947448</v>
+      </c>
+      <c r="CG116" s="29"/>
+      <c r="CH116" s="29"/>
+      <c r="CI116" s="29"/>
+      <c r="CJ116" s="29"/>
       <c r="CK116" s="9"/>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
@@ -27100,17 +27264,19 @@
       <c r="CC117" s="18">
         <v>-24.178833913673657</v>
       </c>
-      <c r="CD117" s="34">
+      <c r="CD117" s="33">
         <v>5.5219311861986853</v>
       </c>
-      <c r="CE117" s="34">
-        <v>105.23144942700023</v>
-      </c>
-      <c r="CF117" s="30"/>
-      <c r="CG117" s="30"/>
-      <c r="CH117" s="30"/>
-      <c r="CI117" s="30"/>
-      <c r="CJ117" s="9"/>
+      <c r="CE117" s="33">
+        <v>113.19754321926885</v>
+      </c>
+      <c r="CF117" s="33">
+        <v>-3.575741150628815</v>
+      </c>
+      <c r="CG117" s="29"/>
+      <c r="CH117" s="29"/>
+      <c r="CI117" s="29"/>
+      <c r="CJ117" s="29"/>
       <c r="CK117" s="9"/>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
@@ -27252,13 +27418,13 @@
       <c r="CA118" s="9"/>
       <c r="CB118" s="9"/>
       <c r="CC118" s="9"/>
-      <c r="CD118" s="30"/>
-      <c r="CE118" s="30"/>
-      <c r="CF118" s="30"/>
-      <c r="CG118" s="30"/>
-      <c r="CH118" s="30"/>
-      <c r="CI118" s="30"/>
-      <c r="CJ118" s="9"/>
+      <c r="CD118" s="29"/>
+      <c r="CE118" s="29"/>
+      <c r="CF118" s="29"/>
+      <c r="CG118" s="29"/>
+      <c r="CH118" s="29"/>
+      <c r="CI118" s="29"/>
+      <c r="CJ118" s="29"/>
       <c r="CK118" s="9"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
@@ -27563,17 +27729,19 @@
       <c r="CC119" s="23">
         <v>-29.214599093506848</v>
       </c>
-      <c r="CD119" s="35">
+      <c r="CD119" s="34">
         <v>-11.95860478113535</v>
       </c>
-      <c r="CE119" s="35">
-        <v>81.299042743310736</v>
-      </c>
-      <c r="CF119" s="30"/>
-      <c r="CG119" s="30"/>
-      <c r="CH119" s="30"/>
-      <c r="CI119" s="30"/>
-      <c r="CJ119" s="9"/>
+      <c r="CE119" s="34">
+        <v>87.500025253672192</v>
+      </c>
+      <c r="CF119" s="34">
+        <v>12.184379514457234</v>
+      </c>
+      <c r="CG119" s="29"/>
+      <c r="CH119" s="29"/>
+      <c r="CI119" s="29"/>
+      <c r="CJ119" s="29"/>
       <c r="CK119" s="9"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
@@ -27716,12 +27884,13 @@
       <c r="CA120" s="14"/>
       <c r="CB120" s="14"/>
       <c r="CC120" s="14"/>
-      <c r="CD120" s="32"/>
-      <c r="CE120" s="32"/>
-      <c r="CF120" s="32"/>
-      <c r="CG120" s="32"/>
-      <c r="CH120" s="32"/>
-      <c r="CI120" s="32"/>
+      <c r="CD120" s="31"/>
+      <c r="CE120" s="31"/>
+      <c r="CF120" s="31"/>
+      <c r="CG120" s="31"/>
+      <c r="CH120" s="31"/>
+      <c r="CI120" s="31"/>
+      <c r="CJ120" s="31"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -27812,13 +27981,13 @@
       <c r="CA122" s="9"/>
       <c r="CB122" s="9"/>
       <c r="CC122" s="9"/>
-      <c r="CD122" s="30"/>
-      <c r="CE122" s="30"/>
-      <c r="CF122" s="30"/>
-      <c r="CG122" s="30"/>
-      <c r="CH122" s="30"/>
-      <c r="CI122" s="30"/>
-      <c r="CJ122" s="9"/>
+      <c r="CD122" s="29"/>
+      <c r="CE122" s="29"/>
+      <c r="CF122" s="29"/>
+      <c r="CG122" s="29"/>
+      <c r="CH122" s="29"/>
+      <c r="CI122" s="29"/>
+      <c r="CJ122" s="29"/>
       <c r="CK122" s="9"/>
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
@@ -27960,13 +28129,13 @@
       <c r="CA123" s="9"/>
       <c r="CB123" s="9"/>
       <c r="CC123" s="9"/>
-      <c r="CD123" s="30"/>
-      <c r="CE123" s="30"/>
-      <c r="CF123" s="30"/>
-      <c r="CG123" s="30"/>
-      <c r="CH123" s="30"/>
-      <c r="CI123" s="30"/>
-      <c r="CJ123" s="9"/>
+      <c r="CD123" s="29"/>
+      <c r="CE123" s="29"/>
+      <c r="CF123" s="29"/>
+      <c r="CG123" s="29"/>
+      <c r="CH123" s="29"/>
+      <c r="CI123" s="29"/>
+      <c r="CJ123" s="29"/>
       <c r="CK123" s="9"/>
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
@@ -28059,136 +28228,137 @@
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="37" t="s">
+      <c r="B132" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38"/>
-      <c r="E132" s="38"/>
-      <c r="F132" s="37" t="s">
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="38"/>
-      <c r="J132" s="37" t="s">
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="37" t="s">
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
-      <c r="Q132" s="38"/>
-      <c r="R132" s="37" t="s">
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="40"/>
+      <c r="R132" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="38"/>
-      <c r="T132" s="38"/>
-      <c r="U132" s="38"/>
-      <c r="V132" s="37" t="s">
+      <c r="S132" s="40"/>
+      <c r="T132" s="40"/>
+      <c r="U132" s="40"/>
+      <c r="V132" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="38"/>
-      <c r="X132" s="38"/>
-      <c r="Y132" s="38"/>
-      <c r="Z132" s="37" t="s">
+      <c r="W132" s="40"/>
+      <c r="X132" s="40"/>
+      <c r="Y132" s="40"/>
+      <c r="Z132" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="38"/>
-      <c r="AB132" s="38"/>
-      <c r="AC132" s="38"/>
-      <c r="AD132" s="37" t="s">
+      <c r="AA132" s="40"/>
+      <c r="AB132" s="40"/>
+      <c r="AC132" s="40"/>
+      <c r="AD132" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="38"/>
-      <c r="AF132" s="38"/>
-      <c r="AG132" s="38"/>
-      <c r="AH132" s="37" t="s">
+      <c r="AE132" s="40"/>
+      <c r="AF132" s="40"/>
+      <c r="AG132" s="40"/>
+      <c r="AH132" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="38"/>
-      <c r="AJ132" s="38"/>
-      <c r="AK132" s="38"/>
-      <c r="AL132" s="37" t="s">
+      <c r="AI132" s="40"/>
+      <c r="AJ132" s="40"/>
+      <c r="AK132" s="40"/>
+      <c r="AL132" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="38"/>
-      <c r="AN132" s="38"/>
-      <c r="AO132" s="38"/>
-      <c r="AP132" s="37" t="s">
+      <c r="AM132" s="40"/>
+      <c r="AN132" s="40"/>
+      <c r="AO132" s="40"/>
+      <c r="AP132" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="38"/>
-      <c r="AR132" s="38"/>
-      <c r="AS132" s="38"/>
-      <c r="AT132" s="37" t="s">
+      <c r="AQ132" s="40"/>
+      <c r="AR132" s="40"/>
+      <c r="AS132" s="40"/>
+      <c r="AT132" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="38"/>
-      <c r="AV132" s="38"/>
-      <c r="AW132" s="38"/>
-      <c r="AX132" s="37" t="s">
+      <c r="AU132" s="40"/>
+      <c r="AV132" s="40"/>
+      <c r="AW132" s="40"/>
+      <c r="AX132" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="38"/>
-      <c r="AZ132" s="38"/>
-      <c r="BA132" s="38"/>
-      <c r="BB132" s="37" t="s">
+      <c r="AY132" s="40"/>
+      <c r="AZ132" s="40"/>
+      <c r="BA132" s="40"/>
+      <c r="BB132" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="38"/>
-      <c r="BD132" s="38"/>
-      <c r="BE132" s="38"/>
-      <c r="BF132" s="37" t="s">
+      <c r="BC132" s="40"/>
+      <c r="BD132" s="40"/>
+      <c r="BE132" s="40"/>
+      <c r="BF132" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="38"/>
-      <c r="BH132" s="38"/>
-      <c r="BI132" s="38"/>
-      <c r="BJ132" s="37" t="s">
+      <c r="BG132" s="40"/>
+      <c r="BH132" s="40"/>
+      <c r="BI132" s="40"/>
+      <c r="BJ132" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="38"/>
-      <c r="BL132" s="38"/>
-      <c r="BM132" s="38"/>
-      <c r="BN132" s="37" t="s">
+      <c r="BK132" s="40"/>
+      <c r="BL132" s="40"/>
+      <c r="BM132" s="40"/>
+      <c r="BN132" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="38"/>
-      <c r="BP132" s="38"/>
-      <c r="BQ132" s="38"/>
-      <c r="BR132" s="37" t="s">
+      <c r="BO132" s="40"/>
+      <c r="BP132" s="40"/>
+      <c r="BQ132" s="40"/>
+      <c r="BR132" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="38"/>
-      <c r="BT132" s="38"/>
-      <c r="BU132" s="38"/>
-      <c r="BV132" s="37" t="s">
+      <c r="BS132" s="40"/>
+      <c r="BT132" s="40"/>
+      <c r="BU132" s="40"/>
+      <c r="BV132" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="38"/>
-      <c r="BX132" s="38"/>
-      <c r="BY132" s="38"/>
-      <c r="BZ132" s="37" t="s">
+      <c r="BW132" s="40"/>
+      <c r="BX132" s="40"/>
+      <c r="BY132" s="40"/>
+      <c r="BZ132" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="37"/>
-      <c r="CB132" s="37"/>
-      <c r="CC132" s="37"/>
-      <c r="CD132" s="36" t="s">
+      <c r="CA132" s="39"/>
+      <c r="CB132" s="39"/>
+      <c r="CC132" s="39"/>
+      <c r="CD132" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="36" t="s">
+      <c r="CE132" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="CF132" s="26"/>
-      <c r="CG132" s="26"/>
-      <c r="CH132" s="26"/>
-      <c r="CI132" s="26"/>
+      <c r="CF132" s="41"/>
+      <c r="CG132" s="35"/>
+      <c r="CH132" s="35"/>
+      <c r="CI132" s="35"/>
+      <c r="CJ132" s="35"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -28434,16 +28604,19 @@
       <c r="CC133" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD133" s="33" t="s">
+      <c r="CD133" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE133" s="33" t="s">
+      <c r="CE133" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF133" s="27"/>
-      <c r="CG133" s="27"/>
-      <c r="CH133" s="27"/>
-      <c r="CI133" s="27"/>
+      <c r="CF133" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG133" s="26"/>
+      <c r="CH133" s="26"/>
+      <c r="CI133" s="26"/>
+      <c r="CJ133" s="26"/>
     </row>
     <row r="134" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
@@ -28692,17 +28865,19 @@
       <c r="CC135" s="18">
         <v>-10.179870634280832</v>
       </c>
-      <c r="CD135" s="34">
+      <c r="CD135" s="33">
         <v>14.2991730422346</v>
       </c>
-      <c r="CE135" s="34">
-        <v>80.917795230204746</v>
-      </c>
-      <c r="CF135" s="30"/>
-      <c r="CG135" s="30"/>
-      <c r="CH135" s="30"/>
-      <c r="CI135" s="30"/>
-      <c r="CJ135" s="9"/>
+      <c r="CE135" s="33">
+        <v>85.211167273914128</v>
+      </c>
+      <c r="CF135" s="33">
+        <v>2.7642281647304969</v>
+      </c>
+      <c r="CG135" s="29"/>
+      <c r="CH135" s="29"/>
+      <c r="CI135" s="29"/>
+      <c r="CJ135" s="29"/>
       <c r="CK135" s="9"/>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
@@ -29007,17 +29182,19 @@
       <c r="CC136" s="18">
         <v>73.278817936274748</v>
       </c>
-      <c r="CD136" s="34">
+      <c r="CD136" s="33">
         <v>94.882737336682254</v>
       </c>
-      <c r="CE136" s="34">
-        <v>152.62368587912428</v>
-      </c>
-      <c r="CF136" s="30"/>
-      <c r="CG136" s="30"/>
-      <c r="CH136" s="30"/>
-      <c r="CI136" s="30"/>
-      <c r="CJ136" s="9"/>
+      <c r="CE136" s="33">
+        <v>156.79154093355419</v>
+      </c>
+      <c r="CF136" s="33">
+        <v>55.516591319795197</v>
+      </c>
+      <c r="CG136" s="29"/>
+      <c r="CH136" s="29"/>
+      <c r="CI136" s="29"/>
+      <c r="CJ136" s="29"/>
       <c r="CK136" s="9"/>
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
@@ -29322,17 +29499,19 @@
       <c r="CC137" s="18">
         <v>-50.542758167758237</v>
       </c>
-      <c r="CD137" s="34">
+      <c r="CD137" s="33">
         <v>-27.547401382277627</v>
       </c>
-      <c r="CE137" s="34">
-        <v>76.890118222658998</v>
-      </c>
-      <c r="CF137" s="30"/>
-      <c r="CG137" s="30"/>
-      <c r="CH137" s="30"/>
-      <c r="CI137" s="30"/>
-      <c r="CJ137" s="9"/>
+      <c r="CE137" s="33">
+        <v>83.994924637003322</v>
+      </c>
+      <c r="CF137" s="33">
+        <v>57.131303320702102</v>
+      </c>
+      <c r="CG137" s="29"/>
+      <c r="CH137" s="29"/>
+      <c r="CI137" s="29"/>
+      <c r="CJ137" s="29"/>
       <c r="CK137" s="9"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
@@ -29637,17 +29816,19 @@
       <c r="CC138" s="18">
         <v>-46.019962067730013</v>
       </c>
-      <c r="CD138" s="34">
+      <c r="CD138" s="33">
         <v>-25.183602643447884</v>
       </c>
-      <c r="CE138" s="34">
-        <v>10.294506905610447</v>
-      </c>
-      <c r="CF138" s="30"/>
-      <c r="CG138" s="30"/>
-      <c r="CH138" s="30"/>
-      <c r="CI138" s="30"/>
-      <c r="CJ138" s="9"/>
+      <c r="CE138" s="33">
+        <v>21.073368518024211</v>
+      </c>
+      <c r="CF138" s="33">
+        <v>-2.5421058083503425</v>
+      </c>
+      <c r="CG138" s="29"/>
+      <c r="CH138" s="29"/>
+      <c r="CI138" s="29"/>
+      <c r="CJ138" s="29"/>
       <c r="CK138" s="9"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
@@ -29952,17 +30133,19 @@
       <c r="CC139" s="18">
         <v>-62.448822381735098</v>
       </c>
-      <c r="CD139" s="34">
+      <c r="CD139" s="33">
         <v>-71.832740907867304</v>
       </c>
-      <c r="CE139" s="34">
-        <v>-5.9077026610467271</v>
-      </c>
-      <c r="CF139" s="30"/>
-      <c r="CG139" s="30"/>
-      <c r="CH139" s="30"/>
-      <c r="CI139" s="30"/>
-      <c r="CJ139" s="9"/>
+      <c r="CE139" s="33">
+        <v>-1.2211693479681998</v>
+      </c>
+      <c r="CF139" s="33">
+        <v>-11.303829631806551</v>
+      </c>
+      <c r="CG139" s="29"/>
+      <c r="CH139" s="29"/>
+      <c r="CI139" s="29"/>
+      <c r="CJ139" s="29"/>
       <c r="CK139" s="9"/>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
@@ -30267,17 +30450,19 @@
       <c r="CC140" s="18">
         <v>-39.153684517053797</v>
       </c>
-      <c r="CD140" s="34">
+      <c r="CD140" s="33">
         <v>-15.728820804960407</v>
       </c>
-      <c r="CE140" s="34">
-        <v>30.196446150706834</v>
-      </c>
-      <c r="CF140" s="30"/>
-      <c r="CG140" s="30"/>
-      <c r="CH140" s="30"/>
-      <c r="CI140" s="30"/>
-      <c r="CJ140" s="9"/>
+      <c r="CE140" s="33">
+        <v>37.054876654227428</v>
+      </c>
+      <c r="CF140" s="33">
+        <v>9.736678296807753</v>
+      </c>
+      <c r="CG140" s="29"/>
+      <c r="CH140" s="29"/>
+      <c r="CI140" s="29"/>
+      <c r="CJ140" s="29"/>
       <c r="CK140" s="9"/>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
@@ -30582,17 +30767,19 @@
       <c r="CC141" s="18">
         <v>28.815878593710551</v>
       </c>
-      <c r="CD141" s="34">
+      <c r="CD141" s="33">
         <v>27.225663830515742</v>
       </c>
-      <c r="CE141" s="34">
-        <v>92.991331047958482</v>
-      </c>
-      <c r="CF141" s="30"/>
-      <c r="CG141" s="30"/>
-      <c r="CH141" s="30"/>
-      <c r="CI141" s="30"/>
-      <c r="CJ141" s="9"/>
+      <c r="CE141" s="33">
+        <v>95.545256634527533</v>
+      </c>
+      <c r="CF141" s="33">
+        <v>-21.571659630973713</v>
+      </c>
+      <c r="CG141" s="29"/>
+      <c r="CH141" s="29"/>
+      <c r="CI141" s="29"/>
+      <c r="CJ141" s="29"/>
       <c r="CK141" s="9"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
@@ -30897,17 +31084,19 @@
       <c r="CC142" s="18">
         <v>-33.097268037819688</v>
       </c>
-      <c r="CD142" s="34">
+      <c r="CD142" s="33">
         <v>11.119906672724682</v>
       </c>
-      <c r="CE142" s="34">
-        <v>-8.6023831496613354</v>
-      </c>
-      <c r="CF142" s="30"/>
-      <c r="CG142" s="30"/>
-      <c r="CH142" s="30"/>
-      <c r="CI142" s="30"/>
-      <c r="CJ142" s="9"/>
+      <c r="CE142" s="33">
+        <v>-6.6083246223980012</v>
+      </c>
+      <c r="CF142" s="33">
+        <v>-51.035513342242126</v>
+      </c>
+      <c r="CG142" s="29"/>
+      <c r="CH142" s="29"/>
+      <c r="CI142" s="29"/>
+      <c r="CJ142" s="29"/>
       <c r="CK142" s="9"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
@@ -31212,17 +31401,19 @@
       <c r="CC143" s="18">
         <v>-28.389391939662161</v>
       </c>
-      <c r="CD143" s="34">
+      <c r="CD143" s="33">
         <v>26.085828440366868</v>
       </c>
-      <c r="CE143" s="34">
-        <v>54.045624656634544</v>
-      </c>
-      <c r="CF143" s="30"/>
-      <c r="CG143" s="30"/>
-      <c r="CH143" s="30"/>
-      <c r="CI143" s="30"/>
-      <c r="CJ143" s="9"/>
+      <c r="CE143" s="33">
+        <v>62.469175570194921</v>
+      </c>
+      <c r="CF143" s="33">
+        <v>22.70702992796663</v>
+      </c>
+      <c r="CG143" s="29"/>
+      <c r="CH143" s="29"/>
+      <c r="CI143" s="29"/>
+      <c r="CJ143" s="29"/>
       <c r="CK143" s="9"/>
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
@@ -31527,17 +31718,19 @@
       <c r="CC144" s="18">
         <v>-14.841252418961616</v>
       </c>
-      <c r="CD144" s="34">
+      <c r="CD144" s="33">
         <v>-9.322943590871219</v>
       </c>
-      <c r="CE144" s="34">
-        <v>23.923009737429339</v>
-      </c>
-      <c r="CF144" s="30"/>
-      <c r="CG144" s="30"/>
-      <c r="CH144" s="30"/>
-      <c r="CI144" s="30"/>
-      <c r="CJ144" s="9"/>
+      <c r="CE144" s="33">
+        <v>28.704827508568997</v>
+      </c>
+      <c r="CF144" s="33">
+        <v>4.168600596173988</v>
+      </c>
+      <c r="CG144" s="29"/>
+      <c r="CH144" s="29"/>
+      <c r="CI144" s="29"/>
+      <c r="CJ144" s="29"/>
       <c r="CK144" s="9"/>
       <c r="CL144" s="9"/>
       <c r="CM144" s="9"/>
@@ -31842,17 +32035,19 @@
       <c r="CC145" s="18">
         <v>-19.106464389168778</v>
       </c>
-      <c r="CD145" s="34">
+      <c r="CD145" s="33">
         <v>-22.236605239838909</v>
       </c>
-      <c r="CE145" s="34">
-        <v>69.465630396801799</v>
-      </c>
-      <c r="CF145" s="30"/>
-      <c r="CG145" s="30"/>
-      <c r="CH145" s="30"/>
-      <c r="CI145" s="30"/>
-      <c r="CJ145" s="9"/>
+      <c r="CE145" s="33">
+        <v>72.292290227980658</v>
+      </c>
+      <c r="CF145" s="33">
+        <v>-10.031377974743705</v>
+      </c>
+      <c r="CG145" s="29"/>
+      <c r="CH145" s="29"/>
+      <c r="CI145" s="29"/>
+      <c r="CJ145" s="29"/>
       <c r="CK145" s="9"/>
       <c r="CL145" s="9"/>
       <c r="CM145" s="9"/>
@@ -32157,17 +32352,19 @@
       <c r="CC146" s="18">
         <v>-20.492053242997812</v>
       </c>
-      <c r="CD146" s="34">
+      <c r="CD146" s="33">
         <v>-3.3005214344952094</v>
       </c>
-      <c r="CE146" s="34">
-        <v>62.144238495168764</v>
-      </c>
-      <c r="CF146" s="30"/>
-      <c r="CG146" s="30"/>
-      <c r="CH146" s="30"/>
-      <c r="CI146" s="30"/>
-      <c r="CJ146" s="9"/>
+      <c r="CE146" s="33">
+        <v>68.726188271405277</v>
+      </c>
+      <c r="CF146" s="33">
+        <v>2.6061751462677591</v>
+      </c>
+      <c r="CG146" s="29"/>
+      <c r="CH146" s="29"/>
+      <c r="CI146" s="29"/>
+      <c r="CJ146" s="29"/>
       <c r="CK146" s="9"/>
       <c r="CL146" s="9"/>
       <c r="CM146" s="9"/>
@@ -32472,17 +32669,19 @@
       <c r="CC147" s="18">
         <v>-10.007733765925025</v>
       </c>
-      <c r="CD147" s="34">
+      <c r="CD147" s="33">
         <v>13.209218336953896</v>
       </c>
-      <c r="CE147" s="34">
-        <v>-3.0525584578514326</v>
-      </c>
-      <c r="CF147" s="30"/>
-      <c r="CG147" s="30"/>
-      <c r="CH147" s="30"/>
-      <c r="CI147" s="30"/>
-      <c r="CJ147" s="9"/>
+      <c r="CE147" s="33">
+        <v>1.4138608662463241</v>
+      </c>
+      <c r="CF147" s="33">
+        <v>11.971882651504131</v>
+      </c>
+      <c r="CG147" s="29"/>
+      <c r="CH147" s="29"/>
+      <c r="CI147" s="29"/>
+      <c r="CJ147" s="29"/>
       <c r="CK147" s="9"/>
       <c r="CL147" s="9"/>
       <c r="CM147" s="9"/>
@@ -32787,17 +32986,19 @@
       <c r="CC148" s="18">
         <v>-14.691709288811651</v>
       </c>
-      <c r="CD148" s="34">
+      <c r="CD148" s="33">
         <v>-15.321304084880509</v>
       </c>
-      <c r="CE148" s="34">
-        <v>24.533222796114984</v>
-      </c>
-      <c r="CF148" s="30"/>
-      <c r="CG148" s="30"/>
-      <c r="CH148" s="30"/>
-      <c r="CI148" s="30"/>
-      <c r="CJ148" s="9"/>
+      <c r="CE148" s="33">
+        <v>29.797912029230901</v>
+      </c>
+      <c r="CF148" s="33">
+        <v>5.1257421532808536</v>
+      </c>
+      <c r="CG148" s="29"/>
+      <c r="CH148" s="29"/>
+      <c r="CI148" s="29"/>
+      <c r="CJ148" s="29"/>
       <c r="CK148" s="9"/>
       <c r="CL148" s="9"/>
       <c r="CM148" s="9"/>
@@ -33102,17 +33303,19 @@
       <c r="CC149" s="18">
         <v>-34.254210717576726</v>
       </c>
-      <c r="CD149" s="34">
+      <c r="CD149" s="33">
         <v>-20.810262297581687</v>
       </c>
-      <c r="CE149" s="34">
-        <v>154.24710776105778</v>
-      </c>
-      <c r="CF149" s="30"/>
-      <c r="CG149" s="30"/>
-      <c r="CH149" s="30"/>
-      <c r="CI149" s="30"/>
-      <c r="CJ149" s="9"/>
+      <c r="CE149" s="33">
+        <v>164.68177240019776</v>
+      </c>
+      <c r="CF149" s="33">
+        <v>13.740435451510294</v>
+      </c>
+      <c r="CG149" s="29"/>
+      <c r="CH149" s="29"/>
+      <c r="CI149" s="29"/>
+      <c r="CJ149" s="29"/>
       <c r="CK149" s="9"/>
       <c r="CL149" s="9"/>
       <c r="CM149" s="9"/>
@@ -33417,17 +33620,19 @@
       <c r="CC150" s="18">
         <v>-28.361454158600807</v>
       </c>
-      <c r="CD150" s="34">
+      <c r="CD150" s="33">
         <v>-21.416266127877662</v>
       </c>
-      <c r="CE150" s="34">
-        <v>179.95618164133151</v>
-      </c>
-      <c r="CF150" s="30"/>
-      <c r="CG150" s="30"/>
-      <c r="CH150" s="30"/>
-      <c r="CI150" s="30"/>
-      <c r="CJ150" s="9"/>
+      <c r="CE150" s="33">
+        <v>189.4689445347019</v>
+      </c>
+      <c r="CF150" s="33">
+        <v>13.088611615279461</v>
+      </c>
+      <c r="CG150" s="29"/>
+      <c r="CH150" s="29"/>
+      <c r="CI150" s="29"/>
+      <c r="CJ150" s="29"/>
       <c r="CK150" s="9"/>
       <c r="CL150" s="9"/>
       <c r="CM150" s="9"/>
@@ -33732,17 +33937,19 @@
       <c r="CC151" s="18">
         <v>130.90963701775075</v>
       </c>
-      <c r="CD151" s="34">
+      <c r="CD151" s="33">
         <v>150.04458860865836</v>
       </c>
-      <c r="CE151" s="34">
-        <v>-83.925647588847724</v>
-      </c>
-      <c r="CF151" s="30"/>
-      <c r="CG151" s="30"/>
-      <c r="CH151" s="30"/>
-      <c r="CI151" s="30"/>
-      <c r="CJ151" s="9"/>
+      <c r="CE151" s="33">
+        <v>-42.053913747949487</v>
+      </c>
+      <c r="CF151" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG151" s="29"/>
+      <c r="CH151" s="29"/>
+      <c r="CI151" s="29"/>
+      <c r="CJ151" s="29"/>
       <c r="CK151" s="9"/>
       <c r="CL151" s="9"/>
       <c r="CM151" s="9"/>
@@ -34047,17 +34254,19 @@
       <c r="CC152" s="18">
         <v>-73.550245795192367</v>
       </c>
-      <c r="CD152" s="34">
+      <c r="CD152" s="33">
         <v>-84.838049669090481</v>
       </c>
-      <c r="CE152" s="34">
-        <v>173.11359373667949</v>
-      </c>
-      <c r="CF152" s="30"/>
-      <c r="CG152" s="30"/>
-      <c r="CH152" s="30"/>
-      <c r="CI152" s="30"/>
-      <c r="CJ152" s="9"/>
+      <c r="CE152" s="33">
+        <v>177.03683123440885</v>
+      </c>
+      <c r="CF152" s="33">
+        <v>-4.2433547778088752</v>
+      </c>
+      <c r="CG152" s="29"/>
+      <c r="CH152" s="29"/>
+      <c r="CI152" s="29"/>
+      <c r="CJ152" s="29"/>
       <c r="CK152" s="9"/>
       <c r="CL152" s="9"/>
       <c r="CM152" s="9"/>
@@ -34362,17 +34571,19 @@
       <c r="CC153" s="18">
         <v>-70.510356522128774</v>
       </c>
-      <c r="CD153" s="34">
+      <c r="CD153" s="33">
         <v>384.59525399805904</v>
       </c>
-      <c r="CE153" s="34">
-        <v>-88.217960369253021</v>
-      </c>
-      <c r="CF153" s="30"/>
-      <c r="CG153" s="30"/>
-      <c r="CH153" s="30"/>
-      <c r="CI153" s="30"/>
-      <c r="CJ153" s="9"/>
+      <c r="CE153" s="33">
+        <v>-65.055684759667329</v>
+      </c>
+      <c r="CF153" s="33">
+        <v>14.205564585425051</v>
+      </c>
+      <c r="CG153" s="29"/>
+      <c r="CH153" s="29"/>
+      <c r="CI153" s="29"/>
+      <c r="CJ153" s="29"/>
       <c r="CK153" s="9"/>
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
@@ -34677,17 +34888,19 @@
       <c r="CC154" s="18">
         <v>-17.037351743630154</v>
       </c>
-      <c r="CD154" s="34">
+      <c r="CD154" s="33">
         <v>1.8095473822699262</v>
       </c>
-      <c r="CE154" s="34">
-        <v>66.936149708885694</v>
-      </c>
-      <c r="CF154" s="30"/>
-      <c r="CG154" s="30"/>
-      <c r="CH154" s="30"/>
-      <c r="CI154" s="30"/>
-      <c r="CJ154" s="9"/>
+      <c r="CE154" s="33">
+        <v>71.262894965007519</v>
+      </c>
+      <c r="CF154" s="33">
+        <v>5.5764504358407692</v>
+      </c>
+      <c r="CG154" s="29"/>
+      <c r="CH154" s="29"/>
+      <c r="CI154" s="29"/>
+      <c r="CJ154" s="29"/>
       <c r="CK154" s="9"/>
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
@@ -34992,17 +35205,19 @@
       <c r="CC155" s="18">
         <v>37.451728969694784</v>
       </c>
-      <c r="CD155" s="34">
+      <c r="CD155" s="33">
         <v>27.746184933783312</v>
       </c>
-      <c r="CE155" s="34">
-        <v>146.20060699949775</v>
-      </c>
-      <c r="CF155" s="30"/>
-      <c r="CG155" s="30"/>
-      <c r="CH155" s="30"/>
-      <c r="CI155" s="30"/>
-      <c r="CJ155" s="9"/>
+      <c r="CE155" s="33">
+        <v>149.5708572554901</v>
+      </c>
+      <c r="CF155" s="33">
+        <v>-28.790085572041406</v>
+      </c>
+      <c r="CG155" s="29"/>
+      <c r="CH155" s="29"/>
+      <c r="CI155" s="29"/>
+      <c r="CJ155" s="29"/>
       <c r="CK155" s="9"/>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
@@ -35307,17 +35522,19 @@
       <c r="CC156" s="18">
         <v>-16.208687399915689</v>
       </c>
-      <c r="CD156" s="34">
+      <c r="CD156" s="33">
         <v>5.6745971653743226</v>
       </c>
-      <c r="CE156" s="34">
-        <v>97.7142501809968</v>
-      </c>
-      <c r="CF156" s="30"/>
-      <c r="CG156" s="30"/>
-      <c r="CH156" s="30"/>
-      <c r="CI156" s="30"/>
-      <c r="CJ156" s="9"/>
+      <c r="CE156" s="33">
+        <v>102.56564638544651</v>
+      </c>
+      <c r="CF156" s="33">
+        <v>7.4179635540112088</v>
+      </c>
+      <c r="CG156" s="29"/>
+      <c r="CH156" s="29"/>
+      <c r="CI156" s="29"/>
+      <c r="CJ156" s="29"/>
       <c r="CK156" s="9"/>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
@@ -35622,17 +35839,19 @@
       <c r="CC157" s="18">
         <v>-24.260529209834786</v>
       </c>
-      <c r="CD157" s="34">
+      <c r="CD157" s="33">
         <v>-9.8914380068860908</v>
       </c>
-      <c r="CE157" s="34">
-        <v>39.315953439085661</v>
-      </c>
-      <c r="CF157" s="30"/>
-      <c r="CG157" s="30"/>
-      <c r="CH157" s="30"/>
-      <c r="CI157" s="30"/>
-      <c r="CJ157" s="9"/>
+      <c r="CE157" s="33">
+        <v>42.635643581251315</v>
+      </c>
+      <c r="CF157" s="33">
+        <v>17.529505282351508</v>
+      </c>
+      <c r="CG157" s="29"/>
+      <c r="CH157" s="29"/>
+      <c r="CI157" s="29"/>
+      <c r="CJ157" s="29"/>
       <c r="CK157" s="9"/>
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
@@ -35937,17 +36156,19 @@
       <c r="CC158" s="18">
         <v>-13.595349297692977</v>
       </c>
-      <c r="CD158" s="34">
+      <c r="CD158" s="33">
         <v>12.64413281407451</v>
       </c>
-      <c r="CE158" s="34">
-        <v>108.16664909644783</v>
-      </c>
-      <c r="CF158" s="30"/>
-      <c r="CG158" s="30"/>
-      <c r="CH158" s="30"/>
-      <c r="CI158" s="30"/>
-      <c r="CJ158" s="9"/>
+      <c r="CE158" s="33">
+        <v>116.23472061222725</v>
+      </c>
+      <c r="CF158" s="33">
+        <v>-9.0127404682882428</v>
+      </c>
+      <c r="CG158" s="29"/>
+      <c r="CH158" s="29"/>
+      <c r="CI158" s="29"/>
+      <c r="CJ158" s="29"/>
       <c r="CK158" s="9"/>
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
@@ -36089,13 +36310,13 @@
       <c r="CA159" s="9"/>
       <c r="CB159" s="9"/>
       <c r="CC159" s="9"/>
-      <c r="CD159" s="30"/>
-      <c r="CE159" s="30"/>
-      <c r="CF159" s="30"/>
-      <c r="CG159" s="30"/>
-      <c r="CH159" s="30"/>
-      <c r="CI159" s="30"/>
-      <c r="CJ159" s="9"/>
+      <c r="CD159" s="29"/>
+      <c r="CE159" s="29"/>
+      <c r="CF159" s="29"/>
+      <c r="CG159" s="29"/>
+      <c r="CH159" s="29"/>
+      <c r="CI159" s="29"/>
+      <c r="CJ159" s="29"/>
       <c r="CK159" s="9"/>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
@@ -36400,17 +36621,19 @@
       <c r="CC160" s="23">
         <v>-24.507222682281693</v>
       </c>
-      <c r="CD160" s="35">
+      <c r="CD160" s="34">
         <v>-10.277323671694006</v>
       </c>
-      <c r="CE160" s="35">
-        <v>89.19061767942398</v>
-      </c>
-      <c r="CF160" s="30"/>
-      <c r="CG160" s="30"/>
-      <c r="CH160" s="30"/>
-      <c r="CI160" s="30"/>
-      <c r="CJ160" s="9"/>
+      <c r="CE160" s="34">
+        <v>95.670573693980174</v>
+      </c>
+      <c r="CF160" s="34">
+        <v>7.976516204308453</v>
+      </c>
+      <c r="CG160" s="29"/>
+      <c r="CH160" s="29"/>
+      <c r="CI160" s="29"/>
+      <c r="CJ160" s="29"/>
       <c r="CK160" s="9"/>
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
@@ -36553,12 +36776,13 @@
       <c r="CA161" s="14"/>
       <c r="CB161" s="14"/>
       <c r="CC161" s="14"/>
-      <c r="CD161" s="32"/>
-      <c r="CE161" s="32"/>
-      <c r="CF161" s="32"/>
-      <c r="CG161" s="32"/>
-      <c r="CH161" s="32"/>
-      <c r="CI161" s="32"/>
+      <c r="CD161" s="31"/>
+      <c r="CE161" s="31"/>
+      <c r="CF161" s="31"/>
+      <c r="CG161" s="31"/>
+      <c r="CH161" s="31"/>
+      <c r="CI161" s="31"/>
+      <c r="CJ161" s="31"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -36649,13 +36873,13 @@
       <c r="CA163" s="9"/>
       <c r="CB163" s="9"/>
       <c r="CC163" s="9"/>
-      <c r="CD163" s="30"/>
-      <c r="CE163" s="30"/>
-      <c r="CF163" s="30"/>
-      <c r="CG163" s="30"/>
-      <c r="CH163" s="30"/>
-      <c r="CI163" s="30"/>
-      <c r="CJ163" s="9"/>
+      <c r="CD163" s="29"/>
+      <c r="CE163" s="29"/>
+      <c r="CF163" s="29"/>
+      <c r="CG163" s="29"/>
+      <c r="CH163" s="29"/>
+      <c r="CI163" s="29"/>
+      <c r="CJ163" s="29"/>
       <c r="CK163" s="9"/>
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
@@ -36797,13 +37021,13 @@
       <c r="CA164" s="9"/>
       <c r="CB164" s="9"/>
       <c r="CC164" s="9"/>
-      <c r="CD164" s="30"/>
-      <c r="CE164" s="30"/>
-      <c r="CF164" s="30"/>
-      <c r="CG164" s="30"/>
-      <c r="CH164" s="30"/>
-      <c r="CI164" s="30"/>
-      <c r="CJ164" s="9"/>
+      <c r="CD164" s="29"/>
+      <c r="CE164" s="29"/>
+      <c r="CF164" s="29"/>
+      <c r="CG164" s="29"/>
+      <c r="CH164" s="29"/>
+      <c r="CI164" s="29"/>
+      <c r="CJ164" s="29"/>
       <c r="CK164" s="9"/>
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
@@ -36896,138 +37120,139 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="38">
+      <c r="B172" s="40">
         <v>2000</v>
       </c>
-      <c r="C172" s="38"/>
-      <c r="D172" s="38"/>
-      <c r="E172" s="38"/>
-      <c r="F172" s="38">
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="40">
         <v>2001</v>
       </c>
-      <c r="G172" s="38"/>
-      <c r="H172" s="38"/>
-      <c r="I172" s="38"/>
-      <c r="J172" s="38">
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="40">
         <v>2002</v>
       </c>
-      <c r="K172" s="38"/>
-      <c r="L172" s="38"/>
-      <c r="M172" s="38"/>
-      <c r="N172" s="38">
+      <c r="K172" s="40"/>
+      <c r="L172" s="40"/>
+      <c r="M172" s="40"/>
+      <c r="N172" s="40">
         <v>2003</v>
       </c>
-      <c r="O172" s="38"/>
-      <c r="P172" s="38"/>
-      <c r="Q172" s="38"/>
-      <c r="R172" s="38">
+      <c r="O172" s="40"/>
+      <c r="P172" s="40"/>
+      <c r="Q172" s="40"/>
+      <c r="R172" s="40">
         <v>2004</v>
       </c>
-      <c r="S172" s="38"/>
-      <c r="T172" s="38"/>
-      <c r="U172" s="38"/>
-      <c r="V172" s="38">
+      <c r="S172" s="40"/>
+      <c r="T172" s="40"/>
+      <c r="U172" s="40"/>
+      <c r="V172" s="40">
         <v>2005</v>
       </c>
-      <c r="W172" s="38"/>
-      <c r="X172" s="38"/>
-      <c r="Y172" s="38"/>
-      <c r="Z172" s="38">
+      <c r="W172" s="40"/>
+      <c r="X172" s="40"/>
+      <c r="Y172" s="40"/>
+      <c r="Z172" s="40">
         <v>2006</v>
       </c>
-      <c r="AA172" s="38"/>
-      <c r="AB172" s="38"/>
-      <c r="AC172" s="38"/>
-      <c r="AD172" s="38">
+      <c r="AA172" s="40"/>
+      <c r="AB172" s="40"/>
+      <c r="AC172" s="40"/>
+      <c r="AD172" s="40">
         <v>2007</v>
       </c>
-      <c r="AE172" s="38"/>
-      <c r="AF172" s="38"/>
-      <c r="AG172" s="38"/>
-      <c r="AH172" s="38">
+      <c r="AE172" s="40"/>
+      <c r="AF172" s="40"/>
+      <c r="AG172" s="40"/>
+      <c r="AH172" s="40">
         <v>2008</v>
       </c>
-      <c r="AI172" s="38"/>
-      <c r="AJ172" s="38"/>
-      <c r="AK172" s="38"/>
-      <c r="AL172" s="38">
+      <c r="AI172" s="40"/>
+      <c r="AJ172" s="40"/>
+      <c r="AK172" s="40"/>
+      <c r="AL172" s="40">
         <v>2009</v>
       </c>
-      <c r="AM172" s="38"/>
-      <c r="AN172" s="38"/>
-      <c r="AO172" s="38"/>
-      <c r="AP172" s="38">
+      <c r="AM172" s="40"/>
+      <c r="AN172" s="40"/>
+      <c r="AO172" s="40"/>
+      <c r="AP172" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="38"/>
-      <c r="AR172" s="38"/>
-      <c r="AS172" s="38"/>
-      <c r="AT172" s="38">
+      <c r="AQ172" s="40"/>
+      <c r="AR172" s="40"/>
+      <c r="AS172" s="40"/>
+      <c r="AT172" s="40">
         <v>2011</v>
       </c>
-      <c r="AU172" s="38"/>
-      <c r="AV172" s="38"/>
-      <c r="AW172" s="38"/>
-      <c r="AX172" s="38">
+      <c r="AU172" s="40"/>
+      <c r="AV172" s="40"/>
+      <c r="AW172" s="40"/>
+      <c r="AX172" s="40">
         <v>2012</v>
       </c>
-      <c r="AY172" s="38"/>
-      <c r="AZ172" s="38"/>
-      <c r="BA172" s="38"/>
-      <c r="BB172" s="38">
+      <c r="AY172" s="40"/>
+      <c r="AZ172" s="40"/>
+      <c r="BA172" s="40"/>
+      <c r="BB172" s="40">
         <v>2013</v>
       </c>
-      <c r="BC172" s="38"/>
-      <c r="BD172" s="38"/>
-      <c r="BE172" s="38"/>
-      <c r="BF172" s="38">
+      <c r="BC172" s="40"/>
+      <c r="BD172" s="40"/>
+      <c r="BE172" s="40"/>
+      <c r="BF172" s="40">
         <v>2014</v>
       </c>
-      <c r="BG172" s="38"/>
-      <c r="BH172" s="38"/>
-      <c r="BI172" s="38"/>
-      <c r="BJ172" s="38">
+      <c r="BG172" s="40"/>
+      <c r="BH172" s="40"/>
+      <c r="BI172" s="40"/>
+      <c r="BJ172" s="40">
         <v>2015</v>
       </c>
-      <c r="BK172" s="38"/>
-      <c r="BL172" s="38"/>
-      <c r="BM172" s="38"/>
-      <c r="BN172" s="38">
+      <c r="BK172" s="40"/>
+      <c r="BL172" s="40"/>
+      <c r="BM172" s="40"/>
+      <c r="BN172" s="40">
         <v>2016</v>
       </c>
-      <c r="BO172" s="38"/>
-      <c r="BP172" s="38"/>
-      <c r="BQ172" s="38"/>
-      <c r="BR172" s="38">
+      <c r="BO172" s="40"/>
+      <c r="BP172" s="40"/>
+      <c r="BQ172" s="40"/>
+      <c r="BR172" s="40">
         <v>2017</v>
       </c>
-      <c r="BS172" s="38"/>
-      <c r="BT172" s="38"/>
-      <c r="BU172" s="38"/>
-      <c r="BV172" s="38">
+      <c r="BS172" s="40"/>
+      <c r="BT172" s="40"/>
+      <c r="BU172" s="40"/>
+      <c r="BV172" s="40">
         <v>2018</v>
       </c>
-      <c r="BW172" s="38"/>
-      <c r="BX172" s="38"/>
-      <c r="BY172" s="38"/>
-      <c r="BZ172" s="38">
+      <c r="BW172" s="40"/>
+      <c r="BX172" s="40"/>
+      <c r="BY172" s="40"/>
+      <c r="BZ172" s="40">
         <v>2019</v>
       </c>
-      <c r="CA172" s="38"/>
-      <c r="CB172" s="38"/>
-      <c r="CC172" s="38"/>
-      <c r="CD172" s="36">
+      <c r="CA172" s="40"/>
+      <c r="CB172" s="40"/>
+      <c r="CC172" s="40"/>
+      <c r="CD172" s="41">
         <v>2020</v>
       </c>
-      <c r="CE172" s="36"/>
-      <c r="CF172" s="36"/>
-      <c r="CG172" s="36"/>
-      <c r="CH172" s="36">
+      <c r="CE172" s="41"/>
+      <c r="CF172" s="41"/>
+      <c r="CG172" s="41"/>
+      <c r="CH172" s="41">
         <v>2021</v>
       </c>
-      <c r="CI172" s="36">
+      <c r="CI172" s="41">
         <v>0</v>
       </c>
+      <c r="CJ172" s="41"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
@@ -37273,23 +37498,26 @@
       <c r="CC173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD173" s="33" t="s">
+      <c r="CD173" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE173" s="33" t="s">
+      <c r="CE173" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF173" s="33" t="s">
+      <c r="CF173" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG173" s="33" t="s">
+      <c r="CG173" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CH173" s="33" t="s">
+      <c r="CH173" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CI173" s="33" t="s">
+      <c r="CI173" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ173" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37539,25 +37767,27 @@
       <c r="CC175" s="23">
         <v>83.208059366404569</v>
       </c>
-      <c r="CD175" s="35">
+      <c r="CD175" s="34">
         <v>108.33896053827385</v>
       </c>
-      <c r="CE175" s="35">
+      <c r="CE175" s="34">
         <v>159.56511125451246</v>
       </c>
-      <c r="CF175" s="35">
+      <c r="CF175" s="34">
         <v>77.337181369402231</v>
       </c>
-      <c r="CG175" s="35">
+      <c r="CG175" s="34">
         <v>84.152916883701607</v>
       </c>
-      <c r="CH175" s="35">
+      <c r="CH175" s="34">
         <v>102.13880514227498</v>
       </c>
-      <c r="CI175" s="35">
-        <v>152.78418800826105</v>
-      </c>
-      <c r="CJ175" s="9"/>
+      <c r="CI175" s="34">
+        <v>152.79942079798482</v>
+      </c>
+      <c r="CJ175" s="34">
+        <v>81.25292637521062</v>
+      </c>
       <c r="CK175" s="9"/>
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
@@ -37867,25 +38097,27 @@
       <c r="CC176" s="23">
         <v>65.141746964754262</v>
       </c>
-      <c r="CD176" s="35">
+      <c r="CD176" s="34">
         <v>100.07011030249409</v>
       </c>
-      <c r="CE176" s="35">
+      <c r="CE176" s="34">
         <v>279.70677951092478</v>
       </c>
-      <c r="CF176" s="35">
+      <c r="CF176" s="34">
         <v>80.178946573170833</v>
       </c>
-      <c r="CG176" s="35">
+      <c r="CG176" s="34">
         <v>63.183833792368262</v>
       </c>
-      <c r="CH176" s="35">
+      <c r="CH176" s="34">
         <v>95.715924364284888</v>
       </c>
-      <c r="CI176" s="35">
-        <v>272.79588230862475</v>
-      </c>
-      <c r="CJ176" s="9"/>
+      <c r="CI176" s="34">
+        <v>272.50374334677281</v>
+      </c>
+      <c r="CJ176" s="34">
+        <v>83.727794711761433</v>
+      </c>
       <c r="CK176" s="9"/>
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
@@ -38195,25 +38427,27 @@
       <c r="CC177" s="23">
         <v>64.478454126379901</v>
       </c>
-      <c r="CD177" s="35">
+      <c r="CD177" s="34">
         <v>102.07453404298047</v>
       </c>
-      <c r="CE177" s="35">
+      <c r="CE177" s="34">
         <v>270.67526826493742</v>
       </c>
-      <c r="CF177" s="35">
+      <c r="CF177" s="34">
         <v>79.931188827150194</v>
       </c>
-      <c r="CG177" s="35">
+      <c r="CG177" s="34">
         <v>63.016810227808584</v>
       </c>
-      <c r="CH177" s="35">
+      <c r="CH177" s="34">
         <v>97.637429144545067</v>
       </c>
-      <c r="CI177" s="35">
-        <v>266.01760378951701</v>
-      </c>
-      <c r="CJ177" s="9"/>
+      <c r="CI177" s="34">
+        <v>265.24939524324162</v>
+      </c>
+      <c r="CJ177" s="34">
+        <v>83.29107053299083</v>
+      </c>
       <c r="CK177" s="9"/>
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
@@ -38523,25 +38757,27 @@
       <c r="CC178" s="23">
         <v>75.974039456897827</v>
       </c>
-      <c r="CD178" s="35">
+      <c r="CD178" s="34">
         <v>104.71599329454403</v>
       </c>
-      <c r="CE178" s="35">
+      <c r="CE178" s="34">
         <v>183.05896327298373</v>
       </c>
-      <c r="CF178" s="35">
+      <c r="CF178" s="34">
         <v>87.550624616430454</v>
       </c>
-      <c r="CG178" s="35">
+      <c r="CG178" s="34">
         <v>76.849972488174899</v>
       </c>
-      <c r="CH178" s="35">
+      <c r="CH178" s="34">
         <v>99.661774437850028</v>
       </c>
-      <c r="CI178" s="35">
-        <v>195.16206668288828</v>
-      </c>
-      <c r="CJ178" s="9"/>
+      <c r="CI178" s="34">
+        <v>187.55847721449965</v>
+      </c>
+      <c r="CJ178" s="34">
+        <v>87.675911163697066</v>
+      </c>
       <c r="CK178" s="9"/>
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
@@ -38851,25 +39087,27 @@
       <c r="CC179" s="23">
         <v>68.520134077786892</v>
       </c>
-      <c r="CD179" s="35">
+      <c r="CD179" s="34">
         <v>125.5220231119572</v>
       </c>
-      <c r="CE179" s="35">
+      <c r="CE179" s="34">
         <v>252.78610169080881</v>
       </c>
-      <c r="CF179" s="35">
+      <c r="CF179" s="34">
         <v>81.713243992468449</v>
       </c>
-      <c r="CG179" s="35">
+      <c r="CG179" s="34">
         <v>68.457360397440027</v>
       </c>
-      <c r="CH179" s="35">
+      <c r="CH179" s="34">
         <v>118.68870583148924</v>
       </c>
-      <c r="CI179" s="35">
-        <v>245.13408041863488</v>
-      </c>
-      <c r="CJ179" s="9"/>
+      <c r="CI179" s="34">
+        <v>240.75423104595504</v>
+      </c>
+      <c r="CJ179" s="34">
+        <v>84.917935909706003</v>
+      </c>
       <c r="CK179" s="9"/>
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
@@ -39179,25 +39417,27 @@
       <c r="CC180" s="23">
         <v>66.377359434008042</v>
       </c>
-      <c r="CD180" s="35">
+      <c r="CD180" s="34">
         <v>105.87098756373922</v>
       </c>
-      <c r="CE180" s="35">
+      <c r="CE180" s="34">
         <v>272.77928463785537</v>
       </c>
-      <c r="CF180" s="35">
+      <c r="CF180" s="34">
         <v>82.916260530437356</v>
       </c>
-      <c r="CG180" s="35">
+      <c r="CG180" s="34">
         <v>64.799622859446899</v>
       </c>
-      <c r="CH180" s="35">
+      <c r="CH180" s="34">
         <v>101.24701914652874</v>
       </c>
-      <c r="CI180" s="35">
-        <v>267.51226035262994</v>
-      </c>
-      <c r="CJ180" s="9"/>
+      <c r="CI180" s="34">
+        <v>266.15778807771665</v>
+      </c>
+      <c r="CJ180" s="34">
+        <v>86.392520232519615</v>
+      </c>
       <c r="CK180" s="9"/>
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
@@ -39507,25 +39747,27 @@
       <c r="CC181" s="23">
         <v>113.53183000564098</v>
       </c>
-      <c r="CD181" s="35">
+      <c r="CD181" s="34">
         <v>111.7786083475512</v>
       </c>
-      <c r="CE181" s="35">
+      <c r="CE181" s="34">
         <v>107.05577585197656</v>
       </c>
-      <c r="CF181" s="35">
+      <c r="CF181" s="34">
         <v>72.660838980856184</v>
       </c>
-      <c r="CG181" s="35">
+      <c r="CG181" s="34">
         <v>103.33109794386456</v>
       </c>
-      <c r="CH181" s="35">
+      <c r="CH181" s="34">
         <v>104.28377127917577</v>
       </c>
-      <c r="CI181" s="35">
-        <v>101.47469727276079</v>
-      </c>
-      <c r="CJ181" s="9"/>
+      <c r="CI181" s="34">
+        <v>101.54951017580775</v>
+      </c>
+      <c r="CJ181" s="34">
+        <v>75.499240071621799</v>
+      </c>
       <c r="CK181" s="9"/>
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
@@ -39835,25 +40077,27 @@
       <c r="CC182" s="23">
         <v>63.341196900214179</v>
       </c>
-      <c r="CD182" s="35">
+      <c r="CD182" s="34">
         <v>99.718738597685643</v>
       </c>
-      <c r="CE182" s="35">
+      <c r="CE182" s="34">
         <v>261.36703876636432</v>
       </c>
-      <c r="CF182" s="35">
+      <c r="CF182" s="34">
         <v>78.778416511981774</v>
       </c>
-      <c r="CG182" s="35">
+      <c r="CG182" s="34">
         <v>61.761382139005583</v>
       </c>
-      <c r="CH182" s="35">
+      <c r="CH182" s="34">
         <v>95.379358681455898</v>
       </c>
-      <c r="CI182" s="35">
-        <v>252.31086574481583</v>
-      </c>
-      <c r="CJ182" s="9"/>
+      <c r="CI182" s="34">
+        <v>249.45366071302936</v>
+      </c>
+      <c r="CJ182" s="34">
+        <v>82.362576924108211</v>
+      </c>
       <c r="CK182" s="9"/>
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
@@ -40163,25 +40407,27 @@
       <c r="CC183" s="23">
         <v>72.378210422068818</v>
       </c>
-      <c r="CD183" s="35">
+      <c r="CD183" s="34">
         <v>107.2196864491674</v>
       </c>
-      <c r="CE183" s="35">
+      <c r="CE183" s="34">
         <v>209.28670967647207</v>
       </c>
-      <c r="CF183" s="35">
+      <c r="CF183" s="34">
         <v>84.836685894276826</v>
       </c>
-      <c r="CG183" s="35">
+      <c r="CG183" s="34">
         <v>70.498153920356913</v>
       </c>
-      <c r="CH183" s="35">
+      <c r="CH183" s="34">
         <v>102.77718696096056</v>
       </c>
-      <c r="CI183" s="35">
-        <v>234.16692852995945</v>
-      </c>
-      <c r="CJ183" s="9"/>
+      <c r="CI183" s="34">
+        <v>227.99665698695253</v>
+      </c>
+      <c r="CJ183" s="34">
+        <v>86.625799458872038</v>
+      </c>
       <c r="CK183" s="9"/>
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
@@ -40491,25 +40737,27 @@
       <c r="CC184" s="23">
         <v>99.566809729952425</v>
       </c>
-      <c r="CD184" s="35">
+      <c r="CD184" s="34">
         <v>105.05981260352561</v>
       </c>
-      <c r="CE184" s="35">
+      <c r="CE184" s="34">
         <v>114.07765679088948</v>
       </c>
-      <c r="CF184" s="35">
+      <c r="CF184" s="34">
         <v>84.163079647385459</v>
       </c>
-      <c r="CG184" s="35">
+      <c r="CG184" s="34">
         <v>94.590802938056072</v>
       </c>
-      <c r="CH184" s="35">
+      <c r="CH184" s="34">
         <v>98.277219068055814</v>
       </c>
-      <c r="CI184" s="35">
-        <v>109.62537693154761</v>
-      </c>
-      <c r="CJ184" s="9"/>
+      <c r="CI184" s="34">
+        <v>109.52619263304362</v>
+      </c>
+      <c r="CJ184" s="34">
+        <v>86.261231354044739</v>
+      </c>
       <c r="CK184" s="9"/>
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
@@ -40819,25 +41067,27 @@
       <c r="CC185" s="23">
         <v>98.928540238237844</v>
       </c>
-      <c r="CD185" s="35">
+      <c r="CD185" s="34">
         <v>106.6805434529347</v>
       </c>
-      <c r="CE185" s="35">
+      <c r="CE185" s="34">
         <v>115.17356692214015</v>
       </c>
-      <c r="CF185" s="35">
+      <c r="CF185" s="34">
         <v>82.802085433131566</v>
       </c>
-      <c r="CG185" s="35">
+      <c r="CG185" s="34">
         <v>92.777449473703626</v>
       </c>
-      <c r="CH185" s="35">
+      <c r="CH185" s="34">
         <v>101.74838771703358</v>
       </c>
-      <c r="CI185" s="35">
-        <v>111.73367700112414</v>
-      </c>
-      <c r="CJ185" s="9"/>
+      <c r="CI185" s="34">
+        <v>112.020797848272</v>
+      </c>
+      <c r="CJ185" s="34">
+        <v>84.459305821957244</v>
+      </c>
       <c r="CK185" s="9"/>
       <c r="CL185" s="9"/>
       <c r="CM185" s="9"/>
@@ -41147,25 +41397,27 @@
       <c r="CC186" s="23">
         <v>98.210949832585712</v>
       </c>
-      <c r="CD186" s="35">
+      <c r="CD186" s="34">
         <v>106.95648462292091</v>
       </c>
-      <c r="CE186" s="35">
+      <c r="CE186" s="34">
         <v>115.63553245762206</v>
       </c>
-      <c r="CF186" s="35">
+      <c r="CF186" s="34">
         <v>82.345890884602397</v>
       </c>
-      <c r="CG186" s="35">
+      <c r="CG186" s="34">
         <v>94.641546341473457</v>
       </c>
-      <c r="CH186" s="35">
+      <c r="CH186" s="34">
         <v>101.88612140190965</v>
       </c>
-      <c r="CI186" s="35">
-        <v>112.08981690738263</v>
-      </c>
-      <c r="CJ186" s="9"/>
+      <c r="CI186" s="34">
+        <v>112.2379313249733</v>
+      </c>
+      <c r="CJ186" s="34">
+        <v>85.645796905517713</v>
+      </c>
       <c r="CK186" s="9"/>
       <c r="CL186" s="9"/>
       <c r="CM186" s="9"/>
@@ -41475,25 +41727,27 @@
       <c r="CC187" s="23">
         <v>100.70904794084584</v>
       </c>
-      <c r="CD187" s="35">
+      <c r="CD187" s="34">
         <v>103.68933904067903</v>
       </c>
-      <c r="CE187" s="35">
+      <c r="CE187" s="34">
         <v>117.5185628985751</v>
       </c>
-      <c r="CF187" s="35">
+      <c r="CF187" s="34">
         <v>84.174974343579095</v>
       </c>
-      <c r="CG187" s="35">
+      <c r="CG187" s="34">
         <v>96.362779960151229</v>
       </c>
-      <c r="CH187" s="35">
+      <c r="CH187" s="34">
         <v>100.89580130853484</v>
       </c>
-      <c r="CI187" s="35">
-        <v>112.18068267431185</v>
-      </c>
-      <c r="CJ187" s="9"/>
+      <c r="CI187" s="34">
+        <v>112.21784376760895</v>
+      </c>
+      <c r="CJ187" s="34">
+        <v>87.268647762368687</v>
+      </c>
       <c r="CK187" s="9"/>
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
@@ -41803,25 +42057,27 @@
       <c r="CC188" s="23">
         <v>99.409714621780111</v>
       </c>
-      <c r="CD188" s="35">
+      <c r="CD188" s="34">
         <v>104.75999238739537</v>
       </c>
-      <c r="CE188" s="35">
+      <c r="CE188" s="34">
         <v>110.33479424859235</v>
       </c>
-      <c r="CF188" s="35">
+      <c r="CF188" s="34">
         <v>85.353140530767874</v>
       </c>
-      <c r="CG188" s="35">
+      <c r="CG188" s="34">
         <v>93.931318685627105</v>
       </c>
-      <c r="CH188" s="35">
+      <c r="CH188" s="34">
         <v>95.030322980071276</v>
       </c>
-      <c r="CI188" s="35">
-        <v>106.22318008598812</v>
-      </c>
-      <c r="CJ188" s="9"/>
+      <c r="CI188" s="34">
+        <v>105.81082949153773</v>
+      </c>
+      <c r="CJ188" s="34">
+        <v>86.30662933270861</v>
+      </c>
       <c r="CK188" s="9"/>
       <c r="CL188" s="9"/>
       <c r="CM188" s="9"/>
@@ -42131,25 +42387,27 @@
       <c r="CC189" s="23">
         <v>100.50997596477183</v>
       </c>
-      <c r="CD189" s="35">
+      <c r="CD189" s="34">
         <v>87.032641414439851</v>
       </c>
-      <c r="CE189" s="35">
+      <c r="CE189" s="34">
         <v>87.545664467341254</v>
       </c>
-      <c r="CF189" s="35">
+      <c r="CF189" s="34">
         <v>93.129648506704328</v>
       </c>
-      <c r="CG189" s="35">
+      <c r="CG189" s="34">
         <v>91.746171718901607</v>
       </c>
-      <c r="CH189" s="35">
+      <c r="CH189" s="34">
         <v>88.081636794682581</v>
       </c>
-      <c r="CI189" s="35">
-        <v>85.817743198664928</v>
-      </c>
-      <c r="CJ189" s="9"/>
+      <c r="CI189" s="34">
+        <v>85.810785154603224</v>
+      </c>
+      <c r="CJ189" s="34">
+        <v>96.713054772435996</v>
+      </c>
       <c r="CK189" s="9"/>
       <c r="CL189" s="9"/>
       <c r="CM189" s="9"/>
@@ -42459,25 +42717,27 @@
       <c r="CC190" s="23">
         <v>99.769466769515645</v>
       </c>
-      <c r="CD190" s="35">
+      <c r="CD190" s="34">
         <v>85.727968735054176</v>
       </c>
-      <c r="CE190" s="35">
+      <c r="CE190" s="34">
         <v>88.031259317168733</v>
       </c>
-      <c r="CF190" s="35">
+      <c r="CF190" s="34">
         <v>92.856812403336491</v>
       </c>
-      <c r="CG190" s="35">
+      <c r="CG190" s="34">
         <v>91.134519701374373</v>
       </c>
-      <c r="CH190" s="35">
+      <c r="CH190" s="34">
         <v>86.645388992802822</v>
       </c>
-      <c r="CI190" s="35">
-        <v>86.032180139402612</v>
-      </c>
-      <c r="CJ190" s="9"/>
+      <c r="CI190" s="34">
+        <v>86.040296016374967</v>
+      </c>
+      <c r="CJ190" s="34">
+        <v>96.358747451327275</v>
+      </c>
       <c r="CK190" s="9"/>
       <c r="CL190" s="9"/>
       <c r="CM190" s="9"/>
@@ -42787,25 +43047,27 @@
       <c r="CC191" s="23">
         <v>108.44763790877643</v>
       </c>
-      <c r="CD191" s="35">
+      <c r="CD191" s="34">
         <v>93.945786946252312</v>
       </c>
-      <c r="CE191" s="35">
+      <c r="CE191" s="34">
         <v>71.303198172672538</v>
       </c>
-      <c r="CF191" s="35">
+      <c r="CF191" s="34">
         <v>99.808954712186619</v>
       </c>
-      <c r="CG191" s="35">
+      <c r="CG191" s="34">
         <v>104.14185489107885</v>
       </c>
-      <c r="CH191" s="35">
+      <c r="CH191" s="34">
         <v>91.924890463158221</v>
       </c>
-      <c r="CI191" s="35">
+      <c r="CI191" s="34">
         <v>70.007685240126563</v>
       </c>
-      <c r="CJ191" s="9"/>
+      <c r="CJ191" s="34">
+        <v>105.49251565318556</v>
+      </c>
       <c r="CK191" s="9"/>
       <c r="CL191" s="9"/>
       <c r="CM191" s="9"/>
@@ -43115,25 +43377,27 @@
       <c r="CC192" s="23">
         <v>105.33736610416689</v>
       </c>
-      <c r="CD192" s="35">
+      <c r="CD192" s="34">
         <v>108.80315330148483</v>
       </c>
-      <c r="CE192" s="35">
+      <c r="CE192" s="34">
         <v>84.745316289391184</v>
       </c>
-      <c r="CF192" s="35">
+      <c r="CF192" s="34">
         <v>108.15398887020619</v>
       </c>
-      <c r="CG192" s="35">
+      <c r="CG192" s="34">
         <v>100.91543708148217</v>
       </c>
-      <c r="CH192" s="35">
+      <c r="CH192" s="34">
         <v>103.61495666909011</v>
       </c>
-      <c r="CI192" s="35">
-        <v>83.203798106140411</v>
-      </c>
-      <c r="CJ192" s="9"/>
+      <c r="CI192" s="34">
+        <v>83.204193323683455</v>
+      </c>
+      <c r="CJ192" s="34">
+        <v>114.24720898089191</v>
+      </c>
       <c r="CK192" s="9"/>
       <c r="CL192" s="9"/>
       <c r="CM192" s="9"/>
@@ -43443,25 +43707,27 @@
       <c r="CC193" s="23">
         <v>101.58732438424305</v>
       </c>
-      <c r="CD193" s="35">
+      <c r="CD193" s="34">
         <v>95.015182713340323</v>
       </c>
-      <c r="CE193" s="35">
+      <c r="CE193" s="34">
         <v>85.311351418525334</v>
       </c>
-      <c r="CF193" s="35">
+      <c r="CF193" s="34">
         <v>84.546113244294901</v>
       </c>
-      <c r="CG193" s="35">
+      <c r="CG193" s="34">
         <v>93.067332878407484</v>
       </c>
-      <c r="CH193" s="35">
+      <c r="CH193" s="34">
         <v>112.78805665974683</v>
       </c>
-      <c r="CI193" s="35">
-        <v>83.765922302405073</v>
-      </c>
-      <c r="CJ193" s="9"/>
+      <c r="CI193" s="34">
+        <v>83.772884199413497</v>
+      </c>
+      <c r="CJ193" s="34">
+        <v>88.562794531848041</v>
+      </c>
       <c r="CK193" s="9"/>
       <c r="CL193" s="9"/>
       <c r="CM193" s="9"/>
@@ -43771,25 +44037,27 @@
       <c r="CC194" s="23">
         <v>138.18048715846984</v>
       </c>
-      <c r="CD194" s="35">
+      <c r="CD194" s="34">
         <v>105.46948025268823</v>
       </c>
-      <c r="CE194" s="35">
+      <c r="CE194" s="34">
         <v>69.437564120788124</v>
       </c>
-      <c r="CF194" s="35">
+      <c r="CF194" s="34">
         <v>99.176827558624169</v>
       </c>
-      <c r="CG194" s="35">
+      <c r="CG194" s="34">
         <v>127.51473563609377</v>
       </c>
-      <c r="CH194" s="35">
+      <c r="CH194" s="34">
         <v>98.165173329144778</v>
       </c>
-      <c r="CI194" s="35">
-        <v>68.690325024945935</v>
-      </c>
-      <c r="CJ194" s="9"/>
+      <c r="CI194" s="34">
+        <v>68.820051386570839</v>
+      </c>
+      <c r="CJ194" s="34">
+        <v>102.46814529057305</v>
+      </c>
       <c r="CK194" s="9"/>
       <c r="CL194" s="9"/>
       <c r="CM194" s="9"/>
@@ -44099,25 +44367,27 @@
       <c r="CC195" s="23">
         <v>195.20613744078668</v>
       </c>
-      <c r="CD195" s="35">
+      <c r="CD195" s="34">
         <v>101.72380509590992</v>
       </c>
-      <c r="CE195" s="35">
+      <c r="CE195" s="34">
         <v>61.063723146791936</v>
       </c>
-      <c r="CF195" s="35">
+      <c r="CF195" s="34">
         <v>123.8013023923311</v>
       </c>
-      <c r="CG195" s="35">
+      <c r="CG195" s="34">
         <v>186.42397616842584</v>
       </c>
-      <c r="CH195" s="35">
+      <c r="CH195" s="34">
         <v>95.307299418150365</v>
       </c>
-      <c r="CI195" s="35">
-        <v>58.265530319511285</v>
-      </c>
-      <c r="CJ195" s="9"/>
+      <c r="CI195" s="34">
+        <v>58.393916181009828</v>
+      </c>
+      <c r="CJ195" s="34">
+        <v>129.48050943764352</v>
+      </c>
       <c r="CK195" s="9"/>
       <c r="CL195" s="9"/>
       <c r="CM195" s="9"/>
@@ -44427,25 +44697,27 @@
       <c r="CC196" s="23">
         <v>137.08316716536797</v>
       </c>
-      <c r="CD196" s="35">
+      <c r="CD196" s="34">
         <v>94.450691558900928</v>
       </c>
-      <c r="CE196" s="35">
+      <c r="CE196" s="34">
         <v>66.709872465159791</v>
       </c>
-      <c r="CF196" s="35">
+      <c r="CF196" s="34">
         <v>100.96592150303564</v>
       </c>
-      <c r="CG196" s="35">
+      <c r="CG196" s="34">
         <v>119.44024426995026</v>
       </c>
-      <c r="CH196" s="35">
+      <c r="CH196" s="34">
         <v>86.881887138000238</v>
       </c>
-      <c r="CI196" s="35">
-        <v>65.073268358406338</v>
-      </c>
-      <c r="CJ196" s="9"/>
+      <c r="CI196" s="34">
+        <v>64.754500140122147</v>
+      </c>
+      <c r="CJ196" s="34">
+        <v>109.08256162353351</v>
+      </c>
       <c r="CK196" s="9"/>
       <c r="CL196" s="9"/>
       <c r="CM196" s="9"/>
@@ -44755,25 +45027,27 @@
       <c r="CC197" s="23">
         <v>145.68787346337893</v>
       </c>
-      <c r="CD197" s="35">
+      <c r="CD197" s="34">
         <v>114.16745475979866</v>
       </c>
-      <c r="CE197" s="35">
+      <c r="CE197" s="34">
         <v>64.813504572142222</v>
       </c>
-      <c r="CF197" s="35">
+      <c r="CF197" s="34">
         <v>96.949596744503239</v>
       </c>
-      <c r="CG197" s="35">
+      <c r="CG197" s="34">
         <v>135.80216778707197</v>
       </c>
-      <c r="CH197" s="35">
+      <c r="CH197" s="34">
         <v>107.98771547893695</v>
       </c>
-      <c r="CI197" s="35">
-        <v>62.957443838230631</v>
-      </c>
-      <c r="CJ197" s="9"/>
+      <c r="CI197" s="34">
+        <v>63.13076027162866</v>
+      </c>
+      <c r="CJ197" s="34">
+        <v>99.397951458913951</v>
+      </c>
       <c r="CK197" s="9"/>
       <c r="CL197" s="9"/>
       <c r="CM197" s="9"/>
@@ -45083,25 +45357,27 @@
       <c r="CC198" s="23">
         <v>111.18976810455952</v>
       </c>
-      <c r="CD198" s="35">
+      <c r="CD198" s="34">
         <v>99.335013313631038</v>
       </c>
-      <c r="CE198" s="35">
+      <c r="CE198" s="34">
         <v>92.827456249381441</v>
       </c>
-      <c r="CF198" s="35">
+      <c r="CF198" s="34">
         <v>90.250100087358035</v>
       </c>
-      <c r="CG198" s="35">
+      <c r="CG198" s="34">
         <v>97.570417865607098</v>
       </c>
-      <c r="CH198" s="35">
+      <c r="CH198" s="34">
         <v>93.054313415171592</v>
       </c>
-      <c r="CI198" s="35">
-        <v>91.518566856765005</v>
-      </c>
-      <c r="CJ198" s="9"/>
+      <c r="CI198" s="34">
+        <v>91.523625621403554</v>
+      </c>
+      <c r="CJ198" s="34">
+        <v>95.643049991763505</v>
+      </c>
       <c r="CK198" s="9"/>
       <c r="CL198" s="9"/>
       <c r="CM198" s="9"/>
@@ -45248,13 +45524,13 @@
       <c r="CA199" s="9"/>
       <c r="CB199" s="9"/>
       <c r="CC199" s="9"/>
-      <c r="CD199" s="30"/>
-      <c r="CE199" s="30"/>
-      <c r="CF199" s="30"/>
-      <c r="CG199" s="30"/>
-      <c r="CH199" s="30"/>
-      <c r="CI199" s="30"/>
-      <c r="CJ199" s="9"/>
+      <c r="CD199" s="29"/>
+      <c r="CE199" s="29"/>
+      <c r="CF199" s="29"/>
+      <c r="CG199" s="29"/>
+      <c r="CH199" s="29"/>
+      <c r="CI199" s="29"/>
+      <c r="CJ199" s="29"/>
       <c r="CK199" s="9"/>
       <c r="CL199" s="9"/>
       <c r="CM199" s="9"/>
@@ -45564,25 +45840,27 @@
       <c r="CC200" s="23">
         <v>102.00166096981715</v>
       </c>
-      <c r="CD200" s="35">
+      <c r="CD200" s="34">
         <v>95.959358481368326</v>
       </c>
-      <c r="CE200" s="35">
+      <c r="CE200" s="34">
         <v>96.003914815404357</v>
       </c>
-      <c r="CF200" s="35">
+      <c r="CF200" s="34">
         <v>89.319621237342076</v>
       </c>
-      <c r="CG200" s="35">
+      <c r="CG200" s="34">
         <v>95.641314592119258</v>
       </c>
-      <c r="CH200" s="35">
+      <c r="CH200" s="34">
         <v>94.16121041790116</v>
       </c>
-      <c r="CI200" s="35">
-        <v>91.999371158753505</v>
-      </c>
-      <c r="CJ200" s="9"/>
+      <c r="CI200" s="34">
+        <v>91.995112563486629</v>
+      </c>
+      <c r="CJ200" s="34">
+        <v>92.800422158626105</v>
+      </c>
       <c r="CK200" s="9"/>
       <c r="CL200" s="9"/>
       <c r="CM200" s="9"/>
@@ -45730,12 +46008,13 @@
       <c r="CA201" s="14"/>
       <c r="CB201" s="14"/>
       <c r="CC201" s="14"/>
-      <c r="CD201" s="32"/>
-      <c r="CE201" s="32"/>
-      <c r="CF201" s="32"/>
-      <c r="CG201" s="32"/>
-      <c r="CH201" s="32"/>
-      <c r="CI201" s="32"/>
+      <c r="CD201" s="31"/>
+      <c r="CE201" s="31"/>
+      <c r="CF201" s="31"/>
+      <c r="CG201" s="31"/>
+      <c r="CH201" s="31"/>
+      <c r="CI201" s="31"/>
+      <c r="CJ201" s="31"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
@@ -45823,13 +46102,13 @@
       <c r="CA203" s="9"/>
       <c r="CB203" s="9"/>
       <c r="CC203" s="9"/>
-      <c r="CD203" s="30"/>
-      <c r="CE203" s="30"/>
-      <c r="CF203" s="30"/>
-      <c r="CG203" s="30"/>
-      <c r="CH203" s="30"/>
-      <c r="CI203" s="30"/>
-      <c r="CJ203" s="9"/>
+      <c r="CD203" s="29"/>
+      <c r="CE203" s="29"/>
+      <c r="CF203" s="29"/>
+      <c r="CG203" s="29"/>
+      <c r="CH203" s="29"/>
+      <c r="CI203" s="29"/>
+      <c r="CJ203" s="29"/>
       <c r="CK203" s="9"/>
       <c r="CL203" s="9"/>
       <c r="CM203" s="9"/>
@@ -45976,13 +46255,13 @@
       <c r="CA204" s="9"/>
       <c r="CB204" s="9"/>
       <c r="CC204" s="9"/>
-      <c r="CD204" s="30"/>
-      <c r="CE204" s="30"/>
-      <c r="CF204" s="30"/>
-      <c r="CG204" s="30"/>
-      <c r="CH204" s="30"/>
-      <c r="CI204" s="30"/>
-      <c r="CJ204" s="9"/>
+      <c r="CD204" s="29"/>
+      <c r="CE204" s="29"/>
+      <c r="CF204" s="29"/>
+      <c r="CG204" s="29"/>
+      <c r="CH204" s="29"/>
+      <c r="CI204" s="29"/>
+      <c r="CJ204" s="29"/>
       <c r="CK204" s="9"/>
       <c r="CL204" s="9"/>
       <c r="CM204" s="9"/>
@@ -46080,138 +46359,139 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="38">
+      <c r="B213" s="40">
         <v>2000</v>
       </c>
-      <c r="C213" s="38"/>
-      <c r="D213" s="38"/>
-      <c r="E213" s="38"/>
-      <c r="F213" s="38">
+      <c r="C213" s="40"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40">
         <v>2001</v>
       </c>
-      <c r="G213" s="38"/>
-      <c r="H213" s="38"/>
-      <c r="I213" s="38"/>
-      <c r="J213" s="38">
+      <c r="G213" s="40"/>
+      <c r="H213" s="40"/>
+      <c r="I213" s="40"/>
+      <c r="J213" s="40">
         <v>2002</v>
       </c>
-      <c r="K213" s="38"/>
-      <c r="L213" s="38"/>
-      <c r="M213" s="38"/>
-      <c r="N213" s="38">
+      <c r="K213" s="40"/>
+      <c r="L213" s="40"/>
+      <c r="M213" s="40"/>
+      <c r="N213" s="40">
         <v>2003</v>
       </c>
-      <c r="O213" s="38"/>
-      <c r="P213" s="38"/>
-      <c r="Q213" s="38"/>
-      <c r="R213" s="38">
+      <c r="O213" s="40"/>
+      <c r="P213" s="40"/>
+      <c r="Q213" s="40"/>
+      <c r="R213" s="40">
         <v>2004</v>
       </c>
-      <c r="S213" s="38"/>
-      <c r="T213" s="38"/>
-      <c r="U213" s="38"/>
-      <c r="V213" s="38">
+      <c r="S213" s="40"/>
+      <c r="T213" s="40"/>
+      <c r="U213" s="40"/>
+      <c r="V213" s="40">
         <v>2005</v>
       </c>
-      <c r="W213" s="38"/>
-      <c r="X213" s="38"/>
-      <c r="Y213" s="38"/>
-      <c r="Z213" s="38">
+      <c r="W213" s="40"/>
+      <c r="X213" s="40"/>
+      <c r="Y213" s="40"/>
+      <c r="Z213" s="40">
         <v>2006</v>
       </c>
-      <c r="AA213" s="38"/>
-      <c r="AB213" s="38"/>
-      <c r="AC213" s="38"/>
-      <c r="AD213" s="38">
+      <c r="AA213" s="40"/>
+      <c r="AB213" s="40"/>
+      <c r="AC213" s="40"/>
+      <c r="AD213" s="40">
         <v>2007</v>
       </c>
-      <c r="AE213" s="38"/>
-      <c r="AF213" s="38"/>
-      <c r="AG213" s="38"/>
-      <c r="AH213" s="38">
+      <c r="AE213" s="40"/>
+      <c r="AF213" s="40"/>
+      <c r="AG213" s="40"/>
+      <c r="AH213" s="40">
         <v>2008</v>
       </c>
-      <c r="AI213" s="38"/>
-      <c r="AJ213" s="38"/>
-      <c r="AK213" s="38"/>
-      <c r="AL213" s="38">
+      <c r="AI213" s="40"/>
+      <c r="AJ213" s="40"/>
+      <c r="AK213" s="40"/>
+      <c r="AL213" s="40">
         <v>2009</v>
       </c>
-      <c r="AM213" s="38"/>
-      <c r="AN213" s="38"/>
-      <c r="AO213" s="38"/>
-      <c r="AP213" s="38">
+      <c r="AM213" s="40"/>
+      <c r="AN213" s="40"/>
+      <c r="AO213" s="40"/>
+      <c r="AP213" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="38"/>
-      <c r="AR213" s="38"/>
-      <c r="AS213" s="38"/>
-      <c r="AT213" s="38">
+      <c r="AQ213" s="40"/>
+      <c r="AR213" s="40"/>
+      <c r="AS213" s="40"/>
+      <c r="AT213" s="40">
         <v>2011</v>
       </c>
-      <c r="AU213" s="38"/>
-      <c r="AV213" s="38"/>
-      <c r="AW213" s="38"/>
-      <c r="AX213" s="38">
+      <c r="AU213" s="40"/>
+      <c r="AV213" s="40"/>
+      <c r="AW213" s="40"/>
+      <c r="AX213" s="40">
         <v>2012</v>
       </c>
-      <c r="AY213" s="38"/>
-      <c r="AZ213" s="38"/>
-      <c r="BA213" s="38"/>
-      <c r="BB213" s="38">
+      <c r="AY213" s="40"/>
+      <c r="AZ213" s="40"/>
+      <c r="BA213" s="40"/>
+      <c r="BB213" s="40">
         <v>2013</v>
       </c>
-      <c r="BC213" s="38"/>
-      <c r="BD213" s="38"/>
-      <c r="BE213" s="38"/>
-      <c r="BF213" s="38">
+      <c r="BC213" s="40"/>
+      <c r="BD213" s="40"/>
+      <c r="BE213" s="40"/>
+      <c r="BF213" s="40">
         <v>2014</v>
       </c>
-      <c r="BG213" s="38"/>
-      <c r="BH213" s="38"/>
-      <c r="BI213" s="38"/>
-      <c r="BJ213" s="38">
+      <c r="BG213" s="40"/>
+      <c r="BH213" s="40"/>
+      <c r="BI213" s="40"/>
+      <c r="BJ213" s="40">
         <v>2015</v>
       </c>
-      <c r="BK213" s="38"/>
-      <c r="BL213" s="38"/>
-      <c r="BM213" s="38"/>
-      <c r="BN213" s="38">
+      <c r="BK213" s="40"/>
+      <c r="BL213" s="40"/>
+      <c r="BM213" s="40"/>
+      <c r="BN213" s="40">
         <v>2016</v>
       </c>
-      <c r="BO213" s="38"/>
-      <c r="BP213" s="38"/>
-      <c r="BQ213" s="38"/>
-      <c r="BR213" s="38">
+      <c r="BO213" s="40"/>
+      <c r="BP213" s="40"/>
+      <c r="BQ213" s="40"/>
+      <c r="BR213" s="40">
         <v>2017</v>
       </c>
-      <c r="BS213" s="38"/>
-      <c r="BT213" s="38"/>
-      <c r="BU213" s="38"/>
-      <c r="BV213" s="38">
+      <c r="BS213" s="40"/>
+      <c r="BT213" s="40"/>
+      <c r="BU213" s="40"/>
+      <c r="BV213" s="40">
         <v>2018</v>
       </c>
-      <c r="BW213" s="38"/>
-      <c r="BX213" s="38"/>
-      <c r="BY213" s="38"/>
-      <c r="BZ213" s="38">
+      <c r="BW213" s="40"/>
+      <c r="BX213" s="40"/>
+      <c r="BY213" s="40"/>
+      <c r="BZ213" s="40">
         <v>2019</v>
       </c>
-      <c r="CA213" s="38"/>
-      <c r="CB213" s="38"/>
-      <c r="CC213" s="38"/>
-      <c r="CD213" s="36">
+      <c r="CA213" s="40"/>
+      <c r="CB213" s="40"/>
+      <c r="CC213" s="40"/>
+      <c r="CD213" s="41">
         <v>2020</v>
       </c>
-      <c r="CE213" s="36"/>
-      <c r="CF213" s="36"/>
-      <c r="CG213" s="36"/>
-      <c r="CH213" s="36">
+      <c r="CE213" s="41"/>
+      <c r="CF213" s="41"/>
+      <c r="CG213" s="41"/>
+      <c r="CH213" s="41">
         <v>2021</v>
       </c>
-      <c r="CI213" s="36">
+      <c r="CI213" s="41">
         <v>0</v>
       </c>
+      <c r="CJ213" s="41"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -46457,23 +46737,26 @@
       <c r="CC214" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD214" s="33" t="s">
+      <c r="CD214" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE214" s="33" t="s">
+      <c r="CE214" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF214" s="33" t="s">
+      <c r="CF214" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG214" s="33" t="s">
+      <c r="CG214" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CH214" s="33" t="s">
+      <c r="CH214" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CI214" s="33" t="s">
+      <c r="CI214" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ214" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -46723,25 +47006,27 @@
       <c r="CC216" s="23">
         <v>15.261454508540689</v>
       </c>
-      <c r="CD216" s="35">
+      <c r="CD216" s="34">
         <v>16.464528892541438</v>
       </c>
-      <c r="CE216" s="35">
+      <c r="CE216" s="34">
         <v>20.568100011977336</v>
       </c>
-      <c r="CF216" s="35">
+      <c r="CF216" s="34">
         <v>17.093465454990749</v>
       </c>
-      <c r="CG216" s="35">
+      <c r="CG216" s="34">
         <v>19.58527560425021</v>
       </c>
-      <c r="CH216" s="35">
+      <c r="CH216" s="34">
         <v>20.151695356268782</v>
       </c>
-      <c r="CI216" s="35">
-        <v>19.652618424018474</v>
-      </c>
-      <c r="CJ216" s="9"/>
+      <c r="CI216" s="34">
+        <v>19.45556208157322</v>
+      </c>
+      <c r="CJ216" s="34">
+        <v>16.450926601928913</v>
+      </c>
       <c r="CK216" s="9"/>
       <c r="CL216" s="9"/>
       <c r="CM216" s="9"/>
@@ -47051,25 +47336,27 @@
       <c r="CC217" s="23">
         <v>0.7248008240452164</v>
       </c>
-      <c r="CD217" s="35">
+      <c r="CD217" s="34">
         <v>0.8702120402276361</v>
       </c>
-      <c r="CE217" s="35">
+      <c r="CE217" s="34">
         <v>1.1934305127924729</v>
       </c>
-      <c r="CF217" s="35">
+      <c r="CF217" s="34">
         <v>1.2402535193973603</v>
       </c>
-      <c r="CG217" s="35">
+      <c r="CG217" s="34">
         <v>1.720945161769794</v>
       </c>
-      <c r="CH217" s="35">
+      <c r="CH217" s="34">
         <v>1.8424315504477293</v>
       </c>
-      <c r="CI217" s="35">
-        <v>1.6218493513405181</v>
-      </c>
-      <c r="CJ217" s="9"/>
+      <c r="CI217" s="34">
+        <v>1.5923773802949677</v>
+      </c>
+      <c r="CJ217" s="34">
+        <v>1.7954119566270048</v>
+      </c>
       <c r="CK217" s="9"/>
       <c r="CL217" s="9"/>
       <c r="CM217" s="9"/>
@@ -47379,25 +47666,27 @@
       <c r="CC218" s="23">
         <v>2.7028475492319988</v>
       </c>
-      <c r="CD218" s="35">
+      <c r="CD218" s="34">
         <v>2.8231742699198059</v>
       </c>
-      <c r="CE218" s="35">
+      <c r="CE218" s="34">
         <v>4.1358415627168412</v>
       </c>
-      <c r="CF218" s="35">
+      <c r="CF218" s="34">
         <v>2.5505530907010217</v>
       </c>
-      <c r="CG218" s="35">
+      <c r="CG218" s="34">
         <v>1.8456508487833547</v>
       </c>
-      <c r="CH218" s="35">
+      <c r="CH218" s="34">
         <v>2.2223050192862663</v>
       </c>
-      <c r="CI218" s="35">
-        <v>3.9658269134788893</v>
-      </c>
-      <c r="CJ218" s="9"/>
+      <c r="CI218" s="34">
+        <v>3.9771707133915544</v>
+      </c>
+      <c r="CJ218" s="34">
+        <v>3.722604193396021</v>
+      </c>
       <c r="CK218" s="9"/>
       <c r="CL218" s="9"/>
       <c r="CM218" s="9"/>
@@ -47707,25 +47996,27 @@
       <c r="CC219" s="23">
         <v>0.26327923707896367</v>
       </c>
-      <c r="CD219" s="35">
+      <c r="CD219" s="34">
         <v>0.19987367614982943</v>
       </c>
-      <c r="CE219" s="35">
+      <c r="CE219" s="34">
         <v>0.3081627483396272</v>
       </c>
-      <c r="CF219" s="35">
+      <c r="CF219" s="34">
         <v>0.2797401448184289</v>
       </c>
-      <c r="CG219" s="35">
+      <c r="CG219" s="34">
         <v>0.20308815701332553</v>
       </c>
-      <c r="CH219" s="35">
+      <c r="CH219" s="34">
         <v>0.16165199708550443</v>
       </c>
-      <c r="CI219" s="35">
-        <v>0.19986784095545229</v>
-      </c>
-      <c r="CJ219" s="9"/>
+      <c r="CI219" s="34">
+        <v>0.20387929975883368</v>
+      </c>
+      <c r="CJ219" s="34">
+        <v>0.24336631571523309</v>
+      </c>
       <c r="CK219" s="9"/>
       <c r="CL219" s="9"/>
       <c r="CM219" s="9"/>
@@ -48035,25 +48326,27 @@
       <c r="CC220" s="23">
         <v>0.32120662426973368</v>
       </c>
-      <c r="CD220" s="35">
+      <c r="CD220" s="34">
         <v>0.54841749581705401</v>
       </c>
-      <c r="CE220" s="35">
+      <c r="CE220" s="34">
         <v>0.28659605833430074</v>
       </c>
-      <c r="CF220" s="35">
+      <c r="CF220" s="34">
         <v>0.22497924089042881</v>
       </c>
-      <c r="CG220" s="35">
+      <c r="CG220" s="34">
         <v>0.17024183962238479</v>
       </c>
-      <c r="CH220" s="35">
+      <c r="CH220" s="34">
         <v>0.16590460374059038</v>
       </c>
-      <c r="CI220" s="35">
-        <v>0.14423786196544969</v>
-      </c>
-      <c r="CJ220" s="9"/>
+      <c r="CI220" s="34">
+        <v>0.14379821625121919</v>
+      </c>
+      <c r="CJ220" s="34">
+        <v>0.18485104183609893</v>
+      </c>
       <c r="CK220" s="9"/>
       <c r="CL220" s="9"/>
       <c r="CM220" s="9"/>
@@ -48363,25 +48656,27 @@
       <c r="CC221" s="23">
         <v>1.0534243055562857</v>
       </c>
-      <c r="CD221" s="35">
+      <c r="CD221" s="34">
         <v>1.0150309260405701</v>
       </c>
-      <c r="CE221" s="35">
+      <c r="CE221" s="34">
         <v>1.9047393383226114</v>
       </c>
-      <c r="CF221" s="35">
+      <c r="CF221" s="34">
         <v>1.3166653934314596</v>
       </c>
-      <c r="CG221" s="35">
+      <c r="CG221" s="34">
         <v>0.88398812276815397</v>
       </c>
-      <c r="CH221" s="35">
+      <c r="CH221" s="34">
         <v>0.92913048767165607</v>
       </c>
-      <c r="CI221" s="35">
-        <v>1.3414406878725489</v>
-      </c>
-      <c r="CJ221" s="9"/>
+      <c r="CI221" s="34">
+        <v>1.358490189320138</v>
+      </c>
+      <c r="CJ221" s="34">
+        <v>1.3419343711899008</v>
+      </c>
       <c r="CK221" s="9"/>
       <c r="CL221" s="9"/>
       <c r="CM221" s="9"/>
@@ -48691,25 +48986,27 @@
       <c r="CC222" s="23">
         <v>7.069420053920811</v>
       </c>
-      <c r="CD222" s="35">
+      <c r="CD222" s="34">
         <v>8.4674500174453797</v>
       </c>
-      <c r="CE222" s="35">
+      <c r="CE222" s="34">
         <v>8.5826489352048014</v>
       </c>
-      <c r="CF222" s="35">
+      <c r="CF222" s="34">
         <v>7.9633953148975039</v>
       </c>
-      <c r="CG222" s="35">
+      <c r="CG222" s="34">
         <v>11.709083340841788</v>
       </c>
-      <c r="CH222" s="35">
+      <c r="CH222" s="34">
         <v>11.415593121501098</v>
       </c>
-      <c r="CI222" s="35">
-        <v>8.6598685543345955</v>
-      </c>
-      <c r="CJ222" s="9"/>
+      <c r="CI222" s="34">
+        <v>8.4905345451420882</v>
+      </c>
+      <c r="CJ222" s="34">
+        <v>5.7847032131029215</v>
+      </c>
       <c r="CK222" s="9"/>
       <c r="CL222" s="9"/>
       <c r="CM222" s="9"/>
@@ -49019,25 +49316,27 @@
       <c r="CC223" s="23">
         <v>0.44648295905814772</v>
       </c>
-      <c r="CD223" s="35">
+      <c r="CD223" s="34">
         <v>0.43905865905169716</v>
       </c>
-      <c r="CE223" s="35">
+      <c r="CE223" s="34">
         <v>0.50035079268501659</v>
       </c>
-      <c r="CF223" s="35">
+      <c r="CF223" s="34">
         <v>0.83407099982035671</v>
       </c>
-      <c r="CG223" s="35">
+      <c r="CG223" s="34">
         <v>0.4114677340745409</v>
       </c>
-      <c r="CH223" s="35">
+      <c r="CH223" s="34">
         <v>0.53003569759056157</v>
       </c>
-      <c r="CI223" s="35">
-        <v>0.24350006939915289</v>
-      </c>
-      <c r="CJ223" s="9"/>
+      <c r="CI223" s="34">
+        <v>0.23785949479620205</v>
+      </c>
+      <c r="CJ223" s="34">
+        <v>0.38060502335273722</v>
+      </c>
       <c r="CK223" s="9"/>
       <c r="CL223" s="9"/>
       <c r="CM223" s="9"/>
@@ -49347,25 +49646,27 @@
       <c r="CC224" s="23">
         <v>2.6799929553795319</v>
       </c>
-      <c r="CD224" s="35">
+      <c r="CD224" s="34">
         <v>2.1013118078894673</v>
       </c>
-      <c r="CE224" s="35">
+      <c r="CE224" s="34">
         <v>3.6563300635816671</v>
       </c>
-      <c r="CF224" s="35">
+      <c r="CF224" s="34">
         <v>2.6838077510341902</v>
       </c>
-      <c r="CG224" s="35">
+      <c r="CG224" s="34">
         <v>2.6408103993768677</v>
       </c>
-      <c r="CH224" s="35">
+      <c r="CH224" s="34">
         <v>2.8846428789453742</v>
       </c>
-      <c r="CI224" s="35">
-        <v>3.4760271446718662</v>
-      </c>
-      <c r="CJ224" s="9"/>
+      <c r="CI224" s="34">
+        <v>3.4514522426182177</v>
+      </c>
+      <c r="CJ224" s="34">
+        <v>2.9974504867089924</v>
+      </c>
       <c r="CK224" s="9"/>
       <c r="CL224" s="9"/>
       <c r="CM224" s="9"/>
@@ -49675,25 +49976,27 @@
       <c r="CC225" s="23">
         <v>15.159894192309961</v>
       </c>
-      <c r="CD225" s="35">
+      <c r="CD225" s="34">
         <v>17.788089950828571</v>
       </c>
-      <c r="CE225" s="35">
+      <c r="CE225" s="34">
         <v>24.750678287658122</v>
       </c>
-      <c r="CF225" s="35">
+      <c r="CF225" s="34">
         <v>19.698286420922418</v>
       </c>
-      <c r="CG225" s="35">
+      <c r="CG225" s="34">
         <v>17.326708135409515</v>
       </c>
-      <c r="CH225" s="35">
+      <c r="CH225" s="34">
         <v>17.137838704126253</v>
       </c>
-      <c r="CI225" s="35">
-        <v>16.257510922887128</v>
-      </c>
-      <c r="CJ225" s="9"/>
+      <c r="CI225" s="34">
+        <v>16.311654366854956</v>
+      </c>
+      <c r="CJ225" s="34">
+        <v>18.746790339516501</v>
+      </c>
       <c r="CK225" s="9"/>
       <c r="CL225" s="9"/>
       <c r="CM225" s="9"/>
@@ -50003,25 +50306,27 @@
       <c r="CC226" s="23">
         <v>2.9888883131742729</v>
       </c>
-      <c r="CD226" s="35">
+      <c r="CD226" s="34">
         <v>3.2148487579704317</v>
       </c>
-      <c r="CE226" s="35">
+      <c r="CE226" s="34">
         <v>3.2546231370484389</v>
       </c>
-      <c r="CF226" s="35">
+      <c r="CF226" s="34">
         <v>3.6248931971479403</v>
       </c>
-      <c r="CG226" s="35">
+      <c r="CG226" s="34">
         <v>3.2033222975914981</v>
       </c>
-      <c r="CH226" s="35">
+      <c r="CH226" s="34">
         <v>2.7082650071367684</v>
       </c>
-      <c r="CI226" s="35">
-        <v>2.9513322388249765</v>
-      </c>
-      <c r="CJ226" s="9"/>
+      <c r="CI226" s="34">
+        <v>2.9087812716674466</v>
+      </c>
+      <c r="CJ226" s="34">
+        <v>2.96524188730886</v>
+      </c>
       <c r="CK226" s="9"/>
       <c r="CL226" s="9"/>
       <c r="CM226" s="9"/>
@@ -50331,25 +50636,27 @@
       <c r="CC227" s="23">
         <v>1.8607731069273006</v>
       </c>
-      <c r="CD227" s="35">
+      <c r="CD227" s="34">
         <v>1.5682352873650913</v>
       </c>
-      <c r="CE227" s="35">
+      <c r="CE227" s="34">
         <v>2.3762260189863702</v>
       </c>
-      <c r="CF227" s="35">
+      <c r="CF227" s="34">
         <v>2.1829177240297275</v>
       </c>
-      <c r="CG227" s="35">
+      <c r="CG227" s="34">
         <v>2.0141053318160487</v>
       </c>
-      <c r="CH227" s="35">
+      <c r="CH227" s="34">
         <v>1.6408026440526895</v>
       </c>
-      <c r="CI227" s="35">
-        <v>2.0600066039179601</v>
-      </c>
-      <c r="CJ227" s="9"/>
+      <c r="CI227" s="34">
+        <v>2.0754738261544334</v>
+      </c>
+      <c r="CJ227" s="34">
+        <v>2.0765509807387383</v>
+      </c>
       <c r="CK227" s="9"/>
       <c r="CL227" s="9"/>
       <c r="CM227" s="9"/>
@@ -50659,25 +50966,27 @@
       <c r="CC228" s="23">
         <v>4.7411197272604744</v>
       </c>
-      <c r="CD228" s="35">
+      <c r="CD228" s="34">
         <v>3.8078601888528136</v>
       </c>
-      <c r="CE228" s="35">
+      <c r="CE228" s="34">
         <v>9.2657122018637939</v>
       </c>
-      <c r="CF228" s="35">
+      <c r="CF228" s="34">
         <v>6.2253144431778509</v>
       </c>
-      <c r="CG228" s="35">
+      <c r="CG228" s="34">
         <v>5.7674421257126376</v>
       </c>
-      <c r="CH228" s="35">
+      <c r="CH228" s="34">
         <v>4.7644728600214572</v>
       </c>
-      <c r="CI228" s="35">
-        <v>4.7296745156961721</v>
-      </c>
-      <c r="CJ228" s="9"/>
+      <c r="CI228" s="34">
+        <v>4.7855321754493492</v>
+      </c>
+      <c r="CJ228" s="34">
+        <v>6.4418875088411713</v>
+      </c>
       <c r="CK228" s="9"/>
       <c r="CL228" s="9"/>
       <c r="CM228" s="9"/>
@@ -50987,25 +51296,27 @@
       <c r="CC229" s="23">
         <v>5.5691130449479154</v>
       </c>
-      <c r="CD229" s="35">
+      <c r="CD229" s="34">
         <v>9.1971457166402359</v>
       </c>
-      <c r="CE229" s="35">
+      <c r="CE229" s="34">
         <v>9.8541169297595186</v>
       </c>
-      <c r="CF229" s="35">
+      <c r="CF229" s="34">
         <v>7.6651610565668991</v>
       </c>
-      <c r="CG229" s="35">
+      <c r="CG229" s="34">
         <v>6.341838380289329</v>
       </c>
-      <c r="CH229" s="35">
+      <c r="CH229" s="34">
         <v>8.024298192915337</v>
       </c>
-      <c r="CI229" s="35">
-        <v>6.5164975644480201</v>
-      </c>
-      <c r="CJ229" s="9"/>
+      <c r="CI229" s="34">
+        <v>6.5418670935837255</v>
+      </c>
+      <c r="CJ229" s="34">
+        <v>7.2631099626277322</v>
+      </c>
       <c r="CK229" s="9"/>
       <c r="CL229" s="9"/>
       <c r="CM229" s="9"/>
@@ -51315,25 +51626,27 @@
       <c r="CC230" s="23">
         <v>52.04710861127537</v>
       </c>
-      <c r="CD230" s="35">
+      <c r="CD230" s="34">
         <v>48.514816271555418</v>
       </c>
-      <c r="CE230" s="35">
+      <c r="CE230" s="34">
         <v>30.793377953204537</v>
       </c>
-      <c r="CF230" s="35">
+      <c r="CF230" s="34">
         <v>41.501529946855804</v>
       </c>
-      <c r="CG230" s="35">
+      <c r="CG230" s="34">
         <v>44.126515860911212</v>
       </c>
-      <c r="CH230" s="35">
+      <c r="CH230" s="34">
         <v>44.16310410028138</v>
       </c>
-      <c r="CI230" s="35">
-        <v>42.331171615794041</v>
-      </c>
-      <c r="CJ230" s="9"/>
+      <c r="CI230" s="34">
+        <v>42.607619278953599</v>
+      </c>
+      <c r="CJ230" s="34">
+        <v>43.696207069076785</v>
+      </c>
       <c r="CK230" s="9"/>
       <c r="CL230" s="9"/>
       <c r="CM230" s="9"/>
@@ -51643,25 +51956,27 @@
       <c r="CC231" s="23">
         <v>44.310293600483448</v>
       </c>
-      <c r="CD231" s="35">
+      <c r="CD231" s="34">
         <v>44.715548702692452</v>
       </c>
-      <c r="CE231" s="35">
+      <c r="CE231" s="34">
         <v>25.969696661217089</v>
       </c>
-      <c r="CF231" s="35">
+      <c r="CF231" s="34">
         <v>40.111562572216748</v>
       </c>
-      <c r="CG231" s="35">
+      <c r="CG231" s="34">
         <v>40.96311279035929</v>
       </c>
-      <c r="CH231" s="35">
+      <c r="CH231" s="34">
         <v>40.339195304283074</v>
       </c>
-      <c r="CI231" s="35">
-        <v>39.190918430490242</v>
-      </c>
-      <c r="CJ231" s="9"/>
+      <c r="CI231" s="34">
+        <v>39.186141752882556</v>
+      </c>
+      <c r="CJ231" s="34">
+        <v>41.959802713403974</v>
+      </c>
       <c r="CK231" s="9"/>
       <c r="CL231" s="9"/>
       <c r="CM231" s="9"/>
@@ -51971,25 +52286,27 @@
       <c r="CC232" s="23">
         <v>0.13481478974257047</v>
       </c>
-      <c r="CD232" s="35">
+      <c r="CD232" s="34">
         <v>0.27081963827587358</v>
       </c>
-      <c r="CE232" s="35">
+      <c r="CE232" s="37">
         <v>1.5892544240785539E-2</v>
       </c>
-      <c r="CF232" s="35">
+      <c r="CF232" s="38">
         <v>2.0495211655383498E-3</v>
       </c>
-      <c r="CG232" s="35">
+      <c r="CG232" s="34">
         <v>0.42231947858325425</v>
       </c>
-      <c r="CH232" s="35">
+      <c r="CH232" s="34">
         <v>0.75260397852019523</v>
       </c>
-      <c r="CI232" s="35">
-        <v>1.3834647945081355E-3</v>
-      </c>
-      <c r="CJ232" s="9"/>
+      <c r="CI232" s="38">
+        <v>4.8222854621159722E-3</v>
+      </c>
+      <c r="CJ232" s="34">
+        <v>0.43354311804775347</v>
+      </c>
       <c r="CK232" s="9"/>
       <c r="CL232" s="9"/>
       <c r="CM232" s="9"/>
@@ -52299,25 +52616,27 @@
       <c r="CC233" s="23">
         <v>6.7681276959981149</v>
       </c>
-      <c r="CD233" s="35">
+      <c r="CD233" s="34">
         <v>3.137124237574044</v>
       </c>
-      <c r="CE233" s="35">
+      <c r="CE233" s="34">
         <v>2.0011714394028353</v>
       </c>
-      <c r="CF233" s="35">
+      <c r="CF233" s="34">
         <v>1.0756425857556569</v>
       </c>
-      <c r="CG233" s="35">
+      <c r="CG233" s="34">
         <v>2.422822728493407</v>
       </c>
-      <c r="CH233" s="35">
+      <c r="CH233" s="34">
         <v>0.51449462142923408</v>
       </c>
-      <c r="CI233" s="35">
-        <v>2.9597807993216279</v>
-      </c>
-      <c r="CJ233" s="9"/>
+      <c r="CI233" s="34">
+        <v>2.9030197204928285</v>
+      </c>
+      <c r="CJ233" s="34">
+        <v>0.96985671703109788</v>
+      </c>
       <c r="CK233" s="9"/>
       <c r="CL233" s="9"/>
       <c r="CM233" s="9"/>
@@ -52627,25 +52946,27 @@
       <c r="CC234" s="23">
         <v>0.83387252505124321</v>
       </c>
-      <c r="CD234" s="35">
+      <c r="CD234" s="34">
         <v>0.39132369301303749</v>
       </c>
-      <c r="CE234" s="35">
+      <c r="CE234" s="34">
         <v>2.8066173083438262</v>
       </c>
-      <c r="CF234" s="35">
+      <c r="CF234" s="34">
         <v>0.31227526771786318</v>
       </c>
-      <c r="CG234" s="35">
+      <c r="CG234" s="34">
         <v>0.31826086347525068</v>
       </c>
-      <c r="CH234" s="35">
+      <c r="CH234" s="34">
         <v>2.5568101960488789</v>
       </c>
-      <c r="CI234" s="35">
-        <v>0.1790889211876622</v>
-      </c>
-      <c r="CJ234" s="9"/>
+      <c r="CI234" s="34">
+        <v>0.51363552011610414</v>
+      </c>
+      <c r="CJ234" s="34">
+        <v>0.33300452059395763</v>
+      </c>
       <c r="CK234" s="9"/>
       <c r="CL234" s="9"/>
       <c r="CM234" s="9"/>
@@ -52955,25 +53276,27 @@
       <c r="CC235" s="23">
         <v>17.531542687873987</v>
       </c>
-      <c r="CD235" s="35">
+      <c r="CD235" s="34">
         <v>17.232564885074591</v>
       </c>
-      <c r="CE235" s="35">
+      <c r="CE235" s="34">
         <v>23.887843747160009</v>
       </c>
-      <c r="CF235" s="35">
+      <c r="CF235" s="34">
         <v>21.706718177231018</v>
       </c>
-      <c r="CG235" s="35">
+      <c r="CG235" s="34">
         <v>18.96150039942907</v>
       </c>
-      <c r="CH235" s="35">
+      <c r="CH235" s="34">
         <v>18.547361839323585</v>
       </c>
-      <c r="CI235" s="35">
-        <v>21.758699037300357</v>
-      </c>
-      <c r="CJ235" s="9"/>
+      <c r="CI235" s="34">
+        <v>21.625164272618214</v>
+      </c>
+      <c r="CJ235" s="34">
+        <v>21.106075989477809</v>
+      </c>
       <c r="CK235" s="9"/>
       <c r="CL235" s="9"/>
       <c r="CM235" s="9"/>
@@ -53283,25 +53606,27 @@
       <c r="CC236" s="23">
         <v>1.3054026017002098</v>
       </c>
-      <c r="CD236" s="35">
+      <c r="CD236" s="34">
         <v>1.1723359875909234</v>
       </c>
-      <c r="CE236" s="35">
+      <c r="CE236" s="34">
         <v>1.5557230624341287</v>
       </c>
-      <c r="CF236" s="35">
+      <c r="CF236" s="34">
         <v>2.9951813353443448</v>
       </c>
-      <c r="CG236" s="35">
+      <c r="CG236" s="34">
         <v>2.4208020777123385</v>
       </c>
-      <c r="CH236" s="35">
+      <c r="CH236" s="34">
         <v>1.5937371136624559</v>
       </c>
-      <c r="CI236" s="35">
-        <v>2.0158319368581692</v>
-      </c>
-      <c r="CJ236" s="9"/>
+      <c r="CI236" s="34">
+        <v>1.980200436276621</v>
+      </c>
+      <c r="CJ236" s="34">
+        <v>1.9884303365702647</v>
+      </c>
       <c r="CK236" s="9"/>
       <c r="CL236" s="9"/>
       <c r="CM236" s="9"/>
@@ -53611,25 +53936,27 @@
       <c r="CC237" s="23">
         <v>2.7180971549155561</v>
       </c>
-      <c r="CD237" s="35">
+      <c r="CD237" s="34">
         <v>3.0407081636901236</v>
       </c>
-      <c r="CE237" s="35">
+      <c r="CE237" s="34">
         <v>3.2702315241248758</v>
       </c>
-      <c r="CF237" s="35">
+      <c r="CF237" s="34">
         <v>3.3096750543475517</v>
       </c>
-      <c r="CG237" s="35">
+      <c r="CG237" s="34">
         <v>2.8034113461220924</v>
       </c>
-      <c r="CH237" s="35">
+      <c r="CH237" s="34">
         <v>3.3572410764683291</v>
       </c>
-      <c r="CI237" s="35">
-        <v>3.4788321213679954</v>
-      </c>
-      <c r="CJ237" s="9"/>
+      <c r="CI237" s="34">
+        <v>3.4294368428579558</v>
+      </c>
+      <c r="CJ237" s="34">
+        <v>3.4238158316779557</v>
+      </c>
       <c r="CK237" s="9"/>
       <c r="CL237" s="9"/>
       <c r="CM237" s="9"/>
@@ -53939,25 +54266,27 @@
       <c r="CC238" s="23">
         <v>9.9206944609126246</v>
       </c>
-      <c r="CD238" s="35">
+      <c r="CD238" s="34">
         <v>8.7133140591152927</v>
       </c>
-      <c r="CE238" s="35">
+      <c r="CE238" s="34">
         <v>13.782191211342385</v>
       </c>
-      <c r="CF238" s="35">
+      <c r="CF238" s="34">
         <v>11.443764621506075</v>
       </c>
-      <c r="CG238" s="35">
+      <c r="CG238" s="34">
         <v>9.8947298847771759</v>
       </c>
-      <c r="CH238" s="35">
+      <c r="CH238" s="34">
         <v>8.4351837014938376</v>
       </c>
-      <c r="CI238" s="35">
-        <v>10.287389728954214</v>
-      </c>
-      <c r="CJ238" s="9"/>
+      <c r="CI238" s="34">
+        <v>10.212228432862755</v>
+      </c>
+      <c r="CJ238" s="34">
+        <v>12.291782340641182</v>
+      </c>
       <c r="CK238" s="9"/>
       <c r="CL238" s="9"/>
       <c r="CM238" s="9"/>
@@ -54267,25 +54596,27 @@
       <c r="CC239" s="23">
         <v>3.5873484703455945</v>
       </c>
-      <c r="CD239" s="35">
+      <c r="CD239" s="34">
         <v>4.3062066746782524</v>
       </c>
-      <c r="CE239" s="35">
+      <c r="CE239" s="34">
         <v>5.2796979492586198</v>
       </c>
-      <c r="CF239" s="35">
+      <c r="CF239" s="34">
         <v>3.9580971660330468</v>
       </c>
-      <c r="CG239" s="35">
+      <c r="CG239" s="34">
         <v>3.8425570908174627</v>
       </c>
-      <c r="CH239" s="35">
+      <c r="CH239" s="34">
         <v>5.1611999476989636</v>
       </c>
-      <c r="CI239" s="35">
-        <v>5.9766452501199785</v>
-      </c>
-      <c r="CJ239" s="9"/>
+      <c r="CI239" s="34">
+        <v>6.003298560620884</v>
+      </c>
+      <c r="CJ239" s="34">
+        <v>3.4020474805884082</v>
+      </c>
       <c r="CK239" s="9"/>
       <c r="CL239" s="9"/>
       <c r="CM239" s="9"/>
@@ -54432,13 +54763,13 @@
       <c r="CA240" s="9"/>
       <c r="CB240" s="9"/>
       <c r="CC240" s="9"/>
-      <c r="CD240" s="30"/>
-      <c r="CE240" s="30"/>
-      <c r="CF240" s="30"/>
-      <c r="CG240" s="30"/>
-      <c r="CH240" s="30"/>
-      <c r="CI240" s="30"/>
-      <c r="CJ240" s="9"/>
+      <c r="CD240" s="29"/>
+      <c r="CE240" s="29"/>
+      <c r="CF240" s="29"/>
+      <c r="CG240" s="29"/>
+      <c r="CH240" s="29"/>
+      <c r="CI240" s="29"/>
+      <c r="CJ240" s="29"/>
       <c r="CK240" s="9"/>
       <c r="CL240" s="9"/>
       <c r="CM240" s="9"/>
@@ -54748,25 +55079,27 @@
       <c r="CC241" s="23">
         <v>100</v>
       </c>
-      <c r="CD241" s="35">
+      <c r="CD241" s="34">
         <v>100</v>
       </c>
-      <c r="CE241" s="35">
+      <c r="CE241" s="34">
         <v>100</v>
       </c>
-      <c r="CF241" s="35">
+      <c r="CF241" s="34">
         <v>100</v>
       </c>
-      <c r="CG241" s="35">
+      <c r="CG241" s="34">
         <v>100</v>
       </c>
-      <c r="CH241" s="35">
+      <c r="CH241" s="34">
         <v>100</v>
       </c>
-      <c r="CI241" s="35">
+      <c r="CI241" s="34">
         <v>100</v>
       </c>
-      <c r="CJ241" s="9"/>
+      <c r="CJ241" s="34">
+        <v>100</v>
+      </c>
       <c r="CK241" s="9"/>
       <c r="CL241" s="9"/>
       <c r="CM241" s="9"/>
@@ -54914,12 +55247,13 @@
       <c r="CA242" s="14"/>
       <c r="CB242" s="14"/>
       <c r="CC242" s="14"/>
-      <c r="CD242" s="32"/>
-      <c r="CE242" s="32"/>
-      <c r="CF242" s="32"/>
-      <c r="CG242" s="32"/>
-      <c r="CH242" s="32"/>
-      <c r="CI242" s="32"/>
+      <c r="CD242" s="31"/>
+      <c r="CE242" s="31"/>
+      <c r="CF242" s="31"/>
+      <c r="CG242" s="31"/>
+      <c r="CH242" s="31"/>
+      <c r="CI242" s="31"/>
+      <c r="CJ242" s="31"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
@@ -55007,13 +55341,13 @@
       <c r="CA244" s="9"/>
       <c r="CB244" s="9"/>
       <c r="CC244" s="9"/>
-      <c r="CD244" s="30"/>
-      <c r="CE244" s="30"/>
-      <c r="CF244" s="30"/>
-      <c r="CG244" s="30"/>
-      <c r="CH244" s="30"/>
-      <c r="CI244" s="30"/>
-      <c r="CJ244" s="9"/>
+      <c r="CD244" s="29"/>
+      <c r="CE244" s="29"/>
+      <c r="CF244" s="29"/>
+      <c r="CG244" s="29"/>
+      <c r="CH244" s="29"/>
+      <c r="CI244" s="29"/>
+      <c r="CJ244" s="29"/>
       <c r="CK244" s="9"/>
       <c r="CL244" s="9"/>
       <c r="CM244" s="9"/>
@@ -55160,13 +55494,13 @@
       <c r="CA245" s="9"/>
       <c r="CB245" s="9"/>
       <c r="CC245" s="9"/>
-      <c r="CD245" s="30"/>
-      <c r="CE245" s="30"/>
-      <c r="CF245" s="30"/>
-      <c r="CG245" s="30"/>
-      <c r="CH245" s="30"/>
-      <c r="CI245" s="30"/>
-      <c r="CJ245" s="9"/>
+      <c r="CD245" s="29"/>
+      <c r="CE245" s="29"/>
+      <c r="CF245" s="29"/>
+      <c r="CG245" s="29"/>
+      <c r="CH245" s="29"/>
+      <c r="CI245" s="29"/>
+      <c r="CJ245" s="29"/>
       <c r="CK245" s="9"/>
       <c r="CL245" s="9"/>
       <c r="CM245" s="9"/>
@@ -55264,138 +55598,139 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="38">
+      <c r="B254" s="40">
         <v>2000</v>
       </c>
-      <c r="C254" s="38"/>
-      <c r="D254" s="38"/>
-      <c r="E254" s="38"/>
-      <c r="F254" s="38">
+      <c r="C254" s="40"/>
+      <c r="D254" s="40"/>
+      <c r="E254" s="40"/>
+      <c r="F254" s="40">
         <v>2001</v>
       </c>
-      <c r="G254" s="38"/>
-      <c r="H254" s="38"/>
-      <c r="I254" s="38"/>
-      <c r="J254" s="38">
+      <c r="G254" s="40"/>
+      <c r="H254" s="40"/>
+      <c r="I254" s="40"/>
+      <c r="J254" s="40">
         <v>2002</v>
       </c>
-      <c r="K254" s="38"/>
-      <c r="L254" s="38"/>
-      <c r="M254" s="38"/>
-      <c r="N254" s="38">
+      <c r="K254" s="40"/>
+      <c r="L254" s="40"/>
+      <c r="M254" s="40"/>
+      <c r="N254" s="40">
         <v>2003</v>
       </c>
-      <c r="O254" s="38"/>
-      <c r="P254" s="38"/>
-      <c r="Q254" s="38"/>
-      <c r="R254" s="38">
+      <c r="O254" s="40"/>
+      <c r="P254" s="40"/>
+      <c r="Q254" s="40"/>
+      <c r="R254" s="40">
         <v>2004</v>
       </c>
-      <c r="S254" s="38"/>
-      <c r="T254" s="38"/>
-      <c r="U254" s="38"/>
-      <c r="V254" s="38">
+      <c r="S254" s="40"/>
+      <c r="T254" s="40"/>
+      <c r="U254" s="40"/>
+      <c r="V254" s="40">
         <v>2005</v>
       </c>
-      <c r="W254" s="38"/>
-      <c r="X254" s="38"/>
-      <c r="Y254" s="38"/>
-      <c r="Z254" s="38">
+      <c r="W254" s="40"/>
+      <c r="X254" s="40"/>
+      <c r="Y254" s="40"/>
+      <c r="Z254" s="40">
         <v>2006</v>
       </c>
-      <c r="AA254" s="38"/>
-      <c r="AB254" s="38"/>
-      <c r="AC254" s="38"/>
-      <c r="AD254" s="38">
+      <c r="AA254" s="40"/>
+      <c r="AB254" s="40"/>
+      <c r="AC254" s="40"/>
+      <c r="AD254" s="40">
         <v>2007</v>
       </c>
-      <c r="AE254" s="38"/>
-      <c r="AF254" s="38"/>
-      <c r="AG254" s="38"/>
-      <c r="AH254" s="38">
+      <c r="AE254" s="40"/>
+      <c r="AF254" s="40"/>
+      <c r="AG254" s="40"/>
+      <c r="AH254" s="40">
         <v>2008</v>
       </c>
-      <c r="AI254" s="38"/>
-      <c r="AJ254" s="38"/>
-      <c r="AK254" s="38"/>
-      <c r="AL254" s="38">
+      <c r="AI254" s="40"/>
+      <c r="AJ254" s="40"/>
+      <c r="AK254" s="40"/>
+      <c r="AL254" s="40">
         <v>2009</v>
       </c>
-      <c r="AM254" s="38"/>
-      <c r="AN254" s="38"/>
-      <c r="AO254" s="38"/>
-      <c r="AP254" s="38">
+      <c r="AM254" s="40"/>
+      <c r="AN254" s="40"/>
+      <c r="AO254" s="40"/>
+      <c r="AP254" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="38"/>
-      <c r="AR254" s="38"/>
-      <c r="AS254" s="38"/>
-      <c r="AT254" s="38">
+      <c r="AQ254" s="40"/>
+      <c r="AR254" s="40"/>
+      <c r="AS254" s="40"/>
+      <c r="AT254" s="40">
         <v>2011</v>
       </c>
-      <c r="AU254" s="38"/>
-      <c r="AV254" s="38"/>
-      <c r="AW254" s="38"/>
-      <c r="AX254" s="38">
+      <c r="AU254" s="40"/>
+      <c r="AV254" s="40"/>
+      <c r="AW254" s="40"/>
+      <c r="AX254" s="40">
         <v>2012</v>
       </c>
-      <c r="AY254" s="38"/>
-      <c r="AZ254" s="38"/>
-      <c r="BA254" s="38"/>
-      <c r="BB254" s="38">
+      <c r="AY254" s="40"/>
+      <c r="AZ254" s="40"/>
+      <c r="BA254" s="40"/>
+      <c r="BB254" s="40">
         <v>2013</v>
       </c>
-      <c r="BC254" s="38"/>
-      <c r="BD254" s="38"/>
-      <c r="BE254" s="38"/>
-      <c r="BF254" s="38">
+      <c r="BC254" s="40"/>
+      <c r="BD254" s="40"/>
+      <c r="BE254" s="40"/>
+      <c r="BF254" s="40">
         <v>2014</v>
       </c>
-      <c r="BG254" s="38"/>
-      <c r="BH254" s="38"/>
-      <c r="BI254" s="38"/>
-      <c r="BJ254" s="38">
+      <c r="BG254" s="40"/>
+      <c r="BH254" s="40"/>
+      <c r="BI254" s="40"/>
+      <c r="BJ254" s="40">
         <v>2015</v>
       </c>
-      <c r="BK254" s="38"/>
-      <c r="BL254" s="38"/>
-      <c r="BM254" s="38"/>
-      <c r="BN254" s="38">
+      <c r="BK254" s="40"/>
+      <c r="BL254" s="40"/>
+      <c r="BM254" s="40"/>
+      <c r="BN254" s="40">
         <v>2016</v>
       </c>
-      <c r="BO254" s="38"/>
-      <c r="BP254" s="38"/>
-      <c r="BQ254" s="38"/>
-      <c r="BR254" s="38">
+      <c r="BO254" s="40"/>
+      <c r="BP254" s="40"/>
+      <c r="BQ254" s="40"/>
+      <c r="BR254" s="40">
         <v>2017</v>
       </c>
-      <c r="BS254" s="38"/>
-      <c r="BT254" s="38"/>
-      <c r="BU254" s="38"/>
-      <c r="BV254" s="38">
+      <c r="BS254" s="40"/>
+      <c r="BT254" s="40"/>
+      <c r="BU254" s="40"/>
+      <c r="BV254" s="40">
         <v>2018</v>
       </c>
-      <c r="BW254" s="38"/>
-      <c r="BX254" s="38"/>
-      <c r="BY254" s="38"/>
-      <c r="BZ254" s="38">
+      <c r="BW254" s="40"/>
+      <c r="BX254" s="40"/>
+      <c r="BY254" s="40"/>
+      <c r="BZ254" s="40">
         <v>2019</v>
       </c>
-      <c r="CA254" s="38"/>
-      <c r="CB254" s="38"/>
-      <c r="CC254" s="38"/>
-      <c r="CD254" s="36">
+      <c r="CA254" s="40"/>
+      <c r="CB254" s="40"/>
+      <c r="CC254" s="40"/>
+      <c r="CD254" s="41">
         <v>2020</v>
       </c>
-      <c r="CE254" s="36"/>
-      <c r="CF254" s="36"/>
-      <c r="CG254" s="36"/>
-      <c r="CH254" s="36">
+      <c r="CE254" s="41"/>
+      <c r="CF254" s="41"/>
+      <c r="CG254" s="41"/>
+      <c r="CH254" s="41">
         <v>2021</v>
       </c>
-      <c r="CI254" s="36">
+      <c r="CI254" s="41">
         <v>0</v>
       </c>
+      <c r="CJ254" s="41"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
@@ -55641,23 +55976,26 @@
       <c r="CC255" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CD255" s="33" t="s">
+      <c r="CD255" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CE255" s="33" t="s">
+      <c r="CE255" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="CF255" s="33" t="s">
+      <c r="CF255" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG255" s="33" t="s">
+      <c r="CG255" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="CH255" s="33" t="s">
+      <c r="CH255" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="CI255" s="33" t="s">
+      <c r="CI255" s="32" t="s">
         <v>7</v>
+      </c>
+      <c r="CJ255" s="32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -55907,25 +56245,27 @@
       <c r="CC257" s="23">
         <v>18.708448683217014</v>
       </c>
-      <c r="CD257" s="35">
+      <c r="CD257" s="34">
         <v>14.583171394450256</v>
       </c>
-      <c r="CE257" s="35">
+      <c r="CE257" s="34">
         <v>12.374999183342766</v>
       </c>
-      <c r="CF257" s="35">
+      <c r="CF257" s="34">
         <v>19.741886542007109</v>
       </c>
-      <c r="CG257" s="35">
+      <c r="CG257" s="34">
         <v>22.259020540287882</v>
       </c>
-      <c r="CH257" s="35">
+      <c r="CH257" s="34">
         <v>18.577738637885172</v>
       </c>
-      <c r="CI257" s="35">
-        <v>11.833872079320621</v>
-      </c>
-      <c r="CJ257" s="9"/>
+      <c r="CI257" s="34">
+        <v>11.713503980139663</v>
+      </c>
+      <c r="CJ257" s="34">
+        <v>18.788897848549865</v>
+      </c>
       <c r="CK257" s="9"/>
       <c r="CL257" s="9"/>
       <c r="CM257" s="9"/>
@@ -56235,25 +56575,27 @@
       <c r="CC258" s="23">
         <v>1.1349233229023699</v>
       </c>
-      <c r="CD258" s="35">
+      <c r="CD258" s="34">
         <v>0.8344648454027479</v>
       </c>
-      <c r="CE258" s="35">
+      <c r="CE258" s="34">
         <v>0.40962182428530619</v>
       </c>
-      <c r="CF258" s="35">
+      <c r="CF258" s="34">
         <v>1.381646670672537</v>
       </c>
-      <c r="CG258" s="35">
+      <c r="CG258" s="34">
         <v>2.6049932036965293</v>
       </c>
-      <c r="CH258" s="35">
+      <c r="CH258" s="34">
         <v>1.8125049311755101</v>
       </c>
-      <c r="CI258" s="35">
-        <v>0.5469625097520856</v>
-      </c>
-      <c r="CJ258" s="9"/>
+      <c r="CI258" s="34">
+        <v>0.53757403309271035</v>
+      </c>
+      <c r="CJ258" s="34">
+        <v>1.9899603004858097</v>
+      </c>
       <c r="CK258" s="9"/>
       <c r="CL258" s="9"/>
       <c r="CM258" s="9"/>
@@ -56563,25 +56905,27 @@
       <c r="CC259" s="23">
         <v>4.2757684424240745</v>
       </c>
-      <c r="CD259" s="35">
+      <c r="CD259" s="34">
         <v>2.654040935504423</v>
       </c>
-      <c r="CE259" s="35">
+      <c r="CE259" s="34">
         <v>1.4669126722299446</v>
       </c>
-      <c r="CF259" s="35">
+      <c r="CF259" s="34">
         <v>2.8501319616275471</v>
       </c>
-      <c r="CG259" s="35">
+      <c r="CG259" s="34">
         <v>2.8011648450242306</v>
       </c>
-      <c r="CH259" s="35">
+      <c r="CH259" s="34">
         <v>2.1431835349124717</v>
       </c>
-      <c r="CI259" s="35">
-        <v>1.3715392401369191</v>
-      </c>
-      <c r="CJ259" s="9"/>
+      <c r="CI259" s="34">
+        <v>1.3793820985986991</v>
+      </c>
+      <c r="CJ259" s="34">
+        <v>4.1476143656934905</v>
+      </c>
       <c r="CK259" s="9"/>
       <c r="CL259" s="9"/>
       <c r="CM259" s="9"/>
@@ -56891,25 +57235,27 @@
       <c r="CC260" s="23">
         <v>0.35347494582219896</v>
       </c>
-      <c r="CD260" s="35">
+      <c r="CD260" s="34">
         <v>0.18315969831563175</v>
       </c>
-      <c r="CE260" s="35">
+      <c r="CE260" s="34">
         <v>0.161613666503511</v>
       </c>
-      <c r="CF260" s="35">
+      <c r="CF260" s="34">
         <v>0.28539241027153295</v>
       </c>
-      <c r="CG260" s="35">
+      <c r="CG260" s="34">
         <v>0.25274723836542612</v>
       </c>
-      <c r="CH260" s="35">
+      <c r="CH260" s="34">
         <v>0.15273004918785882</v>
       </c>
-      <c r="CI260" s="35">
-        <v>9.4217672497990582E-2</v>
-      </c>
-      <c r="CJ260" s="9"/>
+      <c r="CI260" s="34">
+        <v>0.10000027409706846</v>
+      </c>
+      <c r="CJ260" s="34">
+        <v>0.25759067157450211</v>
+      </c>
       <c r="CK260" s="9"/>
       <c r="CL260" s="9"/>
       <c r="CM260" s="9"/>
@@ -57219,25 +57565,27 @@
       <c r="CC261" s="23">
         <v>0.47816031931324326</v>
       </c>
-      <c r="CD261" s="35">
+      <c r="CD261" s="34">
         <v>0.41925544039092116</v>
       </c>
-      <c r="CE261" s="35">
+      <c r="CE261" s="34">
         <v>0.10884436836804655</v>
       </c>
-      <c r="CF261" s="35">
+      <c r="CF261" s="34">
         <v>0.24592170865777915</v>
       </c>
-      <c r="CG261" s="35">
+      <c r="CG261" s="34">
         <v>0.23784372119428795</v>
       </c>
-      <c r="CH261" s="35">
+      <c r="CH261" s="34">
         <v>0.1316197543201422</v>
       </c>
-      <c r="CI261" s="35">
-        <v>5.4132793675373859E-2</v>
-      </c>
-      <c r="CJ261" s="9"/>
+      <c r="CI261" s="34">
+        <v>5.494704301971088E-2</v>
+      </c>
+      <c r="CJ261" s="34">
+        <v>0.20200979375066427</v>
+      </c>
       <c r="CK261" s="9"/>
       <c r="CL261" s="9"/>
       <c r="CM261" s="9"/>
@@ -57547,25 +57895,27 @@
       <c r="CC262" s="23">
         <v>1.6187903494345006</v>
       </c>
-      <c r="CD262" s="35">
+      <c r="CD262" s="34">
         <v>0.92000385320824529</v>
       </c>
-      <c r="CE262" s="35">
+      <c r="CE262" s="34">
         <v>0.67036774227428497</v>
       </c>
-      <c r="CF262" s="35">
+      <c r="CF262" s="34">
         <v>1.418347299857345</v>
       </c>
-      <c r="CG262" s="35">
+      <c r="CG262" s="34">
         <v>1.3047265155963841</v>
       </c>
-      <c r="CH262" s="35">
+      <c r="CH262" s="34">
         <v>0.86410495926523745</v>
       </c>
-      <c r="CI262" s="35">
-        <v>0.46133100429999402</v>
-      </c>
-      <c r="CJ262" s="9"/>
+      <c r="CI262" s="34">
+        <v>0.46955025733234024</v>
+      </c>
+      <c r="CJ262" s="34">
+        <v>1.4414682639240481</v>
+      </c>
       <c r="CK262" s="9"/>
       <c r="CL262" s="9"/>
       <c r="CM262" s="9"/>
@@ -57875,25 +58225,27 @@
       <c r="CC263" s="23">
         <v>6.3514574508085415</v>
       </c>
-      <c r="CD263" s="35">
+      <c r="CD263" s="34">
         <v>7.2691106434311816</v>
       </c>
-      <c r="CE263" s="35">
+      <c r="CE263" s="34">
         <v>7.6966225381917113</v>
       </c>
-      <c r="CF263" s="35">
+      <c r="CF263" s="34">
         <v>9.7891445139694984</v>
       </c>
-      <c r="CG263" s="35">
+      <c r="CG263" s="34">
         <v>10.837706611761462</v>
       </c>
-      <c r="CH263" s="35">
+      <c r="CH263" s="34">
         <v>10.307510485799396</v>
       </c>
-      <c r="CI263" s="35">
-        <v>7.8512425533503727</v>
-      </c>
-      <c r="CJ263" s="9"/>
+      <c r="CI263" s="34">
+        <v>7.6916932425597997</v>
+      </c>
+      <c r="CJ263" s="34">
+        <v>7.1103086564720241</v>
+      </c>
       <c r="CK263" s="9"/>
       <c r="CL263" s="9"/>
       <c r="CM263" s="9"/>
@@ -58203,25 +58555,27 @@
       <c r="CC264" s="23">
         <v>0.71899499294898783</v>
       </c>
-      <c r="CD264" s="35">
+      <c r="CD264" s="34">
         <v>0.42250621950073997</v>
       </c>
-      <c r="CE264" s="35">
+      <c r="CE264" s="34">
         <v>0.1837861235505345</v>
       </c>
-      <c r="CF264" s="35">
+      <c r="CF264" s="34">
         <v>0.94567660899447725</v>
       </c>
-      <c r="CG264" s="35">
+      <c r="CG264" s="34">
         <v>0.63718319824121838</v>
       </c>
-      <c r="CH264" s="35">
+      <c r="CH264" s="34">
         <v>0.52326628674981224</v>
       </c>
-      <c r="CI264" s="35">
-        <v>8.8786716321967149E-2</v>
-      </c>
-      <c r="CJ264" s="9"/>
+      <c r="CI264" s="34">
+        <v>8.7719342083512425E-2</v>
+      </c>
+      <c r="CJ264" s="34">
+        <v>0.42883926367885672</v>
+      </c>
       <c r="CK264" s="9"/>
       <c r="CL264" s="9"/>
       <c r="CM264" s="9"/>
@@ -58531,25 +58885,27 @@
       <c r="CC265" s="23">
         <v>3.7768788595630993</v>
       </c>
-      <c r="CD265" s="35">
+      <c r="CD265" s="34">
         <v>1.8806297586963647</v>
       </c>
-      <c r="CE265" s="35">
+      <c r="CE265" s="34">
         <v>1.6772302479394281</v>
       </c>
-      <c r="CF265" s="35">
+      <c r="CF265" s="34">
         <v>2.8256253679563912</v>
       </c>
-      <c r="CG265" s="35">
+      <c r="CG265" s="34">
         <v>3.5826552064083388</v>
       </c>
-      <c r="CH265" s="35">
+      <c r="CH265" s="34">
         <v>2.6428186364747428</v>
       </c>
-      <c r="CI265" s="35">
-        <v>1.3656595892859174</v>
-      </c>
-      <c r="CJ265" s="9"/>
+      <c r="CI265" s="34">
+        <v>1.3926376893558212</v>
+      </c>
+      <c r="CJ265" s="34">
+        <v>3.2111065329704696</v>
+      </c>
       <c r="CK265" s="9"/>
       <c r="CL265" s="9"/>
       <c r="CM265" s="9"/>
@@ -58859,25 +59215,27 @@
       <c r="CC266" s="23">
         <v>15.530621016544647</v>
       </c>
-      <c r="CD266" s="35">
+      <c r="CD266" s="34">
         <v>16.247256281828765</v>
       </c>
-      <c r="CE266" s="35">
+      <c r="CE266" s="34">
         <v>20.829337460072853</v>
       </c>
-      <c r="CF266" s="35">
+      <c r="CF266" s="34">
         <v>20.905169933335806</v>
       </c>
-      <c r="CG266" s="35">
+      <c r="CG266" s="34">
         <v>17.51913602752413</v>
       </c>
-      <c r="CH266" s="35">
+      <c r="CH266" s="34">
         <v>16.42007834195838</v>
       </c>
-      <c r="CI266" s="35">
-        <v>13.643563410013329</v>
-      </c>
-      <c r="CJ266" s="9"/>
+      <c r="CI266" s="34">
+        <v>13.700763657539822</v>
+      </c>
+      <c r="CJ266" s="34">
+        <v>20.167925153839235</v>
+      </c>
       <c r="CK266" s="9"/>
       <c r="CL266" s="9"/>
       <c r="CM266" s="9"/>
@@ -59187,25 +59545,27 @@
       <c r="CC267" s="23">
         <v>3.0817352774322244</v>
       </c>
-      <c r="CD267" s="35">
+      <c r="CD267" s="34">
         <v>2.8917627755202435</v>
       </c>
-      <c r="CE267" s="35">
+      <c r="CE267" s="34">
         <v>2.7129190382431232</v>
       </c>
-      <c r="CF267" s="35">
+      <c r="CF267" s="34">
         <v>3.9102165809162139</v>
       </c>
-      <c r="CG267" s="35">
+      <c r="CG267" s="34">
         <v>3.3022028234429399</v>
       </c>
-      <c r="CH267" s="35">
+      <c r="CH267" s="34">
         <v>2.506315008289338</v>
       </c>
-      <c r="CI267" s="35">
-        <v>2.4300704795540042</v>
-      </c>
-      <c r="CJ267" s="9"/>
+      <c r="CI267" s="34">
+        <v>2.3887855259882564</v>
+      </c>
+      <c r="CJ267" s="34">
+        <v>3.2580862021857255</v>
+      </c>
       <c r="CK267" s="9"/>
       <c r="CL267" s="9"/>
       <c r="CM267" s="9"/>
@@ -59515,25 +59875,27 @@
       <c r="CC268" s="23">
         <v>1.9325945621959242</v>
       </c>
-      <c r="CD268" s="35">
+      <c r="CD268" s="34">
         <v>1.4069913820928719</v>
       </c>
-      <c r="CE268" s="35">
+      <c r="CE268" s="34">
         <v>1.9728105666181679</v>
       </c>
-      <c r="CF268" s="35">
+      <c r="CF268" s="34">
         <v>2.3677852313948828</v>
       </c>
-      <c r="CG268" s="35">
+      <c r="CG268" s="34">
         <v>2.0353818075505083</v>
       </c>
-      <c r="CH268" s="35">
+      <c r="CH268" s="34">
         <v>1.5163985133111377</v>
       </c>
-      <c r="CI268" s="35">
-        <v>1.6907808164226676</v>
-      </c>
-      <c r="CJ268" s="9"/>
+      <c r="CI268" s="34">
+        <v>1.7011490322894438</v>
+      </c>
+      <c r="CJ268" s="34">
+        <v>2.2500206035685686</v>
+      </c>
       <c r="CK268" s="9"/>
       <c r="CL268" s="9"/>
       <c r="CM268" s="9"/>
@@ -59843,25 +60205,27 @@
       <c r="CC269" s="23">
         <v>4.8019725826560444</v>
       </c>
-      <c r="CD269" s="35">
+      <c r="CD269" s="34">
         <v>3.5239864029387413</v>
       </c>
-      <c r="CE269" s="35">
+      <c r="CE269" s="34">
         <v>7.5693968934891567</v>
       </c>
-      <c r="CF269" s="35">
+      <c r="CF269" s="34">
         <v>6.6057962296298092</v>
       </c>
-      <c r="CG269" s="35">
+      <c r="CG269" s="34">
         <v>5.7242614520381023</v>
       </c>
-      <c r="CH269" s="35">
+      <c r="CH269" s="34">
         <v>4.4464539226064899</v>
       </c>
-      <c r="CI269" s="35">
-        <v>3.8788057877389726</v>
-      </c>
-      <c r="CJ269" s="9"/>
+      <c r="CI269" s="34">
+        <v>3.9231334017462585</v>
+      </c>
+      <c r="CJ269" s="34">
+        <v>6.8502250882432474</v>
+      </c>
       <c r="CK269" s="9"/>
       <c r="CL269" s="9"/>
       <c r="CM269" s="9"/>
@@ -60171,25 +60535,27 @@
       <c r="CC270" s="23">
         <v>5.7143185942604529</v>
       </c>
-      <c r="CD270" s="35">
+      <c r="CD270" s="34">
         <v>8.4245157212769097</v>
       </c>
-      <c r="CE270" s="35">
+      <c r="CE270" s="34">
         <v>8.5742109617224038</v>
       </c>
-      <c r="CF270" s="35">
+      <c r="CF270" s="34">
         <v>8.0213718913948995</v>
       </c>
-      <c r="CG270" s="35">
+      <c r="CG270" s="34">
         <v>6.4572899444925795</v>
       </c>
-      <c r="CH270" s="35">
+      <c r="CH270" s="34">
         <v>7.9509108977514122</v>
       </c>
-      <c r="CI270" s="35">
-        <v>5.6439063262976843</v>
-      </c>
-      <c r="CJ270" s="9"/>
+      <c r="CI270" s="34">
+        <v>5.6876956975158643</v>
+      </c>
+      <c r="CJ270" s="34">
+        <v>7.8095932598416944</v>
+      </c>
       <c r="CK270" s="9"/>
       <c r="CL270" s="9"/>
       <c r="CM270" s="9"/>
@@ -60499,25 +60865,27 @@
       <c r="CC271" s="23">
         <v>52.819548269390673</v>
       </c>
-      <c r="CD271" s="35">
+      <c r="CD271" s="34">
         <v>53.490857804615679</v>
       </c>
-      <c r="CE271" s="35">
+      <c r="CE271" s="34">
         <v>33.768489300813243</v>
       </c>
-      <c r="CF271" s="35">
+      <c r="CF271" s="34">
         <v>39.803660757470958</v>
       </c>
-      <c r="CG271" s="35">
+      <c r="CG271" s="34">
         <v>45.999935542139646</v>
       </c>
-      <c r="CH271" s="35">
+      <c r="CH271" s="34">
         <v>47.211331319688995</v>
       </c>
-      <c r="CI271" s="35">
-        <v>45.380372681798896</v>
-      </c>
-      <c r="CJ271" s="9"/>
+      <c r="CI271" s="34">
+        <v>45.678322655683715</v>
+      </c>
+      <c r="CJ271" s="34">
+        <v>41.928429127613313</v>
+      </c>
       <c r="CK271" s="9"/>
       <c r="CL271" s="9"/>
       <c r="CM271" s="9"/>
@@ -60827,25 +61195,27 @@
       <c r="CC272" s="23">
         <v>45.301670858388945</v>
       </c>
-      <c r="CD272" s="35">
+      <c r="CD272" s="34">
         <v>50.052222523945211</v>
       </c>
-      <c r="CE272" s="35">
+      <c r="CE272" s="34">
         <v>28.321673066866254</v>
       </c>
-      <c r="CF272" s="35">
+      <c r="CF272" s="34">
         <v>38.58359428305782</v>
       </c>
-      <c r="CG272" s="35">
+      <c r="CG272" s="34">
         <v>42.988825418653462</v>
       </c>
-      <c r="CH272" s="35">
+      <c r="CH272" s="34">
         <v>43.838310397001287</v>
       </c>
-      <c r="CI272" s="35">
-        <v>41.909200079515045</v>
-      </c>
-      <c r="CJ272" s="9"/>
+      <c r="CI272" s="34">
+        <v>41.898199894606272</v>
+      </c>
+      <c r="CJ272" s="34">
+        <v>40.410315705519459</v>
+      </c>
       <c r="CK272" s="9"/>
       <c r="CL272" s="9"/>
       <c r="CM272" s="9"/>
@@ -61155,25 +61525,27 @@
       <c r="CC273" s="23">
         <v>0.126801585928558</v>
       </c>
-      <c r="CD273" s="35">
+      <c r="CD273" s="34">
         <v>0.27662420634122709</v>
       </c>
-      <c r="CE273" s="35">
+      <c r="CE273" s="37">
         <v>2.1398008821393557E-2</v>
       </c>
-      <c r="CF273" s="35">
+      <c r="CF273" s="38">
         <v>1.8341285584213165E-3</v>
       </c>
-      <c r="CG273" s="35">
+      <c r="CG273" s="34">
         <v>0.38784780770234628</v>
       </c>
-      <c r="CH273" s="35">
+      <c r="CH273" s="34">
         <v>0.77091309247946815</v>
       </c>
-      <c r="CI273" s="35">
-        <v>1.8180559845459693E-3</v>
-      </c>
-      <c r="CJ273" s="9"/>
+      <c r="CI273" s="37">
+        <v>6.3368284836012381E-3</v>
+      </c>
+      <c r="CJ273" s="34">
+        <v>0.38138235807237264</v>
+      </c>
       <c r="CK273" s="9"/>
       <c r="CL273" s="9"/>
       <c r="CM273" s="9"/>
@@ -61483,25 +61855,27 @@
       <c r="CC274" s="23">
         <v>6.5538022468203758</v>
       </c>
-      <c r="CD274" s="35">
+      <c r="CD274" s="34">
         <v>2.7667987570158847</v>
       </c>
-      <c r="CE274" s="35">
+      <c r="CE274" s="34">
         <v>2.2670313925478904</v>
       </c>
-      <c r="CF274" s="35">
+      <c r="CF274" s="34">
         <v>0.88832588931832857</v>
       </c>
-      <c r="CG274" s="35">
+      <c r="CG274" s="34">
         <v>2.2961992483833309</v>
       </c>
-      <c r="CH274" s="35">
+      <c r="CH274" s="34">
         <v>0.46755254129955653</v>
       </c>
-      <c r="CI274" s="35">
-        <v>3.272662769047884</v>
-      </c>
-      <c r="CJ274" s="9"/>
+      <c r="CI274" s="34">
+        <v>3.2097375780307162</v>
+      </c>
+      <c r="CJ274" s="34">
+        <v>0.78779266099111667</v>
+      </c>
       <c r="CK274" s="9"/>
       <c r="CL274" s="9"/>
       <c r="CM274" s="9"/>
@@ -61811,25 +62185,27 @@
       <c r="CC275" s="23">
         <v>0.83727357825279181</v>
       </c>
-      <c r="CD275" s="35">
+      <c r="CD275" s="34">
         <v>0.39521231731335438</v>
       </c>
-      <c r="CE275" s="35">
+      <c r="CE275" s="34">
         <v>3.1583868325777096</v>
       </c>
-      <c r="CF275" s="35">
+      <c r="CF275" s="34">
         <v>0.32990645653638345</v>
       </c>
-      <c r="CG275" s="35">
+      <c r="CG275" s="34">
         <v>0.32706306740050661</v>
       </c>
-      <c r="CH275" s="35">
+      <c r="CH275" s="34">
         <v>2.1345552889086723</v>
       </c>
-      <c r="CI275" s="35">
-        <v>0.19669177725142095</v>
-      </c>
-      <c r="CJ275" s="9"/>
+      <c r="CI275" s="34">
+        <v>0.5640483545631203</v>
+      </c>
+      <c r="CJ275" s="34">
+        <v>0.34893840303037371</v>
+      </c>
       <c r="CK275" s="9"/>
       <c r="CL275" s="9"/>
       <c r="CM275" s="9"/>
@@ -62139,25 +62515,27 @@
       <c r="CC276" s="23">
         <v>12.941382030847674</v>
       </c>
-      <c r="CD276" s="35">
+      <c r="CD276" s="34">
         <v>15.678714519105302</v>
       </c>
-      <c r="CE276" s="35">
+      <c r="CE276" s="34">
         <v>33.027174055771155</v>
       </c>
-      <c r="CF276" s="35">
+      <c r="CF276" s="34">
         <v>19.549282767186142</v>
       </c>
-      <c r="CG276" s="35">
+      <c r="CG276" s="34">
         <v>14.221907890048346</v>
       </c>
-      <c r="CH276" s="35">
+      <c r="CH276" s="34">
         <v>17.790851700467464</v>
       </c>
-      <c r="CI276" s="35">
-        <v>29.142191828867155</v>
-      </c>
-      <c r="CJ276" s="9"/>
+      <c r="CI276" s="34">
+        <v>28.907409706636813</v>
+      </c>
+      <c r="CJ276" s="34">
+        <v>19.114747869997572</v>
+      </c>
       <c r="CK276" s="9"/>
       <c r="CL276" s="9"/>
       <c r="CM276" s="9"/>
@@ -62467,25 +62845,27 @@
       <c r="CC277" s="23">
         <v>0.68211602029230478</v>
       </c>
-      <c r="CD277" s="35">
+      <c r="CD277" s="34">
         <v>1.1059024894691991</v>
       </c>
-      <c r="CE277" s="35">
+      <c r="CE277" s="34">
         <v>2.4458958063079175</v>
       </c>
-      <c r="CF277" s="35">
+      <c r="CF277" s="34">
         <v>2.1609503069871216</v>
       </c>
-      <c r="CG277" s="35">
+      <c r="CG277" s="34">
         <v>1.2419469739802447</v>
       </c>
-      <c r="CH277" s="35">
+      <c r="CH277" s="34">
         <v>1.5745721117538025</v>
       </c>
-      <c r="CI277" s="35">
-        <v>3.1829328513050639</v>
-      </c>
-      <c r="CJ277" s="9"/>
+      <c r="CI277" s="34">
+        <v>3.119653106821012</v>
+      </c>
+      <c r="CJ277" s="34">
+        <v>1.4251347594180266</v>
+      </c>
       <c r="CK277" s="9"/>
       <c r="CL277" s="9"/>
       <c r="CM277" s="9"/>
@@ -62795,25 +63175,27 @@
       <c r="CC278" s="23">
         <v>2.0224979493234554</v>
       </c>
-      <c r="CD278" s="35">
+      <c r="CD278" s="34">
         <v>3.089277589193749</v>
       </c>
-      <c r="CE278" s="35">
+      <c r="CE278" s="34">
         <v>4.7062753542618774</v>
       </c>
-      <c r="CF278" s="35">
+      <c r="CF278" s="34">
         <v>2.9279079304408144</v>
       </c>
-      <c r="CG278" s="35">
+      <c r="CG278" s="34">
         <v>2.244820814997579</v>
       </c>
-      <c r="CH278" s="35">
+      <c r="CH278" s="34">
         <v>3.6385245974553717</v>
       </c>
-      <c r="CI278" s="35">
-        <v>4.9183078644517337</v>
-      </c>
-      <c r="CJ278" s="9"/>
+      <c r="CI278" s="34">
+        <v>4.8721158792886126</v>
+      </c>
+      <c r="CJ278" s="34">
+        <v>2.9127621302996087</v>
+      </c>
       <c r="CK278" s="9"/>
       <c r="CL278" s="9"/>
       <c r="CM278" s="9"/>
@@ -63123,25 +63505,27 @@
       <c r="CC279" s="23">
         <v>6.9458582168234972</v>
       </c>
-      <c r="CD279" s="35">
+      <c r="CD279" s="34">
         <v>7.3236635529673908</v>
       </c>
-      <c r="CE279" s="35">
+      <c r="CE279" s="34">
         <v>20.414639198387604</v>
       </c>
-      <c r="CF279" s="35">
+      <c r="CF279" s="34">
         <v>10.543135359458534</v>
       </c>
-      <c r="CG279" s="35">
+      <c r="CG279" s="34">
         <v>6.9685557243667775</v>
       </c>
-      <c r="CH279" s="35">
+      <c r="CH279" s="34">
         <v>7.3551616858209563</v>
       </c>
-      <c r="CI279" s="35">
-        <v>15.032906805439419</v>
-      </c>
-      <c r="CJ279" s="9"/>
+      <c r="CI279" s="34">
+        <v>14.881415971596551</v>
+      </c>
+      <c r="CJ279" s="34">
+        <v>11.475916490743243</v>
+      </c>
       <c r="CK279" s="9"/>
       <c r="CL279" s="9"/>
       <c r="CM279" s="9"/>
@@ -63451,25 +63835,27 @@
       <c r="CC280" s="23">
         <v>3.2909098444084135</v>
       </c>
-      <c r="CD280" s="35">
+      <c r="CD280" s="34">
         <v>4.1598708874749617</v>
       </c>
-      <c r="CE280" s="35">
+      <c r="CE280" s="34">
         <v>5.460363696813757</v>
       </c>
-      <c r="CF280" s="35">
+      <c r="CF280" s="34">
         <v>3.9172891702996688</v>
       </c>
-      <c r="CG280" s="35">
+      <c r="CG280" s="34">
         <v>3.7665843767037437</v>
       </c>
-      <c r="CH280" s="35">
+      <c r="CH280" s="34">
         <v>5.222593305437333</v>
       </c>
-      <c r="CI280" s="35">
-        <v>6.0080443076709376</v>
-      </c>
-      <c r="CJ280" s="9"/>
+      <c r="CI280" s="34">
+        <v>6.0342247489306358</v>
+      </c>
+      <c r="CJ280" s="34">
+        <v>3.3009344895366963</v>
+      </c>
       <c r="CK280" s="9"/>
       <c r="CL280" s="9"/>
       <c r="CM280" s="9"/>
@@ -63616,13 +64002,13 @@
       <c r="CA281" s="9"/>
       <c r="CB281" s="9"/>
       <c r="CC281" s="9"/>
-      <c r="CD281" s="30"/>
-      <c r="CE281" s="30"/>
-      <c r="CF281" s="30"/>
-      <c r="CG281" s="30"/>
-      <c r="CH281" s="30"/>
-      <c r="CI281" s="30"/>
-      <c r="CJ281" s="9"/>
+      <c r="CD281" s="29"/>
+      <c r="CE281" s="29"/>
+      <c r="CF281" s="29"/>
+      <c r="CG281" s="29"/>
+      <c r="CH281" s="29"/>
+      <c r="CI281" s="29"/>
+      <c r="CJ281" s="29"/>
       <c r="CK281" s="9"/>
       <c r="CL281" s="9"/>
       <c r="CM281" s="9"/>
@@ -63932,25 +64318,27 @@
       <c r="CC282" s="23">
         <v>100</v>
       </c>
-      <c r="CD282" s="35">
+      <c r="CD282" s="34">
         <v>100</v>
       </c>
-      <c r="CE282" s="35">
+      <c r="CE282" s="34">
         <v>100</v>
       </c>
-      <c r="CF282" s="35">
+      <c r="CF282" s="34">
         <v>100</v>
       </c>
-      <c r="CG282" s="35">
+      <c r="CG282" s="34">
         <v>100</v>
       </c>
-      <c r="CH282" s="35">
+      <c r="CH282" s="34">
         <v>100</v>
       </c>
-      <c r="CI282" s="35">
+      <c r="CI282" s="34">
         <v>100</v>
       </c>
-      <c r="CJ282" s="9"/>
+      <c r="CJ282" s="34">
+        <v>100</v>
+      </c>
       <c r="CK282" s="9"/>
       <c r="CL282" s="9"/>
       <c r="CM282" s="9"/>
@@ -64098,12 +64486,13 @@
       <c r="CA283" s="14"/>
       <c r="CB283" s="14"/>
       <c r="CC283" s="14"/>
-      <c r="CD283" s="32"/>
-      <c r="CE283" s="32"/>
-      <c r="CF283" s="32"/>
-      <c r="CG283" s="32"/>
-      <c r="CH283" s="32"/>
-      <c r="CI283" s="32"/>
+      <c r="CD283" s="31"/>
+      <c r="CE283" s="31"/>
+      <c r="CF283" s="31"/>
+      <c r="CG283" s="31"/>
+      <c r="CH283" s="31"/>
+      <c r="CI283" s="31"/>
+      <c r="CJ283" s="31"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
@@ -64111,32 +64500,16 @@
       </c>
     </row>
     <row r="285" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="CD285" s="30"/>
-      <c r="CE285" s="30"/>
-      <c r="CF285" s="30"/>
-      <c r="CG285" s="30"/>
-      <c r="CH285" s="30"/>
-      <c r="CI285" s="30"/>
-    </row>
-    <row r="286" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="CD286" s="30"/>
-      <c r="CE286" s="30"/>
-      <c r="CF286" s="30"/>
-      <c r="CG286" s="30"/>
-      <c r="CH286" s="30"/>
-      <c r="CI286" s="30"/>
+      <c r="CD285" s="29"/>
+      <c r="CE285" s="29"/>
+      <c r="CF285" s="29"/>
+      <c r="CG285" s="29"/>
+      <c r="CH285" s="29"/>
+      <c r="CI285" s="29"/>
+      <c r="CJ285" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BN172:BQ172"/>
-    <mergeCell ref="BZ254:CC254"/>
-    <mergeCell ref="BR254:BU254"/>
-    <mergeCell ref="BV254:BY254"/>
-    <mergeCell ref="BN132:BQ132"/>
-    <mergeCell ref="BB91:BE91"/>
-    <mergeCell ref="BF91:BI91"/>
-    <mergeCell ref="BJ91:BM91"/>
-    <mergeCell ref="BN91:BQ91"/>
     <mergeCell ref="B213:E213"/>
     <mergeCell ref="F213:I213"/>
     <mergeCell ref="J213:M213"/>
@@ -64162,6 +64535,11 @@
     <mergeCell ref="AT132:AW132"/>
     <mergeCell ref="AT91:AW91"/>
     <mergeCell ref="AX91:BA91"/>
+    <mergeCell ref="BF50:BI50"/>
+    <mergeCell ref="AP50:AS50"/>
+    <mergeCell ref="BF132:BI132"/>
+    <mergeCell ref="BB91:BE91"/>
+    <mergeCell ref="BF91:BI91"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
@@ -64190,8 +64568,6 @@
     <mergeCell ref="AD91:AG91"/>
     <mergeCell ref="AH91:AK91"/>
     <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="BF50:BI50"/>
-    <mergeCell ref="AP50:AS50"/>
     <mergeCell ref="B254:E254"/>
     <mergeCell ref="F254:I254"/>
     <mergeCell ref="J254:M254"/>
@@ -64216,8 +64592,6 @@
     <mergeCell ref="V132:Y132"/>
     <mergeCell ref="AX132:BA132"/>
     <mergeCell ref="BB132:BE132"/>
-    <mergeCell ref="BF132:BI132"/>
-    <mergeCell ref="BJ132:BM132"/>
     <mergeCell ref="AL91:AO91"/>
     <mergeCell ref="Z172:AC172"/>
     <mergeCell ref="AD172:AG172"/>
@@ -64226,7 +64600,6 @@
     <mergeCell ref="Z132:AC132"/>
     <mergeCell ref="AD132:AG132"/>
     <mergeCell ref="AH132:AK132"/>
-    <mergeCell ref="BJ172:BM172"/>
     <mergeCell ref="AL132:AO132"/>
     <mergeCell ref="AX254:BA254"/>
     <mergeCell ref="BB254:BE254"/>
@@ -64240,9 +64613,6 @@
     <mergeCell ref="AL254:AO254"/>
     <mergeCell ref="AP254:AS254"/>
     <mergeCell ref="AT254:AW254"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ50:CC50"/>
     <mergeCell ref="BF254:BI254"/>
     <mergeCell ref="BJ254:BM254"/>
     <mergeCell ref="BN254:BQ254"/>
@@ -64264,13 +64634,25 @@
     <mergeCell ref="BN213:BQ213"/>
     <mergeCell ref="BJ50:BM50"/>
     <mergeCell ref="BN50:BQ50"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH50:CI50"/>
-    <mergeCell ref="CD91:CE91"/>
-    <mergeCell ref="CD132:CE132"/>
-    <mergeCell ref="CH172:CI172"/>
-    <mergeCell ref="CH213:CI213"/>
-    <mergeCell ref="CH254:CI254"/>
+    <mergeCell ref="BN172:BQ172"/>
+    <mergeCell ref="BZ254:CC254"/>
+    <mergeCell ref="BR254:BU254"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH50:CJ50"/>
+    <mergeCell ref="CD132:CF132"/>
+    <mergeCell ref="CH172:CJ172"/>
+    <mergeCell ref="CH213:CJ213"/>
+    <mergeCell ref="CH254:CJ254"/>
+    <mergeCell ref="CD91:CF91"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ50:CC50"/>
+    <mergeCell ref="BV254:BY254"/>
+    <mergeCell ref="BN132:BQ132"/>
+    <mergeCell ref="BJ91:BM91"/>
+    <mergeCell ref="BN91:BQ91"/>
+    <mergeCell ref="BJ132:BM132"/>
+    <mergeCell ref="BJ172:BM172"/>
     <mergeCell ref="BR132:BU132"/>
     <mergeCell ref="BV132:BY132"/>
     <mergeCell ref="BR50:BU50"/>
@@ -64285,12 +64667,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="86" man="1"/>
-    <brk id="82" max="86" man="1"/>
-    <brk id="123" max="86" man="1"/>
-    <brk id="164" max="86" man="1"/>
-    <brk id="204" max="86" man="1"/>
-    <brk id="245" max="86" man="1"/>
+    <brk id="41" max="87" man="1"/>
+    <brk id="82" max="87" man="1"/>
+    <brk id="123" max="87" man="1"/>
+    <brk id="164" max="87" man="1"/>
+    <brk id="204" max="87" man="1"/>
+    <brk id="245" max="87" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11592" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CJ$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CK$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="74">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -257,28 +257,24 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -354,7 +350,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -414,21 +410,19 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,14 +757,14 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV285"/>
+  <dimension ref="A1:EV284"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CQ12" sqref="CQ12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,8 +778,8 @@
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
     <col min="74" max="80" width="9.26953125" style="1" customWidth="1"/>
     <col min="81" max="81" width="9.6328125" style="1" customWidth="1"/>
-    <col min="82" max="88" width="11.7265625" style="25" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="10.36328125" style="25" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -800,7 +794,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.25">
@@ -810,7 +804,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.25">
@@ -820,137 +814,138 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="39">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
-      <c r="BF9" s="39">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38">
         <v>2014</v>
       </c>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
-      <c r="BJ9" s="39">
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38">
         <v>2015</v>
       </c>
-      <c r="BK9" s="39"/>
-      <c r="BL9" s="39"/>
-      <c r="BM9" s="39"/>
-      <c r="BN9" s="39">
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38">
         <v>2016</v>
       </c>
-      <c r="BO9" s="39"/>
-      <c r="BP9" s="39"/>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="39"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="39"/>
-      <c r="BV9" s="39">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="39"/>
-      <c r="BX9" s="39"/>
-      <c r="BY9" s="39"/>
-      <c r="BZ9" s="39">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="39"/>
-      <c r="CB9" s="39"/>
-      <c r="CC9" s="39"/>
-      <c r="CD9" s="41">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="37">
         <v>2020</v>
       </c>
-      <c r="CE9" s="41"/>
-      <c r="CF9" s="41"/>
-      <c r="CG9" s="41"/>
-      <c r="CH9" s="41">
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
+      <c r="CH9" s="37">
         <v>2021</v>
       </c>
-      <c r="CI9" s="41"/>
-      <c r="CJ9" s="41"/>
+      <c r="CI9" s="37"/>
+      <c r="CJ9" s="37"/>
+      <c r="CK9" s="37"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1216,6 +1211,9 @@
       </c>
       <c r="CJ10" s="26" t="s">
         <v>8</v>
+      </c>
+      <c r="CK10" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,9 +1482,11 @@
         <v>47908.693791018057</v>
       </c>
       <c r="CJ12" s="27">
-        <v>40618.397647098027</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>40678.977143383301</v>
+      </c>
+      <c r="CK12" s="27">
+        <v>57652.386983701974</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -1814,9 +1814,11 @@
         <v>3921.1779126417432</v>
       </c>
       <c r="CJ13" s="28">
-        <v>4432.987792072403</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>4431.3205189264481</v>
+      </c>
+      <c r="CK13" s="28">
+        <v>4153.6748333600044</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -2144,9 +2146,11 @@
         <v>9793.6545376371487</v>
       </c>
       <c r="CJ14" s="28">
-        <v>9191.3495858880615</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>9182.1375066429082</v>
+      </c>
+      <c r="CK14" s="28">
+        <v>10797.58470579433</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -2474,9 +2478,11 @@
         <v>502.04619643059505</v>
       </c>
       <c r="CJ15" s="28">
-        <v>600.88711261233652</v>
-      </c>
-      <c r="CK15" s="9"/>
+        <v>592.05315884208267</v>
+      </c>
+      <c r="CK15" s="28">
+        <v>828.88475803618906</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -2804,9 +2810,11 @@
         <v>354.09846712160282</v>
       </c>
       <c r="CJ16" s="28">
-        <v>456.40913150136157</v>
-      </c>
-      <c r="CK16" s="9"/>
+        <v>465.52507322168003</v>
+      </c>
+      <c r="CK16" s="28">
+        <v>450.45686434651935</v>
+      </c>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -3134,9 +3142,11 @@
         <v>3345.2382524523723</v>
       </c>
       <c r="CJ17" s="28">
-        <v>3313.3224178940004</v>
-      </c>
-      <c r="CK17" s="9"/>
+        <v>3344.3543043958257</v>
+      </c>
+      <c r="CK17" s="28">
+        <v>2956.9065566932363</v>
+      </c>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
@@ -3464,9 +3474,11 @@
         <v>20907.667326174764</v>
       </c>
       <c r="CJ18" s="28">
-        <v>14282.804918277967</v>
-      </c>
-      <c r="CK18" s="9"/>
+        <v>14404.670339005839</v>
+      </c>
+      <c r="CK18" s="28">
+        <v>27455.824266369549</v>
+      </c>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
@@ -3794,9 +3806,11 @@
         <v>585.72133016246573</v>
       </c>
       <c r="CJ19" s="28">
-        <v>939.7383235064608</v>
-      </c>
-      <c r="CK19" s="9"/>
+        <v>944.78221146599401</v>
+      </c>
+      <c r="CK19" s="28">
+        <v>1414.8065127616078</v>
+      </c>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -4124,9 +4138,11 @@
         <v>8499.089768397369</v>
       </c>
       <c r="CJ20" s="28">
-        <v>7400.8983653454325</v>
-      </c>
-      <c r="CK20" s="9"/>
+        <v>7314.1340308825165</v>
+      </c>
+      <c r="CK20" s="28">
+        <v>9594.2484863405443</v>
+      </c>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
@@ -4454,9 +4470,11 @@
         <v>40166.922498051274</v>
       </c>
       <c r="CJ21" s="27">
-        <v>46287.03312845451</v>
-      </c>
-      <c r="CK21" s="9"/>
+        <v>46335.010517938441</v>
+      </c>
+      <c r="CK21" s="27">
+        <v>45973.356820414076</v>
+      </c>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
@@ -4784,9 +4802,11 @@
         <v>7162.7800145312067</v>
       </c>
       <c r="CJ22" s="28">
-        <v>7321.373258356185</v>
-      </c>
-      <c r="CK22" s="9"/>
+        <v>7281.6657767998686</v>
+      </c>
+      <c r="CK22" s="28">
+        <v>9711.5300023008349</v>
+      </c>
       <c r="CL22" s="9"/>
       <c r="CM22" s="9"/>
       <c r="CN22" s="9"/>
@@ -5114,9 +5134,11 @@
         <v>5110.7873209523341</v>
       </c>
       <c r="CJ23" s="28">
-        <v>5127.1381552591502</v>
-      </c>
-      <c r="CK23" s="9"/>
+        <v>5077.2766160259644</v>
+      </c>
+      <c r="CK23" s="28">
+        <v>5347.8008609994076</v>
+      </c>
       <c r="CL23" s="9"/>
       <c r="CM23" s="9"/>
       <c r="CN23" s="9"/>
@@ -5444,9 +5466,11 @@
         <v>11784.218551969392</v>
       </c>
       <c r="CJ24" s="28">
-        <v>15905.435284192699</v>
-      </c>
-      <c r="CK24" s="9"/>
+        <v>16145.103093221691</v>
+      </c>
+      <c r="CK24" s="28">
+        <v>12285.420708371605</v>
+      </c>
       <c r="CL24" s="9"/>
       <c r="CM24" s="9"/>
       <c r="CN24" s="9"/>
@@ -5774,9 +5798,11 @@
         <v>16109.13661059834</v>
       </c>
       <c r="CJ25" s="28">
-        <v>17933.086430646479</v>
-      </c>
-      <c r="CK25" s="9"/>
+        <v>17830.965031890923</v>
+      </c>
+      <c r="CK25" s="28">
+        <v>18628.605248742231</v>
+      </c>
       <c r="CL25" s="9"/>
       <c r="CM25" s="9"/>
       <c r="CN25" s="9"/>
@@ -6104,9 +6130,11 @@
         <v>104919.88751807903</v>
       </c>
       <c r="CJ26" s="27">
-        <v>107888.75042416083</v>
-      </c>
-      <c r="CK26" s="9"/>
+        <v>105181.95680965974</v>
+      </c>
+      <c r="CK26" s="27">
+        <v>130215.00849530046</v>
+      </c>
       <c r="CL26" s="9"/>
       <c r="CM26" s="9"/>
       <c r="CN26" s="9"/>
@@ -6434,9 +6462,11 @@
         <v>96494.609521889011</v>
       </c>
       <c r="CJ27" s="28">
-        <v>103601.45620046637</v>
-      </c>
-      <c r="CK27" s="9"/>
+        <v>100727.55366761058</v>
+      </c>
+      <c r="CK27" s="28">
+        <v>107088.1863673958</v>
+      </c>
       <c r="CL27" s="9"/>
       <c r="CM27" s="9"/>
       <c r="CN27" s="9"/>
@@ -6764,9 +6794,11 @@
         <v>11.874722334350084</v>
       </c>
       <c r="CJ28" s="28">
-        <v>1070.4458898966589</v>
-      </c>
-      <c r="CK28" s="9"/>
+        <v>1070.2158333091902</v>
+      </c>
+      <c r="CK28" s="28">
+        <v>3161.1887161347163</v>
+      </c>
       <c r="CL28" s="9"/>
       <c r="CM28" s="9"/>
       <c r="CN28" s="9"/>
@@ -7094,9 +7126,11 @@
         <v>7148.5923806901101</v>
       </c>
       <c r="CJ29" s="28">
-        <v>2394.638718311412</v>
-      </c>
-      <c r="CK29" s="9"/>
+        <v>2560.3352045048746</v>
+      </c>
+      <c r="CK29" s="28">
+        <v>18366.757473576643</v>
+      </c>
       <c r="CL29" s="9"/>
       <c r="CM29" s="9"/>
       <c r="CN29" s="9"/>
@@ -7424,9 +7458,11 @@
         <v>1264.8108931655654</v>
       </c>
       <c r="CJ30" s="28">
-        <v>822.20961548637911</v>
-      </c>
-      <c r="CK30" s="9"/>
+        <v>823.85210423507249</v>
+      </c>
+      <c r="CK30" s="28">
+        <v>1598.8759381933062</v>
+      </c>
       <c r="CL30" s="9"/>
       <c r="CM30" s="9"/>
       <c r="CN30" s="9"/>
@@ -7754,9 +7790,11 @@
         <v>53251.269172972352</v>
       </c>
       <c r="CJ31" s="27">
-        <v>52112.261397480048</v>
-      </c>
-      <c r="CK31" s="9"/>
+        <v>52890.306391642815</v>
+      </c>
+      <c r="CK31" s="27">
+        <v>53757.865112657935</v>
+      </c>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
       <c r="CN31" s="9"/>
@@ -8084,9 +8122,11 @@
         <v>4876.1796728694517</v>
       </c>
       <c r="CJ32" s="28">
-        <v>4909.5626075490409</v>
-      </c>
-      <c r="CK32" s="9"/>
+        <v>5006.9791472144016</v>
+      </c>
+      <c r="CK32" s="28">
+        <v>4630.2563431602985</v>
+      </c>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
@@ -8414,9 +8454,11 @@
         <v>8444.8775569290501</v>
       </c>
       <c r="CJ33" s="28">
-        <v>8453.6218710755529</v>
-      </c>
-      <c r="CK33" s="9"/>
+        <v>8468.3608977511576</v>
+      </c>
+      <c r="CK33" s="28">
+        <v>7834.7739014618082</v>
+      </c>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -8744,9 +8786,11 @@
         <v>25147.282965282888</v>
       </c>
       <c r="CJ34" s="28">
-        <v>30349.202509067174</v>
-      </c>
-      <c r="CK34" s="9"/>
+        <v>30448.942254602833</v>
+      </c>
+      <c r="CK34" s="28">
+        <v>30916.317747095203</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -9074,9 +9118,11 @@
         <v>14782.928977890964</v>
       </c>
       <c r="CJ35" s="28">
-        <v>8399.8744097882827</v>
-      </c>
-      <c r="CK35" s="9"/>
+        <v>8966.0240920744181</v>
+      </c>
+      <c r="CK35" s="28">
+        <v>10376.517120940627</v>
+      </c>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -9229,7 +9275,7 @@
       <c r="CH36" s="29"/>
       <c r="CI36" s="29"/>
       <c r="CJ36" s="29"/>
-      <c r="CK36" s="9"/>
+      <c r="CK36" s="29"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -9557,9 +9603,11 @@
         <v>246246.77298012073</v>
       </c>
       <c r="CJ37" s="30">
-        <v>246906.44259719341</v>
-      </c>
-      <c r="CK37" s="9"/>
+        <v>245086.25086262429</v>
+      </c>
+      <c r="CK37" s="30">
+        <v>287598.61741207447</v>
+      </c>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -9713,6 +9761,7 @@
       <c r="CH38" s="31"/>
       <c r="CI38" s="31"/>
       <c r="CJ38" s="31"/>
+      <c r="CK38" s="31"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
@@ -9827,7 +9876,7 @@
       <c r="CH40" s="29"/>
       <c r="CI40" s="29"/>
       <c r="CJ40" s="29"/>
-      <c r="CK40" s="9"/>
+      <c r="CK40" s="29"/>
       <c r="CL40" s="9"/>
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
@@ -9980,7 +10029,7 @@
       <c r="CH41" s="29"/>
       <c r="CI41" s="29"/>
       <c r="CJ41" s="29"/>
-      <c r="CK41" s="9"/>
+      <c r="CK41" s="29"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
@@ -10057,7 +10106,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.25">
@@ -10067,7 +10116,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.25">
@@ -10077,139 +10126,138 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="40">
+      <c r="B50" s="39">
         <v>2000</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40">
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39">
         <v>2001</v>
       </c>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40">
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39">
         <v>2002</v>
       </c>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40">
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39">
         <v>2003</v>
       </c>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40">
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39">
         <v>2004</v>
       </c>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40">
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39">
         <v>2005</v>
       </c>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40">
+      <c r="W50" s="39"/>
+      <c r="X50" s="39"/>
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39">
         <v>2006</v>
       </c>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="40">
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39">
         <v>2007</v>
       </c>
-      <c r="AE50" s="40"/>
-      <c r="AF50" s="40"/>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="40">
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39">
         <v>2008</v>
       </c>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="40"/>
-      <c r="AK50" s="40"/>
-      <c r="AL50" s="40">
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39">
         <v>2009</v>
       </c>
-      <c r="AM50" s="40"/>
-      <c r="AN50" s="40"/>
-      <c r="AO50" s="40"/>
-      <c r="AP50" s="40">
+      <c r="AM50" s="39"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="39"/>
+      <c r="AP50" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="40"/>
-      <c r="AR50" s="40"/>
-      <c r="AS50" s="40"/>
-      <c r="AT50" s="40">
+      <c r="AQ50" s="39"/>
+      <c r="AR50" s="39"/>
+      <c r="AS50" s="39"/>
+      <c r="AT50" s="39">
         <v>2011</v>
       </c>
-      <c r="AU50" s="40"/>
-      <c r="AV50" s="40"/>
-      <c r="AW50" s="40"/>
-      <c r="AX50" s="40">
+      <c r="AU50" s="39"/>
+      <c r="AV50" s="39"/>
+      <c r="AW50" s="39"/>
+      <c r="AX50" s="39">
         <v>2012</v>
       </c>
-      <c r="AY50" s="40"/>
-      <c r="AZ50" s="40"/>
-      <c r="BA50" s="40"/>
-      <c r="BB50" s="40">
+      <c r="AY50" s="39"/>
+      <c r="AZ50" s="39"/>
+      <c r="BA50" s="39"/>
+      <c r="BB50" s="39">
         <v>2013</v>
       </c>
-      <c r="BC50" s="40"/>
-      <c r="BD50" s="40"/>
-      <c r="BE50" s="40"/>
-      <c r="BF50" s="40">
+      <c r="BC50" s="39"/>
+      <c r="BD50" s="39"/>
+      <c r="BE50" s="39"/>
+      <c r="BF50" s="39">
         <v>2014</v>
       </c>
-      <c r="BG50" s="40"/>
-      <c r="BH50" s="40"/>
-      <c r="BI50" s="40"/>
-      <c r="BJ50" s="40">
+      <c r="BG50" s="39"/>
+      <c r="BH50" s="39"/>
+      <c r="BI50" s="39"/>
+      <c r="BJ50" s="39">
         <v>2015</v>
       </c>
-      <c r="BK50" s="40"/>
-      <c r="BL50" s="40"/>
-      <c r="BM50" s="40"/>
-      <c r="BN50" s="40">
+      <c r="BK50" s="39"/>
+      <c r="BL50" s="39"/>
+      <c r="BM50" s="39"/>
+      <c r="BN50" s="39">
         <v>2016</v>
       </c>
-      <c r="BO50" s="40"/>
-      <c r="BP50" s="40"/>
-      <c r="BQ50" s="40"/>
-      <c r="BR50" s="40">
+      <c r="BO50" s="39"/>
+      <c r="BP50" s="39"/>
+      <c r="BQ50" s="39"/>
+      <c r="BR50" s="39">
         <v>2017</v>
       </c>
-      <c r="BS50" s="40"/>
-      <c r="BT50" s="40"/>
-      <c r="BU50" s="40"/>
-      <c r="BV50" s="40">
+      <c r="BS50" s="39"/>
+      <c r="BT50" s="39"/>
+      <c r="BU50" s="39"/>
+      <c r="BV50" s="39">
         <v>2018</v>
       </c>
-      <c r="BW50" s="40"/>
-      <c r="BX50" s="40"/>
-      <c r="BY50" s="40"/>
-      <c r="BZ50" s="40">
+      <c r="BW50" s="39"/>
+      <c r="BX50" s="39"/>
+      <c r="BY50" s="39"/>
+      <c r="BZ50" s="39">
         <v>2019</v>
       </c>
-      <c r="CA50" s="40"/>
-      <c r="CB50" s="40"/>
-      <c r="CC50" s="40"/>
-      <c r="CD50" s="41">
+      <c r="CA50" s="39"/>
+      <c r="CB50" s="39"/>
+      <c r="CC50" s="39"/>
+      <c r="CD50" s="37">
         <v>2020</v>
       </c>
-      <c r="CE50" s="41"/>
-      <c r="CF50" s="41"/>
-      <c r="CG50" s="41"/>
-      <c r="CH50" s="41">
+      <c r="CE50" s="37"/>
+      <c r="CF50" s="37"/>
+      <c r="CG50" s="37"/>
+      <c r="CH50" s="37">
         <v>2021</v>
       </c>
-      <c r="CI50" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ50" s="41"/>
+      <c r="CI50" s="37"/>
+      <c r="CJ50" s="37"/>
+      <c r="CK50" s="37"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -10475,6 +10523,9 @@
       </c>
       <c r="CJ51" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CK51" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10743,9 +10794,11 @@
         <v>31353.976043114617</v>
       </c>
       <c r="CJ53" s="27">
-        <v>49990.073538434743</v>
-      </c>
-      <c r="CK53" s="9"/>
+        <v>49973.699930059251</v>
+      </c>
+      <c r="CK53" s="27">
+        <v>66014.739351359851</v>
+      </c>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
@@ -11073,9 +11126,11 @@
         <v>1438.9446047542453</v>
       </c>
       <c r="CJ54" s="28">
-        <v>5294.523529890238</v>
-      </c>
-      <c r="CK54" s="9"/>
+        <v>5288.1324913268809</v>
+      </c>
+      <c r="CK54" s="28">
+        <v>5891.7462045591419</v>
+      </c>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
@@ -11403,9 +11458,11 @@
         <v>3692.2438705868017</v>
       </c>
       <c r="CJ55" s="28">
-        <v>11035.216052658912</v>
-      </c>
-      <c r="CK55" s="9"/>
+        <v>11002.124241302017</v>
+      </c>
+      <c r="CK55" s="28">
+        <v>15421.219557860642</v>
+      </c>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
@@ -11733,9 +11790,11 @@
         <v>267.6744895174395</v>
       </c>
       <c r="CJ56" s="28">
-        <v>685.35029135932018</v>
-      </c>
-      <c r="CK56" s="9"/>
+        <v>642.08534303650413</v>
+      </c>
+      <c r="CK56" s="28">
+        <v>888.40269478756386</v>
+      </c>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -12063,9 +12122,11 @@
         <v>147.07881376922208</v>
       </c>
       <c r="CJ57" s="28">
-        <v>537.47082593560151</v>
-      </c>
-      <c r="CK57" s="9"/>
+        <v>543.88853198095057</v>
+      </c>
+      <c r="CK57" s="28">
+        <v>550.27632279083718</v>
+      </c>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
@@ -12393,9 +12454,11 @@
         <v>1256.8628093180503</v>
       </c>
       <c r="CJ58" s="28">
-        <v>3835.1959278146046</v>
-      </c>
-      <c r="CK58" s="9"/>
+        <v>3857.7311571913237</v>
+      </c>
+      <c r="CK58" s="28">
+        <v>4057.8463792757234</v>
+      </c>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
@@ -12723,9 +12786,11 @@
         <v>20588.644189399172</v>
       </c>
       <c r="CJ59" s="28">
-        <v>18917.812821332624</v>
-      </c>
-      <c r="CK59" s="9"/>
+        <v>19052.794088521587</v>
+      </c>
+      <c r="CK59" s="28">
+        <v>25603.020233208903</v>
+      </c>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
@@ -13053,9 +13118,11 @@
         <v>234.80165754563831</v>
       </c>
       <c r="CJ60" s="28">
-        <v>1140.9773207707779</v>
-      </c>
-      <c r="CK60" s="9"/>
+        <v>1142.8591675963398</v>
+      </c>
+      <c r="CK60" s="28">
+        <v>2040.6790796782843</v>
+      </c>
       <c r="CL60" s="9"/>
       <c r="CM60" s="9"/>
       <c r="CN60" s="9"/>
@@ -13383,9 +13450,11 @@
         <v>3727.7256082240465</v>
       </c>
       <c r="CJ61" s="28">
-        <v>8543.5267686726638</v>
-      </c>
-      <c r="CK61" s="9"/>
+        <v>8444.0849091036525</v>
+      </c>
+      <c r="CK61" s="28">
+        <v>11561.548879198748</v>
+      </c>
       <c r="CL61" s="9"/>
       <c r="CM61" s="9"/>
       <c r="CN61" s="9"/>
@@ -13713,9 +13782,11 @@
         <v>36673.348659737007</v>
       </c>
       <c r="CJ62" s="27">
-        <v>53659.137948630887</v>
-      </c>
-      <c r="CK62" s="9"/>
+        <v>53658.544397108351</v>
+      </c>
+      <c r="CK62" s="27">
+        <v>44895.216468702565</v>
+      </c>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
@@ -14043,9 +14114,11 @@
         <v>6394.1519361725368</v>
       </c>
       <c r="CJ63" s="28">
-        <v>8668.5217065243942</v>
-      </c>
-      <c r="CK63" s="9"/>
+        <v>8592.9202917714883</v>
+      </c>
+      <c r="CK63" s="28">
+        <v>9164.3636585618333</v>
+      </c>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
@@ -14373,9 +14446,11 @@
         <v>4553.5295070207403</v>
       </c>
       <c r="CJ64" s="28">
-        <v>5986.4445664686618</v>
-      </c>
-      <c r="CK64" s="9"/>
+        <v>5923.2163738014351</v>
+      </c>
+      <c r="CK64" s="28">
+        <v>5181.8393472846055</v>
+      </c>
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
       <c r="CN64" s="9"/>
@@ -14703,9 +14778,11 @@
         <v>10501.198522735152</v>
       </c>
       <c r="CJ65" s="28">
-        <v>18225.829885095707</v>
-      </c>
-      <c r="CK65" s="9"/>
+        <v>18477.374640316899</v>
+      </c>
+      <c r="CK65" s="28">
+        <v>11414.018600791709</v>
+      </c>
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
       <c r="CN65" s="9"/>
@@ -15033,9 +15110,11 @@
         <v>15224.468693808582</v>
       </c>
       <c r="CJ66" s="28">
-        <v>20778.341790542123</v>
-      </c>
-      <c r="CK66" s="9"/>
+        <v>20665.033091218531</v>
+      </c>
+      <c r="CK66" s="28">
+        <v>19134.994862064421</v>
+      </c>
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
       <c r="CN66" s="9"/>
@@ -15363,9 +15442,11 @@
         <v>122268.88185330947</v>
       </c>
       <c r="CJ67" s="27">
-        <v>111555.519239901</v>
-      </c>
-      <c r="CK67" s="9"/>
+        <v>107398.37472989321</v>
+      </c>
+      <c r="CK67" s="27">
+        <v>130711.96543786145</v>
+      </c>
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
       <c r="CN67" s="9"/>
@@ -15693,9 +15774,11 @@
         <v>112150.48528369128</v>
       </c>
       <c r="CJ68" s="28">
-        <v>107516.39985025494</v>
-      </c>
-      <c r="CK68" s="9"/>
+        <v>103228.03764415026</v>
+      </c>
+      <c r="CK68" s="28">
+        <v>109556.18889318808</v>
+      </c>
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
       <c r="CN68" s="9"/>
@@ -16023,9 +16106,11 @@
         <v>16.962026802657096</v>
       </c>
       <c r="CJ69" s="28">
-        <v>1014.7126393457416</v>
-      </c>
-      <c r="CK69" s="9"/>
+        <v>1014.4945607587972</v>
+      </c>
+      <c r="CK69" s="28">
+        <v>2806.2221228758312</v>
+      </c>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
@@ -16353,9 +16438,11 @@
         <v>8591.6251274505375</v>
       </c>
       <c r="CJ70" s="28">
-        <v>2096.0150708906335</v>
-      </c>
-      <c r="CK70" s="9"/>
+        <v>2240.0169190602878</v>
+      </c>
+      <c r="CK70" s="28">
+        <v>16795.960697292259</v>
+      </c>
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
       <c r="CN70" s="9"/>
@@ -16683,9 +16770,11 @@
         <v>1509.8094153650025</v>
       </c>
       <c r="CJ71" s="28">
-        <v>928.39167940969219</v>
-      </c>
-      <c r="CK71" s="9"/>
+        <v>915.82560592386892</v>
+      </c>
+      <c r="CK71" s="28">
+        <v>1553.5937245052705</v>
+      </c>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
@@ -17013,9 +17102,11 @@
         <v>77377.549275360623</v>
       </c>
       <c r="CJ72" s="27">
-        <v>50857.035861928809</v>
-      </c>
-      <c r="CK72" s="9"/>
+        <v>51679.581894144481</v>
+      </c>
+      <c r="CK72" s="27">
+        <v>39554.374849260719</v>
+      </c>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
@@ -17343,9 +17434,11 @@
         <v>8350.4926399425567</v>
       </c>
       <c r="CJ73" s="28">
-        <v>3791.7387171800065</v>
-      </c>
-      <c r="CK73" s="9"/>
+        <v>3863.7292282446415</v>
+      </c>
+      <c r="CK73" s="28">
+        <v>2278.6937284912356</v>
+      </c>
       <c r="CL73" s="9"/>
       <c r="CM73" s="9"/>
       <c r="CN73" s="9"/>
@@ -17673,9 +17766,11 @@
         <v>13041.375562555797</v>
       </c>
       <c r="CJ74" s="28">
-        <v>7749.746380407485</v>
-      </c>
-      <c r="CK74" s="9"/>
+        <v>7764.2299617952922</v>
+      </c>
+      <c r="CK74" s="28">
+        <v>5744.3462876680514</v>
+      </c>
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
       <c r="CN74" s="9"/>
@@ -18003,9 +18098,11 @@
         <v>39833.645052084423</v>
       </c>
       <c r="CJ75" s="28">
-        <v>30533.02614753785</v>
-      </c>
-      <c r="CK75" s="9"/>
+        <v>30639.241636228202</v>
+      </c>
+      <c r="CK75" s="28">
+        <v>21589.744885372929</v>
+      </c>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
@@ -18333,9 +18430,11 @@
         <v>16152.036020777845</v>
       </c>
       <c r="CJ76" s="28">
-        <v>8782.5246168034737</v>
-      </c>
-      <c r="CK76" s="9"/>
+        <v>9412.3810678763475</v>
+      </c>
+      <c r="CK76" s="28">
+        <v>9941.589947728502</v>
+      </c>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
@@ -18488,7 +18587,7 @@
       <c r="CH77" s="29"/>
       <c r="CI77" s="29"/>
       <c r="CJ77" s="29"/>
-      <c r="CK77" s="9"/>
+      <c r="CK77" s="29"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
@@ -18816,9 +18915,11 @@
         <v>267673.7558315217</v>
       </c>
       <c r="CJ78" s="30">
-        <v>266061.76658889547</v>
-      </c>
-      <c r="CK78" s="9"/>
+        <v>262710.20095120528</v>
+      </c>
+      <c r="CK78" s="30">
+        <v>281176.29610718461</v>
+      </c>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
@@ -18972,6 +19073,7 @@
       <c r="CH79" s="31"/>
       <c r="CI79" s="31"/>
       <c r="CJ79" s="31"/>
+      <c r="CK79" s="31"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
@@ -19087,7 +19189,7 @@
       <c r="CH81" s="33"/>
       <c r="CI81" s="33"/>
       <c r="CJ81" s="33"/>
-      <c r="CK81" s="18"/>
+      <c r="CK81" s="33"/>
       <c r="CL81" s="18"/>
       <c r="CM81" s="18"/>
       <c r="CN81" s="18"/>
@@ -19241,7 +19343,7 @@
       <c r="CH82" s="33"/>
       <c r="CI82" s="33"/>
       <c r="CJ82" s="33"/>
-      <c r="CK82" s="18"/>
+      <c r="CK82" s="33"/>
       <c r="CL82" s="18"/>
       <c r="CM82" s="18"/>
       <c r="CN82" s="18"/>
@@ -19318,7 +19420,7 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.25">
@@ -19328,7 +19430,7 @@
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.25">
@@ -19338,135 +19440,136 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="39" t="s">
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="39" t="s">
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="40"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
-      <c r="N91" s="39" t="s">
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="40"/>
-      <c r="P91" s="40"/>
-      <c r="Q91" s="40"/>
-      <c r="R91" s="39" t="s">
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="39" t="s">
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="40"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="39" t="s">
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+      <c r="Y91" s="39"/>
+      <c r="Z91" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="40"/>
-      <c r="AB91" s="40"/>
-      <c r="AC91" s="40"/>
-      <c r="AD91" s="39" t="s">
+      <c r="AA91" s="39"/>
+      <c r="AB91" s="39"/>
+      <c r="AC91" s="39"/>
+      <c r="AD91" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="40"/>
-      <c r="AF91" s="40"/>
-      <c r="AG91" s="40"/>
-      <c r="AH91" s="39" t="s">
+      <c r="AE91" s="39"/>
+      <c r="AF91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AH91" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="40"/>
-      <c r="AJ91" s="40"/>
-      <c r="AK91" s="40"/>
-      <c r="AL91" s="39" t="s">
+      <c r="AI91" s="39"/>
+      <c r="AJ91" s="39"/>
+      <c r="AK91" s="39"/>
+      <c r="AL91" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="40"/>
-      <c r="AN91" s="40"/>
-      <c r="AO91" s="40"/>
-      <c r="AP91" s="39" t="s">
+      <c r="AM91" s="39"/>
+      <c r="AN91" s="39"/>
+      <c r="AO91" s="39"/>
+      <c r="AP91" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="40"/>
-      <c r="AR91" s="40"/>
-      <c r="AS91" s="40"/>
-      <c r="AT91" s="39" t="s">
+      <c r="AQ91" s="39"/>
+      <c r="AR91" s="39"/>
+      <c r="AS91" s="39"/>
+      <c r="AT91" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="40"/>
-      <c r="AV91" s="40"/>
-      <c r="AW91" s="40"/>
-      <c r="AX91" s="39" t="s">
+      <c r="AU91" s="39"/>
+      <c r="AV91" s="39"/>
+      <c r="AW91" s="39"/>
+      <c r="AX91" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="40"/>
-      <c r="AZ91" s="40"/>
-      <c r="BA91" s="40"/>
-      <c r="BB91" s="39" t="s">
+      <c r="AY91" s="39"/>
+      <c r="AZ91" s="39"/>
+      <c r="BA91" s="39"/>
+      <c r="BB91" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="40"/>
-      <c r="BD91" s="40"/>
-      <c r="BE91" s="40"/>
-      <c r="BF91" s="39" t="s">
+      <c r="BC91" s="39"/>
+      <c r="BD91" s="39"/>
+      <c r="BE91" s="39"/>
+      <c r="BF91" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="40"/>
-      <c r="BH91" s="40"/>
-      <c r="BI91" s="40"/>
-      <c r="BJ91" s="39" t="s">
+      <c r="BG91" s="39"/>
+      <c r="BH91" s="39"/>
+      <c r="BI91" s="39"/>
+      <c r="BJ91" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="40"/>
-      <c r="BL91" s="40"/>
-      <c r="BM91" s="40"/>
-      <c r="BN91" s="39" t="s">
+      <c r="BK91" s="39"/>
+      <c r="BL91" s="39"/>
+      <c r="BM91" s="39"/>
+      <c r="BN91" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="40"/>
-      <c r="BP91" s="40"/>
-      <c r="BQ91" s="40"/>
-      <c r="BR91" s="39" t="s">
+      <c r="BO91" s="39"/>
+      <c r="BP91" s="39"/>
+      <c r="BQ91" s="39"/>
+      <c r="BR91" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="40"/>
-      <c r="BT91" s="40"/>
-      <c r="BU91" s="40"/>
-      <c r="BV91" s="39" t="s">
+      <c r="BS91" s="39"/>
+      <c r="BT91" s="39"/>
+      <c r="BU91" s="39"/>
+      <c r="BV91" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="40"/>
-      <c r="BX91" s="40"/>
-      <c r="BY91" s="40"/>
-      <c r="BZ91" s="39" t="s">
+      <c r="BW91" s="39"/>
+      <c r="BX91" s="39"/>
+      <c r="BY91" s="39"/>
+      <c r="BZ91" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="39"/>
-      <c r="CB91" s="39"/>
-      <c r="CC91" s="39"/>
-      <c r="CD91" s="41" t="s">
+      <c r="CA91" s="38"/>
+      <c r="CB91" s="38"/>
+      <c r="CC91" s="38"/>
+      <c r="CD91" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="41"/>
-      <c r="CF91" s="41"/>
-      <c r="CG91" s="35"/>
-      <c r="CH91" s="35"/>
-      <c r="CI91" s="35"/>
-      <c r="CJ91" s="35"/>
+      <c r="CE91" s="37"/>
+      <c r="CF91" s="37"/>
+      <c r="CG91" s="37"/>
+      <c r="CH91" s="36"/>
+      <c r="CI91" s="36"/>
+      <c r="CJ91" s="36"/>
+      <c r="CK91" s="36"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -19721,10 +19824,13 @@
       <c r="CF92" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG92" s="26"/>
+      <c r="CG92" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="CH92" s="26"/>
       <c r="CI92" s="26"/>
       <c r="CJ92" s="26"/>
+      <c r="CK92" s="26"/>
     </row>
     <row r="93" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
@@ -19980,13 +20086,15 @@
         <v>77.358063189846831</v>
       </c>
       <c r="CF94" s="33">
-        <v>7.9673983098866188</v>
-      </c>
-      <c r="CG94" s="29"/>
+        <v>8.1284241253722627</v>
+      </c>
+      <c r="CG94" s="33">
+        <v>12.434583293399854</v>
+      </c>
       <c r="CH94" s="29"/>
       <c r="CI94" s="29"/>
       <c r="CJ94" s="29"/>
-      <c r="CK94" s="9"/>
+      <c r="CK94" s="29"/>
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
       <c r="CN94" s="9"/>
@@ -20297,13 +20405,15 @@
         <v>150.1786202198449</v>
       </c>
       <c r="CF95" s="33">
-        <v>62.400003851556789</v>
-      </c>
-      <c r="CG95" s="29"/>
+        <v>62.338924241590604</v>
+      </c>
+      <c r="CG95" s="33">
+        <v>-7.8112826884858606</v>
+      </c>
       <c r="CH95" s="29"/>
       <c r="CI95" s="29"/>
       <c r="CJ95" s="29"/>
-      <c r="CK95" s="9"/>
+      <c r="CK95" s="29"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
@@ -20614,13 +20724,15 @@
         <v>80.306619073970865</v>
       </c>
       <c r="CF96" s="33">
-        <v>63.736266904864351</v>
-      </c>
-      <c r="CG96" s="29"/>
+        <v>63.572161356278855</v>
+      </c>
+      <c r="CG96" s="33">
+        <v>123.45464240951412</v>
+      </c>
       <c r="CH96" s="29"/>
       <c r="CI96" s="29"/>
       <c r="CJ96" s="29"/>
-      <c r="CK96" s="9"/>
+      <c r="CK96" s="29"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
@@ -20931,13 +21043,15 @@
         <v>24.049302063440209</v>
       </c>
       <c r="CF97" s="33">
-        <v>-2.4026417768755124</v>
-      </c>
-      <c r="CG97" s="29"/>
+        <v>-3.8374712690470716</v>
+      </c>
+      <c r="CG97" s="33">
+        <v>55.891294742460559</v>
+      </c>
       <c r="CH97" s="29"/>
       <c r="CI97" s="29"/>
       <c r="CJ97" s="29"/>
-      <c r="CK97" s="9"/>
+      <c r="CK97" s="29"/>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
       <c r="CN97" s="9"/>
@@ -21248,13 +21362,15 @@
         <v>-5.922749477989953</v>
       </c>
       <c r="CF98" s="33">
-        <v>-7.8252760169840343</v>
-      </c>
-      <c r="CG98" s="29"/>
+        <v>-5.9842536668141975</v>
+      </c>
+      <c r="CG98" s="33">
+        <v>1.0646356416702929</v>
+      </c>
       <c r="CH98" s="29"/>
       <c r="CI98" s="29"/>
       <c r="CJ98" s="29"/>
-      <c r="CK98" s="9"/>
+      <c r="CK98" s="29"/>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
       <c r="CN98" s="9"/>
@@ -21565,13 +21681,15 @@
         <v>33.727980348589625</v>
       </c>
       <c r="CF99" s="33">
-        <v>14.337382551475912</v>
-      </c>
-      <c r="CG99" s="29"/>
+        <v>15.408242622047737</v>
+      </c>
+      <c r="CG99" s="33">
+        <v>27.762522936789267</v>
+      </c>
       <c r="CH99" s="29"/>
       <c r="CI99" s="29"/>
       <c r="CJ99" s="29"/>
-      <c r="CK99" s="9"/>
+      <c r="CK99" s="29"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
@@ -21882,13 +22000,15 @@
         <v>85.487656975139856</v>
       </c>
       <c r="CF100" s="33">
-        <v>-18.507958606147511</v>
-      </c>
-      <c r="CG100" s="29"/>
+        <v>-17.812642667348541</v>
+      </c>
+      <c r="CG100" s="33">
+        <v>-10.437976298112275</v>
+      </c>
       <c r="CH100" s="29"/>
       <c r="CI100" s="29"/>
       <c r="CJ100" s="29"/>
-      <c r="CK100" s="9"/>
+      <c r="CK100" s="29"/>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
@@ -22199,13 +22319,15 @@
         <v>-10.865213100222732</v>
       </c>
       <c r="CF101" s="33">
-        <v>-48.807789272006005</v>
-      </c>
-      <c r="CG101" s="29"/>
+        <v>-48.533023660288308</v>
+      </c>
+      <c r="CG101" s="33">
+        <v>31.332912118395654</v>
+      </c>
       <c r="CH101" s="29"/>
       <c r="CI101" s="29"/>
       <c r="CJ101" s="29"/>
-      <c r="CK101" s="9"/>
+      <c r="CK101" s="29"/>
       <c r="CL101" s="9"/>
       <c r="CM101" s="9"/>
       <c r="CN101" s="9"/>
@@ -22516,13 +22638,15 @@
         <v>76.993698982095452</v>
       </c>
       <c r="CF102" s="33">
-        <v>25.294787917345232</v>
-      </c>
-      <c r="CG102" s="29"/>
+        <v>23.825896122232294</v>
+      </c>
+      <c r="CG102" s="33">
+        <v>38.766952135720771</v>
+      </c>
       <c r="CH102" s="29"/>
       <c r="CI102" s="29"/>
       <c r="CJ102" s="29"/>
-      <c r="CK102" s="9"/>
+      <c r="CK102" s="29"/>
       <c r="CL102" s="9"/>
       <c r="CM102" s="9"/>
       <c r="CN102" s="9"/>
@@ -22833,13 +22957,15 @@
         <v>23.569769287476845</v>
       </c>
       <c r="CF103" s="33">
-        <v>6.7654818894544917</v>
-      </c>
-      <c r="CG103" s="29"/>
+        <v>6.8761463404214567</v>
+      </c>
+      <c r="CG103" s="33">
+        <v>1.3450321119522926</v>
+      </c>
       <c r="CH103" s="29"/>
       <c r="CI103" s="29"/>
       <c r="CJ103" s="29"/>
-      <c r="CK103" s="9"/>
+      <c r="CK103" s="29"/>
       <c r="CL103" s="9"/>
       <c r="CM103" s="9"/>
       <c r="CN103" s="9"/>
@@ -23150,13 +23276,15 @@
         <v>67.575949327781672</v>
       </c>
       <c r="CF104" s="33">
-        <v>-8.2307248390782775</v>
-      </c>
-      <c r="CG104" s="29"/>
+        <v>-8.7284356745051923</v>
+      </c>
+      <c r="CG104" s="33">
+        <v>15.797538648869121</v>
+      </c>
       <c r="CH104" s="29"/>
       <c r="CI104" s="29"/>
       <c r="CJ104" s="29"/>
-      <c r="CK104" s="9"/>
+      <c r="CK104" s="29"/>
       <c r="CL104" s="9"/>
       <c r="CM104" s="9"/>
       <c r="CN104" s="9"/>
@@ -23467,13 +23595,15 @@
         <v>63.768678445534732</v>
       </c>
       <c r="CF105" s="33">
-        <v>6.7179860880274731</v>
-      </c>
-      <c r="CG105" s="29"/>
+        <v>5.6801511615867497</v>
+      </c>
+      <c r="CG105" s="33">
+        <v>1.415738277556116</v>
+      </c>
       <c r="CH105" s="29"/>
       <c r="CI105" s="29"/>
       <c r="CJ105" s="29"/>
-      <c r="CK105" s="9"/>
+      <c r="CK105" s="29"/>
       <c r="CL105" s="9"/>
       <c r="CM105" s="9"/>
       <c r="CN105" s="9"/>
@@ -23784,13 +23914,15 @@
         <v>-3.1604496016480113</v>
       </c>
       <c r="CF106" s="33">
-        <v>16.087172732815674</v>
-      </c>
-      <c r="CG106" s="29"/>
+        <v>17.836408629106714</v>
+      </c>
+      <c r="CG106" s="33">
+        <v>-18.63847186697592</v>
+      </c>
       <c r="CH106" s="29"/>
       <c r="CI106" s="29"/>
       <c r="CJ106" s="29"/>
-      <c r="CK106" s="9"/>
+      <c r="CK106" s="29"/>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
       <c r="CN106" s="9"/>
@@ -24101,13 +24233,15 @@
         <v>24.475917425819489</v>
       </c>
       <c r="CF107" s="33">
-        <v>6.3001127425238934</v>
-      </c>
-      <c r="CG107" s="29"/>
+        <v>5.694778226174904</v>
+      </c>
+      <c r="CG107" s="33">
+        <v>12.196027112135482</v>
+      </c>
       <c r="CH107" s="29"/>
       <c r="CI107" s="29"/>
       <c r="CJ107" s="29"/>
-      <c r="CK107" s="9"/>
+      <c r="CK107" s="29"/>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
@@ -24418,13 +24552,15 @@
         <v>159.43661338301717</v>
       </c>
       <c r="CF108" s="33">
-        <v>18.116895532691117</v>
-      </c>
-      <c r="CG108" s="29"/>
+        <v>15.15349056845136</v>
+      </c>
+      <c r="CG108" s="33">
+        <v>12.712923549651435</v>
+      </c>
       <c r="CH108" s="29"/>
       <c r="CI108" s="29"/>
       <c r="CJ108" s="29"/>
-      <c r="CK108" s="9"/>
+      <c r="CK108" s="29"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
@@ -24735,13 +24871,15 @@
         <v>182.92215593076224</v>
       </c>
       <c r="CF109" s="33">
-        <v>17.353554189702081</v>
-      </c>
-      <c r="CG109" s="29"/>
+        <v>14.098168705806756</v>
+      </c>
+      <c r="CG109" s="33">
+        <v>-0.14704515324962131</v>
+      </c>
       <c r="CH109" s="29"/>
       <c r="CI109" s="29"/>
       <c r="CJ109" s="29"/>
-      <c r="CK109" s="9"/>
+      <c r="CK109" s="29"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
@@ -25051,14 +25189,16 @@
       <c r="CE110" s="33">
         <v>-43.106740353961769</v>
       </c>
-      <c r="CF110" s="36" t="s">
+      <c r="CF110" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="CG110" s="29"/>
+      <c r="CG110" s="33">
+        <v>185.90491350479073</v>
+      </c>
       <c r="CH110" s="29"/>
       <c r="CI110" s="29"/>
       <c r="CJ110" s="29"/>
-      <c r="CK110" s="9"/>
+      <c r="CK110" s="29"/>
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
       <c r="CN110" s="9"/>
@@ -25369,13 +25509,15 @@
         <v>171.99882038429541</v>
       </c>
       <c r="CF111" s="33">
-        <v>1.1514191227623058</v>
-      </c>
-      <c r="CG111" s="29"/>
+        <v>8.150568762313199</v>
+      </c>
+      <c r="CG111" s="33">
+        <v>189.54972784099152</v>
+      </c>
       <c r="CH111" s="29"/>
       <c r="CI111" s="29"/>
       <c r="CJ111" s="29"/>
-      <c r="CK111" s="9"/>
+      <c r="CK111" s="29"/>
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
       <c r="CN111" s="9"/>
@@ -25686,13 +25828,15 @@
         <v>-65.685855101569672</v>
       </c>
       <c r="CF112" s="33">
-        <v>19.631329728279454</v>
-      </c>
-      <c r="CG112" s="29"/>
+        <v>19.87031150296194</v>
+      </c>
+      <c r="CG112" s="33">
+        <v>91.886242626429464</v>
+      </c>
       <c r="CH112" s="29"/>
       <c r="CI112" s="29"/>
       <c r="CJ112" s="29"/>
-      <c r="CK112" s="9"/>
+      <c r="CK112" s="29"/>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
@@ -26003,13 +26147,15 @@
         <v>69.739842999131497</v>
       </c>
       <c r="CF113" s="33">
-        <v>9.0801483454185217</v>
-      </c>
-      <c r="CG113" s="29"/>
+        <v>10.708733655415998</v>
+      </c>
+      <c r="CG113" s="33">
+        <v>8.2883216218722566</v>
+      </c>
       <c r="CH113" s="29"/>
       <c r="CI113" s="29"/>
       <c r="CJ113" s="29"/>
-      <c r="CK113" s="9"/>
+      <c r="CK113" s="29"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
@@ -26320,13 +26466,15 @@
         <v>138.65920662529226</v>
       </c>
       <c r="CF114" s="33">
-        <v>-25.52343296095863</v>
-      </c>
-      <c r="CG114" s="29"/>
+        <v>-24.045653772249892</v>
+      </c>
+      <c r="CG114" s="33">
+        <v>-26.94363480011863</v>
+      </c>
       <c r="CH114" s="29"/>
       <c r="CI114" s="29"/>
       <c r="CJ114" s="29"/>
-      <c r="CK114" s="9"/>
+      <c r="CK114" s="29"/>
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
       <c r="CN114" s="9"/>
@@ -26637,13 +26785,15 @@
         <v>96.628125531208241</v>
       </c>
       <c r="CF115" s="33">
-        <v>16.05328267620088</v>
-      </c>
-      <c r="CG115" s="29"/>
+        <v>16.2556234545374</v>
+      </c>
+      <c r="CG115" s="33">
+        <v>6.7460835824798266</v>
+      </c>
       <c r="CH115" s="29"/>
       <c r="CI115" s="29"/>
       <c r="CJ115" s="29"/>
-      <c r="CK115" s="9"/>
+      <c r="CK115" s="29"/>
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
       <c r="CN115" s="9"/>
@@ -26954,13 +27104,15 @@
         <v>38.932413554254765</v>
       </c>
       <c r="CF116" s="33">
-        <v>20.497582798947448</v>
-      </c>
-      <c r="CG116" s="29"/>
+        <v>20.893586556951902</v>
+      </c>
+      <c r="CG116" s="33">
+        <v>19.342773927106222</v>
+      </c>
       <c r="CH116" s="29"/>
       <c r="CI116" s="29"/>
       <c r="CJ116" s="29"/>
-      <c r="CK116" s="9"/>
+      <c r="CK116" s="29"/>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
       <c r="CN116" s="9"/>
@@ -27271,13 +27423,15 @@
         <v>113.19754321926885</v>
       </c>
       <c r="CF117" s="33">
-        <v>-3.575741150628815</v>
-      </c>
-      <c r="CG117" s="29"/>
+        <v>2.9232326255307157</v>
+      </c>
+      <c r="CG117" s="33">
+        <v>3.1439091405583923</v>
+      </c>
       <c r="CH117" s="29"/>
       <c r="CI117" s="29"/>
       <c r="CJ117" s="29"/>
-      <c r="CK117" s="9"/>
+      <c r="CK117" s="29"/>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
       <c r="CN117" s="9"/>
@@ -27425,7 +27579,7 @@
       <c r="CH118" s="29"/>
       <c r="CI118" s="29"/>
       <c r="CJ118" s="29"/>
-      <c r="CK118" s="9"/>
+      <c r="CK118" s="29"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
@@ -27736,13 +27890,15 @@
         <v>87.500025253672192</v>
       </c>
       <c r="CF119" s="34">
-        <v>12.184379514457234</v>
-      </c>
-      <c r="CG119" s="29"/>
+        <v>11.357357431954867</v>
+      </c>
+      <c r="CG119" s="34">
+        <v>9.8497575605776717</v>
+      </c>
       <c r="CH119" s="29"/>
       <c r="CI119" s="29"/>
       <c r="CJ119" s="29"/>
-      <c r="CK119" s="9"/>
+      <c r="CK119" s="29"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
@@ -27891,6 +28047,7 @@
       <c r="CH120" s="31"/>
       <c r="CI120" s="31"/>
       <c r="CJ120" s="31"/>
+      <c r="CK120" s="31"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -27988,7 +28145,7 @@
       <c r="CH122" s="29"/>
       <c r="CI122" s="29"/>
       <c r="CJ122" s="29"/>
-      <c r="CK122" s="9"/>
+      <c r="CK122" s="29"/>
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
       <c r="CN122" s="9"/>
@@ -28136,7 +28293,7 @@
       <c r="CH123" s="29"/>
       <c r="CI123" s="29"/>
       <c r="CJ123" s="29"/>
-      <c r="CK123" s="9"/>
+      <c r="CK123" s="29"/>
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
       <c r="CN123" s="9"/>
@@ -28208,7 +28365,7 @@
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.25">
@@ -28218,7 +28375,7 @@
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.25">
@@ -28228,137 +28385,136 @@
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="40"/>
-      <c r="D132" s="40"/>
-      <c r="E132" s="40"/>
-      <c r="F132" s="39" t="s">
+      <c r="C132" s="39"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="40"/>
-      <c r="H132" s="40"/>
-      <c r="I132" s="40"/>
-      <c r="J132" s="39" t="s">
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="40"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="40"/>
-      <c r="N132" s="39" t="s">
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="40"/>
-      <c r="P132" s="40"/>
-      <c r="Q132" s="40"/>
-      <c r="R132" s="39" t="s">
+      <c r="O132" s="39"/>
+      <c r="P132" s="39"/>
+      <c r="Q132" s="39"/>
+      <c r="R132" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="40"/>
-      <c r="T132" s="40"/>
-      <c r="U132" s="40"/>
-      <c r="V132" s="39" t="s">
+      <c r="S132" s="39"/>
+      <c r="T132" s="39"/>
+      <c r="U132" s="39"/>
+      <c r="V132" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="40"/>
-      <c r="X132" s="40"/>
-      <c r="Y132" s="40"/>
-      <c r="Z132" s="39" t="s">
+      <c r="W132" s="39"/>
+      <c r="X132" s="39"/>
+      <c r="Y132" s="39"/>
+      <c r="Z132" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="40"/>
-      <c r="AB132" s="40"/>
-      <c r="AC132" s="40"/>
-      <c r="AD132" s="39" t="s">
+      <c r="AA132" s="39"/>
+      <c r="AB132" s="39"/>
+      <c r="AC132" s="39"/>
+      <c r="AD132" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="40"/>
-      <c r="AF132" s="40"/>
-      <c r="AG132" s="40"/>
-      <c r="AH132" s="39" t="s">
+      <c r="AE132" s="39"/>
+      <c r="AF132" s="39"/>
+      <c r="AG132" s="39"/>
+      <c r="AH132" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="40"/>
-      <c r="AJ132" s="40"/>
-      <c r="AK132" s="40"/>
-      <c r="AL132" s="39" t="s">
+      <c r="AI132" s="39"/>
+      <c r="AJ132" s="39"/>
+      <c r="AK132" s="39"/>
+      <c r="AL132" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="40"/>
-      <c r="AN132" s="40"/>
-      <c r="AO132" s="40"/>
-      <c r="AP132" s="39" t="s">
+      <c r="AM132" s="39"/>
+      <c r="AN132" s="39"/>
+      <c r="AO132" s="39"/>
+      <c r="AP132" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="40"/>
-      <c r="AR132" s="40"/>
-      <c r="AS132" s="40"/>
-      <c r="AT132" s="39" t="s">
+      <c r="AQ132" s="39"/>
+      <c r="AR132" s="39"/>
+      <c r="AS132" s="39"/>
+      <c r="AT132" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="40"/>
-      <c r="AV132" s="40"/>
-      <c r="AW132" s="40"/>
-      <c r="AX132" s="39" t="s">
+      <c r="AU132" s="39"/>
+      <c r="AV132" s="39"/>
+      <c r="AW132" s="39"/>
+      <c r="AX132" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="40"/>
-      <c r="AZ132" s="40"/>
-      <c r="BA132" s="40"/>
-      <c r="BB132" s="39" t="s">
+      <c r="AY132" s="39"/>
+      <c r="AZ132" s="39"/>
+      <c r="BA132" s="39"/>
+      <c r="BB132" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="40"/>
-      <c r="BD132" s="40"/>
-      <c r="BE132" s="40"/>
-      <c r="BF132" s="39" t="s">
+      <c r="BC132" s="39"/>
+      <c r="BD132" s="39"/>
+      <c r="BE132" s="39"/>
+      <c r="BF132" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="40"/>
-      <c r="BH132" s="40"/>
-      <c r="BI132" s="40"/>
-      <c r="BJ132" s="39" t="s">
+      <c r="BG132" s="39"/>
+      <c r="BH132" s="39"/>
+      <c r="BI132" s="39"/>
+      <c r="BJ132" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="40"/>
-      <c r="BL132" s="40"/>
-      <c r="BM132" s="40"/>
-      <c r="BN132" s="39" t="s">
+      <c r="BK132" s="39"/>
+      <c r="BL132" s="39"/>
+      <c r="BM132" s="39"/>
+      <c r="BN132" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="40"/>
-      <c r="BP132" s="40"/>
-      <c r="BQ132" s="40"/>
-      <c r="BR132" s="39" t="s">
+      <c r="BO132" s="39"/>
+      <c r="BP132" s="39"/>
+      <c r="BQ132" s="39"/>
+      <c r="BR132" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="40"/>
-      <c r="BT132" s="40"/>
-      <c r="BU132" s="40"/>
-      <c r="BV132" s="39" t="s">
+      <c r="BS132" s="39"/>
+      <c r="BT132" s="39"/>
+      <c r="BU132" s="39"/>
+      <c r="BV132" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="40"/>
-      <c r="BX132" s="40"/>
-      <c r="BY132" s="40"/>
-      <c r="BZ132" s="39" t="s">
+      <c r="BW132" s="39"/>
+      <c r="BX132" s="39"/>
+      <c r="BY132" s="39"/>
+      <c r="BZ132" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="39"/>
-      <c r="CB132" s="39"/>
-      <c r="CC132" s="39"/>
-      <c r="CD132" s="41" t="s">
+      <c r="CA132" s="38"/>
+      <c r="CB132" s="38"/>
+      <c r="CC132" s="38"/>
+      <c r="CD132" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF132" s="41"/>
-      <c r="CG132" s="35"/>
-      <c r="CH132" s="35"/>
-      <c r="CI132" s="35"/>
-      <c r="CJ132" s="35"/>
+      <c r="CE132" s="37"/>
+      <c r="CF132" s="37"/>
+      <c r="CG132" s="37"/>
+      <c r="CH132" s="36"/>
+      <c r="CI132" s="36"/>
+      <c r="CJ132" s="36"/>
+      <c r="CK132" s="36"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
@@ -28613,10 +28769,13 @@
       <c r="CF133" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="CG133" s="26"/>
+      <c r="CG133" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="CH133" s="26"/>
       <c r="CI133" s="26"/>
       <c r="CJ133" s="26"/>
+      <c r="CK133" s="26"/>
     </row>
     <row r="134" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
@@ -28872,13 +29031,15 @@
         <v>85.211167273914128</v>
       </c>
       <c r="CF135" s="33">
-        <v>2.7642281647304969</v>
-      </c>
-      <c r="CG135" s="29"/>
+        <v>2.7305690578743054</v>
+      </c>
+      <c r="CG135" s="33">
+        <v>8.3409671989827672</v>
+      </c>
       <c r="CH135" s="29"/>
       <c r="CI135" s="29"/>
       <c r="CJ135" s="29"/>
-      <c r="CK135" s="9"/>
+      <c r="CK135" s="29"/>
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
       <c r="CN135" s="9"/>
@@ -29189,13 +29350,15 @@
         <v>156.79154093355419</v>
       </c>
       <c r="CF136" s="33">
-        <v>55.516591319795197</v>
-      </c>
-      <c r="CG136" s="29"/>
+        <v>55.328866678143186</v>
+      </c>
+      <c r="CG136" s="33">
+        <v>-17.378080228367821</v>
+      </c>
       <c r="CH136" s="29"/>
       <c r="CI136" s="29"/>
       <c r="CJ136" s="29"/>
-      <c r="CK136" s="9"/>
+      <c r="CK136" s="29"/>
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
       <c r="CN136" s="9"/>
@@ -29506,13 +29669,15 @@
         <v>83.994924637003322</v>
       </c>
       <c r="CF137" s="33">
-        <v>57.131303320702102</v>
-      </c>
-      <c r="CG137" s="29"/>
+        <v>56.660106434031377</v>
+      </c>
+      <c r="CG137" s="33">
+        <v>101.11196014670622</v>
+      </c>
       <c r="CH137" s="29"/>
       <c r="CI137" s="29"/>
       <c r="CJ137" s="29"/>
-      <c r="CK137" s="9"/>
+      <c r="CK137" s="29"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
@@ -29823,13 +29988,15 @@
         <v>21.073368518024211</v>
       </c>
       <c r="CF138" s="33">
-        <v>-2.5421058083503425</v>
-      </c>
-      <c r="CG138" s="29"/>
+        <v>-8.6944498125955221</v>
+      </c>
+      <c r="CG138" s="33">
+        <v>28.404810416057103</v>
+      </c>
       <c r="CH138" s="29"/>
       <c r="CI138" s="29"/>
       <c r="CJ138" s="29"/>
-      <c r="CK138" s="9"/>
+      <c r="CK138" s="29"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
@@ -30140,13 +30307,15 @@
         <v>-1.2211693479681998</v>
       </c>
       <c r="CF139" s="33">
-        <v>-11.303829631806551</v>
-      </c>
-      <c r="CG139" s="29"/>
+        <v>-10.244747126667065</v>
+      </c>
+      <c r="CG139" s="33">
+        <v>-15.482434051357785</v>
+      </c>
       <c r="CH139" s="29"/>
       <c r="CI139" s="29"/>
       <c r="CJ139" s="29"/>
-      <c r="CK139" s="9"/>
+      <c r="CK139" s="29"/>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
       <c r="CN139" s="9"/>
@@ -30457,13 +30626,15 @@
         <v>37.054876654227428</v>
       </c>
       <c r="CF140" s="33">
-        <v>9.736678296807753</v>
-      </c>
-      <c r="CG140" s="29"/>
+        <v>10.381480091293113</v>
+      </c>
+      <c r="CG140" s="33">
+        <v>13.614551608425657</v>
+      </c>
       <c r="CH140" s="29"/>
       <c r="CI140" s="29"/>
       <c r="CJ140" s="29"/>
-      <c r="CK140" s="9"/>
+      <c r="CK140" s="29"/>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
       <c r="CN140" s="9"/>
@@ -30774,13 +30945,15 @@
         <v>95.545256634527533</v>
       </c>
       <c r="CF141" s="33">
-        <v>-21.571659630973713</v>
-      </c>
-      <c r="CG141" s="29"/>
+        <v>-21.012062342084121</v>
+      </c>
+      <c r="CG141" s="33">
+        <v>-13.69982922285682</v>
+      </c>
       <c r="CH141" s="29"/>
       <c r="CI141" s="29"/>
       <c r="CJ141" s="29"/>
-      <c r="CK141" s="9"/>
+      <c r="CK141" s="29"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
@@ -31091,13 +31264,15 @@
         <v>-6.6083246223980012</v>
       </c>
       <c r="CF142" s="33">
-        <v>-51.035513342242126</v>
-      </c>
-      <c r="CG142" s="29"/>
+        <v>-50.954754801204757</v>
+      </c>
+      <c r="CG142" s="33">
+        <v>16.995253440109664</v>
+      </c>
       <c r="CH142" s="29"/>
       <c r="CI142" s="29"/>
       <c r="CJ142" s="29"/>
-      <c r="CK142" s="9"/>
+      <c r="CK142" s="29"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
@@ -31408,13 +31583,15 @@
         <v>62.469175570194921</v>
       </c>
       <c r="CF143" s="33">
-        <v>22.70702992796663</v>
-      </c>
-      <c r="CG143" s="29"/>
+        <v>21.278788925320001</v>
+      </c>
+      <c r="CG143" s="33">
+        <v>17.887796869570209</v>
+      </c>
       <c r="CH143" s="29"/>
       <c r="CI143" s="29"/>
       <c r="CJ143" s="29"/>
-      <c r="CK143" s="9"/>
+      <c r="CK143" s="29"/>
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
       <c r="CN143" s="9"/>
@@ -31725,13 +31902,15 @@
         <v>28.704827508568997</v>
       </c>
       <c r="CF144" s="33">
-        <v>4.168600596173988</v>
-      </c>
-      <c r="CG144" s="29"/>
+        <v>4.1674483333190722</v>
+      </c>
+      <c r="CG144" s="33">
+        <v>-6.3850454215738353</v>
+      </c>
       <c r="CH144" s="29"/>
       <c r="CI144" s="29"/>
       <c r="CJ144" s="29"/>
-      <c r="CK144" s="9"/>
+      <c r="CK144" s="29"/>
       <c r="CL144" s="9"/>
       <c r="CM144" s="9"/>
       <c r="CN144" s="9"/>
@@ -32042,13 +32221,15 @@
         <v>72.292290227980658</v>
       </c>
       <c r="CF145" s="33">
-        <v>-10.031377974743705</v>
-      </c>
-      <c r="CG145" s="29"/>
+        <v>-10.816027922999524</v>
+      </c>
+      <c r="CG145" s="33">
+        <v>1.3809638383425806</v>
+      </c>
       <c r="CH145" s="29"/>
       <c r="CI145" s="29"/>
       <c r="CJ145" s="29"/>
-      <c r="CK145" s="9"/>
+      <c r="CK145" s="29"/>
       <c r="CL145" s="9"/>
       <c r="CM145" s="9"/>
       <c r="CN145" s="9"/>
@@ -32359,13 +32540,15 @@
         <v>68.726188271405277</v>
       </c>
       <c r="CF146" s="33">
-        <v>2.6061751462677591</v>
-      </c>
-      <c r="CG146" s="29"/>
+        <v>1.5224596054384136</v>
+      </c>
+      <c r="CG146" s="33">
+        <v>-6.9972261638548758</v>
+      </c>
       <c r="CH146" s="29"/>
       <c r="CI146" s="29"/>
       <c r="CJ146" s="29"/>
-      <c r="CK146" s="9"/>
+      <c r="CK146" s="29"/>
       <c r="CL146" s="9"/>
       <c r="CM146" s="9"/>
       <c r="CN146" s="9"/>
@@ -32676,13 +32859,15 @@
         <v>1.4138608662463241</v>
       </c>
       <c r="CF147" s="33">
-        <v>11.971882651504131</v>
-      </c>
-      <c r="CG147" s="29"/>
+        <v>13.517268512713201</v>
+      </c>
+      <c r="CG147" s="33">
+        <v>-27.158822108011165</v>
+      </c>
       <c r="CH147" s="29"/>
       <c r="CI147" s="29"/>
       <c r="CJ147" s="29"/>
-      <c r="CK147" s="9"/>
+      <c r="CK147" s="29"/>
       <c r="CL147" s="9"/>
       <c r="CM147" s="9"/>
       <c r="CN147" s="9"/>
@@ -32993,13 +33178,15 @@
         <v>29.797912029230901</v>
       </c>
       <c r="CF148" s="33">
-        <v>5.1257421532808536</v>
-      </c>
-      <c r="CG148" s="29"/>
+        <v>4.5524692122111503</v>
+      </c>
+      <c r="CG148" s="33">
+        <v>8.2519948465072304</v>
+      </c>
       <c r="CH148" s="29"/>
       <c r="CI148" s="29"/>
       <c r="CJ148" s="29"/>
-      <c r="CK148" s="9"/>
+      <c r="CK148" s="29"/>
       <c r="CL148" s="9"/>
       <c r="CM148" s="9"/>
       <c r="CN148" s="9"/>
@@ -33310,13 +33497,15 @@
         <v>164.68177240019776</v>
       </c>
       <c r="CF149" s="33">
-        <v>13.740435451510294</v>
-      </c>
-      <c r="CG149" s="29"/>
+        <v>9.501869488796217</v>
+      </c>
+      <c r="CG149" s="33">
+        <v>3.8044490025808813</v>
+      </c>
       <c r="CH149" s="29"/>
       <c r="CI149" s="29"/>
       <c r="CJ149" s="29"/>
-      <c r="CK149" s="9"/>
+      <c r="CK149" s="29"/>
       <c r="CL149" s="9"/>
       <c r="CM149" s="9"/>
       <c r="CN149" s="9"/>
@@ -33627,13 +33816,15 @@
         <v>189.4689445347019</v>
       </c>
       <c r="CF150" s="33">
-        <v>13.088611615279461</v>
-      </c>
-      <c r="CG150" s="29"/>
+        <v>8.5779980840669339</v>
+      </c>
+      <c r="CG150" s="33">
+        <v>-6.9022504763666603</v>
+      </c>
       <c r="CH150" s="29"/>
       <c r="CI150" s="29"/>
       <c r="CJ150" s="29"/>
-      <c r="CK150" s="9"/>
+      <c r="CK150" s="29"/>
       <c r="CL150" s="9"/>
       <c r="CM150" s="9"/>
       <c r="CN150" s="9"/>
@@ -33943,14 +34134,16 @@
       <c r="CE151" s="33">
         <v>-42.053913747949487</v>
       </c>
-      <c r="CF151" s="36" t="s">
+      <c r="CF151" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="CG151" s="29"/>
+      <c r="CG151" s="33">
+        <v>164.31301509501355</v>
+      </c>
       <c r="CH151" s="29"/>
       <c r="CI151" s="29"/>
       <c r="CJ151" s="29"/>
-      <c r="CK151" s="9"/>
+      <c r="CK151" s="29"/>
       <c r="CL151" s="9"/>
       <c r="CM151" s="9"/>
       <c r="CN151" s="9"/>
@@ -34261,13 +34454,15 @@
         <v>177.03683123440885</v>
       </c>
       <c r="CF152" s="33">
-        <v>-4.2433547778088752</v>
-      </c>
-      <c r="CG152" s="29"/>
+        <v>2.3353831702260948</v>
+      </c>
+      <c r="CG152" s="33">
+        <v>167.21025715834054</v>
+      </c>
       <c r="CH152" s="29"/>
       <c r="CI152" s="29"/>
       <c r="CJ152" s="29"/>
-      <c r="CK152" s="9"/>
+      <c r="CK152" s="29"/>
       <c r="CL152" s="9"/>
       <c r="CM152" s="9"/>
       <c r="CN152" s="9"/>
@@ -34578,13 +34773,15 @@
         <v>-65.055684759667329</v>
       </c>
       <c r="CF153" s="33">
-        <v>14.205564585425051</v>
-      </c>
-      <c r="CG153" s="29"/>
+        <v>12.659756335632366</v>
+      </c>
+      <c r="CG153" s="33">
+        <v>73.525697404550272</v>
+      </c>
       <c r="CH153" s="29"/>
       <c r="CI153" s="29"/>
       <c r="CJ153" s="29"/>
-      <c r="CK153" s="9"/>
+      <c r="CK153" s="29"/>
       <c r="CL153" s="9"/>
       <c r="CM153" s="9"/>
       <c r="CN153" s="9"/>
@@ -34895,13 +35092,15 @@
         <v>71.262894965007519</v>
       </c>
       <c r="CF154" s="33">
-        <v>5.5764504358407692</v>
-      </c>
-      <c r="CG154" s="29"/>
+        <v>7.2840114238067315</v>
+      </c>
+      <c r="CG154" s="33">
+        <v>1.600187429550104</v>
+      </c>
       <c r="CH154" s="29"/>
       <c r="CI154" s="29"/>
       <c r="CJ154" s="29"/>
-      <c r="CK154" s="9"/>
+      <c r="CK154" s="29"/>
       <c r="CL154" s="9"/>
       <c r="CM154" s="9"/>
       <c r="CN154" s="9"/>
@@ -35212,13 +35411,15 @@
         <v>149.5708572554901</v>
       </c>
       <c r="CF155" s="33">
-        <v>-28.790085572041406</v>
-      </c>
-      <c r="CG155" s="29"/>
+        <v>-27.438083623882306</v>
+      </c>
+      <c r="CG155" s="33">
+        <v>-32.974394021350122</v>
+      </c>
       <c r="CH155" s="29"/>
       <c r="CI155" s="29"/>
       <c r="CJ155" s="29"/>
-      <c r="CK155" s="9"/>
+      <c r="CK155" s="29"/>
       <c r="CL155" s="9"/>
       <c r="CM155" s="9"/>
       <c r="CN155" s="9"/>
@@ -35529,13 +35730,15 @@
         <v>102.56564638544651</v>
       </c>
       <c r="CF156" s="33">
-        <v>7.4179635540112088</v>
-      </c>
-      <c r="CG156" s="29"/>
+        <v>7.6187181001961477</v>
+      </c>
+      <c r="CG156" s="33">
+        <v>-6.5204145575077064</v>
+      </c>
       <c r="CH156" s="29"/>
       <c r="CI156" s="29"/>
       <c r="CJ156" s="29"/>
-      <c r="CK156" s="9"/>
+      <c r="CK156" s="29"/>
       <c r="CL156" s="9"/>
       <c r="CM156" s="9"/>
       <c r="CN156" s="9"/>
@@ -35846,13 +36049,15 @@
         <v>42.635643581251315</v>
       </c>
       <c r="CF157" s="33">
-        <v>17.529505282351508</v>
-      </c>
-      <c r="CG157" s="29"/>
+        <v>17.938356137120337</v>
+      </c>
+      <c r="CG157" s="33">
+        <v>13.178146950906438</v>
+      </c>
       <c r="CH157" s="29"/>
       <c r="CI157" s="29"/>
       <c r="CJ157" s="29"/>
-      <c r="CK157" s="9"/>
+      <c r="CK157" s="29"/>
       <c r="CL157" s="9"/>
       <c r="CM157" s="9"/>
       <c r="CN157" s="9"/>
@@ -36163,13 +36368,15 @@
         <v>116.23472061222725</v>
       </c>
       <c r="CF158" s="33">
-        <v>-9.0127404682882428</v>
-      </c>
-      <c r="CG158" s="29"/>
+        <v>-2.4874057972254207</v>
+      </c>
+      <c r="CG158" s="33">
+        <v>-3.5802521855245431</v>
+      </c>
       <c r="CH158" s="29"/>
       <c r="CI158" s="29"/>
       <c r="CJ158" s="29"/>
-      <c r="CK158" s="9"/>
+      <c r="CK158" s="29"/>
       <c r="CL158" s="9"/>
       <c r="CM158" s="9"/>
       <c r="CN158" s="9"/>
@@ -36317,7 +36524,7 @@
       <c r="CH159" s="29"/>
       <c r="CI159" s="29"/>
       <c r="CJ159" s="29"/>
-      <c r="CK159" s="9"/>
+      <c r="CK159" s="29"/>
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
@@ -36628,13 +36835,15 @@
         <v>95.670573693980174</v>
       </c>
       <c r="CF160" s="34">
-        <v>7.976516204308453</v>
-      </c>
-      <c r="CG160" s="29"/>
+        <v>6.6163418882932348</v>
+      </c>
+      <c r="CG160" s="34">
+        <v>2.715634080475084</v>
+      </c>
       <c r="CH160" s="29"/>
       <c r="CI160" s="29"/>
       <c r="CJ160" s="29"/>
-      <c r="CK160" s="9"/>
+      <c r="CK160" s="29"/>
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
       <c r="CN160" s="9"/>
@@ -36783,6 +36992,7 @@
       <c r="CH161" s="31"/>
       <c r="CI161" s="31"/>
       <c r="CJ161" s="31"/>
+      <c r="CK161" s="31"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -36880,7 +37090,7 @@
       <c r="CH163" s="29"/>
       <c r="CI163" s="29"/>
       <c r="CJ163" s="29"/>
-      <c r="CK163" s="9"/>
+      <c r="CK163" s="29"/>
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
       <c r="CN163" s="9"/>
@@ -37028,7 +37238,7 @@
       <c r="CH164" s="29"/>
       <c r="CI164" s="29"/>
       <c r="CJ164" s="29"/>
-      <c r="CK164" s="9"/>
+      <c r="CK164" s="29"/>
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
       <c r="CN164" s="9"/>
@@ -37100,7 +37310,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.25">
@@ -37110,7 +37320,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.25">
@@ -37120,139 +37330,138 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="40">
+      <c r="B172" s="39">
         <v>2000</v>
       </c>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40">
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39">
         <v>2001</v>
       </c>
-      <c r="G172" s="40"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="40">
+      <c r="G172" s="39"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="39"/>
+      <c r="J172" s="39">
         <v>2002</v>
       </c>
-      <c r="K172" s="40"/>
-      <c r="L172" s="40"/>
-      <c r="M172" s="40"/>
-      <c r="N172" s="40">
+      <c r="K172" s="39"/>
+      <c r="L172" s="39"/>
+      <c r="M172" s="39"/>
+      <c r="N172" s="39">
         <v>2003</v>
       </c>
-      <c r="O172" s="40"/>
-      <c r="P172" s="40"/>
-      <c r="Q172" s="40"/>
-      <c r="R172" s="40">
+      <c r="O172" s="39"/>
+      <c r="P172" s="39"/>
+      <c r="Q172" s="39"/>
+      <c r="R172" s="39">
         <v>2004</v>
       </c>
-      <c r="S172" s="40"/>
-      <c r="T172" s="40"/>
-      <c r="U172" s="40"/>
-      <c r="V172" s="40">
+      <c r="S172" s="39"/>
+      <c r="T172" s="39"/>
+      <c r="U172" s="39"/>
+      <c r="V172" s="39">
         <v>2005</v>
       </c>
-      <c r="W172" s="40"/>
-      <c r="X172" s="40"/>
-      <c r="Y172" s="40"/>
-      <c r="Z172" s="40">
+      <c r="W172" s="39"/>
+      <c r="X172" s="39"/>
+      <c r="Y172" s="39"/>
+      <c r="Z172" s="39">
         <v>2006</v>
       </c>
-      <c r="AA172" s="40"/>
-      <c r="AB172" s="40"/>
-      <c r="AC172" s="40"/>
-      <c r="AD172" s="40">
+      <c r="AA172" s="39"/>
+      <c r="AB172" s="39"/>
+      <c r="AC172" s="39"/>
+      <c r="AD172" s="39">
         <v>2007</v>
       </c>
-      <c r="AE172" s="40"/>
-      <c r="AF172" s="40"/>
-      <c r="AG172" s="40"/>
-      <c r="AH172" s="40">
+      <c r="AE172" s="39"/>
+      <c r="AF172" s="39"/>
+      <c r="AG172" s="39"/>
+      <c r="AH172" s="39">
         <v>2008</v>
       </c>
-      <c r="AI172" s="40"/>
-      <c r="AJ172" s="40"/>
-      <c r="AK172" s="40"/>
-      <c r="AL172" s="40">
+      <c r="AI172" s="39"/>
+      <c r="AJ172" s="39"/>
+      <c r="AK172" s="39"/>
+      <c r="AL172" s="39">
         <v>2009</v>
       </c>
-      <c r="AM172" s="40"/>
-      <c r="AN172" s="40"/>
-      <c r="AO172" s="40"/>
-      <c r="AP172" s="40">
+      <c r="AM172" s="39"/>
+      <c r="AN172" s="39"/>
+      <c r="AO172" s="39"/>
+      <c r="AP172" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="40"/>
-      <c r="AR172" s="40"/>
-      <c r="AS172" s="40"/>
-      <c r="AT172" s="40">
+      <c r="AQ172" s="39"/>
+      <c r="AR172" s="39"/>
+      <c r="AS172" s="39"/>
+      <c r="AT172" s="39">
         <v>2011</v>
       </c>
-      <c r="AU172" s="40"/>
-      <c r="AV172" s="40"/>
-      <c r="AW172" s="40"/>
-      <c r="AX172" s="40">
+      <c r="AU172" s="39"/>
+      <c r="AV172" s="39"/>
+      <c r="AW172" s="39"/>
+      <c r="AX172" s="39">
         <v>2012</v>
       </c>
-      <c r="AY172" s="40"/>
-      <c r="AZ172" s="40"/>
-      <c r="BA172" s="40"/>
-      <c r="BB172" s="40">
+      <c r="AY172" s="39"/>
+      <c r="AZ172" s="39"/>
+      <c r="BA172" s="39"/>
+      <c r="BB172" s="39">
         <v>2013</v>
       </c>
-      <c r="BC172" s="40"/>
-      <c r="BD172" s="40"/>
-      <c r="BE172" s="40"/>
-      <c r="BF172" s="40">
+      <c r="BC172" s="39"/>
+      <c r="BD172" s="39"/>
+      <c r="BE172" s="39"/>
+      <c r="BF172" s="39">
         <v>2014</v>
       </c>
-      <c r="BG172" s="40"/>
-      <c r="BH172" s="40"/>
-      <c r="BI172" s="40"/>
-      <c r="BJ172" s="40">
+      <c r="BG172" s="39"/>
+      <c r="BH172" s="39"/>
+      <c r="BI172" s="39"/>
+      <c r="BJ172" s="39">
         <v>2015</v>
       </c>
-      <c r="BK172" s="40"/>
-      <c r="BL172" s="40"/>
-      <c r="BM172" s="40"/>
-      <c r="BN172" s="40">
+      <c r="BK172" s="39"/>
+      <c r="BL172" s="39"/>
+      <c r="BM172" s="39"/>
+      <c r="BN172" s="39">
         <v>2016</v>
       </c>
-      <c r="BO172" s="40"/>
-      <c r="BP172" s="40"/>
-      <c r="BQ172" s="40"/>
-      <c r="BR172" s="40">
+      <c r="BO172" s="39"/>
+      <c r="BP172" s="39"/>
+      <c r="BQ172" s="39"/>
+      <c r="BR172" s="39">
         <v>2017</v>
       </c>
-      <c r="BS172" s="40"/>
-      <c r="BT172" s="40"/>
-      <c r="BU172" s="40"/>
-      <c r="BV172" s="40">
+      <c r="BS172" s="39"/>
+      <c r="BT172" s="39"/>
+      <c r="BU172" s="39"/>
+      <c r="BV172" s="39">
         <v>2018</v>
       </c>
-      <c r="BW172" s="40"/>
-      <c r="BX172" s="40"/>
-      <c r="BY172" s="40"/>
-      <c r="BZ172" s="40">
+      <c r="BW172" s="39"/>
+      <c r="BX172" s="39"/>
+      <c r="BY172" s="39"/>
+      <c r="BZ172" s="39">
         <v>2019</v>
       </c>
-      <c r="CA172" s="40"/>
-      <c r="CB172" s="40"/>
-      <c r="CC172" s="40"/>
-      <c r="CD172" s="41">
+      <c r="CA172" s="39"/>
+      <c r="CB172" s="39"/>
+      <c r="CC172" s="39"/>
+      <c r="CD172" s="37">
         <v>2020</v>
       </c>
-      <c r="CE172" s="41"/>
-      <c r="CF172" s="41"/>
-      <c r="CG172" s="41"/>
-      <c r="CH172" s="41">
+      <c r="CE172" s="37"/>
+      <c r="CF172" s="37"/>
+      <c r="CG172" s="37"/>
+      <c r="CH172" s="37">
         <v>2021</v>
       </c>
-      <c r="CI172" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ172" s="41"/>
+      <c r="CI172" s="37"/>
+      <c r="CJ172" s="37"/>
+      <c r="CK172" s="37"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
@@ -37518,6 +37727,9 @@
       </c>
       <c r="CJ173" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CK173" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37786,9 +37998,11 @@
         <v>152.79942079798482</v>
       </c>
       <c r="CJ175" s="34">
-        <v>81.25292637521062</v>
-      </c>
-      <c r="CK175" s="9"/>
+        <v>81.400771206285725</v>
+      </c>
+      <c r="CK175" s="34">
+        <v>87.332598068516617</v>
+      </c>
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
       <c r="CN175" s="9"/>
@@ -38116,9 +38330,11 @@
         <v>272.50374334677281</v>
       </c>
       <c r="CJ176" s="34">
-        <v>83.727794711761433</v>
-      </c>
-      <c r="CK176" s="9"/>
+        <v>83.797456402506967</v>
+      </c>
+      <c r="CK176" s="34">
+        <v>70.499894074626198</v>
+      </c>
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
       <c r="CN176" s="9"/>
@@ -38446,9 +38662,11 @@
         <v>265.24939524324162</v>
       </c>
       <c r="CJ177" s="34">
-        <v>83.29107053299083</v>
-      </c>
-      <c r="CK177" s="9"/>
+        <v>83.457860548176029</v>
+      </c>
+      <c r="CK177" s="34">
+        <v>70.017709463779013</v>
+      </c>
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
       <c r="CN177" s="9"/>
@@ -38776,9 +38994,11 @@
         <v>187.55847721449965</v>
       </c>
       <c r="CJ178" s="34">
-        <v>87.675911163697066</v>
-      </c>
-      <c r="CK178" s="9"/>
+        <v>92.207860724897898</v>
+      </c>
+      <c r="CK178" s="34">
+        <v>93.300567737966304</v>
+      </c>
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
       <c r="CN178" s="9"/>
@@ -39106,9 +39326,11 @@
         <v>240.75423104595504</v>
       </c>
       <c r="CJ179" s="34">
-        <v>84.917935909706003</v>
-      </c>
-      <c r="CK179" s="9"/>
+        <v>85.592000170723367</v>
+      </c>
+      <c r="CK179" s="34">
+        <v>81.860121122772767</v>
+      </c>
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
       <c r="CN179" s="9"/>
@@ -39436,9 +39658,11 @@
         <v>266.15778807771665</v>
       </c>
       <c r="CJ180" s="34">
-        <v>86.392520232519615</v>
-      </c>
-      <c r="CK180" s="9"/>
+        <v>86.692259468664759</v>
+      </c>
+      <c r="CK180" s="34">
+        <v>72.868863932227228</v>
+      </c>
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
       <c r="CN180" s="9"/>
@@ -39766,9 +39990,11 @@
         <v>101.54951017580775</v>
       </c>
       <c r="CJ181" s="34">
-        <v>75.499240071621799</v>
-      </c>
-      <c r="CK181" s="9"/>
+        <v>75.603978461531668</v>
+      </c>
+      <c r="CK181" s="34">
+        <v>107.23666198864082</v>
+      </c>
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
       <c r="CN181" s="9"/>
@@ -40096,9 +40322,11 @@
         <v>249.45366071302936</v>
       </c>
       <c r="CJ182" s="34">
-        <v>82.362576924108211</v>
-      </c>
-      <c r="CK182" s="9"/>
+        <v>82.668297044250778</v>
+      </c>
+      <c r="CK182" s="34">
+        <v>69.330181646427903</v>
+      </c>
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
       <c r="CN182" s="9"/>
@@ -40426,9 +40654,11 @@
         <v>227.99665698695253</v>
       </c>
       <c r="CJ183" s="34">
-        <v>86.625799458872038</v>
-      </c>
-      <c r="CK183" s="9"/>
+        <v>86.618433016904831</v>
+      </c>
+      <c r="CK183" s="34">
+        <v>82.984110404119633</v>
+      </c>
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
       <c r="CN183" s="9"/>
@@ -40756,9 +40986,11 @@
         <v>109.52619263304362</v>
       </c>
       <c r="CJ184" s="34">
-        <v>86.261231354044739</v>
-      </c>
-      <c r="CK184" s="9"/>
+        <v>86.351597939424209</v>
+      </c>
+      <c r="CK184" s="34">
+        <v>102.40145930126678</v>
+      </c>
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
       <c r="CN184" s="9"/>
@@ -41086,9 +41318,11 @@
         <v>112.020797848272</v>
       </c>
       <c r="CJ185" s="34">
-        <v>84.459305821957244</v>
-      </c>
-      <c r="CK185" s="9"/>
+        <v>84.740292351748366</v>
+      </c>
+      <c r="CK185" s="34">
+        <v>105.97058742019485</v>
+      </c>
       <c r="CL185" s="9"/>
       <c r="CM185" s="9"/>
       <c r="CN185" s="9"/>
@@ -41416,9 +41650,11 @@
         <v>112.2379313249733</v>
       </c>
       <c r="CJ186" s="34">
-        <v>85.645796905517713</v>
-      </c>
-      <c r="CK186" s="9"/>
+        <v>85.718236437941258</v>
+      </c>
+      <c r="CK186" s="34">
+        <v>103.20275297229679</v>
+      </c>
       <c r="CL186" s="9"/>
       <c r="CM186" s="9"/>
       <c r="CN186" s="9"/>
@@ -41746,9 +41982,11 @@
         <v>112.21784376760895</v>
       </c>
       <c r="CJ187" s="34">
-        <v>87.268647762368687</v>
-      </c>
-      <c r="CK187" s="9"/>
+        <v>87.377689782799095</v>
+      </c>
+      <c r="CK187" s="34">
+        <v>107.63448999040051</v>
+      </c>
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
       <c r="CN187" s="9"/>
@@ -42076,9 +42314,11 @@
         <v>105.81082949153773</v>
       </c>
       <c r="CJ188" s="34">
-        <v>86.30662933270861</v>
-      </c>
-      <c r="CK188" s="9"/>
+        <v>86.285683420792935</v>
+      </c>
+      <c r="CK188" s="34">
+        <v>97.353594202807344</v>
+      </c>
       <c r="CL188" s="9"/>
       <c r="CM188" s="9"/>
       <c r="CN188" s="9"/>
@@ -42406,9 +42646,11 @@
         <v>85.810785154603224</v>
       </c>
       <c r="CJ189" s="34">
-        <v>96.713054772435996</v>
-      </c>
-      <c r="CK189" s="9"/>
+        <v>97.936264933424027</v>
+      </c>
+      <c r="CK189" s="34">
+        <v>99.619807612182797</v>
+      </c>
       <c r="CL189" s="9"/>
       <c r="CM189" s="9"/>
       <c r="CN189" s="9"/>
@@ -42736,9 +42978,11 @@
         <v>86.040296016374967</v>
       </c>
       <c r="CJ190" s="34">
-        <v>96.358747451327275</v>
-      </c>
-      <c r="CK190" s="9"/>
+        <v>97.577708504777178</v>
+      </c>
+      <c r="CK190" s="34">
+        <v>97.747272380752065</v>
+      </c>
       <c r="CL190" s="9"/>
       <c r="CM190" s="9"/>
       <c r="CN190" s="9"/>
@@ -43068,7 +43312,9 @@
       <c r="CJ191" s="34">
         <v>105.49251565318556</v>
       </c>
-      <c r="CK191" s="9"/>
+      <c r="CK191" s="34">
+        <v>112.64926929216541</v>
+      </c>
       <c r="CL191" s="9"/>
       <c r="CM191" s="9"/>
       <c r="CN191" s="9"/>
@@ -43396,9 +43642,11 @@
         <v>83.204193323683455</v>
       </c>
       <c r="CJ192" s="34">
-        <v>114.24720898089191</v>
-      </c>
-      <c r="CK192" s="9"/>
+        <v>114.29981544866918</v>
+      </c>
+      <c r="CK192" s="34">
+        <v>109.35222941154903</v>
+      </c>
       <c r="CL192" s="9"/>
       <c r="CM192" s="9"/>
       <c r="CN192" s="9"/>
@@ -43726,9 +43974,11 @@
         <v>83.772884199413497</v>
       </c>
       <c r="CJ193" s="34">
-        <v>88.562794531848041</v>
-      </c>
-      <c r="CK193" s="9"/>
+        <v>89.95731271391837</v>
+      </c>
+      <c r="CK193" s="34">
+        <v>102.9146753732193</v>
+      </c>
       <c r="CL193" s="9"/>
       <c r="CM193" s="9"/>
       <c r="CN193" s="9"/>
@@ -44056,9 +44306,11 @@
         <v>68.820051386570839</v>
       </c>
       <c r="CJ194" s="34">
-        <v>102.46814529057305</v>
-      </c>
-      <c r="CK194" s="9"/>
+        <v>102.34275211432295</v>
+      </c>
+      <c r="CK194" s="34">
+        <v>135.90877195639129</v>
+      </c>
       <c r="CL194" s="9"/>
       <c r="CM194" s="9"/>
       <c r="CN194" s="9"/>
@@ -44386,9 +44638,11 @@
         <v>58.393916181009828</v>
       </c>
       <c r="CJ195" s="34">
-        <v>129.48050943764352</v>
-      </c>
-      <c r="CK195" s="9"/>
+        <v>129.58928670809468</v>
+      </c>
+      <c r="CK195" s="34">
+        <v>203.1978359033829</v>
+      </c>
       <c r="CL195" s="9"/>
       <c r="CM195" s="9"/>
       <c r="CN195" s="9"/>
@@ -44716,9 +44970,11 @@
         <v>64.754500140122147</v>
       </c>
       <c r="CJ196" s="34">
-        <v>109.08256162353351</v>
-      </c>
-      <c r="CK196" s="9"/>
+        <v>109.06890882187437</v>
+      </c>
+      <c r="CK196" s="34">
+        <v>136.3910445002503</v>
+      </c>
       <c r="CL196" s="9"/>
       <c r="CM196" s="9"/>
       <c r="CN196" s="9"/>
@@ -45046,9 +45302,11 @@
         <v>63.13076027162866</v>
       </c>
       <c r="CJ197" s="34">
-        <v>99.397951458913951</v>
-      </c>
-      <c r="CK197" s="9"/>
+        <v>99.378903094649857</v>
+      </c>
+      <c r="CK197" s="34">
+        <v>143.19908785972285</v>
+      </c>
       <c r="CL197" s="9"/>
       <c r="CM197" s="9"/>
       <c r="CN197" s="9"/>
@@ -45376,9 +45634,11 @@
         <v>91.523625621403554</v>
       </c>
       <c r="CJ198" s="34">
-        <v>95.643049991763505</v>
-      </c>
-      <c r="CK198" s="9"/>
+        <v>95.257767693604038</v>
+      </c>
+      <c r="CK198" s="34">
+        <v>104.37482510844755</v>
+      </c>
       <c r="CL198" s="9"/>
       <c r="CM198" s="9"/>
       <c r="CN198" s="9"/>
@@ -45531,7 +45791,7 @@
       <c r="CH199" s="29"/>
       <c r="CI199" s="29"/>
       <c r="CJ199" s="29"/>
-      <c r="CK199" s="9"/>
+      <c r="CK199" s="29"/>
       <c r="CL199" s="9"/>
       <c r="CM199" s="9"/>
       <c r="CN199" s="9"/>
@@ -45859,9 +46119,11 @@
         <v>91.995112563486629</v>
       </c>
       <c r="CJ200" s="34">
-        <v>92.800422158626105</v>
-      </c>
-      <c r="CK200" s="9"/>
+        <v>93.291486198568137</v>
+      </c>
+      <c r="CK200" s="34">
+        <v>102.28409058437902</v>
+      </c>
       <c r="CL200" s="9"/>
       <c r="CM200" s="9"/>
       <c r="CN200" s="9"/>
@@ -46015,6 +46277,7 @@
       <c r="CH201" s="31"/>
       <c r="CI201" s="31"/>
       <c r="CJ201" s="31"/>
+      <c r="CK201" s="31"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
@@ -46109,7 +46372,7 @@
       <c r="CH203" s="29"/>
       <c r="CI203" s="29"/>
       <c r="CJ203" s="29"/>
-      <c r="CK203" s="9"/>
+      <c r="CK203" s="29"/>
       <c r="CL203" s="9"/>
       <c r="CM203" s="9"/>
       <c r="CN203" s="9"/>
@@ -46262,7 +46525,7 @@
       <c r="CH204" s="29"/>
       <c r="CI204" s="29"/>
       <c r="CJ204" s="29"/>
-      <c r="CK204" s="9"/>
+      <c r="CK204" s="29"/>
       <c r="CL204" s="9"/>
       <c r="CM204" s="9"/>
       <c r="CN204" s="9"/>
@@ -46339,7 +46602,7 @@
     </row>
     <row r="207" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.25">
@@ -46349,7 +46612,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.25">
@@ -46359,139 +46622,138 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
-      <c r="B213" s="40">
+      <c r="B213" s="39">
         <v>2000</v>
       </c>
-      <c r="C213" s="40"/>
-      <c r="D213" s="40"/>
-      <c r="E213" s="40"/>
-      <c r="F213" s="40">
+      <c r="C213" s="39"/>
+      <c r="D213" s="39"/>
+      <c r="E213" s="39"/>
+      <c r="F213" s="39">
         <v>2001</v>
       </c>
-      <c r="G213" s="40"/>
-      <c r="H213" s="40"/>
-      <c r="I213" s="40"/>
-      <c r="J213" s="40">
+      <c r="G213" s="39"/>
+      <c r="H213" s="39"/>
+      <c r="I213" s="39"/>
+      <c r="J213" s="39">
         <v>2002</v>
       </c>
-      <c r="K213" s="40"/>
-      <c r="L213" s="40"/>
-      <c r="M213" s="40"/>
-      <c r="N213" s="40">
+      <c r="K213" s="39"/>
+      <c r="L213" s="39"/>
+      <c r="M213" s="39"/>
+      <c r="N213" s="39">
         <v>2003</v>
       </c>
-      <c r="O213" s="40"/>
-      <c r="P213" s="40"/>
-      <c r="Q213" s="40"/>
-      <c r="R213" s="40">
+      <c r="O213" s="39"/>
+      <c r="P213" s="39"/>
+      <c r="Q213" s="39"/>
+      <c r="R213" s="39">
         <v>2004</v>
       </c>
-      <c r="S213" s="40"/>
-      <c r="T213" s="40"/>
-      <c r="U213" s="40"/>
-      <c r="V213" s="40">
+      <c r="S213" s="39"/>
+      <c r="T213" s="39"/>
+      <c r="U213" s="39"/>
+      <c r="V213" s="39">
         <v>2005</v>
       </c>
-      <c r="W213" s="40"/>
-      <c r="X213" s="40"/>
-      <c r="Y213" s="40"/>
-      <c r="Z213" s="40">
+      <c r="W213" s="39"/>
+      <c r="X213" s="39"/>
+      <c r="Y213" s="39"/>
+      <c r="Z213" s="39">
         <v>2006</v>
       </c>
-      <c r="AA213" s="40"/>
-      <c r="AB213" s="40"/>
-      <c r="AC213" s="40"/>
-      <c r="AD213" s="40">
+      <c r="AA213" s="39"/>
+      <c r="AB213" s="39"/>
+      <c r="AC213" s="39"/>
+      <c r="AD213" s="39">
         <v>2007</v>
       </c>
-      <c r="AE213" s="40"/>
-      <c r="AF213" s="40"/>
-      <c r="AG213" s="40"/>
-      <c r="AH213" s="40">
+      <c r="AE213" s="39"/>
+      <c r="AF213" s="39"/>
+      <c r="AG213" s="39"/>
+      <c r="AH213" s="39">
         <v>2008</v>
       </c>
-      <c r="AI213" s="40"/>
-      <c r="AJ213" s="40"/>
-      <c r="AK213" s="40"/>
-      <c r="AL213" s="40">
+      <c r="AI213" s="39"/>
+      <c r="AJ213" s="39"/>
+      <c r="AK213" s="39"/>
+      <c r="AL213" s="39">
         <v>2009</v>
       </c>
-      <c r="AM213" s="40"/>
-      <c r="AN213" s="40"/>
-      <c r="AO213" s="40"/>
-      <c r="AP213" s="40">
+      <c r="AM213" s="39"/>
+      <c r="AN213" s="39"/>
+      <c r="AO213" s="39"/>
+      <c r="AP213" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="40"/>
-      <c r="AR213" s="40"/>
-      <c r="AS213" s="40"/>
-      <c r="AT213" s="40">
+      <c r="AQ213" s="39"/>
+      <c r="AR213" s="39"/>
+      <c r="AS213" s="39"/>
+      <c r="AT213" s="39">
         <v>2011</v>
       </c>
-      <c r="AU213" s="40"/>
-      <c r="AV213" s="40"/>
-      <c r="AW213" s="40"/>
-      <c r="AX213" s="40">
+      <c r="AU213" s="39"/>
+      <c r="AV213" s="39"/>
+      <c r="AW213" s="39"/>
+      <c r="AX213" s="39">
         <v>2012</v>
       </c>
-      <c r="AY213" s="40"/>
-      <c r="AZ213" s="40"/>
-      <c r="BA213" s="40"/>
-      <c r="BB213" s="40">
+      <c r="AY213" s="39"/>
+      <c r="AZ213" s="39"/>
+      <c r="BA213" s="39"/>
+      <c r="BB213" s="39">
         <v>2013</v>
       </c>
-      <c r="BC213" s="40"/>
-      <c r="BD213" s="40"/>
-      <c r="BE213" s="40"/>
-      <c r="BF213" s="40">
+      <c r="BC213" s="39"/>
+      <c r="BD213" s="39"/>
+      <c r="BE213" s="39"/>
+      <c r="BF213" s="39">
         <v>2014</v>
       </c>
-      <c r="BG213" s="40"/>
-      <c r="BH213" s="40"/>
-      <c r="BI213" s="40"/>
-      <c r="BJ213" s="40">
+      <c r="BG213" s="39"/>
+      <c r="BH213" s="39"/>
+      <c r="BI213" s="39"/>
+      <c r="BJ213" s="39">
         <v>2015</v>
       </c>
-      <c r="BK213" s="40"/>
-      <c r="BL213" s="40"/>
-      <c r="BM213" s="40"/>
-      <c r="BN213" s="40">
+      <c r="BK213" s="39"/>
+      <c r="BL213" s="39"/>
+      <c r="BM213" s="39"/>
+      <c r="BN213" s="39">
         <v>2016</v>
       </c>
-      <c r="BO213" s="40"/>
-      <c r="BP213" s="40"/>
-      <c r="BQ213" s="40"/>
-      <c r="BR213" s="40">
+      <c r="BO213" s="39"/>
+      <c r="BP213" s="39"/>
+      <c r="BQ213" s="39"/>
+      <c r="BR213" s="39">
         <v>2017</v>
       </c>
-      <c r="BS213" s="40"/>
-      <c r="BT213" s="40"/>
-      <c r="BU213" s="40"/>
-      <c r="BV213" s="40">
+      <c r="BS213" s="39"/>
+      <c r="BT213" s="39"/>
+      <c r="BU213" s="39"/>
+      <c r="BV213" s="39">
         <v>2018</v>
       </c>
-      <c r="BW213" s="40"/>
-      <c r="BX213" s="40"/>
-      <c r="BY213" s="40"/>
-      <c r="BZ213" s="40">
+      <c r="BW213" s="39"/>
+      <c r="BX213" s="39"/>
+      <c r="BY213" s="39"/>
+      <c r="BZ213" s="39">
         <v>2019</v>
       </c>
-      <c r="CA213" s="40"/>
-      <c r="CB213" s="40"/>
-      <c r="CC213" s="40"/>
-      <c r="CD213" s="41">
+      <c r="CA213" s="39"/>
+      <c r="CB213" s="39"/>
+      <c r="CC213" s="39"/>
+      <c r="CD213" s="37">
         <v>2020</v>
       </c>
-      <c r="CE213" s="41"/>
-      <c r="CF213" s="41"/>
-      <c r="CG213" s="41"/>
-      <c r="CH213" s="41">
+      <c r="CE213" s="37"/>
+      <c r="CF213" s="37"/>
+      <c r="CG213" s="37"/>
+      <c r="CH213" s="37">
         <v>2021</v>
       </c>
-      <c r="CI213" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ213" s="41"/>
+      <c r="CI213" s="37"/>
+      <c r="CJ213" s="37"/>
+      <c r="CK213" s="37"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -46757,6 +47019,9 @@
       </c>
       <c r="CJ214" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CK214" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -47025,9 +47290,11 @@
         <v>19.45556208157322</v>
       </c>
       <c r="CJ216" s="34">
-        <v>16.450926601928913</v>
-      </c>
-      <c r="CK216" s="9"/>
+        <v>16.597820971272956</v>
+      </c>
+      <c r="CK216" s="34">
+        <v>20.046128003841197</v>
+      </c>
       <c r="CL216" s="9"/>
       <c r="CM216" s="9"/>
       <c r="CN216" s="9"/>
@@ -47355,9 +47622,11 @@
         <v>1.5923773802949677</v>
       </c>
       <c r="CJ217" s="34">
-        <v>1.7954119566270048</v>
-      </c>
-      <c r="CK217" s="9"/>
+        <v>1.8080657333202632</v>
+      </c>
+      <c r="CK217" s="34">
+        <v>1.444261057558762</v>
+      </c>
       <c r="CL217" s="9"/>
       <c r="CM217" s="9"/>
       <c r="CN217" s="9"/>
@@ -47685,9 +47954,11 @@
         <v>3.9771707133915544</v>
       </c>
       <c r="CJ218" s="34">
-        <v>3.722604193396021</v>
-      </c>
-      <c r="CK218" s="9"/>
+        <v>3.7464922958039284</v>
+      </c>
+      <c r="CK218" s="34">
+        <v>3.7543938155736791</v>
+      </c>
       <c r="CL218" s="9"/>
       <c r="CM218" s="9"/>
       <c r="CN218" s="9"/>
@@ -48015,9 +48286,11 @@
         <v>0.20387929975883368</v>
       </c>
       <c r="CJ219" s="34">
-        <v>0.24336631571523309</v>
-      </c>
-      <c r="CK219" s="9"/>
+        <v>0.24156930744105276</v>
+      </c>
+      <c r="CK219" s="34">
+        <v>0.28820888135514011</v>
+      </c>
       <c r="CL219" s="9"/>
       <c r="CM219" s="9"/>
       <c r="CN219" s="9"/>
@@ -48345,9 +48618,11 @@
         <v>0.14379821625121919</v>
       </c>
       <c r="CJ220" s="34">
-        <v>0.18485104183609893</v>
-      </c>
-      <c r="CK220" s="9"/>
+        <v>0.18994336548181812</v>
+      </c>
+      <c r="CK220" s="34">
+        <v>0.15662692275780304</v>
+      </c>
       <c r="CL220" s="9"/>
       <c r="CM220" s="9"/>
       <c r="CN220" s="9"/>
@@ -48675,9 +48950,11 @@
         <v>1.358490189320138</v>
       </c>
       <c r="CJ221" s="34">
-        <v>1.3419343711899008</v>
-      </c>
-      <c r="CK221" s="9"/>
+        <v>1.3645621868320972</v>
+      </c>
+      <c r="CK221" s="34">
+        <v>1.0281365687014232</v>
+      </c>
       <c r="CL221" s="9"/>
       <c r="CM221" s="9"/>
       <c r="CN221" s="9"/>
@@ -49005,9 +49282,11 @@
         <v>8.4905345451420882</v>
       </c>
       <c r="CJ222" s="34">
-        <v>5.7847032131029215</v>
-      </c>
-      <c r="CK222" s="9"/>
+        <v>5.8773881800003309</v>
+      </c>
+      <c r="CK222" s="34">
+        <v>9.5465772796225039</v>
+      </c>
       <c r="CL222" s="9"/>
       <c r="CM222" s="9"/>
       <c r="CN222" s="9"/>
@@ -49335,9 +49614,11 @@
         <v>0.23785949479620205</v>
       </c>
       <c r="CJ223" s="34">
-        <v>0.38060502335273722</v>
-      </c>
-      <c r="CK223" s="9"/>
+        <v>0.38548968297514297</v>
+      </c>
+      <c r="CK223" s="34">
+        <v>0.49193787004005562</v>
+      </c>
       <c r="CL223" s="9"/>
       <c r="CM223" s="9"/>
       <c r="CN223" s="9"/>
@@ -49665,9 +49946,11 @@
         <v>3.4514522426182177</v>
       </c>
       <c r="CJ224" s="34">
-        <v>2.9974504867089924</v>
-      </c>
-      <c r="CK224" s="9"/>
+        <v>2.9843102194183198</v>
+      </c>
+      <c r="CK224" s="34">
+        <v>3.335985608231836</v>
+      </c>
       <c r="CL224" s="9"/>
       <c r="CM224" s="9"/>
       <c r="CN224" s="9"/>
@@ -49995,9 +50278,11 @@
         <v>16.311654366854956</v>
       </c>
       <c r="CJ225" s="34">
-        <v>18.746790339516501</v>
-      </c>
-      <c r="CK225" s="9"/>
+        <v>18.905593583831894</v>
+      </c>
+      <c r="CK225" s="34">
+        <v>15.985249593374414</v>
+      </c>
       <c r="CL225" s="9"/>
       <c r="CM225" s="9"/>
       <c r="CN225" s="9"/>
@@ -50325,9 +50610,11 @@
         <v>2.9087812716674466</v>
       </c>
       <c r="CJ226" s="34">
-        <v>2.96524188730886</v>
-      </c>
-      <c r="CK226" s="9"/>
+        <v>2.9710625345855841</v>
+      </c>
+      <c r="CK226" s="34">
+        <v>3.3767651909070371</v>
+      </c>
       <c r="CL226" s="9"/>
       <c r="CM226" s="9"/>
       <c r="CN226" s="9"/>
@@ -50655,9 +50942,11 @@
         <v>2.0754738261544334</v>
       </c>
       <c r="CJ227" s="34">
-        <v>2.0765509807387383</v>
-      </c>
-      <c r="CK227" s="9"/>
+        <v>2.0716284973782062</v>
+      </c>
+      <c r="CK227" s="34">
+        <v>1.8594668184155487</v>
+      </c>
       <c r="CL227" s="9"/>
       <c r="CM227" s="9"/>
       <c r="CN227" s="9"/>
@@ -50985,9 +51274,11 @@
         <v>4.7855321754493492</v>
       </c>
       <c r="CJ228" s="34">
-        <v>6.4418875088411713</v>
-      </c>
-      <c r="CK228" s="9"/>
+        <v>6.5875188985086481</v>
+      </c>
+      <c r="CK228" s="34">
+        <v>4.2717245371068389</v>
+      </c>
       <c r="CL228" s="9"/>
       <c r="CM228" s="9"/>
       <c r="CN228" s="9"/>
@@ -51315,9 +51606,11 @@
         <v>6.5418670935837255</v>
       </c>
       <c r="CJ229" s="34">
-        <v>7.2631099626277322</v>
-      </c>
-      <c r="CK229" s="9"/>
+        <v>7.2753836533594587</v>
+      </c>
+      <c r="CK229" s="34">
+        <v>6.4772930469449932</v>
+      </c>
       <c r="CL229" s="9"/>
       <c r="CM229" s="9"/>
       <c r="CN229" s="9"/>
@@ -51645,9 +51938,11 @@
         <v>42.607619278953599</v>
       </c>
       <c r="CJ230" s="34">
-        <v>43.696207069076785</v>
-      </c>
-      <c r="CK230" s="9"/>
+        <v>42.916302501447262</v>
+      </c>
+      <c r="CK230" s="34">
+        <v>45.276646204709309</v>
+      </c>
       <c r="CL230" s="9"/>
       <c r="CM230" s="9"/>
       <c r="CN230" s="9"/>
@@ -51975,9 +52270,11 @@
         <v>39.186141752882556</v>
       </c>
       <c r="CJ231" s="34">
-        <v>41.959802713403974</v>
-      </c>
-      <c r="CK231" s="9"/>
+        <v>41.098818604912431</v>
+      </c>
+      <c r="CK231" s="34">
+        <v>37.235292481938004</v>
+      </c>
       <c r="CL231" s="9"/>
       <c r="CM231" s="9"/>
       <c r="CN231" s="9"/>
@@ -52289,10 +52586,10 @@
       <c r="CD232" s="34">
         <v>0.27081963827587358</v>
       </c>
-      <c r="CE232" s="37">
+      <c r="CE232" s="34">
         <v>1.5892544240785539E-2</v>
       </c>
-      <c r="CF232" s="38">
+      <c r="CF232" s="34">
         <v>2.0495211655383498E-3</v>
       </c>
       <c r="CG232" s="34">
@@ -52301,13 +52598,15 @@
       <c r="CH232" s="34">
         <v>0.75260397852019523</v>
       </c>
-      <c r="CI232" s="38">
+      <c r="CI232" s="34">
         <v>4.8222854621159722E-3</v>
       </c>
       <c r="CJ232" s="34">
-        <v>0.43354311804775347</v>
-      </c>
-      <c r="CK232" s="9"/>
+        <v>0.43666906223518326</v>
+      </c>
+      <c r="CK232" s="34">
+        <v>1.0991668682486502</v>
+      </c>
       <c r="CL232" s="9"/>
       <c r="CM232" s="9"/>
       <c r="CN232" s="9"/>
@@ -52635,9 +52934,11 @@
         <v>2.9030197204928285</v>
       </c>
       <c r="CJ233" s="34">
-        <v>0.96985671703109788</v>
-      </c>
-      <c r="CK233" s="9"/>
+        <v>1.0446670082443723</v>
+      </c>
+      <c r="CK233" s="34">
+        <v>6.3862467903524553</v>
+      </c>
       <c r="CL233" s="9"/>
       <c r="CM233" s="9"/>
       <c r="CN233" s="9"/>
@@ -52965,9 +53266,11 @@
         <v>0.51363552011610414</v>
       </c>
       <c r="CJ234" s="34">
-        <v>0.33300452059395763</v>
-      </c>
-      <c r="CK234" s="9"/>
+        <v>0.33614782605526816</v>
+      </c>
+      <c r="CK234" s="34">
+        <v>0.55594006417020392</v>
+      </c>
       <c r="CL234" s="9"/>
       <c r="CM234" s="9"/>
       <c r="CN234" s="9"/>
@@ -53295,9 +53598,11 @@
         <v>21.625164272618214</v>
       </c>
       <c r="CJ235" s="34">
-        <v>21.106075989477809</v>
-      </c>
-      <c r="CK235" s="9"/>
+        <v>21.580282943447891</v>
+      </c>
+      <c r="CK235" s="34">
+        <v>18.691976198075068</v>
+      </c>
       <c r="CL235" s="9"/>
       <c r="CM235" s="9"/>
       <c r="CN235" s="9"/>
@@ -53625,9 +53930,11 @@
         <v>1.980200436276621</v>
       </c>
       <c r="CJ236" s="34">
-        <v>1.9884303365702647</v>
-      </c>
-      <c r="CK236" s="9"/>
+        <v>2.0429457505639159</v>
+      </c>
+      <c r="CK236" s="34">
+        <v>1.6099716976476337</v>
+      </c>
       <c r="CL236" s="9"/>
       <c r="CM236" s="9"/>
       <c r="CN236" s="9"/>
@@ -53955,9 +54262,11 @@
         <v>3.4294368428579558</v>
       </c>
       <c r="CJ237" s="34">
-        <v>3.4238158316779557</v>
-      </c>
-      <c r="CK237" s="9"/>
+        <v>3.4552574320041489</v>
+      </c>
+      <c r="CK237" s="34">
+        <v>2.7242042997154114</v>
+      </c>
       <c r="CL237" s="9"/>
       <c r="CM237" s="9"/>
       <c r="CN237" s="9"/>
@@ -54285,9 +54594,11 @@
         <v>10.212228432862755</v>
       </c>
       <c r="CJ238" s="34">
-        <v>12.291782340641182</v>
-      </c>
-      <c r="CK238" s="9"/>
+        <v>12.423765979296027</v>
+      </c>
+      <c r="CK238" s="34">
+        <v>10.749814455052809</v>
+      </c>
       <c r="CL238" s="9"/>
       <c r="CM238" s="9"/>
       <c r="CN238" s="9"/>
@@ -54615,9 +54926,11 @@
         <v>6.003298560620884</v>
       </c>
       <c r="CJ239" s="34">
-        <v>3.4020474805884082</v>
-      </c>
-      <c r="CK239" s="9"/>
+        <v>3.6583137815837956</v>
+      </c>
+      <c r="CK239" s="34">
+        <v>3.6079857456592146</v>
+      </c>
       <c r="CL239" s="9"/>
       <c r="CM239" s="9"/>
       <c r="CN239" s="9"/>
@@ -54770,7 +55083,7 @@
       <c r="CH240" s="29"/>
       <c r="CI240" s="29"/>
       <c r="CJ240" s="29"/>
-      <c r="CK240" s="9"/>
+      <c r="CK240" s="29"/>
       <c r="CL240" s="9"/>
       <c r="CM240" s="9"/>
       <c r="CN240" s="9"/>
@@ -55100,7 +55413,9 @@
       <c r="CJ241" s="34">
         <v>100</v>
       </c>
-      <c r="CK241" s="9"/>
+      <c r="CK241" s="34">
+        <v>100</v>
+      </c>
       <c r="CL241" s="9"/>
       <c r="CM241" s="9"/>
       <c r="CN241" s="9"/>
@@ -55254,6 +55569,7 @@
       <c r="CH242" s="31"/>
       <c r="CI242" s="31"/>
       <c r="CJ242" s="31"/>
+      <c r="CK242" s="31"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
@@ -55348,7 +55664,7 @@
       <c r="CH244" s="29"/>
       <c r="CI244" s="29"/>
       <c r="CJ244" s="29"/>
-      <c r="CK244" s="9"/>
+      <c r="CK244" s="29"/>
       <c r="CL244" s="9"/>
       <c r="CM244" s="9"/>
       <c r="CN244" s="9"/>
@@ -55501,7 +55817,7 @@
       <c r="CH245" s="29"/>
       <c r="CI245" s="29"/>
       <c r="CJ245" s="29"/>
-      <c r="CK245" s="9"/>
+      <c r="CK245" s="29"/>
       <c r="CL245" s="9"/>
       <c r="CM245" s="9"/>
       <c r="CN245" s="9"/>
@@ -55578,7 +55894,7 @@
     </row>
     <row r="248" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:152" x14ac:dyDescent="0.25">
@@ -55588,7 +55904,7 @@
     </row>
     <row r="251" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:152" x14ac:dyDescent="0.25">
@@ -55598,139 +55914,138 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
-      <c r="B254" s="40">
+      <c r="B254" s="39">
         <v>2000</v>
       </c>
-      <c r="C254" s="40"/>
-      <c r="D254" s="40"/>
-      <c r="E254" s="40"/>
-      <c r="F254" s="40">
+      <c r="C254" s="39"/>
+      <c r="D254" s="39"/>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39">
         <v>2001</v>
       </c>
-      <c r="G254" s="40"/>
-      <c r="H254" s="40"/>
-      <c r="I254" s="40"/>
-      <c r="J254" s="40">
+      <c r="G254" s="39"/>
+      <c r="H254" s="39"/>
+      <c r="I254" s="39"/>
+      <c r="J254" s="39">
         <v>2002</v>
       </c>
-      <c r="K254" s="40"/>
-      <c r="L254" s="40"/>
-      <c r="M254" s="40"/>
-      <c r="N254" s="40">
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="39"/>
+      <c r="N254" s="39">
         <v>2003</v>
       </c>
-      <c r="O254" s="40"/>
-      <c r="P254" s="40"/>
-      <c r="Q254" s="40"/>
-      <c r="R254" s="40">
+      <c r="O254" s="39"/>
+      <c r="P254" s="39"/>
+      <c r="Q254" s="39"/>
+      <c r="R254" s="39">
         <v>2004</v>
       </c>
-      <c r="S254" s="40"/>
-      <c r="T254" s="40"/>
-      <c r="U254" s="40"/>
-      <c r="V254" s="40">
+      <c r="S254" s="39"/>
+      <c r="T254" s="39"/>
+      <c r="U254" s="39"/>
+      <c r="V254" s="39">
         <v>2005</v>
       </c>
-      <c r="W254" s="40"/>
-      <c r="X254" s="40"/>
-      <c r="Y254" s="40"/>
-      <c r="Z254" s="40">
+      <c r="W254" s="39"/>
+      <c r="X254" s="39"/>
+      <c r="Y254" s="39"/>
+      <c r="Z254" s="39">
         <v>2006</v>
       </c>
-      <c r="AA254" s="40"/>
-      <c r="AB254" s="40"/>
-      <c r="AC254" s="40"/>
-      <c r="AD254" s="40">
+      <c r="AA254" s="39"/>
+      <c r="AB254" s="39"/>
+      <c r="AC254" s="39"/>
+      <c r="AD254" s="39">
         <v>2007</v>
       </c>
-      <c r="AE254" s="40"/>
-      <c r="AF254" s="40"/>
-      <c r="AG254" s="40"/>
-      <c r="AH254" s="40">
+      <c r="AE254" s="39"/>
+      <c r="AF254" s="39"/>
+      <c r="AG254" s="39"/>
+      <c r="AH254" s="39">
         <v>2008</v>
       </c>
-      <c r="AI254" s="40"/>
-      <c r="AJ254" s="40"/>
-      <c r="AK254" s="40"/>
-      <c r="AL254" s="40">
+      <c r="AI254" s="39"/>
+      <c r="AJ254" s="39"/>
+      <c r="AK254" s="39"/>
+      <c r="AL254" s="39">
         <v>2009</v>
       </c>
-      <c r="AM254" s="40"/>
-      <c r="AN254" s="40"/>
-      <c r="AO254" s="40"/>
-      <c r="AP254" s="40">
+      <c r="AM254" s="39"/>
+      <c r="AN254" s="39"/>
+      <c r="AO254" s="39"/>
+      <c r="AP254" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="40"/>
-      <c r="AR254" s="40"/>
-      <c r="AS254" s="40"/>
-      <c r="AT254" s="40">
+      <c r="AQ254" s="39"/>
+      <c r="AR254" s="39"/>
+      <c r="AS254" s="39"/>
+      <c r="AT254" s="39">
         <v>2011</v>
       </c>
-      <c r="AU254" s="40"/>
-      <c r="AV254" s="40"/>
-      <c r="AW254" s="40"/>
-      <c r="AX254" s="40">
+      <c r="AU254" s="39"/>
+      <c r="AV254" s="39"/>
+      <c r="AW254" s="39"/>
+      <c r="AX254" s="39">
         <v>2012</v>
       </c>
-      <c r="AY254" s="40"/>
-      <c r="AZ254" s="40"/>
-      <c r="BA254" s="40"/>
-      <c r="BB254" s="40">
+      <c r="AY254" s="39"/>
+      <c r="AZ254" s="39"/>
+      <c r="BA254" s="39"/>
+      <c r="BB254" s="39">
         <v>2013</v>
       </c>
-      <c r="BC254" s="40"/>
-      <c r="BD254" s="40"/>
-      <c r="BE254" s="40"/>
-      <c r="BF254" s="40">
+      <c r="BC254" s="39"/>
+      <c r="BD254" s="39"/>
+      <c r="BE254" s="39"/>
+      <c r="BF254" s="39">
         <v>2014</v>
       </c>
-      <c r="BG254" s="40"/>
-      <c r="BH254" s="40"/>
-      <c r="BI254" s="40"/>
-      <c r="BJ254" s="40">
+      <c r="BG254" s="39"/>
+      <c r="BH254" s="39"/>
+      <c r="BI254" s="39"/>
+      <c r="BJ254" s="39">
         <v>2015</v>
       </c>
-      <c r="BK254" s="40"/>
-      <c r="BL254" s="40"/>
-      <c r="BM254" s="40"/>
-      <c r="BN254" s="40">
+      <c r="BK254" s="39"/>
+      <c r="BL254" s="39"/>
+      <c r="BM254" s="39"/>
+      <c r="BN254" s="39">
         <v>2016</v>
       </c>
-      <c r="BO254" s="40"/>
-      <c r="BP254" s="40"/>
-      <c r="BQ254" s="40"/>
-      <c r="BR254" s="40">
+      <c r="BO254" s="39"/>
+      <c r="BP254" s="39"/>
+      <c r="BQ254" s="39"/>
+      <c r="BR254" s="39">
         <v>2017</v>
       </c>
-      <c r="BS254" s="40"/>
-      <c r="BT254" s="40"/>
-      <c r="BU254" s="40"/>
-      <c r="BV254" s="40">
+      <c r="BS254" s="39"/>
+      <c r="BT254" s="39"/>
+      <c r="BU254" s="39"/>
+      <c r="BV254" s="39">
         <v>2018</v>
       </c>
-      <c r="BW254" s="40"/>
-      <c r="BX254" s="40"/>
-      <c r="BY254" s="40"/>
-      <c r="BZ254" s="40">
+      <c r="BW254" s="39"/>
+      <c r="BX254" s="39"/>
+      <c r="BY254" s="39"/>
+      <c r="BZ254" s="39">
         <v>2019</v>
       </c>
-      <c r="CA254" s="40"/>
-      <c r="CB254" s="40"/>
-      <c r="CC254" s="40"/>
-      <c r="CD254" s="41">
+      <c r="CA254" s="39"/>
+      <c r="CB254" s="39"/>
+      <c r="CC254" s="39"/>
+      <c r="CD254" s="37">
         <v>2020</v>
       </c>
-      <c r="CE254" s="41"/>
-      <c r="CF254" s="41"/>
-      <c r="CG254" s="41"/>
-      <c r="CH254" s="41">
+      <c r="CE254" s="37"/>
+      <c r="CF254" s="37"/>
+      <c r="CG254" s="37"/>
+      <c r="CH254" s="37">
         <v>2021</v>
       </c>
-      <c r="CI254" s="41">
-        <v>0</v>
-      </c>
-      <c r="CJ254" s="41"/>
+      <c r="CI254" s="37"/>
+      <c r="CJ254" s="37"/>
+      <c r="CK254" s="37"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
@@ -55996,6 +56311,9 @@
       </c>
       <c r="CJ255" s="32" t="s">
         <v>8</v>
+      </c>
+      <c r="CK255" s="32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -56264,9 +56582,11 @@
         <v>11.713503980139663</v>
       </c>
       <c r="CJ257" s="34">
-        <v>18.788897848549865</v>
-      </c>
-      <c r="CK257" s="9"/>
+        <v>19.022367517179571</v>
+      </c>
+      <c r="CK257" s="34">
+        <v>23.478059945065564</v>
+      </c>
       <c r="CL257" s="9"/>
       <c r="CM257" s="9"/>
       <c r="CN257" s="9"/>
@@ -56594,9 +56914,11 @@
         <v>0.53757403309271035</v>
       </c>
       <c r="CJ258" s="34">
-        <v>1.9899603004858097</v>
-      </c>
-      <c r="CK258" s="9"/>
+        <v>2.0129147905867106</v>
+      </c>
+      <c r="CK258" s="34">
+        <v>2.0953922098444613</v>
+      </c>
       <c r="CL258" s="9"/>
       <c r="CM258" s="9"/>
       <c r="CN258" s="9"/>
@@ -56924,9 +57246,11 @@
         <v>1.3793820985986991</v>
       </c>
       <c r="CJ259" s="34">
-        <v>4.1476143656934905</v>
-      </c>
-      <c r="CK259" s="9"/>
+        <v>4.1879318737780977</v>
+      </c>
+      <c r="CK259" s="34">
+        <v>5.4845375557483207</v>
+      </c>
       <c r="CL259" s="9"/>
       <c r="CM259" s="9"/>
       <c r="CN259" s="9"/>
@@ -57254,9 +57578,11 @@
         <v>0.10000027409706846</v>
       </c>
       <c r="CJ260" s="34">
-        <v>0.25759067157450211</v>
-      </c>
-      <c r="CK260" s="9"/>
+        <v>0.24440822652172628</v>
+      </c>
+      <c r="CK260" s="34">
+        <v>0.31595931345823836</v>
+      </c>
       <c r="CL260" s="9"/>
       <c r="CM260" s="9"/>
       <c r="CN260" s="9"/>
@@ -57584,9 +57910,11 @@
         <v>5.494704301971088E-2</v>
       </c>
       <c r="CJ261" s="34">
-        <v>0.20200979375066427</v>
-      </c>
-      <c r="CK261" s="9"/>
+        <v>0.20702984886451756</v>
+      </c>
+      <c r="CK261" s="34">
+        <v>0.19570508979927362</v>
+      </c>
       <c r="CL261" s="9"/>
       <c r="CM261" s="9"/>
       <c r="CN261" s="9"/>
@@ -57914,9 +58242,11 @@
         <v>0.46955025733234024</v>
       </c>
       <c r="CJ262" s="34">
-        <v>1.4414682639240481</v>
-      </c>
-      <c r="CK262" s="9"/>
+        <v>1.4684359964795743</v>
+      </c>
+      <c r="CK262" s="34">
+        <v>1.4431680178790283</v>
+      </c>
       <c r="CL262" s="9"/>
       <c r="CM262" s="9"/>
       <c r="CN262" s="9"/>
@@ -58244,9 +58574,11 @@
         <v>7.6916932425597997</v>
       </c>
       <c r="CJ263" s="34">
-        <v>7.1103086564720241</v>
-      </c>
-      <c r="CK263" s="9"/>
+        <v>7.2523998000596768</v>
+      </c>
+      <c r="CK263" s="34">
+        <v>9.1056823024117985</v>
+      </c>
       <c r="CL263" s="9"/>
       <c r="CM263" s="9"/>
       <c r="CN263" s="9"/>
@@ -58574,9 +58906,11 @@
         <v>8.7719342083512425E-2</v>
       </c>
       <c r="CJ264" s="34">
-        <v>0.42883926367885672</v>
-      </c>
-      <c r="CK264" s="9"/>
+        <v>0.43502656671052137</v>
+      </c>
+      <c r="CK264" s="34">
+        <v>0.72576497661110662</v>
+      </c>
       <c r="CL264" s="9"/>
       <c r="CM264" s="9"/>
       <c r="CN264" s="9"/>
@@ -58904,9 +59238,11 @@
         <v>1.3926376893558212</v>
       </c>
       <c r="CJ265" s="34">
-        <v>3.2111065329704696</v>
-      </c>
-      <c r="CK265" s="9"/>
+        <v>3.2142204141787487</v>
+      </c>
+      <c r="CK265" s="34">
+        <v>4.1118504793133335</v>
+      </c>
       <c r="CL265" s="9"/>
       <c r="CM265" s="9"/>
       <c r="CN265" s="9"/>
@@ -59234,9 +59570,11 @@
         <v>13.700763657539822</v>
       </c>
       <c r="CJ266" s="34">
-        <v>20.167925153839235</v>
-      </c>
-      <c r="CK266" s="9"/>
+        <v>20.424994614912066</v>
+      </c>
+      <c r="CK266" s="34">
+        <v>15.966927899067452</v>
+      </c>
       <c r="CL266" s="9"/>
       <c r="CM266" s="9"/>
       <c r="CN266" s="9"/>
@@ -59564,9 +59902,11 @@
         <v>2.3887855259882564</v>
       </c>
       <c r="CJ267" s="34">
-        <v>3.2580862021857255</v>
-      </c>
-      <c r="CK267" s="9"/>
+        <v>3.270874241144333</v>
+      </c>
+      <c r="CK267" s="34">
+        <v>3.2592945370716353</v>
+      </c>
       <c r="CL267" s="9"/>
       <c r="CM267" s="9"/>
       <c r="CN267" s="9"/>
@@ -59894,9 +60234,11 @@
         <v>1.7011490322894438</v>
       </c>
       <c r="CJ268" s="34">
-        <v>2.2500206035685686</v>
-      </c>
-      <c r="CK268" s="9"/>
+        <v>2.2546579281485872</v>
+      </c>
+      <c r="CK268" s="34">
+        <v>1.8429147189951194</v>
+      </c>
       <c r="CL268" s="9"/>
       <c r="CM268" s="9"/>
       <c r="CN268" s="9"/>
@@ -60224,9 +60566,11 @@
         <v>3.9231334017462585</v>
       </c>
       <c r="CJ269" s="34">
-        <v>6.8502250882432474</v>
-      </c>
-      <c r="CK269" s="9"/>
+        <v>7.0333677845074662</v>
+      </c>
+      <c r="CK269" s="34">
+        <v>4.059381519287343</v>
+      </c>
       <c r="CL269" s="9"/>
       <c r="CM269" s="9"/>
       <c r="CN269" s="9"/>
@@ -60554,9 +60898,11 @@
         <v>5.6876956975158643</v>
       </c>
       <c r="CJ270" s="34">
-        <v>7.8095932598416944</v>
-      </c>
-      <c r="CK270" s="9"/>
+        <v>7.8660946611116822</v>
+      </c>
+      <c r="CK270" s="34">
+        <v>6.805337123713354</v>
+      </c>
       <c r="CL270" s="9"/>
       <c r="CM270" s="9"/>
       <c r="CN270" s="9"/>
@@ -60884,9 +61230,11 @@
         <v>45.678322655683715</v>
       </c>
       <c r="CJ271" s="34">
-        <v>41.928429127613313</v>
-      </c>
-      <c r="CK271" s="9"/>
+        <v>40.880930523836398</v>
+      </c>
+      <c r="CK271" s="34">
+        <v>46.487547936129708</v>
+      </c>
       <c r="CL271" s="9"/>
       <c r="CM271" s="9"/>
       <c r="CN271" s="9"/>
@@ -61214,9 +61562,11 @@
         <v>41.898199894606272</v>
       </c>
       <c r="CJ272" s="34">
-        <v>40.410315705519459</v>
-      </c>
-      <c r="CK272" s="9"/>
+        <v>39.293501839817566</v>
+      </c>
+      <c r="CK272" s="34">
+        <v>38.963522320325744</v>
+      </c>
       <c r="CL272" s="9"/>
       <c r="CM272" s="9"/>
       <c r="CN272" s="9"/>
@@ -61528,10 +61878,10 @@
       <c r="CD273" s="34">
         <v>0.27662420634122709</v>
       </c>
-      <c r="CE273" s="37">
+      <c r="CE273" s="34">
         <v>2.1398008821393557E-2</v>
       </c>
-      <c r="CF273" s="38">
+      <c r="CF273" s="34">
         <v>1.8341285584213165E-3</v>
       </c>
       <c r="CG273" s="34">
@@ -61540,13 +61890,15 @@
       <c r="CH273" s="34">
         <v>0.77091309247946815</v>
       </c>
-      <c r="CI273" s="37">
+      <c r="CI273" s="34">
         <v>6.3368284836012381E-3</v>
       </c>
       <c r="CJ273" s="34">
-        <v>0.38138235807237264</v>
-      </c>
-      <c r="CK273" s="9"/>
+        <v>0.38616489085143113</v>
+      </c>
+      <c r="CK273" s="34">
+        <v>0.99802940778695548</v>
+      </c>
       <c r="CL273" s="9"/>
       <c r="CM273" s="9"/>
       <c r="CN273" s="9"/>
@@ -61874,9 +62226,11 @@
         <v>3.2097375780307162</v>
       </c>
       <c r="CJ274" s="34">
-        <v>0.78779266099111667</v>
-      </c>
-      <c r="CK274" s="9"/>
+        <v>0.85265700035619829</v>
+      </c>
+      <c r="CK274" s="34">
+        <v>5.9734625321650965</v>
+      </c>
       <c r="CL274" s="9"/>
       <c r="CM274" s="9"/>
       <c r="CN274" s="9"/>
@@ -62204,9 +62558,11 @@
         <v>0.5640483545631203</v>
       </c>
       <c r="CJ275" s="34">
-        <v>0.34893840303037371</v>
-      </c>
-      <c r="CK275" s="9"/>
+        <v>0.34860679281120521</v>
+      </c>
+      <c r="CK275" s="34">
+        <v>0.55253367585190738</v>
+      </c>
       <c r="CL275" s="9"/>
       <c r="CM275" s="9"/>
       <c r="CN275" s="9"/>
@@ -62534,9 +62890,11 @@
         <v>28.907409706636813</v>
       </c>
       <c r="CJ276" s="34">
-        <v>19.114747869997572</v>
-      </c>
-      <c r="CK276" s="9"/>
+        <v>19.671707344071969</v>
+      </c>
+      <c r="CK276" s="34">
+        <v>14.067464219737271</v>
+      </c>
       <c r="CL276" s="9"/>
       <c r="CM276" s="9"/>
       <c r="CN276" s="9"/>
@@ -62864,9 +63222,11 @@
         <v>3.119653106821012</v>
       </c>
       <c r="CJ277" s="34">
-        <v>1.4251347594180266</v>
-      </c>
-      <c r="CK277" s="9"/>
+        <v>1.4707191476596964</v>
+      </c>
+      <c r="CK277" s="34">
+        <v>0.81041459043282793</v>
+      </c>
       <c r="CL277" s="9"/>
       <c r="CM277" s="9"/>
       <c r="CN277" s="9"/>
@@ -63194,9 +63554,11 @@
         <v>4.8721158792886126</v>
       </c>
       <c r="CJ278" s="34">
-        <v>2.9127621302996087</v>
-      </c>
-      <c r="CK278" s="9"/>
+        <v>2.9554352795144747</v>
+      </c>
+      <c r="CK278" s="34">
+        <v>2.0429696127294821</v>
+      </c>
       <c r="CL278" s="9"/>
       <c r="CM278" s="9"/>
       <c r="CN278" s="9"/>
@@ -63524,9 +63886,11 @@
         <v>14.881415971596551</v>
       </c>
       <c r="CJ279" s="34">
-        <v>11.475916490743243</v>
-      </c>
-      <c r="CK279" s="9"/>
+        <v>11.66275292139075</v>
+      </c>
+      <c r="CK279" s="34">
+        <v>7.6783659164294926</v>
+      </c>
       <c r="CL279" s="9"/>
       <c r="CM279" s="9"/>
       <c r="CN279" s="9"/>
@@ -63854,9 +64218,11 @@
         <v>6.0342247489306358</v>
       </c>
       <c r="CJ280" s="34">
-        <v>3.3009344895366963</v>
-      </c>
-      <c r="CK280" s="9"/>
+        <v>3.5827999955070506</v>
+      </c>
+      <c r="CK280" s="34">
+        <v>3.5357141001454693</v>
+      </c>
       <c r="CL280" s="9"/>
       <c r="CM280" s="9"/>
       <c r="CN280" s="9"/>
@@ -64009,7 +64375,7 @@
       <c r="CH281" s="29"/>
       <c r="CI281" s="29"/>
       <c r="CJ281" s="29"/>
-      <c r="CK281" s="9"/>
+      <c r="CK281" s="29"/>
       <c r="CL281" s="9"/>
       <c r="CM281" s="9"/>
       <c r="CN281" s="9"/>
@@ -64339,7 +64705,9 @@
       <c r="CJ282" s="34">
         <v>100</v>
       </c>
-      <c r="CK282" s="9"/>
+      <c r="CK282" s="34">
+        <v>100</v>
+      </c>
       <c r="CL282" s="9"/>
       <c r="CM282" s="9"/>
       <c r="CN282" s="9"/>
@@ -64493,20 +64861,12 @@
       <c r="CH283" s="31"/>
       <c r="CI283" s="31"/>
       <c r="CJ283" s="31"/>
+      <c r="CK283" s="31"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="CD285" s="29"/>
-      <c r="CE285" s="29"/>
-      <c r="CF285" s="29"/>
-      <c r="CG285" s="29"/>
-      <c r="CH285" s="29"/>
-      <c r="CI285" s="29"/>
-      <c r="CJ285" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -64601,6 +64961,7 @@
     <mergeCell ref="AD132:AG132"/>
     <mergeCell ref="AH132:AK132"/>
     <mergeCell ref="AL132:AO132"/>
+    <mergeCell ref="BR254:BU254"/>
     <mergeCell ref="AX254:BA254"/>
     <mergeCell ref="BB254:BE254"/>
     <mergeCell ref="N213:Q213"/>
@@ -64613,6 +64974,7 @@
     <mergeCell ref="AL254:AO254"/>
     <mergeCell ref="AP254:AS254"/>
     <mergeCell ref="AT254:AW254"/>
+    <mergeCell ref="CD172:CG172"/>
     <mergeCell ref="BF254:BI254"/>
     <mergeCell ref="BJ254:BM254"/>
     <mergeCell ref="BN254:BQ254"/>
@@ -64636,14 +64998,14 @@
     <mergeCell ref="BN50:BQ50"/>
     <mergeCell ref="BN172:BQ172"/>
     <mergeCell ref="BZ254:CC254"/>
-    <mergeCell ref="BR254:BU254"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH50:CJ50"/>
-    <mergeCell ref="CD132:CF132"/>
-    <mergeCell ref="CH172:CJ172"/>
-    <mergeCell ref="CH213:CJ213"/>
-    <mergeCell ref="CH254:CJ254"/>
-    <mergeCell ref="CD91:CF91"/>
+    <mergeCell ref="CD50:CG50"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH50:CK50"/>
+    <mergeCell ref="CD91:CG91"/>
+    <mergeCell ref="CD132:CG132"/>
+    <mergeCell ref="CH172:CK172"/>
+    <mergeCell ref="CH213:CK213"/>
+    <mergeCell ref="CH254:CK254"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BZ50:CC50"/>
@@ -64660,19 +65022,17 @@
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD254:CG254"/>
     <mergeCell ref="CD213:CG213"/>
-    <mergeCell ref="CD172:CG172"/>
-    <mergeCell ref="CD50:CG50"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="87" man="1"/>
-    <brk id="82" max="87" man="1"/>
-    <brk id="123" max="87" man="1"/>
-    <brk id="164" max="87" man="1"/>
-    <brk id="204" max="87" man="1"/>
-    <brk id="245" max="87" man="1"/>
+    <brk id="41" max="88" man="1"/>
+    <brk id="82" max="88" man="1"/>
+    <brk id="123" max="88" man="1"/>
+    <brk id="164" max="88" man="1"/>
+    <brk id="204" max="88" man="1"/>
+    <brk id="245" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BFAF27-0106-4ECE-AEE6-8C53B0601B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFC3B1-A1E6-4F27-AB4F-9684DC25503A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CM$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CN$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="75">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -261,13 +261,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -351,10 +351,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -371,47 +371,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -791,200 +791,200 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV284"/>
+  <dimension ref="A1:EV286"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CG4" sqref="CG4"/>
+      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="20" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="69" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="20" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="85" width="9.26953125" style="1" customWidth="1"/>
-    <col min="86" max="91" width="9.1796875" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="74" max="92" width="9.21875" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="29">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="29"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1258,11 +1258,14 @@
       <c r="CM10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1518,25 +1521,27 @@
       <c r="CG12" s="8">
         <v>51276.382492793287</v>
       </c>
-      <c r="CH12" s="26">
+      <c r="CH12" s="25">
         <v>58541.158933898158</v>
       </c>
-      <c r="CI12" s="26">
+      <c r="CI12" s="25">
         <v>47867.997891967381</v>
       </c>
-      <c r="CJ12" s="26">
+      <c r="CJ12" s="25">
         <v>40647.66566784482</v>
       </c>
-      <c r="CK12" s="26">
+      <c r="CK12" s="25">
         <v>58261.857706303141</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="25">
         <v>62028.096573715593</v>
       </c>
-      <c r="CM12" s="26">
-        <v>49979.624848388863</v>
-      </c>
-      <c r="CN12" s="9"/>
+      <c r="CM12" s="25">
+        <v>49120.308708090801</v>
+      </c>
+      <c r="CN12" s="25">
+        <v>41159.142609898292</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -1598,7 +1603,7 @@
       <c r="EU12" s="9"/>
       <c r="EV12" s="9"/>
     </row>
-    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -1854,25 +1859,27 @@
       <c r="CG13" s="11">
         <v>4505.6216796295748</v>
       </c>
-      <c r="CH13" s="27">
+      <c r="CH13" s="26">
         <v>5360.9786303835454</v>
       </c>
-      <c r="CI13" s="27">
+      <c r="CI13" s="26">
         <v>3920.7370998992515</v>
       </c>
-      <c r="CJ13" s="27">
+      <c r="CJ13" s="26">
         <v>4431.104680267822</v>
       </c>
-      <c r="CK13" s="27">
+      <c r="CK13" s="26">
         <v>4319.6241689507651</v>
       </c>
-      <c r="CL13" s="27">
+      <c r="CL13" s="26">
         <v>2500.7483468737091</v>
       </c>
-      <c r="CM13" s="27">
-        <v>2437.5828979329235</v>
-      </c>
-      <c r="CN13" s="9"/>
+      <c r="CM13" s="26">
+        <v>2437.8802292001369</v>
+      </c>
+      <c r="CN13" s="26">
+        <v>2963.7273872780338</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -1934,7 +1941,7 @@
       <c r="EU13" s="9"/>
       <c r="EV13" s="9"/>
     </row>
-    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
@@ -2190,25 +2197,27 @@
       <c r="CG14" s="11">
         <v>4832.1147367375515</v>
       </c>
-      <c r="CH14" s="27">
+      <c r="CH14" s="26">
         <v>6469.3368344882674</v>
       </c>
-      <c r="CI14" s="27">
+      <c r="CI14" s="26">
         <v>9794.8308621653341</v>
       </c>
-      <c r="CJ14" s="27">
+      <c r="CJ14" s="26">
         <v>9187.5535580913565</v>
       </c>
-      <c r="CK14" s="27">
+      <c r="CK14" s="26">
         <v>11123.925712408121</v>
       </c>
-      <c r="CL14" s="27">
+      <c r="CL14" s="26">
         <v>9494.9320844892572</v>
       </c>
-      <c r="CM14" s="27">
-        <v>9280.7332404263325</v>
-      </c>
-      <c r="CN14" s="9"/>
+      <c r="CM14" s="26">
+        <v>9307.4156353659255</v>
+      </c>
+      <c r="CN14" s="26">
+        <v>10354.641329515322</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -2270,7 +2279,7 @@
       <c r="EU14" s="9"/>
       <c r="EV14" s="9"/>
     </row>
-    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -2526,25 +2535,27 @@
       <c r="CG15" s="11">
         <v>531.70689191179281</v>
       </c>
-      <c r="CH15" s="27">
+      <c r="CH15" s="26">
         <v>471.65605528852143</v>
       </c>
-      <c r="CI15" s="27">
+      <c r="CI15" s="26">
         <v>501.66476677997207</v>
       </c>
-      <c r="CJ15" s="27">
+      <c r="CJ15" s="26">
         <v>591.41483901841161</v>
       </c>
-      <c r="CK15" s="27">
+      <c r="CK15" s="26">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="27">
+      <c r="CL15" s="26">
         <v>647.70376646087641</v>
       </c>
-      <c r="CM15" s="27">
-        <v>702.54373113258487</v>
-      </c>
-      <c r="CN15" s="9"/>
+      <c r="CM15" s="26">
+        <v>698.06849698737619</v>
+      </c>
+      <c r="CN15" s="26">
+        <v>713.05251948862951</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -2606,7 +2617,7 @@
       <c r="EU15" s="9"/>
       <c r="EV15" s="9"/>
     </row>
-    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -2862,25 +2873,27 @@
       <c r="CG16" s="11">
         <v>445.71165916397956</v>
       </c>
-      <c r="CH16" s="27">
+      <c r="CH16" s="26">
         <v>482.06090742586434</v>
       </c>
-      <c r="CI16" s="27">
+      <c r="CI16" s="26">
         <v>353.9126695930442</v>
       </c>
-      <c r="CJ16" s="27">
+      <c r="CJ16" s="26">
         <v>465.25586962896028</v>
       </c>
-      <c r="CK16" s="27">
+      <c r="CK16" s="26">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="27">
+      <c r="CL16" s="26">
         <v>422.81136516350637</v>
       </c>
-      <c r="CM16" s="27">
-        <v>376.44691349199479</v>
-      </c>
-      <c r="CN16" s="9"/>
+      <c r="CM16" s="26">
+        <v>376.08126301209819</v>
+      </c>
+      <c r="CN16" s="26">
+        <v>573.81758984954854</v>
+      </c>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -2942,7 +2955,7 @@
       <c r="EU16" s="9"/>
       <c r="EV16" s="9"/>
     </row>
-    <row r="17" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
@@ -3198,25 +3211,27 @@
       <c r="CG17" s="11">
         <v>2314.3770870556236</v>
       </c>
-      <c r="CH17" s="27">
+      <c r="CH17" s="26">
         <v>2699.4920858096257</v>
       </c>
-      <c r="CI17" s="27">
+      <c r="CI17" s="26">
         <v>3342.0641753031941</v>
       </c>
-      <c r="CJ17" s="27">
+      <c r="CJ17" s="26">
         <v>3338.8216530237387</v>
       </c>
-      <c r="CK17" s="27">
+      <c r="CK17" s="26">
         <v>3000.3675877051292</v>
       </c>
-      <c r="CL17" s="27">
+      <c r="CL17" s="26">
         <v>3746.9877615250962</v>
       </c>
-      <c r="CM17" s="27">
-        <v>3244.6776082906681</v>
-      </c>
-      <c r="CN17" s="9"/>
+      <c r="CM17" s="26">
+        <v>2694.8170505836115</v>
+      </c>
+      <c r="CN17" s="26">
+        <v>2605.623266538903</v>
+      </c>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -3278,7 +3293,7 @@
       <c r="EU17" s="9"/>
       <c r="EV17" s="9"/>
     </row>
-    <row r="18" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3534,25 +3549,27 @@
       <c r="CG18" s="11">
         <v>30655.654184141502</v>
       </c>
-      <c r="CH18" s="27">
+      <c r="CH18" s="26">
         <v>33111.400313364109</v>
       </c>
-      <c r="CI18" s="27">
+      <c r="CI18" s="26">
         <v>20875.999648424353</v>
       </c>
-      <c r="CJ18" s="27">
+      <c r="CJ18" s="26">
         <v>14376.565024355747</v>
       </c>
-      <c r="CK18" s="27">
+      <c r="CK18" s="26">
         <v>27725.384098040966</v>
       </c>
-      <c r="CL18" s="27">
+      <c r="CL18" s="26">
         <v>34669.862801566946</v>
       </c>
-      <c r="CM18" s="27">
-        <v>24523.332486019775</v>
-      </c>
-      <c r="CN18" s="9"/>
+      <c r="CM18" s="26">
+        <v>24168.60506914703</v>
+      </c>
+      <c r="CN18" s="26">
+        <v>15002.865254389901</v>
+      </c>
       <c r="CO18" s="9"/>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
@@ -3614,7 +3631,7 @@
       <c r="EU18" s="9"/>
       <c r="EV18" s="9"/>
     </row>
-    <row r="19" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -3870,25 +3887,27 @@
       <c r="CG19" s="11">
         <v>1077.2672972378546</v>
       </c>
-      <c r="CH19" s="27">
+      <c r="CH19" s="26">
         <v>1542.424047462154</v>
       </c>
-      <c r="CI19" s="27">
+      <c r="CI19" s="26">
         <v>585.49590673763339</v>
       </c>
-      <c r="CJ19" s="27">
+      <c r="CJ19" s="26">
         <v>944.65683744733678</v>
       </c>
-      <c r="CK19" s="27">
+      <c r="CK19" s="26">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="27">
+      <c r="CL19" s="26">
         <v>741.74514479576635</v>
       </c>
-      <c r="CM19" s="27">
-        <v>723.4157015878003</v>
-      </c>
-      <c r="CN19" s="9"/>
+      <c r="CM19" s="26">
+        <v>723.20740309221628</v>
+      </c>
+      <c r="CN19" s="26">
+        <v>450.84319978159186</v>
+      </c>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -3950,7 +3969,7 @@
       <c r="EU19" s="9"/>
       <c r="EV19" s="9"/>
     </row>
-    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
@@ -4206,25 +4225,27 @@
       <c r="CG20" s="11">
         <v>6913.9289569154098</v>
       </c>
-      <c r="CH20" s="27">
+      <c r="CH20" s="26">
         <v>8403.8100596760669</v>
       </c>
-      <c r="CI20" s="27">
+      <c r="CI20" s="26">
         <v>8493.2927630646009</v>
       </c>
-      <c r="CJ20" s="27">
+      <c r="CJ20" s="26">
         <v>7312.2932060114472</v>
       </c>
-      <c r="CK20" s="27">
+      <c r="CK20" s="26">
         <v>9454.4252954363001</v>
       </c>
-      <c r="CL20" s="27">
+      <c r="CL20" s="26">
         <v>9803.3053028404393</v>
       </c>
-      <c r="CM20" s="27">
-        <v>8690.8922695067904</v>
-      </c>
-      <c r="CN20" s="9"/>
+      <c r="CM20" s="26">
+        <v>8714.2335607024088</v>
+      </c>
+      <c r="CN20" s="26">
+        <v>8494.5720630563646</v>
+      </c>
       <c r="CO20" s="9"/>
       <c r="CP20" s="9"/>
       <c r="CQ20" s="9"/>
@@ -4286,7 +4307,7 @@
       <c r="EU20" s="9"/>
       <c r="EV20" s="9"/>
     </row>
-    <row r="21" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -4542,25 +4563,27 @@
       <c r="CG21" s="8">
         <v>45363.207117669983</v>
       </c>
-      <c r="CH21" s="26">
+      <c r="CH21" s="25">
         <v>49695.016313886677</v>
       </c>
-      <c r="CI21" s="26">
+      <c r="CI21" s="25">
         <v>40266.571381959482</v>
       </c>
-      <c r="CJ21" s="26">
+      <c r="CJ21" s="25">
         <v>46175.034139911164</v>
       </c>
-      <c r="CK21" s="26">
+      <c r="CK21" s="25">
         <v>47401.023023459726</v>
       </c>
-      <c r="CL21" s="26">
+      <c r="CL21" s="25">
         <v>55248.360471062828</v>
       </c>
-      <c r="CM21" s="26">
-        <v>49603.994658928539</v>
-      </c>
-      <c r="CN21" s="9"/>
+      <c r="CM21" s="25">
+        <v>49651.77325451182</v>
+      </c>
+      <c r="CN21" s="25">
+        <v>58770.764079446548</v>
+      </c>
       <c r="CO21" s="9"/>
       <c r="CP21" s="9"/>
       <c r="CQ21" s="9"/>
@@ -4622,7 +4645,7 @@
       <c r="EU21" s="9"/>
       <c r="EV21" s="9"/>
     </row>
-    <row r="22" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -4878,25 +4901,27 @@
       <c r="CG22" s="11">
         <v>8386.6463101162626</v>
       </c>
-      <c r="CH22" s="27">
+      <c r="CH22" s="26">
         <v>7887.0206297618333</v>
       </c>
-      <c r="CI22" s="27">
+      <c r="CI22" s="26">
         <v>7155.0963550419592</v>
       </c>
-      <c r="CJ22" s="27">
+      <c r="CJ22" s="26">
         <v>7280.6033560321166</v>
       </c>
-      <c r="CK22" s="27">
+      <c r="CK22" s="26">
         <v>10008.559027993895</v>
       </c>
-      <c r="CL22" s="27">
+      <c r="CL22" s="26">
         <v>9542.8711096971929</v>
       </c>
-      <c r="CM22" s="27">
-        <v>10028.854063433928</v>
-      </c>
-      <c r="CN22" s="9"/>
+      <c r="CM22" s="26">
+        <v>9878.1187573968455</v>
+      </c>
+      <c r="CN22" s="26">
+        <v>9435.4146941822237</v>
+      </c>
       <c r="CO22" s="9"/>
       <c r="CP22" s="9"/>
       <c r="CQ22" s="9"/>
@@ -4958,7 +4983,7 @@
       <c r="EU22" s="9"/>
       <c r="EV22" s="9"/>
     </row>
-    <row r="23" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
@@ -5214,25 +5239,27 @@
       <c r="CG23" s="11">
         <v>5273.1469018777589</v>
       </c>
-      <c r="CH23" s="27">
+      <c r="CH23" s="26">
         <v>4767.9726573387816</v>
       </c>
-      <c r="CI23" s="27">
+      <c r="CI23" s="26">
         <v>5096.9235369596818</v>
       </c>
-      <c r="CJ23" s="27">
+      <c r="CJ23" s="26">
         <v>5066.6062712290177</v>
       </c>
-      <c r="CK23" s="27">
+      <c r="CK23" s="26">
         <v>5483.5514610858872</v>
       </c>
-      <c r="CL23" s="27">
+      <c r="CL23" s="26">
         <v>5611.5960427676937</v>
       </c>
-      <c r="CM23" s="27">
-        <v>5685.0927054715348</v>
-      </c>
-      <c r="CN23" s="9"/>
+      <c r="CM23" s="26">
+        <v>5655.159440503985</v>
+      </c>
+      <c r="CN23" s="26">
+        <v>5209.3571845294482</v>
+      </c>
       <c r="CO23" s="9"/>
       <c r="CP23" s="9"/>
       <c r="CQ23" s="9"/>
@@ -5294,7 +5321,7 @@
       <c r="EU23" s="9"/>
       <c r="EV23" s="9"/>
     </row>
-    <row r="24" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -5550,25 +5577,27 @@
       <c r="CG24" s="11">
         <v>15099.791007225485</v>
       </c>
-      <c r="CH24" s="27">
+      <c r="CH24" s="26">
         <v>13981.40718165418</v>
       </c>
-      <c r="CI24" s="27">
+      <c r="CI24" s="26">
         <v>11965.092595326425</v>
       </c>
-      <c r="CJ24" s="27">
+      <c r="CJ24" s="26">
         <v>16011.432118332268</v>
       </c>
-      <c r="CK24" s="27">
+      <c r="CK24" s="26">
         <v>12472.925081185451</v>
       </c>
-      <c r="CL24" s="27">
+      <c r="CL24" s="26">
         <v>13606.855846988763</v>
       </c>
-      <c r="CM24" s="27">
-        <v>13447.60090430813</v>
-      </c>
-      <c r="CN24" s="9"/>
+      <c r="CM24" s="26">
+        <v>13664.854756853229</v>
+      </c>
+      <c r="CN24" s="26">
+        <v>24004.407987644983</v>
+      </c>
       <c r="CO24" s="9"/>
       <c r="CP24" s="9"/>
       <c r="CQ24" s="9"/>
@@ -5630,7 +5659,7 @@
       <c r="EU24" s="9"/>
       <c r="EV24" s="9"/>
     </row>
-    <row r="25" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>23</v>
       </c>
@@ -5886,25 +5915,27 @@
       <c r="CG25" s="11">
         <v>16603.622898450478</v>
       </c>
-      <c r="CH25" s="27">
+      <c r="CH25" s="26">
         <v>23058.615845131881</v>
       </c>
-      <c r="CI25" s="27">
+      <c r="CI25" s="26">
         <v>16049.458894631422</v>
       </c>
-      <c r="CJ25" s="27">
+      <c r="CJ25" s="26">
         <v>17816.392394317758</v>
       </c>
-      <c r="CK25" s="27">
+      <c r="CK25" s="26">
         <v>19435.987453194495</v>
       </c>
-      <c r="CL25" s="27">
+      <c r="CL25" s="26">
         <v>26487.037471609172</v>
       </c>
-      <c r="CM25" s="27">
-        <v>20442.446985714949</v>
-      </c>
-      <c r="CN25" s="9"/>
+      <c r="CM25" s="26">
+        <v>20453.640299757761</v>
+      </c>
+      <c r="CN25" s="26">
+        <v>20121.584213089889</v>
+      </c>
       <c r="CO25" s="9"/>
       <c r="CP25" s="9"/>
       <c r="CQ25" s="9"/>
@@ -5966,7 +5997,7 @@
       <c r="EU25" s="9"/>
       <c r="EV25" s="9"/>
     </row>
-    <row r="26" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6222,25 +6253,27 @@
       <c r="CG26" s="8">
         <v>115528.01967552473</v>
       </c>
-      <c r="CH26" s="26">
+      <c r="CH26" s="25">
         <v>124589.10692945481</v>
       </c>
-      <c r="CI26" s="26">
+      <c r="CI26" s="25">
         <v>103509.55353964759</v>
       </c>
-      <c r="CJ26" s="26">
+      <c r="CJ26" s="25">
         <v>105260.2298822154</v>
       </c>
-      <c r="CK26" s="26">
+      <c r="CK26" s="25">
         <v>133668.26270734164</v>
       </c>
-      <c r="CL26" s="26">
+      <c r="CL26" s="25">
         <v>163950.8020046693</v>
       </c>
-      <c r="CM26" s="26">
-        <v>145304.67910976475</v>
-      </c>
-      <c r="CN26" s="9"/>
+      <c r="CM26" s="25">
+        <v>145356.15480849805</v>
+      </c>
+      <c r="CN26" s="25">
+        <v>162313.18633118988</v>
+      </c>
       <c r="CO26" s="9"/>
       <c r="CP26" s="9"/>
       <c r="CQ26" s="9"/>
@@ -6302,7 +6335,7 @@
       <c r="EU26" s="9"/>
       <c r="EV26" s="9"/>
     </row>
-    <row r="27" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
@@ -6558,25 +6591,27 @@
       <c r="CG27" s="11">
         <v>107245.88624517893</v>
       </c>
-      <c r="CH27" s="27">
+      <c r="CH27" s="26">
         <v>113486.41667803671</v>
       </c>
-      <c r="CI27" s="27">
+      <c r="CI27" s="26">
         <v>95108.975103577832</v>
       </c>
-      <c r="CJ27" s="27">
+      <c r="CJ27" s="26">
         <v>100772.17941952129</v>
       </c>
-      <c r="CK27" s="27">
+      <c r="CK27" s="26">
         <v>110180.91439146697</v>
       </c>
-      <c r="CL27" s="27">
+      <c r="CL27" s="26">
         <v>136229.18816494729</v>
       </c>
-      <c r="CM27" s="27">
-        <v>122190.05473789689</v>
-      </c>
-      <c r="CN27" s="9"/>
+      <c r="CM27" s="26">
+        <v>122240.92570820492</v>
+      </c>
+      <c r="CN27" s="26">
+        <v>150604.28570923326</v>
+      </c>
       <c r="CO27" s="9"/>
       <c r="CP27" s="9"/>
       <c r="CQ27" s="9"/>
@@ -6638,7 +6673,7 @@
       <c r="EU27" s="9"/>
       <c r="EV27" s="9"/>
     </row>
-    <row r="28" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -6894,25 +6929,27 @@
       <c r="CG28" s="11">
         <v>1105.678345077391</v>
       </c>
-      <c r="CH28" s="27">
+      <c r="CH28" s="26">
         <v>2174.525977291808</v>
       </c>
-      <c r="CI28" s="27">
+      <c r="CI28" s="26">
         <v>11.869001815650885</v>
       </c>
-      <c r="CJ28" s="27">
+      <c r="CJ28" s="26">
         <v>1084.8413776855873</v>
       </c>
-      <c r="CK28" s="27">
+      <c r="CK28" s="26">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="27">
+      <c r="CL28" s="26">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="27">
-        <v>810.23446250597908</v>
-      </c>
-      <c r="CN28" s="9"/>
+      <c r="CM28" s="26">
+        <v>809.44314838159949</v>
+      </c>
+      <c r="CN28" s="26">
+        <v>50.076289511465788</v>
+      </c>
       <c r="CO28" s="9"/>
       <c r="CP28" s="9"/>
       <c r="CQ28" s="9"/>
@@ -6974,7 +7011,7 @@
       <c r="EU28" s="9"/>
       <c r="EV28" s="9"/>
     </row>
-    <row r="29" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
@@ -7230,25 +7267,27 @@
       <c r="CG29" s="11">
         <v>6343.2135165614418</v>
       </c>
-      <c r="CH29" s="27">
+      <c r="CH29" s="26">
         <v>1497.2602288694948</v>
       </c>
-      <c r="CI29" s="27">
+      <c r="CI29" s="26">
         <v>7124.3444375877434</v>
       </c>
-      <c r="CJ29" s="27">
+      <c r="CJ29" s="26">
         <v>2560.2614048595551</v>
       </c>
-      <c r="CK29" s="27">
+      <c r="CK29" s="26">
         <v>18605.76298429797</v>
       </c>
-      <c r="CL29" s="27">
+      <c r="CL29" s="26">
         <v>16487.745286676476</v>
       </c>
-      <c r="CM29" s="27">
-        <v>10073.957633079877</v>
-      </c>
-      <c r="CN29" s="9"/>
+      <c r="CM29" s="26">
+        <v>10074.057929104585</v>
+      </c>
+      <c r="CN29" s="26">
+        <v>5726.655839944915</v>
+      </c>
       <c r="CO29" s="9"/>
       <c r="CP29" s="9"/>
       <c r="CQ29" s="9"/>
@@ -7310,7 +7349,7 @@
       <c r="EU29" s="9"/>
       <c r="EV29" s="9"/>
     </row>
-    <row r="30" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
@@ -7566,25 +7605,27 @@
       <c r="CG30" s="11">
         <v>833.24156870696106</v>
       </c>
-      <c r="CH30" s="27">
+      <c r="CH30" s="26">
         <v>7430.9040452567961</v>
       </c>
-      <c r="CI30" s="27">
+      <c r="CI30" s="26">
         <v>1264.3649966663711</v>
       </c>
-      <c r="CJ30" s="27">
+      <c r="CJ30" s="26">
         <v>842.94768014896374</v>
       </c>
-      <c r="CK30" s="27">
+      <c r="CK30" s="26">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="27">
+      <c r="CL30" s="26">
         <v>9496.365114011498</v>
       </c>
-      <c r="CM30" s="27">
-        <v>12230.432276281996</v>
-      </c>
-      <c r="CN30" s="9"/>
+      <c r="CM30" s="26">
+        <v>12231.728022806947</v>
+      </c>
+      <c r="CN30" s="26">
+        <v>5932.168492500231</v>
+      </c>
       <c r="CO30" s="9"/>
       <c r="CP30" s="9"/>
       <c r="CQ30" s="9"/>
@@ -7646,7 +7687,7 @@
       <c r="EU30" s="9"/>
       <c r="EV30" s="9"/>
     </row>
-    <row r="31" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -7902,25 +7943,27 @@
       <c r="CG31" s="8">
         <v>49754.685381672272</v>
       </c>
-      <c r="CH31" s="26">
+      <c r="CH31" s="25">
         <v>55935.875121412362</v>
       </c>
-      <c r="CI31" s="26">
+      <c r="CI31" s="25">
         <v>53178.448068639482</v>
       </c>
-      <c r="CJ31" s="26">
+      <c r="CJ31" s="25">
         <v>52182.435820240171</v>
       </c>
-      <c r="CK31" s="26">
+      <c r="CK31" s="25">
         <v>55766.537399436405</v>
       </c>
-      <c r="CL31" s="26">
+      <c r="CL31" s="25">
         <v>62440.604692364592</v>
       </c>
-      <c r="CM31" s="26">
-        <v>59864.032190451799</v>
-      </c>
-      <c r="CN31" s="9"/>
+      <c r="CM31" s="25">
+        <v>60810.368743408784</v>
+      </c>
+      <c r="CN31" s="25">
+        <v>56301.007013955095</v>
+      </c>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
@@ -7982,7 +8025,7 @@
       <c r="EU31" s="9"/>
       <c r="EV31" s="9"/>
     </row>
-    <row r="32" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
@@ -8238,25 +8281,27 @@
       <c r="CG32" s="11">
         <v>6337.9232329612496</v>
       </c>
-      <c r="CH32" s="27">
+      <c r="CH32" s="26">
         <v>4629.4723582643337</v>
       </c>
-      <c r="CI32" s="27">
+      <c r="CI32" s="26">
         <v>4871.2729287841557</v>
       </c>
-      <c r="CJ32" s="27">
+      <c r="CJ32" s="26">
         <v>4992.9407309126091</v>
       </c>
-      <c r="CK32" s="27">
+      <c r="CK32" s="26">
         <v>4760.0523785116966</v>
       </c>
-      <c r="CL32" s="27">
+      <c r="CL32" s="26">
         <v>4954.6992644621059</v>
       </c>
-      <c r="CM32" s="27">
-        <v>4581.6747283417453</v>
-      </c>
-      <c r="CN32" s="9"/>
+      <c r="CM32" s="26">
+        <v>4539.0352440369206</v>
+      </c>
+      <c r="CN32" s="26">
+        <v>5641.6892363067755</v>
+      </c>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -8318,7 +8363,7 @@
       <c r="EU32" s="9"/>
       <c r="EV32" s="9"/>
     </row>
-    <row r="33" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
@@ -8574,25 +8619,27 @@
       <c r="CG33" s="11">
         <v>7451.0501716481922</v>
       </c>
-      <c r="CH33" s="27">
+      <c r="CH33" s="26">
         <v>9722.0937590066078</v>
       </c>
-      <c r="CI33" s="27">
+      <c r="CI33" s="26">
         <v>8452.8947083027197</v>
       </c>
-      <c r="CJ33" s="27">
+      <c r="CJ33" s="26">
         <v>7918.363814997253</v>
       </c>
-      <c r="CK33" s="27">
+      <c r="CK33" s="26">
         <v>8969.1752260535395</v>
       </c>
-      <c r="CL33" s="27">
+      <c r="CL33" s="26">
         <v>11029.395121814505</v>
       </c>
-      <c r="CM33" s="27">
-        <v>8955.0986812533574</v>
-      </c>
-      <c r="CN33" s="9"/>
+      <c r="CM33" s="26">
+        <v>8890.3196611212188</v>
+      </c>
+      <c r="CN33" s="26">
+        <v>8410.3781727670903</v>
+      </c>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -8654,7 +8701,7 @@
       <c r="EU33" s="9"/>
       <c r="EV33" s="9"/>
     </row>
-    <row r="34" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
@@ -8910,25 +8957,27 @@
       <c r="CG34" s="11">
         <v>25905.479426830389</v>
       </c>
-      <c r="CH34" s="27">
+      <c r="CH34" s="26">
         <v>24944.756636294653</v>
       </c>
-      <c r="CI34" s="27">
+      <c r="CI34" s="26">
         <v>25072.950748615931</v>
       </c>
-      <c r="CJ34" s="27">
+      <c r="CJ34" s="26">
         <v>30296.855767724148</v>
       </c>
-      <c r="CK34" s="27">
+      <c r="CK34" s="26">
         <v>31349.984737912993</v>
       </c>
-      <c r="CL34" s="27">
+      <c r="CL34" s="26">
         <v>32027.40677863155</v>
       </c>
-      <c r="CM34" s="27">
-        <v>30040.711081508682</v>
-      </c>
-      <c r="CN34" s="9"/>
+      <c r="CM34" s="26">
+        <v>30291.574224193439</v>
+      </c>
+      <c r="CN34" s="26">
+        <v>31691.774573810966</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -8990,7 +9039,7 @@
       <c r="EU34" s="9"/>
       <c r="EV34" s="9"/>
     </row>
-    <row r="35" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
@@ -9246,25 +9295,27 @@
       <c r="CG35" s="11">
         <v>10060.232550232438</v>
       </c>
-      <c r="CH35" s="27">
+      <c r="CH35" s="26">
         <v>16639.552367846776</v>
       </c>
-      <c r="CI35" s="27">
+      <c r="CI35" s="26">
         <v>14781.329682936674</v>
       </c>
-      <c r="CJ35" s="27">
+      <c r="CJ35" s="26">
         <v>8974.27550660616</v>
       </c>
-      <c r="CK35" s="27">
+      <c r="CK35" s="26">
         <v>10687.325056958169</v>
       </c>
-      <c r="CL35" s="27">
+      <c r="CL35" s="26">
         <v>14429.103527456435</v>
       </c>
-      <c r="CM35" s="27">
-        <v>16286.547699348021</v>
-      </c>
-      <c r="CN35" s="9"/>
+      <c r="CM35" s="26">
+        <v>17089.439614057206</v>
+      </c>
+      <c r="CN35" s="26">
+        <v>10557.16503107027</v>
+      </c>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -9326,7 +9377,7 @@
       <c r="EU35" s="9"/>
       <c r="EV35" s="9"/>
     </row>
-    <row r="36" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -9479,7 +9530,7 @@
       <c r="EU36" s="9"/>
       <c r="EV36" s="9"/>
     </row>
-    <row r="37" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -9751,9 +9802,11 @@
         <v>343667.8637418123</v>
       </c>
       <c r="CM37" s="13">
-        <v>304752.33080753393</v>
-      </c>
-      <c r="CN37" s="9"/>
+        <v>304938.60551450943</v>
+      </c>
+      <c r="CN37" s="13">
+        <v>318544.10003448982</v>
+      </c>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -9815,7 +9868,7 @@
       <c r="EU37" s="9"/>
       <c r="EV37" s="9"/>
     </row>
-    <row r="38" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -9907,8 +9960,9 @@
       <c r="CK38" s="14"/>
       <c r="CL38" s="14"/>
       <c r="CM38" s="14"/>
+      <c r="CN38" s="14"/>
     </row>
-    <row r="39" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>0</v>
       </c>
@@ -9934,7 +9988,7 @@
       <c r="CC39" s="16"/>
       <c r="CG39" s="16"/>
     </row>
-    <row r="40" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -10087,7 +10141,7 @@
       <c r="EU40" s="9"/>
       <c r="EV40" s="9"/>
     </row>
-    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -10240,176 +10294,177 @@
       <c r="EU41" s="9"/>
       <c r="EV41" s="9"/>
     </row>
-    <row r="42" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="30">
+      <c r="B50" s="29">
         <v>2000</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29">
         <v>2001</v>
       </c>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30">
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29">
         <v>2002</v>
       </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29">
         <v>2003</v>
       </c>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30">
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29">
         <v>2004</v>
       </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30">
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29">
         <v>2005</v>
       </c>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30">
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29">
         <v>2006</v>
       </c>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30">
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29">
         <v>2007</v>
       </c>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="30"/>
-      <c r="AH50" s="30">
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29">
         <v>2008</v>
       </c>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="30"/>
-      <c r="AL50" s="30">
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29">
         <v>2009</v>
       </c>
-      <c r="AM50" s="30"/>
-      <c r="AN50" s="30"/>
-      <c r="AO50" s="30"/>
-      <c r="AP50" s="30">
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="30"/>
-      <c r="AR50" s="30"/>
-      <c r="AS50" s="30"/>
-      <c r="AT50" s="30">
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="29">
         <v>2011</v>
       </c>
-      <c r="AU50" s="30"/>
-      <c r="AV50" s="30"/>
-      <c r="AW50" s="30"/>
-      <c r="AX50" s="30">
+      <c r="AU50" s="29"/>
+      <c r="AV50" s="29"/>
+      <c r="AW50" s="29"/>
+      <c r="AX50" s="29">
         <v>2012</v>
       </c>
-      <c r="AY50" s="30"/>
-      <c r="AZ50" s="30"/>
-      <c r="BA50" s="30"/>
-      <c r="BB50" s="30">
+      <c r="AY50" s="29"/>
+      <c r="AZ50" s="29"/>
+      <c r="BA50" s="29"/>
+      <c r="BB50" s="29">
         <v>2013</v>
       </c>
-      <c r="BC50" s="30"/>
-      <c r="BD50" s="30"/>
-      <c r="BE50" s="30"/>
-      <c r="BF50" s="30">
+      <c r="BC50" s="29"/>
+      <c r="BD50" s="29"/>
+      <c r="BE50" s="29"/>
+      <c r="BF50" s="29">
         <v>2014</v>
       </c>
-      <c r="BG50" s="30"/>
-      <c r="BH50" s="30"/>
-      <c r="BI50" s="30"/>
-      <c r="BJ50" s="30">
+      <c r="BG50" s="29"/>
+      <c r="BH50" s="29"/>
+      <c r="BI50" s="29"/>
+      <c r="BJ50" s="29">
         <v>2015</v>
       </c>
-      <c r="BK50" s="30"/>
-      <c r="BL50" s="30"/>
-      <c r="BM50" s="30"/>
-      <c r="BN50" s="30">
+      <c r="BK50" s="29"/>
+      <c r="BL50" s="29"/>
+      <c r="BM50" s="29"/>
+      <c r="BN50" s="29">
         <v>2016</v>
       </c>
-      <c r="BO50" s="30"/>
-      <c r="BP50" s="30"/>
-      <c r="BQ50" s="30"/>
-      <c r="BR50" s="30">
+      <c r="BO50" s="29"/>
+      <c r="BP50" s="29"/>
+      <c r="BQ50" s="29"/>
+      <c r="BR50" s="29">
         <v>2017</v>
       </c>
-      <c r="BS50" s="30"/>
-      <c r="BT50" s="30"/>
-      <c r="BU50" s="30"/>
-      <c r="BV50" s="30">
+      <c r="BS50" s="29"/>
+      <c r="BT50" s="29"/>
+      <c r="BU50" s="29"/>
+      <c r="BV50" s="29">
         <v>2018</v>
       </c>
-      <c r="BW50" s="30"/>
-      <c r="BX50" s="30"/>
-      <c r="BY50" s="30"/>
-      <c r="BZ50" s="30">
+      <c r="BW50" s="29"/>
+      <c r="BX50" s="29"/>
+      <c r="BY50" s="29"/>
+      <c r="BZ50" s="29">
         <v>2019</v>
       </c>
-      <c r="CA50" s="30"/>
-      <c r="CB50" s="30"/>
-      <c r="CC50" s="30"/>
-      <c r="CD50" s="30">
+      <c r="CA50" s="29"/>
+      <c r="CB50" s="29"/>
+      <c r="CC50" s="29"/>
+      <c r="CD50" s="29">
         <v>2020</v>
       </c>
-      <c r="CE50" s="30"/>
-      <c r="CF50" s="30"/>
-      <c r="CG50" s="30"/>
-      <c r="CH50" s="29">
+      <c r="CE50" s="29"/>
+      <c r="CF50" s="29"/>
+      <c r="CG50" s="29"/>
+      <c r="CH50" s="30">
         <v>2021</v>
       </c>
-      <c r="CI50" s="29"/>
-      <c r="CJ50" s="29"/>
-      <c r="CK50" s="29"/>
-      <c r="CL50" s="29">
+      <c r="CI50" s="30"/>
+      <c r="CJ50" s="30"/>
+      <c r="CK50" s="30"/>
+      <c r="CL50" s="30">
         <v>2022</v>
       </c>
-      <c r="CM50" s="29"/>
+      <c r="CM50" s="30"/>
+      <c r="CN50" s="30"/>
     </row>
-    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
@@ -10683,11 +10738,14 @@
       <c r="CM51" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="CN51" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="52" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
     </row>
-    <row r="53" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -10943,25 +11001,27 @@
       <c r="CG53" s="8">
         <v>60932.38878891943</v>
       </c>
-      <c r="CH53" s="26">
+      <c r="CH53" s="25">
         <v>57497.116261917377</v>
       </c>
-      <c r="CI53" s="26">
+      <c r="CI53" s="25">
         <v>31321.432365500288</v>
       </c>
-      <c r="CJ53" s="26">
+      <c r="CJ53" s="25">
         <v>49929.843626102709</v>
       </c>
-      <c r="CK53" s="26">
+      <c r="CK53" s="25">
         <v>66466.12120791206</v>
       </c>
-      <c r="CL53" s="26">
+      <c r="CL53" s="25">
         <v>56052.060775786405</v>
       </c>
-      <c r="CM53" s="26">
-        <v>30116.987629297328</v>
-      </c>
-      <c r="CN53" s="9"/>
+      <c r="CM53" s="25">
+        <v>29741.933567097083</v>
+      </c>
+      <c r="CN53" s="25">
+        <v>43821.94310338483</v>
+      </c>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
@@ -11023,7 +11083,7 @@
       <c r="EU53" s="9"/>
       <c r="EV53" s="9"/>
     </row>
-    <row r="54" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -11279,25 +11339,27 @@
       <c r="CG54" s="11">
         <v>7130.9722902154635</v>
       </c>
-      <c r="CH54" s="27">
+      <c r="CH54" s="26">
         <v>5600.9219872312169</v>
       </c>
-      <c r="CI54" s="27">
+      <c r="CI54" s="26">
         <v>1438.7839865321641</v>
       </c>
-      <c r="CJ54" s="27">
+      <c r="CJ54" s="26">
         <v>5287.8745894518452</v>
       </c>
-      <c r="CK54" s="27">
+      <c r="CK54" s="26">
         <v>6133.5174448456464</v>
       </c>
-      <c r="CL54" s="27">
+      <c r="CL54" s="26">
         <v>2255.0748846422493</v>
       </c>
-      <c r="CM54" s="27">
-        <v>761.04834246170356</v>
-      </c>
-      <c r="CN54" s="9"/>
+      <c r="CM54" s="26">
+        <v>761.66025081213616</v>
+      </c>
+      <c r="CN54" s="26">
+        <v>2997.8661815941346</v>
+      </c>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
@@ -11359,7 +11421,7 @@
       <c r="EU54" s="9"/>
       <c r="EV54" s="9"/>
     </row>
-    <row r="55" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>12</v>
       </c>
@@ -11615,25 +11677,27 @@
       <c r="CG55" s="11">
         <v>7667.9773528194155</v>
       </c>
-      <c r="CH55" s="27">
+      <c r="CH55" s="26">
         <v>6625.8824658828635</v>
       </c>
-      <c r="CI55" s="27">
+      <c r="CI55" s="26">
         <v>3692.6777096467895</v>
       </c>
-      <c r="CJ55" s="27">
+      <c r="CJ55" s="26">
         <v>11008.634640329734</v>
       </c>
-      <c r="CK55" s="27">
+      <c r="CK55" s="26">
         <v>15911.285342941819</v>
       </c>
-      <c r="CL55" s="27">
+      <c r="CL55" s="26">
         <v>8402.3117075506925</v>
       </c>
-      <c r="CM55" s="27">
-        <v>2975.5175697864875</v>
-      </c>
-      <c r="CN55" s="9"/>
+      <c r="CM55" s="26">
+        <v>2987.9489594103698</v>
+      </c>
+      <c r="CN55" s="26">
+        <v>10542.860040720627</v>
+      </c>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
@@ -11695,7 +11759,7 @@
       <c r="EU55" s="9"/>
       <c r="EV55" s="9"/>
     </row>
-    <row r="56" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>13</v>
       </c>
@@ -11951,25 +12015,27 @@
       <c r="CG56" s="11">
         <v>691.87648960265778</v>
       </c>
-      <c r="CH56" s="27">
+      <c r="CH56" s="26">
         <v>473.3029479679642</v>
       </c>
-      <c r="CI56" s="27">
+      <c r="CI56" s="26">
         <v>267.53804781545307</v>
       </c>
-      <c r="CJ56" s="27">
+      <c r="CJ56" s="26">
         <v>641.3529785427736</v>
       </c>
-      <c r="CK56" s="27">
+      <c r="CK56" s="26">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="27">
+      <c r="CL56" s="26">
         <v>597.86760840923216</v>
       </c>
-      <c r="CM56" s="27">
-        <v>303.61735397737766</v>
-      </c>
-      <c r="CN56" s="9"/>
+      <c r="CM56" s="26">
+        <v>306.73225109706334</v>
+      </c>
+      <c r="CN56" s="26">
+        <v>739.63393255921028</v>
+      </c>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
@@ -12031,7 +12097,7 @@
       <c r="EU56" s="9"/>
       <c r="EV56" s="9"/>
     </row>
-    <row r="57" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>14</v>
       </c>
@@ -12287,25 +12353,27 @@
       <c r="CG57" s="11">
         <v>651.07923614981655</v>
       </c>
-      <c r="CH57" s="27">
+      <c r="CH57" s="26">
         <v>406.22240502996158</v>
       </c>
-      <c r="CI57" s="27">
+      <c r="CI57" s="26">
         <v>147.01161595594914</v>
       </c>
-      <c r="CJ57" s="27">
+      <c r="CJ57" s="26">
         <v>543.57042942091243</v>
       </c>
-      <c r="CK57" s="27">
+      <c r="CK57" s="26">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="27">
+      <c r="CL57" s="26">
         <v>315.43803744530902</v>
       </c>
-      <c r="CM57" s="27">
-        <v>134.75922321431142</v>
-      </c>
-      <c r="CN57" s="9"/>
+      <c r="CM57" s="26">
+        <v>135.61553714706261</v>
+      </c>
+      <c r="CN57" s="26">
+        <v>578.3032963597027</v>
+      </c>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
@@ -12367,7 +12435,7 @@
       <c r="EU57" s="9"/>
       <c r="EV57" s="9"/>
     </row>
-    <row r="58" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>15</v>
       </c>
@@ -12623,25 +12691,27 @@
       <c r="CG58" s="11">
         <v>3571.5903656964251</v>
       </c>
-      <c r="CH58" s="27">
+      <c r="CH58" s="26">
         <v>2666.2790380383121</v>
       </c>
-      <c r="CI58" s="27">
+      <c r="CI58" s="26">
         <v>1255.7186949254087</v>
       </c>
-      <c r="CJ58" s="27">
+      <c r="CJ58" s="26">
         <v>3851.3221670743064</v>
       </c>
-      <c r="CK58" s="27">
+      <c r="CK58" s="26">
         <v>4131.3450878775348</v>
       </c>
-      <c r="CL58" s="27">
+      <c r="CL58" s="26">
         <v>3202.7455397586123</v>
       </c>
-      <c r="CM58" s="27">
-        <v>1041.1633206069373</v>
-      </c>
-      <c r="CN58" s="9"/>
+      <c r="CM58" s="26">
+        <v>876.28923089513717</v>
+      </c>
+      <c r="CN58" s="26">
+        <v>2569.4383620660124</v>
+      </c>
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
       <c r="CQ58" s="9"/>
@@ -12703,7 +12773,7 @@
       <c r="EU58" s="9"/>
       <c r="EV58" s="9"/>
     </row>
-    <row r="59" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
@@ -12959,25 +13029,27 @@
       <c r="CG59" s="11">
         <v>29667.403902739352</v>
       </c>
-      <c r="CH59" s="27">
+      <c r="CH59" s="26">
         <v>31929.97125626653</v>
       </c>
-      <c r="CI59" s="27">
+      <c r="CI59" s="26">
         <v>20559.329156847001</v>
       </c>
-      <c r="CJ59" s="27">
+      <c r="CJ59" s="26">
         <v>19012.43225478832</v>
       </c>
-      <c r="CK59" s="27">
+      <c r="CK59" s="26">
         <v>25289.805192443193</v>
       </c>
-      <c r="CL59" s="27">
+      <c r="CL59" s="26">
         <v>32104.970046588172</v>
       </c>
-      <c r="CM59" s="27">
-        <v>21315.974510254146</v>
-      </c>
-      <c r="CN59" s="9"/>
+      <c r="CM59" s="26">
+        <v>20981.876227410772</v>
+      </c>
+      <c r="CN59" s="26">
+        <v>17158.080537845886</v>
+      </c>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
@@ -13039,7 +13111,7 @@
       <c r="EU59" s="9"/>
       <c r="EV59" s="9"/>
     </row>
-    <row r="60" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>17</v>
       </c>
@@ -13295,25 +13367,27 @@
       <c r="CG60" s="11">
         <v>1744.240915485444</v>
       </c>
-      <c r="CH60" s="27">
+      <c r="CH60" s="26">
         <v>1617.1403252363307</v>
       </c>
-      <c r="CI60" s="27">
+      <c r="CI60" s="26">
         <v>234.71788193473378</v>
       </c>
-      <c r="CJ60" s="27">
+      <c r="CJ60" s="26">
         <v>1142.7065235060725</v>
       </c>
-      <c r="CK60" s="27">
+      <c r="CK60" s="26">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="27">
+      <c r="CL60" s="26">
         <v>676.14093854760392</v>
       </c>
-      <c r="CM60" s="27">
-        <v>244.97187190857392</v>
-      </c>
-      <c r="CN60" s="9"/>
+      <c r="CM60" s="26">
+        <v>245.78743511464563</v>
+      </c>
+      <c r="CN60" s="26">
+        <v>467.90068759594897</v>
+      </c>
       <c r="CO60" s="9"/>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
@@ -13375,7 +13449,7 @@
       <c r="EU60" s="9"/>
       <c r="EV60" s="9"/>
     </row>
-    <row r="61" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>18</v>
       </c>
@@ -13631,25 +13705,27 @@
       <c r="CG61" s="11">
         <v>9807.2482362108458</v>
       </c>
-      <c r="CH61" s="27">
+      <c r="CH61" s="26">
         <v>8177.3958362642015</v>
       </c>
-      <c r="CI61" s="27">
+      <c r="CI61" s="26">
         <v>3725.6552718427893</v>
       </c>
-      <c r="CJ61" s="27">
+      <c r="CJ61" s="26">
         <v>8441.950042988743</v>
       </c>
-      <c r="CK61" s="27">
+      <c r="CK61" s="26">
         <v>11555.218154109229</v>
       </c>
-      <c r="CL61" s="27">
+      <c r="CL61" s="26">
         <v>8497.5120128445269</v>
       </c>
-      <c r="CM61" s="27">
-        <v>3339.9354370877918</v>
-      </c>
-      <c r="CN61" s="9"/>
+      <c r="CM61" s="26">
+        <v>3446.023675209899</v>
+      </c>
+      <c r="CN61" s="26">
+        <v>8767.8600646433115</v>
+      </c>
       <c r="CO61" s="9"/>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
@@ -13711,7 +13787,7 @@
       <c r="EU61" s="9"/>
       <c r="EV61" s="9"/>
     </row>
-    <row r="62" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
@@ -13967,25 +14043,27 @@
       <c r="CG62" s="8">
         <v>47957.312665351434</v>
       </c>
-      <c r="CH62" s="26">
+      <c r="CH62" s="25">
         <v>50085.84230024775</v>
       </c>
-      <c r="CI62" s="26">
+      <c r="CI62" s="25">
         <v>36848.906491173868</v>
       </c>
-      <c r="CJ62" s="26">
+      <c r="CJ62" s="25">
         <v>53469.02282513649</v>
       </c>
-      <c r="CK62" s="26">
+      <c r="CK62" s="25">
         <v>46709.858378414443</v>
       </c>
-      <c r="CL62" s="26">
+      <c r="CL62" s="25">
         <v>51770.59920076259</v>
       </c>
-      <c r="CM62" s="26">
-        <v>39856.192733591641</v>
-      </c>
-      <c r="CN62" s="9"/>
+      <c r="CM62" s="25">
+        <v>39900.013989922438</v>
+      </c>
+      <c r="CN62" s="25">
+        <v>57812.516347553159</v>
+      </c>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
@@ -14047,7 +14125,7 @@
       <c r="EU62" s="9"/>
       <c r="EV62" s="9"/>
     </row>
-    <row r="63" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>20</v>
       </c>
@@ -14303,25 +14381,27 @@
       <c r="CG63" s="11">
         <v>9039.5310042375459</v>
       </c>
-      <c r="CH63" s="27">
+      <c r="CH63" s="26">
         <v>7752.1697415136205</v>
       </c>
-      <c r="CI63" s="27">
+      <c r="CI63" s="26">
         <v>6385.9979876114521</v>
       </c>
-      <c r="CJ63" s="27">
+      <c r="CJ63" s="26">
         <v>8591.6930906538582</v>
       </c>
-      <c r="CK63" s="27">
+      <c r="CK63" s="26">
         <v>9430.9836779044108</v>
       </c>
-      <c r="CL63" s="27">
+      <c r="CL63" s="26">
         <v>8502.0109270199664</v>
       </c>
-      <c r="CM63" s="27">
-        <v>7676.0883051484407</v>
-      </c>
-      <c r="CN63" s="9"/>
+      <c r="CM63" s="26">
+        <v>7512.9239761207646</v>
+      </c>
+      <c r="CN63" s="26">
+        <v>9178.6176947434524</v>
+      </c>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
@@ -14383,7 +14463,7 @@
       <c r="EU63" s="9"/>
       <c r="EV63" s="9"/>
     </row>
-    <row r="64" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>21</v>
       </c>
@@ -14639,25 +14719,27 @@
       <c r="CG64" s="11">
         <v>5571.7040831643517</v>
       </c>
-      <c r="CH64" s="27">
+      <c r="CH64" s="26">
         <v>4679.9666922809201</v>
       </c>
-      <c r="CI64" s="27">
+      <c r="CI64" s="26">
         <v>4540.8727748265028</v>
       </c>
-      <c r="CJ64" s="27">
+      <c r="CJ64" s="26">
         <v>5910.8235295231971</v>
       </c>
-      <c r="CK64" s="27">
+      <c r="CK64" s="26">
         <v>5310.4232112166337</v>
       </c>
-      <c r="CL64" s="27">
+      <c r="CL64" s="26">
         <v>4990.4308913595269</v>
       </c>
-      <c r="CM64" s="27">
-        <v>4437.7532882712831</v>
-      </c>
-      <c r="CN64" s="9"/>
+      <c r="CM64" s="26">
+        <v>4400.3260621793061</v>
+      </c>
+      <c r="CN64" s="26">
+        <v>5455.8898718907412</v>
+      </c>
       <c r="CO64" s="9"/>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
@@ -14719,7 +14801,7 @@
       <c r="EU64" s="9"/>
       <c r="EV64" s="9"/>
     </row>
-    <row r="65" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>22</v>
       </c>
@@ -14975,25 +15057,27 @@
       <c r="CG65" s="11">
         <v>15669.733701611432</v>
       </c>
-      <c r="CH65" s="27">
+      <c r="CH65" s="26">
         <v>13859.661927260095</v>
       </c>
-      <c r="CI65" s="27">
+      <c r="CI65" s="26">
         <v>10657.038399540148</v>
       </c>
-      <c r="CJ65" s="27">
+      <c r="CJ65" s="26">
         <v>18318.581917378004</v>
       </c>
-      <c r="CK65" s="27">
+      <c r="CK65" s="26">
         <v>11579.564707310014</v>
       </c>
-      <c r="CL65" s="27">
+      <c r="CL65" s="26">
         <v>12068.410716317936</v>
       </c>
-      <c r="CM65" s="27">
-        <v>10246.429651297702</v>
-      </c>
-      <c r="CN65" s="9"/>
+      <c r="CM65" s="26">
+        <v>10484.309637726739</v>
+      </c>
+      <c r="CN65" s="26">
+        <v>22598.394051613002</v>
+      </c>
       <c r="CO65" s="9"/>
       <c r="CP65" s="9"/>
       <c r="CQ65" s="9"/>
@@ -15055,7 +15139,7 @@
       <c r="EU65" s="9"/>
       <c r="EV65" s="9"/>
     </row>
-    <row r="66" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>23</v>
       </c>
@@ -15311,25 +15395,27 @@
       <c r="CG66" s="11">
         <v>17676.343876338105</v>
       </c>
-      <c r="CH66" s="27">
+      <c r="CH66" s="26">
         <v>23794.04393919311</v>
       </c>
-      <c r="CI66" s="27">
+      <c r="CI66" s="26">
         <v>15264.997329195765</v>
       </c>
-      <c r="CJ66" s="27">
+      <c r="CJ66" s="26">
         <v>20647.924287581434</v>
       </c>
-      <c r="CK66" s="27">
+      <c r="CK66" s="26">
         <v>20388.886781983383</v>
       </c>
-      <c r="CL66" s="27">
+      <c r="CL66" s="26">
         <v>26209.746666065163</v>
       </c>
-      <c r="CM66" s="27">
-        <v>17495.92148887421</v>
-      </c>
-      <c r="CN66" s="9"/>
+      <c r="CM66" s="26">
+        <v>17502.454313895629</v>
+      </c>
+      <c r="CN66" s="26">
+        <v>20579.614729305962</v>
+      </c>
       <c r="CO66" s="9"/>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
@@ -15391,7 +15477,7 @@
       <c r="EU66" s="9"/>
       <c r="EV66" s="9"/>
     </row>
-    <row r="67" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>24</v>
       </c>
@@ -15647,25 +15733,27 @@
       <c r="CG67" s="8">
         <v>125921.35182434383</v>
       </c>
-      <c r="CH67" s="26">
+      <c r="CH67" s="25">
         <v>141674.87633645334</v>
       </c>
-      <c r="CI67" s="26">
+      <c r="CI67" s="25">
         <v>120650.06090022583</v>
       </c>
-      <c r="CJ67" s="26">
+      <c r="CJ67" s="25">
         <v>107467.11445756625</v>
       </c>
-      <c r="CK67" s="26">
+      <c r="CK67" s="25">
         <v>134593.70641258731</v>
       </c>
-      <c r="CL67" s="26">
+      <c r="CL67" s="25">
         <v>171367.86843764491</v>
       </c>
-      <c r="CM67" s="26">
-        <v>150992.63779875298</v>
-      </c>
-      <c r="CN67" s="9"/>
+      <c r="CM67" s="25">
+        <v>151115.28777457195</v>
+      </c>
+      <c r="CN67" s="25">
+        <v>142882.79001769703</v>
+      </c>
       <c r="CO67" s="9"/>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
@@ -15727,7 +15815,7 @@
       <c r="EU67" s="9"/>
       <c r="EV67" s="9"/>
     </row>
-    <row r="68" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>25</v>
       </c>
@@ -15983,25 +16071,27 @@
       <c r="CG68" s="11">
         <v>117678.66511679393</v>
       </c>
-      <c r="CH68" s="27">
+      <c r="CH68" s="26">
         <v>131262.61758192381</v>
       </c>
-      <c r="CI68" s="27">
+      <c r="CI68" s="26">
         <v>110561.34878757125</v>
       </c>
-      <c r="CJ68" s="27">
+      <c r="CJ68" s="26">
         <v>103265.50445763636</v>
       </c>
-      <c r="CK68" s="27">
+      <c r="CK68" s="26">
         <v>113099.74780220952</v>
       </c>
-      <c r="CL68" s="27">
+      <c r="CL68" s="26">
         <v>147457.13257182576</v>
       </c>
-      <c r="CM68" s="27">
-        <v>126235.79153544444</v>
-      </c>
-      <c r="CN68" s="9"/>
+      <c r="CM68" s="26">
+        <v>126357.96988406673</v>
+      </c>
+      <c r="CN68" s="26">
+        <v>133464.75739376637</v>
+      </c>
       <c r="CO68" s="9"/>
       <c r="CP68" s="9"/>
       <c r="CQ68" s="9"/>
@@ -16063,7 +16153,7 @@
       <c r="EU68" s="9"/>
       <c r="EV68" s="9"/>
     </row>
-    <row r="69" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>26</v>
       </c>
@@ -16319,25 +16409,27 @@
       <c r="CG69" s="11">
         <v>1061.7041018078767</v>
       </c>
-      <c r="CH69" s="27">
+      <c r="CH69" s="26">
         <v>2365.546443771198</v>
       </c>
-      <c r="CI69" s="27">
+      <c r="CI69" s="26">
         <v>16.953855530203825</v>
       </c>
-      <c r="CJ69" s="27">
+      <c r="CJ69" s="26">
         <v>1028.3586195366536</v>
       </c>
-      <c r="CK69" s="27">
+      <c r="CK69" s="26">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="27">
+      <c r="CL69" s="26">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="27">
-        <v>1028.1642858836349</v>
-      </c>
-      <c r="CN69" s="9"/>
+      <c r="CM69" s="26">
+        <v>1027.1601309639761</v>
+      </c>
+      <c r="CN69" s="26">
+        <v>41.930046032713427</v>
+      </c>
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
       <c r="CQ69" s="9"/>
@@ -16399,7 +16491,7 @@
       <c r="EU69" s="9"/>
       <c r="EV69" s="9"/>
     </row>
-    <row r="70" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>27</v>
       </c>
@@ -16655,25 +16747,27 @@
       <c r="CG70" s="11">
         <v>6285.6721429445324</v>
       </c>
-      <c r="CH70" s="27">
+      <c r="CH70" s="26">
         <v>1448.1343027412383</v>
       </c>
-      <c r="CI70" s="27">
+      <c r="CI70" s="26">
         <v>8562.482089070525</v>
       </c>
-      <c r="CJ70" s="27">
+      <c r="CJ70" s="26">
         <v>2239.9525460572077</v>
       </c>
-      <c r="CK70" s="27">
+      <c r="CK70" s="26">
         <v>17011.45122004909</v>
       </c>
-      <c r="CL70" s="27">
+      <c r="CL70" s="26">
         <v>14299.381189960224</v>
       </c>
-      <c r="CM70" s="27">
-        <v>10756.060111386249</v>
-      </c>
-      <c r="CN70" s="9"/>
+      <c r="CM70" s="26">
+        <v>10756.161476932277</v>
+      </c>
+      <c r="CN70" s="26">
+        <v>4421.7667665145091</v>
+      </c>
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
       <c r="CQ70" s="9"/>
@@ -16735,7 +16829,7 @@
       <c r="EU70" s="9"/>
       <c r="EV70" s="9"/>
     </row>
-    <row r="71" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>28</v>
       </c>
@@ -16991,25 +17085,27 @@
       <c r="CG71" s="11">
         <v>895.31046279750126</v>
       </c>
-      <c r="CH71" s="27">
+      <c r="CH71" s="26">
         <v>6598.5780080170871</v>
       </c>
-      <c r="CI71" s="27">
+      <c r="CI71" s="26">
         <v>1509.2761680538472</v>
       </c>
-      <c r="CJ71" s="27">
+      <c r="CJ71" s="26">
         <v>933.29883433603959</v>
       </c>
-      <c r="CK71" s="27">
+      <c r="CK71" s="26">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="27">
+      <c r="CL71" s="26">
         <v>7857.4330842353402</v>
       </c>
-      <c r="CM71" s="27">
-        <v>12972.62186603868</v>
-      </c>
-      <c r="CN71" s="9"/>
+      <c r="CM71" s="26">
+        <v>12973.996282608967</v>
+      </c>
+      <c r="CN71" s="26">
+        <v>4954.3358113834256</v>
+      </c>
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
       <c r="CQ71" s="9"/>
@@ -17071,7 +17167,7 @@
       <c r="EU71" s="9"/>
       <c r="EV71" s="9"/>
     </row>
-    <row r="72" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -17327,25 +17423,27 @@
       <c r="CG72" s="8">
         <v>39056.838552932059</v>
       </c>
-      <c r="CH72" s="26">
+      <c r="CH72" s="25">
         <v>57322.530854881785</v>
       </c>
-      <c r="CI72" s="26">
+      <c r="CI72" s="25">
         <v>77256.6267106991</v>
       </c>
-      <c r="CJ72" s="26">
+      <c r="CJ72" s="25">
         <v>50921.678456479567</v>
       </c>
-      <c r="CK72" s="26">
+      <c r="CK72" s="25">
         <v>41081.070055137694</v>
       </c>
-      <c r="CL72" s="26">
+      <c r="CL72" s="25">
         <v>57662.23318614345</v>
       </c>
-      <c r="CM72" s="26">
-        <v>76194.909308724149</v>
-      </c>
-      <c r="CN72" s="9"/>
+      <c r="CM72" s="25">
+        <v>76955.64956547285</v>
+      </c>
+      <c r="CN72" s="25">
+        <v>47560.824690466747</v>
+      </c>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
@@ -17407,7 +17505,7 @@
       <c r="EU72" s="9"/>
       <c r="EV72" s="9"/>
     </row>
-    <row r="73" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>30</v>
       </c>
@@ -17663,25 +17761,27 @@
       <c r="CG73" s="11">
         <v>3399.7361086404549</v>
       </c>
-      <c r="CH73" s="27">
+      <c r="CH73" s="26">
         <v>4859.84384366423</v>
       </c>
-      <c r="CI73" s="27">
+      <c r="CI73" s="26">
         <v>8344.0239500626049</v>
       </c>
-      <c r="CJ73" s="27">
+      <c r="CJ73" s="26">
         <v>3853.6409002357977</v>
       </c>
-      <c r="CK73" s="27">
+      <c r="CK73" s="26">
         <v>2432.6444929756008</v>
       </c>
-      <c r="CL73" s="27">
+      <c r="CL73" s="26">
         <v>4683.5995618951329</v>
       </c>
-      <c r="CM73" s="27">
-        <v>6644.4795639660415</v>
-      </c>
-      <c r="CN73" s="9"/>
+      <c r="CM73" s="26">
+        <v>6590.1993565525727</v>
+      </c>
+      <c r="CN73" s="26">
+        <v>3731.763516923615</v>
+      </c>
       <c r="CO73" s="9"/>
       <c r="CP73" s="9"/>
       <c r="CQ73" s="9"/>
@@ -17743,7 +17843,7 @@
       <c r="EU73" s="9"/>
       <c r="EV73" s="9"/>
     </row>
-    <row r="74" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>31</v>
       </c>
@@ -17999,25 +18099,27 @@
       <c r="CG74" s="11">
         <v>6270.4666236352759</v>
       </c>
-      <c r="CH74" s="27">
+      <c r="CH74" s="26">
         <v>11258.642650803366</v>
       </c>
-      <c r="CI74" s="27">
+      <c r="CI74" s="26">
         <v>13051.603763302017</v>
       </c>
-      <c r="CJ74" s="27">
+      <c r="CJ74" s="26">
         <v>7162.8336538555195</v>
       </c>
-      <c r="CK74" s="27">
+      <c r="CK74" s="26">
         <v>6943.62473199126</v>
       </c>
-      <c r="CL74" s="27">
+      <c r="CL74" s="26">
         <v>11434.698648295172</v>
       </c>
-      <c r="CM74" s="27">
-        <v>11876.440718585716</v>
-      </c>
-      <c r="CN74" s="9"/>
+      <c r="CM74" s="26">
+        <v>11812.849070937744</v>
+      </c>
+      <c r="CN74" s="26">
+        <v>6667.4934179135344</v>
+      </c>
       <c r="CO74" s="9"/>
       <c r="CP74" s="9"/>
       <c r="CQ74" s="9"/>
@@ -18079,7 +18181,7 @@
       <c r="EU74" s="9"/>
       <c r="EV74" s="9"/>
     </row>
-    <row r="75" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>32</v>
       </c>
@@ -18335,25 +18437,27 @@
       <c r="CG75" s="11">
         <v>19075.895362324642</v>
       </c>
-      <c r="CH75" s="27">
+      <c r="CH75" s="26">
         <v>23213.513806998541</v>
       </c>
-      <c r="CI75" s="27">
+      <c r="CI75" s="26">
         <v>39711.128326152975</v>
       </c>
-      <c r="CJ75" s="27">
+      <c r="CJ75" s="26">
         <v>30484.388651556059</v>
       </c>
-      <c r="CK75" s="27">
+      <c r="CK75" s="26">
         <v>21824.17496025905</v>
       </c>
-      <c r="CL75" s="27">
+      <c r="CL75" s="26">
         <v>27542.821618566464</v>
       </c>
-      <c r="CM75" s="27">
-        <v>42392.391460412975</v>
-      </c>
-      <c r="CN75" s="9"/>
+      <c r="CM75" s="26">
+        <v>42566.01365475796</v>
+      </c>
+      <c r="CN75" s="26">
+        <v>27838.497114343969</v>
+      </c>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
@@ -18415,7 +18519,7 @@
       <c r="EU75" s="9"/>
       <c r="EV75" s="9"/>
     </row>
-    <row r="76" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>33</v>
       </c>
@@ -18671,25 +18775,27 @@
       <c r="CG76" s="11">
         <v>10310.740458331686</v>
       </c>
-      <c r="CH76" s="27">
+      <c r="CH76" s="26">
         <v>17990.530553415647</v>
       </c>
-      <c r="CI76" s="27">
+      <c r="CI76" s="26">
         <v>16149.870671181499</v>
       </c>
-      <c r="CJ76" s="27">
+      <c r="CJ76" s="26">
         <v>9420.8152508321909</v>
       </c>
-      <c r="CK76" s="27">
+      <c r="CK76" s="26">
         <v>9880.6258699117825</v>
       </c>
-      <c r="CL76" s="27">
+      <c r="CL76" s="26">
         <v>14001.113357386681</v>
       </c>
-      <c r="CM76" s="27">
-        <v>15281.597565759414</v>
-      </c>
-      <c r="CN76" s="9"/>
+      <c r="CM76" s="26">
+        <v>15986.587483224583</v>
+      </c>
+      <c r="CN76" s="26">
+        <v>9323.0706412856343</v>
+      </c>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
@@ -18751,7 +18857,7 @@
       <c r="EU76" s="9"/>
       <c r="EV76" s="9"/>
     </row>
-    <row r="77" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -18904,7 +19010,7 @@
       <c r="EU77" s="9"/>
       <c r="EV77" s="9"/>
     </row>
-    <row r="78" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>34</v>
       </c>
@@ -19176,9 +19282,11 @@
         <v>336852.76160033734</v>
       </c>
       <c r="CM78" s="13">
-        <v>297160.72747036611</v>
-      </c>
-      <c r="CN78" s="9"/>
+        <v>297712.8848970643</v>
+      </c>
+      <c r="CN78" s="13">
+        <v>292078.07415910176</v>
+      </c>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
@@ -19240,7 +19348,7 @@
       <c r="EU78" s="9"/>
       <c r="EV78" s="9"/>
     </row>
-    <row r="79" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -19332,8 +19440,9 @@
       <c r="CK79" s="14"/>
       <c r="CL79" s="14"/>
       <c r="CM79" s="14"/>
+      <c r="CN79" s="14"/>
     </row>
-    <row r="80" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>0</v>
       </c>
@@ -19359,7 +19468,7 @@
       <c r="CC80" s="16"/>
       <c r="CG80" s="16"/>
     </row>
-    <row r="81" spans="1:152" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:152" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -19513,7 +19622,7 @@
       <c r="EU81" s="18"/>
       <c r="EV81" s="18"/>
     </row>
-    <row r="82" spans="1:152" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:152" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -19667,174 +19776,175 @@
       <c r="EU82" s="18"/>
       <c r="EV82" s="18"/>
     </row>
-    <row r="83" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="29" t="s">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="29" t="s">
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="29" t="s">
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="29" t="s">
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="29" t="s">
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="29" t="s">
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="30"/>
-      <c r="AB91" s="30"/>
-      <c r="AC91" s="30"/>
-      <c r="AD91" s="29" t="s">
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="30"/>
-      <c r="AF91" s="30"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="29" t="s">
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="29"/>
+      <c r="AH91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="30"/>
-      <c r="AJ91" s="30"/>
-      <c r="AK91" s="30"/>
-      <c r="AL91" s="29" t="s">
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="30"/>
-      <c r="AN91" s="30"/>
-      <c r="AO91" s="30"/>
-      <c r="AP91" s="29" t="s">
+      <c r="AM91" s="29"/>
+      <c r="AN91" s="29"/>
+      <c r="AO91" s="29"/>
+      <c r="AP91" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="30"/>
-      <c r="AR91" s="30"/>
-      <c r="AS91" s="30"/>
-      <c r="AT91" s="29" t="s">
+      <c r="AQ91" s="29"/>
+      <c r="AR91" s="29"/>
+      <c r="AS91" s="29"/>
+      <c r="AT91" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="30"/>
-      <c r="AV91" s="30"/>
-      <c r="AW91" s="30"/>
-      <c r="AX91" s="29" t="s">
+      <c r="AU91" s="29"/>
+      <c r="AV91" s="29"/>
+      <c r="AW91" s="29"/>
+      <c r="AX91" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="30"/>
-      <c r="AZ91" s="30"/>
-      <c r="BA91" s="30"/>
-      <c r="BB91" s="29" t="s">
+      <c r="AY91" s="29"/>
+      <c r="AZ91" s="29"/>
+      <c r="BA91" s="29"/>
+      <c r="BB91" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="30"/>
-      <c r="BD91" s="30"/>
-      <c r="BE91" s="30"/>
-      <c r="BF91" s="29" t="s">
+      <c r="BC91" s="29"/>
+      <c r="BD91" s="29"/>
+      <c r="BE91" s="29"/>
+      <c r="BF91" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="30"/>
-      <c r="BH91" s="30"/>
-      <c r="BI91" s="30"/>
-      <c r="BJ91" s="29" t="s">
+      <c r="BG91" s="29"/>
+      <c r="BH91" s="29"/>
+      <c r="BI91" s="29"/>
+      <c r="BJ91" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="30"/>
-      <c r="BL91" s="30"/>
-      <c r="BM91" s="30"/>
-      <c r="BN91" s="29" t="s">
+      <c r="BK91" s="29"/>
+      <c r="BL91" s="29"/>
+      <c r="BM91" s="29"/>
+      <c r="BN91" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="30"/>
-      <c r="BP91" s="30"/>
-      <c r="BQ91" s="30"/>
-      <c r="BR91" s="29" t="s">
+      <c r="BO91" s="29"/>
+      <c r="BP91" s="29"/>
+      <c r="BQ91" s="29"/>
+      <c r="BR91" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="30"/>
-      <c r="BT91" s="30"/>
-      <c r="BU91" s="30"/>
-      <c r="BV91" s="29" t="s">
+      <c r="BS91" s="29"/>
+      <c r="BT91" s="29"/>
+      <c r="BU91" s="29"/>
+      <c r="BV91" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="30"/>
-      <c r="BX91" s="30"/>
-      <c r="BY91" s="30"/>
-      <c r="BZ91" s="29" t="s">
+      <c r="BW91" s="29"/>
+      <c r="BX91" s="29"/>
+      <c r="BY91" s="29"/>
+      <c r="BZ91" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="30"/>
-      <c r="CB91" s="30"/>
-      <c r="CC91" s="30"/>
-      <c r="CD91" s="29" t="s">
+      <c r="CA91" s="29"/>
+      <c r="CB91" s="29"/>
+      <c r="CC91" s="29"/>
+      <c r="CD91" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="30"/>
-      <c r="CF91" s="30"/>
-      <c r="CG91" s="30"/>
-      <c r="CH91" s="29" t="s">
+      <c r="CE91" s="29"/>
+      <c r="CF91" s="29"/>
+      <c r="CG91" s="29"/>
+      <c r="CH91" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="CI91" s="29"/>
-      <c r="CJ91" s="28"/>
-      <c r="CK91" s="28"/>
-      <c r="CL91" s="25"/>
-      <c r="CM91" s="25"/>
+      <c r="CI91" s="30"/>
+      <c r="CJ91" s="30"/>
+      <c r="CK91" s="27"/>
+      <c r="CL91" s="30"/>
+      <c r="CM91" s="30"/>
+      <c r="CN91" s="27"/>
     </row>
-    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
@@ -20096,15 +20206,18 @@
       <c r="CI92" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CJ92" s="17"/>
+      <c r="CJ92" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="CK92" s="17"/>
       <c r="CL92" s="17"/>
-      <c r="CM92" s="6"/>
+      <c r="CM92" s="17"/>
+      <c r="CN92" s="17"/>
     </row>
-    <row r="93" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
     </row>
-    <row r="94" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -20364,13 +20477,15 @@
         <v>5.9563864182373294</v>
       </c>
       <c r="CI94" s="18">
-        <v>4.4113542437834781</v>
-      </c>
-      <c r="CJ94" s="18"/>
+        <v>2.6161754643462274</v>
+      </c>
+      <c r="CJ94" s="18">
+        <v>1.2583181190109087</v>
+      </c>
       <c r="CK94" s="18"/>
       <c r="CL94" s="18"/>
       <c r="CM94" s="18"/>
-      <c r="CN94" s="9"/>
+      <c r="CN94" s="18"/>
       <c r="CO94" s="9"/>
       <c r="CP94" s="9"/>
       <c r="CQ94" s="9"/>
@@ -20427,7 +20542,7 @@
       <c r="EP94" s="9"/>
       <c r="EQ94" s="9"/>
     </row>
-    <row r="95" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
@@ -20687,13 +20802,15 @@
         <v>-53.352764125926093</v>
       </c>
       <c r="CI95" s="18">
-        <v>-37.828453277431926</v>
-      </c>
-      <c r="CJ95" s="18"/>
+        <v>-37.820869722104511</v>
+      </c>
+      <c r="CJ95" s="18">
+        <v>-33.115383157707257</v>
+      </c>
       <c r="CK95" s="18"/>
       <c r="CL95" s="18"/>
       <c r="CM95" s="18"/>
-      <c r="CN95" s="9"/>
+      <c r="CN95" s="18"/>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -20750,7 +20867,7 @@
       <c r="EP95" s="9"/>
       <c r="EQ95" s="9"/>
     </row>
-    <row r="96" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>12</v>
       </c>
@@ -21010,13 +21127,15 @@
         <v>46.768244217420147</v>
       </c>
       <c r="CI96" s="18">
-        <v>-5.2486625749181144</v>
-      </c>
-      <c r="CJ96" s="18"/>
+        <v>-4.9762495509968971</v>
+      </c>
+      <c r="CJ96" s="18">
+        <v>12.702922100477181</v>
+      </c>
       <c r="CK96" s="18"/>
       <c r="CL96" s="18"/>
       <c r="CM96" s="18"/>
-      <c r="CN96" s="9"/>
+      <c r="CN96" s="18"/>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
@@ -21073,7 +21192,7 @@
       <c r="EP96" s="9"/>
       <c r="EQ96" s="9"/>
     </row>
-    <row r="97" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>13</v>
       </c>
@@ -21333,13 +21452,15 @@
         <v>37.325442809095932</v>
       </c>
       <c r="CI97" s="18">
-        <v>40.042470122426863</v>
-      </c>
-      <c r="CJ97" s="18"/>
+        <v>39.150393492462655</v>
+      </c>
+      <c r="CJ97" s="18">
+        <v>20.567235119109199</v>
+      </c>
       <c r="CK97" s="18"/>
       <c r="CL97" s="18"/>
       <c r="CM97" s="18"/>
-      <c r="CN97" s="9"/>
+      <c r="CN97" s="18"/>
       <c r="CO97" s="9"/>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
@@ -21396,7 +21517,7 @@
       <c r="EP97" s="9"/>
       <c r="EQ97" s="9"/>
     </row>
-    <row r="98" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
         <v>14</v>
       </c>
@@ -21656,13 +21777,15 @@
         <v>-12.290883029437509</v>
       </c>
       <c r="CI98" s="18">
-        <v>6.3671763785292654</v>
-      </c>
-      <c r="CJ98" s="18"/>
+        <v>6.2638597947185986</v>
+      </c>
+      <c r="CJ98" s="18">
+        <v>23.333766924244472</v>
+      </c>
       <c r="CK98" s="18"/>
       <c r="CL98" s="18"/>
       <c r="CM98" s="18"/>
-      <c r="CN98" s="9"/>
+      <c r="CN98" s="18"/>
       <c r="CO98" s="9"/>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
@@ -21719,7 +21842,7 @@
       <c r="EP98" s="9"/>
       <c r="EQ98" s="9"/>
     </row>
-    <row r="99" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
         <v>15</v>
       </c>
@@ -21979,13 +22102,15 @@
         <v>38.803435698953251</v>
       </c>
       <c r="CI99" s="18">
-        <v>-2.9139646010445404</v>
-      </c>
-      <c r="CJ99" s="18"/>
+        <v>-19.366687495187435</v>
+      </c>
+      <c r="CJ99" s="18">
+        <v>-21.959794882150391</v>
+      </c>
       <c r="CK99" s="18"/>
       <c r="CL99" s="18"/>
       <c r="CM99" s="18"/>
-      <c r="CN99" s="9"/>
+      <c r="CN99" s="18"/>
       <c r="CO99" s="9"/>
       <c r="CP99" s="9"/>
       <c r="CQ99" s="9"/>
@@ -22042,7 +22167,7 @@
       <c r="EP99" s="9"/>
       <c r="EQ99" s="9"/>
     </row>
-    <row r="100" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
         <v>16</v>
       </c>
@@ -22302,13 +22427,15 @@
         <v>4.7067247940396584</v>
       </c>
       <c r="CI100" s="18">
-        <v>17.471416454400597</v>
-      </c>
-      <c r="CJ100" s="18"/>
+        <v>15.77220481018351</v>
+      </c>
+      <c r="CJ100" s="18">
+        <v>4.3563968790397496</v>
+      </c>
       <c r="CK100" s="18"/>
       <c r="CL100" s="18"/>
       <c r="CM100" s="18"/>
-      <c r="CN100" s="9"/>
+      <c r="CN100" s="18"/>
       <c r="CO100" s="9"/>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
@@ -22365,7 +22492,7 @@
       <c r="EP100" s="9"/>
       <c r="EQ100" s="9"/>
     </row>
-    <row r="101" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>17</v>
       </c>
@@ -22625,13 +22752,15 @@
         <v>-51.910426577165616</v>
       </c>
       <c r="CI101" s="18">
-        <v>23.556064741537156</v>
-      </c>
-      <c r="CJ101" s="18"/>
+        <v>23.520488319364603</v>
+      </c>
+      <c r="CJ101" s="18">
+        <v>-52.274394054049736</v>
+      </c>
       <c r="CK101" s="18"/>
       <c r="CL101" s="18"/>
       <c r="CM101" s="18"/>
-      <c r="CN101" s="9"/>
+      <c r="CN101" s="18"/>
       <c r="CO101" s="9"/>
       <c r="CP101" s="9"/>
       <c r="CQ101" s="9"/>
@@ -22688,7 +22817,7 @@
       <c r="EP101" s="9"/>
       <c r="EQ101" s="9"/>
     </row>
-    <row r="102" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
         <v>18</v>
       </c>
@@ -22948,13 +23077,15 @@
         <v>16.653104166163388</v>
       </c>
       <c r="CI102" s="18">
-        <v>2.3265359143335331</v>
-      </c>
-      <c r="CJ102" s="18"/>
+        <v>2.6013561971939652</v>
+      </c>
+      <c r="CJ102" s="18">
+        <v>16.168373227607518</v>
+      </c>
       <c r="CK102" s="18"/>
       <c r="CL102" s="18"/>
       <c r="CM102" s="18"/>
-      <c r="CN102" s="9"/>
+      <c r="CN102" s="18"/>
       <c r="CO102" s="9"/>
       <c r="CP102" s="9"/>
       <c r="CQ102" s="9"/>
@@ -23011,7 +23142,7 @@
       <c r="EP102" s="9"/>
       <c r="EQ102" s="9"/>
     </row>
-    <row r="103" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -23271,13 +23402,15 @@
         <v>11.174851260938894</v>
       </c>
       <c r="CI103" s="18">
-        <v>23.18901996496399</v>
-      </c>
-      <c r="CJ103" s="18"/>
+        <v>23.307675698351531</v>
+      </c>
+      <c r="CJ103" s="18">
+        <v>27.278225504652795</v>
+      </c>
       <c r="CK103" s="18"/>
       <c r="CL103" s="18"/>
       <c r="CM103" s="18"/>
-      <c r="CN103" s="9"/>
+      <c r="CN103" s="18"/>
       <c r="CO103" s="9"/>
       <c r="CP103" s="9"/>
       <c r="CQ103" s="9"/>
@@ -23334,7 +23467,7 @@
       <c r="EP103" s="9"/>
       <c r="EQ103" s="9"/>
     </row>
-    <row r="104" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
         <v>20</v>
       </c>
@@ -23594,13 +23727,15 @@
         <v>20.99462595149015</v>
       </c>
       <c r="CI104" s="18">
-        <v>40.163787680747674</v>
-      </c>
-      <c r="CJ104" s="18"/>
+        <v>38.057103178436762</v>
+      </c>
+      <c r="CJ104" s="18">
+        <v>29.596603918338786</v>
+      </c>
       <c r="CK104" s="18"/>
       <c r="CL104" s="18"/>
       <c r="CM104" s="18"/>
-      <c r="CN104" s="9"/>
+      <c r="CN104" s="18"/>
       <c r="CO104" s="9"/>
       <c r="CP104" s="9"/>
       <c r="CQ104" s="9"/>
@@ -23657,7 +23792,7 @@
       <c r="EP104" s="9"/>
       <c r="EQ104" s="9"/>
     </row>
-    <row r="105" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>21</v>
       </c>
@@ -23917,13 +24052,15 @@
         <v>17.693544952075626</v>
       </c>
       <c r="CI105" s="18">
-        <v>11.539689858928043</v>
-      </c>
-      <c r="CJ105" s="18"/>
+        <v>10.952408830470532</v>
+      </c>
+      <c r="CJ105" s="18">
+        <v>2.8174858210524292</v>
+      </c>
       <c r="CK105" s="18"/>
       <c r="CL105" s="18"/>
       <c r="CM105" s="18"/>
-      <c r="CN105" s="9"/>
+      <c r="CN105" s="18"/>
       <c r="CO105" s="9"/>
       <c r="CP105" s="9"/>
       <c r="CQ105" s="9"/>
@@ -23980,7 +24117,7 @@
       <c r="EP105" s="9"/>
       <c r="EQ105" s="9"/>
     </row>
-    <row r="106" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
         <v>22</v>
       </c>
@@ -24240,13 +24377,15 @@
         <v>-2.6789244444356655</v>
       </c>
       <c r="CI106" s="18">
-        <v>12.390278613980584</v>
-      </c>
-      <c r="CJ106" s="18"/>
+        <v>14.206009255546689</v>
+      </c>
+      <c r="CJ106" s="18">
+        <v>49.920430666293555</v>
+      </c>
       <c r="CK106" s="18"/>
       <c r="CL106" s="18"/>
       <c r="CM106" s="18"/>
-      <c r="CN106" s="9"/>
+      <c r="CN106" s="18"/>
       <c r="CO106" s="9"/>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
@@ -24303,7 +24442,7 @@
       <c r="EP106" s="9"/>
       <c r="EQ106" s="9"/>
     </row>
-    <row r="107" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
         <v>23</v>
       </c>
@@ -24563,13 +24702,15 @@
         <v>14.868288927243213</v>
       </c>
       <c r="CI107" s="18">
-        <v>27.371565109606237</v>
-      </c>
-      <c r="CJ107" s="18"/>
+        <v>27.441307735300342</v>
+      </c>
+      <c r="CJ107" s="18">
+        <v>12.938600406597089</v>
+      </c>
       <c r="CK107" s="18"/>
       <c r="CL107" s="18"/>
       <c r="CM107" s="18"/>
-      <c r="CN107" s="9"/>
+      <c r="CN107" s="18"/>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -24626,7 +24767,7 @@
       <c r="EP107" s="9"/>
       <c r="EQ107" s="9"/>
     </row>
-    <row r="108" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>24</v>
       </c>
@@ -24886,13 +25027,15 @@
         <v>31.593207500477547</v>
       </c>
       <c r="CI108" s="18">
-        <v>40.378036752045546</v>
-      </c>
-      <c r="CJ108" s="18"/>
+        <v>40.427767136317357</v>
+      </c>
+      <c r="CJ108" s="18">
+        <v>54.201816310695762</v>
+      </c>
       <c r="CK108" s="18"/>
       <c r="CL108" s="18"/>
       <c r="CM108" s="18"/>
-      <c r="CN108" s="9"/>
+      <c r="CN108" s="18"/>
       <c r="CO108" s="9"/>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
@@ -24949,7 +25092,7 @@
       <c r="EP108" s="9"/>
       <c r="EQ108" s="9"/>
     </row>
-    <row r="109" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>25</v>
       </c>
@@ -25209,13 +25352,15 @@
         <v>20.040082463289238</v>
       </c>
       <c r="CI109" s="18">
-        <v>28.473737210212391</v>
-      </c>
-      <c r="CJ109" s="18"/>
+        <v>28.527224244693201</v>
+      </c>
+      <c r="CJ109" s="18">
+        <v>49.450261547145459</v>
+      </c>
       <c r="CK109" s="18"/>
       <c r="CL109" s="18"/>
       <c r="CM109" s="18"/>
-      <c r="CN109" s="9"/>
+      <c r="CN109" s="18"/>
       <c r="CO109" s="9"/>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
@@ -25272,7 +25417,7 @@
       <c r="EP109" s="9"/>
       <c r="EQ109" s="9"/>
     </row>
-    <row r="110" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>26</v>
       </c>
@@ -25531,14 +25676,16 @@
       <c r="CH110" s="18">
         <v>-20.097370315257223</v>
       </c>
-      <c r="CI110" s="20" t="s">
+      <c r="CI110" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="CJ110" s="18"/>
+      <c r="CJ110" s="18">
+        <v>-95.38399893832414</v>
+      </c>
       <c r="CK110" s="18"/>
       <c r="CL110" s="18"/>
       <c r="CM110" s="18"/>
-      <c r="CN110" s="9"/>
+      <c r="CN110" s="18"/>
       <c r="CO110" s="9"/>
       <c r="CP110" s="9"/>
       <c r="CQ110" s="9"/>
@@ -25595,7 +25742,7 @@
       <c r="EP110" s="9"/>
       <c r="EQ110" s="9"/>
     </row>
-    <row r="111" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>27</v>
       </c>
@@ -25851,17 +25998,19 @@
       <c r="CG111" s="18">
         <v>193.31762104050796</v>
       </c>
-      <c r="CH111" s="20" t="s">
+      <c r="CH111" s="28" t="s">
         <v>42</v>
       </c>
       <c r="CI111" s="18">
-        <v>41.401889273209434</v>
-      </c>
-      <c r="CJ111" s="18"/>
+        <v>41.403297066243425</v>
+      </c>
+      <c r="CJ111" s="18">
+        <v>123.67465404412695</v>
+      </c>
       <c r="CK111" s="18"/>
       <c r="CL111" s="18"/>
       <c r="CM111" s="18"/>
-      <c r="CN111" s="9"/>
+      <c r="CN111" s="18"/>
       <c r="CO111" s="9"/>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
@@ -25918,7 +26067,7 @@
       <c r="EP111" s="9"/>
       <c r="EQ111" s="9"/>
     </row>
-    <row r="112" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>28</v>
       </c>
@@ -26178,13 +26327,15 @@
         <v>27.795555644041741</v>
       </c>
       <c r="CI112" s="18">
-        <v>867.31816433773417</v>
-      </c>
-      <c r="CJ112" s="18"/>
+        <v>867.42064633686959</v>
+      </c>
+      <c r="CJ112" s="18">
+        <v>603.74100696877326</v>
+      </c>
       <c r="CK112" s="18"/>
       <c r="CL112" s="18"/>
       <c r="CM112" s="18"/>
-      <c r="CN112" s="9"/>
+      <c r="CN112" s="18"/>
       <c r="CO112" s="9"/>
       <c r="CP112" s="9"/>
       <c r="CQ112" s="9"/>
@@ -26241,7 +26392,7 @@
       <c r="EP112" s="9"/>
       <c r="EQ112" s="9"/>
     </row>
-    <row r="113" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -26501,13 +26652,15 @@
         <v>11.628904628439798</v>
       </c>
       <c r="CI113" s="18">
-        <v>12.571980500790431</v>
-      </c>
-      <c r="CJ113" s="18"/>
+        <v>14.351529523611688</v>
+      </c>
+      <c r="CJ113" s="18">
+        <v>7.8926388333091921</v>
+      </c>
       <c r="CK113" s="18"/>
       <c r="CL113" s="18"/>
       <c r="CM113" s="18"/>
-      <c r="CN113" s="9"/>
+      <c r="CN113" s="18"/>
       <c r="CO113" s="9"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
@@ -26564,7 +26717,7 @@
       <c r="EP113" s="9"/>
       <c r="EQ113" s="9"/>
     </row>
-    <row r="114" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>30</v>
       </c>
@@ -26824,13 +26977,15 @@
         <v>7.0251398221914201</v>
       </c>
       <c r="CI114" s="18">
-        <v>-5.9450210381599931</v>
-      </c>
-      <c r="CJ114" s="18"/>
+        <v>-6.8203463366640023</v>
+      </c>
+      <c r="CJ114" s="18">
+        <v>12.993314768941545</v>
+      </c>
       <c r="CK114" s="18"/>
       <c r="CL114" s="18"/>
       <c r="CM114" s="18"/>
-      <c r="CN114" s="9"/>
+      <c r="CN114" s="18"/>
       <c r="CO114" s="9"/>
       <c r="CP114" s="9"/>
       <c r="CQ114" s="9"/>
@@ -26887,7 +27042,7 @@
       <c r="EP114" s="9"/>
       <c r="EQ114" s="9"/>
     </row>
-    <row r="115" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>31</v>
       </c>
@@ -27147,13 +27302,15 @@
         <v>13.446705979324719</v>
       </c>
       <c r="CI115" s="18">
-        <v>5.9412070099176333</v>
-      </c>
-      <c r="CJ115" s="18"/>
+        <v>5.1748539158880789</v>
+      </c>
+      <c r="CJ115" s="18">
+        <v>6.2135861557405292</v>
+      </c>
       <c r="CK115" s="18"/>
       <c r="CL115" s="18"/>
       <c r="CM115" s="18"/>
-      <c r="CN115" s="9"/>
+      <c r="CN115" s="18"/>
       <c r="CO115" s="9"/>
       <c r="CP115" s="9"/>
       <c r="CQ115" s="9"/>
@@ -27210,7 +27367,7 @@
       <c r="EP115" s="9"/>
       <c r="EQ115" s="9"/>
     </row>
-    <row r="116" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>32</v>
       </c>
@@ -27470,13 +27627,15 @@
         <v>28.39334231880872</v>
       </c>
       <c r="CI116" s="18">
-        <v>19.813225745545651</v>
-      </c>
-      <c r="CJ116" s="18"/>
+        <v>20.813758731072298</v>
+      </c>
+      <c r="CJ116" s="18">
+        <v>4.6041702042654009</v>
+      </c>
       <c r="CK116" s="18"/>
       <c r="CL116" s="18"/>
       <c r="CM116" s="18"/>
-      <c r="CN116" s="9"/>
+      <c r="CN116" s="18"/>
       <c r="CO116" s="9"/>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
@@ -27533,7 +27692,7 @@
       <c r="EP116" s="9"/>
       <c r="EQ116" s="9"/>
     </row>
-    <row r="117" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>33</v>
       </c>
@@ -27793,13 +27952,15 @@
         <v>-13.284304718807661</v>
       </c>
       <c r="CI117" s="18">
-        <v>10.183238238363273</v>
-      </c>
-      <c r="CJ117" s="18"/>
+        <v>15.615035863688092</v>
+      </c>
+      <c r="CJ117" s="18">
+        <v>17.63807589034802</v>
+      </c>
       <c r="CK117" s="18"/>
       <c r="CL117" s="18"/>
       <c r="CM117" s="18"/>
-      <c r="CN117" s="9"/>
+      <c r="CN117" s="18"/>
       <c r="CO117" s="9"/>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
@@ -27856,7 +28017,7 @@
       <c r="EP117" s="9"/>
       <c r="EQ117" s="9"/>
     </row>
-    <row r="118" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -28004,7 +28165,7 @@
       <c r="EP118" s="9"/>
       <c r="EQ118" s="9"/>
     </row>
-    <row r="119" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
         <v>34</v>
       </c>
@@ -28264,13 +28425,15 @@
         <v>19.014574867620752</v>
       </c>
       <c r="CI119" s="23">
-        <v>24.478854098036848</v>
-      </c>
-      <c r="CJ119" s="23"/>
+        <v>24.55493969190357</v>
+      </c>
+      <c r="CJ119" s="23">
+        <v>30.409032557328743</v>
+      </c>
       <c r="CK119" s="23"/>
       <c r="CL119" s="23"/>
       <c r="CM119" s="23"/>
-      <c r="CN119" s="9"/>
+      <c r="CN119" s="23"/>
       <c r="CO119" s="9"/>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
@@ -28327,7 +28490,7 @@
       <c r="EP119" s="9"/>
       <c r="EQ119" s="9"/>
     </row>
-    <row r="120" spans="1:147" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:147" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -28419,13 +28582,14 @@
       <c r="CK120" s="14"/>
       <c r="CL120" s="14"/>
       <c r="CM120" s="14"/>
+      <c r="CN120" s="14"/>
     </row>
-    <row r="121" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>0</v>
       </c>
@@ -28576,7 +28740,7 @@
       <c r="EP122" s="9"/>
       <c r="EQ122" s="9"/>
     </row>
-    <row r="123" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
@@ -28724,174 +28888,175 @@
       <c r="EP123" s="9"/>
       <c r="EQ123" s="9"/>
     </row>
-    <row r="124" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="130" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="29" t="s">
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
-      <c r="I132" s="30"/>
-      <c r="J132" s="29" t="s">
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="30"/>
-      <c r="L132" s="30"/>
-      <c r="M132" s="30"/>
-      <c r="N132" s="29" t="s">
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="30"/>
-      <c r="P132" s="30"/>
-      <c r="Q132" s="30"/>
-      <c r="R132" s="29" t="s">
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
+      <c r="R132" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="30"/>
-      <c r="T132" s="30"/>
-      <c r="U132" s="30"/>
-      <c r="V132" s="29" t="s">
+      <c r="S132" s="29"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="29"/>
+      <c r="V132" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="30"/>
-      <c r="X132" s="30"/>
-      <c r="Y132" s="30"/>
-      <c r="Z132" s="29" t="s">
+      <c r="W132" s="29"/>
+      <c r="X132" s="29"/>
+      <c r="Y132" s="29"/>
+      <c r="Z132" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="30"/>
-      <c r="AB132" s="30"/>
-      <c r="AC132" s="30"/>
-      <c r="AD132" s="29" t="s">
+      <c r="AA132" s="29"/>
+      <c r="AB132" s="29"/>
+      <c r="AC132" s="29"/>
+      <c r="AD132" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="30"/>
-      <c r="AF132" s="30"/>
-      <c r="AG132" s="30"/>
-      <c r="AH132" s="29" t="s">
+      <c r="AE132" s="29"/>
+      <c r="AF132" s="29"/>
+      <c r="AG132" s="29"/>
+      <c r="AH132" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="30"/>
-      <c r="AJ132" s="30"/>
-      <c r="AK132" s="30"/>
-      <c r="AL132" s="29" t="s">
+      <c r="AI132" s="29"/>
+      <c r="AJ132" s="29"/>
+      <c r="AK132" s="29"/>
+      <c r="AL132" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="30"/>
-      <c r="AN132" s="30"/>
-      <c r="AO132" s="30"/>
-      <c r="AP132" s="29" t="s">
+      <c r="AM132" s="29"/>
+      <c r="AN132" s="29"/>
+      <c r="AO132" s="29"/>
+      <c r="AP132" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="30"/>
-      <c r="AR132" s="30"/>
-      <c r="AS132" s="30"/>
-      <c r="AT132" s="29" t="s">
+      <c r="AQ132" s="29"/>
+      <c r="AR132" s="29"/>
+      <c r="AS132" s="29"/>
+      <c r="AT132" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="30"/>
-      <c r="AV132" s="30"/>
-      <c r="AW132" s="30"/>
-      <c r="AX132" s="29" t="s">
+      <c r="AU132" s="29"/>
+      <c r="AV132" s="29"/>
+      <c r="AW132" s="29"/>
+      <c r="AX132" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="30"/>
-      <c r="AZ132" s="30"/>
-      <c r="BA132" s="30"/>
-      <c r="BB132" s="29" t="s">
+      <c r="AY132" s="29"/>
+      <c r="AZ132" s="29"/>
+      <c r="BA132" s="29"/>
+      <c r="BB132" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="30"/>
-      <c r="BD132" s="30"/>
-      <c r="BE132" s="30"/>
-      <c r="BF132" s="29" t="s">
+      <c r="BC132" s="29"/>
+      <c r="BD132" s="29"/>
+      <c r="BE132" s="29"/>
+      <c r="BF132" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="30"/>
-      <c r="BH132" s="30"/>
-      <c r="BI132" s="30"/>
-      <c r="BJ132" s="29" t="s">
+      <c r="BG132" s="29"/>
+      <c r="BH132" s="29"/>
+      <c r="BI132" s="29"/>
+      <c r="BJ132" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="30"/>
-      <c r="BL132" s="30"/>
-      <c r="BM132" s="30"/>
-      <c r="BN132" s="29" t="s">
+      <c r="BK132" s="29"/>
+      <c r="BL132" s="29"/>
+      <c r="BM132" s="29"/>
+      <c r="BN132" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="30"/>
-      <c r="BP132" s="30"/>
-      <c r="BQ132" s="30"/>
-      <c r="BR132" s="29" t="s">
+      <c r="BO132" s="29"/>
+      <c r="BP132" s="29"/>
+      <c r="BQ132" s="29"/>
+      <c r="BR132" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="30"/>
-      <c r="BT132" s="30"/>
-      <c r="BU132" s="30"/>
-      <c r="BV132" s="29" t="s">
+      <c r="BS132" s="29"/>
+      <c r="BT132" s="29"/>
+      <c r="BU132" s="29"/>
+      <c r="BV132" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="30"/>
-      <c r="BX132" s="30"/>
-      <c r="BY132" s="30"/>
-      <c r="BZ132" s="29" t="s">
+      <c r="BW132" s="29"/>
+      <c r="BX132" s="29"/>
+      <c r="BY132" s="29"/>
+      <c r="BZ132" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="30"/>
-      <c r="CB132" s="30"/>
-      <c r="CC132" s="30"/>
-      <c r="CD132" s="29" t="s">
+      <c r="CA132" s="29"/>
+      <c r="CB132" s="29"/>
+      <c r="CC132" s="29"/>
+      <c r="CD132" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="30"/>
-      <c r="CF132" s="30"/>
-      <c r="CG132" s="30"/>
-      <c r="CH132" s="29" t="s">
+      <c r="CE132" s="29"/>
+      <c r="CF132" s="29"/>
+      <c r="CG132" s="29"/>
+      <c r="CH132" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="CI132" s="29"/>
-      <c r="CJ132" s="28"/>
-      <c r="CK132" s="28"/>
-      <c r="CL132" s="25"/>
-      <c r="CM132" s="25"/>
+      <c r="CI132" s="30"/>
+      <c r="CJ132" s="30"/>
+      <c r="CK132" s="27"/>
+      <c r="CL132" s="30"/>
+      <c r="CM132" s="30"/>
+      <c r="CN132" s="27"/>
     </row>
-    <row r="133" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>52</v>
       </c>
@@ -29153,15 +29318,18 @@
       <c r="CI133" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CJ133" s="17"/>
+      <c r="CJ133" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="CK133" s="17"/>
       <c r="CL133" s="17"/>
-      <c r="CM133" s="6"/>
+      <c r="CM133" s="17"/>
+      <c r="CN133" s="17"/>
     </row>
-    <row r="134" spans="1:147" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -29421,13 +29589,15 @@
         <v>-2.5132660211136368</v>
       </c>
       <c r="CI135" s="18">
-        <v>-3.8454331275399198</v>
-      </c>
-      <c r="CJ135" s="18"/>
+        <v>-5.0428689849541541</v>
+      </c>
+      <c r="CJ135" s="18">
+        <v>-12.232965455403004</v>
+      </c>
       <c r="CK135" s="18"/>
       <c r="CL135" s="18"/>
-      <c r="CM135" s="9"/>
-      <c r="CN135" s="9"/>
+      <c r="CM135" s="18"/>
+      <c r="CN135" s="18"/>
       <c r="CO135" s="9"/>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
@@ -29484,7 +29654,7 @@
       <c r="EP135" s="9"/>
       <c r="EQ135" s="9"/>
     </row>
-    <row r="136" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
         <v>11</v>
       </c>
@@ -29744,13 +29914,15 @@
         <v>-59.737434483406673</v>
       </c>
       <c r="CI136" s="18">
-        <v>-47.104753070262909</v>
-      </c>
-      <c r="CJ136" s="18"/>
+        <v>-47.062223520576474</v>
+      </c>
+      <c r="CJ136" s="18">
+        <v>-43.306783644713832</v>
+      </c>
       <c r="CK136" s="18"/>
       <c r="CL136" s="18"/>
-      <c r="CM136" s="9"/>
-      <c r="CN136" s="9"/>
+      <c r="CM136" s="18"/>
+      <c r="CN136" s="18"/>
       <c r="CO136" s="9"/>
       <c r="CP136" s="9"/>
       <c r="CQ136" s="9"/>
@@ -29807,7 +29979,7 @@
       <c r="EP136" s="9"/>
       <c r="EQ136" s="9"/>
     </row>
-    <row r="137" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>12</v>
       </c>
@@ -30067,13 +30239,15 @@
         <v>26.810455072434337</v>
       </c>
       <c r="CI137" s="18">
-        <v>-19.421140869856728</v>
-      </c>
-      <c r="CJ137" s="18"/>
+        <v>-19.08449113756609</v>
+      </c>
+      <c r="CJ137" s="18">
+        <v>-4.23099335046291</v>
+      </c>
       <c r="CK137" s="18"/>
       <c r="CL137" s="18"/>
-      <c r="CM137" s="9"/>
-      <c r="CN137" s="9"/>
+      <c r="CM137" s="18"/>
+      <c r="CN137" s="18"/>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -30130,7 +30304,7 @@
       <c r="EP137" s="9"/>
       <c r="EQ137" s="9"/>
     </row>
-    <row r="138" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>13</v>
       </c>
@@ -30390,13 +30564,15 @@
         <v>26.318167037848056</v>
       </c>
       <c r="CI138" s="18">
-        <v>13.485672956248834</v>
-      </c>
-      <c r="CJ138" s="18"/>
+        <v>14.649954876192538</v>
+      </c>
+      <c r="CJ138" s="18">
+        <v>15.324003677310742</v>
+      </c>
       <c r="CK138" s="18"/>
       <c r="CL138" s="18"/>
-      <c r="CM138" s="9"/>
-      <c r="CN138" s="9"/>
+      <c r="CM138" s="18"/>
+      <c r="CN138" s="18"/>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -30453,7 +30629,7 @@
       <c r="EP138" s="9"/>
       <c r="EQ138" s="9"/>
     </row>
-    <row r="139" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10" t="s">
         <v>14</v>
       </c>
@@ -30713,13 +30889,15 @@
         <v>-22.348439293484219</v>
       </c>
       <c r="CI139" s="18">
-        <v>-8.3343024712476108</v>
-      </c>
-      <c r="CJ139" s="18"/>
+        <v>-7.7518220140517826</v>
+      </c>
+      <c r="CJ139" s="18">
+        <v>6.3897638758224247</v>
+      </c>
       <c r="CK139" s="18"/>
       <c r="CL139" s="18"/>
-      <c r="CM139" s="9"/>
-      <c r="CN139" s="9"/>
+      <c r="CM139" s="18"/>
+      <c r="CN139" s="18"/>
       <c r="CO139" s="9"/>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
@@ -30776,7 +30954,7 @@
       <c r="EP139" s="9"/>
       <c r="EQ139" s="9"/>
     </row>
-    <row r="140" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10" t="s">
         <v>15</v>
       </c>
@@ -31036,13 +31214,15 @@
         <v>20.120418533350517</v>
       </c>
       <c r="CI140" s="18">
-        <v>-17.086261053970873</v>
-      </c>
-      <c r="CJ140" s="18"/>
+        <v>-30.216119706078771</v>
+      </c>
+      <c r="CJ140" s="18">
+        <v>-33.284252768240606</v>
+      </c>
       <c r="CK140" s="18"/>
       <c r="CL140" s="18"/>
-      <c r="CM140" s="9"/>
-      <c r="CN140" s="9"/>
+      <c r="CM140" s="18"/>
+      <c r="CN140" s="18"/>
       <c r="CO140" s="9"/>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
@@ -31099,7 +31279,7 @@
       <c r="EP140" s="9"/>
       <c r="EQ140" s="9"/>
     </row>
-    <row r="141" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>16</v>
       </c>
@@ -31359,13 +31539,15 @@
         <v>0.54807061652866196</v>
       </c>
       <c r="CI141" s="18">
-        <v>3.6803017629354571</v>
-      </c>
-      <c r="CJ141" s="18"/>
+        <v>2.0552570920002324</v>
+      </c>
+      <c r="CJ141" s="18">
+        <v>-9.7533639678080135</v>
+      </c>
       <c r="CK141" s="18"/>
       <c r="CL141" s="18"/>
-      <c r="CM141" s="9"/>
-      <c r="CN141" s="9"/>
+      <c r="CM141" s="18"/>
+      <c r="CN141" s="18"/>
       <c r="CO141" s="9"/>
       <c r="CP141" s="9"/>
       <c r="CQ141" s="9"/>
@@ -31422,7 +31604,7 @@
       <c r="EP141" s="9"/>
       <c r="EQ141" s="9"/>
     </row>
-    <row r="142" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>17</v>
       </c>
@@ -31682,13 +31864,15 @@
         <v>-58.189099115514793</v>
       </c>
       <c r="CI142" s="18">
-        <v>4.3686445571673005</v>
-      </c>
-      <c r="CJ142" s="18"/>
+        <v>4.7161098628991027</v>
+      </c>
+      <c r="CJ142" s="18">
+        <v>-59.053293389773629</v>
+      </c>
       <c r="CK142" s="18"/>
       <c r="CL142" s="18"/>
-      <c r="CM142" s="9"/>
-      <c r="CN142" s="9"/>
+      <c r="CM142" s="18"/>
+      <c r="CN142" s="18"/>
       <c r="CO142" s="9"/>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
@@ -31745,7 +31929,7 @@
       <c r="EP142" s="9"/>
       <c r="EQ142" s="9"/>
     </row>
-    <row r="143" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>18</v>
       </c>
@@ -32005,13 +32189,15 @@
         <v>3.9146469486130258</v>
       </c>
       <c r="CI143" s="18">
-        <v>-10.353073663850068</v>
-      </c>
-      <c r="CJ143" s="18"/>
+        <v>-7.5055681814216371</v>
+      </c>
+      <c r="CJ143" s="18">
+        <v>3.8606011643630183</v>
+      </c>
       <c r="CK143" s="18"/>
       <c r="CL143" s="18"/>
-      <c r="CM143" s="9"/>
-      <c r="CN143" s="9"/>
+      <c r="CM143" s="18"/>
+      <c r="CN143" s="18"/>
       <c r="CO143" s="9"/>
       <c r="CP143" s="9"/>
       <c r="CQ143" s="9"/>
@@ -32068,7 +32254,7 @@
       <c r="EP143" s="9"/>
       <c r="EQ143" s="9"/>
     </row>
-    <row r="144" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>19</v>
       </c>
@@ -32328,13 +32514,15 @@
         <v>3.3637387795443061</v>
       </c>
       <c r="CI144" s="18">
-        <v>8.1611275035748747</v>
-      </c>
-      <c r="CJ144" s="18"/>
+        <v>8.2800489601486049</v>
+      </c>
+      <c r="CJ144" s="18">
+        <v>8.1233830223931704</v>
+      </c>
       <c r="CK144" s="18"/>
       <c r="CL144" s="18"/>
-      <c r="CM144" s="9"/>
-      <c r="CN144" s="9"/>
+      <c r="CM144" s="18"/>
+      <c r="CN144" s="18"/>
       <c r="CO144" s="9"/>
       <c r="CP144" s="9"/>
       <c r="CQ144" s="9"/>
@@ -32391,7 +32579,7 @@
       <c r="EP144" s="9"/>
       <c r="EQ144" s="9"/>
     </row>
-    <row r="145" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>20</v>
       </c>
@@ -32651,13 +32839,15 @@
         <v>9.6726621127872505</v>
       </c>
       <c r="CI145" s="18">
-        <v>20.201859130549465</v>
-      </c>
-      <c r="CJ145" s="18"/>
+        <v>17.646826552333692</v>
+      </c>
+      <c r="CJ145" s="18">
+        <v>6.8313031889844638</v>
+      </c>
       <c r="CK145" s="18"/>
       <c r="CL145" s="18"/>
-      <c r="CM145" s="9"/>
-      <c r="CN145" s="9"/>
+      <c r="CM145" s="18"/>
+      <c r="CN145" s="18"/>
       <c r="CO145" s="9"/>
       <c r="CP145" s="9"/>
       <c r="CQ145" s="9"/>
@@ -32714,7 +32904,7 @@
       <c r="EP145" s="9"/>
       <c r="EQ145" s="9"/>
     </row>
-    <row r="146" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>21</v>
       </c>
@@ -32974,13 +33164,15 @@
         <v>6.633897621337411</v>
       </c>
       <c r="CI146" s="18">
-        <v>-2.2709177655645618</v>
-      </c>
-      <c r="CJ146" s="18"/>
+        <v>-3.0951475545924438</v>
+      </c>
+      <c r="CJ146" s="18">
+        <v>-7.6966205362106876</v>
+      </c>
       <c r="CK146" s="18"/>
       <c r="CL146" s="18"/>
-      <c r="CM146" s="9"/>
-      <c r="CN146" s="9"/>
+      <c r="CM146" s="18"/>
+      <c r="CN146" s="18"/>
       <c r="CO146" s="9"/>
       <c r="CP146" s="9"/>
       <c r="CQ146" s="9"/>
@@ -33037,7 +33229,7 @@
       <c r="EP146" s="9"/>
       <c r="EQ146" s="9"/>
     </row>
-    <row r="147" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>22</v>
       </c>
@@ -33297,13 +33489,15 @@
         <v>-12.924205657708058</v>
       </c>
       <c r="CI147" s="18">
-        <v>-3.852934866596371</v>
-      </c>
-      <c r="CJ147" s="18"/>
+        <v>-1.620795152815262</v>
+      </c>
+      <c r="CJ147" s="18">
+        <v>23.363228406752029</v>
+      </c>
       <c r="CK147" s="18"/>
       <c r="CL147" s="18"/>
-      <c r="CM147" s="9"/>
-      <c r="CN147" s="9"/>
+      <c r="CM147" s="18"/>
+      <c r="CN147" s="18"/>
       <c r="CO147" s="9"/>
       <c r="CP147" s="9"/>
       <c r="CQ147" s="9"/>
@@ -33360,7 +33554,7 @@
       <c r="EP147" s="9"/>
       <c r="EQ147" s="9"/>
     </row>
-    <row r="148" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>23</v>
       </c>
@@ -33620,13 +33814,15 @@
         <v>10.152552180896635</v>
       </c>
       <c r="CI148" s="18">
-        <v>14.614638388515061</v>
-      </c>
-      <c r="CJ148" s="18"/>
+        <v>14.657434498337679</v>
+      </c>
+      <c r="CJ148" s="18">
+        <v>-0.3308301470117101</v>
+      </c>
       <c r="CK148" s="18"/>
       <c r="CL148" s="18"/>
-      <c r="CM148" s="9"/>
-      <c r="CN148" s="9"/>
+      <c r="CM148" s="18"/>
+      <c r="CN148" s="18"/>
       <c r="CO148" s="9"/>
       <c r="CP148" s="9"/>
       <c r="CQ148" s="9"/>
@@ -33683,7 +33879,7 @@
       <c r="EP148" s="9"/>
       <c r="EQ148" s="9"/>
     </row>
-    <row r="149" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>24</v>
       </c>
@@ -33943,13 +34139,15 @@
         <v>20.958544569804928</v>
       </c>
       <c r="CI149" s="18">
-        <v>25.149242919669646</v>
-      </c>
-      <c r="CJ149" s="18"/>
+        <v>25.250900535839762</v>
+      </c>
+      <c r="CJ149" s="18">
+        <v>32.954895773362182</v>
+      </c>
       <c r="CK149" s="18"/>
       <c r="CL149" s="18"/>
-      <c r="CM149" s="9"/>
-      <c r="CN149" s="9"/>
+      <c r="CM149" s="18"/>
+      <c r="CN149" s="18"/>
       <c r="CO149" s="9"/>
       <c r="CP149" s="9"/>
       <c r="CQ149" s="9"/>
@@ -34006,7 +34204,7 @@
       <c r="EP149" s="9"/>
       <c r="EQ149" s="9"/>
     </row>
-    <row r="150" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>25</v>
       </c>
@@ -34266,13 +34464,15 @@
         <v>12.337492035609145</v>
       </c>
       <c r="CI150" s="18">
-        <v>14.177145014746088</v>
-      </c>
-      <c r="CJ150" s="18"/>
+        <v>14.287652303199167</v>
+      </c>
+      <c r="CJ150" s="18">
+        <v>29.244279679589368</v>
+      </c>
       <c r="CK150" s="18"/>
       <c r="CL150" s="18"/>
-      <c r="CM150" s="9"/>
-      <c r="CN150" s="9"/>
+      <c r="CM150" s="18"/>
+      <c r="CN150" s="18"/>
       <c r="CO150" s="9"/>
       <c r="CP150" s="9"/>
       <c r="CQ150" s="9"/>
@@ -34329,7 +34529,7 @@
       <c r="EP150" s="9"/>
       <c r="EQ150" s="9"/>
     </row>
-    <row r="151" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>26</v>
       </c>
@@ -34585,17 +34785,19 @@
       <c r="CG151" s="18">
         <v>164.56590164822711</v>
       </c>
-      <c r="CH151" s="20">
+      <c r="CH151" s="18">
         <v>-25.855541909063874</v>
       </c>
-      <c r="CI151" s="20" t="s">
+      <c r="CI151" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="CJ151" s="18"/>
+      <c r="CJ151" s="18">
+        <v>-95.922624147244875</v>
+      </c>
       <c r="CK151" s="18"/>
       <c r="CL151" s="18"/>
-      <c r="CM151" s="9"/>
-      <c r="CN151" s="9"/>
+      <c r="CM151" s="18"/>
+      <c r="CN151" s="18"/>
       <c r="CO151" s="9"/>
       <c r="CP151" s="9"/>
       <c r="CQ151" s="9"/>
@@ -34652,7 +34854,7 @@
       <c r="EP151" s="9"/>
       <c r="EQ151" s="9"/>
     </row>
-    <row r="152" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>27</v>
       </c>
@@ -34912,13 +35114,15 @@
         <v>887.43474019587029</v>
       </c>
       <c r="CI152" s="18">
-        <v>25.618483046121511</v>
-      </c>
-      <c r="CJ152" s="18"/>
+        <v>25.619666879792334</v>
+      </c>
+      <c r="CJ152" s="18">
+        <v>97.404484050242843</v>
+      </c>
       <c r="CK152" s="18"/>
       <c r="CL152" s="18"/>
-      <c r="CM152" s="9"/>
-      <c r="CN152" s="9"/>
+      <c r="CM152" s="18"/>
+      <c r="CN152" s="18"/>
       <c r="CO152" s="9"/>
       <c r="CP152" s="9"/>
       <c r="CQ152" s="9"/>
@@ -34975,7 +35179,7 @@
       <c r="EP152" s="9"/>
       <c r="EQ152" s="9"/>
     </row>
-    <row r="153" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>28</v>
       </c>
@@ -35235,13 +35439,15 @@
         <v>19.077672108881345</v>
       </c>
       <c r="CI153" s="18">
-        <v>759.52605233052668</v>
-      </c>
-      <c r="CJ153" s="18"/>
+        <v>759.61711694808173</v>
+      </c>
+      <c r="CJ153" s="18">
+        <v>430.84131567655947</v>
+      </c>
       <c r="CK153" s="18"/>
       <c r="CL153" s="18"/>
-      <c r="CM153" s="9"/>
-      <c r="CN153" s="9"/>
+      <c r="CM153" s="18"/>
+      <c r="CN153" s="18"/>
       <c r="CO153" s="9"/>
       <c r="CP153" s="9"/>
       <c r="CQ153" s="9"/>
@@ -35298,7 +35504,7 @@
       <c r="EP153" s="9"/>
       <c r="EQ153" s="9"/>
     </row>
-    <row r="154" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>29</v>
       </c>
@@ -35558,13 +35764,15 @@
         <v>0.5926157240364347</v>
       </c>
       <c r="CI154" s="18">
-        <v>-1.3742735700210318</v>
-      </c>
-      <c r="CJ154" s="18"/>
+        <v>-0.38958100818109642</v>
+      </c>
+      <c r="CJ154" s="18">
+        <v>-6.6000451436124337</v>
+      </c>
       <c r="CK154" s="18"/>
       <c r="CL154" s="18"/>
-      <c r="CM154" s="9"/>
-      <c r="CN154" s="9"/>
+      <c r="CM154" s="18"/>
+      <c r="CN154" s="18"/>
       <c r="CO154" s="9"/>
       <c r="CP154" s="9"/>
       <c r="CQ154" s="9"/>
@@ -35621,7 +35829,7 @@
       <c r="EP154" s="9"/>
       <c r="EQ154" s="9"/>
     </row>
-    <row r="155" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>30</v>
       </c>
@@ -35881,13 +36089,15 @@
         <v>-3.6265420749859345</v>
       </c>
       <c r="CI155" s="18">
-        <v>-20.368402538966961</v>
-      </c>
-      <c r="CJ155" s="18"/>
+        <v>-21.018930482538622</v>
+      </c>
+      <c r="CJ155" s="18">
+        <v>-3.1626554333260515</v>
+      </c>
       <c r="CK155" s="18"/>
       <c r="CL155" s="18"/>
-      <c r="CM155" s="9"/>
-      <c r="CN155" s="9"/>
+      <c r="CM155" s="18"/>
+      <c r="CN155" s="18"/>
       <c r="CO155" s="9"/>
       <c r="CP155" s="9"/>
       <c r="CQ155" s="9"/>
@@ -35944,7 +36154,7 @@
       <c r="EP155" s="9"/>
       <c r="EQ155" s="9"/>
     </row>
-    <row r="156" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>31</v>
       </c>
@@ -36204,13 +36414,15 @@
         <v>1.5637408784729985</v>
       </c>
       <c r="CI156" s="18">
-        <v>-9.0039742703542487</v>
-      </c>
-      <c r="CJ156" s="18"/>
+        <v>-9.4912067116790269</v>
+      </c>
+      <c r="CJ156" s="18">
+        <v>-6.9154228602720593</v>
+      </c>
       <c r="CK156" s="18"/>
       <c r="CL156" s="18"/>
-      <c r="CM156" s="9"/>
-      <c r="CN156" s="9"/>
+      <c r="CM156" s="18"/>
+      <c r="CN156" s="18"/>
       <c r="CO156" s="9"/>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
@@ -36267,7 +36479,7 @@
       <c r="EP156" s="9"/>
       <c r="EQ156" s="9"/>
     </row>
-    <row r="157" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>32</v>
       </c>
@@ -36527,13 +36739,15 @@
         <v>18.649946094169948</v>
       </c>
       <c r="CI157" s="18">
-        <v>6.7519187876970364</v>
-      </c>
-      <c r="CJ157" s="18"/>
+        <v>7.1891317344534116</v>
+      </c>
+      <c r="CJ157" s="18">
+        <v>-8.6794967990182528</v>
+      </c>
       <c r="CK157" s="18"/>
       <c r="CL157" s="18"/>
-      <c r="CM157" s="9"/>
-      <c r="CN157" s="9"/>
+      <c r="CM157" s="18"/>
+      <c r="CN157" s="18"/>
       <c r="CO157" s="9"/>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
@@ -36590,7 +36804,7 @@
       <c r="EP157" s="9"/>
       <c r="EQ157" s="9"/>
     </row>
-    <row r="158" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>33</v>
       </c>
@@ -36850,13 +37064,15 @@
         <v>-22.175094748784616</v>
       </c>
       <c r="CI158" s="18">
-        <v>-5.3763471120017527</v>
-      </c>
-      <c r="CJ158" s="18"/>
+        <v>-1.0110495079585178</v>
+      </c>
+      <c r="CJ158" s="18">
+        <v>-1.0375387579957192</v>
+      </c>
       <c r="CK158" s="18"/>
       <c r="CL158" s="18"/>
-      <c r="CM158" s="9"/>
-      <c r="CN158" s="9"/>
+      <c r="CM158" s="18"/>
+      <c r="CN158" s="18"/>
       <c r="CO158" s="9"/>
       <c r="CP158" s="9"/>
       <c r="CQ158" s="9"/>
@@ -36913,7 +37129,7 @@
       <c r="EP158" s="9"/>
       <c r="EQ158" s="9"/>
     </row>
-    <row r="159" spans="1:147" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -37061,7 +37277,7 @@
       <c r="EP159" s="9"/>
       <c r="EQ159" s="9"/>
     </row>
-    <row r="160" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:147" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
         <v>34</v>
       </c>
@@ -37321,13 +37537,15 @@
         <v>9.8742121898233393</v>
       </c>
       <c r="CI160" s="23">
-        <v>11.682219023351934</v>
-      </c>
-      <c r="CJ160" s="23"/>
+        <v>11.889736911697483</v>
+      </c>
+      <c r="CJ160" s="23">
+        <v>11.570604537760531</v>
+      </c>
       <c r="CK160" s="23"/>
       <c r="CL160" s="23"/>
-      <c r="CM160" s="9"/>
-      <c r="CN160" s="9"/>
+      <c r="CM160" s="23"/>
+      <c r="CN160" s="23"/>
       <c r="CO160" s="9"/>
       <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
@@ -37384,7 +37602,7 @@
       <c r="EP160" s="9"/>
       <c r="EQ160" s="9"/>
     </row>
-    <row r="161" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
       <c r="C161" s="14"/>
@@ -37476,13 +37694,14 @@
       <c r="CK161" s="14"/>
       <c r="CL161" s="14"/>
       <c r="CM161" s="14"/>
+      <c r="CN161" s="14"/>
     </row>
-    <row r="162" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>0</v>
       </c>
@@ -37633,7 +37852,7 @@
       <c r="EP163" s="9"/>
       <c r="EQ163" s="9"/>
     </row>
-    <row r="164" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
@@ -37786,171 +38005,172 @@
       <c r="EU164" s="9"/>
       <c r="EV164" s="9"/>
     </row>
-    <row r="165" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="170" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="30">
+      <c r="B172" s="29">
         <v>2000</v>
       </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30">
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29">
         <v>2001</v>
       </c>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="30">
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
+      <c r="J172" s="29">
         <v>2002</v>
       </c>
-      <c r="K172" s="30"/>
-      <c r="L172" s="30"/>
-      <c r="M172" s="30"/>
-      <c r="N172" s="30">
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29">
         <v>2003</v>
       </c>
-      <c r="O172" s="30"/>
-      <c r="P172" s="30"/>
-      <c r="Q172" s="30"/>
-      <c r="R172" s="30">
+      <c r="O172" s="29"/>
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
+      <c r="R172" s="29">
         <v>2004</v>
       </c>
-      <c r="S172" s="30"/>
-      <c r="T172" s="30"/>
-      <c r="U172" s="30"/>
-      <c r="V172" s="30">
+      <c r="S172" s="29"/>
+      <c r="T172" s="29"/>
+      <c r="U172" s="29"/>
+      <c r="V172" s="29">
         <v>2005</v>
       </c>
-      <c r="W172" s="30"/>
-      <c r="X172" s="30"/>
-      <c r="Y172" s="30"/>
-      <c r="Z172" s="30">
+      <c r="W172" s="29"/>
+      <c r="X172" s="29"/>
+      <c r="Y172" s="29"/>
+      <c r="Z172" s="29">
         <v>2006</v>
       </c>
-      <c r="AA172" s="30"/>
-      <c r="AB172" s="30"/>
-      <c r="AC172" s="30"/>
-      <c r="AD172" s="30">
+      <c r="AA172" s="29"/>
+      <c r="AB172" s="29"/>
+      <c r="AC172" s="29"/>
+      <c r="AD172" s="29">
         <v>2007</v>
       </c>
-      <c r="AE172" s="30"/>
-      <c r="AF172" s="30"/>
-      <c r="AG172" s="30"/>
-      <c r="AH172" s="30">
+      <c r="AE172" s="29"/>
+      <c r="AF172" s="29"/>
+      <c r="AG172" s="29"/>
+      <c r="AH172" s="29">
         <v>2008</v>
       </c>
-      <c r="AI172" s="30"/>
-      <c r="AJ172" s="30"/>
-      <c r="AK172" s="30"/>
-      <c r="AL172" s="30">
+      <c r="AI172" s="29"/>
+      <c r="AJ172" s="29"/>
+      <c r="AK172" s="29"/>
+      <c r="AL172" s="29">
         <v>2009</v>
       </c>
-      <c r="AM172" s="30"/>
-      <c r="AN172" s="30"/>
-      <c r="AO172" s="30"/>
-      <c r="AP172" s="30">
+      <c r="AM172" s="29"/>
+      <c r="AN172" s="29"/>
+      <c r="AO172" s="29"/>
+      <c r="AP172" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="30"/>
-      <c r="AR172" s="30"/>
-      <c r="AS172" s="30"/>
-      <c r="AT172" s="30">
+      <c r="AQ172" s="29"/>
+      <c r="AR172" s="29"/>
+      <c r="AS172" s="29"/>
+      <c r="AT172" s="29">
         <v>2011</v>
       </c>
-      <c r="AU172" s="30"/>
-      <c r="AV172" s="30"/>
-      <c r="AW172" s="30"/>
-      <c r="AX172" s="30">
+      <c r="AU172" s="29"/>
+      <c r="AV172" s="29"/>
+      <c r="AW172" s="29"/>
+      <c r="AX172" s="29">
         <v>2012</v>
       </c>
-      <c r="AY172" s="30"/>
-      <c r="AZ172" s="30"/>
-      <c r="BA172" s="30"/>
-      <c r="BB172" s="30">
+      <c r="AY172" s="29"/>
+      <c r="AZ172" s="29"/>
+      <c r="BA172" s="29"/>
+      <c r="BB172" s="29">
         <v>2013</v>
       </c>
-      <c r="BC172" s="30"/>
-      <c r="BD172" s="30"/>
-      <c r="BE172" s="30"/>
-      <c r="BF172" s="30">
+      <c r="BC172" s="29"/>
+      <c r="BD172" s="29"/>
+      <c r="BE172" s="29"/>
+      <c r="BF172" s="29">
         <v>2014</v>
       </c>
-      <c r="BG172" s="30"/>
-      <c r="BH172" s="30"/>
-      <c r="BI172" s="30"/>
-      <c r="BJ172" s="30">
+      <c r="BG172" s="29"/>
+      <c r="BH172" s="29"/>
+      <c r="BI172" s="29"/>
+      <c r="BJ172" s="29">
         <v>2015</v>
       </c>
-      <c r="BK172" s="30"/>
-      <c r="BL172" s="30"/>
-      <c r="BM172" s="30"/>
-      <c r="BN172" s="30">
+      <c r="BK172" s="29"/>
+      <c r="BL172" s="29"/>
+      <c r="BM172" s="29"/>
+      <c r="BN172" s="29">
         <v>2016</v>
       </c>
-      <c r="BO172" s="30"/>
-      <c r="BP172" s="30"/>
-      <c r="BQ172" s="30"/>
-      <c r="BR172" s="30">
+      <c r="BO172" s="29"/>
+      <c r="BP172" s="29"/>
+      <c r="BQ172" s="29"/>
+      <c r="BR172" s="29">
         <v>2017</v>
       </c>
-      <c r="BS172" s="30"/>
-      <c r="BT172" s="30"/>
-      <c r="BU172" s="30"/>
-      <c r="BV172" s="30">
+      <c r="BS172" s="29"/>
+      <c r="BT172" s="29"/>
+      <c r="BU172" s="29"/>
+      <c r="BV172" s="29">
         <v>2018</v>
       </c>
-      <c r="BW172" s="30"/>
-      <c r="BX172" s="30"/>
-      <c r="BY172" s="30"/>
-      <c r="BZ172" s="30">
+      <c r="BW172" s="29"/>
+      <c r="BX172" s="29"/>
+      <c r="BY172" s="29"/>
+      <c r="BZ172" s="29">
         <v>2019</v>
       </c>
-      <c r="CA172" s="30"/>
-      <c r="CB172" s="30"/>
-      <c r="CC172" s="30"/>
-      <c r="CD172" s="30">
+      <c r="CA172" s="29"/>
+      <c r="CB172" s="29"/>
+      <c r="CC172" s="29"/>
+      <c r="CD172" s="29">
         <v>2020</v>
       </c>
-      <c r="CE172" s="30"/>
-      <c r="CF172" s="30"/>
-      <c r="CG172" s="30"/>
-      <c r="CH172" s="29">
+      <c r="CE172" s="29"/>
+      <c r="CF172" s="29"/>
+      <c r="CG172" s="29"/>
+      <c r="CH172" s="30">
         <v>2021</v>
       </c>
-      <c r="CI172" s="29"/>
-      <c r="CJ172" s="29"/>
-      <c r="CK172" s="29"/>
-      <c r="CL172" s="29">
+      <c r="CI172" s="30"/>
+      <c r="CJ172" s="30"/>
+      <c r="CK172" s="30"/>
+      <c r="CL172" s="30">
         <v>2022</v>
       </c>
-      <c r="CM172" s="29"/>
+      <c r="CM172" s="30"/>
+      <c r="CN172" s="30"/>
     </row>
-    <row r="173" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>52</v>
       </c>
@@ -38224,11 +38444,14 @@
       <c r="CM173" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="CN173" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="174" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
     </row>
-    <row r="175" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
@@ -38500,9 +38723,11 @@
         <v>110.66158088608714</v>
       </c>
       <c r="CM175" s="23">
-        <v>165.95160665992199</v>
-      </c>
-      <c r="CN175" s="9"/>
+        <v>165.15506161452674</v>
+      </c>
+      <c r="CN175" s="23">
+        <v>93.923591002789507</v>
+      </c>
       <c r="CO175" s="9"/>
       <c r="CP175" s="9"/>
       <c r="CQ175" s="9"/>
@@ -38564,7 +38789,7 @@
       <c r="EU175" s="9"/>
       <c r="EV175" s="9"/>
     </row>
-    <row r="176" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>11</v>
       </c>
@@ -38836,9 +39061,11 @@
         <v>110.89424851939825</v>
       </c>
       <c r="CM176" s="23">
-        <v>320.2927806199886</v>
-      </c>
-      <c r="CN176" s="9"/>
+        <v>320.07449864958767</v>
+      </c>
+      <c r="CN176" s="23">
+        <v>98.861230213486479</v>
+      </c>
       <c r="CO176" s="9"/>
       <c r="CP176" s="9"/>
       <c r="CQ176" s="9"/>
@@ -38900,7 +39127,7 @@
       <c r="EU176" s="9"/>
       <c r="EV176" s="9"/>
     </row>
-    <row r="177" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>12</v>
       </c>
@@ -39172,9 +39399,11 @@
         <v>113.00380674947689</v>
       </c>
       <c r="CM177" s="23">
-        <v>311.9031571066235</v>
-      </c>
-      <c r="CN177" s="9"/>
+        <v>311.49848146009214</v>
+      </c>
+      <c r="CN177" s="23">
+        <v>98.214728162203315</v>
+      </c>
       <c r="CO177" s="9"/>
       <c r="CP177" s="9"/>
       <c r="CQ177" s="9"/>
@@ -39236,7 +39465,7 @@
       <c r="EU177" s="9"/>
       <c r="EV177" s="9"/>
     </row>
-    <row r="178" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>13</v>
       </c>
@@ -39508,9 +39737,11 @@
         <v>108.3356511292266</v>
       </c>
       <c r="CM178" s="23">
-        <v>231.39116454619094</v>
-      </c>
-      <c r="CN178" s="9"/>
+        <v>227.58236034543273</v>
+      </c>
+      <c r="CN178" s="23">
+        <v>96.406139321027865</v>
+      </c>
       <c r="CO178" s="9"/>
       <c r="CP178" s="9"/>
       <c r="CQ178" s="9"/>
@@ -39572,7 +39803,7 @@
       <c r="EU178" s="9"/>
       <c r="EV178" s="9"/>
     </row>
-    <row r="179" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>14</v>
       </c>
@@ -39844,9 +40075,11 @@
         <v>134.03943563300095</v>
       </c>
       <c r="CM179" s="23">
-        <v>279.34779120336765</v>
-      </c>
-      <c r="CN179" s="9"/>
+        <v>277.31428929435464</v>
+      </c>
+      <c r="CN179" s="23">
+        <v>99.224333228188272</v>
+      </c>
       <c r="CO179" s="9"/>
       <c r="CP179" s="9"/>
       <c r="CQ179" s="9"/>
@@ -39908,7 +40141,7 @@
       <c r="EU179" s="9"/>
       <c r="EV179" s="9"/>
     </row>
-    <row r="180" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>15</v>
       </c>
@@ -40180,9 +40413,11 @@
         <v>116.99298976488475</v>
       </c>
       <c r="CM180" s="23">
-        <v>311.63963847662353</v>
-      </c>
-      <c r="CN180" s="9"/>
+        <v>307.52598064349507</v>
+      </c>
+      <c r="CN180" s="23">
+        <v>101.40828069694558</v>
+      </c>
       <c r="CO180" s="9"/>
       <c r="CP180" s="9"/>
       <c r="CQ180" s="9"/>
@@ -40244,7 +40479,7 @@
       <c r="EU180" s="9"/>
       <c r="EV180" s="9"/>
     </row>
-    <row r="181" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>16</v>
       </c>
@@ -40516,9 +40751,11 @@
         <v>107.98908315832972</v>
       </c>
       <c r="CM181" s="23">
-        <v>115.04673396106153</v>
-      </c>
-      <c r="CN181" s="9"/>
+        <v>115.18800705521801</v>
+      </c>
+      <c r="CN181" s="23">
+        <v>87.439065350566523</v>
+      </c>
       <c r="CO181" s="9"/>
       <c r="CP181" s="9"/>
       <c r="CQ181" s="9"/>
@@ -40580,7 +40817,7 @@
       <c r="EU181" s="9"/>
       <c r="EV181" s="9"/>
     </row>
-    <row r="182" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>17</v>
       </c>
@@ -40852,9 +41089,11 @@
         <v>109.70274132329342</v>
       </c>
       <c r="CM182" s="23">
-        <v>295.305618539661</v>
-      </c>
-      <c r="CN182" s="9"/>
+        <v>294.2409984281262</v>
+      </c>
+      <c r="CN182" s="23">
+        <v>96.354464041932133</v>
+      </c>
       <c r="CO182" s="9"/>
       <c r="CP182" s="9"/>
       <c r="CQ182" s="9"/>
@@ -40916,7 +41155,7 @@
       <c r="EU182" s="9"/>
       <c r="EV182" s="9"/>
     </row>
-    <row r="183" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>18</v>
       </c>
@@ -41188,9 +41427,11 @@
         <v>115.36677192126498</v>
       </c>
       <c r="CM183" s="23">
-        <v>260.21138531601935</v>
-      </c>
-      <c r="CN183" s="9"/>
+        <v>252.87793648636557</v>
+      </c>
+      <c r="CN183" s="23">
+        <v>96.883070674348588</v>
+      </c>
       <c r="CO183" s="9"/>
       <c r="CP183" s="9"/>
       <c r="CQ183" s="9"/>
@@ -41252,7 +41493,7 @@
       <c r="EU183" s="9"/>
       <c r="EV183" s="9"/>
     </row>
-    <row r="184" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>19</v>
       </c>
@@ -41524,9 +41765,11 @@
         <v>106.71763766305608</v>
       </c>
       <c r="CM184" s="23">
-        <v>124.45743373054607</v>
-      </c>
-      <c r="CN184" s="9"/>
+        <v>124.44049084056057</v>
+      </c>
+      <c r="CN184" s="23">
+        <v>101.65750912161073</v>
+      </c>
       <c r="CO184" s="9"/>
       <c r="CP184" s="9"/>
       <c r="CQ184" s="9"/>
@@ -41588,7 +41831,7 @@
       <c r="EU184" s="9"/>
       <c r="EV184" s="9"/>
     </row>
-    <row r="185" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10" t="s">
         <v>20</v>
       </c>
@@ -41860,9 +42103,11 @@
         <v>112.24251758333199</v>
       </c>
       <c r="CM185" s="23">
-        <v>130.65058223349854</v>
-      </c>
-      <c r="CN185" s="9"/>
+        <v>131.48168128406019</v>
+      </c>
+      <c r="CN185" s="23">
+        <v>102.7977742180703</v>
+      </c>
       <c r="CO185" s="9"/>
       <c r="CP185" s="9"/>
       <c r="CQ185" s="9"/>
@@ -41924,7 +42169,7 @@
       <c r="EU185" s="9"/>
       <c r="EV185" s="9"/>
     </row>
-    <row r="186" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>21</v>
       </c>
@@ -42196,9 +42441,11 @@
         <v>112.447124605686</v>
       </c>
       <c r="CM186" s="23">
-        <v>128.10745294239081</v>
-      </c>
-      <c r="CN186" s="9"/>
+        <v>128.51682717583003</v>
+      </c>
+      <c r="CN186" s="23">
+        <v>95.48134780668039</v>
+      </c>
       <c r="CO186" s="9"/>
       <c r="CP186" s="9"/>
       <c r="CQ186" s="9"/>
@@ -42260,7 +42507,7 @@
       <c r="EU186" s="9"/>
       <c r="EV186" s="9"/>
     </row>
-    <row r="187" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>22</v>
       </c>
@@ -42532,9 +42779,11 @@
         <v>112.74770279893329</v>
       </c>
       <c r="CM187" s="23">
-        <v>131.24182141439874</v>
-      </c>
-      <c r="CN187" s="9"/>
+        <v>130.33623795010419</v>
+      </c>
+      <c r="CN187" s="23">
+        <v>106.22174271685303</v>
+      </c>
       <c r="CO187" s="9"/>
       <c r="CP187" s="9"/>
       <c r="CQ187" s="9"/>
@@ -42596,7 +42845,7 @@
       <c r="EU187" s="9"/>
       <c r="EV187" s="9"/>
     </row>
-    <row r="188" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>23</v>
       </c>
@@ -42868,9 +43117,11 @@
         <v>101.05796827827807</v>
       </c>
       <c r="CM188" s="23">
-        <v>116.84121352918997</v>
-      </c>
-      <c r="CN188" s="9"/>
+        <v>116.86155514497823</v>
+      </c>
+      <c r="CN188" s="23">
+        <v>97.774348440236707</v>
+      </c>
       <c r="CO188" s="9"/>
       <c r="CP188" s="9"/>
       <c r="CQ188" s="9"/>
@@ -42932,7 +43183,7 @@
       <c r="EU188" s="9"/>
       <c r="EV188" s="9"/>
     </row>
-    <row r="189" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>24</v>
       </c>
@@ -43204,9 +43455,11 @@
         <v>95.671845311144523</v>
       </c>
       <c r="CM189" s="23">
-        <v>96.232956273954699</v>
-      </c>
-      <c r="CN189" s="9"/>
+        <v>96.188914403772856</v>
+      </c>
+      <c r="CN189" s="23">
+        <v>113.59883601872993</v>
+      </c>
       <c r="CO189" s="9"/>
       <c r="CP189" s="9"/>
       <c r="CQ189" s="9"/>
@@ -43268,7 +43521,7 @@
       <c r="EU189" s="9"/>
       <c r="EV189" s="9"/>
     </row>
-    <row r="190" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>25</v>
       </c>
@@ -43540,9 +43793,11 @@
         <v>92.385621359204592</v>
       </c>
       <c r="CM190" s="23">
-        <v>96.795095314618763</v>
-      </c>
-      <c r="CN190" s="9"/>
+        <v>96.741761378693241</v>
+      </c>
+      <c r="CN190" s="23">
+        <v>112.84198813990982</v>
+      </c>
       <c r="CO190" s="9"/>
       <c r="CP190" s="9"/>
       <c r="CQ190" s="9"/>
@@ -43604,7 +43859,7 @@
       <c r="EU190" s="9"/>
       <c r="EV190" s="9"/>
     </row>
-    <row r="191" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>26</v>
       </c>
@@ -43876,9 +44131,11 @@
         <v>99.063917528128442</v>
       </c>
       <c r="CM191" s="23">
-        <v>78.803988198212849</v>
-      </c>
-      <c r="CN191" s="9"/>
+        <v>78.803988198212863</v>
+      </c>
+      <c r="CN191" s="23">
+        <v>119.42817680762082</v>
+      </c>
       <c r="CO191" s="9"/>
       <c r="CP191" s="9"/>
       <c r="CQ191" s="9"/>
@@ -43940,7 +44197,7 @@
       <c r="EU191" s="9"/>
       <c r="EV191" s="9"/>
     </row>
-    <row r="192" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>27</v>
       </c>
@@ -44212,9 +44469,11 @@
         <v>115.3039076841502</v>
       </c>
       <c r="CM192" s="23">
-        <v>93.65843560520544</v>
-      </c>
-      <c r="CN192" s="9"/>
+        <v>93.658485424465454</v>
+      </c>
+      <c r="CN192" s="23">
+        <v>129.51058122993209</v>
+      </c>
       <c r="CO192" s="9"/>
       <c r="CP192" s="9"/>
       <c r="CQ192" s="9"/>
@@ -44276,7 +44535,7 @@
       <c r="EU192" s="9"/>
       <c r="EV192" s="9"/>
     </row>
-    <row r="193" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>28</v>
       </c>
@@ -44548,9 +44807,11 @@
         <v>120.85836445829119</v>
       </c>
       <c r="CM193" s="23">
-        <v>94.278800404259982</v>
-      </c>
-      <c r="CN193" s="9"/>
+        <v>94.278800119613138</v>
+      </c>
+      <c r="CN193" s="23">
+        <v>119.73690759657569</v>
+      </c>
       <c r="CO193" s="9"/>
       <c r="CP193" s="9"/>
       <c r="CQ193" s="9"/>
@@ -44612,7 +44873,7 @@
       <c r="EU193" s="9"/>
       <c r="EV193" s="9"/>
     </row>
-    <row r="194" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>29</v>
       </c>
@@ -44884,9 +45145,11 @@
         <v>108.28683046457073</v>
       </c>
       <c r="CM194" s="23">
-        <v>78.566970856145502</v>
-      </c>
-      <c r="CN194" s="9"/>
+        <v>79.020018785849018</v>
+      </c>
+      <c r="CN194" s="23">
+        <v>118.37685191619536</v>
+      </c>
       <c r="CO194" s="9"/>
       <c r="CP194" s="9"/>
       <c r="CQ194" s="9"/>
@@ -44948,7 +45211,7 @@
       <c r="EU194" s="9"/>
       <c r="EV194" s="9"/>
     </row>
-    <row r="195" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>30</v>
       </c>
@@ -45220,9 +45483,11 @@
         <v>105.78827670863642</v>
       </c>
       <c r="CM195" s="23">
-        <v>68.954606365091692</v>
-      </c>
-      <c r="CN195" s="9"/>
+        <v>68.875537725938457</v>
+      </c>
+      <c r="CN195" s="23">
+        <v>151.18024523048186</v>
+      </c>
       <c r="CO195" s="9"/>
       <c r="CP195" s="9"/>
       <c r="CQ195" s="9"/>
@@ -45284,7 +45549,7 @@
       <c r="EU195" s="9"/>
       <c r="EV195" s="9"/>
     </row>
-    <row r="196" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>31</v>
       </c>
@@ -45556,9 +45821,11 @@
         <v>96.455494465163767</v>
       </c>
       <c r="CM196" s="23">
-        <v>75.402209243037916</v>
-      </c>
-      <c r="CN196" s="9"/>
+        <v>75.25974138612672</v>
+      </c>
+      <c r="CN196" s="23">
+        <v>126.14002962749018</v>
+      </c>
       <c r="CO196" s="9"/>
       <c r="CP196" s="9"/>
       <c r="CQ196" s="9"/>
@@ -45620,7 +45887,7 @@
       <c r="EU196" s="9"/>
       <c r="EV196" s="9"/>
     </row>
-    <row r="197" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>32</v>
       </c>
@@ -45892,9 +46159,11 @@
         <v>116.28222853188743</v>
       </c>
       <c r="CM197" s="23">
-        <v>70.863449894213716</v>
-      </c>
-      <c r="CN197" s="9"/>
+        <v>71.163756300697173</v>
+      </c>
+      <c r="CN197" s="23">
+        <v>113.84154267969291</v>
+      </c>
       <c r="CO197" s="9"/>
       <c r="CP197" s="9"/>
       <c r="CQ197" s="9"/>
@@ -45956,7 +46225,7 @@
       <c r="EU197" s="9"/>
       <c r="EV197" s="9"/>
     </row>
-    <row r="198" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>33</v>
       </c>
@@ -46228,9 +46497,11 @@
         <v>103.05682954737279</v>
       </c>
       <c r="CM198" s="23">
-        <v>106.57621121917475</v>
-      </c>
-      <c r="CN198" s="9"/>
+        <v>106.8986087993444</v>
+      </c>
+      <c r="CN198" s="23">
+        <v>113.23699494799126</v>
+      </c>
       <c r="CO198" s="9"/>
       <c r="CP198" s="9"/>
       <c r="CQ198" s="9"/>
@@ -46292,7 +46563,7 @@
       <c r="EU198" s="9"/>
       <c r="EV198" s="9"/>
     </row>
-    <row r="199" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
@@ -46445,7 +46716,7 @@
       <c r="EU199" s="9"/>
       <c r="EV199" s="9"/>
     </row>
-    <row r="200" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="s">
         <v>34</v>
       </c>
@@ -46717,9 +46988,11 @@
         <v>102.02316944325985</v>
       </c>
       <c r="CM200" s="23">
-        <v>102.55471286592703</v>
-      </c>
-      <c r="CN200" s="9"/>
+        <v>102.42707688649197</v>
+      </c>
+      <c r="CN200" s="23">
+        <v>109.06128471011878</v>
+      </c>
       <c r="CO200" s="9"/>
       <c r="CP200" s="9"/>
       <c r="CQ200" s="9"/>
@@ -46781,7 +47054,7 @@
       <c r="EU200" s="9"/>
       <c r="EV200" s="9"/>
     </row>
-    <row r="201" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -46873,13 +47146,14 @@
       <c r="CK201" s="14"/>
       <c r="CL201" s="14"/>
       <c r="CM201" s="14"/>
+      <c r="CN201" s="14"/>
     </row>
-    <row r="202" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -47032,7 +47306,7 @@
       <c r="EU203" s="9"/>
       <c r="EV203" s="9"/>
     </row>
-    <row r="204" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
@@ -47185,176 +47459,177 @@
       <c r="EU204" s="9"/>
       <c r="EV204" s="9"/>
     </row>
-    <row r="205" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="211" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="30">
+      <c r="B213" s="29">
         <v>2000</v>
       </c>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-      <c r="F213" s="30">
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29">
         <v>2001</v>
       </c>
-      <c r="G213" s="30"/>
-      <c r="H213" s="30"/>
-      <c r="I213" s="30"/>
-      <c r="J213" s="30">
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29">
         <v>2002</v>
       </c>
-      <c r="K213" s="30"/>
-      <c r="L213" s="30"/>
-      <c r="M213" s="30"/>
-      <c r="N213" s="30">
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+      <c r="M213" s="29"/>
+      <c r="N213" s="29">
         <v>2003</v>
       </c>
-      <c r="O213" s="30"/>
-      <c r="P213" s="30"/>
-      <c r="Q213" s="30"/>
-      <c r="R213" s="30">
+      <c r="O213" s="29"/>
+      <c r="P213" s="29"/>
+      <c r="Q213" s="29"/>
+      <c r="R213" s="29">
         <v>2004</v>
       </c>
-      <c r="S213" s="30"/>
-      <c r="T213" s="30"/>
-      <c r="U213" s="30"/>
-      <c r="V213" s="30">
+      <c r="S213" s="29"/>
+      <c r="T213" s="29"/>
+      <c r="U213" s="29"/>
+      <c r="V213" s="29">
         <v>2005</v>
       </c>
-      <c r="W213" s="30"/>
-      <c r="X213" s="30"/>
-      <c r="Y213" s="30"/>
-      <c r="Z213" s="30">
+      <c r="W213" s="29"/>
+      <c r="X213" s="29"/>
+      <c r="Y213" s="29"/>
+      <c r="Z213" s="29">
         <v>2006</v>
       </c>
-      <c r="AA213" s="30"/>
-      <c r="AB213" s="30"/>
-      <c r="AC213" s="30"/>
-      <c r="AD213" s="30">
+      <c r="AA213" s="29"/>
+      <c r="AB213" s="29"/>
+      <c r="AC213" s="29"/>
+      <c r="AD213" s="29">
         <v>2007</v>
       </c>
-      <c r="AE213" s="30"/>
-      <c r="AF213" s="30"/>
-      <c r="AG213" s="30"/>
-      <c r="AH213" s="30">
+      <c r="AE213" s="29"/>
+      <c r="AF213" s="29"/>
+      <c r="AG213" s="29"/>
+      <c r="AH213" s="29">
         <v>2008</v>
       </c>
-      <c r="AI213" s="30"/>
-      <c r="AJ213" s="30"/>
-      <c r="AK213" s="30"/>
-      <c r="AL213" s="30">
+      <c r="AI213" s="29"/>
+      <c r="AJ213" s="29"/>
+      <c r="AK213" s="29"/>
+      <c r="AL213" s="29">
         <v>2009</v>
       </c>
-      <c r="AM213" s="30"/>
-      <c r="AN213" s="30"/>
-      <c r="AO213" s="30"/>
-      <c r="AP213" s="30">
+      <c r="AM213" s="29"/>
+      <c r="AN213" s="29"/>
+      <c r="AO213" s="29"/>
+      <c r="AP213" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="30"/>
-      <c r="AR213" s="30"/>
-      <c r="AS213" s="30"/>
-      <c r="AT213" s="30">
+      <c r="AQ213" s="29"/>
+      <c r="AR213" s="29"/>
+      <c r="AS213" s="29"/>
+      <c r="AT213" s="29">
         <v>2011</v>
       </c>
-      <c r="AU213" s="30"/>
-      <c r="AV213" s="30"/>
-      <c r="AW213" s="30"/>
-      <c r="AX213" s="30">
+      <c r="AU213" s="29"/>
+      <c r="AV213" s="29"/>
+      <c r="AW213" s="29"/>
+      <c r="AX213" s="29">
         <v>2012</v>
       </c>
-      <c r="AY213" s="30"/>
-      <c r="AZ213" s="30"/>
-      <c r="BA213" s="30"/>
-      <c r="BB213" s="30">
+      <c r="AY213" s="29"/>
+      <c r="AZ213" s="29"/>
+      <c r="BA213" s="29"/>
+      <c r="BB213" s="29">
         <v>2013</v>
       </c>
-      <c r="BC213" s="30"/>
-      <c r="BD213" s="30"/>
-      <c r="BE213" s="30"/>
-      <c r="BF213" s="30">
+      <c r="BC213" s="29"/>
+      <c r="BD213" s="29"/>
+      <c r="BE213" s="29"/>
+      <c r="BF213" s="29">
         <v>2014</v>
       </c>
-      <c r="BG213" s="30"/>
-      <c r="BH213" s="30"/>
-      <c r="BI213" s="30"/>
-      <c r="BJ213" s="30">
+      <c r="BG213" s="29"/>
+      <c r="BH213" s="29"/>
+      <c r="BI213" s="29"/>
+      <c r="BJ213" s="29">
         <v>2015</v>
       </c>
-      <c r="BK213" s="30"/>
-      <c r="BL213" s="30"/>
-      <c r="BM213" s="30"/>
-      <c r="BN213" s="30">
+      <c r="BK213" s="29"/>
+      <c r="BL213" s="29"/>
+      <c r="BM213" s="29"/>
+      <c r="BN213" s="29">
         <v>2016</v>
       </c>
-      <c r="BO213" s="30"/>
-      <c r="BP213" s="30"/>
-      <c r="BQ213" s="30"/>
-      <c r="BR213" s="30">
+      <c r="BO213" s="29"/>
+      <c r="BP213" s="29"/>
+      <c r="BQ213" s="29"/>
+      <c r="BR213" s="29">
         <v>2017</v>
       </c>
-      <c r="BS213" s="30"/>
-      <c r="BT213" s="30"/>
-      <c r="BU213" s="30"/>
-      <c r="BV213" s="30">
+      <c r="BS213" s="29"/>
+      <c r="BT213" s="29"/>
+      <c r="BU213" s="29"/>
+      <c r="BV213" s="29">
         <v>2018</v>
       </c>
-      <c r="BW213" s="30"/>
-      <c r="BX213" s="30"/>
-      <c r="BY213" s="30"/>
-      <c r="BZ213" s="30">
+      <c r="BW213" s="29"/>
+      <c r="BX213" s="29"/>
+      <c r="BY213" s="29"/>
+      <c r="BZ213" s="29">
         <v>2019</v>
       </c>
-      <c r="CA213" s="30"/>
-      <c r="CB213" s="30"/>
-      <c r="CC213" s="30"/>
-      <c r="CD213" s="30">
+      <c r="CA213" s="29"/>
+      <c r="CB213" s="29"/>
+      <c r="CC213" s="29"/>
+      <c r="CD213" s="29">
         <v>2020</v>
       </c>
-      <c r="CE213" s="30"/>
-      <c r="CF213" s="30"/>
-      <c r="CG213" s="30"/>
-      <c r="CH213" s="29">
+      <c r="CE213" s="29"/>
+      <c r="CF213" s="29"/>
+      <c r="CG213" s="29"/>
+      <c r="CH213" s="30">
         <v>2021</v>
       </c>
-      <c r="CI213" s="29"/>
-      <c r="CJ213" s="29"/>
-      <c r="CK213" s="29"/>
-      <c r="CL213" s="29">
+      <c r="CI213" s="30"/>
+      <c r="CJ213" s="30"/>
+      <c r="CK213" s="30"/>
+      <c r="CL213" s="30">
         <v>2022</v>
       </c>
-      <c r="CM213" s="29"/>
+      <c r="CM213" s="30"/>
+      <c r="CN213" s="30"/>
     </row>
-    <row r="214" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>52</v>
       </c>
@@ -47628,11 +47903,14 @@
       <c r="CM214" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="CN214" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="215" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
@@ -47904,9 +48182,11 @@
         <v>18.048849810500613</v>
       </c>
       <c r="CM216" s="23">
-        <v>16.400079604297911</v>
-      </c>
-      <c r="CN216" s="9"/>
+        <v>16.108261735247421</v>
+      </c>
+      <c r="CN216" s="23">
+        <v>12.921018661291123</v>
+      </c>
       <c r="CO216" s="9"/>
       <c r="CP216" s="9"/>
       <c r="CQ216" s="9"/>
@@ -47968,7 +48248,7 @@
       <c r="EU216" s="9"/>
       <c r="EV216" s="9"/>
     </row>
-    <row r="217" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>11</v>
       </c>
@@ -48240,9 +48520,11 @@
         <v>0.72766429762907625</v>
       </c>
       <c r="CM217" s="23">
-        <v>0.79985701552267274</v>
-      </c>
-      <c r="CN217" s="9"/>
+        <v>0.79946592038971553</v>
+      </c>
+      <c r="CN217" s="23">
+        <v>0.93039782779123559</v>
+      </c>
       <c r="CO217" s="9"/>
       <c r="CP217" s="9"/>
       <c r="CQ217" s="9"/>
@@ -48304,7 +48586,7 @@
       <c r="EU217" s="9"/>
       <c r="EV217" s="9"/>
     </row>
-    <row r="218" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>12</v>
       </c>
@@ -48576,9 +48858,11 @@
         <v>2.7628222147714472</v>
       </c>
       <c r="CM218" s="23">
-        <v>3.0453362623459546</v>
-      </c>
-      <c r="CN218" s="9"/>
+        <v>3.0522260766759701</v>
+      </c>
+      <c r="CN218" s="23">
+        <v>3.2506146961736824</v>
+      </c>
       <c r="CO218" s="9"/>
       <c r="CP218" s="9"/>
       <c r="CQ218" s="9"/>
@@ -48640,7 +48924,7 @@
       <c r="EU218" s="9"/>
       <c r="EV218" s="9"/>
     </row>
-    <row r="219" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>13</v>
       </c>
@@ -48912,9 +49196,11 @@
         <v>0.18846794675788409</v>
       </c>
       <c r="CM219" s="23">
-        <v>0.23052940375254283</v>
-      </c>
-      <c r="CN219" s="9"/>
+        <v>0.22892099732979235</v>
+      </c>
+      <c r="CN219" s="23">
+        <v>0.22384734779624704</v>
+      </c>
       <c r="CO219" s="9"/>
       <c r="CP219" s="9"/>
       <c r="CQ219" s="9"/>
@@ -48976,7 +49262,7 @@
       <c r="EU219" s="9"/>
       <c r="EV219" s="9"/>
     </row>
-    <row r="220" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>14</v>
       </c>
@@ -49248,9 +49534,11 @@
         <v>0.12302906665755409</v>
       </c>
       <c r="CM220" s="23">
-        <v>0.12352552398680078</v>
-      </c>
-      <c r="CN220" s="9"/>
+        <v>0.12333015768126601</v>
+      </c>
+      <c r="CN220" s="23">
+        <v>0.18013756644289422</v>
+      </c>
       <c r="CO220" s="9"/>
       <c r="CP220" s="9"/>
       <c r="CQ220" s="9"/>
@@ -49312,7 +49600,7 @@
       <c r="EU220" s="9"/>
       <c r="EV220" s="9"/>
     </row>
-    <row r="221" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>15</v>
       </c>
@@ -49584,9 +49872,11 @@
         <v>1.0902933200469682</v>
       </c>
       <c r="CM221" s="23">
-        <v>1.0646932870678654</v>
-      </c>
-      <c r="CN221" s="9"/>
+        <v>0.88372446185905706</v>
+      </c>
+      <c r="CN221" s="23">
+        <v>0.81797881871200373</v>
+      </c>
       <c r="CO221" s="9"/>
       <c r="CP221" s="9"/>
       <c r="CQ221" s="9"/>
@@ -49648,7 +49938,7 @@
       <c r="EU221" s="9"/>
       <c r="EV221" s="9"/>
     </row>
-    <row r="222" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>16</v>
       </c>
@@ -49920,9 +50210,11 @@
         <v>10.0881887599515</v>
       </c>
       <c r="CM222" s="23">
-        <v>8.0469712638580155</v>
-      </c>
-      <c r="CN222" s="9"/>
+        <v>7.9257282062953003</v>
+      </c>
+      <c r="CN222" s="23">
+        <v>4.7098236171272641</v>
+      </c>
       <c r="CO222" s="9"/>
       <c r="CP222" s="9"/>
       <c r="CQ222" s="9"/>
@@ -49984,7 +50276,7 @@
       <c r="EU222" s="9"/>
       <c r="EV222" s="9"/>
     </row>
-    <row r="223" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>17</v>
       </c>
@@ -50256,9 +50548,11 @@
         <v>0.21583197704892709</v>
       </c>
       <c r="CM223" s="23">
-        <v>0.23737823421100357</v>
-      </c>
-      <c r="CN223" s="9"/>
+        <v>0.23716492107386022</v>
+      </c>
+      <c r="CN223" s="23">
+        <v>0.14153242823608334</v>
+      </c>
       <c r="CO223" s="9"/>
       <c r="CP223" s="9"/>
       <c r="CQ223" s="9"/>
@@ -50320,7 +50614,7 @@
       <c r="EU223" s="9"/>
       <c r="EV223" s="9"/>
     </row>
-    <row r="224" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>18</v>
       </c>
@@ -50592,9 +50886,11 @@
         <v>2.8525522276372568</v>
       </c>
       <c r="CM224" s="23">
-        <v>2.8517886135530546</v>
-      </c>
-      <c r="CN224" s="9"/>
+        <v>2.8577009939424589</v>
+      </c>
+      <c r="CN224" s="23">
+        <v>2.6666863590117127</v>
+      </c>
       <c r="CO224" s="9"/>
       <c r="CP224" s="9"/>
       <c r="CQ224" s="9"/>
@@ -50656,7 +50952,7 @@
       <c r="EU224" s="9"/>
       <c r="EV224" s="9"/>
     </row>
-    <row r="225" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>19</v>
       </c>
@@ -50928,9 +51224,11 @@
         <v>16.076091569786495</v>
       </c>
       <c r="CM225" s="23">
-        <v>16.27682207630297</v>
-      </c>
-      <c r="CN225" s="9"/>
+        <v>16.282547488776167</v>
+      </c>
+      <c r="CN225" s="23">
+        <v>18.449804618287779</v>
+      </c>
       <c r="CO225" s="9"/>
       <c r="CP225" s="9"/>
       <c r="CQ225" s="9"/>
@@ -50992,7 +51290,7 @@
       <c r="EU225" s="9"/>
       <c r="EV225" s="9"/>
     </row>
-    <row r="226" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>20</v>
       </c>
@@ -51264,9 +51562,11 @@
         <v>2.7767714460687762</v>
       </c>
       <c r="CM226" s="23">
-        <v>3.2908211191886312</v>
-      </c>
-      <c r="CN226" s="9"/>
+        <v>3.2393795271444663</v>
+      </c>
+      <c r="CN226" s="23">
+        <v>2.9620434637341013</v>
+      </c>
       <c r="CO226" s="9"/>
       <c r="CP226" s="9"/>
       <c r="CQ226" s="9"/>
@@ -51328,7 +51628,7 @@
       <c r="EU226" s="9"/>
       <c r="EV226" s="9"/>
     </row>
-    <row r="227" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>21</v>
       </c>
@@ -51600,9 +51900,11 @@
         <v>1.6328544606031372</v>
       </c>
       <c r="CM227" s="23">
-        <v>1.8654796471636999</v>
-      </c>
-      <c r="CN227" s="9"/>
+        <v>1.8545239396508306</v>
+      </c>
+      <c r="CN227" s="23">
+        <v>1.6353645174923703</v>
+      </c>
       <c r="CO227" s="9"/>
       <c r="CP227" s="9"/>
       <c r="CQ227" s="9"/>
@@ -51664,7 +51966,7 @@
       <c r="EU227" s="9"/>
       <c r="EV227" s="9"/>
     </row>
-    <row r="228" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>22</v>
       </c>
@@ -51936,9 +52238,11 @@
         <v>3.9593041079951541</v>
       </c>
       <c r="CM228" s="23">
-        <v>4.4126326675417458</v>
-      </c>
-      <c r="CN228" s="9"/>
+        <v>4.4811822805436927</v>
+      </c>
+      <c r="CN228" s="23">
+        <v>7.5356624043722507</v>
+      </c>
       <c r="CO228" s="9"/>
       <c r="CP228" s="9"/>
       <c r="CQ228" s="9"/>
@@ -52000,7 +52304,7 @@
       <c r="EU228" s="9"/>
       <c r="EV228" s="9"/>
     </row>
-    <row r="229" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>23</v>
       </c>
@@ -52272,9 +52576,11 @@
         <v>7.707161555119427</v>
       </c>
       <c r="CM229" s="23">
-        <v>6.7078886424088937</v>
-      </c>
-      <c r="CN229" s="9"/>
+        <v>6.7074617414371778</v>
+      </c>
+      <c r="CN229" s="23">
+        <v>6.3167342326890559</v>
+      </c>
       <c r="CO229" s="9"/>
       <c r="CP229" s="9"/>
       <c r="CQ229" s="9"/>
@@ -52336,7 +52642,7 @@
       <c r="EU229" s="9"/>
       <c r="EV229" s="9"/>
     </row>
-    <row r="230" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>24</v>
       </c>
@@ -52608,9 +52914,11 @@
         <v>47.706177766985157</v>
       </c>
       <c r="CM230" s="23">
-        <v>47.679595665350888</v>
-      </c>
-      <c r="CN230" s="9"/>
+        <v>47.667350797792565</v>
+      </c>
+      <c r="CN230" s="23">
+        <v>50.954698678649422</v>
+      </c>
       <c r="CO230" s="9"/>
       <c r="CP230" s="9"/>
       <c r="CQ230" s="9"/>
@@ -52672,7 +52980,7 @@
       <c r="EU230" s="9"/>
       <c r="EV230" s="9"/>
     </row>
-    <row r="231" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>25</v>
       </c>
@@ -52944,9 +53252,11 @@
         <v>39.639780886609849</v>
       </c>
       <c r="CM231" s="23">
-        <v>40.094871272720773</v>
-      </c>
-      <c r="CN231" s="9"/>
+        <v>40.087061296142942</v>
+      </c>
+      <c r="CN231" s="23">
+        <v>47.278943698196521</v>
+      </c>
       <c r="CO231" s="9"/>
       <c r="CP231" s="9"/>
       <c r="CQ231" s="9"/>
@@ -53008,7 +53318,7 @@
       <c r="EU231" s="9"/>
       <c r="EV231" s="9"/>
     </row>
-    <row r="232" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>26</v>
       </c>
@@ -53280,9 +53590,11 @@
         <v>0.50557634924496264</v>
       </c>
       <c r="CM232" s="23">
-        <v>0.26586653508408503</v>
-      </c>
-      <c r="CN232" s="9"/>
+        <v>0.26544462844114536</v>
+      </c>
+      <c r="CN232" s="23">
+        <v>1.5720363210633585E-2</v>
+      </c>
       <c r="CO232" s="9"/>
       <c r="CP232" s="9"/>
       <c r="CQ232" s="9"/>
@@ -53344,7 +53656,7 @@
       <c r="EU232" s="9"/>
       <c r="EV232" s="9"/>
     </row>
-    <row r="233" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>27</v>
       </c>
@@ -53616,9 +53928,11 @@
         <v>4.7975813354091326</v>
       </c>
       <c r="CM233" s="23">
-        <v>3.3056211929161834</v>
-      </c>
-      <c r="CN233" s="9"/>
+        <v>3.3036348126886308</v>
+      </c>
+      <c r="CN233" s="23">
+        <v>1.7977591923143046</v>
+      </c>
       <c r="CO233" s="9"/>
       <c r="CP233" s="9"/>
       <c r="CQ233" s="9"/>
@@ -53680,7 +53994,7 @@
       <c r="EU233" s="9"/>
       <c r="EV233" s="9"/>
     </row>
-    <row r="234" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>28</v>
       </c>
@@ -53952,9 +54266,11 @@
         <v>2.7632391957212041</v>
       </c>
       <c r="CM234" s="23">
-        <v>4.0132366646298481</v>
-      </c>
-      <c r="CN234" s="9"/>
+        <v>4.0112100605198524</v>
+      </c>
+      <c r="CN234" s="23">
+        <v>1.8622754249279567</v>
+      </c>
       <c r="CO234" s="9"/>
       <c r="CP234" s="9"/>
       <c r="CQ234" s="9"/>
@@ -54016,7 +54332,7 @@
       <c r="EU234" s="9"/>
       <c r="EV234" s="9"/>
     </row>
-    <row r="235" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>29</v>
       </c>
@@ -54288,9 +54604,11 @@
         <v>18.168880852727739</v>
       </c>
       <c r="CM235" s="23">
-        <v>19.643502654048241</v>
-      </c>
-      <c r="CN235" s="9"/>
+        <v>19.94183997818385</v>
+      </c>
+      <c r="CN235" s="23">
+        <v>17.674478041771675</v>
+      </c>
       <c r="CO235" s="9"/>
       <c r="CP235" s="9"/>
       <c r="CQ235" s="9"/>
@@ -54352,7 +54670,7 @@
       <c r="EU235" s="9"/>
       <c r="EV235" s="9"/>
     </row>
-    <row r="236" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>30</v>
       </c>
@@ -54624,9 +54942,11 @@
         <v>1.4417115439645611</v>
       </c>
       <c r="CM236" s="23">
-        <v>1.50340924914379</v>
-      </c>
-      <c r="CN236" s="9"/>
+        <v>1.488507903542881</v>
+      </c>
+      <c r="CN236" s="23">
+        <v>1.7710857729576317</v>
+      </c>
       <c r="CO236" s="9"/>
       <c r="CP236" s="9"/>
       <c r="CQ236" s="9"/>
@@ -54688,7 +55008,7 @@
       <c r="EU236" s="9"/>
       <c r="EV236" s="9"/>
     </row>
-    <row r="237" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>31</v>
       </c>
@@ -54960,9 +55280,11 @@
         <v>3.2093181485542006</v>
       </c>
       <c r="CM237" s="23">
-        <v>2.93848406590496</v>
-      </c>
-      <c r="CN237" s="9"/>
+        <v>2.915445765261822</v>
+      </c>
+      <c r="CN237" s="23">
+        <v>2.6402555162241179</v>
+      </c>
       <c r="CO237" s="9"/>
       <c r="CP237" s="9"/>
       <c r="CQ237" s="9"/>
@@ -55024,7 +55346,7 @@
       <c r="EU237" s="9"/>
       <c r="EV237" s="9"/>
     </row>
-    <row r="238" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>32</v>
       </c>
@@ -55296,9 +55618,11 @@
         <v>9.3192905585995707</v>
       </c>
       <c r="CM238" s="23">
-        <v>9.8574179898498837</v>
-      </c>
-      <c r="CN238" s="9"/>
+        <v>9.9336632608664956</v>
+      </c>
+      <c r="CN238" s="23">
+        <v>9.9489441400357403</v>
+      </c>
       <c r="CO238" s="9"/>
       <c r="CP238" s="9"/>
       <c r="CQ238" s="9"/>
@@ -55360,7 +55684,7 @@
       <c r="EU238" s="9"/>
       <c r="EV238" s="9"/>
     </row>
-    <row r="239" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>33</v>
       </c>
@@ -55632,9 +55956,11 @@
         <v>4.1985606016094081</v>
       </c>
       <c r="CM239" s="23">
-        <v>5.3441913491496065</v>
-      </c>
-      <c r="CN239" s="9"/>
+        <v>5.604223048512651</v>
+      </c>
+      <c r="CN239" s="23">
+        <v>3.3141926125541836</v>
+      </c>
       <c r="CO239" s="9"/>
       <c r="CP239" s="9"/>
       <c r="CQ239" s="9"/>
@@ -55696,7 +56022,7 @@
       <c r="EU239" s="9"/>
       <c r="EV239" s="9"/>
     </row>
-    <row r="240" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
@@ -55849,7 +56175,7 @@
       <c r="EU240" s="9"/>
       <c r="EV240" s="9"/>
     </row>
-    <row r="241" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12" t="s">
         <v>34</v>
       </c>
@@ -56123,7 +56449,9 @@
       <c r="CM241" s="23">
         <v>100</v>
       </c>
-      <c r="CN241" s="9"/>
+      <c r="CN241" s="23">
+        <v>100</v>
+      </c>
       <c r="CO241" s="9"/>
       <c r="CP241" s="9"/>
       <c r="CQ241" s="9"/>
@@ -56185,7 +56513,7 @@
       <c r="EU241" s="9"/>
       <c r="EV241" s="9"/>
     </row>
-    <row r="242" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="14"/>
       <c r="B242" s="14"/>
       <c r="C242" s="14"/>
@@ -56277,13 +56605,14 @@
       <c r="CK242" s="14"/>
       <c r="CL242" s="14"/>
       <c r="CM242" s="14"/>
+      <c r="CN242" s="14"/>
     </row>
-    <row r="243" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
@@ -56436,7 +56765,7 @@
       <c r="EU244" s="9"/>
       <c r="EV244" s="9"/>
     </row>
-    <row r="245" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
@@ -56589,176 +56918,177 @@
       <c r="EU245" s="9"/>
       <c r="EV245" s="9"/>
     </row>
-    <row r="246" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="250" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="252" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="30">
+      <c r="B254" s="29">
         <v>2000</v>
       </c>
-      <c r="C254" s="30"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="30">
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="29">
         <v>2001</v>
       </c>
-      <c r="G254" s="30"/>
-      <c r="H254" s="30"/>
-      <c r="I254" s="30"/>
-      <c r="J254" s="30">
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29">
         <v>2002</v>
       </c>
-      <c r="K254" s="30"/>
-      <c r="L254" s="30"/>
-      <c r="M254" s="30"/>
-      <c r="N254" s="30">
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
+      <c r="M254" s="29"/>
+      <c r="N254" s="29">
         <v>2003</v>
       </c>
-      <c r="O254" s="30"/>
-      <c r="P254" s="30"/>
-      <c r="Q254" s="30"/>
-      <c r="R254" s="30">
+      <c r="O254" s="29"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+      <c r="R254" s="29">
         <v>2004</v>
       </c>
-      <c r="S254" s="30"/>
-      <c r="T254" s="30"/>
-      <c r="U254" s="30"/>
-      <c r="V254" s="30">
+      <c r="S254" s="29"/>
+      <c r="T254" s="29"/>
+      <c r="U254" s="29"/>
+      <c r="V254" s="29">
         <v>2005</v>
       </c>
-      <c r="W254" s="30"/>
-      <c r="X254" s="30"/>
-      <c r="Y254" s="30"/>
-      <c r="Z254" s="30">
+      <c r="W254" s="29"/>
+      <c r="X254" s="29"/>
+      <c r="Y254" s="29"/>
+      <c r="Z254" s="29">
         <v>2006</v>
       </c>
-      <c r="AA254" s="30"/>
-      <c r="AB254" s="30"/>
-      <c r="AC254" s="30"/>
-      <c r="AD254" s="30">
+      <c r="AA254" s="29"/>
+      <c r="AB254" s="29"/>
+      <c r="AC254" s="29"/>
+      <c r="AD254" s="29">
         <v>2007</v>
       </c>
-      <c r="AE254" s="30"/>
-      <c r="AF254" s="30"/>
-      <c r="AG254" s="30"/>
-      <c r="AH254" s="30">
+      <c r="AE254" s="29"/>
+      <c r="AF254" s="29"/>
+      <c r="AG254" s="29"/>
+      <c r="AH254" s="29">
         <v>2008</v>
       </c>
-      <c r="AI254" s="30"/>
-      <c r="AJ254" s="30"/>
-      <c r="AK254" s="30"/>
-      <c r="AL254" s="30">
+      <c r="AI254" s="29"/>
+      <c r="AJ254" s="29"/>
+      <c r="AK254" s="29"/>
+      <c r="AL254" s="29">
         <v>2009</v>
       </c>
-      <c r="AM254" s="30"/>
-      <c r="AN254" s="30"/>
-      <c r="AO254" s="30"/>
-      <c r="AP254" s="30">
+      <c r="AM254" s="29"/>
+      <c r="AN254" s="29"/>
+      <c r="AO254" s="29"/>
+      <c r="AP254" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="30"/>
-      <c r="AR254" s="30"/>
-      <c r="AS254" s="30"/>
-      <c r="AT254" s="30">
+      <c r="AQ254" s="29"/>
+      <c r="AR254" s="29"/>
+      <c r="AS254" s="29"/>
+      <c r="AT254" s="29">
         <v>2011</v>
       </c>
-      <c r="AU254" s="30"/>
-      <c r="AV254" s="30"/>
-      <c r="AW254" s="30"/>
-      <c r="AX254" s="30">
+      <c r="AU254" s="29"/>
+      <c r="AV254" s="29"/>
+      <c r="AW254" s="29"/>
+      <c r="AX254" s="29">
         <v>2012</v>
       </c>
-      <c r="AY254" s="30"/>
-      <c r="AZ254" s="30"/>
-      <c r="BA254" s="30"/>
-      <c r="BB254" s="30">
+      <c r="AY254" s="29"/>
+      <c r="AZ254" s="29"/>
+      <c r="BA254" s="29"/>
+      <c r="BB254" s="29">
         <v>2013</v>
       </c>
-      <c r="BC254" s="30"/>
-      <c r="BD254" s="30"/>
-      <c r="BE254" s="30"/>
-      <c r="BF254" s="30">
+      <c r="BC254" s="29"/>
+      <c r="BD254" s="29"/>
+      <c r="BE254" s="29"/>
+      <c r="BF254" s="29">
         <v>2014</v>
       </c>
-      <c r="BG254" s="30"/>
-      <c r="BH254" s="30"/>
-      <c r="BI254" s="30"/>
-      <c r="BJ254" s="30">
+      <c r="BG254" s="29"/>
+      <c r="BH254" s="29"/>
+      <c r="BI254" s="29"/>
+      <c r="BJ254" s="29">
         <v>2015</v>
       </c>
-      <c r="BK254" s="30"/>
-      <c r="BL254" s="30"/>
-      <c r="BM254" s="30"/>
-      <c r="BN254" s="30">
+      <c r="BK254" s="29"/>
+      <c r="BL254" s="29"/>
+      <c r="BM254" s="29"/>
+      <c r="BN254" s="29">
         <v>2016</v>
       </c>
-      <c r="BO254" s="30"/>
-      <c r="BP254" s="30"/>
-      <c r="BQ254" s="30"/>
-      <c r="BR254" s="30">
+      <c r="BO254" s="29"/>
+      <c r="BP254" s="29"/>
+      <c r="BQ254" s="29"/>
+      <c r="BR254" s="29">
         <v>2017</v>
       </c>
-      <c r="BS254" s="30"/>
-      <c r="BT254" s="30"/>
-      <c r="BU254" s="30"/>
-      <c r="BV254" s="30">
+      <c r="BS254" s="29"/>
+      <c r="BT254" s="29"/>
+      <c r="BU254" s="29"/>
+      <c r="BV254" s="29">
         <v>2018</v>
       </c>
-      <c r="BW254" s="30"/>
-      <c r="BX254" s="30"/>
-      <c r="BY254" s="30"/>
-      <c r="BZ254" s="30">
+      <c r="BW254" s="29"/>
+      <c r="BX254" s="29"/>
+      <c r="BY254" s="29"/>
+      <c r="BZ254" s="29">
         <v>2019</v>
       </c>
-      <c r="CA254" s="30"/>
-      <c r="CB254" s="30"/>
-      <c r="CC254" s="30"/>
-      <c r="CD254" s="30">
+      <c r="CA254" s="29"/>
+      <c r="CB254" s="29"/>
+      <c r="CC254" s="29"/>
+      <c r="CD254" s="29">
         <v>2020</v>
       </c>
-      <c r="CE254" s="30"/>
-      <c r="CF254" s="30"/>
-      <c r="CG254" s="30"/>
-      <c r="CH254" s="29">
+      <c r="CE254" s="29"/>
+      <c r="CF254" s="29"/>
+      <c r="CG254" s="29"/>
+      <c r="CH254" s="30">
         <v>2021</v>
       </c>
-      <c r="CI254" s="29"/>
-      <c r="CJ254" s="29"/>
-      <c r="CK254" s="29"/>
-      <c r="CL254" s="29">
+      <c r="CI254" s="30"/>
+      <c r="CJ254" s="30"/>
+      <c r="CK254" s="30"/>
+      <c r="CL254" s="30">
         <v>2022</v>
       </c>
-      <c r="CM254" s="29"/>
+      <c r="CM254" s="30"/>
+      <c r="CN254" s="30"/>
     </row>
-    <row r="255" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>52</v>
       </c>
@@ -57032,11 +57362,14 @@
       <c r="CM255" s="17" t="s">
         <v>7</v>
       </c>
+      <c r="CN255" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="256" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
     </row>
-    <row r="257" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>10</v>
       </c>
@@ -57308,9 +57641,11 @@
         <v>16.63992912199722</v>
       </c>
       <c r="CM257" s="23">
-        <v>10.134915163815077</v>
-      </c>
-      <c r="CN257" s="9"/>
+        <v>9.9901398548405123</v>
+      </c>
+      <c r="CN257" s="23">
+        <v>15.003503165908302</v>
+      </c>
       <c r="CO257" s="9"/>
       <c r="CP257" s="9"/>
       <c r="CQ257" s="9"/>
@@ -57372,7 +57707,7 @@
       <c r="EU257" s="9"/>
       <c r="EV257" s="9"/>
     </row>
-    <row r="258" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>11</v>
       </c>
@@ -57644,9 +57979,11 @@
         <v>0.66945417752513714</v>
       </c>
       <c r="CM258" s="23">
-        <v>0.25610663594084715</v>
-      </c>
-      <c r="CN258" s="9"/>
+        <v>0.25583718053569765</v>
+      </c>
+      <c r="CN258" s="23">
+        <v>1.0263920666503459</v>
+      </c>
       <c r="CO258" s="9"/>
       <c r="CP258" s="9"/>
       <c r="CQ258" s="9"/>
@@ -57708,7 +58045,7 @@
       <c r="EU258" s="9"/>
       <c r="EV258" s="9"/>
     </row>
-    <row r="259" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>12</v>
       </c>
@@ -57980,9 +58317,11 @@
         <v>2.4943573766866449</v>
       </c>
       <c r="CM259" s="23">
-        <v>1.0013158855532875</v>
-      </c>
-      <c r="CN259" s="9"/>
+        <v>1.0036344112024134</v>
+      </c>
+      <c r="CN259" s="23">
+        <v>3.6096033812444563</v>
+      </c>
       <c r="CO259" s="9"/>
       <c r="CP259" s="9"/>
       <c r="CQ259" s="9"/>
@@ -58044,7 +58383,7 @@
       <c r="EU259" s="9"/>
       <c r="EV259" s="9"/>
     </row>
-    <row r="260" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>13</v>
       </c>
@@ -58316,9 +58655,11 @@
         <v>0.17748633128873639</v>
       </c>
       <c r="CM260" s="23">
-        <v>0.10217277247971988</v>
-      </c>
-      <c r="CN260" s="9"/>
+        <v>0.10302955184593959</v>
+      </c>
+      <c r="CN260" s="23">
+        <v>0.25323158360607184</v>
+      </c>
       <c r="CO260" s="9"/>
       <c r="CP260" s="9"/>
       <c r="CQ260" s="9"/>
@@ -58380,7 +58721,7 @@
       <c r="EU260" s="9"/>
       <c r="EV260" s="9"/>
     </row>
-    <row r="261" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>14</v>
       </c>
@@ -58652,9 +58993,11 @@
         <v>9.3642704885870565E-2</v>
       </c>
       <c r="CM261" s="23">
-        <v>4.5348934349930231E-2</v>
-      </c>
-      <c r="CN261" s="9"/>
+        <v>4.5552458098665212E-2</v>
+      </c>
+      <c r="CN261" s="23">
+        <v>0.19799613443242828</v>
+      </c>
       <c r="CO261" s="9"/>
       <c r="CP261" s="9"/>
       <c r="CQ261" s="9"/>
@@ -58716,7 +59059,7 @@
       <c r="EU261" s="9"/>
       <c r="EV261" s="9"/>
     </row>
-    <row r="262" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>15</v>
       </c>
@@ -58988,9 +59331,11 @@
         <v>0.95078500308052838</v>
       </c>
       <c r="CM262" s="23">
-        <v>0.3503704306655952</v>
-      </c>
-      <c r="CN262" s="9"/>
+        <v>0.29434037804514857</v>
+      </c>
+      <c r="CN262" s="23">
+        <v>0.87970943024856407</v>
+      </c>
       <c r="CO262" s="9"/>
       <c r="CP262" s="9"/>
       <c r="CQ262" s="9"/>
@@ -59052,7 +59397,7 @@
       <c r="EU262" s="9"/>
       <c r="EV262" s="9"/>
     </row>
-    <row r="263" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>16</v>
       </c>
@@ -59324,9 +59669,11 @@
         <v>9.5308614642380363</v>
       </c>
       <c r="CM263" s="23">
-        <v>7.1732138670241499</v>
-      </c>
-      <c r="CN263" s="9"/>
+        <v>7.0476883238242642</v>
+      </c>
+      <c r="CN263" s="23">
+        <v>5.8744842752213842</v>
+      </c>
       <c r="CO263" s="9"/>
       <c r="CP263" s="9"/>
       <c r="CQ263" s="9"/>
@@ -59388,7 +59735,7 @@
       <c r="EU263" s="9"/>
       <c r="EV263" s="9"/>
     </row>
-    <row r="264" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>17</v>
       </c>
@@ -59660,9 +60007,11 @@
         <v>0.20072299105857375</v>
       </c>
       <c r="CM264" s="23">
-        <v>8.2437499057813196E-2</v>
-      </c>
-      <c r="CN264" s="9"/>
+        <v>8.2558548045251007E-2</v>
+      </c>
+      <c r="CN264" s="23">
+        <v>0.16019712843664963</v>
+      </c>
       <c r="CO264" s="9"/>
       <c r="CP264" s="9"/>
       <c r="CQ264" s="9"/>
@@ -59724,7 +60073,7 @@
       <c r="EU264" s="9"/>
       <c r="EV264" s="9"/>
     </row>
-    <row r="265" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>18</v>
       </c>
@@ -59996,9 +60345,11 @@
         <v>2.5226190732336917</v>
       </c>
       <c r="CM265" s="23">
-        <v>1.123949138743733</v>
-      </c>
-      <c r="CN265" s="9"/>
+        <v>1.1574990032431343</v>
+      </c>
+      <c r="CN265" s="23">
+        <v>3.0018891660684033</v>
+      </c>
       <c r="CO265" s="9"/>
       <c r="CP265" s="9"/>
       <c r="CQ265" s="9"/>
@@ -60060,7 +60411,7 @@
       <c r="EU265" s="9"/>
       <c r="EV265" s="9"/>
     </row>
-    <row r="266" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>19</v>
       </c>
@@ -60332,9 +60683,11 @@
         <v>15.368910426860738</v>
       </c>
       <c r="CM266" s="23">
-        <v>13.412335160461685</v>
-      </c>
-      <c r="CN266" s="9"/>
+        <v>13.402179083958043</v>
+      </c>
+      <c r="CN266" s="23">
+        <v>19.79351463268733</v>
+      </c>
       <c r="CO266" s="9"/>
       <c r="CP266" s="9"/>
       <c r="CQ266" s="9"/>
@@ -60396,7 +60749,7 @@
       <c r="EU266" s="9"/>
       <c r="EV266" s="9"/>
     </row>
-    <row r="267" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>20</v>
       </c>
@@ -60668,9 +61021,11 @@
         <v>2.5239546461273399</v>
       </c>
       <c r="CM267" s="23">
-        <v>2.5831435972352459</v>
-      </c>
-      <c r="CN267" s="9"/>
+        <v>2.523546798694452</v>
+      </c>
+      <c r="CN267" s="23">
+        <v>3.1425219853180919</v>
+      </c>
       <c r="CO267" s="9"/>
       <c r="CP267" s="9"/>
       <c r="CQ267" s="9"/>
@@ -60732,7 +61087,7 @@
       <c r="EU267" s="9"/>
       <c r="EV267" s="9"/>
     </row>
-    <row r="268" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>21</v>
       </c>
@@ -61004,9 +61359,11 @@
         <v>1.4814873025385729</v>
       </c>
       <c r="CM268" s="23">
-        <v>1.4933848513726737</v>
-      </c>
-      <c r="CN268" s="9"/>
+        <v>1.478043539734849</v>
+      </c>
+      <c r="CN268" s="23">
+        <v>1.8679559866307494</v>
+      </c>
       <c r="CO268" s="9"/>
       <c r="CP268" s="9"/>
       <c r="CQ268" s="9"/>
@@ -61068,7 +61425,7 @@
       <c r="EU268" s="9"/>
       <c r="EV268" s="9"/>
     </row>
-    <row r="269" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>22</v>
       </c>
@@ -61340,9 +61697,11 @@
         <v>3.5826960892298207</v>
       </c>
       <c r="CM269" s="23">
-        <v>3.4481102999451738</v>
-      </c>
-      <c r="CN269" s="9"/>
+        <v>3.5216176959729979</v>
+      </c>
+      <c r="CN269" s="23">
+        <v>7.7371073185394694</v>
+      </c>
       <c r="CO269" s="9"/>
       <c r="CP269" s="9"/>
       <c r="CQ269" s="9"/>
@@ -61404,7 +61763,7 @@
       <c r="EU269" s="9"/>
       <c r="EV269" s="9"/>
     </row>
-    <row r="270" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>23</v>
       </c>
@@ -61676,9 +62035,11 @@
         <v>7.7807723889650058</v>
       </c>
       <c r="CM270" s="23">
-        <v>5.8876964119085908</v>
-      </c>
-      <c r="CN270" s="9"/>
+        <v>5.8789710495557452</v>
+      </c>
+      <c r="CN270" s="23">
+        <v>7.0459293421990203</v>
+      </c>
       <c r="CO270" s="9"/>
       <c r="CP270" s="9"/>
       <c r="CQ270" s="9"/>
@@ -61740,7 +62101,7 @@
       <c r="EU270" s="9"/>
       <c r="EV270" s="9"/>
     </row>
-    <row r="271" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>24</v>
       </c>
@@ -62012,9 +62373,11 @@
         <v>50.873226516980793</v>
       </c>
       <c r="CM271" s="23">
-        <v>50.811774181637269</v>
-      </c>
-      <c r="CN271" s="9"/>
+        <v>50.758732806213878</v>
+      </c>
+      <c r="CN271" s="23">
+        <v>48.919382404536613</v>
+      </c>
       <c r="CO271" s="9"/>
       <c r="CP271" s="9"/>
       <c r="CQ271" s="9"/>
@@ -62076,7 +62439,7 @@
       <c r="EU271" s="9"/>
       <c r="EV271" s="9"/>
     </row>
-    <row r="272" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>25</v>
       </c>
@@ -62348,9 +62711,11 @@
         <v>43.774951367855458</v>
       </c>
       <c r="CM272" s="23">
-        <v>42.480644266168419</v>
-      </c>
-      <c r="CN272" s="9"/>
+        <v>42.442895922276129</v>
+      </c>
+      <c r="CN272" s="23">
+        <v>45.694890921892686</v>
+      </c>
       <c r="CO272" s="9"/>
       <c r="CP272" s="9"/>
       <c r="CQ272" s="9"/>
@@ -62412,7 +62777,7 @@
       <c r="EU272" s="9"/>
       <c r="EV272" s="9"/>
     </row>
-    <row r="273" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>26</v>
       </c>
@@ -62684,9 +63049,11 @@
         <v>0.52067900031187087</v>
       </c>
       <c r="CM273" s="23">
-        <v>0.34599601859776946</v>
-      </c>
-      <c r="CN273" s="9"/>
+        <v>0.34501702246415089</v>
+      </c>
+      <c r="CN273" s="23">
+        <v>1.4355766400278696E-2</v>
+      </c>
       <c r="CO273" s="9"/>
       <c r="CP273" s="9"/>
       <c r="CQ273" s="9"/>
@@ -62748,7 +63115,7 @@
       <c r="EU273" s="9"/>
       <c r="EV273" s="9"/>
     </row>
-    <row r="274" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>27</v>
       </c>
@@ -63020,9 +63387,11 @@
         <v>4.2449944961193111</v>
       </c>
       <c r="CM274" s="23">
-        <v>3.6196102368402232</v>
-      </c>
-      <c r="CN274" s="9"/>
+        <v>3.6129311234383668</v>
+      </c>
+      <c r="CN274" s="23">
+        <v>1.5138989050256024</v>
+      </c>
       <c r="CO274" s="9"/>
       <c r="CP274" s="9"/>
       <c r="CQ274" s="9"/>
@@ -63084,7 +63453,7 @@
       <c r="EU274" s="9"/>
       <c r="EV274" s="9"/>
     </row>
-    <row r="275" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>28</v>
       </c>
@@ -63356,9 +63725,11 @@
         <v>2.3326016526941462</v>
       </c>
       <c r="CM275" s="23">
-        <v>4.3655236600308687</v>
-      </c>
-      <c r="CN275" s="9"/>
+        <v>4.3578887380352347</v>
+      </c>
+      <c r="CN275" s="23">
+        <v>1.6962368112180455</v>
+      </c>
       <c r="CO275" s="9"/>
       <c r="CP275" s="9"/>
       <c r="CQ275" s="9"/>
@@ -63420,7 +63791,7 @@
       <c r="EU275" s="9"/>
       <c r="EV275" s="9"/>
     </row>
-    <row r="276" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>29</v>
       </c>
@@ -63692,9 +64063,11 @@
         <v>17.117933934161254</v>
       </c>
       <c r="CM276" s="23">
-        <v>25.640975494085964</v>
-      </c>
-      <c r="CN276" s="9"/>
+        <v>25.848948254987569</v>
+      </c>
+      <c r="CN276" s="23">
+        <v>16.283599796867758</v>
+      </c>
       <c r="CO276" s="9"/>
       <c r="CP276" s="9"/>
       <c r="CQ276" s="9"/>
@@ -63756,7 +64129,7 @@
       <c r="EU276" s="9"/>
       <c r="EV276" s="9"/>
     </row>
-    <row r="277" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>30</v>
       </c>
@@ -64028,9 +64401,11 @@
         <v>1.3903996332534274</v>
       </c>
       <c r="CM277" s="23">
-        <v>2.2359884566605968</v>
-      </c>
-      <c r="CN277" s="9"/>
+        <v>2.2136090478015982</v>
+      </c>
+      <c r="CN277" s="23">
+        <v>1.2776595873098082</v>
+      </c>
       <c r="CO277" s="9"/>
       <c r="CP277" s="9"/>
       <c r="CQ277" s="9"/>
@@ -64092,7 +64467,7 @@
       <c r="EU277" s="9"/>
       <c r="EV277" s="9"/>
     </row>
-    <row r="278" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>31</v>
       </c>
@@ -64364,9 +64739,11 @@
         <v>3.3945687706316021</v>
       </c>
       <c r="CM278" s="23">
-        <v>3.9966387280331568</v>
-      </c>
-      <c r="CN278" s="9"/>
+        <v>3.9678662463742862</v>
+      </c>
+      <c r="CN278" s="23">
+        <v>2.2827777939543643</v>
+      </c>
       <c r="CO278" s="9"/>
       <c r="CP278" s="9"/>
       <c r="CQ278" s="9"/>
@@ -64428,7 +64805,7 @@
       <c r="EU278" s="9"/>
       <c r="EV278" s="9"/>
     </row>
-    <row r="279" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
         <v>32</v>
       </c>
@@ -64700,9 +65077,11 @@
         <v>8.1765164957278724</v>
       </c>
       <c r="CM279" s="23">
-        <v>14.265812249581497</v>
-      </c>
-      <c r="CN279" s="9"/>
+        <v>14.297672628269137</v>
+      </c>
+      <c r="CN279" s="23">
+        <v>9.5311834667807656</v>
+      </c>
       <c r="CO279" s="9"/>
       <c r="CP279" s="9"/>
       <c r="CQ279" s="9"/>
@@ -64764,7 +65143,7 @@
       <c r="EU279" s="9"/>
       <c r="EV279" s="9"/>
     </row>
-    <row r="280" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
         <v>33</v>
       </c>
@@ -65036,9 +65415,11 @@
         <v>4.1564490345483511</v>
       </c>
       <c r="CM280" s="23">
-        <v>5.1425360598107126</v>
-      </c>
-      <c r="CN280" s="9"/>
+        <v>5.3698003325425514</v>
+      </c>
+      <c r="CN280" s="23">
+        <v>3.1919789488228205</v>
+      </c>
       <c r="CO280" s="9"/>
       <c r="CP280" s="9"/>
       <c r="CQ280" s="9"/>
@@ -65100,7 +65481,7 @@
       <c r="EU280" s="9"/>
       <c r="EV280" s="9"/>
     </row>
-    <row r="281" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
@@ -65253,7 +65634,7 @@
       <c r="EU281" s="9"/>
       <c r="EV281" s="9"/>
     </row>
-    <row r="282" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:152" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12" t="s">
         <v>34</v>
       </c>
@@ -65527,7 +65908,9 @@
       <c r="CM282" s="23">
         <v>100</v>
       </c>
-      <c r="CN282" s="9"/>
+      <c r="CN282" s="23">
+        <v>100</v>
+      </c>
       <c r="CO282" s="9"/>
       <c r="CP282" s="9"/>
       <c r="CQ282" s="9"/>
@@ -65589,7 +65972,7 @@
       <c r="EU282" s="9"/>
       <c r="EV282" s="9"/>
     </row>
-    <row r="283" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="14"/>
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
@@ -65681,81 +66064,103 @@
       <c r="CK283" s="14"/>
       <c r="CL283" s="14"/>
       <c r="CM283" s="14"/>
+      <c r="CN283" s="14"/>
     </row>
-    <row r="284" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="285" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CH285" s="9"/>
+      <c r="CI285" s="9"/>
+      <c r="CJ285" s="9"/>
+      <c r="CK285" s="9"/>
+      <c r="CL285" s="9"/>
+      <c r="CM285" s="9"/>
+      <c r="CN285" s="9"/>
+    </row>
+    <row r="286" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CH286" s="9"/>
+      <c r="CI286" s="9"/>
+      <c r="CJ286" s="9"/>
+      <c r="CK286" s="9"/>
+      <c r="CL286" s="9"/>
+      <c r="CM286" s="9"/>
+      <c r="CN286" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="J213:M213"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="J172:M172"/>
-    <mergeCell ref="N172:Q172"/>
-    <mergeCell ref="R172:U172"/>
-    <mergeCell ref="V172:Y172"/>
-    <mergeCell ref="AT50:AW50"/>
-    <mergeCell ref="AX50:BA50"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BB50:BE50"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP213:AS213"/>
-    <mergeCell ref="AT213:AW213"/>
-    <mergeCell ref="BB213:BE213"/>
-    <mergeCell ref="BF172:BI172"/>
-    <mergeCell ref="AP132:AS132"/>
-    <mergeCell ref="AT132:AW132"/>
-    <mergeCell ref="AT91:AW91"/>
-    <mergeCell ref="AX91:BA91"/>
-    <mergeCell ref="BF50:BI50"/>
-    <mergeCell ref="AP50:AS50"/>
-    <mergeCell ref="BF132:BI132"/>
-    <mergeCell ref="BB91:BE91"/>
-    <mergeCell ref="BF91:BI91"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Z50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="AL50:AO50"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="Z91:AC91"/>
-    <mergeCell ref="AD91:AG91"/>
-    <mergeCell ref="AH91:AK91"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="B254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="J254:M254"/>
-    <mergeCell ref="N254:Q254"/>
-    <mergeCell ref="R254:U254"/>
-    <mergeCell ref="V254:Y254"/>
-    <mergeCell ref="Z254:AC254"/>
-    <mergeCell ref="AD254:AG254"/>
-    <mergeCell ref="AH254:AK254"/>
+  <mergeCells count="161">
+    <mergeCell ref="CL132:CM132"/>
+    <mergeCell ref="CL172:CN172"/>
+    <mergeCell ref="CL213:CN213"/>
+    <mergeCell ref="CL254:CN254"/>
+    <mergeCell ref="CD132:CG132"/>
+    <mergeCell ref="CH172:CK172"/>
+    <mergeCell ref="CH213:CK213"/>
+    <mergeCell ref="CH254:CK254"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD254:CG254"/>
+    <mergeCell ref="CD213:CG213"/>
+    <mergeCell ref="CD172:CG172"/>
+    <mergeCell ref="CD50:CG50"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH50:CK50"/>
+    <mergeCell ref="CD91:CG91"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL50:CN50"/>
+    <mergeCell ref="CH91:CJ91"/>
+    <mergeCell ref="CL91:CM91"/>
+    <mergeCell ref="CH132:CJ132"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ50:CC50"/>
+    <mergeCell ref="BV254:BY254"/>
+    <mergeCell ref="BN132:BQ132"/>
+    <mergeCell ref="BJ91:BM91"/>
+    <mergeCell ref="BN91:BQ91"/>
+    <mergeCell ref="BJ132:BM132"/>
+    <mergeCell ref="BJ172:BM172"/>
+    <mergeCell ref="BR132:BU132"/>
+    <mergeCell ref="BV132:BY132"/>
+    <mergeCell ref="BR50:BU50"/>
+    <mergeCell ref="BV50:BY50"/>
+    <mergeCell ref="BF254:BI254"/>
+    <mergeCell ref="BJ254:BM254"/>
+    <mergeCell ref="BN254:BQ254"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR91:BU91"/>
+    <mergeCell ref="BV91:BY91"/>
+    <mergeCell ref="BR213:BU213"/>
+    <mergeCell ref="BV213:BY213"/>
+    <mergeCell ref="BZ213:CC213"/>
+    <mergeCell ref="BZ172:CC172"/>
+    <mergeCell ref="BR172:BU172"/>
+    <mergeCell ref="BV172:BY172"/>
+    <mergeCell ref="BZ91:CC91"/>
+    <mergeCell ref="BZ132:CC132"/>
+    <mergeCell ref="BF213:BI213"/>
+    <mergeCell ref="BJ213:BM213"/>
+    <mergeCell ref="BN213:BQ213"/>
+    <mergeCell ref="BJ50:BM50"/>
+    <mergeCell ref="BN50:BQ50"/>
+    <mergeCell ref="BN172:BQ172"/>
+    <mergeCell ref="BZ254:CC254"/>
+    <mergeCell ref="BR254:BU254"/>
+    <mergeCell ref="AX254:BA254"/>
+    <mergeCell ref="BB254:BE254"/>
+    <mergeCell ref="N213:Q213"/>
+    <mergeCell ref="R213:U213"/>
+    <mergeCell ref="V213:Y213"/>
+    <mergeCell ref="Z213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AK213"/>
+    <mergeCell ref="AL213:AO213"/>
+    <mergeCell ref="AL254:AO254"/>
+    <mergeCell ref="AP254:AS254"/>
+    <mergeCell ref="AT254:AW254"/>
     <mergeCell ref="B91:E91"/>
     <mergeCell ref="AX213:BA213"/>
     <mergeCell ref="AL172:AO172"/>
@@ -65780,74 +66185,73 @@
     <mergeCell ref="AD132:AG132"/>
     <mergeCell ref="AH132:AK132"/>
     <mergeCell ref="AL132:AO132"/>
-    <mergeCell ref="AX254:BA254"/>
-    <mergeCell ref="BB254:BE254"/>
-    <mergeCell ref="N213:Q213"/>
-    <mergeCell ref="R213:U213"/>
-    <mergeCell ref="V213:Y213"/>
-    <mergeCell ref="Z213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AK213"/>
-    <mergeCell ref="AL213:AO213"/>
-    <mergeCell ref="AL254:AO254"/>
-    <mergeCell ref="AP254:AS254"/>
-    <mergeCell ref="AT254:AW254"/>
-    <mergeCell ref="BF254:BI254"/>
-    <mergeCell ref="BJ254:BM254"/>
-    <mergeCell ref="BN254:BQ254"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR91:BU91"/>
-    <mergeCell ref="BV91:BY91"/>
-    <mergeCell ref="BR213:BU213"/>
-    <mergeCell ref="BV213:BY213"/>
-    <mergeCell ref="BZ213:CC213"/>
-    <mergeCell ref="BZ172:CC172"/>
-    <mergeCell ref="BR172:BU172"/>
-    <mergeCell ref="BV172:BY172"/>
-    <mergeCell ref="BZ91:CC91"/>
-    <mergeCell ref="BZ132:CC132"/>
-    <mergeCell ref="BF213:BI213"/>
-    <mergeCell ref="BJ213:BM213"/>
-    <mergeCell ref="BN213:BQ213"/>
-    <mergeCell ref="BJ50:BM50"/>
-    <mergeCell ref="BN50:BQ50"/>
-    <mergeCell ref="BN172:BQ172"/>
-    <mergeCell ref="BZ254:CC254"/>
-    <mergeCell ref="BR254:BU254"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ50:CC50"/>
-    <mergeCell ref="BV254:BY254"/>
-    <mergeCell ref="BN132:BQ132"/>
-    <mergeCell ref="BJ91:BM91"/>
-    <mergeCell ref="BN91:BQ91"/>
-    <mergeCell ref="BJ132:BM132"/>
-    <mergeCell ref="BJ172:BM172"/>
-    <mergeCell ref="BR132:BU132"/>
-    <mergeCell ref="BV132:BY132"/>
-    <mergeCell ref="BR50:BU50"/>
-    <mergeCell ref="BV50:BY50"/>
-    <mergeCell ref="CL254:CM254"/>
-    <mergeCell ref="CD132:CG132"/>
-    <mergeCell ref="CH172:CK172"/>
-    <mergeCell ref="CH213:CK213"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL50:CM50"/>
-    <mergeCell ref="CH91:CI91"/>
-    <mergeCell ref="CH132:CI132"/>
-    <mergeCell ref="CL172:CM172"/>
-    <mergeCell ref="CL213:CM213"/>
-    <mergeCell ref="CH254:CK254"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD254:CG254"/>
-    <mergeCell ref="CD213:CG213"/>
-    <mergeCell ref="CD172:CG172"/>
-    <mergeCell ref="CD50:CG50"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH50:CK50"/>
-    <mergeCell ref="CD91:CG91"/>
+    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="J254:M254"/>
+    <mergeCell ref="N254:Q254"/>
+    <mergeCell ref="R254:U254"/>
+    <mergeCell ref="V254:Y254"/>
+    <mergeCell ref="Z254:AC254"/>
+    <mergeCell ref="AD254:AG254"/>
+    <mergeCell ref="AH254:AK254"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="Z91:AC91"/>
+    <mergeCell ref="AD91:AG91"/>
+    <mergeCell ref="AH91:AK91"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="R50:U50"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Z50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="AL50:AO50"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AT50:AW50"/>
+    <mergeCell ref="AX50:BA50"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BB50:BE50"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP213:AS213"/>
+    <mergeCell ref="AT213:AW213"/>
+    <mergeCell ref="BB213:BE213"/>
+    <mergeCell ref="BF172:BI172"/>
+    <mergeCell ref="AP132:AS132"/>
+    <mergeCell ref="AT132:AW132"/>
+    <mergeCell ref="AT91:AW91"/>
+    <mergeCell ref="AX91:BA91"/>
+    <mergeCell ref="BF50:BI50"/>
+    <mergeCell ref="AP50:AS50"/>
+    <mergeCell ref="BF132:BI132"/>
+    <mergeCell ref="BB91:BE91"/>
+    <mergeCell ref="BF91:BI91"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="J213:M213"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="N172:Q172"/>
+    <mergeCell ref="R172:U172"/>
+    <mergeCell ref="V172:Y172"/>
   </mergeCells>
   <conditionalFormatting sqref="CH94:CM109 CH112:CM119 CJ110:CM111">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
@@ -65883,12 +66287,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="90" man="1"/>
-    <brk id="82" max="90" man="1"/>
-    <brk id="123" max="90" man="1"/>
-    <brk id="164" max="90" man="1"/>
-    <brk id="204" max="90" man="1"/>
-    <brk id="245" max="90" man="1"/>
+    <brk id="41" max="91" man="1"/>
+    <brk id="82" max="91" man="1"/>
+    <brk id="123" max="91" man="1"/>
+    <brk id="164" max="91" man="1"/>
+    <brk id="204" max="91" man="1"/>
+    <brk id="245" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AFC3B1-A1E6-4F27-AB4F-9684DC25503A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B56FB-5642-4BA5-8E97-D56B18AE446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13995" yWindow="1740" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CN$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CO$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="75">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -261,13 +261,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,16 +402,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,50 +416,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{008F8423-7867-4CB4-A558-4D234F15232D}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -479,7 +430,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -780,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -791,14 +742,14 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV286"/>
+  <dimension ref="A1:EV284"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="CC3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="bottomRight" activeCell="CP6" sqref="CP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,8 +761,8 @@
     <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="92" width="9.21875" style="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="93" width="9.21875" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -826,7 +777,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -836,7 +787,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -846,143 +797,144 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="25">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
+      <c r="CM9" s="25"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1260,6 +1212,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,28 +1476,30 @@
       <c r="CG12" s="8">
         <v>51276.382492793287</v>
       </c>
-      <c r="CH12" s="25">
+      <c r="CH12" s="8">
         <v>58541.158933898158</v>
       </c>
-      <c r="CI12" s="25">
+      <c r="CI12" s="8">
         <v>47867.997891967381</v>
       </c>
-      <c r="CJ12" s="25">
+      <c r="CJ12" s="8">
         <v>40647.66566784482</v>
       </c>
-      <c r="CK12" s="25">
+      <c r="CK12" s="8">
         <v>58261.857706303141</v>
       </c>
-      <c r="CL12" s="25">
+      <c r="CL12" s="8">
         <v>62028.096573715593</v>
       </c>
-      <c r="CM12" s="25">
+      <c r="CM12" s="8">
         <v>49120.308708090801</v>
       </c>
-      <c r="CN12" s="25">
-        <v>41159.142609898292</v>
-      </c>
-      <c r="CO12" s="9"/>
+      <c r="CN12" s="8">
+        <v>42040.025971622672</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>55971.433987479824</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -1859,28 +1816,30 @@
       <c r="CG13" s="11">
         <v>4505.6216796295748</v>
       </c>
-      <c r="CH13" s="26">
+      <c r="CH13" s="11">
         <v>5360.9786303835454</v>
       </c>
-      <c r="CI13" s="26">
+      <c r="CI13" s="11">
         <v>3920.7370998992515</v>
       </c>
-      <c r="CJ13" s="26">
+      <c r="CJ13" s="11">
         <v>4431.104680267822</v>
       </c>
-      <c r="CK13" s="26">
+      <c r="CK13" s="11">
         <v>4319.6241689507651</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="11">
         <v>2500.7483468737091</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="11">
         <v>2437.8802292001369</v>
       </c>
-      <c r="CN13" s="26">
-        <v>2963.7273872780338</v>
-      </c>
-      <c r="CO13" s="9"/>
+      <c r="CN13" s="11">
+        <v>3327.9246417438312</v>
+      </c>
+      <c r="CO13" s="11">
+        <v>2867.4995358479937</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -2197,28 +2156,30 @@
       <c r="CG14" s="11">
         <v>4832.1147367375515</v>
       </c>
-      <c r="CH14" s="26">
+      <c r="CH14" s="11">
         <v>6469.3368344882674</v>
       </c>
-      <c r="CI14" s="26">
+      <c r="CI14" s="11">
         <v>9794.8308621653341</v>
       </c>
-      <c r="CJ14" s="26">
+      <c r="CJ14" s="11">
         <v>9187.5535580913565</v>
       </c>
-      <c r="CK14" s="26">
+      <c r="CK14" s="11">
         <v>11123.925712408121</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="11">
         <v>9494.9320844892572</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="11">
         <v>9307.4156353659255</v>
       </c>
-      <c r="CN14" s="26">
-        <v>10354.641329515322</v>
-      </c>
-      <c r="CO14" s="9"/>
+      <c r="CN14" s="11">
+        <v>10322.413910994172</v>
+      </c>
+      <c r="CO14" s="11">
+        <v>12572.861754440188</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -2535,28 +2496,30 @@
       <c r="CG15" s="11">
         <v>531.70689191179281</v>
       </c>
-      <c r="CH15" s="26">
+      <c r="CH15" s="11">
         <v>471.65605528852143</v>
       </c>
-      <c r="CI15" s="26">
+      <c r="CI15" s="11">
         <v>501.66476677997207</v>
       </c>
-      <c r="CJ15" s="26">
+      <c r="CJ15" s="11">
         <v>591.41483901841161</v>
       </c>
-      <c r="CK15" s="26">
+      <c r="CK15" s="11">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="11">
         <v>647.70376646087641</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="11">
         <v>698.06849698737619</v>
       </c>
-      <c r="CN15" s="26">
-        <v>713.05251948862951</v>
-      </c>
-      <c r="CO15" s="9"/>
+      <c r="CN15" s="11">
+        <v>726.24305984643365</v>
+      </c>
+      <c r="CO15" s="11">
+        <v>911.67795810888765</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
@@ -2873,28 +2836,30 @@
       <c r="CG16" s="11">
         <v>445.71165916397956</v>
       </c>
-      <c r="CH16" s="26">
+      <c r="CH16" s="11">
         <v>482.06090742586434</v>
       </c>
-      <c r="CI16" s="26">
+      <c r="CI16" s="11">
         <v>353.9126695930442</v>
       </c>
-      <c r="CJ16" s="26">
+      <c r="CJ16" s="11">
         <v>465.25586962896028</v>
       </c>
-      <c r="CK16" s="26">
+      <c r="CK16" s="11">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="11">
         <v>422.81136516350637</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="11">
         <v>376.08126301209819</v>
       </c>
-      <c r="CN16" s="26">
-        <v>573.81758984954854</v>
-      </c>
-      <c r="CO16" s="9"/>
+      <c r="CN16" s="11">
+        <v>575.11657775216054</v>
+      </c>
+      <c r="CO16" s="11">
+        <v>610.1283289632463</v>
+      </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
@@ -3211,28 +3176,30 @@
       <c r="CG17" s="11">
         <v>2314.3770870556236</v>
       </c>
-      <c r="CH17" s="26">
+      <c r="CH17" s="11">
         <v>2699.4920858096257</v>
       </c>
-      <c r="CI17" s="26">
+      <c r="CI17" s="11">
         <v>3342.0641753031941</v>
       </c>
-      <c r="CJ17" s="26">
+      <c r="CJ17" s="11">
         <v>3338.8216530237387</v>
       </c>
-      <c r="CK17" s="26">
+      <c r="CK17" s="11">
         <v>3000.3675877051292</v>
       </c>
-      <c r="CL17" s="26">
+      <c r="CL17" s="11">
         <v>3746.9877615250962</v>
       </c>
-      <c r="CM17" s="26">
+      <c r="CM17" s="11">
         <v>2694.8170505836115</v>
       </c>
-      <c r="CN17" s="26">
-        <v>2605.623266538903</v>
-      </c>
-      <c r="CO17" s="9"/>
+      <c r="CN17" s="11">
+        <v>2929.3134886424691</v>
+      </c>
+      <c r="CO17" s="11">
+        <v>3361.5811828858937</v>
+      </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
@@ -3549,28 +3516,30 @@
       <c r="CG18" s="11">
         <v>30655.654184141502</v>
       </c>
-      <c r="CH18" s="26">
+      <c r="CH18" s="11">
         <v>33111.400313364109</v>
       </c>
-      <c r="CI18" s="26">
+      <c r="CI18" s="11">
         <v>20875.999648424353</v>
       </c>
-      <c r="CJ18" s="26">
+      <c r="CJ18" s="11">
         <v>14376.565024355747</v>
       </c>
-      <c r="CK18" s="26">
+      <c r="CK18" s="11">
         <v>27725.384098040966</v>
       </c>
-      <c r="CL18" s="26">
+      <c r="CL18" s="11">
         <v>34669.862801566946</v>
       </c>
-      <c r="CM18" s="26">
+      <c r="CM18" s="11">
         <v>24168.60506914703</v>
       </c>
-      <c r="CN18" s="26">
-        <v>15002.865254389901</v>
-      </c>
-      <c r="CO18" s="9"/>
+      <c r="CN18" s="11">
+        <v>15088.585957914416</v>
+      </c>
+      <c r="CO18" s="11">
+        <v>25167.614557156416</v>
+      </c>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
@@ -3887,28 +3856,30 @@
       <c r="CG19" s="11">
         <v>1077.2672972378546</v>
       </c>
-      <c r="CH19" s="26">
+      <c r="CH19" s="11">
         <v>1542.424047462154</v>
       </c>
-      <c r="CI19" s="26">
+      <c r="CI19" s="11">
         <v>585.49590673763339</v>
       </c>
-      <c r="CJ19" s="26">
+      <c r="CJ19" s="11">
         <v>944.65683744733678</v>
       </c>
-      <c r="CK19" s="26">
+      <c r="CK19" s="11">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="11">
         <v>741.74514479576635</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="11">
         <v>723.20740309221628</v>
       </c>
-      <c r="CN19" s="26">
-        <v>450.84319978159186</v>
-      </c>
-      <c r="CO19" s="9"/>
+      <c r="CN19" s="11">
+        <v>502.83824837373317</v>
+      </c>
+      <c r="CO19" s="11">
+        <v>1249.3253270286816</v>
+      </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
@@ -4225,28 +4196,30 @@
       <c r="CG20" s="11">
         <v>6913.9289569154098</v>
       </c>
-      <c r="CH20" s="26">
+      <c r="CH20" s="11">
         <v>8403.8100596760669</v>
       </c>
-      <c r="CI20" s="26">
+      <c r="CI20" s="11">
         <v>8493.2927630646009</v>
       </c>
-      <c r="CJ20" s="26">
+      <c r="CJ20" s="11">
         <v>7312.2932060114472</v>
       </c>
-      <c r="CK20" s="26">
+      <c r="CK20" s="11">
         <v>9454.4252954363001</v>
       </c>
-      <c r="CL20" s="26">
+      <c r="CL20" s="11">
         <v>9803.3053028404393</v>
       </c>
-      <c r="CM20" s="26">
+      <c r="CM20" s="11">
         <v>8714.2335607024088</v>
       </c>
-      <c r="CN20" s="26">
-        <v>8494.5720630563646</v>
-      </c>
-      <c r="CO20" s="9"/>
+      <c r="CN20" s="11">
+        <v>8567.5900863554634</v>
+      </c>
+      <c r="CO20" s="11">
+        <v>9230.7453430485239</v>
+      </c>
       <c r="CP20" s="9"/>
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
@@ -4563,28 +4536,30 @@
       <c r="CG21" s="8">
         <v>45363.207117669983</v>
       </c>
-      <c r="CH21" s="25">
+      <c r="CH21" s="8">
         <v>49695.016313886677</v>
       </c>
-      <c r="CI21" s="25">
+      <c r="CI21" s="8">
         <v>40266.571381959482</v>
       </c>
-      <c r="CJ21" s="25">
+      <c r="CJ21" s="8">
         <v>46175.034139911164</v>
       </c>
-      <c r="CK21" s="25">
+      <c r="CK21" s="8">
         <v>47401.023023459726</v>
       </c>
-      <c r="CL21" s="25">
+      <c r="CL21" s="8">
         <v>55248.360471062828</v>
       </c>
-      <c r="CM21" s="25">
+      <c r="CM21" s="8">
         <v>49651.77325451182</v>
       </c>
-      <c r="CN21" s="25">
-        <v>58770.764079446548</v>
-      </c>
-      <c r="CO21" s="9"/>
+      <c r="CN21" s="8">
+        <v>59239.424204936062</v>
+      </c>
+      <c r="CO21" s="8">
+        <v>63324.675782337952</v>
+      </c>
       <c r="CP21" s="9"/>
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
@@ -4901,28 +4876,30 @@
       <c r="CG22" s="11">
         <v>8386.6463101162626</v>
       </c>
-      <c r="CH22" s="26">
+      <c r="CH22" s="11">
         <v>7887.0206297618333</v>
       </c>
-      <c r="CI22" s="26">
+      <c r="CI22" s="11">
         <v>7155.0963550419592</v>
       </c>
-      <c r="CJ22" s="26">
+      <c r="CJ22" s="11">
         <v>7280.6033560321166</v>
       </c>
-      <c r="CK22" s="26">
+      <c r="CK22" s="11">
         <v>10008.559027993895</v>
       </c>
-      <c r="CL22" s="26">
+      <c r="CL22" s="11">
         <v>9542.8711096971929</v>
       </c>
-      <c r="CM22" s="26">
+      <c r="CM22" s="11">
         <v>9878.1187573968455</v>
       </c>
-      <c r="CN22" s="26">
-        <v>9435.4146941822237</v>
-      </c>
-      <c r="CO22" s="9"/>
+      <c r="CN22" s="11">
+        <v>9326.4866714208183</v>
+      </c>
+      <c r="CO22" s="11">
+        <v>11902.975413808734</v>
+      </c>
       <c r="CP22" s="9"/>
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
@@ -5239,28 +5216,30 @@
       <c r="CG23" s="11">
         <v>5273.1469018777589</v>
       </c>
-      <c r="CH23" s="26">
+      <c r="CH23" s="11">
         <v>4767.9726573387816</v>
       </c>
-      <c r="CI23" s="26">
+      <c r="CI23" s="11">
         <v>5096.9235369596818</v>
       </c>
-      <c r="CJ23" s="26">
+      <c r="CJ23" s="11">
         <v>5066.6062712290177</v>
       </c>
-      <c r="CK23" s="26">
+      <c r="CK23" s="11">
         <v>5483.5514610858872</v>
       </c>
-      <c r="CL23" s="26">
+      <c r="CL23" s="11">
         <v>5611.5960427676937</v>
       </c>
-      <c r="CM23" s="26">
+      <c r="CM23" s="11">
         <v>5655.159440503985</v>
       </c>
-      <c r="CN23" s="26">
-        <v>5209.3571845294482</v>
-      </c>
-      <c r="CO23" s="9"/>
+      <c r="CN23" s="11">
+        <v>5157.1465727197728</v>
+      </c>
+      <c r="CO23" s="11">
+        <v>7332.0197013093275</v>
+      </c>
       <c r="CP23" s="9"/>
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
@@ -5577,28 +5556,30 @@
       <c r="CG24" s="11">
         <v>15099.791007225485</v>
       </c>
-      <c r="CH24" s="26">
+      <c r="CH24" s="11">
         <v>13981.40718165418</v>
       </c>
-      <c r="CI24" s="26">
+      <c r="CI24" s="11">
         <v>11965.092595326425</v>
       </c>
-      <c r="CJ24" s="26">
+      <c r="CJ24" s="11">
         <v>16011.432118332268</v>
       </c>
-      <c r="CK24" s="26">
+      <c r="CK24" s="11">
         <v>12472.925081185451</v>
       </c>
-      <c r="CL24" s="26">
+      <c r="CL24" s="11">
         <v>13606.855846988763</v>
       </c>
-      <c r="CM24" s="26">
+      <c r="CM24" s="11">
         <v>13664.854756853229</v>
       </c>
-      <c r="CN24" s="26">
-        <v>24004.407987644983</v>
-      </c>
-      <c r="CO24" s="9"/>
+      <c r="CN24" s="11">
+        <v>24213.26274241502</v>
+      </c>
+      <c r="CO24" s="11">
+        <v>23033.499027401012</v>
+      </c>
       <c r="CP24" s="9"/>
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
@@ -5915,28 +5896,30 @@
       <c r="CG25" s="11">
         <v>16603.622898450478</v>
       </c>
-      <c r="CH25" s="26">
+      <c r="CH25" s="11">
         <v>23058.615845131881</v>
       </c>
-      <c r="CI25" s="26">
+      <c r="CI25" s="11">
         <v>16049.458894631422</v>
       </c>
-      <c r="CJ25" s="26">
+      <c r="CJ25" s="11">
         <v>17816.392394317758</v>
       </c>
-      <c r="CK25" s="26">
+      <c r="CK25" s="11">
         <v>19435.987453194495</v>
       </c>
-      <c r="CL25" s="26">
+      <c r="CL25" s="11">
         <v>26487.037471609172</v>
       </c>
-      <c r="CM25" s="26">
+      <c r="CM25" s="11">
         <v>20453.640299757761</v>
       </c>
-      <c r="CN25" s="26">
-        <v>20121.584213089889</v>
-      </c>
-      <c r="CO25" s="9"/>
+      <c r="CN25" s="11">
+        <v>20542.528218380456</v>
+      </c>
+      <c r="CO25" s="11">
+        <v>21056.181639818875</v>
+      </c>
       <c r="CP25" s="9"/>
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
@@ -6253,28 +6236,30 @@
       <c r="CG26" s="8">
         <v>115528.01967552473</v>
       </c>
-      <c r="CH26" s="25">
+      <c r="CH26" s="8">
         <v>124589.10692945481</v>
       </c>
-      <c r="CI26" s="25">
+      <c r="CI26" s="8">
         <v>103509.55353964759</v>
       </c>
-      <c r="CJ26" s="25">
+      <c r="CJ26" s="8">
         <v>105260.2298822154</v>
       </c>
-      <c r="CK26" s="25">
+      <c r="CK26" s="8">
         <v>133668.26270734164</v>
       </c>
-      <c r="CL26" s="25">
+      <c r="CL26" s="8">
         <v>163950.8020046693</v>
       </c>
-      <c r="CM26" s="25">
+      <c r="CM26" s="8">
         <v>145356.15480849805</v>
       </c>
-      <c r="CN26" s="25">
-        <v>162313.18633118988</v>
-      </c>
-      <c r="CO26" s="9"/>
+      <c r="CN26" s="8">
+        <v>162369.10151277491</v>
+      </c>
+      <c r="CO26" s="8">
+        <v>162735.54680094135</v>
+      </c>
       <c r="CP26" s="9"/>
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
@@ -6591,28 +6576,30 @@
       <c r="CG27" s="11">
         <v>107245.88624517893</v>
       </c>
-      <c r="CH27" s="26">
+      <c r="CH27" s="11">
         <v>113486.41667803671</v>
       </c>
-      <c r="CI27" s="26">
+      <c r="CI27" s="11">
         <v>95108.975103577832</v>
       </c>
-      <c r="CJ27" s="26">
+      <c r="CJ27" s="11">
         <v>100772.17941952129</v>
       </c>
-      <c r="CK27" s="26">
+      <c r="CK27" s="11">
         <v>110180.91439146697</v>
       </c>
-      <c r="CL27" s="26">
+      <c r="CL27" s="11">
         <v>136229.18816494729</v>
       </c>
-      <c r="CM27" s="26">
+      <c r="CM27" s="11">
         <v>122240.92570820492</v>
       </c>
-      <c r="CN27" s="26">
-        <v>150604.28570923326</v>
-      </c>
-      <c r="CO27" s="9"/>
+      <c r="CN27" s="11">
+        <v>150632.41827010689</v>
+      </c>
+      <c r="CO27" s="11">
+        <v>151939.99626739215</v>
+      </c>
       <c r="CP27" s="9"/>
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
@@ -6929,28 +6916,30 @@
       <c r="CG28" s="11">
         <v>1105.678345077391</v>
       </c>
-      <c r="CH28" s="26">
+      <c r="CH28" s="11">
         <v>2174.525977291808</v>
       </c>
-      <c r="CI28" s="26">
+      <c r="CI28" s="11">
         <v>11.869001815650885</v>
       </c>
-      <c r="CJ28" s="26">
+      <c r="CJ28" s="11">
         <v>1084.8413776855873</v>
       </c>
-      <c r="CK28" s="26">
+      <c r="CK28" s="11">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="26">
+      <c r="CL28" s="11">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="26">
+      <c r="CM28" s="11">
         <v>809.44314838159949</v>
       </c>
-      <c r="CN28" s="26">
-        <v>50.076289511465788</v>
-      </c>
-      <c r="CO28" s="9"/>
+      <c r="CN28" s="11">
+        <v>50.04367691679029</v>
+      </c>
+      <c r="CO28" s="11">
+        <v>14.440607466579268</v>
+      </c>
       <c r="CP28" s="9"/>
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
@@ -7267,28 +7256,30 @@
       <c r="CG29" s="11">
         <v>6343.2135165614418</v>
       </c>
-      <c r="CH29" s="26">
+      <c r="CH29" s="11">
         <v>1497.2602288694948</v>
       </c>
-      <c r="CI29" s="26">
+      <c r="CI29" s="11">
         <v>7124.3444375877434</v>
       </c>
-      <c r="CJ29" s="26">
+      <c r="CJ29" s="11">
         <v>2560.2614048595551</v>
       </c>
-      <c r="CK29" s="26">
+      <c r="CK29" s="11">
         <v>18605.76298429797</v>
       </c>
-      <c r="CL29" s="26">
+      <c r="CL29" s="11">
         <v>16487.745286676476</v>
       </c>
-      <c r="CM29" s="26">
+      <c r="CM29" s="11">
         <v>10074.057929104585</v>
       </c>
-      <c r="CN29" s="26">
-        <v>5726.655839944915</v>
-      </c>
-      <c r="CO29" s="9"/>
+      <c r="CN29" s="11">
+        <v>5725.9899158294893</v>
+      </c>
+      <c r="CO29" s="11">
+        <v>5800.5231390582931</v>
+      </c>
       <c r="CP29" s="9"/>
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
@@ -7605,28 +7596,30 @@
       <c r="CG30" s="11">
         <v>833.24156870696106</v>
       </c>
-      <c r="CH30" s="26">
+      <c r="CH30" s="11">
         <v>7430.9040452567961</v>
       </c>
-      <c r="CI30" s="26">
+      <c r="CI30" s="11">
         <v>1264.3649966663711</v>
       </c>
-      <c r="CJ30" s="26">
+      <c r="CJ30" s="11">
         <v>842.94768014896374</v>
       </c>
-      <c r="CK30" s="26">
+      <c r="CK30" s="11">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="26">
+      <c r="CL30" s="11">
         <v>9496.365114011498</v>
       </c>
-      <c r="CM30" s="26">
+      <c r="CM30" s="11">
         <v>12231.728022806947</v>
       </c>
-      <c r="CN30" s="26">
-        <v>5932.168492500231</v>
-      </c>
-      <c r="CO30" s="9"/>
+      <c r="CN30" s="11">
+        <v>5960.6496499217137</v>
+      </c>
+      <c r="CO30" s="11">
+        <v>4980.5867870243101</v>
+      </c>
       <c r="CP30" s="9"/>
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
@@ -7943,28 +7936,30 @@
       <c r="CG31" s="8">
         <v>49754.685381672272</v>
       </c>
-      <c r="CH31" s="25">
+      <c r="CH31" s="8">
         <v>55935.875121412362</v>
       </c>
-      <c r="CI31" s="25">
+      <c r="CI31" s="8">
         <v>53178.448068639482</v>
       </c>
-      <c r="CJ31" s="25">
+      <c r="CJ31" s="8">
         <v>52182.435820240171</v>
       </c>
-      <c r="CK31" s="25">
+      <c r="CK31" s="8">
         <v>55766.537399436405</v>
       </c>
-      <c r="CL31" s="25">
+      <c r="CL31" s="8">
         <v>62440.604692364592</v>
       </c>
-      <c r="CM31" s="25">
+      <c r="CM31" s="8">
         <v>60810.368743408784</v>
       </c>
-      <c r="CN31" s="25">
-        <v>56301.007013955095</v>
-      </c>
-      <c r="CO31" s="9"/>
+      <c r="CN31" s="8">
+        <v>56602.744240856533</v>
+      </c>
+      <c r="CO31" s="8">
+        <v>67658.029584129676</v>
+      </c>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
@@ -8281,28 +8276,30 @@
       <c r="CG32" s="11">
         <v>6337.9232329612496</v>
       </c>
-      <c r="CH32" s="26">
+      <c r="CH32" s="11">
         <v>4629.4723582643337</v>
       </c>
-      <c r="CI32" s="26">
+      <c r="CI32" s="11">
         <v>4871.2729287841557</v>
       </c>
-      <c r="CJ32" s="26">
+      <c r="CJ32" s="11">
         <v>4992.9407309126091</v>
       </c>
-      <c r="CK32" s="26">
+      <c r="CK32" s="11">
         <v>4760.0523785116966</v>
       </c>
-      <c r="CL32" s="26">
+      <c r="CL32" s="11">
         <v>4954.6992644621059</v>
       </c>
-      <c r="CM32" s="26">
+      <c r="CM32" s="11">
         <v>4539.0352440369206</v>
       </c>
-      <c r="CN32" s="26">
-        <v>5641.6892363067755</v>
-      </c>
-      <c r="CO32" s="9"/>
+      <c r="CN32" s="11">
+        <v>5498.3596174201466</v>
+      </c>
+      <c r="CO32" s="11">
+        <v>7946.3802771626615</v>
+      </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
@@ -8619,28 +8616,30 @@
       <c r="CG33" s="11">
         <v>7451.0501716481922</v>
       </c>
-      <c r="CH33" s="26">
+      <c r="CH33" s="11">
         <v>9722.0937590066078</v>
       </c>
-      <c r="CI33" s="26">
+      <c r="CI33" s="11">
         <v>8452.8947083027197</v>
       </c>
-      <c r="CJ33" s="26">
+      <c r="CJ33" s="11">
         <v>7918.363814997253</v>
       </c>
-      <c r="CK33" s="26">
+      <c r="CK33" s="11">
         <v>8969.1752260535395</v>
       </c>
-      <c r="CL33" s="26">
+      <c r="CL33" s="11">
         <v>11029.395121814505</v>
       </c>
-      <c r="CM33" s="26">
+      <c r="CM33" s="11">
         <v>8890.3196611212188</v>
       </c>
-      <c r="CN33" s="26">
-        <v>8410.3781727670903</v>
-      </c>
-      <c r="CO33" s="9"/>
+      <c r="CN33" s="11">
+        <v>8192.8266113282934</v>
+      </c>
+      <c r="CO33" s="11">
+        <v>9790.6868423603391</v>
+      </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
@@ -8957,28 +8956,30 @@
       <c r="CG34" s="11">
         <v>25905.479426830389</v>
       </c>
-      <c r="CH34" s="26">
+      <c r="CH34" s="11">
         <v>24944.756636294653</v>
       </c>
-      <c r="CI34" s="26">
+      <c r="CI34" s="11">
         <v>25072.950748615931</v>
       </c>
-      <c r="CJ34" s="26">
+      <c r="CJ34" s="11">
         <v>30296.855767724148</v>
       </c>
-      <c r="CK34" s="26">
+      <c r="CK34" s="11">
         <v>31349.984737912993</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="11">
         <v>32027.40677863155</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="11">
         <v>30291.574224193439</v>
       </c>
-      <c r="CN34" s="26">
-        <v>31691.774573810966</v>
-      </c>
-      <c r="CO34" s="9"/>
+      <c r="CN34" s="11">
+        <v>32321.925254528083</v>
+      </c>
+      <c r="CO34" s="11">
+        <v>36662.544959838051</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
@@ -9295,28 +9296,30 @@
       <c r="CG35" s="11">
         <v>10060.232550232438</v>
       </c>
-      <c r="CH35" s="26">
+      <c r="CH35" s="11">
         <v>16639.552367846776</v>
       </c>
-      <c r="CI35" s="26">
+      <c r="CI35" s="11">
         <v>14781.329682936674</v>
       </c>
-      <c r="CJ35" s="26">
+      <c r="CJ35" s="11">
         <v>8974.27550660616</v>
       </c>
-      <c r="CK35" s="26">
+      <c r="CK35" s="11">
         <v>10687.325056958169</v>
       </c>
-      <c r="CL35" s="26">
+      <c r="CL35" s="11">
         <v>14429.103527456435</v>
       </c>
-      <c r="CM35" s="26">
+      <c r="CM35" s="11">
         <v>17089.439614057206</v>
       </c>
-      <c r="CN35" s="26">
-        <v>10557.16503107027</v>
-      </c>
-      <c r="CO35" s="9"/>
+      <c r="CN35" s="11">
+        <v>10589.632757580008</v>
+      </c>
+      <c r="CO35" s="11">
+        <v>13258.417504768622</v>
+      </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -9805,9 +9808,11 @@
         <v>304938.60551450943</v>
       </c>
       <c r="CN37" s="13">
-        <v>318544.10003448982</v>
-      </c>
-      <c r="CO37" s="9"/>
+        <v>320251.29593019019</v>
+      </c>
+      <c r="CO37" s="13">
+        <v>349689.68615488883</v>
+      </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
@@ -9961,6 +9966,7 @@
       <c r="CL38" s="14"/>
       <c r="CM38" s="14"/>
       <c r="CN38" s="14"/>
+      <c r="CO38" s="14"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -9987,6 +9993,8 @@
       <c r="BY39" s="16"/>
       <c r="CC39" s="16"/>
       <c r="CG39" s="16"/>
+      <c r="CK39" s="16"/>
+      <c r="CO39" s="16"/>
     </row>
     <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
@@ -10306,7 +10314,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.2">
@@ -10316,7 +10324,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
@@ -10326,143 +10334,144 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="29">
+      <c r="B50" s="26">
         <v>2000</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26">
         <v>2001</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29">
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26">
         <v>2002</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29">
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26">
         <v>2003</v>
       </c>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29">
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26">
         <v>2004</v>
       </c>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29">
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26">
         <v>2005</v>
       </c>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29">
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26">
         <v>2006</v>
       </c>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29">
+      <c r="AA50" s="26"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="26">
         <v>2007</v>
       </c>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29">
+      <c r="AE50" s="26"/>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26">
         <v>2008</v>
       </c>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29">
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="26">
         <v>2009</v>
       </c>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="29"/>
-      <c r="AO50" s="29"/>
-      <c r="AP50" s="29">
+      <c r="AM50" s="26"/>
+      <c r="AN50" s="26"/>
+      <c r="AO50" s="26"/>
+      <c r="AP50" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="29"/>
-      <c r="AR50" s="29"/>
-      <c r="AS50" s="29"/>
-      <c r="AT50" s="29">
+      <c r="AQ50" s="26"/>
+      <c r="AR50" s="26"/>
+      <c r="AS50" s="26"/>
+      <c r="AT50" s="26">
         <v>2011</v>
       </c>
-      <c r="AU50" s="29"/>
-      <c r="AV50" s="29"/>
-      <c r="AW50" s="29"/>
-      <c r="AX50" s="29">
+      <c r="AU50" s="26"/>
+      <c r="AV50" s="26"/>
+      <c r="AW50" s="26"/>
+      <c r="AX50" s="26">
         <v>2012</v>
       </c>
-      <c r="AY50" s="29"/>
-      <c r="AZ50" s="29"/>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29">
+      <c r="AY50" s="26"/>
+      <c r="AZ50" s="26"/>
+      <c r="BA50" s="26"/>
+      <c r="BB50" s="26">
         <v>2013</v>
       </c>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="29"/>
-      <c r="BE50" s="29"/>
-      <c r="BF50" s="29">
+      <c r="BC50" s="26"/>
+      <c r="BD50" s="26"/>
+      <c r="BE50" s="26"/>
+      <c r="BF50" s="26">
         <v>2014</v>
       </c>
-      <c r="BG50" s="29"/>
-      <c r="BH50" s="29"/>
-      <c r="BI50" s="29"/>
-      <c r="BJ50" s="29">
+      <c r="BG50" s="26"/>
+      <c r="BH50" s="26"/>
+      <c r="BI50" s="26"/>
+      <c r="BJ50" s="26">
         <v>2015</v>
       </c>
-      <c r="BK50" s="29"/>
-      <c r="BL50" s="29"/>
-      <c r="BM50" s="29"/>
-      <c r="BN50" s="29">
+      <c r="BK50" s="26"/>
+      <c r="BL50" s="26"/>
+      <c r="BM50" s="26"/>
+      <c r="BN50" s="26">
         <v>2016</v>
       </c>
-      <c r="BO50" s="29"/>
-      <c r="BP50" s="29"/>
-      <c r="BQ50" s="29"/>
-      <c r="BR50" s="29">
+      <c r="BO50" s="26"/>
+      <c r="BP50" s="26"/>
+      <c r="BQ50" s="26"/>
+      <c r="BR50" s="26">
         <v>2017</v>
       </c>
-      <c r="BS50" s="29"/>
-      <c r="BT50" s="29"/>
-      <c r="BU50" s="29"/>
-      <c r="BV50" s="29">
+      <c r="BS50" s="26"/>
+      <c r="BT50" s="26"/>
+      <c r="BU50" s="26"/>
+      <c r="BV50" s="26">
         <v>2018</v>
       </c>
-      <c r="BW50" s="29"/>
-      <c r="BX50" s="29"/>
-      <c r="BY50" s="29"/>
-      <c r="BZ50" s="29">
+      <c r="BW50" s="26"/>
+      <c r="BX50" s="26"/>
+      <c r="BY50" s="26"/>
+      <c r="BZ50" s="26">
         <v>2019</v>
       </c>
-      <c r="CA50" s="29"/>
-      <c r="CB50" s="29"/>
-      <c r="CC50" s="29"/>
-      <c r="CD50" s="29">
+      <c r="CA50" s="26"/>
+      <c r="CB50" s="26"/>
+      <c r="CC50" s="26"/>
+      <c r="CD50" s="26">
         <v>2020</v>
       </c>
-      <c r="CE50" s="29"/>
-      <c r="CF50" s="29"/>
-      <c r="CG50" s="29"/>
-      <c r="CH50" s="30">
+      <c r="CE50" s="26"/>
+      <c r="CF50" s="26"/>
+      <c r="CG50" s="26"/>
+      <c r="CH50" s="26">
         <v>2021</v>
       </c>
-      <c r="CI50" s="30"/>
-      <c r="CJ50" s="30"/>
-      <c r="CK50" s="30"/>
-      <c r="CL50" s="30">
+      <c r="CI50" s="26"/>
+      <c r="CJ50" s="26"/>
+      <c r="CK50" s="26"/>
+      <c r="CL50" s="26">
         <v>2022</v>
       </c>
-      <c r="CM50" s="30"/>
-      <c r="CN50" s="30"/>
+      <c r="CM50" s="26"/>
+      <c r="CN50" s="26"/>
+      <c r="CO50" s="26"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -10740,6 +10749,9 @@
       </c>
       <c r="CN51" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CO51" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11001,28 +11013,30 @@
       <c r="CG53" s="8">
         <v>60932.38878891943</v>
       </c>
-      <c r="CH53" s="25">
+      <c r="CH53" s="8">
         <v>57497.116261917377</v>
       </c>
-      <c r="CI53" s="25">
+      <c r="CI53" s="8">
         <v>31321.432365500288</v>
       </c>
-      <c r="CJ53" s="25">
+      <c r="CJ53" s="8">
         <v>49929.843626102709</v>
       </c>
-      <c r="CK53" s="25">
+      <c r="CK53" s="8">
         <v>66466.12120791206</v>
       </c>
-      <c r="CL53" s="25">
+      <c r="CL53" s="8">
         <v>56052.060775786405</v>
       </c>
-      <c r="CM53" s="25">
+      <c r="CM53" s="8">
         <v>29741.933567097083</v>
       </c>
-      <c r="CN53" s="25">
-        <v>43821.94310338483</v>
-      </c>
-      <c r="CO53" s="9"/>
+      <c r="CN53" s="8">
+        <v>44669.563492713132</v>
+      </c>
+      <c r="CO53" s="8">
+        <v>55656.653609548572</v>
+      </c>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
@@ -11339,28 +11353,30 @@
       <c r="CG54" s="11">
         <v>7130.9722902154635</v>
       </c>
-      <c r="CH54" s="26">
+      <c r="CH54" s="11">
         <v>5600.9219872312169</v>
       </c>
-      <c r="CI54" s="26">
+      <c r="CI54" s="11">
         <v>1438.7839865321641</v>
       </c>
-      <c r="CJ54" s="26">
+      <c r="CJ54" s="11">
         <v>5287.8745894518452</v>
       </c>
-      <c r="CK54" s="26">
+      <c r="CK54" s="11">
         <v>6133.5174448456464</v>
       </c>
-      <c r="CL54" s="26">
+      <c r="CL54" s="11">
         <v>2255.0748846422493</v>
       </c>
-      <c r="CM54" s="26">
+      <c r="CM54" s="11">
         <v>761.66025081213616</v>
       </c>
-      <c r="CN54" s="26">
-        <v>2997.8661815941346</v>
-      </c>
-      <c r="CO54" s="9"/>
+      <c r="CN54" s="11">
+        <v>3367.3057673567978</v>
+      </c>
+      <c r="CO54" s="11">
+        <v>3388.8143185094514</v>
+      </c>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
@@ -11677,28 +11693,30 @@
       <c r="CG55" s="11">
         <v>7667.9773528194155</v>
       </c>
-      <c r="CH55" s="26">
+      <c r="CH55" s="11">
         <v>6625.8824658828635</v>
       </c>
-      <c r="CI55" s="26">
+      <c r="CI55" s="11">
         <v>3692.6777096467895</v>
       </c>
-      <c r="CJ55" s="26">
+      <c r="CJ55" s="11">
         <v>11008.634640329734</v>
       </c>
-      <c r="CK55" s="26">
+      <c r="CK55" s="11">
         <v>15911.285342941819</v>
       </c>
-      <c r="CL55" s="26">
+      <c r="CL55" s="11">
         <v>8402.3117075506925</v>
       </c>
-      <c r="CM55" s="26">
+      <c r="CM55" s="11">
         <v>2987.9489594103698</v>
       </c>
-      <c r="CN55" s="26">
-        <v>10542.860040720627</v>
-      </c>
-      <c r="CO55" s="9"/>
+      <c r="CN55" s="11">
+        <v>10513.378067030249</v>
+      </c>
+      <c r="CO55" s="11">
+        <v>15019.856985199111</v>
+      </c>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
@@ -12015,28 +12033,30 @@
       <c r="CG56" s="11">
         <v>691.87648960265778</v>
       </c>
-      <c r="CH56" s="26">
+      <c r="CH56" s="11">
         <v>473.3029479679642</v>
       </c>
-      <c r="CI56" s="26">
+      <c r="CI56" s="11">
         <v>267.53804781545307</v>
       </c>
-      <c r="CJ56" s="26">
+      <c r="CJ56" s="11">
         <v>641.3529785427736</v>
       </c>
-      <c r="CK56" s="26">
+      <c r="CK56" s="11">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="26">
+      <c r="CL56" s="11">
         <v>597.86760840923216</v>
       </c>
-      <c r="CM56" s="26">
+      <c r="CM56" s="11">
         <v>306.73225109706334</v>
       </c>
-      <c r="CN56" s="26">
-        <v>739.63393255921028</v>
-      </c>
-      <c r="CO56" s="9"/>
+      <c r="CN56" s="11">
+        <v>746.38305088003449</v>
+      </c>
+      <c r="CO56" s="11">
+        <v>1001.784142899993</v>
+      </c>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
@@ -12353,28 +12373,30 @@
       <c r="CG57" s="11">
         <v>651.07923614981655</v>
       </c>
-      <c r="CH57" s="26">
+      <c r="CH57" s="11">
         <v>406.22240502996158</v>
       </c>
-      <c r="CI57" s="26">
+      <c r="CI57" s="11">
         <v>147.01161595594914</v>
       </c>
-      <c r="CJ57" s="26">
+      <c r="CJ57" s="11">
         <v>543.57042942091243</v>
       </c>
-      <c r="CK57" s="26">
+      <c r="CK57" s="11">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="26">
+      <c r="CL57" s="11">
         <v>315.43803744530902</v>
       </c>
-      <c r="CM57" s="26">
+      <c r="CM57" s="11">
         <v>135.61553714706261</v>
       </c>
-      <c r="CN57" s="26">
-        <v>578.3032963597027</v>
-      </c>
-      <c r="CO57" s="9"/>
+      <c r="CN57" s="11">
+        <v>579.1199100064365</v>
+      </c>
+      <c r="CO57" s="11">
+        <v>689.50530555663613</v>
+      </c>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
@@ -12691,28 +12713,30 @@
       <c r="CG58" s="11">
         <v>3571.5903656964251</v>
       </c>
-      <c r="CH58" s="26">
+      <c r="CH58" s="11">
         <v>2666.2790380383121</v>
       </c>
-      <c r="CI58" s="26">
+      <c r="CI58" s="11">
         <v>1255.7186949254087</v>
       </c>
-      <c r="CJ58" s="26">
+      <c r="CJ58" s="11">
         <v>3851.3221670743064</v>
       </c>
-      <c r="CK58" s="26">
+      <c r="CK58" s="11">
         <v>4131.3450878775348</v>
       </c>
-      <c r="CL58" s="26">
+      <c r="CL58" s="11">
         <v>3202.7455397586123</v>
       </c>
-      <c r="CM58" s="26">
+      <c r="CM58" s="11">
         <v>876.28923089513717</v>
       </c>
-      <c r="CN58" s="26">
-        <v>2569.4383620660124</v>
-      </c>
-      <c r="CO58" s="9"/>
+      <c r="CN58" s="11">
+        <v>2885.8396011366021</v>
+      </c>
+      <c r="CO58" s="11">
+        <v>3910.0729518926623</v>
+      </c>
       <c r="CP58" s="9"/>
       <c r="CQ58" s="9"/>
       <c r="CR58" s="9"/>
@@ -13029,28 +13053,30 @@
       <c r="CG59" s="11">
         <v>29667.403902739352</v>
       </c>
-      <c r="CH59" s="26">
+      <c r="CH59" s="11">
         <v>31929.97125626653</v>
       </c>
-      <c r="CI59" s="26">
+      <c r="CI59" s="11">
         <v>20559.329156847001</v>
       </c>
-      <c r="CJ59" s="26">
+      <c r="CJ59" s="11">
         <v>19012.43225478832</v>
       </c>
-      <c r="CK59" s="26">
+      <c r="CK59" s="11">
         <v>25289.805192443193</v>
       </c>
-      <c r="CL59" s="26">
+      <c r="CL59" s="11">
         <v>32104.970046588172</v>
       </c>
-      <c r="CM59" s="26">
+      <c r="CM59" s="11">
         <v>20981.876227410772</v>
       </c>
-      <c r="CN59" s="26">
-        <v>17158.080537845886</v>
-      </c>
-      <c r="CO59" s="9"/>
+      <c r="CN59" s="11">
+        <v>17241.68671677215</v>
+      </c>
+      <c r="CO59" s="11">
+        <v>19811.750878760206</v>
+      </c>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
@@ -13367,28 +13393,30 @@
       <c r="CG60" s="11">
         <v>1744.240915485444</v>
       </c>
-      <c r="CH60" s="26">
+      <c r="CH60" s="11">
         <v>1617.1403252363307</v>
       </c>
-      <c r="CI60" s="26">
+      <c r="CI60" s="11">
         <v>234.71788193473378</v>
       </c>
-      <c r="CJ60" s="26">
+      <c r="CJ60" s="11">
         <v>1142.7065235060725</v>
       </c>
-      <c r="CK60" s="26">
+      <c r="CK60" s="11">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="26">
+      <c r="CL60" s="11">
         <v>676.14093854760392</v>
       </c>
-      <c r="CM60" s="26">
+      <c r="CM60" s="11">
         <v>245.78743511464563</v>
       </c>
-      <c r="CN60" s="26">
-        <v>467.90068759594897</v>
-      </c>
-      <c r="CO60" s="9"/>
+      <c r="CN60" s="11">
+        <v>520.8369011755907</v>
+      </c>
+      <c r="CO60" s="11">
+        <v>1518.5201200619749</v>
+      </c>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
@@ -13705,28 +13733,30 @@
       <c r="CG61" s="11">
         <v>9807.2482362108458</v>
       </c>
-      <c r="CH61" s="26">
+      <c r="CH61" s="11">
         <v>8177.3958362642015</v>
       </c>
-      <c r="CI61" s="26">
+      <c r="CI61" s="11">
         <v>3725.6552718427893</v>
       </c>
-      <c r="CJ61" s="26">
+      <c r="CJ61" s="11">
         <v>8441.950042988743</v>
       </c>
-      <c r="CK61" s="26">
+      <c r="CK61" s="11">
         <v>11555.218154109229</v>
       </c>
-      <c r="CL61" s="26">
+      <c r="CL61" s="11">
         <v>8497.5120128445269</v>
       </c>
-      <c r="CM61" s="26">
+      <c r="CM61" s="11">
         <v>3446.023675209899</v>
       </c>
-      <c r="CN61" s="26">
-        <v>8767.8600646433115</v>
-      </c>
-      <c r="CO61" s="9"/>
+      <c r="CN61" s="11">
+        <v>8815.0134783552694</v>
+      </c>
+      <c r="CO61" s="11">
+        <v>10316.348906668536</v>
+      </c>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
@@ -14043,28 +14073,30 @@
       <c r="CG62" s="8">
         <v>47957.312665351434</v>
       </c>
-      <c r="CH62" s="25">
+      <c r="CH62" s="8">
         <v>50085.84230024775</v>
       </c>
-      <c r="CI62" s="25">
+      <c r="CI62" s="8">
         <v>36848.906491173868</v>
       </c>
-      <c r="CJ62" s="25">
+      <c r="CJ62" s="8">
         <v>53469.02282513649</v>
       </c>
-      <c r="CK62" s="25">
+      <c r="CK62" s="8">
         <v>46709.858378414443</v>
       </c>
-      <c r="CL62" s="25">
+      <c r="CL62" s="8">
         <v>51770.59920076259</v>
       </c>
-      <c r="CM62" s="25">
+      <c r="CM62" s="8">
         <v>39900.013989922438</v>
       </c>
-      <c r="CN62" s="25">
-        <v>57812.516347553159</v>
-      </c>
-      <c r="CO62" s="9"/>
+      <c r="CN62" s="8">
+        <v>58026.106459937015</v>
+      </c>
+      <c r="CO62" s="8">
+        <v>56165.195184846678</v>
+      </c>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -14381,28 +14413,30 @@
       <c r="CG63" s="11">
         <v>9039.5310042375459</v>
       </c>
-      <c r="CH63" s="26">
+      <c r="CH63" s="11">
         <v>7752.1697415136205</v>
       </c>
-      <c r="CI63" s="26">
+      <c r="CI63" s="11">
         <v>6385.9979876114521</v>
       </c>
-      <c r="CJ63" s="26">
+      <c r="CJ63" s="11">
         <v>8591.6930906538582</v>
       </c>
-      <c r="CK63" s="26">
+      <c r="CK63" s="11">
         <v>9430.9836779044108</v>
       </c>
-      <c r="CL63" s="26">
+      <c r="CL63" s="11">
         <v>8502.0109270199664</v>
       </c>
-      <c r="CM63" s="26">
+      <c r="CM63" s="11">
         <v>7512.9239761207646</v>
       </c>
-      <c r="CN63" s="26">
-        <v>9178.6176947434524</v>
-      </c>
-      <c r="CO63" s="9"/>
+      <c r="CN63" s="11">
+        <v>9088.4099485606348</v>
+      </c>
+      <c r="CO63" s="11">
+        <v>9996.7065186096661</v>
+      </c>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
@@ -14719,28 +14753,30 @@
       <c r="CG64" s="11">
         <v>5571.7040831643517</v>
       </c>
-      <c r="CH64" s="26">
+      <c r="CH64" s="11">
         <v>4679.9666922809201</v>
       </c>
-      <c r="CI64" s="26">
+      <c r="CI64" s="11">
         <v>4540.8727748265028</v>
       </c>
-      <c r="CJ64" s="26">
+      <c r="CJ64" s="11">
         <v>5910.8235295231971</v>
       </c>
-      <c r="CK64" s="26">
+      <c r="CK64" s="11">
         <v>5310.4232112166337</v>
       </c>
-      <c r="CL64" s="26">
+      <c r="CL64" s="11">
         <v>4990.4308913595269</v>
       </c>
-      <c r="CM64" s="26">
+      <c r="CM64" s="11">
         <v>4400.3260621793061</v>
       </c>
-      <c r="CN64" s="26">
-        <v>5455.8898718907412</v>
-      </c>
-      <c r="CO64" s="9"/>
+      <c r="CN64" s="11">
+        <v>5092.8905863884884</v>
+      </c>
+      <c r="CO64" s="11">
+        <v>6067.6382127466959</v>
+      </c>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
@@ -15057,28 +15093,30 @@
       <c r="CG65" s="11">
         <v>15669.733701611432</v>
       </c>
-      <c r="CH65" s="26">
+      <c r="CH65" s="11">
         <v>13859.661927260095</v>
       </c>
-      <c r="CI65" s="26">
+      <c r="CI65" s="11">
         <v>10657.038399540148</v>
       </c>
-      <c r="CJ65" s="26">
+      <c r="CJ65" s="11">
         <v>18318.581917378004</v>
       </c>
-      <c r="CK65" s="26">
+      <c r="CK65" s="11">
         <v>11579.564707310014</v>
       </c>
-      <c r="CL65" s="26">
+      <c r="CL65" s="11">
         <v>12068.410716317936</v>
       </c>
-      <c r="CM65" s="26">
+      <c r="CM65" s="11">
         <v>10484.309637726739</v>
       </c>
-      <c r="CN65" s="26">
-        <v>22598.394051613002</v>
-      </c>
-      <c r="CO65" s="9"/>
+      <c r="CN65" s="11">
+        <v>22841.702369125062</v>
+      </c>
+      <c r="CO65" s="11">
+        <v>18037.743982755594</v>
+      </c>
       <c r="CP65" s="9"/>
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
@@ -15395,28 +15433,30 @@
       <c r="CG66" s="11">
         <v>17676.343876338105</v>
       </c>
-      <c r="CH66" s="26">
+      <c r="CH66" s="11">
         <v>23794.04393919311</v>
       </c>
-      <c r="CI66" s="26">
+      <c r="CI66" s="11">
         <v>15264.997329195765</v>
       </c>
-      <c r="CJ66" s="26">
+      <c r="CJ66" s="11">
         <v>20647.924287581434</v>
       </c>
-      <c r="CK66" s="26">
+      <c r="CK66" s="11">
         <v>20388.886781983383</v>
       </c>
-      <c r="CL66" s="26">
+      <c r="CL66" s="11">
         <v>26209.746666065163</v>
       </c>
-      <c r="CM66" s="26">
+      <c r="CM66" s="11">
         <v>17502.454313895629</v>
       </c>
-      <c r="CN66" s="26">
-        <v>20579.614729305962</v>
-      </c>
-      <c r="CO66" s="9"/>
+      <c r="CN66" s="11">
+        <v>21003.103555862825</v>
+      </c>
+      <c r="CO66" s="11">
+        <v>22063.106470734718</v>
+      </c>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
@@ -15733,28 +15773,30 @@
       <c r="CG67" s="8">
         <v>125921.35182434383</v>
       </c>
-      <c r="CH67" s="25">
+      <c r="CH67" s="8">
         <v>141674.87633645334</v>
       </c>
-      <c r="CI67" s="25">
+      <c r="CI67" s="8">
         <v>120650.06090022583</v>
       </c>
-      <c r="CJ67" s="25">
+      <c r="CJ67" s="8">
         <v>107467.11445756625</v>
       </c>
-      <c r="CK67" s="25">
+      <c r="CK67" s="8">
         <v>134593.70641258731</v>
       </c>
-      <c r="CL67" s="25">
+      <c r="CL67" s="8">
         <v>171367.86843764491</v>
       </c>
-      <c r="CM67" s="25">
+      <c r="CM67" s="8">
         <v>151115.28777457195</v>
       </c>
-      <c r="CN67" s="25">
-        <v>142882.79001769703</v>
-      </c>
-      <c r="CO67" s="9"/>
+      <c r="CN67" s="8">
+        <v>142971.94461519964</v>
+      </c>
+      <c r="CO67" s="8">
+        <v>145677.62954274315</v>
+      </c>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
@@ -16071,28 +16113,30 @@
       <c r="CG68" s="11">
         <v>117678.66511679393</v>
       </c>
-      <c r="CH68" s="26">
+      <c r="CH68" s="11">
         <v>131262.61758192381</v>
       </c>
-      <c r="CI68" s="26">
+      <c r="CI68" s="11">
         <v>110561.34878757125</v>
       </c>
-      <c r="CJ68" s="26">
+      <c r="CJ68" s="11">
         <v>103265.50445763636</v>
       </c>
-      <c r="CK68" s="26">
+      <c r="CK68" s="11">
         <v>113099.74780220952</v>
       </c>
-      <c r="CL68" s="26">
+      <c r="CL68" s="11">
         <v>147457.13257182576</v>
       </c>
-      <c r="CM68" s="26">
+      <c r="CM68" s="11">
         <v>126357.96988406673</v>
       </c>
-      <c r="CN68" s="26">
-        <v>133464.75739376637</v>
-      </c>
-      <c r="CO68" s="9"/>
+      <c r="CN68" s="11">
+        <v>133520.83645567266</v>
+      </c>
+      <c r="CO68" s="11">
+        <v>137101.77319870589</v>
+      </c>
       <c r="CP68" s="9"/>
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
@@ -16409,28 +16453,30 @@
       <c r="CG69" s="11">
         <v>1061.7041018078767</v>
       </c>
-      <c r="CH69" s="26">
+      <c r="CH69" s="11">
         <v>2365.546443771198</v>
       </c>
-      <c r="CI69" s="26">
+      <c r="CI69" s="11">
         <v>16.953855530203825</v>
       </c>
-      <c r="CJ69" s="26">
+      <c r="CJ69" s="11">
         <v>1028.3586195366536</v>
       </c>
-      <c r="CK69" s="26">
+      <c r="CK69" s="11">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="26">
+      <c r="CL69" s="11">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="26">
+      <c r="CM69" s="11">
         <v>1027.1601309639761</v>
       </c>
-      <c r="CN69" s="26">
-        <v>41.930046032713427</v>
-      </c>
-      <c r="CO69" s="9"/>
+      <c r="CN69" s="11">
+        <v>41.917329586137001</v>
+      </c>
+      <c r="CO69" s="11">
+        <v>10.886154564769283</v>
+      </c>
       <c r="CP69" s="9"/>
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
@@ -16747,28 +16793,30 @@
       <c r="CG70" s="11">
         <v>6285.6721429445324</v>
       </c>
-      <c r="CH70" s="26">
+      <c r="CH70" s="11">
         <v>1448.1343027412383</v>
       </c>
-      <c r="CI70" s="26">
+      <c r="CI70" s="11">
         <v>8562.482089070525</v>
       </c>
-      <c r="CJ70" s="26">
+      <c r="CJ70" s="11">
         <v>2239.9525460572077</v>
       </c>
-      <c r="CK70" s="26">
+      <c r="CK70" s="11">
         <v>17011.45122004909</v>
       </c>
-      <c r="CL70" s="26">
+      <c r="CL70" s="11">
         <v>14299.381189960224</v>
       </c>
-      <c r="CM70" s="26">
+      <c r="CM70" s="11">
         <v>10756.161476932277</v>
       </c>
-      <c r="CN70" s="26">
-        <v>4421.7667665145091</v>
-      </c>
-      <c r="CO70" s="9"/>
+      <c r="CN70" s="11">
+        <v>4422.6855828104217</v>
+      </c>
+      <c r="CO70" s="11">
+        <v>4519.7070483536709</v>
+      </c>
       <c r="CP70" s="9"/>
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
@@ -17085,28 +17133,30 @@
       <c r="CG71" s="11">
         <v>895.31046279750126</v>
       </c>
-      <c r="CH71" s="26">
+      <c r="CH71" s="11">
         <v>6598.5780080170871</v>
       </c>
-      <c r="CI71" s="26">
+      <c r="CI71" s="11">
         <v>1509.2761680538472</v>
       </c>
-      <c r="CJ71" s="26">
+      <c r="CJ71" s="11">
         <v>933.29883433603959</v>
       </c>
-      <c r="CK71" s="26">
+      <c r="CK71" s="11">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="26">
+      <c r="CL71" s="11">
         <v>7857.4330842353402</v>
       </c>
-      <c r="CM71" s="26">
+      <c r="CM71" s="11">
         <v>12973.996282608967</v>
       </c>
-      <c r="CN71" s="26">
-        <v>4954.3358113834256</v>
-      </c>
-      <c r="CO71" s="9"/>
+      <c r="CN71" s="11">
+        <v>4986.5052471304152</v>
+      </c>
+      <c r="CO71" s="11">
+        <v>4045.2631411187904</v>
+      </c>
       <c r="CP71" s="9"/>
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
@@ -17423,28 +17473,30 @@
       <c r="CG72" s="8">
         <v>39056.838552932059</v>
       </c>
-      <c r="CH72" s="25">
+      <c r="CH72" s="8">
         <v>57322.530854881785</v>
       </c>
-      <c r="CI72" s="25">
+      <c r="CI72" s="8">
         <v>77256.6267106991</v>
       </c>
-      <c r="CJ72" s="25">
+      <c r="CJ72" s="8">
         <v>50921.678456479567</v>
       </c>
-      <c r="CK72" s="25">
+      <c r="CK72" s="8">
         <v>41081.070055137694</v>
       </c>
-      <c r="CL72" s="25">
+      <c r="CL72" s="8">
         <v>57662.23318614345</v>
       </c>
-      <c r="CM72" s="25">
+      <c r="CM72" s="8">
         <v>76955.64956547285</v>
       </c>
-      <c r="CN72" s="25">
-        <v>47560.824690466747</v>
-      </c>
-      <c r="CO72" s="9"/>
+      <c r="CN72" s="8">
+        <v>47878.16255463213</v>
+      </c>
+      <c r="CO72" s="8">
+        <v>41928.453650453659</v>
+      </c>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
@@ -17761,28 +17813,30 @@
       <c r="CG73" s="11">
         <v>3399.7361086404549</v>
       </c>
-      <c r="CH73" s="26">
+      <c r="CH73" s="11">
         <v>4859.84384366423</v>
       </c>
-      <c r="CI73" s="26">
+      <c r="CI73" s="11">
         <v>8344.0239500626049</v>
       </c>
-      <c r="CJ73" s="26">
+      <c r="CJ73" s="11">
         <v>3853.6409002357977</v>
       </c>
-      <c r="CK73" s="26">
+      <c r="CK73" s="11">
         <v>2432.6444929756008</v>
       </c>
-      <c r="CL73" s="26">
+      <c r="CL73" s="11">
         <v>4683.5995618951329</v>
       </c>
-      <c r="CM73" s="26">
+      <c r="CM73" s="11">
         <v>6590.1993565525727</v>
       </c>
-      <c r="CN73" s="26">
-        <v>3731.763516923615</v>
-      </c>
-      <c r="CO73" s="9"/>
+      <c r="CN73" s="11">
+        <v>3638.8348126188002</v>
+      </c>
+      <c r="CO73" s="11">
+        <v>3576.5224369929265</v>
+      </c>
       <c r="CP73" s="9"/>
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
@@ -18099,28 +18153,30 @@
       <c r="CG74" s="11">
         <v>6270.4666236352759</v>
       </c>
-      <c r="CH74" s="26">
+      <c r="CH74" s="11">
         <v>11258.642650803366</v>
       </c>
-      <c r="CI74" s="26">
+      <c r="CI74" s="11">
         <v>13051.603763302017</v>
       </c>
-      <c r="CJ74" s="26">
+      <c r="CJ74" s="11">
         <v>7162.8336538555195</v>
       </c>
-      <c r="CK74" s="26">
+      <c r="CK74" s="11">
         <v>6943.62473199126</v>
       </c>
-      <c r="CL74" s="26">
+      <c r="CL74" s="11">
         <v>11434.698648295172</v>
       </c>
-      <c r="CM74" s="26">
+      <c r="CM74" s="11">
         <v>11812.849070937744</v>
       </c>
-      <c r="CN74" s="26">
-        <v>6667.4934179135344</v>
-      </c>
-      <c r="CO74" s="9"/>
+      <c r="CN74" s="11">
+        <v>6318.8080810705678</v>
+      </c>
+      <c r="CO74" s="11">
+        <v>6732.9304901212308</v>
+      </c>
       <c r="CP74" s="9"/>
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
@@ -18437,28 +18493,30 @@
       <c r="CG75" s="11">
         <v>19075.895362324642</v>
       </c>
-      <c r="CH75" s="26">
+      <c r="CH75" s="11">
         <v>23213.513806998541</v>
       </c>
-      <c r="CI75" s="26">
+      <c r="CI75" s="11">
         <v>39711.128326152975</v>
       </c>
-      <c r="CJ75" s="26">
+      <c r="CJ75" s="11">
         <v>30484.388651556059</v>
       </c>
-      <c r="CK75" s="26">
+      <c r="CK75" s="11">
         <v>21824.17496025905</v>
       </c>
-      <c r="CL75" s="26">
+      <c r="CL75" s="11">
         <v>27542.821618566464</v>
       </c>
-      <c r="CM75" s="26">
+      <c r="CM75" s="11">
         <v>42566.01365475796</v>
       </c>
-      <c r="CN75" s="26">
-        <v>27838.497114343969</v>
-      </c>
-      <c r="CO75" s="9"/>
+      <c r="CN75" s="11">
+        <v>28562.492818752173</v>
+      </c>
+      <c r="CO75" s="11">
+        <v>21485.173560053263</v>
+      </c>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
@@ -18775,28 +18833,30 @@
       <c r="CG76" s="11">
         <v>10310.740458331686</v>
       </c>
-      <c r="CH76" s="26">
+      <c r="CH76" s="11">
         <v>17990.530553415647</v>
       </c>
-      <c r="CI76" s="26">
+      <c r="CI76" s="11">
         <v>16149.870671181499</v>
       </c>
-      <c r="CJ76" s="26">
+      <c r="CJ76" s="11">
         <v>9420.8152508321909</v>
       </c>
-      <c r="CK76" s="26">
+      <c r="CK76" s="11">
         <v>9880.6258699117825</v>
       </c>
-      <c r="CL76" s="26">
+      <c r="CL76" s="11">
         <v>14001.113357386681</v>
       </c>
-      <c r="CM76" s="26">
+      <c r="CM76" s="11">
         <v>15986.587483224583</v>
       </c>
-      <c r="CN76" s="26">
-        <v>9323.0706412856343</v>
-      </c>
-      <c r="CO76" s="9"/>
+      <c r="CN76" s="11">
+        <v>9358.026842190593</v>
+      </c>
+      <c r="CO76" s="11">
+        <v>10133.827163286238</v>
+      </c>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
@@ -19285,9 +19345,11 @@
         <v>297712.8848970643</v>
       </c>
       <c r="CN78" s="13">
-        <v>292078.07415910176</v>
-      </c>
-      <c r="CO78" s="9"/>
+        <v>293545.7771224819</v>
+      </c>
+      <c r="CO78" s="13">
+        <v>299427.93198759208</v>
+      </c>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
@@ -19441,6 +19503,7 @@
       <c r="CL79" s="14"/>
       <c r="CM79" s="14"/>
       <c r="CN79" s="14"/>
+      <c r="CO79" s="14"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -19467,6 +19530,8 @@
       <c r="BY80" s="16"/>
       <c r="CC80" s="16"/>
       <c r="CG80" s="16"/>
+      <c r="CK80" s="16"/>
+      <c r="CO80" s="16"/>
     </row>
     <row r="81" spans="1:152" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -19788,7 +19853,7 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.2">
@@ -19798,7 +19863,7 @@
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
@@ -19808,141 +19873,142 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30" t="s">
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="30" t="s">
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="30" t="s">
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="30" t="s">
+      <c r="O91" s="26"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
+      <c r="R91" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="30" t="s">
+      <c r="S91" s="26"/>
+      <c r="T91" s="26"/>
+      <c r="U91" s="26"/>
+      <c r="V91" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="30" t="s">
+      <c r="W91" s="26"/>
+      <c r="X91" s="26"/>
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="30" t="s">
+      <c r="AA91" s="26"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="26"/>
+      <c r="AD91" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="29"/>
-      <c r="AF91" s="29"/>
-      <c r="AG91" s="29"/>
-      <c r="AH91" s="30" t="s">
+      <c r="AE91" s="26"/>
+      <c r="AF91" s="26"/>
+      <c r="AG91" s="26"/>
+      <c r="AH91" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="29"/>
-      <c r="AJ91" s="29"/>
-      <c r="AK91" s="29"/>
-      <c r="AL91" s="30" t="s">
+      <c r="AI91" s="26"/>
+      <c r="AJ91" s="26"/>
+      <c r="AK91" s="26"/>
+      <c r="AL91" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="29"/>
-      <c r="AN91" s="29"/>
-      <c r="AO91" s="29"/>
-      <c r="AP91" s="30" t="s">
+      <c r="AM91" s="26"/>
+      <c r="AN91" s="26"/>
+      <c r="AO91" s="26"/>
+      <c r="AP91" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="29"/>
-      <c r="AR91" s="29"/>
-      <c r="AS91" s="29"/>
-      <c r="AT91" s="30" t="s">
+      <c r="AQ91" s="26"/>
+      <c r="AR91" s="26"/>
+      <c r="AS91" s="26"/>
+      <c r="AT91" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="29"/>
-      <c r="AV91" s="29"/>
-      <c r="AW91" s="29"/>
-      <c r="AX91" s="30" t="s">
+      <c r="AU91" s="26"/>
+      <c r="AV91" s="26"/>
+      <c r="AW91" s="26"/>
+      <c r="AX91" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="29"/>
-      <c r="AZ91" s="29"/>
-      <c r="BA91" s="29"/>
-      <c r="BB91" s="30" t="s">
+      <c r="AY91" s="26"/>
+      <c r="AZ91" s="26"/>
+      <c r="BA91" s="26"/>
+      <c r="BB91" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="29"/>
-      <c r="BD91" s="29"/>
-      <c r="BE91" s="29"/>
-      <c r="BF91" s="30" t="s">
+      <c r="BC91" s="26"/>
+      <c r="BD91" s="26"/>
+      <c r="BE91" s="26"/>
+      <c r="BF91" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="29"/>
-      <c r="BH91" s="29"/>
-      <c r="BI91" s="29"/>
-      <c r="BJ91" s="30" t="s">
+      <c r="BG91" s="26"/>
+      <c r="BH91" s="26"/>
+      <c r="BI91" s="26"/>
+      <c r="BJ91" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="29"/>
-      <c r="BL91" s="29"/>
-      <c r="BM91" s="29"/>
-      <c r="BN91" s="30" t="s">
+      <c r="BK91" s="26"/>
+      <c r="BL91" s="26"/>
+      <c r="BM91" s="26"/>
+      <c r="BN91" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="29"/>
-      <c r="BP91" s="29"/>
-      <c r="BQ91" s="29"/>
-      <c r="BR91" s="30" t="s">
+      <c r="BO91" s="26"/>
+      <c r="BP91" s="26"/>
+      <c r="BQ91" s="26"/>
+      <c r="BR91" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="29"/>
-      <c r="BT91" s="29"/>
-      <c r="BU91" s="29"/>
-      <c r="BV91" s="30" t="s">
+      <c r="BS91" s="26"/>
+      <c r="BT91" s="26"/>
+      <c r="BU91" s="26"/>
+      <c r="BV91" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="29"/>
-      <c r="BX91" s="29"/>
-      <c r="BY91" s="29"/>
-      <c r="BZ91" s="30" t="s">
+      <c r="BW91" s="26"/>
+      <c r="BX91" s="26"/>
+      <c r="BY91" s="26"/>
+      <c r="BZ91" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="29"/>
-      <c r="CB91" s="29"/>
-      <c r="CC91" s="29"/>
-      <c r="CD91" s="30" t="s">
+      <c r="CA91" s="26"/>
+      <c r="CB91" s="26"/>
+      <c r="CC91" s="26"/>
+      <c r="CD91" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="29"/>
-      <c r="CF91" s="29"/>
-      <c r="CG91" s="29"/>
-      <c r="CH91" s="30" t="s">
+      <c r="CE91" s="26"/>
+      <c r="CF91" s="26"/>
+      <c r="CG91" s="26"/>
+      <c r="CH91" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="CI91" s="30"/>
-      <c r="CJ91" s="30"/>
-      <c r="CK91" s="27"/>
-      <c r="CL91" s="30"/>
-      <c r="CM91" s="30"/>
-      <c r="CN91" s="27"/>
+      <c r="CI91" s="26"/>
+      <c r="CJ91" s="26"/>
+      <c r="CK91" s="26"/>
+      <c r="CL91" s="25"/>
+      <c r="CM91" s="26"/>
+      <c r="CN91" s="26"/>
+      <c r="CO91" s="26"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20209,10 +20275,13 @@
       <c r="CJ92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CK92" s="17"/>
+      <c r="CK92" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="CL92" s="17"/>
       <c r="CM92" s="17"/>
       <c r="CN92" s="17"/>
+      <c r="CO92" s="17"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -20480,13 +20549,15 @@
         <v>2.6161754643462274</v>
       </c>
       <c r="CJ94" s="18">
-        <v>1.2583181190109087</v>
-      </c>
-      <c r="CK94" s="18"/>
+        <v>3.425437305934409</v>
+      </c>
+      <c r="CK94" s="18">
+        <v>-3.9312576168945697</v>
+      </c>
       <c r="CL94" s="18"/>
       <c r="CM94" s="18"/>
       <c r="CN94" s="18"/>
-      <c r="CO94" s="9"/>
+      <c r="CO94" s="18"/>
       <c r="CP94" s="9"/>
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
@@ -20805,13 +20876,15 @@
         <v>-37.820869722104511</v>
       </c>
       <c r="CJ95" s="18">
-        <v>-33.115383157707257</v>
-      </c>
-      <c r="CK95" s="18"/>
+        <v>-24.896275717352566</v>
+      </c>
+      <c r="CK95" s="18">
+        <v>-33.616920739090403</v>
+      </c>
       <c r="CL95" s="18"/>
       <c r="CM95" s="18"/>
       <c r="CN95" s="18"/>
-      <c r="CO95" s="9"/>
+      <c r="CO95" s="18"/>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
@@ -21130,13 +21203,15 @@
         <v>-4.9762495509968971</v>
       </c>
       <c r="CJ96" s="18">
-        <v>12.702922100477181</v>
-      </c>
-      <c r="CK96" s="18"/>
+        <v>12.35214952192969</v>
+      </c>
+      <c r="CK96" s="18">
+        <v>13.025401998287876</v>
+      </c>
       <c r="CL96" s="18"/>
       <c r="CM96" s="18"/>
       <c r="CN96" s="18"/>
-      <c r="CO96" s="9"/>
+      <c r="CO96" s="18"/>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
@@ -21455,13 +21530,15 @@
         <v>39.150393492462655</v>
       </c>
       <c r="CJ97" s="18">
-        <v>20.567235119109199</v>
-      </c>
-      <c r="CK97" s="18"/>
+        <v>22.797571506964616</v>
+      </c>
+      <c r="CK97" s="18">
+        <v>19.158609875559534</v>
+      </c>
       <c r="CL97" s="18"/>
       <c r="CM97" s="18"/>
       <c r="CN97" s="18"/>
-      <c r="CO97" s="9"/>
+      <c r="CO97" s="18"/>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
@@ -21780,13 +21857,15 @@
         <v>6.2638597947185986</v>
       </c>
       <c r="CJ98" s="18">
-        <v>23.333766924244472</v>
-      </c>
-      <c r="CK98" s="18"/>
+        <v>23.612965530303526</v>
+      </c>
+      <c r="CK98" s="18">
+        <v>38.377832280093799</v>
+      </c>
       <c r="CL98" s="18"/>
       <c r="CM98" s="18"/>
       <c r="CN98" s="18"/>
-      <c r="CO98" s="9"/>
+      <c r="CO98" s="18"/>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
@@ -22105,13 +22184,15 @@
         <v>-19.366687495187435</v>
       </c>
       <c r="CJ99" s="18">
-        <v>-21.959794882150391</v>
-      </c>
-      <c r="CK99" s="18"/>
+        <v>-12.265050575864294</v>
+      </c>
+      <c r="CK99" s="18">
+        <v>12.038978045921482</v>
+      </c>
       <c r="CL99" s="18"/>
       <c r="CM99" s="18"/>
       <c r="CN99" s="18"/>
-      <c r="CO99" s="9"/>
+      <c r="CO99" s="18"/>
       <c r="CP99" s="9"/>
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
@@ -22430,13 +22511,15 @@
         <v>15.77220481018351</v>
       </c>
       <c r="CJ100" s="18">
-        <v>4.3563968790397496</v>
-      </c>
-      <c r="CK100" s="18"/>
+        <v>4.9526499017840138</v>
+      </c>
+      <c r="CK100" s="18">
+        <v>-9.2253709879722834</v>
+      </c>
       <c r="CL100" s="18"/>
       <c r="CM100" s="18"/>
       <c r="CN100" s="18"/>
-      <c r="CO100" s="9"/>
+      <c r="CO100" s="18"/>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
@@ -22755,13 +22838,15 @@
         <v>23.520488319364603</v>
       </c>
       <c r="CJ101" s="18">
-        <v>-52.274394054049736</v>
-      </c>
-      <c r="CK101" s="18"/>
+        <v>-46.770273771319026</v>
+      </c>
+      <c r="CK101" s="18">
+        <v>-12.763914546856654</v>
+      </c>
       <c r="CL101" s="18"/>
       <c r="CM101" s="18"/>
       <c r="CN101" s="18"/>
-      <c r="CO101" s="9"/>
+      <c r="CO101" s="18"/>
       <c r="CP101" s="9"/>
       <c r="CQ101" s="9"/>
       <c r="CR101" s="9"/>
@@ -23080,13 +23165,15 @@
         <v>2.6013561971939652</v>
       </c>
       <c r="CJ102" s="18">
-        <v>16.168373227607518</v>
-      </c>
-      <c r="CK102" s="18"/>
+        <v>17.166938537311864</v>
+      </c>
+      <c r="CK102" s="18">
+        <v>-2.3658757184928874</v>
+      </c>
       <c r="CL102" s="18"/>
       <c r="CM102" s="18"/>
       <c r="CN102" s="18"/>
-      <c r="CO102" s="9"/>
+      <c r="CO102" s="18"/>
       <c r="CP102" s="9"/>
       <c r="CQ102" s="9"/>
       <c r="CR102" s="9"/>
@@ -23405,13 +23492,15 @@
         <v>23.307675698351531</v>
       </c>
       <c r="CJ103" s="18">
-        <v>27.278225504652795</v>
-      </c>
-      <c r="CK103" s="18"/>
+        <v>28.293189833795395</v>
+      </c>
+      <c r="CK103" s="18">
+        <v>33.593479092207104</v>
+      </c>
       <c r="CL103" s="18"/>
       <c r="CM103" s="18"/>
       <c r="CN103" s="18"/>
-      <c r="CO103" s="9"/>
+      <c r="CO103" s="18"/>
       <c r="CP103" s="9"/>
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
@@ -23730,13 +23819,15 @@
         <v>38.057103178436762</v>
       </c>
       <c r="CJ104" s="18">
-        <v>29.596603918338786</v>
-      </c>
-      <c r="CK104" s="18"/>
+        <v>28.100463867375083</v>
+      </c>
+      <c r="CK104" s="18">
+        <v>18.927963361320693</v>
+      </c>
       <c r="CL104" s="18"/>
       <c r="CM104" s="18"/>
       <c r="CN104" s="18"/>
-      <c r="CO104" s="9"/>
+      <c r="CO104" s="18"/>
       <c r="CP104" s="9"/>
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
@@ -24055,13 +24146,15 @@
         <v>10.952408830470532</v>
       </c>
       <c r="CJ105" s="18">
-        <v>2.8174858210524292</v>
-      </c>
-      <c r="CK105" s="18"/>
+        <v>1.7870009360090364</v>
+      </c>
+      <c r="CK105" s="18">
+        <v>33.709326033340346</v>
+      </c>
       <c r="CL105" s="18"/>
       <c r="CM105" s="18"/>
       <c r="CN105" s="18"/>
-      <c r="CO105" s="9"/>
+      <c r="CO105" s="18"/>
       <c r="CP105" s="9"/>
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
@@ -24380,13 +24473,15 @@
         <v>14.206009255546689</v>
       </c>
       <c r="CJ106" s="18">
-        <v>49.920430666293555</v>
-      </c>
-      <c r="CK106" s="18"/>
+        <v>51.224840872866565</v>
+      </c>
+      <c r="CK106" s="18">
+        <v>84.667981868547088</v>
+      </c>
       <c r="CL106" s="18"/>
       <c r="CM106" s="18"/>
       <c r="CN106" s="18"/>
-      <c r="CO106" s="9"/>
+      <c r="CO106" s="18"/>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
@@ -24705,13 +24800,15 @@
         <v>27.441307735300342</v>
       </c>
       <c r="CJ107" s="18">
-        <v>12.938600406597089</v>
-      </c>
-      <c r="CK107" s="18"/>
+        <v>15.301278528935811</v>
+      </c>
+      <c r="CK107" s="18">
+        <v>8.3360528531216289</v>
+      </c>
       <c r="CL107" s="18"/>
       <c r="CM107" s="18"/>
       <c r="CN107" s="18"/>
-      <c r="CO107" s="9"/>
+      <c r="CO107" s="18"/>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
@@ -25030,13 +25127,15 @@
         <v>40.427767136317357</v>
       </c>
       <c r="CJ108" s="18">
-        <v>54.201816310695762</v>
-      </c>
-      <c r="CK108" s="18"/>
+        <v>54.254937210818809</v>
+      </c>
+      <c r="CK108" s="18">
+        <v>21.745838170456892</v>
+      </c>
       <c r="CL108" s="18"/>
       <c r="CM108" s="18"/>
       <c r="CN108" s="18"/>
-      <c r="CO108" s="9"/>
+      <c r="CO108" s="18"/>
       <c r="CP108" s="9"/>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
@@ -25355,13 +25454,15 @@
         <v>28.527224244693201</v>
       </c>
       <c r="CJ109" s="18">
-        <v>49.450261547145459</v>
-      </c>
-      <c r="CK109" s="18"/>
+        <v>49.478178538755344</v>
+      </c>
+      <c r="CK109" s="18">
+        <v>37.900467704921539</v>
+      </c>
       <c r="CL109" s="18"/>
       <c r="CM109" s="18"/>
       <c r="CN109" s="18"/>
-      <c r="CO109" s="9"/>
+      <c r="CO109" s="18"/>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
@@ -25676,17 +25777,19 @@
       <c r="CH110" s="18">
         <v>-20.097370315257223</v>
       </c>
-      <c r="CI110" s="28" t="s">
+      <c r="CI110" s="18" t="s">
         <v>42</v>
       </c>
       <c r="CJ110" s="18">
-        <v>-95.38399893832414</v>
-      </c>
-      <c r="CK110" s="18"/>
+        <v>-95.387005146913367</v>
+      </c>
+      <c r="CK110" s="18">
+        <v>-99.543627235197079</v>
+      </c>
       <c r="CL110" s="18"/>
       <c r="CM110" s="18"/>
       <c r="CN110" s="18"/>
-      <c r="CO110" s="9"/>
+      <c r="CO110" s="18"/>
       <c r="CP110" s="9"/>
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
@@ -25998,20 +26101,22 @@
       <c r="CG111" s="18">
         <v>193.31762104050796</v>
       </c>
-      <c r="CH111" s="28" t="s">
+      <c r="CH111" s="18" t="s">
         <v>42</v>
       </c>
       <c r="CI111" s="18">
         <v>41.403297066243425</v>
       </c>
       <c r="CJ111" s="18">
-        <v>123.67465404412695</v>
-      </c>
-      <c r="CK111" s="18"/>
+        <v>123.64864403928286</v>
+      </c>
+      <c r="CK111" s="18">
+        <v>-68.824051214918995</v>
+      </c>
       <c r="CL111" s="18"/>
       <c r="CM111" s="18"/>
       <c r="CN111" s="18"/>
-      <c r="CO111" s="9"/>
+      <c r="CO111" s="18"/>
       <c r="CP111" s="9"/>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
@@ -26330,13 +26435,15 @@
         <v>867.42064633686959</v>
       </c>
       <c r="CJ112" s="18">
-        <v>603.74100696877326</v>
-      </c>
-      <c r="CK112" s="18"/>
+        <v>607.11976440440071</v>
+      </c>
+      <c r="CK112" s="18">
+        <v>190.01209600896419</v>
+      </c>
       <c r="CL112" s="18"/>
       <c r="CM112" s="18"/>
       <c r="CN112" s="18"/>
-      <c r="CO112" s="9"/>
+      <c r="CO112" s="18"/>
       <c r="CP112" s="9"/>
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
@@ -26655,13 +26762,15 @@
         <v>14.351529523611688</v>
       </c>
       <c r="CJ113" s="18">
-        <v>7.8926388333091921</v>
-      </c>
-      <c r="CK113" s="18"/>
+        <v>8.4708740616164135</v>
+      </c>
+      <c r="CK113" s="18">
+        <v>21.323705467884139</v>
+      </c>
       <c r="CL113" s="18"/>
       <c r="CM113" s="18"/>
       <c r="CN113" s="18"/>
-      <c r="CO113" s="9"/>
+      <c r="CO113" s="18"/>
       <c r="CP113" s="9"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
@@ -26980,13 +27089,15 @@
         <v>-6.8203463366640023</v>
       </c>
       <c r="CJ114" s="18">
-        <v>12.993314768941545</v>
-      </c>
-      <c r="CK114" s="18"/>
+        <v>10.122669459670462</v>
+      </c>
+      <c r="CK114" s="18">
+        <v>66.938925147861909</v>
+      </c>
       <c r="CL114" s="18"/>
       <c r="CM114" s="18"/>
       <c r="CN114" s="18"/>
-      <c r="CO114" s="9"/>
+      <c r="CO114" s="18"/>
       <c r="CP114" s="9"/>
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
@@ -27305,13 +27416,15 @@
         <v>5.1748539158880789</v>
       </c>
       <c r="CJ115" s="18">
-        <v>6.2135861557405292</v>
-      </c>
-      <c r="CK115" s="18"/>
+        <v>3.4661554172493538</v>
+      </c>
+      <c r="CK115" s="18">
+        <v>9.1592771420106089</v>
+      </c>
       <c r="CL115" s="18"/>
       <c r="CM115" s="18"/>
       <c r="CN115" s="18"/>
-      <c r="CO115" s="9"/>
+      <c r="CO115" s="18"/>
       <c r="CP115" s="9"/>
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
@@ -27630,13 +27743,15 @@
         <v>20.813758731072298</v>
       </c>
       <c r="CJ116" s="18">
-        <v>4.6041702042654009</v>
-      </c>
-      <c r="CK116" s="18"/>
+        <v>6.6840912546485498</v>
+      </c>
+      <c r="CK116" s="18">
+        <v>16.945973869965968</v>
+      </c>
       <c r="CL116" s="18"/>
       <c r="CM116" s="18"/>
       <c r="CN116" s="18"/>
-      <c r="CO116" s="9"/>
+      <c r="CO116" s="18"/>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
@@ -27955,13 +28070,15 @@
         <v>15.615035863688092</v>
       </c>
       <c r="CJ117" s="18">
-        <v>17.63807589034802</v>
-      </c>
-      <c r="CK117" s="18"/>
+        <v>17.999862493465329</v>
+      </c>
+      <c r="CK117" s="18">
+        <v>24.057399153743347</v>
+      </c>
       <c r="CL117" s="18"/>
       <c r="CM117" s="18"/>
       <c r="CN117" s="18"/>
-      <c r="CO117" s="9"/>
+      <c r="CO117" s="18"/>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
@@ -28428,13 +28545,15 @@
         <v>24.55493969190357</v>
       </c>
       <c r="CJ119" s="23">
-        <v>30.409032557328743</v>
-      </c>
-      <c r="CK119" s="23"/>
+        <v>31.107942896964659</v>
+      </c>
+      <c r="CK119" s="23">
+        <v>18.499638886890239</v>
+      </c>
       <c r="CL119" s="23"/>
       <c r="CM119" s="23"/>
       <c r="CN119" s="23"/>
-      <c r="CO119" s="9"/>
+      <c r="CO119" s="23"/>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
@@ -28583,6 +28702,7 @@
       <c r="CL120" s="14"/>
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
+      <c r="CO120" s="14"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -28900,7 +29020,7 @@
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.2">
@@ -28910,7 +29030,7 @@
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.2">
@@ -28920,141 +29040,142 @@
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="30" t="s">
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-      <c r="J132" s="30" t="s">
+      <c r="G132" s="26"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="26"/>
+      <c r="J132" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29"/>
-      <c r="N132" s="30" t="s">
+      <c r="K132" s="26"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
-      <c r="R132" s="30" t="s">
+      <c r="O132" s="26"/>
+      <c r="P132" s="26"/>
+      <c r="Q132" s="26"/>
+      <c r="R132" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
-      <c r="V132" s="30" t="s">
+      <c r="S132" s="26"/>
+      <c r="T132" s="26"/>
+      <c r="U132" s="26"/>
+      <c r="V132" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="29"/>
-      <c r="X132" s="29"/>
-      <c r="Y132" s="29"/>
-      <c r="Z132" s="30" t="s">
+      <c r="W132" s="26"/>
+      <c r="X132" s="26"/>
+      <c r="Y132" s="26"/>
+      <c r="Z132" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="29"/>
-      <c r="AC132" s="29"/>
-      <c r="AD132" s="30" t="s">
+      <c r="AA132" s="26"/>
+      <c r="AB132" s="26"/>
+      <c r="AC132" s="26"/>
+      <c r="AD132" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="29"/>
-      <c r="AG132" s="29"/>
-      <c r="AH132" s="30" t="s">
+      <c r="AE132" s="26"/>
+      <c r="AF132" s="26"/>
+      <c r="AG132" s="26"/>
+      <c r="AH132" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="29"/>
-      <c r="AJ132" s="29"/>
-      <c r="AK132" s="29"/>
-      <c r="AL132" s="30" t="s">
+      <c r="AI132" s="26"/>
+      <c r="AJ132" s="26"/>
+      <c r="AK132" s="26"/>
+      <c r="AL132" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="29"/>
-      <c r="AN132" s="29"/>
-      <c r="AO132" s="29"/>
-      <c r="AP132" s="30" t="s">
+      <c r="AM132" s="26"/>
+      <c r="AN132" s="26"/>
+      <c r="AO132" s="26"/>
+      <c r="AP132" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="29"/>
-      <c r="AR132" s="29"/>
-      <c r="AS132" s="29"/>
-      <c r="AT132" s="30" t="s">
+      <c r="AQ132" s="26"/>
+      <c r="AR132" s="26"/>
+      <c r="AS132" s="26"/>
+      <c r="AT132" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="29"/>
-      <c r="AV132" s="29"/>
-      <c r="AW132" s="29"/>
-      <c r="AX132" s="30" t="s">
+      <c r="AU132" s="26"/>
+      <c r="AV132" s="26"/>
+      <c r="AW132" s="26"/>
+      <c r="AX132" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="29"/>
-      <c r="AZ132" s="29"/>
-      <c r="BA132" s="29"/>
-      <c r="BB132" s="30" t="s">
+      <c r="AY132" s="26"/>
+      <c r="AZ132" s="26"/>
+      <c r="BA132" s="26"/>
+      <c r="BB132" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="29"/>
-      <c r="BD132" s="29"/>
-      <c r="BE132" s="29"/>
-      <c r="BF132" s="30" t="s">
+      <c r="BC132" s="26"/>
+      <c r="BD132" s="26"/>
+      <c r="BE132" s="26"/>
+      <c r="BF132" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="29"/>
-      <c r="BH132" s="29"/>
-      <c r="BI132" s="29"/>
-      <c r="BJ132" s="30" t="s">
+      <c r="BG132" s="26"/>
+      <c r="BH132" s="26"/>
+      <c r="BI132" s="26"/>
+      <c r="BJ132" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="29"/>
-      <c r="BL132" s="29"/>
-      <c r="BM132" s="29"/>
-      <c r="BN132" s="30" t="s">
+      <c r="BK132" s="26"/>
+      <c r="BL132" s="26"/>
+      <c r="BM132" s="26"/>
+      <c r="BN132" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="29"/>
-      <c r="BP132" s="29"/>
-      <c r="BQ132" s="29"/>
-      <c r="BR132" s="30" t="s">
+      <c r="BO132" s="26"/>
+      <c r="BP132" s="26"/>
+      <c r="BQ132" s="26"/>
+      <c r="BR132" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="29"/>
-      <c r="BT132" s="29"/>
-      <c r="BU132" s="29"/>
-      <c r="BV132" s="30" t="s">
+      <c r="BS132" s="26"/>
+      <c r="BT132" s="26"/>
+      <c r="BU132" s="26"/>
+      <c r="BV132" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="29"/>
-      <c r="BX132" s="29"/>
-      <c r="BY132" s="29"/>
-      <c r="BZ132" s="30" t="s">
+      <c r="BW132" s="26"/>
+      <c r="BX132" s="26"/>
+      <c r="BY132" s="26"/>
+      <c r="BZ132" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="29"/>
-      <c r="CB132" s="29"/>
-      <c r="CC132" s="29"/>
-      <c r="CD132" s="30" t="s">
+      <c r="CA132" s="26"/>
+      <c r="CB132" s="26"/>
+      <c r="CC132" s="26"/>
+      <c r="CD132" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="29"/>
-      <c r="CF132" s="29"/>
-      <c r="CG132" s="29"/>
-      <c r="CH132" s="30" t="s">
+      <c r="CE132" s="26"/>
+      <c r="CF132" s="26"/>
+      <c r="CG132" s="26"/>
+      <c r="CH132" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="CI132" s="30"/>
-      <c r="CJ132" s="30"/>
-      <c r="CK132" s="27"/>
-      <c r="CL132" s="30"/>
-      <c r="CM132" s="30"/>
-      <c r="CN132" s="27"/>
+      <c r="CI132" s="26"/>
+      <c r="CJ132" s="26"/>
+      <c r="CK132" s="26"/>
+      <c r="CL132" s="25"/>
+      <c r="CM132" s="26"/>
+      <c r="CN132" s="26"/>
+      <c r="CO132" s="26"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -29321,10 +29442,13 @@
       <c r="CJ133" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CK133" s="17"/>
+      <c r="CK133" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="CL133" s="17"/>
       <c r="CM133" s="17"/>
       <c r="CN133" s="17"/>
+      <c r="CO133" s="17"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -29592,13 +29716,15 @@
         <v>-5.0428689849541541</v>
       </c>
       <c r="CJ135" s="18">
-        <v>-12.232965455403004</v>
-      </c>
-      <c r="CK135" s="18"/>
+        <v>-10.535342695604939</v>
+      </c>
+      <c r="CK135" s="18">
+        <v>-16.263123831990285</v>
+      </c>
       <c r="CL135" s="18"/>
       <c r="CM135" s="18"/>
       <c r="CN135" s="18"/>
-      <c r="CO135" s="9"/>
+      <c r="CO135" s="18"/>
       <c r="CP135" s="9"/>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
@@ -29917,13 +30043,15 @@
         <v>-47.062223520576474</v>
       </c>
       <c r="CJ136" s="18">
-        <v>-43.306783644713832</v>
-      </c>
-      <c r="CK136" s="18"/>
+        <v>-36.320241518703234</v>
+      </c>
+      <c r="CK136" s="18">
+        <v>-44.749251159996774</v>
+      </c>
       <c r="CL136" s="18"/>
       <c r="CM136" s="18"/>
       <c r="CN136" s="18"/>
-      <c r="CO136" s="9"/>
+      <c r="CO136" s="18"/>
       <c r="CP136" s="9"/>
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
@@ -30242,13 +30370,15 @@
         <v>-19.08449113756609</v>
       </c>
       <c r="CJ137" s="18">
-        <v>-4.23099335046291</v>
-      </c>
-      <c r="CK137" s="18"/>
+        <v>-4.4988010727972494</v>
+      </c>
+      <c r="CK137" s="18">
+        <v>-5.6024911786158356</v>
+      </c>
       <c r="CL137" s="18"/>
       <c r="CM137" s="18"/>
       <c r="CN137" s="18"/>
-      <c r="CO137" s="9"/>
+      <c r="CO137" s="18"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
@@ -30567,13 +30697,15 @@
         <v>14.649954876192538</v>
       </c>
       <c r="CJ138" s="18">
-        <v>15.324003677310742</v>
-      </c>
-      <c r="CK138" s="18"/>
+        <v>16.376328769206168</v>
+      </c>
+      <c r="CK138" s="18">
+        <v>21.004352952220628</v>
+      </c>
       <c r="CL138" s="18"/>
       <c r="CM138" s="18"/>
       <c r="CN138" s="18"/>
-      <c r="CO138" s="9"/>
+      <c r="CO138" s="18"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
@@ -30892,13 +31024,15 @@
         <v>-7.7518220140517826</v>
       </c>
       <c r="CJ139" s="18">
-        <v>6.3897638758224247</v>
-      </c>
-      <c r="CK139" s="18"/>
+        <v>6.5399953090524718</v>
+      </c>
+      <c r="CK139" s="18">
+        <v>26.48483321195441</v>
+      </c>
       <c r="CL139" s="18"/>
       <c r="CM139" s="18"/>
       <c r="CN139" s="18"/>
-      <c r="CO139" s="9"/>
+      <c r="CO139" s="18"/>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
@@ -31217,13 +31351,15 @@
         <v>-30.216119706078771</v>
       </c>
       <c r="CJ140" s="18">
-        <v>-33.284252768240606</v>
-      </c>
-      <c r="CK140" s="18"/>
+        <v>-25.068860096716932</v>
+      </c>
+      <c r="CK140" s="18">
+        <v>-5.3559344784376322</v>
+      </c>
       <c r="CL140" s="18"/>
       <c r="CM140" s="18"/>
       <c r="CN140" s="18"/>
-      <c r="CO140" s="9"/>
+      <c r="CO140" s="18"/>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
@@ -31542,13 +31678,15 @@
         <v>2.0552570920002324</v>
       </c>
       <c r="CJ141" s="18">
-        <v>-9.7533639678080135</v>
-      </c>
-      <c r="CK141" s="18"/>
+        <v>-9.3136191849951473</v>
+      </c>
+      <c r="CK141" s="18">
+        <v>-21.66111708650044</v>
+      </c>
       <c r="CL141" s="18"/>
       <c r="CM141" s="18"/>
       <c r="CN141" s="18"/>
-      <c r="CO141" s="9"/>
+      <c r="CO141" s="18"/>
       <c r="CP141" s="9"/>
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
@@ -31867,13 +32005,15 @@
         <v>4.7161098628991027</v>
       </c>
       <c r="CJ142" s="18">
-        <v>-59.053293389773629</v>
-      </c>
-      <c r="CK142" s="18"/>
+        <v>-54.420764171578398</v>
+      </c>
+      <c r="CK142" s="18">
+        <v>-26.709878652277695</v>
+      </c>
       <c r="CL142" s="18"/>
       <c r="CM142" s="18"/>
       <c r="CN142" s="18"/>
-      <c r="CO142" s="9"/>
+      <c r="CO142" s="18"/>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
@@ -32192,13 +32332,15 @@
         <v>-7.5055681814216371</v>
       </c>
       <c r="CJ143" s="18">
-        <v>3.8606011643630183</v>
-      </c>
-      <c r="CK143" s="18"/>
+        <v>4.4191618460993567</v>
+      </c>
+      <c r="CK143" s="18">
+        <v>-10.721296914676856</v>
+      </c>
       <c r="CL143" s="18"/>
       <c r="CM143" s="18"/>
       <c r="CN143" s="18"/>
-      <c r="CO143" s="9"/>
+      <c r="CO143" s="18"/>
       <c r="CP143" s="9"/>
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
@@ -32517,13 +32659,15 @@
         <v>8.2800489601486049</v>
       </c>
       <c r="CJ144" s="18">
-        <v>8.1233830223931704</v>
-      </c>
-      <c r="CK144" s="18"/>
+        <v>8.5228481726772571</v>
+      </c>
+      <c r="CK144" s="18">
+        <v>20.242700651821565</v>
+      </c>
       <c r="CL144" s="18"/>
       <c r="CM144" s="18"/>
       <c r="CN144" s="18"/>
-      <c r="CO144" s="9"/>
+      <c r="CO144" s="18"/>
       <c r="CP144" s="9"/>
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
@@ -32842,13 +32986,15 @@
         <v>17.646826552333692</v>
       </c>
       <c r="CJ145" s="18">
-        <v>6.8313031889844638</v>
-      </c>
-      <c r="CK145" s="18"/>
+        <v>5.781361748676872</v>
+      </c>
+      <c r="CK145" s="18">
+        <v>5.9985560364256685</v>
+      </c>
       <c r="CL145" s="18"/>
       <c r="CM145" s="18"/>
       <c r="CN145" s="18"/>
-      <c r="CO145" s="9"/>
+      <c r="CO145" s="18"/>
       <c r="CP145" s="9"/>
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
@@ -33167,13 +33313,15 @@
         <v>-3.0951475545924438</v>
       </c>
       <c r="CJ146" s="18">
-        <v>-7.6966205362106876</v>
-      </c>
-      <c r="CK146" s="18"/>
+        <v>-13.837884671219214</v>
+      </c>
+      <c r="CK146" s="18">
+        <v>14.259033064081933</v>
+      </c>
       <c r="CL146" s="18"/>
       <c r="CM146" s="18"/>
       <c r="CN146" s="18"/>
-      <c r="CO146" s="9"/>
+      <c r="CO146" s="18"/>
       <c r="CP146" s="9"/>
       <c r="CQ146" s="9"/>
       <c r="CR146" s="9"/>
@@ -33492,13 +33640,15 @@
         <v>-1.620795152815262</v>
       </c>
       <c r="CJ147" s="18">
-        <v>23.363228406752029</v>
-      </c>
-      <c r="CK147" s="18"/>
+        <v>24.691433387953339</v>
+      </c>
+      <c r="CK147" s="18">
+        <v>55.772211120929484</v>
+      </c>
       <c r="CL147" s="18"/>
       <c r="CM147" s="18"/>
       <c r="CN147" s="18"/>
-      <c r="CO147" s="9"/>
+      <c r="CO147" s="18"/>
       <c r="CP147" s="9"/>
       <c r="CQ147" s="9"/>
       <c r="CR147" s="9"/>
@@ -33817,13 +33967,15 @@
         <v>14.657434498337679</v>
       </c>
       <c r="CJ148" s="18">
-        <v>-0.3308301470117101</v>
-      </c>
-      <c r="CK148" s="18"/>
+        <v>1.7201693658621622</v>
+      </c>
+      <c r="CK148" s="18">
+        <v>8.2114325644829194</v>
+      </c>
       <c r="CL148" s="18"/>
       <c r="CM148" s="18"/>
       <c r="CN148" s="18"/>
-      <c r="CO148" s="9"/>
+      <c r="CO148" s="18"/>
       <c r="CP148" s="9"/>
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
@@ -34142,13 +34294,15 @@
         <v>25.250900535839762</v>
       </c>
       <c r="CJ149" s="18">
-        <v>32.954895773362182</v>
-      </c>
-      <c r="CK149" s="18"/>
+        <v>33.037855661093971</v>
+      </c>
+      <c r="CK149" s="18">
+        <v>8.2350976324099889</v>
+      </c>
       <c r="CL149" s="18"/>
       <c r="CM149" s="18"/>
       <c r="CN149" s="18"/>
-      <c r="CO149" s="9"/>
+      <c r="CO149" s="18"/>
       <c r="CP149" s="9"/>
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
@@ -34467,13 +34621,15 @@
         <v>14.287652303199167</v>
       </c>
       <c r="CJ150" s="18">
-        <v>29.244279679589368</v>
-      </c>
-      <c r="CK150" s="18"/>
+        <v>29.298585386224744</v>
+      </c>
+      <c r="CK150" s="18">
+        <v>21.221997274893553</v>
+      </c>
       <c r="CL150" s="18"/>
       <c r="CM150" s="18"/>
       <c r="CN150" s="18"/>
-      <c r="CO150" s="9"/>
+      <c r="CO150" s="18"/>
       <c r="CP150" s="9"/>
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
@@ -34788,17 +34944,19 @@
       <c r="CH151" s="18">
         <v>-25.855541909063874</v>
       </c>
-      <c r="CI151" s="28" t="s">
+      <c r="CI151" s="18" t="s">
         <v>42</v>
       </c>
       <c r="CJ151" s="18">
-        <v>-95.922624147244875</v>
-      </c>
-      <c r="CK151" s="18"/>
+        <v>-95.923860724284722</v>
+      </c>
+      <c r="CK151" s="18">
+        <v>-99.61244162055425</v>
+      </c>
       <c r="CL151" s="18"/>
       <c r="CM151" s="18"/>
       <c r="CN151" s="18"/>
-      <c r="CO151" s="9"/>
+      <c r="CO151" s="18"/>
       <c r="CP151" s="9"/>
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
@@ -35117,13 +35275,15 @@
         <v>25.619666879792334</v>
       </c>
       <c r="CJ152" s="18">
-        <v>97.404484050242843</v>
-      </c>
-      <c r="CK152" s="18"/>
+        <v>97.445503503870555</v>
+      </c>
+      <c r="CK152" s="18">
+        <v>-73.431384601527085</v>
+      </c>
       <c r="CL152" s="18"/>
       <c r="CM152" s="18"/>
       <c r="CN152" s="18"/>
-      <c r="CO152" s="9"/>
+      <c r="CO152" s="18"/>
       <c r="CP152" s="9"/>
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
@@ -35442,13 +35602,15 @@
         <v>759.61711694808173</v>
       </c>
       <c r="CJ153" s="18">
-        <v>430.84131567655947</v>
-      </c>
-      <c r="CK153" s="18"/>
+        <v>434.28816834190911</v>
+      </c>
+      <c r="CK153" s="18">
+        <v>141.71022165666324</v>
+      </c>
       <c r="CL153" s="18"/>
       <c r="CM153" s="18"/>
       <c r="CN153" s="18"/>
-      <c r="CO153" s="9"/>
+      <c r="CO153" s="18"/>
       <c r="CP153" s="9"/>
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
@@ -35767,13 +35929,15 @@
         <v>-0.38958100818109642</v>
       </c>
       <c r="CJ154" s="18">
-        <v>-6.6000451436124337</v>
-      </c>
-      <c r="CK154" s="18"/>
+        <v>-5.9768569970618586</v>
+      </c>
+      <c r="CK154" s="18">
+        <v>2.0627106211659907</v>
+      </c>
       <c r="CL154" s="18"/>
       <c r="CM154" s="18"/>
       <c r="CN154" s="18"/>
-      <c r="CO154" s="9"/>
+      <c r="CO154" s="18"/>
       <c r="CP154" s="9"/>
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
@@ -36092,13 +36256,15 @@
         <v>-21.018930482538622</v>
       </c>
       <c r="CJ155" s="18">
-        <v>-3.1626554333260515</v>
-      </c>
-      <c r="CK155" s="18"/>
+        <v>-5.5741075304617453</v>
+      </c>
+      <c r="CK155" s="18">
+        <v>47.021993855671809</v>
+      </c>
       <c r="CL155" s="18"/>
       <c r="CM155" s="18"/>
       <c r="CN155" s="18"/>
-      <c r="CO155" s="9"/>
+      <c r="CO155" s="18"/>
       <c r="CP155" s="9"/>
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
@@ -36417,13 +36583,15 @@
         <v>-9.4912067116790269</v>
       </c>
       <c r="CJ156" s="18">
-        <v>-6.9154228602720593</v>
-      </c>
-      <c r="CK156" s="18"/>
+        <v>-11.783403239172529</v>
+      </c>
+      <c r="CK156" s="18">
+        <v>-3.0343552539540468</v>
+      </c>
       <c r="CL156" s="18"/>
       <c r="CM156" s="18"/>
       <c r="CN156" s="18"/>
-      <c r="CO156" s="9"/>
+      <c r="CO156" s="18"/>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
@@ -36742,13 +36910,15 @@
         <v>7.1891317344534116</v>
       </c>
       <c r="CJ157" s="18">
-        <v>-8.6794967990182528</v>
-      </c>
-      <c r="CK157" s="18"/>
+        <v>-6.3045247676494967</v>
+      </c>
+      <c r="CK157" s="18">
+        <v>-1.5533297401761814</v>
+      </c>
       <c r="CL157" s="18"/>
       <c r="CM157" s="18"/>
       <c r="CN157" s="18"/>
-      <c r="CO157" s="9"/>
+      <c r="CO157" s="18"/>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
       <c r="CR157" s="9"/>
@@ -37067,13 +37237,15 @@
         <v>-1.0110495079585178</v>
       </c>
       <c r="CJ158" s="18">
-        <v>-1.0375387579957192</v>
-      </c>
-      <c r="CK158" s="18"/>
+        <v>-0.66648593534462464</v>
+      </c>
+      <c r="CK158" s="18">
+        <v>2.5626037936068258</v>
+      </c>
       <c r="CL158" s="18"/>
       <c r="CM158" s="18"/>
       <c r="CN158" s="18"/>
-      <c r="CO158" s="9"/>
+      <c r="CO158" s="18"/>
       <c r="CP158" s="9"/>
       <c r="CQ158" s="9"/>
       <c r="CR158" s="9"/>
@@ -37540,13 +37712,15 @@
         <v>11.889736911697483</v>
       </c>
       <c r="CJ160" s="23">
-        <v>11.570604537760531</v>
-      </c>
-      <c r="CK160" s="23"/>
+        <v>12.131250890204598</v>
+      </c>
+      <c r="CK160" s="23">
+        <v>3.6618134839021508</v>
+      </c>
       <c r="CL160" s="23"/>
       <c r="CM160" s="23"/>
       <c r="CN160" s="23"/>
-      <c r="CO160" s="9"/>
+      <c r="CO160" s="23"/>
       <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
       <c r="CR160" s="9"/>
@@ -37695,6 +37869,7 @@
       <c r="CL161" s="14"/>
       <c r="CM161" s="14"/>
       <c r="CN161" s="14"/>
+      <c r="CO161" s="14"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -38012,7 +38187,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.2">
@@ -38022,7 +38197,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.2">
@@ -38032,143 +38207,144 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="29">
+      <c r="B172" s="26">
         <v>2000</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29">
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
+      <c r="F172" s="26">
         <v>2001</v>
       </c>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29">
+      <c r="G172" s="26"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="26"/>
+      <c r="J172" s="26">
         <v>2002</v>
       </c>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29">
+      <c r="K172" s="26"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="26">
         <v>2003</v>
       </c>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
-      <c r="Q172" s="29"/>
-      <c r="R172" s="29">
+      <c r="O172" s="26"/>
+      <c r="P172" s="26"/>
+      <c r="Q172" s="26"/>
+      <c r="R172" s="26">
         <v>2004</v>
       </c>
-      <c r="S172" s="29"/>
-      <c r="T172" s="29"/>
-      <c r="U172" s="29"/>
-      <c r="V172" s="29">
+      <c r="S172" s="26"/>
+      <c r="T172" s="26"/>
+      <c r="U172" s="26"/>
+      <c r="V172" s="26">
         <v>2005</v>
       </c>
-      <c r="W172" s="29"/>
-      <c r="X172" s="29"/>
-      <c r="Y172" s="29"/>
-      <c r="Z172" s="29">
+      <c r="W172" s="26"/>
+      <c r="X172" s="26"/>
+      <c r="Y172" s="26"/>
+      <c r="Z172" s="26">
         <v>2006</v>
       </c>
-      <c r="AA172" s="29"/>
-      <c r="AB172" s="29"/>
-      <c r="AC172" s="29"/>
-      <c r="AD172" s="29">
+      <c r="AA172" s="26"/>
+      <c r="AB172" s="26"/>
+      <c r="AC172" s="26"/>
+      <c r="AD172" s="26">
         <v>2007</v>
       </c>
-      <c r="AE172" s="29"/>
-      <c r="AF172" s="29"/>
-      <c r="AG172" s="29"/>
-      <c r="AH172" s="29">
+      <c r="AE172" s="26"/>
+      <c r="AF172" s="26"/>
+      <c r="AG172" s="26"/>
+      <c r="AH172" s="26">
         <v>2008</v>
       </c>
-      <c r="AI172" s="29"/>
-      <c r="AJ172" s="29"/>
-      <c r="AK172" s="29"/>
-      <c r="AL172" s="29">
+      <c r="AI172" s="26"/>
+      <c r="AJ172" s="26"/>
+      <c r="AK172" s="26"/>
+      <c r="AL172" s="26">
         <v>2009</v>
       </c>
-      <c r="AM172" s="29"/>
-      <c r="AN172" s="29"/>
-      <c r="AO172" s="29"/>
-      <c r="AP172" s="29">
+      <c r="AM172" s="26"/>
+      <c r="AN172" s="26"/>
+      <c r="AO172" s="26"/>
+      <c r="AP172" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="29"/>
-      <c r="AR172" s="29"/>
-      <c r="AS172" s="29"/>
-      <c r="AT172" s="29">
+      <c r="AQ172" s="26"/>
+      <c r="AR172" s="26"/>
+      <c r="AS172" s="26"/>
+      <c r="AT172" s="26">
         <v>2011</v>
       </c>
-      <c r="AU172" s="29"/>
-      <c r="AV172" s="29"/>
-      <c r="AW172" s="29"/>
-      <c r="AX172" s="29">
+      <c r="AU172" s="26"/>
+      <c r="AV172" s="26"/>
+      <c r="AW172" s="26"/>
+      <c r="AX172" s="26">
         <v>2012</v>
       </c>
-      <c r="AY172" s="29"/>
-      <c r="AZ172" s="29"/>
-      <c r="BA172" s="29"/>
-      <c r="BB172" s="29">
+      <c r="AY172" s="26"/>
+      <c r="AZ172" s="26"/>
+      <c r="BA172" s="26"/>
+      <c r="BB172" s="26">
         <v>2013</v>
       </c>
-      <c r="BC172" s="29"/>
-      <c r="BD172" s="29"/>
-      <c r="BE172" s="29"/>
-      <c r="BF172" s="29">
+      <c r="BC172" s="26"/>
+      <c r="BD172" s="26"/>
+      <c r="BE172" s="26"/>
+      <c r="BF172" s="26">
         <v>2014</v>
       </c>
-      <c r="BG172" s="29"/>
-      <c r="BH172" s="29"/>
-      <c r="BI172" s="29"/>
-      <c r="BJ172" s="29">
+      <c r="BG172" s="26"/>
+      <c r="BH172" s="26"/>
+      <c r="BI172" s="26"/>
+      <c r="BJ172" s="26">
         <v>2015</v>
       </c>
-      <c r="BK172" s="29"/>
-      <c r="BL172" s="29"/>
-      <c r="BM172" s="29"/>
-      <c r="BN172" s="29">
+      <c r="BK172" s="26"/>
+      <c r="BL172" s="26"/>
+      <c r="BM172" s="26"/>
+      <c r="BN172" s="26">
         <v>2016</v>
       </c>
-      <c r="BO172" s="29"/>
-      <c r="BP172" s="29"/>
-      <c r="BQ172" s="29"/>
-      <c r="BR172" s="29">
+      <c r="BO172" s="26"/>
+      <c r="BP172" s="26"/>
+      <c r="BQ172" s="26"/>
+      <c r="BR172" s="26">
         <v>2017</v>
       </c>
-      <c r="BS172" s="29"/>
-      <c r="BT172" s="29"/>
-      <c r="BU172" s="29"/>
-      <c r="BV172" s="29">
+      <c r="BS172" s="26"/>
+      <c r="BT172" s="26"/>
+      <c r="BU172" s="26"/>
+      <c r="BV172" s="26">
         <v>2018</v>
       </c>
-      <c r="BW172" s="29"/>
-      <c r="BX172" s="29"/>
-      <c r="BY172" s="29"/>
-      <c r="BZ172" s="29">
+      <c r="BW172" s="26"/>
+      <c r="BX172" s="26"/>
+      <c r="BY172" s="26"/>
+      <c r="BZ172" s="26">
         <v>2019</v>
       </c>
-      <c r="CA172" s="29"/>
-      <c r="CB172" s="29"/>
-      <c r="CC172" s="29"/>
-      <c r="CD172" s="29">
+      <c r="CA172" s="26"/>
+      <c r="CB172" s="26"/>
+      <c r="CC172" s="26"/>
+      <c r="CD172" s="26">
         <v>2020</v>
       </c>
-      <c r="CE172" s="29"/>
-      <c r="CF172" s="29"/>
-      <c r="CG172" s="29"/>
-      <c r="CH172" s="30">
+      <c r="CE172" s="26"/>
+      <c r="CF172" s="26"/>
+      <c r="CG172" s="26"/>
+      <c r="CH172" s="26">
         <v>2021</v>
       </c>
-      <c r="CI172" s="30"/>
-      <c r="CJ172" s="30"/>
-      <c r="CK172" s="30"/>
-      <c r="CL172" s="30">
+      <c r="CI172" s="26"/>
+      <c r="CJ172" s="26"/>
+      <c r="CK172" s="26"/>
+      <c r="CL172" s="26">
         <v>2022</v>
       </c>
-      <c r="CM172" s="30"/>
-      <c r="CN172" s="30"/>
+      <c r="CM172" s="26"/>
+      <c r="CN172" s="26"/>
+      <c r="CO172" s="26"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -38446,6 +38622,9 @@
       </c>
       <c r="CN173" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CO173" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38707,28 +38886,30 @@
       <c r="CG175" s="18">
         <v>84.152916883701607</v>
       </c>
-      <c r="CH175" s="23">
+      <c r="CH175" s="18">
         <v>101.81581745286988</v>
       </c>
-      <c r="CI175" s="23">
+      <c r="CI175" s="18">
         <v>152.82825297827912</v>
       </c>
-      <c r="CJ175" s="23">
+      <c r="CJ175" s="18">
         <v>81.409559325346493</v>
       </c>
-      <c r="CK175" s="23">
+      <c r="CK175" s="18">
         <v>87.656473173836574</v>
       </c>
-      <c r="CL175" s="23">
+      <c r="CL175" s="18">
         <v>110.66158088608714</v>
       </c>
-      <c r="CM175" s="23">
+      <c r="CM175" s="18">
         <v>165.15506161452674</v>
       </c>
-      <c r="CN175" s="23">
-        <v>93.923591002789507</v>
-      </c>
-      <c r="CO175" s="9"/>
+      <c r="CN175" s="18">
+        <v>94.113357473216837</v>
+      </c>
+      <c r="CO175" s="18">
+        <v>100.56557546585454</v>
+      </c>
       <c r="CP175" s="9"/>
       <c r="CQ175" s="9"/>
       <c r="CR175" s="9"/>
@@ -39045,28 +39226,30 @@
       <c r="CG176" s="18">
         <v>63.183833792368262</v>
       </c>
-      <c r="CH176" s="23">
+      <c r="CH176" s="18">
         <v>95.71600251896588</v>
       </c>
-      <c r="CI176" s="23">
+      <c r="CI176" s="18">
         <v>272.50352635277977</v>
       </c>
-      <c r="CJ176" s="23">
+      <c r="CJ176" s="18">
         <v>83.797461632446954</v>
       </c>
-      <c r="CK176" s="23">
+      <c r="CK176" s="18">
         <v>70.426540851869561</v>
       </c>
-      <c r="CL176" s="23">
+      <c r="CL176" s="18">
         <v>110.89424851939825</v>
       </c>
-      <c r="CM176" s="23">
+      <c r="CM176" s="18">
         <v>320.07449864958767</v>
       </c>
-      <c r="CN176" s="23">
-        <v>98.861230213486479</v>
-      </c>
-      <c r="CO176" s="9"/>
+      <c r="CN176" s="18">
+        <v>98.830485606779945</v>
+      </c>
+      <c r="CO176" s="18">
+        <v>84.616602337458417</v>
+      </c>
       <c r="CP176" s="9"/>
       <c r="CQ176" s="9"/>
       <c r="CR176" s="9"/>
@@ -39383,28 +39566,30 @@
       <c r="CG177" s="18">
         <v>63.016810227808584</v>
       </c>
-      <c r="CH177" s="23">
+      <c r="CH177" s="18">
         <v>97.637361782363925</v>
       </c>
-      <c r="CI177" s="23">
+      <c r="CI177" s="18">
         <v>265.25008766882678</v>
       </c>
-      <c r="CJ177" s="23">
+      <c r="CJ177" s="18">
         <v>83.457702596769707</v>
       </c>
-      <c r="CK177" s="23">
+      <c r="CK177" s="18">
         <v>69.912175368928629</v>
       </c>
-      <c r="CL177" s="23">
+      <c r="CL177" s="18">
         <v>113.00380674947689</v>
       </c>
-      <c r="CM177" s="23">
+      <c r="CM177" s="18">
         <v>311.49848146009214</v>
       </c>
-      <c r="CN177" s="23">
-        <v>98.214728162203315</v>
-      </c>
-      <c r="CO177" s="9"/>
+      <c r="CN177" s="18">
+        <v>98.183608020005124</v>
+      </c>
+      <c r="CO177" s="18">
+        <v>83.70826544373729</v>
+      </c>
       <c r="CP177" s="9"/>
       <c r="CQ177" s="9"/>
       <c r="CR177" s="9"/>
@@ -39721,28 +39906,30 @@
       <c r="CG178" s="18">
         <v>76.849972488174899</v>
       </c>
-      <c r="CH178" s="23">
+      <c r="CH178" s="18">
         <v>99.652042589949346</v>
       </c>
-      <c r="CI178" s="23">
+      <c r="CI178" s="18">
         <v>187.5115598982089</v>
       </c>
-      <c r="CJ178" s="23">
+      <c r="CJ178" s="18">
         <v>92.213626318875598</v>
       </c>
-      <c r="CK178" s="23">
+      <c r="CK178" s="18">
         <v>92.415085048282265</v>
       </c>
-      <c r="CL178" s="23">
+      <c r="CL178" s="18">
         <v>108.3356511292266</v>
       </c>
-      <c r="CM178" s="23">
+      <c r="CM178" s="18">
         <v>227.58236034543273</v>
       </c>
-      <c r="CN178" s="23">
-        <v>96.406139321027865</v>
-      </c>
-      <c r="CO178" s="9"/>
+      <c r="CN178" s="18">
+        <v>97.301654825916202</v>
+      </c>
+      <c r="CO178" s="18">
+        <v>91.005429120662313</v>
+      </c>
       <c r="CP178" s="9"/>
       <c r="CQ178" s="9"/>
       <c r="CR178" s="9"/>
@@ -40059,28 +40246,30 @@
       <c r="CG179" s="18">
         <v>68.457360397440027</v>
       </c>
-      <c r="CH179" s="23">
+      <c r="CH179" s="18">
         <v>118.66920717736119</v>
       </c>
-      <c r="CI179" s="23">
+      <c r="CI179" s="18">
         <v>240.7378949559274</v>
       </c>
-      <c r="CJ179" s="23">
+      <c r="CJ179" s="18">
         <v>85.592564357228966</v>
       </c>
-      <c r="CK179" s="23">
+      <c r="CK179" s="18">
         <v>80.882675241517958</v>
       </c>
-      <c r="CL179" s="23">
+      <c r="CL179" s="18">
         <v>134.03943563300095</v>
       </c>
-      <c r="CM179" s="23">
+      <c r="CM179" s="18">
         <v>277.31428929435464</v>
       </c>
-      <c r="CN179" s="23">
-        <v>99.224333228188272</v>
-      </c>
-      <c r="CO179" s="9"/>
+      <c r="CN179" s="18">
+        <v>99.308721357165652</v>
+      </c>
+      <c r="CO179" s="18">
+        <v>88.487836720950398</v>
+      </c>
       <c r="CP179" s="9"/>
       <c r="CQ179" s="9"/>
       <c r="CR179" s="9"/>
@@ -40397,28 +40586,30 @@
       <c r="CG180" s="18">
         <v>64.799622859446899</v>
       </c>
-      <c r="CH180" s="23">
+      <c r="CH180" s="18">
         <v>101.24567036298457</v>
       </c>
-      <c r="CI180" s="23">
+      <c r="CI180" s="18">
         <v>266.14752084277262</v>
       </c>
-      <c r="CJ180" s="23">
+      <c r="CJ180" s="18">
         <v>86.692868271783823</v>
       </c>
-      <c r="CK180" s="23">
+      <c r="CK180" s="18">
         <v>72.624472753656079</v>
       </c>
-      <c r="CL180" s="23">
+      <c r="CL180" s="18">
         <v>116.99298976488475</v>
       </c>
-      <c r="CM180" s="23">
+      <c r="CM180" s="18">
         <v>307.52598064349507</v>
       </c>
-      <c r="CN180" s="23">
-        <v>101.40828069694558</v>
-      </c>
-      <c r="CO180" s="9"/>
+      <c r="CN180" s="18">
+        <v>101.50645543462444</v>
+      </c>
+      <c r="CO180" s="18">
+        <v>85.972339243919421</v>
+      </c>
       <c r="CP180" s="9"/>
       <c r="CQ180" s="9"/>
       <c r="CR180" s="9"/>
@@ -40735,28 +40926,30 @@
       <c r="CG181" s="18">
         <v>103.33109794386456</v>
       </c>
-      <c r="CH181" s="23">
+      <c r="CH181" s="18">
         <v>103.70006301482566</v>
       </c>
-      <c r="CI181" s="23">
+      <c r="CI181" s="18">
         <v>101.54027638334632</v>
       </c>
-      <c r="CJ181" s="23">
+      <c r="CJ181" s="18">
         <v>75.616653522775749</v>
       </c>
-      <c r="CK181" s="23">
+      <c r="CK181" s="18">
         <v>109.63067483938367</v>
       </c>
-      <c r="CL181" s="23">
+      <c r="CL181" s="18">
         <v>107.98908315832972</v>
       </c>
-      <c r="CM181" s="23">
+      <c r="CM181" s="18">
         <v>115.18800705521801</v>
       </c>
-      <c r="CN181" s="23">
-        <v>87.439065350566523</v>
-      </c>
-      <c r="CO181" s="9"/>
+      <c r="CN181" s="18">
+        <v>87.512238250082191</v>
+      </c>
+      <c r="CO181" s="18">
+        <v>127.03377258866165</v>
+      </c>
       <c r="CP181" s="9"/>
       <c r="CQ181" s="9"/>
       <c r="CR181" s="9"/>
@@ -41073,28 +41266,30 @@
       <c r="CG182" s="18">
         <v>61.761382139005583</v>
       </c>
-      <c r="CH182" s="23">
+      <c r="CH182" s="18">
         <v>95.379728239523203</v>
       </c>
-      <c r="CI182" s="23">
+      <c r="CI182" s="18">
         <v>249.44665566658352</v>
       </c>
-      <c r="CJ182" s="23">
+      <c r="CJ182" s="18">
         <v>82.668368300631016</v>
       </c>
-      <c r="CK182" s="23">
+      <c r="CK182" s="18">
         <v>69.120085272219896</v>
       </c>
-      <c r="CL182" s="23">
+      <c r="CL182" s="18">
         <v>109.70274132329342</v>
       </c>
-      <c r="CM182" s="23">
+      <c r="CM182" s="18">
         <v>294.2409984281262</v>
       </c>
-      <c r="CN182" s="23">
-        <v>96.354464041932133</v>
-      </c>
-      <c r="CO182" s="9"/>
+      <c r="CN182" s="18">
+        <v>96.544282334597938</v>
+      </c>
+      <c r="CO182" s="18">
+        <v>82.272556716449259</v>
+      </c>
       <c r="CP182" s="9"/>
       <c r="CQ182" s="9"/>
       <c r="CR182" s="9"/>
@@ -41411,28 +41606,30 @@
       <c r="CG183" s="18">
         <v>70.498153920356913</v>
       </c>
-      <c r="CH183" s="23">
+      <c r="CH183" s="18">
         <v>102.76878150385957</v>
       </c>
-      <c r="CI183" s="23">
+      <c r="CI183" s="18">
         <v>227.96775716889221</v>
       </c>
-      <c r="CJ183" s="23">
+      <c r="CJ183" s="18">
         <v>86.618532078195543</v>
       </c>
-      <c r="CK183" s="23">
+      <c r="CK183" s="18">
         <v>81.819530962936852</v>
       </c>
-      <c r="CL183" s="23">
+      <c r="CL183" s="18">
         <v>115.36677192126498</v>
       </c>
-      <c r="CM183" s="23">
+      <c r="CM183" s="18">
         <v>252.87793648636557</v>
       </c>
-      <c r="CN183" s="23">
-        <v>96.883070674348588</v>
-      </c>
-      <c r="CO183" s="9"/>
+      <c r="CN183" s="18">
+        <v>97.193159232174295</v>
+      </c>
+      <c r="CO183" s="18">
+        <v>89.476862662930358</v>
+      </c>
       <c r="CP183" s="9"/>
       <c r="CQ183" s="9"/>
       <c r="CR183" s="9"/>
@@ -41749,28 +41946,30 @@
       <c r="CG184" s="18">
         <v>94.590802938056072</v>
       </c>
-      <c r="CH184" s="23">
+      <c r="CH184" s="18">
         <v>99.219687703327025</v>
       </c>
-      <c r="CI184" s="23">
+      <c r="CI184" s="18">
         <v>109.27480681578494</v>
       </c>
-      <c r="CJ184" s="23">
+      <c r="CJ184" s="18">
         <v>86.358477675794873</v>
       </c>
-      <c r="CK184" s="23">
+      <c r="CK184" s="18">
         <v>101.47969758213758</v>
       </c>
-      <c r="CL184" s="23">
+      <c r="CL184" s="18">
         <v>106.71763766305608</v>
       </c>
-      <c r="CM184" s="23">
+      <c r="CM184" s="18">
         <v>124.44049084056057</v>
       </c>
-      <c r="CN184" s="23">
-        <v>101.65750912161073</v>
-      </c>
-      <c r="CO184" s="9"/>
+      <c r="CN184" s="18">
+        <v>102.09098596997327</v>
+      </c>
+      <c r="CO184" s="18">
+        <v>112.74718368542747</v>
+      </c>
       <c r="CP184" s="9"/>
       <c r="CQ184" s="9"/>
       <c r="CR184" s="9"/>
@@ -42087,28 +42286,30 @@
       <c r="CG185" s="18">
         <v>92.777449473703626</v>
       </c>
-      <c r="CH185" s="23">
+      <c r="CH185" s="18">
         <v>101.73952445243908</v>
       </c>
-      <c r="CI185" s="23">
+      <c r="CI185" s="18">
         <v>112.04351095823273</v>
       </c>
-      <c r="CJ185" s="23">
+      <c r="CJ185" s="18">
         <v>84.740030622742339</v>
       </c>
-      <c r="CK185" s="23">
+      <c r="CK185" s="18">
         <v>106.12423231568802</v>
       </c>
-      <c r="CL185" s="23">
+      <c r="CL185" s="18">
         <v>112.24251758333199</v>
       </c>
-      <c r="CM185" s="23">
+      <c r="CM185" s="18">
         <v>131.48168128406019</v>
       </c>
-      <c r="CN185" s="23">
-        <v>102.7977742180703</v>
-      </c>
-      <c r="CO185" s="9"/>
+      <c r="CN185" s="18">
+        <v>102.61956408445118</v>
+      </c>
+      <c r="CO185" s="18">
+        <v>119.06896928153682</v>
+      </c>
       <c r="CP185" s="9"/>
       <c r="CQ185" s="9"/>
       <c r="CR185" s="9"/>
@@ -42425,28 +42626,30 @@
       <c r="CG186" s="18">
         <v>94.641546341473457</v>
       </c>
-      <c r="CH186" s="23">
+      <c r="CH186" s="18">
         <v>101.88048272230266</v>
       </c>
-      <c r="CI186" s="23">
+      <c r="CI186" s="18">
         <v>112.24546006256307</v>
       </c>
-      <c r="CJ186" s="23">
+      <c r="CJ186" s="18">
         <v>85.717434227607896</v>
       </c>
-      <c r="CK186" s="23">
+      <c r="CK186" s="18">
         <v>103.26015918097778</v>
       </c>
-      <c r="CL186" s="23">
+      <c r="CL186" s="18">
         <v>112.447124605686</v>
       </c>
-      <c r="CM186" s="23">
+      <c r="CM186" s="18">
         <v>128.51682717583003</v>
       </c>
-      <c r="CN186" s="23">
-        <v>95.48134780668039</v>
-      </c>
-      <c r="CO186" s="9"/>
+      <c r="CN186" s="18">
+        <v>101.26168008602066</v>
+      </c>
+      <c r="CO186" s="18">
+        <v>120.83811598896025</v>
+      </c>
       <c r="CP186" s="9"/>
       <c r="CQ186" s="9"/>
       <c r="CR186" s="9"/>
@@ -42763,28 +42966,30 @@
       <c r="CG187" s="18">
         <v>96.362779960151229</v>
       </c>
-      <c r="CH187" s="23">
+      <c r="CH187" s="18">
         <v>100.8784143151041</v>
       </c>
-      <c r="CI187" s="23">
+      <c r="CI187" s="18">
         <v>112.27408729091863</v>
       </c>
-      <c r="CJ187" s="23">
+      <c r="CJ187" s="18">
         <v>87.405412659933859</v>
       </c>
-      <c r="CK187" s="23">
+      <c r="CK187" s="18">
         <v>107.71497371841163</v>
       </c>
-      <c r="CL187" s="23">
+      <c r="CL187" s="18">
         <v>112.74770279893329</v>
       </c>
-      <c r="CM187" s="23">
+      <c r="CM187" s="18">
         <v>130.33623795010419</v>
       </c>
-      <c r="CN187" s="23">
-        <v>106.22174271685303</v>
-      </c>
-      <c r="CO187" s="9"/>
+      <c r="CN187" s="18">
+        <v>106.00463289086493</v>
+      </c>
+      <c r="CO187" s="18">
+        <v>127.69611903473876</v>
+      </c>
       <c r="CP187" s="9"/>
       <c r="CQ187" s="9"/>
       <c r="CR187" s="9"/>
@@ -43101,28 +43306,30 @@
       <c r="CG188" s="18">
         <v>93.931318685627105</v>
       </c>
-      <c r="CH188" s="23">
+      <c r="CH188" s="18">
         <v>96.90919250237306</v>
       </c>
-      <c r="CI188" s="23">
+      <c r="CI188" s="18">
         <v>105.13895645389533</v>
       </c>
-      <c r="CJ188" s="23">
+      <c r="CJ188" s="18">
         <v>86.286602692713842</v>
       </c>
-      <c r="CK188" s="23">
+      <c r="CK188" s="18">
         <v>95.326378830888814</v>
       </c>
-      <c r="CL188" s="23">
+      <c r="CL188" s="18">
         <v>101.05796827827807</v>
       </c>
-      <c r="CM188" s="23">
+      <c r="CM188" s="18">
         <v>116.86155514497823</v>
       </c>
-      <c r="CN188" s="23">
-        <v>97.774348440236707</v>
-      </c>
-      <c r="CO188" s="9"/>
+      <c r="CN188" s="18">
+        <v>97.807108191142518</v>
+      </c>
+      <c r="CO188" s="18">
+        <v>95.436160215011128</v>
+      </c>
       <c r="CP188" s="9"/>
       <c r="CQ188" s="9"/>
       <c r="CR188" s="9"/>
@@ -43439,28 +43646,30 @@
       <c r="CG189" s="18">
         <v>91.746171718901607</v>
       </c>
-      <c r="CH189" s="23">
+      <c r="CH189" s="18">
         <v>87.940155764510592</v>
       </c>
-      <c r="CI189" s="23">
+      <c r="CI189" s="18">
         <v>85.793204551506236</v>
       </c>
-      <c r="CJ189" s="23">
+      <c r="CJ189" s="18">
         <v>97.946455912127192</v>
       </c>
-      <c r="CK189" s="23">
+      <c r="CK189" s="18">
         <v>99.31241680617012</v>
       </c>
-      <c r="CL189" s="23">
+      <c r="CL189" s="18">
         <v>95.671845311144523</v>
       </c>
-      <c r="CM189" s="23">
+      <c r="CM189" s="18">
         <v>96.188914403772856</v>
       </c>
-      <c r="CN189" s="23">
-        <v>113.59883601872993</v>
-      </c>
-      <c r="CO189" s="9"/>
+      <c r="CN189" s="18">
+        <v>113.56710713404756</v>
+      </c>
+      <c r="CO189" s="18">
+        <v>111.70935943407375</v>
+      </c>
       <c r="CP189" s="9"/>
       <c r="CQ189" s="9"/>
       <c r="CR189" s="9"/>
@@ -43777,28 +43986,30 @@
       <c r="CG190" s="18">
         <v>91.134519701374373</v>
       </c>
-      <c r="CH190" s="23">
+      <c r="CH190" s="18">
         <v>86.457529774010027</v>
       </c>
-      <c r="CI190" s="23">
+      <c r="CI190" s="18">
         <v>86.023710950123203</v>
       </c>
-      <c r="CJ190" s="23">
+      <c r="CJ190" s="18">
         <v>97.585519916635917</v>
       </c>
-      <c r="CK190" s="23">
+      <c r="CK190" s="18">
         <v>97.419239682260795</v>
       </c>
-      <c r="CL190" s="23">
+      <c r="CL190" s="18">
         <v>92.385621359204592</v>
       </c>
-      <c r="CM190" s="23">
+      <c r="CM190" s="18">
         <v>96.741761378693241</v>
       </c>
-      <c r="CN190" s="23">
-        <v>112.84198813990982</v>
-      </c>
-      <c r="CO190" s="9"/>
+      <c r="CN190" s="18">
+        <v>112.81566403316765</v>
+      </c>
+      <c r="CO190" s="18">
+        <v>110.82277983901838</v>
+      </c>
       <c r="CP190" s="9"/>
       <c r="CQ190" s="9"/>
       <c r="CR190" s="9"/>
@@ -44115,28 +44326,30 @@
       <c r="CG191" s="18">
         <v>104.14185489107885</v>
       </c>
-      <c r="CH191" s="23">
+      <c r="CH191" s="18">
         <v>91.924890463158206</v>
       </c>
-      <c r="CI191" s="23">
+      <c r="CI191" s="18">
         <v>70.007685240126563</v>
       </c>
-      <c r="CJ191" s="23">
+      <c r="CJ191" s="18">
         <v>105.49251565318556</v>
       </c>
-      <c r="CK191" s="23">
+      <c r="CK191" s="18">
         <v>112.64926929216541</v>
       </c>
-      <c r="CL191" s="23">
+      <c r="CL191" s="18">
         <v>99.063917528128442</v>
       </c>
-      <c r="CM191" s="23">
+      <c r="CM191" s="18">
         <v>78.803988198212863</v>
       </c>
-      <c r="CN191" s="23">
-        <v>119.42817680762082</v>
-      </c>
-      <c r="CO191" s="9"/>
+      <c r="CN191" s="18">
+        <v>119.38660551826005</v>
+      </c>
+      <c r="CO191" s="18">
+        <v>132.65113388444081</v>
+      </c>
       <c r="CP191" s="9"/>
       <c r="CQ191" s="9"/>
       <c r="CR191" s="9"/>
@@ -44453,28 +44666,30 @@
       <c r="CG192" s="18">
         <v>100.91543708148217</v>
       </c>
-      <c r="CH192" s="23">
+      <c r="CH192" s="18">
         <v>103.39235981326205</v>
       </c>
-      <c r="CI192" s="23">
+      <c r="CI192" s="18">
         <v>83.204196674250866</v>
       </c>
-      <c r="CJ192" s="23">
+      <c r="CJ192" s="18">
         <v>114.29980556356692</v>
       </c>
-      <c r="CK192" s="23">
+      <c r="CK192" s="18">
         <v>109.37199151104686</v>
       </c>
-      <c r="CL192" s="23">
+      <c r="CL192" s="18">
         <v>115.3039076841502</v>
       </c>
-      <c r="CM192" s="23">
+      <c r="CM192" s="18">
         <v>93.658485424465454</v>
       </c>
-      <c r="CN192" s="23">
-        <v>129.51058122993209</v>
-      </c>
-      <c r="CO192" s="9"/>
+      <c r="CN192" s="18">
+        <v>129.4686183002608</v>
+      </c>
+      <c r="CO192" s="18">
+        <v>128.33847585699536</v>
+      </c>
       <c r="CP192" s="9"/>
       <c r="CQ192" s="9"/>
       <c r="CR192" s="9"/>
@@ -44791,28 +45006,30 @@
       <c r="CG193" s="18">
         <v>93.067332878407484</v>
       </c>
-      <c r="CH193" s="23">
+      <c r="CH193" s="18">
         <v>112.61371823184415</v>
       </c>
-      <c r="CI193" s="23">
+      <c r="CI193" s="18">
         <v>83.772938540248759</v>
       </c>
-      <c r="CJ193" s="23">
+      <c r="CJ193" s="18">
         <v>90.319161359356798</v>
       </c>
-      <c r="CK193" s="23">
+      <c r="CK193" s="18">
         <v>102.61542288804119</v>
       </c>
-      <c r="CL193" s="23">
+      <c r="CL193" s="18">
         <v>120.85836445829119</v>
       </c>
-      <c r="CM193" s="23">
+      <c r="CM193" s="18">
         <v>94.278800119613138</v>
       </c>
-      <c r="CN193" s="23">
-        <v>119.73690759657569</v>
-      </c>
-      <c r="CO193" s="9"/>
+      <c r="CN193" s="18">
+        <v>119.53561371166488</v>
+      </c>
+      <c r="CO193" s="18">
+        <v>123.12145374174197</v>
+      </c>
       <c r="CP193" s="9"/>
       <c r="CQ193" s="9"/>
       <c r="CR193" s="9"/>
@@ -45129,28 +45346,30 @@
       <c r="CG194" s="18">
         <v>127.39045766400648</v>
       </c>
-      <c r="CH194" s="23">
+      <c r="CH194" s="18">
         <v>97.580958633909773</v>
       </c>
-      <c r="CI194" s="23">
+      <c r="CI194" s="18">
         <v>68.833510253787608</v>
       </c>
-      <c r="CJ194" s="23">
+      <c r="CJ194" s="18">
         <v>102.47587550523912</v>
       </c>
-      <c r="CK194" s="23">
+      <c r="CK194" s="18">
         <v>135.74752878780504</v>
       </c>
-      <c r="CL194" s="23">
+      <c r="CL194" s="18">
         <v>108.28683046457073</v>
       </c>
-      <c r="CM194" s="23">
+      <c r="CM194" s="18">
         <v>79.020018785849018</v>
       </c>
-      <c r="CN194" s="23">
-        <v>118.37685191619536</v>
-      </c>
-      <c r="CO194" s="9"/>
+      <c r="CN194" s="18">
+        <v>118.22246556824123</v>
+      </c>
+      <c r="CO194" s="18">
+        <v>161.36543014005866</v>
+      </c>
       <c r="CP194" s="9"/>
       <c r="CQ194" s="9"/>
       <c r="CR194" s="9"/>
@@ -45467,28 +45686,30 @@
       <c r="CG195" s="18">
         <v>186.42397616842584</v>
       </c>
-      <c r="CH195" s="23">
+      <c r="CH195" s="18">
         <v>95.259693668959528</v>
       </c>
-      <c r="CI195" s="23">
+      <c r="CI195" s="18">
         <v>58.380380472752677</v>
       </c>
-      <c r="CJ195" s="23">
+      <c r="CJ195" s="18">
         <v>129.56424483161103</v>
       </c>
-      <c r="CK195" s="23">
+      <c r="CK195" s="18">
         <v>195.6739832826629</v>
       </c>
-      <c r="CL195" s="23">
+      <c r="CL195" s="18">
         <v>105.78827670863642</v>
       </c>
-      <c r="CM195" s="23">
+      <c r="CM195" s="18">
         <v>68.875537725938457</v>
       </c>
-      <c r="CN195" s="23">
-        <v>151.18024523048186</v>
-      </c>
-      <c r="CO195" s="9"/>
+      <c r="CN195" s="18">
+        <v>151.10220442963944</v>
+      </c>
+      <c r="CO195" s="18">
+        <v>222.18175384477189</v>
+      </c>
       <c r="CP195" s="9"/>
       <c r="CQ195" s="9"/>
       <c r="CR195" s="9"/>
@@ -45805,28 +46026,30 @@
       <c r="CG196" s="18">
         <v>118.82768251349813</v>
       </c>
-      <c r="CH196" s="23">
+      <c r="CH196" s="18">
         <v>86.352272299120216</v>
       </c>
-      <c r="CI196" s="23">
+      <c r="CI196" s="18">
         <v>64.765180292020773</v>
       </c>
-      <c r="CJ196" s="23">
+      <c r="CJ196" s="18">
         <v>110.54792275868444</v>
       </c>
-      <c r="CK196" s="23">
+      <c r="CK196" s="18">
         <v>129.17137046202959</v>
       </c>
-      <c r="CL196" s="23">
+      <c r="CL196" s="18">
         <v>96.455494465163767</v>
       </c>
-      <c r="CM196" s="23">
+      <c r="CM196" s="18">
         <v>75.25974138612672</v>
       </c>
-      <c r="CN196" s="23">
-        <v>126.14002962749018</v>
-      </c>
-      <c r="CO196" s="9"/>
+      <c r="CN196" s="18">
+        <v>129.65778523756364</v>
+      </c>
+      <c r="CO196" s="18">
+        <v>145.41494014716986</v>
+      </c>
       <c r="CP196" s="9"/>
       <c r="CQ196" s="9"/>
       <c r="CR196" s="9"/>
@@ -46143,28 +46366,30 @@
       <c r="CG197" s="18">
         <v>135.80216778707197</v>
       </c>
-      <c r="CH197" s="23">
+      <c r="CH197" s="18">
         <v>107.45790940436673</v>
       </c>
-      <c r="CI197" s="23">
+      <c r="CI197" s="18">
         <v>63.138348884696313</v>
       </c>
-      <c r="CJ197" s="23">
+      <c r="CJ197" s="18">
         <v>99.384823209100702</v>
       </c>
-      <c r="CK197" s="23">
+      <c r="CK197" s="18">
         <v>143.64797200810597</v>
       </c>
-      <c r="CL197" s="23">
+      <c r="CL197" s="18">
         <v>116.28222853188743</v>
       </c>
-      <c r="CM197" s="23">
+      <c r="CM197" s="18">
         <v>71.163756300697173</v>
       </c>
-      <c r="CN197" s="23">
-        <v>113.84154267969291</v>
-      </c>
-      <c r="CO197" s="9"/>
+      <c r="CN197" s="18">
+        <v>113.16212999905851</v>
+      </c>
+      <c r="CO197" s="18">
+        <v>170.64113937624234</v>
+      </c>
       <c r="CP197" s="9"/>
       <c r="CQ197" s="9"/>
       <c r="CR197" s="9"/>
@@ -46481,28 +46706,30 @@
       <c r="CG198" s="18">
         <v>97.570417865607098</v>
       </c>
-      <c r="CH198" s="23">
+      <c r="CH198" s="18">
         <v>92.490615095771162</v>
       </c>
-      <c r="CI198" s="23">
+      <c r="CI198" s="18">
         <v>91.525994132653281</v>
       </c>
-      <c r="CJ198" s="23">
+      <c r="CJ198" s="18">
         <v>95.260073227881364</v>
       </c>
-      <c r="CK198" s="23">
+      <c r="CK198" s="18">
         <v>108.16445433383856</v>
       </c>
-      <c r="CL198" s="23">
+      <c r="CL198" s="18">
         <v>103.05682954737279</v>
       </c>
-      <c r="CM198" s="23">
+      <c r="CM198" s="18">
         <v>106.8986087993444</v>
       </c>
-      <c r="CN198" s="23">
-        <v>113.23699494799126</v>
-      </c>
-      <c r="CO198" s="9"/>
+      <c r="CN198" s="18">
+        <v>113.1609572846781</v>
+      </c>
+      <c r="CO198" s="18">
+        <v>130.83327050220905</v>
+      </c>
       <c r="CP198" s="9"/>
       <c r="CQ198" s="9"/>
       <c r="CR198" s="9"/>
@@ -46991,9 +47218,11 @@
         <v>102.42707688649197</v>
       </c>
       <c r="CN200" s="23">
-        <v>109.06128471011878</v>
-      </c>
-      <c r="CO200" s="9"/>
+        <v>109.09756531655552</v>
+      </c>
+      <c r="CO200" s="23">
+        <v>116.78592702880491</v>
+      </c>
       <c r="CP200" s="9"/>
       <c r="CQ200" s="9"/>
       <c r="CR200" s="9"/>
@@ -47147,6 +47376,7 @@
       <c r="CL201" s="14"/>
       <c r="CM201" s="14"/>
       <c r="CN201" s="14"/>
+      <c r="CO201" s="14"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -47471,7 +47701,7 @@
     </row>
     <row r="207" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
@@ -47481,7 +47711,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
@@ -47491,143 +47721,144 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="29">
+      <c r="B213" s="26">
         <v>2000</v>
       </c>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="29">
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
+      <c r="F213" s="26">
         <v>2001</v>
       </c>
-      <c r="G213" s="29"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="29">
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="26">
         <v>2002</v>
       </c>
-      <c r="K213" s="29"/>
-      <c r="L213" s="29"/>
-      <c r="M213" s="29"/>
-      <c r="N213" s="29">
+      <c r="K213" s="26"/>
+      <c r="L213" s="26"/>
+      <c r="M213" s="26"/>
+      <c r="N213" s="26">
         <v>2003</v>
       </c>
-      <c r="O213" s="29"/>
-      <c r="P213" s="29"/>
-      <c r="Q213" s="29"/>
-      <c r="R213" s="29">
+      <c r="O213" s="26"/>
+      <c r="P213" s="26"/>
+      <c r="Q213" s="26"/>
+      <c r="R213" s="26">
         <v>2004</v>
       </c>
-      <c r="S213" s="29"/>
-      <c r="T213" s="29"/>
-      <c r="U213" s="29"/>
-      <c r="V213" s="29">
+      <c r="S213" s="26"/>
+      <c r="T213" s="26"/>
+      <c r="U213" s="26"/>
+      <c r="V213" s="26">
         <v>2005</v>
       </c>
-      <c r="W213" s="29"/>
-      <c r="X213" s="29"/>
-      <c r="Y213" s="29"/>
-      <c r="Z213" s="29">
+      <c r="W213" s="26"/>
+      <c r="X213" s="26"/>
+      <c r="Y213" s="26"/>
+      <c r="Z213" s="26">
         <v>2006</v>
       </c>
-      <c r="AA213" s="29"/>
-      <c r="AB213" s="29"/>
-      <c r="AC213" s="29"/>
-      <c r="AD213" s="29">
+      <c r="AA213" s="26"/>
+      <c r="AB213" s="26"/>
+      <c r="AC213" s="26"/>
+      <c r="AD213" s="26">
         <v>2007</v>
       </c>
-      <c r="AE213" s="29"/>
-      <c r="AF213" s="29"/>
-      <c r="AG213" s="29"/>
-      <c r="AH213" s="29">
+      <c r="AE213" s="26"/>
+      <c r="AF213" s="26"/>
+      <c r="AG213" s="26"/>
+      <c r="AH213" s="26">
         <v>2008</v>
       </c>
-      <c r="AI213" s="29"/>
-      <c r="AJ213" s="29"/>
-      <c r="AK213" s="29"/>
-      <c r="AL213" s="29">
+      <c r="AI213" s="26"/>
+      <c r="AJ213" s="26"/>
+      <c r="AK213" s="26"/>
+      <c r="AL213" s="26">
         <v>2009</v>
       </c>
-      <c r="AM213" s="29"/>
-      <c r="AN213" s="29"/>
-      <c r="AO213" s="29"/>
-      <c r="AP213" s="29">
+      <c r="AM213" s="26"/>
+      <c r="AN213" s="26"/>
+      <c r="AO213" s="26"/>
+      <c r="AP213" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="29"/>
-      <c r="AR213" s="29"/>
-      <c r="AS213" s="29"/>
-      <c r="AT213" s="29">
+      <c r="AQ213" s="26"/>
+      <c r="AR213" s="26"/>
+      <c r="AS213" s="26"/>
+      <c r="AT213" s="26">
         <v>2011</v>
       </c>
-      <c r="AU213" s="29"/>
-      <c r="AV213" s="29"/>
-      <c r="AW213" s="29"/>
-      <c r="AX213" s="29">
+      <c r="AU213" s="26"/>
+      <c r="AV213" s="26"/>
+      <c r="AW213" s="26"/>
+      <c r="AX213" s="26">
         <v>2012</v>
       </c>
-      <c r="AY213" s="29"/>
-      <c r="AZ213" s="29"/>
-      <c r="BA213" s="29"/>
-      <c r="BB213" s="29">
+      <c r="AY213" s="26"/>
+      <c r="AZ213" s="26"/>
+      <c r="BA213" s="26"/>
+      <c r="BB213" s="26">
         <v>2013</v>
       </c>
-      <c r="BC213" s="29"/>
-      <c r="BD213" s="29"/>
-      <c r="BE213" s="29"/>
-      <c r="BF213" s="29">
+      <c r="BC213" s="26"/>
+      <c r="BD213" s="26"/>
+      <c r="BE213" s="26"/>
+      <c r="BF213" s="26">
         <v>2014</v>
       </c>
-      <c r="BG213" s="29"/>
-      <c r="BH213" s="29"/>
-      <c r="BI213" s="29"/>
-      <c r="BJ213" s="29">
+      <c r="BG213" s="26"/>
+      <c r="BH213" s="26"/>
+      <c r="BI213" s="26"/>
+      <c r="BJ213" s="26">
         <v>2015</v>
       </c>
-      <c r="BK213" s="29"/>
-      <c r="BL213" s="29"/>
-      <c r="BM213" s="29"/>
-      <c r="BN213" s="29">
+      <c r="BK213" s="26"/>
+      <c r="BL213" s="26"/>
+      <c r="BM213" s="26"/>
+      <c r="BN213" s="26">
         <v>2016</v>
       </c>
-      <c r="BO213" s="29"/>
-      <c r="BP213" s="29"/>
-      <c r="BQ213" s="29"/>
-      <c r="BR213" s="29">
+      <c r="BO213" s="26"/>
+      <c r="BP213" s="26"/>
+      <c r="BQ213" s="26"/>
+      <c r="BR213" s="26">
         <v>2017</v>
       </c>
-      <c r="BS213" s="29"/>
-      <c r="BT213" s="29"/>
-      <c r="BU213" s="29"/>
-      <c r="BV213" s="29">
+      <c r="BS213" s="26"/>
+      <c r="BT213" s="26"/>
+      <c r="BU213" s="26"/>
+      <c r="BV213" s="26">
         <v>2018</v>
       </c>
-      <c r="BW213" s="29"/>
-      <c r="BX213" s="29"/>
-      <c r="BY213" s="29"/>
-      <c r="BZ213" s="29">
+      <c r="BW213" s="26"/>
+      <c r="BX213" s="26"/>
+      <c r="BY213" s="26"/>
+      <c r="BZ213" s="26">
         <v>2019</v>
       </c>
-      <c r="CA213" s="29"/>
-      <c r="CB213" s="29"/>
-      <c r="CC213" s="29"/>
-      <c r="CD213" s="29">
+      <c r="CA213" s="26"/>
+      <c r="CB213" s="26"/>
+      <c r="CC213" s="26"/>
+      <c r="CD213" s="26">
         <v>2020</v>
       </c>
-      <c r="CE213" s="29"/>
-      <c r="CF213" s="29"/>
-      <c r="CG213" s="29"/>
-      <c r="CH213" s="30">
+      <c r="CE213" s="26"/>
+      <c r="CF213" s="26"/>
+      <c r="CG213" s="26"/>
+      <c r="CH213" s="26">
         <v>2021</v>
       </c>
-      <c r="CI213" s="30"/>
-      <c r="CJ213" s="30"/>
-      <c r="CK213" s="30"/>
-      <c r="CL213" s="30">
+      <c r="CI213" s="26"/>
+      <c r="CJ213" s="26"/>
+      <c r="CK213" s="26"/>
+      <c r="CL213" s="26">
         <v>2022</v>
       </c>
-      <c r="CM213" s="30"/>
-      <c r="CN213" s="30"/>
+      <c r="CM213" s="26"/>
+      <c r="CN213" s="26"/>
+      <c r="CO213" s="26"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -47905,6 +48136,9 @@
       </c>
       <c r="CN214" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CO214" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -48185,9 +48419,11 @@
         <v>16.108261735247421</v>
       </c>
       <c r="CN216" s="23">
-        <v>12.921018661291123</v>
-      </c>
-      <c r="CO216" s="9"/>
+        <v>13.12719932936251</v>
+      </c>
+      <c r="CO216" s="23">
+        <v>16.006029403649119</v>
+      </c>
       <c r="CP216" s="9"/>
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
@@ -48523,9 +48759,11 @@
         <v>0.79946592038971553</v>
       </c>
       <c r="CN217" s="23">
-        <v>0.93039782779123559</v>
-      </c>
-      <c r="CO217" s="9"/>
+        <v>1.0391603981110094</v>
+      </c>
+      <c r="CO217" s="23">
+        <v>0.82001261386299096</v>
+      </c>
       <c r="CP217" s="9"/>
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
@@ -48861,9 +49099,11 @@
         <v>3.0522260766759701</v>
       </c>
       <c r="CN218" s="23">
-        <v>3.2506146961736824</v>
-      </c>
-      <c r="CO218" s="9"/>
+        <v>3.2232231507485603</v>
+      </c>
+      <c r="CO218" s="23">
+        <v>3.595433966808864</v>
+      </c>
       <c r="CP218" s="9"/>
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
@@ -49199,9 +49439,11 @@
         <v>0.22892099732979235</v>
       </c>
       <c r="CN219" s="23">
-        <v>0.22384734779624704</v>
-      </c>
-      <c r="CO219" s="9"/>
+        <v>0.22677287151548117</v>
+      </c>
+      <c r="CO219" s="23">
+        <v>0.26071056545404547</v>
+      </c>
       <c r="CP219" s="9"/>
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
@@ -49537,9 +49779,11 @@
         <v>0.12333015768126601</v>
       </c>
       <c r="CN220" s="23">
-        <v>0.18013756644289422</v>
-      </c>
-      <c r="CO220" s="9"/>
+        <v>0.17958290413211225</v>
+      </c>
+      <c r="CO220" s="23">
+        <v>0.1744770729935114</v>
+      </c>
       <c r="CP220" s="9"/>
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
@@ -49875,9 +50119,11 @@
         <v>0.88372446185905706</v>
       </c>
       <c r="CN221" s="23">
-        <v>0.81797881871200373</v>
-      </c>
-      <c r="CO221" s="9"/>
+        <v>0.91469215764891521</v>
+      </c>
+      <c r="CO221" s="23">
+        <v>0.96130406928757428</v>
+      </c>
       <c r="CP221" s="9"/>
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
@@ -50213,9 +50459,11 @@
         <v>7.9257282062953003</v>
       </c>
       <c r="CN222" s="23">
-        <v>4.7098236171272641</v>
-      </c>
-      <c r="CO222" s="9"/>
+        <v>4.7114831851308088</v>
+      </c>
+      <c r="CO222" s="23">
+        <v>7.1971280691443873</v>
+      </c>
       <c r="CP222" s="9"/>
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
@@ -50551,9 +50799,11 @@
         <v>0.23716492107386022</v>
       </c>
       <c r="CN223" s="23">
-        <v>0.14153242823608334</v>
-      </c>
-      <c r="CO223" s="9"/>
+        <v>0.15701364983183211</v>
+      </c>
+      <c r="CO223" s="23">
+        <v>0.35726685015105514</v>
+      </c>
       <c r="CP223" s="9"/>
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
@@ -50889,9 +51139,11 @@
         <v>2.8577009939424589</v>
       </c>
       <c r="CN224" s="23">
-        <v>2.6666863590117127</v>
-      </c>
-      <c r="CO224" s="9"/>
+        <v>2.6752710122437926</v>
+      </c>
+      <c r="CO224" s="23">
+        <v>2.6396961959466911</v>
+      </c>
       <c r="CP224" s="9"/>
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
@@ -51227,9 +51479,11 @@
         <v>16.282547488776167</v>
       </c>
       <c r="CN225" s="23">
-        <v>18.449804618287779</v>
-      </c>
-      <c r="CO225" s="9"/>
+        <v>18.497793750645535</v>
+      </c>
+      <c r="CO225" s="23">
+        <v>18.108819987984837</v>
+      </c>
       <c r="CP225" s="9"/>
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
@@ -51565,9 +51819,11 @@
         <v>3.2393795271444663</v>
       </c>
       <c r="CN226" s="23">
-        <v>2.9620434637341013</v>
-      </c>
-      <c r="CO226" s="9"/>
+        <v>2.9122401033012051</v>
+      </c>
+      <c r="CO226" s="23">
+        <v>3.4038680250170499</v>
+      </c>
       <c r="CP226" s="9"/>
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
@@ -51903,9 +52159,11 @@
         <v>1.8545239396508306</v>
       </c>
       <c r="CN227" s="23">
-        <v>1.6353645174923703</v>
-      </c>
-      <c r="CO227" s="9"/>
+        <v>1.6103437014175115</v>
+      </c>
+      <c r="CO227" s="23">
+        <v>2.0967217483393945</v>
+      </c>
       <c r="CP227" s="9"/>
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
@@ -52241,9 +52499,11 @@
         <v>4.4811822805436927</v>
       </c>
       <c r="CN228" s="23">
-        <v>7.5356624043722507</v>
-      </c>
-      <c r="CO228" s="9"/>
+        <v>7.5607071853014878</v>
+      </c>
+      <c r="CO228" s="23">
+        <v>6.586839686543895</v>
+      </c>
       <c r="CP228" s="9"/>
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
@@ -52579,9 +52839,11 @@
         <v>6.7074617414371778</v>
       </c>
       <c r="CN229" s="23">
-        <v>6.3167342326890559</v>
-      </c>
-      <c r="CO229" s="9"/>
+        <v>6.4145027606253331</v>
+      </c>
+      <c r="CO229" s="23">
+        <v>6.0213905280844955</v>
+      </c>
       <c r="CP229" s="9"/>
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
@@ -52917,9 +53179,11 @@
         <v>47.667350797792565</v>
       </c>
       <c r="CN230" s="23">
-        <v>50.954698678649422</v>
-      </c>
-      <c r="CO230" s="9"/>
+        <v>50.70052910829402</v>
+      </c>
+      <c r="CO230" s="23">
+        <v>46.537130846021157</v>
+      </c>
       <c r="CP230" s="9"/>
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
@@ -53255,9 +53519,11 @@
         <v>40.087061296142942</v>
       </c>
       <c r="CN231" s="23">
-        <v>47.278943698196521</v>
-      </c>
-      <c r="CO231" s="9"/>
+        <v>47.035693589493675</v>
+      </c>
+      <c r="CO231" s="23">
+        <v>43.449950708609983</v>
+      </c>
       <c r="CP231" s="9"/>
       <c r="CQ231" s="9"/>
       <c r="CR231" s="9"/>
@@ -53593,9 +53859,11 @@
         <v>0.26544462844114536</v>
       </c>
       <c r="CN232" s="23">
-        <v>1.5720363210633585E-2</v>
-      </c>
-      <c r="CO232" s="9"/>
+        <v>1.5626377645540906E-2</v>
+      </c>
+      <c r="CO232" s="23">
+        <v>4.1295491512389239E-3</v>
+      </c>
       <c r="CP232" s="9"/>
       <c r="CQ232" s="9"/>
       <c r="CR232" s="9"/>
@@ -53931,9 +54199,11 @@
         <v>3.3036348126886308</v>
       </c>
       <c r="CN233" s="23">
-        <v>1.7977591923143046</v>
-      </c>
-      <c r="CO233" s="9"/>
+        <v>1.7879677580064084</v>
+      </c>
+      <c r="CO233" s="23">
+        <v>1.6587630029468625</v>
+      </c>
       <c r="CP233" s="9"/>
       <c r="CQ233" s="9"/>
       <c r="CR233" s="9"/>
@@ -54269,9 +54539,11 @@
         <v>4.0112100605198524</v>
       </c>
       <c r="CN234" s="23">
-        <v>1.8622754249279567</v>
-      </c>
-      <c r="CO234" s="9"/>
+        <v>1.8612413831483894</v>
+      </c>
+      <c r="CO234" s="23">
+        <v>1.4242875853130674</v>
+      </c>
       <c r="CP234" s="9"/>
       <c r="CQ234" s="9"/>
       <c r="CR234" s="9"/>
@@ -54607,9 +54879,11 @@
         <v>19.94183997818385</v>
       </c>
       <c r="CN235" s="23">
-        <v>17.674478041771675</v>
-      </c>
-      <c r="CO235" s="9"/>
+        <v>17.674477811697926</v>
+      </c>
+      <c r="CO235" s="23">
+        <v>19.34801976234488</v>
+      </c>
       <c r="CP235" s="9"/>
       <c r="CQ235" s="9"/>
       <c r="CR235" s="9"/>
@@ -54945,9 +55219,11 @@
         <v>1.488507903542881</v>
       </c>
       <c r="CN236" s="23">
-        <v>1.7710857729576317</v>
-      </c>
-      <c r="CO236" s="9"/>
+        <v>1.7168891078019881</v>
+      </c>
+      <c r="CO236" s="23">
+        <v>2.2724091077833375</v>
+      </c>
       <c r="CP236" s="9"/>
       <c r="CQ236" s="9"/>
       <c r="CR236" s="9"/>
@@ -55283,9 +55559,11 @@
         <v>2.915445765261822</v>
       </c>
       <c r="CN237" s="23">
-        <v>2.6402555162241179</v>
-      </c>
-      <c r="CO237" s="9"/>
+        <v>2.5582493234045187</v>
+      </c>
+      <c r="CO237" s="23">
+        <v>2.7998214502739804</v>
+      </c>
       <c r="CP237" s="9"/>
       <c r="CQ237" s="9"/>
       <c r="CR237" s="9"/>
@@ -55621,9 +55899,11 @@
         <v>9.9336632608664956</v>
       </c>
       <c r="CN238" s="23">
-        <v>9.9489441400357403</v>
-      </c>
-      <c r="CO238" s="9"/>
+        <v>10.092675865884322</v>
+      </c>
+      <c r="CO238" s="23">
+        <v>10.484308348630856</v>
+      </c>
       <c r="CP238" s="9"/>
       <c r="CQ238" s="9"/>
       <c r="CR238" s="9"/>
@@ -55959,9 +56239,11 @@
         <v>5.604223048512651</v>
       </c>
       <c r="CN239" s="23">
-        <v>3.3141926125541836</v>
-      </c>
-      <c r="CO239" s="9"/>
+        <v>3.3066635146070986</v>
+      </c>
+      <c r="CO239" s="23">
+        <v>3.7914808556567046</v>
+      </c>
       <c r="CP239" s="9"/>
       <c r="CQ239" s="9"/>
       <c r="CR239" s="9"/>
@@ -56452,7 +56734,9 @@
       <c r="CN241" s="23">
         <v>100</v>
       </c>
-      <c r="CO241" s="9"/>
+      <c r="CO241" s="23">
+        <v>100</v>
+      </c>
       <c r="CP241" s="9"/>
       <c r="CQ241" s="9"/>
       <c r="CR241" s="9"/>
@@ -56606,6 +56890,7 @@
       <c r="CL242" s="14"/>
       <c r="CM242" s="14"/>
       <c r="CN242" s="14"/>
+      <c r="CO242" s="14"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -56930,7 +57215,7 @@
     </row>
     <row r="248" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:152" x14ac:dyDescent="0.2">
@@ -56940,7 +57225,7 @@
     </row>
     <row r="251" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:152" x14ac:dyDescent="0.2">
@@ -56950,143 +57235,144 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="29">
+      <c r="B254" s="26">
         <v>2000</v>
       </c>
-      <c r="C254" s="29"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29">
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+      <c r="F254" s="26">
         <v>2001</v>
       </c>
-      <c r="G254" s="29"/>
-      <c r="H254" s="29"/>
-      <c r="I254" s="29"/>
-      <c r="J254" s="29">
+      <c r="G254" s="26"/>
+      <c r="H254" s="26"/>
+      <c r="I254" s="26"/>
+      <c r="J254" s="26">
         <v>2002</v>
       </c>
-      <c r="K254" s="29"/>
-      <c r="L254" s="29"/>
-      <c r="M254" s="29"/>
-      <c r="N254" s="29">
+      <c r="K254" s="26"/>
+      <c r="L254" s="26"/>
+      <c r="M254" s="26"/>
+      <c r="N254" s="26">
         <v>2003</v>
       </c>
-      <c r="O254" s="29"/>
-      <c r="P254" s="29"/>
-      <c r="Q254" s="29"/>
-      <c r="R254" s="29">
+      <c r="O254" s="26"/>
+      <c r="P254" s="26"/>
+      <c r="Q254" s="26"/>
+      <c r="R254" s="26">
         <v>2004</v>
       </c>
-      <c r="S254" s="29"/>
-      <c r="T254" s="29"/>
-      <c r="U254" s="29"/>
-      <c r="V254" s="29">
+      <c r="S254" s="26"/>
+      <c r="T254" s="26"/>
+      <c r="U254" s="26"/>
+      <c r="V254" s="26">
         <v>2005</v>
       </c>
-      <c r="W254" s="29"/>
-      <c r="X254" s="29"/>
-      <c r="Y254" s="29"/>
-      <c r="Z254" s="29">
+      <c r="W254" s="26"/>
+      <c r="X254" s="26"/>
+      <c r="Y254" s="26"/>
+      <c r="Z254" s="26">
         <v>2006</v>
       </c>
-      <c r="AA254" s="29"/>
-      <c r="AB254" s="29"/>
-      <c r="AC254" s="29"/>
-      <c r="AD254" s="29">
+      <c r="AA254" s="26"/>
+      <c r="AB254" s="26"/>
+      <c r="AC254" s="26"/>
+      <c r="AD254" s="26">
         <v>2007</v>
       </c>
-      <c r="AE254" s="29"/>
-      <c r="AF254" s="29"/>
-      <c r="AG254" s="29"/>
-      <c r="AH254" s="29">
+      <c r="AE254" s="26"/>
+      <c r="AF254" s="26"/>
+      <c r="AG254" s="26"/>
+      <c r="AH254" s="26">
         <v>2008</v>
       </c>
-      <c r="AI254" s="29"/>
-      <c r="AJ254" s="29"/>
-      <c r="AK254" s="29"/>
-      <c r="AL254" s="29">
+      <c r="AI254" s="26"/>
+      <c r="AJ254" s="26"/>
+      <c r="AK254" s="26"/>
+      <c r="AL254" s="26">
         <v>2009</v>
       </c>
-      <c r="AM254" s="29"/>
-      <c r="AN254" s="29"/>
-      <c r="AO254" s="29"/>
-      <c r="AP254" s="29">
+      <c r="AM254" s="26"/>
+      <c r="AN254" s="26"/>
+      <c r="AO254" s="26"/>
+      <c r="AP254" s="26">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="29"/>
-      <c r="AR254" s="29"/>
-      <c r="AS254" s="29"/>
-      <c r="AT254" s="29">
+      <c r="AQ254" s="26"/>
+      <c r="AR254" s="26"/>
+      <c r="AS254" s="26"/>
+      <c r="AT254" s="26">
         <v>2011</v>
       </c>
-      <c r="AU254" s="29"/>
-      <c r="AV254" s="29"/>
-      <c r="AW254" s="29"/>
-      <c r="AX254" s="29">
+      <c r="AU254" s="26"/>
+      <c r="AV254" s="26"/>
+      <c r="AW254" s="26"/>
+      <c r="AX254" s="26">
         <v>2012</v>
       </c>
-      <c r="AY254" s="29"/>
-      <c r="AZ254" s="29"/>
-      <c r="BA254" s="29"/>
-      <c r="BB254" s="29">
+      <c r="AY254" s="26"/>
+      <c r="AZ254" s="26"/>
+      <c r="BA254" s="26"/>
+      <c r="BB254" s="26">
         <v>2013</v>
       </c>
-      <c r="BC254" s="29"/>
-      <c r="BD254" s="29"/>
-      <c r="BE254" s="29"/>
-      <c r="BF254" s="29">
+      <c r="BC254" s="26"/>
+      <c r="BD254" s="26"/>
+      <c r="BE254" s="26"/>
+      <c r="BF254" s="26">
         <v>2014</v>
       </c>
-      <c r="BG254" s="29"/>
-      <c r="BH254" s="29"/>
-      <c r="BI254" s="29"/>
-      <c r="BJ254" s="29">
+      <c r="BG254" s="26"/>
+      <c r="BH254" s="26"/>
+      <c r="BI254" s="26"/>
+      <c r="BJ254" s="26">
         <v>2015</v>
       </c>
-      <c r="BK254" s="29"/>
-      <c r="BL254" s="29"/>
-      <c r="BM254" s="29"/>
-      <c r="BN254" s="29">
+      <c r="BK254" s="26"/>
+      <c r="BL254" s="26"/>
+      <c r="BM254" s="26"/>
+      <c r="BN254" s="26">
         <v>2016</v>
       </c>
-      <c r="BO254" s="29"/>
-      <c r="BP254" s="29"/>
-      <c r="BQ254" s="29"/>
-      <c r="BR254" s="29">
+      <c r="BO254" s="26"/>
+      <c r="BP254" s="26"/>
+      <c r="BQ254" s="26"/>
+      <c r="BR254" s="26">
         <v>2017</v>
       </c>
-      <c r="BS254" s="29"/>
-      <c r="BT254" s="29"/>
-      <c r="BU254" s="29"/>
-      <c r="BV254" s="29">
+      <c r="BS254" s="26"/>
+      <c r="BT254" s="26"/>
+      <c r="BU254" s="26"/>
+      <c r="BV254" s="26">
         <v>2018</v>
       </c>
-      <c r="BW254" s="29"/>
-      <c r="BX254" s="29"/>
-      <c r="BY254" s="29"/>
-      <c r="BZ254" s="29">
+      <c r="BW254" s="26"/>
+      <c r="BX254" s="26"/>
+      <c r="BY254" s="26"/>
+      <c r="BZ254" s="26">
         <v>2019</v>
       </c>
-      <c r="CA254" s="29"/>
-      <c r="CB254" s="29"/>
-      <c r="CC254" s="29"/>
-      <c r="CD254" s="29">
+      <c r="CA254" s="26"/>
+      <c r="CB254" s="26"/>
+      <c r="CC254" s="26"/>
+      <c r="CD254" s="26">
         <v>2020</v>
       </c>
-      <c r="CE254" s="29"/>
-      <c r="CF254" s="29"/>
-      <c r="CG254" s="29"/>
-      <c r="CH254" s="30">
+      <c r="CE254" s="26"/>
+      <c r="CF254" s="26"/>
+      <c r="CG254" s="26"/>
+      <c r="CH254" s="26">
         <v>2021</v>
       </c>
-      <c r="CI254" s="30"/>
-      <c r="CJ254" s="30"/>
-      <c r="CK254" s="30"/>
-      <c r="CL254" s="30">
+      <c r="CI254" s="26"/>
+      <c r="CJ254" s="26"/>
+      <c r="CK254" s="26"/>
+      <c r="CL254" s="26">
         <v>2022</v>
       </c>
-      <c r="CM254" s="30"/>
-      <c r="CN254" s="30"/>
+      <c r="CM254" s="26"/>
+      <c r="CN254" s="26"/>
+      <c r="CO254" s="26"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
@@ -57364,6 +57650,9 @@
       </c>
       <c r="CN255" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CO255" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -57644,9 +57933,11 @@
         <v>9.9901398548405123</v>
       </c>
       <c r="CN257" s="23">
-        <v>15.003503165908302</v>
-      </c>
-      <c r="CO257" s="9"/>
+        <v>15.217239345287794</v>
+      </c>
+      <c r="CO257" s="23">
+        <v>18.587662560437053</v>
+      </c>
       <c r="CP257" s="9"/>
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
@@ -57982,9 +58273,11 @@
         <v>0.25583718053569765</v>
       </c>
       <c r="CN258" s="23">
-        <v>1.0263920666503459</v>
-      </c>
-      <c r="CO258" s="9"/>
+        <v>1.1471143616389992</v>
+      </c>
+      <c r="CO258" s="23">
+        <v>1.1317629240580935</v>
+      </c>
       <c r="CP258" s="9"/>
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
@@ -58320,9 +58613,11 @@
         <v>1.0036344112024134</v>
       </c>
       <c r="CN259" s="23">
-        <v>3.6096033812444563</v>
-      </c>
-      <c r="CO259" s="9"/>
+        <v>3.581512284076751</v>
+      </c>
+      <c r="CO259" s="23">
+        <v>5.0161843237195098</v>
+      </c>
       <c r="CP259" s="9"/>
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
@@ -58658,9 +58953,11 @@
         <v>0.10302955184593959</v>
       </c>
       <c r="CN260" s="23">
-        <v>0.25323158360607184</v>
-      </c>
-      <c r="CO260" s="9"/>
+        <v>0.25426461868964523</v>
+      </c>
+      <c r="CO260" s="23">
+        <v>0.33456602937814955</v>
+      </c>
       <c r="CP260" s="9"/>
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
@@ -58996,9 +59293,11 @@
         <v>4.5552458098665212E-2</v>
       </c>
       <c r="CN261" s="23">
-        <v>0.19799613443242828</v>
-      </c>
-      <c r="CO261" s="9"/>
+        <v>0.19728436078465503</v>
+      </c>
+      <c r="CO261" s="23">
+        <v>0.23027421021803951</v>
+      </c>
       <c r="CP261" s="9"/>
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
@@ -59334,9 +59633,11 @@
         <v>0.29434037804514857</v>
       </c>
       <c r="CN262" s="23">
-        <v>0.87970943024856407</v>
-      </c>
-      <c r="CO262" s="9"/>
+        <v>0.98309695660601726</v>
+      </c>
+      <c r="CO262" s="23">
+        <v>1.3058477630786598</v>
+      </c>
       <c r="CP262" s="9"/>
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
@@ -59672,9 +59973,11 @@
         <v>7.0476883238242642</v>
       </c>
       <c r="CN263" s="23">
-        <v>5.8744842752213842</v>
-      </c>
-      <c r="CO263" s="9"/>
+        <v>5.8735938516254178</v>
+      </c>
+      <c r="CO263" s="23">
+        <v>6.616533984405029</v>
+      </c>
       <c r="CP263" s="9"/>
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
@@ -60010,9 +60313,11 @@
         <v>8.2558548045251007E-2</v>
       </c>
       <c r="CN264" s="23">
-        <v>0.16019712843664963</v>
-      </c>
-      <c r="CO264" s="9"/>
+        <v>0.17742953289301505</v>
+      </c>
+      <c r="CO264" s="23">
+        <v>0.50714043609161374</v>
+      </c>
       <c r="CP264" s="9"/>
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
@@ -60348,9 +60653,11 @@
         <v>1.1574990032431343</v>
       </c>
       <c r="CN265" s="23">
-        <v>3.0018891660684033</v>
-      </c>
-      <c r="CO265" s="9"/>
+        <v>3.0029433789732929</v>
+      </c>
+      <c r="CO265" s="23">
+        <v>3.4453528894879564</v>
+      </c>
       <c r="CP265" s="9"/>
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
@@ -60686,9 +60993,11 @@
         <v>13.402179083958043</v>
       </c>
       <c r="CN266" s="23">
-        <v>19.79351463268733</v>
-      </c>
-      <c r="CO266" s="9"/>
+        <v>19.767310921228358</v>
+      </c>
+      <c r="CO266" s="23">
+        <v>18.75750028129443</v>
+      </c>
       <c r="CP266" s="9"/>
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
@@ -61024,9 +61333,11 @@
         <v>2.523546798694452</v>
       </c>
       <c r="CN267" s="23">
-        <v>3.1425219853180919</v>
-      </c>
-      <c r="CO267" s="9"/>
+        <v>3.0960792683345257</v>
+      </c>
+      <c r="CO267" s="23">
+        <v>3.3386018639783805</v>
+      </c>
       <c r="CP267" s="9"/>
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
@@ -61362,9 +61673,11 @@
         <v>1.478043539734849</v>
       </c>
       <c r="CN268" s="23">
-        <v>1.8679559866307494</v>
-      </c>
-      <c r="CO268" s="9"/>
+        <v>1.73495617491492</v>
+      </c>
+      <c r="CO268" s="23">
+        <v>2.0264102191368476</v>
+      </c>
       <c r="CP268" s="9"/>
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
@@ -61700,9 +62013,11 @@
         <v>3.5216176959729979</v>
       </c>
       <c r="CN269" s="23">
-        <v>7.7371073185394694</v>
-      </c>
-      <c r="CO269" s="9"/>
+        <v>7.7813084531597143</v>
+      </c>
+      <c r="CO269" s="23">
+        <v>6.0240685840568329</v>
+      </c>
       <c r="CP269" s="9"/>
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
@@ -62038,9 +62353,11 @@
         <v>5.8789710495557452</v>
       </c>
       <c r="CN270" s="23">
-        <v>7.0459293421990203</v>
-      </c>
-      <c r="CO270" s="9"/>
+        <v>7.1549670248191939</v>
+      </c>
+      <c r="CO270" s="23">
+        <v>7.3684196141223683</v>
+      </c>
       <c r="CP270" s="9"/>
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
@@ -62376,9 +62693,11 @@
         <v>50.758732806213878</v>
       </c>
       <c r="CN271" s="23">
-        <v>48.919382404536613</v>
-      </c>
-      <c r="CO271" s="9"/>
+        <v>48.705161428891763</v>
+      </c>
+      <c r="CO271" s="23">
+        <v>48.65198399352397</v>
+      </c>
       <c r="CP271" s="9"/>
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
@@ -62714,9 +63033,11 @@
         <v>42.442895922276129</v>
       </c>
       <c r="CN272" s="23">
-        <v>45.694890921892686</v>
-      </c>
-      <c r="CO272" s="9"/>
+        <v>45.485524528585238</v>
+      </c>
+      <c r="CO272" s="23">
+        <v>45.78790371647333</v>
+      </c>
       <c r="CP272" s="9"/>
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
@@ -63052,9 +63373,11 @@
         <v>0.34501702246415089</v>
       </c>
       <c r="CN273" s="23">
-        <v>1.4355766400278696E-2</v>
-      </c>
-      <c r="CO273" s="9"/>
+        <v>1.4279656821173417E-2</v>
+      </c>
+      <c r="CO273" s="23">
+        <v>3.6356509870363036E-3</v>
+      </c>
       <c r="CP273" s="9"/>
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
@@ -63390,9 +63713,11 @@
         <v>3.6129311234383668</v>
       </c>
       <c r="CN274" s="23">
-        <v>1.5138989050256024</v>
-      </c>
-      <c r="CO274" s="9"/>
+        <v>1.5066425503253134</v>
+      </c>
+      <c r="CO274" s="23">
+        <v>1.5094473713096885</v>
+      </c>
       <c r="CP274" s="9"/>
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
@@ -63728,9 +64053,11 @@
         <v>4.3578887380352347</v>
       </c>
       <c r="CN275" s="23">
-        <v>1.6962368112180455</v>
-      </c>
-      <c r="CO275" s="9"/>
+        <v>1.6987146931600372</v>
+      </c>
+      <c r="CO275" s="23">
+        <v>1.3509972547539155</v>
+      </c>
       <c r="CP275" s="9"/>
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
@@ -64066,9 +64393,11 @@
         <v>25.848948254987569</v>
       </c>
       <c r="CN276" s="23">
-        <v>16.283599796867758</v>
-      </c>
-      <c r="CO276" s="9"/>
+        <v>16.310288304592092</v>
+      </c>
+      <c r="CO276" s="23">
+        <v>14.002853164744538</v>
+      </c>
       <c r="CP276" s="9"/>
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
@@ -64404,9 +64733,11 @@
         <v>2.2136090478015982</v>
       </c>
       <c r="CN277" s="23">
-        <v>1.2776595873098082</v>
-      </c>
-      <c r="CO277" s="9"/>
+        <v>1.239614089594107</v>
+      </c>
+      <c r="CO277" s="23">
+        <v>1.1944518379605058</v>
+      </c>
       <c r="CP277" s="9"/>
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
@@ -64742,9 +65073,11 @@
         <v>3.9678662463742862</v>
       </c>
       <c r="CN278" s="23">
-        <v>2.2827777939543643</v>
-      </c>
-      <c r="CO278" s="9"/>
+        <v>2.1525801335013064</v>
+      </c>
+      <c r="CO278" s="23">
+        <v>2.2485980000022958</v>
+      </c>
       <c r="CP278" s="9"/>
       <c r="CQ278" s="9"/>
       <c r="CR278" s="9"/>
@@ -65080,9 +65413,11 @@
         <v>14.297672628269137</v>
       </c>
       <c r="CN279" s="23">
-        <v>9.5311834667807656</v>
-      </c>
-      <c r="CO279" s="9"/>
+        <v>9.7301664833129173</v>
+      </c>
+      <c r="CO279" s="23">
+        <v>7.1754072565760438</v>
+      </c>
       <c r="CP279" s="9"/>
       <c r="CQ279" s="9"/>
       <c r="CR279" s="9"/>
@@ -65418,9 +65753,11 @@
         <v>5.3698003325425514</v>
       </c>
       <c r="CN280" s="23">
-        <v>3.1919789488228205</v>
-      </c>
-      <c r="CO280" s="9"/>
+        <v>3.1879275981837609</v>
+      </c>
+      <c r="CO280" s="23">
+        <v>3.3843960702056917</v>
+      </c>
       <c r="CP280" s="9"/>
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
@@ -65911,7 +66248,9 @@
       <c r="CN282" s="23">
         <v>100</v>
       </c>
-      <c r="CO282" s="9"/>
+      <c r="CO282" s="23">
+        <v>100</v>
+      </c>
       <c r="CP282" s="9"/>
       <c r="CQ282" s="9"/>
       <c r="CR282" s="9"/>
@@ -66065,66 +66404,118 @@
       <c r="CL283" s="14"/>
       <c r="CM283" s="14"/>
       <c r="CN283" s="14"/>
+      <c r="CO283" s="14"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CH285" s="9"/>
-      <c r="CI285" s="9"/>
-      <c r="CJ285" s="9"/>
-      <c r="CK285" s="9"/>
-      <c r="CL285" s="9"/>
-      <c r="CM285" s="9"/>
-      <c r="CN285" s="9"/>
-    </row>
-    <row r="286" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CH286" s="9"/>
-      <c r="CI286" s="9"/>
-      <c r="CJ286" s="9"/>
-      <c r="CK286" s="9"/>
-      <c r="CL286" s="9"/>
-      <c r="CM286" s="9"/>
-      <c r="CN286" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL132:CM132"/>
-    <mergeCell ref="CL172:CN172"/>
-    <mergeCell ref="CL213:CN213"/>
-    <mergeCell ref="CL254:CN254"/>
-    <mergeCell ref="CD132:CG132"/>
-    <mergeCell ref="CH172:CK172"/>
-    <mergeCell ref="CH213:CK213"/>
-    <mergeCell ref="CH254:CK254"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD254:CG254"/>
-    <mergeCell ref="CD213:CG213"/>
-    <mergeCell ref="CD172:CG172"/>
-    <mergeCell ref="CD50:CG50"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH50:CK50"/>
-    <mergeCell ref="CD91:CG91"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL50:CN50"/>
-    <mergeCell ref="CH91:CJ91"/>
-    <mergeCell ref="CL91:CM91"/>
-    <mergeCell ref="CH132:CJ132"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ50:CC50"/>
-    <mergeCell ref="BV254:BY254"/>
-    <mergeCell ref="BN132:BQ132"/>
-    <mergeCell ref="BJ91:BM91"/>
-    <mergeCell ref="BN91:BQ91"/>
-    <mergeCell ref="BJ132:BM132"/>
-    <mergeCell ref="BJ172:BM172"/>
-    <mergeCell ref="BR132:BU132"/>
-    <mergeCell ref="BV132:BY132"/>
-    <mergeCell ref="BR50:BU50"/>
-    <mergeCell ref="BV50:BY50"/>
+    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="AT50:AW50"/>
+    <mergeCell ref="AX50:BA50"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BB50:BE50"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AP213:AS213"/>
+    <mergeCell ref="AT213:AW213"/>
+    <mergeCell ref="BB213:BE213"/>
+    <mergeCell ref="BF172:BI172"/>
+    <mergeCell ref="AP132:AS132"/>
+    <mergeCell ref="AT132:AW132"/>
+    <mergeCell ref="AT91:AW91"/>
+    <mergeCell ref="AX91:BA91"/>
+    <mergeCell ref="BF50:BI50"/>
+    <mergeCell ref="AP50:AS50"/>
+    <mergeCell ref="BF132:BI132"/>
+    <mergeCell ref="BB91:BE91"/>
+    <mergeCell ref="BF91:BI91"/>
+    <mergeCell ref="AX213:BA213"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="R50:U50"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Z50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="AL50:AO50"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="J254:M254"/>
+    <mergeCell ref="N254:Q254"/>
+    <mergeCell ref="R254:U254"/>
+    <mergeCell ref="V254:Y254"/>
+    <mergeCell ref="Z254:AC254"/>
+    <mergeCell ref="AD254:AG254"/>
+    <mergeCell ref="AH254:AK254"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="J213:M213"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="N172:Q172"/>
+    <mergeCell ref="R172:U172"/>
+    <mergeCell ref="V172:Y172"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="Z91:AC91"/>
+    <mergeCell ref="AT172:AW172"/>
+    <mergeCell ref="AX172:BA172"/>
+    <mergeCell ref="BB172:BE172"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="J132:M132"/>
+    <mergeCell ref="N132:Q132"/>
+    <mergeCell ref="R132:U132"/>
+    <mergeCell ref="V132:Y132"/>
+    <mergeCell ref="AX132:BA132"/>
+    <mergeCell ref="BB132:BE132"/>
+    <mergeCell ref="AL91:AO91"/>
+    <mergeCell ref="Z172:AC172"/>
+    <mergeCell ref="AD172:AG172"/>
+    <mergeCell ref="AH172:AK172"/>
+    <mergeCell ref="AP91:AS91"/>
+    <mergeCell ref="Z132:AC132"/>
+    <mergeCell ref="AD132:AG132"/>
+    <mergeCell ref="AH132:AK132"/>
+    <mergeCell ref="AL132:AO132"/>
+    <mergeCell ref="AL172:AO172"/>
+    <mergeCell ref="AP172:AS172"/>
+    <mergeCell ref="AD91:AG91"/>
+    <mergeCell ref="AH91:AK91"/>
+    <mergeCell ref="AX254:BA254"/>
+    <mergeCell ref="BB254:BE254"/>
+    <mergeCell ref="N213:Q213"/>
+    <mergeCell ref="R213:U213"/>
+    <mergeCell ref="V213:Y213"/>
+    <mergeCell ref="Z213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AK213"/>
+    <mergeCell ref="AL213:AO213"/>
+    <mergeCell ref="AL254:AO254"/>
+    <mergeCell ref="AP254:AS254"/>
+    <mergeCell ref="AT254:AW254"/>
     <mergeCell ref="BF254:BI254"/>
     <mergeCell ref="BJ254:BM254"/>
     <mergeCell ref="BN254:BQ254"/>
@@ -66149,150 +66540,51 @@
     <mergeCell ref="BN172:BQ172"/>
     <mergeCell ref="BZ254:CC254"/>
     <mergeCell ref="BR254:BU254"/>
-    <mergeCell ref="AX254:BA254"/>
-    <mergeCell ref="BB254:BE254"/>
-    <mergeCell ref="N213:Q213"/>
-    <mergeCell ref="R213:U213"/>
-    <mergeCell ref="V213:Y213"/>
-    <mergeCell ref="Z213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AK213"/>
-    <mergeCell ref="AL213:AO213"/>
-    <mergeCell ref="AL254:AO254"/>
-    <mergeCell ref="AP254:AS254"/>
-    <mergeCell ref="AT254:AW254"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="AX213:BA213"/>
-    <mergeCell ref="AL172:AO172"/>
-    <mergeCell ref="AP172:AS172"/>
-    <mergeCell ref="AT172:AW172"/>
-    <mergeCell ref="AX172:BA172"/>
-    <mergeCell ref="BB172:BE172"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="N132:Q132"/>
-    <mergeCell ref="R132:U132"/>
-    <mergeCell ref="V132:Y132"/>
-    <mergeCell ref="AX132:BA132"/>
-    <mergeCell ref="BB132:BE132"/>
-    <mergeCell ref="AL91:AO91"/>
-    <mergeCell ref="Z172:AC172"/>
-    <mergeCell ref="AD172:AG172"/>
-    <mergeCell ref="AH172:AK172"/>
-    <mergeCell ref="AP91:AS91"/>
-    <mergeCell ref="Z132:AC132"/>
-    <mergeCell ref="AD132:AG132"/>
-    <mergeCell ref="AH132:AK132"/>
-    <mergeCell ref="AL132:AO132"/>
-    <mergeCell ref="B254:E254"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="J254:M254"/>
-    <mergeCell ref="N254:Q254"/>
-    <mergeCell ref="R254:U254"/>
-    <mergeCell ref="V254:Y254"/>
-    <mergeCell ref="Z254:AC254"/>
-    <mergeCell ref="AD254:AG254"/>
-    <mergeCell ref="AH254:AK254"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="Z91:AC91"/>
-    <mergeCell ref="AD91:AG91"/>
-    <mergeCell ref="AH91:AK91"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Z50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="AL50:AO50"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AT50:AW50"/>
-    <mergeCell ref="AX50:BA50"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BB50:BE50"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AP213:AS213"/>
-    <mergeCell ref="AT213:AW213"/>
-    <mergeCell ref="BB213:BE213"/>
-    <mergeCell ref="BF172:BI172"/>
-    <mergeCell ref="AP132:AS132"/>
-    <mergeCell ref="AT132:AW132"/>
-    <mergeCell ref="AT91:AW91"/>
-    <mergeCell ref="AX91:BA91"/>
-    <mergeCell ref="BF50:BI50"/>
-    <mergeCell ref="AP50:AS50"/>
-    <mergeCell ref="BF132:BI132"/>
-    <mergeCell ref="BB91:BE91"/>
-    <mergeCell ref="BF91:BI91"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="J213:M213"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="J172:M172"/>
-    <mergeCell ref="N172:Q172"/>
-    <mergeCell ref="R172:U172"/>
-    <mergeCell ref="V172:Y172"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ50:CC50"/>
+    <mergeCell ref="BV254:BY254"/>
+    <mergeCell ref="BN132:BQ132"/>
+    <mergeCell ref="BJ91:BM91"/>
+    <mergeCell ref="BN91:BQ91"/>
+    <mergeCell ref="BJ132:BM132"/>
+    <mergeCell ref="BJ172:BM172"/>
+    <mergeCell ref="BR132:BU132"/>
+    <mergeCell ref="BV132:BY132"/>
+    <mergeCell ref="BR50:BU50"/>
+    <mergeCell ref="BV50:BY50"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL50:CO50"/>
+    <mergeCell ref="CH91:CK91"/>
+    <mergeCell ref="CD132:CG132"/>
+    <mergeCell ref="CH172:CK172"/>
+    <mergeCell ref="CH213:CK213"/>
+    <mergeCell ref="CH254:CK254"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD254:CG254"/>
+    <mergeCell ref="CD213:CG213"/>
+    <mergeCell ref="CD172:CG172"/>
+    <mergeCell ref="CD50:CG50"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH50:CK50"/>
+    <mergeCell ref="CD91:CG91"/>
+    <mergeCell ref="CH132:CK132"/>
+    <mergeCell ref="CL172:CO172"/>
+    <mergeCell ref="CL213:CO213"/>
+    <mergeCell ref="CL254:CO254"/>
+    <mergeCell ref="CL91:CO91"/>
+    <mergeCell ref="CL132:CO132"/>
   </mergeCells>
-  <conditionalFormatting sqref="CH94:CM109 CH112:CM119 CJ110:CM111">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH175:CI200 CL175:CM200">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM94:CM119">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CM135:CM160">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CJ175:CK200">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH135:CL150 CH152:CL160 CJ151:CL151">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="91" man="1"/>
-    <brk id="82" max="91" man="1"/>
-    <brk id="123" max="91" man="1"/>
-    <brk id="164" max="91" man="1"/>
-    <brk id="204" max="91" man="1"/>
-    <brk id="245" max="91" man="1"/>
+    <brk id="41" max="92" man="1"/>
+    <brk id="82" max="92" man="1"/>
+    <brk id="123" max="92" man="1"/>
+    <brk id="164" max="92" man="1"/>
+    <brk id="204" max="92" man="1"/>
+    <brk id="245" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B56FB-5642-4BA5-8E97-D56B18AE446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99FA79-2D0A-4BDD-B854-F69253B7680C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13995" yWindow="1740" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -261,13 +261,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -349,11 +349,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
@@ -409,9 +410,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{6ED83F6B-0576-443E-9803-6EF6AE027DB4}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{43020BF2-52EE-488D-9E32-C5A918580F24}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{008F8423-7867-4CB4-A558-4D234F15232D}"/>
@@ -731,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,12 +746,12 @@
   </sheetPr>
   <dimension ref="A1:EV284"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="CC3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="BS3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CP6" sqref="CP6"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +779,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -787,7 +789,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -1477,28 +1479,28 @@
         <v>51276.382492793287</v>
       </c>
       <c r="CH12" s="8">
-        <v>58541.158933898158</v>
+        <v>58541.326799276714</v>
       </c>
       <c r="CI12" s="8">
-        <v>47867.997891967381</v>
+        <v>47873.9429215782</v>
       </c>
       <c r="CJ12" s="8">
         <v>40647.66566784482</v>
       </c>
       <c r="CK12" s="8">
-        <v>58261.857706303141</v>
+        <v>58275.074193118606</v>
       </c>
       <c r="CL12" s="8">
-        <v>62028.096573715593</v>
+        <v>62127.065395262369</v>
       </c>
       <c r="CM12" s="8">
-        <v>49120.308708090801</v>
+        <v>49334.66666877734</v>
       </c>
       <c r="CN12" s="8">
-        <v>42040.025971622672</v>
+        <v>41442.460552130084</v>
       </c>
       <c r="CO12" s="8">
-        <v>55971.433987479824</v>
+        <v>56443.883811741136</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -1826,19 +1828,19 @@
         <v>4431.104680267822</v>
       </c>
       <c r="CK13" s="11">
-        <v>4319.6241689507651</v>
+        <v>4316.9027270498527</v>
       </c>
       <c r="CL13" s="11">
-        <v>2500.7483468737091</v>
+        <v>2501.1893205300003</v>
       </c>
       <c r="CM13" s="11">
-        <v>2437.8802292001369</v>
+        <v>2438.1245430334579</v>
       </c>
       <c r="CN13" s="11">
-        <v>3327.9246417438312</v>
+        <v>2966.1475999427439</v>
       </c>
       <c r="CO13" s="11">
-        <v>2867.4995358479937</v>
+        <v>2853.8755453337226</v>
       </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -2166,19 +2168,19 @@
         <v>9187.5535580913565</v>
       </c>
       <c r="CK14" s="11">
-        <v>11123.925712408121</v>
+        <v>11126.761917937496</v>
       </c>
       <c r="CL14" s="11">
-        <v>9494.9320844892572</v>
+        <v>9501.003038080893</v>
       </c>
       <c r="CM14" s="11">
-        <v>9307.4156353659255</v>
+        <v>9312.2803256344141</v>
       </c>
       <c r="CN14" s="11">
-        <v>10322.413910994172</v>
+        <v>10323.553975386678</v>
       </c>
       <c r="CO14" s="11">
-        <v>12572.861754440188</v>
+        <v>12378.839759178214</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -2509,16 +2511,16 @@
         <v>765.09616809140095</v>
       </c>
       <c r="CL15" s="11">
-        <v>647.70376646087641</v>
+        <v>650.43149024144066</v>
       </c>
       <c r="CM15" s="11">
-        <v>698.06849698737619</v>
+        <v>698.64256169906594</v>
       </c>
       <c r="CN15" s="11">
-        <v>726.24305984643365</v>
+        <v>729.30421650781761</v>
       </c>
       <c r="CO15" s="11">
-        <v>911.67795810888765</v>
+        <v>939.38620247191375</v>
       </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -2849,16 +2851,16 @@
         <v>440.91479025937576</v>
       </c>
       <c r="CL16" s="11">
-        <v>422.81136516350637</v>
+        <v>423.35151375127072</v>
       </c>
       <c r="CM16" s="11">
-        <v>376.08126301209819</v>
+        <v>376.20606291950469</v>
       </c>
       <c r="CN16" s="11">
-        <v>575.11657775216054</v>
+        <v>563.01185576389378</v>
       </c>
       <c r="CO16" s="11">
-        <v>610.1283289632463</v>
+        <v>615.82817693625566</v>
       </c>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -3177,28 +3179,28 @@
         <v>2314.3770870556236</v>
       </c>
       <c r="CH17" s="11">
-        <v>2699.4920858096257</v>
+        <v>2699.5914759839416</v>
       </c>
       <c r="CI17" s="11">
-        <v>3342.0641753031941</v>
+        <v>3347.9943616944333</v>
       </c>
       <c r="CJ17" s="11">
         <v>3338.8216530237387</v>
       </c>
       <c r="CK17" s="11">
-        <v>3000.3675877051292</v>
+        <v>2999.8221527660235</v>
       </c>
       <c r="CL17" s="11">
-        <v>3746.9877615250962</v>
+        <v>3748.701186385681</v>
       </c>
       <c r="CM17" s="11">
-        <v>2694.8170505836115</v>
+        <v>2833.3985227820776</v>
       </c>
       <c r="CN17" s="11">
-        <v>2929.3134886424691</v>
+        <v>2597.6599899346902</v>
       </c>
       <c r="CO17" s="11">
-        <v>3361.5811828858937</v>
+        <v>3318.4071925493995</v>
       </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -3517,7 +3519,7 @@
         <v>30655.654184141502</v>
       </c>
       <c r="CH18" s="11">
-        <v>33111.400313364109</v>
+        <v>33111.414611867964</v>
       </c>
       <c r="CI18" s="11">
         <v>20875.999648424353</v>
@@ -3526,19 +3528,19 @@
         <v>14376.565024355747</v>
       </c>
       <c r="CK18" s="11">
-        <v>27725.384098040966</v>
+        <v>27696.613856543641</v>
       </c>
       <c r="CL18" s="11">
-        <v>34669.862801566946</v>
+        <v>34737.260755101379</v>
       </c>
       <c r="CM18" s="11">
-        <v>24168.60506914703</v>
+        <v>24233.83039362252</v>
       </c>
       <c r="CN18" s="11">
-        <v>15088.585957914416</v>
+        <v>15206.00093161609</v>
       </c>
       <c r="CO18" s="11">
-        <v>25167.614557156416</v>
+        <v>25689.646573083148</v>
       </c>
       <c r="CP18" s="9"/>
       <c r="CQ18" s="9"/>
@@ -3869,16 +3871,16 @@
         <v>1432.1198854110951</v>
       </c>
       <c r="CL19" s="11">
-        <v>741.74514479576635</v>
+        <v>742.23927768370243</v>
       </c>
       <c r="CM19" s="11">
-        <v>723.20740309221628</v>
+        <v>723.31973542125149</v>
       </c>
       <c r="CN19" s="11">
-        <v>502.83824837373317</v>
+        <v>449.78254081928537</v>
       </c>
       <c r="CO19" s="11">
-        <v>1249.3253270286816</v>
+        <v>1235.3037827320438</v>
       </c>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -4197,28 +4199,28 @@
         <v>6913.9289569154098</v>
       </c>
       <c r="CH20" s="11">
-        <v>8403.8100596760669</v>
+        <v>8403.864236376452</v>
       </c>
       <c r="CI20" s="11">
-        <v>8493.2927630646009</v>
+        <v>8493.307606284181</v>
       </c>
       <c r="CJ20" s="11">
         <v>7312.2932060114472</v>
       </c>
       <c r="CK20" s="11">
-        <v>9454.4252954363001</v>
+        <v>9496.8426950597295</v>
       </c>
       <c r="CL20" s="11">
-        <v>9803.3053028404393</v>
+        <v>9822.8888134880017</v>
       </c>
       <c r="CM20" s="11">
-        <v>8714.2335607024088</v>
+        <v>8718.86452366505</v>
       </c>
       <c r="CN20" s="11">
-        <v>8567.5900863554634</v>
+        <v>8606.999442158889</v>
       </c>
       <c r="CO20" s="11">
-        <v>9230.7453430485239</v>
+        <v>9412.5965794564363</v>
       </c>
       <c r="CP20" s="9"/>
       <c r="CQ20" s="9"/>
@@ -4537,28 +4539,28 @@
         <v>45363.207117669983</v>
       </c>
       <c r="CH21" s="8">
-        <v>49695.016313886677</v>
+        <v>49694.822060481893</v>
       </c>
       <c r="CI21" s="8">
-        <v>40266.571381959482</v>
+        <v>40266.574644393491</v>
       </c>
       <c r="CJ21" s="8">
-        <v>46175.034139911164</v>
+        <v>44584.322119758086</v>
       </c>
       <c r="CK21" s="8">
-        <v>47401.023023459726</v>
+        <v>47395.956823974513</v>
       </c>
       <c r="CL21" s="8">
-        <v>55248.360471062828</v>
+        <v>55164.47460116852</v>
       </c>
       <c r="CM21" s="8">
-        <v>49651.77325451182</v>
+        <v>49118.606042486688</v>
       </c>
       <c r="CN21" s="8">
-        <v>59239.424204936062</v>
+        <v>57879.628408538163</v>
       </c>
       <c r="CO21" s="8">
-        <v>63324.675782337952</v>
+        <v>63024.81368645811</v>
       </c>
       <c r="CP21" s="9"/>
       <c r="CQ21" s="9"/>
@@ -4877,7 +4879,7 @@
         <v>8386.6463101162626</v>
       </c>
       <c r="CH22" s="11">
-        <v>7887.0206297618333</v>
+        <v>7886.6884581976483</v>
       </c>
       <c r="CI22" s="11">
         <v>7155.0963550419592</v>
@@ -4886,19 +4888,19 @@
         <v>7280.6033560321166</v>
       </c>
       <c r="CK22" s="11">
-        <v>10008.559027993895</v>
+        <v>10008.565084635895</v>
       </c>
       <c r="CL22" s="11">
-        <v>9542.8711096971929</v>
+        <v>9628.082742530145</v>
       </c>
       <c r="CM22" s="11">
-        <v>9878.1187573968455</v>
+        <v>9920.8941364997227</v>
       </c>
       <c r="CN22" s="11">
-        <v>9326.4866714208183</v>
+        <v>9169.3899887965817</v>
       </c>
       <c r="CO22" s="11">
-        <v>11902.975413808734</v>
+        <v>11983.373548752726</v>
       </c>
       <c r="CP22" s="9"/>
       <c r="CQ22" s="9"/>
@@ -5226,19 +5228,19 @@
         <v>5066.6062712290177</v>
       </c>
       <c r="CK23" s="11">
-        <v>5483.5514610858872</v>
+        <v>5483.9249386943147</v>
       </c>
       <c r="CL23" s="11">
-        <v>5611.5960427676937</v>
+        <v>5639.4054154257592</v>
       </c>
       <c r="CM23" s="11">
-        <v>5655.159440503985</v>
+        <v>5668.285123550173</v>
       </c>
       <c r="CN23" s="11">
-        <v>5157.1465727197728</v>
+        <v>5197.2327979966367</v>
       </c>
       <c r="CO23" s="11">
-        <v>7332.0197013093275</v>
+        <v>7346.2982822480926</v>
       </c>
       <c r="CP23" s="9"/>
       <c r="CQ23" s="9"/>
@@ -5560,25 +5562,25 @@
         <v>13981.40718165418</v>
       </c>
       <c r="CI24" s="11">
-        <v>11965.092595326425</v>
+        <v>11965.095857760432</v>
       </c>
       <c r="CJ24" s="11">
-        <v>16011.432118332268</v>
+        <v>14420.720098179194</v>
       </c>
       <c r="CK24" s="11">
-        <v>12472.925081185451</v>
+        <v>12465.264015757841</v>
       </c>
       <c r="CL24" s="11">
-        <v>13606.855846988763</v>
+        <v>13619.768968589058</v>
       </c>
       <c r="CM24" s="11">
-        <v>13664.854756853229</v>
+        <v>13464.931485133506</v>
       </c>
       <c r="CN24" s="11">
-        <v>24213.26274241502</v>
+        <v>24014.801496465923</v>
       </c>
       <c r="CO24" s="11">
-        <v>23033.499027401012</v>
+        <v>22490.747102969784</v>
       </c>
       <c r="CP24" s="9"/>
       <c r="CQ24" s="9"/>
@@ -5897,7 +5899,7 @@
         <v>16603.622898450478</v>
       </c>
       <c r="CH25" s="11">
-        <v>23058.615845131881</v>
+        <v>23058.753763291286</v>
       </c>
       <c r="CI25" s="11">
         <v>16049.458894631422</v>
@@ -5906,19 +5908,19 @@
         <v>17816.392394317758</v>
       </c>
       <c r="CK25" s="11">
-        <v>19435.987453194495</v>
+        <v>19438.202784886464</v>
       </c>
       <c r="CL25" s="11">
-        <v>26487.037471609172</v>
+        <v>26277.217474623558</v>
       </c>
       <c r="CM25" s="11">
-        <v>20453.640299757761</v>
+        <v>20064.495297303285</v>
       </c>
       <c r="CN25" s="11">
-        <v>20542.528218380456</v>
+        <v>19498.204125279019</v>
       </c>
       <c r="CO25" s="11">
-        <v>21056.181639818875</v>
+        <v>21204.394752487504</v>
       </c>
       <c r="CP25" s="9"/>
       <c r="CQ25" s="9"/>
@@ -6237,28 +6239,28 @@
         <v>115528.01967552473</v>
       </c>
       <c r="CH26" s="8">
-        <v>124589.10692945481</v>
+        <v>124589.11055104242</v>
       </c>
       <c r="CI26" s="8">
-        <v>103509.55353964759</v>
+        <v>104057.69156374272</v>
       </c>
       <c r="CJ26" s="8">
-        <v>105260.2298822154</v>
+        <v>104653.81286712343</v>
       </c>
       <c r="CK26" s="8">
-        <v>133668.26270734164</v>
+        <v>132686.72850413472</v>
       </c>
       <c r="CL26" s="8">
-        <v>163950.8020046693</v>
+        <v>163862.64855411998</v>
       </c>
       <c r="CM26" s="8">
-        <v>145356.15480849805</v>
+        <v>145670.6522403901</v>
       </c>
       <c r="CN26" s="8">
-        <v>162369.10151277491</v>
+        <v>162498.41427704878</v>
       </c>
       <c r="CO26" s="8">
-        <v>162735.54680094135</v>
+        <v>161532.54019615345</v>
       </c>
       <c r="CP26" s="9"/>
       <c r="CQ26" s="9"/>
@@ -6580,25 +6582,25 @@
         <v>113486.41667803671</v>
       </c>
       <c r="CI27" s="11">
-        <v>95108.975103577832</v>
+        <v>95632.986730939097</v>
       </c>
       <c r="CJ27" s="11">
-        <v>100772.17941952129</v>
+        <v>100165.76240442932</v>
       </c>
       <c r="CK27" s="11">
-        <v>110180.91439146697</v>
+        <v>109199.38588718358</v>
       </c>
       <c r="CL27" s="11">
-        <v>136229.18816494729</v>
+        <v>136145.84524228523</v>
       </c>
       <c r="CM27" s="11">
-        <v>122240.92570820492</v>
+        <v>122538.60684307599</v>
       </c>
       <c r="CN27" s="11">
-        <v>150632.41827010689</v>
+        <v>150753.85957909332</v>
       </c>
       <c r="CO27" s="11">
-        <v>151939.99626739215</v>
+        <v>150767.57828406111</v>
       </c>
       <c r="CP27" s="9"/>
       <c r="CQ27" s="9"/>
@@ -6935,10 +6937,10 @@
         <v>809.44314838159949</v>
       </c>
       <c r="CN28" s="11">
-        <v>50.04367691679029</v>
+        <v>52.072454557178339</v>
       </c>
       <c r="CO28" s="11">
-        <v>14.440607466579268</v>
+        <v>14.196752864451399</v>
       </c>
       <c r="CP28" s="9"/>
       <c r="CQ28" s="9"/>
@@ -7260,25 +7262,25 @@
         <v>1497.2602288694948</v>
       </c>
       <c r="CI29" s="11">
-        <v>7124.3444375877434</v>
+        <v>7148.4708343216016</v>
       </c>
       <c r="CJ29" s="11">
         <v>2560.2614048595551</v>
       </c>
       <c r="CK29" s="11">
-        <v>18605.76298429797</v>
+        <v>18605.757285374431</v>
       </c>
       <c r="CL29" s="11">
-        <v>16487.745286676476</v>
+        <v>16475.704881461341</v>
       </c>
       <c r="CM29" s="11">
-        <v>10074.057929104585</v>
+        <v>10090.867252894068</v>
       </c>
       <c r="CN29" s="11">
-        <v>5725.9899158294893</v>
+        <v>5730.9727403743063</v>
       </c>
       <c r="CO29" s="11">
-        <v>5800.5231390582931</v>
+        <v>5830.960525499645</v>
       </c>
       <c r="CP29" s="9"/>
       <c r="CQ29" s="9"/>
@@ -7597,7 +7599,7 @@
         <v>833.24156870696106</v>
       </c>
       <c r="CH30" s="11">
-        <v>7430.9040452567961</v>
+        <v>7430.907666844415</v>
       </c>
       <c r="CI30" s="11">
         <v>1264.3649966663711</v>
@@ -7609,16 +7611,16 @@
         <v>1717.3720874285057</v>
       </c>
       <c r="CL30" s="11">
-        <v>9496.365114011498</v>
+        <v>9503.5949913393943</v>
       </c>
       <c r="CM30" s="11">
-        <v>12231.728022806947</v>
+        <v>12231.734996038442</v>
       </c>
       <c r="CN30" s="11">
-        <v>5960.6496499217137</v>
+        <v>5961.5095030239891</v>
       </c>
       <c r="CO30" s="11">
-        <v>4980.5867870243101</v>
+        <v>4919.8046337282212</v>
       </c>
       <c r="CP30" s="9"/>
       <c r="CQ30" s="9"/>
@@ -7937,28 +7939,28 @@
         <v>49754.685381672272</v>
       </c>
       <c r="CH31" s="8">
-        <v>55935.875121412362</v>
+        <v>55882.667298804212</v>
       </c>
       <c r="CI31" s="8">
-        <v>53178.448068639482</v>
+        <v>53257.033949077559</v>
       </c>
       <c r="CJ31" s="8">
         <v>52182.435820240171</v>
       </c>
       <c r="CK31" s="8">
-        <v>55766.537399436405</v>
+        <v>56618.734335055386</v>
       </c>
       <c r="CL31" s="8">
-        <v>62440.604692364592</v>
+        <v>63028.405007964611</v>
       </c>
       <c r="CM31" s="8">
-        <v>60810.368743408784</v>
+        <v>60068.699385092288</v>
       </c>
       <c r="CN31" s="8">
-        <v>56602.744240856533</v>
+        <v>55866.361734870035</v>
       </c>
       <c r="CO31" s="8">
-        <v>67658.029584129676</v>
+        <v>65979.141165391193</v>
       </c>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
@@ -8280,25 +8282,25 @@
         <v>4629.4723582643337</v>
       </c>
       <c r="CI32" s="11">
-        <v>4871.2729287841557</v>
+        <v>4871.2828242139421</v>
       </c>
       <c r="CJ32" s="11">
         <v>4992.9407309126091</v>
       </c>
       <c r="CK32" s="11">
-        <v>4760.0523785116966</v>
+        <v>4754.4583843286655</v>
       </c>
       <c r="CL32" s="11">
-        <v>4954.6992644621059</v>
+        <v>4946.0125478368736</v>
       </c>
       <c r="CM32" s="11">
-        <v>4539.0352440369206</v>
+        <v>4558.1344266621727</v>
       </c>
       <c r="CN32" s="11">
-        <v>5498.3596174201466</v>
+        <v>5415.7208863220503</v>
       </c>
       <c r="CO32" s="11">
-        <v>7946.3802771626615</v>
+        <v>7911.8538094047499</v>
       </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -8617,28 +8619,28 @@
         <v>7451.0501716481922</v>
       </c>
       <c r="CH33" s="11">
-        <v>9722.0937590066078</v>
+        <v>9675.1654595471864</v>
       </c>
       <c r="CI33" s="11">
-        <v>8452.8947083027197</v>
+        <v>8518.395418097376</v>
       </c>
       <c r="CJ33" s="11">
         <v>7918.363814997253</v>
       </c>
       <c r="CK33" s="11">
-        <v>8969.1752260535395</v>
+        <v>9007.1005952231462</v>
       </c>
       <c r="CL33" s="11">
-        <v>11029.395121814505</v>
+        <v>11030.811579910269</v>
       </c>
       <c r="CM33" s="11">
-        <v>8890.3196611212188</v>
+        <v>8910.1965268858348</v>
       </c>
       <c r="CN33" s="11">
-        <v>8192.8266113282934</v>
+        <v>7613.3793142308796</v>
       </c>
       <c r="CO33" s="11">
-        <v>9790.6868423603391</v>
+        <v>9786.3948381134542</v>
       </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -8957,28 +8959,28 @@
         <v>25905.479426830389</v>
       </c>
       <c r="CH34" s="11">
-        <v>24944.756636294653</v>
+        <v>24937.567907376462</v>
       </c>
       <c r="CI34" s="11">
-        <v>25072.950748615931</v>
+        <v>25086.026023829567</v>
       </c>
       <c r="CJ34" s="11">
         <v>30296.855767724148</v>
       </c>
       <c r="CK34" s="11">
-        <v>31349.984737912993</v>
+        <v>32169.896577255146</v>
       </c>
       <c r="CL34" s="11">
-        <v>32027.40677863155</v>
+        <v>32076.122314555869</v>
       </c>
       <c r="CM34" s="11">
-        <v>30291.574224193439</v>
+        <v>30017.749583969504</v>
       </c>
       <c r="CN34" s="11">
-        <v>32321.925254528083</v>
+        <v>32432.988608214935</v>
       </c>
       <c r="CO34" s="11">
-        <v>36662.544959838051</v>
+        <v>36801.157003883302</v>
       </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -9297,7 +9299,7 @@
         <v>10060.232550232438</v>
       </c>
       <c r="CH35" s="11">
-        <v>16639.552367846776</v>
+        <v>16640.46157361623</v>
       </c>
       <c r="CI35" s="11">
         <v>14781.329682936674</v>
@@ -9306,19 +9308,19 @@
         <v>8974.27550660616</v>
       </c>
       <c r="CK35" s="11">
-        <v>10687.325056958169</v>
+        <v>10687.278778248432</v>
       </c>
       <c r="CL35" s="11">
-        <v>14429.103527456435</v>
+        <v>14975.458565661596</v>
       </c>
       <c r="CM35" s="11">
-        <v>17089.439614057206</v>
+        <v>16582.61884757478</v>
       </c>
       <c r="CN35" s="11">
-        <v>10589.632757580008</v>
+        <v>10404.272926102172</v>
       </c>
       <c r="CO35" s="11">
-        <v>13258.417504768622</v>
+        <v>11479.735513989688</v>
       </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -9790,28 +9792,28 @@
         <v>261922.29466766026</v>
       </c>
       <c r="CH37" s="13">
-        <v>288761.15729865199</v>
+        <v>288707.92670960526</v>
       </c>
       <c r="CI37" s="13">
-        <v>244822.57088221394</v>
+        <v>245455.24307879197</v>
       </c>
       <c r="CJ37" s="13">
-        <v>244265.36551021156</v>
+        <v>242068.23647496651</v>
       </c>
       <c r="CK37" s="13">
-        <v>295097.68083654088</v>
+        <v>294976.49385628325</v>
       </c>
       <c r="CL37" s="13">
-        <v>343667.8637418123</v>
+        <v>344182.59355851542</v>
       </c>
       <c r="CM37" s="13">
-        <v>304938.60551450943</v>
+        <v>304192.6243367464</v>
       </c>
       <c r="CN37" s="13">
-        <v>320251.29593019019</v>
+        <v>317686.86497258709</v>
       </c>
       <c r="CO37" s="13">
-        <v>349689.68615488883</v>
+        <v>346980.37885974388</v>
       </c>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -10314,7 +10316,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.2">
@@ -10324,7 +10326,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
@@ -11014,28 +11016,28 @@
         <v>60932.38878891943</v>
       </c>
       <c r="CH53" s="8">
-        <v>57497.116261917377</v>
+        <v>57497.277933965343</v>
       </c>
       <c r="CI53" s="8">
-        <v>31321.432365500288</v>
+        <v>31323.575236437566</v>
       </c>
       <c r="CJ53" s="8">
-        <v>49929.843626102709</v>
+        <v>49929.843626102702</v>
       </c>
       <c r="CK53" s="8">
-        <v>66466.12120791206</v>
+        <v>66501.113999105699</v>
       </c>
       <c r="CL53" s="8">
-        <v>56052.060775786405</v>
+        <v>56154.713753790973</v>
       </c>
       <c r="CM53" s="8">
-        <v>29741.933567097083</v>
+        <v>29638.055496577312</v>
       </c>
       <c r="CN53" s="8">
-        <v>44669.563492713132</v>
+        <v>44070.998157212263</v>
       </c>
       <c r="CO53" s="8">
-        <v>55656.653609548572</v>
+        <v>56031.668160503337</v>
       </c>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
@@ -11363,19 +11365,19 @@
         <v>5287.8745894518452</v>
       </c>
       <c r="CK54" s="11">
-        <v>6133.5174448456464</v>
+        <v>6129.6291090860987</v>
       </c>
       <c r="CL54" s="11">
-        <v>2255.0748846422493</v>
+        <v>2255.5424858344413</v>
       </c>
       <c r="CM54" s="11">
-        <v>761.66025081213616</v>
+        <v>761.78762771609752</v>
       </c>
       <c r="CN54" s="11">
-        <v>3367.3057673567978</v>
+        <v>2999.4154859962432</v>
       </c>
       <c r="CO54" s="11">
-        <v>3388.8143185094514</v>
+        <v>3372.240102179047</v>
       </c>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
@@ -11703,19 +11705,19 @@
         <v>11008.634640329734</v>
       </c>
       <c r="CK55" s="11">
-        <v>15911.285342941819</v>
+        <v>15915.381302443891</v>
       </c>
       <c r="CL55" s="11">
-        <v>8402.3117075506925</v>
+        <v>8408.0505623100962</v>
       </c>
       <c r="CM55" s="11">
-        <v>2987.9489594103698</v>
+        <v>2989.8761972432139</v>
       </c>
       <c r="CN55" s="11">
-        <v>10513.378067030249</v>
+        <v>10506.725266714966</v>
       </c>
       <c r="CO55" s="11">
-        <v>15019.856985199111</v>
+        <v>14787.444383062755</v>
       </c>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
@@ -12046,16 +12048,16 @@
         <v>827.89099603346835</v>
       </c>
       <c r="CL56" s="11">
-        <v>597.86760840923216</v>
+        <v>600.76004171803925</v>
       </c>
       <c r="CM56" s="11">
-        <v>306.73225109706334</v>
+        <v>307.35573573461693</v>
       </c>
       <c r="CN56" s="11">
-        <v>746.38305088003449</v>
+        <v>749.36964626741485</v>
       </c>
       <c r="CO56" s="11">
-        <v>1001.784142899993</v>
+        <v>1031.6152468033449</v>
       </c>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
@@ -12386,16 +12388,16 @@
         <v>545.12884117988403</v>
       </c>
       <c r="CL57" s="11">
-        <v>315.43803744530902</v>
+        <v>315.9892621347073</v>
       </c>
       <c r="CM57" s="11">
-        <v>135.61553714706261</v>
+        <v>135.75089907223924</v>
       </c>
       <c r="CN57" s="11">
-        <v>579.1199100064365</v>
+        <v>566.65243540056349</v>
       </c>
       <c r="CO57" s="11">
-        <v>689.50530555663613</v>
+        <v>695.47966316221414</v>
       </c>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
@@ -12714,28 +12716,28 @@
         <v>3571.5903656964251</v>
       </c>
       <c r="CH58" s="11">
-        <v>2666.2790380383121</v>
+        <v>2666.3770787656299</v>
       </c>
       <c r="CI58" s="11">
-        <v>1255.7186949254087</v>
+        <v>1257.8562647708736</v>
       </c>
       <c r="CJ58" s="11">
         <v>3851.3221670743064</v>
       </c>
       <c r="CK58" s="11">
-        <v>4131.3450878775348</v>
+        <v>4130.5758037628557</v>
       </c>
       <c r="CL58" s="11">
-        <v>3202.7455397586123</v>
+        <v>3204.4563803884889</v>
       </c>
       <c r="CM58" s="11">
-        <v>876.28923089513717</v>
+        <v>918.75784814555163</v>
       </c>
       <c r="CN58" s="11">
-        <v>2885.8396011366021</v>
+        <v>2559.1367349216134</v>
       </c>
       <c r="CO58" s="11">
-        <v>3910.0729518926623</v>
+        <v>3858.5461515750085</v>
       </c>
       <c r="CP58" s="9"/>
       <c r="CQ58" s="9"/>
@@ -13054,28 +13056,28 @@
         <v>29667.403902739352</v>
       </c>
       <c r="CH59" s="11">
-        <v>31929.97125626653</v>
+        <v>31929.98273486695</v>
       </c>
       <c r="CI59" s="11">
         <v>20559.329156847001</v>
       </c>
       <c r="CJ59" s="11">
-        <v>19012.43225478832</v>
+        <v>19012.432254788313</v>
       </c>
       <c r="CK59" s="11">
-        <v>25289.805192443193</v>
+        <v>25266.562529179133</v>
       </c>
       <c r="CL59" s="11">
-        <v>32104.970046588172</v>
+        <v>32174.972377867358</v>
       </c>
       <c r="CM59" s="11">
-        <v>20981.876227410772</v>
+        <v>20827.657775890431</v>
       </c>
       <c r="CN59" s="11">
-        <v>17241.68671677215</v>
+        <v>17372.194231779744</v>
       </c>
       <c r="CO59" s="11">
-        <v>19811.750878760206</v>
+        <v>20273.651609490433</v>
       </c>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
@@ -13406,16 +13408,16 @@
         <v>2071.9301484812827</v>
       </c>
       <c r="CL60" s="11">
-        <v>676.14093854760392</v>
+        <v>676.66490891228193</v>
       </c>
       <c r="CM60" s="11">
-        <v>245.78743511464563</v>
+        <v>245.91054324460896</v>
       </c>
       <c r="CN60" s="11">
-        <v>520.8369011755907</v>
+        <v>465.89826695183149</v>
       </c>
       <c r="CO60" s="11">
-        <v>1518.5201200619749</v>
+        <v>1500.6906029608699</v>
       </c>
       <c r="CP60" s="9"/>
       <c r="CQ60" s="9"/>
@@ -13734,28 +13736,28 @@
         <v>9807.2482362108458</v>
       </c>
       <c r="CH61" s="11">
-        <v>8177.3958362642015</v>
+        <v>8177.4479889844215</v>
       </c>
       <c r="CI61" s="11">
-        <v>3725.6552718427893</v>
+        <v>3725.6605729346029</v>
       </c>
       <c r="CJ61" s="11">
         <v>8441.950042988743</v>
       </c>
       <c r="CK61" s="11">
-        <v>11555.218154109229</v>
+        <v>11614.015268939091</v>
       </c>
       <c r="CL61" s="11">
-        <v>8497.5120128445269</v>
+        <v>8518.2777346255643</v>
       </c>
       <c r="CM61" s="11">
-        <v>3446.023675209899</v>
+        <v>3450.9588695305492</v>
       </c>
       <c r="CN61" s="11">
-        <v>8815.0134783552694</v>
+        <v>8851.6060891798861</v>
       </c>
       <c r="CO61" s="11">
-        <v>10316.348906668536</v>
+        <v>10512.00040126967</v>
       </c>
       <c r="CP61" s="9"/>
       <c r="CQ61" s="9"/>
@@ -14074,28 +14076,28 @@
         <v>47957.312665351434</v>
       </c>
       <c r="CH62" s="8">
-        <v>50085.84230024775</v>
+        <v>50085.654836019021</v>
       </c>
       <c r="CI62" s="8">
-        <v>36848.906491173868</v>
+        <v>36848.909362602986</v>
       </c>
       <c r="CJ62" s="8">
-        <v>53469.02282513649</v>
+        <v>51742.796780164448</v>
       </c>
       <c r="CK62" s="8">
-        <v>46709.858378414443</v>
+        <v>46705.322297328654</v>
       </c>
       <c r="CL62" s="8">
-        <v>51770.59920076259</v>
+        <v>51650.780454455409</v>
       </c>
       <c r="CM62" s="8">
-        <v>39900.013989922438</v>
+        <v>39125.984742142908</v>
       </c>
       <c r="CN62" s="8">
-        <v>58026.106459937015</v>
+        <v>56586.709007992948</v>
       </c>
       <c r="CO62" s="8">
-        <v>56165.195184846678</v>
+        <v>56067.993441713836</v>
       </c>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
@@ -14414,7 +14416,7 @@
         <v>9039.5310042375459</v>
       </c>
       <c r="CH63" s="11">
-        <v>7752.1697415136205</v>
+        <v>7751.8467998535325</v>
       </c>
       <c r="CI63" s="11">
         <v>6385.9979876114521</v>
@@ -14423,19 +14425,19 @@
         <v>8591.6930906538582</v>
       </c>
       <c r="CK63" s="11">
-        <v>9430.9836779044108</v>
+        <v>9430.989368750772</v>
       </c>
       <c r="CL63" s="11">
-        <v>8502.0109270199664</v>
+        <v>8582.2273201229564</v>
       </c>
       <c r="CM63" s="11">
-        <v>7512.9239761207646</v>
+        <v>7559.8027061805496</v>
       </c>
       <c r="CN63" s="11">
-        <v>9088.4099485606348</v>
+        <v>8906.7130198622981</v>
       </c>
       <c r="CO63" s="11">
-        <v>9996.7065186096661</v>
+        <v>10075.422094021213</v>
       </c>
       <c r="CP63" s="9"/>
       <c r="CQ63" s="9"/>
@@ -14754,7 +14756,7 @@
         <v>5571.7040831643517</v>
       </c>
       <c r="CH64" s="11">
-        <v>4679.9666922809201</v>
+        <v>4679.9666922809211</v>
       </c>
       <c r="CI64" s="11">
         <v>4540.8727748265028</v>
@@ -14763,19 +14765,19 @@
         <v>5910.8235295231971</v>
       </c>
       <c r="CK64" s="11">
-        <v>5310.4232112166337</v>
+        <v>5310.7853843801568</v>
       </c>
       <c r="CL64" s="11">
-        <v>4990.4308913595269</v>
+        <v>5016.6063703503914</v>
       </c>
       <c r="CM64" s="11">
-        <v>4400.3260621793061</v>
+        <v>4414.6571227442855</v>
       </c>
       <c r="CN64" s="11">
-        <v>5092.8905863884884</v>
+        <v>5110.3185291011832</v>
       </c>
       <c r="CO64" s="11">
-        <v>6067.6382127466959</v>
+        <v>6081.7158841339769</v>
       </c>
       <c r="CP64" s="9"/>
       <c r="CQ64" s="9"/>
@@ -15097,25 +15099,25 @@
         <v>13859.661927260095</v>
       </c>
       <c r="CI65" s="11">
-        <v>10657.038399540148</v>
+        <v>10657.041270969266</v>
       </c>
       <c r="CJ65" s="11">
-        <v>18318.581917378004</v>
+        <v>16592.355872405959</v>
       </c>
       <c r="CK65" s="11">
-        <v>11579.564707310014</v>
+        <v>11572.478347706488</v>
       </c>
       <c r="CL65" s="11">
-        <v>12068.410716317936</v>
+        <v>12080.331688711036</v>
       </c>
       <c r="CM65" s="11">
-        <v>10484.309637726739</v>
+        <v>10268.807240061369</v>
       </c>
       <c r="CN65" s="11">
-        <v>22841.702369125062</v>
+        <v>22622.069017464219</v>
       </c>
       <c r="CO65" s="11">
-        <v>18037.743982755594</v>
+        <v>17622.800505163432</v>
       </c>
       <c r="CP65" s="9"/>
       <c r="CQ65" s="9"/>
@@ -15434,7 +15436,7 @@
         <v>17676.343876338105</v>
       </c>
       <c r="CH66" s="11">
-        <v>23794.04393919311</v>
+        <v>23794.179416624473</v>
       </c>
       <c r="CI66" s="11">
         <v>15264.997329195765</v>
@@ -15443,19 +15445,19 @@
         <v>20647.924287581434</v>
       </c>
       <c r="CK66" s="11">
-        <v>20388.886781983383</v>
+        <v>20391.069196491237</v>
       </c>
       <c r="CL66" s="11">
-        <v>26209.746666065163</v>
+        <v>25971.615075271024</v>
       </c>
       <c r="CM66" s="11">
-        <v>17502.454313895629</v>
+        <v>16882.717673156701</v>
       </c>
       <c r="CN66" s="11">
-        <v>21003.103555862825</v>
+        <v>19947.608441565244</v>
       </c>
       <c r="CO66" s="11">
-        <v>22063.106470734718</v>
+        <v>22288.054958395216</v>
       </c>
       <c r="CP66" s="9"/>
       <c r="CQ66" s="9"/>
@@ -15774,28 +15776,28 @@
         <v>125921.35182434383</v>
       </c>
       <c r="CH67" s="8">
-        <v>141674.87633645334</v>
+        <v>141674.87945895732</v>
       </c>
       <c r="CI67" s="8">
-        <v>120650.06090022583</v>
+        <v>121291.88850983036</v>
       </c>
       <c r="CJ67" s="8">
-        <v>107467.11445756625</v>
+        <v>106957.92605904682</v>
       </c>
       <c r="CK67" s="8">
-        <v>134593.70641258731</v>
+        <v>133226.1081310109</v>
       </c>
       <c r="CL67" s="8">
-        <v>171367.86843764491</v>
+        <v>168162.18916375461</v>
       </c>
       <c r="CM67" s="8">
-        <v>151115.28777457195</v>
+        <v>149325.20766128573</v>
       </c>
       <c r="CN67" s="8">
-        <v>142971.94461519964</v>
+        <v>143019.61658559294</v>
       </c>
       <c r="CO67" s="8">
-        <v>145677.62954274315</v>
+        <v>142924.89404160064</v>
       </c>
       <c r="CP67" s="9"/>
       <c r="CQ67" s="9"/>
@@ -16117,25 +16119,25 @@
         <v>131262.61758192381</v>
       </c>
       <c r="CI68" s="11">
-        <v>110561.34878757125</v>
+        <v>111174.17958287749</v>
       </c>
       <c r="CJ68" s="11">
-        <v>103265.50445763636</v>
+        <v>102756.31605911693</v>
       </c>
       <c r="CK68" s="11">
-        <v>113099.74780220952</v>
+        <v>111732.1547250369</v>
       </c>
       <c r="CL68" s="11">
-        <v>147457.13257182576</v>
+        <v>144262.06824617967</v>
       </c>
       <c r="CM68" s="11">
-        <v>126357.96988406673</v>
+        <v>124718.82459777835</v>
       </c>
       <c r="CN68" s="11">
-        <v>133520.83645567266</v>
+        <v>133565.47408270379</v>
       </c>
       <c r="CO68" s="11">
-        <v>137101.77319870589</v>
+        <v>134371.06288107892</v>
       </c>
       <c r="CP68" s="9"/>
       <c r="CQ68" s="9"/>
@@ -16472,10 +16474,10 @@
         <v>1027.1601309639761</v>
       </c>
       <c r="CN69" s="11">
-        <v>41.917329586137001</v>
+        <v>43.601481617741278</v>
       </c>
       <c r="CO69" s="11">
-        <v>10.886154564769283</v>
+        <v>10.702323039936408</v>
       </c>
       <c r="CP69" s="9"/>
       <c r="CQ69" s="9"/>
@@ -16797,25 +16799,25 @@
         <v>1448.1343027412383</v>
       </c>
       <c r="CI70" s="11">
-        <v>8562.482089070525</v>
+        <v>8591.4789033688157</v>
       </c>
       <c r="CJ70" s="11">
         <v>2239.9525460572077</v>
       </c>
       <c r="CK70" s="11">
-        <v>17011.45122004909</v>
+        <v>17011.446015645281</v>
       </c>
       <c r="CL70" s="11">
-        <v>14299.381189960224</v>
+        <v>14282.981918436471</v>
       </c>
       <c r="CM70" s="11">
-        <v>10756.161476932277</v>
+        <v>10605.219253329671</v>
       </c>
       <c r="CN70" s="11">
-        <v>4422.6855828104217</v>
+        <v>4425.0765158350632</v>
       </c>
       <c r="CO70" s="11">
-        <v>4519.7070483536709</v>
+        <v>4548.9454215379565</v>
       </c>
       <c r="CP70" s="9"/>
       <c r="CQ70" s="9"/>
@@ -17134,7 +17136,7 @@
         <v>895.31046279750126</v>
       </c>
       <c r="CH71" s="11">
-        <v>6598.5780080170871</v>
+        <v>6598.5811305210827</v>
       </c>
       <c r="CI71" s="11">
         <v>1509.2761680538472</v>
@@ -17146,16 +17148,16 @@
         <v>1673.6003605444853</v>
       </c>
       <c r="CL71" s="11">
-        <v>7857.4330842353402</v>
+        <v>7863.217407514896</v>
       </c>
       <c r="CM71" s="11">
-        <v>12973.996282608967</v>
+        <v>12974.003679213727</v>
       </c>
       <c r="CN71" s="11">
-        <v>4986.5052471304152</v>
+        <v>4985.4645054363455</v>
       </c>
       <c r="CO71" s="11">
-        <v>4045.2631411187904</v>
+        <v>3994.183415943829</v>
       </c>
       <c r="CP71" s="9"/>
       <c r="CQ71" s="9"/>
@@ -17474,28 +17476,28 @@
         <v>39056.838552932059</v>
       </c>
       <c r="CH72" s="8">
-        <v>57322.530854881785</v>
+        <v>57266.814811437871</v>
       </c>
       <c r="CI72" s="8">
-        <v>77256.6267106991</v>
+        <v>77389.540482248194</v>
       </c>
       <c r="CJ72" s="8">
         <v>50921.678456479567</v>
       </c>
       <c r="CK72" s="8">
-        <v>41081.070055137694</v>
+        <v>41639.598916049588</v>
       </c>
       <c r="CL72" s="8">
-        <v>57662.23318614345</v>
+        <v>58252.704456362095</v>
       </c>
       <c r="CM72" s="8">
-        <v>76955.64956547285</v>
+        <v>75840.342753787176</v>
       </c>
       <c r="CN72" s="8">
-        <v>47878.16255463213</v>
+        <v>46761.425515761221</v>
       </c>
       <c r="CO72" s="8">
-        <v>41928.453650453659</v>
+        <v>40473.680125573919</v>
       </c>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
@@ -17817,25 +17819,25 @@
         <v>4859.84384366423</v>
       </c>
       <c r="CI73" s="11">
-        <v>8344.0239500626049</v>
+        <v>8344.0413587195926</v>
       </c>
       <c r="CJ73" s="11">
         <v>3853.6409002357977</v>
       </c>
       <c r="CK73" s="11">
-        <v>2432.6444929756008</v>
+        <v>2429.9848975317846</v>
       </c>
       <c r="CL73" s="11">
-        <v>4683.5995618951329</v>
+        <v>4674.898316141449</v>
       </c>
       <c r="CM73" s="11">
-        <v>6590.1993565525727</v>
+        <v>6619.0926723367329</v>
       </c>
       <c r="CN73" s="11">
-        <v>3638.8348126188002</v>
+        <v>3588.7495327824981</v>
       </c>
       <c r="CO73" s="11">
-        <v>3576.5224369929265</v>
+        <v>3532.2953208946096</v>
       </c>
       <c r="CP73" s="9"/>
       <c r="CQ73" s="9"/>
@@ -18154,28 +18156,28 @@
         <v>6270.4666236352759</v>
       </c>
       <c r="CH74" s="11">
-        <v>11258.642650803366</v>
+        <v>11208.929355532269</v>
       </c>
       <c r="CI74" s="11">
-        <v>13051.603763302017</v>
+        <v>13170.546986311489</v>
       </c>
       <c r="CJ74" s="11">
         <v>7162.8336538555195</v>
       </c>
       <c r="CK74" s="11">
-        <v>6943.62473199126</v>
+        <v>6962.3940114241905</v>
       </c>
       <c r="CL74" s="11">
-        <v>11434.698648295172</v>
+        <v>11436.226301684081</v>
       </c>
       <c r="CM74" s="11">
-        <v>11812.849070937744</v>
+        <v>11835.610697793134</v>
       </c>
       <c r="CN74" s="11">
-        <v>6318.8080810705678</v>
+        <v>5928.4090057165213</v>
       </c>
       <c r="CO74" s="11">
-        <v>6732.9304901212308</v>
+        <v>6736.9173027245652</v>
       </c>
       <c r="CP74" s="9"/>
       <c r="CQ74" s="9"/>
@@ -18494,28 +18496,28 @@
         <v>19075.895362324642</v>
       </c>
       <c r="CH75" s="11">
-        <v>23213.513806998541</v>
+        <v>23206.762776409687</v>
       </c>
       <c r="CI75" s="11">
-        <v>39711.128326152975</v>
+        <v>39725.081466035612</v>
       </c>
       <c r="CJ75" s="11">
         <v>30484.388651556059</v>
       </c>
       <c r="CK75" s="11">
-        <v>21824.17496025905</v>
+        <v>22366.618873448107</v>
       </c>
       <c r="CL75" s="11">
-        <v>27542.821618566464</v>
+        <v>27593.149041112589</v>
       </c>
       <c r="CM75" s="11">
-        <v>42566.01365475796</v>
+        <v>41840.004529580372</v>
       </c>
       <c r="CN75" s="11">
-        <v>28562.492818752173</v>
+        <v>28062.285735924481</v>
       </c>
       <c r="CO75" s="11">
-        <v>21485.173560053263</v>
+        <v>21552.231177120528</v>
       </c>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
@@ -18834,7 +18836,7 @@
         <v>10310.740458331686</v>
       </c>
       <c r="CH76" s="11">
-        <v>17990.530553415647</v>
+        <v>17991.278835831683</v>
       </c>
       <c r="CI76" s="11">
         <v>16149.870671181499</v>
@@ -18843,19 +18845,19 @@
         <v>9420.8152508321909</v>
       </c>
       <c r="CK76" s="11">
-        <v>9880.6258699117825</v>
+        <v>9880.6011336455031</v>
       </c>
       <c r="CL76" s="11">
-        <v>14001.113357386681</v>
+        <v>14548.430797423976</v>
       </c>
       <c r="CM76" s="11">
-        <v>15986.587483224583</v>
+        <v>15545.634854076947</v>
       </c>
       <c r="CN76" s="11">
-        <v>9358.026842190593</v>
+        <v>9181.9812413377222</v>
       </c>
       <c r="CO76" s="11">
-        <v>10133.827163286238</v>
+        <v>8652.2363248342153</v>
       </c>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
@@ -19327,28 +19329,28 @@
         <v>273867.89183154679</v>
       </c>
       <c r="CH78" s="13">
-        <v>306580.36575350026</v>
+        <v>306524.62704037956</v>
       </c>
       <c r="CI78" s="13">
-        <v>266077.02646759909</v>
+        <v>266853.91359111911</v>
       </c>
       <c r="CJ78" s="13">
-        <v>261787.65936528501</v>
+        <v>259552.24492179352</v>
       </c>
       <c r="CK78" s="13">
-        <v>288850.75605405151</v>
+        <v>288072.14334349486</v>
       </c>
       <c r="CL78" s="13">
-        <v>336852.76160033734</v>
+        <v>334220.38782836311</v>
       </c>
       <c r="CM78" s="13">
-        <v>297712.8848970643</v>
+        <v>293929.59065379313</v>
       </c>
       <c r="CN78" s="13">
-        <v>293545.7771224819</v>
+        <v>290438.74926655937</v>
       </c>
       <c r="CO78" s="13">
-        <v>299427.93198759208</v>
+        <v>295498.23576939176</v>
       </c>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
@@ -19853,7 +19855,7 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.2">
@@ -19863,7 +19865,7 @@
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
@@ -20531,28 +20533,28 @@
         <v>-9.1599306779590393</v>
       </c>
       <c r="CD94" s="18">
-        <v>7.554807524423552</v>
+        <v>7.5551159352717434</v>
       </c>
       <c r="CE94" s="18">
-        <v>77.207406904645637</v>
+        <v>77.229415414040176</v>
       </c>
       <c r="CF94" s="18">
         <v>8.045195373206667</v>
       </c>
       <c r="CG94" s="18">
-        <v>13.623182591891364</v>
+        <v>13.64895759038572</v>
       </c>
       <c r="CH94" s="18">
-        <v>5.9563864182373294</v>
+        <v>6.1251406348889788</v>
       </c>
       <c r="CI94" s="18">
-        <v>2.6161754643462274</v>
+        <v>3.0511874687070133</v>
       </c>
       <c r="CJ94" s="18">
-        <v>3.425437305934409</v>
+        <v>1.9553272524429417</v>
       </c>
       <c r="CK94" s="18">
-        <v>-3.9312576168945697</v>
+        <v>-3.1423218361062197</v>
       </c>
       <c r="CL94" s="18"/>
       <c r="CM94" s="18"/>
@@ -20867,19 +20869,19 @@
         <v>62.33101711424527</v>
       </c>
       <c r="CG95" s="18">
-        <v>-4.1281209099229415</v>
+        <v>-4.188521939889938</v>
       </c>
       <c r="CH95" s="18">
-        <v>-53.352764125926093</v>
+        <v>-53.344538507308783</v>
       </c>
       <c r="CI95" s="18">
-        <v>-37.820869722104511</v>
+        <v>-37.814638398067835</v>
       </c>
       <c r="CJ95" s="18">
-        <v>-24.896275717352566</v>
+        <v>-33.060764437560834</v>
       </c>
       <c r="CK95" s="18">
-        <v>-33.616920739090403</v>
+        <v>-33.890668245748373</v>
       </c>
       <c r="CL95" s="18"/>
       <c r="CM95" s="18"/>
@@ -21194,19 +21196,19 @@
         <v>63.66864381919109</v>
       </c>
       <c r="CG96" s="18">
-        <v>130.20822804217076</v>
+        <v>130.26692295493456</v>
       </c>
       <c r="CH96" s="18">
-        <v>46.768244217420147</v>
+        <v>46.86208619453393</v>
       </c>
       <c r="CI96" s="18">
-        <v>-4.9762495509968971</v>
+        <v>-4.9265836574562627</v>
       </c>
       <c r="CJ96" s="18">
-        <v>12.35214952192969</v>
+        <v>12.364558313729361</v>
       </c>
       <c r="CK96" s="18">
-        <v>13.025401998287876</v>
+        <v>11.252850114661285</v>
       </c>
       <c r="CL96" s="18"/>
       <c r="CM96" s="18"/>
@@ -21524,16 +21526,16 @@
         <v>43.894348508524899</v>
       </c>
       <c r="CH97" s="18">
-        <v>37.325442809095932</v>
+        <v>37.903771816002404</v>
       </c>
       <c r="CI97" s="18">
-        <v>39.150393492462655</v>
+        <v>39.264825429824839</v>
       </c>
       <c r="CJ97" s="18">
-        <v>22.797571506964616</v>
+        <v>23.315170400232944</v>
       </c>
       <c r="CK97" s="18">
-        <v>19.158609875559534</v>
+        <v>22.780147339555285</v>
       </c>
       <c r="CL97" s="18"/>
       <c r="CM97" s="18"/>
@@ -21851,16 +21853,16 @@
         <v>-1.0762269296704687</v>
       </c>
       <c r="CH98" s="18">
-        <v>-12.290883029437509</v>
+        <v>-12.178833166143534</v>
       </c>
       <c r="CI98" s="18">
-        <v>6.2638597947185986</v>
+        <v>6.2991227050715963</v>
       </c>
       <c r="CJ98" s="18">
-        <v>23.612965530303526</v>
+        <v>21.011231134578367</v>
       </c>
       <c r="CK98" s="18">
-        <v>38.377832280093799</v>
+        <v>39.670564594574842</v>
       </c>
       <c r="CL98" s="18"/>
       <c r="CM98" s="18"/>
@@ -22166,28 +22168,28 @@
         <v>-40.599952614840554</v>
       </c>
       <c r="CD99" s="18">
-        <v>-19.551008519188642</v>
+        <v>-19.548046540033809</v>
       </c>
       <c r="CE99" s="18">
-        <v>33.60109463983062</v>
+        <v>33.838157530227051</v>
       </c>
       <c r="CF99" s="18">
         <v>15.217319796958975</v>
       </c>
       <c r="CG99" s="18">
-        <v>29.640394579010916</v>
+        <v>29.616827333113235</v>
       </c>
       <c r="CH99" s="18">
-        <v>38.803435698953251</v>
+        <v>38.86179519141362</v>
       </c>
       <c r="CI99" s="18">
-        <v>-19.366687495187435</v>
+        <v>-15.370271969392348</v>
       </c>
       <c r="CJ99" s="18">
-        <v>-12.265050575864294</v>
+        <v>-22.198300481783136</v>
       </c>
       <c r="CK99" s="18">
-        <v>12.038978045921482</v>
+        <v>10.620130913081653</v>
       </c>
       <c r="CL99" s="18"/>
       <c r="CM99" s="18"/>
@@ -22493,7 +22495,7 @@
         <v>17.241888614235449</v>
       </c>
       <c r="CD100" s="18">
-        <v>18.288554921420896</v>
+        <v>18.288606001995646</v>
       </c>
       <c r="CE100" s="18">
         <v>85.206709165126938</v>
@@ -22502,19 +22504,19 @@
         <v>-17.973000487675677</v>
       </c>
       <c r="CG100" s="18">
-        <v>-9.5586610825496479</v>
+        <v>-9.652510789114416</v>
       </c>
       <c r="CH100" s="18">
-        <v>4.7067247940396584</v>
+        <v>4.9102285791518909</v>
       </c>
       <c r="CI100" s="18">
-        <v>15.77220481018351</v>
+        <v>16.084646492373381</v>
       </c>
       <c r="CJ100" s="18">
-        <v>4.9526499017840138</v>
+        <v>5.7693608024947025</v>
       </c>
       <c r="CK100" s="18">
-        <v>-9.2253709879722834</v>
+        <v>-7.2462550615598929</v>
       </c>
       <c r="CL100" s="18"/>
       <c r="CM100" s="18"/>
@@ -22832,16 +22834,16 @@
         <v>32.94006873531697</v>
       </c>
       <c r="CH101" s="18">
-        <v>-51.910426577165616</v>
+        <v>-51.878390452680328</v>
       </c>
       <c r="CI101" s="18">
-        <v>23.520488319364603</v>
+        <v>23.539674162978969</v>
       </c>
       <c r="CJ101" s="18">
-        <v>-46.770273771319026</v>
+        <v>-52.386673870408515</v>
       </c>
       <c r="CK101" s="18">
-        <v>-12.763914546856654</v>
+        <v>-13.742990700988315</v>
       </c>
       <c r="CL101" s="18"/>
       <c r="CM101" s="18"/>
@@ -23147,28 +23149,28 @@
         <v>-30.249509625500011</v>
       </c>
       <c r="CD102" s="18">
-        <v>20.977205178049147</v>
+        <v>20.97798507975466</v>
       </c>
       <c r="CE102" s="18">
-        <v>76.872976240622506</v>
+        <v>76.873285350940193</v>
       </c>
       <c r="CF102" s="18">
         <v>23.794731559441701</v>
       </c>
       <c r="CG102" s="18">
-        <v>36.744611556643918</v>
+        <v>37.358117999764119</v>
       </c>
       <c r="CH102" s="18">
-        <v>16.653104166163388</v>
+        <v>16.885381976653633</v>
       </c>
       <c r="CI102" s="18">
-        <v>2.6013561971939652</v>
+        <v>2.6557017340803668</v>
       </c>
       <c r="CJ102" s="18">
-        <v>17.166938537311864</v>
+        <v>17.705885139877338</v>
       </c>
       <c r="CK102" s="18">
-        <v>-2.3658757184928874</v>
+        <v>-0.88709604137297049</v>
       </c>
       <c r="CL102" s="18"/>
       <c r="CM102" s="18"/>
@@ -23474,28 +23476,28 @@
         <v>-19.097193806477591</v>
       </c>
       <c r="CD103" s="18">
-        <v>-15.491315628409382</v>
+        <v>-15.491645965350415</v>
       </c>
       <c r="CE103" s="18">
-        <v>23.876329731456323</v>
+        <v>23.876339768028544</v>
       </c>
       <c r="CF103" s="18">
-        <v>6.507145479130287</v>
+        <v>2.8380156192044268</v>
       </c>
       <c r="CG103" s="18">
-        <v>4.4922218583526359</v>
+        <v>4.4810537778593869</v>
       </c>
       <c r="CH103" s="18">
-        <v>11.174851260938894</v>
+        <v>11.006483802335978</v>
       </c>
       <c r="CI103" s="18">
-        <v>23.307675698351531</v>
+        <v>21.983571923532637</v>
       </c>
       <c r="CJ103" s="18">
-        <v>28.293189833795395</v>
+        <v>29.820586378026604</v>
       </c>
       <c r="CK103" s="18">
-        <v>33.593479092207104</v>
+        <v>32.975084605904556</v>
       </c>
       <c r="CL103" s="18"/>
       <c r="CM103" s="18"/>
@@ -23801,7 +23803,7 @@
         <v>-24.136190680570962</v>
       </c>
       <c r="CD104" s="18">
-        <v>-25.788663940199243</v>
+        <v>-25.791789441796922</v>
       </c>
       <c r="CE104" s="18">
         <v>67.396187206006317</v>
@@ -23810,19 +23812,19 @@
         <v>-8.7417525182627855</v>
       </c>
       <c r="CG104" s="18">
-        <v>19.339228791861956</v>
+        <v>19.339301009549175</v>
       </c>
       <c r="CH104" s="18">
-        <v>20.99462595149015</v>
+        <v>22.080170829144933</v>
       </c>
       <c r="CI104" s="18">
-        <v>38.057103178436762</v>
+        <v>38.654934108732135</v>
       </c>
       <c r="CJ104" s="18">
-        <v>28.100463867375083</v>
+        <v>25.942721233392959</v>
       </c>
       <c r="CK104" s="18">
-        <v>18.927963361320693</v>
+        <v>19.731184714463737</v>
       </c>
       <c r="CL104" s="18"/>
       <c r="CM104" s="18"/>
@@ -24137,19 +24139,19 @@
         <v>5.4580549993393959</v>
       </c>
       <c r="CG105" s="18">
-        <v>3.9901137427672069</v>
+        <v>3.9971963751189747</v>
       </c>
       <c r="CH105" s="18">
-        <v>17.693544952075626</v>
+        <v>18.276798562292157</v>
       </c>
       <c r="CI105" s="18">
-        <v>10.952408830470532</v>
+        <v>11.209930509008757</v>
       </c>
       <c r="CJ105" s="18">
-        <v>1.7870009360090364</v>
+        <v>2.5781858659392753</v>
       </c>
       <c r="CK105" s="18">
-        <v>33.709326033340346</v>
+        <v>33.960591444513767</v>
       </c>
       <c r="CL105" s="18"/>
       <c r="CM105" s="18"/>
@@ -24458,25 +24460,25 @@
         <v>11.067682399946889</v>
       </c>
       <c r="CE106" s="18">
-        <v>-1.674075179773439</v>
+        <v>-1.6740483699649502</v>
       </c>
       <c r="CF106" s="18">
-        <v>16.860799645505125</v>
+        <v>5.2508526209682884</v>
       </c>
       <c r="CG106" s="18">
-        <v>-17.396703866848469</v>
+        <v>-17.447440101700636</v>
       </c>
       <c r="CH106" s="18">
-        <v>-2.6789244444356655</v>
+        <v>-2.5865652031052235</v>
       </c>
       <c r="CI106" s="18">
-        <v>14.206009255546689</v>
+        <v>12.535090777398963</v>
       </c>
       <c r="CJ106" s="18">
-        <v>51.224840872866565</v>
+        <v>66.529835770809456</v>
       </c>
       <c r="CK106" s="18">
-        <v>84.667981868547088</v>
+        <v>80.427362585648609</v>
       </c>
       <c r="CL106" s="18"/>
       <c r="CM106" s="18"/>
@@ -24782,7 +24784,7 @@
         <v>-19.39298617035638</v>
       </c>
       <c r="CD107" s="18">
-        <v>-24.16005894461334</v>
+        <v>-24.1596053308687</v>
       </c>
       <c r="CE107" s="18">
         <v>24.014785422011656</v>
@@ -24791,19 +24793,19 @@
         <v>5.6083975006386595</v>
       </c>
       <c r="CG107" s="18">
-        <v>17.058714065400423</v>
+        <v>17.072056525088385</v>
       </c>
       <c r="CH107" s="18">
-        <v>14.868288927243213</v>
+        <v>13.957665467836122</v>
       </c>
       <c r="CI107" s="18">
-        <v>27.441307735300342</v>
+        <v>25.016646536381998</v>
       </c>
       <c r="CJ107" s="18">
-        <v>15.301278528935811</v>
+        <v>9.4396873044716187</v>
       </c>
       <c r="CK107" s="18">
-        <v>8.3360528531216289</v>
+        <v>9.0861896397864683</v>
       </c>
       <c r="CL107" s="18"/>
       <c r="CM107" s="18"/>
@@ -25109,28 +25111,28 @@
         <v>-39.986808121274628</v>
       </c>
       <c r="CD108" s="18">
-        <v>-22.31744488622104</v>
+        <v>-22.317442628124923</v>
       </c>
       <c r="CE108" s="18">
-        <v>155.9492643230956</v>
+        <v>157.30465152376519</v>
       </c>
       <c r="CF108" s="18">
-        <v>15.239184139817525</v>
+        <v>14.575277152858646</v>
       </c>
       <c r="CG108" s="18">
-        <v>15.702028895471514</v>
+        <v>14.852421842599256</v>
       </c>
       <c r="CH108" s="18">
-        <v>31.593207500477547</v>
+        <v>31.522448333867601</v>
       </c>
       <c r="CI108" s="18">
-        <v>40.427767136317357</v>
+        <v>39.990278518869985</v>
       </c>
       <c r="CJ108" s="18">
-        <v>54.254937210818809</v>
+        <v>55.272330577548416</v>
       </c>
       <c r="CK108" s="18">
-        <v>21.745838170456892</v>
+        <v>21.739786651774935</v>
       </c>
       <c r="CL108" s="18"/>
       <c r="CM108" s="18"/>
@@ -25439,25 +25441,25 @@
         <v>-23.227949698205435</v>
       </c>
       <c r="CE109" s="18">
-        <v>178.85947637899375</v>
+        <v>180.39587825761066</v>
       </c>
       <c r="CF109" s="18">
-        <v>14.14871809755445</v>
+        <v>13.461805049687143</v>
       </c>
       <c r="CG109" s="18">
-        <v>2.7367279520429832</v>
+        <v>1.82151475492374</v>
       </c>
       <c r="CH109" s="18">
-        <v>20.040082463289238</v>
+        <v>19.966643786572092</v>
       </c>
       <c r="CI109" s="18">
-        <v>28.527224244693201</v>
+        <v>28.13424638491648</v>
       </c>
       <c r="CJ109" s="18">
-        <v>49.478178538755344</v>
+        <v>50.504379900199325</v>
       </c>
       <c r="CK109" s="18">
-        <v>37.900467704921539</v>
+        <v>38.066324328804001</v>
       </c>
       <c r="CL109" s="18"/>
       <c r="CM109" s="18"/>
@@ -25781,10 +25783,10 @@
         <v>42</v>
       </c>
       <c r="CJ110" s="18">
-        <v>-95.387005146913367</v>
+        <v>-95.199993692324838</v>
       </c>
       <c r="CK110" s="18">
-        <v>-99.543627235197079</v>
+        <v>-99.551333877680136</v>
       </c>
       <c r="CL110" s="18"/>
       <c r="CM110" s="18"/>
@@ -26093,25 +26095,25 @@
         <v>-85.562786108972261</v>
       </c>
       <c r="CE111" s="18">
-        <v>171.07620351521712</v>
+        <v>171.99419563202315</v>
       </c>
       <c r="CF111" s="18">
         <v>8.1474514073661908</v>
       </c>
       <c r="CG111" s="18">
-        <v>193.31762104050796</v>
+        <v>193.31753119766216</v>
       </c>
       <c r="CH111" s="18" t="s">
         <v>42</v>
       </c>
       <c r="CI111" s="18">
-        <v>41.403297066243425</v>
+        <v>41.161200580763136</v>
       </c>
       <c r="CJ111" s="18">
-        <v>123.64864403928286</v>
+        <v>123.84326574999412</v>
       </c>
       <c r="CK111" s="18">
-        <v>-68.824051214918995</v>
+        <v>-68.660450439804279</v>
       </c>
       <c r="CL111" s="18"/>
       <c r="CM111" s="18"/>
@@ -26417,7 +26419,7 @@
         <v>-72.983613037786682</v>
       </c>
       <c r="CD112" s="18">
-        <v>474.41176968125046</v>
+        <v>474.41204963138034</v>
       </c>
       <c r="CE112" s="18">
         <v>-65.697952212027616</v>
@@ -26429,16 +26431,16 @@
         <v>106.10734652779672</v>
       </c>
       <c r="CH112" s="18">
-        <v>27.795555644041741</v>
+        <v>27.892788033728323</v>
       </c>
       <c r="CI112" s="18">
-        <v>867.42064633686959</v>
+        <v>867.42119785731757</v>
       </c>
       <c r="CJ112" s="18">
-        <v>607.11976440440071</v>
+        <v>607.22176991702327</v>
       </c>
       <c r="CK112" s="18">
-        <v>190.01209600896419</v>
+        <v>186.47284241674464</v>
       </c>
       <c r="CL112" s="18"/>
       <c r="CM112" s="18"/>
@@ -26744,28 +26746,28 @@
         <v>-23.269177098268898</v>
       </c>
       <c r="CD113" s="18">
-        <v>-1.8120179063423052</v>
+        <v>-1.9054171554315928</v>
       </c>
       <c r="CE113" s="18">
-        <v>69.50772378378781</v>
+        <v>69.758218376962304</v>
       </c>
       <c r="CF113" s="18">
         <v>9.227035781109393</v>
       </c>
       <c r="CG113" s="18">
-        <v>12.082986700944303</v>
+        <v>13.795784056774622</v>
       </c>
       <c r="CH113" s="18">
-        <v>11.628904628439798</v>
+        <v>12.787037653289147</v>
       </c>
       <c r="CI113" s="18">
-        <v>14.351529523611688</v>
+        <v>12.790170482509041</v>
       </c>
       <c r="CJ113" s="18">
-        <v>8.4708740616164135</v>
+        <v>7.0597047775239616</v>
       </c>
       <c r="CK113" s="18">
-        <v>21.323705467884139</v>
+        <v>16.532349124837879</v>
       </c>
       <c r="CL113" s="18"/>
       <c r="CM113" s="18"/>
@@ -27074,25 +27076,25 @@
         <v>19.453043255021015</v>
       </c>
       <c r="CE114" s="18">
-        <v>138.4190514773953</v>
+        <v>138.4195357982326</v>
       </c>
       <c r="CF114" s="18">
         <v>-24.258612264970765</v>
       </c>
       <c r="CG114" s="18">
-        <v>-24.895707891247667</v>
+        <v>-24.983970149678612</v>
       </c>
       <c r="CH114" s="18">
-        <v>7.0251398221914201</v>
+        <v>6.8375003688587981</v>
       </c>
       <c r="CI114" s="18">
-        <v>-6.8203463366640023</v>
+        <v>-6.4284585570598836</v>
       </c>
       <c r="CJ114" s="18">
-        <v>10.122669459670462</v>
+        <v>8.4675580623639064</v>
       </c>
       <c r="CK114" s="18">
-        <v>66.938925147861909</v>
+        <v>66.409150524553638</v>
       </c>
       <c r="CL114" s="18"/>
       <c r="CM114" s="18"/>
@@ -27398,28 +27400,28 @@
         <v>-25.88458977931441</v>
       </c>
       <c r="CD115" s="18">
-        <v>-3.282984841990185</v>
+        <v>-3.7498354158135214</v>
       </c>
       <c r="CE115" s="18">
-        <v>96.814794602023966</v>
+        <v>98.339894486665798</v>
       </c>
       <c r="CF115" s="18">
         <v>8.7051358778078765</v>
       </c>
       <c r="CG115" s="18">
-        <v>20.374645445039775</v>
+        <v>20.883639053939575</v>
       </c>
       <c r="CH115" s="18">
-        <v>13.446705979324719</v>
+        <v>14.011606582142406</v>
       </c>
       <c r="CI115" s="18">
-        <v>5.1748539158880789</v>
+        <v>4.5994707871399783</v>
       </c>
       <c r="CJ115" s="18">
-        <v>3.4661554172493538</v>
+        <v>-3.8516101039552808</v>
       </c>
       <c r="CK115" s="18">
-        <v>9.1592771420106089</v>
+        <v>8.6519988830101653</v>
       </c>
       <c r="CL115" s="18"/>
       <c r="CM115" s="18"/>
@@ -27725,28 +27727,28 @@
         <v>-29.399859605092644</v>
       </c>
       <c r="CD116" s="18">
-        <v>-13.400831211402902</v>
+        <v>-13.42578787696749</v>
       </c>
       <c r="CE116" s="18">
-        <v>38.52174675257146</v>
+        <v>38.593984359545715</v>
       </c>
       <c r="CF116" s="18">
         <v>20.289746833658</v>
       </c>
       <c r="CG116" s="18">
-        <v>21.016809692561452</v>
+        <v>24.181822876965086</v>
       </c>
       <c r="CH116" s="18">
-        <v>28.39334231880872</v>
+        <v>28.625704133191931</v>
       </c>
       <c r="CI116" s="18">
-        <v>20.813758731072298</v>
+        <v>19.659245970068056</v>
       </c>
       <c r="CJ116" s="18">
-        <v>6.6840912546485498</v>
+        <v>7.0506750167997723</v>
       </c>
       <c r="CK116" s="18">
-        <v>16.945973869965968</v>
+        <v>14.396255255301497</v>
       </c>
       <c r="CL116" s="18"/>
       <c r="CM116" s="18"/>
@@ -28052,7 +28054,7 @@
         <v>-24.178833913673657</v>
       </c>
       <c r="CD117" s="18">
-        <v>16.886563159188611</v>
+        <v>16.892949985904067</v>
       </c>
       <c r="CE117" s="18">
         <v>113.17447838850035</v>
@@ -28061,19 +28063,19 @@
         <v>3.0179526763156446</v>
       </c>
       <c r="CG117" s="18">
-        <v>6.2333798308791728</v>
+        <v>6.2329198145773006</v>
       </c>
       <c r="CH117" s="18">
-        <v>-13.284304718807661</v>
+        <v>-10.005750144542432</v>
       </c>
       <c r="CI117" s="18">
-        <v>15.615035863688092</v>
+        <v>12.186245779481439</v>
       </c>
       <c r="CJ117" s="18">
-        <v>17.999862493465329</v>
+        <v>15.934405161100301</v>
       </c>
       <c r="CK117" s="18">
-        <v>24.057399153743347</v>
+        <v>7.414953349529199</v>
       </c>
       <c r="CL117" s="18"/>
       <c r="CM117" s="18"/>
@@ -28527,28 +28529,28 @@
         <v>-29.184476197355053</v>
       </c>
       <c r="CD119" s="23">
-        <v>-12.651270235408987</v>
+        <v>-12.667372208338264</v>
       </c>
       <c r="CE119" s="23">
-        <v>86.415593055466644</v>
+        <v>86.897329532253906</v>
       </c>
       <c r="CF119" s="23">
-        <v>10.984380068771344</v>
+        <v>9.9860928027955396</v>
       </c>
       <c r="CG119" s="23">
-        <v>12.6661177166973</v>
+        <v>12.619849421586565</v>
       </c>
       <c r="CH119" s="23">
-        <v>19.014574867620752</v>
+        <v>19.214805593027222</v>
       </c>
       <c r="CI119" s="23">
-        <v>24.55493969190357</v>
+        <v>23.929976203074844</v>
       </c>
       <c r="CJ119" s="23">
-        <v>31.107942896964659</v>
+        <v>31.238558845551239</v>
       </c>
       <c r="CK119" s="23">
-        <v>18.499638886890239</v>
+        <v>17.629840372568012</v>
       </c>
       <c r="CL119" s="23"/>
       <c r="CM119" s="23"/>
@@ -29020,7 +29022,7 @@
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.2">
@@ -29030,7 +29032,7 @@
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.2">
@@ -29698,28 +29700,28 @@
         <v>-10.179870634280832</v>
       </c>
       <c r="CD135" s="18">
-        <v>14.445636636802519</v>
+        <v>14.445958438340739</v>
       </c>
       <c r="CE135" s="18">
-        <v>85.018928416869414</v>
+        <v>85.031586576302374</v>
       </c>
       <c r="CF135" s="18">
-        <v>2.640413974929956</v>
+        <v>2.6404139749299276</v>
       </c>
       <c r="CG135" s="18">
-        <v>9.0817585343034182</v>
+        <v>9.1391874188246902</v>
       </c>
       <c r="CH135" s="18">
-        <v>-2.5132660211136368</v>
+        <v>-2.3350047661669748</v>
       </c>
       <c r="CI135" s="18">
-        <v>-5.0428689849541541</v>
+        <v>-5.3809941142974935</v>
       </c>
       <c r="CJ135" s="18">
-        <v>-10.535342695604939</v>
+        <v>-11.734155453728491</v>
       </c>
       <c r="CK135" s="18">
-        <v>-16.263123831990285</v>
+        <v>-15.743263847795319</v>
       </c>
       <c r="CL135" s="18"/>
       <c r="CM135" s="18"/>
@@ -30034,19 +30036,19 @@
         <v>55.321291299495044</v>
       </c>
       <c r="CG136" s="18">
-        <v>-13.987641583440777</v>
+        <v>-14.04216901113648</v>
       </c>
       <c r="CH136" s="18">
-        <v>-59.737434483406673</v>
+        <v>-59.729085836643556</v>
       </c>
       <c r="CI136" s="18">
-        <v>-47.062223520576474</v>
+        <v>-47.053370426216681</v>
       </c>
       <c r="CJ136" s="18">
-        <v>-36.320241518703234</v>
+        <v>-43.277484455107505</v>
       </c>
       <c r="CK136" s="18">
-        <v>-44.749251159996774</v>
+        <v>-44.984597890591893</v>
       </c>
       <c r="CL136" s="18"/>
       <c r="CM136" s="18"/>
@@ -30361,19 +30363,19 @@
         <v>56.752808514306139</v>
       </c>
       <c r="CG137" s="18">
-        <v>107.50302994950093</v>
+        <v>107.55644637620131</v>
       </c>
       <c r="CH137" s="18">
-        <v>26.810455072434337</v>
+        <v>26.897067758200393</v>
       </c>
       <c r="CI137" s="18">
-        <v>-19.08449113756609</v>
+        <v>-19.032300343124163</v>
       </c>
       <c r="CJ137" s="18">
-        <v>-4.4988010727972494</v>
+        <v>-4.5592336380757104</v>
       </c>
       <c r="CK137" s="18">
-        <v>-5.6024911786158356</v>
+        <v>-7.0870870005981885</v>
       </c>
       <c r="CL137" s="18"/>
       <c r="CM137" s="18"/>
@@ -30691,16 +30693,16 @@
         <v>19.65878425915632</v>
       </c>
       <c r="CH138" s="18">
-        <v>26.318167037848056</v>
+        <v>26.929283727745144</v>
       </c>
       <c r="CI138" s="18">
-        <v>14.649954876192538</v>
+        <v>14.883000098225267</v>
       </c>
       <c r="CJ138" s="18">
-        <v>16.376328769206168</v>
+        <v>16.841999856314274</v>
       </c>
       <c r="CK138" s="18">
-        <v>21.004352952220628</v>
+        <v>24.607617638788867</v>
       </c>
       <c r="CL138" s="18"/>
       <c r="CM138" s="18"/>
@@ -31018,16 +31020,16 @@
         <v>-16.273041603426719</v>
       </c>
       <c r="CH139" s="18">
-        <v>-22.348439293484219</v>
+        <v>-22.212743998844417</v>
       </c>
       <c r="CI139" s="18">
-        <v>-7.7518220140517826</v>
+        <v>-7.6597463475839191</v>
       </c>
       <c r="CJ139" s="18">
-        <v>6.5399953090524718</v>
+        <v>4.2463689579731749</v>
       </c>
       <c r="CK139" s="18">
-        <v>26.48483321195441</v>
+        <v>27.580786526889469</v>
       </c>
       <c r="CL139" s="18"/>
       <c r="CM139" s="18"/>
@@ -31333,28 +31335,28 @@
         <v>-39.153684517053797</v>
       </c>
       <c r="CD140" s="18">
-        <v>-15.875768849724196</v>
+        <v>-15.872675549777199</v>
       </c>
       <c r="CE140" s="18">
-        <v>36.930116453034998</v>
+        <v>37.163208218769512</v>
       </c>
       <c r="CF140" s="18">
         <v>10.198099294088507</v>
       </c>
       <c r="CG140" s="18">
-        <v>15.672422222808933</v>
+        <v>15.650883243365271</v>
       </c>
       <c r="CH140" s="18">
-        <v>20.120418533350517</v>
+        <v>20.180165285247526</v>
       </c>
       <c r="CI140" s="18">
-        <v>-30.216119706078771</v>
+        <v>-26.958439220962248</v>
       </c>
       <c r="CJ140" s="18">
-        <v>-25.068860096716932</v>
+        <v>-33.551735640290886</v>
       </c>
       <c r="CK140" s="18">
-        <v>-5.3559344784376322</v>
+        <v>-6.585756202320141</v>
       </c>
       <c r="CL140" s="18"/>
       <c r="CM140" s="18"/>
@@ -31660,28 +31662,28 @@
         <v>28.815878593710551</v>
       </c>
       <c r="CD141" s="18">
-        <v>27.503587444001681</v>
+        <v>27.503633280645886</v>
       </c>
       <c r="CE141" s="18">
         <v>95.26683055115214</v>
       </c>
       <c r="CF141" s="18">
-        <v>-21.179392025692209</v>
+        <v>-21.179392025692252</v>
       </c>
       <c r="CG141" s="18">
-        <v>-14.755584022948327</v>
+        <v>-14.833928131992252</v>
       </c>
       <c r="CH141" s="18">
-        <v>0.54807061652866196</v>
+        <v>0.76727145465345359</v>
       </c>
       <c r="CI141" s="18">
-        <v>2.0552570920002324</v>
+        <v>1.3051428721061455</v>
       </c>
       <c r="CJ141" s="18">
-        <v>-9.3136191849951473</v>
+        <v>-8.6271866798919064</v>
       </c>
       <c r="CK141" s="18">
-        <v>-21.66111708650044</v>
+        <v>-19.760942605162967</v>
       </c>
       <c r="CL141" s="18"/>
       <c r="CM141" s="18"/>
@@ -31999,16 +32001,16 @@
         <v>18.78692502203107</v>
       </c>
       <c r="CH142" s="18">
-        <v>-58.189099115514793</v>
+        <v>-58.156698070503353</v>
       </c>
       <c r="CI142" s="18">
-        <v>4.7161098628991027</v>
+        <v>4.7685592668169363</v>
       </c>
       <c r="CJ142" s="18">
-        <v>-54.420764171578398</v>
+        <v>-59.228528290680082</v>
       </c>
       <c r="CK142" s="18">
-        <v>-26.709878652277695</v>
+        <v>-27.570405592057696</v>
       </c>
       <c r="CL142" s="18"/>
       <c r="CM142" s="18"/>
@@ -32314,28 +32316,28 @@
         <v>-28.389391939662161</v>
       </c>
       <c r="CD143" s="18">
-        <v>26.216715006977864</v>
+        <v>26.217519975351252</v>
       </c>
       <c r="CE143" s="18">
-        <v>62.378942038983894</v>
+        <v>62.379173081744852</v>
       </c>
       <c r="CF143" s="18">
         <v>21.248126754140898</v>
       </c>
       <c r="CG143" s="18">
-        <v>17.823245377275512</v>
+        <v>18.422772516934998</v>
       </c>
       <c r="CH143" s="18">
-        <v>3.9146469486130258</v>
+        <v>4.1679231234519989</v>
       </c>
       <c r="CI143" s="18">
-        <v>-7.5055681814216371</v>
+        <v>-7.3732348405447681</v>
       </c>
       <c r="CJ143" s="18">
-        <v>4.4191618460993567</v>
+        <v>4.8526234354036859</v>
       </c>
       <c r="CK143" s="18">
-        <v>-10.721296914676856</v>
+        <v>-9.4886638440771236</v>
       </c>
       <c r="CL143" s="18"/>
       <c r="CM143" s="18"/>
@@ -32641,28 +32643,28 @@
         <v>-14.841252418961616</v>
       </c>
       <c r="CD144" s="18">
-        <v>-10.517088402888689</v>
+        <v>-10.517423324779514</v>
       </c>
       <c r="CE144" s="18">
-        <v>29.320946331600481</v>
+        <v>29.320956408858279</v>
       </c>
       <c r="CF144" s="18">
-        <v>3.7995296956026863</v>
+        <v>0.4484033396491327</v>
       </c>
       <c r="CG144" s="18">
-        <v>-2.6011763745850232</v>
+        <v>-2.6106349552136692</v>
       </c>
       <c r="CH144" s="18">
-        <v>3.3637387795443061</v>
+        <v>3.1248979843842051</v>
       </c>
       <c r="CI144" s="18">
-        <v>8.2800489601486049</v>
+        <v>6.179491927787879</v>
       </c>
       <c r="CJ144" s="18">
-        <v>8.5228481726772571</v>
+        <v>9.3615199201706218</v>
       </c>
       <c r="CK144" s="18">
-        <v>20.242700651821565</v>
+        <v>20.04626171891482</v>
       </c>
       <c r="CL144" s="18"/>
       <c r="CM144" s="18"/>
@@ -32968,7 +32970,7 @@
         <v>-19.106464389168778</v>
       </c>
       <c r="CD145" s="18">
-        <v>-22.18456196019585</v>
+        <v>-22.187803613510852</v>
       </c>
       <c r="CE145" s="18">
         <v>72.072579704049758</v>
@@ -32977,19 +32979,19 @@
         <v>-10.828764765247712</v>
       </c>
       <c r="CG145" s="18">
-        <v>4.3304533551946349</v>
+        <v>4.3305163103010358</v>
       </c>
       <c r="CH145" s="18">
-        <v>9.6726621127872505</v>
+        <v>10.712034715199906</v>
       </c>
       <c r="CI145" s="18">
-        <v>17.646826552333692</v>
+        <v>18.380912753906671</v>
       </c>
       <c r="CJ145" s="18">
-        <v>5.781361748676872</v>
+        <v>3.6665640390614271</v>
       </c>
       <c r="CK145" s="18">
-        <v>5.9985560364256685</v>
+        <v>6.8331401942381973</v>
       </c>
       <c r="CL145" s="18"/>
       <c r="CM145" s="18"/>
@@ -33295,7 +33297,7 @@
         <v>-20.492053242997812</v>
       </c>
       <c r="CD146" s="18">
-        <v>-3.4490656746271213</v>
+        <v>-3.4490656746271071</v>
       </c>
       <c r="CE146" s="18">
         <v>68.257206534092916</v>
@@ -33304,19 +33306,19 @@
         <v>1.310049328110253</v>
       </c>
       <c r="CG146" s="18">
-        <v>-4.6894247800634759</v>
+        <v>-4.6829245575441831</v>
       </c>
       <c r="CH146" s="18">
-        <v>6.633897621337411</v>
+        <v>7.1932067086015792</v>
       </c>
       <c r="CI146" s="18">
-        <v>-3.0951475545924438</v>
+        <v>-2.7795460991976313</v>
       </c>
       <c r="CJ146" s="18">
-        <v>-13.837884671219214</v>
+        <v>-13.543036709244944</v>
       </c>
       <c r="CK146" s="18">
-        <v>14.259033064081933</v>
+        <v>14.516318095271671</v>
       </c>
       <c r="CL146" s="18"/>
       <c r="CM146" s="18"/>
@@ -33625,25 +33627,25 @@
         <v>14.162525799200949</v>
       </c>
       <c r="CE147" s="18">
-        <v>2.918862752411826</v>
+        <v>2.9188904828382647</v>
       </c>
       <c r="CF147" s="18">
-        <v>12.541712378867857</v>
+        <v>1.9365009094223495</v>
       </c>
       <c r="CG147" s="18">
-        <v>-26.102351655668514</v>
+        <v>-26.14757488497456</v>
       </c>
       <c r="CH147" s="18">
-        <v>-12.924205657708058</v>
+        <v>-12.8381936578796</v>
       </c>
       <c r="CI147" s="18">
-        <v>-1.620795152815262</v>
+        <v>-3.6429813963982838</v>
       </c>
       <c r="CJ147" s="18">
-        <v>24.691433387953339</v>
+        <v>36.340307497177179</v>
       </c>
       <c r="CK147" s="18">
-        <v>55.772211120929484</v>
+        <v>52.281991598247743</v>
       </c>
       <c r="CL147" s="18"/>
       <c r="CM147" s="18"/>
@@ -33949,7 +33951,7 @@
         <v>-14.691709288811651</v>
       </c>
       <c r="CD148" s="18">
-        <v>-18.016119601571674</v>
+        <v>-18.015652805529854</v>
       </c>
       <c r="CE148" s="18">
         <v>30.14344344687504</v>
@@ -33958,19 +33960,19 @@
         <v>4.4659090960173131</v>
       </c>
       <c r="CG148" s="18">
-        <v>15.345610634314141</v>
+        <v>15.357957160966507</v>
       </c>
       <c r="CH148" s="18">
-        <v>10.152552180896635</v>
+        <v>9.1511273430392919</v>
       </c>
       <c r="CI148" s="18">
-        <v>14.657434498337679</v>
+        <v>10.597580262047558</v>
       </c>
       <c r="CJ148" s="18">
-        <v>1.7201693658621622</v>
+        <v>-3.3917009587127893</v>
       </c>
       <c r="CK148" s="18">
-        <v>8.2114325644829194</v>
+        <v>9.3030225321897291</v>
       </c>
       <c r="CL148" s="18"/>
       <c r="CM148" s="18"/>
@@ -34276,28 +34278,28 @@
         <v>-34.254210717576726</v>
       </c>
       <c r="CD149" s="18">
-        <v>-23.119104070276805</v>
+        <v>-23.119102375827438</v>
       </c>
       <c r="CE149" s="18">
-        <v>161.17742695623753</v>
+        <v>162.56682437862764</v>
       </c>
       <c r="CF149" s="18">
-        <v>9.5719555464975485</v>
+        <v>9.0527942305082405</v>
       </c>
       <c r="CG149" s="18">
-        <v>6.8871199860855512</v>
+        <v>5.8010466063427941</v>
       </c>
       <c r="CH149" s="18">
-        <v>20.958544569804928</v>
+        <v>18.695840650050144</v>
       </c>
       <c r="CI149" s="18">
-        <v>25.250900535839762</v>
+        <v>23.112278566907918</v>
       </c>
       <c r="CJ149" s="18">
-        <v>33.037855661093971</v>
+        <v>33.715772037911478</v>
       </c>
       <c r="CK149" s="18">
-        <v>8.2350976324099889</v>
+        <v>7.2799438838611223</v>
       </c>
       <c r="CL149" s="18"/>
       <c r="CM149" s="18"/>
@@ -34606,25 +34608,25 @@
         <v>-23.875781031431742</v>
       </c>
       <c r="CE150" s="18">
-        <v>185.36726220056107</v>
+        <v>186.94902515991816</v>
       </c>
       <c r="CF150" s="18">
-        <v>8.6174066759161292</v>
+        <v>8.0818287629710284</v>
       </c>
       <c r="CG150" s="18">
-        <v>-3.8910343774208513</v>
+        <v>-5.0531762795365012</v>
       </c>
       <c r="CH150" s="18">
-        <v>12.337492035609145</v>
+        <v>9.9033913110430092</v>
       </c>
       <c r="CI150" s="18">
-        <v>14.287652303199167</v>
+        <v>12.183265094215216</v>
       </c>
       <c r="CJ150" s="18">
-        <v>29.298585386224744</v>
+        <v>29.982738974275804</v>
       </c>
       <c r="CK150" s="18">
-        <v>21.221997274893553</v>
+        <v>20.261766374911858</v>
       </c>
       <c r="CL150" s="18"/>
       <c r="CM150" s="18"/>
@@ -34948,10 +34950,10 @@
         <v>42</v>
       </c>
       <c r="CJ151" s="18">
-        <v>-95.923860724284722</v>
+        <v>-95.760089837396734</v>
       </c>
       <c r="CK151" s="18">
-        <v>-99.61244162055425</v>
+        <v>-99.618986213268911</v>
       </c>
       <c r="CL151" s="18"/>
       <c r="CM151" s="18"/>
@@ -35260,25 +35262,25 @@
         <v>-84.807248823134699</v>
       </c>
       <c r="CE152" s="18">
-        <v>176.09711437228157</v>
+        <v>177.03211624095309</v>
       </c>
       <c r="CF152" s="18">
         <v>2.3324422835390379</v>
       </c>
       <c r="CG152" s="18">
-        <v>170.63853845994663</v>
+        <v>170.63845566205822</v>
       </c>
       <c r="CH152" s="18">
-        <v>887.43474019587029</v>
+        <v>886.30229885443464</v>
       </c>
       <c r="CI152" s="18">
-        <v>25.619666879792334</v>
+        <v>23.438809227259412</v>
       </c>
       <c r="CJ152" s="18">
-        <v>97.445503503870555</v>
+        <v>97.552243846600163</v>
       </c>
       <c r="CK152" s="18">
-        <v>-73.431384601527085</v>
+        <v>-73.259501765139021</v>
       </c>
       <c r="CL152" s="18"/>
       <c r="CM152" s="18"/>
@@ -35584,7 +35586,7 @@
         <v>-70.510356522128774</v>
       </c>
       <c r="CD153" s="18">
-        <v>384.64645432090902</v>
+        <v>384.64668365978912</v>
       </c>
       <c r="CE153" s="18">
         <v>-65.068026689683421</v>
@@ -35596,16 +35598,16 @@
         <v>86.929610463294182</v>
       </c>
       <c r="CH153" s="18">
-        <v>19.077672108881345</v>
+        <v>19.165275867327949</v>
       </c>
       <c r="CI153" s="18">
-        <v>759.61711694808173</v>
+        <v>759.61760702437914</v>
       </c>
       <c r="CJ153" s="18">
-        <v>434.28816834190911</v>
+        <v>434.17665618141132</v>
       </c>
       <c r="CK153" s="18">
-        <v>141.71022165666324</v>
+        <v>138.65813548488782</v>
       </c>
       <c r="CL153" s="18"/>
       <c r="CM153" s="18"/>
@@ -35911,28 +35913,28 @@
         <v>-16.770041625910423</v>
       </c>
       <c r="CD154" s="18">
-        <v>6.1255759674371717</v>
+        <v>6.0224246042134979</v>
       </c>
       <c r="CE154" s="18">
-        <v>70.995252106265269</v>
+        <v>71.289435593716007</v>
       </c>
       <c r="CF154" s="18">
         <v>5.710644959056026</v>
       </c>
       <c r="CG154" s="18">
-        <v>5.1827838022841632</v>
+        <v>6.6128249464360209</v>
       </c>
       <c r="CH154" s="18">
-        <v>0.5926157240364347</v>
+        <v>1.7215723419758149</v>
       </c>
       <c r="CI154" s="18">
-        <v>-0.38958100818109642</v>
+        <v>-2.001817970241575</v>
       </c>
       <c r="CJ154" s="18">
-        <v>-5.9768569970618586</v>
+        <v>-8.1699053660886847</v>
       </c>
       <c r="CK154" s="18">
-        <v>2.0627106211659907</v>
+        <v>-2.800024065616725</v>
       </c>
       <c r="CL154" s="18"/>
       <c r="CM154" s="18"/>
@@ -36241,25 +36243,25 @@
         <v>27.55886169878103</v>
       </c>
       <c r="CE155" s="18">
-        <v>149.37752776604927</v>
+        <v>149.37804805792129</v>
       </c>
       <c r="CF155" s="18">
         <v>-27.627545247642388</v>
       </c>
       <c r="CG155" s="18">
-        <v>-28.44607889438781</v>
+        <v>-28.524308361582541</v>
       </c>
       <c r="CH155" s="18">
-        <v>-3.6265420749859345</v>
+        <v>-3.8055858062989785</v>
       </c>
       <c r="CI155" s="18">
-        <v>-21.018930482538622</v>
+        <v>-20.672820426282684</v>
       </c>
       <c r="CJ155" s="18">
-        <v>-5.5741075304617453</v>
+        <v>-6.8737947907157491</v>
       </c>
       <c r="CK155" s="18">
-        <v>47.021993855671809</v>
+        <v>45.362850793125432</v>
       </c>
       <c r="CL155" s="18"/>
       <c r="CM155" s="18"/>
@@ -36565,28 +36567,28 @@
         <v>-14.498246924423952</v>
       </c>
       <c r="CD156" s="18">
-        <v>5.7874763913977603</v>
+        <v>5.3203646610636923</v>
       </c>
       <c r="CE156" s="18">
-        <v>102.72451629035646</v>
+        <v>104.57200628376327</v>
       </c>
       <c r="CF156" s="18">
         <v>-0.71713749000895177</v>
       </c>
       <c r="CG156" s="18">
-        <v>10.735375032834867</v>
+        <v>11.034703305505715</v>
       </c>
       <c r="CH156" s="18">
-        <v>1.5637408784729985</v>
+        <v>2.0278203113094548</v>
       </c>
       <c r="CI156" s="18">
-        <v>-9.4912067116790269</v>
+        <v>-10.135769531104444</v>
       </c>
       <c r="CJ156" s="18">
-        <v>-11.783403239172529</v>
+        <v>-17.233747254126826</v>
       </c>
       <c r="CK156" s="18">
-        <v>-3.0343552539540468</v>
+        <v>-3.2384939480537014</v>
       </c>
       <c r="CL156" s="18"/>
       <c r="CM156" s="18"/>
@@ -36892,28 +36894,28 @@
         <v>-24.260529209834786</v>
       </c>
       <c r="CD157" s="18">
-        <v>-7.9936810634940372</v>
+        <v>-8.0204386443873261</v>
       </c>
       <c r="CE157" s="18">
-        <v>42.196937757823662</v>
+        <v>42.246900925506083</v>
       </c>
       <c r="CF157" s="18">
         <v>17.342286995723427</v>
       </c>
       <c r="CG157" s="18">
-        <v>14.407080484213225</v>
+        <v>17.250689672070266</v>
       </c>
       <c r="CH157" s="18">
-        <v>18.649946094169948</v>
+        <v>18.901327630072487</v>
       </c>
       <c r="CI157" s="18">
-        <v>7.1891317344534116</v>
+        <v>5.3238986189442841</v>
       </c>
       <c r="CJ157" s="18">
-        <v>-6.3045247676494967</v>
+        <v>-7.9453878616914437</v>
       </c>
       <c r="CK157" s="18">
-        <v>-1.5533297401761814</v>
+        <v>-3.6410854091780323</v>
       </c>
       <c r="CL157" s="18"/>
       <c r="CM157" s="18"/>
@@ -37219,7 +37221,7 @@
         <v>-13.595349297692977</v>
       </c>
       <c r="CD158" s="18">
-        <v>25.536285985122049</v>
+        <v>25.541507431765794</v>
       </c>
       <c r="CE158" s="18">
         <v>116.20573208320275</v>
@@ -37228,19 +37230,19 @@
         <v>-2.4000273693787051</v>
       </c>
       <c r="CG158" s="18">
-        <v>-4.171519884125729</v>
+        <v>-4.1717597918838578</v>
       </c>
       <c r="CH158" s="18">
-        <v>-22.175094748784616</v>
+        <v>-19.136205212666042</v>
       </c>
       <c r="CI158" s="18">
-        <v>-1.0110495079585178</v>
+        <v>-3.7414282095941189</v>
       </c>
       <c r="CJ158" s="18">
-        <v>-0.66648593534462464</v>
+        <v>-2.5351734763440135</v>
       </c>
       <c r="CK158" s="18">
-        <v>2.5626037936068258</v>
+        <v>-12.432085783004126</v>
       </c>
       <c r="CL158" s="18"/>
       <c r="CM158" s="18"/>
@@ -37694,28 +37696,28 @@
         <v>-24.472629058740466</v>
       </c>
       <c r="CD160" s="23">
-        <v>-11.008301871786884</v>
+        <v>-11.02448125992187</v>
       </c>
       <c r="CE160" s="23">
-        <v>94.50335821668321</v>
+        <v>95.071265775204978</v>
       </c>
       <c r="CF160" s="23">
-        <v>6.2419445151629986</v>
+        <v>5.3347406467696885</v>
       </c>
       <c r="CG160" s="23">
-        <v>5.4708363665064326</v>
+        <v>5.1865340682890206</v>
       </c>
       <c r="CH160" s="23">
-        <v>9.8742121898233393</v>
+        <v>9.0354112997045064</v>
       </c>
       <c r="CI160" s="23">
-        <v>11.889736911697483</v>
+        <v>10.146254442481251</v>
       </c>
       <c r="CJ160" s="23">
-        <v>12.131250890204598</v>
+        <v>11.899918012295501</v>
       </c>
       <c r="CK160" s="23">
-        <v>3.6618134839021508</v>
+        <v>2.5778585668528393</v>
       </c>
       <c r="CL160" s="23"/>
       <c r="CM160" s="23"/>
@@ -38187,7 +38189,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.2">
@@ -38197,7 +38199,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.2">
@@ -38887,28 +38889,28 @@
         <v>84.152916883701607</v>
       </c>
       <c r="CH175" s="18">
-        <v>101.81581745286988</v>
+        <v>101.81582311863606</v>
       </c>
       <c r="CI175" s="18">
-        <v>152.82825297827912</v>
+        <v>152.83677728424883</v>
       </c>
       <c r="CJ175" s="18">
-        <v>81.409559325346493</v>
+        <v>81.409559325346507</v>
       </c>
       <c r="CK175" s="18">
-        <v>87.656473173836574</v>
+        <v>87.630222546200173</v>
       </c>
       <c r="CL175" s="18">
-        <v>110.66158088608714</v>
+        <v>110.63553038068545</v>
       </c>
       <c r="CM175" s="18">
-        <v>165.15506161452674</v>
+        <v>166.45716408242319</v>
       </c>
       <c r="CN175" s="18">
-        <v>94.113357473216837</v>
+        <v>94.035674899611919</v>
       </c>
       <c r="CO175" s="18">
-        <v>100.56557546585454</v>
+        <v>100.73568334616954</v>
       </c>
       <c r="CP175" s="9"/>
       <c r="CQ175" s="9"/>
@@ -39236,19 +39238,19 @@
         <v>83.797461632446954</v>
       </c>
       <c r="CK176" s="18">
-        <v>70.426540851869561</v>
+        <v>70.426817842058384</v>
       </c>
       <c r="CL176" s="18">
-        <v>110.89424851939825</v>
+        <v>110.89080947214707</v>
       </c>
       <c r="CM176" s="18">
-        <v>320.07449864958767</v>
+        <v>320.05305078833555</v>
       </c>
       <c r="CN176" s="18">
-        <v>98.830485606779945</v>
+        <v>98.890854361163989</v>
       </c>
       <c r="CO176" s="18">
-        <v>84.616602337458417</v>
+        <v>84.628480145575296</v>
       </c>
       <c r="CP176" s="9"/>
       <c r="CQ176" s="9"/>
@@ -39576,19 +39578,19 @@
         <v>83.457702596769707</v>
       </c>
       <c r="CK177" s="18">
-        <v>69.912175368928629</v>
+        <v>69.912003404083833</v>
       </c>
       <c r="CL177" s="18">
-        <v>113.00380674947689</v>
+        <v>112.99888086627432</v>
       </c>
       <c r="CM177" s="18">
-        <v>311.49848146009214</v>
+        <v>311.46039873559681</v>
       </c>
       <c r="CN177" s="18">
-        <v>98.183608020005124</v>
+        <v>98.256628143608467</v>
       </c>
       <c r="CO177" s="18">
-        <v>83.70826544373729</v>
+        <v>83.71182632042013</v>
       </c>
       <c r="CP177" s="9"/>
       <c r="CQ177" s="9"/>
@@ -39919,16 +39921,16 @@
         <v>92.415085048282265</v>
       </c>
       <c r="CL178" s="18">
-        <v>108.3356511292266</v>
+        <v>108.26810125076764</v>
       </c>
       <c r="CM178" s="18">
-        <v>227.58236034543273</v>
+        <v>227.30747484807034</v>
       </c>
       <c r="CN178" s="18">
-        <v>97.301654825916202</v>
+        <v>97.322358883957676</v>
       </c>
       <c r="CO178" s="18">
-        <v>91.005429120662313</v>
+        <v>91.059743967799974</v>
       </c>
       <c r="CP178" s="9"/>
       <c r="CQ178" s="9"/>
@@ -40259,16 +40261,16 @@
         <v>80.882675241517958</v>
       </c>
       <c r="CL179" s="18">
-        <v>134.03943563300095</v>
+        <v>133.97655062430397</v>
       </c>
       <c r="CM179" s="18">
-        <v>277.31428929435464</v>
+        <v>277.12970263225168</v>
       </c>
       <c r="CN179" s="18">
-        <v>99.308721357165652</v>
+        <v>99.35752863497423</v>
       </c>
       <c r="CO179" s="18">
-        <v>88.487836720950398</v>
+        <v>88.547258756093854</v>
       </c>
       <c r="CP179" s="9"/>
       <c r="CQ179" s="9"/>
@@ -40587,28 +40589,28 @@
         <v>64.799622859446899</v>
       </c>
       <c r="CH180" s="18">
-        <v>101.24567036298457</v>
+        <v>101.24567517035842</v>
       </c>
       <c r="CI180" s="18">
-        <v>266.14752084277262</v>
+        <v>266.16668815528703</v>
       </c>
       <c r="CJ180" s="18">
         <v>86.692868271783823</v>
       </c>
       <c r="CK180" s="18">
-        <v>72.624472753656079</v>
+        <v>72.624793619167022</v>
       </c>
       <c r="CL180" s="18">
-        <v>116.99298976488475</v>
+        <v>116.98399795135333</v>
       </c>
       <c r="CM180" s="18">
-        <v>307.52598064349507</v>
+        <v>308.39448375881568</v>
       </c>
       <c r="CN180" s="18">
-        <v>101.50645543462444</v>
+        <v>101.50532226306606</v>
       </c>
       <c r="CO180" s="18">
-        <v>85.972339243919421</v>
+        <v>86.001490255464972</v>
       </c>
       <c r="CP180" s="9"/>
       <c r="CQ180" s="9"/>
@@ -40927,28 +40929,28 @@
         <v>103.33109794386456</v>
       </c>
       <c r="CH181" s="18">
-        <v>103.70006301482566</v>
+        <v>103.70007051620141</v>
       </c>
       <c r="CI181" s="18">
         <v>101.54027638334632</v>
       </c>
       <c r="CJ181" s="18">
-        <v>75.616653522775749</v>
+        <v>75.616653522775792</v>
       </c>
       <c r="CK181" s="18">
-        <v>109.63067483938367</v>
+        <v>109.61765703014868</v>
       </c>
       <c r="CL181" s="18">
-        <v>107.98908315832972</v>
+        <v>107.96360707677431</v>
       </c>
       <c r="CM181" s="18">
-        <v>115.18800705521801</v>
+        <v>116.35408385514663</v>
       </c>
       <c r="CN181" s="18">
-        <v>87.512238250082191</v>
+        <v>87.530686847831021</v>
       </c>
       <c r="CO181" s="18">
-        <v>127.03377258866165</v>
+        <v>126.71445217622957</v>
       </c>
       <c r="CP181" s="9"/>
       <c r="CQ181" s="9"/>
@@ -41279,16 +41281,16 @@
         <v>69.120085272219896</v>
       </c>
       <c r="CL182" s="18">
-        <v>109.70274132329342</v>
+        <v>109.6908185880112</v>
       </c>
       <c r="CM182" s="18">
-        <v>294.2409984281262</v>
+        <v>294.13937518805778</v>
       </c>
       <c r="CN182" s="18">
-        <v>96.544282334597938</v>
+        <v>96.540934518176201</v>
       </c>
       <c r="CO182" s="18">
-        <v>82.272556716449259</v>
+        <v>82.315687210593808</v>
       </c>
       <c r="CP182" s="9"/>
       <c r="CQ182" s="9"/>
@@ -41607,28 +41609,28 @@
         <v>70.498153920356913</v>
       </c>
       <c r="CH183" s="18">
-        <v>102.76878150385957</v>
+        <v>102.76878859635706</v>
       </c>
       <c r="CI183" s="18">
-        <v>227.96775716889221</v>
+        <v>227.96783120782874</v>
       </c>
       <c r="CJ183" s="18">
         <v>86.618532078195543</v>
       </c>
       <c r="CK183" s="18">
-        <v>81.819530962936852</v>
+        <v>81.77053736495769</v>
       </c>
       <c r="CL183" s="18">
-        <v>115.36677192126498</v>
+        <v>115.31543252645289</v>
       </c>
       <c r="CM183" s="18">
-        <v>252.87793648636557</v>
+        <v>252.65049087215345</v>
       </c>
       <c r="CN183" s="18">
-        <v>97.193159232174295</v>
+        <v>97.236584586383685</v>
       </c>
       <c r="CO183" s="18">
-        <v>89.476862662930358</v>
+        <v>89.541440450473686</v>
       </c>
       <c r="CP183" s="9"/>
       <c r="CQ183" s="9"/>
@@ -41947,28 +41949,28 @@
         <v>94.590802938056072</v>
       </c>
       <c r="CH184" s="18">
-        <v>99.219687703327025</v>
+        <v>99.219671227586588</v>
       </c>
       <c r="CI184" s="18">
-        <v>109.27480681578494</v>
+        <v>109.2748071541542</v>
       </c>
       <c r="CJ184" s="18">
-        <v>86.358477675794873</v>
+        <v>86.165273031490713</v>
       </c>
       <c r="CK184" s="18">
-        <v>101.47969758213758</v>
+        <v>101.47870626445791</v>
       </c>
       <c r="CL184" s="18">
-        <v>106.71763766305608</v>
+        <v>106.80279003685416</v>
       </c>
       <c r="CM184" s="18">
-        <v>124.44049084056057</v>
+        <v>125.53960332551235</v>
       </c>
       <c r="CN184" s="18">
-        <v>102.09098596997327</v>
+        <v>102.28484642986145</v>
       </c>
       <c r="CO184" s="18">
-        <v>112.74718368542747</v>
+        <v>112.40782809888911</v>
       </c>
       <c r="CP184" s="9"/>
       <c r="CQ184" s="9"/>
@@ -42287,7 +42289,7 @@
         <v>92.777449473703626</v>
       </c>
       <c r="CH185" s="18">
-        <v>101.73952445243908</v>
+        <v>101.73947785380206</v>
       </c>
       <c r="CI185" s="18">
         <v>112.04351095823273</v>
@@ -42296,19 +42298,19 @@
         <v>84.740030622742339</v>
       </c>
       <c r="CK185" s="18">
-        <v>106.12423231568802</v>
+        <v>106.12423249886061</v>
       </c>
       <c r="CL185" s="18">
-        <v>112.24251758333199</v>
+        <v>112.18629364378343</v>
       </c>
       <c r="CM185" s="18">
-        <v>131.48168128406019</v>
+        <v>131.23218319426314</v>
       </c>
       <c r="CN185" s="18">
-        <v>102.61956408445118</v>
+        <v>102.9492021169707</v>
       </c>
       <c r="CO185" s="18">
-        <v>119.06896928153682</v>
+        <v>118.93669006545838</v>
       </c>
       <c r="CP185" s="9"/>
       <c r="CQ185" s="9"/>
@@ -42627,7 +42629,7 @@
         <v>94.641546341473457</v>
       </c>
       <c r="CH186" s="18">
-        <v>101.88048272230266</v>
+        <v>101.88048272230263</v>
       </c>
       <c r="CI186" s="18">
         <v>112.24546006256307</v>
@@ -42636,19 +42638,19 @@
         <v>85.717434227607896</v>
       </c>
       <c r="CK186" s="18">
-        <v>103.26015918097778</v>
+        <v>103.26014971012363</v>
       </c>
       <c r="CL186" s="18">
-        <v>112.447124605686</v>
+        <v>112.41474812048821</v>
       </c>
       <c r="CM186" s="18">
-        <v>128.51682717583003</v>
+        <v>128.39695056604066</v>
       </c>
       <c r="CN186" s="18">
-        <v>101.26168008602066</v>
+        <v>101.70076030291482</v>
       </c>
       <c r="CO186" s="18">
-        <v>120.83811598896025</v>
+        <v>120.79318439411428</v>
       </c>
       <c r="CP186" s="9"/>
       <c r="CQ186" s="9"/>
@@ -42970,25 +42972,25 @@
         <v>100.8784143151041</v>
       </c>
       <c r="CI187" s="18">
-        <v>112.27408729091863</v>
+        <v>112.27408765277491</v>
       </c>
       <c r="CJ187" s="18">
-        <v>87.405412659933859</v>
+        <v>86.911829815328872</v>
       </c>
       <c r="CK187" s="18">
-        <v>107.71497371841163</v>
+        <v>107.71473180788705</v>
       </c>
       <c r="CL187" s="18">
-        <v>112.74770279893329</v>
+        <v>112.74333618932511</v>
       </c>
       <c r="CM187" s="18">
-        <v>130.33623795010419</v>
+        <v>131.12459091259595</v>
       </c>
       <c r="CN187" s="18">
-        <v>106.00463289086493</v>
+        <v>106.15652121795985</v>
       </c>
       <c r="CO187" s="18">
-        <v>127.69611903473876</v>
+        <v>127.6230023507334</v>
       </c>
       <c r="CP187" s="9"/>
       <c r="CQ187" s="9"/>
@@ -43307,7 +43309,7 @@
         <v>93.931318685627105</v>
       </c>
       <c r="CH188" s="18">
-        <v>96.90919250237306</v>
+        <v>96.909220358238699</v>
       </c>
       <c r="CI188" s="18">
         <v>105.13895645389533</v>
@@ -43316,19 +43318,19 @@
         <v>86.286602692713842</v>
       </c>
       <c r="CK188" s="18">
-        <v>95.326378830888814</v>
+        <v>95.327040468438327</v>
       </c>
       <c r="CL188" s="18">
-        <v>101.05796827827807</v>
+        <v>101.17667845633333</v>
       </c>
       <c r="CM188" s="18">
-        <v>116.86155514497823</v>
+        <v>118.84635925177834</v>
       </c>
       <c r="CN188" s="18">
-        <v>97.807108191142518</v>
+        <v>97.74707671046022</v>
       </c>
       <c r="CO188" s="18">
-        <v>95.436160215011128</v>
+        <v>95.137932816791036</v>
       </c>
       <c r="CP188" s="9"/>
       <c r="CQ188" s="9"/>
@@ -43647,28 +43649,28 @@
         <v>91.746171718901607</v>
       </c>
       <c r="CH189" s="18">
-        <v>87.940155764510592</v>
+        <v>87.940156382582572</v>
       </c>
       <c r="CI189" s="18">
-        <v>85.793204551506236</v>
+        <v>85.791138090251721</v>
       </c>
       <c r="CJ189" s="18">
-        <v>97.946455912127192</v>
+        <v>97.845776113262147</v>
       </c>
       <c r="CK189" s="18">
-        <v>99.31241680617012</v>
+        <v>99.595139695632511</v>
       </c>
       <c r="CL189" s="18">
-        <v>95.671845311144523</v>
+        <v>97.443217984366399</v>
       </c>
       <c r="CM189" s="18">
-        <v>96.188914403772856</v>
+        <v>97.552619897113914</v>
       </c>
       <c r="CN189" s="18">
-        <v>113.56710713404756</v>
+        <v>113.61966851575103</v>
       </c>
       <c r="CO189" s="18">
-        <v>111.70935943407375</v>
+        <v>113.01917785514451</v>
       </c>
       <c r="CP189" s="9"/>
       <c r="CQ189" s="9"/>
@@ -43990,25 +43992,25 @@
         <v>86.457529774010027</v>
       </c>
       <c r="CI190" s="18">
-        <v>86.023710950123203</v>
+        <v>86.0208612195309</v>
       </c>
       <c r="CJ190" s="18">
-        <v>97.585519916635917</v>
+        <v>97.478934868395598</v>
       </c>
       <c r="CK190" s="18">
-        <v>97.419239682260795</v>
+        <v>97.733178202741868</v>
       </c>
       <c r="CL190" s="18">
-        <v>92.385621359204592</v>
+        <v>94.373972935113954</v>
       </c>
       <c r="CM190" s="18">
-        <v>96.741761378693241</v>
+        <v>98.251893600077111</v>
       </c>
       <c r="CN190" s="18">
-        <v>112.81566403316765</v>
+        <v>112.86888368003432</v>
       </c>
       <c r="CO190" s="18">
-        <v>110.82277983901838</v>
+        <v>112.20241549885887</v>
       </c>
       <c r="CP190" s="9"/>
       <c r="CQ190" s="9"/>
@@ -44345,7 +44347,7 @@
         <v>78.803988198212863</v>
       </c>
       <c r="CN191" s="18">
-        <v>119.38660551826005</v>
+        <v>119.42817680762082</v>
       </c>
       <c r="CO191" s="18">
         <v>132.65113388444081</v>
@@ -44670,25 +44672,25 @@
         <v>103.39235981326205</v>
       </c>
       <c r="CI192" s="18">
-        <v>83.204196674250866</v>
+        <v>83.20419469945513</v>
       </c>
       <c r="CJ192" s="18">
         <v>114.29980556356692</v>
       </c>
       <c r="CK192" s="18">
-        <v>109.37199151104686</v>
+        <v>109.37199147128867</v>
       </c>
       <c r="CL192" s="18">
-        <v>115.3039076841502</v>
+        <v>115.35199705178162</v>
       </c>
       <c r="CM192" s="18">
-        <v>93.658485424465454</v>
+        <v>95.150010686727541</v>
       </c>
       <c r="CN192" s="18">
-        <v>129.4686183002608</v>
+        <v>129.5112687852089</v>
       </c>
       <c r="CO192" s="18">
-        <v>128.33847585699536</v>
+        <v>128.18268818728211</v>
       </c>
       <c r="CP192" s="9"/>
       <c r="CQ192" s="9"/>
@@ -45007,7 +45009,7 @@
         <v>93.067332878407484</v>
       </c>
       <c r="CH193" s="18">
-        <v>112.61371823184415</v>
+        <v>112.61371982642585</v>
       </c>
       <c r="CI193" s="18">
         <v>83.772938540248759</v>
@@ -45019,16 +45021,16 @@
         <v>102.61542288804119</v>
       </c>
       <c r="CL193" s="18">
-        <v>120.85836445829119</v>
+        <v>120.86140442024134</v>
       </c>
       <c r="CM193" s="18">
-        <v>94.278800119613138</v>
+        <v>94.278800118081435</v>
       </c>
       <c r="CN193" s="18">
-        <v>119.53561371166488</v>
+        <v>119.57781459527645</v>
       </c>
       <c r="CO193" s="18">
-        <v>123.12145374174197</v>
+        <v>123.17422915756779</v>
       </c>
       <c r="CP193" s="9"/>
       <c r="CQ193" s="9"/>
@@ -45347,28 +45349,28 @@
         <v>127.39045766400648</v>
       </c>
       <c r="CH194" s="18">
-        <v>97.580958633909773</v>
+        <v>97.582984984949434</v>
       </c>
       <c r="CI194" s="18">
-        <v>68.833510253787608</v>
+        <v>68.816837026308207</v>
       </c>
       <c r="CJ194" s="18">
         <v>102.47587550523912</v>
       </c>
       <c r="CK194" s="18">
-        <v>135.74752878780504</v>
+        <v>135.97329419336032</v>
       </c>
       <c r="CL194" s="18">
-        <v>108.28683046457073</v>
+        <v>108.19824692462143</v>
       </c>
       <c r="CM194" s="18">
-        <v>79.020018785849018</v>
+        <v>79.204150725034381</v>
       </c>
       <c r="CN194" s="18">
-        <v>118.22246556824123</v>
+        <v>119.47104075353721</v>
       </c>
       <c r="CO194" s="18">
-        <v>161.36543014005866</v>
+        <v>163.01740034680279</v>
       </c>
       <c r="CP194" s="9"/>
       <c r="CQ194" s="9"/>
@@ -45690,25 +45692,25 @@
         <v>95.259693668959528</v>
       </c>
       <c r="CI195" s="18">
-        <v>58.380380472752677</v>
+        <v>58.38037726315212</v>
       </c>
       <c r="CJ195" s="18">
         <v>129.56424483161103</v>
       </c>
       <c r="CK195" s="18">
-        <v>195.6739832826629</v>
+        <v>195.6579396504861</v>
       </c>
       <c r="CL195" s="18">
-        <v>105.78827670863642</v>
+        <v>105.79936104191452</v>
       </c>
       <c r="CM195" s="18">
-        <v>68.875537725938457</v>
+        <v>68.863432683335105</v>
       </c>
       <c r="CN195" s="18">
-        <v>151.10220442963944</v>
+        <v>150.90829930733645</v>
       </c>
       <c r="CO195" s="18">
-        <v>222.18175384477189</v>
+        <v>223.98619284757166</v>
       </c>
       <c r="CP195" s="9"/>
       <c r="CQ195" s="9"/>
@@ -46027,28 +46029,28 @@
         <v>118.82768251349813</v>
       </c>
       <c r="CH196" s="18">
-        <v>86.352272299120216</v>
+        <v>86.316588789739498</v>
       </c>
       <c r="CI196" s="18">
-        <v>64.765180292020773</v>
+        <v>64.677613063077615</v>
       </c>
       <c r="CJ196" s="18">
         <v>110.54792275868444</v>
       </c>
       <c r="CK196" s="18">
-        <v>129.17137046202959</v>
+        <v>129.36786657640914</v>
       </c>
       <c r="CL196" s="18">
-        <v>96.455494465163767</v>
+        <v>96.454995633357569</v>
       </c>
       <c r="CM196" s="18">
-        <v>75.25974138612672</v>
+        <v>75.282946984283853</v>
       </c>
       <c r="CN196" s="18">
-        <v>129.65778523756364</v>
+        <v>128.42196459268601</v>
       </c>
       <c r="CO196" s="18">
-        <v>145.41494014716986</v>
+        <v>145.2651769104485</v>
       </c>
       <c r="CP196" s="9"/>
       <c r="CQ196" s="9"/>
@@ -46367,28 +46369,28 @@
         <v>135.80216778707197</v>
       </c>
       <c r="CH197" s="18">
-        <v>107.45790940436673</v>
+        <v>107.45819288817908</v>
       </c>
       <c r="CI197" s="18">
-        <v>63.138348884696313</v>
+        <v>63.149086416041136</v>
       </c>
       <c r="CJ197" s="18">
         <v>99.384823209100702</v>
       </c>
       <c r="CK197" s="18">
-        <v>143.64797200810597</v>
+        <v>143.82994926177562</v>
       </c>
       <c r="CL197" s="18">
-        <v>116.28222853188743</v>
+        <v>116.24668959227469</v>
       </c>
       <c r="CM197" s="18">
-        <v>71.163756300697173</v>
+        <v>71.744135598138669</v>
       </c>
       <c r="CN197" s="18">
-        <v>113.16212999905851</v>
+        <v>115.57500665990017</v>
       </c>
       <c r="CO197" s="18">
-        <v>170.64113937624234</v>
+        <v>170.75335124908443</v>
       </c>
       <c r="CP197" s="9"/>
       <c r="CQ197" s="9"/>
@@ -46707,7 +46709,7 @@
         <v>97.570417865607098</v>
       </c>
       <c r="CH198" s="18">
-        <v>92.490615095771162</v>
+        <v>92.491821873578289</v>
       </c>
       <c r="CI198" s="18">
         <v>91.525994132653281</v>
@@ -46716,19 +46718,19 @@
         <v>95.260073227881364</v>
       </c>
       <c r="CK198" s="18">
-        <v>108.16445433383856</v>
+        <v>108.16425674603971</v>
       </c>
       <c r="CL198" s="18">
-        <v>103.05682954737279</v>
+        <v>102.93521531073462</v>
       </c>
       <c r="CM198" s="18">
-        <v>106.8986087993444</v>
+        <v>106.67057989739079</v>
       </c>
       <c r="CN198" s="18">
-        <v>113.1609572846781</v>
+        <v>113.31185125124885</v>
       </c>
       <c r="CO198" s="18">
-        <v>130.83327050220905</v>
+        <v>132.67940313927625</v>
       </c>
       <c r="CP198" s="9"/>
       <c r="CQ198" s="9"/>
@@ -47200,28 +47202,28 @@
         <v>95.63818997400611</v>
       </c>
       <c r="CH200" s="23">
-        <v>94.18775288787559</v>
+        <v>94.187514229182227</v>
       </c>
       <c r="CI200" s="23">
-        <v>92.011916298240294</v>
+        <v>91.981129216221731</v>
       </c>
       <c r="CJ200" s="23">
-        <v>93.30667690846964</v>
+        <v>93.263780688124982</v>
       </c>
       <c r="CK200" s="23">
-        <v>102.16268251045202</v>
+        <v>102.3967435492559</v>
       </c>
       <c r="CL200" s="23">
-        <v>102.02316944325985</v>
+        <v>102.98072951051338</v>
       </c>
       <c r="CM200" s="23">
-        <v>102.42707688649197</v>
+        <v>103.49166399344993</v>
       </c>
       <c r="CN200" s="23">
-        <v>109.09756531655552</v>
+        <v>109.38170811396103</v>
       </c>
       <c r="CO200" s="23">
-        <v>116.78592702880491</v>
+        <v>117.422149054903</v>
       </c>
       <c r="CP200" s="9"/>
       <c r="CQ200" s="9"/>
@@ -47701,7 +47703,7 @@
     </row>
     <row r="207" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
@@ -47711,7 +47713,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
@@ -48401,28 +48403,28 @@
         <v>19.576944588796938</v>
       </c>
       <c r="CH216" s="23">
-        <v>20.273211079200589</v>
+        <v>20.277007100729893</v>
       </c>
       <c r="CI216" s="23">
-        <v>19.552117976490432</v>
+        <v>19.504143533903044</v>
       </c>
       <c r="CJ216" s="23">
-        <v>16.640781464429732</v>
+        <v>16.791821289633923</v>
       </c>
       <c r="CK216" s="23">
-        <v>19.743244860868721</v>
+        <v>19.755836619819288</v>
       </c>
       <c r="CL216" s="23">
-        <v>18.048849810500613</v>
+        <v>18.050612250006182</v>
       </c>
       <c r="CM216" s="23">
-        <v>16.108261735247421</v>
+        <v>16.218232370474251</v>
       </c>
       <c r="CN216" s="23">
-        <v>13.12719932936251</v>
+        <v>13.045065793231997</v>
       </c>
       <c r="CO216" s="23">
-        <v>16.006029403649119</v>
+        <v>16.267168765343023</v>
       </c>
       <c r="CP216" s="9"/>
       <c r="CQ216" s="9"/>
@@ -48741,28 +48743,28 @@
         <v>1.7202131209741143</v>
       </c>
       <c r="CH217" s="23">
-        <v>1.8565442390296765</v>
+        <v>1.856886539792115</v>
       </c>
       <c r="CI217" s="23">
-        <v>1.6014606356640002</v>
+        <v>1.597332797100073</v>
       </c>
       <c r="CJ217" s="23">
-        <v>1.814053609693012</v>
+        <v>1.8305188424529482</v>
       </c>
       <c r="CK217" s="23">
-        <v>1.4637946854429773</v>
+        <v>1.463473468890409</v>
       </c>
       <c r="CL217" s="23">
-        <v>0.72766429762907625</v>
+        <v>0.72670418764357592</v>
       </c>
       <c r="CM217" s="23">
-        <v>0.79946592038971553</v>
+        <v>0.8015067914120142</v>
       </c>
       <c r="CN217" s="23">
-        <v>1.0391603981110094</v>
+        <v>0.93367020389674915</v>
       </c>
       <c r="CO217" s="23">
-        <v>0.82001261386299096</v>
+        <v>0.82248902797103507</v>
       </c>
       <c r="CP217" s="9"/>
       <c r="CQ217" s="9"/>
@@ -49081,28 +49083,28 @@
         <v>1.8448657617591406</v>
       </c>
       <c r="CH218" s="23">
-        <v>2.2403764048491257</v>
+        <v>2.2407894747536328</v>
       </c>
       <c r="CI218" s="23">
-        <v>4.0007875200680347</v>
+        <v>3.9904753059282418</v>
       </c>
       <c r="CJ218" s="23">
-        <v>3.7613001494914222</v>
+        <v>3.7954395388184223</v>
       </c>
       <c r="CK218" s="23">
-        <v>3.7695740884422042</v>
+        <v>3.7720842676225628</v>
       </c>
       <c r="CL218" s="23">
-        <v>2.7628222147714472</v>
+        <v>2.7604542518695392</v>
       </c>
       <c r="CM218" s="23">
-        <v>3.0522260766759701</v>
+        <v>3.0613103608079473</v>
       </c>
       <c r="CN218" s="23">
-        <v>3.2232231507485603</v>
+        <v>3.2496005071778735</v>
       </c>
       <c r="CO218" s="23">
-        <v>3.595433966808864</v>
+        <v>3.5675907092665833</v>
       </c>
       <c r="CP218" s="9"/>
       <c r="CQ218" s="9"/>
@@ -49421,28 +49423,28 @@
         <v>0.20300176912639237</v>
       </c>
       <c r="CH219" s="23">
-        <v>0.16333777704066682</v>
+        <v>0.16336789248011649</v>
       </c>
       <c r="CI219" s="23">
-        <v>0.204909524874374</v>
+        <v>0.20438136113431318</v>
       </c>
       <c r="CJ219" s="23">
-        <v>0.24211981006111463</v>
+        <v>0.24431740720330847</v>
       </c>
       <c r="CK219" s="23">
-        <v>0.25926878378796864</v>
+        <v>0.25937530075334297</v>
       </c>
       <c r="CL219" s="23">
-        <v>0.18846794675788409</v>
+        <v>0.18897861263598709</v>
       </c>
       <c r="CM219" s="23">
-        <v>0.22892099732979235</v>
+        <v>0.22967110501852825</v>
       </c>
       <c r="CN219" s="23">
-        <v>0.22677287151548117</v>
+        <v>0.22956700352428755</v>
       </c>
       <c r="CO219" s="23">
-        <v>0.26071056545404547</v>
+        <v>0.27073179341118642</v>
       </c>
       <c r="CP219" s="9"/>
       <c r="CQ219" s="9"/>
@@ -49761,28 +49763,28 @@
         <v>0.17016942361837512</v>
       </c>
       <c r="CH220" s="23">
-        <v>0.1669410498058406</v>
+        <v>0.16697182959951831</v>
       </c>
       <c r="CI220" s="23">
-        <v>0.14455884043604555</v>
+        <v>0.14418623336533784</v>
       </c>
       <c r="CJ220" s="23">
-        <v>0.19047148524603674</v>
+        <v>0.19220029707494263</v>
       </c>
       <c r="CK220" s="23">
-        <v>0.14941316685697886</v>
+        <v>0.14947455117362529</v>
       </c>
       <c r="CL220" s="23">
-        <v>0.12302906665755409</v>
+        <v>0.12300201162825382</v>
       </c>
       <c r="CM220" s="23">
-        <v>0.12333015768126601</v>
+        <v>0.12367363072650905</v>
       </c>
       <c r="CN220" s="23">
-        <v>0.17958290413211225</v>
+        <v>0.17722226438681232</v>
       </c>
       <c r="CO220" s="23">
-        <v>0.1744770729935114</v>
+        <v>0.17748213283990483</v>
       </c>
       <c r="CP220" s="9"/>
       <c r="CQ220" s="9"/>
@@ -50101,28 +50103,28 @@
         <v>0.88361209953212194</v>
       </c>
       <c r="CH221" s="23">
-        <v>0.93485291133449389</v>
+        <v>0.93505970090641322</v>
       </c>
       <c r="CI221" s="23">
-        <v>1.3650964301453592</v>
+        <v>1.363993826206318</v>
       </c>
       <c r="CJ221" s="23">
-        <v>1.3668829578232444</v>
+        <v>1.3792894522817838</v>
       </c>
       <c r="CK221" s="23">
-        <v>1.0167370950526307</v>
+        <v>1.0169698993803824</v>
       </c>
       <c r="CL221" s="23">
-        <v>1.0902933200469682</v>
+        <v>1.0891605957255808</v>
       </c>
       <c r="CM221" s="23">
-        <v>0.88372446185905706</v>
+        <v>0.93144879135710312</v>
       </c>
       <c r="CN221" s="23">
-        <v>0.91469215764891521</v>
+        <v>0.81767938065643342</v>
       </c>
       <c r="CO221" s="23">
-        <v>0.96130406928757428</v>
+        <v>0.9563673898375572</v>
       </c>
       <c r="CP221" s="9"/>
       <c r="CQ221" s="9"/>
@@ -50441,28 +50443,28 @@
         <v>11.704102632056919</v>
       </c>
       <c r="CH222" s="23">
-        <v>11.466708550111038</v>
+        <v>11.468827679668399</v>
       </c>
       <c r="CI222" s="23">
-        <v>8.5269914343265185</v>
+        <v>8.5050127210862172</v>
       </c>
       <c r="CJ222" s="23">
-        <v>5.885633845112082</v>
+        <v>5.9390547201522237</v>
       </c>
       <c r="CK222" s="23">
-        <v>9.3953242937881569</v>
+        <v>9.3894308303894292</v>
       </c>
       <c r="CL222" s="23">
-        <v>10.0881887599515</v>
+        <v>10.092683768795997</v>
       </c>
       <c r="CM222" s="23">
-        <v>7.9257282062953003</v>
+        <v>7.9666068322535182</v>
       </c>
       <c r="CN222" s="23">
-        <v>4.7114831851308088</v>
+        <v>4.7864745471702781</v>
       </c>
       <c r="CO222" s="23">
-        <v>7.1971280691443873</v>
+        <v>7.4037750081157743</v>
       </c>
       <c r="CP222" s="9"/>
       <c r="CQ222" s="9"/>
@@ -50781,28 +50783,28 @@
         <v>0.41129270748209645</v>
       </c>
       <c r="CH223" s="23">
-        <v>0.53415219065177033</v>
+        <v>0.53425067508229174</v>
       </c>
       <c r="CI223" s="23">
-        <v>0.23915111446947435</v>
+        <v>0.2385346914548031</v>
       </c>
       <c r="CJ223" s="23">
-        <v>0.38673384393820059</v>
+        <v>0.3902440283795881</v>
       </c>
       <c r="CK223" s="23">
-        <v>0.48530367346545433</v>
+        <v>0.48550305371411873</v>
       </c>
       <c r="CL223" s="23">
-        <v>0.21583197704892709</v>
+        <v>0.21565276442648235</v>
       </c>
       <c r="CM223" s="23">
-        <v>0.23716492107386022</v>
+        <v>0.2377834561236844</v>
       </c>
       <c r="CN223" s="23">
-        <v>0.15701364983183211</v>
+        <v>0.14158046504632688</v>
       </c>
       <c r="CO223" s="23">
-        <v>0.35726685015105514</v>
+        <v>0.35601545735569595</v>
       </c>
       <c r="CP223" s="9"/>
       <c r="CQ223" s="9"/>
@@ -51121,28 +51123,28 @@
         <v>2.6396870742477798</v>
       </c>
       <c r="CH224" s="23">
-        <v>2.9102979563779776</v>
+        <v>2.910853308447404</v>
       </c>
       <c r="CI224" s="23">
-        <v>3.4691624765066251</v>
+        <v>3.4602265976277393</v>
       </c>
       <c r="CJ224" s="23">
-        <v>2.993585763064619</v>
+        <v>3.020757003270707</v>
       </c>
       <c r="CK224" s="23">
-        <v>3.2038290740323543</v>
+        <v>3.2195252478954224</v>
       </c>
       <c r="CL224" s="23">
-        <v>2.8525522276372568</v>
+        <v>2.8539760572807662</v>
       </c>
       <c r="CM224" s="23">
-        <v>2.8577009939424589</v>
+        <v>2.8662314027749467</v>
       </c>
       <c r="CN224" s="23">
-        <v>2.6752710122437926</v>
+        <v>2.7092714213732378</v>
       </c>
       <c r="CO224" s="23">
-        <v>2.6396961959466911</v>
+        <v>2.7127172465452833</v>
       </c>
       <c r="CP224" s="9"/>
       <c r="CQ224" s="9"/>
@@ -51461,28 +51463,28 @@
         <v>17.319337849887511</v>
       </c>
       <c r="CH225" s="23">
-        <v>17.209730276322961</v>
+        <v>17.212836040510609</v>
       </c>
       <c r="CI225" s="23">
-        <v>16.447246361664934</v>
+        <v>16.404854155618011</v>
       </c>
       <c r="CJ225" s="23">
-        <v>18.903635414485649</v>
+        <v>18.418080277281142</v>
       </c>
       <c r="CK225" s="23">
-        <v>16.062824651514589</v>
+        <v>16.067706346481458</v>
       </c>
       <c r="CL225" s="23">
-        <v>16.076091569786495</v>
+        <v>16.027677062579244</v>
       </c>
       <c r="CM225" s="23">
-        <v>16.282547488776167</v>
+        <v>16.147204801425939</v>
       </c>
       <c r="CN225" s="23">
-        <v>18.497793750645535</v>
+        <v>18.219081362879937</v>
       </c>
       <c r="CO225" s="23">
-        <v>18.108819987984837</v>
+        <v>18.163797588086084</v>
       </c>
       <c r="CP225" s="9"/>
       <c r="CQ225" s="9"/>
@@ -51801,28 +51803,28 @@
         <v>3.2019596960074157</v>
       </c>
       <c r="CH226" s="23">
-        <v>2.7313301773495322</v>
+        <v>2.7317187124309252</v>
       </c>
       <c r="CI226" s="23">
-        <v>2.9225640141179352</v>
+        <v>2.9150309707359354</v>
       </c>
       <c r="CJ226" s="23">
-        <v>2.9806122291732553</v>
+        <v>3.0076657152765436</v>
       </c>
       <c r="CK226" s="23">
-        <v>3.391608839358446</v>
+        <v>3.3930042878305451</v>
       </c>
       <c r="CL226" s="23">
-        <v>2.7767714460687762</v>
+        <v>2.7973764283036724</v>
       </c>
       <c r="CM226" s="23">
-        <v>3.2393795271444663</v>
+        <v>3.2613854981300019</v>
       </c>
       <c r="CN226" s="23">
-        <v>2.9122401033012051</v>
+        <v>2.8862981129508771</v>
       </c>
       <c r="CO226" s="23">
-        <v>3.4038680250170499</v>
+        <v>3.453617057002706</v>
       </c>
       <c r="CP226" s="9"/>
       <c r="CQ226" s="9"/>
@@ -52141,28 +52143,28 @@
         <v>2.0132485890781404</v>
       </c>
       <c r="CH227" s="23">
-        <v>1.6511821402653175</v>
+        <v>1.6514865773445186</v>
       </c>
       <c r="CI227" s="23">
-        <v>2.0818846557296595</v>
+        <v>2.0765185021220147</v>
       </c>
       <c r="CJ227" s="23">
-        <v>2.0742221315928671</v>
+        <v>2.0930487803809736</v>
       </c>
       <c r="CK227" s="23">
-        <v>1.858215708622702</v>
+        <v>1.8591057433092146</v>
       </c>
       <c r="CL227" s="23">
-        <v>1.6328544606031372</v>
+        <v>1.638492335454782</v>
       </c>
       <c r="CM227" s="23">
-        <v>1.8545239396508306</v>
+        <v>1.8633867720853365</v>
       </c>
       <c r="CN227" s="23">
-        <v>1.6103437014175115</v>
+        <v>1.6359608693438117</v>
       </c>
       <c r="CO227" s="23">
-        <v>2.0967217483393945</v>
+        <v>2.1172085598585411</v>
       </c>
       <c r="CP227" s="9"/>
       <c r="CQ227" s="9"/>
@@ -52481,28 +52483,28 @@
         <v>5.7649888209725848</v>
       </c>
       <c r="CH228" s="23">
-        <v>4.8418586877991601</v>
+        <v>4.8427514065858244</v>
       </c>
       <c r="CI228" s="23">
-        <v>4.8872506126418083</v>
+        <v>4.8746548281796507</v>
       </c>
       <c r="CJ228" s="23">
-        <v>6.5549334367924983</v>
+        <v>5.9572954751006799</v>
       </c>
       <c r="CK228" s="23">
-        <v>4.2267106423294445</v>
+        <v>4.2258499491932717</v>
       </c>
       <c r="CL228" s="23">
-        <v>3.9593041079951541</v>
+        <v>3.957134737051577</v>
       </c>
       <c r="CM228" s="23">
-        <v>4.4811822805436927</v>
+        <v>4.426449035209874</v>
       </c>
       <c r="CN228" s="23">
-        <v>7.5607071853014878</v>
+        <v>7.5592679913090324</v>
       </c>
       <c r="CO228" s="23">
-        <v>6.586839686543895</v>
+        <v>6.4818498316473905</v>
       </c>
       <c r="CP228" s="9"/>
       <c r="CQ228" s="9"/>
@@ -52821,28 +52823,28 @@
         <v>6.3391407438293719</v>
       </c>
       <c r="CH229" s="23">
-        <v>7.9853592709089494</v>
+        <v>7.9868793441493429</v>
       </c>
       <c r="CI229" s="23">
-        <v>6.5555470791755317</v>
+        <v>6.5386498545804095</v>
       </c>
       <c r="CJ229" s="23">
-        <v>7.2938676169270256</v>
+        <v>7.360070306522946</v>
       </c>
       <c r="CK229" s="23">
-        <v>6.5862894612039948</v>
+        <v>6.589746366148427</v>
       </c>
       <c r="CL229" s="23">
-        <v>7.707161555119427</v>
+        <v>7.6346735617692119</v>
       </c>
       <c r="CM229" s="23">
-        <v>6.7074617414371778</v>
+        <v>6.595983496000728</v>
       </c>
       <c r="CN229" s="23">
-        <v>6.4145027606253331</v>
+        <v>6.1375543892762137</v>
       </c>
       <c r="CO229" s="23">
-        <v>6.0213905280844955</v>
+        <v>6.1111221395774447</v>
       </c>
       <c r="CP229" s="9"/>
       <c r="CQ229" s="9"/>
@@ -53161,28 +53163,28 @@
         <v>44.107745704546566</v>
       </c>
       <c r="CH230" s="23">
-        <v>43.146075495395728</v>
+        <v>43.15403181720032</v>
       </c>
       <c r="CI230" s="23">
-        <v>42.279416136613825</v>
+        <v>42.393753850407606</v>
       </c>
       <c r="CJ230" s="23">
-        <v>43.092572564412521</v>
+        <v>43.233186803484728</v>
       </c>
       <c r="CK230" s="23">
-        <v>45.296276923769703</v>
+        <v>44.982136294826795</v>
       </c>
       <c r="CL230" s="23">
-        <v>47.706177766985157</v>
+        <v>47.609220111900065</v>
       </c>
       <c r="CM230" s="23">
-        <v>47.667350797792565</v>
+        <v>47.88763454012291</v>
       </c>
       <c r="CN230" s="23">
-        <v>50.70052910829402</v>
+        <v>51.150498240168233</v>
       </c>
       <c r="CO230" s="23">
-        <v>46.537130846021157</v>
+        <v>46.553796709481368</v>
       </c>
       <c r="CP230" s="9"/>
       <c r="CQ230" s="9"/>
@@ -53501,28 +53503,28 @@
         <v>40.945688255082572</v>
       </c>
       <c r="CH231" s="23">
-        <v>39.301136530860717</v>
+        <v>39.308382686765015</v>
       </c>
       <c r="CI231" s="23">
-        <v>38.848123668032024</v>
+        <v>38.961476451428084</v>
       </c>
       <c r="CJ231" s="23">
-        <v>41.255205873756381</v>
+        <v>41.379143279208364</v>
       </c>
       <c r="CK231" s="23">
-        <v>37.337099389980587</v>
+        <v>37.019690775898596</v>
       </c>
       <c r="CL231" s="23">
-        <v>39.639780886609849</v>
+        <v>39.556284306730547</v>
       </c>
       <c r="CM231" s="23">
-        <v>40.087061296142942</v>
+        <v>40.283227481355262</v>
       </c>
       <c r="CN231" s="23">
-        <v>47.035693589493675</v>
+        <v>47.453601706857391</v>
       </c>
       <c r="CO231" s="23">
-        <v>43.449950708609983</v>
+        <v>43.451326780931396</v>
       </c>
       <c r="CP231" s="9"/>
       <c r="CQ231" s="9"/>
@@ -53841,28 +53843,28 @@
         <v>0.42213983596941584</v>
       </c>
       <c r="CH232" s="23">
-        <v>0.75305349155489032</v>
+        <v>0.75319233596209456</v>
       </c>
       <c r="CI232" s="23">
-        <v>4.8480014619898563E-3</v>
+        <v>4.835505514885618E-3</v>
       </c>
       <c r="CJ232" s="23">
-        <v>0.44412410880257824</v>
+        <v>0.44815519519752278</v>
       </c>
       <c r="CK232" s="23">
-        <v>1.0722596108442128</v>
+        <v>1.0727001337570445</v>
       </c>
       <c r="CL232" s="23">
-        <v>0.50557634924496264</v>
+        <v>0.50482025284018595</v>
       </c>
       <c r="CM232" s="23">
-        <v>0.26544462844114536</v>
+        <v>0.2660955866850776</v>
       </c>
       <c r="CN232" s="23">
-        <v>1.5626377645540906E-2</v>
+        <v>1.6391126073680012E-2</v>
       </c>
       <c r="CO232" s="23">
-        <v>4.1295491512389239E-3</v>
+        <v>4.0915146012305203E-3</v>
       </c>
       <c r="CP232" s="9"/>
       <c r="CQ232" s="9"/>
@@ -54181,28 +54183,28 @@
         <v>2.4217921290778319</v>
       </c>
       <c r="CH233" s="23">
-        <v>0.51851164570619501</v>
+        <v>0.51860724640771738</v>
       </c>
       <c r="CI233" s="23">
-        <v>2.9100031144658316</v>
+        <v>2.9123316921883466</v>
       </c>
       <c r="CJ233" s="23">
-        <v>1.0481475339378488</v>
+        <v>1.0576610306839347</v>
       </c>
       <c r="CK233" s="23">
-        <v>6.3049505951908804</v>
+        <v>6.3075389642536814</v>
       </c>
       <c r="CL233" s="23">
-        <v>4.7975813354091326</v>
+        <v>4.7869082254039856</v>
       </c>
       <c r="CM233" s="23">
-        <v>3.3036348126886308</v>
+        <v>3.3172623021008247</v>
       </c>
       <c r="CN233" s="23">
-        <v>1.7879677580064084</v>
+        <v>1.8039690564067943</v>
       </c>
       <c r="CO233" s="23">
-        <v>1.6587630029468625</v>
+        <v>1.6804871055422506</v>
       </c>
       <c r="CP233" s="9"/>
       <c r="CQ233" s="9"/>
@@ -54521,28 +54523,28 @@
         <v>0.31812548441674982</v>
       </c>
       <c r="CH234" s="23">
-        <v>2.5733738272739237</v>
+        <v>2.5738495480654877</v>
       </c>
       <c r="CI234" s="23">
-        <v>0.51644135265398672</v>
+        <v>0.51511020127628948</v>
       </c>
       <c r="CJ234" s="23">
-        <v>0.34509504791571616</v>
+        <v>0.34822729839490407</v>
       </c>
       <c r="CK234" s="23">
-        <v>0.5819673277540206</v>
+        <v>0.58220642091746944</v>
       </c>
       <c r="CL234" s="23">
-        <v>2.7632391957212041</v>
+        <v>2.7612073269253408</v>
       </c>
       <c r="CM234" s="23">
-        <v>4.0112100605198524</v>
+        <v>4.0210491699817492</v>
       </c>
       <c r="CN234" s="23">
-        <v>1.8612413831483894</v>
+        <v>1.8765363508303694</v>
       </c>
       <c r="CO234" s="23">
-        <v>1.4242875853130674</v>
+        <v>1.4178913084064908</v>
       </c>
       <c r="CP234" s="9"/>
       <c r="CQ234" s="9"/>
@@ -54861,28 +54863,28 @@
         <v>18.995971856768985</v>
       </c>
       <c r="CH235" s="23">
-        <v>19.370983149080725</v>
+        <v>19.356125041559174</v>
       </c>
       <c r="CI235" s="23">
-        <v>21.721219525230808</v>
+        <v>21.697248460071343</v>
       </c>
       <c r="CJ235" s="23">
-        <v>21.363010556672094</v>
+        <v>21.556911629600201</v>
       </c>
       <c r="CK235" s="23">
-        <v>18.897653563846998</v>
+        <v>19.194320738872449</v>
       </c>
       <c r="CL235" s="23">
-        <v>18.168880852727739</v>
+        <v>18.312490575514527</v>
       </c>
       <c r="CM235" s="23">
-        <v>19.94183997818385</v>
+        <v>19.746928287976903</v>
       </c>
       <c r="CN235" s="23">
-        <v>17.674477811697926</v>
+        <v>17.585354603719829</v>
       </c>
       <c r="CO235" s="23">
-        <v>19.34801976234488</v>
+        <v>19.015236937089526</v>
       </c>
       <c r="CP235" s="9"/>
       <c r="CQ235" s="9"/>
@@ -55201,28 +55203,28 @@
         <v>2.4197723378237486</v>
       </c>
       <c r="CH236" s="23">
-        <v>1.6032185220383675</v>
+        <v>1.6035141158146495</v>
       </c>
       <c r="CI236" s="23">
-        <v>1.9897156178168569</v>
+        <v>1.9845910656103785</v>
       </c>
       <c r="CJ236" s="23">
-        <v>2.0440641351194255</v>
+        <v>2.0626170552653047</v>
       </c>
       <c r="CK236" s="23">
-        <v>1.6130429642882766</v>
+        <v>1.6118092401780006</v>
       </c>
       <c r="CL236" s="23">
-        <v>1.4417115439645611</v>
+        <v>1.4370315757981493</v>
       </c>
       <c r="CM236" s="23">
-        <v>1.488507903542881</v>
+        <v>1.4984368659827334</v>
       </c>
       <c r="CN236" s="23">
-        <v>1.7168891078019881</v>
+        <v>1.7047355378666247</v>
       </c>
       <c r="CO236" s="23">
-        <v>2.2724091077833375</v>
+        <v>2.2802020781131467</v>
       </c>
       <c r="CP236" s="9"/>
       <c r="CQ236" s="9"/>
@@ -55541,28 +55543,28 @@
         <v>2.8447559918877645</v>
       </c>
       <c r="CH237" s="23">
-        <v>3.3668287833295758</v>
+        <v>3.3511949497939764</v>
       </c>
       <c r="CI237" s="23">
-        <v>3.4526615245656713</v>
+        <v>3.4704475289464249</v>
       </c>
       <c r="CJ237" s="23">
-        <v>3.2417055109133863</v>
+        <v>3.271128806614878</v>
       </c>
       <c r="CK237" s="23">
-        <v>3.039391973745027</v>
+        <v>3.0534977473871305</v>
       </c>
       <c r="CL237" s="23">
-        <v>3.2093181485542006</v>
+        <v>3.2049301116196314</v>
       </c>
       <c r="CM237" s="23">
-        <v>2.915445765261822</v>
+        <v>2.9291297073074642</v>
       </c>
       <c r="CN237" s="23">
-        <v>2.5582493234045187</v>
+        <v>2.3965042794223903</v>
       </c>
       <c r="CO237" s="23">
-        <v>2.7998214502739804</v>
+        <v>2.8204461791971536</v>
       </c>
       <c r="CP237" s="9"/>
       <c r="CQ237" s="9"/>
@@ -55881,28 +55883,28 @@
         <v>9.8905209500018003</v>
       </c>
       <c r="CH238" s="23">
-        <v>8.6385429638985247</v>
+        <v>8.6376457313067583</v>
       </c>
       <c r="CI238" s="23">
-        <v>10.241274184102382</v>
+        <v>10.220203776937398</v>
       </c>
       <c r="CJ238" s="23">
-        <v>12.403254839031849</v>
+        <v>12.515832811818456</v>
       </c>
       <c r="CK238" s="23">
-        <v>10.623595769726917</v>
+        <v>10.905918690907207</v>
       </c>
       <c r="CL238" s="23">
-        <v>9.3192905585995707</v>
+        <v>9.3195074111446949</v>
       </c>
       <c r="CM238" s="23">
-        <v>9.9336632608664956</v>
+        <v>9.8680070397562787</v>
       </c>
       <c r="CN238" s="23">
-        <v>10.092675865884322</v>
+        <v>10.209105941793831</v>
       </c>
       <c r="CO238" s="23">
-        <v>10.484308348630856</v>
+        <v>10.606120474252821</v>
       </c>
       <c r="CP238" s="9"/>
       <c r="CQ238" s="9"/>
@@ -56221,28 +56223,28 @@
         <v>3.8409225770556685</v>
       </c>
       <c r="CH239" s="23">
-        <v>5.7623928798142598</v>
+        <v>5.7637702446437906</v>
       </c>
       <c r="CI239" s="23">
-        <v>6.0375681987458938</v>
+        <v>6.0220060885771405</v>
       </c>
       <c r="CJ239" s="23">
-        <v>3.6739860716074331</v>
+        <v>3.707332955901562</v>
       </c>
       <c r="CK239" s="23">
-        <v>3.6216228560867751</v>
+        <v>3.6230950604001095</v>
       </c>
       <c r="CL239" s="23">
-        <v>4.1985606016094081</v>
+        <v>4.3510214769520523</v>
       </c>
       <c r="CM239" s="23">
-        <v>5.604223048512651</v>
+        <v>5.4513546749304282</v>
       </c>
       <c r="CN239" s="23">
-        <v>3.3066635146070986</v>
+        <v>3.2750088446369814</v>
       </c>
       <c r="CO239" s="23">
-        <v>3.7914808556567046</v>
+        <v>3.3084682055264047</v>
       </c>
       <c r="CP239" s="9"/>
       <c r="CQ239" s="9"/>
@@ -57215,7 +57217,7 @@
     </row>
     <row r="248" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:152" x14ac:dyDescent="0.2">
@@ -57225,7 +57227,7 @@
     </row>
     <row r="251" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:152" x14ac:dyDescent="0.2">
@@ -57915,28 +57917,28 @@
         <v>22.248825293619412</v>
       </c>
       <c r="CH257" s="23">
-        <v>18.754337421642575</v>
+        <v>18.757800470756635</v>
       </c>
       <c r="CI257" s="23">
-        <v>11.771565843665343</v>
+        <v>11.738098503000561</v>
       </c>
       <c r="CJ257" s="23">
-        <v>19.07264985185309</v>
+        <v>19.236914572304016</v>
       </c>
       <c r="CK257" s="23">
-        <v>23.010540846732113</v>
+        <v>23.084881872736414</v>
       </c>
       <c r="CL257" s="23">
-        <v>16.63992912199722</v>
+        <v>16.80170205015407</v>
       </c>
       <c r="CM257" s="23">
-        <v>9.9901398548405123</v>
+        <v>10.083386102995901</v>
       </c>
       <c r="CN257" s="23">
-        <v>15.217239345287794</v>
+        <v>15.173938831682786</v>
       </c>
       <c r="CO257" s="23">
-        <v>18.587662560437053</v>
+        <v>18.96176063948846</v>
       </c>
       <c r="CP257" s="9"/>
       <c r="CQ257" s="9"/>
@@ -58255,28 +58257,28 @@
         <v>2.6038000448046859</v>
       </c>
       <c r="CH258" s="23">
-        <v>1.8269017239461856</v>
+        <v>1.8272339293943216</v>
       </c>
       <c r="CI258" s="23">
-        <v>0.54073965183437911</v>
+        <v>0.53916540595942264</v>
       </c>
       <c r="CJ258" s="23">
-        <v>2.0199098010473509</v>
+        <v>2.0373064355675869</v>
       </c>
       <c r="CK258" s="23">
-        <v>2.1234209418852639</v>
+        <v>2.1278104289928441</v>
       </c>
       <c r="CL258" s="23">
-        <v>0.66945417752513714</v>
+        <v>0.67486681482542044</v>
       </c>
       <c r="CM258" s="23">
-        <v>0.25583718053569765</v>
+        <v>0.259173506832585</v>
       </c>
       <c r="CN258" s="23">
-        <v>1.1471143616389992</v>
+        <v>1.0327187723988698</v>
       </c>
       <c r="CO258" s="23">
-        <v>1.1317629240580935</v>
+        <v>1.1412048174834992</v>
       </c>
       <c r="CP258" s="9"/>
       <c r="CQ258" s="9"/>
@@ -58595,28 +58597,28 @@
         <v>2.7998818340982834</v>
       </c>
       <c r="CH259" s="23">
-        <v>2.1612220500807511</v>
+        <v>2.1616150486368628</v>
       </c>
       <c r="CI259" s="23">
-        <v>1.3878228265965897</v>
+        <v>1.3837824823153284</v>
       </c>
       <c r="CJ259" s="23">
-        <v>4.2051770763452421</v>
+        <v>4.2413944998421336</v>
       </c>
       <c r="CK259" s="23">
-        <v>5.5084797285295677</v>
+        <v>5.5247901160184449</v>
       </c>
       <c r="CL259" s="23">
-        <v>2.4943573766866449</v>
+        <v>2.515720425358372</v>
       </c>
       <c r="CM259" s="23">
-        <v>1.0036344112024134</v>
+        <v>1.0172083016863924</v>
       </c>
       <c r="CN259" s="23">
-        <v>3.581512284076751</v>
+        <v>3.6175356398715537</v>
       </c>
       <c r="CO259" s="23">
-        <v>5.0161843237195098</v>
+        <v>5.004241174083675</v>
       </c>
       <c r="CP259" s="9"/>
       <c r="CQ259" s="9"/>
@@ -58935,28 +58937,28 @@
         <v>0.25263147314407475</v>
       </c>
       <c r="CH260" s="23">
-        <v>0.15438136320462018</v>
+        <v>0.15440943605017887</v>
       </c>
       <c r="CI260" s="23">
-        <v>0.10054909714200069</v>
+        <v>0.10025637031705002</v>
       </c>
       <c r="CJ260" s="23">
-        <v>0.24498976769866096</v>
+        <v>0.24709976164375755</v>
       </c>
       <c r="CK260" s="23">
-        <v>0.2866154852226</v>
+        <v>0.28739016082033936</v>
       </c>
       <c r="CL260" s="23">
-        <v>0.17748633128873639</v>
+        <v>0.17974966925912253</v>
       </c>
       <c r="CM260" s="23">
-        <v>0.10302955184593959</v>
+        <v>0.10456780994759997</v>
       </c>
       <c r="CN260" s="23">
-        <v>0.25426461868964523</v>
+        <v>0.25801297112034355</v>
       </c>
       <c r="CO260" s="23">
-        <v>0.33456602937814955</v>
+        <v>0.34911045885513253</v>
       </c>
       <c r="CP260" s="9"/>
       <c r="CQ260" s="9"/>
@@ -59275,28 +59277,28 @@
         <v>0.23773478219574876</v>
       </c>
       <c r="CH261" s="23">
-        <v>0.13250111566393541</v>
+        <v>0.13252520978565566</v>
       </c>
       <c r="CI261" s="23">
-        <v>5.5251525435192406E-2</v>
+        <v>5.5090672637165952E-2</v>
       </c>
       <c r="CJ261" s="23">
-        <v>0.20763791186292788</v>
+        <v>0.20942620996581915</v>
       </c>
       <c r="CK261" s="23">
-        <v>0.18872335618116792</v>
+        <v>0.18923344508527395</v>
       </c>
       <c r="CL261" s="23">
-        <v>9.3642704885870565E-2</v>
+        <v>9.4545178463793095E-2</v>
       </c>
       <c r="CM261" s="23">
-        <v>4.5552458098665212E-2</v>
+        <v>4.6184835888855545E-2</v>
       </c>
       <c r="CN261" s="23">
-        <v>0.19728436078465503</v>
+        <v>0.19510221581366893</v>
       </c>
       <c r="CO261" s="23">
-        <v>0.23027421021803951</v>
+        <v>0.23535831317279668</v>
       </c>
       <c r="CP261" s="9"/>
       <c r="CQ261" s="9"/>
@@ -59615,28 +59617,28 @@
         <v>1.3041289147883286</v>
       </c>
       <c r="CH262" s="23">
-        <v>0.86968355963867561</v>
+        <v>0.86987368829401712</v>
       </c>
       <c r="CI262" s="23">
-        <v>0.47193803673926765</v>
+        <v>0.47136511803165665</v>
       </c>
       <c r="CJ262" s="23">
-        <v>1.4711626118710086</v>
+        <v>1.4838331173882775</v>
       </c>
       <c r="CK262" s="23">
-        <v>1.4302697851012209</v>
+        <v>1.4338685288419544</v>
       </c>
       <c r="CL262" s="23">
-        <v>0.95078500308052838</v>
+        <v>0.95878542934194622</v>
       </c>
       <c r="CM262" s="23">
-        <v>0.29434037804514857</v>
+        <v>0.31257752787051524</v>
       </c>
       <c r="CN262" s="23">
-        <v>0.98309695660601726</v>
+        <v>0.88112785962071627</v>
       </c>
       <c r="CO262" s="23">
-        <v>1.3058477630786598</v>
+        <v>1.3057763751206408</v>
       </c>
       <c r="CP262" s="9"/>
       <c r="CQ262" s="9"/>
@@ -59955,28 +59957,28 @@
         <v>10.832742642568503</v>
       </c>
       <c r="CH263" s="23">
-        <v>10.414878062328095</v>
+        <v>10.416775657852998</v>
       </c>
       <c r="CI263" s="23">
-        <v>7.7268336277617591</v>
+        <v>7.7043386323906686</v>
       </c>
       <c r="CJ263" s="23">
-        <v>7.262539533331994</v>
+        <v>7.325088735224389</v>
       </c>
       <c r="CK263" s="23">
-        <v>8.755319022848882</v>
+        <v>8.7709148951106641</v>
       </c>
       <c r="CL263" s="23">
-        <v>9.5308614642380363</v>
+        <v>9.6268730303761796</v>
       </c>
       <c r="CM263" s="23">
-        <v>7.0476883238242642</v>
+        <v>7.085934331947688</v>
       </c>
       <c r="CN263" s="23">
-        <v>5.8735938516254178</v>
+        <v>5.9813624303401269</v>
       </c>
       <c r="CO263" s="23">
-        <v>6.616533984405029</v>
+        <v>6.8608367683494693</v>
       </c>
       <c r="CP263" s="9"/>
       <c r="CQ263" s="9"/>
@@ -60295,28 +60297,28 @@
         <v>0.63689135072405922</v>
       </c>
       <c r="CH264" s="23">
-        <v>0.52747680734928726</v>
+        <v>0.52757272420506007</v>
       </c>
       <c r="CI264" s="23">
-        <v>8.8214260754043719E-2</v>
+        <v>8.7957444122170519E-2</v>
       </c>
       <c r="CJ264" s="23">
-        <v>0.43650129508648788</v>
+        <v>0.44026069735994189</v>
       </c>
       <c r="CK264" s="23">
-        <v>0.71730127238911245</v>
+        <v>0.71924002245879437</v>
       </c>
       <c r="CL264" s="23">
-        <v>0.20072299105857375</v>
+        <v>0.20246069167383623</v>
       </c>
       <c r="CM264" s="23">
-        <v>8.2558548045251007E-2</v>
+        <v>8.366307818740723E-2</v>
       </c>
       <c r="CN264" s="23">
-        <v>0.17742953289301505</v>
+        <v>0.1604118831004325</v>
       </c>
       <c r="CO264" s="23">
-        <v>0.50714043609161374</v>
+        <v>0.5078509518182085</v>
       </c>
       <c r="CP264" s="9"/>
       <c r="CQ264" s="9"/>
@@ -60635,28 +60637,28 @@
         <v>3.581014251295723</v>
       </c>
       <c r="CH265" s="23">
-        <v>2.6672927394310277</v>
+        <v>2.6677947765375398</v>
       </c>
       <c r="CI265" s="23">
-        <v>1.4002168174021112</v>
+        <v>1.3961423772271004</v>
       </c>
       <c r="CJ265" s="23">
-        <v>3.2247318546094186</v>
+        <v>3.2525051153121072</v>
       </c>
       <c r="CK265" s="23">
-        <v>4.0004112545742991</v>
+        <v>4.0316342754080994</v>
       </c>
       <c r="CL265" s="23">
-        <v>2.5226190732336917</v>
+        <v>2.5487008108554035</v>
       </c>
       <c r="CM265" s="23">
-        <v>1.1574990032431343</v>
+        <v>1.1740767106348553</v>
       </c>
       <c r="CN265" s="23">
-        <v>3.0029433789732929</v>
+        <v>3.0476670594170767</v>
       </c>
       <c r="CO265" s="23">
-        <v>3.4453528894879564</v>
+        <v>3.557381780605041</v>
       </c>
       <c r="CP265" s="9"/>
       <c r="CQ265" s="9"/>
@@ -60975,28 +60977,28 @@
         <v>17.511111778977533</v>
       </c>
       <c r="CH266" s="23">
-        <v>16.336937356424926</v>
+        <v>16.339846921800856</v>
       </c>
       <c r="CI266" s="23">
-        <v>13.848962077025112</v>
+        <v>13.808644912385995</v>
       </c>
       <c r="CJ266" s="23">
-        <v>20.424577290913689</v>
+        <v>19.935407145391952</v>
       </c>
       <c r="CK266" s="23">
-        <v>16.170931666065574</v>
+        <v>16.213064461994026</v>
       </c>
       <c r="CL266" s="23">
-        <v>15.368910426860738</v>
+        <v>15.454108227826113</v>
       </c>
       <c r="CM266" s="23">
-        <v>13.402179083958043</v>
+        <v>13.311345977488772</v>
       </c>
       <c r="CN266" s="23">
-        <v>19.767310921228358</v>
+        <v>19.483181617773287</v>
       </c>
       <c r="CO266" s="23">
-        <v>18.75750028129443</v>
+        <v>18.974053532241584</v>
       </c>
       <c r="CP266" s="9"/>
       <c r="CQ266" s="9"/>
@@ -61315,28 +61317,28 @@
         <v>3.3006903232736988</v>
       </c>
       <c r="CH267" s="23">
-        <v>2.5285930240381393</v>
+        <v>2.5289474698006416</v>
       </c>
       <c r="CI267" s="23">
-        <v>2.4000561312605813</v>
+        <v>2.3930688898931622</v>
       </c>
       <c r="CJ267" s="23">
-        <v>3.2819320480899568</v>
+        <v>3.3101979500283831</v>
       </c>
       <c r="CK267" s="23">
-        <v>3.2650022477834981</v>
+        <v>3.273828999670175</v>
       </c>
       <c r="CL267" s="23">
-        <v>2.5239546461273399</v>
+        <v>2.5678347679167639</v>
       </c>
       <c r="CM267" s="23">
-        <v>2.523546798694452</v>
+        <v>2.5719774213154714</v>
       </c>
       <c r="CN267" s="23">
-        <v>3.0960792683345257</v>
+        <v>3.0666407434800922</v>
       </c>
       <c r="CO267" s="23">
-        <v>3.3386018639783805</v>
+        <v>3.4096386625753392</v>
       </c>
       <c r="CP267" s="9"/>
       <c r="CQ267" s="9"/>
@@ -61655,28 +61657,28 @@
         <v>2.0344495464227137</v>
       </c>
       <c r="CH268" s="23">
-        <v>1.5265056784633602</v>
+        <v>1.5267832596251434</v>
       </c>
       <c r="CI268" s="23">
-        <v>1.7066008422863432</v>
+        <v>1.7016324451528009</v>
       </c>
       <c r="CJ268" s="23">
-        <v>2.2578694289311545</v>
+        <v>2.2773155097557356</v>
       </c>
       <c r="CK268" s="23">
-        <v>1.8384660936192652</v>
+        <v>1.8435608951080078</v>
       </c>
       <c r="CL268" s="23">
-        <v>1.4814873025385729</v>
+        <v>1.5009875378777431</v>
       </c>
       <c r="CM268" s="23">
-        <v>1.478043539734849</v>
+        <v>1.5019437522178971</v>
       </c>
       <c r="CN268" s="23">
-        <v>1.73495617491492</v>
+        <v>1.7595167800461178</v>
       </c>
       <c r="CO268" s="23">
-        <v>2.0264102191368476</v>
+        <v>2.0581225699364842</v>
       </c>
       <c r="CP268" s="9"/>
       <c r="CQ268" s="9"/>
@@ -61995,28 +61997,28 @@
         <v>5.7216395820689039</v>
       </c>
       <c r="CH269" s="23">
-        <v>4.5207271813367447</v>
+        <v>4.5215492344223005</v>
       </c>
       <c r="CI269" s="23">
-        <v>4.0052456016295288</v>
+        <v>3.9935862763093208</v>
       </c>
       <c r="CJ269" s="23">
-        <v>6.9974963532628554</v>
+        <v>6.3926844005550603</v>
       </c>
       <c r="CK269" s="23">
-        <v>4.008840020187856</v>
+        <v>4.0172153452225894</v>
       </c>
       <c r="CL269" s="23">
-        <v>3.5826960892298207</v>
+        <v>3.6144807823377962</v>
       </c>
       <c r="CM269" s="23">
-        <v>3.5216176959729979</v>
+        <v>3.4936282588017993</v>
       </c>
       <c r="CN269" s="23">
-        <v>7.7813084531597143</v>
+        <v>7.7889293610413173</v>
       </c>
       <c r="CO269" s="23">
-        <v>6.0240685840568329</v>
+        <v>5.9637582807487046</v>
       </c>
       <c r="CP269" s="9"/>
       <c r="CQ269" s="9"/>
@@ -62335,28 +62337,28 @@
         <v>6.4543323272122146</v>
       </c>
       <c r="CH270" s="23">
-        <v>7.7611114725866788</v>
+        <v>7.7625669579527727</v>
       </c>
       <c r="CI270" s="23">
-        <v>5.737059501848659</v>
+        <v>5.7203573010307105</v>
       </c>
       <c r="CJ270" s="23">
-        <v>7.8872794606297258</v>
+        <v>7.9552092850527734</v>
       </c>
       <c r="CK270" s="23">
-        <v>7.0586233044749553</v>
+        <v>7.0784592219932536</v>
       </c>
       <c r="CL270" s="23">
-        <v>7.7807723889650058</v>
+        <v>7.7708051396938096</v>
       </c>
       <c r="CM270" s="23">
-        <v>5.8789710495557452</v>
+        <v>5.7437965451536046</v>
       </c>
       <c r="CN270" s="23">
-        <v>7.1549670248191939</v>
+        <v>6.8680947332057585</v>
       </c>
       <c r="CO270" s="23">
-        <v>7.3684196141223683</v>
+        <v>7.5425340189810548</v>
       </c>
       <c r="CP270" s="9"/>
       <c r="CQ270" s="9"/>
@@ -62675,28 +62677,28 @@
         <v>45.978866300178304</v>
       </c>
       <c r="CH271" s="23">
-        <v>46.211333849853958</v>
+        <v>46.219737978930482</v>
       </c>
       <c r="CI271" s="23">
-        <v>45.344035335165515</v>
+        <v>45.452542508211856</v>
       </c>
       <c r="CJ271" s="23">
-        <v>41.051253033899577</v>
+        <v>41.208630690624403</v>
       </c>
       <c r="CK271" s="23">
-        <v>46.596279771343688</v>
+        <v>46.24748043484135</v>
       </c>
       <c r="CL271" s="23">
-        <v>50.873226516980793</v>
+        <v>50.314760944539771</v>
       </c>
       <c r="CM271" s="23">
-        <v>50.758732806213878</v>
+        <v>50.803053659598838</v>
       </c>
       <c r="CN271" s="23">
-        <v>48.705161428891763</v>
+        <v>49.242608621183727</v>
       </c>
       <c r="CO271" s="23">
-        <v>48.65198399352397</v>
+        <v>48.367427192743008</v>
       </c>
       <c r="CP271" s="9"/>
       <c r="CQ271" s="9"/>
@@ -63015,28 +63017,28 @@
         <v>42.969135348358698</v>
       </c>
       <c r="CH272" s="23">
-        <v>42.81507632079181</v>
+        <v>42.822861852673299</v>
       </c>
       <c r="CI272" s="23">
-        <v>41.552384381082447</v>
+        <v>41.661063945729353</v>
       </c>
       <c r="CJ272" s="23">
-        <v>39.446284331357653</v>
+        <v>39.589839066920327</v>
       </c>
       <c r="CK272" s="23">
-        <v>39.155081103905992</v>
+        <v>38.786171209830727</v>
       </c>
       <c r="CL272" s="23">
-        <v>43.774951367855458</v>
+        <v>43.163754666057237</v>
       </c>
       <c r="CM272" s="23">
-        <v>42.442895922276129</v>
+        <v>42.431530735086568</v>
       </c>
       <c r="CN272" s="23">
-        <v>45.485524528585238</v>
+        <v>45.987484252702053</v>
       </c>
       <c r="CO272" s="23">
-        <v>45.78790371647333</v>
+        <v>45.472712394108079</v>
       </c>
       <c r="CP272" s="9"/>
       <c r="CQ272" s="9"/>
@@ -63355,28 +63357,28 @@
         <v>0.38767016268592724</v>
       </c>
       <c r="CH273" s="23">
-        <v>0.77159097842331104</v>
+        <v>0.77173128521891199</v>
       </c>
       <c r="CI273" s="23">
-        <v>6.3717848005447183E-3</v>
+        <v>6.3532347350846747E-3</v>
       </c>
       <c r="CJ273" s="23">
-        <v>0.39282165631105437</v>
+        <v>0.39620486420624546</v>
       </c>
       <c r="CK273" s="23">
-        <v>0.97244233255827117</v>
+        <v>0.97507068791268114</v>
       </c>
       <c r="CL273" s="23">
-        <v>0.52067900031187087</v>
+        <v>0.52477995224046059</v>
       </c>
       <c r="CM273" s="23">
-        <v>0.34501702246415089</v>
+        <v>0.34945788502588138</v>
       </c>
       <c r="CN273" s="23">
-        <v>1.4279656821173417E-2</v>
+        <v>1.5012281153202679E-2</v>
       </c>
       <c r="CO273" s="23">
-        <v>3.6356509870363036E-3</v>
+        <v>3.6217891494582564E-3</v>
       </c>
       <c r="CP273" s="9"/>
       <c r="CQ273" s="9"/>
@@ -63695,28 +63697,28 @@
         <v>2.2951475256583862</v>
       </c>
       <c r="CH274" s="23">
-        <v>0.47235063445177744</v>
+        <v>0.47243652711482476</v>
       </c>
       <c r="CI274" s="23">
-        <v>3.2180463690326158</v>
+        <v>3.2195439024113077</v>
       </c>
       <c r="CJ274" s="23">
-        <v>0.85563717995266275</v>
+        <v>0.86300642351682788</v>
       </c>
       <c r="CK274" s="23">
-        <v>5.8893566533943238</v>
+        <v>5.9052728313827174</v>
       </c>
       <c r="CL274" s="23">
-        <v>4.2449944961193111</v>
+        <v>4.2735220347393685</v>
       </c>
       <c r="CM274" s="23">
-        <v>3.6129311234383668</v>
+        <v>3.6080815237895179</v>
       </c>
       <c r="CN274" s="23">
-        <v>1.5066425503253134</v>
+        <v>1.5235833810087815</v>
       </c>
       <c r="CO274" s="23">
-        <v>1.5094473713096885</v>
+        <v>1.5394154248311571</v>
       </c>
       <c r="CP274" s="9"/>
       <c r="CQ274" s="9"/>
@@ -64035,28 +64037,28 @@
         <v>0.32691326347529531</v>
       </c>
       <c r="CH275" s="23">
-        <v>2.1523159161870598</v>
+        <v>2.1527083139234451</v>
       </c>
       <c r="CI275" s="23">
-        <v>0.56723280024990652</v>
+        <v>0.56558142533611167</v>
       </c>
       <c r="CJ275" s="23">
-        <v>0.3565098662782123</v>
+        <v>0.35958033598101019</v>
       </c>
       <c r="CK275" s="23">
-        <v>0.57939968148510257</v>
+        <v>0.58096570571521655</v>
       </c>
       <c r="CL275" s="23">
-        <v>2.3326016526941462</v>
+        <v>2.3527042915027088</v>
       </c>
       <c r="CM275" s="23">
-        <v>4.3578887380352347</v>
+        <v>4.4139835156968736</v>
       </c>
       <c r="CN275" s="23">
-        <v>1.6987146931600372</v>
+        <v>1.7165287063196852</v>
       </c>
       <c r="CO275" s="23">
-        <v>1.3509972547539155</v>
+        <v>1.3516775846543154</v>
       </c>
       <c r="CP275" s="9"/>
       <c r="CQ275" s="9"/>
@@ -64375,28 +64377,28 @@
         <v>14.261196627224743</v>
       </c>
       <c r="CH276" s="23">
-        <v>18.697391372078538</v>
+        <v>18.682614628512024</v>
       </c>
       <c r="CI276" s="23">
-        <v>29.035436744144029</v>
+        <v>29.000714076401579</v>
       </c>
       <c r="CJ276" s="23">
-        <v>19.451519823333644</v>
+        <v>19.619047591679639</v>
       </c>
       <c r="CK276" s="23">
-        <v>14.222247715858618</v>
+        <v>14.454573230428212</v>
       </c>
       <c r="CL276" s="23">
-        <v>17.117933934161254</v>
+        <v>17.429428777480034</v>
       </c>
       <c r="CM276" s="23">
-        <v>25.848948254987569</v>
+        <v>25.802214259916489</v>
       </c>
       <c r="CN276" s="23">
-        <v>16.310288304592092</v>
+        <v>16.1002709293602</v>
       </c>
       <c r="CO276" s="23">
-        <v>14.002853164744538</v>
+        <v>13.69675863552694</v>
       </c>
       <c r="CP276" s="9"/>
       <c r="CQ276" s="9"/>
@@ -64715,28 +64717,28 @@
         <v>1.2413781279375373</v>
       </c>
       <c r="CH277" s="23">
-        <v>1.5851777825758382</v>
+        <v>1.5854660327256596</v>
       </c>
       <c r="CI277" s="23">
-        <v>3.1359430240320578</v>
+        <v>3.1268199317116117</v>
       </c>
       <c r="CJ277" s="23">
-        <v>1.4720483423776007</v>
+        <v>1.4847264763196133</v>
       </c>
       <c r="CK277" s="23">
-        <v>0.84218041392988063</v>
+        <v>0.84353345288033998</v>
       </c>
       <c r="CL277" s="23">
-        <v>1.3903996332534274</v>
+        <v>1.3987471998692718</v>
       </c>
       <c r="CM277" s="23">
-        <v>2.2136090478015982</v>
+        <v>2.2519313749982639</v>
       </c>
       <c r="CN277" s="23">
-        <v>1.239614089594107</v>
+        <v>1.2356304184083955</v>
       </c>
       <c r="CO277" s="23">
-        <v>1.1944518379605058</v>
+        <v>1.1953693434742636</v>
       </c>
       <c r="CP277" s="9"/>
       <c r="CQ277" s="9"/>
@@ -65055,28 +65057,28 @@
         <v>2.289595389112709</v>
       </c>
       <c r="CH278" s="23">
-        <v>3.6723299690547204</v>
+        <v>3.6567793797709038</v>
       </c>
       <c r="CI278" s="23">
-        <v>4.9051975424459826</v>
+        <v>4.9354895377295316</v>
       </c>
       <c r="CJ278" s="23">
-        <v>2.7361234945994419</v>
+        <v>2.7596885767694959</v>
       </c>
       <c r="CK278" s="23">
-        <v>2.403879715202105</v>
+        <v>2.4168924945728918</v>
       </c>
       <c r="CL278" s="23">
-        <v>3.3945687706316021</v>
+        <v>3.4217620223566634</v>
       </c>
       <c r="CM278" s="23">
-        <v>3.9678662463742862</v>
+        <v>4.0266822647787732</v>
       </c>
       <c r="CN278" s="23">
-        <v>2.1525801335013064</v>
+        <v>2.0411907917546968</v>
       </c>
       <c r="CO278" s="23">
-        <v>2.2485980000022958</v>
+        <v>2.2798502621119159</v>
       </c>
       <c r="CP278" s="9"/>
       <c r="CQ278" s="9"/>
@@ -65395,28 +65397,28 @@
         <v>6.965363933227346</v>
       </c>
       <c r="CH279" s="23">
-        <v>7.5717548806314943</v>
+        <v>7.5709292922009093</v>
       </c>
       <c r="CI279" s="23">
-        <v>14.924673825978999</v>
+        <v>14.886452640489834</v>
       </c>
       <c r="CJ279" s="23">
-        <v>11.644700413100724</v>
+        <v>11.744991325635192</v>
       </c>
       <c r="CK279" s="23">
-        <v>7.5555194171536719</v>
+        <v>7.7642421838679256</v>
       </c>
       <c r="CL279" s="23">
-        <v>8.1765164957278724</v>
+        <v>8.2559742152183979</v>
       </c>
       <c r="CM279" s="23">
-        <v>14.297672628269137</v>
+        <v>14.234703092163963</v>
       </c>
       <c r="CN279" s="23">
-        <v>9.7301664833129173</v>
+        <v>9.6620322896961071</v>
       </c>
       <c r="CO279" s="23">
-        <v>7.1754072565760438</v>
+        <v>7.2935227924473951</v>
       </c>
       <c r="CP279" s="9"/>
       <c r="CQ279" s="9"/>
@@ -65735,28 +65737,28 @@
         <v>3.7648591769471511</v>
       </c>
       <c r="CH280" s="23">
-        <v>5.868128739816485</v>
+        <v>5.8694399238145483</v>
       </c>
       <c r="CI280" s="23">
-        <v>6.0696223516869887</v>
+        <v>6.0519519664706038</v>
       </c>
       <c r="CJ280" s="23">
-        <v>3.5986475732558767</v>
+        <v>3.6296412129553359</v>
       </c>
       <c r="CK280" s="23">
-        <v>3.420668169572961</v>
+        <v>3.4299050991070508</v>
       </c>
       <c r="CL280" s="23">
-        <v>4.1564490345483511</v>
+        <v>4.3529453400357001</v>
       </c>
       <c r="CM280" s="23">
-        <v>5.3698003325425514</v>
+        <v>5.2888975279754922</v>
       </c>
       <c r="CN280" s="23">
-        <v>3.1879275981837609</v>
+        <v>3.161417429501002</v>
       </c>
       <c r="CO280" s="23">
-        <v>3.3843960702056917</v>
+        <v>2.928016237493364</v>
       </c>
       <c r="CP280" s="9"/>
       <c r="CQ280" s="9"/>

--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A99FA79-2D0A-4BDD-B854-F69253B7680C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A0DAD-F19E-44E1-8703-537385C66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CO$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CP$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="76">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -261,13 +261,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +406,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,7 +759,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,8 +771,8 @@
     <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="93" width="9.21875" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="94" width="9.21875" style="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -779,7 +787,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -789,7 +797,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -799,144 +807,147 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="25">
+      <c r="B9" s="28">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
+      <c r="AP9" s="28">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="28"/>
+      <c r="AR9" s="28"/>
+      <c r="AS9" s="28"/>
+      <c r="AT9" s="28">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="28"/>
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="28"/>
+      <c r="BB9" s="28">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="28"/>
+      <c r="CF9" s="28"/>
+      <c r="CG9" s="28"/>
+      <c r="CH9" s="28">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="25">
+      <c r="CI9" s="28"/>
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="28"/>
+      <c r="CL9" s="28">
         <v>2022</v>
       </c>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1217,6 +1228,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1466,43 +1480,45 @@
       <c r="CC12" s="8">
         <v>56446.877325699985</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="26">
         <v>54429.142017296275</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="26">
         <v>27012.413717968855</v>
       </c>
-      <c r="CF12" s="8">
+      <c r="CF12" s="26">
         <v>37620.98400344485</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="26">
         <v>51276.382492793287</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="26">
         <v>58541.326799276714</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="26">
         <v>47873.9429215782</v>
       </c>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="26">
         <v>40647.66566784482</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CK12" s="26">
         <v>58275.074193118606</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="26">
         <v>62127.065395262369</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="26">
         <v>49334.66666877734</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="26">
         <v>41442.460552130084</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="26">
         <v>56443.883811741136</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="26">
+        <v>64001.49529025684</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -1806,43 +1822,45 @@
       <c r="CC13" s="11">
         <v>2680.7892509557855</v>
       </c>
-      <c r="CD13" s="11">
+      <c r="CD13" s="27">
         <v>2876.7840872852312</v>
       </c>
-      <c r="CE13" s="11">
+      <c r="CE13" s="27">
         <v>1567.3513225054967</v>
       </c>
-      <c r="CF13" s="11">
+      <c r="CF13" s="27">
         <v>2729.6722210206449</v>
       </c>
-      <c r="CG13" s="11">
+      <c r="CG13" s="27">
         <v>4505.6216796295748</v>
       </c>
-      <c r="CH13" s="11">
+      <c r="CH13" s="27">
         <v>5360.9786303835454</v>
       </c>
-      <c r="CI13" s="11">
+      <c r="CI13" s="27">
         <v>3920.7370998992515</v>
       </c>
-      <c r="CJ13" s="11">
+      <c r="CJ13" s="27">
         <v>4431.104680267822</v>
       </c>
-      <c r="CK13" s="11">
+      <c r="CK13" s="27">
         <v>4316.9027270498527</v>
       </c>
-      <c r="CL13" s="11">
+      <c r="CL13" s="27">
         <v>2501.1893205300003</v>
       </c>
-      <c r="CM13" s="11">
+      <c r="CM13" s="27">
         <v>2438.1245430334579</v>
       </c>
-      <c r="CN13" s="11">
+      <c r="CN13" s="27">
         <v>2966.1475999427439</v>
       </c>
-      <c r="CO13" s="11">
+      <c r="CO13" s="27">
         <v>2853.8755453337226</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="27">
+        <v>2974.3246228619137</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -2146,43 +2164,45 @@
       <c r="CC14" s="11">
         <v>9996.9045516721235</v>
       </c>
-      <c r="CD14" s="11">
+      <c r="CD14" s="27">
         <v>9332.9699428358617</v>
       </c>
-      <c r="CE14" s="11">
+      <c r="CE14" s="27">
         <v>5431.6666731016112</v>
       </c>
-      <c r="CF14" s="11">
+      <c r="CF14" s="27">
         <v>5613.5086988568692</v>
       </c>
-      <c r="CG14" s="11">
+      <c r="CG14" s="27">
         <v>4832.1147367375515</v>
       </c>
-      <c r="CH14" s="11">
+      <c r="CH14" s="27">
         <v>6469.3368344882674</v>
       </c>
-      <c r="CI14" s="11">
+      <c r="CI14" s="27">
         <v>9794.8308621653341</v>
       </c>
-      <c r="CJ14" s="11">
+      <c r="CJ14" s="27">
         <v>9187.5535580913565</v>
       </c>
-      <c r="CK14" s="11">
+      <c r="CK14" s="27">
         <v>11126.761917937496</v>
       </c>
-      <c r="CL14" s="11">
+      <c r="CL14" s="27">
         <v>9501.003038080893</v>
       </c>
-      <c r="CM14" s="11">
+      <c r="CM14" s="27">
         <v>9312.2803256344141</v>
       </c>
-      <c r="CN14" s="11">
+      <c r="CN14" s="27">
         <v>10323.553975386678</v>
       </c>
-      <c r="CO14" s="11">
+      <c r="CO14" s="27">
         <v>12378.839759178214</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="27">
+        <v>12909.173868377293</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -2486,43 +2506,45 @@
       <c r="CC15" s="11">
         <v>973.77945132840352</v>
       </c>
-      <c r="CD15" s="11">
+      <c r="CD15" s="27">
         <v>660.75092556133814</v>
       </c>
-      <c r="CE15" s="11">
+      <c r="CE15" s="27">
         <v>404.71505125747746</v>
       </c>
-      <c r="CF15" s="11">
+      <c r="CF15" s="27">
         <v>615.67969005739315</v>
       </c>
-      <c r="CG15" s="11">
+      <c r="CG15" s="27">
         <v>531.70689191179281</v>
       </c>
-      <c r="CH15" s="11">
+      <c r="CH15" s="27">
         <v>471.65605528852143</v>
       </c>
-      <c r="CI15" s="11">
+      <c r="CI15" s="27">
         <v>501.66476677997207</v>
       </c>
-      <c r="CJ15" s="11">
+      <c r="CJ15" s="27">
         <v>591.41483901841161</v>
       </c>
-      <c r="CK15" s="11">
+      <c r="CK15" s="27">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="11">
+      <c r="CL15" s="27">
         <v>650.43149024144066</v>
       </c>
-      <c r="CM15" s="11">
+      <c r="CM15" s="27">
         <v>698.64256169906594</v>
       </c>
-      <c r="CN15" s="11">
+      <c r="CN15" s="27">
         <v>729.30421650781761</v>
       </c>
-      <c r="CO15" s="11">
+      <c r="CO15" s="27">
         <v>939.38620247191375</v>
       </c>
-      <c r="CP15" s="9"/>
+      <c r="CP15" s="27">
+        <v>700.51736286809933</v>
+      </c>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
@@ -2826,43 +2848,45 @@
       <c r="CC16" s="11">
         <v>1188.0329562434067</v>
       </c>
-      <c r="CD16" s="11">
+      <c r="CD16" s="27">
         <v>1812.981954079394</v>
       </c>
-      <c r="CE16" s="11">
+      <c r="CE16" s="27">
         <v>376.39117337805163</v>
       </c>
-      <c r="CF16" s="11">
+      <c r="CF16" s="27">
         <v>495.15649386209083</v>
       </c>
-      <c r="CG16" s="11">
+      <c r="CG16" s="27">
         <v>445.71165916397956</v>
       </c>
-      <c r="CH16" s="11">
+      <c r="CH16" s="27">
         <v>482.06090742586434</v>
       </c>
-      <c r="CI16" s="11">
+      <c r="CI16" s="27">
         <v>353.9126695930442</v>
       </c>
-      <c r="CJ16" s="11">
+      <c r="CJ16" s="27">
         <v>465.25586962896028</v>
       </c>
-      <c r="CK16" s="11">
+      <c r="CK16" s="27">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="11">
+      <c r="CL16" s="27">
         <v>423.35151375127072</v>
       </c>
-      <c r="CM16" s="11">
+      <c r="CM16" s="27">
         <v>376.20606291950469</v>
       </c>
-      <c r="CN16" s="11">
+      <c r="CN16" s="27">
         <v>563.01185576389378</v>
       </c>
-      <c r="CO16" s="11">
+      <c r="CO16" s="27">
         <v>615.82817693625566</v>
       </c>
-      <c r="CP16" s="9"/>
+      <c r="CP16" s="27">
+        <v>471.93418061740095</v>
+      </c>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
@@ -3166,43 +3190,45 @@
       <c r="CC17" s="11">
         <v>3896.2546141568387</v>
       </c>
-      <c r="CD17" s="11">
+      <c r="CD17" s="27">
         <v>3355.5325382214478</v>
       </c>
-      <c r="CE17" s="11">
+      <c r="CE17" s="27">
         <v>2501.5245453736138</v>
       </c>
-      <c r="CF17" s="11">
+      <c r="CF17" s="27">
         <v>2897.8470067760272</v>
       </c>
-      <c r="CG17" s="11">
+      <c r="CG17" s="27">
         <v>2314.3770870556236</v>
       </c>
-      <c r="CH17" s="11">
+      <c r="CH17" s="27">
         <v>2699.5914759839416</v>
       </c>
-      <c r="CI17" s="11">
+      <c r="CI17" s="27">
         <v>3347.9943616944333</v>
       </c>
-      <c r="CJ17" s="11">
+      <c r="CJ17" s="27">
         <v>3338.8216530237387</v>
       </c>
-      <c r="CK17" s="11">
+      <c r="CK17" s="27">
         <v>2999.8221527660235</v>
       </c>
-      <c r="CL17" s="11">
+      <c r="CL17" s="27">
         <v>3748.701186385681</v>
       </c>
-      <c r="CM17" s="11">
+      <c r="CM17" s="27">
         <v>2833.3985227820776</v>
       </c>
-      <c r="CN17" s="11">
+      <c r="CN17" s="27">
         <v>2597.6599899346902</v>
       </c>
-      <c r="CO17" s="11">
+      <c r="CO17" s="27">
         <v>3318.4071925493995</v>
       </c>
-      <c r="CP17" s="9"/>
+      <c r="CP17" s="27">
+        <v>4121.7732731416563</v>
+      </c>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
@@ -3506,43 +3532,45 @@
       <c r="CC18" s="11">
         <v>26147.356159545274</v>
       </c>
-      <c r="CD18" s="11">
+      <c r="CD18" s="27">
         <v>27992.057503247051</v>
       </c>
-      <c r="CE18" s="11">
+      <c r="CE18" s="27">
         <v>11271.729702735385</v>
       </c>
-      <c r="CF18" s="11">
+      <c r="CF18" s="27">
         <v>17526.625513341747</v>
       </c>
-      <c r="CG18" s="11">
+      <c r="CG18" s="27">
         <v>30655.654184141502</v>
       </c>
-      <c r="CH18" s="11">
+      <c r="CH18" s="27">
         <v>33111.414611867964</v>
       </c>
-      <c r="CI18" s="11">
+      <c r="CI18" s="27">
         <v>20875.999648424353</v>
       </c>
-      <c r="CJ18" s="11">
+      <c r="CJ18" s="27">
         <v>14376.565024355747</v>
       </c>
-      <c r="CK18" s="11">
+      <c r="CK18" s="27">
         <v>27696.613856543641</v>
       </c>
-      <c r="CL18" s="11">
+      <c r="CL18" s="27">
         <v>34737.260755101379</v>
       </c>
-      <c r="CM18" s="11">
+      <c r="CM18" s="27">
         <v>24233.83039362252</v>
       </c>
-      <c r="CN18" s="11">
+      <c r="CN18" s="27">
         <v>15206.00093161609</v>
       </c>
-      <c r="CO18" s="11">
+      <c r="CO18" s="27">
         <v>25689.646573083148</v>
       </c>
-      <c r="CP18" s="9"/>
+      <c r="CP18" s="27">
+        <v>33080.357167685288</v>
+      </c>
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
@@ -3846,43 +3874,45 @@
       <c r="CC19" s="11">
         <v>1651.387081347116</v>
       </c>
-      <c r="CD19" s="11">
+      <c r="CD19" s="27">
         <v>1451.4588460696427</v>
       </c>
-      <c r="CE19" s="11">
+      <c r="CE19" s="27">
         <v>657.11867446437941</v>
       </c>
-      <c r="CF19" s="11">
+      <c r="CF19" s="27">
         <v>1835.7056867492802</v>
       </c>
-      <c r="CG19" s="11">
+      <c r="CG19" s="27">
         <v>1077.2672972378546</v>
       </c>
-      <c r="CH19" s="11">
+      <c r="CH19" s="27">
         <v>1542.424047462154</v>
       </c>
-      <c r="CI19" s="11">
+      <c r="CI19" s="27">
         <v>585.49590673763339</v>
       </c>
-      <c r="CJ19" s="11">
+      <c r="CJ19" s="27">
         <v>944.65683744733678</v>
       </c>
-      <c r="CK19" s="11">
+      <c r="CK19" s="27">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="11">
+      <c r="CL19" s="27">
         <v>742.23927768370243</v>
       </c>
-      <c r="CM19" s="11">
+      <c r="CM19" s="27">
         <v>723.31973542125149</v>
       </c>
-      <c r="CN19" s="11">
+      <c r="CN19" s="27">
         <v>449.78254081928537</v>
       </c>
-      <c r="CO19" s="11">
+      <c r="CO19" s="27">
         <v>1235.3037827320438</v>
       </c>
-      <c r="CP19" s="9"/>
+      <c r="CP19" s="27">
+        <v>1184.6059461211316</v>
+      </c>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
@@ -4186,43 +4216,45 @@
       <c r="CC20" s="11">
         <v>9912.3732604510333</v>
       </c>
-      <c r="CD20" s="11">
+      <c r="CD20" s="27">
         <v>6946.6062199963153</v>
       </c>
-      <c r="CE20" s="11">
+      <c r="CE20" s="27">
         <v>4801.9165751528426</v>
       </c>
-      <c r="CF20" s="11">
+      <c r="CF20" s="27">
         <v>5906.7886927808004</v>
       </c>
-      <c r="CG20" s="11">
+      <c r="CG20" s="27">
         <v>6913.9289569154098</v>
       </c>
-      <c r="CH20" s="11">
+      <c r="CH20" s="27">
         <v>8403.864236376452</v>
       </c>
-      <c r="CI20" s="11">
+      <c r="CI20" s="27">
         <v>8493.307606284181</v>
       </c>
-      <c r="CJ20" s="11">
+      <c r="CJ20" s="27">
         <v>7312.2932060114472</v>
       </c>
-      <c r="CK20" s="11">
+      <c r="CK20" s="27">
         <v>9496.8426950597295</v>
       </c>
-      <c r="CL20" s="11">
+      <c r="CL20" s="27">
         <v>9822.8888134880017</v>
       </c>
-      <c r="CM20" s="11">
+      <c r="CM20" s="27">
         <v>8718.86452366505</v>
       </c>
-      <c r="CN20" s="11">
+      <c r="CN20" s="27">
         <v>8606.999442158889</v>
       </c>
-      <c r="CO20" s="11">
+      <c r="CO20" s="27">
         <v>9412.5965794564363</v>
       </c>
-      <c r="CP20" s="9"/>
+      <c r="CP20" s="27">
+        <v>8558.8088685840576</v>
+      </c>
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
       <c r="CS20" s="9"/>
@@ -4526,43 +4558,45 @@
       <c r="CC21" s="8">
         <v>56071.240605869185</v>
       </c>
-      <c r="CD21" s="8">
+      <c r="CD21" s="26">
         <v>58804.626629109742</v>
       </c>
-      <c r="CE21" s="8">
+      <c r="CE21" s="26">
         <v>32505.460461454451</v>
       </c>
-      <c r="CF21" s="8">
+      <c r="CF21" s="26">
         <v>43353.930792332612</v>
       </c>
-      <c r="CG21" s="8">
+      <c r="CG21" s="26">
         <v>45363.207117669983</v>
       </c>
-      <c r="CH21" s="8">
+      <c r="CH21" s="26">
         <v>49694.822060481893</v>
       </c>
-      <c r="CI21" s="8">
+      <c r="CI21" s="26">
         <v>40266.574644393491</v>
       </c>
-      <c r="CJ21" s="8">
+      <c r="CJ21" s="26">
         <v>44584.322119758086</v>
       </c>
-      <c r="CK21" s="8">
+      <c r="CK21" s="26">
         <v>47395.956823974513</v>
       </c>
-      <c r="CL21" s="8">
+      <c r="CL21" s="26">
         <v>55164.47460116852</v>
       </c>
-      <c r="CM21" s="8">
+      <c r="CM21" s="26">
         <v>49118.606042486688</v>
       </c>
-      <c r="CN21" s="8">
+      <c r="CN21" s="26">
         <v>57879.628408538163</v>
       </c>
-      <c r="CO21" s="8">
+      <c r="CO21" s="26">
         <v>63024.81368645811</v>
       </c>
-      <c r="CP21" s="9"/>
+      <c r="CP21" s="26">
+        <v>66844.226107525945</v>
+      </c>
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
       <c r="CS21" s="9"/>
@@ -4866,43 +4900,45 @@
       <c r="CC22" s="11">
         <v>11054.87107140085</v>
       </c>
-      <c r="CD22" s="11">
+      <c r="CD22" s="27">
         <v>10627.784174922195</v>
       </c>
-      <c r="CE22" s="11">
+      <c r="CE22" s="27">
         <v>4274.3484630486419</v>
       </c>
-      <c r="CF22" s="11">
+      <c r="CF22" s="27">
         <v>7978.0223233950728</v>
       </c>
-      <c r="CG22" s="11">
+      <c r="CG22" s="27">
         <v>8386.6463101162626</v>
       </c>
-      <c r="CH22" s="11">
+      <c r="CH22" s="27">
         <v>7886.6884581976483</v>
       </c>
-      <c r="CI22" s="11">
+      <c r="CI22" s="27">
         <v>7155.0963550419592</v>
       </c>
-      <c r="CJ22" s="11">
+      <c r="CJ22" s="27">
         <v>7280.6033560321166</v>
       </c>
-      <c r="CK22" s="11">
+      <c r="CK22" s="27">
         <v>10008.565084635895</v>
       </c>
-      <c r="CL22" s="11">
+      <c r="CL22" s="27">
         <v>9628.082742530145</v>
       </c>
-      <c r="CM22" s="11">
+      <c r="CM22" s="27">
         <v>9920.8941364997227</v>
       </c>
-      <c r="CN22" s="11">
+      <c r="CN22" s="27">
         <v>9169.3899887965817</v>
       </c>
-      <c r="CO22" s="11">
+      <c r="CO22" s="27">
         <v>11983.373548752726</v>
       </c>
-      <c r="CP22" s="9"/>
+      <c r="CP22" s="27">
+        <v>11423.91644326433</v>
+      </c>
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
       <c r="CS22" s="9"/>
@@ -5206,43 +5242,45 @@
       <c r="CC23" s="11">
         <v>6882.360474809715</v>
       </c>
-      <c r="CD23" s="11">
+      <c r="CD23" s="27">
         <v>5184.3391165111143</v>
       </c>
-      <c r="CE23" s="11">
+      <c r="CE23" s="27">
         <v>3120.7355212627249</v>
       </c>
-      <c r="CF23" s="11">
+      <c r="CF23" s="27">
         <v>4804.3805390311391</v>
       </c>
-      <c r="CG23" s="11">
+      <c r="CG23" s="27">
         <v>5273.1469018777589</v>
       </c>
-      <c r="CH23" s="11">
+      <c r="CH23" s="27">
         <v>4767.9726573387816</v>
       </c>
-      <c r="CI23" s="11">
+      <c r="CI23" s="27">
         <v>5096.9235369596818</v>
       </c>
-      <c r="CJ23" s="11">
+      <c r="CJ23" s="27">
         <v>5066.6062712290177</v>
       </c>
-      <c r="CK23" s="11">
+      <c r="CK23" s="27">
         <v>5483.9249386943147</v>
       </c>
-      <c r="CL23" s="11">
+      <c r="CL23" s="27">
         <v>5639.4054154257592</v>
       </c>
-      <c r="CM23" s="11">
+      <c r="CM23" s="27">
         <v>5668.285123550173</v>
       </c>
-      <c r="CN23" s="11">
+      <c r="CN23" s="27">
         <v>5197.2327979966367</v>
       </c>
-      <c r="CO23" s="11">
+      <c r="CO23" s="27">
         <v>7346.2982822480926</v>
       </c>
-      <c r="CP23" s="9"/>
+      <c r="CP23" s="27">
+        <v>7359.4376667976649</v>
+      </c>
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
       <c r="CS23" s="9"/>
@@ -5546,43 +5584,45 @@
       <c r="CC24" s="11">
         <v>17535.77311267157</v>
       </c>
-      <c r="CD24" s="11">
+      <c r="CD24" s="27">
         <v>12588.186661992386</v>
       </c>
-      <c r="CE24" s="11">
+      <c r="CE24" s="27">
         <v>12168.807582743522</v>
       </c>
-      <c r="CF24" s="11">
+      <c r="CF24" s="27">
         <v>13701.285774958433</v>
       </c>
-      <c r="CG24" s="11">
+      <c r="CG24" s="27">
         <v>15099.791007225485</v>
       </c>
-      <c r="CH24" s="11">
+      <c r="CH24" s="27">
         <v>13981.40718165418</v>
       </c>
-      <c r="CI24" s="11">
+      <c r="CI24" s="27">
         <v>11965.095857760432</v>
       </c>
-      <c r="CJ24" s="11">
+      <c r="CJ24" s="27">
         <v>14420.720098179194</v>
       </c>
-      <c r="CK24" s="11">
+      <c r="CK24" s="27">
         <v>12465.264015757841</v>
       </c>
-      <c r="CL24" s="11">
+      <c r="CL24" s="27">
         <v>13619.768968589058</v>
       </c>
-      <c r="CM24" s="11">
+      <c r="CM24" s="27">
         <v>13464.931485133506</v>
       </c>
-      <c r="CN24" s="11">
+      <c r="CN24" s="27">
         <v>24014.801496465923</v>
       </c>
-      <c r="CO24" s="11">
+      <c r="CO24" s="27">
         <v>22490.747102969784</v>
       </c>
-      <c r="CP24" s="9"/>
+      <c r="CP24" s="27">
+        <v>25030.468387628905</v>
+      </c>
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
       <c r="CS24" s="9"/>
@@ -5886,43 +5926,45 @@
       <c r="CC25" s="11">
         <v>20598.235946987053</v>
       </c>
-      <c r="CD25" s="11">
+      <c r="CD25" s="27">
         <v>30404.316675684051</v>
       </c>
-      <c r="CE25" s="11">
+      <c r="CE25" s="27">
         <v>12941.568894399561</v>
       </c>
-      <c r="CF25" s="11">
+      <c r="CF25" s="27">
         <v>16870.242154947966</v>
       </c>
-      <c r="CG25" s="11">
+      <c r="CG25" s="27">
         <v>16603.622898450478</v>
       </c>
-      <c r="CH25" s="11">
+      <c r="CH25" s="27">
         <v>23058.753763291286</v>
       </c>
-      <c r="CI25" s="11">
+      <c r="CI25" s="27">
         <v>16049.458894631422</v>
       </c>
-      <c r="CJ25" s="11">
+      <c r="CJ25" s="27">
         <v>17816.392394317758</v>
       </c>
-      <c r="CK25" s="11">
+      <c r="CK25" s="27">
         <v>19438.202784886464</v>
       </c>
-      <c r="CL25" s="11">
+      <c r="CL25" s="27">
         <v>26277.217474623558</v>
       </c>
-      <c r="CM25" s="11">
+      <c r="CM25" s="27">
         <v>20064.495297303285</v>
       </c>
-      <c r="CN25" s="11">
+      <c r="CN25" s="27">
         <v>19498.204125279019</v>
       </c>
-      <c r="CO25" s="11">
+      <c r="CO25" s="27">
         <v>21204.394752487504</v>
       </c>
-      <c r="CP25" s="9"/>
+      <c r="CP25" s="27">
+        <v>23030.403609835052</v>
+      </c>
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
       <c r="CS25" s="9"/>
@@ -6226,43 +6268,45 @@
       <c r="CC26" s="8">
         <v>192504.37455315443</v>
       </c>
-      <c r="CD26" s="8">
+      <c r="CD26" s="26">
         <v>160382.34935369136</v>
       </c>
-      <c r="CE26" s="8">
+      <c r="CE26" s="26">
         <v>40441.434287141805</v>
       </c>
-      <c r="CF26" s="8">
+      <c r="CF26" s="26">
         <v>91340.658707289302</v>
       </c>
-      <c r="CG26" s="8">
+      <c r="CG26" s="26">
         <v>115528.01967552473</v>
       </c>
-      <c r="CH26" s="8">
+      <c r="CH26" s="26">
         <v>124589.11055104242</v>
       </c>
-      <c r="CI26" s="8">
+      <c r="CI26" s="26">
         <v>104057.69156374272</v>
       </c>
-      <c r="CJ26" s="8">
+      <c r="CJ26" s="26">
         <v>104653.81286712343</v>
       </c>
-      <c r="CK26" s="8">
+      <c r="CK26" s="26">
         <v>132686.72850413472</v>
       </c>
-      <c r="CL26" s="8">
+      <c r="CL26" s="26">
         <v>163862.64855411998</v>
       </c>
-      <c r="CM26" s="8">
+      <c r="CM26" s="26">
         <v>145670.6522403901</v>
       </c>
-      <c r="CN26" s="8">
+      <c r="CN26" s="26">
         <v>162498.41427704878</v>
       </c>
-      <c r="CO26" s="8">
+      <c r="CO26" s="26">
         <v>161532.54019615345</v>
       </c>
-      <c r="CP26" s="9"/>
+      <c r="CP26" s="26">
+        <v>190798.26626250288</v>
+      </c>
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
       <c r="CS26" s="9"/>
@@ -6566,43 +6610,45 @@
       <c r="CC27" s="11">
         <v>163888.55372418906</v>
       </c>
-      <c r="CD27" s="11">
+      <c r="CD27" s="27">
         <v>147822.56854143695</v>
       </c>
-      <c r="CE27" s="11">
+      <c r="CE27" s="27">
         <v>34106.416729520301</v>
       </c>
-      <c r="CF27" s="11">
+      <c r="CF27" s="27">
         <v>88281.481473492124</v>
       </c>
-      <c r="CG27" s="11">
+      <c r="CG27" s="27">
         <v>107245.88624517893</v>
       </c>
-      <c r="CH27" s="11">
+      <c r="CH27" s="27">
         <v>113486.41667803671</v>
       </c>
-      <c r="CI27" s="11">
+      <c r="CI27" s="27">
         <v>95632.986730939097</v>
       </c>
-      <c r="CJ27" s="11">
+      <c r="CJ27" s="27">
         <v>100165.76240442932</v>
       </c>
-      <c r="CK27" s="11">
+      <c r="CK27" s="27">
         <v>109199.38588718358</v>
       </c>
-      <c r="CL27" s="11">
+      <c r="CL27" s="27">
         <v>136145.84524228523</v>
       </c>
-      <c r="CM27" s="11">
+      <c r="CM27" s="27">
         <v>122538.60684307599</v>
       </c>
-      <c r="CN27" s="11">
+      <c r="CN27" s="27">
         <v>150753.85957909332</v>
       </c>
-      <c r="CO27" s="11">
+      <c r="CO27" s="27">
         <v>150767.57828406111</v>
       </c>
-      <c r="CP27" s="9"/>
+      <c r="CP27" s="27">
+        <v>175887.76796197085</v>
+      </c>
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
       <c r="CS27" s="9"/>
@@ -6906,43 +6952,45 @@
       <c r="CC28" s="11">
         <v>498.63359315000002</v>
       </c>
-      <c r="CD28" s="11">
+      <c r="CD28" s="27">
         <v>895.28711383098755</v>
       </c>
-      <c r="CE28" s="11">
+      <c r="CE28" s="27">
         <v>20.871931768769699</v>
       </c>
-      <c r="CF28" s="11">
+      <c r="CF28" s="27">
         <v>4.5107882416510048</v>
       </c>
-      <c r="CG28" s="11">
+      <c r="CG28" s="27">
         <v>1105.678345077391</v>
       </c>
-      <c r="CH28" s="11">
+      <c r="CH28" s="27">
         <v>2174.525977291808</v>
       </c>
-      <c r="CI28" s="11">
+      <c r="CI28" s="27">
         <v>11.869001815650885</v>
       </c>
-      <c r="CJ28" s="11">
+      <c r="CJ28" s="27">
         <v>1084.8413776855873</v>
       </c>
-      <c r="CK28" s="11">
+      <c r="CK28" s="27">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="11">
+      <c r="CL28" s="27">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="11">
+      <c r="CM28" s="27">
         <v>809.44314838159949</v>
       </c>
-      <c r="CN28" s="11">
+      <c r="CN28" s="27">
         <v>52.072454557178339</v>
       </c>
-      <c r="CO28" s="11">
+      <c r="CO28" s="27">
         <v>14.196752864451399</v>
       </c>
-      <c r="CP28" s="9"/>
+      <c r="CP28" s="27">
+        <v>23.740871602603111</v>
+      </c>
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
       <c r="CS28" s="9"/>
@@ -7246,43 +7294,45 @@
       <c r="CC29" s="11">
         <v>25032.979233196886</v>
       </c>
-      <c r="CD29" s="11">
+      <c r="CD29" s="27">
         <v>10370.839139537815</v>
       </c>
-      <c r="CE29" s="11">
+      <c r="CE29" s="27">
         <v>2628.170361397219</v>
       </c>
-      <c r="CF29" s="11">
+      <c r="CF29" s="27">
         <v>2367.3802494111937</v>
       </c>
-      <c r="CG29" s="11">
+      <c r="CG29" s="27">
         <v>6343.2135165614418</v>
       </c>
-      <c r="CH29" s="11">
+      <c r="CH29" s="27">
         <v>1497.2602288694948</v>
       </c>
-      <c r="CI29" s="11">
+      <c r="CI29" s="27">
         <v>7148.4708343216016</v>
       </c>
-      <c r="CJ29" s="11">
+      <c r="CJ29" s="27">
         <v>2560.2614048595551</v>
       </c>
-      <c r="CK29" s="11">
+      <c r="CK29" s="27">
         <v>18605.757285374431</v>
       </c>
-      <c r="CL29" s="11">
+      <c r="CL29" s="27">
         <v>16475.704881461341</v>
       </c>
-      <c r="CM29" s="11">
+      <c r="CM29" s="27">
         <v>10090.867252894068</v>
       </c>
-      <c r="CN29" s="11">
+      <c r="CN29" s="27">
         <v>5730.9727403743063</v>
       </c>
-      <c r="CO29" s="11">
+      <c r="CO29" s="27">
         <v>5830.960525499645</v>
       </c>
-      <c r="CP29" s="9"/>
+      <c r="CP29" s="27">
+        <v>8389.0378876940722</v>
+      </c>
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
       <c r="CS29" s="9"/>
@@ -7586,43 +7636,45 @@
       <c r="CC30" s="11">
         <v>3084.2080026184885</v>
       </c>
-      <c r="CD30" s="11">
+      <c r="CD30" s="27">
         <v>1293.6545588855734</v>
       </c>
-      <c r="CE30" s="11">
+      <c r="CE30" s="27">
         <v>3685.9752644555124</v>
       </c>
-      <c r="CF30" s="11">
+      <c r="CF30" s="27">
         <v>687.28619614433512</v>
       </c>
-      <c r="CG30" s="11">
+      <c r="CG30" s="27">
         <v>833.24156870696106</v>
       </c>
-      <c r="CH30" s="11">
+      <c r="CH30" s="27">
         <v>7430.907666844415</v>
       </c>
-      <c r="CI30" s="11">
+      <c r="CI30" s="27">
         <v>1264.3649966663711</v>
       </c>
-      <c r="CJ30" s="11">
+      <c r="CJ30" s="27">
         <v>842.94768014896374</v>
       </c>
-      <c r="CK30" s="11">
+      <c r="CK30" s="27">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="11">
+      <c r="CL30" s="27">
         <v>9503.5949913393943</v>
       </c>
-      <c r="CM30" s="11">
+      <c r="CM30" s="27">
         <v>12231.734996038442</v>
       </c>
-      <c r="CN30" s="11">
+      <c r="CN30" s="27">
         <v>5961.5095030239891</v>
       </c>
-      <c r="CO30" s="11">
+      <c r="CO30" s="27">
         <v>4919.8046337282212</v>
       </c>
-      <c r="CP30" s="9"/>
+      <c r="CP30" s="27">
+        <v>6497.7195412353212</v>
+      </c>
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
       <c r="CS30" s="9"/>
@@ -7926,43 +7978,45 @@
       <c r="CC31" s="8">
         <v>64843.153637740761</v>
       </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="26">
         <v>56968.148167112049</v>
       </c>
-      <c r="CE31" s="8">
+      <c r="CE31" s="26">
         <v>31372.286100939084</v>
       </c>
-      <c r="CF31" s="8">
+      <c r="CF31" s="26">
         <v>47774.285411181161</v>
       </c>
-      <c r="CG31" s="8">
+      <c r="CG31" s="26">
         <v>49754.685381672272</v>
       </c>
-      <c r="CH31" s="8">
+      <c r="CH31" s="26">
         <v>55882.667298804212</v>
       </c>
-      <c r="CI31" s="8">
+      <c r="CI31" s="26">
         <v>53257.033949077559</v>
       </c>
-      <c r="CJ31" s="8">
+      <c r="CJ31" s="26">
         <v>52182.435820240171</v>
       </c>
-      <c r="CK31" s="8">
+      <c r="CK31" s="26">
         <v>56618.734335055386</v>
       </c>
-      <c r="CL31" s="8">
+      <c r="CL31" s="26">
         <v>63028.405007964611</v>
       </c>
-      <c r="CM31" s="8">
+      <c r="CM31" s="26">
         <v>60068.699385092288</v>
       </c>
-      <c r="CN31" s="8">
+      <c r="CN31" s="26">
         <v>55866.361734870035</v>
       </c>
-      <c r="CO31" s="8">
+      <c r="CO31" s="26">
         <v>65979.141165391193</v>
       </c>
-      <c r="CP31" s="9"/>
+      <c r="CP31" s="26">
+        <v>72592.562949587154</v>
+      </c>
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
       <c r="CS31" s="9"/>
@@ -8266,43 +8320,45 @@
       <c r="CC32" s="11">
         <v>4828.2357672779408</v>
       </c>
-      <c r="CD32" s="11">
+      <c r="CD32" s="27">
         <v>3875.5583215915608</v>
       </c>
-      <c r="CE32" s="11">
+      <c r="CE32" s="27">
         <v>2043.15590494915</v>
       </c>
-      <c r="CF32" s="11">
+      <c r="CF32" s="27">
         <v>6592.0903751852566</v>
       </c>
-      <c r="CG32" s="11">
+      <c r="CG32" s="27">
         <v>6337.9232329612496</v>
       </c>
-      <c r="CH32" s="11">
+      <c r="CH32" s="27">
         <v>4629.4723582643337</v>
       </c>
-      <c r="CI32" s="11">
+      <c r="CI32" s="27">
         <v>4871.2828242139421</v>
       </c>
-      <c r="CJ32" s="11">
+      <c r="CJ32" s="27">
         <v>4992.9407309126091</v>
       </c>
-      <c r="CK32" s="11">
+      <c r="CK32" s="27">
         <v>4754.4583843286655</v>
       </c>
-      <c r="CL32" s="11">
+      <c r="CL32" s="27">
         <v>4946.0125478368736</v>
       </c>
-      <c r="CM32" s="11">
+      <c r="CM32" s="27">
         <v>4558.1344266621727</v>
       </c>
-      <c r="CN32" s="11">
+      <c r="CN32" s="27">
         <v>5415.7208863220503</v>
       </c>
-      <c r="CO32" s="11">
+      <c r="CO32" s="27">
         <v>7911.8538094047499</v>
       </c>
-      <c r="CP32" s="9"/>
+      <c r="CP32" s="27">
+        <v>6588.1262298645042</v>
+      </c>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
@@ -8606,43 +8662,45 @@
       <c r="CC33" s="11">
         <v>10053.307604264743</v>
       </c>
-      <c r="CD33" s="11">
+      <c r="CD33" s="27">
         <v>10052.102769221423</v>
       </c>
-      <c r="CE33" s="11">
+      <c r="CE33" s="27">
         <v>4294.8472066823952</v>
       </c>
-      <c r="CF33" s="11">
+      <c r="CF33" s="27">
         <v>7284.2591576335853</v>
       </c>
-      <c r="CG33" s="11">
+      <c r="CG33" s="27">
         <v>7451.0501716481922</v>
       </c>
-      <c r="CH33" s="11">
+      <c r="CH33" s="27">
         <v>9675.1654595471864</v>
       </c>
-      <c r="CI33" s="11">
+      <c r="CI33" s="27">
         <v>8518.395418097376</v>
       </c>
-      <c r="CJ33" s="11">
+      <c r="CJ33" s="27">
         <v>7918.363814997253</v>
       </c>
-      <c r="CK33" s="11">
+      <c r="CK33" s="27">
         <v>9007.1005952231462</v>
       </c>
-      <c r="CL33" s="11">
+      <c r="CL33" s="27">
         <v>11030.811579910269</v>
       </c>
-      <c r="CM33" s="11">
+      <c r="CM33" s="27">
         <v>8910.1965268858348</v>
       </c>
-      <c r="CN33" s="11">
+      <c r="CN33" s="27">
         <v>7613.3793142308796</v>
       </c>
-      <c r="CO33" s="11">
+      <c r="CO33" s="27">
         <v>9786.3948381134542</v>
       </c>
-      <c r="CP33" s="9"/>
+      <c r="CP33" s="27">
+        <v>11972.942409443569</v>
+      </c>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
@@ -8946,43 +9004,45 @@
       <c r="CC34" s="11">
         <v>36693.240667690006</v>
       </c>
-      <c r="CD34" s="11">
+      <c r="CD34" s="27">
         <v>28804.845341170574</v>
       </c>
-      <c r="CE34" s="11">
+      <c r="CE34" s="27">
         <v>18100.371484198375</v>
       </c>
-      <c r="CF34" s="11">
+      <c r="CF34" s="27">
         <v>25186.565409951341</v>
       </c>
-      <c r="CG34" s="11">
+      <c r="CG34" s="27">
         <v>25905.479426830389</v>
       </c>
-      <c r="CH34" s="11">
+      <c r="CH34" s="27">
         <v>24937.567907376462</v>
       </c>
-      <c r="CI34" s="11">
+      <c r="CI34" s="27">
         <v>25086.026023829567</v>
       </c>
-      <c r="CJ34" s="11">
+      <c r="CJ34" s="27">
         <v>30296.855767724148</v>
       </c>
-      <c r="CK34" s="11">
+      <c r="CK34" s="27">
         <v>32169.896577255146</v>
       </c>
-      <c r="CL34" s="11">
+      <c r="CL34" s="27">
         <v>32076.122314555869</v>
       </c>
-      <c r="CM34" s="11">
+      <c r="CM34" s="27">
         <v>30017.749583969504</v>
       </c>
-      <c r="CN34" s="11">
+      <c r="CN34" s="27">
         <v>32432.988608214935</v>
       </c>
-      <c r="CO34" s="11">
+      <c r="CO34" s="27">
         <v>36801.157003883302</v>
       </c>
-      <c r="CP34" s="9"/>
+      <c r="CP34" s="27">
+        <v>36620.269881575805</v>
+      </c>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
@@ -9286,43 +9346,45 @@
       <c r="CC35" s="11">
         <v>13268.369598508074</v>
       </c>
-      <c r="CD35" s="11">
+      <c r="CD35" s="27">
         <v>14235.641735128489</v>
       </c>
-      <c r="CE35" s="11">
+      <c r="CE35" s="27">
         <v>6933.911505109164</v>
       </c>
-      <c r="CF35" s="11">
+      <c r="CF35" s="27">
         <v>8711.3704684109798</v>
       </c>
-      <c r="CG35" s="11">
+      <c r="CG35" s="27">
         <v>10060.232550232438</v>
       </c>
-      <c r="CH35" s="11">
+      <c r="CH35" s="27">
         <v>16640.46157361623</v>
       </c>
-      <c r="CI35" s="11">
+      <c r="CI35" s="27">
         <v>14781.329682936674</v>
       </c>
-      <c r="CJ35" s="11">
+      <c r="CJ35" s="27">
         <v>8974.27550660616</v>
       </c>
-      <c r="CK35" s="11">
+      <c r="CK35" s="27">
         <v>10687.278778248432</v>
       </c>
-      <c r="CL35" s="11">
+      <c r="CL35" s="27">
         <v>14975.458565661596</v>
       </c>
-      <c r="CM35" s="11">
+      <c r="CM35" s="27">
         <v>16582.61884757478</v>
       </c>
-      <c r="CN35" s="11">
+      <c r="CN35" s="27">
         <v>10404.272926102172</v>
       </c>
-      <c r="CO35" s="11">
+      <c r="CO35" s="27">
         <v>11479.735513989688</v>
       </c>
-      <c r="CP35" s="9"/>
+      <c r="CP35" s="27">
+        <v>17411.224428703285</v>
+      </c>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
@@ -9815,7 +9877,9 @@
       <c r="CO37" s="13">
         <v>346980.37885974388</v>
       </c>
-      <c r="CP37" s="9"/>
+      <c r="CP37" s="13">
+        <v>394236.55060987279</v>
+      </c>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -9969,6 +10033,7 @@
       <c r="CM38" s="14"/>
       <c r="CN38" s="14"/>
       <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -9994,9 +10059,6 @@
       <c r="BU39" s="16"/>
       <c r="BY39" s="16"/>
       <c r="CC39" s="16"/>
-      <c r="CG39" s="16"/>
-      <c r="CK39" s="16"/>
-      <c r="CO39" s="16"/>
     </row>
     <row r="40" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9"/>
@@ -10316,7 +10378,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.2">
@@ -10326,7 +10388,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
@@ -10336,144 +10398,147 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="26">
+      <c r="B50" s="29">
         <v>2000</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29">
         <v>2001</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26">
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29">
         <v>2002</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26">
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29">
         <v>2003</v>
       </c>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26">
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29">
         <v>2004</v>
       </c>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26">
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29">
         <v>2005</v>
       </c>
-      <c r="W50" s="26"/>
-      <c r="X50" s="26"/>
-      <c r="Y50" s="26"/>
-      <c r="Z50" s="26">
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29">
         <v>2006</v>
       </c>
-      <c r="AA50" s="26"/>
-      <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26">
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29">
         <v>2007</v>
       </c>
-      <c r="AE50" s="26"/>
-      <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26">
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29">
         <v>2008</v>
       </c>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="26">
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29">
         <v>2009</v>
       </c>
-      <c r="AM50" s="26"/>
-      <c r="AN50" s="26"/>
-      <c r="AO50" s="26"/>
-      <c r="AP50" s="26">
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="26"/>
-      <c r="AR50" s="26"/>
-      <c r="AS50" s="26"/>
-      <c r="AT50" s="26">
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
+      <c r="AS50" s="29"/>
+      <c r="AT50" s="29">
         <v>2011</v>
       </c>
-      <c r="AU50" s="26"/>
-      <c r="AV50" s="26"/>
-      <c r="AW50" s="26"/>
-      <c r="AX50" s="26">
+      <c r="AU50" s="29"/>
+      <c r="AV50" s="29"/>
+      <c r="AW50" s="29"/>
+      <c r="AX50" s="29">
         <v>2012</v>
       </c>
-      <c r="AY50" s="26"/>
-      <c r="AZ50" s="26"/>
-      <c r="BA50" s="26"/>
-      <c r="BB50" s="26">
+      <c r="AY50" s="29"/>
+      <c r="AZ50" s="29"/>
+      <c r="BA50" s="29"/>
+      <c r="BB50" s="29">
         <v>2013</v>
       </c>
-      <c r="BC50" s="26"/>
-      <c r="BD50" s="26"/>
-      <c r="BE50" s="26"/>
-      <c r="BF50" s="26">
+      <c r="BC50" s="29"/>
+      <c r="BD50" s="29"/>
+      <c r="BE50" s="29"/>
+      <c r="BF50" s="29">
         <v>2014</v>
       </c>
-      <c r="BG50" s="26"/>
-      <c r="BH50" s="26"/>
-      <c r="BI50" s="26"/>
-      <c r="BJ50" s="26">
+      <c r="BG50" s="29"/>
+      <c r="BH50" s="29"/>
+      <c r="BI50" s="29"/>
+      <c r="BJ50" s="29">
         <v>2015</v>
       </c>
-      <c r="BK50" s="26"/>
-      <c r="BL50" s="26"/>
-      <c r="BM50" s="26"/>
-      <c r="BN50" s="26">
+      <c r="BK50" s="29"/>
+      <c r="BL50" s="29"/>
+      <c r="BM50" s="29"/>
+      <c r="BN50" s="29">
         <v>2016</v>
       </c>
-      <c r="BO50" s="26"/>
-      <c r="BP50" s="26"/>
-      <c r="BQ50" s="26"/>
-      <c r="BR50" s="26">
+      <c r="BO50" s="29"/>
+      <c r="BP50" s="29"/>
+      <c r="BQ50" s="29"/>
+      <c r="BR50" s="29">
         <v>2017</v>
       </c>
-      <c r="BS50" s="26"/>
-      <c r="BT50" s="26"/>
-      <c r="BU50" s="26"/>
-      <c r="BV50" s="26">
+      <c r="BS50" s="29"/>
+      <c r="BT50" s="29"/>
+      <c r="BU50" s="29"/>
+      <c r="BV50" s="29">
         <v>2018</v>
       </c>
-      <c r="BW50" s="26"/>
-      <c r="BX50" s="26"/>
-      <c r="BY50" s="26"/>
-      <c r="BZ50" s="26">
+      <c r="BW50" s="29"/>
+      <c r="BX50" s="29"/>
+      <c r="BY50" s="29"/>
+      <c r="BZ50" s="29">
         <v>2019</v>
       </c>
-      <c r="CA50" s="26"/>
-      <c r="CB50" s="26"/>
-      <c r="CC50" s="26"/>
-      <c r="CD50" s="26">
+      <c r="CA50" s="29"/>
+      <c r="CB50" s="29"/>
+      <c r="CC50" s="29"/>
+      <c r="CD50" s="28">
         <v>2020</v>
       </c>
-      <c r="CE50" s="26"/>
-      <c r="CF50" s="26"/>
-      <c r="CG50" s="26"/>
-      <c r="CH50" s="26">
+      <c r="CE50" s="28"/>
+      <c r="CF50" s="28"/>
+      <c r="CG50" s="28"/>
+      <c r="CH50" s="28">
         <v>2021</v>
       </c>
-      <c r="CI50" s="26"/>
-      <c r="CJ50" s="26"/>
-      <c r="CK50" s="26"/>
-      <c r="CL50" s="26">
+      <c r="CI50" s="28"/>
+      <c r="CJ50" s="28"/>
+      <c r="CK50" s="28"/>
+      <c r="CL50" s="28">
         <v>2022</v>
       </c>
-      <c r="CM50" s="26"/>
-      <c r="CN50" s="26"/>
-      <c r="CO50" s="26"/>
+      <c r="CM50" s="28"/>
+      <c r="CN50" s="28"/>
+      <c r="CO50" s="28"/>
+      <c r="CP50" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -10754,6 +10819,9 @@
       </c>
       <c r="CO51" s="17" t="s">
         <v>9</v>
+      </c>
+      <c r="CP51" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11003,43 +11071,45 @@
       <c r="CC53" s="8">
         <v>67838.233165777361</v>
       </c>
-      <c r="CD53" s="8">
+      <c r="CD53" s="26">
         <v>50239.675317973553</v>
       </c>
-      <c r="CE53" s="8">
+      <c r="CE53" s="26">
         <v>16928.771901072421</v>
       </c>
-      <c r="CF53" s="8">
+      <c r="CF53" s="26">
         <v>48645.403591511364</v>
       </c>
-      <c r="CG53" s="8">
+      <c r="CG53" s="26">
         <v>60932.38878891943</v>
       </c>
-      <c r="CH53" s="8">
+      <c r="CH53" s="26">
         <v>57497.277933965343</v>
       </c>
-      <c r="CI53" s="8">
+      <c r="CI53" s="26">
         <v>31323.575236437566</v>
       </c>
-      <c r="CJ53" s="8">
+      <c r="CJ53" s="26">
         <v>49929.843626102702</v>
       </c>
-      <c r="CK53" s="8">
+      <c r="CK53" s="26">
         <v>66501.113999105699</v>
       </c>
-      <c r="CL53" s="8">
+      <c r="CL53" s="26">
         <v>56154.713753790973</v>
       </c>
-      <c r="CM53" s="8">
+      <c r="CM53" s="26">
         <v>29638.055496577312</v>
       </c>
-      <c r="CN53" s="8">
+      <c r="CN53" s="26">
         <v>44070.998157212263</v>
       </c>
-      <c r="CO53" s="8">
+      <c r="CO53" s="26">
         <v>56031.668160503337</v>
       </c>
-      <c r="CP53" s="9"/>
+      <c r="CP53" s="26">
+        <v>52751.873585768495</v>
+      </c>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
@@ -11343,43 +11413,45 @@
       <c r="CC54" s="11">
         <v>4115.3167912525578</v>
       </c>
-      <c r="CD54" s="11">
+      <c r="CD54" s="27">
         <v>2874.7685783389529</v>
       </c>
-      <c r="CE54" s="11">
+      <c r="CE54" s="27">
         <v>560.35514235516735</v>
       </c>
-      <c r="CF54" s="11">
+      <c r="CF54" s="27">
         <v>3404.4750370093252</v>
       </c>
-      <c r="CG54" s="11">
+      <c r="CG54" s="27">
         <v>7130.9722902154635</v>
       </c>
-      <c r="CH54" s="11">
+      <c r="CH54" s="27">
         <v>5600.9219872312169</v>
       </c>
-      <c r="CI54" s="11">
+      <c r="CI54" s="27">
         <v>1438.7839865321641</v>
       </c>
-      <c r="CJ54" s="11">
+      <c r="CJ54" s="27">
         <v>5287.8745894518452</v>
       </c>
-      <c r="CK54" s="11">
+      <c r="CK54" s="27">
         <v>6129.6291090860987</v>
       </c>
-      <c r="CL54" s="11">
+      <c r="CL54" s="27">
         <v>2255.5424858344413</v>
       </c>
-      <c r="CM54" s="11">
+      <c r="CM54" s="27">
         <v>761.78762771609752</v>
       </c>
-      <c r="CN54" s="11">
+      <c r="CN54" s="27">
         <v>2999.4154859962432</v>
       </c>
-      <c r="CO54" s="11">
+      <c r="CO54" s="27">
         <v>3372.240102179047</v>
       </c>
-      <c r="CP54" s="9"/>
+      <c r="CP54" s="27">
+        <v>2404.3856789257093</v>
+      </c>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
@@ -11683,43 +11755,45 @@
       <c r="CC55" s="11">
         <v>15504.255936530148</v>
       </c>
-      <c r="CD55" s="11">
+      <c r="CD55" s="27">
         <v>9143.2892937880388</v>
       </c>
-      <c r="CE55" s="11">
+      <c r="CE55" s="27">
         <v>2006.7096295569518</v>
       </c>
-      <c r="CF55" s="11">
+      <c r="CF55" s="27">
         <v>7022.9265712486576</v>
       </c>
-      <c r="CG55" s="11">
+      <c r="CG55" s="27">
         <v>7667.9773528194155</v>
       </c>
-      <c r="CH55" s="11">
+      <c r="CH55" s="27">
         <v>6625.8824658828635</v>
       </c>
-      <c r="CI55" s="11">
+      <c r="CI55" s="27">
         <v>3692.6777096467895</v>
       </c>
-      <c r="CJ55" s="11">
+      <c r="CJ55" s="27">
         <v>11008.634640329734</v>
       </c>
-      <c r="CK55" s="11">
+      <c r="CK55" s="27">
         <v>15915.381302443891</v>
       </c>
-      <c r="CL55" s="11">
+      <c r="CL55" s="27">
         <v>8408.0505623100962</v>
       </c>
-      <c r="CM55" s="11">
+      <c r="CM55" s="27">
         <v>2989.8761972432139</v>
       </c>
-      <c r="CN55" s="11">
+      <c r="CN55" s="27">
         <v>10506.725266714966</v>
       </c>
-      <c r="CO55" s="11">
+      <c r="CO55" s="27">
         <v>14787.444383062755</v>
       </c>
-      <c r="CP55" s="9"/>
+      <c r="CP55" s="27">
+        <v>10179.119480804186</v>
+      </c>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
@@ -12023,43 +12097,45 @@
       <c r="CC56" s="11">
         <v>1281.7265717204041</v>
       </c>
-      <c r="CD56" s="11">
+      <c r="CD56" s="27">
         <v>630.99332277046256</v>
       </c>
-      <c r="CE56" s="11">
+      <c r="CE56" s="27">
         <v>221.08453146539054</v>
       </c>
-      <c r="CF56" s="11">
+      <c r="CF56" s="27">
         <v>703.2270674878198</v>
       </c>
-      <c r="CG56" s="11">
+      <c r="CG56" s="27">
         <v>691.87648960265778</v>
       </c>
-      <c r="CH56" s="11">
+      <c r="CH56" s="27">
         <v>473.3029479679642</v>
       </c>
-      <c r="CI56" s="11">
+      <c r="CI56" s="27">
         <v>267.53804781545307</v>
       </c>
-      <c r="CJ56" s="11">
+      <c r="CJ56" s="27">
         <v>641.3529785427736</v>
       </c>
-      <c r="CK56" s="11">
+      <c r="CK56" s="27">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="11">
+      <c r="CL56" s="27">
         <v>600.76004171803925</v>
       </c>
-      <c r="CM56" s="11">
+      <c r="CM56" s="27">
         <v>307.35573573461693</v>
       </c>
-      <c r="CN56" s="11">
+      <c r="CN56" s="27">
         <v>749.36964626741485</v>
       </c>
-      <c r="CO56" s="11">
+      <c r="CO56" s="27">
         <v>1031.6152468033449</v>
       </c>
-      <c r="CP56" s="9"/>
+      <c r="CP56" s="27">
+        <v>612.04758901668424</v>
+      </c>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
@@ -12363,43 +12439,45 @@
       <c r="CC57" s="11">
         <v>1733.8450547903228</v>
       </c>
-      <c r="CD57" s="11">
+      <c r="CD57" s="27">
         <v>1444.3536752609032</v>
       </c>
-      <c r="CE57" s="11">
+      <c r="CE57" s="27">
         <v>148.89709950843277</v>
       </c>
-      <c r="CF57" s="11">
+      <c r="CF57" s="27">
         <v>605.96846933127472</v>
       </c>
-      <c r="CG57" s="11">
+      <c r="CG57" s="27">
         <v>651.07923614981655</v>
       </c>
-      <c r="CH57" s="11">
+      <c r="CH57" s="27">
         <v>406.22240502996158</v>
       </c>
-      <c r="CI57" s="11">
+      <c r="CI57" s="27">
         <v>147.01161595594914</v>
       </c>
-      <c r="CJ57" s="11">
+      <c r="CJ57" s="27">
         <v>543.57042942091243</v>
       </c>
-      <c r="CK57" s="11">
+      <c r="CK57" s="27">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="11">
+      <c r="CL57" s="27">
         <v>315.9892621347073</v>
       </c>
-      <c r="CM57" s="11">
+      <c r="CM57" s="27">
         <v>135.75089907223924</v>
       </c>
-      <c r="CN57" s="11">
+      <c r="CN57" s="27">
         <v>566.65243540056349</v>
       </c>
-      <c r="CO57" s="11">
+      <c r="CO57" s="27">
         <v>695.47966316221414</v>
       </c>
-      <c r="CP57" s="9"/>
+      <c r="CP57" s="27">
+        <v>320.25437811110606</v>
+      </c>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
@@ -12703,43 +12781,45 @@
       <c r="CC58" s="11">
         <v>5869.8547929290116</v>
       </c>
-      <c r="CD58" s="11">
+      <c r="CD58" s="27">
         <v>3169.4542720698264</v>
       </c>
-      <c r="CE58" s="11">
+      <c r="CE58" s="27">
         <v>917.05077557288269</v>
       </c>
-      <c r="CF58" s="11">
+      <c r="CF58" s="27">
         <v>3494.9079809409272</v>
       </c>
-      <c r="CG58" s="11">
+      <c r="CG58" s="27">
         <v>3571.5903656964251</v>
       </c>
-      <c r="CH58" s="11">
+      <c r="CH58" s="27">
         <v>2666.3770787656299</v>
       </c>
-      <c r="CI58" s="11">
+      <c r="CI58" s="27">
         <v>1257.8562647708736</v>
       </c>
-      <c r="CJ58" s="11">
+      <c r="CJ58" s="27">
         <v>3851.3221670743064</v>
       </c>
-      <c r="CK58" s="11">
+      <c r="CK58" s="27">
         <v>4130.5758037628557</v>
       </c>
-      <c r="CL58" s="11">
+      <c r="CL58" s="27">
         <v>3204.4563803884889</v>
       </c>
-      <c r="CM58" s="11">
+      <c r="CM58" s="27">
         <v>918.75784814555163</v>
       </c>
-      <c r="CN58" s="11">
+      <c r="CN58" s="27">
         <v>2559.1367349216134</v>
       </c>
-      <c r="CO58" s="11">
+      <c r="CO58" s="27">
         <v>3858.5461515750085</v>
       </c>
-      <c r="CP58" s="9"/>
+      <c r="CP58" s="27">
+        <v>3152.1902095737173</v>
+      </c>
       <c r="CQ58" s="9"/>
       <c r="CR58" s="9"/>
       <c r="CS58" s="9"/>
@@ -13043,43 +13123,45 @@
       <c r="CC59" s="11">
         <v>23030.859414708728</v>
       </c>
-      <c r="CD59" s="11">
+      <c r="CD59" s="27">
         <v>25042.410097119708</v>
       </c>
-      <c r="CE59" s="11">
+      <c r="CE59" s="27">
         <v>10528.838461103242</v>
       </c>
-      <c r="CF59" s="11">
+      <c r="CF59" s="27">
         <v>24121.143877735092</v>
       </c>
-      <c r="CG59" s="11">
+      <c r="CG59" s="27">
         <v>29667.403902739352</v>
       </c>
-      <c r="CH59" s="11">
+      <c r="CH59" s="27">
         <v>31929.98273486695</v>
       </c>
-      <c r="CI59" s="11">
+      <c r="CI59" s="27">
         <v>20559.329156847001</v>
       </c>
-      <c r="CJ59" s="11">
+      <c r="CJ59" s="27">
         <v>19012.432254788313</v>
       </c>
-      <c r="CK59" s="11">
+      <c r="CK59" s="27">
         <v>25266.562529179133</v>
       </c>
-      <c r="CL59" s="11">
+      <c r="CL59" s="27">
         <v>32174.972377867358</v>
       </c>
-      <c r="CM59" s="11">
+      <c r="CM59" s="27">
         <v>20827.657775890431</v>
       </c>
-      <c r="CN59" s="11">
+      <c r="CN59" s="27">
         <v>17372.194231779744</v>
       </c>
-      <c r="CO59" s="11">
+      <c r="CO59" s="27">
         <v>20273.651609490433</v>
       </c>
-      <c r="CP59" s="9"/>
+      <c r="CP59" s="27">
+        <v>28168.125409716966</v>
+      </c>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
@@ -13383,43 +13465,45 @@
       <c r="CC60" s="11">
         <v>2607.1295810034371</v>
       </c>
-      <c r="CD60" s="11">
+      <c r="CD60" s="27">
         <v>1455.5527541574111</v>
       </c>
-      <c r="CE60" s="11">
+      <c r="CE60" s="27">
         <v>251.41604601939764</v>
       </c>
-      <c r="CF60" s="11">
+      <c r="CF60" s="27">
         <v>2330.2139951874751</v>
       </c>
-      <c r="CG60" s="11">
+      <c r="CG60" s="27">
         <v>1744.240915485444</v>
       </c>
-      <c r="CH60" s="11">
+      <c r="CH60" s="27">
         <v>1617.1403252363307</v>
       </c>
-      <c r="CI60" s="11">
+      <c r="CI60" s="27">
         <v>234.71788193473378</v>
       </c>
-      <c r="CJ60" s="11">
+      <c r="CJ60" s="27">
         <v>1142.7065235060725</v>
       </c>
-      <c r="CK60" s="11">
+      <c r="CK60" s="27">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="11">
+      <c r="CL60" s="27">
         <v>676.66490891228193</v>
       </c>
-      <c r="CM60" s="11">
+      <c r="CM60" s="27">
         <v>245.91054324460896</v>
       </c>
-      <c r="CN60" s="11">
+      <c r="CN60" s="27">
         <v>465.89826695183149</v>
       </c>
-      <c r="CO60" s="11">
+      <c r="CO60" s="27">
         <v>1500.6906029608699</v>
       </c>
-      <c r="CP60" s="9"/>
+      <c r="CP60" s="27">
+        <v>969.22937005160054</v>
+      </c>
       <c r="CQ60" s="9"/>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
@@ -13723,43 +13807,45 @@
       <c r="CC61" s="11">
         <v>13695.24502284275</v>
       </c>
-      <c r="CD61" s="11">
+      <c r="CD61" s="27">
         <v>6478.8533244682494</v>
       </c>
-      <c r="CE61" s="11">
+      <c r="CE61" s="27">
         <v>2294.4202154909563</v>
       </c>
-      <c r="CF61" s="11">
+      <c r="CF61" s="27">
         <v>6962.5405925707892</v>
       </c>
-      <c r="CG61" s="11">
+      <c r="CG61" s="27">
         <v>9807.2482362108458</v>
       </c>
-      <c r="CH61" s="11">
+      <c r="CH61" s="27">
         <v>8177.4479889844215</v>
       </c>
-      <c r="CI61" s="11">
+      <c r="CI61" s="27">
         <v>3725.6605729346029</v>
       </c>
-      <c r="CJ61" s="11">
+      <c r="CJ61" s="27">
         <v>8441.950042988743</v>
       </c>
-      <c r="CK61" s="11">
+      <c r="CK61" s="27">
         <v>11614.015268939091</v>
       </c>
-      <c r="CL61" s="11">
+      <c r="CL61" s="27">
         <v>8518.2777346255643</v>
       </c>
-      <c r="CM61" s="11">
+      <c r="CM61" s="27">
         <v>3450.9588695305492</v>
       </c>
-      <c r="CN61" s="11">
+      <c r="CN61" s="27">
         <v>8851.6060891798861</v>
       </c>
-      <c r="CO61" s="11">
+      <c r="CO61" s="27">
         <v>10512.00040126967</v>
       </c>
-      <c r="CP61" s="9"/>
+      <c r="CP61" s="27">
+        <v>6946.521469568529</v>
+      </c>
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
@@ -14063,43 +14149,45 @@
       <c r="CC62" s="8">
         <v>56315.19254051325</v>
       </c>
-      <c r="CD62" s="8">
+      <c r="CD62" s="26">
         <v>55972.521910948439</v>
       </c>
-      <c r="CE62" s="8">
+      <c r="CE62" s="26">
         <v>28494.151594504365</v>
       </c>
-      <c r="CF62" s="8">
+      <c r="CF62" s="26">
         <v>51511.816076563227</v>
       </c>
-      <c r="CG62" s="8">
+      <c r="CG62" s="26">
         <v>47957.312665351434</v>
       </c>
-      <c r="CH62" s="8">
+      <c r="CH62" s="26">
         <v>50085.654836019021</v>
       </c>
-      <c r="CI62" s="8">
+      <c r="CI62" s="26">
         <v>36848.909362602986</v>
       </c>
-      <c r="CJ62" s="8">
+      <c r="CJ62" s="26">
         <v>51742.796780164448</v>
       </c>
-      <c r="CK62" s="8">
+      <c r="CK62" s="26">
         <v>46705.322297328654</v>
       </c>
-      <c r="CL62" s="8">
+      <c r="CL62" s="26">
         <v>51650.780454455409</v>
       </c>
-      <c r="CM62" s="8">
+      <c r="CM62" s="26">
         <v>39125.984742142908</v>
       </c>
-      <c r="CN62" s="8">
+      <c r="CN62" s="26">
         <v>56586.709007992948</v>
       </c>
-      <c r="CO62" s="8">
+      <c r="CO62" s="26">
         <v>56067.993441713836</v>
       </c>
-      <c r="CP62" s="9"/>
+      <c r="CP62" s="26">
+        <v>56859.052474338692</v>
+      </c>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
@@ -14403,43 +14491,45 @@
       <c r="CC63" s="11">
         <v>11174.602440083234</v>
       </c>
-      <c r="CD63" s="11">
+      <c r="CD63" s="27">
         <v>9962.2516261467681</v>
       </c>
-      <c r="CE63" s="11">
+      <c r="CE63" s="27">
         <v>3711.2234840640081</v>
       </c>
-      <c r="CF63" s="11">
+      <c r="CF63" s="27">
         <v>9635.0499889738639</v>
       </c>
-      <c r="CG63" s="11">
+      <c r="CG63" s="27">
         <v>9039.5310042375459</v>
       </c>
-      <c r="CH63" s="11">
+      <c r="CH63" s="27">
         <v>7751.8467998535325</v>
       </c>
-      <c r="CI63" s="11">
+      <c r="CI63" s="27">
         <v>6385.9979876114521</v>
       </c>
-      <c r="CJ63" s="11">
+      <c r="CJ63" s="27">
         <v>8591.6930906538582</v>
       </c>
-      <c r="CK63" s="11">
+      <c r="CK63" s="27">
         <v>9430.989368750772</v>
       </c>
-      <c r="CL63" s="11">
+      <c r="CL63" s="27">
         <v>8582.2273201229564</v>
       </c>
-      <c r="CM63" s="11">
+      <c r="CM63" s="27">
         <v>7559.8027061805496</v>
       </c>
-      <c r="CN63" s="11">
+      <c r="CN63" s="27">
         <v>8906.7130198622981</v>
       </c>
-      <c r="CO63" s="11">
+      <c r="CO63" s="27">
         <v>10075.422094021213</v>
       </c>
-      <c r="CP63" s="9"/>
+      <c r="CP63" s="27">
+        <v>9711.1145084640284</v>
+      </c>
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
@@ -14743,43 +14833,45 @@
       <c r="CC64" s="11">
         <v>7007.7323216419964</v>
       </c>
-      <c r="CD64" s="11">
+      <c r="CD64" s="27">
         <v>4847.1480105097844</v>
       </c>
-      <c r="CE64" s="11">
+      <c r="CE64" s="27">
         <v>2698.7686699210794</v>
       </c>
-      <c r="CF64" s="11">
+      <c r="CF64" s="27">
         <v>5834.3901406858122</v>
       </c>
-      <c r="CG64" s="11">
+      <c r="CG64" s="27">
         <v>5571.7040831643517</v>
       </c>
-      <c r="CH64" s="11">
+      <c r="CH64" s="27">
         <v>4679.9666922809211</v>
       </c>
-      <c r="CI64" s="11">
+      <c r="CI64" s="27">
         <v>4540.8727748265028</v>
       </c>
-      <c r="CJ64" s="11">
+      <c r="CJ64" s="27">
         <v>5910.8235295231971</v>
       </c>
-      <c r="CK64" s="11">
+      <c r="CK64" s="27">
         <v>5310.7853843801568</v>
       </c>
-      <c r="CL64" s="11">
+      <c r="CL64" s="27">
         <v>5016.6063703503914</v>
       </c>
-      <c r="CM64" s="11">
+      <c r="CM64" s="27">
         <v>4414.6571227442855</v>
       </c>
-      <c r="CN64" s="11">
+      <c r="CN64" s="27">
         <v>5110.3185291011832</v>
       </c>
-      <c r="CO64" s="11">
+      <c r="CO64" s="27">
         <v>6081.7158841339769</v>
       </c>
-      <c r="CP64" s="9"/>
+      <c r="CP64" s="27">
+        <v>6005.5530831006954</v>
+      </c>
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
       <c r="CS64" s="9"/>
@@ -15083,43 +15175,45 @@
       <c r="CC65" s="11">
         <v>17412.311476692419</v>
       </c>
-      <c r="CD65" s="11">
+      <c r="CD65" s="27">
         <v>12140.290196134662</v>
       </c>
-      <c r="CE65" s="11">
+      <c r="CE65" s="27">
         <v>10354.796112717839</v>
       </c>
-      <c r="CF65" s="11">
+      <c r="CF65" s="27">
         <v>16277.148739046301</v>
       </c>
-      <c r="CG65" s="11">
+      <c r="CG65" s="27">
         <v>15669.733701611432</v>
       </c>
-      <c r="CH65" s="11">
+      <c r="CH65" s="27">
         <v>13859.661927260095</v>
       </c>
-      <c r="CI65" s="11">
+      <c r="CI65" s="27">
         <v>10657.041270969266</v>
       </c>
-      <c r="CJ65" s="11">
+      <c r="CJ65" s="27">
         <v>16592.355872405959</v>
       </c>
-      <c r="CK65" s="11">
+      <c r="CK65" s="27">
         <v>11572.478347706488</v>
       </c>
-      <c r="CL65" s="11">
+      <c r="CL65" s="27">
         <v>12080.331688711036</v>
       </c>
-      <c r="CM65" s="11">
+      <c r="CM65" s="27">
         <v>10268.807240061369</v>
       </c>
-      <c r="CN65" s="11">
+      <c r="CN65" s="27">
         <v>22622.069017464219</v>
       </c>
-      <c r="CO65" s="11">
+      <c r="CO65" s="27">
         <v>17622.800505163432</v>
       </c>
-      <c r="CP65" s="9"/>
+      <c r="CP65" s="27">
+        <v>19721.303062130064</v>
+      </c>
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
       <c r="CS65" s="9"/>
@@ -15423,43 +15517,45 @@
       <c r="CC66" s="11">
         <v>20720.546302095605</v>
       </c>
-      <c r="CD66" s="11">
+      <c r="CD66" s="27">
         <v>29022.832078157226</v>
       </c>
-      <c r="CE66" s="11">
+      <c r="CE66" s="27">
         <v>11729.363327801439</v>
       </c>
-      <c r="CF66" s="11">
+      <c r="CF66" s="27">
         <v>19765.22720785725</v>
       </c>
-      <c r="CG66" s="11">
+      <c r="CG66" s="27">
         <v>17676.343876338105</v>
       </c>
-      <c r="CH66" s="11">
+      <c r="CH66" s="27">
         <v>23794.179416624473</v>
       </c>
-      <c r="CI66" s="11">
+      <c r="CI66" s="27">
         <v>15264.997329195765</v>
       </c>
-      <c r="CJ66" s="11">
+      <c r="CJ66" s="27">
         <v>20647.924287581434</v>
       </c>
-      <c r="CK66" s="11">
+      <c r="CK66" s="27">
         <v>20391.069196491237</v>
       </c>
-      <c r="CL66" s="11">
+      <c r="CL66" s="27">
         <v>25971.615075271024</v>
       </c>
-      <c r="CM66" s="11">
+      <c r="CM66" s="27">
         <v>16882.717673156701</v>
       </c>
-      <c r="CN66" s="11">
+      <c r="CN66" s="27">
         <v>19947.608441565244</v>
       </c>
-      <c r="CO66" s="11">
+      <c r="CO66" s="27">
         <v>22288.054958395216</v>
       </c>
-      <c r="CP66" s="9"/>
+      <c r="CP66" s="27">
+        <v>21421.081820643903</v>
+      </c>
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
       <c r="CS66" s="9"/>
@@ -15763,43 +15859,45 @@
       <c r="CC67" s="8">
         <v>191527.62967591008</v>
       </c>
-      <c r="CD67" s="8">
+      <c r="CD67" s="26">
         <v>184278.38882881685</v>
       </c>
-      <c r="CE67" s="8">
+      <c r="CE67" s="26">
         <v>46194.673983231238</v>
       </c>
-      <c r="CF67" s="8">
+      <c r="CF67" s="26">
         <v>98079.033016766698</v>
       </c>
-      <c r="CG67" s="8">
+      <c r="CG67" s="26">
         <v>125921.35182434383</v>
       </c>
-      <c r="CH67" s="8">
+      <c r="CH67" s="26">
         <v>141674.87945895732</v>
       </c>
-      <c r="CI67" s="8">
+      <c r="CI67" s="26">
         <v>121291.88850983036</v>
       </c>
-      <c r="CJ67" s="8">
+      <c r="CJ67" s="26">
         <v>106957.92605904682</v>
       </c>
-      <c r="CK67" s="8">
+      <c r="CK67" s="26">
         <v>133226.1081310109</v>
       </c>
-      <c r="CL67" s="8">
+      <c r="CL67" s="26">
         <v>168162.18916375461</v>
       </c>
-      <c r="CM67" s="8">
+      <c r="CM67" s="26">
         <v>149325.20766128573</v>
       </c>
-      <c r="CN67" s="8">
+      <c r="CN67" s="26">
         <v>143019.61658559294</v>
       </c>
-      <c r="CO67" s="8">
+      <c r="CO67" s="26">
         <v>142924.89404160064</v>
       </c>
-      <c r="CP67" s="9"/>
+      <c r="CP67" s="26">
+        <v>186569.96005495355</v>
+      </c>
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
       <c r="CS67" s="9"/>
@@ -16103,43 +16201,45 @@
       <c r="CC68" s="11">
         <v>164267.2443091225</v>
       </c>
-      <c r="CD68" s="11">
+      <c r="CD68" s="27">
         <v>172432.13705236468</v>
       </c>
-      <c r="CE68" s="11">
+      <c r="CE68" s="27">
         <v>38743.529280477451</v>
       </c>
-      <c r="CF68" s="11">
+      <c r="CF68" s="27">
         <v>95072.703002154769</v>
       </c>
-      <c r="CG68" s="11">
+      <c r="CG68" s="27">
         <v>117678.66511679393</v>
       </c>
-      <c r="CH68" s="11">
+      <c r="CH68" s="27">
         <v>131262.61758192381</v>
       </c>
-      <c r="CI68" s="11">
+      <c r="CI68" s="27">
         <v>111174.17958287749</v>
       </c>
-      <c r="CJ68" s="11">
+      <c r="CJ68" s="27">
         <v>102756.31605911693</v>
       </c>
-      <c r="CK68" s="11">
+      <c r="CK68" s="27">
         <v>111732.1547250369</v>
       </c>
-      <c r="CL68" s="11">
+      <c r="CL68" s="27">
         <v>144262.06824617967</v>
       </c>
-      <c r="CM68" s="11">
+      <c r="CM68" s="27">
         <v>124718.82459777835</v>
       </c>
-      <c r="CN68" s="11">
+      <c r="CN68" s="27">
         <v>133565.47408270379</v>
       </c>
-      <c r="CO68" s="11">
+      <c r="CO68" s="27">
         <v>134371.06288107892</v>
       </c>
-      <c r="CP68" s="9"/>
+      <c r="CP68" s="27">
+        <v>175185.04638612099</v>
+      </c>
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
       <c r="CS68" s="9"/>
@@ -16443,43 +16543,45 @@
       <c r="CC69" s="11">
         <v>459.79202753077828</v>
       </c>
-      <c r="CD69" s="11">
+      <c r="CD69" s="27">
         <v>952.98271794050095</v>
       </c>
-      <c r="CE69" s="11">
+      <c r="CE69" s="27">
         <v>29.272083586243703</v>
       </c>
-      <c r="CF69" s="11">
+      <c r="CF69" s="27">
         <v>4.5194223851542255</v>
       </c>
-      <c r="CG69" s="11">
+      <c r="CG69" s="27">
         <v>1061.7041018078767</v>
       </c>
-      <c r="CH69" s="11">
+      <c r="CH69" s="27">
         <v>2365.546443771198</v>
       </c>
-      <c r="CI69" s="11">
+      <c r="CI69" s="27">
         <v>16.953855530203825</v>
       </c>
-      <c r="CJ69" s="11">
+      <c r="CJ69" s="27">
         <v>1028.3586195366536</v>
       </c>
-      <c r="CK69" s="11">
+      <c r="CK69" s="27">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="11">
+      <c r="CL69" s="27">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="11">
+      <c r="CM69" s="27">
         <v>1027.1601309639761</v>
       </c>
-      <c r="CN69" s="11">
+      <c r="CN69" s="27">
         <v>43.601481617741278</v>
       </c>
-      <c r="CO69" s="11">
+      <c r="CO69" s="27">
         <v>10.702323039936408</v>
       </c>
-      <c r="CP69" s="9"/>
+      <c r="CP69" s="27">
+        <v>21.357945641717045</v>
+      </c>
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
       <c r="CS69" s="9"/>
@@ -16783,43 +16885,45 @@
       <c r="CC70" s="11">
         <v>23764.576767983799</v>
       </c>
-      <c r="CD70" s="11">
+      <c r="CD70" s="27">
         <v>9531.7450136771768</v>
       </c>
-      <c r="CE70" s="11">
+      <c r="CE70" s="27">
         <v>3101.2573632063081</v>
       </c>
-      <c r="CF70" s="11">
+      <c r="CF70" s="27">
         <v>2188.8977689507574</v>
       </c>
-      <c r="CG70" s="11">
+      <c r="CG70" s="27">
         <v>6285.6721429445324</v>
       </c>
-      <c r="CH70" s="11">
+      <c r="CH70" s="27">
         <v>1448.1343027412383</v>
       </c>
-      <c r="CI70" s="11">
+      <c r="CI70" s="27">
         <v>8591.4789033688157</v>
       </c>
-      <c r="CJ70" s="11">
+      <c r="CJ70" s="27">
         <v>2239.9525460572077</v>
       </c>
-      <c r="CK70" s="11">
+      <c r="CK70" s="27">
         <v>17011.446015645281</v>
       </c>
-      <c r="CL70" s="11">
+      <c r="CL70" s="27">
         <v>14282.981918436471</v>
       </c>
-      <c r="CM70" s="11">
+      <c r="CM70" s="27">
         <v>10605.219253329671</v>
       </c>
-      <c r="CN70" s="11">
+      <c r="CN70" s="27">
         <v>4425.0765158350632</v>
       </c>
-      <c r="CO70" s="11">
+      <c r="CO70" s="27">
         <v>4548.9454215379565</v>
       </c>
-      <c r="CP70" s="9"/>
+      <c r="CP70" s="27">
+        <v>6520.2329298288932</v>
+      </c>
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
       <c r="CS70" s="9"/>
@@ -17123,43 +17227,45 @@
       <c r="CC71" s="11">
         <v>3036.0165712730122</v>
       </c>
-      <c r="CD71" s="11">
+      <c r="CD71" s="27">
         <v>1361.5240448345121</v>
       </c>
-      <c r="CE71" s="11">
+      <c r="CE71" s="27">
         <v>4320.615255961241</v>
       </c>
-      <c r="CF71" s="11">
+      <c r="CF71" s="27">
         <v>812.91282327601562</v>
       </c>
-      <c r="CG71" s="11">
+      <c r="CG71" s="27">
         <v>895.31046279750126</v>
       </c>
-      <c r="CH71" s="11">
+      <c r="CH71" s="27">
         <v>6598.5811305210827</v>
       </c>
-      <c r="CI71" s="11">
+      <c r="CI71" s="27">
         <v>1509.2761680538472</v>
       </c>
-      <c r="CJ71" s="11">
+      <c r="CJ71" s="27">
         <v>933.29883433603959</v>
       </c>
-      <c r="CK71" s="11">
+      <c r="CK71" s="27">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="11">
+      <c r="CL71" s="27">
         <v>7863.217407514896</v>
       </c>
-      <c r="CM71" s="11">
+      <c r="CM71" s="27">
         <v>12974.003679213727</v>
       </c>
-      <c r="CN71" s="11">
+      <c r="CN71" s="27">
         <v>4985.4645054363455</v>
       </c>
-      <c r="CO71" s="11">
+      <c r="CO71" s="27">
         <v>3994.183415943829</v>
       </c>
-      <c r="CP71" s="9"/>
+      <c r="CP71" s="27">
+        <v>4843.322793361971</v>
+      </c>
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
       <c r="CS71" s="9"/>
@@ -17463,43 +17569,45 @@
       <c r="CC72" s="8">
         <v>46926.418462670881</v>
       </c>
-      <c r="CD72" s="8">
+      <c r="CD72" s="26">
         <v>54013.870202664657</v>
       </c>
-      <c r="CE72" s="8">
+      <c r="CE72" s="26">
         <v>45180.568325188258</v>
       </c>
-      <c r="CF72" s="8">
+      <c r="CF72" s="26">
         <v>48170.814279113154</v>
       </c>
-      <c r="CG72" s="8">
+      <c r="CG72" s="26">
         <v>39056.838552932059</v>
       </c>
-      <c r="CH72" s="8">
+      <c r="CH72" s="26">
         <v>57266.814811437871</v>
       </c>
-      <c r="CI72" s="8">
+      <c r="CI72" s="26">
         <v>77389.540482248194</v>
       </c>
-      <c r="CJ72" s="8">
+      <c r="CJ72" s="26">
         <v>50921.678456479567</v>
       </c>
-      <c r="CK72" s="8">
+      <c r="CK72" s="26">
         <v>41639.598916049588</v>
       </c>
-      <c r="CL72" s="8">
+      <c r="CL72" s="26">
         <v>58252.704456362095</v>
       </c>
-      <c r="CM72" s="8">
+      <c r="CM72" s="26">
         <v>75840.342753787176</v>
       </c>
-      <c r="CN72" s="8">
+      <c r="CN72" s="26">
         <v>46761.425515761221</v>
       </c>
-      <c r="CO72" s="8">
+      <c r="CO72" s="26">
         <v>40473.680125573919</v>
       </c>
-      <c r="CP72" s="9"/>
+      <c r="CP72" s="26">
+        <v>62077.638969694832</v>
+      </c>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
@@ -17803,43 +17911,45 @@
       <c r="CC73" s="11">
         <v>2473.4036698730979</v>
       </c>
-      <c r="CD73" s="11">
+      <c r="CD73" s="27">
         <v>3809.8833581161307</v>
       </c>
-      <c r="CE73" s="11">
+      <c r="CE73" s="27">
         <v>3345.940600506096</v>
       </c>
-      <c r="CF73" s="11">
+      <c r="CF73" s="27">
         <v>5324.7342699955352</v>
       </c>
-      <c r="CG73" s="11">
+      <c r="CG73" s="27">
         <v>3399.7361086404549</v>
       </c>
-      <c r="CH73" s="11">
+      <c r="CH73" s="27">
         <v>4859.84384366423</v>
       </c>
-      <c r="CI73" s="11">
+      <c r="CI73" s="27">
         <v>8344.0413587195926</v>
       </c>
-      <c r="CJ73" s="11">
+      <c r="CJ73" s="27">
         <v>3853.6409002357977</v>
       </c>
-      <c r="CK73" s="11">
+      <c r="CK73" s="27">
         <v>2429.9848975317846</v>
       </c>
-      <c r="CL73" s="11">
+      <c r="CL73" s="27">
         <v>4674.898316141449</v>
       </c>
-      <c r="CM73" s="11">
+      <c r="CM73" s="27">
         <v>6619.0926723367329</v>
       </c>
-      <c r="CN73" s="11">
+      <c r="CN73" s="27">
         <v>3588.7495327824981</v>
       </c>
-      <c r="CO73" s="11">
+      <c r="CO73" s="27">
         <v>3532.2953208946096</v>
       </c>
-      <c r="CP73" s="9"/>
+      <c r="CP73" s="27">
+        <v>5989.868693875289</v>
+      </c>
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
       <c r="CS73" s="9"/>
@@ -18143,43 +18253,45 @@
       <c r="CC74" s="11">
         <v>7333.7287226061126</v>
       </c>
-      <c r="CD74" s="11">
+      <c r="CD74" s="27">
         <v>10642.698961026426</v>
       </c>
-      <c r="CE74" s="11">
+      <c r="CE74" s="27">
         <v>6438.0983623157754</v>
       </c>
-      <c r="CF74" s="11">
+      <c r="CF74" s="27">
         <v>7214.57205480423</v>
       </c>
-      <c r="CG74" s="11">
+      <c r="CG74" s="27">
         <v>6270.4666236352759</v>
       </c>
-      <c r="CH74" s="11">
+      <c r="CH74" s="27">
         <v>11208.929355532269</v>
       </c>
-      <c r="CI74" s="11">
+      <c r="CI74" s="27">
         <v>13170.546986311489</v>
       </c>
-      <c r="CJ74" s="11">
+      <c r="CJ74" s="27">
         <v>7162.8336538555195</v>
       </c>
-      <c r="CK74" s="11">
+      <c r="CK74" s="27">
         <v>6962.3940114241905</v>
       </c>
-      <c r="CL74" s="11">
+      <c r="CL74" s="27">
         <v>11436.226301684081</v>
       </c>
-      <c r="CM74" s="11">
+      <c r="CM74" s="27">
         <v>11835.610697793134</v>
       </c>
-      <c r="CN74" s="11">
+      <c r="CN74" s="27">
         <v>5928.4090057165213</v>
       </c>
-      <c r="CO74" s="11">
+      <c r="CO74" s="27">
         <v>6736.9173027245652</v>
       </c>
-      <c r="CP74" s="9"/>
+      <c r="CP74" s="27">
+        <v>11846.421162198778</v>
+      </c>
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
       <c r="CS74" s="9"/>
@@ -18483,43 +18595,45 @@
       <c r="CC75" s="11">
         <v>25186.201016870127</v>
       </c>
-      <c r="CD75" s="11">
+      <c r="CD75" s="27">
         <v>25230.34730149166</v>
       </c>
-      <c r="CE75" s="11">
+      <c r="CE75" s="27">
         <v>27926.851978897888</v>
       </c>
-      <c r="CF75" s="11">
+      <c r="CF75" s="27">
         <v>25979.030605281343</v>
       </c>
-      <c r="CG75" s="11">
+      <c r="CG75" s="27">
         <v>19075.895362324642</v>
       </c>
-      <c r="CH75" s="11">
+      <c r="CH75" s="27">
         <v>23206.762776409687</v>
       </c>
-      <c r="CI75" s="11">
+      <c r="CI75" s="27">
         <v>39725.081466035612</v>
       </c>
-      <c r="CJ75" s="11">
+      <c r="CJ75" s="27">
         <v>30484.388651556059</v>
       </c>
-      <c r="CK75" s="11">
+      <c r="CK75" s="27">
         <v>22366.618873448107</v>
       </c>
-      <c r="CL75" s="11">
+      <c r="CL75" s="27">
         <v>27593.149041112589</v>
       </c>
-      <c r="CM75" s="11">
+      <c r="CM75" s="27">
         <v>41840.004529580372</v>
       </c>
-      <c r="CN75" s="11">
+      <c r="CN75" s="27">
         <v>28062.285735924481</v>
       </c>
-      <c r="CO75" s="11">
+      <c r="CO75" s="27">
         <v>21552.231177120528</v>
       </c>
-      <c r="CP75" s="9"/>
+      <c r="CP75" s="27">
+        <v>29115.154315517386</v>
+      </c>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
@@ -18823,43 +18937,45 @@
       <c r="CC76" s="11">
         <v>11933.085053321542</v>
       </c>
-      <c r="CD76" s="11">
+      <c r="CD76" s="27">
         <v>14330.940582030438</v>
       </c>
-      <c r="CE76" s="11">
+      <c r="CE76" s="27">
         <v>7469.6773834685027</v>
       </c>
-      <c r="CF76" s="11">
+      <c r="CF76" s="27">
         <v>9652.4773490320404</v>
       </c>
-      <c r="CG76" s="11">
+      <c r="CG76" s="27">
         <v>10310.740458331686</v>
       </c>
-      <c r="CH76" s="11">
+      <c r="CH76" s="27">
         <v>17991.278835831683</v>
       </c>
-      <c r="CI76" s="11">
+      <c r="CI76" s="27">
         <v>16149.870671181499</v>
       </c>
-      <c r="CJ76" s="11">
+      <c r="CJ76" s="27">
         <v>9420.8152508321909</v>
       </c>
-      <c r="CK76" s="11">
+      <c r="CK76" s="27">
         <v>9880.6011336455031</v>
       </c>
-      <c r="CL76" s="11">
+      <c r="CL76" s="27">
         <v>14548.430797423976</v>
       </c>
-      <c r="CM76" s="11">
+      <c r="CM76" s="27">
         <v>15545.634854076947</v>
       </c>
-      <c r="CN76" s="11">
+      <c r="CN76" s="27">
         <v>9181.9812413377222</v>
       </c>
-      <c r="CO76" s="11">
+      <c r="CO76" s="27">
         <v>8652.2363248342153</v>
       </c>
-      <c r="CP76" s="9"/>
+      <c r="CP76" s="27">
+        <v>15126.194798103381</v>
+      </c>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
@@ -19352,7 +19468,9 @@
       <c r="CO78" s="13">
         <v>295498.23576939176</v>
       </c>
-      <c r="CP78" s="9"/>
+      <c r="CP78" s="13">
+        <v>358258.52508475562</v>
+      </c>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
@@ -19506,6 +19624,7 @@
       <c r="CM79" s="14"/>
       <c r="CN79" s="14"/>
       <c r="CO79" s="14"/>
+      <c r="CP79" s="14"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -19531,9 +19650,6 @@
       <c r="BU80" s="16"/>
       <c r="BY80" s="16"/>
       <c r="CC80" s="16"/>
-      <c r="CG80" s="16"/>
-      <c r="CK80" s="16"/>
-      <c r="CO80" s="16"/>
     </row>
     <row r="81" spans="1:152" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -19855,7 +19971,7 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.2">
@@ -19865,7 +19981,7 @@
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
@@ -19875,142 +19991,145 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="25" t="s">
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="25" t="s">
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="26"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="25" t="s">
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="25" t="s">
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="26"/>
-      <c r="T91" s="26"/>
-      <c r="U91" s="26"/>
-      <c r="V91" s="25" t="s">
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="26"/>
-      <c r="X91" s="26"/>
-      <c r="Y91" s="26"/>
-      <c r="Z91" s="25" t="s">
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="26"/>
-      <c r="AB91" s="26"/>
-      <c r="AC91" s="26"/>
-      <c r="AD91" s="25" t="s">
+      <c r="AA91" s="29"/>
+      <c r="AB91" s="29"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="26"/>
-      <c r="AF91" s="26"/>
-      <c r="AG91" s="26"/>
-      <c r="AH91" s="25" t="s">
+      <c r="AE91" s="29"/>
+      <c r="AF91" s="29"/>
+      <c r="AG91" s="29"/>
+      <c r="AH91" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="26"/>
-      <c r="AJ91" s="26"/>
-      <c r="AK91" s="26"/>
-      <c r="AL91" s="25" t="s">
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="26"/>
-      <c r="AN91" s="26"/>
-      <c r="AO91" s="26"/>
-      <c r="AP91" s="25" t="s">
+      <c r="AM91" s="29"/>
+      <c r="AN91" s="29"/>
+      <c r="AO91" s="29"/>
+      <c r="AP91" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="26"/>
-      <c r="AR91" s="26"/>
-      <c r="AS91" s="26"/>
-      <c r="AT91" s="25" t="s">
+      <c r="AQ91" s="29"/>
+      <c r="AR91" s="29"/>
+      <c r="AS91" s="29"/>
+      <c r="AT91" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="26"/>
-      <c r="AV91" s="26"/>
-      <c r="AW91" s="26"/>
-      <c r="AX91" s="25" t="s">
+      <c r="AU91" s="29"/>
+      <c r="AV91" s="29"/>
+      <c r="AW91" s="29"/>
+      <c r="AX91" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="26"/>
-      <c r="AZ91" s="26"/>
-      <c r="BA91" s="26"/>
-      <c r="BB91" s="25" t="s">
+      <c r="AY91" s="29"/>
+      <c r="AZ91" s="29"/>
+      <c r="BA91" s="29"/>
+      <c r="BB91" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="26"/>
-      <c r="BD91" s="26"/>
-      <c r="BE91" s="26"/>
-      <c r="BF91" s="25" t="s">
+      <c r="BC91" s="29"/>
+      <c r="BD91" s="29"/>
+      <c r="BE91" s="29"/>
+      <c r="BF91" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="26"/>
-      <c r="BH91" s="26"/>
-      <c r="BI91" s="26"/>
-      <c r="BJ91" s="25" t="s">
+      <c r="BG91" s="29"/>
+      <c r="BH91" s="29"/>
+      <c r="BI91" s="29"/>
+      <c r="BJ91" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="26"/>
-      <c r="BL91" s="26"/>
-      <c r="BM91" s="26"/>
-      <c r="BN91" s="25" t="s">
+      <c r="BK91" s="29"/>
+      <c r="BL91" s="29"/>
+      <c r="BM91" s="29"/>
+      <c r="BN91" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="26"/>
-      <c r="BP91" s="26"/>
-      <c r="BQ91" s="26"/>
-      <c r="BR91" s="25" t="s">
+      <c r="BO91" s="29"/>
+      <c r="BP91" s="29"/>
+      <c r="BQ91" s="29"/>
+      <c r="BR91" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="26"/>
-      <c r="BT91" s="26"/>
-      <c r="BU91" s="26"/>
-      <c r="BV91" s="25" t="s">
+      <c r="BS91" s="29"/>
+      <c r="BT91" s="29"/>
+      <c r="BU91" s="29"/>
+      <c r="BV91" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="26"/>
-      <c r="BX91" s="26"/>
-      <c r="BY91" s="26"/>
-      <c r="BZ91" s="25" t="s">
+      <c r="BW91" s="29"/>
+      <c r="BX91" s="29"/>
+      <c r="BY91" s="29"/>
+      <c r="BZ91" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="26"/>
-      <c r="CB91" s="26"/>
-      <c r="CC91" s="26"/>
-      <c r="CD91" s="25" t="s">
+      <c r="CA91" s="29"/>
+      <c r="CB91" s="29"/>
+      <c r="CC91" s="29"/>
+      <c r="CD91" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="26"/>
-      <c r="CF91" s="26"/>
-      <c r="CG91" s="26"/>
-      <c r="CH91" s="25" t="s">
+      <c r="CE91" s="28"/>
+      <c r="CF91" s="28"/>
+      <c r="CG91" s="28"/>
+      <c r="CH91" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="CI91" s="26"/>
-      <c r="CJ91" s="26"/>
-      <c r="CK91" s="26"/>
-      <c r="CL91" s="25"/>
-      <c r="CM91" s="26"/>
-      <c r="CN91" s="26"/>
-      <c r="CO91" s="26"/>
+      <c r="CI91" s="28"/>
+      <c r="CJ91" s="28"/>
+      <c r="CK91" s="28"/>
+      <c r="CL91" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM91" s="25"/>
+      <c r="CN91" s="25"/>
+      <c r="CO91" s="25"/>
+      <c r="CP91" s="25"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20280,10 +20399,13 @@
       <c r="CK92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL92" s="17"/>
+      <c r="CL92" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="CM92" s="17"/>
       <c r="CN92" s="17"/>
       <c r="CO92" s="17"/>
+      <c r="CP92" s="17"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -20556,11 +20678,13 @@
       <c r="CK94" s="18">
         <v>-3.1423218361062197</v>
       </c>
-      <c r="CL94" s="18"/>
+      <c r="CL94" s="18">
+        <v>3.0170906722682673</v>
+      </c>
       <c r="CM94" s="18"/>
       <c r="CN94" s="18"/>
       <c r="CO94" s="18"/>
-      <c r="CP94" s="9"/>
+      <c r="CP94" s="18"/>
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
       <c r="CS94" s="9"/>
@@ -20883,11 +21007,13 @@
       <c r="CK95" s="18">
         <v>-33.890668245748373</v>
       </c>
-      <c r="CL95" s="18"/>
+      <c r="CL95" s="18">
+        <v>18.916413021932172</v>
+      </c>
       <c r="CM95" s="18"/>
       <c r="CN95" s="18"/>
       <c r="CO95" s="18"/>
-      <c r="CP95" s="9"/>
+      <c r="CP95" s="18"/>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
@@ -21210,11 +21336,13 @@
       <c r="CK96" s="18">
         <v>11.252850114661285</v>
       </c>
-      <c r="CL96" s="18"/>
+      <c r="CL96" s="18">
+        <v>35.871694984583598</v>
+      </c>
       <c r="CM96" s="18"/>
       <c r="CN96" s="18"/>
       <c r="CO96" s="18"/>
-      <c r="CP96" s="9"/>
+      <c r="CP96" s="18"/>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
@@ -21537,11 +21665,13 @@
       <c r="CK97" s="18">
         <v>22.780147339555285</v>
       </c>
-      <c r="CL97" s="18"/>
+      <c r="CL97" s="18">
+        <v>7.7004070956138406</v>
+      </c>
       <c r="CM97" s="18"/>
       <c r="CN97" s="18"/>
       <c r="CO97" s="18"/>
-      <c r="CP97" s="9"/>
+      <c r="CP97" s="18"/>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
@@ -21864,11 +21994,13 @@
       <c r="CK98" s="18">
         <v>39.670564594574842</v>
       </c>
-      <c r="CL98" s="18"/>
+      <c r="CL98" s="18">
+        <v>11.47572768445886</v>
+      </c>
       <c r="CM98" s="18"/>
       <c r="CN98" s="18"/>
       <c r="CO98" s="18"/>
-      <c r="CP98" s="9"/>
+      <c r="CP98" s="18"/>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
@@ -22191,11 +22323,13 @@
       <c r="CK99" s="18">
         <v>10.620130913081653</v>
       </c>
-      <c r="CL99" s="18"/>
+      <c r="CL99" s="18">
+        <v>9.9520358707404313</v>
+      </c>
       <c r="CM99" s="18"/>
       <c r="CN99" s="18"/>
       <c r="CO99" s="18"/>
-      <c r="CP99" s="9"/>
+      <c r="CP99" s="18"/>
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
       <c r="CS99" s="9"/>
@@ -22518,11 +22652,13 @@
       <c r="CK100" s="18">
         <v>-7.2462550615598929</v>
       </c>
-      <c r="CL100" s="18"/>
+      <c r="CL100" s="18">
+        <v>-4.7698164777508083</v>
+      </c>
       <c r="CM100" s="18"/>
       <c r="CN100" s="18"/>
       <c r="CO100" s="18"/>
-      <c r="CP100" s="9"/>
+      <c r="CP100" s="18"/>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
@@ -22845,11 +22981,13 @@
       <c r="CK101" s="18">
         <v>-13.742990700988315</v>
       </c>
-      <c r="CL101" s="18"/>
+      <c r="CL101" s="18">
+        <v>59.598930121014035</v>
+      </c>
       <c r="CM101" s="18"/>
       <c r="CN101" s="18"/>
       <c r="CO101" s="18"/>
-      <c r="CP101" s="9"/>
+      <c r="CP101" s="18"/>
       <c r="CQ101" s="9"/>
       <c r="CR101" s="9"/>
       <c r="CS101" s="9"/>
@@ -23172,11 +23310,13 @@
       <c r="CK102" s="18">
         <v>-0.88709604137297049</v>
       </c>
-      <c r="CL102" s="18"/>
+      <c r="CL102" s="18">
+        <v>-12.868718855579544</v>
+      </c>
       <c r="CM102" s="18"/>
       <c r="CN102" s="18"/>
       <c r="CO102" s="18"/>
-      <c r="CP102" s="9"/>
+      <c r="CP102" s="18"/>
       <c r="CQ102" s="9"/>
       <c r="CR102" s="9"/>
       <c r="CS102" s="9"/>
@@ -23499,11 +23639,13 @@
       <c r="CK103" s="18">
         <v>32.975084605904556</v>
       </c>
-      <c r="CL103" s="18"/>
+      <c r="CL103" s="18">
+        <v>21.172596296439707</v>
+      </c>
       <c r="CM103" s="18"/>
       <c r="CN103" s="18"/>
       <c r="CO103" s="18"/>
-      <c r="CP103" s="9"/>
+      <c r="CP103" s="18"/>
       <c r="CQ103" s="9"/>
       <c r="CR103" s="9"/>
       <c r="CS103" s="9"/>
@@ -23826,11 +23968,13 @@
       <c r="CK104" s="18">
         <v>19.731184714463737</v>
       </c>
-      <c r="CL104" s="18"/>
+      <c r="CL104" s="18">
+        <v>18.652038508159535</v>
+      </c>
       <c r="CM104" s="18"/>
       <c r="CN104" s="18"/>
       <c r="CO104" s="18"/>
-      <c r="CP104" s="9"/>
+      <c r="CP104" s="18"/>
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9"/>
       <c r="CS104" s="9"/>
@@ -24153,11 +24297,13 @@
       <c r="CK105" s="18">
         <v>33.960591444513767</v>
       </c>
-      <c r="CL105" s="18"/>
+      <c r="CL105" s="18">
+        <v>30.500241154271549</v>
+      </c>
       <c r="CM105" s="18"/>
       <c r="CN105" s="18"/>
       <c r="CO105" s="18"/>
-      <c r="CP105" s="9"/>
+      <c r="CP105" s="18"/>
       <c r="CQ105" s="9"/>
       <c r="CR105" s="9"/>
       <c r="CS105" s="9"/>
@@ -24480,11 +24626,13 @@
       <c r="CK106" s="18">
         <v>80.427362585648609</v>
       </c>
-      <c r="CL106" s="18"/>
+      <c r="CL106" s="18">
+        <v>83.780418341574403</v>
+      </c>
       <c r="CM106" s="18"/>
       <c r="CN106" s="18"/>
       <c r="CO106" s="18"/>
-      <c r="CP106" s="9"/>
+      <c r="CP106" s="18"/>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
@@ -24807,11 +24955,13 @@
       <c r="CK107" s="18">
         <v>9.0861896397864683</v>
       </c>
-      <c r="CL107" s="18"/>
+      <c r="CL107" s="18">
+        <v>-12.35600332464432</v>
+      </c>
       <c r="CM107" s="18"/>
       <c r="CN107" s="18"/>
       <c r="CO107" s="18"/>
-      <c r="CP107" s="9"/>
+      <c r="CP107" s="18"/>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
@@ -25134,11 +25284,13 @@
       <c r="CK108" s="18">
         <v>21.739786651774935</v>
       </c>
-      <c r="CL108" s="18"/>
+      <c r="CL108" s="18">
+        <v>16.43792404556838</v>
+      </c>
       <c r="CM108" s="18"/>
       <c r="CN108" s="18"/>
       <c r="CO108" s="18"/>
-      <c r="CP108" s="9"/>
+      <c r="CP108" s="18"/>
       <c r="CQ108" s="9"/>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
@@ -25461,11 +25613,13 @@
       <c r="CK109" s="18">
         <v>38.066324328804001</v>
       </c>
-      <c r="CL109" s="18"/>
+      <c r="CL109" s="18">
+        <v>29.190698143568682</v>
+      </c>
       <c r="CM109" s="18"/>
       <c r="CN109" s="18"/>
       <c r="CO109" s="18"/>
-      <c r="CP109" s="9"/>
+      <c r="CP109" s="18"/>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
@@ -25770,7 +25924,7 @@
       <c r="CE110" s="18">
         <v>-43.13414806476964</v>
       </c>
-      <c r="CF110" s="18" t="s">
+      <c r="CF110" s="20" t="s">
         <v>42</v>
       </c>
       <c r="CG110" s="18">
@@ -25779,7 +25933,7 @@
       <c r="CH110" s="18">
         <v>-20.097370315257223</v>
       </c>
-      <c r="CI110" s="18" t="s">
+      <c r="CI110" s="20" t="s">
         <v>42</v>
       </c>
       <c r="CJ110" s="18">
@@ -25788,11 +25942,13 @@
       <c r="CK110" s="18">
         <v>-99.551333877680136</v>
       </c>
-      <c r="CL110" s="18"/>
+      <c r="CL110" s="18">
+        <v>-98.633621605042563</v>
+      </c>
       <c r="CM110" s="18"/>
       <c r="CN110" s="18"/>
       <c r="CO110" s="18"/>
-      <c r="CP110" s="9"/>
+      <c r="CP110" s="18"/>
       <c r="CQ110" s="9"/>
       <c r="CR110" s="9"/>
       <c r="CS110" s="9"/>
@@ -26103,7 +26259,7 @@
       <c r="CG111" s="18">
         <v>193.31753119766216</v>
       </c>
-      <c r="CH111" s="18" t="s">
+      <c r="CH111" s="20" t="s">
         <v>42</v>
       </c>
       <c r="CI111" s="18">
@@ -26115,11 +26271,13 @@
       <c r="CK111" s="18">
         <v>-68.660450439804279</v>
       </c>
-      <c r="CL111" s="18"/>
+      <c r="CL111" s="18">
+        <v>-49.082373421646331</v>
+      </c>
       <c r="CM111" s="18"/>
       <c r="CN111" s="18"/>
       <c r="CO111" s="18"/>
-      <c r="CP111" s="9"/>
+      <c r="CP111" s="18"/>
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
@@ -26442,11 +26600,13 @@
       <c r="CK112" s="18">
         <v>186.47284241674464</v>
       </c>
-      <c r="CL112" s="18"/>
+      <c r="CL112" s="18">
+        <v>-31.628825227120061</v>
+      </c>
       <c r="CM112" s="18"/>
       <c r="CN112" s="18"/>
       <c r="CO112" s="18"/>
-      <c r="CP112" s="9"/>
+      <c r="CP112" s="18"/>
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
       <c r="CS112" s="9"/>
@@ -26769,11 +26929,13 @@
       <c r="CK113" s="18">
         <v>16.532349124837879</v>
       </c>
-      <c r="CL113" s="18"/>
+      <c r="CL113" s="18">
+        <v>15.174361369947349</v>
+      </c>
       <c r="CM113" s="18"/>
       <c r="CN113" s="18"/>
       <c r="CO113" s="18"/>
-      <c r="CP113" s="9"/>
+      <c r="CP113" s="18"/>
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
@@ -27096,11 +27258,13 @@
       <c r="CK114" s="18">
         <v>66.409150524553638</v>
       </c>
-      <c r="CL114" s="18"/>
+      <c r="CL114" s="18">
+        <v>33.20075851295212</v>
+      </c>
       <c r="CM114" s="18"/>
       <c r="CN114" s="18"/>
       <c r="CO114" s="18"/>
-      <c r="CP114" s="9"/>
+      <c r="CP114" s="18"/>
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
       <c r="CS114" s="9"/>
@@ -27423,11 +27587,13 @@
       <c r="CK115" s="18">
         <v>8.6519988830101653</v>
       </c>
-      <c r="CL115" s="18"/>
+      <c r="CL115" s="18">
+        <v>8.5409022056830679</v>
+      </c>
       <c r="CM115" s="18"/>
       <c r="CN115" s="18"/>
       <c r="CO115" s="18"/>
-      <c r="CP115" s="9"/>
+      <c r="CP115" s="18"/>
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
       <c r="CS115" s="9"/>
@@ -27750,11 +27916,13 @@
       <c r="CK116" s="18">
         <v>14.396255255301497</v>
       </c>
-      <c r="CL116" s="18"/>
+      <c r="CL116" s="18">
+        <v>14.166760939672059</v>
+      </c>
       <c r="CM116" s="18"/>
       <c r="CN116" s="18"/>
       <c r="CO116" s="18"/>
-      <c r="CP116" s="9"/>
+      <c r="CP116" s="18"/>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
@@ -28077,11 +28245,13 @@
       <c r="CK117" s="18">
         <v>7.414953349529199</v>
       </c>
-      <c r="CL117" s="18"/>
+      <c r="CL117" s="18">
+        <v>16.265050264483037</v>
+      </c>
       <c r="CM117" s="18"/>
       <c r="CN117" s="18"/>
       <c r="CO117" s="18"/>
-      <c r="CP117" s="9"/>
+      <c r="CP117" s="18"/>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
@@ -28552,11 +28722,13 @@
       <c r="CK119" s="23">
         <v>17.629840372568012</v>
       </c>
-      <c r="CL119" s="23"/>
+      <c r="CL119" s="23">
+        <v>14.542849635086966</v>
+      </c>
       <c r="CM119" s="23"/>
       <c r="CN119" s="23"/>
       <c r="CO119" s="23"/>
-      <c r="CP119" s="9"/>
+      <c r="CP119" s="23"/>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
@@ -28705,6 +28877,7 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
+      <c r="CP120" s="14"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -29022,7 +29195,7 @@
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.2">
@@ -29032,7 +29205,7 @@
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.2">
@@ -29042,142 +29215,145 @@
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="25" t="s">
+      <c r="B132" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="25" t="s">
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="26"/>
-      <c r="H132" s="26"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="25" t="s">
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="26"/>
-      <c r="L132" s="26"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="25" t="s">
+      <c r="K132" s="29"/>
+      <c r="L132" s="29"/>
+      <c r="M132" s="29"/>
+      <c r="N132" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="26"/>
-      <c r="P132" s="26"/>
-      <c r="Q132" s="26"/>
-      <c r="R132" s="25" t="s">
+      <c r="O132" s="29"/>
+      <c r="P132" s="29"/>
+      <c r="Q132" s="29"/>
+      <c r="R132" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="26"/>
-      <c r="T132" s="26"/>
-      <c r="U132" s="26"/>
-      <c r="V132" s="25" t="s">
+      <c r="S132" s="29"/>
+      <c r="T132" s="29"/>
+      <c r="U132" s="29"/>
+      <c r="V132" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="26"/>
-      <c r="X132" s="26"/>
-      <c r="Y132" s="26"/>
-      <c r="Z132" s="25" t="s">
+      <c r="W132" s="29"/>
+      <c r="X132" s="29"/>
+      <c r="Y132" s="29"/>
+      <c r="Z132" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="26"/>
-      <c r="AB132" s="26"/>
-      <c r="AC132" s="26"/>
-      <c r="AD132" s="25" t="s">
+      <c r="AA132" s="29"/>
+      <c r="AB132" s="29"/>
+      <c r="AC132" s="29"/>
+      <c r="AD132" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="26"/>
-      <c r="AF132" s="26"/>
-      <c r="AG132" s="26"/>
-      <c r="AH132" s="25" t="s">
+      <c r="AE132" s="29"/>
+      <c r="AF132" s="29"/>
+      <c r="AG132" s="29"/>
+      <c r="AH132" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="26"/>
-      <c r="AJ132" s="26"/>
-      <c r="AK132" s="26"/>
-      <c r="AL132" s="25" t="s">
+      <c r="AI132" s="29"/>
+      <c r="AJ132" s="29"/>
+      <c r="AK132" s="29"/>
+      <c r="AL132" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="26"/>
-      <c r="AN132" s="26"/>
-      <c r="AO132" s="26"/>
-      <c r="AP132" s="25" t="s">
+      <c r="AM132" s="29"/>
+      <c r="AN132" s="29"/>
+      <c r="AO132" s="29"/>
+      <c r="AP132" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="26"/>
-      <c r="AR132" s="26"/>
-      <c r="AS132" s="26"/>
-      <c r="AT132" s="25" t="s">
+      <c r="AQ132" s="29"/>
+      <c r="AR132" s="29"/>
+      <c r="AS132" s="29"/>
+      <c r="AT132" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="26"/>
-      <c r="AV132" s="26"/>
-      <c r="AW132" s="26"/>
-      <c r="AX132" s="25" t="s">
+      <c r="AU132" s="29"/>
+      <c r="AV132" s="29"/>
+      <c r="AW132" s="29"/>
+      <c r="AX132" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="26"/>
-      <c r="AZ132" s="26"/>
-      <c r="BA132" s="26"/>
-      <c r="BB132" s="25" t="s">
+      <c r="AY132" s="29"/>
+      <c r="AZ132" s="29"/>
+      <c r="BA132" s="29"/>
+      <c r="BB132" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="26"/>
-      <c r="BD132" s="26"/>
-      <c r="BE132" s="26"/>
-      <c r="BF132" s="25" t="s">
+      <c r="BC132" s="29"/>
+      <c r="BD132" s="29"/>
+      <c r="BE132" s="29"/>
+      <c r="BF132" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="26"/>
-      <c r="BH132" s="26"/>
-      <c r="BI132" s="26"/>
-      <c r="BJ132" s="25" t="s">
+      <c r="BG132" s="29"/>
+      <c r="BH132" s="29"/>
+      <c r="BI132" s="29"/>
+      <c r="BJ132" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="26"/>
-      <c r="BL132" s="26"/>
-      <c r="BM132" s="26"/>
-      <c r="BN132" s="25" t="s">
+      <c r="BK132" s="29"/>
+      <c r="BL132" s="29"/>
+      <c r="BM132" s="29"/>
+      <c r="BN132" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="26"/>
-      <c r="BP132" s="26"/>
-      <c r="BQ132" s="26"/>
-      <c r="BR132" s="25" t="s">
+      <c r="BO132" s="29"/>
+      <c r="BP132" s="29"/>
+      <c r="BQ132" s="29"/>
+      <c r="BR132" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="26"/>
-      <c r="BT132" s="26"/>
-      <c r="BU132" s="26"/>
-      <c r="BV132" s="25" t="s">
+      <c r="BS132" s="29"/>
+      <c r="BT132" s="29"/>
+      <c r="BU132" s="29"/>
+      <c r="BV132" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="26"/>
-      <c r="BX132" s="26"/>
-      <c r="BY132" s="26"/>
-      <c r="BZ132" s="25" t="s">
+      <c r="BW132" s="29"/>
+      <c r="BX132" s="29"/>
+      <c r="BY132" s="29"/>
+      <c r="BZ132" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="26"/>
-      <c r="CB132" s="26"/>
-      <c r="CC132" s="26"/>
-      <c r="CD132" s="25" t="s">
+      <c r="CA132" s="29"/>
+      <c r="CB132" s="29"/>
+      <c r="CC132" s="29"/>
+      <c r="CD132" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="26"/>
-      <c r="CF132" s="26"/>
-      <c r="CG132" s="26"/>
-      <c r="CH132" s="25" t="s">
+      <c r="CE132" s="28"/>
+      <c r="CF132" s="28"/>
+      <c r="CG132" s="28"/>
+      <c r="CH132" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="CI132" s="26"/>
-      <c r="CJ132" s="26"/>
-      <c r="CK132" s="26"/>
-      <c r="CL132" s="25"/>
-      <c r="CM132" s="26"/>
-      <c r="CN132" s="26"/>
-      <c r="CO132" s="26"/>
+      <c r="CI132" s="28"/>
+      <c r="CJ132" s="28"/>
+      <c r="CK132" s="28"/>
+      <c r="CL132" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM132" s="25"/>
+      <c r="CN132" s="25"/>
+      <c r="CO132" s="25"/>
+      <c r="CP132" s="25"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -29447,10 +29623,13 @@
       <c r="CK133" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL133" s="17"/>
+      <c r="CL133" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="CM133" s="17"/>
       <c r="CN133" s="17"/>
       <c r="CO133" s="17"/>
+      <c r="CP133" s="17"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -29723,11 +29902,13 @@
       <c r="CK135" s="18">
         <v>-15.743263847795319</v>
       </c>
-      <c r="CL135" s="18"/>
+      <c r="CL135" s="18">
+        <v>-6.0597587282559289</v>
+      </c>
       <c r="CM135" s="18"/>
       <c r="CN135" s="18"/>
       <c r="CO135" s="18"/>
-      <c r="CP135" s="9"/>
+      <c r="CP135" s="18"/>
       <c r="CQ135" s="9"/>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
@@ -30050,11 +30231,13 @@
       <c r="CK136" s="18">
         <v>-44.984597890591893</v>
       </c>
-      <c r="CL136" s="18"/>
+      <c r="CL136" s="18">
+        <v>6.5989975372245482</v>
+      </c>
       <c r="CM136" s="18"/>
       <c r="CN136" s="18"/>
       <c r="CO136" s="18"/>
-      <c r="CP136" s="9"/>
+      <c r="CP136" s="18"/>
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
       <c r="CS136" s="9"/>
@@ -30377,11 +30560,13 @@
       <c r="CK137" s="18">
         <v>-7.0870870005981885</v>
       </c>
-      <c r="CL137" s="18"/>
+      <c r="CL137" s="18">
+        <v>21.063966080711708</v>
+      </c>
       <c r="CM137" s="18"/>
       <c r="CN137" s="18"/>
       <c r="CO137" s="18"/>
-      <c r="CP137" s="9"/>
+      <c r="CP137" s="18"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
@@ -30704,11 +30889,13 @@
       <c r="CK138" s="18">
         <v>24.607617638788867</v>
       </c>
-      <c r="CL138" s="18"/>
+      <c r="CL138" s="18">
+        <v>1.8788778405376689</v>
+      </c>
       <c r="CM138" s="18"/>
       <c r="CN138" s="18"/>
       <c r="CO138" s="18"/>
-      <c r="CP138" s="9"/>
+      <c r="CP138" s="18"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
@@ -31031,11 +31218,13 @@
       <c r="CK139" s="18">
         <v>27.580786526889469</v>
       </c>
-      <c r="CL139" s="18"/>
+      <c r="CL139" s="18">
+        <v>1.3497661115397364</v>
+      </c>
       <c r="CM139" s="18"/>
       <c r="CN139" s="18"/>
       <c r="CO139" s="18"/>
-      <c r="CP139" s="9"/>
+      <c r="CP139" s="18"/>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
@@ -31358,11 +31547,13 @@
       <c r="CK140" s="18">
         <v>-6.585756202320141</v>
       </c>
-      <c r="CL140" s="18"/>
+      <c r="CL140" s="18">
+        <v>-1.6310464119482049</v>
+      </c>
       <c r="CM140" s="18"/>
       <c r="CN140" s="18"/>
       <c r="CO140" s="18"/>
-      <c r="CP140" s="9"/>
+      <c r="CP140" s="18"/>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
@@ -31685,11 +31876,13 @@
       <c r="CK141" s="18">
         <v>-19.760942605162967</v>
       </c>
-      <c r="CL141" s="18"/>
+      <c r="CL141" s="18">
+        <v>-12.453303521424743</v>
+      </c>
       <c r="CM141" s="18"/>
       <c r="CN141" s="18"/>
       <c r="CO141" s="18"/>
-      <c r="CP141" s="9"/>
+      <c r="CP141" s="18"/>
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
       <c r="CS141" s="9"/>
@@ -32012,11 +32205,13 @@
       <c r="CK142" s="18">
         <v>-27.570405592057696</v>
       </c>
-      <c r="CL142" s="18"/>
+      <c r="CL142" s="18">
+        <v>43.23623957530279</v>
+      </c>
       <c r="CM142" s="18"/>
       <c r="CN142" s="18"/>
       <c r="CO142" s="18"/>
-      <c r="CP142" s="9"/>
+      <c r="CP142" s="18"/>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
@@ -32339,11 +32534,13 @@
       <c r="CK143" s="18">
         <v>-9.4886638440771236</v>
       </c>
-      <c r="CL143" s="18"/>
+      <c r="CL143" s="18">
+        <v>-18.45157335816927</v>
+      </c>
       <c r="CM143" s="18"/>
       <c r="CN143" s="18"/>
       <c r="CO143" s="18"/>
-      <c r="CP143" s="9"/>
+      <c r="CP143" s="18"/>
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
       <c r="CS143" s="9"/>
@@ -32666,11 +32863,13 @@
       <c r="CK144" s="18">
         <v>20.04626171891482</v>
       </c>
-      <c r="CL144" s="18"/>
+      <c r="CL144" s="18">
+        <v>10.083626954051212</v>
+      </c>
       <c r="CM144" s="18"/>
       <c r="CN144" s="18"/>
       <c r="CO144" s="18"/>
-      <c r="CP144" s="9"/>
+      <c r="CP144" s="18"/>
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
       <c r="CS144" s="9"/>
@@ -32993,11 +33192,13 @@
       <c r="CK145" s="18">
         <v>6.8331401942381973</v>
       </c>
-      <c r="CL145" s="18"/>
+      <c r="CL145" s="18">
+        <v>13.153778689759733</v>
+      </c>
       <c r="CM145" s="18"/>
       <c r="CN145" s="18"/>
       <c r="CO145" s="18"/>
-      <c r="CP145" s="9"/>
+      <c r="CP145" s="18"/>
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
       <c r="CS145" s="9"/>
@@ -33320,11 +33521,13 @@
       <c r="CK146" s="18">
         <v>14.516318095271671</v>
       </c>
-      <c r="CL146" s="18"/>
+      <c r="CL146" s="18">
+        <v>19.713460449982037</v>
+      </c>
       <c r="CM146" s="18"/>
       <c r="CN146" s="18"/>
       <c r="CO146" s="18"/>
-      <c r="CP146" s="9"/>
+      <c r="CP146" s="18"/>
       <c r="CQ146" s="9"/>
       <c r="CR146" s="9"/>
       <c r="CS146" s="9"/>
@@ -33647,11 +33850,13 @@
       <c r="CK147" s="18">
         <v>52.281991598247743</v>
       </c>
-      <c r="CL147" s="18"/>
+      <c r="CL147" s="18">
+        <v>63.251337548615879</v>
+      </c>
       <c r="CM147" s="18"/>
       <c r="CN147" s="18"/>
       <c r="CO147" s="18"/>
-      <c r="CP147" s="9"/>
+      <c r="CP147" s="18"/>
       <c r="CQ147" s="9"/>
       <c r="CR147" s="9"/>
       <c r="CS147" s="9"/>
@@ -33974,11 +34179,13 @@
       <c r="CK148" s="18">
         <v>9.3030225321897291</v>
       </c>
-      <c r="CL148" s="18"/>
+      <c r="CL148" s="18">
+        <v>-17.521179339208388</v>
+      </c>
       <c r="CM148" s="18"/>
       <c r="CN148" s="18"/>
       <c r="CO148" s="18"/>
-      <c r="CP148" s="9"/>
+      <c r="CP148" s="18"/>
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
       <c r="CS148" s="9"/>
@@ -34301,11 +34508,13 @@
       <c r="CK149" s="18">
         <v>7.2799438838611223</v>
       </c>
-      <c r="CL149" s="18"/>
+      <c r="CL149" s="18">
+        <v>10.946438663018142</v>
+      </c>
       <c r="CM149" s="18"/>
       <c r="CN149" s="18"/>
       <c r="CO149" s="18"/>
-      <c r="CP149" s="9"/>
+      <c r="CP149" s="18"/>
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
       <c r="CS149" s="9"/>
@@ -34628,11 +34837,13 @@
       <c r="CK150" s="18">
         <v>20.261766374911858</v>
       </c>
-      <c r="CL150" s="18"/>
+      <c r="CL150" s="18">
+        <v>21.435279915141663</v>
+      </c>
       <c r="CM150" s="18"/>
       <c r="CN150" s="18"/>
       <c r="CO150" s="18"/>
-      <c r="CP150" s="9"/>
+      <c r="CP150" s="18"/>
       <c r="CQ150" s="9"/>
       <c r="CR150" s="9"/>
       <c r="CS150" s="9"/>
@@ -34937,7 +35148,7 @@
       <c r="CE151" s="18">
         <v>-42.081828646556538</v>
       </c>
-      <c r="CF151" s="18" t="s">
+      <c r="CF151" s="20" t="s">
         <v>42</v>
       </c>
       <c r="CG151" s="18">
@@ -34946,7 +35157,7 @@
       <c r="CH151" s="18">
         <v>-25.855541909063874</v>
       </c>
-      <c r="CI151" s="18" t="s">
+      <c r="CI151" s="20" t="s">
         <v>42</v>
       </c>
       <c r="CJ151" s="18">
@@ -34955,11 +35166,13 @@
       <c r="CK151" s="18">
         <v>-99.618986213268911</v>
       </c>
-      <c r="CL151" s="18"/>
+      <c r="CL151" s="18">
+        <v>-98.782274775353756</v>
+      </c>
       <c r="CM151" s="18"/>
       <c r="CN151" s="18"/>
       <c r="CO151" s="18"/>
-      <c r="CP151" s="9"/>
+      <c r="CP151" s="18"/>
       <c r="CQ151" s="9"/>
       <c r="CR151" s="9"/>
       <c r="CS151" s="9"/>
@@ -35282,11 +35495,13 @@
       <c r="CK152" s="18">
         <v>-73.259501765139021</v>
       </c>
-      <c r="CL152" s="18"/>
+      <c r="CL152" s="18">
+        <v>-54.349638142350528</v>
+      </c>
       <c r="CM152" s="18"/>
       <c r="CN152" s="18"/>
       <c r="CO152" s="18"/>
-      <c r="CP152" s="9"/>
+      <c r="CP152" s="18"/>
       <c r="CQ152" s="9"/>
       <c r="CR152" s="9"/>
       <c r="CS152" s="9"/>
@@ -35609,11 +35824,13 @@
       <c r="CK153" s="18">
         <v>138.65813548488782</v>
       </c>
-      <c r="CL153" s="18"/>
+      <c r="CL153" s="18">
+        <v>-38.405330256630123</v>
+      </c>
       <c r="CM153" s="18"/>
       <c r="CN153" s="18"/>
       <c r="CO153" s="18"/>
-      <c r="CP153" s="9"/>
+      <c r="CP153" s="18"/>
       <c r="CQ153" s="9"/>
       <c r="CR153" s="9"/>
       <c r="CS153" s="9"/>
@@ -35936,11 +36153,13 @@
       <c r="CK154" s="18">
         <v>-2.800024065616725</v>
       </c>
-      <c r="CL154" s="18"/>
+      <c r="CL154" s="18">
+        <v>6.5661063276436238</v>
+      </c>
       <c r="CM154" s="18"/>
       <c r="CN154" s="18"/>
       <c r="CO154" s="18"/>
-      <c r="CP154" s="9"/>
+      <c r="CP154" s="18"/>
       <c r="CQ154" s="9"/>
       <c r="CR154" s="9"/>
       <c r="CS154" s="9"/>
@@ -36263,11 +36482,13 @@
       <c r="CK155" s="18">
         <v>45.362850793125432</v>
       </c>
-      <c r="CL155" s="18"/>
+      <c r="CL155" s="18">
+        <v>28.128320421291761</v>
+      </c>
       <c r="CM155" s="18"/>
       <c r="CN155" s="18"/>
       <c r="CO155" s="18"/>
-      <c r="CP155" s="9"/>
+      <c r="CP155" s="18"/>
       <c r="CQ155" s="9"/>
       <c r="CR155" s="9"/>
       <c r="CS155" s="9"/>
@@ -36590,11 +36811,13 @@
       <c r="CK156" s="18">
         <v>-3.2384939480537014</v>
       </c>
-      <c r="CL156" s="18"/>
+      <c r="CL156" s="18">
+        <v>3.5868025841207185</v>
+      </c>
       <c r="CM156" s="18"/>
       <c r="CN156" s="18"/>
       <c r="CO156" s="18"/>
-      <c r="CP156" s="9"/>
+      <c r="CP156" s="18"/>
       <c r="CQ156" s="9"/>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
@@ -36917,11 +37140,13 @@
       <c r="CK157" s="18">
         <v>-3.6410854091780323</v>
       </c>
-      <c r="CL157" s="18"/>
+      <c r="CL157" s="18">
+        <v>5.5158810331400616</v>
+      </c>
       <c r="CM157" s="18"/>
       <c r="CN157" s="18"/>
       <c r="CO157" s="18"/>
-      <c r="CP157" s="9"/>
+      <c r="CP157" s="18"/>
       <c r="CQ157" s="9"/>
       <c r="CR157" s="9"/>
       <c r="CS157" s="9"/>
@@ -37244,11 +37469,13 @@
       <c r="CK158" s="18">
         <v>-12.432085783004126</v>
       </c>
-      <c r="CL158" s="18"/>
+      <c r="CL158" s="18">
+        <v>3.9713149048466789</v>
+      </c>
       <c r="CM158" s="18"/>
       <c r="CN158" s="18"/>
       <c r="CO158" s="18"/>
-      <c r="CP158" s="9"/>
+      <c r="CP158" s="18"/>
       <c r="CQ158" s="9"/>
       <c r="CR158" s="9"/>
       <c r="CS158" s="9"/>
@@ -37719,11 +37946,13 @@
       <c r="CK160" s="23">
         <v>2.5778585668528393</v>
       </c>
-      <c r="CL160" s="23"/>
+      <c r="CL160" s="23">
+        <v>7.1923012873580774</v>
+      </c>
       <c r="CM160" s="23"/>
       <c r="CN160" s="23"/>
       <c r="CO160" s="23"/>
-      <c r="CP160" s="9"/>
+      <c r="CP160" s="23"/>
       <c r="CQ160" s="9"/>
       <c r="CR160" s="9"/>
       <c r="CS160" s="9"/>
@@ -37872,6 +38101,7 @@
       <c r="CM161" s="14"/>
       <c r="CN161" s="14"/>
       <c r="CO161" s="14"/>
+      <c r="CP161" s="14"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -38189,7 +38419,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.2">
@@ -38199,7 +38429,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.2">
@@ -38209,144 +38439,147 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="26">
+      <c r="B172" s="29">
         <v>2000</v>
       </c>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
-      <c r="F172" s="26">
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29">
         <v>2001</v>
       </c>
-      <c r="G172" s="26"/>
-      <c r="H172" s="26"/>
-      <c r="I172" s="26"/>
-      <c r="J172" s="26">
+      <c r="G172" s="29"/>
+      <c r="H172" s="29"/>
+      <c r="I172" s="29"/>
+      <c r="J172" s="29">
         <v>2002</v>
       </c>
-      <c r="K172" s="26"/>
-      <c r="L172" s="26"/>
-      <c r="M172" s="26"/>
-      <c r="N172" s="26">
+      <c r="K172" s="29"/>
+      <c r="L172" s="29"/>
+      <c r="M172" s="29"/>
+      <c r="N172" s="29">
         <v>2003</v>
       </c>
-      <c r="O172" s="26"/>
-      <c r="P172" s="26"/>
-      <c r="Q172" s="26"/>
-      <c r="R172" s="26">
+      <c r="O172" s="29"/>
+      <c r="P172" s="29"/>
+      <c r="Q172" s="29"/>
+      <c r="R172" s="29">
         <v>2004</v>
       </c>
-      <c r="S172" s="26"/>
-      <c r="T172" s="26"/>
-      <c r="U172" s="26"/>
-      <c r="V172" s="26">
+      <c r="S172" s="29"/>
+      <c r="T172" s="29"/>
+      <c r="U172" s="29"/>
+      <c r="V172" s="29">
         <v>2005</v>
       </c>
-      <c r="W172" s="26"/>
-      <c r="X172" s="26"/>
-      <c r="Y172" s="26"/>
-      <c r="Z172" s="26">
+      <c r="W172" s="29"/>
+      <c r="X172" s="29"/>
+      <c r="Y172" s="29"/>
+      <c r="Z172" s="29">
         <v>2006</v>
       </c>
-      <c r="AA172" s="26"/>
-      <c r="AB172" s="26"/>
-      <c r="AC172" s="26"/>
-      <c r="AD172" s="26">
+      <c r="AA172" s="29"/>
+      <c r="AB172" s="29"/>
+      <c r="AC172" s="29"/>
+      <c r="AD172" s="29">
         <v>2007</v>
       </c>
-      <c r="AE172" s="26"/>
-      <c r="AF172" s="26"/>
-      <c r="AG172" s="26"/>
-      <c r="AH172" s="26">
+      <c r="AE172" s="29"/>
+      <c r="AF172" s="29"/>
+      <c r="AG172" s="29"/>
+      <c r="AH172" s="29">
         <v>2008</v>
       </c>
-      <c r="AI172" s="26"/>
-      <c r="AJ172" s="26"/>
-      <c r="AK172" s="26"/>
-      <c r="AL172" s="26">
+      <c r="AI172" s="29"/>
+      <c r="AJ172" s="29"/>
+      <c r="AK172" s="29"/>
+      <c r="AL172" s="29">
         <v>2009</v>
       </c>
-      <c r="AM172" s="26"/>
-      <c r="AN172" s="26"/>
-      <c r="AO172" s="26"/>
-      <c r="AP172" s="26">
+      <c r="AM172" s="29"/>
+      <c r="AN172" s="29"/>
+      <c r="AO172" s="29"/>
+      <c r="AP172" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="26"/>
-      <c r="AR172" s="26"/>
-      <c r="AS172" s="26"/>
-      <c r="AT172" s="26">
+      <c r="AQ172" s="29"/>
+      <c r="AR172" s="29"/>
+      <c r="AS172" s="29"/>
+      <c r="AT172" s="29">
         <v>2011</v>
       </c>
-      <c r="AU172" s="26"/>
-      <c r="AV172" s="26"/>
-      <c r="AW172" s="26"/>
-      <c r="AX172" s="26">
+      <c r="AU172" s="29"/>
+      <c r="AV172" s="29"/>
+      <c r="AW172" s="29"/>
+      <c r="AX172" s="29">
         <v>2012</v>
       </c>
-      <c r="AY172" s="26"/>
-      <c r="AZ172" s="26"/>
-      <c r="BA172" s="26"/>
-      <c r="BB172" s="26">
+      <c r="AY172" s="29"/>
+      <c r="AZ172" s="29"/>
+      <c r="BA172" s="29"/>
+      <c r="BB172" s="29">
         <v>2013</v>
       </c>
-      <c r="BC172" s="26"/>
-      <c r="BD172" s="26"/>
-      <c r="BE172" s="26"/>
-      <c r="BF172" s="26">
+      <c r="BC172" s="29"/>
+      <c r="BD172" s="29"/>
+      <c r="BE172" s="29"/>
+      <c r="BF172" s="29">
         <v>2014</v>
       </c>
-      <c r="BG172" s="26"/>
-      <c r="BH172" s="26"/>
-      <c r="BI172" s="26"/>
-      <c r="BJ172" s="26">
+      <c r="BG172" s="29"/>
+      <c r="BH172" s="29"/>
+      <c r="BI172" s="29"/>
+      <c r="BJ172" s="29">
         <v>2015</v>
       </c>
-      <c r="BK172" s="26"/>
-      <c r="BL172" s="26"/>
-      <c r="BM172" s="26"/>
-      <c r="BN172" s="26">
+      <c r="BK172" s="29"/>
+      <c r="BL172" s="29"/>
+      <c r="BM172" s="29"/>
+      <c r="BN172" s="29">
         <v>2016</v>
       </c>
-      <c r="BO172" s="26"/>
-      <c r="BP172" s="26"/>
-      <c r="BQ172" s="26"/>
-      <c r="BR172" s="26">
+      <c r="BO172" s="29"/>
+      <c r="BP172" s="29"/>
+      <c r="BQ172" s="29"/>
+      <c r="BR172" s="29">
         <v>2017</v>
       </c>
-      <c r="BS172" s="26"/>
-      <c r="BT172" s="26"/>
-      <c r="BU172" s="26"/>
-      <c r="BV172" s="26">
+      <c r="BS172" s="29"/>
+      <c r="BT172" s="29"/>
+      <c r="BU172" s="29"/>
+      <c r="BV172" s="29">
         <v>2018</v>
       </c>
-      <c r="BW172" s="26"/>
-      <c r="BX172" s="26"/>
-      <c r="BY172" s="26"/>
-      <c r="BZ172" s="26">
+      <c r="BW172" s="29"/>
+      <c r="BX172" s="29"/>
+      <c r="BY172" s="29"/>
+      <c r="BZ172" s="29">
         <v>2019</v>
       </c>
-      <c r="CA172" s="26"/>
-      <c r="CB172" s="26"/>
-      <c r="CC172" s="26"/>
-      <c r="CD172" s="26">
+      <c r="CA172" s="29"/>
+      <c r="CB172" s="29"/>
+      <c r="CC172" s="29"/>
+      <c r="CD172" s="28">
         <v>2020</v>
       </c>
-      <c r="CE172" s="26"/>
-      <c r="CF172" s="26"/>
-      <c r="CG172" s="26"/>
-      <c r="CH172" s="26">
+      <c r="CE172" s="28"/>
+      <c r="CF172" s="28"/>
+      <c r="CG172" s="28"/>
+      <c r="CH172" s="28">
         <v>2021</v>
       </c>
-      <c r="CI172" s="26"/>
-      <c r="CJ172" s="26"/>
-      <c r="CK172" s="26"/>
-      <c r="CL172" s="26">
+      <c r="CI172" s="28"/>
+      <c r="CJ172" s="28"/>
+      <c r="CK172" s="28"/>
+      <c r="CL172" s="28">
         <v>2022</v>
       </c>
-      <c r="CM172" s="26"/>
-      <c r="CN172" s="26"/>
-      <c r="CO172" s="26"/>
+      <c r="CM172" s="28"/>
+      <c r="CN172" s="28"/>
+      <c r="CO172" s="28"/>
+      <c r="CP172" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -38627,6 +38860,9 @@
       </c>
       <c r="CO173" s="17" t="s">
         <v>9</v>
+      </c>
+      <c r="CP173" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38876,43 +39112,45 @@
       <c r="CC175" s="18">
         <v>83.208059366404569</v>
       </c>
-      <c r="CD175" s="18">
+      <c r="CD175" s="23">
         <v>108.33896053827385</v>
       </c>
-      <c r="CE175" s="18">
+      <c r="CE175" s="23">
         <v>159.56511125451246</v>
       </c>
-      <c r="CF175" s="18">
+      <c r="CF175" s="23">
         <v>77.337181369402231</v>
       </c>
-      <c r="CG175" s="18">
+      <c r="CG175" s="23">
         <v>84.152916883701607</v>
       </c>
-      <c r="CH175" s="18">
+      <c r="CH175" s="23">
         <v>101.81582311863606</v>
       </c>
-      <c r="CI175" s="18">
+      <c r="CI175" s="23">
         <v>152.83677728424883</v>
       </c>
-      <c r="CJ175" s="18">
+      <c r="CJ175" s="23">
         <v>81.409559325346507</v>
       </c>
-      <c r="CK175" s="18">
+      <c r="CK175" s="23">
         <v>87.630222546200173</v>
       </c>
-      <c r="CL175" s="18">
+      <c r="CL175" s="23">
         <v>110.63553038068545</v>
       </c>
-      <c r="CM175" s="18">
+      <c r="CM175" s="23">
         <v>166.45716408242319</v>
       </c>
-      <c r="CN175" s="18">
+      <c r="CN175" s="23">
         <v>94.035674899611919</v>
       </c>
-      <c r="CO175" s="18">
+      <c r="CO175" s="23">
         <v>100.73568334616954</v>
       </c>
-      <c r="CP175" s="9"/>
+      <c r="CP175" s="23">
+        <v>121.32553962504811</v>
+      </c>
       <c r="CQ175" s="9"/>
       <c r="CR175" s="9"/>
       <c r="CS175" s="9"/>
@@ -39216,43 +39454,45 @@
       <c r="CC176" s="18">
         <v>65.141746964754262</v>
       </c>
-      <c r="CD176" s="18">
+      <c r="CD176" s="23">
         <v>100.07011030249409</v>
       </c>
-      <c r="CE176" s="18">
+      <c r="CE176" s="23">
         <v>279.70677951092478</v>
       </c>
-      <c r="CF176" s="18">
+      <c r="CF176" s="23">
         <v>80.178946573170833</v>
       </c>
-      <c r="CG176" s="18">
+      <c r="CG176" s="23">
         <v>63.183833792368262</v>
       </c>
-      <c r="CH176" s="18">
+      <c r="CH176" s="23">
         <v>95.71600251896588</v>
       </c>
-      <c r="CI176" s="18">
+      <c r="CI176" s="23">
         <v>272.50352635277977</v>
       </c>
-      <c r="CJ176" s="18">
+      <c r="CJ176" s="23">
         <v>83.797461632446954</v>
       </c>
-      <c r="CK176" s="18">
+      <c r="CK176" s="23">
         <v>70.426817842058384</v>
       </c>
-      <c r="CL176" s="18">
+      <c r="CL176" s="23">
         <v>110.89080947214707</v>
       </c>
-      <c r="CM176" s="18">
+      <c r="CM176" s="23">
         <v>320.05305078833555</v>
       </c>
-      <c r="CN176" s="18">
+      <c r="CN176" s="23">
         <v>98.890854361163989</v>
       </c>
-      <c r="CO176" s="18">
+      <c r="CO176" s="23">
         <v>84.628480145575296</v>
       </c>
-      <c r="CP176" s="9"/>
+      <c r="CP176" s="23">
+        <v>123.70413985292308</v>
+      </c>
       <c r="CQ176" s="9"/>
       <c r="CR176" s="9"/>
       <c r="CS176" s="9"/>
@@ -39556,43 +39796,45 @@
       <c r="CC177" s="18">
         <v>64.478454126379901</v>
       </c>
-      <c r="CD177" s="18">
+      <c r="CD177" s="23">
         <v>102.07453404298047</v>
       </c>
-      <c r="CE177" s="18">
+      <c r="CE177" s="23">
         <v>270.67526826493742</v>
       </c>
-      <c r="CF177" s="18">
+      <c r="CF177" s="23">
         <v>79.931188827150194</v>
       </c>
-      <c r="CG177" s="18">
+      <c r="CG177" s="23">
         <v>63.016810227808584</v>
       </c>
-      <c r="CH177" s="18">
+      <c r="CH177" s="23">
         <v>97.637361782363925</v>
       </c>
-      <c r="CI177" s="18">
+      <c r="CI177" s="23">
         <v>265.25008766882678</v>
       </c>
-      <c r="CJ177" s="18">
+      <c r="CJ177" s="23">
         <v>83.457702596769707</v>
       </c>
-      <c r="CK177" s="18">
+      <c r="CK177" s="23">
         <v>69.912003404083833</v>
       </c>
-      <c r="CL177" s="18">
+      <c r="CL177" s="23">
         <v>112.99888086627432</v>
       </c>
-      <c r="CM177" s="18">
+      <c r="CM177" s="23">
         <v>311.46039873559681</v>
       </c>
-      <c r="CN177" s="18">
+      <c r="CN177" s="23">
         <v>98.256628143608467</v>
       </c>
-      <c r="CO177" s="18">
+      <c r="CO177" s="23">
         <v>83.71182632042013</v>
       </c>
-      <c r="CP177" s="9"/>
+      <c r="CP177" s="23">
+        <v>126.82014286914946</v>
+      </c>
       <c r="CQ177" s="9"/>
       <c r="CR177" s="9"/>
       <c r="CS177" s="9"/>
@@ -39896,43 +40138,45 @@
       <c r="CC178" s="18">
         <v>75.974039456897827</v>
       </c>
-      <c r="CD178" s="18">
+      <c r="CD178" s="23">
         <v>104.71599329454403</v>
       </c>
-      <c r="CE178" s="18">
+      <c r="CE178" s="23">
         <v>183.05896327298373</v>
       </c>
-      <c r="CF178" s="18">
+      <c r="CF178" s="23">
         <v>87.550624616430454</v>
       </c>
-      <c r="CG178" s="18">
+      <c r="CG178" s="23">
         <v>76.849972488174899</v>
       </c>
-      <c r="CH178" s="18">
+      <c r="CH178" s="23">
         <v>99.652042589949346</v>
       </c>
-      <c r="CI178" s="18">
+      <c r="CI178" s="23">
         <v>187.5115598982089</v>
       </c>
-      <c r="CJ178" s="18">
+      <c r="CJ178" s="23">
         <v>92.213626318875598</v>
       </c>
-      <c r="CK178" s="18">
+      <c r="CK178" s="23">
         <v>92.415085048282265</v>
       </c>
-      <c r="CL178" s="18">
+      <c r="CL178" s="23">
         <v>108.26810125076764</v>
       </c>
-      <c r="CM178" s="18">
+      <c r="CM178" s="23">
         <v>227.30747484807034</v>
       </c>
-      <c r="CN178" s="18">
+      <c r="CN178" s="23">
         <v>97.322358883957676</v>
       </c>
-      <c r="CO178" s="18">
+      <c r="CO178" s="23">
         <v>91.059743967799974</v>
       </c>
-      <c r="CP178" s="9"/>
+      <c r="CP178" s="23">
+        <v>114.45472140386185</v>
+      </c>
       <c r="CQ178" s="9"/>
       <c r="CR178" s="9"/>
       <c r="CS178" s="9"/>
@@ -40236,43 +40480,45 @@
       <c r="CC179" s="18">
         <v>68.520134077786892</v>
       </c>
-      <c r="CD179" s="18">
+      <c r="CD179" s="23">
         <v>125.5220231119572</v>
       </c>
-      <c r="CE179" s="18">
+      <c r="CE179" s="23">
         <v>252.78610169080881</v>
       </c>
-      <c r="CF179" s="18">
+      <c r="CF179" s="23">
         <v>81.713243992468449</v>
       </c>
-      <c r="CG179" s="18">
+      <c r="CG179" s="23">
         <v>68.457360397440027</v>
       </c>
-      <c r="CH179" s="18">
+      <c r="CH179" s="23">
         <v>118.66920717736119</v>
       </c>
-      <c r="CI179" s="18">
+      <c r="CI179" s="23">
         <v>240.7378949559274</v>
       </c>
-      <c r="CJ179" s="18">
+      <c r="CJ179" s="23">
         <v>85.592564357228966</v>
       </c>
-      <c r="CK179" s="18">
+      <c r="CK179" s="23">
         <v>80.882675241517958</v>
       </c>
-      <c r="CL179" s="18">
+      <c r="CL179" s="23">
         <v>133.97655062430397</v>
       </c>
-      <c r="CM179" s="18">
+      <c r="CM179" s="23">
         <v>277.12970263225168</v>
       </c>
-      <c r="CN179" s="18">
+      <c r="CN179" s="23">
         <v>99.35752863497423</v>
       </c>
-      <c r="CO179" s="18">
+      <c r="CO179" s="23">
         <v>88.547258756093854</v>
       </c>
-      <c r="CP179" s="9"/>
+      <c r="CP179" s="23">
+        <v>147.36228850356966</v>
+      </c>
       <c r="CQ179" s="9"/>
       <c r="CR179" s="9"/>
       <c r="CS179" s="9"/>
@@ -40576,43 +40822,45 @@
       <c r="CC180" s="18">
         <v>66.377359434008042</v>
       </c>
-      <c r="CD180" s="18">
+      <c r="CD180" s="23">
         <v>105.87098756373922</v>
       </c>
-      <c r="CE180" s="18">
+      <c r="CE180" s="23">
         <v>272.77928463785537</v>
       </c>
-      <c r="CF180" s="18">
+      <c r="CF180" s="23">
         <v>82.916260530437356</v>
       </c>
-      <c r="CG180" s="18">
+      <c r="CG180" s="23">
         <v>64.799622859446899</v>
       </c>
-      <c r="CH180" s="18">
+      <c r="CH180" s="23">
         <v>101.24567517035842</v>
       </c>
-      <c r="CI180" s="18">
+      <c r="CI180" s="23">
         <v>266.16668815528703</v>
       </c>
-      <c r="CJ180" s="18">
+      <c r="CJ180" s="23">
         <v>86.692868271783823</v>
       </c>
-      <c r="CK180" s="18">
+      <c r="CK180" s="23">
         <v>72.624793619167022</v>
       </c>
-      <c r="CL180" s="18">
+      <c r="CL180" s="23">
         <v>116.98399795135333</v>
       </c>
-      <c r="CM180" s="18">
+      <c r="CM180" s="23">
         <v>308.39448375881568</v>
       </c>
-      <c r="CN180" s="18">
+      <c r="CN180" s="23">
         <v>101.50532226306606</v>
       </c>
-      <c r="CO180" s="18">
+      <c r="CO180" s="23">
         <v>86.001490255464972</v>
       </c>
-      <c r="CP180" s="9"/>
+      <c r="CP180" s="23">
+        <v>130.7590278220888</v>
+      </c>
       <c r="CQ180" s="9"/>
       <c r="CR180" s="9"/>
       <c r="CS180" s="9"/>
@@ -40916,43 +41164,45 @@
       <c r="CC181" s="18">
         <v>113.53183000564098</v>
       </c>
-      <c r="CD181" s="18">
+      <c r="CD181" s="23">
         <v>111.7786083475512</v>
       </c>
-      <c r="CE181" s="18">
+      <c r="CE181" s="23">
         <v>107.05577585197656</v>
       </c>
-      <c r="CF181" s="18">
+      <c r="CF181" s="23">
         <v>72.660838980856184</v>
       </c>
-      <c r="CG181" s="18">
+      <c r="CG181" s="23">
         <v>103.33109794386456</v>
       </c>
-      <c r="CH181" s="18">
+      <c r="CH181" s="23">
         <v>103.70007051620141</v>
       </c>
-      <c r="CI181" s="18">
+      <c r="CI181" s="23">
         <v>101.54027638334632</v>
       </c>
-      <c r="CJ181" s="18">
+      <c r="CJ181" s="23">
         <v>75.616653522775792</v>
       </c>
-      <c r="CK181" s="18">
+      <c r="CK181" s="23">
         <v>109.61765703014868</v>
       </c>
-      <c r="CL181" s="18">
+      <c r="CL181" s="23">
         <v>107.96360707677431</v>
       </c>
-      <c r="CM181" s="18">
+      <c r="CM181" s="23">
         <v>116.35408385514663</v>
       </c>
-      <c r="CN181" s="18">
+      <c r="CN181" s="23">
         <v>87.530686847831021</v>
       </c>
-      <c r="CO181" s="18">
+      <c r="CO181" s="23">
         <v>126.71445217622957</v>
       </c>
-      <c r="CP181" s="9"/>
+      <c r="CP181" s="23">
+        <v>117.43897290472083</v>
+      </c>
       <c r="CQ181" s="9"/>
       <c r="CR181" s="9"/>
       <c r="CS181" s="9"/>
@@ -41256,43 +41506,45 @@
       <c r="CC182" s="18">
         <v>63.341196900214179</v>
       </c>
-      <c r="CD182" s="18">
+      <c r="CD182" s="23">
         <v>99.718738597685643</v>
       </c>
-      <c r="CE182" s="18">
+      <c r="CE182" s="23">
         <v>261.36703876636432</v>
       </c>
-      <c r="CF182" s="18">
+      <c r="CF182" s="23">
         <v>78.778416511981774</v>
       </c>
-      <c r="CG182" s="18">
+      <c r="CG182" s="23">
         <v>61.761382139005583</v>
       </c>
-      <c r="CH182" s="18">
+      <c r="CH182" s="23">
         <v>95.379728239523203</v>
       </c>
-      <c r="CI182" s="18">
+      <c r="CI182" s="23">
         <v>249.44665566658352</v>
       </c>
-      <c r="CJ182" s="18">
+      <c r="CJ182" s="23">
         <v>82.668368300631016</v>
       </c>
-      <c r="CK182" s="18">
+      <c r="CK182" s="23">
         <v>69.120085272219896</v>
       </c>
-      <c r="CL182" s="18">
+      <c r="CL182" s="23">
         <v>109.6908185880112</v>
       </c>
-      <c r="CM182" s="18">
+      <c r="CM182" s="23">
         <v>294.13937518805778</v>
       </c>
-      <c r="CN182" s="18">
+      <c r="CN182" s="23">
         <v>96.540934518176201</v>
       </c>
-      <c r="CO182" s="18">
+      <c r="CO182" s="23">
         <v>82.315687210593808</v>
       </c>
-      <c r="CP182" s="9"/>
+      <c r="CP182" s="23">
+        <v>122.22142484787319</v>
+      </c>
       <c r="CQ182" s="9"/>
       <c r="CR182" s="9"/>
       <c r="CS182" s="9"/>
@@ -41596,43 +41848,45 @@
       <c r="CC183" s="18">
         <v>72.378210422068818</v>
       </c>
-      <c r="CD183" s="18">
+      <c r="CD183" s="23">
         <v>107.2196864491674</v>
       </c>
-      <c r="CE183" s="18">
+      <c r="CE183" s="23">
         <v>209.28670967647207</v>
       </c>
-      <c r="CF183" s="18">
+      <c r="CF183" s="23">
         <v>84.836685894276826</v>
       </c>
-      <c r="CG183" s="18">
+      <c r="CG183" s="23">
         <v>70.498153920356913</v>
       </c>
-      <c r="CH183" s="18">
+      <c r="CH183" s="23">
         <v>102.76878859635706</v>
       </c>
-      <c r="CI183" s="18">
+      <c r="CI183" s="23">
         <v>227.96783120782874</v>
       </c>
-      <c r="CJ183" s="18">
+      <c r="CJ183" s="23">
         <v>86.618532078195543</v>
       </c>
-      <c r="CK183" s="18">
+      <c r="CK183" s="23">
         <v>81.77053736495769</v>
       </c>
-      <c r="CL183" s="18">
+      <c r="CL183" s="23">
         <v>115.31543252645289</v>
       </c>
-      <c r="CM183" s="18">
+      <c r="CM183" s="23">
         <v>252.65049087215345</v>
       </c>
-      <c r="CN183" s="18">
+      <c r="CN183" s="23">
         <v>97.236584586383685</v>
       </c>
-      <c r="CO183" s="18">
+      <c r="CO183" s="23">
         <v>89.541440450473686</v>
       </c>
-      <c r="CP183" s="9"/>
+      <c r="CP183" s="23">
+        <v>123.20999663038073</v>
+      </c>
       <c r="CQ183" s="9"/>
       <c r="CR183" s="9"/>
       <c r="CS183" s="9"/>
@@ -41936,43 +42190,45 @@
       <c r="CC184" s="18">
         <v>99.566809729952425</v>
       </c>
-      <c r="CD184" s="18">
+      <c r="CD184" s="23">
         <v>105.05981260352561</v>
       </c>
-      <c r="CE184" s="18">
+      <c r="CE184" s="23">
         <v>114.07765679088948</v>
       </c>
-      <c r="CF184" s="18">
+      <c r="CF184" s="23">
         <v>84.163079647385459</v>
       </c>
-      <c r="CG184" s="18">
+      <c r="CG184" s="23">
         <v>94.590802938056072</v>
       </c>
-      <c r="CH184" s="18">
+      <c r="CH184" s="23">
         <v>99.219671227586588</v>
       </c>
-      <c r="CI184" s="18">
+      <c r="CI184" s="23">
         <v>109.2748071541542</v>
       </c>
-      <c r="CJ184" s="18">
+      <c r="CJ184" s="23">
         <v>86.165273031490713</v>
       </c>
-      <c r="CK184" s="18">
+      <c r="CK184" s="23">
         <v>101.47870626445791</v>
       </c>
-      <c r="CL184" s="18">
+      <c r="CL184" s="23">
         <v>106.80279003685416</v>
       </c>
-      <c r="CM184" s="18">
+      <c r="CM184" s="23">
         <v>125.53960332551235</v>
       </c>
-      <c r="CN184" s="18">
+      <c r="CN184" s="23">
         <v>102.28484642986145</v>
       </c>
-      <c r="CO184" s="18">
+      <c r="CO184" s="23">
         <v>112.40782809888911</v>
       </c>
-      <c r="CP184" s="9"/>
+      <c r="CP184" s="23">
+        <v>117.56127335694471</v>
+      </c>
       <c r="CQ184" s="9"/>
       <c r="CR184" s="9"/>
       <c r="CS184" s="9"/>
@@ -42276,43 +42532,45 @@
       <c r="CC185" s="18">
         <v>98.928540238237844</v>
       </c>
-      <c r="CD185" s="18">
+      <c r="CD185" s="23">
         <v>106.6805434529347</v>
       </c>
-      <c r="CE185" s="18">
+      <c r="CE185" s="23">
         <v>115.17356692214015</v>
       </c>
-      <c r="CF185" s="18">
+      <c r="CF185" s="23">
         <v>82.802085433131566</v>
       </c>
-      <c r="CG185" s="18">
+      <c r="CG185" s="23">
         <v>92.777449473703626</v>
       </c>
-      <c r="CH185" s="18">
+      <c r="CH185" s="23">
         <v>101.73947785380206</v>
       </c>
-      <c r="CI185" s="18">
+      <c r="CI185" s="23">
         <v>112.04351095823273</v>
       </c>
-      <c r="CJ185" s="18">
+      <c r="CJ185" s="23">
         <v>84.740030622742339</v>
       </c>
-      <c r="CK185" s="18">
+      <c r="CK185" s="23">
         <v>106.12423249886061</v>
       </c>
-      <c r="CL185" s="18">
+      <c r="CL185" s="23">
         <v>112.18629364378343</v>
       </c>
-      <c r="CM185" s="18">
+      <c r="CM185" s="23">
         <v>131.23218319426314</v>
       </c>
-      <c r="CN185" s="18">
+      <c r="CN185" s="23">
         <v>102.9492021169707</v>
       </c>
-      <c r="CO185" s="18">
+      <c r="CO185" s="23">
         <v>118.93669006545838</v>
       </c>
-      <c r="CP185" s="9"/>
+      <c r="CP185" s="23">
+        <v>117.63754235734174</v>
+      </c>
       <c r="CQ185" s="9"/>
       <c r="CR185" s="9"/>
       <c r="CS185" s="9"/>
@@ -42616,43 +42874,45 @@
       <c r="CC186" s="18">
         <v>98.210949832585712</v>
       </c>
-      <c r="CD186" s="18">
+      <c r="CD186" s="23">
         <v>106.95648462292091</v>
       </c>
-      <c r="CE186" s="18">
+      <c r="CE186" s="23">
         <v>115.63553245762206</v>
       </c>
-      <c r="CF186" s="18">
+      <c r="CF186" s="23">
         <v>82.345890884602397</v>
       </c>
-      <c r="CG186" s="18">
+      <c r="CG186" s="23">
         <v>94.641546341473457</v>
       </c>
-      <c r="CH186" s="18">
+      <c r="CH186" s="23">
         <v>101.88048272230263</v>
       </c>
-      <c r="CI186" s="18">
+      <c r="CI186" s="23">
         <v>112.24546006256307</v>
       </c>
-      <c r="CJ186" s="18">
+      <c r="CJ186" s="23">
         <v>85.717434227607896</v>
       </c>
-      <c r="CK186" s="18">
+      <c r="CK186" s="23">
         <v>103.26014971012363</v>
       </c>
-      <c r="CL186" s="18">
+      <c r="CL186" s="23">
         <v>112.41474812048821</v>
       </c>
-      <c r="CM186" s="18">
+      <c r="CM186" s="23">
         <v>128.39695056604066</v>
       </c>
-      <c r="CN186" s="18">
+      <c r="CN186" s="23">
         <v>101.70076030291482</v>
       </c>
-      <c r="CO186" s="18">
+      <c r="CO186" s="23">
         <v>120.79318439411428</v>
       </c>
-      <c r="CP186" s="9"/>
+      <c r="CP186" s="23">
+        <v>122.54387838993095</v>
+      </c>
       <c r="CQ186" s="9"/>
       <c r="CR186" s="9"/>
       <c r="CS186" s="9"/>
@@ -42956,43 +43216,45 @@
       <c r="CC187" s="18">
         <v>100.70904794084584</v>
       </c>
-      <c r="CD187" s="18">
+      <c r="CD187" s="23">
         <v>103.68933904067903</v>
       </c>
-      <c r="CE187" s="18">
+      <c r="CE187" s="23">
         <v>117.5185628985751</v>
       </c>
-      <c r="CF187" s="18">
+      <c r="CF187" s="23">
         <v>84.174974343579095</v>
       </c>
-      <c r="CG187" s="18">
+      <c r="CG187" s="23">
         <v>96.362779960151229</v>
       </c>
-      <c r="CH187" s="18">
+      <c r="CH187" s="23">
         <v>100.8784143151041</v>
       </c>
-      <c r="CI187" s="18">
+      <c r="CI187" s="23">
         <v>112.27408765277491</v>
       </c>
-      <c r="CJ187" s="18">
+      <c r="CJ187" s="23">
         <v>86.911829815328872</v>
       </c>
-      <c r="CK187" s="18">
+      <c r="CK187" s="23">
         <v>107.71473180788705</v>
       </c>
-      <c r="CL187" s="18">
+      <c r="CL187" s="23">
         <v>112.74333618932511</v>
       </c>
-      <c r="CM187" s="18">
+      <c r="CM187" s="23">
         <v>131.12459091259595</v>
       </c>
-      <c r="CN187" s="18">
+      <c r="CN187" s="23">
         <v>106.15652121795985</v>
       </c>
-      <c r="CO187" s="18">
+      <c r="CO187" s="23">
         <v>127.6230023507334</v>
       </c>
-      <c r="CP187" s="9"/>
+      <c r="CP187" s="23">
+        <v>126.92096616928825</v>
+      </c>
       <c r="CQ187" s="9"/>
       <c r="CR187" s="9"/>
       <c r="CS187" s="9"/>
@@ -43296,43 +43558,45 @@
       <c r="CC188" s="18">
         <v>99.409714621780111</v>
       </c>
-      <c r="CD188" s="18">
+      <c r="CD188" s="23">
         <v>104.75999238739537</v>
       </c>
-      <c r="CE188" s="18">
+      <c r="CE188" s="23">
         <v>110.33479424859235</v>
       </c>
-      <c r="CF188" s="18">
+      <c r="CF188" s="23">
         <v>85.353140530767874</v>
       </c>
-      <c r="CG188" s="18">
+      <c r="CG188" s="23">
         <v>93.931318685627105</v>
       </c>
-      <c r="CH188" s="18">
+      <c r="CH188" s="23">
         <v>96.909220358238699</v>
       </c>
-      <c r="CI188" s="18">
+      <c r="CI188" s="23">
         <v>105.13895645389533</v>
       </c>
-      <c r="CJ188" s="18">
+      <c r="CJ188" s="23">
         <v>86.286602692713842</v>
       </c>
-      <c r="CK188" s="18">
+      <c r="CK188" s="23">
         <v>95.327040468438327</v>
       </c>
-      <c r="CL188" s="18">
+      <c r="CL188" s="23">
         <v>101.17667845633333</v>
       </c>
-      <c r="CM188" s="18">
+      <c r="CM188" s="23">
         <v>118.84635925177834</v>
       </c>
-      <c r="CN188" s="18">
+      <c r="CN188" s="23">
         <v>97.74707671046022</v>
       </c>
-      <c r="CO188" s="18">
+      <c r="CO188" s="23">
         <v>95.137932816791036</v>
       </c>
-      <c r="CP188" s="9"/>
+      <c r="CP188" s="23">
+        <v>107.51279418409305</v>
+      </c>
       <c r="CQ188" s="9"/>
       <c r="CR188" s="9"/>
       <c r="CS188" s="9"/>
@@ -43636,43 +43900,45 @@
       <c r="CC189" s="18">
         <v>100.50997596477183</v>
       </c>
-      <c r="CD189" s="18">
+      <c r="CD189" s="23">
         <v>87.032641414439851</v>
       </c>
-      <c r="CE189" s="18">
+      <c r="CE189" s="23">
         <v>87.545664467341254</v>
       </c>
-      <c r="CF189" s="18">
+      <c r="CF189" s="23">
         <v>93.129648506704328</v>
       </c>
-      <c r="CG189" s="18">
+      <c r="CG189" s="23">
         <v>91.746171718901607</v>
       </c>
-      <c r="CH189" s="18">
+      <c r="CH189" s="23">
         <v>87.940156382582572</v>
       </c>
-      <c r="CI189" s="18">
+      <c r="CI189" s="23">
         <v>85.791138090251721</v>
       </c>
-      <c r="CJ189" s="18">
+      <c r="CJ189" s="23">
         <v>97.845776113262147</v>
       </c>
-      <c r="CK189" s="18">
+      <c r="CK189" s="23">
         <v>99.595139695632511</v>
       </c>
-      <c r="CL189" s="18">
+      <c r="CL189" s="23">
         <v>97.443217984366399</v>
       </c>
-      <c r="CM189" s="18">
+      <c r="CM189" s="23">
         <v>97.552619897113914</v>
       </c>
-      <c r="CN189" s="18">
+      <c r="CN189" s="23">
         <v>113.61966851575103</v>
       </c>
-      <c r="CO189" s="18">
+      <c r="CO189" s="23">
         <v>113.01917785514451</v>
       </c>
-      <c r="CP189" s="9"/>
+      <c r="CP189" s="23">
+        <v>102.2663381641417</v>
+      </c>
       <c r="CQ189" s="9"/>
       <c r="CR189" s="9"/>
       <c r="CS189" s="9"/>
@@ -43976,43 +44242,45 @@
       <c r="CC190" s="18">
         <v>99.769466769515645</v>
       </c>
-      <c r="CD190" s="18">
+      <c r="CD190" s="23">
         <v>85.727968735054176</v>
       </c>
-      <c r="CE190" s="18">
+      <c r="CE190" s="23">
         <v>88.031259317168733</v>
       </c>
-      <c r="CF190" s="18">
+      <c r="CF190" s="23">
         <v>92.856812403336491</v>
       </c>
-      <c r="CG190" s="18">
+      <c r="CG190" s="23">
         <v>91.134519701374373</v>
       </c>
-      <c r="CH190" s="18">
+      <c r="CH190" s="23">
         <v>86.457529774010027</v>
       </c>
-      <c r="CI190" s="18">
+      <c r="CI190" s="23">
         <v>86.0208612195309</v>
       </c>
-      <c r="CJ190" s="18">
+      <c r="CJ190" s="23">
         <v>97.478934868395598</v>
       </c>
-      <c r="CK190" s="18">
+      <c r="CK190" s="23">
         <v>97.733178202741868</v>
       </c>
-      <c r="CL190" s="18">
+      <c r="CL190" s="23">
         <v>94.373972935113954</v>
       </c>
-      <c r="CM190" s="18">
+      <c r="CM190" s="23">
         <v>98.251893600077111</v>
       </c>
-      <c r="CN190" s="18">
+      <c r="CN190" s="23">
         <v>112.86888368003432</v>
       </c>
-      <c r="CO190" s="18">
+      <c r="CO190" s="23">
         <v>112.20241549885887</v>
       </c>
-      <c r="CP190" s="9"/>
+      <c r="CP190" s="23">
+        <v>100.40113102707467</v>
+      </c>
       <c r="CQ190" s="9"/>
       <c r="CR190" s="9"/>
       <c r="CS190" s="9"/>
@@ -44316,43 +44584,45 @@
       <c r="CC191" s="18">
         <v>108.44763790877643</v>
       </c>
-      <c r="CD191" s="18">
+      <c r="CD191" s="23">
         <v>93.945786946252312</v>
       </c>
-      <c r="CE191" s="18">
+      <c r="CE191" s="23">
         <v>71.303198172672538</v>
       </c>
-      <c r="CF191" s="18">
+      <c r="CF191" s="23">
         <v>99.808954712186619</v>
       </c>
-      <c r="CG191" s="18">
+      <c r="CG191" s="23">
         <v>104.14185489107885</v>
       </c>
-      <c r="CH191" s="18">
+      <c r="CH191" s="23">
         <v>91.924890463158206</v>
       </c>
-      <c r="CI191" s="18">
+      <c r="CI191" s="23">
         <v>70.007685240126563</v>
       </c>
-      <c r="CJ191" s="18">
+      <c r="CJ191" s="23">
         <v>105.49251565318556</v>
       </c>
-      <c r="CK191" s="18">
+      <c r="CK191" s="23">
         <v>112.64926929216541</v>
       </c>
-      <c r="CL191" s="18">
+      <c r="CL191" s="23">
         <v>99.063917528128442</v>
       </c>
-      <c r="CM191" s="18">
+      <c r="CM191" s="23">
         <v>78.803988198212863</v>
       </c>
-      <c r="CN191" s="18">
+      <c r="CN191" s="23">
         <v>119.42817680762082</v>
       </c>
-      <c r="CO191" s="18">
+      <c r="CO191" s="23">
         <v>132.65113388444081</v>
       </c>
-      <c r="CP191" s="9"/>
+      <c r="CP191" s="23">
+        <v>111.15709348108676</v>
+      </c>
       <c r="CQ191" s="9"/>
       <c r="CR191" s="9"/>
       <c r="CS191" s="9"/>
@@ -44656,43 +44926,45 @@
       <c r="CC192" s="18">
         <v>105.33736610416689</v>
       </c>
-      <c r="CD192" s="18">
+      <c r="CD192" s="23">
         <v>108.80315330148483</v>
       </c>
-      <c r="CE192" s="18">
+      <c r="CE192" s="23">
         <v>84.745316289391184</v>
       </c>
-      <c r="CF192" s="18">
+      <c r="CF192" s="23">
         <v>108.15398887020619</v>
       </c>
-      <c r="CG192" s="18">
+      <c r="CG192" s="23">
         <v>100.91543708148217</v>
       </c>
-      <c r="CH192" s="18">
+      <c r="CH192" s="23">
         <v>103.39235981326205</v>
       </c>
-      <c r="CI192" s="18">
+      <c r="CI192" s="23">
         <v>83.20419469945513</v>
       </c>
-      <c r="CJ192" s="18">
+      <c r="CJ192" s="23">
         <v>114.29980556356692</v>
       </c>
-      <c r="CK192" s="18">
+      <c r="CK192" s="23">
         <v>109.37199147128867</v>
       </c>
-      <c r="CL192" s="18">
+      <c r="CL192" s="23">
         <v>115.35199705178162</v>
       </c>
-      <c r="CM192" s="18">
+      <c r="CM192" s="23">
         <v>95.150010686727541</v>
       </c>
-      <c r="CN192" s="18">
+      <c r="CN192" s="23">
         <v>129.5112687852089</v>
       </c>
-      <c r="CO192" s="18">
+      <c r="CO192" s="23">
         <v>128.18268818728211</v>
       </c>
-      <c r="CP192" s="9"/>
+      <c r="CP192" s="23">
+        <v>128.66162877886973</v>
+      </c>
       <c r="CQ192" s="9"/>
       <c r="CR192" s="9"/>
       <c r="CS192" s="9"/>
@@ -44996,43 +45268,45 @@
       <c r="CC193" s="18">
         <v>101.58732438424305</v>
       </c>
-      <c r="CD193" s="18">
+      <c r="CD193" s="23">
         <v>95.015182713340323</v>
       </c>
-      <c r="CE193" s="18">
+      <c r="CE193" s="23">
         <v>85.311351418525334</v>
       </c>
-      <c r="CF193" s="18">
+      <c r="CF193" s="23">
         <v>84.546113244294901</v>
       </c>
-      <c r="CG193" s="18">
+      <c r="CG193" s="23">
         <v>93.067332878407484</v>
       </c>
-      <c r="CH193" s="18">
+      <c r="CH193" s="23">
         <v>112.61371982642585</v>
       </c>
-      <c r="CI193" s="18">
+      <c r="CI193" s="23">
         <v>83.772938540248759</v>
       </c>
-      <c r="CJ193" s="18">
+      <c r="CJ193" s="23">
         <v>90.319161359356798</v>
       </c>
-      <c r="CK193" s="18">
+      <c r="CK193" s="23">
         <v>102.61542288804119</v>
       </c>
-      <c r="CL193" s="18">
+      <c r="CL193" s="23">
         <v>120.86140442024134</v>
       </c>
-      <c r="CM193" s="18">
+      <c r="CM193" s="23">
         <v>94.278800118081435</v>
       </c>
-      <c r="CN193" s="18">
+      <c r="CN193" s="23">
         <v>119.57781459527645</v>
       </c>
-      <c r="CO193" s="18">
+      <c r="CO193" s="23">
         <v>123.17422915756779</v>
       </c>
-      <c r="CP193" s="9"/>
+      <c r="CP193" s="23">
+        <v>134.15830037470943</v>
+      </c>
       <c r="CQ193" s="9"/>
       <c r="CR193" s="9"/>
       <c r="CS193" s="9"/>
@@ -45336,43 +45610,45 @@
       <c r="CC194" s="18">
         <v>138.18048715846984</v>
       </c>
-      <c r="CD194" s="18">
+      <c r="CD194" s="23">
         <v>105.46948025268823</v>
       </c>
-      <c r="CE194" s="18">
+      <c r="CE194" s="23">
         <v>69.437564120788124</v>
       </c>
-      <c r="CF194" s="18">
+      <c r="CF194" s="23">
         <v>99.176827558624169</v>
       </c>
-      <c r="CG194" s="18">
+      <c r="CG194" s="23">
         <v>127.39045766400648</v>
       </c>
-      <c r="CH194" s="18">
+      <c r="CH194" s="23">
         <v>97.582984984949434</v>
       </c>
-      <c r="CI194" s="18">
+      <c r="CI194" s="23">
         <v>68.816837026308207</v>
       </c>
-      <c r="CJ194" s="18">
+      <c r="CJ194" s="23">
         <v>102.47587550523912</v>
       </c>
-      <c r="CK194" s="18">
+      <c r="CK194" s="23">
         <v>135.97329419336032</v>
       </c>
-      <c r="CL194" s="18">
+      <c r="CL194" s="23">
         <v>108.19824692462143</v>
       </c>
-      <c r="CM194" s="18">
+      <c r="CM194" s="23">
         <v>79.204150725034381</v>
       </c>
-      <c r="CN194" s="18">
+      <c r="CN194" s="23">
         <v>119.47104075353721</v>
       </c>
-      <c r="CO194" s="18">
+      <c r="CO194" s="23">
         <v>163.01740034680279</v>
       </c>
-      <c r="CP194" s="9"/>
+      <c r="CP194" s="23">
+        <v>116.93834390999554</v>
+      </c>
       <c r="CQ194" s="9"/>
       <c r="CR194" s="9"/>
       <c r="CS194" s="9"/>
@@ -45676,43 +45952,45 @@
       <c r="CC195" s="18">
         <v>195.20613744078668</v>
       </c>
-      <c r="CD195" s="18">
+      <c r="CD195" s="23">
         <v>101.72380509590992</v>
       </c>
-      <c r="CE195" s="18">
+      <c r="CE195" s="23">
         <v>61.063723146791936</v>
       </c>
-      <c r="CF195" s="18">
+      <c r="CF195" s="23">
         <v>123.8013023923311</v>
       </c>
-      <c r="CG195" s="18">
+      <c r="CG195" s="23">
         <v>186.42397616842584</v>
       </c>
-      <c r="CH195" s="18">
+      <c r="CH195" s="23">
         <v>95.259693668959528</v>
       </c>
-      <c r="CI195" s="18">
+      <c r="CI195" s="23">
         <v>58.38037726315212</v>
       </c>
-      <c r="CJ195" s="18">
+      <c r="CJ195" s="23">
         <v>129.56424483161103</v>
       </c>
-      <c r="CK195" s="18">
+      <c r="CK195" s="23">
         <v>195.6579396504861</v>
       </c>
-      <c r="CL195" s="18">
+      <c r="CL195" s="23">
         <v>105.79936104191452</v>
       </c>
-      <c r="CM195" s="18">
+      <c r="CM195" s="23">
         <v>68.863432683335105</v>
       </c>
-      <c r="CN195" s="18">
+      <c r="CN195" s="23">
         <v>150.90829930733645</v>
       </c>
-      <c r="CO195" s="18">
+      <c r="CO195" s="23">
         <v>223.98619284757166</v>
       </c>
-      <c r="CP195" s="9"/>
+      <c r="CP195" s="23">
+        <v>109.98782388336727</v>
+      </c>
       <c r="CQ195" s="9"/>
       <c r="CR195" s="9"/>
       <c r="CS195" s="9"/>
@@ -46016,43 +46294,45 @@
       <c r="CC196" s="18">
         <v>137.08316716536797</v>
       </c>
-      <c r="CD196" s="18">
+      <c r="CD196" s="23">
         <v>94.450691558900928</v>
       </c>
-      <c r="CE196" s="18">
+      <c r="CE196" s="23">
         <v>66.709872465159791</v>
       </c>
-      <c r="CF196" s="18">
+      <c r="CF196" s="23">
         <v>100.96592150303564</v>
       </c>
-      <c r="CG196" s="18">
+      <c r="CG196" s="23">
         <v>118.82768251349813</v>
       </c>
-      <c r="CH196" s="18">
+      <c r="CH196" s="23">
         <v>86.316588789739498</v>
       </c>
-      <c r="CI196" s="18">
+      <c r="CI196" s="23">
         <v>64.677613063077615</v>
       </c>
-      <c r="CJ196" s="18">
+      <c r="CJ196" s="23">
         <v>110.54792275868444</v>
       </c>
-      <c r="CK196" s="18">
+      <c r="CK196" s="23">
         <v>129.36786657640914</v>
       </c>
-      <c r="CL196" s="18">
+      <c r="CL196" s="23">
         <v>96.454995633357569</v>
       </c>
-      <c r="CM196" s="18">
+      <c r="CM196" s="23">
         <v>75.282946984283853</v>
       </c>
-      <c r="CN196" s="18">
+      <c r="CN196" s="23">
         <v>128.42196459268601</v>
       </c>
-      <c r="CO196" s="18">
+      <c r="CO196" s="23">
         <v>145.2651769104485</v>
       </c>
-      <c r="CP196" s="9"/>
+      <c r="CP196" s="23">
+        <v>101.06801240233222</v>
+      </c>
       <c r="CQ196" s="9"/>
       <c r="CR196" s="9"/>
       <c r="CS196" s="9"/>
@@ -46356,43 +46636,45 @@
       <c r="CC197" s="18">
         <v>145.68787346337893</v>
       </c>
-      <c r="CD197" s="18">
+      <c r="CD197" s="23">
         <v>114.16745475979866</v>
       </c>
-      <c r="CE197" s="18">
+      <c r="CE197" s="23">
         <v>64.813504572142222</v>
       </c>
-      <c r="CF197" s="18">
+      <c r="CF197" s="23">
         <v>96.949596744503239</v>
       </c>
-      <c r="CG197" s="18">
+      <c r="CG197" s="23">
         <v>135.80216778707197</v>
       </c>
-      <c r="CH197" s="18">
+      <c r="CH197" s="23">
         <v>107.45819288817908</v>
       </c>
-      <c r="CI197" s="18">
+      <c r="CI197" s="23">
         <v>63.149086416041136</v>
       </c>
-      <c r="CJ197" s="18">
+      <c r="CJ197" s="23">
         <v>99.384823209100702</v>
       </c>
-      <c r="CK197" s="18">
+      <c r="CK197" s="23">
         <v>143.82994926177562</v>
       </c>
-      <c r="CL197" s="18">
+      <c r="CL197" s="23">
         <v>116.24668959227469</v>
       </c>
-      <c r="CM197" s="18">
+      <c r="CM197" s="23">
         <v>71.744135598138669</v>
       </c>
-      <c r="CN197" s="18">
+      <c r="CN197" s="23">
         <v>115.57500665990017</v>
       </c>
-      <c r="CO197" s="18">
+      <c r="CO197" s="23">
         <v>170.75335124908443</v>
       </c>
-      <c r="CP197" s="9"/>
+      <c r="CP197" s="23">
+        <v>125.77735115097242</v>
+      </c>
       <c r="CQ197" s="9"/>
       <c r="CR197" s="9"/>
       <c r="CS197" s="9"/>
@@ -46696,43 +46978,45 @@
       <c r="CC198" s="18">
         <v>111.18976810455952</v>
       </c>
-      <c r="CD198" s="18">
+      <c r="CD198" s="23">
         <v>99.335013313631038</v>
       </c>
-      <c r="CE198" s="18">
+      <c r="CE198" s="23">
         <v>92.827456249381441</v>
       </c>
-      <c r="CF198" s="18">
+      <c r="CF198" s="23">
         <v>90.250100087358035</v>
       </c>
-      <c r="CG198" s="18">
+      <c r="CG198" s="23">
         <v>97.570417865607098</v>
       </c>
-      <c r="CH198" s="18">
+      <c r="CH198" s="23">
         <v>92.491821873578289</v>
       </c>
-      <c r="CI198" s="18">
+      <c r="CI198" s="23">
         <v>91.525994132653281</v>
       </c>
-      <c r="CJ198" s="18">
+      <c r="CJ198" s="23">
         <v>95.260073227881364</v>
       </c>
-      <c r="CK198" s="18">
+      <c r="CK198" s="23">
         <v>108.16425674603971</v>
       </c>
-      <c r="CL198" s="18">
+      <c r="CL198" s="23">
         <v>102.93521531073462</v>
       </c>
-      <c r="CM198" s="18">
+      <c r="CM198" s="23">
         <v>106.67057989739079</v>
       </c>
-      <c r="CN198" s="18">
+      <c r="CN198" s="23">
         <v>113.31185125124885</v>
       </c>
-      <c r="CO198" s="18">
+      <c r="CO198" s="23">
         <v>132.67940313927625</v>
       </c>
-      <c r="CP198" s="9"/>
+      <c r="CP198" s="23">
+        <v>115.10644058931739</v>
+      </c>
       <c r="CQ198" s="9"/>
       <c r="CR198" s="9"/>
       <c r="CS198" s="9"/>
@@ -47225,7 +47509,9 @@
       <c r="CO200" s="23">
         <v>117.422149054903</v>
       </c>
-      <c r="CP200" s="9"/>
+      <c r="CP200" s="23">
+        <v>110.04247575590995</v>
+      </c>
       <c r="CQ200" s="9"/>
       <c r="CR200" s="9"/>
       <c r="CS200" s="9"/>
@@ -47379,6 +47665,7 @@
       <c r="CM201" s="14"/>
       <c r="CN201" s="14"/>
       <c r="CO201" s="14"/>
+      <c r="CP201" s="14"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -47703,7 +47990,7 @@
     </row>
     <row r="207" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
@@ -47713,7 +48000,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
@@ -47723,144 +48010,147 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="26">
+      <c r="B213" s="29">
         <v>2000</v>
       </c>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
-      <c r="F213" s="26">
+      <c r="C213" s="29"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="29">
         <v>2001</v>
       </c>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="26">
+      <c r="G213" s="29"/>
+      <c r="H213" s="29"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="29">
         <v>2002</v>
       </c>
-      <c r="K213" s="26"/>
-      <c r="L213" s="26"/>
-      <c r="M213" s="26"/>
-      <c r="N213" s="26">
+      <c r="K213" s="29"/>
+      <c r="L213" s="29"/>
+      <c r="M213" s="29"/>
+      <c r="N213" s="29">
         <v>2003</v>
       </c>
-      <c r="O213" s="26"/>
-      <c r="P213" s="26"/>
-      <c r="Q213" s="26"/>
-      <c r="R213" s="26">
+      <c r="O213" s="29"/>
+      <c r="P213" s="29"/>
+      <c r="Q213" s="29"/>
+      <c r="R213" s="29">
         <v>2004</v>
       </c>
-      <c r="S213" s="26"/>
-      <c r="T213" s="26"/>
-      <c r="U213" s="26"/>
-      <c r="V213" s="26">
+      <c r="S213" s="29"/>
+      <c r="T213" s="29"/>
+      <c r="U213" s="29"/>
+      <c r="V213" s="29">
         <v>2005</v>
       </c>
-      <c r="W213" s="26"/>
-      <c r="X213" s="26"/>
-      <c r="Y213" s="26"/>
-      <c r="Z213" s="26">
+      <c r="W213" s="29"/>
+      <c r="X213" s="29"/>
+      <c r="Y213" s="29"/>
+      <c r="Z213" s="29">
         <v>2006</v>
       </c>
-      <c r="AA213" s="26"/>
-      <c r="AB213" s="26"/>
-      <c r="AC213" s="26"/>
-      <c r="AD213" s="26">
+      <c r="AA213" s="29"/>
+      <c r="AB213" s="29"/>
+      <c r="AC213" s="29"/>
+      <c r="AD213" s="29">
         <v>2007</v>
       </c>
-      <c r="AE213" s="26"/>
-      <c r="AF213" s="26"/>
-      <c r="AG213" s="26"/>
-      <c r="AH213" s="26">
+      <c r="AE213" s="29"/>
+      <c r="AF213" s="29"/>
+      <c r="AG213" s="29"/>
+      <c r="AH213" s="29">
         <v>2008</v>
       </c>
-      <c r="AI213" s="26"/>
-      <c r="AJ213" s="26"/>
-      <c r="AK213" s="26"/>
-      <c r="AL213" s="26">
+      <c r="AI213" s="29"/>
+      <c r="AJ213" s="29"/>
+      <c r="AK213" s="29"/>
+      <c r="AL213" s="29">
         <v>2009</v>
       </c>
-      <c r="AM213" s="26"/>
-      <c r="AN213" s="26"/>
-      <c r="AO213" s="26"/>
-      <c r="AP213" s="26">
+      <c r="AM213" s="29"/>
+      <c r="AN213" s="29"/>
+      <c r="AO213" s="29"/>
+      <c r="AP213" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="26"/>
-      <c r="AR213" s="26"/>
-      <c r="AS213" s="26"/>
-      <c r="AT213" s="26">
+      <c r="AQ213" s="29"/>
+      <c r="AR213" s="29"/>
+      <c r="AS213" s="29"/>
+      <c r="AT213" s="29">
         <v>2011</v>
       </c>
-      <c r="AU213" s="26"/>
-      <c r="AV213" s="26"/>
-      <c r="AW213" s="26"/>
-      <c r="AX213" s="26">
+      <c r="AU213" s="29"/>
+      <c r="AV213" s="29"/>
+      <c r="AW213" s="29"/>
+      <c r="AX213" s="29">
         <v>2012</v>
       </c>
-      <c r="AY213" s="26"/>
-      <c r="AZ213" s="26"/>
-      <c r="BA213" s="26"/>
-      <c r="BB213" s="26">
+      <c r="AY213" s="29"/>
+      <c r="AZ213" s="29"/>
+      <c r="BA213" s="29"/>
+      <c r="BB213" s="29">
         <v>2013</v>
       </c>
-      <c r="BC213" s="26"/>
-      <c r="BD213" s="26"/>
-      <c r="BE213" s="26"/>
-      <c r="BF213" s="26">
+      <c r="BC213" s="29"/>
+      <c r="BD213" s="29"/>
+      <c r="BE213" s="29"/>
+      <c r="BF213" s="29">
         <v>2014</v>
       </c>
-      <c r="BG213" s="26"/>
-      <c r="BH213" s="26"/>
-      <c r="BI213" s="26"/>
-      <c r="BJ213" s="26">
+      <c r="BG213" s="29"/>
+      <c r="BH213" s="29"/>
+      <c r="BI213" s="29"/>
+      <c r="BJ213" s="29">
         <v>2015</v>
       </c>
-      <c r="BK213" s="26"/>
-      <c r="BL213" s="26"/>
-      <c r="BM213" s="26"/>
-      <c r="BN213" s="26">
+      <c r="BK213" s="29"/>
+      <c r="BL213" s="29"/>
+      <c r="BM213" s="29"/>
+      <c r="BN213" s="29">
         <v>2016</v>
       </c>
-      <c r="BO213" s="26"/>
-      <c r="BP213" s="26"/>
-      <c r="BQ213" s="26"/>
-      <c r="BR213" s="26">
+      <c r="BO213" s="29"/>
+      <c r="BP213" s="29"/>
+      <c r="BQ213" s="29"/>
+      <c r="BR213" s="29">
         <v>2017</v>
       </c>
-      <c r="BS213" s="26"/>
-      <c r="BT213" s="26"/>
-      <c r="BU213" s="26"/>
-      <c r="BV213" s="26">
+      <c r="BS213" s="29"/>
+      <c r="BT213" s="29"/>
+      <c r="BU213" s="29"/>
+      <c r="BV213" s="29">
         <v>2018</v>
       </c>
-      <c r="BW213" s="26"/>
-      <c r="BX213" s="26"/>
-      <c r="BY213" s="26"/>
-      <c r="BZ213" s="26">
+      <c r="BW213" s="29"/>
+      <c r="BX213" s="29"/>
+      <c r="BY213" s="29"/>
+      <c r="BZ213" s="29">
         <v>2019</v>
       </c>
-      <c r="CA213" s="26"/>
-      <c r="CB213" s="26"/>
-      <c r="CC213" s="26"/>
-      <c r="CD213" s="26">
+      <c r="CA213" s="29"/>
+      <c r="CB213" s="29"/>
+      <c r="CC213" s="29"/>
+      <c r="CD213" s="28">
         <v>2020</v>
       </c>
-      <c r="CE213" s="26"/>
-      <c r="CF213" s="26"/>
-      <c r="CG213" s="26"/>
-      <c r="CH213" s="26">
+      <c r="CE213" s="28"/>
+      <c r="CF213" s="28"/>
+      <c r="CG213" s="28"/>
+      <c r="CH213" s="28">
         <v>2021</v>
       </c>
-      <c r="CI213" s="26"/>
-      <c r="CJ213" s="26"/>
-      <c r="CK213" s="26"/>
-      <c r="CL213" s="26">
+      <c r="CI213" s="28"/>
+      <c r="CJ213" s="28"/>
+      <c r="CK213" s="28"/>
+      <c r="CL213" s="28">
         <v>2022</v>
       </c>
-      <c r="CM213" s="26"/>
-      <c r="CN213" s="26"/>
-      <c r="CO213" s="26"/>
+      <c r="CM213" s="28"/>
+      <c r="CN213" s="28"/>
+      <c r="CO213" s="28"/>
+      <c r="CP213" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -48141,6 +48431,9 @@
       </c>
       <c r="CO214" s="17" t="s">
         <v>9</v>
+      </c>
+      <c r="CP214" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -48426,7 +48719,9 @@
       <c r="CO216" s="23">
         <v>16.267168765343023</v>
       </c>
-      <c r="CP216" s="9"/>
+      <c r="CP216" s="23">
+        <v>16.234287559397607</v>
+      </c>
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
       <c r="CS216" s="9"/>
@@ -48766,7 +49061,9 @@
       <c r="CO217" s="23">
         <v>0.82248902797103507</v>
       </c>
-      <c r="CP217" s="9"/>
+      <c r="CP217" s="23">
+        <v>0.75445176715875728</v>
+      </c>
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
       <c r="CS217" s="9"/>
@@ -49106,7 +49403,9 @@
       <c r="CO218" s="23">
         <v>3.5675907092665833</v>
       </c>
-      <c r="CP218" s="9"/>
+      <c r="CP218" s="23">
+        <v>3.2744741319411319</v>
+      </c>
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
       <c r="CS218" s="9"/>
@@ -49446,7 +49745,9 @@
       <c r="CO219" s="23">
         <v>0.27073179341118642</v>
       </c>
-      <c r="CP219" s="9"/>
+      <c r="CP219" s="23">
+        <v>0.17768960330654751</v>
+      </c>
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
       <c r="CS219" s="9"/>
@@ -49786,7 +50087,9 @@
       <c r="CO220" s="23">
         <v>0.17748213283990483</v>
       </c>
-      <c r="CP220" s="9"/>
+      <c r="CP220" s="23">
+        <v>0.11970837810125218</v>
+      </c>
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
       <c r="CS220" s="9"/>
@@ -50126,7 +50429,9 @@
       <c r="CO221" s="23">
         <v>0.9563673898375572</v>
       </c>
-      <c r="CP221" s="9"/>
+      <c r="CP221" s="23">
+        <v>1.0455076442723004</v>
+      </c>
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
       <c r="CS221" s="9"/>
@@ -50466,7 +50771,9 @@
       <c r="CO222" s="23">
         <v>7.4037750081157743</v>
       </c>
-      <c r="CP222" s="9"/>
+      <c r="CP222" s="23">
+        <v>8.3909919353015123</v>
+      </c>
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
       <c r="CS222" s="9"/>
@@ -50806,7 +51113,9 @@
       <c r="CO223" s="23">
         <v>0.35601545735569595</v>
       </c>
-      <c r="CP223" s="9"/>
+      <c r="CP223" s="23">
+        <v>0.30048100418101259</v>
+      </c>
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
       <c r="CS223" s="9"/>
@@ -51146,7 +51455,9 @@
       <c r="CO224" s="23">
         <v>2.7127172465452833</v>
       </c>
-      <c r="CP224" s="9"/>
+      <c r="CP224" s="23">
+        <v>2.1709830951350968</v>
+      </c>
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
       <c r="CS224" s="9"/>
@@ -51486,7 +51797,9 @@
       <c r="CO225" s="23">
         <v>18.163797588086084</v>
       </c>
-      <c r="CP225" s="9"/>
+      <c r="CP225" s="23">
+        <v>16.955359923913655</v>
+      </c>
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
       <c r="CS225" s="9"/>
@@ -51826,7 +52139,9 @@
       <c r="CO226" s="23">
         <v>3.453617057002706</v>
       </c>
-      <c r="CP226" s="9"/>
+      <c r="CP226" s="23">
+        <v>2.897731431951668</v>
+      </c>
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
       <c r="CS226" s="9"/>
@@ -52166,7 +52481,9 @@
       <c r="CO227" s="23">
         <v>2.1172085598585411</v>
       </c>
-      <c r="CP227" s="9"/>
+      <c r="CP227" s="23">
+        <v>1.8667568127340863</v>
+      </c>
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
       <c r="CS227" s="9"/>
@@ -52506,7 +52823,9 @@
       <c r="CO228" s="23">
         <v>6.4818498316473905</v>
       </c>
-      <c r="CP228" s="9"/>
+      <c r="CP228" s="23">
+        <v>6.3490988719608774</v>
+      </c>
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
       <c r="CS228" s="9"/>
@@ -52846,7 +53165,9 @@
       <c r="CO229" s="23">
         <v>6.1111221395774447</v>
       </c>
-      <c r="CP229" s="9"/>
+      <c r="CP229" s="23">
+        <v>5.8417728072670245</v>
+      </c>
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
       <c r="CS229" s="9"/>
@@ -53186,7 +53507,9 @@
       <c r="CO230" s="23">
         <v>46.553796709481368</v>
       </c>
-      <c r="CP230" s="9"/>
+      <c r="CP230" s="23">
+        <v>48.39689926450081</v>
+      </c>
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
       <c r="CS230" s="9"/>
@@ -53526,7 +53849,9 @@
       <c r="CO231" s="23">
         <v>43.451326780931396</v>
       </c>
-      <c r="CP231" s="9"/>
+      <c r="CP231" s="23">
+        <v>44.614779550469748</v>
+      </c>
       <c r="CQ231" s="9"/>
       <c r="CR231" s="9"/>
       <c r="CS231" s="9"/>
@@ -53866,7 +54191,9 @@
       <c r="CO232" s="23">
         <v>4.0915146012305203E-3</v>
       </c>
-      <c r="CP232" s="9"/>
+      <c r="CP232" s="23">
+        <v>6.0219864357773665E-3</v>
+      </c>
       <c r="CQ232" s="9"/>
       <c r="CR232" s="9"/>
       <c r="CS232" s="9"/>
@@ -54206,7 +54533,9 @@
       <c r="CO233" s="23">
         <v>1.6804871055422506</v>
       </c>
-      <c r="CP233" s="9"/>
+      <c r="CP233" s="23">
+        <v>2.127919868088453</v>
+      </c>
       <c r="CQ233" s="9"/>
       <c r="CR233" s="9"/>
       <c r="CS233" s="9"/>
@@ -54546,7 +54875,9 @@
       <c r="CO234" s="23">
         <v>1.4178913084064908</v>
       </c>
-      <c r="CP234" s="9"/>
+      <c r="CP234" s="23">
+        <v>1.6481778595068195</v>
+      </c>
       <c r="CQ234" s="9"/>
       <c r="CR234" s="9"/>
       <c r="CS234" s="9"/>
@@ -54886,7 +55217,9 @@
       <c r="CO235" s="23">
         <v>19.015236937089526</v>
       </c>
-      <c r="CP235" s="9"/>
+      <c r="CP235" s="23">
+        <v>18.413453252187935</v>
+      </c>
       <c r="CQ235" s="9"/>
       <c r="CR235" s="9"/>
       <c r="CS235" s="9"/>
@@ -55226,7 +55559,9 @@
       <c r="CO236" s="23">
         <v>2.2802020781131467</v>
       </c>
-      <c r="CP236" s="9"/>
+      <c r="CP236" s="23">
+        <v>1.6711099515437773</v>
+      </c>
       <c r="CQ236" s="9"/>
       <c r="CR236" s="9"/>
       <c r="CS236" s="9"/>
@@ -55566,7 +55901,9 @@
       <c r="CO237" s="23">
         <v>2.8204461791971536</v>
       </c>
-      <c r="CP237" s="9"/>
+      <c r="CP237" s="23">
+        <v>3.0369945127923237</v>
+      </c>
       <c r="CQ237" s="9"/>
       <c r="CR237" s="9"/>
       <c r="CS237" s="9"/>
@@ -55906,7 +56243,9 @@
       <c r="CO238" s="23">
         <v>10.606120474252821</v>
       </c>
-      <c r="CP238" s="9"/>
+      <c r="CP238" s="23">
+        <v>9.288907846044534</v>
+      </c>
       <c r="CQ238" s="9"/>
       <c r="CR238" s="9"/>
       <c r="CS238" s="9"/>
@@ -56246,7 +56585,9 @@
       <c r="CO239" s="23">
         <v>3.3084682055264047</v>
       </c>
-      <c r="CP239" s="9"/>
+      <c r="CP239" s="23">
+        <v>4.4164409418073012</v>
+      </c>
       <c r="CQ239" s="9"/>
       <c r="CR239" s="9"/>
       <c r="CS239" s="9"/>
@@ -56739,7 +57080,9 @@
       <c r="CO241" s="23">
         <v>100</v>
       </c>
-      <c r="CP241" s="9"/>
+      <c r="CP241" s="23">
+        <v>100</v>
+      </c>
       <c r="CQ241" s="9"/>
       <c r="CR241" s="9"/>
       <c r="CS241" s="9"/>
@@ -56893,6 +57236,7 @@
       <c r="CM242" s="14"/>
       <c r="CN242" s="14"/>
       <c r="CO242" s="14"/>
+      <c r="CP242" s="14"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -57217,7 +57561,7 @@
     </row>
     <row r="248" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="250" spans="1:152" x14ac:dyDescent="0.2">
@@ -57227,7 +57571,7 @@
     </row>
     <row r="251" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:152" x14ac:dyDescent="0.2">
@@ -57237,144 +57581,147 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="26">
+      <c r="B254" s="29">
         <v>2000</v>
       </c>
-      <c r="C254" s="26"/>
-      <c r="D254" s="26"/>
-      <c r="E254" s="26"/>
-      <c r="F254" s="26">
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="29">
         <v>2001</v>
       </c>
-      <c r="G254" s="26"/>
-      <c r="H254" s="26"/>
-      <c r="I254" s="26"/>
-      <c r="J254" s="26">
+      <c r="G254" s="29"/>
+      <c r="H254" s="29"/>
+      <c r="I254" s="29"/>
+      <c r="J254" s="29">
         <v>2002</v>
       </c>
-      <c r="K254" s="26"/>
-      <c r="L254" s="26"/>
-      <c r="M254" s="26"/>
-      <c r="N254" s="26">
+      <c r="K254" s="29"/>
+      <c r="L254" s="29"/>
+      <c r="M254" s="29"/>
+      <c r="N254" s="29">
         <v>2003</v>
       </c>
-      <c r="O254" s="26"/>
-      <c r="P254" s="26"/>
-      <c r="Q254" s="26"/>
-      <c r="R254" s="26">
+      <c r="O254" s="29"/>
+      <c r="P254" s="29"/>
+      <c r="Q254" s="29"/>
+      <c r="R254" s="29">
         <v>2004</v>
       </c>
-      <c r="S254" s="26"/>
-      <c r="T254" s="26"/>
-      <c r="U254" s="26"/>
-      <c r="V254" s="26">
+      <c r="S254" s="29"/>
+      <c r="T254" s="29"/>
+      <c r="U254" s="29"/>
+      <c r="V254" s="29">
         <v>2005</v>
       </c>
-      <c r="W254" s="26"/>
-      <c r="X254" s="26"/>
-      <c r="Y254" s="26"/>
-      <c r="Z254" s="26">
+      <c r="W254" s="29"/>
+      <c r="X254" s="29"/>
+      <c r="Y254" s="29"/>
+      <c r="Z254" s="29">
         <v>2006</v>
       </c>
-      <c r="AA254" s="26"/>
-      <c r="AB254" s="26"/>
-      <c r="AC254" s="26"/>
-      <c r="AD254" s="26">
+      <c r="AA254" s="29"/>
+      <c r="AB254" s="29"/>
+      <c r="AC254" s="29"/>
+      <c r="AD254" s="29">
         <v>2007</v>
       </c>
-      <c r="AE254" s="26"/>
-      <c r="AF254" s="26"/>
-      <c r="AG254" s="26"/>
-      <c r="AH254" s="26">
+      <c r="AE254" s="29"/>
+      <c r="AF254" s="29"/>
+      <c r="AG254" s="29"/>
+      <c r="AH254" s="29">
         <v>2008</v>
       </c>
-      <c r="AI254" s="26"/>
-      <c r="AJ254" s="26"/>
-      <c r="AK254" s="26"/>
-      <c r="AL254" s="26">
+      <c r="AI254" s="29"/>
+      <c r="AJ254" s="29"/>
+      <c r="AK254" s="29"/>
+      <c r="AL254" s="29">
         <v>2009</v>
       </c>
-      <c r="AM254" s="26"/>
-      <c r="AN254" s="26"/>
-      <c r="AO254" s="26"/>
-      <c r="AP254" s="26">
+      <c r="AM254" s="29"/>
+      <c r="AN254" s="29"/>
+      <c r="AO254" s="29"/>
+      <c r="AP254" s="29">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="26"/>
-      <c r="AR254" s="26"/>
-      <c r="AS254" s="26"/>
-      <c r="AT254" s="26">
+      <c r="AQ254" s="29"/>
+      <c r="AR254" s="29"/>
+      <c r="AS254" s="29"/>
+      <c r="AT254" s="29">
         <v>2011</v>
       </c>
-      <c r="AU254" s="26"/>
-      <c r="AV254" s="26"/>
-      <c r="AW254" s="26"/>
-      <c r="AX254" s="26">
+      <c r="AU254" s="29"/>
+      <c r="AV254" s="29"/>
+      <c r="AW254" s="29"/>
+      <c r="AX254" s="29">
         <v>2012</v>
       </c>
-      <c r="AY254" s="26"/>
-      <c r="AZ254" s="26"/>
-      <c r="BA254" s="26"/>
-      <c r="BB254" s="26">
+      <c r="AY254" s="29"/>
+      <c r="AZ254" s="29"/>
+      <c r="BA254" s="29"/>
+      <c r="BB254" s="29">
         <v>2013</v>
       </c>
-      <c r="BC254" s="26"/>
-      <c r="BD254" s="26"/>
-      <c r="BE254" s="26"/>
-      <c r="BF254" s="26">
+      <c r="BC254" s="29"/>
+      <c r="BD254" s="29"/>
+      <c r="BE254" s="29"/>
+      <c r="BF254" s="29">
         <v>2014</v>
       </c>
-      <c r="BG254" s="26"/>
-      <c r="BH254" s="26"/>
-      <c r="BI254" s="26"/>
-      <c r="BJ254" s="26">
+      <c r="BG254" s="29"/>
+      <c r="BH254" s="29"/>
+      <c r="BI254" s="29"/>
+      <c r="BJ254" s="29">
         <v>2015</v>
       </c>
-      <c r="BK254" s="26"/>
-      <c r="BL254" s="26"/>
-      <c r="BM254" s="26"/>
-      <c r="BN254" s="26">
+      <c r="BK254" s="29"/>
+      <c r="BL254" s="29"/>
+      <c r="BM254" s="29"/>
+      <c r="BN254" s="29">
         <v>2016</v>
       </c>
-      <c r="BO254" s="26"/>
-      <c r="BP254" s="26"/>
-      <c r="BQ254" s="26"/>
-      <c r="BR254" s="26">
+      <c r="BO254" s="29"/>
+      <c r="BP254" s="29"/>
+      <c r="BQ254" s="29"/>
+      <c r="BR254" s="29">
         <v>2017</v>
       </c>
-      <c r="BS254" s="26"/>
-      <c r="BT254" s="26"/>
-      <c r="BU254" s="26"/>
-      <c r="BV254" s="26">
+      <c r="BS254" s="29"/>
+      <c r="BT254" s="29"/>
+      <c r="BU254" s="29"/>
+      <c r="BV254" s="29">
         <v>2018</v>
       </c>
-      <c r="BW254" s="26"/>
-      <c r="BX254" s="26"/>
-      <c r="BY254" s="26"/>
-      <c r="BZ254" s="26">
+      <c r="BW254" s="29"/>
+      <c r="BX254" s="29"/>
+      <c r="BY254" s="29"/>
+      <c r="BZ254" s="29">
         <v>2019</v>
       </c>
-      <c r="CA254" s="26"/>
-      <c r="CB254" s="26"/>
-      <c r="CC254" s="26"/>
-      <c r="CD254" s="26">
+      <c r="CA254" s="29"/>
+      <c r="CB254" s="29"/>
+      <c r="CC254" s="29"/>
+      <c r="CD254" s="28">
         <v>2020</v>
       </c>
-      <c r="CE254" s="26"/>
-      <c r="CF254" s="26"/>
-      <c r="CG254" s="26"/>
-      <c r="CH254" s="26">
+      <c r="CE254" s="28"/>
+      <c r="CF254" s="28"/>
+      <c r="CG254" s="28"/>
+      <c r="CH254" s="28">
         <v>2021</v>
       </c>
-      <c r="CI254" s="26"/>
-      <c r="CJ254" s="26"/>
-      <c r="CK254" s="26"/>
-      <c r="CL254" s="26">
+      <c r="CI254" s="28"/>
+      <c r="CJ254" s="28"/>
+      <c r="CK254" s="28"/>
+      <c r="CL254" s="28">
         <v>2022</v>
       </c>
-      <c r="CM254" s="26"/>
-      <c r="CN254" s="26"/>
-      <c r="CO254" s="26"/>
+      <c r="CM254" s="28"/>
+      <c r="CN254" s="28"/>
+      <c r="CO254" s="28"/>
+      <c r="CP254" s="25">
+        <v>2023</v>
+      </c>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
@@ -57655,6 +58002,9 @@
       </c>
       <c r="CO255" s="17" t="s">
         <v>9</v>
+      </c>
+      <c r="CP255" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -57940,7 +58290,9 @@
       <c r="CO257" s="23">
         <v>18.96176063948846</v>
       </c>
-      <c r="CP257" s="9"/>
+      <c r="CP257" s="23">
+        <v>14.7245270920737</v>
+      </c>
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
       <c r="CS257" s="9"/>
@@ -58280,7 +58632,9 @@
       <c r="CO258" s="23">
         <v>1.1412048174834992</v>
       </c>
-      <c r="CP258" s="9"/>
+      <c r="CP258" s="23">
+        <v>0.67113146249817435</v>
+      </c>
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
       <c r="CS258" s="9"/>
@@ -58620,7 +58974,9 @@
       <c r="CO259" s="23">
         <v>5.004241174083675</v>
       </c>
-      <c r="CP259" s="9"/>
+      <c r="CP259" s="23">
+        <v>2.8412776718700674</v>
+      </c>
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
       <c r="CS259" s="9"/>
@@ -58960,7 +59316,9 @@
       <c r="CO260" s="23">
         <v>0.34911045885513253</v>
       </c>
-      <c r="CP260" s="9"/>
+      <c r="CP260" s="23">
+        <v>0.17083964404528493</v>
+      </c>
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
       <c r="CS260" s="9"/>
@@ -59300,7 +59658,9 @@
       <c r="CO261" s="23">
         <v>0.23535831317279668</v>
       </c>
-      <c r="CP261" s="9"/>
+      <c r="CP261" s="23">
+        <v>8.9391976934907913E-2</v>
+      </c>
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
       <c r="CS261" s="9"/>
@@ -59640,7 +60000,9 @@
       <c r="CO262" s="23">
         <v>1.3057763751206408</v>
       </c>
-      <c r="CP262" s="9"/>
+      <c r="CP262" s="23">
+        <v>0.8798646756076447</v>
+      </c>
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
       <c r="CS262" s="9"/>
@@ -59980,7 +60342,9 @@
       <c r="CO263" s="23">
         <v>6.8608367683494693</v>
       </c>
-      <c r="CP263" s="9"/>
+      <c r="CP263" s="23">
+        <v>7.8625136423628836</v>
+      </c>
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
       <c r="CS263" s="9"/>
@@ -60320,7 +60684,9 @@
       <c r="CO264" s="23">
         <v>0.5078509518182085</v>
       </c>
-      <c r="CP264" s="9"/>
+      <c r="CP264" s="23">
+        <v>0.27053909458883174</v>
+      </c>
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
       <c r="CS264" s="9"/>
@@ -60660,7 +61026,9 @@
       <c r="CO265" s="23">
         <v>3.557381780605041</v>
       </c>
-      <c r="CP265" s="9"/>
+      <c r="CP265" s="23">
+        <v>1.9389689241659063</v>
+      </c>
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
       <c r="CS265" s="9"/>
@@ -61000,7 +61368,9 @@
       <c r="CO266" s="23">
         <v>18.974053532241584</v>
       </c>
-      <c r="CP266" s="9"/>
+      <c r="CP266" s="23">
+        <v>15.870955886084543</v>
+      </c>
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
       <c r="CS266" s="9"/>
@@ -61340,7 +61710,9 @@
       <c r="CO267" s="23">
         <v>3.4096386625753392</v>
       </c>
-      <c r="CP267" s="9"/>
+      <c r="CP267" s="23">
+        <v>2.7106443611262581</v>
+      </c>
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
       <c r="CS267" s="9"/>
@@ -61680,7 +62052,9 @@
       <c r="CO268" s="23">
         <v>2.0581225699364842</v>
       </c>
-      <c r="CP268" s="9"/>
+      <c r="CP268" s="23">
+        <v>1.6763182625395785</v>
+      </c>
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
       <c r="CS268" s="9"/>
@@ -62020,7 +62394,9 @@
       <c r="CO269" s="23">
         <v>5.9637582807487046</v>
       </c>
-      <c r="CP269" s="9"/>
+      <c r="CP269" s="23">
+        <v>5.5047686743712418</v>
+      </c>
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
       <c r="CS269" s="9"/>
@@ -62360,7 +62736,9 @@
       <c r="CO270" s="23">
         <v>7.5425340189810548</v>
       </c>
-      <c r="CP270" s="9"/>
+      <c r="CP270" s="23">
+        <v>5.9792245880474653</v>
+      </c>
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
       <c r="CS270" s="9"/>
@@ -62700,7 +63078,9 @@
       <c r="CO271" s="23">
         <v>48.367427192743008</v>
       </c>
-      <c r="CP271" s="9"/>
+      <c r="CP271" s="23">
+        <v>52.076907314575536</v>
+      </c>
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
       <c r="CS271" s="9"/>
@@ -63040,7 +63420,9 @@
       <c r="CO272" s="23">
         <v>45.472712394108079</v>
       </c>
-      <c r="CP272" s="9"/>
+      <c r="CP272" s="23">
+        <v>48.899058674089133</v>
+      </c>
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
       <c r="CS272" s="9"/>
@@ -63380,7 +63762,9 @@
       <c r="CO273" s="23">
         <v>3.6217891494582564E-3</v>
       </c>
-      <c r="CP273" s="9"/>
+      <c r="CP273" s="23">
+        <v>5.9616015101564583E-3</v>
+      </c>
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
       <c r="CS273" s="9"/>
@@ -63720,7 +64104,9 @@
       <c r="CO274" s="23">
         <v>1.5394154248311571</v>
       </c>
-      <c r="CP274" s="9"/>
+      <c r="CP274" s="23">
+        <v>1.8199798394989646</v>
+      </c>
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
       <c r="CS274" s="9"/>
@@ -64060,7 +64446,9 @@
       <c r="CO275" s="23">
         <v>1.3516775846543154</v>
       </c>
-      <c r="CP275" s="9"/>
+      <c r="CP275" s="23">
+        <v>1.351907199477292</v>
+      </c>
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
       <c r="CS275" s="9"/>
@@ -64400,7 +64788,9 @@
       <c r="CO276" s="23">
         <v>13.69675863552694</v>
       </c>
-      <c r="CP276" s="9"/>
+      <c r="CP276" s="23">
+        <v>17.327609707266202</v>
+      </c>
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
       <c r="CS276" s="9"/>
@@ -64740,7 +65130,9 @@
       <c r="CO277" s="23">
         <v>1.1953693434742636</v>
       </c>
-      <c r="CP277" s="9"/>
+      <c r="CP277" s="23">
+        <v>1.6719403097129999</v>
+      </c>
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
       <c r="CS277" s="9"/>
@@ -65080,7 +65472,9 @@
       <c r="CO278" s="23">
         <v>2.2798502621119159</v>
       </c>
-      <c r="CP278" s="9"/>
+      <c r="CP278" s="23">
+        <v>3.3066683226578326</v>
+      </c>
       <c r="CQ278" s="9"/>
       <c r="CR278" s="9"/>
       <c r="CS278" s="9"/>
@@ -65420,7 +65814,9 @@
       <c r="CO279" s="23">
         <v>7.2935227924473951</v>
       </c>
-      <c r="CP279" s="9"/>
+      <c r="CP279" s="23">
+        <v>8.1268559648732488</v>
+      </c>
       <c r="CQ279" s="9"/>
       <c r="CR279" s="9"/>
       <c r="CS279" s="9"/>
@@ -65760,7 +66156,9 @@
       <c r="CO280" s="23">
         <v>2.928016237493364</v>
       </c>
-      <c r="CP280" s="9"/>
+      <c r="CP280" s="23">
+        <v>4.2221451100221206</v>
+      </c>
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
       <c r="CS280" s="9"/>
@@ -66253,7 +66651,9 @@
       <c r="CO282" s="23">
         <v>100</v>
       </c>
-      <c r="CP282" s="9"/>
+      <c r="CP282" s="23">
+        <v>100</v>
+      </c>
       <c r="CQ282" s="9"/>
       <c r="CR282" s="9"/>
       <c r="CS282" s="9"/>
@@ -66407,6 +66807,7 @@
       <c r="CM283" s="14"/>
       <c r="CN283" s="14"/>
       <c r="CO283" s="14"/>
+      <c r="CP283" s="14"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
@@ -66414,7 +66815,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="B254:E254"/>
     <mergeCell ref="AT50:AW50"/>
     <mergeCell ref="AX50:BA50"/>
@@ -66574,19 +66975,17 @@
     <mergeCell ref="CL172:CO172"/>
     <mergeCell ref="CL213:CO213"/>
     <mergeCell ref="CL254:CO254"/>
-    <mergeCell ref="CL91:CO91"/>
-    <mergeCell ref="CL132:CO132"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="92" man="1"/>
-    <brk id="82" max="92" man="1"/>
-    <brk id="123" max="92" man="1"/>
-    <brk id="164" max="92" man="1"/>
-    <brk id="204" max="92" man="1"/>
-    <brk id="245" max="92" man="1"/>
+    <brk id="41" max="93" man="1"/>
+    <brk id="82" max="93" man="1"/>
+    <brk id="123" max="93" man="1"/>
+    <brk id="164" max="93" man="1"/>
+    <brk id="204" max="93" man="1"/>
+    <brk id="245" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232A0DAD-F19E-44E1-8703-537385C66CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0235CA8-1185-456F-BABC-A80E3C2EC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CP$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CQ$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="76">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -264,13 +264,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -406,15 +406,15 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +759,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,8 +771,8 @@
     <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="94" width="9.21875" style="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="95" width="9.21875" style="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -945,9 +945,10 @@
       <c r="CM9" s="28"/>
       <c r="CN9" s="28"/>
       <c r="CO9" s="28"/>
-      <c r="CP9" s="25">
+      <c r="CP9" s="28">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="29"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1231,6 +1232,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,46 +1484,48 @@
       <c r="CC12" s="8">
         <v>56446.877325699985</v>
       </c>
-      <c r="CD12" s="26">
+      <c r="CD12" s="25">
         <v>54429.142017296275</v>
       </c>
-      <c r="CE12" s="26">
+      <c r="CE12" s="25">
         <v>27012.413717968855</v>
       </c>
-      <c r="CF12" s="26">
+      <c r="CF12" s="25">
         <v>37620.98400344485</v>
       </c>
-      <c r="CG12" s="26">
+      <c r="CG12" s="25">
         <v>51276.382492793287</v>
       </c>
-      <c r="CH12" s="26">
+      <c r="CH12" s="25">
         <v>58541.326799276714</v>
       </c>
-      <c r="CI12" s="26">
+      <c r="CI12" s="25">
         <v>47873.9429215782</v>
       </c>
-      <c r="CJ12" s="26">
+      <c r="CJ12" s="25">
         <v>40647.66566784482</v>
       </c>
-      <c r="CK12" s="26">
+      <c r="CK12" s="25">
         <v>58275.074193118606</v>
       </c>
-      <c r="CL12" s="26">
+      <c r="CL12" s="25">
         <v>62127.065395262369</v>
       </c>
-      <c r="CM12" s="26">
+      <c r="CM12" s="25">
         <v>49334.66666877734</v>
       </c>
-      <c r="CN12" s="26">
+      <c r="CN12" s="25">
         <v>41442.460552130084</v>
       </c>
-      <c r="CO12" s="26">
+      <c r="CO12" s="25">
         <v>56443.883811741136</v>
       </c>
-      <c r="CP12" s="26">
-        <v>64001.49529025684</v>
-      </c>
-      <c r="CQ12" s="9"/>
+      <c r="CP12" s="25">
+        <v>63827.335203808274</v>
+      </c>
+      <c r="CQ12" s="25">
+        <v>51499.970463080237</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -1822,46 +1828,48 @@
       <c r="CC13" s="11">
         <v>2680.7892509557855</v>
       </c>
-      <c r="CD13" s="27">
+      <c r="CD13" s="26">
         <v>2876.7840872852312</v>
       </c>
-      <c r="CE13" s="27">
+      <c r="CE13" s="26">
         <v>1567.3513225054967</v>
       </c>
-      <c r="CF13" s="27">
+      <c r="CF13" s="26">
         <v>2729.6722210206449</v>
       </c>
-      <c r="CG13" s="27">
+      <c r="CG13" s="26">
         <v>4505.6216796295748</v>
       </c>
-      <c r="CH13" s="27">
+      <c r="CH13" s="26">
         <v>5360.9786303835454</v>
       </c>
-      <c r="CI13" s="27">
+      <c r="CI13" s="26">
         <v>3920.7370998992515</v>
       </c>
-      <c r="CJ13" s="27">
+      <c r="CJ13" s="26">
         <v>4431.104680267822</v>
       </c>
-      <c r="CK13" s="27">
+      <c r="CK13" s="26">
         <v>4316.9027270498527</v>
       </c>
-      <c r="CL13" s="27">
+      <c r="CL13" s="26">
         <v>2501.1893205300003</v>
       </c>
-      <c r="CM13" s="27">
+      <c r="CM13" s="26">
         <v>2438.1245430334579</v>
       </c>
-      <c r="CN13" s="27">
+      <c r="CN13" s="26">
         <v>2966.1475999427439</v>
       </c>
-      <c r="CO13" s="27">
+      <c r="CO13" s="26">
         <v>2853.8755453337226</v>
       </c>
-      <c r="CP13" s="27">
-        <v>2974.3246228619137</v>
-      </c>
-      <c r="CQ13" s="9"/>
+      <c r="CP13" s="26">
+        <v>2970.3059336073388</v>
+      </c>
+      <c r="CQ13" s="26">
+        <v>3595.034778034496</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -2164,46 +2172,48 @@
       <c r="CC14" s="11">
         <v>9996.9045516721235</v>
       </c>
-      <c r="CD14" s="27">
+      <c r="CD14" s="26">
         <v>9332.9699428358617</v>
       </c>
-      <c r="CE14" s="27">
+      <c r="CE14" s="26">
         <v>5431.6666731016112</v>
       </c>
-      <c r="CF14" s="27">
+      <c r="CF14" s="26">
         <v>5613.5086988568692</v>
       </c>
-      <c r="CG14" s="27">
+      <c r="CG14" s="26">
         <v>4832.1147367375515</v>
       </c>
-      <c r="CH14" s="27">
+      <c r="CH14" s="26">
         <v>6469.3368344882674</v>
       </c>
-      <c r="CI14" s="27">
+      <c r="CI14" s="26">
         <v>9794.8308621653341</v>
       </c>
-      <c r="CJ14" s="27">
+      <c r="CJ14" s="26">
         <v>9187.5535580913565</v>
       </c>
-      <c r="CK14" s="27">
+      <c r="CK14" s="26">
         <v>11126.761917937496</v>
       </c>
-      <c r="CL14" s="27">
+      <c r="CL14" s="26">
         <v>9501.003038080893</v>
       </c>
-      <c r="CM14" s="27">
+      <c r="CM14" s="26">
         <v>9312.2803256344141</v>
       </c>
-      <c r="CN14" s="27">
+      <c r="CN14" s="26">
         <v>10323.553975386678</v>
       </c>
-      <c r="CO14" s="27">
+      <c r="CO14" s="26">
         <v>12378.839759178214</v>
       </c>
-      <c r="CP14" s="27">
-        <v>12909.173868377293</v>
-      </c>
-      <c r="CQ14" s="9"/>
+      <c r="CP14" s="26">
+        <v>12874.866997148456</v>
+      </c>
+      <c r="CQ14" s="26">
+        <v>13157.198165606718</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -2506,46 +2516,48 @@
       <c r="CC15" s="11">
         <v>973.77945132840352</v>
       </c>
-      <c r="CD15" s="27">
+      <c r="CD15" s="26">
         <v>660.75092556133814</v>
       </c>
-      <c r="CE15" s="27">
+      <c r="CE15" s="26">
         <v>404.71505125747746</v>
       </c>
-      <c r="CF15" s="27">
+      <c r="CF15" s="26">
         <v>615.67969005739315</v>
       </c>
-      <c r="CG15" s="27">
+      <c r="CG15" s="26">
         <v>531.70689191179281</v>
       </c>
-      <c r="CH15" s="27">
+      <c r="CH15" s="26">
         <v>471.65605528852143</v>
       </c>
-      <c r="CI15" s="27">
+      <c r="CI15" s="26">
         <v>501.66476677997207</v>
       </c>
-      <c r="CJ15" s="27">
+      <c r="CJ15" s="26">
         <v>591.41483901841161</v>
       </c>
-      <c r="CK15" s="27">
+      <c r="CK15" s="26">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="27">
+      <c r="CL15" s="26">
         <v>650.43149024144066</v>
       </c>
-      <c r="CM15" s="27">
+      <c r="CM15" s="26">
         <v>698.64256169906594</v>
       </c>
-      <c r="CN15" s="27">
+      <c r="CN15" s="26">
         <v>729.30421650781761</v>
       </c>
-      <c r="CO15" s="27">
+      <c r="CO15" s="26">
         <v>939.38620247191375</v>
       </c>
-      <c r="CP15" s="27">
-        <v>700.51736286809933</v>
-      </c>
-      <c r="CQ15" s="9"/>
+      <c r="CP15" s="26">
+        <v>703.96510234692232</v>
+      </c>
+      <c r="CQ15" s="26">
+        <v>883.12192393932628</v>
+      </c>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
@@ -2848,46 +2860,48 @@
       <c r="CC16" s="11">
         <v>1188.0329562434067</v>
       </c>
-      <c r="CD16" s="27">
+      <c r="CD16" s="26">
         <v>1812.981954079394</v>
       </c>
-      <c r="CE16" s="27">
+      <c r="CE16" s="26">
         <v>376.39117337805163</v>
       </c>
-      <c r="CF16" s="27">
+      <c r="CF16" s="26">
         <v>495.15649386209083</v>
       </c>
-      <c r="CG16" s="27">
+      <c r="CG16" s="26">
         <v>445.71165916397956</v>
       </c>
-      <c r="CH16" s="27">
+      <c r="CH16" s="26">
         <v>482.06090742586434</v>
       </c>
-      <c r="CI16" s="27">
+      <c r="CI16" s="26">
         <v>353.9126695930442</v>
       </c>
-      <c r="CJ16" s="27">
+      <c r="CJ16" s="26">
         <v>465.25586962896028</v>
       </c>
-      <c r="CK16" s="27">
+      <c r="CK16" s="26">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="27">
+      <c r="CL16" s="26">
         <v>423.35151375127072</v>
       </c>
-      <c r="CM16" s="27">
+      <c r="CM16" s="26">
         <v>376.20606291950469</v>
       </c>
-      <c r="CN16" s="27">
+      <c r="CN16" s="26">
         <v>563.01185576389378</v>
       </c>
-      <c r="CO16" s="27">
+      <c r="CO16" s="26">
         <v>615.82817693625566</v>
       </c>
-      <c r="CP16" s="27">
-        <v>471.93418061740095</v>
-      </c>
-      <c r="CQ16" s="9"/>
+      <c r="CP16" s="26">
+        <v>457.86235817281693</v>
+      </c>
+      <c r="CQ16" s="26">
+        <v>513.40655573271397</v>
+      </c>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
@@ -3190,46 +3204,48 @@
       <c r="CC17" s="11">
         <v>3896.2546141568387</v>
       </c>
-      <c r="CD17" s="27">
+      <c r="CD17" s="26">
         <v>3355.5325382214478</v>
       </c>
-      <c r="CE17" s="27">
+      <c r="CE17" s="26">
         <v>2501.5245453736138</v>
       </c>
-      <c r="CF17" s="27">
+      <c r="CF17" s="26">
         <v>2897.8470067760272</v>
       </c>
-      <c r="CG17" s="27">
+      <c r="CG17" s="26">
         <v>2314.3770870556236</v>
       </c>
-      <c r="CH17" s="27">
+      <c r="CH17" s="26">
         <v>2699.5914759839416</v>
       </c>
-      <c r="CI17" s="27">
+      <c r="CI17" s="26">
         <v>3347.9943616944333</v>
       </c>
-      <c r="CJ17" s="27">
+      <c r="CJ17" s="26">
         <v>3338.8216530237387</v>
       </c>
-      <c r="CK17" s="27">
+      <c r="CK17" s="26">
         <v>2999.8221527660235</v>
       </c>
-      <c r="CL17" s="27">
+      <c r="CL17" s="26">
         <v>3748.701186385681</v>
       </c>
-      <c r="CM17" s="27">
+      <c r="CM17" s="26">
         <v>2833.3985227820776</v>
       </c>
-      <c r="CN17" s="27">
+      <c r="CN17" s="26">
         <v>2597.6599899346902</v>
       </c>
-      <c r="CO17" s="27">
+      <c r="CO17" s="26">
         <v>3318.4071925493995</v>
       </c>
-      <c r="CP17" s="27">
-        <v>4121.7732731416563</v>
-      </c>
-      <c r="CQ17" s="9"/>
+      <c r="CP17" s="26">
+        <v>4115.6372439833813</v>
+      </c>
+      <c r="CQ17" s="26">
+        <v>2780.8385265980196</v>
+      </c>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
@@ -3532,46 +3548,48 @@
       <c r="CC18" s="11">
         <v>26147.356159545274</v>
       </c>
-      <c r="CD18" s="27">
+      <c r="CD18" s="26">
         <v>27992.057503247051</v>
       </c>
-      <c r="CE18" s="27">
+      <c r="CE18" s="26">
         <v>11271.729702735385</v>
       </c>
-      <c r="CF18" s="27">
+      <c r="CF18" s="26">
         <v>17526.625513341747</v>
       </c>
-      <c r="CG18" s="27">
+      <c r="CG18" s="26">
         <v>30655.654184141502</v>
       </c>
-      <c r="CH18" s="27">
+      <c r="CH18" s="26">
         <v>33111.414611867964</v>
       </c>
-      <c r="CI18" s="27">
+      <c r="CI18" s="26">
         <v>20875.999648424353</v>
       </c>
-      <c r="CJ18" s="27">
+      <c r="CJ18" s="26">
         <v>14376.565024355747</v>
       </c>
-      <c r="CK18" s="27">
+      <c r="CK18" s="26">
         <v>27696.613856543641</v>
       </c>
-      <c r="CL18" s="27">
+      <c r="CL18" s="26">
         <v>34737.260755101379</v>
       </c>
-      <c r="CM18" s="27">
+      <c r="CM18" s="26">
         <v>24233.83039362252</v>
       </c>
-      <c r="CN18" s="27">
+      <c r="CN18" s="26">
         <v>15206.00093161609</v>
       </c>
-      <c r="CO18" s="27">
+      <c r="CO18" s="26">
         <v>25689.646573083148</v>
       </c>
-      <c r="CP18" s="27">
-        <v>33080.357167685288</v>
-      </c>
-      <c r="CQ18" s="9"/>
+      <c r="CP18" s="26">
+        <v>33052.192049832804</v>
+      </c>
+      <c r="CQ18" s="26">
+        <v>23488.395980285757</v>
+      </c>
       <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
@@ -3874,46 +3892,48 @@
       <c r="CC19" s="11">
         <v>1651.387081347116</v>
       </c>
-      <c r="CD19" s="27">
+      <c r="CD19" s="26">
         <v>1451.4588460696427</v>
       </c>
-      <c r="CE19" s="27">
+      <c r="CE19" s="26">
         <v>657.11867446437941</v>
       </c>
-      <c r="CF19" s="27">
+      <c r="CF19" s="26">
         <v>1835.7056867492802</v>
       </c>
-      <c r="CG19" s="27">
+      <c r="CG19" s="26">
         <v>1077.2672972378546</v>
       </c>
-      <c r="CH19" s="27">
+      <c r="CH19" s="26">
         <v>1542.424047462154</v>
       </c>
-      <c r="CI19" s="27">
+      <c r="CI19" s="26">
         <v>585.49590673763339</v>
       </c>
-      <c r="CJ19" s="27">
+      <c r="CJ19" s="26">
         <v>944.65683744733678</v>
       </c>
-      <c r="CK19" s="27">
+      <c r="CK19" s="26">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="27">
+      <c r="CL19" s="26">
         <v>742.23927768370243</v>
       </c>
-      <c r="CM19" s="27">
+      <c r="CM19" s="26">
         <v>723.31973542125149</v>
       </c>
-      <c r="CN19" s="27">
+      <c r="CN19" s="26">
         <v>449.78254081928537</v>
       </c>
-      <c r="CO19" s="27">
+      <c r="CO19" s="26">
         <v>1235.3037827320438</v>
       </c>
-      <c r="CP19" s="27">
-        <v>1184.6059461211316</v>
-      </c>
-      <c r="CQ19" s="9"/>
+      <c r="CP19" s="26">
+        <v>1178.2053618372445</v>
+      </c>
+      <c r="CQ19" s="26">
+        <v>1240.2465181374898</v>
+      </c>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
@@ -4216,46 +4236,48 @@
       <c r="CC20" s="11">
         <v>9912.3732604510333</v>
       </c>
-      <c r="CD20" s="27">
+      <c r="CD20" s="26">
         <v>6946.6062199963153</v>
       </c>
-      <c r="CE20" s="27">
+      <c r="CE20" s="26">
         <v>4801.9165751528426</v>
       </c>
-      <c r="CF20" s="27">
+      <c r="CF20" s="26">
         <v>5906.7886927808004</v>
       </c>
-      <c r="CG20" s="27">
+      <c r="CG20" s="26">
         <v>6913.9289569154098</v>
       </c>
-      <c r="CH20" s="27">
+      <c r="CH20" s="26">
         <v>8403.864236376452</v>
       </c>
-      <c r="CI20" s="27">
+      <c r="CI20" s="26">
         <v>8493.307606284181</v>
       </c>
-      <c r="CJ20" s="27">
+      <c r="CJ20" s="26">
         <v>7312.2932060114472</v>
       </c>
-      <c r="CK20" s="27">
+      <c r="CK20" s="26">
         <v>9496.8426950597295</v>
       </c>
-      <c r="CL20" s="27">
+      <c r="CL20" s="26">
         <v>9822.8888134880017</v>
       </c>
-      <c r="CM20" s="27">
+      <c r="CM20" s="26">
         <v>8718.86452366505</v>
       </c>
-      <c r="CN20" s="27">
+      <c r="CN20" s="26">
         <v>8606.999442158889</v>
       </c>
-      <c r="CO20" s="27">
+      <c r="CO20" s="26">
         <v>9412.5965794564363</v>
       </c>
-      <c r="CP20" s="27">
-        <v>8558.8088685840576</v>
-      </c>
-      <c r="CQ20" s="9"/>
+      <c r="CP20" s="26">
+        <v>8474.3001568793097</v>
+      </c>
+      <c r="CQ20" s="26">
+        <v>5841.7280147457195</v>
+      </c>
       <c r="CR20" s="9"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
@@ -4558,46 +4580,48 @@
       <c r="CC21" s="8">
         <v>56071.240605869185</v>
       </c>
-      <c r="CD21" s="26">
+      <c r="CD21" s="25">
         <v>58804.626629109742</v>
       </c>
-      <c r="CE21" s="26">
+      <c r="CE21" s="25">
         <v>32505.460461454451</v>
       </c>
-      <c r="CF21" s="26">
+      <c r="CF21" s="25">
         <v>43353.930792332612</v>
       </c>
-      <c r="CG21" s="26">
+      <c r="CG21" s="25">
         <v>45363.207117669983</v>
       </c>
-      <c r="CH21" s="26">
+      <c r="CH21" s="25">
         <v>49694.822060481893</v>
       </c>
-      <c r="CI21" s="26">
+      <c r="CI21" s="25">
         <v>40266.574644393491</v>
       </c>
-      <c r="CJ21" s="26">
+      <c r="CJ21" s="25">
         <v>44584.322119758086</v>
       </c>
-      <c r="CK21" s="26">
+      <c r="CK21" s="25">
         <v>47395.956823974513</v>
       </c>
-      <c r="CL21" s="26">
+      <c r="CL21" s="25">
         <v>55164.47460116852</v>
       </c>
-      <c r="CM21" s="26">
+      <c r="CM21" s="25">
         <v>49118.606042486688</v>
       </c>
-      <c r="CN21" s="26">
+      <c r="CN21" s="25">
         <v>57879.628408538163</v>
       </c>
-      <c r="CO21" s="26">
+      <c r="CO21" s="25">
         <v>63024.81368645811</v>
       </c>
-      <c r="CP21" s="26">
-        <v>66844.226107525945</v>
-      </c>
-      <c r="CQ21" s="9"/>
+      <c r="CP21" s="25">
+        <v>65728.712004918722</v>
+      </c>
+      <c r="CQ21" s="25">
+        <v>59315.043566520893</v>
+      </c>
       <c r="CR21" s="9"/>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
@@ -4900,46 +4924,48 @@
       <c r="CC22" s="11">
         <v>11054.87107140085</v>
       </c>
-      <c r="CD22" s="27">
+      <c r="CD22" s="26">
         <v>10627.784174922195</v>
       </c>
-      <c r="CE22" s="27">
+      <c r="CE22" s="26">
         <v>4274.3484630486419</v>
       </c>
-      <c r="CF22" s="27">
+      <c r="CF22" s="26">
         <v>7978.0223233950728</v>
       </c>
-      <c r="CG22" s="27">
+      <c r="CG22" s="26">
         <v>8386.6463101162626</v>
       </c>
-      <c r="CH22" s="27">
+      <c r="CH22" s="26">
         <v>7886.6884581976483</v>
       </c>
-      <c r="CI22" s="27">
+      <c r="CI22" s="26">
         <v>7155.0963550419592</v>
       </c>
-      <c r="CJ22" s="27">
+      <c r="CJ22" s="26">
         <v>7280.6033560321166</v>
       </c>
-      <c r="CK22" s="27">
+      <c r="CK22" s="26">
         <v>10008.565084635895</v>
       </c>
-      <c r="CL22" s="27">
+      <c r="CL22" s="26">
         <v>9628.082742530145</v>
       </c>
-      <c r="CM22" s="27">
+      <c r="CM22" s="26">
         <v>9920.8941364997227</v>
       </c>
-      <c r="CN22" s="27">
+      <c r="CN22" s="26">
         <v>9169.3899887965817</v>
       </c>
-      <c r="CO22" s="27">
+      <c r="CO22" s="26">
         <v>11983.373548752726</v>
       </c>
-      <c r="CP22" s="27">
-        <v>11423.91644326433</v>
-      </c>
-      <c r="CQ22" s="9"/>
+      <c r="CP22" s="26">
+        <v>10506.337977294261</v>
+      </c>
+      <c r="CQ22" s="26">
+        <v>10760.436597759412</v>
+      </c>
       <c r="CR22" s="9"/>
       <c r="CS22" s="9"/>
       <c r="CT22" s="9"/>
@@ -5242,46 +5268,48 @@
       <c r="CC23" s="11">
         <v>6882.360474809715</v>
       </c>
-      <c r="CD23" s="27">
+      <c r="CD23" s="26">
         <v>5184.3391165111143</v>
       </c>
-      <c r="CE23" s="27">
+      <c r="CE23" s="26">
         <v>3120.7355212627249</v>
       </c>
-      <c r="CF23" s="27">
+      <c r="CF23" s="26">
         <v>4804.3805390311391</v>
       </c>
-      <c r="CG23" s="27">
+      <c r="CG23" s="26">
         <v>5273.1469018777589</v>
       </c>
-      <c r="CH23" s="27">
+      <c r="CH23" s="26">
         <v>4767.9726573387816</v>
       </c>
-      <c r="CI23" s="27">
+      <c r="CI23" s="26">
         <v>5096.9235369596818</v>
       </c>
-      <c r="CJ23" s="27">
+      <c r="CJ23" s="26">
         <v>5066.6062712290177</v>
       </c>
-      <c r="CK23" s="27">
+      <c r="CK23" s="26">
         <v>5483.9249386943147</v>
       </c>
-      <c r="CL23" s="27">
+      <c r="CL23" s="26">
         <v>5639.4054154257592</v>
       </c>
-      <c r="CM23" s="27">
+      <c r="CM23" s="26">
         <v>5668.285123550173</v>
       </c>
-      <c r="CN23" s="27">
+      <c r="CN23" s="26">
         <v>5197.2327979966367</v>
       </c>
-      <c r="CO23" s="27">
+      <c r="CO23" s="26">
         <v>7346.2982822480926</v>
       </c>
-      <c r="CP23" s="27">
-        <v>7359.4376667976649</v>
-      </c>
-      <c r="CQ23" s="9"/>
+      <c r="CP23" s="26">
+        <v>7100.947127891739</v>
+      </c>
+      <c r="CQ23" s="26">
+        <v>7031.8314400784966</v>
+      </c>
       <c r="CR23" s="9"/>
       <c r="CS23" s="9"/>
       <c r="CT23" s="9"/>
@@ -5584,46 +5612,48 @@
       <c r="CC24" s="11">
         <v>17535.77311267157</v>
       </c>
-      <c r="CD24" s="27">
+      <c r="CD24" s="26">
         <v>12588.186661992386</v>
       </c>
-      <c r="CE24" s="27">
+      <c r="CE24" s="26">
         <v>12168.807582743522</v>
       </c>
-      <c r="CF24" s="27">
+      <c r="CF24" s="26">
         <v>13701.285774958433</v>
       </c>
-      <c r="CG24" s="27">
+      <c r="CG24" s="26">
         <v>15099.791007225485</v>
       </c>
-      <c r="CH24" s="27">
+      <c r="CH24" s="26">
         <v>13981.40718165418</v>
       </c>
-      <c r="CI24" s="27">
+      <c r="CI24" s="26">
         <v>11965.095857760432</v>
       </c>
-      <c r="CJ24" s="27">
+      <c r="CJ24" s="26">
         <v>14420.720098179194</v>
       </c>
-      <c r="CK24" s="27">
+      <c r="CK24" s="26">
         <v>12465.264015757841</v>
       </c>
-      <c r="CL24" s="27">
+      <c r="CL24" s="26">
         <v>13619.768968589058</v>
       </c>
-      <c r="CM24" s="27">
+      <c r="CM24" s="26">
         <v>13464.931485133506</v>
       </c>
-      <c r="CN24" s="27">
+      <c r="CN24" s="26">
         <v>24014.801496465923</v>
       </c>
-      <c r="CO24" s="27">
+      <c r="CO24" s="26">
         <v>22490.747102969784</v>
       </c>
-      <c r="CP24" s="27">
-        <v>25030.468387628905</v>
-      </c>
-      <c r="CQ24" s="9"/>
+      <c r="CP24" s="26">
+        <v>25040.209031627099</v>
+      </c>
+      <c r="CQ24" s="26">
+        <v>22357.004239630784</v>
+      </c>
       <c r="CR24" s="9"/>
       <c r="CS24" s="9"/>
       <c r="CT24" s="9"/>
@@ -5926,46 +5956,48 @@
       <c r="CC25" s="11">
         <v>20598.235946987053</v>
       </c>
-      <c r="CD25" s="27">
+      <c r="CD25" s="26">
         <v>30404.316675684051</v>
       </c>
-      <c r="CE25" s="27">
+      <c r="CE25" s="26">
         <v>12941.568894399561</v>
       </c>
-      <c r="CF25" s="27">
+      <c r="CF25" s="26">
         <v>16870.242154947966</v>
       </c>
-      <c r="CG25" s="27">
+      <c r="CG25" s="26">
         <v>16603.622898450478</v>
       </c>
-      <c r="CH25" s="27">
+      <c r="CH25" s="26">
         <v>23058.753763291286</v>
       </c>
-      <c r="CI25" s="27">
+      <c r="CI25" s="26">
         <v>16049.458894631422</v>
       </c>
-      <c r="CJ25" s="27">
+      <c r="CJ25" s="26">
         <v>17816.392394317758</v>
       </c>
-      <c r="CK25" s="27">
+      <c r="CK25" s="26">
         <v>19438.202784886464</v>
       </c>
-      <c r="CL25" s="27">
+      <c r="CL25" s="26">
         <v>26277.217474623558</v>
       </c>
-      <c r="CM25" s="27">
+      <c r="CM25" s="26">
         <v>20064.495297303285</v>
       </c>
-      <c r="CN25" s="27">
+      <c r="CN25" s="26">
         <v>19498.204125279019</v>
       </c>
-      <c r="CO25" s="27">
+      <c r="CO25" s="26">
         <v>21204.394752487504</v>
       </c>
-      <c r="CP25" s="27">
-        <v>23030.403609835052</v>
-      </c>
-      <c r="CQ25" s="9"/>
+      <c r="CP25" s="26">
+        <v>23081.217868105632</v>
+      </c>
+      <c r="CQ25" s="26">
+        <v>19165.771289052205</v>
+      </c>
       <c r="CR25" s="9"/>
       <c r="CS25" s="9"/>
       <c r="CT25" s="9"/>
@@ -6268,46 +6300,48 @@
       <c r="CC26" s="8">
         <v>192504.37455315443</v>
       </c>
-      <c r="CD26" s="26">
+      <c r="CD26" s="25">
         <v>160382.34935369136</v>
       </c>
-      <c r="CE26" s="26">
+      <c r="CE26" s="25">
         <v>40441.434287141805</v>
       </c>
-      <c r="CF26" s="26">
+      <c r="CF26" s="25">
         <v>91340.658707289302</v>
       </c>
-      <c r="CG26" s="26">
+      <c r="CG26" s="25">
         <v>115528.01967552473</v>
       </c>
-      <c r="CH26" s="26">
+      <c r="CH26" s="25">
         <v>124589.11055104242</v>
       </c>
-      <c r="CI26" s="26">
+      <c r="CI26" s="25">
         <v>104057.69156374272</v>
       </c>
-      <c r="CJ26" s="26">
+      <c r="CJ26" s="25">
         <v>104653.81286712343</v>
       </c>
-      <c r="CK26" s="26">
+      <c r="CK26" s="25">
         <v>132686.72850413472</v>
       </c>
-      <c r="CL26" s="26">
+      <c r="CL26" s="25">
         <v>163862.64855411998</v>
       </c>
-      <c r="CM26" s="26">
+      <c r="CM26" s="25">
         <v>145670.6522403901</v>
       </c>
-      <c r="CN26" s="26">
+      <c r="CN26" s="25">
         <v>162498.41427704878</v>
       </c>
-      <c r="CO26" s="26">
+      <c r="CO26" s="25">
         <v>161532.54019615345</v>
       </c>
-      <c r="CP26" s="26">
-        <v>190798.26626250288</v>
-      </c>
-      <c r="CQ26" s="9"/>
+      <c r="CP26" s="25">
+        <v>194178.33039813107</v>
+      </c>
+      <c r="CQ26" s="25">
+        <v>184981.99467039638</v>
+      </c>
       <c r="CR26" s="9"/>
       <c r="CS26" s="9"/>
       <c r="CT26" s="9"/>
@@ -6610,46 +6644,48 @@
       <c r="CC27" s="11">
         <v>163888.55372418906</v>
       </c>
-      <c r="CD27" s="27">
+      <c r="CD27" s="26">
         <v>147822.56854143695</v>
       </c>
-      <c r="CE27" s="27">
+      <c r="CE27" s="26">
         <v>34106.416729520301</v>
       </c>
-      <c r="CF27" s="27">
+      <c r="CF27" s="26">
         <v>88281.481473492124</v>
       </c>
-      <c r="CG27" s="27">
+      <c r="CG27" s="26">
         <v>107245.88624517893</v>
       </c>
-      <c r="CH27" s="27">
+      <c r="CH27" s="26">
         <v>113486.41667803671</v>
       </c>
-      <c r="CI27" s="27">
+      <c r="CI27" s="26">
         <v>95632.986730939097</v>
       </c>
-      <c r="CJ27" s="27">
+      <c r="CJ27" s="26">
         <v>100165.76240442932</v>
       </c>
-      <c r="CK27" s="27">
+      <c r="CK27" s="26">
         <v>109199.38588718358</v>
       </c>
-      <c r="CL27" s="27">
+      <c r="CL27" s="26">
         <v>136145.84524228523</v>
       </c>
-      <c r="CM27" s="27">
+      <c r="CM27" s="26">
         <v>122538.60684307599</v>
       </c>
-      <c r="CN27" s="27">
+      <c r="CN27" s="26">
         <v>150753.85957909332</v>
       </c>
-      <c r="CO27" s="27">
+      <c r="CO27" s="26">
         <v>150767.57828406111</v>
       </c>
-      <c r="CP27" s="27">
-        <v>175887.76796197085</v>
-      </c>
-      <c r="CQ27" s="9"/>
+      <c r="CP27" s="26">
+        <v>178584.46983271994</v>
+      </c>
+      <c r="CQ27" s="26">
+        <v>159425.01279847036</v>
+      </c>
       <c r="CR27" s="9"/>
       <c r="CS27" s="9"/>
       <c r="CT27" s="9"/>
@@ -6952,46 +6988,48 @@
       <c r="CC28" s="11">
         <v>498.63359315000002</v>
       </c>
-      <c r="CD28" s="27">
+      <c r="CD28" s="26">
         <v>895.28711383098755</v>
       </c>
-      <c r="CE28" s="27">
+      <c r="CE28" s="26">
         <v>20.871931768769699</v>
       </c>
-      <c r="CF28" s="27">
+      <c r="CF28" s="26">
         <v>4.5107882416510048</v>
       </c>
-      <c r="CG28" s="27">
+      <c r="CG28" s="26">
         <v>1105.678345077391</v>
       </c>
-      <c r="CH28" s="27">
+      <c r="CH28" s="26">
         <v>2174.525977291808</v>
       </c>
-      <c r="CI28" s="27">
+      <c r="CI28" s="26">
         <v>11.869001815650885</v>
       </c>
-      <c r="CJ28" s="27">
+      <c r="CJ28" s="26">
         <v>1084.8413776855873</v>
       </c>
-      <c r="CK28" s="27">
+      <c r="CK28" s="26">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="27">
+      <c r="CL28" s="26">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="27">
+      <c r="CM28" s="26">
         <v>809.44314838159949</v>
       </c>
-      <c r="CN28" s="27">
+      <c r="CN28" s="26">
         <v>52.072454557178339</v>
       </c>
-      <c r="CO28" s="27">
+      <c r="CO28" s="26">
         <v>14.196752864451399</v>
       </c>
-      <c r="CP28" s="27">
-        <v>23.740871602603111</v>
-      </c>
-      <c r="CQ28" s="9"/>
+      <c r="CP28" s="26">
+        <v>23.447549724681419</v>
+      </c>
+      <c r="CQ28" s="26">
+        <v>7.2774926011315166</v>
+      </c>
       <c r="CR28" s="9"/>
       <c r="CS28" s="9"/>
       <c r="CT28" s="9"/>
@@ -7294,46 +7332,48 @@
       <c r="CC29" s="11">
         <v>25032.979233196886</v>
       </c>
-      <c r="CD29" s="27">
+      <c r="CD29" s="26">
         <v>10370.839139537815</v>
       </c>
-      <c r="CE29" s="27">
+      <c r="CE29" s="26">
         <v>2628.170361397219</v>
       </c>
-      <c r="CF29" s="27">
+      <c r="CF29" s="26">
         <v>2367.3802494111937</v>
       </c>
-      <c r="CG29" s="27">
+      <c r="CG29" s="26">
         <v>6343.2135165614418</v>
       </c>
-      <c r="CH29" s="27">
+      <c r="CH29" s="26">
         <v>1497.2602288694948</v>
       </c>
-      <c r="CI29" s="27">
+      <c r="CI29" s="26">
         <v>7148.4708343216016</v>
       </c>
-      <c r="CJ29" s="27">
+      <c r="CJ29" s="26">
         <v>2560.2614048595551</v>
       </c>
-      <c r="CK29" s="27">
+      <c r="CK29" s="26">
         <v>18605.757285374431</v>
       </c>
-      <c r="CL29" s="27">
+      <c r="CL29" s="26">
         <v>16475.704881461341</v>
       </c>
-      <c r="CM29" s="27">
+      <c r="CM29" s="26">
         <v>10090.867252894068</v>
       </c>
-      <c r="CN29" s="27">
+      <c r="CN29" s="26">
         <v>5730.9727403743063</v>
       </c>
-      <c r="CO29" s="27">
+      <c r="CO29" s="26">
         <v>5830.960525499645</v>
       </c>
-      <c r="CP29" s="27">
-        <v>8389.0378876940722</v>
-      </c>
-      <c r="CQ29" s="9"/>
+      <c r="CP29" s="26">
+        <v>8386.4712676988675</v>
+      </c>
+      <c r="CQ29" s="26">
+        <v>13984.740269297765</v>
+      </c>
       <c r="CR29" s="9"/>
       <c r="CS29" s="9"/>
       <c r="CT29" s="9"/>
@@ -7636,46 +7676,48 @@
       <c r="CC30" s="11">
         <v>3084.2080026184885</v>
       </c>
-      <c r="CD30" s="27">
+      <c r="CD30" s="26">
         <v>1293.6545588855734</v>
       </c>
-      <c r="CE30" s="27">
+      <c r="CE30" s="26">
         <v>3685.9752644555124</v>
       </c>
-      <c r="CF30" s="27">
+      <c r="CF30" s="26">
         <v>687.28619614433512</v>
       </c>
-      <c r="CG30" s="27">
+      <c r="CG30" s="26">
         <v>833.24156870696106</v>
       </c>
-      <c r="CH30" s="27">
+      <c r="CH30" s="26">
         <v>7430.907666844415</v>
       </c>
-      <c r="CI30" s="27">
+      <c r="CI30" s="26">
         <v>1264.3649966663711</v>
       </c>
-      <c r="CJ30" s="27">
+      <c r="CJ30" s="26">
         <v>842.94768014896374</v>
       </c>
-      <c r="CK30" s="27">
+      <c r="CK30" s="26">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="27">
+      <c r="CL30" s="26">
         <v>9503.5949913393943</v>
       </c>
-      <c r="CM30" s="27">
+      <c r="CM30" s="26">
         <v>12231.734996038442</v>
       </c>
-      <c r="CN30" s="27">
+      <c r="CN30" s="26">
         <v>5961.5095030239891</v>
       </c>
-      <c r="CO30" s="27">
+      <c r="CO30" s="26">
         <v>4919.8046337282212</v>
       </c>
-      <c r="CP30" s="27">
-        <v>6497.7195412353212</v>
-      </c>
-      <c r="CQ30" s="9"/>
+      <c r="CP30" s="26">
+        <v>7183.9417479875801</v>
+      </c>
+      <c r="CQ30" s="26">
+        <v>11564.964110027129</v>
+      </c>
       <c r="CR30" s="9"/>
       <c r="CS30" s="9"/>
       <c r="CT30" s="9"/>
@@ -7978,46 +8020,48 @@
       <c r="CC31" s="8">
         <v>64843.153637740761</v>
       </c>
-      <c r="CD31" s="26">
+      <c r="CD31" s="25">
         <v>56968.148167112049</v>
       </c>
-      <c r="CE31" s="26">
+      <c r="CE31" s="25">
         <v>31372.286100939084</v>
       </c>
-      <c r="CF31" s="26">
+      <c r="CF31" s="25">
         <v>47774.285411181161</v>
       </c>
-      <c r="CG31" s="26">
+      <c r="CG31" s="25">
         <v>49754.685381672272</v>
       </c>
-      <c r="CH31" s="26">
+      <c r="CH31" s="25">
         <v>55882.667298804212</v>
       </c>
-      <c r="CI31" s="26">
+      <c r="CI31" s="25">
         <v>53257.033949077559</v>
       </c>
-      <c r="CJ31" s="26">
+      <c r="CJ31" s="25">
         <v>52182.435820240171</v>
       </c>
-      <c r="CK31" s="26">
+      <c r="CK31" s="25">
         <v>56618.734335055386</v>
       </c>
-      <c r="CL31" s="26">
+      <c r="CL31" s="25">
         <v>63028.405007964611</v>
       </c>
-      <c r="CM31" s="26">
+      <c r="CM31" s="25">
         <v>60068.699385092288</v>
       </c>
-      <c r="CN31" s="26">
+      <c r="CN31" s="25">
         <v>55866.361734870035</v>
       </c>
-      <c r="CO31" s="26">
+      <c r="CO31" s="25">
         <v>65979.141165391193</v>
       </c>
-      <c r="CP31" s="26">
-        <v>72592.562949587154</v>
-      </c>
-      <c r="CQ31" s="9"/>
+      <c r="CP31" s="25">
+        <v>72424.990032967427</v>
+      </c>
+      <c r="CQ31" s="25">
+        <v>62964.00869298364</v>
+      </c>
       <c r="CR31" s="9"/>
       <c r="CS31" s="9"/>
       <c r="CT31" s="9"/>
@@ -8320,46 +8364,48 @@
       <c r="CC32" s="11">
         <v>4828.2357672779408</v>
       </c>
-      <c r="CD32" s="27">
+      <c r="CD32" s="26">
         <v>3875.5583215915608</v>
       </c>
-      <c r="CE32" s="27">
+      <c r="CE32" s="26">
         <v>2043.15590494915</v>
       </c>
-      <c r="CF32" s="27">
+      <c r="CF32" s="26">
         <v>6592.0903751852566</v>
       </c>
-      <c r="CG32" s="27">
+      <c r="CG32" s="26">
         <v>6337.9232329612496</v>
       </c>
-      <c r="CH32" s="27">
+      <c r="CH32" s="26">
         <v>4629.4723582643337</v>
       </c>
-      <c r="CI32" s="27">
+      <c r="CI32" s="26">
         <v>4871.2828242139421</v>
       </c>
-      <c r="CJ32" s="27">
+      <c r="CJ32" s="26">
         <v>4992.9407309126091</v>
       </c>
-      <c r="CK32" s="27">
+      <c r="CK32" s="26">
         <v>4754.4583843286655</v>
       </c>
-      <c r="CL32" s="27">
+      <c r="CL32" s="26">
         <v>4946.0125478368736</v>
       </c>
-      <c r="CM32" s="27">
+      <c r="CM32" s="26">
         <v>4558.1344266621727</v>
       </c>
-      <c r="CN32" s="27">
+      <c r="CN32" s="26">
         <v>5415.7208863220503</v>
       </c>
-      <c r="CO32" s="27">
+      <c r="CO32" s="26">
         <v>7911.8538094047499</v>
       </c>
-      <c r="CP32" s="27">
-        <v>6588.1262298645042</v>
-      </c>
-      <c r="CQ32" s="9"/>
+      <c r="CP32" s="26">
+        <v>6271.040959243328</v>
+      </c>
+      <c r="CQ32" s="26">
+        <v>5138.8423567576565</v>
+      </c>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
@@ -8662,46 +8708,48 @@
       <c r="CC33" s="11">
         <v>10053.307604264743</v>
       </c>
-      <c r="CD33" s="27">
+      <c r="CD33" s="26">
         <v>10052.102769221423</v>
       </c>
-      <c r="CE33" s="27">
+      <c r="CE33" s="26">
         <v>4294.8472066823952</v>
       </c>
-      <c r="CF33" s="27">
+      <c r="CF33" s="26">
         <v>7284.2591576335853</v>
       </c>
-      <c r="CG33" s="27">
+      <c r="CG33" s="26">
         <v>7451.0501716481922</v>
       </c>
-      <c r="CH33" s="27">
+      <c r="CH33" s="26">
         <v>9675.1654595471864</v>
       </c>
-      <c r="CI33" s="27">
+      <c r="CI33" s="26">
         <v>8518.395418097376</v>
       </c>
-      <c r="CJ33" s="27">
+      <c r="CJ33" s="26">
         <v>7918.363814997253</v>
       </c>
-      <c r="CK33" s="27">
+      <c r="CK33" s="26">
         <v>9007.1005952231462</v>
       </c>
-      <c r="CL33" s="27">
+      <c r="CL33" s="26">
         <v>11030.811579910269</v>
       </c>
-      <c r="CM33" s="27">
+      <c r="CM33" s="26">
         <v>8910.1965268858348</v>
       </c>
-      <c r="CN33" s="27">
+      <c r="CN33" s="26">
         <v>7613.3793142308796</v>
       </c>
-      <c r="CO33" s="27">
+      <c r="CO33" s="26">
         <v>9786.3948381134542</v>
       </c>
-      <c r="CP33" s="27">
-        <v>11972.942409443569</v>
-      </c>
-      <c r="CQ33" s="9"/>
+      <c r="CP33" s="26">
+        <v>11860.696074000352</v>
+      </c>
+      <c r="CQ33" s="26">
+        <v>11087.24403722116</v>
+      </c>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
@@ -9004,46 +9052,48 @@
       <c r="CC34" s="11">
         <v>36693.240667690006</v>
       </c>
-      <c r="CD34" s="27">
+      <c r="CD34" s="26">
         <v>28804.845341170574</v>
       </c>
-      <c r="CE34" s="27">
+      <c r="CE34" s="26">
         <v>18100.371484198375</v>
       </c>
-      <c r="CF34" s="27">
+      <c r="CF34" s="26">
         <v>25186.565409951341</v>
       </c>
-      <c r="CG34" s="27">
+      <c r="CG34" s="26">
         <v>25905.479426830389</v>
       </c>
-      <c r="CH34" s="27">
+      <c r="CH34" s="26">
         <v>24937.567907376462</v>
       </c>
-      <c r="CI34" s="27">
+      <c r="CI34" s="26">
         <v>25086.026023829567</v>
       </c>
-      <c r="CJ34" s="27">
+      <c r="CJ34" s="26">
         <v>30296.855767724148</v>
       </c>
-      <c r="CK34" s="27">
+      <c r="CK34" s="26">
         <v>32169.896577255146</v>
       </c>
-      <c r="CL34" s="27">
+      <c r="CL34" s="26">
         <v>32076.122314555869</v>
       </c>
-      <c r="CM34" s="27">
+      <c r="CM34" s="26">
         <v>30017.749583969504</v>
       </c>
-      <c r="CN34" s="27">
+      <c r="CN34" s="26">
         <v>32432.988608214935</v>
       </c>
-      <c r="CO34" s="27">
+      <c r="CO34" s="26">
         <v>36801.157003883302</v>
       </c>
-      <c r="CP34" s="27">
-        <v>36620.269881575805</v>
-      </c>
-      <c r="CQ34" s="9"/>
+      <c r="CP34" s="26">
+        <v>36669.526836383608</v>
+      </c>
+      <c r="CQ34" s="26">
+        <v>30894.140204637835</v>
+      </c>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
@@ -9346,46 +9396,48 @@
       <c r="CC35" s="11">
         <v>13268.369598508074</v>
       </c>
-      <c r="CD35" s="27">
+      <c r="CD35" s="26">
         <v>14235.641735128489</v>
       </c>
-      <c r="CE35" s="27">
+      <c r="CE35" s="26">
         <v>6933.911505109164</v>
       </c>
-      <c r="CF35" s="27">
+      <c r="CF35" s="26">
         <v>8711.3704684109798</v>
       </c>
-      <c r="CG35" s="27">
+      <c r="CG35" s="26">
         <v>10060.232550232438</v>
       </c>
-      <c r="CH35" s="27">
+      <c r="CH35" s="26">
         <v>16640.46157361623</v>
       </c>
-      <c r="CI35" s="27">
+      <c r="CI35" s="26">
         <v>14781.329682936674</v>
       </c>
-      <c r="CJ35" s="27">
+      <c r="CJ35" s="26">
         <v>8974.27550660616</v>
       </c>
-      <c r="CK35" s="27">
+      <c r="CK35" s="26">
         <v>10687.278778248432</v>
       </c>
-      <c r="CL35" s="27">
+      <c r="CL35" s="26">
         <v>14975.458565661596</v>
       </c>
-      <c r="CM35" s="27">
+      <c r="CM35" s="26">
         <v>16582.61884757478</v>
       </c>
-      <c r="CN35" s="27">
+      <c r="CN35" s="26">
         <v>10404.272926102172</v>
       </c>
-      <c r="CO35" s="27">
+      <c r="CO35" s="26">
         <v>11479.735513989688</v>
       </c>
-      <c r="CP35" s="27">
-        <v>17411.224428703285</v>
-      </c>
-      <c r="CQ35" s="9"/>
+      <c r="CP35" s="26">
+        <v>17623.726163340136</v>
+      </c>
+      <c r="CQ35" s="26">
+        <v>15843.78209436699</v>
+      </c>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
@@ -9878,9 +9930,11 @@
         <v>346980.37885974388</v>
       </c>
       <c r="CP37" s="13">
-        <v>394236.55060987279</v>
-      </c>
-      <c r="CQ37" s="9"/>
+        <v>396159.36763982545</v>
+      </c>
+      <c r="CQ37" s="13">
+        <v>358761.01739298116</v>
+      </c>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
@@ -10034,6 +10088,7 @@
       <c r="CN38" s="14"/>
       <c r="CO38" s="14"/>
       <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -10398,126 +10453,126 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="29">
+      <c r="B50" s="27">
         <v>2000</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29">
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27">
         <v>2001</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29">
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27">
         <v>2002</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29">
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27">
         <v>2003</v>
       </c>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29">
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27">
         <v>2004</v>
       </c>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29">
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27">
         <v>2005</v>
       </c>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29">
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27">
         <v>2006</v>
       </c>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29">
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27">
         <v>2007</v>
       </c>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29">
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="27">
         <v>2008</v>
       </c>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="29"/>
-      <c r="AL50" s="29">
+      <c r="AI50" s="27"/>
+      <c r="AJ50" s="27"/>
+      <c r="AK50" s="27"/>
+      <c r="AL50" s="27">
         <v>2009</v>
       </c>
-      <c r="AM50" s="29"/>
-      <c r="AN50" s="29"/>
-      <c r="AO50" s="29"/>
-      <c r="AP50" s="29">
+      <c r="AM50" s="27"/>
+      <c r="AN50" s="27"/>
+      <c r="AO50" s="27"/>
+      <c r="AP50" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="29"/>
-      <c r="AR50" s="29"/>
-      <c r="AS50" s="29"/>
-      <c r="AT50" s="29">
+      <c r="AQ50" s="27"/>
+      <c r="AR50" s="27"/>
+      <c r="AS50" s="27"/>
+      <c r="AT50" s="27">
         <v>2011</v>
       </c>
-      <c r="AU50" s="29"/>
-      <c r="AV50" s="29"/>
-      <c r="AW50" s="29"/>
-      <c r="AX50" s="29">
+      <c r="AU50" s="27"/>
+      <c r="AV50" s="27"/>
+      <c r="AW50" s="27"/>
+      <c r="AX50" s="27">
         <v>2012</v>
       </c>
-      <c r="AY50" s="29"/>
-      <c r="AZ50" s="29"/>
-      <c r="BA50" s="29"/>
-      <c r="BB50" s="29">
+      <c r="AY50" s="27"/>
+      <c r="AZ50" s="27"/>
+      <c r="BA50" s="27"/>
+      <c r="BB50" s="27">
         <v>2013</v>
       </c>
-      <c r="BC50" s="29"/>
-      <c r="BD50" s="29"/>
-      <c r="BE50" s="29"/>
-      <c r="BF50" s="29">
+      <c r="BC50" s="27"/>
+      <c r="BD50" s="27"/>
+      <c r="BE50" s="27"/>
+      <c r="BF50" s="27">
         <v>2014</v>
       </c>
-      <c r="BG50" s="29"/>
-      <c r="BH50" s="29"/>
-      <c r="BI50" s="29"/>
-      <c r="BJ50" s="29">
+      <c r="BG50" s="27"/>
+      <c r="BH50" s="27"/>
+      <c r="BI50" s="27"/>
+      <c r="BJ50" s="27">
         <v>2015</v>
       </c>
-      <c r="BK50" s="29"/>
-      <c r="BL50" s="29"/>
-      <c r="BM50" s="29"/>
-      <c r="BN50" s="29">
+      <c r="BK50" s="27"/>
+      <c r="BL50" s="27"/>
+      <c r="BM50" s="27"/>
+      <c r="BN50" s="27">
         <v>2016</v>
       </c>
-      <c r="BO50" s="29"/>
-      <c r="BP50" s="29"/>
-      <c r="BQ50" s="29"/>
-      <c r="BR50" s="29">
+      <c r="BO50" s="27"/>
+      <c r="BP50" s="27"/>
+      <c r="BQ50" s="27"/>
+      <c r="BR50" s="27">
         <v>2017</v>
       </c>
-      <c r="BS50" s="29"/>
-      <c r="BT50" s="29"/>
-      <c r="BU50" s="29"/>
-      <c r="BV50" s="29">
+      <c r="BS50" s="27"/>
+      <c r="BT50" s="27"/>
+      <c r="BU50" s="27"/>
+      <c r="BV50" s="27">
         <v>2018</v>
       </c>
-      <c r="BW50" s="29"/>
-      <c r="BX50" s="29"/>
-      <c r="BY50" s="29"/>
-      <c r="BZ50" s="29">
+      <c r="BW50" s="27"/>
+      <c r="BX50" s="27"/>
+      <c r="BY50" s="27"/>
+      <c r="BZ50" s="27">
         <v>2019</v>
       </c>
-      <c r="CA50" s="29"/>
-      <c r="CB50" s="29"/>
-      <c r="CC50" s="29"/>
+      <c r="CA50" s="27"/>
+      <c r="CB50" s="27"/>
+      <c r="CC50" s="27"/>
       <c r="CD50" s="28">
         <v>2020</v>
       </c>
@@ -10536,9 +10591,10 @@
       <c r="CM50" s="28"/>
       <c r="CN50" s="28"/>
       <c r="CO50" s="28"/>
-      <c r="CP50" s="25">
+      <c r="CP50" s="28">
         <v>2023</v>
       </c>
+      <c r="CQ50" s="29"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -10822,6 +10878,9 @@
       </c>
       <c r="CP51" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ51" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11071,46 +11130,48 @@
       <c r="CC53" s="8">
         <v>67838.233165777361</v>
       </c>
-      <c r="CD53" s="26">
+      <c r="CD53" s="25">
         <v>50239.675317973553</v>
       </c>
-      <c r="CE53" s="26">
+      <c r="CE53" s="25">
         <v>16928.771901072421</v>
       </c>
-      <c r="CF53" s="26">
+      <c r="CF53" s="25">
         <v>48645.403591511364</v>
       </c>
-      <c r="CG53" s="26">
+      <c r="CG53" s="25">
         <v>60932.38878891943</v>
       </c>
-      <c r="CH53" s="26">
+      <c r="CH53" s="25">
         <v>57497.277933965343</v>
       </c>
-      <c r="CI53" s="26">
+      <c r="CI53" s="25">
         <v>31323.575236437566</v>
       </c>
-      <c r="CJ53" s="26">
+      <c r="CJ53" s="25">
         <v>49929.843626102702</v>
       </c>
-      <c r="CK53" s="26">
+      <c r="CK53" s="25">
         <v>66501.113999105699</v>
       </c>
-      <c r="CL53" s="26">
+      <c r="CL53" s="25">
         <v>56154.713753790973</v>
       </c>
-      <c r="CM53" s="26">
+      <c r="CM53" s="25">
         <v>29638.055496577312</v>
       </c>
-      <c r="CN53" s="26">
+      <c r="CN53" s="25">
         <v>44070.998157212263</v>
       </c>
-      <c r="CO53" s="26">
+      <c r="CO53" s="25">
         <v>56031.668160503337</v>
       </c>
-      <c r="CP53" s="26">
-        <v>52751.873585768495</v>
-      </c>
-      <c r="CQ53" s="9"/>
+      <c r="CP53" s="25">
+        <v>52710.183979320689</v>
+      </c>
+      <c r="CQ53" s="25">
+        <v>31595.581441974275</v>
+      </c>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
@@ -11413,46 +11474,48 @@
       <c r="CC54" s="11">
         <v>4115.3167912525578</v>
       </c>
-      <c r="CD54" s="27">
+      <c r="CD54" s="26">
         <v>2874.7685783389529</v>
       </c>
-      <c r="CE54" s="27">
+      <c r="CE54" s="26">
         <v>560.35514235516735</v>
       </c>
-      <c r="CF54" s="27">
+      <c r="CF54" s="26">
         <v>3404.4750370093252</v>
       </c>
-      <c r="CG54" s="27">
+      <c r="CG54" s="26">
         <v>7130.9722902154635</v>
       </c>
-      <c r="CH54" s="27">
+      <c r="CH54" s="26">
         <v>5600.9219872312169</v>
       </c>
-      <c r="CI54" s="27">
+      <c r="CI54" s="26">
         <v>1438.7839865321641</v>
       </c>
-      <c r="CJ54" s="27">
+      <c r="CJ54" s="26">
         <v>5287.8745894518452</v>
       </c>
-      <c r="CK54" s="27">
+      <c r="CK54" s="26">
         <v>6129.6291090860987</v>
       </c>
-      <c r="CL54" s="27">
+      <c r="CL54" s="26">
         <v>2255.5424858344413</v>
       </c>
-      <c r="CM54" s="27">
+      <c r="CM54" s="26">
         <v>761.78762771609752</v>
       </c>
-      <c r="CN54" s="27">
+      <c r="CN54" s="26">
         <v>2999.4154859962432</v>
       </c>
-      <c r="CO54" s="27">
+      <c r="CO54" s="26">
         <v>3372.240102179047</v>
       </c>
-      <c r="CP54" s="27">
-        <v>2404.3856789257093</v>
-      </c>
-      <c r="CQ54" s="9"/>
+      <c r="CP54" s="26">
+        <v>2401.6215119713047</v>
+      </c>
+      <c r="CQ54" s="26">
+        <v>1005.5336091900527</v>
+      </c>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
@@ -11755,46 +11818,48 @@
       <c r="CC55" s="11">
         <v>15504.255936530148</v>
       </c>
-      <c r="CD55" s="27">
+      <c r="CD55" s="26">
         <v>9143.2892937880388</v>
       </c>
-      <c r="CE55" s="27">
+      <c r="CE55" s="26">
         <v>2006.7096295569518</v>
       </c>
-      <c r="CF55" s="27">
+      <c r="CF55" s="26">
         <v>7022.9265712486576</v>
       </c>
-      <c r="CG55" s="27">
+      <c r="CG55" s="26">
         <v>7667.9773528194155</v>
       </c>
-      <c r="CH55" s="27">
+      <c r="CH55" s="26">
         <v>6625.8824658828635</v>
       </c>
-      <c r="CI55" s="27">
+      <c r="CI55" s="26">
         <v>3692.6777096467895</v>
       </c>
-      <c r="CJ55" s="27">
+      <c r="CJ55" s="26">
         <v>11008.634640329734</v>
       </c>
-      <c r="CK55" s="27">
+      <c r="CK55" s="26">
         <v>15915.381302443891</v>
       </c>
-      <c r="CL55" s="27">
+      <c r="CL55" s="26">
         <v>8408.0505623100962</v>
       </c>
-      <c r="CM55" s="27">
+      <c r="CM55" s="26">
         <v>2989.8761972432139</v>
       </c>
-      <c r="CN55" s="27">
+      <c r="CN55" s="26">
         <v>10506.725266714966</v>
       </c>
-      <c r="CO55" s="27">
+      <c r="CO55" s="26">
         <v>14787.444383062755</v>
       </c>
-      <c r="CP55" s="27">
-        <v>10179.119480804186</v>
-      </c>
-      <c r="CQ55" s="9"/>
+      <c r="CP55" s="26">
+        <v>10213.999950128204</v>
+      </c>
+      <c r="CQ55" s="26">
+        <v>3771.9036142162508</v>
+      </c>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
@@ -12097,46 +12162,48 @@
       <c r="CC56" s="11">
         <v>1281.7265717204041</v>
       </c>
-      <c r="CD56" s="27">
+      <c r="CD56" s="26">
         <v>630.99332277046256</v>
       </c>
-      <c r="CE56" s="27">
+      <c r="CE56" s="26">
         <v>221.08453146539054</v>
       </c>
-      <c r="CF56" s="27">
+      <c r="CF56" s="26">
         <v>703.2270674878198</v>
       </c>
-      <c r="CG56" s="27">
+      <c r="CG56" s="26">
         <v>691.87648960265778</v>
       </c>
-      <c r="CH56" s="27">
+      <c r="CH56" s="26">
         <v>473.3029479679642</v>
       </c>
-      <c r="CI56" s="27">
+      <c r="CI56" s="26">
         <v>267.53804781545307</v>
       </c>
-      <c r="CJ56" s="27">
+      <c r="CJ56" s="26">
         <v>641.3529785427736</v>
       </c>
-      <c r="CK56" s="27">
+      <c r="CK56" s="26">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="27">
+      <c r="CL56" s="26">
         <v>600.76004171803925</v>
       </c>
-      <c r="CM56" s="27">
+      <c r="CM56" s="26">
         <v>307.35573573461693</v>
       </c>
-      <c r="CN56" s="27">
+      <c r="CN56" s="26">
         <v>749.36964626741485</v>
       </c>
-      <c r="CO56" s="27">
+      <c r="CO56" s="26">
         <v>1031.6152468033449</v>
       </c>
-      <c r="CP56" s="27">
-        <v>612.04758901668424</v>
-      </c>
-      <c r="CQ56" s="9"/>
+      <c r="CP56" s="26">
+        <v>618.0088338624106</v>
+      </c>
+      <c r="CQ56" s="26">
+        <v>336.52277953731925</v>
+      </c>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
@@ -12439,46 +12506,48 @@
       <c r="CC57" s="11">
         <v>1733.8450547903228</v>
       </c>
-      <c r="CD57" s="27">
+      <c r="CD57" s="26">
         <v>1444.3536752609032</v>
       </c>
-      <c r="CE57" s="27">
+      <c r="CE57" s="26">
         <v>148.89709950843277</v>
       </c>
-      <c r="CF57" s="27">
+      <c r="CF57" s="26">
         <v>605.96846933127472</v>
       </c>
-      <c r="CG57" s="27">
+      <c r="CG57" s="26">
         <v>651.07923614981655</v>
       </c>
-      <c r="CH57" s="27">
+      <c r="CH57" s="26">
         <v>406.22240502996158</v>
       </c>
-      <c r="CI57" s="27">
+      <c r="CI57" s="26">
         <v>147.01161595594914</v>
       </c>
-      <c r="CJ57" s="27">
+      <c r="CJ57" s="26">
         <v>543.57042942091243</v>
       </c>
-      <c r="CK57" s="27">
+      <c r="CK57" s="26">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="27">
+      <c r="CL57" s="26">
         <v>315.9892621347073</v>
       </c>
-      <c r="CM57" s="27">
+      <c r="CM57" s="26">
         <v>135.75089907223924</v>
       </c>
-      <c r="CN57" s="27">
+      <c r="CN57" s="26">
         <v>566.65243540056349</v>
       </c>
-      <c r="CO57" s="27">
+      <c r="CO57" s="26">
         <v>695.47966316221414</v>
       </c>
-      <c r="CP57" s="27">
-        <v>320.25437811110606</v>
-      </c>
-      <c r="CQ57" s="9"/>
+      <c r="CP57" s="26">
+        <v>312.06515855576055</v>
+      </c>
+      <c r="CQ57" s="26">
+        <v>161.85899328859762</v>
+      </c>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
@@ -12781,46 +12850,48 @@
       <c r="CC58" s="11">
         <v>5869.8547929290116</v>
       </c>
-      <c r="CD58" s="27">
+      <c r="CD58" s="26">
         <v>3169.4542720698264</v>
       </c>
-      <c r="CE58" s="27">
+      <c r="CE58" s="26">
         <v>917.05077557288269</v>
       </c>
-      <c r="CF58" s="27">
+      <c r="CF58" s="26">
         <v>3494.9079809409272</v>
       </c>
-      <c r="CG58" s="27">
+      <c r="CG58" s="26">
         <v>3571.5903656964251</v>
       </c>
-      <c r="CH58" s="27">
+      <c r="CH58" s="26">
         <v>2666.3770787656299</v>
       </c>
-      <c r="CI58" s="27">
+      <c r="CI58" s="26">
         <v>1257.8562647708736</v>
       </c>
-      <c r="CJ58" s="27">
+      <c r="CJ58" s="26">
         <v>3851.3221670743064</v>
       </c>
-      <c r="CK58" s="27">
+      <c r="CK58" s="26">
         <v>4130.5758037628557</v>
       </c>
-      <c r="CL58" s="27">
+      <c r="CL58" s="26">
         <v>3204.4563803884889</v>
       </c>
-      <c r="CM58" s="27">
+      <c r="CM58" s="26">
         <v>918.75784814555163</v>
       </c>
-      <c r="CN58" s="27">
+      <c r="CN58" s="26">
         <v>2559.1367349216134</v>
       </c>
-      <c r="CO58" s="27">
+      <c r="CO58" s="26">
         <v>3858.5461515750085</v>
       </c>
-      <c r="CP58" s="27">
-        <v>3152.1902095737173</v>
-      </c>
-      <c r="CQ58" s="9"/>
+      <c r="CP58" s="26">
+        <v>3148.4194001786659</v>
+      </c>
+      <c r="CQ58" s="26">
+        <v>816.99045446935588</v>
+      </c>
       <c r="CR58" s="9"/>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
@@ -13123,46 +13194,48 @@
       <c r="CC59" s="11">
         <v>23030.859414708728</v>
       </c>
-      <c r="CD59" s="27">
+      <c r="CD59" s="26">
         <v>25042.410097119708</v>
       </c>
-      <c r="CE59" s="27">
+      <c r="CE59" s="26">
         <v>10528.838461103242</v>
       </c>
-      <c r="CF59" s="27">
+      <c r="CF59" s="26">
         <v>24121.143877735092</v>
       </c>
-      <c r="CG59" s="27">
+      <c r="CG59" s="26">
         <v>29667.403902739352</v>
       </c>
-      <c r="CH59" s="27">
+      <c r="CH59" s="26">
         <v>31929.98273486695</v>
       </c>
-      <c r="CI59" s="27">
+      <c r="CI59" s="26">
         <v>20559.329156847001</v>
       </c>
-      <c r="CJ59" s="27">
+      <c r="CJ59" s="26">
         <v>19012.432254788313</v>
       </c>
-      <c r="CK59" s="27">
+      <c r="CK59" s="26">
         <v>25266.562529179133</v>
       </c>
-      <c r="CL59" s="27">
+      <c r="CL59" s="26">
         <v>32174.972377867358</v>
       </c>
-      <c r="CM59" s="27">
+      <c r="CM59" s="26">
         <v>20827.657775890431</v>
       </c>
-      <c r="CN59" s="27">
+      <c r="CN59" s="26">
         <v>17372.194231779744</v>
       </c>
-      <c r="CO59" s="27">
+      <c r="CO59" s="26">
         <v>20273.651609490433</v>
       </c>
-      <c r="CP59" s="27">
-        <v>28168.125409716966</v>
-      </c>
-      <c r="CQ59" s="9"/>
+      <c r="CP59" s="26">
+        <v>28142.286494046617</v>
+      </c>
+      <c r="CQ59" s="26">
+        <v>22753.818190751306</v>
+      </c>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
@@ -13465,46 +13538,48 @@
       <c r="CC60" s="11">
         <v>2607.1295810034371</v>
       </c>
-      <c r="CD60" s="27">
+      <c r="CD60" s="26">
         <v>1455.5527541574111</v>
       </c>
-      <c r="CE60" s="27">
+      <c r="CE60" s="26">
         <v>251.41604601939764</v>
       </c>
-      <c r="CF60" s="27">
+      <c r="CF60" s="26">
         <v>2330.2139951874751</v>
       </c>
-      <c r="CG60" s="27">
+      <c r="CG60" s="26">
         <v>1744.240915485444</v>
       </c>
-      <c r="CH60" s="27">
+      <c r="CH60" s="26">
         <v>1617.1403252363307</v>
       </c>
-      <c r="CI60" s="27">
+      <c r="CI60" s="26">
         <v>234.71788193473378</v>
       </c>
-      <c r="CJ60" s="27">
+      <c r="CJ60" s="26">
         <v>1142.7065235060725</v>
       </c>
-      <c r="CK60" s="27">
+      <c r="CK60" s="26">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="27">
+      <c r="CL60" s="26">
         <v>676.66490891228193</v>
       </c>
-      <c r="CM60" s="27">
+      <c r="CM60" s="26">
         <v>245.91054324460896</v>
       </c>
-      <c r="CN60" s="27">
+      <c r="CN60" s="26">
         <v>465.89826695183149</v>
       </c>
-      <c r="CO60" s="27">
+      <c r="CO60" s="26">
         <v>1500.6906029608699</v>
       </c>
-      <c r="CP60" s="27">
-        <v>969.22937005160054</v>
-      </c>
-      <c r="CQ60" s="9"/>
+      <c r="CP60" s="26">
+        <v>964.57969406049801</v>
+      </c>
+      <c r="CQ60" s="26">
+        <v>368.78840906314548</v>
+      </c>
       <c r="CR60" s="9"/>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
@@ -13807,46 +13882,48 @@
       <c r="CC61" s="11">
         <v>13695.24502284275</v>
       </c>
-      <c r="CD61" s="27">
+      <c r="CD61" s="26">
         <v>6478.8533244682494</v>
       </c>
-      <c r="CE61" s="27">
+      <c r="CE61" s="26">
         <v>2294.4202154909563</v>
       </c>
-      <c r="CF61" s="27">
+      <c r="CF61" s="26">
         <v>6962.5405925707892</v>
       </c>
-      <c r="CG61" s="27">
+      <c r="CG61" s="26">
         <v>9807.2482362108458</v>
       </c>
-      <c r="CH61" s="27">
+      <c r="CH61" s="26">
         <v>8177.4479889844215</v>
       </c>
-      <c r="CI61" s="27">
+      <c r="CI61" s="26">
         <v>3725.6605729346029</v>
       </c>
-      <c r="CJ61" s="27">
+      <c r="CJ61" s="26">
         <v>8441.950042988743</v>
       </c>
-      <c r="CK61" s="27">
+      <c r="CK61" s="26">
         <v>11614.015268939091</v>
       </c>
-      <c r="CL61" s="27">
+      <c r="CL61" s="26">
         <v>8518.2777346255643</v>
       </c>
-      <c r="CM61" s="27">
+      <c r="CM61" s="26">
         <v>3450.9588695305492</v>
       </c>
-      <c r="CN61" s="27">
+      <c r="CN61" s="26">
         <v>8851.6060891798861</v>
       </c>
-      <c r="CO61" s="27">
+      <c r="CO61" s="26">
         <v>10512.00040126967</v>
       </c>
-      <c r="CP61" s="27">
-        <v>6946.521469568529</v>
-      </c>
-      <c r="CQ61" s="9"/>
+      <c r="CP61" s="26">
+        <v>6909.2029365172293</v>
+      </c>
+      <c r="CQ61" s="26">
+        <v>2380.1653914582448</v>
+      </c>
       <c r="CR61" s="9"/>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
@@ -14149,46 +14226,48 @@
       <c r="CC62" s="8">
         <v>56315.19254051325</v>
       </c>
-      <c r="CD62" s="26">
+      <c r="CD62" s="25">
         <v>55972.521910948439</v>
       </c>
-      <c r="CE62" s="26">
+      <c r="CE62" s="25">
         <v>28494.151594504365</v>
       </c>
-      <c r="CF62" s="26">
+      <c r="CF62" s="25">
         <v>51511.816076563227</v>
       </c>
-      <c r="CG62" s="26">
+      <c r="CG62" s="25">
         <v>47957.312665351434</v>
       </c>
-      <c r="CH62" s="26">
+      <c r="CH62" s="25">
         <v>50085.654836019021</v>
       </c>
-      <c r="CI62" s="26">
+      <c r="CI62" s="25">
         <v>36848.909362602986</v>
       </c>
-      <c r="CJ62" s="26">
+      <c r="CJ62" s="25">
         <v>51742.796780164448</v>
       </c>
-      <c r="CK62" s="26">
+      <c r="CK62" s="25">
         <v>46705.322297328654</v>
       </c>
-      <c r="CL62" s="26">
+      <c r="CL62" s="25">
         <v>51650.780454455409</v>
       </c>
-      <c r="CM62" s="26">
+      <c r="CM62" s="25">
         <v>39125.984742142908</v>
       </c>
-      <c r="CN62" s="26">
+      <c r="CN62" s="25">
         <v>56586.709007992948</v>
       </c>
-      <c r="CO62" s="26">
+      <c r="CO62" s="25">
         <v>56067.993441713836</v>
       </c>
-      <c r="CP62" s="26">
-        <v>56859.052474338692</v>
-      </c>
-      <c r="CQ62" s="9"/>
+      <c r="CP62" s="25">
+        <v>55679.212777617635</v>
+      </c>
+      <c r="CQ62" s="25">
+        <v>44432.189083493206</v>
+      </c>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
@@ -14491,46 +14570,48 @@
       <c r="CC63" s="11">
         <v>11174.602440083234</v>
       </c>
-      <c r="CD63" s="27">
+      <c r="CD63" s="26">
         <v>9962.2516261467681</v>
       </c>
-      <c r="CE63" s="27">
+      <c r="CE63" s="26">
         <v>3711.2234840640081</v>
       </c>
-      <c r="CF63" s="27">
+      <c r="CF63" s="26">
         <v>9635.0499889738639</v>
       </c>
-      <c r="CG63" s="27">
+      <c r="CG63" s="26">
         <v>9039.5310042375459</v>
       </c>
-      <c r="CH63" s="27">
+      <c r="CH63" s="26">
         <v>7751.8467998535325</v>
       </c>
-      <c r="CI63" s="27">
+      <c r="CI63" s="26">
         <v>6385.9979876114521</v>
       </c>
-      <c r="CJ63" s="27">
+      <c r="CJ63" s="26">
         <v>8591.6930906538582</v>
       </c>
-      <c r="CK63" s="27">
+      <c r="CK63" s="26">
         <v>9430.989368750772</v>
       </c>
-      <c r="CL63" s="27">
+      <c r="CL63" s="26">
         <v>8582.2273201229564</v>
       </c>
-      <c r="CM63" s="27">
+      <c r="CM63" s="26">
         <v>7559.8027061805496</v>
       </c>
-      <c r="CN63" s="27">
+      <c r="CN63" s="26">
         <v>8906.7130198622981</v>
       </c>
-      <c r="CO63" s="27">
+      <c r="CO63" s="26">
         <v>10075.422094021213</v>
       </c>
-      <c r="CP63" s="27">
-        <v>9711.1145084640284</v>
-      </c>
-      <c r="CQ63" s="9"/>
+      <c r="CP63" s="26">
+        <v>8716.7180491799463</v>
+      </c>
+      <c r="CQ63" s="26">
+        <v>7397.6220331063678</v>
+      </c>
       <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
@@ -14833,46 +14914,48 @@
       <c r="CC64" s="11">
         <v>7007.7323216419964</v>
       </c>
-      <c r="CD64" s="27">
+      <c r="CD64" s="26">
         <v>4847.1480105097844</v>
       </c>
-      <c r="CE64" s="27">
+      <c r="CE64" s="26">
         <v>2698.7686699210794</v>
       </c>
-      <c r="CF64" s="27">
+      <c r="CF64" s="26">
         <v>5834.3901406858122</v>
       </c>
-      <c r="CG64" s="27">
+      <c r="CG64" s="26">
         <v>5571.7040831643517</v>
       </c>
-      <c r="CH64" s="27">
+      <c r="CH64" s="26">
         <v>4679.9666922809211</v>
       </c>
-      <c r="CI64" s="27">
+      <c r="CI64" s="26">
         <v>4540.8727748265028</v>
       </c>
-      <c r="CJ64" s="27">
+      <c r="CJ64" s="26">
         <v>5910.8235295231971</v>
       </c>
-      <c r="CK64" s="27">
+      <c r="CK64" s="26">
         <v>5310.7853843801568</v>
       </c>
-      <c r="CL64" s="27">
+      <c r="CL64" s="26">
         <v>5016.6063703503914</v>
       </c>
-      <c r="CM64" s="27">
+      <c r="CM64" s="26">
         <v>4414.6571227442855</v>
       </c>
-      <c r="CN64" s="27">
+      <c r="CN64" s="26">
         <v>5110.3185291011832</v>
       </c>
-      <c r="CO64" s="27">
+      <c r="CO64" s="26">
         <v>6081.7158841339769</v>
       </c>
-      <c r="CP64" s="27">
-        <v>6005.5530831006954</v>
-      </c>
-      <c r="CQ64" s="9"/>
+      <c r="CP64" s="26">
+        <v>5772.0177901495945</v>
+      </c>
+      <c r="CQ64" s="26">
+        <v>4920.5125777830981</v>
+      </c>
       <c r="CR64" s="9"/>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
@@ -15175,46 +15258,48 @@
       <c r="CC65" s="11">
         <v>17412.311476692419</v>
       </c>
-      <c r="CD65" s="27">
+      <c r="CD65" s="26">
         <v>12140.290196134662</v>
       </c>
-      <c r="CE65" s="27">
+      <c r="CE65" s="26">
         <v>10354.796112717839</v>
       </c>
-      <c r="CF65" s="27">
+      <c r="CF65" s="26">
         <v>16277.148739046301</v>
       </c>
-      <c r="CG65" s="27">
+      <c r="CG65" s="26">
         <v>15669.733701611432</v>
       </c>
-      <c r="CH65" s="27">
+      <c r="CH65" s="26">
         <v>13859.661927260095</v>
       </c>
-      <c r="CI65" s="27">
+      <c r="CI65" s="26">
         <v>10657.041270969266</v>
       </c>
-      <c r="CJ65" s="27">
+      <c r="CJ65" s="26">
         <v>16592.355872405959</v>
       </c>
-      <c r="CK65" s="27">
+      <c r="CK65" s="26">
         <v>11572.478347706488</v>
       </c>
-      <c r="CL65" s="27">
+      <c r="CL65" s="26">
         <v>12080.331688711036</v>
       </c>
-      <c r="CM65" s="27">
+      <c r="CM65" s="26">
         <v>10268.807240061369</v>
       </c>
-      <c r="CN65" s="27">
+      <c r="CN65" s="26">
         <v>22622.069017464219</v>
       </c>
-      <c r="CO65" s="27">
+      <c r="CO65" s="26">
         <v>17622.800505163432</v>
       </c>
-      <c r="CP65" s="27">
-        <v>19721.303062130064</v>
-      </c>
-      <c r="CQ65" s="9"/>
+      <c r="CP65" s="26">
+        <v>19726.217194771685</v>
+      </c>
+      <c r="CQ65" s="26">
+        <v>17358.230901576204</v>
+      </c>
       <c r="CR65" s="9"/>
       <c r="CS65" s="9"/>
       <c r="CT65" s="9"/>
@@ -15517,46 +15602,48 @@
       <c r="CC66" s="11">
         <v>20720.546302095605</v>
       </c>
-      <c r="CD66" s="27">
+      <c r="CD66" s="26">
         <v>29022.832078157226</v>
       </c>
-      <c r="CE66" s="27">
+      <c r="CE66" s="26">
         <v>11729.363327801439</v>
       </c>
-      <c r="CF66" s="27">
+      <c r="CF66" s="26">
         <v>19765.22720785725</v>
       </c>
-      <c r="CG66" s="27">
+      <c r="CG66" s="26">
         <v>17676.343876338105</v>
       </c>
-      <c r="CH66" s="27">
+      <c r="CH66" s="26">
         <v>23794.179416624473</v>
       </c>
-      <c r="CI66" s="27">
+      <c r="CI66" s="26">
         <v>15264.997329195765</v>
       </c>
-      <c r="CJ66" s="27">
+      <c r="CJ66" s="26">
         <v>20647.924287581434</v>
       </c>
-      <c r="CK66" s="27">
+      <c r="CK66" s="26">
         <v>20391.069196491237</v>
       </c>
-      <c r="CL66" s="27">
+      <c r="CL66" s="26">
         <v>25971.615075271024</v>
       </c>
-      <c r="CM66" s="27">
+      <c r="CM66" s="26">
         <v>16882.717673156701</v>
       </c>
-      <c r="CN66" s="27">
+      <c r="CN66" s="26">
         <v>19947.608441565244</v>
       </c>
-      <c r="CO66" s="27">
+      <c r="CO66" s="26">
         <v>22288.054958395216</v>
       </c>
-      <c r="CP66" s="27">
-        <v>21421.081820643903</v>
-      </c>
-      <c r="CQ66" s="9"/>
+      <c r="CP66" s="26">
+        <v>21464.25974351641</v>
+      </c>
+      <c r="CQ66" s="26">
+        <v>14755.823571027538</v>
+      </c>
       <c r="CR66" s="9"/>
       <c r="CS66" s="9"/>
       <c r="CT66" s="9"/>
@@ -15859,46 +15946,48 @@
       <c r="CC67" s="8">
         <v>191527.62967591008</v>
       </c>
-      <c r="CD67" s="26">
+      <c r="CD67" s="25">
         <v>184278.38882881685</v>
       </c>
-      <c r="CE67" s="26">
+      <c r="CE67" s="25">
         <v>46194.673983231238</v>
       </c>
-      <c r="CF67" s="26">
+      <c r="CF67" s="25">
         <v>98079.033016766698</v>
       </c>
-      <c r="CG67" s="26">
+      <c r="CG67" s="25">
         <v>125921.35182434383</v>
       </c>
-      <c r="CH67" s="26">
+      <c r="CH67" s="25">
         <v>141674.87945895732</v>
       </c>
-      <c r="CI67" s="26">
+      <c r="CI67" s="25">
         <v>121291.88850983036</v>
       </c>
-      <c r="CJ67" s="26">
+      <c r="CJ67" s="25">
         <v>106957.92605904682</v>
       </c>
-      <c r="CK67" s="26">
+      <c r="CK67" s="25">
         <v>133226.1081310109</v>
       </c>
-      <c r="CL67" s="26">
+      <c r="CL67" s="25">
         <v>168162.18916375461</v>
       </c>
-      <c r="CM67" s="26">
+      <c r="CM67" s="25">
         <v>149325.20766128573</v>
       </c>
-      <c r="CN67" s="26">
+      <c r="CN67" s="25">
         <v>143019.61658559294</v>
       </c>
-      <c r="CO67" s="26">
+      <c r="CO67" s="25">
         <v>142924.89404160064</v>
       </c>
-      <c r="CP67" s="26">
-        <v>186569.96005495355</v>
-      </c>
-      <c r="CQ67" s="9"/>
+      <c r="CP67" s="25">
+        <v>190875.98694110301</v>
+      </c>
+      <c r="CQ67" s="25">
+        <v>174510.7710270542</v>
+      </c>
       <c r="CR67" s="9"/>
       <c r="CS67" s="9"/>
       <c r="CT67" s="9"/>
@@ -16201,46 +16290,48 @@
       <c r="CC68" s="11">
         <v>164267.2443091225</v>
       </c>
-      <c r="CD68" s="27">
+      <c r="CD68" s="26">
         <v>172432.13705236468</v>
       </c>
-      <c r="CE68" s="27">
+      <c r="CE68" s="26">
         <v>38743.529280477451</v>
       </c>
-      <c r="CF68" s="27">
+      <c r="CF68" s="26">
         <v>95072.703002154769</v>
       </c>
-      <c r="CG68" s="27">
+      <c r="CG68" s="26">
         <v>117678.66511679393</v>
       </c>
-      <c r="CH68" s="27">
+      <c r="CH68" s="26">
         <v>131262.61758192381</v>
       </c>
-      <c r="CI68" s="27">
+      <c r="CI68" s="26">
         <v>111174.17958287749</v>
       </c>
-      <c r="CJ68" s="27">
+      <c r="CJ68" s="26">
         <v>102756.31605911693</v>
       </c>
-      <c r="CK68" s="27">
+      <c r="CK68" s="26">
         <v>111732.1547250369</v>
       </c>
-      <c r="CL68" s="27">
+      <c r="CL68" s="26">
         <v>144262.06824617967</v>
       </c>
-      <c r="CM68" s="27">
+      <c r="CM68" s="26">
         <v>124718.82459777835</v>
       </c>
-      <c r="CN68" s="27">
+      <c r="CN68" s="26">
         <v>133565.47408270379</v>
       </c>
-      <c r="CO68" s="27">
+      <c r="CO68" s="26">
         <v>134371.06288107892</v>
       </c>
-      <c r="CP68" s="27">
-        <v>175185.04638612099</v>
-      </c>
-      <c r="CQ68" s="9"/>
+      <c r="CP68" s="26">
+        <v>178812.36912742438</v>
+      </c>
+      <c r="CQ68" s="26">
+        <v>150806.24147189377</v>
+      </c>
       <c r="CR68" s="9"/>
       <c r="CS68" s="9"/>
       <c r="CT68" s="9"/>
@@ -16543,46 +16634,48 @@
       <c r="CC69" s="11">
         <v>459.79202753077828</v>
       </c>
-      <c r="CD69" s="27">
+      <c r="CD69" s="26">
         <v>952.98271794050095</v>
       </c>
-      <c r="CE69" s="27">
+      <c r="CE69" s="26">
         <v>29.272083586243703</v>
       </c>
-      <c r="CF69" s="27">
+      <c r="CF69" s="26">
         <v>4.5194223851542255</v>
       </c>
-      <c r="CG69" s="27">
+      <c r="CG69" s="26">
         <v>1061.7041018078767</v>
       </c>
-      <c r="CH69" s="27">
+      <c r="CH69" s="26">
         <v>2365.546443771198</v>
       </c>
-      <c r="CI69" s="27">
+      <c r="CI69" s="26">
         <v>16.953855530203825</v>
       </c>
-      <c r="CJ69" s="27">
+      <c r="CJ69" s="26">
         <v>1028.3586195366536</v>
       </c>
-      <c r="CK69" s="27">
+      <c r="CK69" s="26">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="27">
+      <c r="CL69" s="26">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="27">
+      <c r="CM69" s="26">
         <v>1027.1601309639761</v>
       </c>
-      <c r="CN69" s="27">
+      <c r="CN69" s="26">
         <v>43.601481617741278</v>
       </c>
-      <c r="CO69" s="27">
+      <c r="CO69" s="26">
         <v>10.702323039936408</v>
       </c>
-      <c r="CP69" s="27">
-        <v>21.357945641717045</v>
-      </c>
-      <c r="CQ69" s="9"/>
+      <c r="CP69" s="26">
+        <v>21.094065156238536</v>
+      </c>
+      <c r="CQ69" s="26">
+        <v>8.0454637426021041</v>
+      </c>
       <c r="CR69" s="9"/>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
@@ -16885,46 +16978,48 @@
       <c r="CC70" s="11">
         <v>23764.576767983799</v>
       </c>
-      <c r="CD70" s="27">
+      <c r="CD70" s="26">
         <v>9531.7450136771768</v>
       </c>
-      <c r="CE70" s="27">
+      <c r="CE70" s="26">
         <v>3101.2573632063081</v>
       </c>
-      <c r="CF70" s="27">
+      <c r="CF70" s="26">
         <v>2188.8977689507574</v>
       </c>
-      <c r="CG70" s="27">
+      <c r="CG70" s="26">
         <v>6285.6721429445324</v>
       </c>
-      <c r="CH70" s="27">
+      <c r="CH70" s="26">
         <v>1448.1343027412383</v>
       </c>
-      <c r="CI70" s="27">
+      <c r="CI70" s="26">
         <v>8591.4789033688157</v>
       </c>
-      <c r="CJ70" s="27">
+      <c r="CJ70" s="26">
         <v>2239.9525460572077</v>
       </c>
-      <c r="CK70" s="27">
+      <c r="CK70" s="26">
         <v>17011.446015645281</v>
       </c>
-      <c r="CL70" s="27">
+      <c r="CL70" s="26">
         <v>14282.981918436471</v>
       </c>
-      <c r="CM70" s="27">
+      <c r="CM70" s="26">
         <v>10605.219253329671</v>
       </c>
-      <c r="CN70" s="27">
+      <c r="CN70" s="26">
         <v>4425.0765158350632</v>
       </c>
-      <c r="CO70" s="27">
+      <c r="CO70" s="26">
         <v>4548.9454215379565</v>
       </c>
-      <c r="CP70" s="27">
-        <v>6520.2329298288932</v>
-      </c>
-      <c r="CQ70" s="9"/>
+      <c r="CP70" s="26">
+        <v>6518.2776765650078</v>
+      </c>
+      <c r="CQ70" s="26">
+        <v>13008.571135262413</v>
+      </c>
       <c r="CR70" s="9"/>
       <c r="CS70" s="9"/>
       <c r="CT70" s="9"/>
@@ -17227,46 +17322,48 @@
       <c r="CC71" s="11">
         <v>3036.0165712730122</v>
       </c>
-      <c r="CD71" s="27">
+      <c r="CD71" s="26">
         <v>1361.5240448345121</v>
       </c>
-      <c r="CE71" s="27">
+      <c r="CE71" s="26">
         <v>4320.615255961241</v>
       </c>
-      <c r="CF71" s="27">
+      <c r="CF71" s="26">
         <v>812.91282327601562</v>
       </c>
-      <c r="CG71" s="27">
+      <c r="CG71" s="26">
         <v>895.31046279750126</v>
       </c>
-      <c r="CH71" s="27">
+      <c r="CH71" s="26">
         <v>6598.5811305210827</v>
       </c>
-      <c r="CI71" s="27">
+      <c r="CI71" s="26">
         <v>1509.2761680538472</v>
       </c>
-      <c r="CJ71" s="27">
+      <c r="CJ71" s="26">
         <v>933.29883433603959</v>
       </c>
-      <c r="CK71" s="27">
+      <c r="CK71" s="26">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="27">
+      <c r="CL71" s="26">
         <v>7863.217407514896</v>
       </c>
-      <c r="CM71" s="27">
+      <c r="CM71" s="26">
         <v>12974.003679213727</v>
       </c>
-      <c r="CN71" s="27">
+      <c r="CN71" s="26">
         <v>4985.4645054363455</v>
       </c>
-      <c r="CO71" s="27">
+      <c r="CO71" s="26">
         <v>3994.183415943829</v>
       </c>
-      <c r="CP71" s="27">
-        <v>4843.322793361971</v>
-      </c>
-      <c r="CQ71" s="9"/>
+      <c r="CP71" s="26">
+        <v>5524.2460719573783</v>
+      </c>
+      <c r="CQ71" s="26">
+        <v>10687.912956155435</v>
+      </c>
       <c r="CR71" s="9"/>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
@@ -17569,46 +17666,48 @@
       <c r="CC72" s="8">
         <v>46926.418462670881</v>
       </c>
-      <c r="CD72" s="26">
+      <c r="CD72" s="25">
         <v>54013.870202664657</v>
       </c>
-      <c r="CE72" s="26">
+      <c r="CE72" s="25">
         <v>45180.568325188258</v>
       </c>
-      <c r="CF72" s="26">
+      <c r="CF72" s="25">
         <v>48170.814279113154</v>
       </c>
-      <c r="CG72" s="26">
+      <c r="CG72" s="25">
         <v>39056.838552932059</v>
       </c>
-      <c r="CH72" s="26">
+      <c r="CH72" s="25">
         <v>57266.814811437871</v>
       </c>
-      <c r="CI72" s="26">
+      <c r="CI72" s="25">
         <v>77389.540482248194</v>
       </c>
-      <c r="CJ72" s="26">
+      <c r="CJ72" s="25">
         <v>50921.678456479567</v>
       </c>
-      <c r="CK72" s="26">
+      <c r="CK72" s="25">
         <v>41639.598916049588</v>
       </c>
-      <c r="CL72" s="26">
+      <c r="CL72" s="25">
         <v>58252.704456362095</v>
       </c>
-      <c r="CM72" s="26">
+      <c r="CM72" s="25">
         <v>75840.342753787176</v>
       </c>
-      <c r="CN72" s="26">
+      <c r="CN72" s="25">
         <v>46761.425515761221</v>
       </c>
-      <c r="CO72" s="26">
+      <c r="CO72" s="25">
         <v>40473.680125573919</v>
       </c>
-      <c r="CP72" s="26">
-        <v>62077.638969694832</v>
-      </c>
-      <c r="CQ72" s="9"/>
+      <c r="CP72" s="25">
+        <v>61892.060525129433</v>
+      </c>
+      <c r="CQ72" s="25">
+        <v>75082.441802087036</v>
+      </c>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
@@ -17911,46 +18010,48 @@
       <c r="CC73" s="11">
         <v>2473.4036698730979</v>
       </c>
-      <c r="CD73" s="27">
+      <c r="CD73" s="26">
         <v>3809.8833581161307</v>
       </c>
-      <c r="CE73" s="27">
+      <c r="CE73" s="26">
         <v>3345.940600506096</v>
       </c>
-      <c r="CF73" s="27">
+      <c r="CF73" s="26">
         <v>5324.7342699955352</v>
       </c>
-      <c r="CG73" s="27">
+      <c r="CG73" s="26">
         <v>3399.7361086404549</v>
       </c>
-      <c r="CH73" s="27">
+      <c r="CH73" s="26">
         <v>4859.84384366423</v>
       </c>
-      <c r="CI73" s="27">
+      <c r="CI73" s="26">
         <v>8344.0413587195926</v>
       </c>
-      <c r="CJ73" s="27">
+      <c r="CJ73" s="26">
         <v>3853.6409002357977</v>
       </c>
-      <c r="CK73" s="27">
+      <c r="CK73" s="26">
         <v>2429.9848975317846</v>
       </c>
-      <c r="CL73" s="27">
+      <c r="CL73" s="26">
         <v>4674.898316141449</v>
       </c>
-      <c r="CM73" s="27">
+      <c r="CM73" s="26">
         <v>6619.0926723367329</v>
       </c>
-      <c r="CN73" s="27">
+      <c r="CN73" s="26">
         <v>3588.7495327824981</v>
       </c>
-      <c r="CO73" s="27">
+      <c r="CO73" s="26">
         <v>3532.2953208946096</v>
       </c>
-      <c r="CP73" s="27">
-        <v>5989.868693875289</v>
-      </c>
-      <c r="CQ73" s="9"/>
+      <c r="CP73" s="26">
+        <v>5701.245947698877</v>
+      </c>
+      <c r="CQ73" s="26">
+        <v>7443.264132683822</v>
+      </c>
       <c r="CR73" s="9"/>
       <c r="CS73" s="9"/>
       <c r="CT73" s="9"/>
@@ -18253,46 +18354,48 @@
       <c r="CC74" s="11">
         <v>7333.7287226061126</v>
       </c>
-      <c r="CD74" s="27">
+      <c r="CD74" s="26">
         <v>10642.698961026426</v>
       </c>
-      <c r="CE74" s="27">
+      <c r="CE74" s="26">
         <v>6438.0983623157754</v>
       </c>
-      <c r="CF74" s="27">
+      <c r="CF74" s="26">
         <v>7214.57205480423</v>
       </c>
-      <c r="CG74" s="27">
+      <c r="CG74" s="26">
         <v>6270.4666236352759</v>
       </c>
-      <c r="CH74" s="27">
+      <c r="CH74" s="26">
         <v>11208.929355532269</v>
       </c>
-      <c r="CI74" s="27">
+      <c r="CI74" s="26">
         <v>13170.546986311489</v>
       </c>
-      <c r="CJ74" s="27">
+      <c r="CJ74" s="26">
         <v>7162.8336538555195</v>
       </c>
-      <c r="CK74" s="27">
+      <c r="CK74" s="26">
         <v>6962.3940114241905</v>
       </c>
-      <c r="CL74" s="27">
+      <c r="CL74" s="26">
         <v>11436.226301684081</v>
       </c>
-      <c r="CM74" s="27">
+      <c r="CM74" s="26">
         <v>11835.610697793134</v>
       </c>
-      <c r="CN74" s="27">
+      <c r="CN74" s="26">
         <v>5928.4090057165213</v>
       </c>
-      <c r="CO74" s="27">
+      <c r="CO74" s="26">
         <v>6736.9173027245652</v>
       </c>
-      <c r="CP74" s="27">
-        <v>11846.421162198778</v>
-      </c>
-      <c r="CQ74" s="9"/>
+      <c r="CP74" s="26">
+        <v>11733.531839083225</v>
+      </c>
+      <c r="CQ74" s="26">
+        <v>15403.669214488291</v>
+      </c>
       <c r="CR74" s="9"/>
       <c r="CS74" s="9"/>
       <c r="CT74" s="9"/>
@@ -18595,46 +18698,48 @@
       <c r="CC75" s="11">
         <v>25186.201016870127</v>
       </c>
-      <c r="CD75" s="27">
+      <c r="CD75" s="26">
         <v>25230.34730149166</v>
       </c>
-      <c r="CE75" s="27">
+      <c r="CE75" s="26">
         <v>27926.851978897888</v>
       </c>
-      <c r="CF75" s="27">
+      <c r="CF75" s="26">
         <v>25979.030605281343</v>
       </c>
-      <c r="CG75" s="27">
+      <c r="CG75" s="26">
         <v>19075.895362324642</v>
       </c>
-      <c r="CH75" s="27">
+      <c r="CH75" s="26">
         <v>23206.762776409687</v>
       </c>
-      <c r="CI75" s="27">
+      <c r="CI75" s="26">
         <v>39725.081466035612</v>
       </c>
-      <c r="CJ75" s="27">
+      <c r="CJ75" s="26">
         <v>30484.388651556059</v>
       </c>
-      <c r="CK75" s="27">
+      <c r="CK75" s="26">
         <v>22366.618873448107</v>
       </c>
-      <c r="CL75" s="27">
+      <c r="CL75" s="26">
         <v>27593.149041112589</v>
       </c>
-      <c r="CM75" s="27">
+      <c r="CM75" s="26">
         <v>41840.004529580372</v>
       </c>
-      <c r="CN75" s="27">
+      <c r="CN75" s="26">
         <v>28062.285735924481</v>
       </c>
-      <c r="CO75" s="27">
+      <c r="CO75" s="26">
         <v>21552.231177120528</v>
       </c>
-      <c r="CP75" s="27">
-        <v>29115.154315517386</v>
-      </c>
-      <c r="CQ75" s="9"/>
+      <c r="CP75" s="26">
+        <v>29147.335292074571</v>
+      </c>
+      <c r="CQ75" s="26">
+        <v>38538.978248192259</v>
+      </c>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
@@ -18937,46 +19042,48 @@
       <c r="CC76" s="11">
         <v>11933.085053321542</v>
       </c>
-      <c r="CD76" s="27">
+      <c r="CD76" s="26">
         <v>14330.940582030438</v>
       </c>
-      <c r="CE76" s="27">
+      <c r="CE76" s="26">
         <v>7469.6773834685027</v>
       </c>
-      <c r="CF76" s="27">
+      <c r="CF76" s="26">
         <v>9652.4773490320404</v>
       </c>
-      <c r="CG76" s="27">
+      <c r="CG76" s="26">
         <v>10310.740458331686</v>
       </c>
-      <c r="CH76" s="27">
+      <c r="CH76" s="26">
         <v>17991.278835831683</v>
       </c>
-      <c r="CI76" s="27">
+      <c r="CI76" s="26">
         <v>16149.870671181499</v>
       </c>
-      <c r="CJ76" s="27">
+      <c r="CJ76" s="26">
         <v>9420.8152508321909</v>
       </c>
-      <c r="CK76" s="27">
+      <c r="CK76" s="26">
         <v>9880.6011336455031</v>
       </c>
-      <c r="CL76" s="27">
+      <c r="CL76" s="26">
         <v>14548.430797423976</v>
       </c>
-      <c r="CM76" s="27">
+      <c r="CM76" s="26">
         <v>15545.634854076947</v>
       </c>
-      <c r="CN76" s="27">
+      <c r="CN76" s="26">
         <v>9181.9812413377222</v>
       </c>
-      <c r="CO76" s="27">
+      <c r="CO76" s="26">
         <v>8652.2363248342153</v>
       </c>
-      <c r="CP76" s="27">
-        <v>15126.194798103381</v>
-      </c>
-      <c r="CQ76" s="9"/>
+      <c r="CP76" s="26">
+        <v>15309.947446272756</v>
+      </c>
+      <c r="CQ76" s="26">
+        <v>13696.530206722666</v>
+      </c>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
@@ -19469,9 +19576,11 @@
         <v>295498.23576939176</v>
       </c>
       <c r="CP78" s="13">
-        <v>358258.52508475562</v>
-      </c>
-      <c r="CQ78" s="9"/>
+        <v>361157.44422317075</v>
+      </c>
+      <c r="CQ78" s="13">
+        <v>325620.98335460876</v>
+      </c>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
@@ -19625,6 +19734,7 @@
       <c r="CN79" s="14"/>
       <c r="CO79" s="14"/>
       <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -19994,123 +20104,123 @@
       <c r="B91" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
       <c r="N91" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
       <c r="R91" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
+      <c r="U91" s="27"/>
       <c r="V91" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="29"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
+      <c r="W91" s="27"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="27"/>
       <c r="Z91" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
       <c r="AD91" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="29"/>
-      <c r="AF91" s="29"/>
-      <c r="AG91" s="29"/>
+      <c r="AE91" s="27"/>
+      <c r="AF91" s="27"/>
+      <c r="AG91" s="27"/>
       <c r="AH91" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="29"/>
-      <c r="AJ91" s="29"/>
-      <c r="AK91" s="29"/>
+      <c r="AI91" s="27"/>
+      <c r="AJ91" s="27"/>
+      <c r="AK91" s="27"/>
       <c r="AL91" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="29"/>
-      <c r="AN91" s="29"/>
-      <c r="AO91" s="29"/>
+      <c r="AM91" s="27"/>
+      <c r="AN91" s="27"/>
+      <c r="AO91" s="27"/>
       <c r="AP91" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="29"/>
-      <c r="AR91" s="29"/>
-      <c r="AS91" s="29"/>
+      <c r="AQ91" s="27"/>
+      <c r="AR91" s="27"/>
+      <c r="AS91" s="27"/>
       <c r="AT91" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="29"/>
-      <c r="AV91" s="29"/>
-      <c r="AW91" s="29"/>
+      <c r="AU91" s="27"/>
+      <c r="AV91" s="27"/>
+      <c r="AW91" s="27"/>
       <c r="AX91" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="29"/>
-      <c r="AZ91" s="29"/>
-      <c r="BA91" s="29"/>
+      <c r="AY91" s="27"/>
+      <c r="AZ91" s="27"/>
+      <c r="BA91" s="27"/>
       <c r="BB91" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="29"/>
-      <c r="BD91" s="29"/>
-      <c r="BE91" s="29"/>
+      <c r="BC91" s="27"/>
+      <c r="BD91" s="27"/>
+      <c r="BE91" s="27"/>
       <c r="BF91" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="29"/>
-      <c r="BH91" s="29"/>
-      <c r="BI91" s="29"/>
+      <c r="BG91" s="27"/>
+      <c r="BH91" s="27"/>
+      <c r="BI91" s="27"/>
       <c r="BJ91" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="29"/>
-      <c r="BL91" s="29"/>
-      <c r="BM91" s="29"/>
+      <c r="BK91" s="27"/>
+      <c r="BL91" s="27"/>
+      <c r="BM91" s="27"/>
       <c r="BN91" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="29"/>
-      <c r="BP91" s="29"/>
-      <c r="BQ91" s="29"/>
+      <c r="BO91" s="27"/>
+      <c r="BP91" s="27"/>
+      <c r="BQ91" s="27"/>
       <c r="BR91" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="29"/>
-      <c r="BT91" s="29"/>
-      <c r="BU91" s="29"/>
+      <c r="BS91" s="27"/>
+      <c r="BT91" s="27"/>
+      <c r="BU91" s="27"/>
       <c r="BV91" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="29"/>
-      <c r="BX91" s="29"/>
-      <c r="BY91" s="29"/>
+      <c r="BW91" s="27"/>
+      <c r="BX91" s="27"/>
+      <c r="BY91" s="27"/>
       <c r="BZ91" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="29"/>
-      <c r="CB91" s="29"/>
-      <c r="CC91" s="29"/>
+      <c r="CA91" s="27"/>
+      <c r="CB91" s="27"/>
+      <c r="CC91" s="27"/>
       <c r="CD91" s="28" t="s">
         <v>70</v>
       </c>
@@ -20123,13 +20233,16 @@
       <c r="CI91" s="28"/>
       <c r="CJ91" s="28"/>
       <c r="CK91" s="28"/>
-      <c r="CL91" s="25" t="s">
+      <c r="CL91" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="CM91" s="25"/>
-      <c r="CN91" s="25"/>
-      <c r="CO91" s="25"/>
-      <c r="CP91" s="25"/>
+      <c r="CM91" s="28">
+        <v>0</v>
+      </c>
+      <c r="CN91" s="28"/>
+      <c r="CO91" s="28"/>
+      <c r="CP91" s="28"/>
+      <c r="CQ91" s="29"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20402,10 +20515,13 @@
       <c r="CL92" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM92" s="17"/>
+      <c r="CM92" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="CN92" s="17"/>
       <c r="CO92" s="17"/>
       <c r="CP92" s="17"/>
+      <c r="CQ92" s="17"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -20679,13 +20795,15 @@
         <v>-3.1423218361062197</v>
       </c>
       <c r="CL94" s="18">
-        <v>3.0170906722682673</v>
-      </c>
-      <c r="CM94" s="18"/>
+        <v>2.7367618247031515</v>
+      </c>
+      <c r="CM94" s="18">
+        <v>4.3890106906778072</v>
+      </c>
       <c r="CN94" s="18"/>
       <c r="CO94" s="18"/>
       <c r="CP94" s="18"/>
-      <c r="CQ94" s="9"/>
+      <c r="CQ94" s="18"/>
       <c r="CR94" s="9"/>
       <c r="CS94" s="9"/>
       <c r="CT94" s="9"/>
@@ -21008,13 +21126,15 @@
         <v>-33.890668245748373</v>
       </c>
       <c r="CL95" s="18">
-        <v>18.916413021932172</v>
-      </c>
-      <c r="CM95" s="18"/>
+        <v>18.755741887540651</v>
+      </c>
+      <c r="CM95" s="18">
+        <v>47.450826017346799</v>
+      </c>
       <c r="CN95" s="18"/>
       <c r="CO95" s="18"/>
       <c r="CP95" s="18"/>
-      <c r="CQ95" s="9"/>
+      <c r="CQ95" s="18"/>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
@@ -21337,13 +21457,15 @@
         <v>11.252850114661285</v>
       </c>
       <c r="CL96" s="18">
-        <v>35.871694984583598</v>
-      </c>
-      <c r="CM96" s="18"/>
+        <v>35.5106081488955</v>
+      </c>
+      <c r="CM96" s="18">
+        <v>41.288682315417333</v>
+      </c>
       <c r="CN96" s="18"/>
       <c r="CO96" s="18"/>
       <c r="CP96" s="18"/>
-      <c r="CQ96" s="9"/>
+      <c r="CQ96" s="18"/>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
@@ -21666,13 +21788,15 @@
         <v>22.780147339555285</v>
       </c>
       <c r="CL97" s="18">
-        <v>7.7004070956138406</v>
-      </c>
-      <c r="CM97" s="18"/>
+        <v>8.2304766771993201</v>
+      </c>
+      <c r="CM97" s="18">
+        <v>26.405399893132071</v>
+      </c>
       <c r="CN97" s="18"/>
       <c r="CO97" s="18"/>
       <c r="CP97" s="18"/>
-      <c r="CQ97" s="9"/>
+      <c r="CQ97" s="18"/>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
@@ -21995,13 +22119,15 @@
         <v>39.670564594574842</v>
       </c>
       <c r="CL98" s="18">
-        <v>11.47572768445886</v>
-      </c>
-      <c r="CM98" s="18"/>
+        <v>8.1518178866893436</v>
+      </c>
+      <c r="CM98" s="18">
+        <v>36.46950603307144</v>
+      </c>
       <c r="CN98" s="18"/>
       <c r="CO98" s="18"/>
       <c r="CP98" s="18"/>
-      <c r="CQ98" s="9"/>
+      <c r="CQ98" s="18"/>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
@@ -22324,13 +22450,15 @@
         <v>10.620130913081653</v>
       </c>
       <c r="CL99" s="18">
-        <v>9.9520358707404313</v>
-      </c>
-      <c r="CM99" s="18"/>
+        <v>9.788351734470524</v>
+      </c>
+      <c r="CM99" s="18">
+        <v>-1.8550160085652294</v>
+      </c>
       <c r="CN99" s="18"/>
       <c r="CO99" s="18"/>
       <c r="CP99" s="18"/>
-      <c r="CQ99" s="9"/>
+      <c r="CQ99" s="18"/>
       <c r="CR99" s="9"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
@@ -22653,13 +22781,15 @@
         <v>-7.2462550615598929</v>
       </c>
       <c r="CL100" s="18">
-        <v>-4.7698164777508083</v>
-      </c>
-      <c r="CM100" s="18"/>
+        <v>-4.8508969004446101</v>
+      </c>
+      <c r="CM100" s="18">
+        <v>-3.0760073881384216</v>
+      </c>
       <c r="CN100" s="18"/>
       <c r="CO100" s="18"/>
       <c r="CP100" s="18"/>
-      <c r="CQ100" s="9"/>
+      <c r="CQ100" s="18"/>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
@@ -22982,13 +23112,15 @@
         <v>-13.742990700988315</v>
       </c>
       <c r="CL101" s="18">
-        <v>59.598930121014035</v>
-      </c>
-      <c r="CM101" s="18"/>
+        <v>58.736595766537221</v>
+      </c>
+      <c r="CM101" s="18">
+        <v>71.465875656660643</v>
+      </c>
       <c r="CN101" s="18"/>
       <c r="CO101" s="18"/>
       <c r="CP101" s="18"/>
-      <c r="CQ101" s="9"/>
+      <c r="CQ101" s="18"/>
       <c r="CR101" s="9"/>
       <c r="CS101" s="9"/>
       <c r="CT101" s="9"/>
@@ -23311,13 +23443,15 @@
         <v>-0.88709604137297049</v>
       </c>
       <c r="CL102" s="18">
-        <v>-12.868718855579544</v>
-      </c>
-      <c r="CM102" s="18"/>
+        <v>-13.729043280597026</v>
+      </c>
+      <c r="CM102" s="18">
+        <v>-32.998981703524649</v>
+      </c>
       <c r="CN102" s="18"/>
       <c r="CO102" s="18"/>
       <c r="CP102" s="18"/>
-      <c r="CQ102" s="9"/>
+      <c r="CQ102" s="18"/>
       <c r="CR102" s="9"/>
       <c r="CS102" s="9"/>
       <c r="CT102" s="9"/>
@@ -23640,13 +23774,15 @@
         <v>32.975084605904556</v>
       </c>
       <c r="CL103" s="18">
-        <v>21.172596296439707</v>
-      </c>
-      <c r="CM103" s="18"/>
+        <v>19.150436000937503</v>
+      </c>
+      <c r="CM103" s="18">
+        <v>20.758808821273306</v>
+      </c>
       <c r="CN103" s="18"/>
       <c r="CO103" s="18"/>
       <c r="CP103" s="18"/>
-      <c r="CQ103" s="9"/>
+      <c r="CQ103" s="18"/>
       <c r="CR103" s="9"/>
       <c r="CS103" s="9"/>
       <c r="CT103" s="9"/>
@@ -23969,13 +24105,15 @@
         <v>19.731184714463737</v>
       </c>
       <c r="CL104" s="18">
-        <v>18.652038508159535</v>
-      </c>
-      <c r="CM104" s="18"/>
+        <v>9.1218081340804957</v>
+      </c>
+      <c r="CM104" s="18">
+        <v>8.4623668966585086</v>
+      </c>
       <c r="CN104" s="18"/>
       <c r="CO104" s="18"/>
       <c r="CP104" s="18"/>
-      <c r="CQ104" s="9"/>
+      <c r="CQ104" s="18"/>
       <c r="CR104" s="9"/>
       <c r="CS104" s="9"/>
       <c r="CT104" s="9"/>
@@ -24298,13 +24436,15 @@
         <v>33.960591444513767</v>
       </c>
       <c r="CL105" s="18">
-        <v>30.500241154271549</v>
-      </c>
-      <c r="CM105" s="18"/>
+        <v>25.916592349756385</v>
+      </c>
+      <c r="CM105" s="18">
+        <v>24.055711503699101</v>
+      </c>
       <c r="CN105" s="18"/>
       <c r="CO105" s="18"/>
       <c r="CP105" s="18"/>
-      <c r="CQ105" s="9"/>
+      <c r="CQ105" s="18"/>
       <c r="CR105" s="9"/>
       <c r="CS105" s="9"/>
       <c r="CT105" s="9"/>
@@ -24627,13 +24767,15 @@
         <v>80.427362585648609</v>
       </c>
       <c r="CL106" s="18">
-        <v>83.780418341574403</v>
-      </c>
-      <c r="CM106" s="18"/>
+        <v>83.851936764689043</v>
+      </c>
+      <c r="CM106" s="18">
+        <v>66.03875232722072</v>
+      </c>
       <c r="CN106" s="18"/>
       <c r="CO106" s="18"/>
       <c r="CP106" s="18"/>
-      <c r="CQ106" s="9"/>
+      <c r="CQ106" s="18"/>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
@@ -24956,13 +25098,15 @@
         <v>9.0861896397864683</v>
       </c>
       <c r="CL107" s="18">
-        <v>-12.35600332464432</v>
-      </c>
-      <c r="CM107" s="18"/>
+        <v>-12.162625702680913</v>
+      </c>
+      <c r="CM107" s="18">
+        <v>-4.4791757526633091</v>
+      </c>
       <c r="CN107" s="18"/>
       <c r="CO107" s="18"/>
       <c r="CP107" s="18"/>
-      <c r="CQ107" s="9"/>
+      <c r="CQ107" s="18"/>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
@@ -25285,13 +25429,15 @@
         <v>21.739786651774935</v>
       </c>
       <c r="CL108" s="18">
-        <v>16.43792404556838</v>
-      </c>
-      <c r="CM108" s="18"/>
+        <v>18.500666327261598</v>
+      </c>
+      <c r="CM108" s="18">
+        <v>26.986453225412561</v>
+      </c>
       <c r="CN108" s="18"/>
       <c r="CO108" s="18"/>
       <c r="CP108" s="18"/>
-      <c r="CQ108" s="9"/>
+      <c r="CQ108" s="18"/>
       <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
@@ -25614,13 +25760,15 @@
         <v>38.066324328804001</v>
       </c>
       <c r="CL109" s="18">
-        <v>29.190698143568682</v>
-      </c>
-      <c r="CM109" s="18"/>
+        <v>31.171443032221021</v>
+      </c>
+      <c r="CM109" s="18">
+        <v>30.101864959695035</v>
+      </c>
       <c r="CN109" s="18"/>
       <c r="CO109" s="18"/>
       <c r="CP109" s="18"/>
-      <c r="CQ109" s="9"/>
+      <c r="CQ109" s="18"/>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
@@ -25943,13 +26091,15 @@
         <v>-99.551333877680136</v>
       </c>
       <c r="CL110" s="18">
-        <v>-98.633621605042563</v>
-      </c>
-      <c r="CM110" s="18"/>
+        <v>-98.650503406328937</v>
+      </c>
+      <c r="CM110" s="20">
+        <v>-99.100926035919613</v>
+      </c>
       <c r="CN110" s="18"/>
       <c r="CO110" s="18"/>
       <c r="CP110" s="18"/>
-      <c r="CQ110" s="9"/>
+      <c r="CQ110" s="20"/>
       <c r="CR110" s="9"/>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
@@ -26271,14 +26421,16 @@
       <c r="CK111" s="18">
         <v>-68.660450439804279</v>
       </c>
-      <c r="CL111" s="18">
-        <v>-49.082373421646331</v>
-      </c>
-      <c r="CM111" s="18"/>
+      <c r="CL111" s="20">
+        <v>-49.097951632191318</v>
+      </c>
+      <c r="CM111" s="18">
+        <v>38.58809078364331</v>
+      </c>
       <c r="CN111" s="18"/>
       <c r="CO111" s="18"/>
-      <c r="CP111" s="18"/>
-      <c r="CQ111" s="9"/>
+      <c r="CP111" s="20"/>
+      <c r="CQ111" s="18"/>
       <c r="CR111" s="9"/>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
@@ -26601,13 +26753,15 @@
         <v>186.47284241674464</v>
       </c>
       <c r="CL112" s="18">
-        <v>-31.628825227120061</v>
-      </c>
-      <c r="CM112" s="18"/>
+        <v>-24.408166019971489</v>
+      </c>
+      <c r="CM112" s="18">
+        <v>-5.4511554266607618</v>
+      </c>
       <c r="CN112" s="18"/>
       <c r="CO112" s="18"/>
       <c r="CP112" s="18"/>
-      <c r="CQ112" s="9"/>
+      <c r="CQ112" s="18"/>
       <c r="CR112" s="9"/>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
@@ -26930,13 +27084,15 @@
         <v>16.532349124837879</v>
       </c>
       <c r="CL113" s="18">
-        <v>15.174361369947349</v>
-      </c>
-      <c r="CM113" s="18"/>
+        <v>14.908492486547004</v>
+      </c>
+      <c r="CM113" s="18">
+        <v>4.819996666366805</v>
+      </c>
       <c r="CN113" s="18"/>
       <c r="CO113" s="18"/>
       <c r="CP113" s="18"/>
-      <c r="CQ113" s="9"/>
+      <c r="CQ113" s="18"/>
       <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
@@ -27259,13 +27415,15 @@
         <v>66.409150524553638</v>
       </c>
       <c r="CL114" s="18">
-        <v>33.20075851295212</v>
-      </c>
-      <c r="CM114" s="18"/>
+        <v>26.789831173921158</v>
+      </c>
+      <c r="CM114" s="18">
+        <v>12.740035192878764</v>
+      </c>
       <c r="CN114" s="18"/>
       <c r="CO114" s="18"/>
       <c r="CP114" s="18"/>
-      <c r="CQ114" s="9"/>
+      <c r="CQ114" s="18"/>
       <c r="CR114" s="9"/>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
@@ -27588,13 +27746,15 @@
         <v>8.6519988830101653</v>
       </c>
       <c r="CL115" s="18">
-        <v>8.5409022056830679</v>
-      </c>
-      <c r="CM115" s="18"/>
+        <v>7.5233312442894089</v>
+      </c>
+      <c r="CM115" s="18">
+        <v>24.433215404017773</v>
+      </c>
       <c r="CN115" s="18"/>
       <c r="CO115" s="18"/>
       <c r="CP115" s="18"/>
-      <c r="CQ115" s="9"/>
+      <c r="CQ115" s="18"/>
       <c r="CR115" s="9"/>
       <c r="CS115" s="9"/>
       <c r="CT115" s="9"/>
@@ -27917,13 +28077,15 @@
         <v>14.396255255301497</v>
       </c>
       <c r="CL116" s="18">
-        <v>14.166760939672059</v>
-      </c>
-      <c r="CM116" s="18"/>
+        <v>14.32032362510131</v>
+      </c>
+      <c r="CM116" s="18">
+        <v>2.9195746943546936</v>
+      </c>
       <c r="CN116" s="18"/>
       <c r="CO116" s="18"/>
       <c r="CP116" s="18"/>
-      <c r="CQ116" s="9"/>
+      <c r="CQ116" s="18"/>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
@@ -28246,13 +28408,15 @@
         <v>7.414953349529199</v>
       </c>
       <c r="CL117" s="18">
-        <v>16.265050264483037</v>
-      </c>
-      <c r="CM117" s="18"/>
+        <v>17.684050114838954</v>
+      </c>
+      <c r="CM117" s="18">
+        <v>-4.4554889670870352</v>
+      </c>
       <c r="CN117" s="18"/>
       <c r="CO117" s="18"/>
       <c r="CP117" s="18"/>
-      <c r="CQ117" s="9"/>
+      <c r="CQ117" s="18"/>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
@@ -28723,13 +28887,15 @@
         <v>17.629840372568012</v>
       </c>
       <c r="CL119" s="23">
-        <v>14.542849635086966</v>
-      </c>
-      <c r="CM119" s="23"/>
+        <v>15.101511538953901</v>
+      </c>
+      <c r="CM119" s="23">
+        <v>17.938762708403672</v>
+      </c>
       <c r="CN119" s="23"/>
       <c r="CO119" s="23"/>
       <c r="CP119" s="23"/>
-      <c r="CQ119" s="9"/>
+      <c r="CQ119" s="23"/>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
@@ -28878,6 +29044,7 @@
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
       <c r="CP120" s="14"/>
+      <c r="CQ120" s="14"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -29218,123 +29385,123 @@
       <c r="B132" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
       <c r="F132" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
       <c r="J132" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="29"/>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
       <c r="N132" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="29"/>
-      <c r="P132" s="29"/>
-      <c r="Q132" s="29"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
       <c r="R132" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="29"/>
-      <c r="T132" s="29"/>
-      <c r="U132" s="29"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="27"/>
+      <c r="U132" s="27"/>
       <c r="V132" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="29"/>
-      <c r="X132" s="29"/>
-      <c r="Y132" s="29"/>
+      <c r="W132" s="27"/>
+      <c r="X132" s="27"/>
+      <c r="Y132" s="27"/>
       <c r="Z132" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="29"/>
-      <c r="AC132" s="29"/>
+      <c r="AA132" s="27"/>
+      <c r="AB132" s="27"/>
+      <c r="AC132" s="27"/>
       <c r="AD132" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="29"/>
-      <c r="AG132" s="29"/>
+      <c r="AE132" s="27"/>
+      <c r="AF132" s="27"/>
+      <c r="AG132" s="27"/>
       <c r="AH132" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="29"/>
-      <c r="AJ132" s="29"/>
-      <c r="AK132" s="29"/>
+      <c r="AI132" s="27"/>
+      <c r="AJ132" s="27"/>
+      <c r="AK132" s="27"/>
       <c r="AL132" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="29"/>
-      <c r="AN132" s="29"/>
-      <c r="AO132" s="29"/>
+      <c r="AM132" s="27"/>
+      <c r="AN132" s="27"/>
+      <c r="AO132" s="27"/>
       <c r="AP132" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="29"/>
-      <c r="AR132" s="29"/>
-      <c r="AS132" s="29"/>
+      <c r="AQ132" s="27"/>
+      <c r="AR132" s="27"/>
+      <c r="AS132" s="27"/>
       <c r="AT132" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="29"/>
-      <c r="AV132" s="29"/>
-      <c r="AW132" s="29"/>
+      <c r="AU132" s="27"/>
+      <c r="AV132" s="27"/>
+      <c r="AW132" s="27"/>
       <c r="AX132" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="29"/>
-      <c r="AZ132" s="29"/>
-      <c r="BA132" s="29"/>
+      <c r="AY132" s="27"/>
+      <c r="AZ132" s="27"/>
+      <c r="BA132" s="27"/>
       <c r="BB132" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="29"/>
-      <c r="BD132" s="29"/>
-      <c r="BE132" s="29"/>
+      <c r="BC132" s="27"/>
+      <c r="BD132" s="27"/>
+      <c r="BE132" s="27"/>
       <c r="BF132" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="29"/>
-      <c r="BH132" s="29"/>
-      <c r="BI132" s="29"/>
+      <c r="BG132" s="27"/>
+      <c r="BH132" s="27"/>
+      <c r="BI132" s="27"/>
       <c r="BJ132" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="29"/>
-      <c r="BL132" s="29"/>
-      <c r="BM132" s="29"/>
+      <c r="BK132" s="27"/>
+      <c r="BL132" s="27"/>
+      <c r="BM132" s="27"/>
       <c r="BN132" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="29"/>
-      <c r="BP132" s="29"/>
-      <c r="BQ132" s="29"/>
+      <c r="BO132" s="27"/>
+      <c r="BP132" s="27"/>
+      <c r="BQ132" s="27"/>
       <c r="BR132" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="29"/>
-      <c r="BT132" s="29"/>
-      <c r="BU132" s="29"/>
+      <c r="BS132" s="27"/>
+      <c r="BT132" s="27"/>
+      <c r="BU132" s="27"/>
       <c r="BV132" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="29"/>
-      <c r="BX132" s="29"/>
-      <c r="BY132" s="29"/>
+      <c r="BW132" s="27"/>
+      <c r="BX132" s="27"/>
+      <c r="BY132" s="27"/>
       <c r="BZ132" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="29"/>
-      <c r="CB132" s="29"/>
-      <c r="CC132" s="29"/>
+      <c r="CA132" s="27"/>
+      <c r="CB132" s="27"/>
+      <c r="CC132" s="27"/>
       <c r="CD132" s="28" t="s">
         <v>70</v>
       </c>
@@ -29347,13 +29514,16 @@
       <c r="CI132" s="28"/>
       <c r="CJ132" s="28"/>
       <c r="CK132" s="28"/>
-      <c r="CL132" s="25" t="s">
+      <c r="CL132" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="CM132" s="25"/>
-      <c r="CN132" s="25"/>
-      <c r="CO132" s="25"/>
-      <c r="CP132" s="25"/>
+      <c r="CM132" s="28">
+        <v>0</v>
+      </c>
+      <c r="CN132" s="28"/>
+      <c r="CO132" s="28"/>
+      <c r="CP132" s="28"/>
+      <c r="CQ132" s="29"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -29626,10 +29796,13 @@
       <c r="CL133" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM133" s="17"/>
+      <c r="CM133" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="CN133" s="17"/>
       <c r="CO133" s="17"/>
       <c r="CP133" s="17"/>
+      <c r="CQ133" s="17"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -29903,13 +30076,15 @@
         <v>-15.743263847795319</v>
       </c>
       <c r="CL135" s="18">
-        <v>-6.0597587282559289</v>
-      </c>
-      <c r="CM135" s="18"/>
+        <v>-6.1339993461149902</v>
+      </c>
+      <c r="CM135" s="18">
+        <v>6.6047718468676919</v>
+      </c>
       <c r="CN135" s="18"/>
       <c r="CO135" s="18"/>
       <c r="CP135" s="18"/>
-      <c r="CQ135" s="9"/>
+      <c r="CQ135" s="18"/>
       <c r="CR135" s="9"/>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
@@ -30232,13 +30407,15 @@
         <v>-44.984597890591893</v>
       </c>
       <c r="CL136" s="18">
-        <v>6.5989975372245482</v>
-      </c>
-      <c r="CM136" s="18"/>
+        <v>6.4764475532732604</v>
+      </c>
+      <c r="CM136" s="18">
+        <v>31.996579178468153</v>
+      </c>
       <c r="CN136" s="18"/>
       <c r="CO136" s="18"/>
       <c r="CP136" s="18"/>
-      <c r="CQ136" s="9"/>
+      <c r="CQ136" s="18"/>
       <c r="CR136" s="9"/>
       <c r="CS136" s="9"/>
       <c r="CT136" s="9"/>
@@ -30561,13 +30738,15 @@
         <v>-7.0870870005981885</v>
       </c>
       <c r="CL137" s="18">
-        <v>21.063966080711708</v>
-      </c>
-      <c r="CM137" s="18"/>
+        <v>21.478812174530091</v>
+      </c>
+      <c r="CM137" s="18">
+        <v>26.155846108079572</v>
+      </c>
       <c r="CN137" s="18"/>
       <c r="CO137" s="18"/>
       <c r="CP137" s="18"/>
-      <c r="CQ137" s="9"/>
+      <c r="CQ137" s="18"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
@@ -30890,13 +31069,15 @@
         <v>24.607617638788867</v>
       </c>
       <c r="CL138" s="18">
-        <v>1.8788778405376689</v>
-      </c>
-      <c r="CM138" s="18"/>
+        <v>2.8711616862938598</v>
+      </c>
+      <c r="CM138" s="18">
+        <v>9.4896695950669567</v>
+      </c>
       <c r="CN138" s="18"/>
       <c r="CO138" s="18"/>
       <c r="CP138" s="18"/>
-      <c r="CQ138" s="9"/>
+      <c r="CQ138" s="18"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
@@ -31219,13 +31400,15 @@
         <v>27.580786526889469</v>
       </c>
       <c r="CL139" s="18">
-        <v>1.3497661115397364</v>
-      </c>
-      <c r="CM139" s="18"/>
+        <v>-1.2418471287400621</v>
+      </c>
+      <c r="CM139" s="18">
+        <v>19.232354551453156</v>
+      </c>
       <c r="CN139" s="18"/>
       <c r="CO139" s="18"/>
       <c r="CP139" s="18"/>
-      <c r="CQ139" s="9"/>
+      <c r="CQ139" s="18"/>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
@@ -31548,13 +31731,15 @@
         <v>-6.585756202320141</v>
       </c>
       <c r="CL140" s="18">
-        <v>-1.6310464119482049</v>
-      </c>
-      <c r="CM140" s="18"/>
+        <v>-1.7487203306237262</v>
+      </c>
+      <c r="CM140" s="18">
+        <v>-11.076628502451015</v>
+      </c>
       <c r="CN140" s="18"/>
       <c r="CO140" s="18"/>
       <c r="CP140" s="18"/>
-      <c r="CQ140" s="9"/>
+      <c r="CQ140" s="18"/>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
@@ -31877,13 +32062,15 @@
         <v>-19.760942605162967</v>
       </c>
       <c r="CL141" s="18">
-        <v>-12.453303521424743</v>
-      </c>
-      <c r="CM141" s="18"/>
+        <v>-12.533611020579343</v>
+      </c>
+      <c r="CM141" s="18">
+        <v>9.2480894183432696</v>
+      </c>
       <c r="CN141" s="18"/>
       <c r="CO141" s="18"/>
       <c r="CP141" s="18"/>
-      <c r="CQ141" s="9"/>
+      <c r="CQ141" s="18"/>
       <c r="CR141" s="9"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
@@ -32206,13 +32393,15 @@
         <v>-27.570405592057696</v>
       </c>
       <c r="CL142" s="18">
-        <v>43.23623957530279</v>
-      </c>
-      <c r="CM142" s="18"/>
+        <v>42.549093555188222</v>
+      </c>
+      <c r="CM142" s="18">
+        <v>49.968522779565831</v>
+      </c>
       <c r="CN142" s="18"/>
       <c r="CO142" s="18"/>
       <c r="CP142" s="18"/>
-      <c r="CQ142" s="9"/>
+      <c r="CQ142" s="18"/>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
@@ -32535,13 +32724,15 @@
         <v>-9.4886638440771236</v>
       </c>
       <c r="CL143" s="18">
-        <v>-18.45157335816927</v>
-      </c>
-      <c r="CM143" s="18"/>
+        <v>-18.88967286858562</v>
+      </c>
+      <c r="CM143" s="18">
+        <v>-31.028868165501194</v>
+      </c>
       <c r="CN143" s="18"/>
       <c r="CO143" s="18"/>
       <c r="CP143" s="18"/>
-      <c r="CQ143" s="9"/>
+      <c r="CQ143" s="18"/>
       <c r="CR143" s="9"/>
       <c r="CS143" s="9"/>
       <c r="CT143" s="9"/>
@@ -32864,13 +33055,15 @@
         <v>20.04626171891482</v>
       </c>
       <c r="CL144" s="18">
-        <v>10.083626954051212</v>
-      </c>
-      <c r="CM144" s="18"/>
+        <v>7.7993638967651435</v>
+      </c>
+      <c r="CM144" s="18">
+        <v>13.561842280316966</v>
+      </c>
       <c r="CN144" s="18"/>
       <c r="CO144" s="18"/>
       <c r="CP144" s="18"/>
-      <c r="CQ144" s="9"/>
+      <c r="CQ144" s="18"/>
       <c r="CR144" s="9"/>
       <c r="CS144" s="9"/>
       <c r="CT144" s="9"/>
@@ -33193,13 +33386,15 @@
         <v>6.8331401942381973</v>
       </c>
       <c r="CL145" s="18">
-        <v>13.153778689759733</v>
-      </c>
-      <c r="CM145" s="18"/>
+        <v>1.567084208334208</v>
+      </c>
+      <c r="CM145" s="18">
+        <v>-2.1453029844494438</v>
+      </c>
       <c r="CN145" s="18"/>
       <c r="CO145" s="18"/>
       <c r="CP145" s="18"/>
-      <c r="CQ145" s="9"/>
+      <c r="CQ145" s="18"/>
       <c r="CR145" s="9"/>
       <c r="CS145" s="9"/>
       <c r="CT145" s="9"/>
@@ -33522,13 +33717,15 @@
         <v>14.516318095271671</v>
       </c>
       <c r="CL146" s="18">
-        <v>19.713460449982037</v>
-      </c>
-      <c r="CM146" s="18"/>
+        <v>15.058215933861291</v>
+      </c>
+      <c r="CM146" s="18">
+        <v>11.458544593025096</v>
+      </c>
       <c r="CN146" s="18"/>
       <c r="CO146" s="18"/>
       <c r="CP146" s="18"/>
-      <c r="CQ146" s="9"/>
+      <c r="CQ146" s="18"/>
       <c r="CR146" s="9"/>
       <c r="CS146" s="9"/>
       <c r="CT146" s="9"/>
@@ -33851,13 +34048,15 @@
         <v>52.281991598247743</v>
       </c>
       <c r="CL147" s="18">
-        <v>63.251337548615879</v>
-      </c>
-      <c r="CM147" s="18"/>
+        <v>63.29201633764464</v>
+      </c>
+      <c r="CM147" s="18">
+        <v>69.038433537413113</v>
+      </c>
       <c r="CN147" s="18"/>
       <c r="CO147" s="18"/>
       <c r="CP147" s="18"/>
-      <c r="CQ147" s="9"/>
+      <c r="CQ147" s="18"/>
       <c r="CR147" s="9"/>
       <c r="CS147" s="9"/>
       <c r="CT147" s="9"/>
@@ -34180,13 +34379,15 @@
         <v>9.3030225321897291</v>
       </c>
       <c r="CL148" s="18">
-        <v>-17.521179339208388</v>
-      </c>
-      <c r="CM148" s="18"/>
+        <v>-17.354928904850084</v>
+      </c>
+      <c r="CM148" s="18">
+        <v>-12.598055261629455</v>
+      </c>
       <c r="CN148" s="18"/>
       <c r="CO148" s="18"/>
       <c r="CP148" s="18"/>
-      <c r="CQ148" s="9"/>
+      <c r="CQ148" s="18"/>
       <c r="CR148" s="9"/>
       <c r="CS148" s="9"/>
       <c r="CT148" s="9"/>
@@ -34509,13 +34710,15 @@
         <v>7.2799438838611223</v>
       </c>
       <c r="CL149" s="18">
-        <v>10.946438663018142</v>
-      </c>
-      <c r="CM149" s="18"/>
+        <v>13.50707783378698</v>
+      </c>
+      <c r="CM149" s="18">
+        <v>16.866250353990367</v>
+      </c>
       <c r="CN149" s="18"/>
       <c r="CO149" s="18"/>
       <c r="CP149" s="18"/>
-      <c r="CQ149" s="9"/>
+      <c r="CQ149" s="18"/>
       <c r="CR149" s="9"/>
       <c r="CS149" s="9"/>
       <c r="CT149" s="9"/>
@@ -34838,13 +35041,15 @@
         <v>20.261766374911858</v>
       </c>
       <c r="CL150" s="18">
-        <v>21.435279915141663</v>
-      </c>
-      <c r="CM150" s="18"/>
+        <v>23.949678041691087</v>
+      </c>
+      <c r="CM150" s="18">
+        <v>20.916984230927497</v>
+      </c>
       <c r="CN150" s="18"/>
       <c r="CO150" s="18"/>
       <c r="CP150" s="18"/>
-      <c r="CQ150" s="9"/>
+      <c r="CQ150" s="18"/>
       <c r="CR150" s="9"/>
       <c r="CS150" s="9"/>
       <c r="CT150" s="9"/>
@@ -35167,13 +35372,15 @@
         <v>-99.618986213268911</v>
       </c>
       <c r="CL151" s="18">
-        <v>-98.782274775353756</v>
-      </c>
-      <c r="CM151" s="18"/>
+        <v>-98.797319945373829</v>
+      </c>
+      <c r="CM151" s="20">
+        <v>-99.21672741181537</v>
+      </c>
       <c r="CN151" s="18"/>
       <c r="CO151" s="18"/>
       <c r="CP151" s="18"/>
-      <c r="CQ151" s="9"/>
+      <c r="CQ151" s="20"/>
       <c r="CR151" s="9"/>
       <c r="CS151" s="9"/>
       <c r="CT151" s="9"/>
@@ -35496,13 +35703,15 @@
         <v>-73.259501765139021</v>
       </c>
       <c r="CL152" s="18">
-        <v>-54.349638142350528</v>
-      </c>
-      <c r="CM152" s="18"/>
+        <v>-54.363327533508844</v>
+      </c>
+      <c r="CM152" s="18">
+        <v>22.661972605405325</v>
+      </c>
       <c r="CN152" s="18"/>
       <c r="CO152" s="18"/>
       <c r="CP152" s="18"/>
-      <c r="CQ152" s="9"/>
+      <c r="CQ152" s="18"/>
       <c r="CR152" s="9"/>
       <c r="CS152" s="9"/>
       <c r="CT152" s="9"/>
@@ -35825,13 +36034,15 @@
         <v>138.65813548488782</v>
       </c>
       <c r="CL153" s="18">
-        <v>-38.405330256630123</v>
-      </c>
-      <c r="CM153" s="18"/>
+        <v>-29.745728934343802</v>
+      </c>
+      <c r="CM153" s="18">
+        <v>-17.620549366121637</v>
+      </c>
       <c r="CN153" s="18"/>
       <c r="CO153" s="18"/>
       <c r="CP153" s="18"/>
-      <c r="CQ153" s="9"/>
+      <c r="CQ153" s="18"/>
       <c r="CR153" s="9"/>
       <c r="CS153" s="9"/>
       <c r="CT153" s="9"/>
@@ -36154,13 +36365,15 @@
         <v>-2.800024065616725</v>
       </c>
       <c r="CL154" s="18">
-        <v>6.5661063276436238</v>
-      </c>
-      <c r="CM154" s="18"/>
+        <v>6.2475315141696512</v>
+      </c>
+      <c r="CM154" s="18">
+        <v>-0.99933745573993349</v>
+      </c>
       <c r="CN154" s="18"/>
       <c r="CO154" s="18"/>
       <c r="CP154" s="18"/>
-      <c r="CQ154" s="9"/>
+      <c r="CQ154" s="18"/>
       <c r="CR154" s="9"/>
       <c r="CS154" s="9"/>
       <c r="CT154" s="9"/>
@@ -36483,13 +36696,15 @@
         <v>45.362850793125432</v>
       </c>
       <c r="CL155" s="18">
-        <v>28.128320421291761</v>
-      </c>
-      <c r="CM155" s="18"/>
+        <v>21.954437554580892</v>
+      </c>
+      <c r="CM155" s="18">
+        <v>12.451426519401366</v>
+      </c>
       <c r="CN155" s="18"/>
       <c r="CO155" s="18"/>
       <c r="CP155" s="18"/>
-      <c r="CQ155" s="9"/>
+      <c r="CQ155" s="18"/>
       <c r="CR155" s="9"/>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
@@ -36812,13 +37027,15 @@
         <v>-3.2384939480537014</v>
       </c>
       <c r="CL156" s="18">
-        <v>3.5868025841207185</v>
-      </c>
-      <c r="CM156" s="18"/>
+        <v>2.5996821814846811</v>
+      </c>
+      <c r="CM156" s="18">
+        <v>30.14680533012509</v>
+      </c>
       <c r="CN156" s="18"/>
       <c r="CO156" s="18"/>
       <c r="CP156" s="18"/>
-      <c r="CQ156" s="9"/>
+      <c r="CQ156" s="18"/>
       <c r="CR156" s="9"/>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
@@ -37141,13 +37358,15 @@
         <v>-3.6410854091780323</v>
       </c>
       <c r="CL157" s="18">
-        <v>5.5158810331400616</v>
-      </c>
-      <c r="CM157" s="18"/>
+        <v>5.6325077237335819</v>
+      </c>
+      <c r="CM157" s="18">
+        <v>-7.8896413098003535</v>
+      </c>
       <c r="CN157" s="18"/>
       <c r="CO157" s="18"/>
       <c r="CP157" s="18"/>
-      <c r="CQ157" s="9"/>
+      <c r="CQ157" s="18"/>
       <c r="CR157" s="9"/>
       <c r="CS157" s="9"/>
       <c r="CT157" s="9"/>
@@ -37470,13 +37689,15 @@
         <v>-12.432085783004126</v>
       </c>
       <c r="CL158" s="18">
-        <v>3.9713149048466789</v>
-      </c>
-      <c r="CM158" s="18"/>
+        <v>5.2343559209397199</v>
+      </c>
+      <c r="CM158" s="18">
+        <v>-11.894687252797141</v>
+      </c>
       <c r="CN158" s="18"/>
       <c r="CO158" s="18"/>
       <c r="CP158" s="18"/>
-      <c r="CQ158" s="9"/>
+      <c r="CQ158" s="18"/>
       <c r="CR158" s="9"/>
       <c r="CS158" s="9"/>
       <c r="CT158" s="9"/>
@@ -37947,13 +38168,15 @@
         <v>2.5778585668528393</v>
       </c>
       <c r="CL160" s="23">
-        <v>7.1923012873580774</v>
-      </c>
-      <c r="CM160" s="23"/>
+        <v>8.0596688220710746</v>
+      </c>
+      <c r="CM160" s="23">
+        <v>10.781967419586394</v>
+      </c>
       <c r="CN160" s="23"/>
       <c r="CO160" s="23"/>
       <c r="CP160" s="23"/>
-      <c r="CQ160" s="9"/>
+      <c r="CQ160" s="23"/>
       <c r="CR160" s="9"/>
       <c r="CS160" s="9"/>
       <c r="CT160" s="9"/>
@@ -38102,6 +38325,7 @@
       <c r="CN161" s="14"/>
       <c r="CO161" s="14"/>
       <c r="CP161" s="14"/>
+      <c r="CQ161" s="14"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -38439,126 +38663,126 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="29">
+      <c r="B172" s="27">
         <v>2000</v>
       </c>
-      <c r="C172" s="29"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29"/>
-      <c r="F172" s="29">
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27">
         <v>2001</v>
       </c>
-      <c r="G172" s="29"/>
-      <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-      <c r="J172" s="29">
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27">
         <v>2002</v>
       </c>
-      <c r="K172" s="29"/>
-      <c r="L172" s="29"/>
-      <c r="M172" s="29"/>
-      <c r="N172" s="29">
+      <c r="K172" s="27"/>
+      <c r="L172" s="27"/>
+      <c r="M172" s="27"/>
+      <c r="N172" s="27">
         <v>2003</v>
       </c>
-      <c r="O172" s="29"/>
-      <c r="P172" s="29"/>
-      <c r="Q172" s="29"/>
-      <c r="R172" s="29">
+      <c r="O172" s="27"/>
+      <c r="P172" s="27"/>
+      <c r="Q172" s="27"/>
+      <c r="R172" s="27">
         <v>2004</v>
       </c>
-      <c r="S172" s="29"/>
-      <c r="T172" s="29"/>
-      <c r="U172" s="29"/>
-      <c r="V172" s="29">
+      <c r="S172" s="27"/>
+      <c r="T172" s="27"/>
+      <c r="U172" s="27"/>
+      <c r="V172" s="27">
         <v>2005</v>
       </c>
-      <c r="W172" s="29"/>
-      <c r="X172" s="29"/>
-      <c r="Y172" s="29"/>
-      <c r="Z172" s="29">
+      <c r="W172" s="27"/>
+      <c r="X172" s="27"/>
+      <c r="Y172" s="27"/>
+      <c r="Z172" s="27">
         <v>2006</v>
       </c>
-      <c r="AA172" s="29"/>
-      <c r="AB172" s="29"/>
-      <c r="AC172" s="29"/>
-      <c r="AD172" s="29">
+      <c r="AA172" s="27"/>
+      <c r="AB172" s="27"/>
+      <c r="AC172" s="27"/>
+      <c r="AD172" s="27">
         <v>2007</v>
       </c>
-      <c r="AE172" s="29"/>
-      <c r="AF172" s="29"/>
-      <c r="AG172" s="29"/>
-      <c r="AH172" s="29">
+      <c r="AE172" s="27"/>
+      <c r="AF172" s="27"/>
+      <c r="AG172" s="27"/>
+      <c r="AH172" s="27">
         <v>2008</v>
       </c>
-      <c r="AI172" s="29"/>
-      <c r="AJ172" s="29"/>
-      <c r="AK172" s="29"/>
-      <c r="AL172" s="29">
+      <c r="AI172" s="27"/>
+      <c r="AJ172" s="27"/>
+      <c r="AK172" s="27"/>
+      <c r="AL172" s="27">
         <v>2009</v>
       </c>
-      <c r="AM172" s="29"/>
-      <c r="AN172" s="29"/>
-      <c r="AO172" s="29"/>
-      <c r="AP172" s="29">
+      <c r="AM172" s="27"/>
+      <c r="AN172" s="27"/>
+      <c r="AO172" s="27"/>
+      <c r="AP172" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="29"/>
-      <c r="AR172" s="29"/>
-      <c r="AS172" s="29"/>
-      <c r="AT172" s="29">
+      <c r="AQ172" s="27"/>
+      <c r="AR172" s="27"/>
+      <c r="AS172" s="27"/>
+      <c r="AT172" s="27">
         <v>2011</v>
       </c>
-      <c r="AU172" s="29"/>
-      <c r="AV172" s="29"/>
-      <c r="AW172" s="29"/>
-      <c r="AX172" s="29">
+      <c r="AU172" s="27"/>
+      <c r="AV172" s="27"/>
+      <c r="AW172" s="27"/>
+      <c r="AX172" s="27">
         <v>2012</v>
       </c>
-      <c r="AY172" s="29"/>
-      <c r="AZ172" s="29"/>
-      <c r="BA172" s="29"/>
-      <c r="BB172" s="29">
+      <c r="AY172" s="27"/>
+      <c r="AZ172" s="27"/>
+      <c r="BA172" s="27"/>
+      <c r="BB172" s="27">
         <v>2013</v>
       </c>
-      <c r="BC172" s="29"/>
-      <c r="BD172" s="29"/>
-      <c r="BE172" s="29"/>
-      <c r="BF172" s="29">
+      <c r="BC172" s="27"/>
+      <c r="BD172" s="27"/>
+      <c r="BE172" s="27"/>
+      <c r="BF172" s="27">
         <v>2014</v>
       </c>
-      <c r="BG172" s="29"/>
-      <c r="BH172" s="29"/>
-      <c r="BI172" s="29"/>
-      <c r="BJ172" s="29">
+      <c r="BG172" s="27"/>
+      <c r="BH172" s="27"/>
+      <c r="BI172" s="27"/>
+      <c r="BJ172" s="27">
         <v>2015</v>
       </c>
-      <c r="BK172" s="29"/>
-      <c r="BL172" s="29"/>
-      <c r="BM172" s="29"/>
-      <c r="BN172" s="29">
+      <c r="BK172" s="27"/>
+      <c r="BL172" s="27"/>
+      <c r="BM172" s="27"/>
+      <c r="BN172" s="27">
         <v>2016</v>
       </c>
-      <c r="BO172" s="29"/>
-      <c r="BP172" s="29"/>
-      <c r="BQ172" s="29"/>
-      <c r="BR172" s="29">
+      <c r="BO172" s="27"/>
+      <c r="BP172" s="27"/>
+      <c r="BQ172" s="27"/>
+      <c r="BR172" s="27">
         <v>2017</v>
       </c>
-      <c r="BS172" s="29"/>
-      <c r="BT172" s="29"/>
-      <c r="BU172" s="29"/>
-      <c r="BV172" s="29">
+      <c r="BS172" s="27"/>
+      <c r="BT172" s="27"/>
+      <c r="BU172" s="27"/>
+      <c r="BV172" s="27">
         <v>2018</v>
       </c>
-      <c r="BW172" s="29"/>
-      <c r="BX172" s="29"/>
-      <c r="BY172" s="29"/>
-      <c r="BZ172" s="29">
+      <c r="BW172" s="27"/>
+      <c r="BX172" s="27"/>
+      <c r="BY172" s="27"/>
+      <c r="BZ172" s="27">
         <v>2019</v>
       </c>
-      <c r="CA172" s="29"/>
-      <c r="CB172" s="29"/>
-      <c r="CC172" s="29"/>
+      <c r="CA172" s="27"/>
+      <c r="CB172" s="27"/>
+      <c r="CC172" s="27"/>
       <c r="CD172" s="28">
         <v>2020</v>
       </c>
@@ -38577,9 +38801,10 @@
       <c r="CM172" s="28"/>
       <c r="CN172" s="28"/>
       <c r="CO172" s="28"/>
-      <c r="CP172" s="25">
+      <c r="CP172" s="28">
         <v>2023</v>
       </c>
+      <c r="CQ172" s="29"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -38863,6 +39088,9 @@
       </c>
       <c r="CP173" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ173" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39149,9 +39377,11 @@
         <v>100.73568334616954</v>
       </c>
       <c r="CP175" s="23">
-        <v>121.32553962504811</v>
-      </c>
-      <c r="CQ175" s="9"/>
+        <v>121.09108787942967</v>
+      </c>
+      <c r="CQ175" s="23">
+        <v>162.99738163597544</v>
+      </c>
       <c r="CR175" s="9"/>
       <c r="CS175" s="9"/>
       <c r="CT175" s="9"/>
@@ -39491,9 +39721,11 @@
         <v>84.628480145575296</v>
       </c>
       <c r="CP176" s="23">
-        <v>123.70413985292308</v>
-      </c>
-      <c r="CQ176" s="9"/>
+        <v>123.67918586677071</v>
+      </c>
+      <c r="CQ176" s="23">
+        <v>357.52507376956407</v>
+      </c>
       <c r="CR176" s="9"/>
       <c r="CS176" s="9"/>
       <c r="CT176" s="9"/>
@@ -39833,9 +40065,11 @@
         <v>83.71182632042013</v>
       </c>
       <c r="CP177" s="23">
-        <v>126.82014286914946</v>
-      </c>
-      <c r="CQ177" s="9"/>
+        <v>126.05117544558881</v>
+      </c>
+      <c r="CQ177" s="23">
+        <v>348.82116594966601</v>
+      </c>
       <c r="CR177" s="9"/>
       <c r="CS177" s="9"/>
       <c r="CT177" s="9"/>
@@ -40175,9 +40409,11 @@
         <v>91.059743967799974</v>
       </c>
       <c r="CP178" s="23">
-        <v>114.45472140386185</v>
-      </c>
-      <c r="CQ178" s="9"/>
+        <v>113.90858249506002</v>
+      </c>
+      <c r="CQ178" s="23">
+        <v>262.42560017884051</v>
+      </c>
       <c r="CR178" s="9"/>
       <c r="CS178" s="9"/>
       <c r="CT178" s="9"/>
@@ -40517,9 +40753,11 @@
         <v>88.547258756093854</v>
       </c>
       <c r="CP179" s="23">
-        <v>147.36228850356966</v>
-      </c>
-      <c r="CQ179" s="9"/>
+        <v>146.72011457216394</v>
+      </c>
+      <c r="CQ179" s="23">
+        <v>317.19371614853708</v>
+      </c>
       <c r="CR179" s="9"/>
       <c r="CS179" s="9"/>
       <c r="CT179" s="9"/>
@@ -40859,9 +41097,11 @@
         <v>86.001490255464972</v>
       </c>
       <c r="CP180" s="23">
-        <v>130.7590278220888</v>
-      </c>
-      <c r="CQ180" s="9"/>
+        <v>130.72074335934494</v>
+      </c>
+      <c r="CQ180" s="23">
+        <v>340.3758895083057</v>
+      </c>
       <c r="CR180" s="9"/>
       <c r="CS180" s="9"/>
       <c r="CT180" s="9"/>
@@ -41201,9 +41441,11 @@
         <v>126.71445217622957</v>
       </c>
       <c r="CP181" s="23">
-        <v>117.43897290472083</v>
-      </c>
-      <c r="CQ181" s="9"/>
+        <v>117.44671868373189</v>
+      </c>
+      <c r="CQ181" s="23">
+        <v>103.22837153473007</v>
+      </c>
       <c r="CR181" s="9"/>
       <c r="CS181" s="9"/>
       <c r="CT181" s="9"/>
@@ -41543,9 +41785,11 @@
         <v>82.315687210593808</v>
       </c>
       <c r="CP182" s="23">
-        <v>122.22142484787319</v>
-      </c>
-      <c r="CQ182" s="9"/>
+        <v>122.14702103850716</v>
+      </c>
+      <c r="CQ182" s="23">
+        <v>336.3030094378941</v>
+      </c>
       <c r="CR182" s="9"/>
       <c r="CS182" s="9"/>
       <c r="CT182" s="9"/>
@@ -41885,9 +42129,11 @@
         <v>89.541440450473686</v>
       </c>
       <c r="CP183" s="23">
-        <v>123.20999663038073</v>
-      </c>
-      <c r="CQ183" s="9"/>
+        <v>122.65235562976544</v>
+      </c>
+      <c r="CQ183" s="23">
+        <v>245.43370119194515</v>
+      </c>
       <c r="CR183" s="9"/>
       <c r="CS183" s="9"/>
       <c r="CT183" s="9"/>
@@ -42227,9 +42473,11 @@
         <v>112.40782809888911</v>
       </c>
       <c r="CP184" s="23">
-        <v>117.56127335694471</v>
-      </c>
-      <c r="CQ184" s="9"/>
+        <v>118.04892477097101</v>
+      </c>
+      <c r="CQ184" s="23">
+        <v>133.49565886808116</v>
+      </c>
       <c r="CR184" s="9"/>
       <c r="CS184" s="9"/>
       <c r="CT184" s="9"/>
@@ -42569,9 +42817,11 @@
         <v>118.93669006545838</v>
       </c>
       <c r="CP185" s="23">
-        <v>117.63754235734174</v>
-      </c>
-      <c r="CQ185" s="9"/>
+        <v>120.53089153529153</v>
+      </c>
+      <c r="CQ185" s="23">
+        <v>145.45804786461832</v>
+      </c>
       <c r="CR185" s="9"/>
       <c r="CS185" s="9"/>
       <c r="CT185" s="9"/>
@@ -42911,9 +43161,11 @@
         <v>120.79318439411428</v>
       </c>
       <c r="CP186" s="23">
-        <v>122.54387838993095</v>
-      </c>
-      <c r="CQ186" s="9"/>
+        <v>123.02365283783546</v>
+      </c>
+      <c r="CQ186" s="23">
+        <v>142.90851469069182</v>
+      </c>
       <c r="CR186" s="9"/>
       <c r="CS186" s="9"/>
       <c r="CT186" s="9"/>
@@ -43253,9 +43505,11 @@
         <v>127.6230023507334</v>
       </c>
       <c r="CP187" s="23">
-        <v>126.92096616928825</v>
-      </c>
-      <c r="CQ187" s="9"/>
+        <v>126.93872719937332</v>
+      </c>
+      <c r="CQ187" s="23">
+        <v>128.79771196960323</v>
+      </c>
       <c r="CR187" s="9"/>
       <c r="CS187" s="9"/>
       <c r="CT187" s="9"/>
@@ -43595,9 +43849,11 @@
         <v>95.137932816791036</v>
       </c>
       <c r="CP188" s="23">
-        <v>107.51279418409305</v>
-      </c>
-      <c r="CQ188" s="9"/>
+        <v>107.53325828102527</v>
+      </c>
+      <c r="CQ188" s="23">
+        <v>129.8861510290989</v>
+      </c>
       <c r="CR188" s="9"/>
       <c r="CS188" s="9"/>
       <c r="CT188" s="9"/>
@@ -43937,9 +44193,11 @@
         <v>113.01917785514451</v>
       </c>
       <c r="CP189" s="23">
-        <v>102.2663381641417</v>
-      </c>
-      <c r="CQ189" s="9"/>
+        <v>101.73009895584563</v>
+      </c>
+      <c r="CQ189" s="23">
+        <v>106.0003308573537</v>
+      </c>
       <c r="CR189" s="9"/>
       <c r="CS189" s="9"/>
       <c r="CT189" s="9"/>
@@ -44279,9 +44537,11 @@
         <v>112.20241549885887</v>
       </c>
       <c r="CP190" s="23">
-        <v>100.40113102707467</v>
-      </c>
-      <c r="CQ190" s="9"/>
+        <v>99.872548361270233</v>
+      </c>
+      <c r="CQ190" s="23">
+        <v>105.71512905729628</v>
+      </c>
       <c r="CR190" s="9"/>
       <c r="CS190" s="9"/>
       <c r="CT190" s="9"/>
@@ -44623,7 +44883,9 @@
       <c r="CP191" s="23">
         <v>111.15709348108676</v>
       </c>
-      <c r="CQ191" s="9"/>
+      <c r="CQ191" s="23">
+        <v>90.454606893521259</v>
+      </c>
       <c r="CR191" s="9"/>
       <c r="CS191" s="9"/>
       <c r="CT191" s="9"/>
@@ -44963,9 +45225,11 @@
         <v>128.18268818728211</v>
       </c>
       <c r="CP192" s="23">
-        <v>128.66162877886973</v>
-      </c>
-      <c r="CQ192" s="9"/>
+        <v>128.66084698800921</v>
+      </c>
+      <c r="CQ192" s="23">
+        <v>107.50404578554553</v>
+      </c>
       <c r="CR192" s="9"/>
       <c r="CS192" s="9"/>
       <c r="CT192" s="9"/>
@@ -45305,9 +45569,11 @@
         <v>123.17422915756779</v>
       </c>
       <c r="CP193" s="23">
-        <v>134.15830037470943</v>
-      </c>
-      <c r="CQ193" s="9"/>
+        <v>130.04384045191765</v>
+      </c>
+      <c r="CQ193" s="23">
+        <v>108.2060095125174</v>
+      </c>
       <c r="CR193" s="9"/>
       <c r="CS193" s="9"/>
       <c r="CT193" s="9"/>
@@ -45647,9 +45913,11 @@
         <v>163.01740034680279</v>
       </c>
       <c r="CP194" s="23">
-        <v>116.93834390999554</v>
-      </c>
-      <c r="CQ194" s="9"/>
+        <v>117.01822401527804</v>
+      </c>
+      <c r="CQ194" s="23">
+        <v>83.859830849605444</v>
+      </c>
       <c r="CR194" s="9"/>
       <c r="CS194" s="9"/>
       <c r="CT194" s="9"/>
@@ -45989,9 +46257,11 @@
         <v>223.98619284757166</v>
       </c>
       <c r="CP195" s="23">
-        <v>109.98782388336727</v>
-      </c>
-      <c r="CQ195" s="9"/>
+        <v>109.99421910178127</v>
+      </c>
+      <c r="CQ195" s="23">
+        <v>69.040171961555004</v>
+      </c>
       <c r="CR195" s="9"/>
       <c r="CS195" s="9"/>
       <c r="CT195" s="9"/>
@@ -46331,9 +46601,11 @@
         <v>145.2651769104485</v>
       </c>
       <c r="CP196" s="23">
-        <v>101.06801240233222</v>
-      </c>
-      <c r="CQ196" s="9"/>
+        <v>101.0837677577484</v>
+      </c>
+      <c r="CQ196" s="23">
+        <v>71.977941637391083</v>
+      </c>
       <c r="CR196" s="9"/>
       <c r="CS196" s="9"/>
       <c r="CT196" s="9"/>
@@ -46673,9 +46945,11 @@
         <v>170.75335124908443</v>
       </c>
       <c r="CP197" s="23">
-        <v>125.77735115097242</v>
-      </c>
-      <c r="CQ197" s="9"/>
+        <v>125.80747594568066</v>
+      </c>
+      <c r="CQ197" s="23">
+        <v>80.163360859435812</v>
+      </c>
       <c r="CR197" s="9"/>
       <c r="CS197" s="9"/>
       <c r="CT197" s="9"/>
@@ -47015,9 +47289,11 @@
         <v>132.67940313927625</v>
       </c>
       <c r="CP198" s="23">
-        <v>115.10644058931739</v>
-      </c>
-      <c r="CQ198" s="9"/>
+        <v>115.11291090441121</v>
+      </c>
+      <c r="CQ198" s="23">
+        <v>115.67734203652826</v>
+      </c>
       <c r="CR198" s="9"/>
       <c r="CS198" s="9"/>
       <c r="CT198" s="9"/>
@@ -47510,9 +47786,11 @@
         <v>117.422149054903</v>
       </c>
       <c r="CP200" s="23">
-        <v>110.04247575590995</v>
-      </c>
-      <c r="CQ200" s="9"/>
+        <v>109.69159683028045</v>
+      </c>
+      <c r="CQ200" s="23">
+        <v>110.17748724205593</v>
+      </c>
       <c r="CR200" s="9"/>
       <c r="CS200" s="9"/>
       <c r="CT200" s="9"/>
@@ -47666,6 +47944,7 @@
       <c r="CN201" s="14"/>
       <c r="CO201" s="14"/>
       <c r="CP201" s="14"/>
+      <c r="CQ201" s="14"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -48010,126 +48289,126 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="29">
+      <c r="B213" s="27">
         <v>2000</v>
       </c>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="29">
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27">
         <v>2001</v>
       </c>
-      <c r="G213" s="29"/>
-      <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-      <c r="J213" s="29">
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27">
         <v>2002</v>
       </c>
-      <c r="K213" s="29"/>
-      <c r="L213" s="29"/>
-      <c r="M213" s="29"/>
-      <c r="N213" s="29">
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27">
         <v>2003</v>
       </c>
-      <c r="O213" s="29"/>
-      <c r="P213" s="29"/>
-      <c r="Q213" s="29"/>
-      <c r="R213" s="29">
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="27"/>
+      <c r="R213" s="27">
         <v>2004</v>
       </c>
-      <c r="S213" s="29"/>
-      <c r="T213" s="29"/>
-      <c r="U213" s="29"/>
-      <c r="V213" s="29">
+      <c r="S213" s="27"/>
+      <c r="T213" s="27"/>
+      <c r="U213" s="27"/>
+      <c r="V213" s="27">
         <v>2005</v>
       </c>
-      <c r="W213" s="29"/>
-      <c r="X213" s="29"/>
-      <c r="Y213" s="29"/>
-      <c r="Z213" s="29">
+      <c r="W213" s="27"/>
+      <c r="X213" s="27"/>
+      <c r="Y213" s="27"/>
+      <c r="Z213" s="27">
         <v>2006</v>
       </c>
-      <c r="AA213" s="29"/>
-      <c r="AB213" s="29"/>
-      <c r="AC213" s="29"/>
-      <c r="AD213" s="29">
+      <c r="AA213" s="27"/>
+      <c r="AB213" s="27"/>
+      <c r="AC213" s="27"/>
+      <c r="AD213" s="27">
         <v>2007</v>
       </c>
-      <c r="AE213" s="29"/>
-      <c r="AF213" s="29"/>
-      <c r="AG213" s="29"/>
-      <c r="AH213" s="29">
+      <c r="AE213" s="27"/>
+      <c r="AF213" s="27"/>
+      <c r="AG213" s="27"/>
+      <c r="AH213" s="27">
         <v>2008</v>
       </c>
-      <c r="AI213" s="29"/>
-      <c r="AJ213" s="29"/>
-      <c r="AK213" s="29"/>
-      <c r="AL213" s="29">
+      <c r="AI213" s="27"/>
+      <c r="AJ213" s="27"/>
+      <c r="AK213" s="27"/>
+      <c r="AL213" s="27">
         <v>2009</v>
       </c>
-      <c r="AM213" s="29"/>
-      <c r="AN213" s="29"/>
-      <c r="AO213" s="29"/>
-      <c r="AP213" s="29">
+      <c r="AM213" s="27"/>
+      <c r="AN213" s="27"/>
+      <c r="AO213" s="27"/>
+      <c r="AP213" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="29"/>
-      <c r="AR213" s="29"/>
-      <c r="AS213" s="29"/>
-      <c r="AT213" s="29">
+      <c r="AQ213" s="27"/>
+      <c r="AR213" s="27"/>
+      <c r="AS213" s="27"/>
+      <c r="AT213" s="27">
         <v>2011</v>
       </c>
-      <c r="AU213" s="29"/>
-      <c r="AV213" s="29"/>
-      <c r="AW213" s="29"/>
-      <c r="AX213" s="29">
+      <c r="AU213" s="27"/>
+      <c r="AV213" s="27"/>
+      <c r="AW213" s="27"/>
+      <c r="AX213" s="27">
         <v>2012</v>
       </c>
-      <c r="AY213" s="29"/>
-      <c r="AZ213" s="29"/>
-      <c r="BA213" s="29"/>
-      <c r="BB213" s="29">
+      <c r="AY213" s="27"/>
+      <c r="AZ213" s="27"/>
+      <c r="BA213" s="27"/>
+      <c r="BB213" s="27">
         <v>2013</v>
       </c>
-      <c r="BC213" s="29"/>
-      <c r="BD213" s="29"/>
-      <c r="BE213" s="29"/>
-      <c r="BF213" s="29">
+      <c r="BC213" s="27"/>
+      <c r="BD213" s="27"/>
+      <c r="BE213" s="27"/>
+      <c r="BF213" s="27">
         <v>2014</v>
       </c>
-      <c r="BG213" s="29"/>
-      <c r="BH213" s="29"/>
-      <c r="BI213" s="29"/>
-      <c r="BJ213" s="29">
+      <c r="BG213" s="27"/>
+      <c r="BH213" s="27"/>
+      <c r="BI213" s="27"/>
+      <c r="BJ213" s="27">
         <v>2015</v>
       </c>
-      <c r="BK213" s="29"/>
-      <c r="BL213" s="29"/>
-      <c r="BM213" s="29"/>
-      <c r="BN213" s="29">
+      <c r="BK213" s="27"/>
+      <c r="BL213" s="27"/>
+      <c r="BM213" s="27"/>
+      <c r="BN213" s="27">
         <v>2016</v>
       </c>
-      <c r="BO213" s="29"/>
-      <c r="BP213" s="29"/>
-      <c r="BQ213" s="29"/>
-      <c r="BR213" s="29">
+      <c r="BO213" s="27"/>
+      <c r="BP213" s="27"/>
+      <c r="BQ213" s="27"/>
+      <c r="BR213" s="27">
         <v>2017</v>
       </c>
-      <c r="BS213" s="29"/>
-      <c r="BT213" s="29"/>
-      <c r="BU213" s="29"/>
-      <c r="BV213" s="29">
+      <c r="BS213" s="27"/>
+      <c r="BT213" s="27"/>
+      <c r="BU213" s="27"/>
+      <c r="BV213" s="27">
         <v>2018</v>
       </c>
-      <c r="BW213" s="29"/>
-      <c r="BX213" s="29"/>
-      <c r="BY213" s="29"/>
-      <c r="BZ213" s="29">
+      <c r="BW213" s="27"/>
+      <c r="BX213" s="27"/>
+      <c r="BY213" s="27"/>
+      <c r="BZ213" s="27">
         <v>2019</v>
       </c>
-      <c r="CA213" s="29"/>
-      <c r="CB213" s="29"/>
-      <c r="CC213" s="29"/>
+      <c r="CA213" s="27"/>
+      <c r="CB213" s="27"/>
+      <c r="CC213" s="27"/>
       <c r="CD213" s="28">
         <v>2020</v>
       </c>
@@ -48148,9 +48427,10 @@
       <c r="CM213" s="28"/>
       <c r="CN213" s="28"/>
       <c r="CO213" s="28"/>
-      <c r="CP213" s="25">
+      <c r="CP213" s="28">
         <v>2023</v>
       </c>
+      <c r="CQ213" s="29"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -48434,6 +48714,9 @@
       </c>
       <c r="CP214" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ214" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -48720,9 +49003,11 @@
         <v>16.267168765343023</v>
       </c>
       <c r="CP216" s="23">
-        <v>16.234287559397607</v>
-      </c>
-      <c r="CQ216" s="9"/>
+        <v>16.11152995928596</v>
+      </c>
+      <c r="CQ216" s="23">
+        <v>14.354951615790515</v>
+      </c>
       <c r="CR216" s="9"/>
       <c r="CS216" s="9"/>
       <c r="CT216" s="9"/>
@@ -49062,9 +49347,11 @@
         <v>0.82248902797103507</v>
       </c>
       <c r="CP217" s="23">
-        <v>0.75445176715875728</v>
-      </c>
-      <c r="CQ217" s="9"/>
+        <v>0.74977551365334361</v>
+      </c>
+      <c r="CQ217" s="23">
+        <v>1.0020695125012848</v>
+      </c>
       <c r="CR217" s="9"/>
       <c r="CS217" s="9"/>
       <c r="CT217" s="9"/>
@@ -49404,9 +49691,11 @@
         <v>3.5675907092665833</v>
       </c>
       <c r="CP218" s="23">
-        <v>3.2744741319411319</v>
-      </c>
-      <c r="CQ218" s="9"/>
+        <v>3.2499211299362338</v>
+      </c>
+      <c r="CQ218" s="23">
+        <v>3.6673990561227923</v>
+      </c>
       <c r="CR218" s="9"/>
       <c r="CS218" s="9"/>
       <c r="CT218" s="9"/>
@@ -49746,9 +50035,11 @@
         <v>0.27073179341118642</v>
       </c>
       <c r="CP219" s="23">
-        <v>0.17768960330654751</v>
-      </c>
-      <c r="CQ219" s="9"/>
+        <v>0.17769745204837445</v>
+      </c>
+      <c r="CQ219" s="23">
+        <v>0.24615883028672775</v>
+      </c>
       <c r="CR219" s="9"/>
       <c r="CS219" s="9"/>
       <c r="CT219" s="9"/>
@@ -50088,9 +50379,11 @@
         <v>0.17748213283990483</v>
       </c>
       <c r="CP220" s="23">
-        <v>0.11970837810125218</v>
-      </c>
-      <c r="CQ220" s="9"/>
+        <v>0.11557529508909396</v>
+      </c>
+      <c r="CQ220" s="23">
+        <v>0.14310544647896806</v>
+      </c>
       <c r="CR220" s="9"/>
       <c r="CS220" s="9"/>
       <c r="CT220" s="9"/>
@@ -50430,9 +50723,11 @@
         <v>0.9563673898375572</v>
       </c>
       <c r="CP221" s="23">
-        <v>1.0455076442723004</v>
-      </c>
-      <c r="CQ221" s="9"/>
+        <v>1.0388842420924849</v>
+      </c>
+      <c r="CQ221" s="23">
+        <v>0.77512282321128911</v>
+      </c>
       <c r="CR221" s="9"/>
       <c r="CS221" s="9"/>
       <c r="CT221" s="9"/>
@@ -50772,9 +51067,11 @@
         <v>7.4037750081157743</v>
       </c>
       <c r="CP222" s="23">
-        <v>8.3909919353015123</v>
-      </c>
-      <c r="CQ222" s="9"/>
+        <v>8.3431554949074762</v>
+      </c>
+      <c r="CQ222" s="23">
+        <v>6.5470870137925106</v>
+      </c>
       <c r="CR222" s="9"/>
       <c r="CS222" s="9"/>
       <c r="CT222" s="9"/>
@@ -51114,9 +51411,11 @@
         <v>0.35601545735569595</v>
       </c>
       <c r="CP223" s="23">
-        <v>0.30048100418101259</v>
-      </c>
-      <c r="CQ223" s="9"/>
+        <v>0.2974069170335582</v>
+      </c>
+      <c r="CQ223" s="23">
+        <v>0.34570269845648904</v>
+      </c>
       <c r="CR223" s="9"/>
       <c r="CS223" s="9"/>
       <c r="CT223" s="9"/>
@@ -51456,9 +51755,11 @@
         <v>2.7127172465452833</v>
       </c>
       <c r="CP224" s="23">
-        <v>2.1709830951350968</v>
-      </c>
-      <c r="CQ224" s="9"/>
+        <v>2.1391139145253919</v>
+      </c>
+      <c r="CQ224" s="23">
+        <v>1.628306234940454</v>
+      </c>
       <c r="CR224" s="9"/>
       <c r="CS224" s="9"/>
       <c r="CT224" s="9"/>
@@ -51798,9 +52099,11 @@
         <v>18.163797588086084</v>
       </c>
       <c r="CP225" s="23">
-        <v>16.955359923913655</v>
-      </c>
-      <c r="CQ225" s="9"/>
+        <v>16.591482462350108</v>
+      </c>
+      <c r="CQ225" s="23">
+        <v>16.533302307354127</v>
+      </c>
       <c r="CR225" s="9"/>
       <c r="CS225" s="9"/>
       <c r="CT225" s="9"/>
@@ -52140,9 +52443,11 @@
         <v>3.453617057002706</v>
       </c>
       <c r="CP226" s="23">
-        <v>2.897731431951668</v>
-      </c>
-      <c r="CQ226" s="9"/>
+        <v>2.6520483511187005</v>
+      </c>
+      <c r="CQ226" s="23">
+        <v>2.9993327245954928</v>
+      </c>
       <c r="CR226" s="9"/>
       <c r="CS226" s="9"/>
       <c r="CT226" s="9"/>
@@ -52482,9 +52787,11 @@
         <v>2.1172085598585411</v>
       </c>
       <c r="CP227" s="23">
-        <v>1.8667568127340863</v>
-      </c>
-      <c r="CQ227" s="9"/>
+        <v>1.7924471078890849</v>
+      </c>
+      <c r="CQ227" s="23">
+        <v>1.9600321939035923</v>
+      </c>
       <c r="CR227" s="9"/>
       <c r="CS227" s="9"/>
       <c r="CT227" s="9"/>
@@ -52824,9 +53131,11 @@
         <v>6.4818498316473905</v>
       </c>
       <c r="CP228" s="23">
-        <v>6.3490988719608774</v>
-      </c>
-      <c r="CQ228" s="9"/>
+        <v>6.3207413674975372</v>
+      </c>
+      <c r="CQ228" s="23">
+        <v>6.231726178639212</v>
+      </c>
       <c r="CR228" s="9"/>
       <c r="CS228" s="9"/>
       <c r="CT228" s="9"/>
@@ -53166,9 +53475,11 @@
         <v>6.1111221395774447</v>
       </c>
       <c r="CP229" s="23">
-        <v>5.8417728072670245</v>
-      </c>
-      <c r="CQ229" s="9"/>
+        <v>5.8262456358447858</v>
+      </c>
+      <c r="CQ229" s="23">
+        <v>5.3422112102158303</v>
+      </c>
       <c r="CR229" s="9"/>
       <c r="CS229" s="9"/>
       <c r="CT229" s="9"/>
@@ -53508,9 +53819,11 @@
         <v>46.553796709481368</v>
       </c>
       <c r="CP230" s="23">
-        <v>48.39689926450081</v>
-      </c>
-      <c r="CQ230" s="9"/>
+        <v>49.015206065926321</v>
+      </c>
+      <c r="CQ230" s="23">
+        <v>51.561341868916045</v>
+      </c>
       <c r="CR230" s="9"/>
       <c r="CS230" s="9"/>
       <c r="CT230" s="9"/>
@@ -53850,9 +54163,11 @@
         <v>43.451326780931396</v>
       </c>
       <c r="CP231" s="23">
-        <v>44.614779550469748</v>
-      </c>
-      <c r="CQ231" s="9"/>
+        <v>45.078946610971684</v>
+      </c>
+      <c r="CQ231" s="23">
+        <v>44.437663254767365</v>
+      </c>
       <c r="CR231" s="9"/>
       <c r="CS231" s="9"/>
       <c r="CT231" s="9"/>
@@ -54192,9 +54507,11 @@
         <v>4.0915146012305203E-3</v>
       </c>
       <c r="CP232" s="23">
-        <v>6.0219864357773665E-3</v>
-      </c>
-      <c r="CQ232" s="9"/>
+        <v>5.9187164661468079E-3</v>
+      </c>
+      <c r="CQ232" s="23">
+        <v>2.0285070696964454E-3</v>
+      </c>
       <c r="CR232" s="9"/>
       <c r="CS232" s="9"/>
       <c r="CT232" s="9"/>
@@ -54534,9 +54851,11 @@
         <v>1.6804871055422506</v>
       </c>
       <c r="CP233" s="23">
-        <v>2.127919868088453</v>
-      </c>
-      <c r="CQ233" s="9"/>
+        <v>2.1169438243155621</v>
+      </c>
+      <c r="CQ233" s="23">
+        <v>3.898065729359637</v>
+      </c>
       <c r="CR233" s="9"/>
       <c r="CS233" s="9"/>
       <c r="CT233" s="9"/>
@@ -54876,9 +55195,11 @@
         <v>1.4178913084064908</v>
       </c>
       <c r="CP234" s="23">
-        <v>1.6481778595068195</v>
-      </c>
-      <c r="CQ234" s="9"/>
+        <v>1.813396914172928</v>
+      </c>
+      <c r="CQ234" s="23">
+        <v>3.2235843777193471</v>
+      </c>
       <c r="CR234" s="9"/>
       <c r="CS234" s="9"/>
       <c r="CT234" s="9"/>
@@ -55218,9 +55539,11 @@
         <v>19.015236937089526</v>
       </c>
       <c r="CP235" s="23">
-        <v>18.413453252187935</v>
-      </c>
-      <c r="CQ235" s="9"/>
+        <v>18.281781512437629</v>
+      </c>
+      <c r="CQ235" s="23">
+        <v>17.550404207939309</v>
+      </c>
       <c r="CR235" s="9"/>
       <c r="CS235" s="9"/>
       <c r="CT235" s="9"/>
@@ -55560,9 +55883,11 @@
         <v>2.2802020781131467</v>
       </c>
       <c r="CP236" s="23">
-        <v>1.6711099515437773</v>
-      </c>
-      <c r="CQ236" s="9"/>
+        <v>1.5829591501531131</v>
+      </c>
+      <c r="CQ236" s="23">
+        <v>1.4323859359359128</v>
+      </c>
       <c r="CR236" s="9"/>
       <c r="CS236" s="9"/>
       <c r="CT236" s="9"/>
@@ -55902,9 +56227,11 @@
         <v>2.8204461791971536</v>
       </c>
       <c r="CP237" s="23">
-        <v>3.0369945127923237</v>
-      </c>
-      <c r="CQ237" s="9"/>
+        <v>2.9939203873082945</v>
+      </c>
+      <c r="CQ237" s="23">
+        <v>3.0904260774454122</v>
+      </c>
       <c r="CR237" s="9"/>
       <c r="CS237" s="9"/>
       <c r="CT237" s="9"/>
@@ -56244,9 +56571,11 @@
         <v>10.606120474252821</v>
       </c>
       <c r="CP238" s="23">
-        <v>9.288907846044534</v>
-      </c>
-      <c r="CQ238" s="9"/>
+        <v>9.2562564037920936</v>
+      </c>
+      <c r="CQ238" s="23">
+        <v>8.6113425670205643</v>
+      </c>
       <c r="CR238" s="9"/>
       <c r="CS238" s="9"/>
       <c r="CT238" s="9"/>
@@ -56586,9 +56915,11 @@
         <v>3.3084682055264047</v>
       </c>
       <c r="CP239" s="23">
-        <v>4.4164409418073012</v>
-      </c>
-      <c r="CQ239" s="9"/>
+        <v>4.4486455711841257</v>
+      </c>
+      <c r="CQ239" s="23">
+        <v>4.4162496275374208</v>
+      </c>
       <c r="CR239" s="9"/>
       <c r="CS239" s="9"/>
       <c r="CT239" s="9"/>
@@ -57083,7 +57414,9 @@
       <c r="CP241" s="23">
         <v>100</v>
       </c>
-      <c r="CQ241" s="9"/>
+      <c r="CQ241" s="23">
+        <v>100</v>
+      </c>
       <c r="CR241" s="9"/>
       <c r="CS241" s="9"/>
       <c r="CT241" s="9"/>
@@ -57237,6 +57570,7 @@
       <c r="CN242" s="14"/>
       <c r="CO242" s="14"/>
       <c r="CP242" s="14"/>
+      <c r="CQ242" s="14"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -57581,126 +57915,126 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="29">
+      <c r="B254" s="27">
         <v>2000</v>
       </c>
-      <c r="C254" s="29"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29">
+      <c r="C254" s="27"/>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="27">
         <v>2001</v>
       </c>
-      <c r="G254" s="29"/>
-      <c r="H254" s="29"/>
-      <c r="I254" s="29"/>
-      <c r="J254" s="29">
+      <c r="G254" s="27"/>
+      <c r="H254" s="27"/>
+      <c r="I254" s="27"/>
+      <c r="J254" s="27">
         <v>2002</v>
       </c>
-      <c r="K254" s="29"/>
-      <c r="L254" s="29"/>
-      <c r="M254" s="29"/>
-      <c r="N254" s="29">
+      <c r="K254" s="27"/>
+      <c r="L254" s="27"/>
+      <c r="M254" s="27"/>
+      <c r="N254" s="27">
         <v>2003</v>
       </c>
-      <c r="O254" s="29"/>
-      <c r="P254" s="29"/>
-      <c r="Q254" s="29"/>
-      <c r="R254" s="29">
+      <c r="O254" s="27"/>
+      <c r="P254" s="27"/>
+      <c r="Q254" s="27"/>
+      <c r="R254" s="27">
         <v>2004</v>
       </c>
-      <c r="S254" s="29"/>
-      <c r="T254" s="29"/>
-      <c r="U254" s="29"/>
-      <c r="V254" s="29">
+      <c r="S254" s="27"/>
+      <c r="T254" s="27"/>
+      <c r="U254" s="27"/>
+      <c r="V254" s="27">
         <v>2005</v>
       </c>
-      <c r="W254" s="29"/>
-      <c r="X254" s="29"/>
-      <c r="Y254" s="29"/>
-      <c r="Z254" s="29">
+      <c r="W254" s="27"/>
+      <c r="X254" s="27"/>
+      <c r="Y254" s="27"/>
+      <c r="Z254" s="27">
         <v>2006</v>
       </c>
-      <c r="AA254" s="29"/>
-      <c r="AB254" s="29"/>
-      <c r="AC254" s="29"/>
-      <c r="AD254" s="29">
+      <c r="AA254" s="27"/>
+      <c r="AB254" s="27"/>
+      <c r="AC254" s="27"/>
+      <c r="AD254" s="27">
         <v>2007</v>
       </c>
-      <c r="AE254" s="29"/>
-      <c r="AF254" s="29"/>
-      <c r="AG254" s="29"/>
-      <c r="AH254" s="29">
+      <c r="AE254" s="27"/>
+      <c r="AF254" s="27"/>
+      <c r="AG254" s="27"/>
+      <c r="AH254" s="27">
         <v>2008</v>
       </c>
-      <c r="AI254" s="29"/>
-      <c r="AJ254" s="29"/>
-      <c r="AK254" s="29"/>
-      <c r="AL254" s="29">
+      <c r="AI254" s="27"/>
+      <c r="AJ254" s="27"/>
+      <c r="AK254" s="27"/>
+      <c r="AL254" s="27">
         <v>2009</v>
       </c>
-      <c r="AM254" s="29"/>
-      <c r="AN254" s="29"/>
-      <c r="AO254" s="29"/>
-      <c r="AP254" s="29">
+      <c r="AM254" s="27"/>
+      <c r="AN254" s="27"/>
+      <c r="AO254" s="27"/>
+      <c r="AP254" s="27">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="29"/>
-      <c r="AR254" s="29"/>
-      <c r="AS254" s="29"/>
-      <c r="AT254" s="29">
+      <c r="AQ254" s="27"/>
+      <c r="AR254" s="27"/>
+      <c r="AS254" s="27"/>
+      <c r="AT254" s="27">
         <v>2011</v>
       </c>
-      <c r="AU254" s="29"/>
-      <c r="AV254" s="29"/>
-      <c r="AW254" s="29"/>
-      <c r="AX254" s="29">
+      <c r="AU254" s="27"/>
+      <c r="AV254" s="27"/>
+      <c r="AW254" s="27"/>
+      <c r="AX254" s="27">
         <v>2012</v>
       </c>
-      <c r="AY254" s="29"/>
-      <c r="AZ254" s="29"/>
-      <c r="BA254" s="29"/>
-      <c r="BB254" s="29">
+      <c r="AY254" s="27"/>
+      <c r="AZ254" s="27"/>
+      <c r="BA254" s="27"/>
+      <c r="BB254" s="27">
         <v>2013</v>
       </c>
-      <c r="BC254" s="29"/>
-      <c r="BD254" s="29"/>
-      <c r="BE254" s="29"/>
-      <c r="BF254" s="29">
+      <c r="BC254" s="27"/>
+      <c r="BD254" s="27"/>
+      <c r="BE254" s="27"/>
+      <c r="BF254" s="27">
         <v>2014</v>
       </c>
-      <c r="BG254" s="29"/>
-      <c r="BH254" s="29"/>
-      <c r="BI254" s="29"/>
-      <c r="BJ254" s="29">
+      <c r="BG254" s="27"/>
+      <c r="BH254" s="27"/>
+      <c r="BI254" s="27"/>
+      <c r="BJ254" s="27">
         <v>2015</v>
       </c>
-      <c r="BK254" s="29"/>
-      <c r="BL254" s="29"/>
-      <c r="BM254" s="29"/>
-      <c r="BN254" s="29">
+      <c r="BK254" s="27"/>
+      <c r="BL254" s="27"/>
+      <c r="BM254" s="27"/>
+      <c r="BN254" s="27">
         <v>2016</v>
       </c>
-      <c r="BO254" s="29"/>
-      <c r="BP254" s="29"/>
-      <c r="BQ254" s="29"/>
-      <c r="BR254" s="29">
+      <c r="BO254" s="27"/>
+      <c r="BP254" s="27"/>
+      <c r="BQ254" s="27"/>
+      <c r="BR254" s="27">
         <v>2017</v>
       </c>
-      <c r="BS254" s="29"/>
-      <c r="BT254" s="29"/>
-      <c r="BU254" s="29"/>
-      <c r="BV254" s="29">
+      <c r="BS254" s="27"/>
+      <c r="BT254" s="27"/>
+      <c r="BU254" s="27"/>
+      <c r="BV254" s="27">
         <v>2018</v>
       </c>
-      <c r="BW254" s="29"/>
-      <c r="BX254" s="29"/>
-      <c r="BY254" s="29"/>
-      <c r="BZ254" s="29">
+      <c r="BW254" s="27"/>
+      <c r="BX254" s="27"/>
+      <c r="BY254" s="27"/>
+      <c r="BZ254" s="27">
         <v>2019</v>
       </c>
-      <c r="CA254" s="29"/>
-      <c r="CB254" s="29"/>
-      <c r="CC254" s="29"/>
+      <c r="CA254" s="27"/>
+      <c r="CB254" s="27"/>
+      <c r="CC254" s="27"/>
       <c r="CD254" s="28">
         <v>2020</v>
       </c>
@@ -57719,9 +58053,10 @@
       <c r="CM254" s="28"/>
       <c r="CN254" s="28"/>
       <c r="CO254" s="28"/>
-      <c r="CP254" s="25">
+      <c r="CP254" s="28">
         <v>2023</v>
       </c>
+      <c r="CQ254" s="29"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
@@ -58005,6 +58340,9 @@
       </c>
       <c r="CP255" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CQ255" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -58291,9 +58629,11 @@
         <v>18.96176063948846</v>
       </c>
       <c r="CP257" s="23">
-        <v>14.7245270920737</v>
-      </c>
-      <c r="CQ257" s="9"/>
+        <v>14.594793717376453</v>
+      </c>
+      <c r="CQ257" s="23">
+        <v>9.7031773310401075</v>
+      </c>
       <c r="CR257" s="9"/>
       <c r="CS257" s="9"/>
       <c r="CT257" s="9"/>
@@ -58633,9 +58973,11 @@
         <v>1.1412048174834992</v>
       </c>
       <c r="CP258" s="23">
-        <v>0.67113146249817435</v>
-      </c>
-      <c r="CQ258" s="9"/>
+        <v>0.66497909717382597</v>
+      </c>
+      <c r="CQ258" s="23">
+        <v>0.30880491755502237</v>
+      </c>
       <c r="CR258" s="9"/>
       <c r="CS258" s="9"/>
       <c r="CT258" s="9"/>
@@ -58975,9 +59317,11 @@
         <v>5.004241174083675</v>
       </c>
       <c r="CP259" s="23">
-        <v>2.8412776718700674</v>
-      </c>
-      <c r="CQ259" s="9"/>
+        <v>2.8281294248545645</v>
+      </c>
+      <c r="CQ259" s="23">
+        <v>1.1583724044308781</v>
+      </c>
       <c r="CR259" s="9"/>
       <c r="CS259" s="9"/>
       <c r="CT259" s="9"/>
@@ -59317,9 +59661,11 @@
         <v>0.34911045885513253</v>
       </c>
       <c r="CP260" s="23">
-        <v>0.17083964404528493</v>
-      </c>
-      <c r="CQ260" s="9"/>
+        <v>0.1711189520658262</v>
+      </c>
+      <c r="CQ260" s="23">
+        <v>0.10334800173821668</v>
+      </c>
       <c r="CR260" s="9"/>
       <c r="CS260" s="9"/>
       <c r="CT260" s="9"/>
@@ -59659,9 +60005,11 @@
         <v>0.23535831317279668</v>
       </c>
       <c r="CP261" s="23">
-        <v>8.9391976934907913E-2</v>
-      </c>
-      <c r="CQ261" s="9"/>
+        <v>8.6406957283407262E-2</v>
+      </c>
+      <c r="CQ261" s="23">
+        <v>4.9707789596694828E-2</v>
+      </c>
       <c r="CR261" s="9"/>
       <c r="CS261" s="9"/>
       <c r="CT261" s="9"/>
@@ -60001,9 +60349,11 @@
         <v>1.3057763751206408</v>
       </c>
       <c r="CP262" s="23">
-        <v>0.8798646756076447</v>
-      </c>
-      <c r="CQ262" s="9"/>
+        <v>0.87175813500140853</v>
+      </c>
+      <c r="CQ262" s="23">
+        <v>0.25090227480200022</v>
+      </c>
       <c r="CR262" s="9"/>
       <c r="CS262" s="9"/>
       <c r="CT262" s="9"/>
@@ -60343,9 +60693,11 @@
         <v>6.8608367683494693</v>
       </c>
       <c r="CP263" s="23">
-        <v>7.8625136423628836</v>
-      </c>
-      <c r="CQ263" s="9"/>
+        <v>7.7922487668997338</v>
+      </c>
+      <c r="CQ263" s="23">
+        <v>6.9878230685065752</v>
+      </c>
       <c r="CR263" s="9"/>
       <c r="CS263" s="9"/>
       <c r="CT263" s="9"/>
@@ -60685,9 +61037,11 @@
         <v>0.5078509518182085</v>
       </c>
       <c r="CP264" s="23">
-        <v>0.27053909458883174</v>
-      </c>
-      <c r="CQ264" s="9"/>
+        <v>0.26708010854801967</v>
+      </c>
+      <c r="CQ264" s="23">
+        <v>0.11325695453155929</v>
+      </c>
       <c r="CR264" s="9"/>
       <c r="CS264" s="9"/>
       <c r="CT264" s="9"/>
@@ -61027,9 +61381,11 @@
         <v>3.557381780605041</v>
       </c>
       <c r="CP265" s="23">
-        <v>1.9389689241659063</v>
-      </c>
-      <c r="CQ265" s="9"/>
+        <v>1.9130722755496661</v>
+      </c>
+      <c r="CQ265" s="23">
+        <v>0.73096191987915893</v>
+      </c>
       <c r="CR265" s="9"/>
       <c r="CS265" s="9"/>
       <c r="CT265" s="9"/>
@@ -61369,9 +61725,11 @@
         <v>18.974053532241584</v>
       </c>
       <c r="CP266" s="23">
-        <v>15.870955886084543</v>
-      </c>
-      <c r="CQ266" s="9"/>
+        <v>15.416880828077758</v>
+      </c>
+      <c r="CQ266" s="23">
+        <v>13.645370340002176</v>
+      </c>
       <c r="CR266" s="9"/>
       <c r="CS266" s="9"/>
       <c r="CT266" s="9"/>
@@ -61711,9 +62069,11 @@
         <v>3.4096386625753392</v>
       </c>
       <c r="CP267" s="23">
-        <v>2.7106443611262581</v>
-      </c>
-      <c r="CQ267" s="9"/>
+        <v>2.4135507072072442</v>
+      </c>
+      <c r="CQ267" s="23">
+        <v>2.2718505290705382</v>
+      </c>
       <c r="CR267" s="9"/>
       <c r="CS267" s="9"/>
       <c r="CT267" s="9"/>
@@ -62053,9 +62413,11 @@
         <v>2.0581225699364842</v>
       </c>
       <c r="CP268" s="23">
-        <v>1.6763182625395785</v>
-      </c>
-      <c r="CQ268" s="9"/>
+        <v>1.5981998661456025</v>
+      </c>
+      <c r="CQ268" s="23">
+        <v>1.5111165524687782</v>
+      </c>
       <c r="CR268" s="9"/>
       <c r="CS268" s="9"/>
       <c r="CT268" s="9"/>
@@ -62395,9 +62757,11 @@
         <v>5.9637582807487046</v>
       </c>
       <c r="CP269" s="23">
-        <v>5.5047686743712418</v>
-      </c>
-      <c r="CQ269" s="9"/>
+        <v>5.4619439555514804</v>
+      </c>
+      <c r="CQ269" s="23">
+        <v>5.3308084518228638</v>
+      </c>
       <c r="CR269" s="9"/>
       <c r="CS269" s="9"/>
       <c r="CT269" s="9"/>
@@ -62737,9 +63101,11 @@
         <v>7.5425340189810548</v>
       </c>
       <c r="CP270" s="23">
-        <v>5.9792245880474653</v>
-      </c>
-      <c r="CQ270" s="9"/>
+        <v>5.9431862991734308</v>
+      </c>
+      <c r="CQ270" s="23">
+        <v>4.5315948066399967</v>
+      </c>
       <c r="CR270" s="9"/>
       <c r="CS270" s="9"/>
       <c r="CT270" s="9"/>
@@ -63079,9 +63445,11 @@
         <v>48.367427192743008</v>
       </c>
       <c r="CP271" s="23">
-        <v>52.076907314575536</v>
-      </c>
-      <c r="CQ271" s="9"/>
+        <v>52.851184433333906</v>
+      </c>
+      <c r="CQ271" s="23">
+        <v>53.593220322969159</v>
+      </c>
       <c r="CR271" s="9"/>
       <c r="CS271" s="9"/>
       <c r="CT271" s="9"/>
@@ -63421,9 +63789,11 @@
         <v>45.472712394108079</v>
       </c>
       <c r="CP272" s="23">
-        <v>48.899058674089133</v>
-      </c>
-      <c r="CQ272" s="9"/>
+        <v>49.510918849267995</v>
+      </c>
+      <c r="CQ272" s="23">
+        <v>46.31342855066017</v>
+      </c>
       <c r="CR272" s="9"/>
       <c r="CS272" s="9"/>
       <c r="CT272" s="9"/>
@@ -63763,9 +64133,11 @@
         <v>3.6217891494582564E-3</v>
       </c>
       <c r="CP273" s="23">
-        <v>5.9616015101564583E-3</v>
-      </c>
-      <c r="CQ273" s="9"/>
+        <v>5.8406840267713929E-3</v>
+      </c>
+      <c r="CQ273" s="23">
+        <v>2.4708062913256449E-3</v>
+      </c>
       <c r="CR273" s="9"/>
       <c r="CS273" s="9"/>
       <c r="CT273" s="9"/>
@@ -64105,9 +64477,11 @@
         <v>1.5394154248311571</v>
       </c>
       <c r="CP274" s="23">
-        <v>1.8199798394989646</v>
-      </c>
-      <c r="CQ274" s="9"/>
+        <v>1.8048299379749611</v>
+      </c>
+      <c r="CQ274" s="23">
+        <v>3.9950039463813605</v>
+      </c>
       <c r="CR274" s="9"/>
       <c r="CS274" s="9"/>
       <c r="CT274" s="9"/>
@@ -64447,9 +64821,11 @@
         <v>1.3516775846543154</v>
       </c>
       <c r="CP275" s="23">
-        <v>1.351907199477292</v>
-      </c>
-      <c r="CQ275" s="9"/>
+        <v>1.529594962064182</v>
+      </c>
+      <c r="CQ275" s="23">
+        <v>3.2823170196363085</v>
+      </c>
       <c r="CR275" s="9"/>
       <c r="CS275" s="9"/>
       <c r="CT275" s="9"/>
@@ -64789,9 +65165,11 @@
         <v>13.69675863552694</v>
       </c>
       <c r="CP276" s="23">
-        <v>17.327609707266202</v>
-      </c>
-      <c r="CQ276" s="9"/>
+        <v>17.137141021211885</v>
+      </c>
+      <c r="CQ276" s="23">
+        <v>23.058232005988547</v>
+      </c>
       <c r="CR276" s="9"/>
       <c r="CS276" s="9"/>
       <c r="CT276" s="9"/>
@@ -65131,9 +65509,11 @@
         <v>1.1953693434742636</v>
       </c>
       <c r="CP277" s="23">
-        <v>1.6719403097129999</v>
-      </c>
-      <c r="CQ277" s="9"/>
+        <v>1.5786040240599042</v>
+      </c>
+      <c r="CQ277" s="23">
+        <v>2.2858674695966799</v>
+      </c>
       <c r="CR277" s="9"/>
       <c r="CS277" s="9"/>
       <c r="CT277" s="9"/>
@@ -65473,9 +65853,11 @@
         <v>2.2798502621119159</v>
       </c>
       <c r="CP278" s="23">
-        <v>3.3066683226578326</v>
-      </c>
-      <c r="CQ278" s="9"/>
+        <v>3.2488688871750626</v>
+      </c>
+      <c r="CQ278" s="23">
+        <v>4.7305517770374585</v>
+      </c>
       <c r="CR278" s="9"/>
       <c r="CS278" s="9"/>
       <c r="CT278" s="9"/>
@@ -65815,9 +66197,11 @@
         <v>7.2935227924473951</v>
       </c>
       <c r="CP279" s="23">
-        <v>8.1268559648732488</v>
-      </c>
-      <c r="CQ279" s="9"/>
+        <v>8.0705342665077389</v>
+      </c>
+      <c r="CQ279" s="23">
+        <v>11.83553278758526</v>
+      </c>
       <c r="CR279" s="9"/>
       <c r="CS279" s="9"/>
       <c r="CT279" s="9"/>
@@ -66157,9 +66541,11 @@
         <v>2.928016237493364</v>
       </c>
       <c r="CP280" s="23">
-        <v>4.2221451100221206</v>
-      </c>
-      <c r="CQ280" s="9"/>
+        <v>4.2391338434691788</v>
+      </c>
+      <c r="CQ280" s="23">
+        <v>4.2062799717691499</v>
+      </c>
       <c r="CR280" s="9"/>
       <c r="CS280" s="9"/>
       <c r="CT280" s="9"/>
@@ -66654,7 +67040,9 @@
       <c r="CP282" s="23">
         <v>100</v>
       </c>
-      <c r="CQ282" s="9"/>
+      <c r="CQ282" s="23">
+        <v>100</v>
+      </c>
       <c r="CR282" s="9"/>
       <c r="CS282" s="9"/>
       <c r="CT282" s="9"/>
@@ -66808,6 +67196,7 @@
       <c r="CN283" s="14"/>
       <c r="CO283" s="14"/>
       <c r="CP283" s="14"/>
+      <c r="CQ283" s="14"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
@@ -66815,7 +67204,151 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP50:CQ50"/>
+    <mergeCell ref="CP172:CQ172"/>
+    <mergeCell ref="CP213:CQ213"/>
+    <mergeCell ref="CP254:CQ254"/>
+    <mergeCell ref="CL91:CO91"/>
+    <mergeCell ref="CP91:CQ91"/>
+    <mergeCell ref="CL132:CO132"/>
+    <mergeCell ref="CP132:CQ132"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL50:CO50"/>
+    <mergeCell ref="CL172:CO172"/>
+    <mergeCell ref="CL213:CO213"/>
+    <mergeCell ref="CL254:CO254"/>
+    <mergeCell ref="CH91:CK91"/>
+    <mergeCell ref="CD132:CG132"/>
+    <mergeCell ref="CH172:CK172"/>
+    <mergeCell ref="CH213:CK213"/>
+    <mergeCell ref="CH254:CK254"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD254:CG254"/>
+    <mergeCell ref="CD213:CG213"/>
+    <mergeCell ref="CD172:CG172"/>
+    <mergeCell ref="CD50:CG50"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH50:CK50"/>
+    <mergeCell ref="CD91:CG91"/>
+    <mergeCell ref="CH132:CK132"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BZ50:CC50"/>
+    <mergeCell ref="BV254:BY254"/>
+    <mergeCell ref="BN132:BQ132"/>
+    <mergeCell ref="BJ91:BM91"/>
+    <mergeCell ref="BN91:BQ91"/>
+    <mergeCell ref="BJ132:BM132"/>
+    <mergeCell ref="BJ172:BM172"/>
+    <mergeCell ref="BR132:BU132"/>
+    <mergeCell ref="BV132:BY132"/>
+    <mergeCell ref="BR50:BU50"/>
+    <mergeCell ref="BV50:BY50"/>
+    <mergeCell ref="BF254:BI254"/>
+    <mergeCell ref="BJ254:BM254"/>
+    <mergeCell ref="BN254:BQ254"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BR91:BU91"/>
+    <mergeCell ref="BV91:BY91"/>
+    <mergeCell ref="BR213:BU213"/>
+    <mergeCell ref="BV213:BY213"/>
+    <mergeCell ref="BZ213:CC213"/>
+    <mergeCell ref="BZ172:CC172"/>
+    <mergeCell ref="BR172:BU172"/>
+    <mergeCell ref="BV172:BY172"/>
+    <mergeCell ref="BZ91:CC91"/>
+    <mergeCell ref="BZ132:CC132"/>
+    <mergeCell ref="BF213:BI213"/>
+    <mergeCell ref="BJ213:BM213"/>
+    <mergeCell ref="BN213:BQ213"/>
+    <mergeCell ref="BJ50:BM50"/>
+    <mergeCell ref="BN50:BQ50"/>
+    <mergeCell ref="BN172:BQ172"/>
+    <mergeCell ref="BZ254:CC254"/>
+    <mergeCell ref="BR254:BU254"/>
+    <mergeCell ref="AX254:BA254"/>
+    <mergeCell ref="BB254:BE254"/>
+    <mergeCell ref="N213:Q213"/>
+    <mergeCell ref="R213:U213"/>
+    <mergeCell ref="V213:Y213"/>
+    <mergeCell ref="Z213:AC213"/>
+    <mergeCell ref="AD213:AG213"/>
+    <mergeCell ref="AH213:AK213"/>
+    <mergeCell ref="AL213:AO213"/>
+    <mergeCell ref="AL254:AO254"/>
+    <mergeCell ref="AP254:AS254"/>
+    <mergeCell ref="AT254:AW254"/>
+    <mergeCell ref="AL91:AO91"/>
+    <mergeCell ref="Z172:AC172"/>
+    <mergeCell ref="AD172:AG172"/>
+    <mergeCell ref="AH172:AK172"/>
+    <mergeCell ref="AP91:AS91"/>
+    <mergeCell ref="Z132:AC132"/>
+    <mergeCell ref="AD132:AG132"/>
+    <mergeCell ref="AH132:AK132"/>
+    <mergeCell ref="AL132:AO132"/>
+    <mergeCell ref="AL172:AO172"/>
+    <mergeCell ref="AP172:AS172"/>
+    <mergeCell ref="AD91:AG91"/>
+    <mergeCell ref="AH91:AK91"/>
+    <mergeCell ref="AT172:AW172"/>
+    <mergeCell ref="AX172:BA172"/>
+    <mergeCell ref="BB172:BE172"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="J132:M132"/>
+    <mergeCell ref="N132:Q132"/>
+    <mergeCell ref="R132:U132"/>
+    <mergeCell ref="V132:Y132"/>
+    <mergeCell ref="AX132:BA132"/>
+    <mergeCell ref="BB132:BE132"/>
+    <mergeCell ref="F254:I254"/>
+    <mergeCell ref="J254:M254"/>
+    <mergeCell ref="N254:Q254"/>
+    <mergeCell ref="R254:U254"/>
+    <mergeCell ref="V254:Y254"/>
+    <mergeCell ref="Z254:AC254"/>
+    <mergeCell ref="AD254:AG254"/>
+    <mergeCell ref="AH254:AK254"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="J213:M213"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:I172"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="N172:Q172"/>
+    <mergeCell ref="R172:U172"/>
+    <mergeCell ref="V172:Y172"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="N91:Q91"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="V91:Y91"/>
+    <mergeCell ref="Z91:AC91"/>
+    <mergeCell ref="V50:Y50"/>
+    <mergeCell ref="Z50:AC50"/>
+    <mergeCell ref="AD50:AG50"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="AL50:AO50"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="R50:U50"/>
     <mergeCell ref="B254:E254"/>
     <mergeCell ref="AT50:AW50"/>
     <mergeCell ref="AX50:BA50"/>
@@ -66840,152 +67373,17 @@
     <mergeCell ref="BF91:BI91"/>
     <mergeCell ref="AX213:BA213"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="R50:U50"/>
-    <mergeCell ref="V50:Y50"/>
-    <mergeCell ref="Z50:AC50"/>
-    <mergeCell ref="AD50:AG50"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="AL50:AO50"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="F254:I254"/>
-    <mergeCell ref="J254:M254"/>
-    <mergeCell ref="N254:Q254"/>
-    <mergeCell ref="R254:U254"/>
-    <mergeCell ref="V254:Y254"/>
-    <mergeCell ref="Z254:AC254"/>
-    <mergeCell ref="AD254:AG254"/>
-    <mergeCell ref="AH254:AK254"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="J213:M213"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:I172"/>
-    <mergeCell ref="J172:M172"/>
-    <mergeCell ref="N172:Q172"/>
-    <mergeCell ref="R172:U172"/>
-    <mergeCell ref="V172:Y172"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="V91:Y91"/>
-    <mergeCell ref="Z91:AC91"/>
-    <mergeCell ref="AT172:AW172"/>
-    <mergeCell ref="AX172:BA172"/>
-    <mergeCell ref="BB172:BE172"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="F132:I132"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="N132:Q132"/>
-    <mergeCell ref="R132:U132"/>
-    <mergeCell ref="V132:Y132"/>
-    <mergeCell ref="AX132:BA132"/>
-    <mergeCell ref="BB132:BE132"/>
-    <mergeCell ref="AL91:AO91"/>
-    <mergeCell ref="Z172:AC172"/>
-    <mergeCell ref="AD172:AG172"/>
-    <mergeCell ref="AH172:AK172"/>
-    <mergeCell ref="AP91:AS91"/>
-    <mergeCell ref="Z132:AC132"/>
-    <mergeCell ref="AD132:AG132"/>
-    <mergeCell ref="AH132:AK132"/>
-    <mergeCell ref="AL132:AO132"/>
-    <mergeCell ref="AL172:AO172"/>
-    <mergeCell ref="AP172:AS172"/>
-    <mergeCell ref="AD91:AG91"/>
-    <mergeCell ref="AH91:AK91"/>
-    <mergeCell ref="AX254:BA254"/>
-    <mergeCell ref="BB254:BE254"/>
-    <mergeCell ref="N213:Q213"/>
-    <mergeCell ref="R213:U213"/>
-    <mergeCell ref="V213:Y213"/>
-    <mergeCell ref="Z213:AC213"/>
-    <mergeCell ref="AD213:AG213"/>
-    <mergeCell ref="AH213:AK213"/>
-    <mergeCell ref="AL213:AO213"/>
-    <mergeCell ref="AL254:AO254"/>
-    <mergeCell ref="AP254:AS254"/>
-    <mergeCell ref="AT254:AW254"/>
-    <mergeCell ref="BF254:BI254"/>
-    <mergeCell ref="BJ254:BM254"/>
-    <mergeCell ref="BN254:BQ254"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BR91:BU91"/>
-    <mergeCell ref="BV91:BY91"/>
-    <mergeCell ref="BR213:BU213"/>
-    <mergeCell ref="BV213:BY213"/>
-    <mergeCell ref="BZ213:CC213"/>
-    <mergeCell ref="BZ172:CC172"/>
-    <mergeCell ref="BR172:BU172"/>
-    <mergeCell ref="BV172:BY172"/>
-    <mergeCell ref="BZ91:CC91"/>
-    <mergeCell ref="BZ132:CC132"/>
-    <mergeCell ref="BF213:BI213"/>
-    <mergeCell ref="BJ213:BM213"/>
-    <mergeCell ref="BN213:BQ213"/>
-    <mergeCell ref="BJ50:BM50"/>
-    <mergeCell ref="BN50:BQ50"/>
-    <mergeCell ref="BN172:BQ172"/>
-    <mergeCell ref="BZ254:CC254"/>
-    <mergeCell ref="BR254:BU254"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BZ50:CC50"/>
-    <mergeCell ref="BV254:BY254"/>
-    <mergeCell ref="BN132:BQ132"/>
-    <mergeCell ref="BJ91:BM91"/>
-    <mergeCell ref="BN91:BQ91"/>
-    <mergeCell ref="BJ132:BM132"/>
-    <mergeCell ref="BJ172:BM172"/>
-    <mergeCell ref="BR132:BU132"/>
-    <mergeCell ref="BV132:BY132"/>
-    <mergeCell ref="BR50:BU50"/>
-    <mergeCell ref="BV50:BY50"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL50:CO50"/>
-    <mergeCell ref="CH91:CK91"/>
-    <mergeCell ref="CD132:CG132"/>
-    <mergeCell ref="CH172:CK172"/>
-    <mergeCell ref="CH213:CK213"/>
-    <mergeCell ref="CH254:CK254"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD254:CG254"/>
-    <mergeCell ref="CD213:CG213"/>
-    <mergeCell ref="CD172:CG172"/>
-    <mergeCell ref="CD50:CG50"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH50:CK50"/>
-    <mergeCell ref="CD91:CG91"/>
-    <mergeCell ref="CH132:CK132"/>
-    <mergeCell ref="CL172:CO172"/>
-    <mergeCell ref="CL213:CO213"/>
-    <mergeCell ref="CL254:CO254"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="93" man="1"/>
-    <brk id="82" max="93" man="1"/>
-    <brk id="123" max="93" man="1"/>
-    <brk id="164" max="93" man="1"/>
-    <brk id="204" max="93" man="1"/>
-    <brk id="245" max="93" man="1"/>
+    <brk id="41" max="94" man="1"/>
+    <brk id="82" max="94" man="1"/>
+    <brk id="123" max="94" man="1"/>
+    <brk id="164" max="94" man="1"/>
+    <brk id="204" max="94" man="1"/>
+    <brk id="245" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0235CA8-1185-456F-BABC-A80E3C2EC421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DB6BC-24E7-4F6E-9AE3-6C2C533CE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CQ$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CR$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="76">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -264,13 +264,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,10 +411,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,14 +763,14 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV284"/>
+  <dimension ref="A1:EV285"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="BS3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CQ5" sqref="CQ5"/>
+      <selection pane="bottomRight" activeCell="CQ6" sqref="CQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -771,8 +782,9 @@
     <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="95" width="9.21875" style="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="89" width="9.21875" style="1" customWidth="1"/>
+    <col min="90" max="96" width="10.21875" style="28" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -807,148 +819,149 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="28">
+      <c r="B9" s="38">
         <v>2000</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38">
         <v>2001</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28">
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38">
         <v>2002</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38">
         <v>2003</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28">
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38">
         <v>2004</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28">
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38">
         <v>2005</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28">
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38">
         <v>2006</v>
       </c>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28">
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38">
         <v>2007</v>
       </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28">
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38">
         <v>2008</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28">
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38">
         <v>2009</v>
       </c>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28">
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28">
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38">
         <v>2011</v>
       </c>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="28"/>
-      <c r="AX9" s="28">
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38">
         <v>2012</v>
       </c>
-      <c r="AY9" s="28"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="28"/>
-      <c r="BB9" s="28">
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38">
         <v>2013</v>
       </c>
-      <c r="BC9" s="28"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="28"/>
-      <c r="BF9" s="28">
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38">
         <v>2014</v>
       </c>
-      <c r="BG9" s="28"/>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="28"/>
-      <c r="BJ9" s="28">
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38">
         <v>2015</v>
       </c>
-      <c r="BK9" s="28"/>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="28"/>
-      <c r="BN9" s="28">
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38">
         <v>2016</v>
       </c>
-      <c r="BO9" s="28"/>
-      <c r="BP9" s="28"/>
-      <c r="BQ9" s="28"/>
-      <c r="BR9" s="28">
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38">
         <v>2017</v>
       </c>
-      <c r="BS9" s="28"/>
-      <c r="BT9" s="28"/>
-      <c r="BU9" s="28"/>
-      <c r="BV9" s="28">
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38">
         <v>2018</v>
       </c>
-      <c r="BW9" s="28"/>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="28">
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="28"/>
-      <c r="CB9" s="28"/>
-      <c r="CC9" s="28"/>
-      <c r="CD9" s="28">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="28"/>
-      <c r="CF9" s="28"/>
-      <c r="CG9" s="28"/>
-      <c r="CH9" s="28">
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38">
         <v>2021</v>
       </c>
-      <c r="CI9" s="28"/>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="28"/>
-      <c r="CL9" s="28">
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="37">
         <v>2022</v>
       </c>
-      <c r="CM9" s="28"/>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="28"/>
-      <c r="CP9" s="28">
+      <c r="CM9" s="37"/>
+      <c r="CN9" s="37"/>
+      <c r="CO9" s="37"/>
+      <c r="CP9" s="37">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="29"/>
+      <c r="CQ9" s="37"/>
+      <c r="CR9" s="37"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1218,23 +1231,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="17" t="s">
         <v>7</v>
+      </c>
+      <c r="CR10" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1508,25 +1524,27 @@
       <c r="CK12" s="25">
         <v>58275.074193118606</v>
       </c>
-      <c r="CL12" s="25">
+      <c r="CL12" s="29">
         <v>62127.065395262369</v>
       </c>
-      <c r="CM12" s="25">
+      <c r="CM12" s="29">
         <v>49334.66666877734</v>
       </c>
-      <c r="CN12" s="25">
+      <c r="CN12" s="29">
         <v>41442.460552130084</v>
       </c>
-      <c r="CO12" s="25">
+      <c r="CO12" s="29">
         <v>56443.883811741136</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="29">
         <v>63827.335203808274</v>
       </c>
-      <c r="CQ12" s="25">
-        <v>51499.970463080237</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="29">
+        <v>51307.74633952367</v>
+      </c>
+      <c r="CR12" s="29">
+        <v>38455.088355973756</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -1852,25 +1870,27 @@
       <c r="CK13" s="26">
         <v>4316.9027270498527</v>
       </c>
-      <c r="CL13" s="26">
+      <c r="CL13" s="30">
         <v>2501.1893205300003</v>
       </c>
-      <c r="CM13" s="26">
+      <c r="CM13" s="30">
         <v>2438.1245430334579</v>
       </c>
-      <c r="CN13" s="26">
+      <c r="CN13" s="30">
         <v>2966.1475999427439</v>
       </c>
-      <c r="CO13" s="26">
+      <c r="CO13" s="30">
         <v>2853.8755453337226</v>
       </c>
-      <c r="CP13" s="26">
+      <c r="CP13" s="30">
         <v>2970.3059336073388</v>
       </c>
-      <c r="CQ13" s="26">
-        <v>3595.034778034496</v>
-      </c>
-      <c r="CR13" s="9"/>
+      <c r="CQ13" s="30">
+        <v>3597.6289190189041</v>
+      </c>
+      <c r="CR13" s="30">
+        <v>3652.702654410683</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -2196,25 +2216,27 @@
       <c r="CK14" s="26">
         <v>11126.761917937496</v>
       </c>
-      <c r="CL14" s="26">
+      <c r="CL14" s="30">
         <v>9501.003038080893</v>
       </c>
-      <c r="CM14" s="26">
+      <c r="CM14" s="30">
         <v>9312.2803256344141</v>
       </c>
-      <c r="CN14" s="26">
+      <c r="CN14" s="30">
         <v>10323.553975386678</v>
       </c>
-      <c r="CO14" s="26">
+      <c r="CO14" s="30">
         <v>12378.839759178214</v>
       </c>
-      <c r="CP14" s="26">
+      <c r="CP14" s="30">
         <v>12874.866997148456</v>
       </c>
-      <c r="CQ14" s="26">
-        <v>13157.198165606718</v>
-      </c>
-      <c r="CR14" s="9"/>
+      <c r="CQ14" s="30">
+        <v>13163.886784852473</v>
+      </c>
+      <c r="CR14" s="30">
+        <v>8315.0911460550815</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -2540,25 +2562,27 @@
       <c r="CK15" s="26">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="30">
         <v>650.43149024144066</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="30">
         <v>698.64256169906594</v>
       </c>
-      <c r="CN15" s="26">
+      <c r="CN15" s="30">
         <v>729.30421650781761</v>
       </c>
-      <c r="CO15" s="26">
+      <c r="CO15" s="30">
         <v>939.38620247191375</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="30">
         <v>703.96510234692232</v>
       </c>
-      <c r="CQ15" s="26">
-        <v>883.12192393932628</v>
-      </c>
-      <c r="CR15" s="9"/>
+      <c r="CQ15" s="30">
+        <v>877.01483033711406</v>
+      </c>
+      <c r="CR15" s="30">
+        <v>637.6612104202004</v>
+      </c>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -2884,25 +2908,27 @@
       <c r="CK16" s="26">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="26">
+      <c r="CL16" s="30">
         <v>423.35151375127072</v>
       </c>
-      <c r="CM16" s="26">
+      <c r="CM16" s="30">
         <v>376.20606291950469</v>
       </c>
-      <c r="CN16" s="26">
+      <c r="CN16" s="30">
         <v>563.01185576389378</v>
       </c>
-      <c r="CO16" s="26">
+      <c r="CO16" s="30">
         <v>615.82817693625566</v>
       </c>
-      <c r="CP16" s="26">
+      <c r="CP16" s="30">
         <v>457.86235817281693</v>
       </c>
-      <c r="CQ16" s="26">
-        <v>513.40655573271397</v>
-      </c>
-      <c r="CR16" s="9"/>
+      <c r="CQ16" s="30">
+        <v>487.94065427549424</v>
+      </c>
+      <c r="CR16" s="30">
+        <v>527.91428425331162</v>
+      </c>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -3228,25 +3254,27 @@
       <c r="CK17" s="26">
         <v>2999.8221527660235</v>
       </c>
-      <c r="CL17" s="26">
+      <c r="CL17" s="30">
         <v>3748.701186385681</v>
       </c>
-      <c r="CM17" s="26">
+      <c r="CM17" s="30">
         <v>2833.3985227820776</v>
       </c>
-      <c r="CN17" s="26">
+      <c r="CN17" s="30">
         <v>2597.6599899346902</v>
       </c>
-      <c r="CO17" s="26">
+      <c r="CO17" s="30">
         <v>3318.4071925493995</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="30">
         <v>4115.6372439833813</v>
       </c>
-      <c r="CQ17" s="26">
-        <v>2780.8385265980196</v>
-      </c>
-      <c r="CR17" s="9"/>
+      <c r="CQ17" s="30">
+        <v>2781.3848062650877</v>
+      </c>
+      <c r="CR17" s="30">
+        <v>2979.9742469896255</v>
+      </c>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
@@ -3572,25 +3600,27 @@
       <c r="CK18" s="26">
         <v>27696.613856543641</v>
       </c>
-      <c r="CL18" s="26">
+      <c r="CL18" s="30">
         <v>34737.260755101379</v>
       </c>
-      <c r="CM18" s="26">
+      <c r="CM18" s="30">
         <v>24233.83039362252</v>
       </c>
-      <c r="CN18" s="26">
+      <c r="CN18" s="30">
         <v>15206.00093161609</v>
       </c>
-      <c r="CO18" s="26">
+      <c r="CO18" s="30">
         <v>25689.646573083148</v>
       </c>
-      <c r="CP18" s="26">
+      <c r="CP18" s="30">
         <v>33052.192049832804</v>
       </c>
-      <c r="CQ18" s="26">
-        <v>23488.395980285757</v>
-      </c>
-      <c r="CR18" s="9"/>
+      <c r="CQ18" s="30">
+        <v>23444.908804291332</v>
+      </c>
+      <c r="CR18" s="30">
+        <v>15147.210502169059</v>
+      </c>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -3916,25 +3946,27 @@
       <c r="CK19" s="26">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="26">
+      <c r="CL19" s="30">
         <v>742.23927768370243</v>
       </c>
-      <c r="CM19" s="26">
+      <c r="CM19" s="30">
         <v>723.31973542125149</v>
       </c>
-      <c r="CN19" s="26">
+      <c r="CN19" s="30">
         <v>449.78254081928537</v>
       </c>
-      <c r="CO19" s="26">
+      <c r="CO19" s="30">
         <v>1235.3037827320438</v>
       </c>
-      <c r="CP19" s="26">
+      <c r="CP19" s="30">
         <v>1178.2053618372445</v>
       </c>
-      <c r="CQ19" s="26">
-        <v>1240.2465181374898</v>
-      </c>
-      <c r="CR19" s="9"/>
+      <c r="CQ19" s="30">
+        <v>1229.636738677985</v>
+      </c>
+      <c r="CR19" s="30">
+        <v>929.54265194248501</v>
+      </c>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -4260,25 +4292,27 @@
       <c r="CK20" s="26">
         <v>9496.8426950597295</v>
       </c>
-      <c r="CL20" s="26">
+      <c r="CL20" s="30">
         <v>9822.8888134880017</v>
       </c>
-      <c r="CM20" s="26">
+      <c r="CM20" s="30">
         <v>8718.86452366505</v>
       </c>
-      <c r="CN20" s="26">
+      <c r="CN20" s="30">
         <v>8606.999442158889</v>
       </c>
-      <c r="CO20" s="26">
+      <c r="CO20" s="30">
         <v>9412.5965794564363</v>
       </c>
-      <c r="CP20" s="26">
+      <c r="CP20" s="30">
         <v>8474.3001568793097</v>
       </c>
-      <c r="CQ20" s="26">
-        <v>5841.7280147457195</v>
-      </c>
-      <c r="CR20" s="9"/>
+      <c r="CQ20" s="30">
+        <v>5725.3448018052832</v>
+      </c>
+      <c r="CR20" s="30">
+        <v>6264.9916597333086</v>
+      </c>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -4604,25 +4638,27 @@
       <c r="CK21" s="25">
         <v>47395.956823974513</v>
       </c>
-      <c r="CL21" s="25">
+      <c r="CL21" s="29">
         <v>55164.47460116852</v>
       </c>
-      <c r="CM21" s="25">
+      <c r="CM21" s="29">
         <v>49118.606042486688</v>
       </c>
-      <c r="CN21" s="25">
+      <c r="CN21" s="29">
         <v>57879.628408538163</v>
       </c>
-      <c r="CO21" s="25">
+      <c r="CO21" s="29">
         <v>63024.81368645811</v>
       </c>
-      <c r="CP21" s="25">
+      <c r="CP21" s="29">
         <v>65728.712004918722</v>
       </c>
-      <c r="CQ21" s="25">
-        <v>59315.043566520893</v>
-      </c>
-      <c r="CR21" s="9"/>
+      <c r="CQ21" s="29">
+        <v>59185.621486900272</v>
+      </c>
+      <c r="CR21" s="29">
+        <v>59961.564644380414</v>
+      </c>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
@@ -4948,25 +4984,27 @@
       <c r="CK22" s="26">
         <v>10008.565084635895</v>
       </c>
-      <c r="CL22" s="26">
+      <c r="CL22" s="30">
         <v>9628.082742530145</v>
       </c>
-      <c r="CM22" s="26">
+      <c r="CM22" s="30">
         <v>9920.8941364997227</v>
       </c>
-      <c r="CN22" s="26">
+      <c r="CN22" s="30">
         <v>9169.3899887965817</v>
       </c>
-      <c r="CO22" s="26">
+      <c r="CO22" s="30">
         <v>11983.373548752726</v>
       </c>
-      <c r="CP22" s="26">
+      <c r="CP22" s="30">
         <v>10506.337977294261</v>
       </c>
-      <c r="CQ22" s="26">
-        <v>10760.436597759412</v>
-      </c>
-      <c r="CR22" s="9"/>
+      <c r="CQ22" s="30">
+        <v>10762.718353853836</v>
+      </c>
+      <c r="CR22" s="30">
+        <v>8480.9739984068547</v>
+      </c>
       <c r="CS22" s="9"/>
       <c r="CT22" s="9"/>
       <c r="CU22" s="9"/>
@@ -5292,25 +5330,27 @@
       <c r="CK23" s="26">
         <v>5483.9249386943147</v>
       </c>
-      <c r="CL23" s="26">
+      <c r="CL23" s="30">
         <v>5639.4054154257592</v>
       </c>
-      <c r="CM23" s="26">
+      <c r="CM23" s="30">
         <v>5668.285123550173</v>
       </c>
-      <c r="CN23" s="26">
+      <c r="CN23" s="30">
         <v>5197.2327979966367</v>
       </c>
-      <c r="CO23" s="26">
+      <c r="CO23" s="30">
         <v>7346.2982822480926</v>
       </c>
-      <c r="CP23" s="26">
+      <c r="CP23" s="30">
         <v>7100.947127891739</v>
       </c>
-      <c r="CQ23" s="26">
-        <v>7031.8314400784966</v>
-      </c>
-      <c r="CR23" s="9"/>
+      <c r="CQ23" s="30">
+        <v>7034.4385438167483</v>
+      </c>
+      <c r="CR23" s="30">
+        <v>5605.8630661919124</v>
+      </c>
       <c r="CS23" s="9"/>
       <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
@@ -5636,25 +5676,27 @@
       <c r="CK24" s="26">
         <v>12465.264015757841</v>
       </c>
-      <c r="CL24" s="26">
+      <c r="CL24" s="30">
         <v>13619.768968589058</v>
       </c>
-      <c r="CM24" s="26">
+      <c r="CM24" s="30">
         <v>13464.931485133506</v>
       </c>
-      <c r="CN24" s="26">
+      <c r="CN24" s="30">
         <v>24014.801496465923</v>
       </c>
-      <c r="CO24" s="26">
+      <c r="CO24" s="30">
         <v>22490.747102969784</v>
       </c>
-      <c r="CP24" s="26">
+      <c r="CP24" s="30">
         <v>25040.209031627099</v>
       </c>
-      <c r="CQ24" s="26">
-        <v>22357.004239630784</v>
-      </c>
-      <c r="CR24" s="9"/>
+      <c r="CQ24" s="30">
+        <v>22195.105133724737</v>
+      </c>
+      <c r="CR24" s="30">
+        <v>28637.677280027667</v>
+      </c>
       <c r="CS24" s="9"/>
       <c r="CT24" s="9"/>
       <c r="CU24" s="9"/>
@@ -5980,25 +6022,27 @@
       <c r="CK25" s="26">
         <v>19438.202784886464</v>
       </c>
-      <c r="CL25" s="26">
+      <c r="CL25" s="30">
         <v>26277.217474623558</v>
       </c>
-      <c r="CM25" s="26">
+      <c r="CM25" s="30">
         <v>20064.495297303285</v>
       </c>
-      <c r="CN25" s="26">
+      <c r="CN25" s="30">
         <v>19498.204125279019</v>
       </c>
-      <c r="CO25" s="26">
+      <c r="CO25" s="30">
         <v>21204.394752487504</v>
       </c>
-      <c r="CP25" s="26">
+      <c r="CP25" s="30">
         <v>23081.217868105632</v>
       </c>
-      <c r="CQ25" s="26">
-        <v>19165.771289052205</v>
-      </c>
-      <c r="CR25" s="9"/>
+      <c r="CQ25" s="30">
+        <v>19193.359455504949</v>
+      </c>
+      <c r="CR25" s="30">
+        <v>17237.050299753981</v>
+      </c>
       <c r="CS25" s="9"/>
       <c r="CT25" s="9"/>
       <c r="CU25" s="9"/>
@@ -6324,25 +6368,27 @@
       <c r="CK26" s="25">
         <v>132686.72850413472</v>
       </c>
-      <c r="CL26" s="25">
+      <c r="CL26" s="29">
         <v>163862.64855411998</v>
       </c>
-      <c r="CM26" s="25">
+      <c r="CM26" s="29">
         <v>145670.6522403901</v>
       </c>
-      <c r="CN26" s="25">
+      <c r="CN26" s="29">
         <v>162498.41427704878</v>
       </c>
-      <c r="CO26" s="25">
+      <c r="CO26" s="29">
         <v>161532.54019615345</v>
       </c>
-      <c r="CP26" s="25">
+      <c r="CP26" s="29">
         <v>194178.33039813107</v>
       </c>
-      <c r="CQ26" s="25">
-        <v>184981.99467039638</v>
-      </c>
-      <c r="CR26" s="9"/>
+      <c r="CQ26" s="29">
+        <v>185053.24995105079</v>
+      </c>
+      <c r="CR26" s="29">
+        <v>177055.02613640853</v>
+      </c>
       <c r="CS26" s="9"/>
       <c r="CT26" s="9"/>
       <c r="CU26" s="9"/>
@@ -6668,25 +6714,27 @@
       <c r="CK27" s="26">
         <v>109199.38588718358</v>
       </c>
-      <c r="CL27" s="26">
+      <c r="CL27" s="30">
         <v>136145.84524228523</v>
       </c>
-      <c r="CM27" s="26">
+      <c r="CM27" s="30">
         <v>122538.60684307599</v>
       </c>
-      <c r="CN27" s="26">
+      <c r="CN27" s="30">
         <v>150753.85957909332</v>
       </c>
-      <c r="CO27" s="26">
+      <c r="CO27" s="30">
         <v>150767.57828406111</v>
       </c>
-      <c r="CP27" s="26">
+      <c r="CP27" s="30">
         <v>178584.46983271994</v>
       </c>
-      <c r="CQ27" s="26">
-        <v>159425.01279847036</v>
-      </c>
-      <c r="CR27" s="9"/>
+      <c r="CQ27" s="30">
+        <v>159507.206500906</v>
+      </c>
+      <c r="CR27" s="30">
+        <v>163441.54046812668</v>
+      </c>
       <c r="CS27" s="9"/>
       <c r="CT27" s="9"/>
       <c r="CU27" s="9"/>
@@ -7012,25 +7060,27 @@
       <c r="CK28" s="26">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="26">
+      <c r="CL28" s="30">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="26">
+      <c r="CM28" s="30">
         <v>809.44314838159949</v>
       </c>
-      <c r="CN28" s="26">
+      <c r="CN28" s="30">
         <v>52.072454557178339</v>
       </c>
-      <c r="CO28" s="26">
+      <c r="CO28" s="30">
         <v>14.196752864451399</v>
       </c>
-      <c r="CP28" s="26">
+      <c r="CP28" s="30">
         <v>23.447549724681419</v>
       </c>
-      <c r="CQ28" s="26">
+      <c r="CQ28" s="30">
         <v>7.2774926011315166</v>
       </c>
-      <c r="CR28" s="9"/>
+      <c r="CR28" s="30">
+        <v>1.4823427011729169</v>
+      </c>
       <c r="CS28" s="9"/>
       <c r="CT28" s="9"/>
       <c r="CU28" s="9"/>
@@ -7356,25 +7406,27 @@
       <c r="CK29" s="26">
         <v>18605.757285374431</v>
       </c>
-      <c r="CL29" s="26">
+      <c r="CL29" s="30">
         <v>16475.704881461341</v>
       </c>
-      <c r="CM29" s="26">
+      <c r="CM29" s="30">
         <v>10090.867252894068</v>
       </c>
-      <c r="CN29" s="26">
+      <c r="CN29" s="30">
         <v>5730.9727403743063</v>
       </c>
-      <c r="CO29" s="26">
+      <c r="CO29" s="30">
         <v>5830.960525499645</v>
       </c>
-      <c r="CP29" s="26">
+      <c r="CP29" s="30">
         <v>8386.4712676988675</v>
       </c>
-      <c r="CQ29" s="26">
-        <v>13984.740269297765</v>
-      </c>
-      <c r="CR29" s="9"/>
+      <c r="CQ29" s="30">
+        <v>13975.247228703023</v>
+      </c>
+      <c r="CR29" s="30">
+        <v>10599.42179039867</v>
+      </c>
       <c r="CS29" s="9"/>
       <c r="CT29" s="9"/>
       <c r="CU29" s="9"/>
@@ -7700,25 +7752,27 @@
       <c r="CK30" s="26">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="26">
+      <c r="CL30" s="30">
         <v>9503.5949913393943</v>
       </c>
-      <c r="CM30" s="26">
+      <c r="CM30" s="30">
         <v>12231.734996038442</v>
       </c>
-      <c r="CN30" s="26">
+      <c r="CN30" s="30">
         <v>5961.5095030239891</v>
       </c>
-      <c r="CO30" s="26">
+      <c r="CO30" s="30">
         <v>4919.8046337282212</v>
       </c>
-      <c r="CP30" s="26">
+      <c r="CP30" s="30">
         <v>7183.9417479875801</v>
       </c>
-      <c r="CQ30" s="26">
-        <v>11564.964110027129</v>
-      </c>
-      <c r="CR30" s="9"/>
+      <c r="CQ30" s="30">
+        <v>11563.518728840636</v>
+      </c>
+      <c r="CR30" s="30">
+        <v>3012.5815351820088</v>
+      </c>
       <c r="CS30" s="9"/>
       <c r="CT30" s="9"/>
       <c r="CU30" s="9"/>
@@ -8044,25 +8098,27 @@
       <c r="CK31" s="25">
         <v>56618.734335055386</v>
       </c>
-      <c r="CL31" s="25">
+      <c r="CL31" s="29">
         <v>63028.405007964611</v>
       </c>
-      <c r="CM31" s="25">
+      <c r="CM31" s="29">
         <v>60068.699385092288</v>
       </c>
-      <c r="CN31" s="25">
+      <c r="CN31" s="29">
         <v>55866.361734870035</v>
       </c>
-      <c r="CO31" s="25">
+      <c r="CO31" s="29">
         <v>65979.141165391193</v>
       </c>
-      <c r="CP31" s="25">
+      <c r="CP31" s="29">
         <v>72424.990032967427</v>
       </c>
-      <c r="CQ31" s="25">
-        <v>62964.00869298364</v>
-      </c>
-      <c r="CR31" s="9"/>
+      <c r="CQ31" s="29">
+        <v>62539.639652930164</v>
+      </c>
+      <c r="CR31" s="29">
+        <v>54001.577479359279</v>
+      </c>
       <c r="CS31" s="9"/>
       <c r="CT31" s="9"/>
       <c r="CU31" s="9"/>
@@ -8388,25 +8444,27 @@
       <c r="CK32" s="26">
         <v>4754.4583843286655</v>
       </c>
-      <c r="CL32" s="26">
+      <c r="CL32" s="30">
         <v>4946.0125478368736</v>
       </c>
-      <c r="CM32" s="26">
+      <c r="CM32" s="30">
         <v>4558.1344266621727</v>
       </c>
-      <c r="CN32" s="26">
+      <c r="CN32" s="30">
         <v>5415.7208863220503</v>
       </c>
-      <c r="CO32" s="26">
+      <c r="CO32" s="30">
         <v>7911.8538094047499</v>
       </c>
-      <c r="CP32" s="26">
+      <c r="CP32" s="30">
         <v>6271.040959243328</v>
       </c>
-      <c r="CQ32" s="26">
-        <v>5138.8423567576565</v>
-      </c>
-      <c r="CR32" s="9"/>
+      <c r="CQ32" s="30">
+        <v>5070.7656677641735</v>
+      </c>
+      <c r="CR32" s="30">
+        <v>5126.9096703716932</v>
+      </c>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
@@ -8732,25 +8790,27 @@
       <c r="CK33" s="26">
         <v>9007.1005952231462</v>
       </c>
-      <c r="CL33" s="26">
+      <c r="CL33" s="30">
         <v>11030.811579910269</v>
       </c>
-      <c r="CM33" s="26">
+      <c r="CM33" s="30">
         <v>8910.1965268858348</v>
       </c>
-      <c r="CN33" s="26">
+      <c r="CN33" s="30">
         <v>7613.3793142308796</v>
       </c>
-      <c r="CO33" s="26">
+      <c r="CO33" s="30">
         <v>9786.3948381134542</v>
       </c>
-      <c r="CP33" s="26">
+      <c r="CP33" s="30">
         <v>11860.696074000352</v>
       </c>
-      <c r="CQ33" s="26">
-        <v>11087.24403722116</v>
-      </c>
-      <c r="CR33" s="9"/>
+      <c r="CQ33" s="30">
+        <v>10871.359446799128</v>
+      </c>
+      <c r="CR33" s="30">
+        <v>7890.3868107872113</v>
+      </c>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -9076,25 +9136,27 @@
       <c r="CK34" s="26">
         <v>32169.896577255146</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="30">
         <v>32076.122314555869</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="30">
         <v>30017.749583969504</v>
       </c>
-      <c r="CN34" s="26">
+      <c r="CN34" s="30">
         <v>32432.988608214935</v>
       </c>
-      <c r="CO34" s="26">
+      <c r="CO34" s="30">
         <v>36801.157003883302</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="30">
         <v>36669.526836383608</v>
       </c>
-      <c r="CQ34" s="26">
-        <v>30894.140204637835</v>
-      </c>
-      <c r="CR34" s="9"/>
+      <c r="CQ34" s="30">
+        <v>30568.179531980866</v>
+      </c>
+      <c r="CR34" s="30">
+        <v>32711.611310279946</v>
+      </c>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
@@ -9420,25 +9482,27 @@
       <c r="CK35" s="26">
         <v>10687.278778248432</v>
       </c>
-      <c r="CL35" s="26">
+      <c r="CL35" s="30">
         <v>14975.458565661596</v>
       </c>
-      <c r="CM35" s="26">
+      <c r="CM35" s="30">
         <v>16582.61884757478</v>
       </c>
-      <c r="CN35" s="26">
+      <c r="CN35" s="30">
         <v>10404.272926102172</v>
       </c>
-      <c r="CO35" s="26">
+      <c r="CO35" s="30">
         <v>11479.735513989688</v>
       </c>
-      <c r="CP35" s="26">
+      <c r="CP35" s="30">
         <v>17623.726163340136</v>
       </c>
-      <c r="CQ35" s="26">
-        <v>15843.78209436699</v>
-      </c>
-      <c r="CR35" s="9"/>
+      <c r="CQ35" s="30">
+        <v>16029.335006385998</v>
+      </c>
+      <c r="CR35" s="30">
+        <v>8272.6696879204319</v>
+      </c>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
@@ -9585,13 +9649,13 @@
       <c r="CI36" s="9"/>
       <c r="CJ36" s="9"/>
       <c r="CK36" s="9"/>
-      <c r="CL36" s="9"/>
-      <c r="CM36" s="9"/>
-      <c r="CN36" s="9"/>
-      <c r="CO36" s="9"/>
-      <c r="CP36" s="9"/>
-      <c r="CQ36" s="9"/>
-      <c r="CR36" s="9"/>
+      <c r="CL36" s="31"/>
+      <c r="CM36" s="31"/>
+      <c r="CN36" s="31"/>
+      <c r="CO36" s="31"/>
+      <c r="CP36" s="31"/>
+      <c r="CQ36" s="31"/>
+      <c r="CR36" s="31"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -9917,25 +9981,27 @@
       <c r="CK37" s="13">
         <v>294976.49385628325</v>
       </c>
-      <c r="CL37" s="13">
+      <c r="CL37" s="32">
         <v>344182.59355851542</v>
       </c>
-      <c r="CM37" s="13">
+      <c r="CM37" s="32">
         <v>304192.6243367464</v>
       </c>
-      <c r="CN37" s="13">
+      <c r="CN37" s="32">
         <v>317686.86497258709</v>
       </c>
-      <c r="CO37" s="13">
+      <c r="CO37" s="32">
         <v>346980.37885974388</v>
       </c>
-      <c r="CP37" s="13">
+      <c r="CP37" s="32">
         <v>396159.36763982545</v>
       </c>
-      <c r="CQ37" s="13">
-        <v>358761.01739298116</v>
-      </c>
-      <c r="CR37" s="9"/>
+      <c r="CQ37" s="32">
+        <v>358086.25743040489</v>
+      </c>
+      <c r="CR37" s="32">
+        <v>329473.25661612197</v>
+      </c>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -10083,12 +10149,13 @@
       <c r="CI38" s="14"/>
       <c r="CJ38" s="14"/>
       <c r="CK38" s="14"/>
-      <c r="CL38" s="14"/>
-      <c r="CM38" s="14"/>
-      <c r="CN38" s="14"/>
-      <c r="CO38" s="14"/>
-      <c r="CP38" s="14"/>
-      <c r="CQ38" s="14"/>
+      <c r="CL38" s="33"/>
+      <c r="CM38" s="33"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="33"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -10204,13 +10271,13 @@
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
-      <c r="CL40" s="9"/>
-      <c r="CM40" s="9"/>
-      <c r="CN40" s="9"/>
-      <c r="CO40" s="9"/>
-      <c r="CP40" s="9"/>
-      <c r="CQ40" s="9"/>
-      <c r="CR40" s="9"/>
+      <c r="CL40" s="31"/>
+      <c r="CM40" s="31"/>
+      <c r="CN40" s="31"/>
+      <c r="CO40" s="31"/>
+      <c r="CP40" s="31"/>
+      <c r="CQ40" s="31"/>
+      <c r="CR40" s="31"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -10357,13 +10424,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
+      <c r="CL41" s="31"/>
+      <c r="CM41" s="31"/>
+      <c r="CN41" s="31"/>
+      <c r="CO41" s="31"/>
+      <c r="CP41" s="31"/>
+      <c r="CQ41" s="31"/>
+      <c r="CR41" s="31"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -10453,148 +10520,149 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="27">
+      <c r="B50" s="37">
         <v>2000</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27">
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37">
         <v>2001</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27">
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37">
         <v>2002</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27">
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37">
         <v>2003</v>
       </c>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27">
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37">
         <v>2004</v>
       </c>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27">
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37">
         <v>2005</v>
       </c>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27">
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37">
         <v>2006</v>
       </c>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27">
+      <c r="AA50" s="37"/>
+      <c r="AB50" s="37"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="37">
         <v>2007</v>
       </c>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27">
+      <c r="AE50" s="37"/>
+      <c r="AF50" s="37"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37">
         <v>2008</v>
       </c>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27">
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37">
         <v>2009</v>
       </c>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27">
+      <c r="AM50" s="37"/>
+      <c r="AN50" s="37"/>
+      <c r="AO50" s="37"/>
+      <c r="AP50" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
-      <c r="AS50" s="27"/>
-      <c r="AT50" s="27">
+      <c r="AQ50" s="37"/>
+      <c r="AR50" s="37"/>
+      <c r="AS50" s="37"/>
+      <c r="AT50" s="37">
         <v>2011</v>
       </c>
-      <c r="AU50" s="27"/>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="27"/>
-      <c r="AX50" s="27">
+      <c r="AU50" s="37"/>
+      <c r="AV50" s="37"/>
+      <c r="AW50" s="37"/>
+      <c r="AX50" s="37">
         <v>2012</v>
       </c>
-      <c r="AY50" s="27"/>
-      <c r="AZ50" s="27"/>
-      <c r="BA50" s="27"/>
-      <c r="BB50" s="27">
+      <c r="AY50" s="37"/>
+      <c r="AZ50" s="37"/>
+      <c r="BA50" s="37"/>
+      <c r="BB50" s="37">
         <v>2013</v>
       </c>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="27"/>
-      <c r="BF50" s="27">
+      <c r="BC50" s="37"/>
+      <c r="BD50" s="37"/>
+      <c r="BE50" s="37"/>
+      <c r="BF50" s="37">
         <v>2014</v>
       </c>
-      <c r="BG50" s="27"/>
-      <c r="BH50" s="27"/>
-      <c r="BI50" s="27"/>
-      <c r="BJ50" s="27">
+      <c r="BG50" s="37"/>
+      <c r="BH50" s="37"/>
+      <c r="BI50" s="37"/>
+      <c r="BJ50" s="37">
         <v>2015</v>
       </c>
-      <c r="BK50" s="27"/>
-      <c r="BL50" s="27"/>
-      <c r="BM50" s="27"/>
-      <c r="BN50" s="27">
+      <c r="BK50" s="37"/>
+      <c r="BL50" s="37"/>
+      <c r="BM50" s="37"/>
+      <c r="BN50" s="37">
         <v>2016</v>
       </c>
-      <c r="BO50" s="27"/>
-      <c r="BP50" s="27"/>
-      <c r="BQ50" s="27"/>
-      <c r="BR50" s="27">
+      <c r="BO50" s="37"/>
+      <c r="BP50" s="37"/>
+      <c r="BQ50" s="37"/>
+      <c r="BR50" s="37">
         <v>2017</v>
       </c>
-      <c r="BS50" s="27"/>
-      <c r="BT50" s="27"/>
-      <c r="BU50" s="27"/>
-      <c r="BV50" s="27">
+      <c r="BS50" s="37"/>
+      <c r="BT50" s="37"/>
+      <c r="BU50" s="37"/>
+      <c r="BV50" s="37">
         <v>2018</v>
       </c>
-      <c r="BW50" s="27"/>
-      <c r="BX50" s="27"/>
-      <c r="BY50" s="27"/>
-      <c r="BZ50" s="27">
+      <c r="BW50" s="37"/>
+      <c r="BX50" s="37"/>
+      <c r="BY50" s="37"/>
+      <c r="BZ50" s="37">
         <v>2019</v>
       </c>
-      <c r="CA50" s="27"/>
-      <c r="CB50" s="27"/>
-      <c r="CC50" s="27"/>
-      <c r="CD50" s="28">
+      <c r="CA50" s="37"/>
+      <c r="CB50" s="37"/>
+      <c r="CC50" s="37"/>
+      <c r="CD50" s="38">
         <v>2020</v>
       </c>
-      <c r="CE50" s="28"/>
-      <c r="CF50" s="28"/>
-      <c r="CG50" s="28"/>
-      <c r="CH50" s="28">
+      <c r="CE50" s="38"/>
+      <c r="CF50" s="38"/>
+      <c r="CG50" s="38"/>
+      <c r="CH50" s="38">
         <v>2021</v>
       </c>
-      <c r="CI50" s="28"/>
-      <c r="CJ50" s="28"/>
-      <c r="CK50" s="28"/>
-      <c r="CL50" s="28">
+      <c r="CI50" s="38"/>
+      <c r="CJ50" s="38"/>
+      <c r="CK50" s="38"/>
+      <c r="CL50" s="37">
         <v>2022</v>
       </c>
-      <c r="CM50" s="28"/>
-      <c r="CN50" s="28"/>
-      <c r="CO50" s="28"/>
-      <c r="CP50" s="28">
+      <c r="CM50" s="37"/>
+      <c r="CN50" s="37"/>
+      <c r="CO50" s="37"/>
+      <c r="CP50" s="37">
         <v>2023</v>
       </c>
-      <c r="CQ50" s="29"/>
+      <c r="CQ50" s="37"/>
+      <c r="CR50" s="37"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -10864,23 +10932,26 @@
       <c r="CK51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL51" s="17" t="s">
+      <c r="CL51" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM51" s="17" t="s">
+      <c r="CM51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN51" s="17" t="s">
+      <c r="CN51" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CO51" s="17" t="s">
+      <c r="CO51" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CP51" s="17" t="s">
+      <c r="CP51" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CQ51" s="17" t="s">
+      <c r="CQ51" s="34" t="s">
         <v>7</v>
+      </c>
+      <c r="CR51" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11154,25 +11225,27 @@
       <c r="CK53" s="25">
         <v>66501.113999105699</v>
       </c>
-      <c r="CL53" s="25">
+      <c r="CL53" s="29">
         <v>56154.713753790973</v>
       </c>
-      <c r="CM53" s="25">
+      <c r="CM53" s="29">
         <v>29638.055496577312</v>
       </c>
-      <c r="CN53" s="25">
+      <c r="CN53" s="29">
         <v>44070.998157212263</v>
       </c>
-      <c r="CO53" s="25">
+      <c r="CO53" s="29">
         <v>56031.668160503337</v>
       </c>
-      <c r="CP53" s="25">
+      <c r="CP53" s="29">
         <v>52710.183979320689</v>
       </c>
-      <c r="CQ53" s="25">
-        <v>31595.581441974275</v>
-      </c>
-      <c r="CR53" s="9"/>
+      <c r="CQ53" s="29">
+        <v>31485.013906638993</v>
+      </c>
+      <c r="CR53" s="29">
+        <v>37800.210965529528</v>
+      </c>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
@@ -11498,25 +11571,27 @@
       <c r="CK54" s="26">
         <v>6129.6291090860987</v>
       </c>
-      <c r="CL54" s="26">
+      <c r="CL54" s="30">
         <v>2255.5424858344413</v>
       </c>
-      <c r="CM54" s="26">
+      <c r="CM54" s="30">
         <v>761.78762771609752</v>
       </c>
-      <c r="CN54" s="26">
+      <c r="CN54" s="30">
         <v>2999.4154859962432</v>
       </c>
-      <c r="CO54" s="26">
+      <c r="CO54" s="30">
         <v>3372.240102179047</v>
       </c>
-      <c r="CP54" s="26">
+      <c r="CP54" s="30">
         <v>2401.6215119713047</v>
       </c>
-      <c r="CQ54" s="26">
-        <v>1005.5336091900527</v>
-      </c>
-      <c r="CR54" s="9"/>
+      <c r="CQ54" s="30">
+        <v>1005.4808970779599</v>
+      </c>
+      <c r="CR54" s="30">
+        <v>3570.5073608955408</v>
+      </c>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
@@ -11842,25 +11917,27 @@
       <c r="CK55" s="26">
         <v>15915.381302443891</v>
       </c>
-      <c r="CL55" s="26">
+      <c r="CL55" s="30">
         <v>8408.0505623100962</v>
       </c>
-      <c r="CM55" s="26">
+      <c r="CM55" s="30">
         <v>2989.8761972432139</v>
       </c>
-      <c r="CN55" s="26">
+      <c r="CN55" s="30">
         <v>10506.725266714966</v>
       </c>
-      <c r="CO55" s="26">
+      <c r="CO55" s="30">
         <v>14787.444383062755</v>
       </c>
-      <c r="CP55" s="26">
+      <c r="CP55" s="30">
         <v>10213.999950128204</v>
       </c>
-      <c r="CQ55" s="26">
-        <v>3771.9036142162508</v>
-      </c>
-      <c r="CR55" s="9"/>
+      <c r="CQ55" s="30">
+        <v>3767.6992309306374</v>
+      </c>
+      <c r="CR55" s="30">
+        <v>8191.4597551157331</v>
+      </c>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
@@ -12186,25 +12263,27 @@
       <c r="CK56" s="26">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="26">
+      <c r="CL56" s="30">
         <v>600.76004171803925</v>
       </c>
-      <c r="CM56" s="26">
+      <c r="CM56" s="30">
         <v>307.35573573461693</v>
       </c>
-      <c r="CN56" s="26">
+      <c r="CN56" s="30">
         <v>749.36964626741485</v>
       </c>
-      <c r="CO56" s="26">
+      <c r="CO56" s="30">
         <v>1031.6152468033449</v>
       </c>
-      <c r="CP56" s="26">
+      <c r="CP56" s="30">
         <v>618.0088338624106</v>
       </c>
-      <c r="CQ56" s="26">
-        <v>336.52277953731925</v>
-      </c>
-      <c r="CR56" s="9"/>
+      <c r="CQ56" s="30">
+        <v>328.22641219528066</v>
+      </c>
+      <c r="CR56" s="30">
+        <v>653.45516554783183</v>
+      </c>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -12530,25 +12609,27 @@
       <c r="CK57" s="26">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="26">
+      <c r="CL57" s="30">
         <v>315.9892621347073</v>
       </c>
-      <c r="CM57" s="26">
+      <c r="CM57" s="30">
         <v>135.75089907223924</v>
       </c>
-      <c r="CN57" s="26">
+      <c r="CN57" s="30">
         <v>566.65243540056349</v>
       </c>
-      <c r="CO57" s="26">
+      <c r="CO57" s="30">
         <v>695.47966316221414</v>
       </c>
-      <c r="CP57" s="26">
+      <c r="CP57" s="30">
         <v>312.06515855576055</v>
       </c>
-      <c r="CQ57" s="26">
-        <v>161.85899328859762</v>
-      </c>
-      <c r="CR57" s="9"/>
+      <c r="CQ57" s="30">
+        <v>153.43270236464369</v>
+      </c>
+      <c r="CR57" s="30">
+        <v>515.71034339527569</v>
+      </c>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
@@ -12874,25 +12955,27 @@
       <c r="CK58" s="26">
         <v>4130.5758037628557</v>
       </c>
-      <c r="CL58" s="26">
+      <c r="CL58" s="30">
         <v>3204.4563803884889</v>
       </c>
-      <c r="CM58" s="26">
+      <c r="CM58" s="30">
         <v>918.75784814555163</v>
       </c>
-      <c r="CN58" s="26">
+      <c r="CN58" s="30">
         <v>2559.1367349216134</v>
       </c>
-      <c r="CO58" s="26">
+      <c r="CO58" s="30">
         <v>3858.5461515750085</v>
       </c>
-      <c r="CP58" s="26">
+      <c r="CP58" s="30">
         <v>3148.4194001786659</v>
       </c>
-      <c r="CQ58" s="26">
-        <v>816.99045446935588</v>
-      </c>
-      <c r="CR58" s="9"/>
+      <c r="CQ58" s="30">
+        <v>813.28817844299954</v>
+      </c>
+      <c r="CR58" s="30">
+        <v>2840.8715391266555</v>
+      </c>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
@@ -13218,25 +13301,27 @@
       <c r="CK59" s="26">
         <v>25266.562529179133</v>
       </c>
-      <c r="CL59" s="26">
+      <c r="CL59" s="30">
         <v>32174.972377867358</v>
       </c>
-      <c r="CM59" s="26">
+      <c r="CM59" s="30">
         <v>20827.657775890431</v>
       </c>
-      <c r="CN59" s="26">
+      <c r="CN59" s="30">
         <v>17372.194231779744</v>
       </c>
-      <c r="CO59" s="26">
+      <c r="CO59" s="30">
         <v>20273.651609490433</v>
       </c>
-      <c r="CP59" s="26">
+      <c r="CP59" s="30">
         <v>28142.286494046617</v>
       </c>
-      <c r="CQ59" s="26">
-        <v>22753.818190751306</v>
-      </c>
-      <c r="CR59" s="9"/>
+      <c r="CQ59" s="30">
+        <v>22756.330505176506</v>
+      </c>
+      <c r="CR59" s="30">
+        <v>14673.495548724162</v>
+      </c>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -13562,25 +13647,27 @@
       <c r="CK60" s="26">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="26">
+      <c r="CL60" s="30">
         <v>676.66490891228193</v>
       </c>
-      <c r="CM60" s="26">
+      <c r="CM60" s="30">
         <v>245.91054324460896</v>
       </c>
-      <c r="CN60" s="26">
+      <c r="CN60" s="30">
         <v>465.89826695183149</v>
       </c>
-      <c r="CO60" s="26">
+      <c r="CO60" s="30">
         <v>1500.6906029608699</v>
       </c>
-      <c r="CP60" s="26">
+      <c r="CP60" s="30">
         <v>964.57969406049801</v>
       </c>
-      <c r="CQ60" s="26">
-        <v>368.78840906314548</v>
-      </c>
-      <c r="CR60" s="9"/>
+      <c r="CQ60" s="30">
+        <v>364.49707295828699</v>
+      </c>
+      <c r="CR60" s="30">
+        <v>929.24102523758063</v>
+      </c>
       <c r="CS60" s="9"/>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
@@ -13906,25 +13993,27 @@
       <c r="CK61" s="26">
         <v>11614.015268939091</v>
       </c>
-      <c r="CL61" s="26">
+      <c r="CL61" s="30">
         <v>8518.2777346255643</v>
       </c>
-      <c r="CM61" s="26">
+      <c r="CM61" s="30">
         <v>3450.9588695305492</v>
       </c>
-      <c r="CN61" s="26">
+      <c r="CN61" s="30">
         <v>8851.6060891798861</v>
       </c>
-      <c r="CO61" s="26">
+      <c r="CO61" s="30">
         <v>10512.00040126967</v>
       </c>
-      <c r="CP61" s="26">
+      <c r="CP61" s="30">
         <v>6909.2029365172293</v>
       </c>
-      <c r="CQ61" s="26">
-        <v>2380.1653914582448</v>
-      </c>
-      <c r="CR61" s="9"/>
+      <c r="CQ61" s="30">
+        <v>2296.0589074926797</v>
+      </c>
+      <c r="CR61" s="30">
+        <v>6425.4702274867514</v>
+      </c>
       <c r="CS61" s="9"/>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
@@ -14250,25 +14339,27 @@
       <c r="CK62" s="25">
         <v>46705.322297328654</v>
       </c>
-      <c r="CL62" s="25">
+      <c r="CL62" s="29">
         <v>51650.780454455409</v>
       </c>
-      <c r="CM62" s="25">
+      <c r="CM62" s="29">
         <v>39125.984742142908</v>
       </c>
-      <c r="CN62" s="25">
+      <c r="CN62" s="29">
         <v>56586.709007992948</v>
       </c>
-      <c r="CO62" s="25">
+      <c r="CO62" s="29">
         <v>56067.993441713836</v>
       </c>
-      <c r="CP62" s="25">
+      <c r="CP62" s="29">
         <v>55679.212777617635</v>
       </c>
-      <c r="CQ62" s="25">
-        <v>44432.189083493206</v>
-      </c>
-      <c r="CR62" s="9"/>
+      <c r="CQ62" s="29">
+        <v>44252.216085494299</v>
+      </c>
+      <c r="CR62" s="29">
+        <v>56803.223541455402</v>
+      </c>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -14594,25 +14685,27 @@
       <c r="CK63" s="26">
         <v>9430.989368750772</v>
       </c>
-      <c r="CL63" s="26">
+      <c r="CL63" s="30">
         <v>8582.2273201229564</v>
       </c>
-      <c r="CM63" s="26">
+      <c r="CM63" s="30">
         <v>7559.8027061805496</v>
       </c>
-      <c r="CN63" s="26">
+      <c r="CN63" s="30">
         <v>8906.7130198622981</v>
       </c>
-      <c r="CO63" s="26">
+      <c r="CO63" s="30">
         <v>10075.422094021213</v>
       </c>
-      <c r="CP63" s="26">
+      <c r="CP63" s="30">
         <v>8716.7180491799463</v>
       </c>
-      <c r="CQ63" s="26">
-        <v>7397.6220331063678</v>
-      </c>
-      <c r="CR63" s="9"/>
+      <c r="CQ63" s="30">
+        <v>7400.1965438892175</v>
+      </c>
+      <c r="CR63" s="30">
+        <v>8021.7885075557424</v>
+      </c>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -14938,25 +15031,27 @@
       <c r="CK64" s="26">
         <v>5310.7853843801568</v>
       </c>
-      <c r="CL64" s="26">
+      <c r="CL64" s="30">
         <v>5016.6063703503914</v>
       </c>
-      <c r="CM64" s="26">
+      <c r="CM64" s="30">
         <v>4414.6571227442855</v>
       </c>
-      <c r="CN64" s="26">
+      <c r="CN64" s="30">
         <v>5110.3185291011832</v>
       </c>
-      <c r="CO64" s="26">
+      <c r="CO64" s="30">
         <v>6081.7158841339769</v>
       </c>
-      <c r="CP64" s="26">
+      <c r="CP64" s="30">
         <v>5772.0177901495945</v>
       </c>
-      <c r="CQ64" s="26">
-        <v>4920.5125777830981</v>
-      </c>
-      <c r="CR64" s="9"/>
+      <c r="CQ64" s="30">
+        <v>4922.6138471541526</v>
+      </c>
+      <c r="CR64" s="30">
+        <v>5281.6438823111876</v>
+      </c>
       <c r="CS64" s="9"/>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
@@ -15282,25 +15377,27 @@
       <c r="CK65" s="26">
         <v>11572.478347706488</v>
       </c>
-      <c r="CL65" s="26">
+      <c r="CL65" s="30">
         <v>12080.331688711036</v>
       </c>
-      <c r="CM65" s="26">
+      <c r="CM65" s="30">
         <v>10268.807240061369</v>
       </c>
-      <c r="CN65" s="26">
+      <c r="CN65" s="30">
         <v>22622.069017464219</v>
       </c>
-      <c r="CO65" s="26">
+      <c r="CO65" s="30">
         <v>17622.800505163432</v>
       </c>
-      <c r="CP65" s="26">
+      <c r="CP65" s="30">
         <v>19726.217194771685</v>
       </c>
-      <c r="CQ65" s="26">
-        <v>17358.230901576204</v>
-      </c>
-      <c r="CR65" s="9"/>
+      <c r="CQ65" s="30">
+        <v>17147.184390148566</v>
+      </c>
+      <c r="CR65" s="30">
+        <v>26319.165360427556</v>
+      </c>
       <c r="CS65" s="9"/>
       <c r="CT65" s="9"/>
       <c r="CU65" s="9"/>
@@ -15626,25 +15723,27 @@
       <c r="CK66" s="26">
         <v>20391.069196491237</v>
       </c>
-      <c r="CL66" s="26">
+      <c r="CL66" s="30">
         <v>25971.615075271024</v>
       </c>
-      <c r="CM66" s="26">
+      <c r="CM66" s="30">
         <v>16882.717673156701</v>
       </c>
-      <c r="CN66" s="26">
+      <c r="CN66" s="30">
         <v>19947.608441565244</v>
       </c>
-      <c r="CO66" s="26">
+      <c r="CO66" s="30">
         <v>22288.054958395216</v>
       </c>
-      <c r="CP66" s="26">
+      <c r="CP66" s="30">
         <v>21464.25974351641</v>
       </c>
-      <c r="CQ66" s="26">
-        <v>14755.823571027538</v>
-      </c>
-      <c r="CR66" s="9"/>
+      <c r="CQ66" s="30">
+        <v>14782.221304302364</v>
+      </c>
+      <c r="CR66" s="30">
+        <v>17180.625791160914</v>
+      </c>
       <c r="CS66" s="9"/>
       <c r="CT66" s="9"/>
       <c r="CU66" s="9"/>
@@ -15970,25 +16069,27 @@
       <c r="CK67" s="25">
         <v>133226.1081310109</v>
       </c>
-      <c r="CL67" s="25">
+      <c r="CL67" s="29">
         <v>168162.18916375461</v>
       </c>
-      <c r="CM67" s="25">
+      <c r="CM67" s="29">
         <v>149325.20766128573</v>
       </c>
-      <c r="CN67" s="25">
+      <c r="CN67" s="29">
         <v>143019.61658559294</v>
       </c>
-      <c r="CO67" s="25">
+      <c r="CO67" s="29">
         <v>142924.89404160064</v>
       </c>
-      <c r="CP67" s="25">
+      <c r="CP67" s="29">
         <v>190875.98694110301</v>
       </c>
-      <c r="CQ67" s="25">
-        <v>174510.7710270542</v>
-      </c>
-      <c r="CR67" s="9"/>
+      <c r="CQ67" s="29">
+        <v>174574.00703918375</v>
+      </c>
+      <c r="CR67" s="29">
+        <v>156448.39341992466</v>
+      </c>
       <c r="CS67" s="9"/>
       <c r="CT67" s="9"/>
       <c r="CU67" s="9"/>
@@ -16314,25 +16415,27 @@
       <c r="CK68" s="26">
         <v>111732.1547250369</v>
       </c>
-      <c r="CL68" s="26">
+      <c r="CL68" s="30">
         <v>144262.06824617967</v>
       </c>
-      <c r="CM68" s="26">
+      <c r="CM68" s="30">
         <v>124718.82459777835</v>
       </c>
-      <c r="CN68" s="26">
+      <c r="CN68" s="30">
         <v>133565.47408270379</v>
       </c>
-      <c r="CO68" s="26">
+      <c r="CO68" s="30">
         <v>134371.06288107892</v>
       </c>
-      <c r="CP68" s="26">
+      <c r="CP68" s="30">
         <v>178812.36912742438</v>
       </c>
-      <c r="CQ68" s="26">
-        <v>150806.24147189377</v>
-      </c>
-      <c r="CR68" s="9"/>
+      <c r="CQ68" s="30">
+        <v>150879.93003148356</v>
+      </c>
+      <c r="CR68" s="30">
+        <v>146217.8504543085</v>
+      </c>
       <c r="CS68" s="9"/>
       <c r="CT68" s="9"/>
       <c r="CU68" s="9"/>
@@ -16658,25 +16761,27 @@
       <c r="CK69" s="26">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="26">
+      <c r="CL69" s="30">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="26">
+      <c r="CM69" s="30">
         <v>1027.1601309639761</v>
       </c>
-      <c r="CN69" s="26">
+      <c r="CN69" s="30">
         <v>43.601481617741278</v>
       </c>
-      <c r="CO69" s="26">
+      <c r="CO69" s="30">
         <v>10.702323039936408</v>
       </c>
-      <c r="CP69" s="26">
+      <c r="CP69" s="30">
         <v>21.094065156238536</v>
       </c>
-      <c r="CQ69" s="26">
-        <v>8.0454637426021041</v>
-      </c>
-      <c r="CR69" s="9"/>
+      <c r="CQ69" s="30">
+        <v>7.8896515054326981</v>
+      </c>
+      <c r="CR69" s="30">
+        <v>1.1680377004268585</v>
+      </c>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
@@ -17002,25 +17107,27 @@
       <c r="CK70" s="26">
         <v>17011.446015645281</v>
       </c>
-      <c r="CL70" s="26">
+      <c r="CL70" s="30">
         <v>14282.981918436471</v>
       </c>
-      <c r="CM70" s="26">
+      <c r="CM70" s="30">
         <v>10605.219253329671</v>
       </c>
-      <c r="CN70" s="26">
+      <c r="CN70" s="30">
         <v>4425.0765158350632</v>
       </c>
-      <c r="CO70" s="26">
+      <c r="CO70" s="30">
         <v>4548.9454215379565</v>
       </c>
-      <c r="CP70" s="26">
+      <c r="CP70" s="30">
         <v>6518.2776765650078</v>
       </c>
-      <c r="CQ70" s="26">
-        <v>13008.571135262413</v>
-      </c>
-      <c r="CR70" s="9"/>
+      <c r="CQ70" s="30">
+        <v>12999.740954569015</v>
+      </c>
+      <c r="CR70" s="30">
+        <v>7692.6395594540345</v>
+      </c>
       <c r="CS70" s="9"/>
       <c r="CT70" s="9"/>
       <c r="CU70" s="9"/>
@@ -17346,25 +17453,27 @@
       <c r="CK71" s="26">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="26">
+      <c r="CL71" s="30">
         <v>7863.217407514896</v>
       </c>
-      <c r="CM71" s="26">
+      <c r="CM71" s="30">
         <v>12974.003679213727</v>
       </c>
-      <c r="CN71" s="26">
+      <c r="CN71" s="30">
         <v>4985.4645054363455</v>
       </c>
-      <c r="CO71" s="26">
+      <c r="CO71" s="30">
         <v>3994.183415943829</v>
       </c>
-      <c r="CP71" s="26">
+      <c r="CP71" s="30">
         <v>5524.2460719573783</v>
       </c>
-      <c r="CQ71" s="26">
-        <v>10687.912956155435</v>
-      </c>
-      <c r="CR71" s="9"/>
+      <c r="CQ71" s="30">
+        <v>10686.446401625764</v>
+      </c>
+      <c r="CR71" s="30">
+        <v>2536.7353684617024</v>
+      </c>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
@@ -17690,25 +17799,27 @@
       <c r="CK72" s="25">
         <v>41639.598916049588</v>
       </c>
-      <c r="CL72" s="25">
+      <c r="CL72" s="29">
         <v>58252.704456362095</v>
       </c>
-      <c r="CM72" s="25">
+      <c r="CM72" s="29">
         <v>75840.342753787176</v>
       </c>
-      <c r="CN72" s="25">
+      <c r="CN72" s="29">
         <v>46761.425515761221</v>
       </c>
-      <c r="CO72" s="25">
+      <c r="CO72" s="29">
         <v>40473.680125573919</v>
       </c>
-      <c r="CP72" s="25">
+      <c r="CP72" s="29">
         <v>61892.060525129433</v>
       </c>
-      <c r="CQ72" s="25">
-        <v>75082.441802087036</v>
-      </c>
-      <c r="CR72" s="9"/>
+      <c r="CQ72" s="29">
+        <v>74613.634529753748</v>
+      </c>
+      <c r="CR72" s="29">
+        <v>44417.657125092046</v>
+      </c>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
@@ -18034,25 +18145,27 @@
       <c r="CK73" s="26">
         <v>2429.9848975317846</v>
       </c>
-      <c r="CL73" s="26">
+      <c r="CL73" s="30">
         <v>4674.898316141449</v>
       </c>
-      <c r="CM73" s="26">
+      <c r="CM73" s="30">
         <v>6619.0926723367329</v>
       </c>
-      <c r="CN73" s="26">
+      <c r="CN73" s="30">
         <v>3588.7495327824981</v>
       </c>
-      <c r="CO73" s="26">
+      <c r="CO73" s="30">
         <v>3532.2953208946096</v>
       </c>
-      <c r="CP73" s="26">
+      <c r="CP73" s="30">
         <v>5701.245947698877</v>
       </c>
-      <c r="CQ73" s="26">
-        <v>7443.264132683822</v>
-      </c>
-      <c r="CR73" s="9"/>
+      <c r="CQ73" s="30">
+        <v>7343.1018237399721</v>
+      </c>
+      <c r="CR73" s="30">
+        <v>3585.7185941757625</v>
+      </c>
       <c r="CS73" s="9"/>
       <c r="CT73" s="9"/>
       <c r="CU73" s="9"/>
@@ -18378,25 +18491,27 @@
       <c r="CK74" s="26">
         <v>6962.3940114241905</v>
       </c>
-      <c r="CL74" s="26">
+      <c r="CL74" s="30">
         <v>11436.226301684081</v>
       </c>
-      <c r="CM74" s="26">
+      <c r="CM74" s="30">
         <v>11835.610697793134</v>
       </c>
-      <c r="CN74" s="26">
+      <c r="CN74" s="30">
         <v>5928.4090057165213</v>
       </c>
-      <c r="CO74" s="26">
+      <c r="CO74" s="30">
         <v>6736.9173027245652</v>
       </c>
-      <c r="CP74" s="26">
+      <c r="CP74" s="30">
         <v>11733.531839083225</v>
       </c>
-      <c r="CQ74" s="26">
-        <v>15403.669214488291</v>
-      </c>
-      <c r="CR74" s="9"/>
+      <c r="CQ74" s="30">
+        <v>15156.869647080432</v>
+      </c>
+      <c r="CR74" s="30">
+        <v>6247.0041932283893</v>
+      </c>
       <c r="CS74" s="9"/>
       <c r="CT74" s="9"/>
       <c r="CU74" s="9"/>
@@ -18722,25 +18837,27 @@
       <c r="CK75" s="26">
         <v>22366.618873448107</v>
       </c>
-      <c r="CL75" s="26">
+      <c r="CL75" s="30">
         <v>27593.149041112589</v>
       </c>
-      <c r="CM75" s="26">
+      <c r="CM75" s="30">
         <v>41840.004529580372</v>
       </c>
-      <c r="CN75" s="26">
+      <c r="CN75" s="30">
         <v>28062.285735924481</v>
       </c>
-      <c r="CO75" s="26">
+      <c r="CO75" s="30">
         <v>21552.231177120528</v>
       </c>
-      <c r="CP75" s="26">
+      <c r="CP75" s="30">
         <v>29147.335292074571</v>
       </c>
-      <c r="CQ75" s="26">
-        <v>38538.978248192259</v>
-      </c>
-      <c r="CR75" s="9"/>
+      <c r="CQ75" s="30">
+        <v>38256.34919165654</v>
+      </c>
+      <c r="CR75" s="30">
+        <v>27531.947068959787</v>
+      </c>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -19066,25 +19183,27 @@
       <c r="CK76" s="26">
         <v>9880.6011336455031</v>
       </c>
-      <c r="CL76" s="26">
+      <c r="CL76" s="30">
         <v>14548.430797423976</v>
       </c>
-      <c r="CM76" s="26">
+      <c r="CM76" s="30">
         <v>15545.634854076947</v>
       </c>
-      <c r="CN76" s="26">
+      <c r="CN76" s="30">
         <v>9181.9812413377222</v>
       </c>
-      <c r="CO76" s="26">
+      <c r="CO76" s="30">
         <v>8652.2363248342153</v>
       </c>
-      <c r="CP76" s="26">
+      <c r="CP76" s="30">
         <v>15309.947446272756</v>
       </c>
-      <c r="CQ76" s="26">
-        <v>13696.530206722666</v>
-      </c>
-      <c r="CR76" s="9"/>
+      <c r="CQ76" s="30">
+        <v>13857.313867276804</v>
+      </c>
+      <c r="CR76" s="30">
+        <v>7052.9872687281086</v>
+      </c>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -19231,13 +19350,13 @@
       <c r="CI77" s="9"/>
       <c r="CJ77" s="9"/>
       <c r="CK77" s="9"/>
-      <c r="CL77" s="9"/>
-      <c r="CM77" s="9"/>
-      <c r="CN77" s="9"/>
-      <c r="CO77" s="9"/>
-      <c r="CP77" s="9"/>
-      <c r="CQ77" s="9"/>
-      <c r="CR77" s="9"/>
+      <c r="CL77" s="31"/>
+      <c r="CM77" s="31"/>
+      <c r="CN77" s="31"/>
+      <c r="CO77" s="31"/>
+      <c r="CP77" s="31"/>
+      <c r="CQ77" s="31"/>
+      <c r="CR77" s="31"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
@@ -19563,25 +19682,27 @@
       <c r="CK78" s="13">
         <v>288072.14334349486</v>
       </c>
-      <c r="CL78" s="13">
+      <c r="CL78" s="32">
         <v>334220.38782836311</v>
       </c>
-      <c r="CM78" s="13">
+      <c r="CM78" s="32">
         <v>293929.59065379313</v>
       </c>
-      <c r="CN78" s="13">
+      <c r="CN78" s="32">
         <v>290438.74926655937</v>
       </c>
-      <c r="CO78" s="13">
+      <c r="CO78" s="32">
         <v>295498.23576939176</v>
       </c>
-      <c r="CP78" s="13">
+      <c r="CP78" s="32">
         <v>361157.44422317075</v>
       </c>
-      <c r="CQ78" s="13">
-        <v>325620.98335460876</v>
-      </c>
-      <c r="CR78" s="9"/>
+      <c r="CQ78" s="32">
+        <v>324924.87156107079</v>
+      </c>
+      <c r="CR78" s="32">
+        <v>295469.4850520016</v>
+      </c>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
@@ -19729,12 +19850,13 @@
       <c r="CI79" s="14"/>
       <c r="CJ79" s="14"/>
       <c r="CK79" s="14"/>
-      <c r="CL79" s="14"/>
-      <c r="CM79" s="14"/>
-      <c r="CN79" s="14"/>
-      <c r="CO79" s="14"/>
-      <c r="CP79" s="14"/>
-      <c r="CQ79" s="14"/>
+      <c r="CL79" s="33"/>
+      <c r="CM79" s="33"/>
+      <c r="CN79" s="33"/>
+      <c r="CO79" s="33"/>
+      <c r="CP79" s="33"/>
+      <c r="CQ79" s="33"/>
+      <c r="CR79" s="33"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -19851,13 +19973,13 @@
       <c r="CI81" s="18"/>
       <c r="CJ81" s="18"/>
       <c r="CK81" s="18"/>
-      <c r="CL81" s="18"/>
-      <c r="CM81" s="18"/>
-      <c r="CN81" s="18"/>
-      <c r="CO81" s="18"/>
-      <c r="CP81" s="18"/>
-      <c r="CQ81" s="18"/>
-      <c r="CR81" s="18"/>
+      <c r="CL81" s="35"/>
+      <c r="CM81" s="35"/>
+      <c r="CN81" s="35"/>
+      <c r="CO81" s="35"/>
+      <c r="CP81" s="35"/>
+      <c r="CQ81" s="35"/>
+      <c r="CR81" s="35"/>
       <c r="CS81" s="18"/>
       <c r="CT81" s="18"/>
       <c r="CU81" s="18"/>
@@ -20005,13 +20127,13 @@
       <c r="CI82" s="18"/>
       <c r="CJ82" s="18"/>
       <c r="CK82" s="18"/>
-      <c r="CL82" s="18"/>
-      <c r="CM82" s="18"/>
-      <c r="CN82" s="18"/>
-      <c r="CO82" s="18"/>
-      <c r="CP82" s="18"/>
-      <c r="CQ82" s="18"/>
-      <c r="CR82" s="18"/>
+      <c r="CL82" s="35"/>
+      <c r="CM82" s="35"/>
+      <c r="CN82" s="35"/>
+      <c r="CO82" s="35"/>
+      <c r="CP82" s="35"/>
+      <c r="CQ82" s="35"/>
+      <c r="CR82" s="35"/>
       <c r="CS82" s="18"/>
       <c r="CT82" s="18"/>
       <c r="CU82" s="18"/>
@@ -20101,148 +20223,147 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="28" t="s">
+      <c r="B91" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28" t="s">
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="28" t="s">
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="27"/>
-      <c r="N91" s="28" t="s">
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="27"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="27"/>
-      <c r="R91" s="28" t="s">
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27"/>
-      <c r="U91" s="27"/>
-      <c r="V91" s="28" t="s">
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="28" t="s">
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="28" t="s">
+      <c r="AA91" s="37"/>
+      <c r="AB91" s="37"/>
+      <c r="AC91" s="37"/>
+      <c r="AD91" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="27"/>
-      <c r="AF91" s="27"/>
-      <c r="AG91" s="27"/>
-      <c r="AH91" s="28" t="s">
+      <c r="AE91" s="37"/>
+      <c r="AF91" s="37"/>
+      <c r="AG91" s="37"/>
+      <c r="AH91" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="27"/>
-      <c r="AJ91" s="27"/>
-      <c r="AK91" s="27"/>
-      <c r="AL91" s="28" t="s">
+      <c r="AI91" s="37"/>
+      <c r="AJ91" s="37"/>
+      <c r="AK91" s="37"/>
+      <c r="AL91" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="27"/>
-      <c r="AO91" s="27"/>
-      <c r="AP91" s="28" t="s">
+      <c r="AM91" s="37"/>
+      <c r="AN91" s="37"/>
+      <c r="AO91" s="37"/>
+      <c r="AP91" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="27"/>
-      <c r="AR91" s="27"/>
-      <c r="AS91" s="27"/>
-      <c r="AT91" s="28" t="s">
+      <c r="AQ91" s="37"/>
+      <c r="AR91" s="37"/>
+      <c r="AS91" s="37"/>
+      <c r="AT91" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="27"/>
-      <c r="AV91" s="27"/>
-      <c r="AW91" s="27"/>
-      <c r="AX91" s="28" t="s">
+      <c r="AU91" s="37"/>
+      <c r="AV91" s="37"/>
+      <c r="AW91" s="37"/>
+      <c r="AX91" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="27"/>
-      <c r="AZ91" s="27"/>
-      <c r="BA91" s="27"/>
-      <c r="BB91" s="28" t="s">
+      <c r="AY91" s="37"/>
+      <c r="AZ91" s="37"/>
+      <c r="BA91" s="37"/>
+      <c r="BB91" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="27"/>
-      <c r="BD91" s="27"/>
-      <c r="BE91" s="27"/>
-      <c r="BF91" s="28" t="s">
+      <c r="BC91" s="37"/>
+      <c r="BD91" s="37"/>
+      <c r="BE91" s="37"/>
+      <c r="BF91" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="27"/>
-      <c r="BH91" s="27"/>
-      <c r="BI91" s="27"/>
-      <c r="BJ91" s="28" t="s">
+      <c r="BG91" s="37"/>
+      <c r="BH91" s="37"/>
+      <c r="BI91" s="37"/>
+      <c r="BJ91" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="27"/>
-      <c r="BL91" s="27"/>
-      <c r="BM91" s="27"/>
-      <c r="BN91" s="28" t="s">
+      <c r="BK91" s="37"/>
+      <c r="BL91" s="37"/>
+      <c r="BM91" s="37"/>
+      <c r="BN91" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="27"/>
-      <c r="BP91" s="27"/>
-      <c r="BQ91" s="27"/>
-      <c r="BR91" s="28" t="s">
+      <c r="BO91" s="37"/>
+      <c r="BP91" s="37"/>
+      <c r="BQ91" s="37"/>
+      <c r="BR91" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="27"/>
-      <c r="BT91" s="27"/>
-      <c r="BU91" s="27"/>
-      <c r="BV91" s="28" t="s">
+      <c r="BS91" s="37"/>
+      <c r="BT91" s="37"/>
+      <c r="BU91" s="37"/>
+      <c r="BV91" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="27"/>
-      <c r="BX91" s="27"/>
-      <c r="BY91" s="27"/>
-      <c r="BZ91" s="28" t="s">
+      <c r="BW91" s="37"/>
+      <c r="BX91" s="37"/>
+      <c r="BY91" s="37"/>
+      <c r="BZ91" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="27"/>
-      <c r="CB91" s="27"/>
-      <c r="CC91" s="27"/>
-      <c r="CD91" s="28" t="s">
+      <c r="CA91" s="37"/>
+      <c r="CB91" s="37"/>
+      <c r="CC91" s="37"/>
+      <c r="CD91" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="28"/>
-      <c r="CF91" s="28"/>
-      <c r="CG91" s="28"/>
-      <c r="CH91" s="28" t="s">
+      <c r="CE91" s="38"/>
+      <c r="CF91" s="38"/>
+      <c r="CG91" s="38"/>
+      <c r="CH91" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="CI91" s="28"/>
-      <c r="CJ91" s="28"/>
-      <c r="CK91" s="28"/>
-      <c r="CL91" s="28" t="s">
+      <c r="CI91" s="38"/>
+      <c r="CJ91" s="38"/>
+      <c r="CK91" s="38"/>
+      <c r="CL91" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="CM91" s="28">
-        <v>0</v>
-      </c>
-      <c r="CN91" s="28"/>
-      <c r="CO91" s="28"/>
-      <c r="CP91" s="28"/>
-      <c r="CQ91" s="29"/>
+      <c r="CM91" s="37"/>
+      <c r="CN91" s="37"/>
+      <c r="CO91" s="4"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20512,16 +20633,19 @@
       <c r="CK92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL92" s="17" t="s">
+      <c r="CL92" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM92" s="17" t="s">
+      <c r="CM92" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN92" s="17"/>
-      <c r="CO92" s="17"/>
-      <c r="CP92" s="17"/>
-      <c r="CQ92" s="17"/>
+      <c r="CN92" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO92" s="34"/>
+      <c r="CP92" s="34"/>
+      <c r="CQ92" s="34"/>
+      <c r="CR92" s="34"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
@@ -20794,17 +20918,19 @@
       <c r="CK94" s="18">
         <v>-3.1423218361062197</v>
       </c>
-      <c r="CL94" s="18">
+      <c r="CL94" s="35">
         <v>2.7367618247031515</v>
       </c>
-      <c r="CM94" s="18">
-        <v>4.3890106906778072</v>
-      </c>
-      <c r="CN94" s="18"/>
-      <c r="CO94" s="18"/>
-      <c r="CP94" s="18"/>
-      <c r="CQ94" s="18"/>
-      <c r="CR94" s="9"/>
+      <c r="CM94" s="35">
+        <v>3.9993777276193612</v>
+      </c>
+      <c r="CN94" s="35">
+        <v>-7.208481727088909</v>
+      </c>
+      <c r="CO94" s="35"/>
+      <c r="CP94" s="35"/>
+      <c r="CQ94" s="35"/>
+      <c r="CR94" s="35"/>
       <c r="CS94" s="9"/>
       <c r="CT94" s="9"/>
       <c r="CU94" s="9"/>
@@ -21125,17 +21251,19 @@
       <c r="CK95" s="18">
         <v>-33.890668245748373</v>
       </c>
-      <c r="CL95" s="18">
+      <c r="CL95" s="35">
         <v>18.755741887540651</v>
       </c>
-      <c r="CM95" s="18">
-        <v>47.450826017346799</v>
-      </c>
-      <c r="CN95" s="18"/>
-      <c r="CO95" s="18"/>
-      <c r="CP95" s="18"/>
-      <c r="CQ95" s="18"/>
-      <c r="CR95" s="9"/>
+      <c r="CM95" s="35">
+        <v>47.557225052286213</v>
+      </c>
+      <c r="CN95" s="35">
+        <v>23.146355039148816</v>
+      </c>
+      <c r="CO95" s="35"/>
+      <c r="CP95" s="35"/>
+      <c r="CQ95" s="35"/>
+      <c r="CR95" s="35"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -21456,17 +21584,19 @@
       <c r="CK96" s="18">
         <v>11.252850114661285</v>
       </c>
-      <c r="CL96" s="18">
+      <c r="CL96" s="35">
         <v>35.5106081488955</v>
       </c>
-      <c r="CM96" s="18">
-        <v>41.288682315417333</v>
-      </c>
-      <c r="CN96" s="18"/>
-      <c r="CO96" s="18"/>
-      <c r="CP96" s="18"/>
-      <c r="CQ96" s="18"/>
-      <c r="CR96" s="9"/>
+      <c r="CM96" s="35">
+        <v>41.360508109013182</v>
+      </c>
+      <c r="CN96" s="35">
+        <v>-19.455149206563505</v>
+      </c>
+      <c r="CO96" s="35"/>
+      <c r="CP96" s="35"/>
+      <c r="CQ96" s="35"/>
+      <c r="CR96" s="35"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
@@ -21787,17 +21917,19 @@
       <c r="CK97" s="18">
         <v>22.780147339555285</v>
       </c>
-      <c r="CL97" s="18">
+      <c r="CL97" s="35">
         <v>8.2304766771993201</v>
       </c>
-      <c r="CM97" s="18">
-        <v>26.405399893132071</v>
-      </c>
-      <c r="CN97" s="18"/>
-      <c r="CO97" s="18"/>
-      <c r="CP97" s="18"/>
-      <c r="CQ97" s="18"/>
-      <c r="CR97" s="9"/>
+      <c r="CM97" s="35">
+        <v>25.531262825479047</v>
+      </c>
+      <c r="CN97" s="35">
+        <v>-12.565813279736446</v>
+      </c>
+      <c r="CO97" s="35"/>
+      <c r="CP97" s="35"/>
+      <c r="CQ97" s="35"/>
+      <c r="CR97" s="35"/>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
@@ -22118,17 +22250,19 @@
       <c r="CK98" s="18">
         <v>39.670564594574842</v>
       </c>
-      <c r="CL98" s="18">
+      <c r="CL98" s="35">
         <v>8.1518178866893436</v>
       </c>
-      <c r="CM98" s="18">
-        <v>36.46950603307144</v>
-      </c>
-      <c r="CN98" s="18"/>
-      <c r="CO98" s="18"/>
-      <c r="CP98" s="18"/>
-      <c r="CQ98" s="18"/>
-      <c r="CR98" s="9"/>
+      <c r="CM98" s="35">
+        <v>29.700369656162877</v>
+      </c>
+      <c r="CN98" s="35">
+        <v>-6.2338956367023286</v>
+      </c>
+      <c r="CO98" s="35"/>
+      <c r="CP98" s="35"/>
+      <c r="CQ98" s="35"/>
+      <c r="CR98" s="35"/>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
@@ -22449,17 +22583,19 @@
       <c r="CK99" s="18">
         <v>10.620130913081653</v>
       </c>
-      <c r="CL99" s="18">
+      <c r="CL99" s="35">
         <v>9.788351734470524</v>
       </c>
-      <c r="CM99" s="18">
-        <v>-1.8550160085652294</v>
-      </c>
-      <c r="CN99" s="18"/>
-      <c r="CO99" s="18"/>
-      <c r="CP99" s="18"/>
-      <c r="CQ99" s="18"/>
-      <c r="CR99" s="9"/>
+      <c r="CM99" s="35">
+        <v>-1.8357359933228992</v>
+      </c>
+      <c r="CN99" s="35">
+        <v>14.717640435480831</v>
+      </c>
+      <c r="CO99" s="35"/>
+      <c r="CP99" s="35"/>
+      <c r="CQ99" s="35"/>
+      <c r="CR99" s="35"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
@@ -22780,17 +22916,19 @@
       <c r="CK100" s="18">
         <v>-7.2462550615598929</v>
       </c>
-      <c r="CL100" s="18">
+      <c r="CL100" s="35">
         <v>-4.8508969004446101</v>
       </c>
-      <c r="CM100" s="18">
-        <v>-3.0760073881384216</v>
-      </c>
-      <c r="CN100" s="18"/>
-      <c r="CO100" s="18"/>
-      <c r="CP100" s="18"/>
-      <c r="CQ100" s="18"/>
-      <c r="CR100" s="9"/>
+      <c r="CM100" s="35">
+        <v>-3.2554556028369603</v>
+      </c>
+      <c r="CN100" s="35">
+        <v>-0.38662650167799484</v>
+      </c>
+      <c r="CO100" s="35"/>
+      <c r="CP100" s="35"/>
+      <c r="CQ100" s="35"/>
+      <c r="CR100" s="35"/>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
@@ -23111,17 +23249,19 @@
       <c r="CK101" s="18">
         <v>-13.742990700988315</v>
       </c>
-      <c r="CL101" s="18">
+      <c r="CL101" s="35">
         <v>58.736595766537221</v>
       </c>
-      <c r="CM101" s="18">
-        <v>71.465875656660643</v>
-      </c>
-      <c r="CN101" s="18"/>
-      <c r="CO101" s="18"/>
-      <c r="CP101" s="18"/>
-      <c r="CQ101" s="18"/>
-      <c r="CR101" s="9"/>
+      <c r="CM101" s="35">
+        <v>69.999058294996132</v>
+      </c>
+      <c r="CN101" s="35">
+        <v>106.66490305499846</v>
+      </c>
+      <c r="CO101" s="35"/>
+      <c r="CP101" s="35"/>
+      <c r="CQ101" s="35"/>
+      <c r="CR101" s="35"/>
       <c r="CS101" s="9"/>
       <c r="CT101" s="9"/>
       <c r="CU101" s="9"/>
@@ -23442,17 +23582,19 @@
       <c r="CK102" s="18">
         <v>-0.88709604137297049</v>
       </c>
-      <c r="CL102" s="18">
+      <c r="CL102" s="35">
         <v>-13.729043280597026</v>
       </c>
-      <c r="CM102" s="18">
-        <v>-32.998981703524649</v>
-      </c>
-      <c r="CN102" s="18"/>
-      <c r="CO102" s="18"/>
-      <c r="CP102" s="18"/>
-      <c r="CQ102" s="18"/>
-      <c r="CR102" s="9"/>
+      <c r="CM102" s="35">
+        <v>-34.333825393600847</v>
+      </c>
+      <c r="CN102" s="35">
+        <v>-27.210502314592176</v>
+      </c>
+      <c r="CO102" s="35"/>
+      <c r="CP102" s="35"/>
+      <c r="CQ102" s="35"/>
+      <c r="CR102" s="35"/>
       <c r="CS102" s="9"/>
       <c r="CT102" s="9"/>
       <c r="CU102" s="9"/>
@@ -23773,17 +23915,19 @@
       <c r="CK103" s="18">
         <v>32.975084605904556</v>
       </c>
-      <c r="CL103" s="18">
+      <c r="CL103" s="35">
         <v>19.150436000937503</v>
       </c>
-      <c r="CM103" s="18">
-        <v>20.758808821273306</v>
-      </c>
-      <c r="CN103" s="18"/>
-      <c r="CO103" s="18"/>
-      <c r="CP103" s="18"/>
-      <c r="CQ103" s="18"/>
-      <c r="CR103" s="9"/>
+      <c r="CM103" s="35">
+        <v>20.495319911370856</v>
+      </c>
+      <c r="CN103" s="35">
+        <v>3.5970103697748215</v>
+      </c>
+      <c r="CO103" s="35"/>
+      <c r="CP103" s="35"/>
+      <c r="CQ103" s="35"/>
+      <c r="CR103" s="35"/>
       <c r="CS103" s="9"/>
       <c r="CT103" s="9"/>
       <c r="CU103" s="9"/>
@@ -24104,17 +24248,19 @@
       <c r="CK104" s="18">
         <v>19.731184714463737</v>
       </c>
-      <c r="CL104" s="18">
+      <c r="CL104" s="35">
         <v>9.1218081340804957</v>
       </c>
-      <c r="CM104" s="18">
-        <v>8.4623668966585086</v>
-      </c>
-      <c r="CN104" s="18"/>
-      <c r="CO104" s="18"/>
-      <c r="CP104" s="18"/>
-      <c r="CQ104" s="18"/>
-      <c r="CR104" s="9"/>
+      <c r="CM104" s="35">
+        <v>8.4853663971373123</v>
+      </c>
+      <c r="CN104" s="35">
+        <v>-7.5077621437287974</v>
+      </c>
+      <c r="CO104" s="35"/>
+      <c r="CP104" s="35"/>
+      <c r="CQ104" s="35"/>
+      <c r="CR104" s="35"/>
       <c r="CS104" s="9"/>
       <c r="CT104" s="9"/>
       <c r="CU104" s="9"/>
@@ -24435,17 +24581,19 @@
       <c r="CK105" s="18">
         <v>33.960591444513767</v>
       </c>
-      <c r="CL105" s="18">
+      <c r="CL105" s="35">
         <v>25.916592349756385</v>
       </c>
-      <c r="CM105" s="18">
-        <v>24.055711503699101</v>
-      </c>
-      <c r="CN105" s="18"/>
-      <c r="CO105" s="18"/>
-      <c r="CP105" s="18"/>
-      <c r="CQ105" s="18"/>
-      <c r="CR105" s="9"/>
+      <c r="CM105" s="35">
+        <v>24.101706080214313</v>
+      </c>
+      <c r="CN105" s="35">
+        <v>7.8624584288929498</v>
+      </c>
+      <c r="CO105" s="35"/>
+      <c r="CP105" s="35"/>
+      <c r="CQ105" s="35"/>
+      <c r="CR105" s="35"/>
       <c r="CS105" s="9"/>
       <c r="CT105" s="9"/>
       <c r="CU105" s="9"/>
@@ -24766,17 +24914,19 @@
       <c r="CK106" s="18">
         <v>80.427362585648609</v>
       </c>
-      <c r="CL106" s="18">
+      <c r="CL106" s="35">
         <v>83.851936764689043</v>
       </c>
-      <c r="CM106" s="18">
-        <v>66.03875232722072</v>
-      </c>
-      <c r="CN106" s="18"/>
-      <c r="CO106" s="18"/>
-      <c r="CP106" s="18"/>
-      <c r="CQ106" s="18"/>
-      <c r="CR106" s="9"/>
+      <c r="CM106" s="35">
+        <v>64.836376317474219</v>
+      </c>
+      <c r="CN106" s="35">
+        <v>19.250110329839941</v>
+      </c>
+      <c r="CO106" s="35"/>
+      <c r="CP106" s="35"/>
+      <c r="CQ106" s="35"/>
+      <c r="CR106" s="35"/>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
@@ -25097,17 +25247,19 @@
       <c r="CK107" s="18">
         <v>9.0861896397864683</v>
       </c>
-      <c r="CL107" s="18">
+      <c r="CL107" s="35">
         <v>-12.162625702680913</v>
       </c>
-      <c r="CM107" s="18">
-        <v>-4.4791757526633091</v>
-      </c>
-      <c r="CN107" s="18"/>
-      <c r="CO107" s="18"/>
-      <c r="CP107" s="18"/>
-      <c r="CQ107" s="18"/>
-      <c r="CR107" s="9"/>
+      <c r="CM107" s="35">
+        <v>-4.3416783172982178</v>
+      </c>
+      <c r="CN107" s="35">
+        <v>-11.596728657658772</v>
+      </c>
+      <c r="CO107" s="35"/>
+      <c r="CP107" s="35"/>
+      <c r="CQ107" s="35"/>
+      <c r="CR107" s="35"/>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
@@ -25428,17 +25580,19 @@
       <c r="CK108" s="18">
         <v>21.739786651774935</v>
       </c>
-      <c r="CL108" s="18">
+      <c r="CL108" s="35">
         <v>18.500666327261598</v>
       </c>
-      <c r="CM108" s="18">
-        <v>26.986453225412561</v>
-      </c>
-      <c r="CN108" s="18"/>
-      <c r="CO108" s="18"/>
-      <c r="CP108" s="18"/>
-      <c r="CQ108" s="18"/>
-      <c r="CR108" s="9"/>
+      <c r="CM108" s="35">
+        <v>27.035368555685693</v>
+      </c>
+      <c r="CN108" s="35">
+        <v>8.9580024052060736</v>
+      </c>
+      <c r="CO108" s="35"/>
+      <c r="CP108" s="35"/>
+      <c r="CQ108" s="35"/>
+      <c r="CR108" s="35"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
@@ -25759,17 +25913,19 @@
       <c r="CK109" s="18">
         <v>38.066324328804001</v>
       </c>
-      <c r="CL109" s="18">
+      <c r="CL109" s="35">
         <v>31.171443032221021</v>
       </c>
-      <c r="CM109" s="18">
-        <v>30.101864959695035</v>
-      </c>
-      <c r="CN109" s="18"/>
-      <c r="CO109" s="18"/>
-      <c r="CP109" s="18"/>
-      <c r="CQ109" s="18"/>
-      <c r="CR109" s="9"/>
+      <c r="CM109" s="35">
+        <v>30.168940720186527</v>
+      </c>
+      <c r="CN109" s="35">
+        <v>8.4161565909208065</v>
+      </c>
+      <c r="CO109" s="35"/>
+      <c r="CP109" s="35"/>
+      <c r="CQ109" s="35"/>
+      <c r="CR109" s="35"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
@@ -26090,17 +26246,19 @@
       <c r="CK110" s="18">
         <v>-99.551333877680136</v>
       </c>
-      <c r="CL110" s="18">
+      <c r="CL110" s="35">
         <v>-98.650503406328937</v>
       </c>
-      <c r="CM110" s="20">
+      <c r="CM110" s="35">
         <v>-99.100926035919613</v>
       </c>
-      <c r="CN110" s="18"/>
-      <c r="CO110" s="18"/>
-      <c r="CP110" s="18"/>
-      <c r="CQ110" s="20"/>
-      <c r="CR110" s="9"/>
+      <c r="CN110" s="35">
+        <v>-97.153307417945456</v>
+      </c>
+      <c r="CO110" s="35"/>
+      <c r="CP110" s="35"/>
+      <c r="CQ110" s="35"/>
+      <c r="CR110" s="35"/>
       <c r="CS110" s="9"/>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
@@ -26421,17 +26579,19 @@
       <c r="CK111" s="18">
         <v>-68.660450439804279</v>
       </c>
-      <c r="CL111" s="20">
+      <c r="CL111" s="35">
         <v>-49.097951632191318</v>
       </c>
-      <c r="CM111" s="18">
-        <v>38.58809078364331</v>
-      </c>
-      <c r="CN111" s="18"/>
-      <c r="CO111" s="18"/>
-      <c r="CP111" s="20"/>
-      <c r="CQ111" s="18"/>
-      <c r="CR111" s="9"/>
+      <c r="CM111" s="35">
+        <v>38.494015216530698</v>
+      </c>
+      <c r="CN111" s="35">
+        <v>84.949785500225431</v>
+      </c>
+      <c r="CO111" s="35"/>
+      <c r="CP111" s="35"/>
+      <c r="CQ111" s="35"/>
+      <c r="CR111" s="35"/>
       <c r="CS111" s="9"/>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
@@ -26752,17 +26912,19 @@
       <c r="CK112" s="18">
         <v>186.47284241674464</v>
       </c>
-      <c r="CL112" s="18">
+      <c r="CL112" s="35">
         <v>-24.408166019971489</v>
       </c>
-      <c r="CM112" s="18">
-        <v>-5.4511554266607618</v>
-      </c>
-      <c r="CN112" s="18"/>
-      <c r="CO112" s="18"/>
-      <c r="CP112" s="18"/>
-      <c r="CQ112" s="18"/>
-      <c r="CR112" s="9"/>
+      <c r="CM112" s="35">
+        <v>-5.4629720756231563</v>
+      </c>
+      <c r="CN112" s="35">
+        <v>-49.466128777386501</v>
+      </c>
+      <c r="CO112" s="35"/>
+      <c r="CP112" s="35"/>
+      <c r="CQ112" s="35"/>
+      <c r="CR112" s="35"/>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
@@ -27083,17 +27245,19 @@
       <c r="CK113" s="18">
         <v>16.532349124837879</v>
       </c>
-      <c r="CL113" s="18">
+      <c r="CL113" s="35">
         <v>14.908492486547004</v>
       </c>
-      <c r="CM113" s="18">
-        <v>4.819996666366805</v>
-      </c>
-      <c r="CN113" s="18"/>
-      <c r="CO113" s="18"/>
-      <c r="CP113" s="18"/>
-      <c r="CQ113" s="18"/>
-      <c r="CR113" s="9"/>
+      <c r="CM113" s="35">
+        <v>4.1135238370935951</v>
+      </c>
+      <c r="CN113" s="35">
+        <v>-3.3379375309253732</v>
+      </c>
+      <c r="CO113" s="35"/>
+      <c r="CP113" s="35"/>
+      <c r="CQ113" s="35"/>
+      <c r="CR113" s="35"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
@@ -27414,17 +27578,19 @@
       <c r="CK114" s="18">
         <v>66.409150524553638</v>
       </c>
-      <c r="CL114" s="18">
+      <c r="CL114" s="35">
         <v>26.789831173921158</v>
       </c>
-      <c r="CM114" s="18">
-        <v>12.740035192878764</v>
-      </c>
-      <c r="CN114" s="18"/>
-      <c r="CO114" s="18"/>
-      <c r="CP114" s="18"/>
-      <c r="CQ114" s="18"/>
-      <c r="CR114" s="9"/>
+      <c r="CM114" s="35">
+        <v>11.246514321811915</v>
+      </c>
+      <c r="CN114" s="35">
+        <v>-5.332830513473823</v>
+      </c>
+      <c r="CO114" s="35"/>
+      <c r="CP114" s="35"/>
+      <c r="CQ114" s="35"/>
+      <c r="CR114" s="35"/>
       <c r="CS114" s="9"/>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
@@ -27745,17 +27911,19 @@
       <c r="CK115" s="18">
         <v>8.6519988830101653</v>
       </c>
-      <c r="CL115" s="18">
+      <c r="CL115" s="35">
         <v>7.5233312442894089</v>
       </c>
-      <c r="CM115" s="18">
-        <v>24.433215404017773</v>
-      </c>
-      <c r="CN115" s="18"/>
-      <c r="CO115" s="18"/>
-      <c r="CP115" s="18"/>
-      <c r="CQ115" s="18"/>
-      <c r="CR115" s="9"/>
+      <c r="CM115" s="35">
+        <v>22.010321702732767</v>
+      </c>
+      <c r="CN115" s="35">
+        <v>3.6384302570942566</v>
+      </c>
+      <c r="CO115" s="35"/>
+      <c r="CP115" s="35"/>
+      <c r="CQ115" s="35"/>
+      <c r="CR115" s="35"/>
       <c r="CS115" s="9"/>
       <c r="CT115" s="9"/>
       <c r="CU115" s="9"/>
@@ -28076,17 +28244,19 @@
       <c r="CK116" s="18">
         <v>14.396255255301497</v>
       </c>
-      <c r="CL116" s="18">
+      <c r="CL116" s="35">
         <v>14.32032362510131</v>
       </c>
-      <c r="CM116" s="18">
-        <v>2.9195746943546936</v>
-      </c>
-      <c r="CN116" s="18"/>
-      <c r="CO116" s="18"/>
-      <c r="CP116" s="18"/>
-      <c r="CQ116" s="18"/>
-      <c r="CR116" s="9"/>
+      <c r="CM116" s="35">
+        <v>1.8336815905257282</v>
+      </c>
+      <c r="CN116" s="35">
+        <v>0.85907193268781157</v>
+      </c>
+      <c r="CO116" s="35"/>
+      <c r="CP116" s="35"/>
+      <c r="CQ116" s="35"/>
+      <c r="CR116" s="35"/>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
@@ -28407,17 +28577,19 @@
       <c r="CK117" s="18">
         <v>7.414953349529199</v>
       </c>
-      <c r="CL117" s="18">
+      <c r="CL117" s="35">
         <v>17.684050114838954</v>
       </c>
-      <c r="CM117" s="18">
-        <v>-4.4554889670870352</v>
-      </c>
-      <c r="CN117" s="18"/>
-      <c r="CO117" s="18"/>
-      <c r="CP117" s="18"/>
-      <c r="CQ117" s="18"/>
-      <c r="CR117" s="9"/>
+      <c r="CM117" s="35">
+        <v>-3.3365287248925739</v>
+      </c>
+      <c r="CN117" s="35">
+        <v>-20.487767413655476</v>
+      </c>
+      <c r="CO117" s="35"/>
+      <c r="CP117" s="35"/>
+      <c r="CQ117" s="35"/>
+      <c r="CR117" s="35"/>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
@@ -28559,13 +28731,13 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
       <c r="CK118" s="9"/>
-      <c r="CL118" s="9"/>
-      <c r="CM118" s="9"/>
-      <c r="CN118" s="9"/>
-      <c r="CO118" s="9"/>
-      <c r="CP118" s="9"/>
-      <c r="CQ118" s="9"/>
-      <c r="CR118" s="9"/>
+      <c r="CL118" s="31"/>
+      <c r="CM118" s="31"/>
+      <c r="CN118" s="31"/>
+      <c r="CO118" s="31"/>
+      <c r="CP118" s="31"/>
+      <c r="CQ118" s="31"/>
+      <c r="CR118" s="31"/>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
@@ -28886,17 +29058,19 @@
       <c r="CK119" s="23">
         <v>17.629840372568012</v>
       </c>
-      <c r="CL119" s="23">
+      <c r="CL119" s="36">
         <v>15.101511538953901</v>
       </c>
-      <c r="CM119" s="23">
-        <v>17.938762708403672</v>
-      </c>
-      <c r="CN119" s="23"/>
-      <c r="CO119" s="23"/>
-      <c r="CP119" s="23"/>
-      <c r="CQ119" s="23"/>
-      <c r="CR119" s="9"/>
+      <c r="CM119" s="36">
+        <v>17.716942746776581</v>
+      </c>
+      <c r="CN119" s="36">
+        <v>3.7100657732739108</v>
+      </c>
+      <c r="CO119" s="36"/>
+      <c r="CP119" s="36"/>
+      <c r="CQ119" s="36"/>
+      <c r="CR119" s="36"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
@@ -29039,12 +29213,13 @@
       <c r="CI120" s="14"/>
       <c r="CJ120" s="14"/>
       <c r="CK120" s="14"/>
-      <c r="CL120" s="14"/>
-      <c r="CM120" s="14"/>
-      <c r="CN120" s="14"/>
-      <c r="CO120" s="14"/>
-      <c r="CP120" s="14"/>
-      <c r="CQ120" s="14"/>
+      <c r="CL120" s="33"/>
+      <c r="CM120" s="33"/>
+      <c r="CN120" s="33"/>
+      <c r="CO120" s="33"/>
+      <c r="CP120" s="33"/>
+      <c r="CQ120" s="33"/>
+      <c r="CR120" s="33"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -29143,13 +29318,13 @@
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
       <c r="CK122" s="9"/>
-      <c r="CL122" s="9"/>
-      <c r="CM122" s="9"/>
-      <c r="CN122" s="9"/>
-      <c r="CO122" s="9"/>
-      <c r="CP122" s="9"/>
-      <c r="CQ122" s="9"/>
-      <c r="CR122" s="9"/>
+      <c r="CL122" s="31"/>
+      <c r="CM122" s="31"/>
+      <c r="CN122" s="31"/>
+      <c r="CO122" s="31"/>
+      <c r="CP122" s="31"/>
+      <c r="CQ122" s="31"/>
+      <c r="CR122" s="31"/>
       <c r="CS122" s="9"/>
       <c r="CT122" s="9"/>
       <c r="CU122" s="9"/>
@@ -29291,13 +29466,13 @@
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
       <c r="CK123" s="9"/>
-      <c r="CL123" s="9"/>
-      <c r="CM123" s="9"/>
-      <c r="CN123" s="9"/>
-      <c r="CO123" s="9"/>
-      <c r="CP123" s="9"/>
-      <c r="CQ123" s="9"/>
-      <c r="CR123" s="9"/>
+      <c r="CL123" s="31"/>
+      <c r="CM123" s="31"/>
+      <c r="CN123" s="31"/>
+      <c r="CO123" s="31"/>
+      <c r="CP123" s="31"/>
+      <c r="CQ123" s="31"/>
+      <c r="CR123" s="31"/>
       <c r="CS123" s="9"/>
       <c r="CT123" s="9"/>
       <c r="CU123" s="9"/>
@@ -29382,148 +29557,147 @@
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="28" t="s">
+      <c r="B132" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="28" t="s">
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="27"/>
-      <c r="H132" s="27"/>
-      <c r="I132" s="27"/>
-      <c r="J132" s="28" t="s">
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="27"/>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="28" t="s">
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="28" t="s">
+      <c r="O132" s="37"/>
+      <c r="P132" s="37"/>
+      <c r="Q132" s="37"/>
+      <c r="R132" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="27"/>
-      <c r="T132" s="27"/>
-      <c r="U132" s="27"/>
-      <c r="V132" s="28" t="s">
+      <c r="S132" s="37"/>
+      <c r="T132" s="37"/>
+      <c r="U132" s="37"/>
+      <c r="V132" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="27"/>
-      <c r="X132" s="27"/>
-      <c r="Y132" s="27"/>
-      <c r="Z132" s="28" t="s">
+      <c r="W132" s="37"/>
+      <c r="X132" s="37"/>
+      <c r="Y132" s="37"/>
+      <c r="Z132" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="27"/>
-      <c r="AB132" s="27"/>
-      <c r="AC132" s="27"/>
-      <c r="AD132" s="28" t="s">
+      <c r="AA132" s="37"/>
+      <c r="AB132" s="37"/>
+      <c r="AC132" s="37"/>
+      <c r="AD132" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="27"/>
-      <c r="AF132" s="27"/>
-      <c r="AG132" s="27"/>
-      <c r="AH132" s="28" t="s">
+      <c r="AE132" s="37"/>
+      <c r="AF132" s="37"/>
+      <c r="AG132" s="37"/>
+      <c r="AH132" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="27"/>
-      <c r="AJ132" s="27"/>
-      <c r="AK132" s="27"/>
-      <c r="AL132" s="28" t="s">
+      <c r="AI132" s="37"/>
+      <c r="AJ132" s="37"/>
+      <c r="AK132" s="37"/>
+      <c r="AL132" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="27"/>
-      <c r="AN132" s="27"/>
-      <c r="AO132" s="27"/>
-      <c r="AP132" s="28" t="s">
+      <c r="AM132" s="37"/>
+      <c r="AN132" s="37"/>
+      <c r="AO132" s="37"/>
+      <c r="AP132" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="27"/>
-      <c r="AR132" s="27"/>
-      <c r="AS132" s="27"/>
-      <c r="AT132" s="28" t="s">
+      <c r="AQ132" s="37"/>
+      <c r="AR132" s="37"/>
+      <c r="AS132" s="37"/>
+      <c r="AT132" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="27"/>
-      <c r="AV132" s="27"/>
-      <c r="AW132" s="27"/>
-      <c r="AX132" s="28" t="s">
+      <c r="AU132" s="37"/>
+      <c r="AV132" s="37"/>
+      <c r="AW132" s="37"/>
+      <c r="AX132" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="27"/>
-      <c r="AZ132" s="27"/>
-      <c r="BA132" s="27"/>
-      <c r="BB132" s="28" t="s">
+      <c r="AY132" s="37"/>
+      <c r="AZ132" s="37"/>
+      <c r="BA132" s="37"/>
+      <c r="BB132" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="27"/>
-      <c r="BD132" s="27"/>
-      <c r="BE132" s="27"/>
-      <c r="BF132" s="28" t="s">
+      <c r="BC132" s="37"/>
+      <c r="BD132" s="37"/>
+      <c r="BE132" s="37"/>
+      <c r="BF132" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="27"/>
-      <c r="BH132" s="27"/>
-      <c r="BI132" s="27"/>
-      <c r="BJ132" s="28" t="s">
+      <c r="BG132" s="37"/>
+      <c r="BH132" s="37"/>
+      <c r="BI132" s="37"/>
+      <c r="BJ132" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="27"/>
-      <c r="BL132" s="27"/>
-      <c r="BM132" s="27"/>
-      <c r="BN132" s="28" t="s">
+      <c r="BK132" s="37"/>
+      <c r="BL132" s="37"/>
+      <c r="BM132" s="37"/>
+      <c r="BN132" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="27"/>
-      <c r="BP132" s="27"/>
-      <c r="BQ132" s="27"/>
-      <c r="BR132" s="28" t="s">
+      <c r="BO132" s="37"/>
+      <c r="BP132" s="37"/>
+      <c r="BQ132" s="37"/>
+      <c r="BR132" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="27"/>
-      <c r="BT132" s="27"/>
-      <c r="BU132" s="27"/>
-      <c r="BV132" s="28" t="s">
+      <c r="BS132" s="37"/>
+      <c r="BT132" s="37"/>
+      <c r="BU132" s="37"/>
+      <c r="BV132" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="27"/>
-      <c r="BX132" s="27"/>
-      <c r="BY132" s="27"/>
-      <c r="BZ132" s="28" t="s">
+      <c r="BW132" s="37"/>
+      <c r="BX132" s="37"/>
+      <c r="BY132" s="37"/>
+      <c r="BZ132" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="27"/>
-      <c r="CB132" s="27"/>
-      <c r="CC132" s="27"/>
-      <c r="CD132" s="28" t="s">
+      <c r="CA132" s="37"/>
+      <c r="CB132" s="37"/>
+      <c r="CC132" s="37"/>
+      <c r="CD132" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="28"/>
-      <c r="CF132" s="28"/>
-      <c r="CG132" s="28"/>
-      <c r="CH132" s="28" t="s">
+      <c r="CE132" s="38"/>
+      <c r="CF132" s="38"/>
+      <c r="CG132" s="38"/>
+      <c r="CH132" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="CI132" s="28"/>
-      <c r="CJ132" s="28"/>
-      <c r="CK132" s="28"/>
-      <c r="CL132" s="28" t="s">
+      <c r="CI132" s="38"/>
+      <c r="CJ132" s="38"/>
+      <c r="CK132" s="38"/>
+      <c r="CL132" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="CM132" s="28">
-        <v>0</v>
-      </c>
-      <c r="CN132" s="28"/>
-      <c r="CO132" s="28"/>
-      <c r="CP132" s="28"/>
-      <c r="CQ132" s="29"/>
+      <c r="CM132" s="37"/>
+      <c r="CN132" s="37"/>
+      <c r="CO132" s="4"/>
+      <c r="CP132" s="27"/>
+      <c r="CQ132" s="27"/>
+      <c r="CR132" s="27"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -29793,16 +29967,19 @@
       <c r="CK133" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL133" s="17" t="s">
+      <c r="CL133" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM133" s="17" t="s">
+      <c r="CM133" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN133" s="17"/>
-      <c r="CO133" s="17"/>
-      <c r="CP133" s="17"/>
-      <c r="CQ133" s="17"/>
+      <c r="CN133" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="CO133" s="34"/>
+      <c r="CP133" s="34"/>
+      <c r="CQ133" s="34"/>
+      <c r="CR133" s="34"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
@@ -30075,17 +30252,19 @@
       <c r="CK135" s="18">
         <v>-15.743263847795319</v>
       </c>
-      <c r="CL135" s="18">
+      <c r="CL135" s="35">
         <v>-6.1339993461149902</v>
       </c>
-      <c r="CM135" s="18">
-        <v>6.6047718468676919</v>
-      </c>
-      <c r="CN135" s="18"/>
-      <c r="CO135" s="18"/>
-      <c r="CP135" s="18"/>
-      <c r="CQ135" s="18"/>
-      <c r="CR135" s="9"/>
+      <c r="CM135" s="35">
+        <v>6.2317125031194252</v>
+      </c>
+      <c r="CN135" s="35">
+        <v>-14.228829511220212</v>
+      </c>
+      <c r="CO135" s="35"/>
+      <c r="CP135" s="35"/>
+      <c r="CQ135" s="35"/>
+      <c r="CR135" s="35"/>
       <c r="CS135" s="9"/>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
@@ -30406,17 +30585,19 @@
       <c r="CK136" s="18">
         <v>-44.984597890591893</v>
       </c>
-      <c r="CL136" s="18">
+      <c r="CL136" s="35">
         <v>6.4764475532732604</v>
       </c>
-      <c r="CM136" s="18">
-        <v>31.996579178468153</v>
-      </c>
-      <c r="CN136" s="18"/>
-      <c r="CO136" s="18"/>
-      <c r="CP136" s="18"/>
-      <c r="CQ136" s="18"/>
-      <c r="CR136" s="9"/>
+      <c r="CM136" s="35">
+        <v>31.989659649957161</v>
+      </c>
+      <c r="CN136" s="35">
+        <v>19.040105566088727</v>
+      </c>
+      <c r="CO136" s="35"/>
+      <c r="CP136" s="35"/>
+      <c r="CQ136" s="35"/>
+      <c r="CR136" s="35"/>
       <c r="CS136" s="9"/>
       <c r="CT136" s="9"/>
       <c r="CU136" s="9"/>
@@ -30737,17 +30918,19 @@
       <c r="CK137" s="18">
         <v>-7.0870870005981885</v>
       </c>
-      <c r="CL137" s="18">
+      <c r="CL137" s="35">
         <v>21.478812174530091</v>
       </c>
-      <c r="CM137" s="18">
-        <v>26.155846108079572</v>
-      </c>
-      <c r="CN137" s="18"/>
-      <c r="CO137" s="18"/>
-      <c r="CP137" s="18"/>
-      <c r="CQ137" s="18"/>
-      <c r="CR137" s="9"/>
+      <c r="CM137" s="35">
+        <v>26.015225459990859</v>
+      </c>
+      <c r="CN137" s="35">
+        <v>-22.036033614906955</v>
+      </c>
+      <c r="CO137" s="35"/>
+      <c r="CP137" s="35"/>
+      <c r="CQ137" s="35"/>
+      <c r="CR137" s="35"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -31068,17 +31251,19 @@
       <c r="CK138" s="18">
         <v>24.607617638788867</v>
       </c>
-      <c r="CL138" s="18">
+      <c r="CL138" s="35">
         <v>2.8711616862938598</v>
       </c>
-      <c r="CM138" s="18">
-        <v>9.4896695950669567</v>
-      </c>
-      <c r="CN138" s="18"/>
-      <c r="CO138" s="18"/>
-      <c r="CP138" s="18"/>
-      <c r="CQ138" s="18"/>
-      <c r="CR138" s="9"/>
+      <c r="CM138" s="35">
+        <v>6.7903975862953416</v>
+      </c>
+      <c r="CN138" s="35">
+        <v>-12.799354924145888</v>
+      </c>
+      <c r="CO138" s="35"/>
+      <c r="CP138" s="35"/>
+      <c r="CQ138" s="35"/>
+      <c r="CR138" s="35"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
@@ -31399,17 +31584,19 @@
       <c r="CK139" s="18">
         <v>27.580786526889469</v>
       </c>
-      <c r="CL139" s="18">
+      <c r="CL139" s="35">
         <v>-1.2418471287400621</v>
       </c>
-      <c r="CM139" s="18">
-        <v>19.232354551453156</v>
-      </c>
-      <c r="CN139" s="18"/>
-      <c r="CO139" s="18"/>
-      <c r="CP139" s="18"/>
-      <c r="CQ139" s="18"/>
-      <c r="CR139" s="9"/>
+      <c r="CM139" s="35">
+        <v>13.025183194547509</v>
+      </c>
+      <c r="CN139" s="35">
+        <v>-8.9900067171293614</v>
+      </c>
+      <c r="CO139" s="35"/>
+      <c r="CP139" s="35"/>
+      <c r="CQ139" s="35"/>
+      <c r="CR139" s="35"/>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
@@ -31730,17 +31917,19 @@
       <c r="CK140" s="18">
         <v>-6.585756202320141</v>
       </c>
-      <c r="CL140" s="18">
+      <c r="CL140" s="35">
         <v>-1.7487203306237262</v>
       </c>
-      <c r="CM140" s="18">
-        <v>-11.076628502451015</v>
-      </c>
-      <c r="CN140" s="18"/>
-      <c r="CO140" s="18"/>
-      <c r="CP140" s="18"/>
-      <c r="CQ140" s="18"/>
-      <c r="CR140" s="9"/>
+      <c r="CM140" s="35">
+        <v>-11.479593879435726</v>
+      </c>
+      <c r="CN140" s="35">
+        <v>11.008978158944345</v>
+      </c>
+      <c r="CO140" s="35"/>
+      <c r="CP140" s="35"/>
+      <c r="CQ140" s="35"/>
+      <c r="CR140" s="35"/>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
@@ -32061,17 +32250,19 @@
       <c r="CK141" s="18">
         <v>-19.760942605162967</v>
       </c>
-      <c r="CL141" s="18">
+      <c r="CL141" s="35">
         <v>-12.533611020579343</v>
       </c>
-      <c r="CM141" s="18">
-        <v>9.2480894183432696</v>
-      </c>
-      <c r="CN141" s="18"/>
-      <c r="CO141" s="18"/>
-      <c r="CP141" s="18"/>
-      <c r="CQ141" s="18"/>
-      <c r="CR141" s="9"/>
+      <c r="CM141" s="35">
+        <v>9.2601518137035015</v>
+      </c>
+      <c r="CN141" s="35">
+        <v>-15.534587324143132</v>
+      </c>
+      <c r="CO141" s="35"/>
+      <c r="CP141" s="35"/>
+      <c r="CQ141" s="35"/>
+      <c r="CR141" s="35"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
@@ -32392,17 +32583,19 @@
       <c r="CK142" s="18">
         <v>-27.570405592057696</v>
       </c>
-      <c r="CL142" s="18">
+      <c r="CL142" s="35">
         <v>42.549093555188222</v>
       </c>
-      <c r="CM142" s="18">
-        <v>49.968522779565831</v>
-      </c>
-      <c r="CN142" s="18"/>
-      <c r="CO142" s="18"/>
-      <c r="CP142" s="18"/>
-      <c r="CQ142" s="18"/>
-      <c r="CR142" s="9"/>
+      <c r="CM142" s="35">
+        <v>48.223442618204132</v>
+      </c>
+      <c r="CN142" s="35">
+        <v>99.45148783600294</v>
+      </c>
+      <c r="CO142" s="35"/>
+      <c r="CP142" s="35"/>
+      <c r="CQ142" s="35"/>
+      <c r="CR142" s="35"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
@@ -32723,17 +32916,19 @@
       <c r="CK143" s="18">
         <v>-9.4886638440771236</v>
       </c>
-      <c r="CL143" s="18">
+      <c r="CL143" s="35">
         <v>-18.88967286858562</v>
       </c>
-      <c r="CM143" s="18">
-        <v>-31.028868165501194</v>
-      </c>
-      <c r="CN143" s="18"/>
-      <c r="CO143" s="18"/>
-      <c r="CP143" s="18"/>
-      <c r="CQ143" s="18"/>
-      <c r="CR143" s="9"/>
+      <c r="CM143" s="35">
+        <v>-33.466059889464177</v>
+      </c>
+      <c r="CN143" s="35">
+        <v>-27.408990382647275</v>
+      </c>
+      <c r="CO143" s="35"/>
+      <c r="CP143" s="35"/>
+      <c r="CQ143" s="35"/>
+      <c r="CR143" s="35"/>
       <c r="CS143" s="9"/>
       <c r="CT143" s="9"/>
       <c r="CU143" s="9"/>
@@ -33054,17 +33249,19 @@
       <c r="CK144" s="18">
         <v>20.04626171891482</v>
       </c>
-      <c r="CL144" s="18">
+      <c r="CL144" s="35">
         <v>7.7993638967651435</v>
       </c>
-      <c r="CM144" s="18">
-        <v>13.561842280316966</v>
-      </c>
-      <c r="CN144" s="18"/>
-      <c r="CO144" s="18"/>
-      <c r="CP144" s="18"/>
-      <c r="CQ144" s="18"/>
-      <c r="CR144" s="9"/>
+      <c r="CM144" s="35">
+        <v>13.101858974631469</v>
+      </c>
+      <c r="CN144" s="35">
+        <v>0.38262436048697168</v>
+      </c>
+      <c r="CO144" s="35"/>
+      <c r="CP144" s="35"/>
+      <c r="CQ144" s="35"/>
+      <c r="CR144" s="35"/>
       <c r="CS144" s="9"/>
       <c r="CT144" s="9"/>
       <c r="CU144" s="9"/>
@@ -33385,17 +33582,19 @@
       <c r="CK145" s="18">
         <v>6.8331401942381973</v>
       </c>
-      <c r="CL145" s="18">
+      <c r="CL145" s="35">
         <v>1.567084208334208</v>
       </c>
-      <c r="CM145" s="18">
-        <v>-2.1453029844494438</v>
-      </c>
-      <c r="CN145" s="18"/>
-      <c r="CO145" s="18"/>
-      <c r="CP145" s="18"/>
-      <c r="CQ145" s="18"/>
-      <c r="CR145" s="9"/>
+      <c r="CM145" s="35">
+        <v>-2.1112477202724591</v>
+      </c>
+      <c r="CN145" s="35">
+        <v>-9.9354779965756421</v>
+      </c>
+      <c r="CO145" s="35"/>
+      <c r="CP145" s="35"/>
+      <c r="CQ145" s="35"/>
+      <c r="CR145" s="35"/>
       <c r="CS145" s="9"/>
       <c r="CT145" s="9"/>
       <c r="CU145" s="9"/>
@@ -33716,17 +33915,19 @@
       <c r="CK146" s="18">
         <v>14.516318095271671</v>
       </c>
-      <c r="CL146" s="18">
+      <c r="CL146" s="35">
         <v>15.058215933861291</v>
       </c>
-      <c r="CM146" s="18">
-        <v>11.458544593025096</v>
-      </c>
-      <c r="CN146" s="18"/>
-      <c r="CO146" s="18"/>
-      <c r="CP146" s="18"/>
-      <c r="CQ146" s="18"/>
-      <c r="CR146" s="9"/>
+      <c r="CM146" s="35">
+        <v>11.506142159781277</v>
+      </c>
+      <c r="CN146" s="35">
+        <v>3.3525376595289629</v>
+      </c>
+      <c r="CO146" s="35"/>
+      <c r="CP146" s="35"/>
+      <c r="CQ146" s="35"/>
+      <c r="CR146" s="35"/>
       <c r="CS146" s="9"/>
       <c r="CT146" s="9"/>
       <c r="CU146" s="9"/>
@@ -34047,17 +34248,19 @@
       <c r="CK147" s="18">
         <v>52.281991598247743</v>
       </c>
-      <c r="CL147" s="18">
+      <c r="CL147" s="35">
         <v>63.29201633764464</v>
       </c>
-      <c r="CM147" s="18">
-        <v>69.038433537413113</v>
-      </c>
-      <c r="CN147" s="18"/>
-      <c r="CO147" s="18"/>
-      <c r="CP147" s="18"/>
-      <c r="CQ147" s="18"/>
-      <c r="CR147" s="9"/>
+      <c r="CM147" s="35">
+        <v>66.983214206736733</v>
+      </c>
+      <c r="CN147" s="35">
+        <v>16.342874474077433</v>
+      </c>
+      <c r="CO147" s="35"/>
+      <c r="CP147" s="35"/>
+      <c r="CQ147" s="35"/>
+      <c r="CR147" s="35"/>
       <c r="CS147" s="9"/>
       <c r="CT147" s="9"/>
       <c r="CU147" s="9"/>
@@ -34378,17 +34581,19 @@
       <c r="CK148" s="18">
         <v>9.3030225321897291</v>
       </c>
-      <c r="CL148" s="18">
+      <c r="CL148" s="35">
         <v>-17.354928904850084</v>
       </c>
-      <c r="CM148" s="18">
-        <v>-12.598055261629455</v>
-      </c>
-      <c r="CN148" s="18"/>
-      <c r="CO148" s="18"/>
-      <c r="CP148" s="18"/>
-      <c r="CQ148" s="18"/>
-      <c r="CR148" s="9"/>
+      <c r="CM148" s="35">
+        <v>-12.44169575964716</v>
+      </c>
+      <c r="CN148" s="35">
+        <v>-13.871250072458366</v>
+      </c>
+      <c r="CO148" s="35"/>
+      <c r="CP148" s="35"/>
+      <c r="CQ148" s="35"/>
+      <c r="CR148" s="35"/>
       <c r="CS148" s="9"/>
       <c r="CT148" s="9"/>
       <c r="CU148" s="9"/>
@@ -34709,17 +34914,19 @@
       <c r="CK149" s="18">
         <v>7.2799438838611223</v>
       </c>
-      <c r="CL149" s="18">
+      <c r="CL149" s="35">
         <v>13.50707783378698</v>
       </c>
-      <c r="CM149" s="18">
-        <v>16.866250353990367</v>
-      </c>
-      <c r="CN149" s="18"/>
-      <c r="CO149" s="18"/>
-      <c r="CP149" s="18"/>
-      <c r="CQ149" s="18"/>
-      <c r="CR149" s="9"/>
+      <c r="CM149" s="35">
+        <v>16.908598202099839</v>
+      </c>
+      <c r="CN149" s="35">
+        <v>9.3894649943317319</v>
+      </c>
+      <c r="CO149" s="35"/>
+      <c r="CP149" s="35"/>
+      <c r="CQ149" s="35"/>
+      <c r="CR149" s="35"/>
       <c r="CS149" s="9"/>
       <c r="CT149" s="9"/>
       <c r="CU149" s="9"/>
@@ -35040,17 +35247,19 @@
       <c r="CK150" s="18">
         <v>20.261766374911858</v>
       </c>
-      <c r="CL150" s="18">
+      <c r="CL150" s="35">
         <v>23.949678041691087</v>
       </c>
-      <c r="CM150" s="18">
-        <v>20.916984230927497</v>
-      </c>
-      <c r="CN150" s="18"/>
-      <c r="CO150" s="18"/>
-      <c r="CP150" s="18"/>
-      <c r="CQ150" s="18"/>
-      <c r="CR150" s="9"/>
+      <c r="CM150" s="35">
+        <v>20.976067981778598</v>
+      </c>
+      <c r="CN150" s="35">
+        <v>9.47278962508706</v>
+      </c>
+      <c r="CO150" s="35"/>
+      <c r="CP150" s="35"/>
+      <c r="CQ150" s="35"/>
+      <c r="CR150" s="35"/>
       <c r="CS150" s="9"/>
       <c r="CT150" s="9"/>
       <c r="CU150" s="9"/>
@@ -35371,17 +35580,19 @@
       <c r="CK151" s="18">
         <v>-99.618986213268911</v>
       </c>
-      <c r="CL151" s="18">
+      <c r="CL151" s="35">
         <v>-98.797319945373829</v>
       </c>
-      <c r="CM151" s="20">
-        <v>-99.21672741181537</v>
-      </c>
-      <c r="CN151" s="18"/>
-      <c r="CO151" s="18"/>
-      <c r="CP151" s="18"/>
-      <c r="CQ151" s="20"/>
-      <c r="CR151" s="9"/>
+      <c r="CM151" s="35">
+        <v>-99.231896637379378</v>
+      </c>
+      <c r="CN151" s="35">
+        <v>-97.321105482911875</v>
+      </c>
+      <c r="CO151" s="35"/>
+      <c r="CP151" s="35"/>
+      <c r="CQ151" s="35"/>
+      <c r="CR151" s="35"/>
       <c r="CS151" s="9"/>
       <c r="CT151" s="9"/>
       <c r="CU151" s="9"/>
@@ -35702,17 +35913,19 @@
       <c r="CK152" s="18">
         <v>-73.259501765139021</v>
       </c>
-      <c r="CL152" s="18">
+      <c r="CL152" s="35">
         <v>-54.363327533508844</v>
       </c>
-      <c r="CM152" s="18">
-        <v>22.661972605405325</v>
-      </c>
-      <c r="CN152" s="18"/>
-      <c r="CO152" s="18"/>
-      <c r="CP152" s="18"/>
-      <c r="CQ152" s="18"/>
-      <c r="CR152" s="9"/>
+      <c r="CM152" s="35">
+        <v>22.57871001099339</v>
+      </c>
+      <c r="CN152" s="35">
+        <v>73.841955770166919</v>
+      </c>
+      <c r="CO152" s="35"/>
+      <c r="CP152" s="35"/>
+      <c r="CQ152" s="35"/>
+      <c r="CR152" s="35"/>
       <c r="CS152" s="9"/>
       <c r="CT152" s="9"/>
       <c r="CU152" s="9"/>
@@ -36033,17 +36246,19 @@
       <c r="CK153" s="18">
         <v>138.65813548488782</v>
       </c>
-      <c r="CL153" s="18">
+      <c r="CL153" s="35">
         <v>-29.745728934343802</v>
       </c>
-      <c r="CM153" s="18">
-        <v>-17.620549366121637</v>
-      </c>
-      <c r="CN153" s="18"/>
-      <c r="CO153" s="18"/>
-      <c r="CP153" s="18"/>
-      <c r="CQ153" s="18"/>
-      <c r="CR153" s="9"/>
+      <c r="CM153" s="35">
+        <v>-17.631853159198414</v>
+      </c>
+      <c r="CN153" s="35">
+        <v>-49.117371797641987</v>
+      </c>
+      <c r="CO153" s="35"/>
+      <c r="CP153" s="35"/>
+      <c r="CQ153" s="35"/>
+      <c r="CR153" s="35"/>
       <c r="CS153" s="9"/>
       <c r="CT153" s="9"/>
       <c r="CU153" s="9"/>
@@ -36364,17 +36579,19 @@
       <c r="CK154" s="18">
         <v>-2.800024065616725</v>
       </c>
-      <c r="CL154" s="18">
+      <c r="CL154" s="35">
         <v>6.2475315141696512</v>
       </c>
-      <c r="CM154" s="18">
-        <v>-0.99933745573993349</v>
-      </c>
-      <c r="CN154" s="18"/>
-      <c r="CO154" s="18"/>
-      <c r="CP154" s="18"/>
-      <c r="CQ154" s="18"/>
-      <c r="CR154" s="9"/>
+      <c r="CM154" s="35">
+        <v>-1.6174877110140358</v>
+      </c>
+      <c r="CN154" s="35">
+        <v>-5.0121833644254394</v>
+      </c>
+      <c r="CO154" s="35"/>
+      <c r="CP154" s="35"/>
+      <c r="CQ154" s="35"/>
+      <c r="CR154" s="35"/>
       <c r="CS154" s="9"/>
       <c r="CT154" s="9"/>
       <c r="CU154" s="9"/>
@@ -36695,17 +36912,19 @@
       <c r="CK155" s="18">
         <v>45.362850793125432</v>
       </c>
-      <c r="CL155" s="18">
+      <c r="CL155" s="35">
         <v>21.954437554580892</v>
       </c>
-      <c r="CM155" s="18">
-        <v>12.451426519401366</v>
-      </c>
-      <c r="CN155" s="18"/>
-      <c r="CO155" s="18"/>
-      <c r="CP155" s="18"/>
-      <c r="CQ155" s="18"/>
-      <c r="CR155" s="9"/>
+      <c r="CM155" s="35">
+        <v>10.938193302974895</v>
+      </c>
+      <c r="CN155" s="35">
+        <v>-8.4456677153099236E-2</v>
+      </c>
+      <c r="CO155" s="35"/>
+      <c r="CP155" s="35"/>
+      <c r="CQ155" s="35"/>
+      <c r="CR155" s="35"/>
       <c r="CS155" s="9"/>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
@@ -37026,17 +37245,19 @@
       <c r="CK156" s="18">
         <v>-3.2384939480537014</v>
       </c>
-      <c r="CL156" s="18">
+      <c r="CL156" s="35">
         <v>2.5996821814846811</v>
       </c>
-      <c r="CM156" s="18">
-        <v>30.14680533012509</v>
-      </c>
-      <c r="CN156" s="18"/>
-      <c r="CO156" s="18"/>
-      <c r="CP156" s="18"/>
-      <c r="CQ156" s="18"/>
-      <c r="CR156" s="9"/>
+      <c r="CM156" s="35">
+        <v>28.061576492259746</v>
+      </c>
+      <c r="CN156" s="35">
+        <v>5.3740419597342139</v>
+      </c>
+      <c r="CO156" s="35"/>
+      <c r="CP156" s="35"/>
+      <c r="CQ156" s="35"/>
+      <c r="CR156" s="35"/>
       <c r="CS156" s="9"/>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
@@ -37357,17 +37578,19 @@
       <c r="CK157" s="18">
         <v>-3.6410854091780323</v>
       </c>
-      <c r="CL157" s="18">
+      <c r="CL157" s="35">
         <v>5.6325077237335819</v>
       </c>
-      <c r="CM157" s="18">
-        <v>-7.8896413098003535</v>
-      </c>
-      <c r="CN157" s="18"/>
-      <c r="CO157" s="18"/>
-      <c r="CP157" s="18"/>
-      <c r="CQ157" s="18"/>
-      <c r="CR157" s="9"/>
+      <c r="CM157" s="35">
+        <v>-8.5651408937831945</v>
+      </c>
+      <c r="CN157" s="35">
+        <v>-1.8898626860098204</v>
+      </c>
+      <c r="CO157" s="35"/>
+      <c r="CP157" s="35"/>
+      <c r="CQ157" s="35"/>
+      <c r="CR157" s="35"/>
       <c r="CS157" s="9"/>
       <c r="CT157" s="9"/>
       <c r="CU157" s="9"/>
@@ -37688,17 +37911,19 @@
       <c r="CK158" s="18">
         <v>-12.432085783004126</v>
       </c>
-      <c r="CL158" s="18">
+      <c r="CL158" s="35">
         <v>5.2343559209397199</v>
       </c>
-      <c r="CM158" s="18">
-        <v>-11.894687252797141</v>
-      </c>
-      <c r="CN158" s="18"/>
-      <c r="CO158" s="18"/>
-      <c r="CP158" s="18"/>
-      <c r="CQ158" s="18"/>
-      <c r="CR158" s="9"/>
+      <c r="CM158" s="35">
+        <v>-10.860418391709288</v>
+      </c>
+      <c r="CN158" s="35">
+        <v>-23.186651297268838</v>
+      </c>
+      <c r="CO158" s="35"/>
+      <c r="CP158" s="35"/>
+      <c r="CQ158" s="35"/>
+      <c r="CR158" s="35"/>
       <c r="CS158" s="9"/>
       <c r="CT158" s="9"/>
       <c r="CU158" s="9"/>
@@ -37840,13 +38065,13 @@
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
       <c r="CK159" s="9"/>
-      <c r="CL159" s="9"/>
-      <c r="CM159" s="9"/>
-      <c r="CN159" s="9"/>
-      <c r="CO159" s="9"/>
-      <c r="CP159" s="9"/>
-      <c r="CQ159" s="9"/>
-      <c r="CR159" s="9"/>
+      <c r="CL159" s="31"/>
+      <c r="CM159" s="31"/>
+      <c r="CN159" s="31"/>
+      <c r="CO159" s="31"/>
+      <c r="CP159" s="31"/>
+      <c r="CQ159" s="31"/>
+      <c r="CR159" s="31"/>
       <c r="CS159" s="9"/>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
@@ -38167,17 +38392,19 @@
       <c r="CK160" s="23">
         <v>2.5778585668528393</v>
       </c>
-      <c r="CL160" s="23">
+      <c r="CL160" s="36">
         <v>8.0596688220710746</v>
       </c>
-      <c r="CM160" s="23">
-        <v>10.781967419586394</v>
-      </c>
-      <c r="CN160" s="23"/>
-      <c r="CO160" s="23"/>
-      <c r="CP160" s="23"/>
-      <c r="CQ160" s="23"/>
-      <c r="CR160" s="9"/>
+      <c r="CM160" s="36">
+        <v>10.545137982989147</v>
+      </c>
+      <c r="CN160" s="36">
+        <v>1.7321159102035466</v>
+      </c>
+      <c r="CO160" s="36"/>
+      <c r="CP160" s="36"/>
+      <c r="CQ160" s="36"/>
+      <c r="CR160" s="36"/>
       <c r="CS160" s="9"/>
       <c r="CT160" s="9"/>
       <c r="CU160" s="9"/>
@@ -38320,12 +38547,13 @@
       <c r="CI161" s="14"/>
       <c r="CJ161" s="14"/>
       <c r="CK161" s="14"/>
-      <c r="CL161" s="14"/>
-      <c r="CM161" s="14"/>
-      <c r="CN161" s="14"/>
-      <c r="CO161" s="14"/>
-      <c r="CP161" s="14"/>
-      <c r="CQ161" s="14"/>
+      <c r="CL161" s="33"/>
+      <c r="CM161" s="33"/>
+      <c r="CN161" s="33"/>
+      <c r="CO161" s="33"/>
+      <c r="CP161" s="33"/>
+      <c r="CQ161" s="33"/>
+      <c r="CR161" s="33"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
@@ -38424,13 +38652,13 @@
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
       <c r="CK163" s="9"/>
-      <c r="CL163" s="9"/>
-      <c r="CM163" s="9"/>
-      <c r="CN163" s="9"/>
-      <c r="CO163" s="9"/>
-      <c r="CP163" s="9"/>
-      <c r="CQ163" s="9"/>
-      <c r="CR163" s="9"/>
+      <c r="CL163" s="31"/>
+      <c r="CM163" s="31"/>
+      <c r="CN163" s="31"/>
+      <c r="CO163" s="31"/>
+      <c r="CP163" s="31"/>
+      <c r="CQ163" s="31"/>
+      <c r="CR163" s="31"/>
       <c r="CS163" s="9"/>
       <c r="CT163" s="9"/>
       <c r="CU163" s="9"/>
@@ -38572,13 +38800,13 @@
       <c r="CI164" s="9"/>
       <c r="CJ164" s="9"/>
       <c r="CK164" s="9"/>
-      <c r="CL164" s="9"/>
-      <c r="CM164" s="9"/>
-      <c r="CN164" s="9"/>
-      <c r="CO164" s="9"/>
-      <c r="CP164" s="9"/>
-      <c r="CQ164" s="9"/>
-      <c r="CR164" s="9"/>
+      <c r="CL164" s="31"/>
+      <c r="CM164" s="31"/>
+      <c r="CN164" s="31"/>
+      <c r="CO164" s="31"/>
+      <c r="CP164" s="31"/>
+      <c r="CQ164" s="31"/>
+      <c r="CR164" s="31"/>
       <c r="CS164" s="9"/>
       <c r="CT164" s="9"/>
       <c r="CU164" s="9"/>
@@ -38663,148 +38891,149 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="27">
+      <c r="B172" s="37">
         <v>2000</v>
       </c>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27">
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37">
         <v>2001</v>
       </c>
-      <c r="G172" s="27"/>
-      <c r="H172" s="27"/>
-      <c r="I172" s="27"/>
-      <c r="J172" s="27">
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37">
         <v>2002</v>
       </c>
-      <c r="K172" s="27"/>
-      <c r="L172" s="27"/>
-      <c r="M172" s="27"/>
-      <c r="N172" s="27">
+      <c r="K172" s="37"/>
+      <c r="L172" s="37"/>
+      <c r="M172" s="37"/>
+      <c r="N172" s="37">
         <v>2003</v>
       </c>
-      <c r="O172" s="27"/>
-      <c r="P172" s="27"/>
-      <c r="Q172" s="27"/>
-      <c r="R172" s="27">
+      <c r="O172" s="37"/>
+      <c r="P172" s="37"/>
+      <c r="Q172" s="37"/>
+      <c r="R172" s="37">
         <v>2004</v>
       </c>
-      <c r="S172" s="27"/>
-      <c r="T172" s="27"/>
-      <c r="U172" s="27"/>
-      <c r="V172" s="27">
+      <c r="S172" s="37"/>
+      <c r="T172" s="37"/>
+      <c r="U172" s="37"/>
+      <c r="V172" s="37">
         <v>2005</v>
       </c>
-      <c r="W172" s="27"/>
-      <c r="X172" s="27"/>
-      <c r="Y172" s="27"/>
-      <c r="Z172" s="27">
+      <c r="W172" s="37"/>
+      <c r="X172" s="37"/>
+      <c r="Y172" s="37"/>
+      <c r="Z172" s="37">
         <v>2006</v>
       </c>
-      <c r="AA172" s="27"/>
-      <c r="AB172" s="27"/>
-      <c r="AC172" s="27"/>
-      <c r="AD172" s="27">
+      <c r="AA172" s="37"/>
+      <c r="AB172" s="37"/>
+      <c r="AC172" s="37"/>
+      <c r="AD172" s="37">
         <v>2007</v>
       </c>
-      <c r="AE172" s="27"/>
-      <c r="AF172" s="27"/>
-      <c r="AG172" s="27"/>
-      <c r="AH172" s="27">
+      <c r="AE172" s="37"/>
+      <c r="AF172" s="37"/>
+      <c r="AG172" s="37"/>
+      <c r="AH172" s="37">
         <v>2008</v>
       </c>
-      <c r="AI172" s="27"/>
-      <c r="AJ172" s="27"/>
-      <c r="AK172" s="27"/>
-      <c r="AL172" s="27">
+      <c r="AI172" s="37"/>
+      <c r="AJ172" s="37"/>
+      <c r="AK172" s="37"/>
+      <c r="AL172" s="37">
         <v>2009</v>
       </c>
-      <c r="AM172" s="27"/>
-      <c r="AN172" s="27"/>
-      <c r="AO172" s="27"/>
-      <c r="AP172" s="27">
+      <c r="AM172" s="37"/>
+      <c r="AN172" s="37"/>
+      <c r="AO172" s="37"/>
+      <c r="AP172" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="27"/>
-      <c r="AR172" s="27"/>
-      <c r="AS172" s="27"/>
-      <c r="AT172" s="27">
+      <c r="AQ172" s="37"/>
+      <c r="AR172" s="37"/>
+      <c r="AS172" s="37"/>
+      <c r="AT172" s="37">
         <v>2011</v>
       </c>
-      <c r="AU172" s="27"/>
-      <c r="AV172" s="27"/>
-      <c r="AW172" s="27"/>
-      <c r="AX172" s="27">
+      <c r="AU172" s="37"/>
+      <c r="AV172" s="37"/>
+      <c r="AW172" s="37"/>
+      <c r="AX172" s="37">
         <v>2012</v>
       </c>
-      <c r="AY172" s="27"/>
-      <c r="AZ172" s="27"/>
-      <c r="BA172" s="27"/>
-      <c r="BB172" s="27">
+      <c r="AY172" s="37"/>
+      <c r="AZ172" s="37"/>
+      <c r="BA172" s="37"/>
+      <c r="BB172" s="37">
         <v>2013</v>
       </c>
-      <c r="BC172" s="27"/>
-      <c r="BD172" s="27"/>
-      <c r="BE172" s="27"/>
-      <c r="BF172" s="27">
+      <c r="BC172" s="37"/>
+      <c r="BD172" s="37"/>
+      <c r="BE172" s="37"/>
+      <c r="BF172" s="37">
         <v>2014</v>
       </c>
-      <c r="BG172" s="27"/>
-      <c r="BH172" s="27"/>
-      <c r="BI172" s="27"/>
-      <c r="BJ172" s="27">
+      <c r="BG172" s="37"/>
+      <c r="BH172" s="37"/>
+      <c r="BI172" s="37"/>
+      <c r="BJ172" s="37">
         <v>2015</v>
       </c>
-      <c r="BK172" s="27"/>
-      <c r="BL172" s="27"/>
-      <c r="BM172" s="27"/>
-      <c r="BN172" s="27">
+      <c r="BK172" s="37"/>
+      <c r="BL172" s="37"/>
+      <c r="BM172" s="37"/>
+      <c r="BN172" s="37">
         <v>2016</v>
       </c>
-      <c r="BO172" s="27"/>
-      <c r="BP172" s="27"/>
-      <c r="BQ172" s="27"/>
-      <c r="BR172" s="27">
+      <c r="BO172" s="37"/>
+      <c r="BP172" s="37"/>
+      <c r="BQ172" s="37"/>
+      <c r="BR172" s="37">
         <v>2017</v>
       </c>
-      <c r="BS172" s="27"/>
-      <c r="BT172" s="27"/>
-      <c r="BU172" s="27"/>
-      <c r="BV172" s="27">
+      <c r="BS172" s="37"/>
+      <c r="BT172" s="37"/>
+      <c r="BU172" s="37"/>
+      <c r="BV172" s="37">
         <v>2018</v>
       </c>
-      <c r="BW172" s="27"/>
-      <c r="BX172" s="27"/>
-      <c r="BY172" s="27"/>
-      <c r="BZ172" s="27">
+      <c r="BW172" s="37"/>
+      <c r="BX172" s="37"/>
+      <c r="BY172" s="37"/>
+      <c r="BZ172" s="37">
         <v>2019</v>
       </c>
-      <c r="CA172" s="27"/>
-      <c r="CB172" s="27"/>
-      <c r="CC172" s="27"/>
-      <c r="CD172" s="28">
+      <c r="CA172" s="37"/>
+      <c r="CB172" s="37"/>
+      <c r="CC172" s="37"/>
+      <c r="CD172" s="38">
         <v>2020</v>
       </c>
-      <c r="CE172" s="28"/>
-      <c r="CF172" s="28"/>
-      <c r="CG172" s="28"/>
-      <c r="CH172" s="28">
+      <c r="CE172" s="38"/>
+      <c r="CF172" s="38"/>
+      <c r="CG172" s="38"/>
+      <c r="CH172" s="38">
         <v>2021</v>
       </c>
-      <c r="CI172" s="28"/>
-      <c r="CJ172" s="28"/>
-      <c r="CK172" s="28"/>
-      <c r="CL172" s="28">
+      <c r="CI172" s="38"/>
+      <c r="CJ172" s="38"/>
+      <c r="CK172" s="38"/>
+      <c r="CL172" s="37">
         <v>2022</v>
       </c>
-      <c r="CM172" s="28"/>
-      <c r="CN172" s="28"/>
-      <c r="CO172" s="28"/>
-      <c r="CP172" s="28">
+      <c r="CM172" s="37"/>
+      <c r="CN172" s="37"/>
+      <c r="CO172" s="37"/>
+      <c r="CP172" s="37">
         <v>2023</v>
       </c>
-      <c r="CQ172" s="29"/>
+      <c r="CQ172" s="37"/>
+      <c r="CR172" s="37"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -39074,23 +39303,26 @@
       <c r="CK173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL173" s="17" t="s">
+      <c r="CL173" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM173" s="17" t="s">
+      <c r="CM173" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN173" s="17" t="s">
+      <c r="CN173" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CO173" s="17" t="s">
+      <c r="CO173" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CP173" s="17" t="s">
+      <c r="CP173" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CQ173" s="17" t="s">
+      <c r="CQ173" s="34" t="s">
         <v>7</v>
+      </c>
+      <c r="CR173" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39364,25 +39596,27 @@
       <c r="CK175" s="23">
         <v>87.630222546200173</v>
       </c>
-      <c r="CL175" s="23">
+      <c r="CL175" s="36">
         <v>110.63553038068545</v>
       </c>
-      <c r="CM175" s="23">
+      <c r="CM175" s="36">
         <v>166.45716408242319</v>
       </c>
-      <c r="CN175" s="23">
+      <c r="CN175" s="36">
         <v>94.035674899611919</v>
       </c>
-      <c r="CO175" s="23">
+      <c r="CO175" s="36">
         <v>100.73568334616954</v>
       </c>
-      <c r="CP175" s="23">
+      <c r="CP175" s="36">
         <v>121.09108787942967</v>
       </c>
-      <c r="CQ175" s="23">
-        <v>162.99738163597544</v>
-      </c>
-      <c r="CR175" s="9"/>
+      <c r="CQ175" s="36">
+        <v>162.95926211645983</v>
+      </c>
+      <c r="CR175" s="36">
+        <v>101.73247019981295</v>
+      </c>
       <c r="CS175" s="9"/>
       <c r="CT175" s="9"/>
       <c r="CU175" s="9"/>
@@ -39708,25 +39942,27 @@
       <c r="CK176" s="23">
         <v>70.426817842058384</v>
       </c>
-      <c r="CL176" s="23">
+      <c r="CL176" s="36">
         <v>110.89080947214707</v>
       </c>
-      <c r="CM176" s="23">
+      <c r="CM176" s="36">
         <v>320.05305078833555</v>
       </c>
-      <c r="CN176" s="23">
+      <c r="CN176" s="36">
         <v>98.890854361163989</v>
       </c>
-      <c r="CO176" s="23">
+      <c r="CO176" s="36">
         <v>84.628480145575296</v>
       </c>
-      <c r="CP176" s="23">
+      <c r="CP176" s="36">
         <v>123.67918586677071</v>
       </c>
-      <c r="CQ176" s="23">
-        <v>357.52507376956407</v>
-      </c>
-      <c r="CR176" s="9"/>
+      <c r="CQ176" s="36">
+        <v>357.80181696877753</v>
+      </c>
+      <c r="CR176" s="36">
+        <v>102.3020620098799</v>
+      </c>
       <c r="CS176" s="9"/>
       <c r="CT176" s="9"/>
       <c r="CU176" s="9"/>
@@ -40052,25 +40288,27 @@
       <c r="CK177" s="23">
         <v>69.912003404083833</v>
       </c>
-      <c r="CL177" s="23">
+      <c r="CL177" s="36">
         <v>112.99888086627432</v>
       </c>
-      <c r="CM177" s="23">
+      <c r="CM177" s="36">
         <v>311.46039873559681</v>
       </c>
-      <c r="CN177" s="23">
+      <c r="CN177" s="36">
         <v>98.256628143608467</v>
       </c>
-      <c r="CO177" s="23">
+      <c r="CO177" s="36">
         <v>83.71182632042013</v>
       </c>
-      <c r="CP177" s="23">
+      <c r="CP177" s="36">
         <v>126.05117544558881</v>
       </c>
-      <c r="CQ177" s="23">
-        <v>348.82116594966601</v>
-      </c>
-      <c r="CR177" s="9"/>
+      <c r="CQ177" s="36">
+        <v>349.38794149980328</v>
+      </c>
+      <c r="CR177" s="36">
+        <v>101.50927178592481</v>
+      </c>
       <c r="CS177" s="9"/>
       <c r="CT177" s="9"/>
       <c r="CU177" s="9"/>
@@ -40396,25 +40634,27 @@
       <c r="CK178" s="23">
         <v>92.415085048282265</v>
       </c>
-      <c r="CL178" s="23">
+      <c r="CL178" s="36">
         <v>108.26810125076764</v>
       </c>
-      <c r="CM178" s="23">
+      <c r="CM178" s="36">
         <v>227.30747484807034</v>
       </c>
-      <c r="CN178" s="23">
+      <c r="CN178" s="36">
         <v>97.322358883957676</v>
       </c>
-      <c r="CO178" s="23">
+      <c r="CO178" s="36">
         <v>91.059743967799974</v>
       </c>
-      <c r="CP178" s="23">
+      <c r="CP178" s="36">
         <v>113.90858249506002</v>
       </c>
-      <c r="CQ178" s="23">
-        <v>262.42560017884051</v>
-      </c>
-      <c r="CR178" s="9"/>
+      <c r="CQ178" s="36">
+        <v>267.19812841122848</v>
+      </c>
+      <c r="CR178" s="36">
+        <v>97.583008604057724</v>
+      </c>
       <c r="CS178" s="9"/>
       <c r="CT178" s="9"/>
       <c r="CU178" s="9"/>
@@ -40740,25 +40980,27 @@
       <c r="CK179" s="23">
         <v>80.882675241517958</v>
       </c>
-      <c r="CL179" s="23">
+      <c r="CL179" s="36">
         <v>133.97655062430397</v>
       </c>
-      <c r="CM179" s="23">
+      <c r="CM179" s="36">
         <v>277.12970263225168</v>
       </c>
-      <c r="CN179" s="23">
+      <c r="CN179" s="36">
         <v>99.35752863497423</v>
       </c>
-      <c r="CO179" s="23">
+      <c r="CO179" s="36">
         <v>88.547258756093854</v>
       </c>
-      <c r="CP179" s="23">
+      <c r="CP179" s="36">
         <v>146.72011457216394</v>
       </c>
-      <c r="CQ179" s="23">
-        <v>317.19371614853708</v>
-      </c>
-      <c r="CR179" s="9"/>
+      <c r="CQ179" s="36">
+        <v>318.01607268564476</v>
+      </c>
+      <c r="CR179" s="36">
+        <v>102.3664332147556</v>
+      </c>
       <c r="CS179" s="9"/>
       <c r="CT179" s="9"/>
       <c r="CU179" s="9"/>
@@ -41084,25 +41326,27 @@
       <c r="CK180" s="23">
         <v>72.624793619167022</v>
       </c>
-      <c r="CL180" s="23">
+      <c r="CL180" s="36">
         <v>116.98399795135333</v>
       </c>
-      <c r="CM180" s="23">
+      <c r="CM180" s="36">
         <v>308.39448375881568</v>
       </c>
-      <c r="CN180" s="23">
+      <c r="CN180" s="36">
         <v>101.50532226306606</v>
       </c>
-      <c r="CO180" s="23">
+      <c r="CO180" s="36">
         <v>86.001490255464972</v>
       </c>
-      <c r="CP180" s="23">
+      <c r="CP180" s="36">
         <v>130.72074335934494</v>
       </c>
-      <c r="CQ180" s="23">
-        <v>340.3758895083057</v>
-      </c>
-      <c r="CR180" s="9"/>
+      <c r="CQ180" s="36">
+        <v>341.99252860036808</v>
+      </c>
+      <c r="CR180" s="36">
+        <v>104.89648003956324</v>
+      </c>
       <c r="CS180" s="9"/>
       <c r="CT180" s="9"/>
       <c r="CU180" s="9"/>
@@ -41428,25 +41672,27 @@
       <c r="CK181" s="23">
         <v>109.61765703014868</v>
       </c>
-      <c r="CL181" s="23">
+      <c r="CL181" s="36">
         <v>107.96360707677431</v>
       </c>
-      <c r="CM181" s="23">
+      <c r="CM181" s="36">
         <v>116.35408385514663</v>
       </c>
-      <c r="CN181" s="23">
+      <c r="CN181" s="36">
         <v>87.530686847831021</v>
       </c>
-      <c r="CO181" s="23">
+      <c r="CO181" s="36">
         <v>126.71445217622957</v>
       </c>
-      <c r="CP181" s="23">
+      <c r="CP181" s="36">
         <v>117.44671868373189</v>
       </c>
-      <c r="CQ181" s="23">
+      <c r="CQ181" s="36">
+        <v>103.02587580611116</v>
+      </c>
+      <c r="CR181" s="36">
         <v>103.22837153473007</v>
       </c>
-      <c r="CR181" s="9"/>
       <c r="CS181" s="9"/>
       <c r="CT181" s="9"/>
       <c r="CU181" s="9"/>
@@ -41772,25 +42018,27 @@
       <c r="CK182" s="23">
         <v>69.120085272219896</v>
       </c>
-      <c r="CL182" s="23">
+      <c r="CL182" s="36">
         <v>109.6908185880112</v>
       </c>
-      <c r="CM182" s="23">
+      <c r="CM182" s="36">
         <v>294.13937518805778</v>
       </c>
-      <c r="CN182" s="23">
+      <c r="CN182" s="36">
         <v>96.540934518176201</v>
       </c>
-      <c r="CO182" s="23">
+      <c r="CO182" s="36">
         <v>82.315687210593808</v>
       </c>
-      <c r="CP182" s="23">
+      <c r="CP182" s="36">
         <v>122.14702103850716</v>
       </c>
-      <c r="CQ182" s="23">
-        <v>336.3030094378941</v>
-      </c>
-      <c r="CR182" s="9"/>
+      <c r="CQ182" s="36">
+        <v>337.35160853231451</v>
+      </c>
+      <c r="CR182" s="36">
+        <v>100.03245946925634</v>
+      </c>
       <c r="CS182" s="9"/>
       <c r="CT182" s="9"/>
       <c r="CU182" s="9"/>
@@ -42116,25 +42364,27 @@
       <c r="CK183" s="23">
         <v>81.77053736495769</v>
       </c>
-      <c r="CL183" s="23">
+      <c r="CL183" s="36">
         <v>115.31543252645289</v>
       </c>
-      <c r="CM183" s="23">
+      <c r="CM183" s="36">
         <v>252.65049087215345</v>
       </c>
-      <c r="CN183" s="23">
+      <c r="CN183" s="36">
         <v>97.236584586383685</v>
       </c>
-      <c r="CO183" s="23">
+      <c r="CO183" s="36">
         <v>89.541440450473686</v>
       </c>
-      <c r="CP183" s="23">
+      <c r="CP183" s="36">
         <v>122.65235562976544</v>
       </c>
-      <c r="CQ183" s="23">
-        <v>245.43370119194515</v>
-      </c>
-      <c r="CR183" s="9"/>
+      <c r="CQ183" s="36">
+        <v>249.35530979287543</v>
+      </c>
+      <c r="CR183" s="36">
+        <v>97.502461888828762</v>
+      </c>
       <c r="CS183" s="9"/>
       <c r="CT183" s="9"/>
       <c r="CU183" s="9"/>
@@ -42460,25 +42710,27 @@
       <c r="CK184" s="23">
         <v>101.47870626445791</v>
       </c>
-      <c r="CL184" s="23">
+      <c r="CL184" s="36">
         <v>106.80279003685416</v>
       </c>
-      <c r="CM184" s="23">
+      <c r="CM184" s="36">
         <v>125.53960332551235</v>
       </c>
-      <c r="CN184" s="23">
+      <c r="CN184" s="36">
         <v>102.28484642986145</v>
       </c>
-      <c r="CO184" s="23">
+      <c r="CO184" s="36">
         <v>112.40782809888911</v>
       </c>
-      <c r="CP184" s="23">
+      <c r="CP184" s="36">
         <v>118.04892477097101</v>
       </c>
-      <c r="CQ184" s="23">
-        <v>133.49565886808116</v>
-      </c>
-      <c r="CR184" s="9"/>
+      <c r="CQ184" s="36">
+        <v>133.74611877641328</v>
+      </c>
+      <c r="CR184" s="36">
+        <v>105.56014413622148</v>
+      </c>
       <c r="CS184" s="9"/>
       <c r="CT184" s="9"/>
       <c r="CU184" s="9"/>
@@ -42804,25 +43056,27 @@
       <c r="CK185" s="23">
         <v>106.12423249886061</v>
       </c>
-      <c r="CL185" s="23">
+      <c r="CL185" s="36">
         <v>112.18629364378343</v>
       </c>
-      <c r="CM185" s="23">
+      <c r="CM185" s="36">
         <v>131.23218319426314</v>
       </c>
-      <c r="CN185" s="23">
+      <c r="CN185" s="36">
         <v>102.9492021169707</v>
       </c>
-      <c r="CO185" s="23">
+      <c r="CO185" s="36">
         <v>118.93669006545838</v>
       </c>
-      <c r="CP185" s="23">
+      <c r="CP185" s="36">
         <v>120.53089153529153</v>
       </c>
-      <c r="CQ185" s="23">
-        <v>145.45804786461832</v>
-      </c>
-      <c r="CR185" s="9"/>
+      <c r="CQ185" s="36">
+        <v>145.43827707848183</v>
+      </c>
+      <c r="CR185" s="36">
+        <v>105.72422833659357</v>
+      </c>
       <c r="CS185" s="9"/>
       <c r="CT185" s="9"/>
       <c r="CU185" s="9"/>
@@ -43148,25 +43402,27 @@
       <c r="CK186" s="23">
         <v>103.26014971012363</v>
       </c>
-      <c r="CL186" s="23">
+      <c r="CL186" s="36">
         <v>112.41474812048821</v>
       </c>
-      <c r="CM186" s="23">
+      <c r="CM186" s="36">
         <v>128.39695056604066</v>
       </c>
-      <c r="CN186" s="23">
+      <c r="CN186" s="36">
         <v>101.70076030291482</v>
       </c>
-      <c r="CO186" s="23">
+      <c r="CO186" s="36">
         <v>120.79318439411428</v>
       </c>
-      <c r="CP186" s="23">
+      <c r="CP186" s="36">
         <v>123.02365283783546</v>
       </c>
-      <c r="CQ186" s="23">
-        <v>142.90851469069182</v>
-      </c>
-      <c r="CR186" s="9"/>
+      <c r="CQ186" s="36">
+        <v>142.90047446812179</v>
+      </c>
+      <c r="CR186" s="36">
+        <v>106.13860364509942</v>
+      </c>
       <c r="CS186" s="9"/>
       <c r="CT186" s="9"/>
       <c r="CU186" s="9"/>
@@ -43492,25 +43748,27 @@
       <c r="CK187" s="23">
         <v>107.71473180788705</v>
       </c>
-      <c r="CL187" s="23">
+      <c r="CL187" s="36">
         <v>112.74333618932511</v>
       </c>
-      <c r="CM187" s="23">
+      <c r="CM187" s="36">
         <v>131.12459091259595</v>
       </c>
-      <c r="CN187" s="23">
+      <c r="CN187" s="36">
         <v>106.15652121795985</v>
       </c>
-      <c r="CO187" s="23">
+      <c r="CO187" s="36">
         <v>127.6230023507334</v>
       </c>
-      <c r="CP187" s="23">
+      <c r="CP187" s="36">
         <v>126.93872719937332</v>
       </c>
-      <c r="CQ187" s="23">
-        <v>128.79771196960323</v>
-      </c>
-      <c r="CR187" s="9"/>
+      <c r="CQ187" s="36">
+        <v>129.4387733211542</v>
+      </c>
+      <c r="CR187" s="36">
+        <v>108.8092152157915</v>
+      </c>
       <c r="CS187" s="9"/>
       <c r="CT187" s="9"/>
       <c r="CU187" s="9"/>
@@ -43836,25 +44094,27 @@
       <c r="CK188" s="23">
         <v>95.327040468438327</v>
       </c>
-      <c r="CL188" s="23">
+      <c r="CL188" s="36">
         <v>101.17667845633333</v>
       </c>
-      <c r="CM188" s="23">
+      <c r="CM188" s="36">
         <v>118.84635925177834</v>
       </c>
-      <c r="CN188" s="23">
+      <c r="CN188" s="36">
         <v>97.74707671046022</v>
       </c>
-      <c r="CO188" s="23">
+      <c r="CO188" s="36">
         <v>95.137932816791036</v>
       </c>
-      <c r="CP188" s="23">
+      <c r="CP188" s="36">
         <v>107.53325828102527</v>
       </c>
-      <c r="CQ188" s="23">
-        <v>129.8861510290989</v>
-      </c>
-      <c r="CR188" s="9"/>
+      <c r="CQ188" s="36">
+        <v>129.84083420479385</v>
+      </c>
+      <c r="CR188" s="36">
+        <v>100.32841940263954</v>
+      </c>
       <c r="CS188" s="9"/>
       <c r="CT188" s="9"/>
       <c r="CU188" s="9"/>
@@ -44180,25 +44440,27 @@
       <c r="CK189" s="23">
         <v>99.595139695632511</v>
       </c>
-      <c r="CL189" s="23">
+      <c r="CL189" s="36">
         <v>97.443217984366399</v>
       </c>
-      <c r="CM189" s="23">
+      <c r="CM189" s="36">
         <v>97.552619897113914</v>
       </c>
-      <c r="CN189" s="23">
+      <c r="CN189" s="36">
         <v>113.61966851575103</v>
       </c>
-      <c r="CO189" s="23">
+      <c r="CO189" s="36">
         <v>113.01917785514451</v>
       </c>
-      <c r="CP189" s="23">
+      <c r="CP189" s="36">
         <v>101.73009895584563</v>
       </c>
-      <c r="CQ189" s="23">
-        <v>106.0003308573537</v>
-      </c>
-      <c r="CR189" s="9"/>
+      <c r="CQ189" s="36">
+        <v>106.00275097627502</v>
+      </c>
+      <c r="CR189" s="36">
+        <v>113.17152082295496</v>
+      </c>
       <c r="CS189" s="9"/>
       <c r="CT189" s="9"/>
       <c r="CU189" s="9"/>
@@ -44524,25 +44786,27 @@
       <c r="CK190" s="23">
         <v>97.733178202741868</v>
       </c>
-      <c r="CL190" s="23">
+      <c r="CL190" s="36">
         <v>94.373972935113954</v>
       </c>
-      <c r="CM190" s="23">
+      <c r="CM190" s="36">
         <v>98.251893600077111</v>
       </c>
-      <c r="CN190" s="23">
+      <c r="CN190" s="36">
         <v>112.86888368003432</v>
       </c>
-      <c r="CO190" s="23">
+      <c r="CO190" s="36">
         <v>112.20241549885887</v>
       </c>
-      <c r="CP190" s="23">
+      <c r="CP190" s="36">
         <v>99.872548361270233</v>
       </c>
-      <c r="CQ190" s="23">
-        <v>105.71512905729628</v>
-      </c>
-      <c r="CR190" s="9"/>
+      <c r="CQ190" s="36">
+        <v>105.71797486095215</v>
+      </c>
+      <c r="CR190" s="36">
+        <v>111.77947149428272</v>
+      </c>
       <c r="CS190" s="9"/>
       <c r="CT190" s="9"/>
       <c r="CU190" s="9"/>
@@ -44868,25 +45132,27 @@
       <c r="CK191" s="23">
         <v>112.64926929216541</v>
       </c>
-      <c r="CL191" s="23">
+      <c r="CL191" s="36">
         <v>99.063917528128442</v>
       </c>
-      <c r="CM191" s="23">
+      <c r="CM191" s="36">
         <v>78.803988198212863</v>
       </c>
-      <c r="CN191" s="23">
+      <c r="CN191" s="36">
         <v>119.42817680762082</v>
       </c>
-      <c r="CO191" s="23">
+      <c r="CO191" s="36">
         <v>132.65113388444081</v>
       </c>
-      <c r="CP191" s="23">
+      <c r="CP191" s="36">
         <v>111.15709348108676</v>
       </c>
-      <c r="CQ191" s="23">
-        <v>90.454606893521259</v>
-      </c>
-      <c r="CR191" s="9"/>
+      <c r="CQ191" s="36">
+        <v>92.240989302510286</v>
+      </c>
+      <c r="CR191" s="36">
+        <v>126.90880616534858</v>
+      </c>
       <c r="CS191" s="9"/>
       <c r="CT191" s="9"/>
       <c r="CU191" s="9"/>
@@ -45212,25 +45478,27 @@
       <c r="CK192" s="23">
         <v>109.37199147128867</v>
       </c>
-      <c r="CL192" s="23">
+      <c r="CL192" s="36">
         <v>115.35199705178162</v>
       </c>
-      <c r="CM192" s="23">
+      <c r="CM192" s="36">
         <v>95.150010686727541</v>
       </c>
-      <c r="CN192" s="23">
+      <c r="CN192" s="36">
         <v>129.5112687852089</v>
       </c>
-      <c r="CO192" s="23">
+      <c r="CO192" s="36">
         <v>128.18268818728211</v>
       </c>
-      <c r="CP192" s="23">
+      <c r="CP192" s="36">
         <v>128.66084698800921</v>
       </c>
-      <c r="CQ192" s="23">
-        <v>107.50404578554553</v>
-      </c>
-      <c r="CR192" s="9"/>
+      <c r="CQ192" s="36">
+        <v>107.50404394628454</v>
+      </c>
+      <c r="CR192" s="36">
+        <v>137.78653878787657</v>
+      </c>
       <c r="CS192" s="9"/>
       <c r="CT192" s="9"/>
       <c r="CU192" s="9"/>
@@ -45556,25 +45824,27 @@
       <c r="CK193" s="23">
         <v>102.61542288804119</v>
       </c>
-      <c r="CL193" s="23">
+      <c r="CL193" s="36">
         <v>120.86140442024134</v>
       </c>
-      <c r="CM193" s="23">
+      <c r="CM193" s="36">
         <v>94.278800118081435</v>
       </c>
-      <c r="CN193" s="23">
+      <c r="CN193" s="36">
         <v>119.57781459527645</v>
       </c>
-      <c r="CO193" s="23">
+      <c r="CO193" s="36">
         <v>123.17422915756779</v>
       </c>
-      <c r="CP193" s="23">
+      <c r="CP193" s="36">
         <v>130.04384045191765</v>
       </c>
-      <c r="CQ193" s="23">
-        <v>108.2060095125174</v>
-      </c>
-      <c r="CR193" s="9"/>
+      <c r="CQ193" s="36">
+        <v>108.2073337969621</v>
+      </c>
+      <c r="CR193" s="36">
+        <v>118.75821075530095</v>
+      </c>
       <c r="CS193" s="9"/>
       <c r="CT193" s="9"/>
       <c r="CU193" s="9"/>
@@ -45900,25 +46170,27 @@
       <c r="CK194" s="23">
         <v>135.97329419336032</v>
       </c>
-      <c r="CL194" s="23">
+      <c r="CL194" s="36">
         <v>108.19824692462143</v>
       </c>
-      <c r="CM194" s="23">
+      <c r="CM194" s="36">
         <v>79.204150725034381</v>
       </c>
-      <c r="CN194" s="23">
+      <c r="CN194" s="36">
         <v>119.47104075353721</v>
       </c>
-      <c r="CO194" s="23">
+      <c r="CO194" s="36">
         <v>163.01740034680279</v>
       </c>
-      <c r="CP194" s="23">
+      <c r="CP194" s="36">
         <v>117.01822401527804</v>
       </c>
-      <c r="CQ194" s="23">
-        <v>83.859830849605444</v>
-      </c>
-      <c r="CR194" s="9"/>
+      <c r="CQ194" s="36">
+        <v>83.817977836197173</v>
+      </c>
+      <c r="CR194" s="36">
+        <v>121.57682546667499</v>
+      </c>
       <c r="CS194" s="9"/>
       <c r="CT194" s="9"/>
       <c r="CU194" s="9"/>
@@ -46244,25 +46516,27 @@
       <c r="CK195" s="23">
         <v>195.6579396504861</v>
       </c>
-      <c r="CL195" s="23">
+      <c r="CL195" s="36">
         <v>105.79936104191452</v>
       </c>
-      <c r="CM195" s="23">
+      <c r="CM195" s="36">
         <v>68.863432683335105</v>
       </c>
-      <c r="CN195" s="23">
+      <c r="CN195" s="36">
         <v>150.90829930733645</v>
       </c>
-      <c r="CO195" s="23">
+      <c r="CO195" s="36">
         <v>223.98619284757166</v>
       </c>
-      <c r="CP195" s="23">
+      <c r="CP195" s="36">
         <v>109.99421910178127</v>
       </c>
-      <c r="CQ195" s="23">
-        <v>69.040171961555004</v>
-      </c>
-      <c r="CR195" s="9"/>
+      <c r="CQ195" s="36">
+        <v>69.054818923667639</v>
+      </c>
+      <c r="CR195" s="36">
+        <v>142.9813727909175</v>
+      </c>
       <c r="CS195" s="9"/>
       <c r="CT195" s="9"/>
       <c r="CU195" s="9"/>
@@ -46588,25 +46862,27 @@
       <c r="CK196" s="23">
         <v>129.36786657640914</v>
       </c>
-      <c r="CL196" s="23">
+      <c r="CL196" s="36">
         <v>96.454995633357569</v>
       </c>
-      <c r="CM196" s="23">
+      <c r="CM196" s="36">
         <v>75.282946984283853</v>
       </c>
-      <c r="CN196" s="23">
+      <c r="CN196" s="36">
         <v>128.42196459268601</v>
       </c>
-      <c r="CO196" s="23">
+      <c r="CO196" s="36">
         <v>145.2651769104485</v>
       </c>
-      <c r="CP196" s="23">
+      <c r="CP196" s="36">
         <v>101.0837677577484</v>
       </c>
-      <c r="CQ196" s="23">
-        <v>71.977941637391083</v>
-      </c>
-      <c r="CR196" s="9"/>
+      <c r="CQ196" s="36">
+        <v>71.725624749258216</v>
+      </c>
+      <c r="CR196" s="36">
+        <v>126.30673146242179</v>
+      </c>
       <c r="CS196" s="9"/>
       <c r="CT196" s="9"/>
       <c r="CU196" s="9"/>
@@ -46932,25 +47208,27 @@
       <c r="CK197" s="23">
         <v>143.82994926177562</v>
       </c>
-      <c r="CL197" s="23">
+      <c r="CL197" s="36">
         <v>116.24668959227469</v>
       </c>
-      <c r="CM197" s="23">
+      <c r="CM197" s="36">
         <v>71.744135598138669</v>
       </c>
-      <c r="CN197" s="23">
+      <c r="CN197" s="36">
         <v>115.57500665990017</v>
       </c>
-      <c r="CO197" s="23">
+      <c r="CO197" s="36">
         <v>170.75335124908443</v>
       </c>
-      <c r="CP197" s="23">
+      <c r="CP197" s="36">
         <v>125.80747594568066</v>
       </c>
-      <c r="CQ197" s="23">
-        <v>80.163360859435812</v>
-      </c>
-      <c r="CR197" s="9"/>
+      <c r="CQ197" s="36">
+        <v>79.903545889443066</v>
+      </c>
+      <c r="CR197" s="36">
+        <v>118.8132870819</v>
+      </c>
       <c r="CS197" s="9"/>
       <c r="CT197" s="9"/>
       <c r="CU197" s="9"/>
@@ -47276,25 +47554,27 @@
       <c r="CK198" s="23">
         <v>108.16425674603971</v>
       </c>
-      <c r="CL198" s="23">
+      <c r="CL198" s="36">
         <v>102.93521531073462</v>
       </c>
-      <c r="CM198" s="23">
+      <c r="CM198" s="36">
         <v>106.67057989739079</v>
       </c>
-      <c r="CN198" s="23">
+      <c r="CN198" s="36">
         <v>113.31185125124885</v>
       </c>
-      <c r="CO198" s="23">
+      <c r="CO198" s="36">
         <v>132.67940313927625</v>
       </c>
-      <c r="CP198" s="23">
+      <c r="CP198" s="36">
         <v>115.11291090441121</v>
       </c>
-      <c r="CQ198" s="23">
-        <v>115.67734203652826</v>
-      </c>
-      <c r="CR198" s="9"/>
+      <c r="CQ198" s="36">
+        <v>115.67418592024742</v>
+      </c>
+      <c r="CR198" s="36">
+        <v>117.2931322958743</v>
+      </c>
       <c r="CS198" s="9"/>
       <c r="CT198" s="9"/>
       <c r="CU198" s="9"/>
@@ -47441,13 +47721,13 @@
       <c r="CI199" s="9"/>
       <c r="CJ199" s="9"/>
       <c r="CK199" s="9"/>
-      <c r="CL199" s="9"/>
-      <c r="CM199" s="9"/>
-      <c r="CN199" s="9"/>
-      <c r="CO199" s="9"/>
-      <c r="CP199" s="9"/>
-      <c r="CQ199" s="9"/>
-      <c r="CR199" s="9"/>
+      <c r="CL199" s="31"/>
+      <c r="CM199" s="31"/>
+      <c r="CN199" s="31"/>
+      <c r="CO199" s="31"/>
+      <c r="CP199" s="31"/>
+      <c r="CQ199" s="31"/>
+      <c r="CR199" s="31"/>
       <c r="CS199" s="9"/>
       <c r="CT199" s="9"/>
       <c r="CU199" s="9"/>
@@ -47773,25 +48053,27 @@
       <c r="CK200" s="23">
         <v>102.3967435492559</v>
       </c>
-      <c r="CL200" s="23">
+      <c r="CL200" s="36">
         <v>102.98072951051338</v>
       </c>
-      <c r="CM200" s="23">
+      <c r="CM200" s="36">
         <v>103.49166399344993</v>
       </c>
-      <c r="CN200" s="23">
+      <c r="CN200" s="36">
         <v>109.38170811396103</v>
       </c>
-      <c r="CO200" s="23">
+      <c r="CO200" s="36">
         <v>117.422149054903</v>
       </c>
-      <c r="CP200" s="23">
+      <c r="CP200" s="36">
         <v>109.69159683028045</v>
       </c>
-      <c r="CQ200" s="23">
-        <v>110.17748724205593</v>
-      </c>
-      <c r="CR200" s="9"/>
+      <c r="CQ200" s="36">
+        <v>110.20586257678995</v>
+      </c>
+      <c r="CR200" s="36">
+        <v>111.50838691790315</v>
+      </c>
       <c r="CS200" s="9"/>
       <c r="CT200" s="9"/>
       <c r="CU200" s="9"/>
@@ -47939,12 +48221,13 @@
       <c r="CI201" s="14"/>
       <c r="CJ201" s="14"/>
       <c r="CK201" s="14"/>
-      <c r="CL201" s="14"/>
-      <c r="CM201" s="14"/>
-      <c r="CN201" s="14"/>
-      <c r="CO201" s="14"/>
-      <c r="CP201" s="14"/>
-      <c r="CQ201" s="14"/>
+      <c r="CL201" s="33"/>
+      <c r="CM201" s="33"/>
+      <c r="CN201" s="33"/>
+      <c r="CO201" s="33"/>
+      <c r="CP201" s="33"/>
+      <c r="CQ201" s="33"/>
+      <c r="CR201" s="33"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -48040,13 +48323,13 @@
       <c r="CI203" s="9"/>
       <c r="CJ203" s="9"/>
       <c r="CK203" s="9"/>
-      <c r="CL203" s="9"/>
-      <c r="CM203" s="9"/>
-      <c r="CN203" s="9"/>
-      <c r="CO203" s="9"/>
-      <c r="CP203" s="9"/>
-      <c r="CQ203" s="9"/>
-      <c r="CR203" s="9"/>
+      <c r="CL203" s="31"/>
+      <c r="CM203" s="31"/>
+      <c r="CN203" s="31"/>
+      <c r="CO203" s="31"/>
+      <c r="CP203" s="31"/>
+      <c r="CQ203" s="31"/>
+      <c r="CR203" s="31"/>
       <c r="CS203" s="9"/>
       <c r="CT203" s="9"/>
       <c r="CU203" s="9"/>
@@ -48193,13 +48476,13 @@
       <c r="CI204" s="9"/>
       <c r="CJ204" s="9"/>
       <c r="CK204" s="9"/>
-      <c r="CL204" s="9"/>
-      <c r="CM204" s="9"/>
-      <c r="CN204" s="9"/>
-      <c r="CO204" s="9"/>
-      <c r="CP204" s="9"/>
-      <c r="CQ204" s="9"/>
-      <c r="CR204" s="9"/>
+      <c r="CL204" s="31"/>
+      <c r="CM204" s="31"/>
+      <c r="CN204" s="31"/>
+      <c r="CO204" s="31"/>
+      <c r="CP204" s="31"/>
+      <c r="CQ204" s="31"/>
+      <c r="CR204" s="31"/>
       <c r="CS204" s="9"/>
       <c r="CT204" s="9"/>
       <c r="CU204" s="9"/>
@@ -48289,148 +48572,149 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="27">
+      <c r="B213" s="37">
         <v>2000</v>
       </c>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="27">
+      <c r="C213" s="37"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="37">
         <v>2001</v>
       </c>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
-      <c r="I213" s="27"/>
-      <c r="J213" s="27">
+      <c r="G213" s="37"/>
+      <c r="H213" s="37"/>
+      <c r="I213" s="37"/>
+      <c r="J213" s="37">
         <v>2002</v>
       </c>
-      <c r="K213" s="27"/>
-      <c r="L213" s="27"/>
-      <c r="M213" s="27"/>
-      <c r="N213" s="27">
+      <c r="K213" s="37"/>
+      <c r="L213" s="37"/>
+      <c r="M213" s="37"/>
+      <c r="N213" s="37">
         <v>2003</v>
       </c>
-      <c r="O213" s="27"/>
-      <c r="P213" s="27"/>
-      <c r="Q213" s="27"/>
-      <c r="R213" s="27">
+      <c r="O213" s="37"/>
+      <c r="P213" s="37"/>
+      <c r="Q213" s="37"/>
+      <c r="R213" s="37">
         <v>2004</v>
       </c>
-      <c r="S213" s="27"/>
-      <c r="T213" s="27"/>
-      <c r="U213" s="27"/>
-      <c r="V213" s="27">
+      <c r="S213" s="37"/>
+      <c r="T213" s="37"/>
+      <c r="U213" s="37"/>
+      <c r="V213" s="37">
         <v>2005</v>
       </c>
-      <c r="W213" s="27"/>
-      <c r="X213" s="27"/>
-      <c r="Y213" s="27"/>
-      <c r="Z213" s="27">
+      <c r="W213" s="37"/>
+      <c r="X213" s="37"/>
+      <c r="Y213" s="37"/>
+      <c r="Z213" s="37">
         <v>2006</v>
       </c>
-      <c r="AA213" s="27"/>
-      <c r="AB213" s="27"/>
-      <c r="AC213" s="27"/>
-      <c r="AD213" s="27">
+      <c r="AA213" s="37"/>
+      <c r="AB213" s="37"/>
+      <c r="AC213" s="37"/>
+      <c r="AD213" s="37">
         <v>2007</v>
       </c>
-      <c r="AE213" s="27"/>
-      <c r="AF213" s="27"/>
-      <c r="AG213" s="27"/>
-      <c r="AH213" s="27">
+      <c r="AE213" s="37"/>
+      <c r="AF213" s="37"/>
+      <c r="AG213" s="37"/>
+      <c r="AH213" s="37">
         <v>2008</v>
       </c>
-      <c r="AI213" s="27"/>
-      <c r="AJ213" s="27"/>
-      <c r="AK213" s="27"/>
-      <c r="AL213" s="27">
+      <c r="AI213" s="37"/>
+      <c r="AJ213" s="37"/>
+      <c r="AK213" s="37"/>
+      <c r="AL213" s="37">
         <v>2009</v>
       </c>
-      <c r="AM213" s="27"/>
-      <c r="AN213" s="27"/>
-      <c r="AO213" s="27"/>
-      <c r="AP213" s="27">
+      <c r="AM213" s="37"/>
+      <c r="AN213" s="37"/>
+      <c r="AO213" s="37"/>
+      <c r="AP213" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="27"/>
-      <c r="AR213" s="27"/>
-      <c r="AS213" s="27"/>
-      <c r="AT213" s="27">
+      <c r="AQ213" s="37"/>
+      <c r="AR213" s="37"/>
+      <c r="AS213" s="37"/>
+      <c r="AT213" s="37">
         <v>2011</v>
       </c>
-      <c r="AU213" s="27"/>
-      <c r="AV213" s="27"/>
-      <c r="AW213" s="27"/>
-      <c r="AX213" s="27">
+      <c r="AU213" s="37"/>
+      <c r="AV213" s="37"/>
+      <c r="AW213" s="37"/>
+      <c r="AX213" s="37">
         <v>2012</v>
       </c>
-      <c r="AY213" s="27"/>
-      <c r="AZ213" s="27"/>
-      <c r="BA213" s="27"/>
-      <c r="BB213" s="27">
+      <c r="AY213" s="37"/>
+      <c r="AZ213" s="37"/>
+      <c r="BA213" s="37"/>
+      <c r="BB213" s="37">
         <v>2013</v>
       </c>
-      <c r="BC213" s="27"/>
-      <c r="BD213" s="27"/>
-      <c r="BE213" s="27"/>
-      <c r="BF213" s="27">
+      <c r="BC213" s="37"/>
+      <c r="BD213" s="37"/>
+      <c r="BE213" s="37"/>
+      <c r="BF213" s="37">
         <v>2014</v>
       </c>
-      <c r="BG213" s="27"/>
-      <c r="BH213" s="27"/>
-      <c r="BI213" s="27"/>
-      <c r="BJ213" s="27">
+      <c r="BG213" s="37"/>
+      <c r="BH213" s="37"/>
+      <c r="BI213" s="37"/>
+      <c r="BJ213" s="37">
         <v>2015</v>
       </c>
-      <c r="BK213" s="27"/>
-      <c r="BL213" s="27"/>
-      <c r="BM213" s="27"/>
-      <c r="BN213" s="27">
+      <c r="BK213" s="37"/>
+      <c r="BL213" s="37"/>
+      <c r="BM213" s="37"/>
+      <c r="BN213" s="37">
         <v>2016</v>
       </c>
-      <c r="BO213" s="27"/>
-      <c r="BP213" s="27"/>
-      <c r="BQ213" s="27"/>
-      <c r="BR213" s="27">
+      <c r="BO213" s="37"/>
+      <c r="BP213" s="37"/>
+      <c r="BQ213" s="37"/>
+      <c r="BR213" s="37">
         <v>2017</v>
       </c>
-      <c r="BS213" s="27"/>
-      <c r="BT213" s="27"/>
-      <c r="BU213" s="27"/>
-      <c r="BV213" s="27">
+      <c r="BS213" s="37"/>
+      <c r="BT213" s="37"/>
+      <c r="BU213" s="37"/>
+      <c r="BV213" s="37">
         <v>2018</v>
       </c>
-      <c r="BW213" s="27"/>
-      <c r="BX213" s="27"/>
-      <c r="BY213" s="27"/>
-      <c r="BZ213" s="27">
+      <c r="BW213" s="37"/>
+      <c r="BX213" s="37"/>
+      <c r="BY213" s="37"/>
+      <c r="BZ213" s="37">
         <v>2019</v>
       </c>
-      <c r="CA213" s="27"/>
-      <c r="CB213" s="27"/>
-      <c r="CC213" s="27"/>
-      <c r="CD213" s="28">
+      <c r="CA213" s="37"/>
+      <c r="CB213" s="37"/>
+      <c r="CC213" s="37"/>
+      <c r="CD213" s="38">
         <v>2020</v>
       </c>
-      <c r="CE213" s="28"/>
-      <c r="CF213" s="28"/>
-      <c r="CG213" s="28"/>
-      <c r="CH213" s="28">
+      <c r="CE213" s="38"/>
+      <c r="CF213" s="38"/>
+      <c r="CG213" s="38"/>
+      <c r="CH213" s="38">
         <v>2021</v>
       </c>
-      <c r="CI213" s="28"/>
-      <c r="CJ213" s="28"/>
-      <c r="CK213" s="28"/>
-      <c r="CL213" s="28">
+      <c r="CI213" s="38"/>
+      <c r="CJ213" s="38"/>
+      <c r="CK213" s="38"/>
+      <c r="CL213" s="37">
         <v>2022</v>
       </c>
-      <c r="CM213" s="28"/>
-      <c r="CN213" s="28"/>
-      <c r="CO213" s="28"/>
-      <c r="CP213" s="28">
+      <c r="CM213" s="37"/>
+      <c r="CN213" s="37"/>
+      <c r="CO213" s="37"/>
+      <c r="CP213" s="37">
         <v>2023</v>
       </c>
-      <c r="CQ213" s="29"/>
+      <c r="CQ213" s="37"/>
+      <c r="CR213" s="37"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -48700,23 +48984,26 @@
       <c r="CK214" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL214" s="17" t="s">
+      <c r="CL214" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM214" s="17" t="s">
+      <c r="CM214" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN214" s="17" t="s">
+      <c r="CN214" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CO214" s="17" t="s">
+      <c r="CO214" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CP214" s="17" t="s">
+      <c r="CP214" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CQ214" s="17" t="s">
+      <c r="CQ214" s="34" t="s">
         <v>7</v>
+      </c>
+      <c r="CR214" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -48990,25 +49277,27 @@
       <c r="CK216" s="23">
         <v>19.755836619819288</v>
       </c>
-      <c r="CL216" s="23">
+      <c r="CL216" s="36">
         <v>18.050612250006182</v>
       </c>
-      <c r="CM216" s="23">
+      <c r="CM216" s="36">
         <v>16.218232370474251</v>
       </c>
-      <c r="CN216" s="23">
+      <c r="CN216" s="36">
         <v>13.045065793231997</v>
       </c>
-      <c r="CO216" s="23">
+      <c r="CO216" s="36">
         <v>16.267168765343023</v>
       </c>
-      <c r="CP216" s="23">
+      <c r="CP216" s="36">
         <v>16.11152995928596</v>
       </c>
-      <c r="CQ216" s="23">
-        <v>14.354951615790515</v>
-      </c>
-      <c r="CR216" s="9"/>
+      <c r="CQ216" s="36">
+        <v>14.328320418578331</v>
+      </c>
+      <c r="CR216" s="36">
+        <v>11.671687332358752</v>
+      </c>
       <c r="CS216" s="9"/>
       <c r="CT216" s="9"/>
       <c r="CU216" s="9"/>
@@ -49334,25 +49623,27 @@
       <c r="CK217" s="23">
         <v>1.463473468890409</v>
       </c>
-      <c r="CL217" s="23">
+      <c r="CL217" s="36">
         <v>0.72670418764357592</v>
       </c>
-      <c r="CM217" s="23">
+      <c r="CM217" s="36">
         <v>0.8015067914120142</v>
       </c>
-      <c r="CN217" s="23">
+      <c r="CN217" s="36">
         <v>0.93367020389674915</v>
       </c>
-      <c r="CO217" s="23">
+      <c r="CO217" s="36">
         <v>0.82248902797103507</v>
       </c>
-      <c r="CP217" s="23">
+      <c r="CP217" s="36">
         <v>0.74977551365334361</v>
       </c>
-      <c r="CQ217" s="23">
-        <v>1.0020695125012848</v>
-      </c>
-      <c r="CR217" s="9"/>
+      <c r="CQ217" s="36">
+        <v>1.0046822083693379</v>
+      </c>
+      <c r="CR217" s="36">
+        <v>1.108649209324611</v>
+      </c>
       <c r="CS217" s="9"/>
       <c r="CT217" s="9"/>
       <c r="CU217" s="9"/>
@@ -49678,25 +49969,27 @@
       <c r="CK218" s="23">
         <v>3.7720842676225628</v>
       </c>
-      <c r="CL218" s="23">
+      <c r="CL218" s="36">
         <v>2.7604542518695392</v>
       </c>
-      <c r="CM218" s="23">
+      <c r="CM218" s="36">
         <v>3.0613103608079473</v>
       </c>
-      <c r="CN218" s="23">
+      <c r="CN218" s="36">
         <v>3.2496005071778735</v>
       </c>
-      <c r="CO218" s="23">
+      <c r="CO218" s="36">
         <v>3.5675907092665833</v>
       </c>
-      <c r="CP218" s="23">
+      <c r="CP218" s="36">
         <v>3.2499211299362338</v>
       </c>
-      <c r="CQ218" s="23">
-        <v>3.6673990561227923</v>
-      </c>
-      <c r="CR218" s="9"/>
+      <c r="CQ218" s="36">
+        <v>3.6761776001445443</v>
+      </c>
+      <c r="CR218" s="36">
+        <v>2.5237529842196618</v>
+      </c>
       <c r="CS218" s="9"/>
       <c r="CT218" s="9"/>
       <c r="CU218" s="9"/>
@@ -50022,25 +50315,27 @@
       <c r="CK219" s="23">
         <v>0.25937530075334297</v>
       </c>
-      <c r="CL219" s="23">
+      <c r="CL219" s="36">
         <v>0.18897861263598709</v>
       </c>
-      <c r="CM219" s="23">
+      <c r="CM219" s="36">
         <v>0.22967110501852825</v>
       </c>
-      <c r="CN219" s="23">
+      <c r="CN219" s="36">
         <v>0.22956700352428755</v>
       </c>
-      <c r="CO219" s="23">
+      <c r="CO219" s="36">
         <v>0.27073179341118642</v>
       </c>
-      <c r="CP219" s="23">
+      <c r="CP219" s="36">
         <v>0.17769745204837445</v>
       </c>
-      <c r="CQ219" s="23">
-        <v>0.24615883028672775</v>
-      </c>
-      <c r="CR219" s="9"/>
+      <c r="CQ219" s="36">
+        <v>0.24491719861870556</v>
+      </c>
+      <c r="CR219" s="36">
+        <v>0.19353959619343442</v>
+      </c>
       <c r="CS219" s="9"/>
       <c r="CT219" s="9"/>
       <c r="CU219" s="9"/>
@@ -50366,25 +50661,27 @@
       <c r="CK220" s="23">
         <v>0.14947455117362529</v>
       </c>
-      <c r="CL220" s="23">
+      <c r="CL220" s="36">
         <v>0.12300201162825382</v>
       </c>
-      <c r="CM220" s="23">
+      <c r="CM220" s="36">
         <v>0.12367363072650905</v>
       </c>
-      <c r="CN220" s="23">
+      <c r="CN220" s="36">
         <v>0.17722226438681232</v>
       </c>
-      <c r="CO220" s="23">
+      <c r="CO220" s="36">
         <v>0.17748213283990483</v>
       </c>
-      <c r="CP220" s="23">
+      <c r="CP220" s="36">
         <v>0.11557529508909396</v>
       </c>
-      <c r="CQ220" s="23">
-        <v>0.14310544647896806</v>
-      </c>
-      <c r="CR220" s="9"/>
+      <c r="CQ220" s="36">
+        <v>0.13626344048412048</v>
+      </c>
+      <c r="CR220" s="36">
+        <v>0.16022978304075178</v>
+      </c>
       <c r="CS220" s="9"/>
       <c r="CT220" s="9"/>
       <c r="CU220" s="9"/>
@@ -50710,25 +51007,27 @@
       <c r="CK221" s="23">
         <v>1.0169698993803824</v>
       </c>
-      <c r="CL221" s="23">
+      <c r="CL221" s="36">
         <v>1.0891605957255808</v>
       </c>
-      <c r="CM221" s="23">
+      <c r="CM221" s="36">
         <v>0.93144879135710312</v>
       </c>
-      <c r="CN221" s="23">
+      <c r="CN221" s="36">
         <v>0.81767938065643342</v>
       </c>
-      <c r="CO221" s="23">
+      <c r="CO221" s="36">
         <v>0.9563673898375572</v>
       </c>
-      <c r="CP221" s="23">
+      <c r="CP221" s="36">
         <v>1.0388842420924849</v>
       </c>
-      <c r="CQ221" s="23">
-        <v>0.77512282321128911</v>
-      </c>
-      <c r="CR221" s="9"/>
+      <c r="CQ221" s="36">
+        <v>0.77673598149899903</v>
+      </c>
+      <c r="CR221" s="36">
+        <v>0.90446620086730523</v>
+      </c>
       <c r="CS221" s="9"/>
       <c r="CT221" s="9"/>
       <c r="CU221" s="9"/>
@@ -51054,25 +51353,27 @@
       <c r="CK222" s="23">
         <v>9.3894308303894292</v>
       </c>
-      <c r="CL222" s="23">
+      <c r="CL222" s="36">
         <v>10.092683768795997</v>
       </c>
-      <c r="CM222" s="23">
+      <c r="CM222" s="36">
         <v>7.9666068322535182</v>
       </c>
-      <c r="CN222" s="23">
+      <c r="CN222" s="36">
         <v>4.7864745471702781</v>
       </c>
-      <c r="CO222" s="23">
+      <c r="CO222" s="36">
         <v>7.4037750081157743</v>
       </c>
-      <c r="CP222" s="23">
+      <c r="CP222" s="36">
         <v>8.3431554949074762</v>
       </c>
-      <c r="CQ222" s="23">
-        <v>6.5470870137925106</v>
-      </c>
-      <c r="CR222" s="9"/>
+      <c r="CQ222" s="36">
+        <v>6.5472796896842436</v>
+      </c>
+      <c r="CR222" s="36">
+        <v>4.597402125362021</v>
+      </c>
       <c r="CS222" s="9"/>
       <c r="CT222" s="9"/>
       <c r="CU222" s="9"/>
@@ -51398,25 +51699,27 @@
       <c r="CK223" s="23">
         <v>0.48550305371411873</v>
       </c>
-      <c r="CL223" s="23">
+      <c r="CL223" s="36">
         <v>0.21565276442648235</v>
       </c>
-      <c r="CM223" s="23">
+      <c r="CM223" s="36">
         <v>0.2377834561236844</v>
       </c>
-      <c r="CN223" s="23">
+      <c r="CN223" s="36">
         <v>0.14158046504632688</v>
       </c>
-      <c r="CO223" s="23">
+      <c r="CO223" s="36">
         <v>0.35601545735569595</v>
       </c>
-      <c r="CP223" s="23">
+      <c r="CP223" s="36">
         <v>0.2974069170335582</v>
       </c>
-      <c r="CQ223" s="23">
-        <v>0.34570269845648904</v>
-      </c>
-      <c r="CR223" s="9"/>
+      <c r="CQ223" s="36">
+        <v>0.34339121179956716</v>
+      </c>
+      <c r="CR223" s="36">
+        <v>0.28212992504745837</v>
+      </c>
       <c r="CS223" s="9"/>
       <c r="CT223" s="9"/>
       <c r="CU223" s="9"/>
@@ -51742,25 +52045,27 @@
       <c r="CK224" s="23">
         <v>3.2195252478954224</v>
       </c>
-      <c r="CL224" s="23">
+      <c r="CL224" s="36">
         <v>2.8539760572807662</v>
       </c>
-      <c r="CM224" s="23">
+      <c r="CM224" s="36">
         <v>2.8662314027749467</v>
       </c>
-      <c r="CN224" s="23">
+      <c r="CN224" s="36">
         <v>2.7092714213732378</v>
       </c>
-      <c r="CO224" s="23">
+      <c r="CO224" s="36">
         <v>2.7127172465452833</v>
       </c>
-      <c r="CP224" s="23">
+      <c r="CP224" s="36">
         <v>2.1391139145253919</v>
       </c>
-      <c r="CQ224" s="23">
-        <v>1.628306234940454</v>
-      </c>
-      <c r="CR224" s="9"/>
+      <c r="CQ224" s="36">
+        <v>1.5988730879788149</v>
+      </c>
+      <c r="CR224" s="36">
+        <v>1.9015175083035087</v>
+      </c>
       <c r="CS224" s="9"/>
       <c r="CT224" s="9"/>
       <c r="CU224" s="9"/>
@@ -52086,25 +52391,27 @@
       <c r="CK225" s="23">
         <v>16.067706346481458</v>
       </c>
-      <c r="CL225" s="23">
+      <c r="CL225" s="36">
         <v>16.027677062579244</v>
       </c>
-      <c r="CM225" s="23">
+      <c r="CM225" s="36">
         <v>16.147204801425939</v>
       </c>
-      <c r="CN225" s="23">
+      <c r="CN225" s="36">
         <v>18.219081362879937</v>
       </c>
-      <c r="CO225" s="23">
+      <c r="CO225" s="36">
         <v>18.163797588086084</v>
       </c>
-      <c r="CP225" s="23">
+      <c r="CP225" s="36">
         <v>16.591482462350108</v>
       </c>
-      <c r="CQ225" s="23">
-        <v>16.533302307354127</v>
-      </c>
-      <c r="CR225" s="9"/>
+      <c r="CQ225" s="36">
+        <v>16.528314130682094</v>
+      </c>
+      <c r="CR225" s="36">
+        <v>18.199220555932168</v>
+      </c>
       <c r="CS225" s="9"/>
       <c r="CT225" s="9"/>
       <c r="CU225" s="9"/>
@@ -52430,25 +52737,27 @@
       <c r="CK226" s="23">
         <v>3.3930042878305451</v>
       </c>
-      <c r="CL226" s="23">
+      <c r="CL226" s="36">
         <v>2.7973764283036724</v>
       </c>
-      <c r="CM226" s="23">
+      <c r="CM226" s="36">
         <v>3.2613854981300019</v>
       </c>
-      <c r="CN226" s="23">
+      <c r="CN226" s="36">
         <v>2.8862981129508771</v>
       </c>
-      <c r="CO226" s="23">
+      <c r="CO226" s="36">
         <v>3.453617057002706</v>
       </c>
-      <c r="CP226" s="23">
+      <c r="CP226" s="36">
         <v>2.6520483511187005</v>
       </c>
-      <c r="CQ226" s="23">
-        <v>2.9993327245954928</v>
-      </c>
-      <c r="CR226" s="9"/>
+      <c r="CQ226" s="36">
+        <v>3.0056217267554874</v>
+      </c>
+      <c r="CR226" s="36">
+        <v>2.5741008801476903</v>
+      </c>
       <c r="CS226" s="9"/>
       <c r="CT226" s="9"/>
       <c r="CU226" s="9"/>
@@ -52774,25 +53083,27 @@
       <c r="CK227" s="23">
         <v>1.8591057433092146</v>
       </c>
-      <c r="CL227" s="23">
+      <c r="CL227" s="36">
         <v>1.638492335454782</v>
       </c>
-      <c r="CM227" s="23">
+      <c r="CM227" s="36">
         <v>1.8633867720853365</v>
       </c>
-      <c r="CN227" s="23">
+      <c r="CN227" s="36">
         <v>1.6359608693438117</v>
       </c>
-      <c r="CO227" s="23">
+      <c r="CO227" s="36">
         <v>2.1172085598585411</v>
       </c>
-      <c r="CP227" s="23">
+      <c r="CP227" s="36">
         <v>1.7924471078890849</v>
       </c>
-      <c r="CQ227" s="23">
-        <v>1.9600321939035923</v>
-      </c>
-      <c r="CR227" s="9"/>
+      <c r="CQ227" s="36">
+        <v>1.9644536470891827</v>
+      </c>
+      <c r="CR227" s="36">
+        <v>1.701462244240191</v>
+      </c>
       <c r="CS227" s="9"/>
       <c r="CT227" s="9"/>
       <c r="CU227" s="9"/>
@@ -53118,25 +53429,27 @@
       <c r="CK228" s="23">
         <v>4.2258499491932717</v>
       </c>
-      <c r="CL228" s="23">
+      <c r="CL228" s="36">
         <v>3.957134737051577</v>
       </c>
-      <c r="CM228" s="23">
+      <c r="CM228" s="36">
         <v>4.426449035209874</v>
       </c>
-      <c r="CN228" s="23">
+      <c r="CN228" s="36">
         <v>7.5592679913090324</v>
       </c>
-      <c r="CO228" s="23">
+      <c r="CO228" s="36">
         <v>6.4818498316473905</v>
       </c>
-      <c r="CP228" s="23">
+      <c r="CP228" s="36">
         <v>6.3207413674975372</v>
       </c>
-      <c r="CQ228" s="23">
-        <v>6.231726178639212</v>
-      </c>
-      <c r="CR228" s="9"/>
+      <c r="CQ228" s="36">
+        <v>6.1982566136424326</v>
+      </c>
+      <c r="CR228" s="36">
+        <v>8.6919580587975265</v>
+      </c>
       <c r="CS228" s="9"/>
       <c r="CT228" s="9"/>
       <c r="CU228" s="9"/>
@@ -53462,25 +53775,27 @@
       <c r="CK229" s="23">
         <v>6.589746366148427</v>
       </c>
-      <c r="CL229" s="23">
+      <c r="CL229" s="36">
         <v>7.6346735617692119</v>
       </c>
-      <c r="CM229" s="23">
+      <c r="CM229" s="36">
         <v>6.595983496000728</v>
       </c>
-      <c r="CN229" s="23">
+      <c r="CN229" s="36">
         <v>6.1375543892762137</v>
       </c>
-      <c r="CO229" s="23">
+      <c r="CO229" s="36">
         <v>6.1111221395774447</v>
       </c>
-      <c r="CP229" s="23">
+      <c r="CP229" s="36">
         <v>5.8262456358447858</v>
       </c>
-      <c r="CQ229" s="23">
-        <v>5.3422112102158303</v>
-      </c>
-      <c r="CR229" s="9"/>
+      <c r="CQ229" s="36">
+        <v>5.3599821431949914</v>
+      </c>
+      <c r="CR229" s="36">
+        <v>5.2316993727467613</v>
+      </c>
       <c r="CS229" s="9"/>
       <c r="CT229" s="9"/>
       <c r="CU229" s="9"/>
@@ -53806,25 +54121,27 @@
       <c r="CK230" s="23">
         <v>44.982136294826795</v>
       </c>
-      <c r="CL230" s="23">
+      <c r="CL230" s="36">
         <v>47.609220111900065</v>
       </c>
-      <c r="CM230" s="23">
+      <c r="CM230" s="36">
         <v>47.88763454012291</v>
       </c>
-      <c r="CN230" s="23">
+      <c r="CN230" s="36">
         <v>51.150498240168233</v>
       </c>
-      <c r="CO230" s="23">
+      <c r="CO230" s="36">
         <v>46.553796709481368</v>
       </c>
-      <c r="CP230" s="23">
+      <c r="CP230" s="36">
         <v>49.015206065926321</v>
       </c>
-      <c r="CQ230" s="23">
-        <v>51.561341868916045</v>
-      </c>
-      <c r="CR230" s="9"/>
+      <c r="CQ230" s="36">
+        <v>51.678400416418228</v>
+      </c>
+      <c r="CR230" s="36">
+        <v>53.738815694743934</v>
+      </c>
       <c r="CS230" s="9"/>
       <c r="CT230" s="9"/>
       <c r="CU230" s="9"/>
@@ -54150,25 +54467,27 @@
       <c r="CK231" s="23">
         <v>37.019690775898596</v>
       </c>
-      <c r="CL231" s="23">
+      <c r="CL231" s="36">
         <v>39.556284306730547</v>
       </c>
-      <c r="CM231" s="23">
+      <c r="CM231" s="36">
         <v>40.283227481355262</v>
       </c>
-      <c r="CN231" s="23">
+      <c r="CN231" s="36">
         <v>47.453601706857391</v>
       </c>
-      <c r="CO231" s="23">
+      <c r="CO231" s="36">
         <v>43.451326780931396</v>
       </c>
-      <c r="CP231" s="23">
+      <c r="CP231" s="36">
         <v>45.078946610971684</v>
       </c>
-      <c r="CQ231" s="23">
-        <v>44.437663254767365</v>
-      </c>
-      <c r="CR231" s="9"/>
+      <c r="CQ231" s="36">
+        <v>44.544352985092338</v>
+      </c>
+      <c r="CR231" s="36">
+        <v>49.606921710965075</v>
+      </c>
       <c r="CS231" s="9"/>
       <c r="CT231" s="9"/>
       <c r="CU231" s="9"/>
@@ -54494,25 +54813,27 @@
       <c r="CK232" s="23">
         <v>1.0727001337570445</v>
       </c>
-      <c r="CL232" s="23">
+      <c r="CL232" s="36">
         <v>0.50482025284018595</v>
       </c>
-      <c r="CM232" s="23">
+      <c r="CM232" s="36">
         <v>0.2660955866850776</v>
       </c>
-      <c r="CN232" s="23">
+      <c r="CN232" s="36">
         <v>1.6391126073680012E-2</v>
       </c>
-      <c r="CO232" s="23">
+      <c r="CO232" s="36">
         <v>4.0915146012305203E-3</v>
       </c>
-      <c r="CP232" s="23">
+      <c r="CP232" s="36">
         <v>5.9187164661468079E-3</v>
       </c>
-      <c r="CQ232" s="23">
-        <v>2.0285070696964454E-3</v>
-      </c>
-      <c r="CR232" s="9"/>
+      <c r="CQ232" s="36">
+        <v>2.0323294876921989E-3</v>
+      </c>
+      <c r="CR232" s="36">
+        <v>4.4991290534394831E-4</v>
+      </c>
       <c r="CS232" s="9"/>
       <c r="CT232" s="9"/>
       <c r="CU232" s="9"/>
@@ -54838,25 +55159,27 @@
       <c r="CK233" s="23">
         <v>6.3075389642536814</v>
       </c>
-      <c r="CL233" s="23">
+      <c r="CL233" s="36">
         <v>4.7869082254039856</v>
       </c>
-      <c r="CM233" s="23">
+      <c r="CM233" s="36">
         <v>3.3172623021008247</v>
       </c>
-      <c r="CN233" s="23">
+      <c r="CN233" s="36">
         <v>1.8039690564067943</v>
       </c>
-      <c r="CO233" s="23">
+      <c r="CO233" s="36">
         <v>1.6804871055422506</v>
       </c>
-      <c r="CP233" s="23">
+      <c r="CP233" s="36">
         <v>2.1169438243155621</v>
       </c>
-      <c r="CQ233" s="23">
-        <v>3.898065729359637</v>
-      </c>
-      <c r="CR233" s="9"/>
+      <c r="CQ233" s="36">
+        <v>3.9027600022933449</v>
+      </c>
+      <c r="CR233" s="36">
+        <v>3.2170810764007887</v>
+      </c>
       <c r="CS233" s="9"/>
       <c r="CT233" s="9"/>
       <c r="CU233" s="9"/>
@@ -55182,25 +55505,27 @@
       <c r="CK234" s="23">
         <v>0.58220642091746944</v>
       </c>
-      <c r="CL234" s="23">
+      <c r="CL234" s="36">
         <v>2.7612073269253408</v>
       </c>
-      <c r="CM234" s="23">
+      <c r="CM234" s="36">
         <v>4.0210491699817492</v>
       </c>
-      <c r="CN234" s="23">
+      <c r="CN234" s="36">
         <v>1.8765363508303694</v>
       </c>
-      <c r="CO234" s="23">
+      <c r="CO234" s="36">
         <v>1.4178913084064908</v>
       </c>
-      <c r="CP234" s="23">
+      <c r="CP234" s="36">
         <v>1.813396914172928</v>
       </c>
-      <c r="CQ234" s="23">
-        <v>3.2235843777193471</v>
-      </c>
-      <c r="CR234" s="9"/>
+      <c r="CQ234" s="36">
+        <v>3.2292550995448464</v>
+      </c>
+      <c r="CR234" s="36">
+        <v>0.91436299447273417</v>
+      </c>
       <c r="CS234" s="9"/>
       <c r="CT234" s="9"/>
       <c r="CU234" s="9"/>
@@ -55526,25 +55851,27 @@
       <c r="CK235" s="23">
         <v>19.194320738872449</v>
       </c>
-      <c r="CL235" s="23">
+      <c r="CL235" s="36">
         <v>18.312490575514527</v>
       </c>
-      <c r="CM235" s="23">
+      <c r="CM235" s="36">
         <v>19.746928287976903</v>
       </c>
-      <c r="CN235" s="23">
+      <c r="CN235" s="36">
         <v>17.585354603719829</v>
       </c>
-      <c r="CO235" s="23">
+      <c r="CO235" s="36">
         <v>19.015236937089526</v>
       </c>
-      <c r="CP235" s="23">
+      <c r="CP235" s="36">
         <v>18.281781512437629</v>
       </c>
-      <c r="CQ235" s="23">
-        <v>17.550404207939309</v>
-      </c>
-      <c r="CR235" s="9"/>
+      <c r="CQ235" s="36">
+        <v>17.464965034321352</v>
+      </c>
+      <c r="CR235" s="36">
+        <v>16.39027641696514</v>
+      </c>
       <c r="CS235" s="9"/>
       <c r="CT235" s="9"/>
       <c r="CU235" s="9"/>
@@ -55870,25 +56197,27 @@
       <c r="CK236" s="23">
         <v>1.6118092401780006</v>
       </c>
-      <c r="CL236" s="23">
+      <c r="CL236" s="36">
         <v>1.4370315757981493</v>
       </c>
-      <c r="CM236" s="23">
+      <c r="CM236" s="36">
         <v>1.4984368659827334</v>
       </c>
-      <c r="CN236" s="23">
+      <c r="CN236" s="36">
         <v>1.7047355378666247</v>
       </c>
-      <c r="CO236" s="23">
+      <c r="CO236" s="36">
         <v>2.2802020781131467</v>
       </c>
-      <c r="CP236" s="23">
+      <c r="CP236" s="36">
         <v>1.5829591501531131</v>
       </c>
-      <c r="CQ236" s="23">
-        <v>1.4323859359359128</v>
-      </c>
-      <c r="CR236" s="9"/>
+      <c r="CQ236" s="36">
+        <v>1.4160737985734322</v>
+      </c>
+      <c r="CR236" s="36">
+        <v>1.5560928140353412</v>
+      </c>
       <c r="CS236" s="9"/>
       <c r="CT236" s="9"/>
       <c r="CU236" s="9"/>
@@ -56214,25 +56543,27 @@
       <c r="CK237" s="23">
         <v>3.0534977473871305</v>
       </c>
-      <c r="CL237" s="23">
+      <c r="CL237" s="36">
         <v>3.2049301116196314</v>
       </c>
-      <c r="CM237" s="23">
+      <c r="CM237" s="36">
         <v>2.9291297073074642</v>
       </c>
-      <c r="CN237" s="23">
+      <c r="CN237" s="36">
         <v>2.3965042794223903</v>
       </c>
-      <c r="CO237" s="23">
+      <c r="CO237" s="36">
         <v>2.8204461791971536</v>
       </c>
-      <c r="CP237" s="23">
+      <c r="CP237" s="36">
         <v>2.9939203873082945</v>
       </c>
-      <c r="CQ237" s="23">
-        <v>3.0904260774454122</v>
-      </c>
-      <c r="CR237" s="9"/>
+      <c r="CQ237" s="36">
+        <v>3.0359610907190451</v>
+      </c>
+      <c r="CR237" s="36">
+        <v>2.394848945199977</v>
+      </c>
       <c r="CS237" s="9"/>
       <c r="CT237" s="9"/>
       <c r="CU237" s="9"/>
@@ -56558,25 +56889,27 @@
       <c r="CK238" s="23">
         <v>10.905918690907207</v>
       </c>
-      <c r="CL238" s="23">
+      <c r="CL238" s="36">
         <v>9.3195074111446949</v>
       </c>
-      <c r="CM238" s="23">
+      <c r="CM238" s="36">
         <v>9.8680070397562787</v>
       </c>
-      <c r="CN238" s="23">
+      <c r="CN238" s="36">
         <v>10.209105941793831</v>
       </c>
-      <c r="CO238" s="23">
+      <c r="CO238" s="36">
         <v>10.606120474252821</v>
       </c>
-      <c r="CP238" s="23">
+      <c r="CP238" s="36">
         <v>9.2562564037920936</v>
       </c>
-      <c r="CQ238" s="23">
-        <v>8.6113425670205643</v>
-      </c>
-      <c r="CR238" s="9"/>
+      <c r="CQ238" s="36">
+        <v>8.5365408187779668</v>
+      </c>
+      <c r="CR238" s="36">
+        <v>9.9284572126572055</v>
+      </c>
       <c r="CS238" s="9"/>
       <c r="CT238" s="9"/>
       <c r="CU238" s="9"/>
@@ -56902,25 +57235,27 @@
       <c r="CK239" s="23">
         <v>3.6230950604001095</v>
       </c>
-      <c r="CL239" s="23">
+      <c r="CL239" s="36">
         <v>4.3510214769520523</v>
       </c>
-      <c r="CM239" s="23">
+      <c r="CM239" s="36">
         <v>5.4513546749304282</v>
       </c>
-      <c r="CN239" s="23">
+      <c r="CN239" s="36">
         <v>3.2750088446369814</v>
       </c>
-      <c r="CO239" s="23">
+      <c r="CO239" s="36">
         <v>3.3084682055264047</v>
       </c>
-      <c r="CP239" s="23">
+      <c r="CP239" s="36">
         <v>4.4486455711841257</v>
       </c>
-      <c r="CQ239" s="23">
-        <v>4.4162496275374208</v>
-      </c>
-      <c r="CR239" s="9"/>
+      <c r="CQ239" s="36">
+        <v>4.4763893262509091</v>
+      </c>
+      <c r="CR239" s="36">
+        <v>2.5108774450726177</v>
+      </c>
       <c r="CS239" s="9"/>
       <c r="CT239" s="9"/>
       <c r="CU239" s="9"/>
@@ -57067,13 +57402,13 @@
       <c r="CI240" s="9"/>
       <c r="CJ240" s="9"/>
       <c r="CK240" s="9"/>
-      <c r="CL240" s="9"/>
-      <c r="CM240" s="9"/>
-      <c r="CN240" s="9"/>
-      <c r="CO240" s="9"/>
-      <c r="CP240" s="9"/>
-      <c r="CQ240" s="9"/>
-      <c r="CR240" s="9"/>
+      <c r="CL240" s="31"/>
+      <c r="CM240" s="31"/>
+      <c r="CN240" s="31"/>
+      <c r="CO240" s="31"/>
+      <c r="CP240" s="31"/>
+      <c r="CQ240" s="31"/>
+      <c r="CR240" s="31"/>
       <c r="CS240" s="9"/>
       <c r="CT240" s="9"/>
       <c r="CU240" s="9"/>
@@ -57399,25 +57734,27 @@
       <c r="CK241" s="23">
         <v>100</v>
       </c>
-      <c r="CL241" s="23">
+      <c r="CL241" s="36">
         <v>100</v>
       </c>
-      <c r="CM241" s="23">
+      <c r="CM241" s="36">
         <v>100</v>
       </c>
-      <c r="CN241" s="23">
+      <c r="CN241" s="36">
         <v>100</v>
       </c>
-      <c r="CO241" s="23">
+      <c r="CO241" s="36">
         <v>100</v>
       </c>
-      <c r="CP241" s="23">
+      <c r="CP241" s="36">
         <v>100</v>
       </c>
-      <c r="CQ241" s="23">
+      <c r="CQ241" s="36">
         <v>100</v>
       </c>
-      <c r="CR241" s="9"/>
+      <c r="CR241" s="36">
+        <v>100</v>
+      </c>
       <c r="CS241" s="9"/>
       <c r="CT241" s="9"/>
       <c r="CU241" s="9"/>
@@ -57565,12 +57902,13 @@
       <c r="CI242" s="14"/>
       <c r="CJ242" s="14"/>
       <c r="CK242" s="14"/>
-      <c r="CL242" s="14"/>
-      <c r="CM242" s="14"/>
-      <c r="CN242" s="14"/>
-      <c r="CO242" s="14"/>
-      <c r="CP242" s="14"/>
-      <c r="CQ242" s="14"/>
+      <c r="CL242" s="33"/>
+      <c r="CM242" s="33"/>
+      <c r="CN242" s="33"/>
+      <c r="CO242" s="33"/>
+      <c r="CP242" s="33"/>
+      <c r="CQ242" s="33"/>
+      <c r="CR242" s="33"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -57666,13 +58004,13 @@
       <c r="CI244" s="9"/>
       <c r="CJ244" s="9"/>
       <c r="CK244" s="9"/>
-      <c r="CL244" s="9"/>
-      <c r="CM244" s="9"/>
-      <c r="CN244" s="9"/>
-      <c r="CO244" s="9"/>
-      <c r="CP244" s="9"/>
-      <c r="CQ244" s="9"/>
-      <c r="CR244" s="9"/>
+      <c r="CL244" s="31"/>
+      <c r="CM244" s="31"/>
+      <c r="CN244" s="31"/>
+      <c r="CO244" s="31"/>
+      <c r="CP244" s="31"/>
+      <c r="CQ244" s="31"/>
+      <c r="CR244" s="31"/>
       <c r="CS244" s="9"/>
       <c r="CT244" s="9"/>
       <c r="CU244" s="9"/>
@@ -57819,13 +58157,13 @@
       <c r="CI245" s="9"/>
       <c r="CJ245" s="9"/>
       <c r="CK245" s="9"/>
-      <c r="CL245" s="9"/>
-      <c r="CM245" s="9"/>
-      <c r="CN245" s="9"/>
-      <c r="CO245" s="9"/>
-      <c r="CP245" s="9"/>
-      <c r="CQ245" s="9"/>
-      <c r="CR245" s="9"/>
+      <c r="CL245" s="31"/>
+      <c r="CM245" s="31"/>
+      <c r="CN245" s="31"/>
+      <c r="CO245" s="31"/>
+      <c r="CP245" s="31"/>
+      <c r="CQ245" s="31"/>
+      <c r="CR245" s="31"/>
       <c r="CS245" s="9"/>
       <c r="CT245" s="9"/>
       <c r="CU245" s="9"/>
@@ -57915,148 +58253,149 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="27">
+      <c r="B254" s="37">
         <v>2000</v>
       </c>
-      <c r="C254" s="27"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" s="27">
+      <c r="C254" s="37"/>
+      <c r="D254" s="37"/>
+      <c r="E254" s="37"/>
+      <c r="F254" s="37">
         <v>2001</v>
       </c>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
-      <c r="I254" s="27"/>
-      <c r="J254" s="27">
+      <c r="G254" s="37"/>
+      <c r="H254" s="37"/>
+      <c r="I254" s="37"/>
+      <c r="J254" s="37">
         <v>2002</v>
       </c>
-      <c r="K254" s="27"/>
-      <c r="L254" s="27"/>
-      <c r="M254" s="27"/>
-      <c r="N254" s="27">
+      <c r="K254" s="37"/>
+      <c r="L254" s="37"/>
+      <c r="M254" s="37"/>
+      <c r="N254" s="37">
         <v>2003</v>
       </c>
-      <c r="O254" s="27"/>
-      <c r="P254" s="27"/>
-      <c r="Q254" s="27"/>
-      <c r="R254" s="27">
+      <c r="O254" s="37"/>
+      <c r="P254" s="37"/>
+      <c r="Q254" s="37"/>
+      <c r="R254" s="37">
         <v>2004</v>
       </c>
-      <c r="S254" s="27"/>
-      <c r="T254" s="27"/>
-      <c r="U254" s="27"/>
-      <c r="V254" s="27">
+      <c r="S254" s="37"/>
+      <c r="T254" s="37"/>
+      <c r="U254" s="37"/>
+      <c r="V254" s="37">
         <v>2005</v>
       </c>
-      <c r="W254" s="27"/>
-      <c r="X254" s="27"/>
-      <c r="Y254" s="27"/>
-      <c r="Z254" s="27">
+      <c r="W254" s="37"/>
+      <c r="X254" s="37"/>
+      <c r="Y254" s="37"/>
+      <c r="Z254" s="37">
         <v>2006</v>
       </c>
-      <c r="AA254" s="27"/>
-      <c r="AB254" s="27"/>
-      <c r="AC254" s="27"/>
-      <c r="AD254" s="27">
+      <c r="AA254" s="37"/>
+      <c r="AB254" s="37"/>
+      <c r="AC254" s="37"/>
+      <c r="AD254" s="37">
         <v>2007</v>
       </c>
-      <c r="AE254" s="27"/>
-      <c r="AF254" s="27"/>
-      <c r="AG254" s="27"/>
-      <c r="AH254" s="27">
+      <c r="AE254" s="37"/>
+      <c r="AF254" s="37"/>
+      <c r="AG254" s="37"/>
+      <c r="AH254" s="37">
         <v>2008</v>
       </c>
-      <c r="AI254" s="27"/>
-      <c r="AJ254" s="27"/>
-      <c r="AK254" s="27"/>
-      <c r="AL254" s="27">
+      <c r="AI254" s="37"/>
+      <c r="AJ254" s="37"/>
+      <c r="AK254" s="37"/>
+      <c r="AL254" s="37">
         <v>2009</v>
       </c>
-      <c r="AM254" s="27"/>
-      <c r="AN254" s="27"/>
-      <c r="AO254" s="27"/>
-      <c r="AP254" s="27">
+      <c r="AM254" s="37"/>
+      <c r="AN254" s="37"/>
+      <c r="AO254" s="37"/>
+      <c r="AP254" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="27"/>
-      <c r="AR254" s="27"/>
-      <c r="AS254" s="27"/>
-      <c r="AT254" s="27">
+      <c r="AQ254" s="37"/>
+      <c r="AR254" s="37"/>
+      <c r="AS254" s="37"/>
+      <c r="AT254" s="37">
         <v>2011</v>
       </c>
-      <c r="AU254" s="27"/>
-      <c r="AV254" s="27"/>
-      <c r="AW254" s="27"/>
-      <c r="AX254" s="27">
+      <c r="AU254" s="37"/>
+      <c r="AV254" s="37"/>
+      <c r="AW254" s="37"/>
+      <c r="AX254" s="37">
         <v>2012</v>
       </c>
-      <c r="AY254" s="27"/>
-      <c r="AZ254" s="27"/>
-      <c r="BA254" s="27"/>
-      <c r="BB254" s="27">
+      <c r="AY254" s="37"/>
+      <c r="AZ254" s="37"/>
+      <c r="BA254" s="37"/>
+      <c r="BB254" s="37">
         <v>2013</v>
       </c>
-      <c r="BC254" s="27"/>
-      <c r="BD254" s="27"/>
-      <c r="BE254" s="27"/>
-      <c r="BF254" s="27">
+      <c r="BC254" s="37"/>
+      <c r="BD254" s="37"/>
+      <c r="BE254" s="37"/>
+      <c r="BF254" s="37">
         <v>2014</v>
       </c>
-      <c r="BG254" s="27"/>
-      <c r="BH254" s="27"/>
-      <c r="BI254" s="27"/>
-      <c r="BJ254" s="27">
+      <c r="BG254" s="37"/>
+      <c r="BH254" s="37"/>
+      <c r="BI254" s="37"/>
+      <c r="BJ254" s="37">
         <v>2015</v>
       </c>
-      <c r="BK254" s="27"/>
-      <c r="BL254" s="27"/>
-      <c r="BM254" s="27"/>
-      <c r="BN254" s="27">
+      <c r="BK254" s="37"/>
+      <c r="BL254" s="37"/>
+      <c r="BM254" s="37"/>
+      <c r="BN254" s="37">
         <v>2016</v>
       </c>
-      <c r="BO254" s="27"/>
-      <c r="BP254" s="27"/>
-      <c r="BQ254" s="27"/>
-      <c r="BR254" s="27">
+      <c r="BO254" s="37"/>
+      <c r="BP254" s="37"/>
+      <c r="BQ254" s="37"/>
+      <c r="BR254" s="37">
         <v>2017</v>
       </c>
-      <c r="BS254" s="27"/>
-      <c r="BT254" s="27"/>
-      <c r="BU254" s="27"/>
-      <c r="BV254" s="27">
+      <c r="BS254" s="37"/>
+      <c r="BT254" s="37"/>
+      <c r="BU254" s="37"/>
+      <c r="BV254" s="37">
         <v>2018</v>
       </c>
-      <c r="BW254" s="27"/>
-      <c r="BX254" s="27"/>
-      <c r="BY254" s="27"/>
-      <c r="BZ254" s="27">
+      <c r="BW254" s="37"/>
+      <c r="BX254" s="37"/>
+      <c r="BY254" s="37"/>
+      <c r="BZ254" s="37">
         <v>2019</v>
       </c>
-      <c r="CA254" s="27"/>
-      <c r="CB254" s="27"/>
-      <c r="CC254" s="27"/>
-      <c r="CD254" s="28">
+      <c r="CA254" s="37"/>
+      <c r="CB254" s="37"/>
+      <c r="CC254" s="37"/>
+      <c r="CD254" s="38">
         <v>2020</v>
       </c>
-      <c r="CE254" s="28"/>
-      <c r="CF254" s="28"/>
-      <c r="CG254" s="28"/>
-      <c r="CH254" s="28">
+      <c r="CE254" s="38"/>
+      <c r="CF254" s="38"/>
+      <c r="CG254" s="38"/>
+      <c r="CH254" s="38">
         <v>2021</v>
       </c>
-      <c r="CI254" s="28"/>
-      <c r="CJ254" s="28"/>
-      <c r="CK254" s="28"/>
-      <c r="CL254" s="28">
+      <c r="CI254" s="38"/>
+      <c r="CJ254" s="38"/>
+      <c r="CK254" s="38"/>
+      <c r="CL254" s="37">
         <v>2022</v>
       </c>
-      <c r="CM254" s="28"/>
-      <c r="CN254" s="28"/>
-      <c r="CO254" s="28"/>
-      <c r="CP254" s="28">
+      <c r="CM254" s="37"/>
+      <c r="CN254" s="37"/>
+      <c r="CO254" s="37"/>
+      <c r="CP254" s="37">
         <v>2023</v>
       </c>
-      <c r="CQ254" s="29"/>
+      <c r="CQ254" s="37"/>
+      <c r="CR254" s="37"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
@@ -58326,23 +58665,26 @@
       <c r="CK255" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL255" s="17" t="s">
+      <c r="CL255" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CM255" s="17" t="s">
+      <c r="CM255" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CN255" s="17" t="s">
+      <c r="CN255" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CO255" s="17" t="s">
+      <c r="CO255" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="CP255" s="17" t="s">
+      <c r="CP255" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="CQ255" s="17" t="s">
+      <c r="CQ255" s="34" t="s">
         <v>7</v>
+      </c>
+      <c r="CR255" s="34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -58616,25 +58958,27 @@
       <c r="CK257" s="23">
         <v>23.084881872736414</v>
       </c>
-      <c r="CL257" s="23">
+      <c r="CL257" s="36">
         <v>16.80170205015407</v>
       </c>
-      <c r="CM257" s="23">
+      <c r="CM257" s="36">
         <v>10.083386102995901</v>
       </c>
-      <c r="CN257" s="23">
+      <c r="CN257" s="36">
         <v>15.173938831682786</v>
       </c>
-      <c r="CO257" s="23">
+      <c r="CO257" s="36">
         <v>18.96176063948846</v>
       </c>
-      <c r="CP257" s="23">
+      <c r="CP257" s="36">
         <v>14.594793717376453</v>
       </c>
-      <c r="CQ257" s="23">
-        <v>9.7031773310401075</v>
-      </c>
-      <c r="CR257" s="9"/>
+      <c r="CQ257" s="36">
+        <v>9.6899365552942207</v>
+      </c>
+      <c r="CR257" s="36">
+        <v>12.793270668501291</v>
+      </c>
       <c r="CS257" s="9"/>
       <c r="CT257" s="9"/>
       <c r="CU257" s="9"/>
@@ -58960,25 +59304,27 @@
       <c r="CK258" s="23">
         <v>2.1278104289928441</v>
       </c>
-      <c r="CL258" s="23">
+      <c r="CL258" s="36">
         <v>0.67486681482542044</v>
       </c>
-      <c r="CM258" s="23">
+      <c r="CM258" s="36">
         <v>0.259173506832585</v>
       </c>
-      <c r="CN258" s="23">
+      <c r="CN258" s="36">
         <v>1.0327187723988698</v>
       </c>
-      <c r="CO258" s="23">
+      <c r="CO258" s="36">
         <v>1.1412048174834992</v>
       </c>
-      <c r="CP258" s="23">
+      <c r="CP258" s="36">
         <v>0.66497909717382597</v>
       </c>
-      <c r="CQ258" s="23">
-        <v>0.30880491755502237</v>
-      </c>
-      <c r="CR258" s="9"/>
+      <c r="CQ258" s="36">
+        <v>0.30945027145728243</v>
+      </c>
+      <c r="CR258" s="36">
+        <v>1.2084183110371427</v>
+      </c>
       <c r="CS258" s="9"/>
       <c r="CT258" s="9"/>
       <c r="CU258" s="9"/>
@@ -59304,25 +59650,27 @@
       <c r="CK259" s="23">
         <v>5.5247901160184449</v>
       </c>
-      <c r="CL259" s="23">
+      <c r="CL259" s="36">
         <v>2.515720425358372</v>
       </c>
-      <c r="CM259" s="23">
+      <c r="CM259" s="36">
         <v>1.0172083016863924</v>
       </c>
-      <c r="CN259" s="23">
+      <c r="CN259" s="36">
         <v>3.6175356398715537</v>
       </c>
-      <c r="CO259" s="23">
+      <c r="CO259" s="36">
         <v>5.004241174083675</v>
       </c>
-      <c r="CP259" s="23">
+      <c r="CP259" s="36">
         <v>2.8281294248545645</v>
       </c>
-      <c r="CQ259" s="23">
-        <v>1.1583724044308781</v>
-      </c>
-      <c r="CR259" s="9"/>
+      <c r="CQ259" s="36">
+        <v>1.1595601201068675</v>
+      </c>
+      <c r="CR259" s="36">
+        <v>2.7723538874662688</v>
+      </c>
       <c r="CS259" s="9"/>
       <c r="CT259" s="9"/>
       <c r="CU259" s="9"/>
@@ -59648,25 +59996,27 @@
       <c r="CK260" s="23">
         <v>0.28739016082033936</v>
       </c>
-      <c r="CL260" s="23">
+      <c r="CL260" s="36">
         <v>0.17974966925912253</v>
       </c>
-      <c r="CM260" s="23">
+      <c r="CM260" s="36">
         <v>0.10456780994759997</v>
       </c>
-      <c r="CN260" s="23">
+      <c r="CN260" s="36">
         <v>0.25801297112034355</v>
       </c>
-      <c r="CO260" s="23">
+      <c r="CO260" s="36">
         <v>0.34911045885513253</v>
       </c>
-      <c r="CP260" s="23">
+      <c r="CP260" s="36">
         <v>0.1711189520658262</v>
       </c>
-      <c r="CQ260" s="23">
-        <v>0.10334800173821668</v>
-      </c>
-      <c r="CR260" s="9"/>
+      <c r="CQ260" s="36">
+        <v>0.10101609354136172</v>
+      </c>
+      <c r="CR260" s="36">
+        <v>0.22115825782578732</v>
+      </c>
       <c r="CS260" s="9"/>
       <c r="CT260" s="9"/>
       <c r="CU260" s="9"/>
@@ -59992,25 +60342,27 @@
       <c r="CK261" s="23">
         <v>0.18923344508527395</v>
       </c>
-      <c r="CL261" s="23">
+      <c r="CL261" s="36">
         <v>9.4545178463793095E-2</v>
       </c>
-      <c r="CM261" s="23">
+      <c r="CM261" s="36">
         <v>4.6184835888855545E-2</v>
       </c>
-      <c r="CN261" s="23">
+      <c r="CN261" s="36">
         <v>0.19510221581366893</v>
       </c>
-      <c r="CO261" s="23">
+      <c r="CO261" s="36">
         <v>0.23535831317279668</v>
       </c>
-      <c r="CP261" s="23">
+      <c r="CP261" s="36">
         <v>8.6406957283407262E-2</v>
       </c>
-      <c r="CQ261" s="23">
-        <v>4.9707789596694828E-2</v>
-      </c>
-      <c r="CR261" s="9"/>
+      <c r="CQ261" s="36">
+        <v>4.7220978076406031E-2</v>
+      </c>
+      <c r="CR261" s="36">
+        <v>0.17453929068327054</v>
+      </c>
       <c r="CS261" s="9"/>
       <c r="CT261" s="9"/>
       <c r="CU261" s="9"/>
@@ -60336,25 +60688,27 @@
       <c r="CK262" s="23">
         <v>1.4338685288419544</v>
       </c>
-      <c r="CL262" s="23">
+      <c r="CL262" s="36">
         <v>0.95878542934194622</v>
       </c>
-      <c r="CM262" s="23">
+      <c r="CM262" s="36">
         <v>0.31257752787051524</v>
       </c>
-      <c r="CN262" s="23">
+      <c r="CN262" s="36">
         <v>0.88112785962071627</v>
       </c>
-      <c r="CO262" s="23">
+      <c r="CO262" s="36">
         <v>1.3057763751206408</v>
       </c>
-      <c r="CP262" s="23">
+      <c r="CP262" s="36">
         <v>0.87175813500140853</v>
       </c>
-      <c r="CQ262" s="23">
-        <v>0.25090227480200022</v>
-      </c>
-      <c r="CR262" s="9"/>
+      <c r="CQ262" s="36">
+        <v>0.25030037698734275</v>
+      </c>
+      <c r="CR262" s="36">
+        <v>0.96147713481365837</v>
+      </c>
       <c r="CS262" s="9"/>
       <c r="CT262" s="9"/>
       <c r="CU262" s="9"/>
@@ -60680,25 +61034,27 @@
       <c r="CK263" s="23">
         <v>8.7709148951106641</v>
       </c>
-      <c r="CL263" s="23">
+      <c r="CL263" s="36">
         <v>9.6268730303761796</v>
       </c>
-      <c r="CM263" s="23">
+      <c r="CM263" s="36">
         <v>7.085934331947688</v>
       </c>
-      <c r="CN263" s="23">
+      <c r="CN263" s="36">
         <v>5.9813624303401269</v>
       </c>
-      <c r="CO263" s="23">
+      <c r="CO263" s="36">
         <v>6.8608367683494693</v>
       </c>
-      <c r="CP263" s="23">
+      <c r="CP263" s="36">
         <v>7.7922487668997338</v>
       </c>
-      <c r="CQ263" s="23">
-        <v>6.9878230685065752</v>
-      </c>
-      <c r="CR263" s="9"/>
+      <c r="CQ263" s="36">
+        <v>7.003566823261596</v>
+      </c>
+      <c r="CR263" s="36">
+        <v>4.9661627650454925</v>
+      </c>
       <c r="CS263" s="9"/>
       <c r="CT263" s="9"/>
       <c r="CU263" s="9"/>
@@ -61024,25 +61380,27 @@
       <c r="CK264" s="23">
         <v>0.71924002245879437</v>
       </c>
-      <c r="CL264" s="23">
+      <c r="CL264" s="36">
         <v>0.20246069167383623</v>
       </c>
-      <c r="CM264" s="23">
+      <c r="CM264" s="36">
         <v>8.366307818740723E-2</v>
       </c>
-      <c r="CN264" s="23">
+      <c r="CN264" s="36">
         <v>0.1604118831004325</v>
       </c>
-      <c r="CO264" s="23">
+      <c r="CO264" s="36">
         <v>0.5078509518182085</v>
       </c>
-      <c r="CP264" s="23">
+      <c r="CP264" s="36">
         <v>0.26708010854801967</v>
       </c>
-      <c r="CQ264" s="23">
-        <v>0.11325695453155929</v>
-      </c>
-      <c r="CR264" s="9"/>
+      <c r="CQ264" s="36">
+        <v>0.11217887729157061</v>
+      </c>
+      <c r="CR264" s="36">
+        <v>0.31449644455637693</v>
+      </c>
       <c r="CS264" s="9"/>
       <c r="CT264" s="9"/>
       <c r="CU264" s="9"/>
@@ -61368,25 +61726,27 @@
       <c r="CK265" s="23">
         <v>4.0316342754080994</v>
       </c>
-      <c r="CL265" s="23">
+      <c r="CL265" s="36">
         <v>2.5487008108554035</v>
       </c>
-      <c r="CM265" s="23">
+      <c r="CM265" s="36">
         <v>1.1740767106348553</v>
       </c>
-      <c r="CN265" s="23">
+      <c r="CN265" s="36">
         <v>3.0476670594170767</v>
       </c>
-      <c r="CO265" s="23">
+      <c r="CO265" s="36">
         <v>3.557381780605041</v>
       </c>
-      <c r="CP265" s="23">
+      <c r="CP265" s="36">
         <v>1.9130722755496661</v>
       </c>
-      <c r="CQ265" s="23">
-        <v>0.73096191987915893</v>
-      </c>
-      <c r="CR265" s="9"/>
+      <c r="CQ265" s="36">
+        <v>0.70664301457179379</v>
+      </c>
+      <c r="CR265" s="36">
+        <v>2.1746645770732944</v>
+      </c>
       <c r="CS265" s="9"/>
       <c r="CT265" s="9"/>
       <c r="CU265" s="9"/>
@@ -61712,25 +62072,27 @@
       <c r="CK266" s="23">
         <v>16.213064461994026</v>
       </c>
-      <c r="CL266" s="23">
+      <c r="CL266" s="36">
         <v>15.454108227826113</v>
       </c>
-      <c r="CM266" s="23">
+      <c r="CM266" s="36">
         <v>13.311345977488772</v>
       </c>
-      <c r="CN266" s="23">
+      <c r="CN266" s="36">
         <v>19.483181617773287</v>
       </c>
-      <c r="CO266" s="23">
+      <c r="CO266" s="36">
         <v>18.974053532241584</v>
       </c>
-      <c r="CP266" s="23">
+      <c r="CP266" s="36">
         <v>15.416880828077758</v>
       </c>
-      <c r="CQ266" s="23">
-        <v>13.645370340002176</v>
-      </c>
-      <c r="CR266" s="9"/>
+      <c r="CQ266" s="36">
+        <v>13.619214765828394</v>
+      </c>
+      <c r="CR266" s="36">
+        <v>19.22473433473451</v>
+      </c>
       <c r="CS266" s="9"/>
       <c r="CT266" s="9"/>
       <c r="CU266" s="9"/>
@@ -62056,25 +62418,27 @@
       <c r="CK267" s="23">
         <v>3.273828999670175</v>
       </c>
-      <c r="CL267" s="23">
+      <c r="CL267" s="36">
         <v>2.5678347679167639</v>
       </c>
-      <c r="CM267" s="23">
+      <c r="CM267" s="36">
         <v>2.5719774213154714</v>
       </c>
-      <c r="CN267" s="23">
+      <c r="CN267" s="36">
         <v>3.0666407434800922</v>
       </c>
-      <c r="CO267" s="23">
+      <c r="CO267" s="36">
         <v>3.4096386625753392</v>
       </c>
-      <c r="CP267" s="23">
+      <c r="CP267" s="36">
         <v>2.4135507072072442</v>
       </c>
-      <c r="CQ267" s="23">
-        <v>2.2718505290705382</v>
-      </c>
-      <c r="CR267" s="9"/>
+      <c r="CQ267" s="36">
+        <v>2.2775100312683585</v>
+      </c>
+      <c r="CR267" s="36">
+        <v>2.714929599631561</v>
+      </c>
       <c r="CS267" s="9"/>
       <c r="CT267" s="9"/>
       <c r="CU267" s="9"/>
@@ -62400,25 +62764,27 @@
       <c r="CK268" s="23">
         <v>1.8435608951080078</v>
       </c>
-      <c r="CL268" s="23">
+      <c r="CL268" s="36">
         <v>1.5009875378777431</v>
       </c>
-      <c r="CM268" s="23">
+      <c r="CM268" s="36">
         <v>1.5019437522178971</v>
       </c>
-      <c r="CN268" s="23">
+      <c r="CN268" s="36">
         <v>1.7595167800461178</v>
       </c>
-      <c r="CO268" s="23">
+      <c r="CO268" s="36">
         <v>2.0581225699364842</v>
       </c>
-      <c r="CP268" s="23">
+      <c r="CP268" s="36">
         <v>1.5981998661456025</v>
       </c>
-      <c r="CQ268" s="23">
-        <v>1.5111165524687782</v>
-      </c>
-      <c r="CR268" s="9"/>
+      <c r="CQ268" s="36">
+        <v>1.5150006287619413</v>
+      </c>
+      <c r="CR268" s="36">
+        <v>1.787542927277799</v>
+      </c>
       <c r="CS268" s="9"/>
       <c r="CT268" s="9"/>
       <c r="CU268" s="9"/>
@@ -62744,25 +63110,27 @@
       <c r="CK269" s="23">
         <v>4.0172153452225894</v>
       </c>
-      <c r="CL269" s="23">
+      <c r="CL269" s="36">
         <v>3.6144807823377962</v>
       </c>
-      <c r="CM269" s="23">
+      <c r="CM269" s="36">
         <v>3.4936282588017993</v>
       </c>
-      <c r="CN269" s="23">
+      <c r="CN269" s="36">
         <v>7.7889293610413173</v>
       </c>
-      <c r="CO269" s="23">
+      <c r="CO269" s="36">
         <v>5.9637582807487046</v>
       </c>
-      <c r="CP269" s="23">
+      <c r="CP269" s="36">
         <v>5.4619439555514804</v>
       </c>
-      <c r="CQ269" s="23">
-        <v>5.3308084518228638</v>
-      </c>
-      <c r="CR269" s="9"/>
+      <c r="CQ269" s="36">
+        <v>5.2772766540666902</v>
+      </c>
+      <c r="CR269" s="36">
+        <v>8.9075747892529318</v>
+      </c>
       <c r="CS269" s="9"/>
       <c r="CT269" s="9"/>
       <c r="CU269" s="9"/>
@@ -63088,25 +63456,27 @@
       <c r="CK270" s="23">
         <v>7.0784592219932536</v>
       </c>
-      <c r="CL270" s="23">
+      <c r="CL270" s="36">
         <v>7.7708051396938096</v>
       </c>
-      <c r="CM270" s="23">
+      <c r="CM270" s="36">
         <v>5.7437965451536046</v>
       </c>
-      <c r="CN270" s="23">
+      <c r="CN270" s="36">
         <v>6.8680947332057585</v>
       </c>
-      <c r="CO270" s="23">
+      <c r="CO270" s="36">
         <v>7.5425340189810548</v>
       </c>
-      <c r="CP270" s="23">
+      <c r="CP270" s="36">
         <v>5.9431862991734308</v>
       </c>
-      <c r="CQ270" s="23">
-        <v>4.5315948066399967</v>
-      </c>
-      <c r="CR270" s="9"/>
+      <c r="CQ270" s="36">
+        <v>4.5494274517314057</v>
+      </c>
+      <c r="CR270" s="36">
+        <v>5.8146870185722168</v>
+      </c>
       <c r="CS270" s="9"/>
       <c r="CT270" s="9"/>
       <c r="CU270" s="9"/>
@@ -63432,25 +63802,27 @@
       <c r="CK271" s="23">
         <v>46.24748043484135</v>
       </c>
-      <c r="CL271" s="23">
+      <c r="CL271" s="36">
         <v>50.314760944539771</v>
       </c>
-      <c r="CM271" s="23">
+      <c r="CM271" s="36">
         <v>50.803053659598838</v>
       </c>
-      <c r="CN271" s="23">
+      <c r="CN271" s="36">
         <v>49.242608621183727</v>
       </c>
-      <c r="CO271" s="23">
+      <c r="CO271" s="36">
         <v>48.367427192743008</v>
       </c>
-      <c r="CP271" s="23">
+      <c r="CP271" s="36">
         <v>52.851184433333906</v>
       </c>
-      <c r="CQ271" s="23">
-        <v>53.593220322969159</v>
-      </c>
-      <c r="CR271" s="9"/>
+      <c r="CQ271" s="36">
+        <v>53.727498975519929</v>
+      </c>
+      <c r="CR271" s="36">
+        <v>52.94908656722717</v>
+      </c>
       <c r="CS271" s="9"/>
       <c r="CT271" s="9"/>
       <c r="CU271" s="9"/>
@@ -63776,25 +64148,27 @@
       <c r="CK272" s="23">
         <v>38.786171209830727</v>
       </c>
-      <c r="CL272" s="23">
+      <c r="CL272" s="36">
         <v>43.163754666057237</v>
       </c>
-      <c r="CM272" s="23">
+      <c r="CM272" s="36">
         <v>42.431530735086568</v>
       </c>
-      <c r="CN272" s="23">
+      <c r="CN272" s="36">
         <v>45.987484252702053</v>
       </c>
-      <c r="CO272" s="23">
+      <c r="CO272" s="36">
         <v>45.472712394108079</v>
       </c>
-      <c r="CP272" s="23">
+      <c r="CP272" s="36">
         <v>49.510918849267995</v>
       </c>
-      <c r="CQ272" s="23">
-        <v>46.31342855066017</v>
-      </c>
-      <c r="CR272" s="9"/>
+      <c r="CQ272" s="36">
+        <v>46.435328051864794</v>
+      </c>
+      <c r="CR272" s="36">
+        <v>49.486616334872849</v>
+      </c>
       <c r="CS272" s="9"/>
       <c r="CT272" s="9"/>
       <c r="CU272" s="9"/>
@@ -64120,25 +64494,27 @@
       <c r="CK273" s="23">
         <v>0.97507068791268114</v>
       </c>
-      <c r="CL273" s="23">
+      <c r="CL273" s="36">
         <v>0.52477995224046059</v>
       </c>
-      <c r="CM273" s="23">
+      <c r="CM273" s="36">
         <v>0.34945788502588138</v>
       </c>
-      <c r="CN273" s="23">
+      <c r="CN273" s="36">
         <v>1.5012281153202679E-2</v>
       </c>
-      <c r="CO273" s="23">
+      <c r="CO273" s="36">
         <v>3.6217891494582564E-3</v>
       </c>
-      <c r="CP273" s="23">
+      <c r="CP273" s="36">
         <v>5.8406840267713929E-3</v>
       </c>
-      <c r="CQ273" s="23">
-        <v>2.4708062913256449E-3</v>
-      </c>
-      <c r="CR273" s="9"/>
+      <c r="CQ273" s="36">
+        <v>2.4281463796623553E-3</v>
+      </c>
+      <c r="CR273" s="36">
+        <v>3.9531584800416459E-4</v>
+      </c>
       <c r="CS273" s="9"/>
       <c r="CT273" s="9"/>
       <c r="CU273" s="9"/>
@@ -64464,25 +64840,27 @@
       <c r="CK274" s="23">
         <v>5.9052728313827174</v>
       </c>
-      <c r="CL274" s="23">
+      <c r="CL274" s="36">
         <v>4.2735220347393685</v>
       </c>
-      <c r="CM274" s="23">
+      <c r="CM274" s="36">
         <v>3.6080815237895179</v>
       </c>
-      <c r="CN274" s="23">
+      <c r="CN274" s="36">
         <v>1.5235833810087815</v>
       </c>
-      <c r="CO274" s="23">
+      <c r="CO274" s="36">
         <v>1.5394154248311571</v>
       </c>
-      <c r="CP274" s="23">
+      <c r="CP274" s="36">
         <v>1.8048299379749611</v>
       </c>
-      <c r="CQ274" s="23">
-        <v>3.9950039463813605</v>
-      </c>
-      <c r="CR274" s="9"/>
+      <c r="CQ274" s="36">
+        <v>4.0008451467913151</v>
+      </c>
+      <c r="CR274" s="36">
+        <v>2.6035309731223708</v>
+      </c>
       <c r="CS274" s="9"/>
       <c r="CT274" s="9"/>
       <c r="CU274" s="9"/>
@@ -64808,25 +65186,27 @@
       <c r="CK275" s="23">
         <v>0.58096570571521655</v>
       </c>
-      <c r="CL275" s="23">
+      <c r="CL275" s="36">
         <v>2.3527042915027088</v>
       </c>
-      <c r="CM275" s="23">
+      <c r="CM275" s="36">
         <v>4.4139835156968736</v>
       </c>
-      <c r="CN275" s="23">
+      <c r="CN275" s="36">
         <v>1.7165287063196852</v>
       </c>
-      <c r="CO275" s="23">
+      <c r="CO275" s="36">
         <v>1.3516775846543154</v>
       </c>
-      <c r="CP275" s="23">
+      <c r="CP275" s="36">
         <v>1.529594962064182</v>
       </c>
-      <c r="CQ275" s="23">
-        <v>3.2823170196363085</v>
-      </c>
-      <c r="CR275" s="9"/>
+      <c r="CQ275" s="36">
+        <v>3.2888976304841626</v>
+      </c>
+      <c r="CR275" s="36">
+        <v>0.85854394338394902</v>
+      </c>
       <c r="CS275" s="9"/>
       <c r="CT275" s="9"/>
       <c r="CU275" s="9"/>
@@ -65152,25 +65532,27 @@
       <c r="CK276" s="23">
         <v>14.454573230428212</v>
       </c>
-      <c r="CL276" s="23">
+      <c r="CL276" s="36">
         <v>17.429428777480034</v>
       </c>
-      <c r="CM276" s="23">
+      <c r="CM276" s="36">
         <v>25.802214259916489</v>
       </c>
-      <c r="CN276" s="23">
+      <c r="CN276" s="36">
         <v>16.1002709293602</v>
       </c>
-      <c r="CO276" s="23">
+      <c r="CO276" s="36">
         <v>13.69675863552694</v>
       </c>
-      <c r="CP276" s="23">
+      <c r="CP276" s="36">
         <v>17.137141021211885</v>
       </c>
-      <c r="CQ276" s="23">
-        <v>23.058232005988547</v>
-      </c>
-      <c r="CR276" s="9"/>
+      <c r="CQ276" s="36">
+        <v>22.963349703357459</v>
+      </c>
+      <c r="CR276" s="36">
+        <v>15.032908429537045</v>
+      </c>
       <c r="CS276" s="9"/>
       <c r="CT276" s="9"/>
       <c r="CU276" s="9"/>
@@ -65496,25 +65878,27 @@
       <c r="CK277" s="23">
         <v>0.84353345288033998</v>
       </c>
-      <c r="CL277" s="23">
+      <c r="CL277" s="36">
         <v>1.3987471998692718</v>
       </c>
-      <c r="CM277" s="23">
+      <c r="CM277" s="36">
         <v>2.2519313749982639</v>
       </c>
-      <c r="CN277" s="23">
+      <c r="CN277" s="36">
         <v>1.2356304184083955</v>
       </c>
-      <c r="CO277" s="23">
+      <c r="CO277" s="36">
         <v>1.1953693434742636</v>
       </c>
-      <c r="CP277" s="23">
+      <c r="CP277" s="36">
         <v>1.5786040240599042</v>
       </c>
-      <c r="CQ277" s="23">
-        <v>2.2858674695966799</v>
-      </c>
-      <c r="CR277" s="9"/>
+      <c r="CQ277" s="36">
+        <v>2.2599383631239847</v>
+      </c>
+      <c r="CR277" s="36">
+        <v>1.2135664681395741</v>
+      </c>
       <c r="CS277" s="9"/>
       <c r="CT277" s="9"/>
       <c r="CU277" s="9"/>
@@ -65840,25 +66224,27 @@
       <c r="CK278" s="23">
         <v>2.4168924945728918</v>
       </c>
-      <c r="CL278" s="23">
+      <c r="CL278" s="36">
         <v>3.4217620223566634</v>
       </c>
-      <c r="CM278" s="23">
+      <c r="CM278" s="36">
         <v>4.0266822647787732</v>
       </c>
-      <c r="CN278" s="23">
+      <c r="CN278" s="36">
         <v>2.0411907917546968</v>
       </c>
-      <c r="CO278" s="23">
+      <c r="CO278" s="36">
         <v>2.2798502621119159</v>
       </c>
-      <c r="CP278" s="23">
+      <c r="CP278" s="36">
         <v>3.2488688871750626</v>
       </c>
-      <c r="CQ278" s="23">
-        <v>4.7305517770374585</v>
-      </c>
-      <c r="CR278" s="9"/>
+      <c r="CQ278" s="36">
+        <v>4.6647305188613863</v>
+      </c>
+      <c r="CR278" s="36">
+        <v>2.1142637427106687</v>
+      </c>
       <c r="CS278" s="9"/>
       <c r="CT278" s="9"/>
       <c r="CU278" s="9"/>
@@ -66184,25 +66570,27 @@
       <c r="CK279" s="23">
         <v>7.7642421838679256</v>
       </c>
-      <c r="CL279" s="23">
+      <c r="CL279" s="36">
         <v>8.2559742152183979</v>
       </c>
-      <c r="CM279" s="23">
+      <c r="CM279" s="36">
         <v>14.234703092163963</v>
       </c>
-      <c r="CN279" s="23">
+      <c r="CN279" s="36">
         <v>9.6620322896961071</v>
       </c>
-      <c r="CO279" s="23">
+      <c r="CO279" s="36">
         <v>7.2935227924473951</v>
       </c>
-      <c r="CP279" s="23">
+      <c r="CP279" s="36">
         <v>8.0705342665077389</v>
       </c>
-      <c r="CQ279" s="23">
-        <v>11.83553278758526</v>
-      </c>
-      <c r="CR279" s="9"/>
+      <c r="CQ279" s="36">
+        <v>11.773906074920498</v>
+      </c>
+      <c r="CR279" s="36">
+        <v>9.3180339973565331</v>
+      </c>
       <c r="CS279" s="9"/>
       <c r="CT279" s="9"/>
       <c r="CU279" s="9"/>
@@ -66528,25 +66916,27 @@
       <c r="CK280" s="23">
         <v>3.4299050991070508</v>
       </c>
-      <c r="CL280" s="23">
+      <c r="CL280" s="36">
         <v>4.3529453400357001</v>
       </c>
-      <c r="CM280" s="23">
+      <c r="CM280" s="36">
         <v>5.2888975279754922</v>
       </c>
-      <c r="CN280" s="23">
+      <c r="CN280" s="36">
         <v>3.161417429501002</v>
       </c>
-      <c r="CO280" s="23">
+      <c r="CO280" s="36">
         <v>2.928016237493364</v>
       </c>
-      <c r="CP280" s="23">
+      <c r="CP280" s="36">
         <v>4.2391338434691788</v>
       </c>
-      <c r="CQ280" s="23">
-        <v>4.2062799717691499</v>
-      </c>
-      <c r="CR280" s="9"/>
+      <c r="CQ280" s="36">
+        <v>4.2647747464515877</v>
+      </c>
+      <c r="CR280" s="36">
+        <v>2.3870442213302692</v>
+      </c>
       <c r="CS280" s="9"/>
       <c r="CT280" s="9"/>
       <c r="CU280" s="9"/>
@@ -66693,13 +67083,13 @@
       <c r="CI281" s="9"/>
       <c r="CJ281" s="9"/>
       <c r="CK281" s="9"/>
-      <c r="CL281" s="9"/>
-      <c r="CM281" s="9"/>
-      <c r="CN281" s="9"/>
-      <c r="CO281" s="9"/>
-      <c r="CP281" s="9"/>
-      <c r="CQ281" s="9"/>
-      <c r="CR281" s="9"/>
+      <c r="CL281" s="31"/>
+      <c r="CM281" s="31"/>
+      <c r="CN281" s="31"/>
+      <c r="CO281" s="31"/>
+      <c r="CP281" s="31"/>
+      <c r="CQ281" s="31"/>
+      <c r="CR281" s="31"/>
       <c r="CS281" s="9"/>
       <c r="CT281" s="9"/>
       <c r="CU281" s="9"/>
@@ -67025,25 +67415,27 @@
       <c r="CK282" s="23">
         <v>100</v>
       </c>
-      <c r="CL282" s="23">
+      <c r="CL282" s="36">
         <v>100</v>
       </c>
-      <c r="CM282" s="23">
+      <c r="CM282" s="36">
         <v>100</v>
       </c>
-      <c r="CN282" s="23">
+      <c r="CN282" s="36">
         <v>100</v>
       </c>
-      <c r="CO282" s="23">
+      <c r="CO282" s="36">
         <v>100</v>
       </c>
-      <c r="CP282" s="23">
+      <c r="CP282" s="36">
         <v>100</v>
       </c>
-      <c r="CQ282" s="23">
+      <c r="CQ282" s="36">
         <v>100</v>
       </c>
-      <c r="CR282" s="9"/>
+      <c r="CR282" s="36">
+        <v>100</v>
+      </c>
       <c r="CS282" s="9"/>
       <c r="CT282" s="9"/>
       <c r="CU282" s="9"/>
@@ -67191,34 +67583,42 @@
       <c r="CI283" s="14"/>
       <c r="CJ283" s="14"/>
       <c r="CK283" s="14"/>
-      <c r="CL283" s="14"/>
-      <c r="CM283" s="14"/>
-      <c r="CN283" s="14"/>
-      <c r="CO283" s="14"/>
-      <c r="CP283" s="14"/>
-      <c r="CQ283" s="14"/>
+      <c r="CL283" s="33"/>
+      <c r="CM283" s="33"/>
+      <c r="CN283" s="33"/>
+      <c r="CO283" s="33"/>
+      <c r="CP283" s="33"/>
+      <c r="CQ283" s="33"/>
+      <c r="CR283" s="33"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="285" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CL285" s="31"/>
+      <c r="CM285" s="31"/>
+      <c r="CN285" s="31"/>
+      <c r="CO285" s="31"/>
+      <c r="CP285" s="31"/>
+      <c r="CQ285" s="31"/>
+      <c r="CR285" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP50:CQ50"/>
-    <mergeCell ref="CP172:CQ172"/>
-    <mergeCell ref="CP213:CQ213"/>
-    <mergeCell ref="CP254:CQ254"/>
-    <mergeCell ref="CL91:CO91"/>
-    <mergeCell ref="CP91:CQ91"/>
-    <mergeCell ref="CL132:CO132"/>
-    <mergeCell ref="CP132:CQ132"/>
+  <mergeCells count="166">
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL50:CO50"/>
     <mergeCell ref="CL172:CO172"/>
     <mergeCell ref="CL213:CO213"/>
     <mergeCell ref="CL254:CO254"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP50:CR50"/>
+    <mergeCell ref="CL91:CN91"/>
+    <mergeCell ref="CL132:CN132"/>
+    <mergeCell ref="CP172:CR172"/>
+    <mergeCell ref="CP213:CR213"/>
+    <mergeCell ref="CP254:CR254"/>
     <mergeCell ref="CH91:CK91"/>
     <mergeCell ref="CD132:CG132"/>
     <mergeCell ref="CH172:CK172"/>
@@ -67378,12 +67778,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="94" man="1"/>
-    <brk id="82" max="94" man="1"/>
-    <brk id="123" max="94" man="1"/>
-    <brk id="164" max="94" man="1"/>
-    <brk id="204" max="94" man="1"/>
-    <brk id="245" max="94" man="1"/>
+    <brk id="41" max="95" man="1"/>
+    <brk id="82" max="95" man="1"/>
+    <brk id="123" max="95" man="1"/>
+    <brk id="164" max="95" man="1"/>
+    <brk id="204" max="95" man="1"/>
+    <brk id="245" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564DB6BC-24E7-4F6E-9AE3-6C2C533CE61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E020404F-E673-462F-B559-A7A3543F92D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CR$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CS$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="76">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -264,13 +264,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,20 +408,18 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,9 +462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -504,7 +502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -610,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -752,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,7 +768,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CQ6" sqref="CQ6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -782,9 +780,8 @@
     <col min="21" max="21" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
-    <col min="74" max="89" width="9.21875" style="1" customWidth="1"/>
-    <col min="90" max="96" width="10.21875" style="28" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="74" max="97" width="9.21875" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -799,7 +796,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -809,7 +806,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -819,149 +816,150 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="38">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="38"/>
-      <c r="BJ9" s="38">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="38"/>
-      <c r="BL9" s="38"/>
-      <c r="BM9" s="38"/>
-      <c r="BN9" s="38">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="38"/>
-      <c r="BP9" s="38"/>
-      <c r="BQ9" s="38"/>
-      <c r="BR9" s="38">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="38"/>
-      <c r="BT9" s="38"/>
-      <c r="BU9" s="38"/>
-      <c r="BV9" s="38">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="38"/>
-      <c r="BX9" s="38"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="32">
         <v>2021</v>
       </c>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="37">
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
+      <c r="CL9" s="28">
         <v>2022</v>
       </c>
-      <c r="CM9" s="37"/>
-      <c r="CN9" s="37"/>
-      <c r="CO9" s="37"/>
-      <c r="CP9" s="37">
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="28"/>
+      <c r="CP9" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="37"/>
-      <c r="CR9" s="37"/>
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="28"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1231,26 +1229,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="17" t="s">
+      <c r="CL10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CM10" s="17" t="s">
+      <c r="CM10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CN10" s="17" t="s">
+      <c r="CN10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CO10" s="17" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="17" t="s">
+      <c r="CP10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="17" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="17" t="s">
+      <c r="CR10" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1524,28 +1525,30 @@
       <c r="CK12" s="25">
         <v>58275.074193118606</v>
       </c>
-      <c r="CL12" s="29">
+      <c r="CL12" s="25">
         <v>62127.065395262369</v>
       </c>
-      <c r="CM12" s="29">
+      <c r="CM12" s="25">
         <v>49334.66666877734</v>
       </c>
-      <c r="CN12" s="29">
+      <c r="CN12" s="25">
         <v>41442.460552130084</v>
       </c>
-      <c r="CO12" s="29">
+      <c r="CO12" s="25">
         <v>56443.883811741136</v>
       </c>
-      <c r="CP12" s="29">
+      <c r="CP12" s="25">
         <v>63827.335203808274</v>
       </c>
-      <c r="CQ12" s="29">
+      <c r="CQ12" s="25">
         <v>51307.74633952367</v>
       </c>
-      <c r="CR12" s="29">
-        <v>38455.088355973756</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="25">
+        <v>38150.066884643828</v>
+      </c>
+      <c r="CS12" s="25">
+        <v>56786.051565659232</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -1870,28 +1873,30 @@
       <c r="CK13" s="26">
         <v>4316.9027270498527</v>
       </c>
-      <c r="CL13" s="30">
+      <c r="CL13" s="26">
         <v>2501.1893205300003</v>
       </c>
-      <c r="CM13" s="30">
+      <c r="CM13" s="26">
         <v>2438.1245430334579</v>
       </c>
-      <c r="CN13" s="30">
+      <c r="CN13" s="26">
         <v>2966.1475999427439</v>
       </c>
-      <c r="CO13" s="30">
+      <c r="CO13" s="26">
         <v>2853.8755453337226</v>
       </c>
-      <c r="CP13" s="30">
+      <c r="CP13" s="26">
         <v>2970.3059336073388</v>
       </c>
-      <c r="CQ13" s="30">
+      <c r="CQ13" s="26">
         <v>3597.6289190189041</v>
       </c>
-      <c r="CR13" s="30">
-        <v>3652.702654410683</v>
-      </c>
-      <c r="CS13" s="9"/>
+      <c r="CR13" s="26">
+        <v>3653.229276939755</v>
+      </c>
+      <c r="CS13" s="26">
+        <v>4860.3903697026099</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -2216,28 +2221,30 @@
       <c r="CK14" s="26">
         <v>11126.761917937496</v>
       </c>
-      <c r="CL14" s="30">
+      <c r="CL14" s="26">
         <v>9501.003038080893</v>
       </c>
-      <c r="CM14" s="30">
+      <c r="CM14" s="26">
         <v>9312.2803256344141</v>
       </c>
-      <c r="CN14" s="30">
+      <c r="CN14" s="26">
         <v>10323.553975386678</v>
       </c>
-      <c r="CO14" s="30">
+      <c r="CO14" s="26">
         <v>12378.839759178214</v>
       </c>
-      <c r="CP14" s="30">
+      <c r="CP14" s="26">
         <v>12874.866997148456</v>
       </c>
-      <c r="CQ14" s="30">
+      <c r="CQ14" s="26">
         <v>13163.886784852473</v>
       </c>
-      <c r="CR14" s="30">
-        <v>8315.0911460550815</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="26">
+        <v>8260.2650705115375</v>
+      </c>
+      <c r="CS14" s="26">
+        <v>8689.1577473935249</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -2562,28 +2569,30 @@
       <c r="CK15" s="26">
         <v>765.09616809140095</v>
       </c>
-      <c r="CL15" s="30">
+      <c r="CL15" s="26">
         <v>650.43149024144066</v>
       </c>
-      <c r="CM15" s="30">
+      <c r="CM15" s="26">
         <v>698.64256169906594</v>
       </c>
-      <c r="CN15" s="30">
+      <c r="CN15" s="26">
         <v>729.30421650781761</v>
       </c>
-      <c r="CO15" s="30">
+      <c r="CO15" s="26">
         <v>939.38620247191375</v>
       </c>
-      <c r="CP15" s="30">
+      <c r="CP15" s="26">
         <v>703.96510234692232</v>
       </c>
-      <c r="CQ15" s="30">
+      <c r="CQ15" s="26">
         <v>877.01483033711406</v>
       </c>
-      <c r="CR15" s="30">
-        <v>637.6612104202004</v>
-      </c>
-      <c r="CS15" s="9"/>
+      <c r="CR15" s="26">
+        <v>641.41434410439558</v>
+      </c>
+      <c r="CS15" s="26">
+        <v>1109.6090822642591</v>
+      </c>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
@@ -2908,28 +2917,30 @@
       <c r="CK16" s="26">
         <v>440.91479025937576</v>
       </c>
-      <c r="CL16" s="30">
+      <c r="CL16" s="26">
         <v>423.35151375127072</v>
       </c>
-      <c r="CM16" s="30">
+      <c r="CM16" s="26">
         <v>376.20606291950469</v>
       </c>
-      <c r="CN16" s="30">
+      <c r="CN16" s="26">
         <v>563.01185576389378</v>
       </c>
-      <c r="CO16" s="30">
+      <c r="CO16" s="26">
         <v>615.82817693625566</v>
       </c>
-      <c r="CP16" s="30">
+      <c r="CP16" s="26">
         <v>457.86235817281693</v>
       </c>
-      <c r="CQ16" s="30">
+      <c r="CQ16" s="26">
         <v>487.94065427549424</v>
       </c>
-      <c r="CR16" s="30">
-        <v>527.91428425331162</v>
-      </c>
-      <c r="CS16" s="9"/>
+      <c r="CR16" s="26">
+        <v>528.5356682633718</v>
+      </c>
+      <c r="CS16" s="26">
+        <v>562.06435552005973</v>
+      </c>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
@@ -3254,28 +3265,30 @@
       <c r="CK17" s="26">
         <v>2999.8221527660235</v>
       </c>
-      <c r="CL17" s="30">
+      <c r="CL17" s="26">
         <v>3748.701186385681</v>
       </c>
-      <c r="CM17" s="30">
+      <c r="CM17" s="26">
         <v>2833.3985227820776</v>
       </c>
-      <c r="CN17" s="30">
+      <c r="CN17" s="26">
         <v>2597.6599899346902</v>
       </c>
-      <c r="CO17" s="30">
+      <c r="CO17" s="26">
         <v>3318.4071925493995</v>
       </c>
-      <c r="CP17" s="30">
+      <c r="CP17" s="26">
         <v>4115.6372439833813</v>
       </c>
-      <c r="CQ17" s="30">
+      <c r="CQ17" s="26">
         <v>2781.3848062650877</v>
       </c>
-      <c r="CR17" s="30">
-        <v>2979.9742469896255</v>
-      </c>
-      <c r="CS17" s="9"/>
+      <c r="CR17" s="26">
+        <v>2973.2535717254846</v>
+      </c>
+      <c r="CS17" s="26">
+        <v>2903.7258284751879</v>
+      </c>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
@@ -3600,28 +3613,30 @@
       <c r="CK18" s="26">
         <v>27696.613856543641</v>
       </c>
-      <c r="CL18" s="30">
+      <c r="CL18" s="26">
         <v>34737.260755101379</v>
       </c>
-      <c r="CM18" s="30">
+      <c r="CM18" s="26">
         <v>24233.83039362252</v>
       </c>
-      <c r="CN18" s="30">
+      <c r="CN18" s="26">
         <v>15206.00093161609</v>
       </c>
-      <c r="CO18" s="30">
+      <c r="CO18" s="26">
         <v>25689.646573083148</v>
       </c>
-      <c r="CP18" s="30">
+      <c r="CP18" s="26">
         <v>33052.192049832804</v>
       </c>
-      <c r="CQ18" s="30">
+      <c r="CQ18" s="26">
         <v>23444.908804291332</v>
       </c>
-      <c r="CR18" s="30">
-        <v>15147.210502169059</v>
-      </c>
-      <c r="CS18" s="9"/>
+      <c r="CR18" s="26">
+        <v>14939.177528761513</v>
+      </c>
+      <c r="CS18" s="26">
+        <v>28073.436803402503</v>
+      </c>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
@@ -3946,28 +3961,30 @@
       <c r="CK19" s="26">
         <v>1432.1198854110951</v>
       </c>
-      <c r="CL19" s="30">
+      <c r="CL19" s="26">
         <v>742.23927768370243</v>
       </c>
-      <c r="CM19" s="30">
+      <c r="CM19" s="26">
         <v>723.31973542125149</v>
       </c>
-      <c r="CN19" s="30">
+      <c r="CN19" s="26">
         <v>449.78254081928537</v>
       </c>
-      <c r="CO19" s="30">
+      <c r="CO19" s="26">
         <v>1235.3037827320438</v>
       </c>
-      <c r="CP19" s="30">
+      <c r="CP19" s="26">
         <v>1178.2053618372445</v>
       </c>
-      <c r="CQ19" s="30">
+      <c r="CQ19" s="26">
         <v>1229.636738677985</v>
       </c>
-      <c r="CR19" s="30">
-        <v>929.54265194248501</v>
-      </c>
-      <c r="CS19" s="9"/>
+      <c r="CR19" s="26">
+        <v>926.67802306630699</v>
+      </c>
+      <c r="CS19" s="26">
+        <v>1062.3330380816756</v>
+      </c>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
@@ -4292,28 +4309,30 @@
       <c r="CK20" s="26">
         <v>9496.8426950597295</v>
       </c>
-      <c r="CL20" s="30">
+      <c r="CL20" s="26">
         <v>9822.8888134880017</v>
       </c>
-      <c r="CM20" s="30">
+      <c r="CM20" s="26">
         <v>8718.86452366505</v>
       </c>
-      <c r="CN20" s="30">
+      <c r="CN20" s="26">
         <v>8606.999442158889</v>
       </c>
-      <c r="CO20" s="30">
+      <c r="CO20" s="26">
         <v>9412.5965794564363</v>
       </c>
-      <c r="CP20" s="30">
+      <c r="CP20" s="26">
         <v>8474.3001568793097</v>
       </c>
-      <c r="CQ20" s="30">
+      <c r="CQ20" s="26">
         <v>5725.3448018052832</v>
       </c>
-      <c r="CR20" s="30">
-        <v>6264.9916597333086</v>
-      </c>
-      <c r="CS20" s="9"/>
+      <c r="CR20" s="26">
+        <v>6227.5134012714607</v>
+      </c>
+      <c r="CS20" s="26">
+        <v>9525.334340819416</v>
+      </c>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
@@ -4638,28 +4657,30 @@
       <c r="CK21" s="25">
         <v>47395.956823974513</v>
       </c>
-      <c r="CL21" s="29">
+      <c r="CL21" s="25">
         <v>55164.47460116852</v>
       </c>
-      <c r="CM21" s="29">
+      <c r="CM21" s="25">
         <v>49118.606042486688</v>
       </c>
-      <c r="CN21" s="29">
+      <c r="CN21" s="25">
         <v>57879.628408538163</v>
       </c>
-      <c r="CO21" s="29">
+      <c r="CO21" s="25">
         <v>63024.81368645811</v>
       </c>
-      <c r="CP21" s="29">
+      <c r="CP21" s="25">
         <v>65728.712004918722</v>
       </c>
-      <c r="CQ21" s="29">
+      <c r="CQ21" s="25">
         <v>59185.621486900272</v>
       </c>
-      <c r="CR21" s="29">
-        <v>59961.564644380414</v>
-      </c>
-      <c r="CS21" s="9"/>
+      <c r="CR21" s="25">
+        <v>60399.009946562379</v>
+      </c>
+      <c r="CS21" s="25">
+        <v>64878.242037280754</v>
+      </c>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
       <c r="CV21" s="9"/>
@@ -4984,28 +5005,30 @@
       <c r="CK22" s="26">
         <v>10008.565084635895</v>
       </c>
-      <c r="CL22" s="30">
+      <c r="CL22" s="26">
         <v>9628.082742530145</v>
       </c>
-      <c r="CM22" s="30">
+      <c r="CM22" s="26">
         <v>9920.8941364997227</v>
       </c>
-      <c r="CN22" s="30">
+      <c r="CN22" s="26">
         <v>9169.3899887965817</v>
       </c>
-      <c r="CO22" s="30">
+      <c r="CO22" s="26">
         <v>11983.373548752726</v>
       </c>
-      <c r="CP22" s="30">
+      <c r="CP22" s="26">
         <v>10506.337977294261</v>
       </c>
-      <c r="CQ22" s="30">
+      <c r="CQ22" s="26">
         <v>10762.718353853836</v>
       </c>
-      <c r="CR22" s="30">
-        <v>8480.9739984068547</v>
-      </c>
-      <c r="CS22" s="9"/>
+      <c r="CR22" s="26">
+        <v>8486.2489875008432</v>
+      </c>
+      <c r="CS22" s="26">
+        <v>12874.900379920968</v>
+      </c>
       <c r="CT22" s="9"/>
       <c r="CU22" s="9"/>
       <c r="CV22" s="9"/>
@@ -5330,28 +5353,30 @@
       <c r="CK23" s="26">
         <v>5483.9249386943147</v>
       </c>
-      <c r="CL23" s="30">
+      <c r="CL23" s="26">
         <v>5639.4054154257592</v>
       </c>
-      <c r="CM23" s="30">
+      <c r="CM23" s="26">
         <v>5668.285123550173</v>
       </c>
-      <c r="CN23" s="30">
+      <c r="CN23" s="26">
         <v>5197.2327979966367</v>
       </c>
-      <c r="CO23" s="30">
+      <c r="CO23" s="26">
         <v>7346.2982822480926</v>
       </c>
-      <c r="CP23" s="30">
+      <c r="CP23" s="26">
         <v>7100.947127891739</v>
       </c>
-      <c r="CQ23" s="30">
+      <c r="CQ23" s="26">
         <v>7034.4385438167483</v>
       </c>
-      <c r="CR23" s="30">
-        <v>5605.8630661919124</v>
-      </c>
-      <c r="CS23" s="9"/>
+      <c r="CR23" s="26">
+        <v>5610.5047155505044</v>
+      </c>
+      <c r="CS23" s="26">
+        <v>7061.0677238300814</v>
+      </c>
       <c r="CT23" s="9"/>
       <c r="CU23" s="9"/>
       <c r="CV23" s="9"/>
@@ -5676,28 +5701,30 @@
       <c r="CK24" s="26">
         <v>12465.264015757841</v>
       </c>
-      <c r="CL24" s="30">
+      <c r="CL24" s="26">
         <v>13619.768968589058</v>
       </c>
-      <c r="CM24" s="30">
+      <c r="CM24" s="26">
         <v>13464.931485133506</v>
       </c>
-      <c r="CN24" s="30">
+      <c r="CN24" s="26">
         <v>24014.801496465923</v>
       </c>
-      <c r="CO24" s="30">
+      <c r="CO24" s="26">
         <v>22490.747102969784</v>
       </c>
-      <c r="CP24" s="30">
+      <c r="CP24" s="26">
         <v>25040.209031627099</v>
       </c>
-      <c r="CQ24" s="30">
+      <c r="CQ24" s="26">
         <v>22195.105133724737</v>
       </c>
-      <c r="CR24" s="30">
-        <v>28637.677280027667</v>
-      </c>
-      <c r="CS24" s="9"/>
+      <c r="CR24" s="26">
+        <v>28965.469795055586</v>
+      </c>
+      <c r="CS24" s="26">
+        <v>23659.967037119633</v>
+      </c>
       <c r="CT24" s="9"/>
       <c r="CU24" s="9"/>
       <c r="CV24" s="9"/>
@@ -6022,28 +6049,30 @@
       <c r="CK25" s="26">
         <v>19438.202784886464</v>
       </c>
-      <c r="CL25" s="30">
+      <c r="CL25" s="26">
         <v>26277.217474623558</v>
       </c>
-      <c r="CM25" s="30">
+      <c r="CM25" s="26">
         <v>20064.495297303285</v>
       </c>
-      <c r="CN25" s="30">
+      <c r="CN25" s="26">
         <v>19498.204125279019</v>
       </c>
-      <c r="CO25" s="30">
+      <c r="CO25" s="26">
         <v>21204.394752487504</v>
       </c>
-      <c r="CP25" s="30">
+      <c r="CP25" s="26">
         <v>23081.217868105632</v>
       </c>
-      <c r="CQ25" s="30">
+      <c r="CQ25" s="26">
         <v>19193.359455504949</v>
       </c>
-      <c r="CR25" s="30">
-        <v>17237.050299753981</v>
-      </c>
-      <c r="CS25" s="9"/>
+      <c r="CR25" s="26">
+        <v>17336.786448455445</v>
+      </c>
+      <c r="CS25" s="26">
+        <v>21282.306896410068</v>
+      </c>
       <c r="CT25" s="9"/>
       <c r="CU25" s="9"/>
       <c r="CV25" s="9"/>
@@ -6368,28 +6397,30 @@
       <c r="CK26" s="25">
         <v>132686.72850413472</v>
       </c>
-      <c r="CL26" s="29">
+      <c r="CL26" s="25">
         <v>163862.64855411998</v>
       </c>
-      <c r="CM26" s="29">
+      <c r="CM26" s="25">
         <v>145670.6522403901</v>
       </c>
-      <c r="CN26" s="29">
+      <c r="CN26" s="25">
         <v>162498.41427704878</v>
       </c>
-      <c r="CO26" s="29">
+      <c r="CO26" s="25">
         <v>161532.54019615345</v>
       </c>
-      <c r="CP26" s="29">
+      <c r="CP26" s="25">
         <v>194178.33039813107</v>
       </c>
-      <c r="CQ26" s="29">
+      <c r="CQ26" s="25">
         <v>185053.24995105079</v>
       </c>
-      <c r="CR26" s="29">
-        <v>177055.02613640853</v>
-      </c>
-      <c r="CS26" s="9"/>
+      <c r="CR26" s="25">
+        <v>177023.69995330498</v>
+      </c>
+      <c r="CS26" s="25">
+        <v>207494.62303415011</v>
+      </c>
       <c r="CT26" s="9"/>
       <c r="CU26" s="9"/>
       <c r="CV26" s="9"/>
@@ -6714,28 +6745,30 @@
       <c r="CK27" s="26">
         <v>109199.38588718358</v>
       </c>
-      <c r="CL27" s="30">
+      <c r="CL27" s="26">
         <v>136145.84524228523</v>
       </c>
-      <c r="CM27" s="30">
+      <c r="CM27" s="26">
         <v>122538.60684307599</v>
       </c>
-      <c r="CN27" s="30">
+      <c r="CN27" s="26">
         <v>150753.85957909332</v>
       </c>
-      <c r="CO27" s="30">
+      <c r="CO27" s="26">
         <v>150767.57828406111</v>
       </c>
-      <c r="CP27" s="30">
+      <c r="CP27" s="26">
         <v>178584.46983271994</v>
       </c>
-      <c r="CQ27" s="30">
+      <c r="CQ27" s="26">
         <v>159507.206500906</v>
       </c>
-      <c r="CR27" s="30">
-        <v>163441.54046812668</v>
-      </c>
-      <c r="CS27" s="9"/>
+      <c r="CR27" s="26">
+        <v>163372.76020328235</v>
+      </c>
+      <c r="CS27" s="26">
+        <v>170121.5102008986</v>
+      </c>
       <c r="CT27" s="9"/>
       <c r="CU27" s="9"/>
       <c r="CV27" s="9"/>
@@ -7060,28 +7093,30 @@
       <c r="CK28" s="26">
         <v>3164.2132441481908</v>
       </c>
-      <c r="CL28" s="30">
+      <c r="CL28" s="26">
         <v>1737.5034390340072</v>
       </c>
-      <c r="CM28" s="30">
+      <c r="CM28" s="26">
         <v>809.44314838159949</v>
       </c>
-      <c r="CN28" s="30">
+      <c r="CN28" s="26">
         <v>52.072454557178339</v>
       </c>
-      <c r="CO28" s="30">
+      <c r="CO28" s="26">
         <v>14.196752864451399</v>
       </c>
-      <c r="CP28" s="30">
+      <c r="CP28" s="26">
         <v>23.447549724681419</v>
       </c>
-      <c r="CQ28" s="30">
+      <c r="CQ28" s="26">
         <v>7.2774926011315166</v>
       </c>
-      <c r="CR28" s="30">
-        <v>1.4823427011729169</v>
-      </c>
-      <c r="CS28" s="9"/>
+      <c r="CR28" s="26">
+        <v>1.3101395044356217</v>
+      </c>
+      <c r="CS28" s="26">
+        <v>1199.2022699901338</v>
+      </c>
       <c r="CT28" s="9"/>
       <c r="CU28" s="9"/>
       <c r="CV28" s="9"/>
@@ -7406,28 +7441,30 @@
       <c r="CK29" s="26">
         <v>18605.757285374431</v>
       </c>
-      <c r="CL29" s="30">
+      <c r="CL29" s="26">
         <v>16475.704881461341</v>
       </c>
-      <c r="CM29" s="30">
+      <c r="CM29" s="26">
         <v>10090.867252894068</v>
       </c>
-      <c r="CN29" s="30">
+      <c r="CN29" s="26">
         <v>5730.9727403743063</v>
       </c>
-      <c r="CO29" s="30">
+      <c r="CO29" s="26">
         <v>5830.960525499645</v>
       </c>
-      <c r="CP29" s="30">
+      <c r="CP29" s="26">
         <v>8386.4712676988675</v>
       </c>
-      <c r="CQ29" s="30">
+      <c r="CQ29" s="26">
         <v>13975.247228703023</v>
       </c>
-      <c r="CR29" s="30">
-        <v>10599.42179039867</v>
-      </c>
-      <c r="CS29" s="9"/>
+      <c r="CR29" s="26">
+        <v>10599.692835244377</v>
+      </c>
+      <c r="CS29" s="26">
+        <v>27154.956889074037</v>
+      </c>
       <c r="CT29" s="9"/>
       <c r="CU29" s="9"/>
       <c r="CV29" s="9"/>
@@ -7752,28 +7789,30 @@
       <c r="CK30" s="26">
         <v>1717.3720874285057</v>
       </c>
-      <c r="CL30" s="30">
+      <c r="CL30" s="26">
         <v>9503.5949913393943</v>
       </c>
-      <c r="CM30" s="30">
+      <c r="CM30" s="26">
         <v>12231.734996038442</v>
       </c>
-      <c r="CN30" s="30">
+      <c r="CN30" s="26">
         <v>5961.5095030239891</v>
       </c>
-      <c r="CO30" s="30">
+      <c r="CO30" s="26">
         <v>4919.8046337282212</v>
       </c>
-      <c r="CP30" s="30">
+      <c r="CP30" s="26">
         <v>7183.9417479875801</v>
       </c>
-      <c r="CQ30" s="30">
+      <c r="CQ30" s="26">
         <v>11563.518728840636</v>
       </c>
-      <c r="CR30" s="30">
-        <v>3012.5815351820088</v>
-      </c>
-      <c r="CS30" s="9"/>
+      <c r="CR30" s="26">
+        <v>3049.9367752738162</v>
+      </c>
+      <c r="CS30" s="26">
+        <v>9018.9536741873198</v>
+      </c>
       <c r="CT30" s="9"/>
       <c r="CU30" s="9"/>
       <c r="CV30" s="9"/>
@@ -8098,28 +8137,30 @@
       <c r="CK31" s="25">
         <v>56618.734335055386</v>
       </c>
-      <c r="CL31" s="29">
+      <c r="CL31" s="25">
         <v>63028.405007964611</v>
       </c>
-      <c r="CM31" s="29">
+      <c r="CM31" s="25">
         <v>60068.699385092288</v>
       </c>
-      <c r="CN31" s="29">
+      <c r="CN31" s="25">
         <v>55866.361734870035</v>
       </c>
-      <c r="CO31" s="29">
+      <c r="CO31" s="25">
         <v>65979.141165391193</v>
       </c>
-      <c r="CP31" s="29">
+      <c r="CP31" s="25">
         <v>72424.990032967427</v>
       </c>
-      <c r="CQ31" s="29">
+      <c r="CQ31" s="25">
         <v>62539.639652930164</v>
       </c>
-      <c r="CR31" s="29">
-        <v>54001.577479359279</v>
-      </c>
-      <c r="CS31" s="9"/>
+      <c r="CR31" s="25">
+        <v>54009.097972343268</v>
+      </c>
+      <c r="CS31" s="25">
+        <v>68177.55804069266</v>
+      </c>
       <c r="CT31" s="9"/>
       <c r="CU31" s="9"/>
       <c r="CV31" s="9"/>
@@ -8444,28 +8485,30 @@
       <c r="CK32" s="26">
         <v>4754.4583843286655</v>
       </c>
-      <c r="CL32" s="30">
+      <c r="CL32" s="26">
         <v>4946.0125478368736</v>
       </c>
-      <c r="CM32" s="30">
+      <c r="CM32" s="26">
         <v>4558.1344266621727</v>
       </c>
-      <c r="CN32" s="30">
+      <c r="CN32" s="26">
         <v>5415.7208863220503</v>
       </c>
-      <c r="CO32" s="30">
+      <c r="CO32" s="26">
         <v>7911.8538094047499</v>
       </c>
-      <c r="CP32" s="30">
+      <c r="CP32" s="26">
         <v>6271.040959243328</v>
       </c>
-      <c r="CQ32" s="30">
+      <c r="CQ32" s="26">
         <v>5070.7656677641735</v>
       </c>
-      <c r="CR32" s="30">
-        <v>5126.9096703716932</v>
-      </c>
-      <c r="CS32" s="9"/>
+      <c r="CR32" s="26">
+        <v>5108.7343135746887</v>
+      </c>
+      <c r="CS32" s="26">
+        <v>7623.1102159938164</v>
+      </c>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
       <c r="CV32" s="9"/>
@@ -8790,28 +8833,30 @@
       <c r="CK33" s="26">
         <v>9007.1005952231462</v>
       </c>
-      <c r="CL33" s="30">
+      <c r="CL33" s="26">
         <v>11030.811579910269</v>
       </c>
-      <c r="CM33" s="30">
+      <c r="CM33" s="26">
         <v>8910.1965268858348</v>
       </c>
-      <c r="CN33" s="30">
+      <c r="CN33" s="26">
         <v>7613.3793142308796</v>
       </c>
-      <c r="CO33" s="30">
+      <c r="CO33" s="26">
         <v>9786.3948381134542</v>
       </c>
-      <c r="CP33" s="30">
+      <c r="CP33" s="26">
         <v>11860.696074000352</v>
       </c>
-      <c r="CQ33" s="30">
+      <c r="CQ33" s="26">
         <v>10871.359446799128</v>
       </c>
-      <c r="CR33" s="30">
-        <v>7890.3868107872113</v>
-      </c>
-      <c r="CS33" s="9"/>
+      <c r="CR33" s="26">
+        <v>7979.4888535621649</v>
+      </c>
+      <c r="CS33" s="26">
+        <v>12282.816050781214</v>
+      </c>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
@@ -9136,28 +9181,30 @@
       <c r="CK34" s="26">
         <v>32169.896577255146</v>
       </c>
-      <c r="CL34" s="30">
+      <c r="CL34" s="26">
         <v>32076.122314555869</v>
       </c>
-      <c r="CM34" s="30">
+      <c r="CM34" s="26">
         <v>30017.749583969504</v>
       </c>
-      <c r="CN34" s="30">
+      <c r="CN34" s="26">
         <v>32432.988608214935</v>
       </c>
-      <c r="CO34" s="30">
+      <c r="CO34" s="26">
         <v>36801.157003883302</v>
       </c>
-      <c r="CP34" s="30">
+      <c r="CP34" s="26">
         <v>36669.526836383608</v>
       </c>
-      <c r="CQ34" s="30">
+      <c r="CQ34" s="26">
         <v>30568.179531980866</v>
       </c>
-      <c r="CR34" s="30">
-        <v>32711.611310279946</v>
-      </c>
-      <c r="CS34" s="9"/>
+      <c r="CR34" s="26">
+        <v>32603.40840928402</v>
+      </c>
+      <c r="CS34" s="26">
+        <v>37187.299779959765</v>
+      </c>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
@@ -9482,28 +9529,30 @@
       <c r="CK35" s="26">
         <v>10687.278778248432</v>
       </c>
-      <c r="CL35" s="30">
+      <c r="CL35" s="26">
         <v>14975.458565661596</v>
       </c>
-      <c r="CM35" s="30">
+      <c r="CM35" s="26">
         <v>16582.61884757478</v>
       </c>
-      <c r="CN35" s="30">
+      <c r="CN35" s="26">
         <v>10404.272926102172</v>
       </c>
-      <c r="CO35" s="30">
+      <c r="CO35" s="26">
         <v>11479.735513989688</v>
       </c>
-      <c r="CP35" s="30">
+      <c r="CP35" s="26">
         <v>17623.726163340136</v>
       </c>
-      <c r="CQ35" s="30">
+      <c r="CQ35" s="26">
         <v>16029.335006385998</v>
       </c>
-      <c r="CR35" s="30">
-        <v>8272.6696879204319</v>
-      </c>
-      <c r="CS35" s="9"/>
+      <c r="CR35" s="26">
+        <v>8317.4663959223999</v>
+      </c>
+      <c r="CS35" s="26">
+        <v>11084.331993957871</v>
+      </c>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
@@ -9649,13 +9698,13 @@
       <c r="CI36" s="9"/>
       <c r="CJ36" s="9"/>
       <c r="CK36" s="9"/>
-      <c r="CL36" s="31"/>
-      <c r="CM36" s="31"/>
-      <c r="CN36" s="31"/>
-      <c r="CO36" s="31"/>
-      <c r="CP36" s="31"/>
-      <c r="CQ36" s="31"/>
-      <c r="CR36" s="31"/>
+      <c r="CL36" s="9"/>
+      <c r="CM36" s="9"/>
+      <c r="CN36" s="9"/>
+      <c r="CO36" s="9"/>
+      <c r="CP36" s="9"/>
+      <c r="CQ36" s="9"/>
+      <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -9981,28 +10030,30 @@
       <c r="CK37" s="13">
         <v>294976.49385628325</v>
       </c>
-      <c r="CL37" s="32">
+      <c r="CL37" s="13">
         <v>344182.59355851542</v>
       </c>
-      <c r="CM37" s="32">
+      <c r="CM37" s="13">
         <v>304192.6243367464</v>
       </c>
-      <c r="CN37" s="32">
+      <c r="CN37" s="13">
         <v>317686.86497258709</v>
       </c>
-      <c r="CO37" s="32">
+      <c r="CO37" s="13">
         <v>346980.37885974388</v>
       </c>
-      <c r="CP37" s="32">
+      <c r="CP37" s="13">
         <v>396159.36763982545</v>
       </c>
-      <c r="CQ37" s="32">
+      <c r="CQ37" s="13">
         <v>358086.25743040489</v>
       </c>
-      <c r="CR37" s="32">
-        <v>329473.25661612197</v>
-      </c>
-      <c r="CS37" s="9"/>
+      <c r="CR37" s="13">
+        <v>329581.87475685443</v>
+      </c>
+      <c r="CS37" s="13">
+        <v>397336.47467778274</v>
+      </c>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
@@ -10149,13 +10200,14 @@
       <c r="CI38" s="14"/>
       <c r="CJ38" s="14"/>
       <c r="CK38" s="14"/>
-      <c r="CL38" s="33"/>
-      <c r="CM38" s="33"/>
-      <c r="CN38" s="33"/>
-      <c r="CO38" s="33"/>
-      <c r="CP38" s="33"/>
-      <c r="CQ38" s="33"/>
-      <c r="CR38" s="33"/>
+      <c r="CL38" s="14"/>
+      <c r="CM38" s="14"/>
+      <c r="CN38" s="14"/>
+      <c r="CO38" s="14"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -10271,13 +10323,13 @@
       <c r="CI40" s="9"/>
       <c r="CJ40" s="9"/>
       <c r="CK40" s="9"/>
-      <c r="CL40" s="31"/>
-      <c r="CM40" s="31"/>
-      <c r="CN40" s="31"/>
-      <c r="CO40" s="31"/>
-      <c r="CP40" s="31"/>
-      <c r="CQ40" s="31"/>
-      <c r="CR40" s="31"/>
+      <c r="CL40" s="9"/>
+      <c r="CM40" s="9"/>
+      <c r="CN40" s="9"/>
+      <c r="CO40" s="9"/>
+      <c r="CP40" s="9"/>
+      <c r="CQ40" s="9"/>
+      <c r="CR40" s="9"/>
       <c r="CS40" s="9"/>
       <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
@@ -10424,13 +10476,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="31"/>
-      <c r="CM41" s="31"/>
-      <c r="CN41" s="31"/>
-      <c r="CO41" s="31"/>
-      <c r="CP41" s="31"/>
-      <c r="CQ41" s="31"/>
-      <c r="CR41" s="31"/>
+      <c r="CL41" s="9"/>
+      <c r="CM41" s="9"/>
+      <c r="CN41" s="9"/>
+      <c r="CO41" s="9"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -10500,7 +10552,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.2">
@@ -10510,7 +10562,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
@@ -10520,149 +10572,150 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="37">
+      <c r="B50" s="31">
         <v>2000</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31">
         <v>2001</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37">
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31">
         <v>2002</v>
       </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37">
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31">
         <v>2003</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37">
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="31">
         <v>2004</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37">
+      <c r="S50" s="31"/>
+      <c r="T50" s="31"/>
+      <c r="U50" s="31"/>
+      <c r="V50" s="31">
         <v>2005</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37">
+      <c r="W50" s="31"/>
+      <c r="X50" s="31"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="31">
         <v>2006</v>
       </c>
-      <c r="AA50" s="37"/>
-      <c r="AB50" s="37"/>
-      <c r="AC50" s="37"/>
-      <c r="AD50" s="37">
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31">
         <v>2007</v>
       </c>
-      <c r="AE50" s="37"/>
-      <c r="AF50" s="37"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37">
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="31"/>
+      <c r="AG50" s="31"/>
+      <c r="AH50" s="31">
         <v>2008</v>
       </c>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
-      <c r="AL50" s="37">
+      <c r="AI50" s="31"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="31"/>
+      <c r="AL50" s="31">
         <v>2009</v>
       </c>
-      <c r="AM50" s="37"/>
-      <c r="AN50" s="37"/>
-      <c r="AO50" s="37"/>
-      <c r="AP50" s="37">
+      <c r="AM50" s="31"/>
+      <c r="AN50" s="31"/>
+      <c r="AO50" s="31"/>
+      <c r="AP50" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="37"/>
-      <c r="AR50" s="37"/>
-      <c r="AS50" s="37"/>
-      <c r="AT50" s="37">
+      <c r="AQ50" s="31"/>
+      <c r="AR50" s="31"/>
+      <c r="AS50" s="31"/>
+      <c r="AT50" s="31">
         <v>2011</v>
       </c>
-      <c r="AU50" s="37"/>
-      <c r="AV50" s="37"/>
-      <c r="AW50" s="37"/>
-      <c r="AX50" s="37">
+      <c r="AU50" s="31"/>
+      <c r="AV50" s="31"/>
+      <c r="AW50" s="31"/>
+      <c r="AX50" s="31">
         <v>2012</v>
       </c>
-      <c r="AY50" s="37"/>
-      <c r="AZ50" s="37"/>
-      <c r="BA50" s="37"/>
-      <c r="BB50" s="37">
+      <c r="AY50" s="31"/>
+      <c r="AZ50" s="31"/>
+      <c r="BA50" s="31"/>
+      <c r="BB50" s="31">
         <v>2013</v>
       </c>
-      <c r="BC50" s="37"/>
-      <c r="BD50" s="37"/>
-      <c r="BE50" s="37"/>
-      <c r="BF50" s="37">
+      <c r="BC50" s="31"/>
+      <c r="BD50" s="31"/>
+      <c r="BE50" s="31"/>
+      <c r="BF50" s="31">
         <v>2014</v>
       </c>
-      <c r="BG50" s="37"/>
-      <c r="BH50" s="37"/>
-      <c r="BI50" s="37"/>
-      <c r="BJ50" s="37">
+      <c r="BG50" s="31"/>
+      <c r="BH50" s="31"/>
+      <c r="BI50" s="31"/>
+      <c r="BJ50" s="31">
         <v>2015</v>
       </c>
-      <c r="BK50" s="37"/>
-      <c r="BL50" s="37"/>
-      <c r="BM50" s="37"/>
-      <c r="BN50" s="37">
+      <c r="BK50" s="31"/>
+      <c r="BL50" s="31"/>
+      <c r="BM50" s="31"/>
+      <c r="BN50" s="31">
         <v>2016</v>
       </c>
-      <c r="BO50" s="37"/>
-      <c r="BP50" s="37"/>
-      <c r="BQ50" s="37"/>
-      <c r="BR50" s="37">
+      <c r="BO50" s="31"/>
+      <c r="BP50" s="31"/>
+      <c r="BQ50" s="31"/>
+      <c r="BR50" s="31">
         <v>2017</v>
       </c>
-      <c r="BS50" s="37"/>
-      <c r="BT50" s="37"/>
-      <c r="BU50" s="37"/>
-      <c r="BV50" s="37">
+      <c r="BS50" s="31"/>
+      <c r="BT50" s="31"/>
+      <c r="BU50" s="31"/>
+      <c r="BV50" s="31">
         <v>2018</v>
       </c>
-      <c r="BW50" s="37"/>
-      <c r="BX50" s="37"/>
-      <c r="BY50" s="37"/>
-      <c r="BZ50" s="37">
+      <c r="BW50" s="31"/>
+      <c r="BX50" s="31"/>
+      <c r="BY50" s="31"/>
+      <c r="BZ50" s="31">
         <v>2019</v>
       </c>
-      <c r="CA50" s="37"/>
-      <c r="CB50" s="37"/>
-      <c r="CC50" s="37"/>
-      <c r="CD50" s="38">
+      <c r="CA50" s="31"/>
+      <c r="CB50" s="31"/>
+      <c r="CC50" s="31"/>
+      <c r="CD50" s="32">
         <v>2020</v>
       </c>
-      <c r="CE50" s="38"/>
-      <c r="CF50" s="38"/>
-      <c r="CG50" s="38"/>
-      <c r="CH50" s="38">
+      <c r="CE50" s="32"/>
+      <c r="CF50" s="32"/>
+      <c r="CG50" s="32"/>
+      <c r="CH50" s="32">
         <v>2021</v>
       </c>
-      <c r="CI50" s="38"/>
-      <c r="CJ50" s="38"/>
-      <c r="CK50" s="38"/>
-      <c r="CL50" s="37">
+      <c r="CI50" s="32"/>
+      <c r="CJ50" s="32"/>
+      <c r="CK50" s="32"/>
+      <c r="CL50" s="28">
         <v>2022</v>
       </c>
-      <c r="CM50" s="37"/>
-      <c r="CN50" s="37"/>
-      <c r="CO50" s="37"/>
-      <c r="CP50" s="37">
+      <c r="CM50" s="28"/>
+      <c r="CN50" s="28"/>
+      <c r="CO50" s="28"/>
+      <c r="CP50" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ50" s="37"/>
-      <c r="CR50" s="37"/>
+      <c r="CQ50" s="28"/>
+      <c r="CR50" s="28"/>
+      <c r="CS50" s="28"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -10932,26 +10985,29 @@
       <c r="CK51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL51" s="34" t="s">
+      <c r="CL51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM51" s="34" t="s">
+      <c r="CM51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN51" s="34" t="s">
+      <c r="CN51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO51" s="34" t="s">
+      <c r="CO51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP51" s="34" t="s">
+      <c r="CP51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ51" s="34" t="s">
+      <c r="CQ51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR51" s="34" t="s">
+      <c r="CR51" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CS51" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11225,28 +11281,30 @@
       <c r="CK53" s="25">
         <v>66501.113999105699</v>
       </c>
-      <c r="CL53" s="29">
+      <c r="CL53" s="25">
         <v>56154.713753790973</v>
       </c>
-      <c r="CM53" s="29">
+      <c r="CM53" s="25">
         <v>29638.055496577312</v>
       </c>
-      <c r="CN53" s="29">
+      <c r="CN53" s="25">
         <v>44070.998157212263</v>
       </c>
-      <c r="CO53" s="29">
+      <c r="CO53" s="25">
         <v>56031.668160503337</v>
       </c>
-      <c r="CP53" s="29">
+      <c r="CP53" s="25">
         <v>52710.183979320689</v>
       </c>
-      <c r="CQ53" s="29">
+      <c r="CQ53" s="25">
         <v>31485.013906638993</v>
       </c>
-      <c r="CR53" s="29">
-        <v>37800.210965529528</v>
-      </c>
-      <c r="CS53" s="9"/>
+      <c r="CR53" s="25">
+        <v>37509.164601490345</v>
+      </c>
+      <c r="CS53" s="25">
+        <v>57985.319264144753</v>
+      </c>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
       <c r="CV53" s="9"/>
@@ -11571,28 +11629,30 @@
       <c r="CK54" s="26">
         <v>6129.6291090860987</v>
       </c>
-      <c r="CL54" s="30">
+      <c r="CL54" s="26">
         <v>2255.5424858344413</v>
       </c>
-      <c r="CM54" s="30">
+      <c r="CM54" s="26">
         <v>761.78762771609752</v>
       </c>
-      <c r="CN54" s="30">
+      <c r="CN54" s="26">
         <v>2999.4154859962432</v>
       </c>
-      <c r="CO54" s="30">
+      <c r="CO54" s="26">
         <v>3372.240102179047</v>
       </c>
-      <c r="CP54" s="30">
+      <c r="CP54" s="26">
         <v>2401.6215119713047</v>
       </c>
-      <c r="CQ54" s="30">
+      <c r="CQ54" s="26">
         <v>1005.4808970779599</v>
       </c>
-      <c r="CR54" s="30">
-        <v>3570.5073608955408</v>
-      </c>
-      <c r="CS54" s="9"/>
+      <c r="CR54" s="26">
+        <v>3571.1071514481341</v>
+      </c>
+      <c r="CS54" s="26">
+        <v>5817.440558880372</v>
+      </c>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
@@ -11917,28 +11977,30 @@
       <c r="CK55" s="26">
         <v>15915.381302443891</v>
       </c>
-      <c r="CL55" s="30">
+      <c r="CL55" s="26">
         <v>8408.0505623100962</v>
       </c>
-      <c r="CM55" s="30">
+      <c r="CM55" s="26">
         <v>2989.8761972432139</v>
       </c>
-      <c r="CN55" s="30">
+      <c r="CN55" s="26">
         <v>10506.725266714966</v>
       </c>
-      <c r="CO55" s="30">
+      <c r="CO55" s="26">
         <v>14787.444383062755</v>
       </c>
-      <c r="CP55" s="30">
+      <c r="CP55" s="26">
         <v>10213.999950128204</v>
       </c>
-      <c r="CQ55" s="30">
+      <c r="CQ55" s="26">
         <v>3767.6992309306374</v>
       </c>
-      <c r="CR55" s="30">
-        <v>8191.4597551157331</v>
-      </c>
-      <c r="CS55" s="9"/>
+      <c r="CR55" s="26">
+        <v>8138.0471294206691</v>
+      </c>
+      <c r="CS55" s="26">
+        <v>10484.838933059038</v>
+      </c>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
@@ -12263,28 +12325,30 @@
       <c r="CK56" s="26">
         <v>827.89099603346835</v>
       </c>
-      <c r="CL56" s="30">
+      <c r="CL56" s="26">
         <v>600.76004171803925</v>
       </c>
-      <c r="CM56" s="30">
+      <c r="CM56" s="26">
         <v>307.35573573461693</v>
       </c>
-      <c r="CN56" s="30">
+      <c r="CN56" s="26">
         <v>749.36964626741485</v>
       </c>
-      <c r="CO56" s="30">
+      <c r="CO56" s="26">
         <v>1031.6152468033449</v>
       </c>
-      <c r="CP56" s="30">
+      <c r="CP56" s="26">
         <v>618.0088338624106</v>
       </c>
-      <c r="CQ56" s="30">
+      <c r="CQ56" s="26">
         <v>328.22641219528066</v>
       </c>
-      <c r="CR56" s="30">
-        <v>653.45516554783183</v>
-      </c>
-      <c r="CS56" s="9"/>
+      <c r="CR56" s="26">
+        <v>657.79432593740216</v>
+      </c>
+      <c r="CS56" s="26">
+        <v>1231.0400894821391</v>
+      </c>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
@@ -12609,28 +12673,30 @@
       <c r="CK57" s="26">
         <v>545.12884117988403</v>
       </c>
-      <c r="CL57" s="30">
+      <c r="CL57" s="26">
         <v>315.9892621347073</v>
       </c>
-      <c r="CM57" s="30">
+      <c r="CM57" s="26">
         <v>135.75089907223924</v>
       </c>
-      <c r="CN57" s="30">
+      <c r="CN57" s="26">
         <v>566.65243540056349</v>
       </c>
-      <c r="CO57" s="30">
+      <c r="CO57" s="26">
         <v>695.47966316221414</v>
       </c>
-      <c r="CP57" s="30">
+      <c r="CP57" s="26">
         <v>312.06515855576055</v>
       </c>
-      <c r="CQ57" s="30">
+      <c r="CQ57" s="26">
         <v>153.43270236464369</v>
       </c>
-      <c r="CR57" s="30">
-        <v>515.71034339527569</v>
-      </c>
-      <c r="CS57" s="9"/>
+      <c r="CR57" s="26">
+        <v>516.4016486351004</v>
+      </c>
+      <c r="CS57" s="26">
+        <v>638.15360837590549</v>
+      </c>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
@@ -12955,28 +13021,30 @@
       <c r="CK58" s="26">
         <v>4130.5758037628557</v>
       </c>
-      <c r="CL58" s="30">
+      <c r="CL58" s="26">
         <v>3204.4563803884889</v>
       </c>
-      <c r="CM58" s="30">
+      <c r="CM58" s="26">
         <v>918.75784814555163</v>
       </c>
-      <c r="CN58" s="30">
+      <c r="CN58" s="26">
         <v>2559.1367349216134</v>
       </c>
-      <c r="CO58" s="30">
+      <c r="CO58" s="26">
         <v>3858.5461515750085</v>
       </c>
-      <c r="CP58" s="30">
+      <c r="CP58" s="26">
         <v>3148.4194001786659</v>
       </c>
-      <c r="CQ58" s="30">
+      <c r="CQ58" s="26">
         <v>813.28817844299954</v>
       </c>
-      <c r="CR58" s="30">
-        <v>2840.8715391266555</v>
-      </c>
-      <c r="CS58" s="9"/>
+      <c r="CR58" s="26">
+        <v>2834.8297872356434</v>
+      </c>
+      <c r="CS58" s="26">
+        <v>3409.1829762788975</v>
+      </c>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
       <c r="CV58" s="9"/>
@@ -13301,28 +13369,30 @@
       <c r="CK59" s="26">
         <v>25266.562529179133</v>
       </c>
-      <c r="CL59" s="30">
+      <c r="CL59" s="26">
         <v>32174.972377867358</v>
       </c>
-      <c r="CM59" s="30">
+      <c r="CM59" s="26">
         <v>20827.657775890431</v>
       </c>
-      <c r="CN59" s="30">
+      <c r="CN59" s="26">
         <v>17372.194231779744</v>
       </c>
-      <c r="CO59" s="30">
+      <c r="CO59" s="26">
         <v>20273.651609490433</v>
       </c>
-      <c r="CP59" s="30">
+      <c r="CP59" s="26">
         <v>28142.286494046617</v>
       </c>
-      <c r="CQ59" s="30">
+      <c r="CQ59" s="26">
         <v>22756.330505176506</v>
       </c>
-      <c r="CR59" s="30">
-        <v>14673.495548724162</v>
-      </c>
-      <c r="CS59" s="9"/>
+      <c r="CR59" s="26">
+        <v>14467.32925830672</v>
+      </c>
+      <c r="CS59" s="26">
+        <v>24403.668380777293</v>
+      </c>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
@@ -13647,28 +13717,30 @@
       <c r="CK60" s="26">
         <v>2071.9301484812827</v>
       </c>
-      <c r="CL60" s="30">
+      <c r="CL60" s="26">
         <v>676.66490891228193</v>
       </c>
-      <c r="CM60" s="30">
+      <c r="CM60" s="26">
         <v>245.91054324460896</v>
       </c>
-      <c r="CN60" s="30">
+      <c r="CN60" s="26">
         <v>465.89826695183149</v>
       </c>
-      <c r="CO60" s="30">
+      <c r="CO60" s="26">
         <v>1500.6906029608699</v>
       </c>
-      <c r="CP60" s="30">
+      <c r="CP60" s="26">
         <v>964.57969406049801</v>
       </c>
-      <c r="CQ60" s="30">
+      <c r="CQ60" s="26">
         <v>364.49707295828699</v>
       </c>
-      <c r="CR60" s="30">
-        <v>929.24102523758063</v>
-      </c>
-      <c r="CS60" s="9"/>
+      <c r="CR60" s="26">
+        <v>926.46500049095073</v>
+      </c>
+      <c r="CS60" s="26">
+        <v>1301.4872408814872</v>
+      </c>
       <c r="CT60" s="9"/>
       <c r="CU60" s="9"/>
       <c r="CV60" s="9"/>
@@ -13993,28 +14065,30 @@
       <c r="CK61" s="26">
         <v>11614.015268939091</v>
       </c>
-      <c r="CL61" s="30">
+      <c r="CL61" s="26">
         <v>8518.2777346255643</v>
       </c>
-      <c r="CM61" s="30">
+      <c r="CM61" s="26">
         <v>3450.9588695305492</v>
       </c>
-      <c r="CN61" s="30">
+      <c r="CN61" s="26">
         <v>8851.6060891798861</v>
       </c>
-      <c r="CO61" s="30">
+      <c r="CO61" s="26">
         <v>10512.00040126967</v>
       </c>
-      <c r="CP61" s="30">
+      <c r="CP61" s="26">
         <v>6909.2029365172293</v>
       </c>
-      <c r="CQ61" s="30">
+      <c r="CQ61" s="26">
         <v>2296.0589074926797</v>
       </c>
-      <c r="CR61" s="30">
-        <v>6425.4702274867514</v>
-      </c>
-      <c r="CS61" s="9"/>
+      <c r="CR61" s="26">
+        <v>6397.1903000157254</v>
+      </c>
+      <c r="CS61" s="26">
+        <v>10699.507476409621</v>
+      </c>
       <c r="CT61" s="9"/>
       <c r="CU61" s="9"/>
       <c r="CV61" s="9"/>
@@ -14339,28 +14413,30 @@
       <c r="CK62" s="25">
         <v>46705.322297328654</v>
       </c>
-      <c r="CL62" s="29">
+      <c r="CL62" s="25">
         <v>51650.780454455409</v>
       </c>
-      <c r="CM62" s="29">
+      <c r="CM62" s="25">
         <v>39125.984742142908</v>
       </c>
-      <c r="CN62" s="29">
+      <c r="CN62" s="25">
         <v>56586.709007992948</v>
       </c>
-      <c r="CO62" s="29">
+      <c r="CO62" s="25">
         <v>56067.993441713836</v>
       </c>
-      <c r="CP62" s="29">
+      <c r="CP62" s="25">
         <v>55679.212777617635</v>
       </c>
-      <c r="CQ62" s="29">
+      <c r="CQ62" s="25">
         <v>44252.216085494299</v>
       </c>
-      <c r="CR62" s="29">
-        <v>56803.223541455402</v>
-      </c>
-      <c r="CS62" s="9"/>
+      <c r="CR62" s="25">
+        <v>57172.048286826866</v>
+      </c>
+      <c r="CS62" s="25">
+        <v>57862.070614105513</v>
+      </c>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
@@ -14685,28 +14761,30 @@
       <c r="CK63" s="26">
         <v>9430.989368750772</v>
       </c>
-      <c r="CL63" s="30">
+      <c r="CL63" s="26">
         <v>8582.2273201229564</v>
       </c>
-      <c r="CM63" s="30">
+      <c r="CM63" s="26">
         <v>7559.8027061805496</v>
       </c>
-      <c r="CN63" s="30">
+      <c r="CN63" s="26">
         <v>8906.7130198622981</v>
       </c>
-      <c r="CO63" s="30">
+      <c r="CO63" s="26">
         <v>10075.422094021213</v>
       </c>
-      <c r="CP63" s="30">
+      <c r="CP63" s="26">
         <v>8716.7180491799463</v>
       </c>
-      <c r="CQ63" s="30">
+      <c r="CQ63" s="26">
         <v>7400.1965438892175</v>
       </c>
-      <c r="CR63" s="30">
-        <v>8021.7885075557424</v>
-      </c>
-      <c r="CS63" s="9"/>
+      <c r="CR63" s="26">
+        <v>8026.884602419279</v>
+      </c>
+      <c r="CS63" s="26">
+        <v>10932.643760723335</v>
+      </c>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
@@ -15031,28 +15109,30 @@
       <c r="CK64" s="26">
         <v>5310.7853843801568</v>
       </c>
-      <c r="CL64" s="30">
+      <c r="CL64" s="26">
         <v>5016.6063703503914</v>
       </c>
-      <c r="CM64" s="30">
+      <c r="CM64" s="26">
         <v>4414.6571227442855</v>
       </c>
-      <c r="CN64" s="30">
+      <c r="CN64" s="26">
         <v>5110.3185291011832</v>
       </c>
-      <c r="CO64" s="30">
+      <c r="CO64" s="26">
         <v>6081.7158841339769</v>
       </c>
-      <c r="CP64" s="30">
+      <c r="CP64" s="26">
         <v>5772.0177901495945</v>
       </c>
-      <c r="CQ64" s="30">
+      <c r="CQ64" s="26">
         <v>4922.6138471541526</v>
       </c>
-      <c r="CR64" s="30">
-        <v>5281.6438823111876</v>
-      </c>
-      <c r="CS64" s="9"/>
+      <c r="CR64" s="26">
+        <v>5286.0587450893572</v>
+      </c>
+      <c r="CS64" s="26">
+        <v>5759.9218324064796</v>
+      </c>
       <c r="CT64" s="9"/>
       <c r="CU64" s="9"/>
       <c r="CV64" s="9"/>
@@ -15377,28 +15457,30 @@
       <c r="CK65" s="26">
         <v>11572.478347706488</v>
       </c>
-      <c r="CL65" s="30">
+      <c r="CL65" s="26">
         <v>12080.331688711036</v>
       </c>
-      <c r="CM65" s="30">
+      <c r="CM65" s="26">
         <v>10268.807240061369</v>
       </c>
-      <c r="CN65" s="30">
+      <c r="CN65" s="26">
         <v>22622.069017464219</v>
       </c>
-      <c r="CO65" s="30">
+      <c r="CO65" s="26">
         <v>17622.800505163432</v>
       </c>
-      <c r="CP65" s="30">
+      <c r="CP65" s="26">
         <v>19726.217194771685</v>
       </c>
-      <c r="CQ65" s="30">
+      <c r="CQ65" s="26">
         <v>17147.184390148566</v>
       </c>
-      <c r="CR65" s="30">
-        <v>26319.165360427556</v>
-      </c>
-      <c r="CS65" s="9"/>
+      <c r="CR65" s="26">
+        <v>26579.402577733665</v>
+      </c>
+      <c r="CS65" s="26">
+        <v>18628.029438654074</v>
+      </c>
       <c r="CT65" s="9"/>
       <c r="CU65" s="9"/>
       <c r="CV65" s="9"/>
@@ -15723,28 +15805,30 @@
       <c r="CK66" s="26">
         <v>20391.069196491237</v>
       </c>
-      <c r="CL66" s="30">
+      <c r="CL66" s="26">
         <v>25971.615075271024</v>
       </c>
-      <c r="CM66" s="30">
+      <c r="CM66" s="26">
         <v>16882.717673156701</v>
       </c>
-      <c r="CN66" s="30">
+      <c r="CN66" s="26">
         <v>19947.608441565244</v>
       </c>
-      <c r="CO66" s="30">
+      <c r="CO66" s="26">
         <v>22288.054958395216</v>
       </c>
-      <c r="CP66" s="30">
+      <c r="CP66" s="26">
         <v>21464.25974351641</v>
       </c>
-      <c r="CQ66" s="30">
+      <c r="CQ66" s="26">
         <v>14782.221304302364</v>
       </c>
-      <c r="CR66" s="30">
-        <v>17180.625791160914</v>
-      </c>
-      <c r="CS66" s="9"/>
+      <c r="CR66" s="26">
+        <v>17279.702361584561</v>
+      </c>
+      <c r="CS66" s="26">
+        <v>22541.475582321622</v>
+      </c>
       <c r="CT66" s="9"/>
       <c r="CU66" s="9"/>
       <c r="CV66" s="9"/>
@@ -16069,28 +16153,30 @@
       <c r="CK67" s="25">
         <v>133226.1081310109</v>
       </c>
-      <c r="CL67" s="29">
+      <c r="CL67" s="25">
         <v>168162.18916375461</v>
       </c>
-      <c r="CM67" s="29">
+      <c r="CM67" s="25">
         <v>149325.20766128573</v>
       </c>
-      <c r="CN67" s="29">
+      <c r="CN67" s="25">
         <v>143019.61658559294</v>
       </c>
-      <c r="CO67" s="29">
+      <c r="CO67" s="25">
         <v>142924.89404160064</v>
       </c>
-      <c r="CP67" s="29">
+      <c r="CP67" s="25">
         <v>190875.98694110301</v>
       </c>
-      <c r="CQ67" s="29">
+      <c r="CQ67" s="25">
         <v>174574.00703918375</v>
       </c>
-      <c r="CR67" s="29">
-        <v>156448.39341992466</v>
-      </c>
-      <c r="CS67" s="9"/>
+      <c r="CR67" s="25">
+        <v>156383.72150331974</v>
+      </c>
+      <c r="CS67" s="25">
+        <v>181428.83886150725</v>
+      </c>
       <c r="CT67" s="9"/>
       <c r="CU67" s="9"/>
       <c r="CV67" s="9"/>
@@ -16415,28 +16501,30 @@
       <c r="CK68" s="26">
         <v>111732.1547250369</v>
       </c>
-      <c r="CL68" s="30">
+      <c r="CL68" s="26">
         <v>144262.06824617967</v>
       </c>
-      <c r="CM68" s="30">
+      <c r="CM68" s="26">
         <v>124718.82459777835</v>
       </c>
-      <c r="CN68" s="30">
+      <c r="CN68" s="26">
         <v>133565.47408270379</v>
       </c>
-      <c r="CO68" s="30">
+      <c r="CO68" s="26">
         <v>134371.06288107892</v>
       </c>
-      <c r="CP68" s="30">
+      <c r="CP68" s="26">
         <v>178812.36912742438</v>
       </c>
-      <c r="CQ68" s="30">
+      <c r="CQ68" s="26">
         <v>150879.93003148356</v>
       </c>
-      <c r="CR68" s="30">
-        <v>146217.8504543085</v>
-      </c>
-      <c r="CS68" s="9"/>
+      <c r="CR68" s="26">
+        <v>146128.22600562451</v>
+      </c>
+      <c r="CS68" s="26">
+        <v>153360.16376153508</v>
+      </c>
       <c r="CT68" s="9"/>
       <c r="CU68" s="9"/>
       <c r="CV68" s="9"/>
@@ -16761,28 +16849,30 @@
       <c r="CK69" s="26">
         <v>2808.90702978422</v>
       </c>
-      <c r="CL69" s="30">
+      <c r="CL69" s="26">
         <v>1753.921591623566</v>
       </c>
-      <c r="CM69" s="30">
+      <c r="CM69" s="26">
         <v>1027.1601309639761</v>
       </c>
-      <c r="CN69" s="30">
+      <c r="CN69" s="26">
         <v>43.601481617741278</v>
       </c>
-      <c r="CO69" s="30">
+      <c r="CO69" s="26">
         <v>10.702323039936408</v>
       </c>
-      <c r="CP69" s="30">
+      <c r="CP69" s="26">
         <v>21.094065156238536</v>
       </c>
-      <c r="CQ69" s="30">
+      <c r="CQ69" s="26">
         <v>7.8896515054326981</v>
       </c>
-      <c r="CR69" s="30">
-        <v>1.1680377004268585</v>
-      </c>
-      <c r="CS69" s="9"/>
+      <c r="CR69" s="26">
+        <v>1.0323471979782477</v>
+      </c>
+      <c r="CS69" s="26">
+        <v>867.19157039338154</v>
+      </c>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
       <c r="CV69" s="9"/>
@@ -17107,28 +17197,30 @@
       <c r="CK70" s="26">
         <v>17011.446015645281</v>
       </c>
-      <c r="CL70" s="30">
+      <c r="CL70" s="26">
         <v>14282.981918436471</v>
       </c>
-      <c r="CM70" s="30">
+      <c r="CM70" s="26">
         <v>10605.219253329671</v>
       </c>
-      <c r="CN70" s="30">
+      <c r="CN70" s="26">
         <v>4425.0765158350632</v>
       </c>
-      <c r="CO70" s="30">
+      <c r="CO70" s="26">
         <v>4548.9454215379565</v>
       </c>
-      <c r="CP70" s="30">
+      <c r="CP70" s="26">
         <v>6518.2776765650078</v>
       </c>
-      <c r="CQ70" s="30">
+      <c r="CQ70" s="26">
         <v>12999.740954569015</v>
       </c>
-      <c r="CR70" s="30">
-        <v>7692.6395594540345</v>
-      </c>
-      <c r="CS70" s="9"/>
+      <c r="CR70" s="26">
+        <v>7692.5876327458691</v>
+      </c>
+      <c r="CS70" s="26">
+        <v>20225.039377015906</v>
+      </c>
       <c r="CT70" s="9"/>
       <c r="CU70" s="9"/>
       <c r="CV70" s="9"/>
@@ -17453,28 +17545,30 @@
       <c r="CK71" s="26">
         <v>1673.6003605444853</v>
       </c>
-      <c r="CL71" s="30">
+      <c r="CL71" s="26">
         <v>7863.217407514896</v>
       </c>
-      <c r="CM71" s="30">
+      <c r="CM71" s="26">
         <v>12974.003679213727</v>
       </c>
-      <c r="CN71" s="30">
+      <c r="CN71" s="26">
         <v>4985.4645054363455</v>
       </c>
-      <c r="CO71" s="30">
+      <c r="CO71" s="26">
         <v>3994.183415943829</v>
       </c>
-      <c r="CP71" s="30">
+      <c r="CP71" s="26">
         <v>5524.2460719573783</v>
       </c>
-      <c r="CQ71" s="30">
+      <c r="CQ71" s="26">
         <v>10686.446401625764</v>
       </c>
-      <c r="CR71" s="30">
-        <v>2536.7353684617024</v>
-      </c>
-      <c r="CS71" s="9"/>
+      <c r="CR71" s="26">
+        <v>2561.8755177513804</v>
+      </c>
+      <c r="CS71" s="26">
+        <v>6976.4441525628863</v>
+      </c>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
       <c r="CV71" s="9"/>
@@ -17799,28 +17893,30 @@
       <c r="CK72" s="25">
         <v>41639.598916049588</v>
       </c>
-      <c r="CL72" s="29">
+      <c r="CL72" s="25">
         <v>58252.704456362095</v>
       </c>
-      <c r="CM72" s="29">
+      <c r="CM72" s="25">
         <v>75840.342753787176</v>
       </c>
-      <c r="CN72" s="29">
+      <c r="CN72" s="25">
         <v>46761.425515761221</v>
       </c>
-      <c r="CO72" s="29">
+      <c r="CO72" s="25">
         <v>40473.680125573919</v>
       </c>
-      <c r="CP72" s="29">
+      <c r="CP72" s="25">
         <v>61892.060525129433</v>
       </c>
-      <c r="CQ72" s="29">
+      <c r="CQ72" s="25">
         <v>74613.634529753748</v>
       </c>
-      <c r="CR72" s="29">
-        <v>44417.657125092046</v>
-      </c>
-      <c r="CS72" s="9"/>
+      <c r="CR72" s="25">
+        <v>44435.095457564501</v>
+      </c>
+      <c r="CS72" s="25">
+        <v>41221.364517068054</v>
+      </c>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
@@ -18145,28 +18241,30 @@
       <c r="CK73" s="26">
         <v>2429.9848975317846</v>
       </c>
-      <c r="CL73" s="30">
+      <c r="CL73" s="26">
         <v>4674.898316141449</v>
       </c>
-      <c r="CM73" s="30">
+      <c r="CM73" s="26">
         <v>6619.0926723367329</v>
       </c>
-      <c r="CN73" s="30">
+      <c r="CN73" s="26">
         <v>3588.7495327824981</v>
       </c>
-      <c r="CO73" s="30">
+      <c r="CO73" s="26">
         <v>3532.2953208946096</v>
       </c>
-      <c r="CP73" s="30">
+      <c r="CP73" s="26">
         <v>5701.245947698877</v>
       </c>
-      <c r="CQ73" s="30">
+      <c r="CQ73" s="26">
         <v>7343.1018237399721</v>
       </c>
-      <c r="CR73" s="30">
-        <v>3585.7185941757625</v>
-      </c>
-      <c r="CS73" s="9"/>
+      <c r="CR73" s="26">
+        <v>3584.9975574316654</v>
+      </c>
+      <c r="CS73" s="26">
+        <v>3602.1865866347639</v>
+      </c>
       <c r="CT73" s="9"/>
       <c r="CU73" s="9"/>
       <c r="CV73" s="9"/>
@@ -18491,28 +18589,30 @@
       <c r="CK74" s="26">
         <v>6962.3940114241905</v>
       </c>
-      <c r="CL74" s="30">
+      <c r="CL74" s="26">
         <v>11436.226301684081</v>
       </c>
-      <c r="CM74" s="30">
+      <c r="CM74" s="26">
         <v>11835.610697793134</v>
       </c>
-      <c r="CN74" s="30">
+      <c r="CN74" s="26">
         <v>5928.4090057165213</v>
       </c>
-      <c r="CO74" s="30">
+      <c r="CO74" s="26">
         <v>6736.9173027245652</v>
       </c>
-      <c r="CP74" s="30">
+      <c r="CP74" s="26">
         <v>11733.531839083225</v>
       </c>
-      <c r="CQ74" s="30">
+      <c r="CQ74" s="26">
         <v>15156.869647080432</v>
       </c>
-      <c r="CR74" s="30">
-        <v>6247.0041932283893</v>
-      </c>
-      <c r="CS74" s="9"/>
+      <c r="CR74" s="26">
+        <v>6336.5177539962824</v>
+      </c>
+      <c r="CS74" s="26">
+        <v>8232.8747109597571</v>
+      </c>
       <c r="CT74" s="9"/>
       <c r="CU74" s="9"/>
       <c r="CV74" s="9"/>
@@ -18837,28 +18937,30 @@
       <c r="CK75" s="26">
         <v>22366.618873448107</v>
       </c>
-      <c r="CL75" s="30">
+      <c r="CL75" s="26">
         <v>27593.149041112589</v>
       </c>
-      <c r="CM75" s="30">
+      <c r="CM75" s="26">
         <v>41840.004529580372</v>
       </c>
-      <c r="CN75" s="30">
+      <c r="CN75" s="26">
         <v>28062.285735924481</v>
       </c>
-      <c r="CO75" s="30">
+      <c r="CO75" s="26">
         <v>21552.231177120528</v>
       </c>
-      <c r="CP75" s="30">
+      <c r="CP75" s="26">
         <v>29147.335292074571</v>
       </c>
-      <c r="CQ75" s="30">
+      <c r="CQ75" s="26">
         <v>38256.34919165654</v>
       </c>
-      <c r="CR75" s="30">
-        <v>27531.947068959787</v>
-      </c>
-      <c r="CS75" s="9"/>
+      <c r="CR75" s="26">
+        <v>27420.917157353884</v>
+      </c>
+      <c r="CS75" s="26">
+        <v>21126.203571291211</v>
+      </c>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
@@ -19183,28 +19285,30 @@
       <c r="CK76" s="26">
         <v>9880.6011336455031</v>
       </c>
-      <c r="CL76" s="30">
+      <c r="CL76" s="26">
         <v>14548.430797423976</v>
       </c>
-      <c r="CM76" s="30">
+      <c r="CM76" s="26">
         <v>15545.634854076947</v>
       </c>
-      <c r="CN76" s="30">
+      <c r="CN76" s="26">
         <v>9181.9812413377222</v>
       </c>
-      <c r="CO76" s="30">
+      <c r="CO76" s="26">
         <v>8652.2363248342153</v>
       </c>
-      <c r="CP76" s="30">
+      <c r="CP76" s="26">
         <v>15309.947446272756</v>
       </c>
-      <c r="CQ76" s="30">
+      <c r="CQ76" s="26">
         <v>13857.313867276804</v>
       </c>
-      <c r="CR76" s="30">
-        <v>7052.9872687281086</v>
-      </c>
-      <c r="CS76" s="9"/>
+      <c r="CR76" s="26">
+        <v>7092.6629887826721</v>
+      </c>
+      <c r="CS76" s="26">
+        <v>8260.099648182324</v>
+      </c>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
@@ -19350,13 +19454,13 @@
       <c r="CI77" s="9"/>
       <c r="CJ77" s="9"/>
       <c r="CK77" s="9"/>
-      <c r="CL77" s="31"/>
-      <c r="CM77" s="31"/>
-      <c r="CN77" s="31"/>
-      <c r="CO77" s="31"/>
-      <c r="CP77" s="31"/>
-      <c r="CQ77" s="31"/>
-      <c r="CR77" s="31"/>
+      <c r="CL77" s="9"/>
+      <c r="CM77" s="9"/>
+      <c r="CN77" s="9"/>
+      <c r="CO77" s="9"/>
+      <c r="CP77" s="9"/>
+      <c r="CQ77" s="9"/>
+      <c r="CR77" s="9"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
@@ -19682,28 +19786,30 @@
       <c r="CK78" s="13">
         <v>288072.14334349486</v>
       </c>
-      <c r="CL78" s="32">
+      <c r="CL78" s="13">
         <v>334220.38782836311</v>
       </c>
-      <c r="CM78" s="32">
+      <c r="CM78" s="13">
         <v>293929.59065379313</v>
       </c>
-      <c r="CN78" s="32">
+      <c r="CN78" s="13">
         <v>290438.74926655937</v>
       </c>
-      <c r="CO78" s="32">
+      <c r="CO78" s="13">
         <v>295498.23576939176</v>
       </c>
-      <c r="CP78" s="32">
+      <c r="CP78" s="13">
         <v>361157.44422317075</v>
       </c>
-      <c r="CQ78" s="32">
+      <c r="CQ78" s="13">
         <v>324924.87156107079</v>
       </c>
-      <c r="CR78" s="32">
-        <v>295469.4850520016</v>
-      </c>
-      <c r="CS78" s="9"/>
+      <c r="CR78" s="13">
+        <v>295500.02984920144</v>
+      </c>
+      <c r="CS78" s="13">
+        <v>338497.59325682558</v>
+      </c>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
       <c r="CV78" s="9"/>
@@ -19850,13 +19956,14 @@
       <c r="CI79" s="14"/>
       <c r="CJ79" s="14"/>
       <c r="CK79" s="14"/>
-      <c r="CL79" s="33"/>
-      <c r="CM79" s="33"/>
-      <c r="CN79" s="33"/>
-      <c r="CO79" s="33"/>
-      <c r="CP79" s="33"/>
-      <c r="CQ79" s="33"/>
-      <c r="CR79" s="33"/>
+      <c r="CL79" s="14"/>
+      <c r="CM79" s="14"/>
+      <c r="CN79" s="14"/>
+      <c r="CO79" s="14"/>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
+      <c r="CR79" s="14"/>
+      <c r="CS79" s="14"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -19973,13 +20080,13 @@
       <c r="CI81" s="18"/>
       <c r="CJ81" s="18"/>
       <c r="CK81" s="18"/>
-      <c r="CL81" s="35"/>
-      <c r="CM81" s="35"/>
-      <c r="CN81" s="35"/>
-      <c r="CO81" s="35"/>
-      <c r="CP81" s="35"/>
-      <c r="CQ81" s="35"/>
-      <c r="CR81" s="35"/>
+      <c r="CL81" s="18"/>
+      <c r="CM81" s="18"/>
+      <c r="CN81" s="18"/>
+      <c r="CO81" s="18"/>
+      <c r="CP81" s="18"/>
+      <c r="CQ81" s="18"/>
+      <c r="CR81" s="18"/>
       <c r="CS81" s="18"/>
       <c r="CT81" s="18"/>
       <c r="CU81" s="18"/>
@@ -20127,13 +20234,13 @@
       <c r="CI82" s="18"/>
       <c r="CJ82" s="18"/>
       <c r="CK82" s="18"/>
-      <c r="CL82" s="35"/>
-      <c r="CM82" s="35"/>
-      <c r="CN82" s="35"/>
-      <c r="CO82" s="35"/>
-      <c r="CP82" s="35"/>
-      <c r="CQ82" s="35"/>
-      <c r="CR82" s="35"/>
+      <c r="CL82" s="18"/>
+      <c r="CM82" s="18"/>
+      <c r="CN82" s="18"/>
+      <c r="CO82" s="18"/>
+      <c r="CP82" s="18"/>
+      <c r="CQ82" s="18"/>
+      <c r="CR82" s="18"/>
       <c r="CS82" s="18"/>
       <c r="CT82" s="18"/>
       <c r="CU82" s="18"/>
@@ -20203,167 +20310,192 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CP86" s="7"/>
+      <c r="CQ86" s="7"/>
+      <c r="CR86" s="7"/>
+      <c r="CS86" s="7"/>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="CP87" s="7"/>
+      <c r="CQ87" s="7"/>
+      <c r="CR87" s="7"/>
+      <c r="CS87" s="7"/>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="CP88" s="7"/>
+      <c r="CQ88" s="7"/>
+      <c r="CR88" s="7"/>
+      <c r="CS88" s="7"/>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="CP89" s="7"/>
+      <c r="CQ89" s="7"/>
+      <c r="CR89" s="7"/>
+      <c r="CS89" s="7"/>
+    </row>
+    <row r="90" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CP90" s="7"/>
+      <c r="CQ90" s="7"/>
+      <c r="CR90" s="7"/>
+      <c r="CS90" s="7"/>
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="38" t="s">
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="38" t="s">
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="38" t="s">
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
-      <c r="Q91" s="37"/>
-      <c r="R91" s="38" t="s">
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="37"/>
-      <c r="T91" s="37"/>
-      <c r="U91" s="37"/>
-      <c r="V91" s="38" t="s">
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+      <c r="V91" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="37"/>
-      <c r="X91" s="37"/>
-      <c r="Y91" s="37"/>
-      <c r="Z91" s="38" t="s">
+      <c r="W91" s="31"/>
+      <c r="X91" s="31"/>
+      <c r="Y91" s="31"/>
+      <c r="Z91" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="37"/>
-      <c r="AB91" s="37"/>
-      <c r="AC91" s="37"/>
-      <c r="AD91" s="38" t="s">
+      <c r="AA91" s="31"/>
+      <c r="AB91" s="31"/>
+      <c r="AC91" s="31"/>
+      <c r="AD91" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="37"/>
-      <c r="AF91" s="37"/>
-      <c r="AG91" s="37"/>
-      <c r="AH91" s="38" t="s">
+      <c r="AE91" s="31"/>
+      <c r="AF91" s="31"/>
+      <c r="AG91" s="31"/>
+      <c r="AH91" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="37"/>
-      <c r="AJ91" s="37"/>
-      <c r="AK91" s="37"/>
-      <c r="AL91" s="38" t="s">
+      <c r="AI91" s="31"/>
+      <c r="AJ91" s="31"/>
+      <c r="AK91" s="31"/>
+      <c r="AL91" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="37"/>
-      <c r="AN91" s="37"/>
-      <c r="AO91" s="37"/>
-      <c r="AP91" s="38" t="s">
+      <c r="AM91" s="31"/>
+      <c r="AN91" s="31"/>
+      <c r="AO91" s="31"/>
+      <c r="AP91" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="37"/>
-      <c r="AR91" s="37"/>
-      <c r="AS91" s="37"/>
-      <c r="AT91" s="38" t="s">
+      <c r="AQ91" s="31"/>
+      <c r="AR91" s="31"/>
+      <c r="AS91" s="31"/>
+      <c r="AT91" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="37"/>
-      <c r="AV91" s="37"/>
-      <c r="AW91" s="37"/>
-      <c r="AX91" s="38" t="s">
+      <c r="AU91" s="31"/>
+      <c r="AV91" s="31"/>
+      <c r="AW91" s="31"/>
+      <c r="AX91" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="37"/>
-      <c r="AZ91" s="37"/>
-      <c r="BA91" s="37"/>
-      <c r="BB91" s="38" t="s">
+      <c r="AY91" s="31"/>
+      <c r="AZ91" s="31"/>
+      <c r="BA91" s="31"/>
+      <c r="BB91" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="37"/>
-      <c r="BD91" s="37"/>
-      <c r="BE91" s="37"/>
-      <c r="BF91" s="38" t="s">
+      <c r="BC91" s="31"/>
+      <c r="BD91" s="31"/>
+      <c r="BE91" s="31"/>
+      <c r="BF91" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="37"/>
-      <c r="BH91" s="37"/>
-      <c r="BI91" s="37"/>
-      <c r="BJ91" s="38" t="s">
+      <c r="BG91" s="31"/>
+      <c r="BH91" s="31"/>
+      <c r="BI91" s="31"/>
+      <c r="BJ91" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="37"/>
-      <c r="BL91" s="37"/>
-      <c r="BM91" s="37"/>
-      <c r="BN91" s="38" t="s">
+      <c r="BK91" s="31"/>
+      <c r="BL91" s="31"/>
+      <c r="BM91" s="31"/>
+      <c r="BN91" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="37"/>
-      <c r="BP91" s="37"/>
-      <c r="BQ91" s="37"/>
-      <c r="BR91" s="38" t="s">
+      <c r="BO91" s="31"/>
+      <c r="BP91" s="31"/>
+      <c r="BQ91" s="31"/>
+      <c r="BR91" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="37"/>
-      <c r="BT91" s="37"/>
-      <c r="BU91" s="37"/>
-      <c r="BV91" s="38" t="s">
+      <c r="BS91" s="31"/>
+      <c r="BT91" s="31"/>
+      <c r="BU91" s="31"/>
+      <c r="BV91" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="37"/>
-      <c r="BX91" s="37"/>
-      <c r="BY91" s="37"/>
-      <c r="BZ91" s="38" t="s">
+      <c r="BW91" s="31"/>
+      <c r="BX91" s="31"/>
+      <c r="BY91" s="31"/>
+      <c r="BZ91" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="37"/>
-      <c r="CB91" s="37"/>
-      <c r="CC91" s="37"/>
-      <c r="CD91" s="38" t="s">
+      <c r="CA91" s="31"/>
+      <c r="CB91" s="31"/>
+      <c r="CC91" s="31"/>
+      <c r="CD91" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="38"/>
-      <c r="CF91" s="38"/>
-      <c r="CG91" s="38"/>
-      <c r="CH91" s="38" t="s">
+      <c r="CE91" s="32"/>
+      <c r="CF91" s="32"/>
+      <c r="CG91" s="32"/>
+      <c r="CH91" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="CI91" s="38"/>
-      <c r="CJ91" s="38"/>
-      <c r="CK91" s="38"/>
-      <c r="CL91" s="37" t="s">
+      <c r="CI91" s="32"/>
+      <c r="CJ91" s="32"/>
+      <c r="CK91" s="32"/>
+      <c r="CL91" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="CM91" s="37"/>
-      <c r="CN91" s="37"/>
-      <c r="CO91" s="4"/>
+      <c r="CM91" s="28"/>
+      <c r="CN91" s="28"/>
+      <c r="CO91" s="28"/>
       <c r="CP91" s="27"/>
       <c r="CQ91" s="27"/>
       <c r="CR91" s="27"/>
+      <c r="CS91" s="27"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20633,22 +20765,29 @@
       <c r="CK92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL92" s="34" t="s">
+      <c r="CL92" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM92" s="34" t="s">
+      <c r="CM92" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN92" s="34" t="s">
+      <c r="CN92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO92" s="34"/>
-      <c r="CP92" s="34"/>
-      <c r="CQ92" s="34"/>
-      <c r="CR92" s="34"/>
+      <c r="CO92" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP92" s="17"/>
+      <c r="CQ92" s="17"/>
+      <c r="CR92" s="17"/>
+      <c r="CS92" s="17"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
+      <c r="CP93" s="7"/>
+      <c r="CQ93" s="7"/>
+      <c r="CR93" s="7"/>
+      <c r="CS93" s="7"/>
     </row>
     <row r="94" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -20918,20 +21057,22 @@
       <c r="CK94" s="18">
         <v>-3.1423218361062197</v>
       </c>
-      <c r="CL94" s="35">
+      <c r="CL94" s="18">
         <v>2.7367618247031515</v>
       </c>
-      <c r="CM94" s="35">
+      <c r="CM94" s="18">
         <v>3.9993777276193612</v>
       </c>
-      <c r="CN94" s="35">
-        <v>-7.208481727088909</v>
-      </c>
-      <c r="CO94" s="35"/>
-      <c r="CP94" s="35"/>
-      <c r="CQ94" s="35"/>
-      <c r="CR94" s="35"/>
-      <c r="CS94" s="9"/>
+      <c r="CN94" s="18">
+        <v>-7.9444936995108861</v>
+      </c>
+      <c r="CO94" s="18">
+        <v>0.60620873478399062</v>
+      </c>
+      <c r="CP94" s="21"/>
+      <c r="CQ94" s="21"/>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
       <c r="CT94" s="9"/>
       <c r="CU94" s="9"/>
       <c r="CV94" s="9"/>
@@ -21251,20 +21392,22 @@
       <c r="CK95" s="18">
         <v>-33.890668245748373</v>
       </c>
-      <c r="CL95" s="35">
+      <c r="CL95" s="18">
         <v>18.755741887540651</v>
       </c>
-      <c r="CM95" s="35">
+      <c r="CM95" s="18">
         <v>47.557225052286213</v>
       </c>
-      <c r="CN95" s="35">
-        <v>23.146355039148816</v>
-      </c>
-      <c r="CO95" s="35"/>
-      <c r="CP95" s="35"/>
-      <c r="CQ95" s="35"/>
-      <c r="CR95" s="35"/>
-      <c r="CS95" s="9"/>
+      <c r="CN95" s="18">
+        <v>23.164109466780204</v>
+      </c>
+      <c r="CO95" s="18">
+        <v>70.308420689531232</v>
+      </c>
+      <c r="CP95" s="21"/>
+      <c r="CQ95" s="21"/>
+      <c r="CR95" s="21"/>
+      <c r="CS95" s="21"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
@@ -21584,20 +21727,22 @@
       <c r="CK96" s="18">
         <v>11.252850114661285</v>
       </c>
-      <c r="CL96" s="35">
+      <c r="CL96" s="18">
         <v>35.5106081488955</v>
       </c>
-      <c r="CM96" s="35">
+      <c r="CM96" s="18">
         <v>41.360508109013182</v>
       </c>
-      <c r="CN96" s="35">
-        <v>-19.455149206563505</v>
-      </c>
-      <c r="CO96" s="35"/>
-      <c r="CP96" s="35"/>
-      <c r="CQ96" s="35"/>
-      <c r="CR96" s="35"/>
-      <c r="CS96" s="9"/>
+      <c r="CN96" s="18">
+        <v>-19.986226737365982</v>
+      </c>
+      <c r="CO96" s="18">
+        <v>-29.806363791477281</v>
+      </c>
+      <c r="CP96" s="21"/>
+      <c r="CQ96" s="21"/>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
@@ -21917,20 +22062,22 @@
       <c r="CK97" s="18">
         <v>22.780147339555285</v>
       </c>
-      <c r="CL97" s="35">
+      <c r="CL97" s="18">
         <v>8.2304766771993201</v>
       </c>
-      <c r="CM97" s="35">
+      <c r="CM97" s="18">
         <v>25.531262825479047</v>
       </c>
-      <c r="CN97" s="35">
-        <v>-12.565813279736446</v>
-      </c>
-      <c r="CO97" s="35"/>
-      <c r="CP97" s="35"/>
-      <c r="CQ97" s="35"/>
-      <c r="CR97" s="35"/>
-      <c r="CS97" s="9"/>
+      <c r="CN97" s="18">
+        <v>-12.051194880549545</v>
+      </c>
+      <c r="CO97" s="18">
+        <v>18.120649350013721</v>
+      </c>
+      <c r="CP97" s="21"/>
+      <c r="CQ97" s="21"/>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
       <c r="CV97" s="9"/>
@@ -22250,20 +22397,22 @@
       <c r="CK98" s="18">
         <v>39.670564594574842</v>
       </c>
-      <c r="CL98" s="35">
+      <c r="CL98" s="18">
         <v>8.1518178866893436</v>
       </c>
-      <c r="CM98" s="35">
+      <c r="CM98" s="18">
         <v>29.700369656162877</v>
       </c>
-      <c r="CN98" s="35">
-        <v>-6.2338956367023286</v>
-      </c>
-      <c r="CO98" s="35"/>
-      <c r="CP98" s="35"/>
-      <c r="CQ98" s="35"/>
-      <c r="CR98" s="35"/>
-      <c r="CS98" s="9"/>
+      <c r="CN98" s="18">
+        <v>-6.123527799204993</v>
+      </c>
+      <c r="CO98" s="18">
+        <v>-8.7303282684580807</v>
+      </c>
+      <c r="CP98" s="21"/>
+      <c r="CQ98" s="21"/>
+      <c r="CR98" s="21"/>
+      <c r="CS98" s="21"/>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
       <c r="CV98" s="9"/>
@@ -22583,20 +22732,22 @@
       <c r="CK99" s="18">
         <v>10.620130913081653</v>
       </c>
-      <c r="CL99" s="35">
+      <c r="CL99" s="18">
         <v>9.788351734470524</v>
       </c>
-      <c r="CM99" s="35">
+      <c r="CM99" s="18">
         <v>-1.8357359933228992</v>
       </c>
-      <c r="CN99" s="35">
-        <v>14.717640435480831</v>
-      </c>
-      <c r="CO99" s="35"/>
-      <c r="CP99" s="35"/>
-      <c r="CQ99" s="35"/>
-      <c r="CR99" s="35"/>
-      <c r="CS99" s="9"/>
+      <c r="CN99" s="18">
+        <v>14.458920075996446</v>
+      </c>
+      <c r="CO99" s="18">
+        <v>-12.496397820173129</v>
+      </c>
+      <c r="CP99" s="21"/>
+      <c r="CQ99" s="21"/>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
       <c r="CV99" s="9"/>
@@ -22916,20 +23067,22 @@
       <c r="CK100" s="18">
         <v>-7.2462550615598929</v>
       </c>
-      <c r="CL100" s="35">
+      <c r="CL100" s="18">
         <v>-4.8508969004446101</v>
       </c>
-      <c r="CM100" s="35">
+      <c r="CM100" s="18">
         <v>-3.2554556028369603</v>
       </c>
-      <c r="CN100" s="35">
-        <v>-0.38662650167799484</v>
-      </c>
-      <c r="CO100" s="35"/>
-      <c r="CP100" s="35"/>
-      <c r="CQ100" s="35"/>
-      <c r="CR100" s="35"/>
-      <c r="CS100" s="9"/>
+      <c r="CN100" s="18">
+        <v>-1.7547243621418005</v>
+      </c>
+      <c r="CO100" s="18">
+        <v>9.2791865529867579</v>
+      </c>
+      <c r="CP100" s="21"/>
+      <c r="CQ100" s="21"/>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
       <c r="CV100" s="9"/>
@@ -23249,20 +23402,22 @@
       <c r="CK101" s="18">
         <v>-13.742990700988315</v>
       </c>
-      <c r="CL101" s="35">
+      <c r="CL101" s="18">
         <v>58.736595766537221</v>
       </c>
-      <c r="CM101" s="35">
+      <c r="CM101" s="18">
         <v>69.999058294996132</v>
       </c>
-      <c r="CN101" s="35">
-        <v>106.66490305499846</v>
-      </c>
-      <c r="CO101" s="35"/>
-      <c r="CP101" s="35"/>
-      <c r="CQ101" s="35"/>
-      <c r="CR101" s="35"/>
-      <c r="CS101" s="9"/>
+      <c r="CN101" s="18">
+        <v>106.02801108694652</v>
+      </c>
+      <c r="CO101" s="18">
+        <v>-14.002284059053054</v>
+      </c>
+      <c r="CP101" s="21"/>
+      <c r="CQ101" s="21"/>
+      <c r="CR101" s="21"/>
+      <c r="CS101" s="21"/>
       <c r="CT101" s="9"/>
       <c r="CU101" s="9"/>
       <c r="CV101" s="9"/>
@@ -23582,20 +23737,22 @@
       <c r="CK102" s="18">
         <v>-0.88709604137297049</v>
       </c>
-      <c r="CL102" s="35">
+      <c r="CL102" s="18">
         <v>-13.729043280597026</v>
       </c>
-      <c r="CM102" s="35">
+      <c r="CM102" s="18">
         <v>-34.333825393600847</v>
       </c>
-      <c r="CN102" s="35">
-        <v>-27.210502314592176</v>
-      </c>
-      <c r="CO102" s="35"/>
-      <c r="CP102" s="35"/>
-      <c r="CQ102" s="35"/>
-      <c r="CR102" s="35"/>
-      <c r="CS102" s="9"/>
+      <c r="CN102" s="18">
+        <v>-27.645941618541386</v>
+      </c>
+      <c r="CO102" s="18">
+        <v>1.1977328509864833</v>
+      </c>
+      <c r="CP102" s="21"/>
+      <c r="CQ102" s="21"/>
+      <c r="CR102" s="21"/>
+      <c r="CS102" s="21"/>
       <c r="CT102" s="9"/>
       <c r="CU102" s="9"/>
       <c r="CV102" s="9"/>
@@ -23915,20 +24072,22 @@
       <c r="CK103" s="18">
         <v>32.975084605904556</v>
       </c>
-      <c r="CL103" s="35">
+      <c r="CL103" s="18">
         <v>19.150436000937503</v>
       </c>
-      <c r="CM103" s="35">
+      <c r="CM103" s="18">
         <v>20.495319911370856</v>
       </c>
-      <c r="CN103" s="35">
-        <v>3.5970103697748215</v>
-      </c>
-      <c r="CO103" s="35"/>
-      <c r="CP103" s="35"/>
-      <c r="CQ103" s="35"/>
-      <c r="CR103" s="35"/>
-      <c r="CS103" s="9"/>
+      <c r="CN103" s="18">
+        <v>4.3527949423610437</v>
+      </c>
+      <c r="CO103" s="18">
+        <v>2.9407914794373795</v>
+      </c>
+      <c r="CP103" s="21"/>
+      <c r="CQ103" s="21"/>
+      <c r="CR103" s="21"/>
+      <c r="CS103" s="21"/>
       <c r="CT103" s="9"/>
       <c r="CU103" s="9"/>
       <c r="CV103" s="9"/>
@@ -24248,20 +24407,22 @@
       <c r="CK104" s="18">
         <v>19.731184714463737</v>
       </c>
-      <c r="CL104" s="35">
+      <c r="CL104" s="18">
         <v>9.1218081340804957</v>
       </c>
-      <c r="CM104" s="35">
+      <c r="CM104" s="18">
         <v>8.4853663971373123</v>
       </c>
-      <c r="CN104" s="35">
-        <v>-7.5077621437287974</v>
-      </c>
-      <c r="CO104" s="35"/>
-      <c r="CP104" s="35"/>
-      <c r="CQ104" s="35"/>
-      <c r="CR104" s="35"/>
-      <c r="CS104" s="9"/>
+      <c r="CN104" s="18">
+        <v>-7.4502338992061539</v>
+      </c>
+      <c r="CO104" s="18">
+        <v>7.4396982414107811</v>
+      </c>
+      <c r="CP104" s="21"/>
+      <c r="CQ104" s="21"/>
+      <c r="CR104" s="21"/>
+      <c r="CS104" s="21"/>
       <c r="CT104" s="9"/>
       <c r="CU104" s="9"/>
       <c r="CV104" s="9"/>
@@ -24581,20 +24742,22 @@
       <c r="CK105" s="18">
         <v>33.960591444513767</v>
       </c>
-      <c r="CL105" s="35">
+      <c r="CL105" s="18">
         <v>25.916592349756385</v>
       </c>
-      <c r="CM105" s="35">
+      <c r="CM105" s="18">
         <v>24.101706080214313</v>
       </c>
-      <c r="CN105" s="35">
-        <v>7.8624584288929498</v>
-      </c>
-      <c r="CO105" s="35"/>
-      <c r="CP105" s="35"/>
-      <c r="CQ105" s="35"/>
-      <c r="CR105" s="35"/>
-      <c r="CS105" s="9"/>
+      <c r="CN105" s="18">
+        <v>7.9517684432602493</v>
+      </c>
+      <c r="CO105" s="18">
+        <v>-3.8826433049588331</v>
+      </c>
+      <c r="CP105" s="21"/>
+      <c r="CQ105" s="21"/>
+      <c r="CR105" s="21"/>
+      <c r="CS105" s="21"/>
       <c r="CT105" s="9"/>
       <c r="CU105" s="9"/>
       <c r="CV105" s="9"/>
@@ -24914,20 +25077,22 @@
       <c r="CK106" s="18">
         <v>80.427362585648609</v>
       </c>
-      <c r="CL106" s="35">
+      <c r="CL106" s="18">
         <v>83.851936764689043</v>
       </c>
-      <c r="CM106" s="35">
+      <c r="CM106" s="18">
         <v>64.836376317474219</v>
       </c>
-      <c r="CN106" s="35">
-        <v>19.250110329839941</v>
-      </c>
-      <c r="CO106" s="35"/>
-      <c r="CP106" s="35"/>
-      <c r="CQ106" s="35"/>
-      <c r="CR106" s="35"/>
-      <c r="CS106" s="9"/>
+      <c r="CN106" s="18">
+        <v>20.615070665140479</v>
+      </c>
+      <c r="CO106" s="18">
+        <v>5.1986709414177739</v>
+      </c>
+      <c r="CP106" s="21"/>
+      <c r="CQ106" s="21"/>
+      <c r="CR106" s="21"/>
+      <c r="CS106" s="21"/>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
       <c r="CV106" s="9"/>
@@ -25247,20 +25412,22 @@
       <c r="CK107" s="18">
         <v>9.0861896397864683</v>
       </c>
-      <c r="CL107" s="35">
+      <c r="CL107" s="18">
         <v>-12.162625702680913</v>
       </c>
-      <c r="CM107" s="35">
+      <c r="CM107" s="18">
         <v>-4.3416783172982178</v>
       </c>
-      <c r="CN107" s="35">
-        <v>-11.596728657658772</v>
-      </c>
-      <c r="CO107" s="35"/>
-      <c r="CP107" s="35"/>
-      <c r="CQ107" s="35"/>
-      <c r="CR107" s="35"/>
-      <c r="CS107" s="9"/>
+      <c r="CN107" s="18">
+        <v>-11.085214119906254</v>
+      </c>
+      <c r="CO107" s="18">
+        <v>0.36743394391591266</v>
+      </c>
+      <c r="CP107" s="21"/>
+      <c r="CQ107" s="21"/>
+      <c r="CR107" s="21"/>
+      <c r="CS107" s="21"/>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
@@ -25580,20 +25747,22 @@
       <c r="CK108" s="18">
         <v>21.739786651774935</v>
       </c>
-      <c r="CL108" s="35">
+      <c r="CL108" s="18">
         <v>18.500666327261598</v>
       </c>
-      <c r="CM108" s="35">
+      <c r="CM108" s="18">
         <v>27.035368555685693</v>
       </c>
-      <c r="CN108" s="35">
-        <v>8.9580024052060736</v>
-      </c>
-      <c r="CO108" s="35"/>
-      <c r="CP108" s="35"/>
-      <c r="CQ108" s="35"/>
-      <c r="CR108" s="35"/>
-      <c r="CS108" s="9"/>
+      <c r="CN108" s="18">
+        <v>8.9387245659465719</v>
+      </c>
+      <c r="CO108" s="18">
+        <v>28.453760946360148</v>
+      </c>
+      <c r="CP108" s="21"/>
+      <c r="CQ108" s="21"/>
+      <c r="CR108" s="21"/>
+      <c r="CS108" s="21"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
@@ -25913,20 +26082,22 @@
       <c r="CK109" s="18">
         <v>38.066324328804001</v>
       </c>
-      <c r="CL109" s="35">
+      <c r="CL109" s="18">
         <v>31.171443032221021</v>
       </c>
-      <c r="CM109" s="35">
+      <c r="CM109" s="18">
         <v>30.168940720186527</v>
       </c>
-      <c r="CN109" s="35">
-        <v>8.4161565909208065</v>
-      </c>
-      <c r="CO109" s="35"/>
-      <c r="CP109" s="35"/>
-      <c r="CQ109" s="35"/>
-      <c r="CR109" s="35"/>
-      <c r="CS109" s="9"/>
+      <c r="CN109" s="18">
+        <v>8.3705323760341344</v>
+      </c>
+      <c r="CO109" s="18">
+        <v>12.836932274903788</v>
+      </c>
+      <c r="CP109" s="21"/>
+      <c r="CQ109" s="21"/>
+      <c r="CR109" s="21"/>
+      <c r="CS109" s="21"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
@@ -26246,20 +26417,22 @@
       <c r="CK110" s="18">
         <v>-99.551333877680136</v>
       </c>
-      <c r="CL110" s="35">
+      <c r="CL110" s="18">
         <v>-98.650503406328937</v>
       </c>
-      <c r="CM110" s="35">
+      <c r="CM110" s="18">
         <v>-99.100926035919613</v>
       </c>
-      <c r="CN110" s="35">
-        <v>-97.153307417945456</v>
-      </c>
-      <c r="CO110" s="35"/>
-      <c r="CP110" s="35"/>
-      <c r="CQ110" s="35"/>
-      <c r="CR110" s="35"/>
-      <c r="CS110" s="9"/>
+      <c r="CN110" s="18">
+        <v>-97.484006629652882</v>
+      </c>
+      <c r="CO110" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP110" s="21"/>
+      <c r="CQ110" s="21"/>
+      <c r="CR110" s="21"/>
+      <c r="CS110" s="21"/>
       <c r="CT110" s="9"/>
       <c r="CU110" s="9"/>
       <c r="CV110" s="9"/>
@@ -26579,20 +26752,22 @@
       <c r="CK111" s="18">
         <v>-68.660450439804279</v>
       </c>
-      <c r="CL111" s="35">
+      <c r="CL111" s="18">
         <v>-49.097951632191318</v>
       </c>
-      <c r="CM111" s="35">
+      <c r="CM111" s="18">
         <v>38.494015216530698</v>
       </c>
-      <c r="CN111" s="35">
-        <v>84.949785500225431</v>
-      </c>
-      <c r="CO111" s="35"/>
-      <c r="CP111" s="35"/>
-      <c r="CQ111" s="35"/>
-      <c r="CR111" s="35"/>
-      <c r="CS111" s="9"/>
+      <c r="CN111" s="18">
+        <v>84.954514973876513</v>
+      </c>
+      <c r="CO111" s="18">
+        <v>365.70297930026163</v>
+      </c>
+      <c r="CP111" s="21"/>
+      <c r="CQ111" s="21"/>
+      <c r="CR111" s="21"/>
+      <c r="CS111" s="21"/>
       <c r="CT111" s="9"/>
       <c r="CU111" s="9"/>
       <c r="CV111" s="9"/>
@@ -26912,20 +27087,22 @@
       <c r="CK112" s="18">
         <v>186.47284241674464</v>
       </c>
-      <c r="CL112" s="35">
+      <c r="CL112" s="18">
         <v>-24.408166019971489</v>
       </c>
-      <c r="CM112" s="35">
+      <c r="CM112" s="18">
         <v>-5.4629720756231563</v>
       </c>
-      <c r="CN112" s="35">
-        <v>-49.466128777386501</v>
-      </c>
-      <c r="CO112" s="35"/>
-      <c r="CP112" s="35"/>
-      <c r="CQ112" s="35"/>
-      <c r="CR112" s="35"/>
-      <c r="CS112" s="9"/>
+      <c r="CN112" s="18">
+        <v>-48.839521706260314</v>
+      </c>
+      <c r="CO112" s="18">
+        <v>83.319345901602787</v>
+      </c>
+      <c r="CP112" s="21"/>
+      <c r="CQ112" s="21"/>
+      <c r="CR112" s="21"/>
+      <c r="CS112" s="21"/>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
       <c r="CV112" s="9"/>
@@ -27245,20 +27422,22 @@
       <c r="CK113" s="18">
         <v>16.532349124837879</v>
       </c>
-      <c r="CL113" s="35">
+      <c r="CL113" s="18">
         <v>14.908492486547004</v>
       </c>
-      <c r="CM113" s="35">
+      <c r="CM113" s="18">
         <v>4.1135238370935951</v>
       </c>
-      <c r="CN113" s="35">
-        <v>-3.3379375309253732</v>
-      </c>
-      <c r="CO113" s="35"/>
-      <c r="CP113" s="35"/>
-      <c r="CQ113" s="35"/>
-      <c r="CR113" s="35"/>
-      <c r="CS113" s="9"/>
+      <c r="CN113" s="18">
+        <v>-3.3244759544946731</v>
+      </c>
+      <c r="CO113" s="18">
+        <v>3.3319877107685443</v>
+      </c>
+      <c r="CP113" s="21"/>
+      <c r="CQ113" s="21"/>
+      <c r="CR113" s="21"/>
+      <c r="CS113" s="21"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
@@ -27578,20 +27757,22 @@
       <c r="CK114" s="18">
         <v>66.409150524553638</v>
       </c>
-      <c r="CL114" s="35">
+      <c r="CL114" s="18">
         <v>26.789831173921158</v>
       </c>
-      <c r="CM114" s="35">
+      <c r="CM114" s="18">
         <v>11.246514321811915</v>
       </c>
-      <c r="CN114" s="35">
-        <v>-5.332830513473823</v>
-      </c>
-      <c r="CO114" s="35"/>
-      <c r="CP114" s="35"/>
-      <c r="CQ114" s="35"/>
-      <c r="CR114" s="35"/>
-      <c r="CS114" s="9"/>
+      <c r="CN114" s="18">
+        <v>-5.6684341603107242</v>
+      </c>
+      <c r="CO114" s="18">
+        <v>-3.6495061760077903</v>
+      </c>
+      <c r="CP114" s="21"/>
+      <c r="CQ114" s="21"/>
+      <c r="CR114" s="21"/>
+      <c r="CS114" s="21"/>
       <c r="CT114" s="9"/>
       <c r="CU114" s="9"/>
       <c r="CV114" s="9"/>
@@ -27911,20 +28092,22 @@
       <c r="CK115" s="18">
         <v>8.6519988830101653</v>
       </c>
-      <c r="CL115" s="35">
+      <c r="CL115" s="18">
         <v>7.5233312442894089</v>
       </c>
-      <c r="CM115" s="35">
+      <c r="CM115" s="18">
         <v>22.010321702732767</v>
       </c>
-      <c r="CN115" s="35">
-        <v>3.6384302570942566</v>
-      </c>
-      <c r="CO115" s="35"/>
-      <c r="CP115" s="35"/>
-      <c r="CQ115" s="35"/>
-      <c r="CR115" s="35"/>
-      <c r="CS115" s="9"/>
+      <c r="CN115" s="18">
+        <v>4.8087652568020047</v>
+      </c>
+      <c r="CO115" s="18">
+        <v>25.509099662986827</v>
+      </c>
+      <c r="CP115" s="21"/>
+      <c r="CQ115" s="21"/>
+      <c r="CR115" s="21"/>
+      <c r="CS115" s="21"/>
       <c r="CT115" s="9"/>
       <c r="CU115" s="9"/>
       <c r="CV115" s="9"/>
@@ -28244,20 +28427,22 @@
       <c r="CK116" s="18">
         <v>14.396255255301497</v>
       </c>
-      <c r="CL116" s="35">
+      <c r="CL116" s="18">
         <v>14.32032362510131</v>
       </c>
-      <c r="CM116" s="35">
+      <c r="CM116" s="18">
         <v>1.8336815905257282</v>
       </c>
-      <c r="CN116" s="35">
-        <v>0.85907193268781157</v>
-      </c>
-      <c r="CO116" s="35"/>
-      <c r="CP116" s="35"/>
-      <c r="CQ116" s="35"/>
-      <c r="CR116" s="35"/>
-      <c r="CS116" s="9"/>
+      <c r="CN116" s="18">
+        <v>0.52545204244889021</v>
+      </c>
+      <c r="CO116" s="18">
+        <v>1.0492680326211286</v>
+      </c>
+      <c r="CP116" s="21"/>
+      <c r="CQ116" s="21"/>
+      <c r="CR116" s="21"/>
+      <c r="CS116" s="21"/>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
       <c r="CV116" s="9"/>
@@ -28577,20 +28762,22 @@
       <c r="CK117" s="18">
         <v>7.414953349529199</v>
       </c>
-      <c r="CL117" s="35">
+      <c r="CL117" s="18">
         <v>17.684050114838954</v>
       </c>
-      <c r="CM117" s="35">
+      <c r="CM117" s="18">
         <v>-3.3365287248925739</v>
       </c>
-      <c r="CN117" s="35">
-        <v>-20.487767413655476</v>
-      </c>
-      <c r="CO117" s="35"/>
-      <c r="CP117" s="35"/>
-      <c r="CQ117" s="35"/>
-      <c r="CR117" s="35"/>
-      <c r="CS117" s="9"/>
+      <c r="CN117" s="18">
+        <v>-20.057206736132471</v>
+      </c>
+      <c r="CO117" s="18">
+        <v>-3.4443608874957334</v>
+      </c>
+      <c r="CP117" s="21"/>
+      <c r="CQ117" s="21"/>
+      <c r="CR117" s="21"/>
+      <c r="CS117" s="21"/>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
       <c r="CV117" s="9"/>
@@ -28731,14 +28918,14 @@
       <c r="CI118" s="9"/>
       <c r="CJ118" s="9"/>
       <c r="CK118" s="9"/>
-      <c r="CL118" s="31"/>
-      <c r="CM118" s="31"/>
-      <c r="CN118" s="31"/>
-      <c r="CO118" s="31"/>
-      <c r="CP118" s="31"/>
-      <c r="CQ118" s="31"/>
-      <c r="CR118" s="31"/>
-      <c r="CS118" s="9"/>
+      <c r="CL118" s="9"/>
+      <c r="CM118" s="9"/>
+      <c r="CN118" s="9"/>
+      <c r="CO118" s="9"/>
+      <c r="CP118" s="29"/>
+      <c r="CQ118" s="29"/>
+      <c r="CR118" s="29"/>
+      <c r="CS118" s="29"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
@@ -29058,20 +29245,22 @@
       <c r="CK119" s="23">
         <v>17.629840372568012</v>
       </c>
-      <c r="CL119" s="36">
+      <c r="CL119" s="23">
         <v>15.101511538953901</v>
       </c>
-      <c r="CM119" s="36">
+      <c r="CM119" s="23">
         <v>17.716942746776581</v>
       </c>
-      <c r="CN119" s="36">
-        <v>3.7100657732739108</v>
-      </c>
-      <c r="CO119" s="36"/>
-      <c r="CP119" s="36"/>
-      <c r="CQ119" s="36"/>
-      <c r="CR119" s="36"/>
-      <c r="CS119" s="9"/>
+      <c r="CN119" s="23">
+        <v>3.7442560885524045</v>
+      </c>
+      <c r="CO119" s="23">
+        <v>14.512663794857914</v>
+      </c>
+      <c r="CP119" s="30"/>
+      <c r="CQ119" s="30"/>
+      <c r="CR119" s="30"/>
+      <c r="CS119" s="30"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
@@ -29213,18 +29402,23 @@
       <c r="CI120" s="14"/>
       <c r="CJ120" s="14"/>
       <c r="CK120" s="14"/>
-      <c r="CL120" s="33"/>
-      <c r="CM120" s="33"/>
-      <c r="CN120" s="33"/>
-      <c r="CO120" s="33"/>
-      <c r="CP120" s="33"/>
-      <c r="CQ120" s="33"/>
-      <c r="CR120" s="33"/>
+      <c r="CL120" s="14"/>
+      <c r="CM120" s="14"/>
+      <c r="CN120" s="14"/>
+      <c r="CO120" s="14"/>
+      <c r="CP120" s="17"/>
+      <c r="CQ120" s="17"/>
+      <c r="CR120" s="17"/>
+      <c r="CS120" s="17"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="CP121" s="7"/>
+      <c r="CQ121" s="7"/>
+      <c r="CR121" s="7"/>
+      <c r="CS121" s="7"/>
     </row>
     <row r="122" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
@@ -29318,14 +29512,14 @@
       <c r="CI122" s="9"/>
       <c r="CJ122" s="9"/>
       <c r="CK122" s="9"/>
-      <c r="CL122" s="31"/>
-      <c r="CM122" s="31"/>
-      <c r="CN122" s="31"/>
-      <c r="CO122" s="31"/>
-      <c r="CP122" s="31"/>
-      <c r="CQ122" s="31"/>
-      <c r="CR122" s="31"/>
-      <c r="CS122" s="9"/>
+      <c r="CL122" s="9"/>
+      <c r="CM122" s="9"/>
+      <c r="CN122" s="9"/>
+      <c r="CO122" s="9"/>
+      <c r="CP122" s="29"/>
+      <c r="CQ122" s="29"/>
+      <c r="CR122" s="29"/>
+      <c r="CS122" s="29"/>
       <c r="CT122" s="9"/>
       <c r="CU122" s="9"/>
       <c r="CV122" s="9"/>
@@ -29466,14 +29660,14 @@
       <c r="CI123" s="9"/>
       <c r="CJ123" s="9"/>
       <c r="CK123" s="9"/>
-      <c r="CL123" s="31"/>
-      <c r="CM123" s="31"/>
-      <c r="CN123" s="31"/>
-      <c r="CO123" s="31"/>
-      <c r="CP123" s="31"/>
-      <c r="CQ123" s="31"/>
-      <c r="CR123" s="31"/>
-      <c r="CS123" s="9"/>
+      <c r="CL123" s="9"/>
+      <c r="CM123" s="9"/>
+      <c r="CN123" s="9"/>
+      <c r="CO123" s="9"/>
+      <c r="CP123" s="29"/>
+      <c r="CQ123" s="29"/>
+      <c r="CR123" s="29"/>
+      <c r="CS123" s="29"/>
       <c r="CT123" s="9"/>
       <c r="CU123" s="9"/>
       <c r="CV123" s="9"/>
@@ -29529,175 +29723,212 @@
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP124" s="7"/>
+      <c r="CQ124" s="7"/>
+      <c r="CR124" s="7"/>
+      <c r="CS124" s="7"/>
     </row>
     <row r="125" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CP125" s="7"/>
+      <c r="CQ125" s="7"/>
+      <c r="CR125" s="7"/>
+      <c r="CS125" s="7"/>
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="CP126" s="7"/>
+      <c r="CQ126" s="7"/>
+      <c r="CR126" s="7"/>
+      <c r="CS126" s="7"/>
+    </row>
+    <row r="127" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="CP127" s="7"/>
+      <c r="CQ127" s="7"/>
+      <c r="CR127" s="7"/>
+      <c r="CS127" s="7"/>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="CP128" s="7"/>
+      <c r="CQ128" s="7"/>
+      <c r="CR128" s="7"/>
+      <c r="CS128" s="7"/>
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="CP129" s="7"/>
+      <c r="CQ129" s="7"/>
+      <c r="CR129" s="7"/>
+      <c r="CS129" s="7"/>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="CP130" s="7"/>
+      <c r="CQ130" s="7"/>
+      <c r="CR130" s="7"/>
+      <c r="CS130" s="7"/>
+    </row>
+    <row r="131" spans="1:147" x14ac:dyDescent="0.2">
+      <c r="CP131" s="7"/>
+      <c r="CQ131" s="7"/>
+      <c r="CR131" s="7"/>
+      <c r="CS131" s="7"/>
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="38" t="s">
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="38" t="s">
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="31"/>
+      <c r="J132" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="37"/>
-      <c r="L132" s="37"/>
-      <c r="M132" s="37"/>
-      <c r="N132" s="38" t="s">
+      <c r="K132" s="31"/>
+      <c r="L132" s="31"/>
+      <c r="M132" s="31"/>
+      <c r="N132" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="37"/>
-      <c r="P132" s="37"/>
-      <c r="Q132" s="37"/>
-      <c r="R132" s="38" t="s">
+      <c r="O132" s="31"/>
+      <c r="P132" s="31"/>
+      <c r="Q132" s="31"/>
+      <c r="R132" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="37"/>
-      <c r="T132" s="37"/>
-      <c r="U132" s="37"/>
-      <c r="V132" s="38" t="s">
+      <c r="S132" s="31"/>
+      <c r="T132" s="31"/>
+      <c r="U132" s="31"/>
+      <c r="V132" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="37"/>
-      <c r="X132" s="37"/>
-      <c r="Y132" s="37"/>
-      <c r="Z132" s="38" t="s">
+      <c r="W132" s="31"/>
+      <c r="X132" s="31"/>
+      <c r="Y132" s="31"/>
+      <c r="Z132" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="37"/>
-      <c r="AB132" s="37"/>
-      <c r="AC132" s="37"/>
-      <c r="AD132" s="38" t="s">
+      <c r="AA132" s="31"/>
+      <c r="AB132" s="31"/>
+      <c r="AC132" s="31"/>
+      <c r="AD132" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="37"/>
-      <c r="AF132" s="37"/>
-      <c r="AG132" s="37"/>
-      <c r="AH132" s="38" t="s">
+      <c r="AE132" s="31"/>
+      <c r="AF132" s="31"/>
+      <c r="AG132" s="31"/>
+      <c r="AH132" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="37"/>
-      <c r="AJ132" s="37"/>
-      <c r="AK132" s="37"/>
-      <c r="AL132" s="38" t="s">
+      <c r="AI132" s="31"/>
+      <c r="AJ132" s="31"/>
+      <c r="AK132" s="31"/>
+      <c r="AL132" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="37"/>
-      <c r="AN132" s="37"/>
-      <c r="AO132" s="37"/>
-      <c r="AP132" s="38" t="s">
+      <c r="AM132" s="31"/>
+      <c r="AN132" s="31"/>
+      <c r="AO132" s="31"/>
+      <c r="AP132" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="37"/>
-      <c r="AR132" s="37"/>
-      <c r="AS132" s="37"/>
-      <c r="AT132" s="38" t="s">
+      <c r="AQ132" s="31"/>
+      <c r="AR132" s="31"/>
+      <c r="AS132" s="31"/>
+      <c r="AT132" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="37"/>
-      <c r="AV132" s="37"/>
-      <c r="AW132" s="37"/>
-      <c r="AX132" s="38" t="s">
+      <c r="AU132" s="31"/>
+      <c r="AV132" s="31"/>
+      <c r="AW132" s="31"/>
+      <c r="AX132" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="37"/>
-      <c r="AZ132" s="37"/>
-      <c r="BA132" s="37"/>
-      <c r="BB132" s="38" t="s">
+      <c r="AY132" s="31"/>
+      <c r="AZ132" s="31"/>
+      <c r="BA132" s="31"/>
+      <c r="BB132" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="37"/>
-      <c r="BD132" s="37"/>
-      <c r="BE132" s="37"/>
-      <c r="BF132" s="38" t="s">
+      <c r="BC132" s="31"/>
+      <c r="BD132" s="31"/>
+      <c r="BE132" s="31"/>
+      <c r="BF132" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="37"/>
-      <c r="BH132" s="37"/>
-      <c r="BI132" s="37"/>
-      <c r="BJ132" s="38" t="s">
+      <c r="BG132" s="31"/>
+      <c r="BH132" s="31"/>
+      <c r="BI132" s="31"/>
+      <c r="BJ132" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="37"/>
-      <c r="BL132" s="37"/>
-      <c r="BM132" s="37"/>
-      <c r="BN132" s="38" t="s">
+      <c r="BK132" s="31"/>
+      <c r="BL132" s="31"/>
+      <c r="BM132" s="31"/>
+      <c r="BN132" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="37"/>
-      <c r="BP132" s="37"/>
-      <c r="BQ132" s="37"/>
-      <c r="BR132" s="38" t="s">
+      <c r="BO132" s="31"/>
+      <c r="BP132" s="31"/>
+      <c r="BQ132" s="31"/>
+      <c r="BR132" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="37"/>
-      <c r="BT132" s="37"/>
-      <c r="BU132" s="37"/>
-      <c r="BV132" s="38" t="s">
+      <c r="BS132" s="31"/>
+      <c r="BT132" s="31"/>
+      <c r="BU132" s="31"/>
+      <c r="BV132" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="37"/>
-      <c r="BX132" s="37"/>
-      <c r="BY132" s="37"/>
-      <c r="BZ132" s="38" t="s">
+      <c r="BW132" s="31"/>
+      <c r="BX132" s="31"/>
+      <c r="BY132" s="31"/>
+      <c r="BZ132" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="37"/>
-      <c r="CB132" s="37"/>
-      <c r="CC132" s="37"/>
-      <c r="CD132" s="38" t="s">
+      <c r="CA132" s="31"/>
+      <c r="CB132" s="31"/>
+      <c r="CC132" s="31"/>
+      <c r="CD132" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="38"/>
-      <c r="CF132" s="38"/>
-      <c r="CG132" s="38"/>
-      <c r="CH132" s="38" t="s">
+      <c r="CE132" s="32"/>
+      <c r="CF132" s="32"/>
+      <c r="CG132" s="32"/>
+      <c r="CH132" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="CI132" s="38"/>
-      <c r="CJ132" s="38"/>
-      <c r="CK132" s="38"/>
-      <c r="CL132" s="37" t="s">
+      <c r="CI132" s="32"/>
+      <c r="CJ132" s="32"/>
+      <c r="CK132" s="32"/>
+      <c r="CL132" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="CM132" s="37"/>
-      <c r="CN132" s="37"/>
-      <c r="CO132" s="4"/>
+      <c r="CM132" s="28"/>
+      <c r="CN132" s="28"/>
+      <c r="CO132" s="28"/>
       <c r="CP132" s="27"/>
       <c r="CQ132" s="27"/>
       <c r="CR132" s="27"/>
+      <c r="CS132" s="27"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -29967,22 +30198,29 @@
       <c r="CK133" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL133" s="34" t="s">
+      <c r="CL133" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM133" s="34" t="s">
+      <c r="CM133" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN133" s="34" t="s">
+      <c r="CN133" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO133" s="34"/>
-      <c r="CP133" s="34"/>
-      <c r="CQ133" s="34"/>
-      <c r="CR133" s="34"/>
+      <c r="CO133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP133" s="17"/>
+      <c r="CQ133" s="17"/>
+      <c r="CR133" s="17"/>
+      <c r="CS133" s="17"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
+      <c r="CP134" s="7"/>
+      <c r="CQ134" s="7"/>
+      <c r="CR134" s="7"/>
+      <c r="CS134" s="7"/>
     </row>
     <row r="135" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -30252,20 +30490,22 @@
       <c r="CK135" s="18">
         <v>-15.743263847795319</v>
       </c>
-      <c r="CL135" s="35">
+      <c r="CL135" s="18">
         <v>-6.1339993461149902</v>
       </c>
-      <c r="CM135" s="35">
+      <c r="CM135" s="18">
         <v>6.2317125031194252</v>
       </c>
-      <c r="CN135" s="35">
-        <v>-14.228829511220212</v>
-      </c>
-      <c r="CO135" s="35"/>
-      <c r="CP135" s="35"/>
-      <c r="CQ135" s="35"/>
-      <c r="CR135" s="35"/>
-      <c r="CS135" s="9"/>
+      <c r="CN135" s="18">
+        <v>-14.889232897140687</v>
+      </c>
+      <c r="CO135" s="18">
+        <v>3.4866909513476543</v>
+      </c>
+      <c r="CP135" s="21"/>
+      <c r="CQ135" s="21"/>
+      <c r="CR135" s="21"/>
+      <c r="CS135" s="21"/>
       <c r="CT135" s="9"/>
       <c r="CU135" s="9"/>
       <c r="CV135" s="9"/>
@@ -30585,20 +30825,22 @@
       <c r="CK136" s="18">
         <v>-44.984597890591893</v>
       </c>
-      <c r="CL136" s="35">
+      <c r="CL136" s="18">
         <v>6.4764475532732604</v>
       </c>
-      <c r="CM136" s="35">
+      <c r="CM136" s="18">
         <v>31.989659649957161</v>
       </c>
-      <c r="CN136" s="35">
-        <v>19.040105566088727</v>
-      </c>
-      <c r="CO136" s="35"/>
-      <c r="CP136" s="35"/>
-      <c r="CQ136" s="35"/>
-      <c r="CR136" s="35"/>
-      <c r="CS136" s="9"/>
+      <c r="CN136" s="18">
+        <v>19.060102480667368</v>
+      </c>
+      <c r="CO136" s="18">
+        <v>72.509678510771067</v>
+      </c>
+      <c r="CP136" s="21"/>
+      <c r="CQ136" s="21"/>
+      <c r="CR136" s="21"/>
+      <c r="CS136" s="21"/>
       <c r="CT136" s="9"/>
       <c r="CU136" s="9"/>
       <c r="CV136" s="9"/>
@@ -30918,20 +31160,22 @@
       <c r="CK137" s="18">
         <v>-7.0870870005981885</v>
       </c>
-      <c r="CL137" s="35">
+      <c r="CL137" s="18">
         <v>21.478812174530091</v>
       </c>
-      <c r="CM137" s="35">
+      <c r="CM137" s="18">
         <v>26.015225459990859</v>
       </c>
-      <c r="CN137" s="35">
-        <v>-22.036033614906955</v>
-      </c>
-      <c r="CO137" s="35"/>
-      <c r="CP137" s="35"/>
-      <c r="CQ137" s="35"/>
-      <c r="CR137" s="35"/>
-      <c r="CS137" s="9"/>
+      <c r="CN137" s="18">
+        <v>-22.544399678920016</v>
+      </c>
+      <c r="CO137" s="18">
+        <v>-29.096342400664142</v>
+      </c>
+      <c r="CP137" s="21"/>
+      <c r="CQ137" s="21"/>
+      <c r="CR137" s="21"/>
+      <c r="CS137" s="21"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
@@ -31251,20 +31495,22 @@
       <c r="CK138" s="18">
         <v>24.607617638788867</v>
       </c>
-      <c r="CL138" s="35">
+      <c r="CL138" s="18">
         <v>2.8711616862938598</v>
       </c>
-      <c r="CM138" s="35">
+      <c r="CM138" s="18">
         <v>6.7903975862953416</v>
       </c>
-      <c r="CN138" s="35">
-        <v>-12.799354924145888</v>
-      </c>
-      <c r="CO138" s="35"/>
-      <c r="CP138" s="35"/>
-      <c r="CQ138" s="35"/>
-      <c r="CR138" s="35"/>
-      <c r="CS138" s="9"/>
+      <c r="CN138" s="18">
+        <v>-12.220313537670805</v>
+      </c>
+      <c r="CO138" s="18">
+        <v>19.33131982071319</v>
+      </c>
+      <c r="CP138" s="21"/>
+      <c r="CQ138" s="21"/>
+      <c r="CR138" s="21"/>
+      <c r="CS138" s="21"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
@@ -31584,20 +31830,22 @@
       <c r="CK139" s="18">
         <v>27.580786526889469</v>
       </c>
-      <c r="CL139" s="35">
+      <c r="CL139" s="18">
         <v>-1.2418471287400621</v>
       </c>
-      <c r="CM139" s="35">
+      <c r="CM139" s="18">
         <v>13.025183194547509</v>
       </c>
-      <c r="CN139" s="35">
-        <v>-8.9900067171293614</v>
-      </c>
-      <c r="CO139" s="35"/>
-      <c r="CP139" s="35"/>
-      <c r="CQ139" s="35"/>
-      <c r="CR139" s="35"/>
-      <c r="CS139" s="9"/>
+      <c r="CN139" s="18">
+        <v>-8.8680086109470437</v>
+      </c>
+      <c r="CO139" s="18">
+        <v>-8.242664426111034</v>
+      </c>
+      <c r="CP139" s="21"/>
+      <c r="CQ139" s="21"/>
+      <c r="CR139" s="21"/>
+      <c r="CS139" s="21"/>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
       <c r="CV139" s="9"/>
@@ -31917,20 +32165,22 @@
       <c r="CK140" s="18">
         <v>-6.585756202320141</v>
       </c>
-      <c r="CL140" s="35">
+      <c r="CL140" s="18">
         <v>-1.7487203306237262</v>
       </c>
-      <c r="CM140" s="35">
+      <c r="CM140" s="18">
         <v>-11.479593879435726</v>
       </c>
-      <c r="CN140" s="35">
-        <v>11.008978158944345</v>
-      </c>
-      <c r="CO140" s="35"/>
-      <c r="CP140" s="35"/>
-      <c r="CQ140" s="35"/>
-      <c r="CR140" s="35"/>
-      <c r="CS140" s="9"/>
+      <c r="CN140" s="18">
+        <v>10.77289261460561</v>
+      </c>
+      <c r="CO140" s="18">
+        <v>-11.64591941222956</v>
+      </c>
+      <c r="CP140" s="21"/>
+      <c r="CQ140" s="21"/>
+      <c r="CR140" s="21"/>
+      <c r="CS140" s="21"/>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
       <c r="CV140" s="9"/>
@@ -32250,20 +32500,22 @@
       <c r="CK141" s="18">
         <v>-19.760942605162967</v>
       </c>
-      <c r="CL141" s="35">
+      <c r="CL141" s="18">
         <v>-12.533611020579343</v>
       </c>
-      <c r="CM141" s="35">
+      <c r="CM141" s="18">
         <v>9.2601518137035015</v>
       </c>
-      <c r="CN141" s="35">
-        <v>-15.534587324143132</v>
-      </c>
-      <c r="CO141" s="35"/>
-      <c r="CP141" s="35"/>
-      <c r="CQ141" s="35"/>
-      <c r="CR141" s="35"/>
-      <c r="CS141" s="9"/>
+      <c r="CN141" s="18">
+        <v>-16.721347543760615</v>
+      </c>
+      <c r="CO141" s="18">
+        <v>20.371351204207983</v>
+      </c>
+      <c r="CP141" s="21"/>
+      <c r="CQ141" s="21"/>
+      <c r="CR141" s="21"/>
+      <c r="CS141" s="21"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
       <c r="CV141" s="9"/>
@@ -32583,20 +32835,22 @@
       <c r="CK142" s="18">
         <v>-27.570405592057696</v>
       </c>
-      <c r="CL142" s="35">
+      <c r="CL142" s="18">
         <v>42.549093555188222</v>
       </c>
-      <c r="CM142" s="35">
+      <c r="CM142" s="18">
         <v>48.223442618204132</v>
       </c>
-      <c r="CN142" s="35">
-        <v>99.45148783600294</v>
-      </c>
-      <c r="CO142" s="35"/>
-      <c r="CP142" s="35"/>
-      <c r="CQ142" s="35"/>
-      <c r="CR142" s="35"/>
-      <c r="CS142" s="9"/>
+      <c r="CN142" s="18">
+        <v>98.855644291704692</v>
+      </c>
+      <c r="CO142" s="18">
+        <v>-13.274112710931448</v>
+      </c>
+      <c r="CP142" s="21"/>
+      <c r="CQ142" s="21"/>
+      <c r="CR142" s="21"/>
+      <c r="CS142" s="21"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
@@ -32916,20 +33170,22 @@
       <c r="CK143" s="18">
         <v>-9.4886638440771236</v>
       </c>
-      <c r="CL143" s="35">
+      <c r="CL143" s="18">
         <v>-18.88967286858562</v>
       </c>
-      <c r="CM143" s="35">
+      <c r="CM143" s="18">
         <v>-33.466059889464177</v>
       </c>
-      <c r="CN143" s="35">
-        <v>-27.408990382647275</v>
-      </c>
-      <c r="CO143" s="35"/>
-      <c r="CP143" s="35"/>
-      <c r="CQ143" s="35"/>
-      <c r="CR143" s="35"/>
-      <c r="CS143" s="9"/>
+      <c r="CN143" s="18">
+        <v>-27.728479605124022</v>
+      </c>
+      <c r="CO143" s="18">
+        <v>1.7837430363615994</v>
+      </c>
+      <c r="CP143" s="21"/>
+      <c r="CQ143" s="21"/>
+      <c r="CR143" s="21"/>
+      <c r="CS143" s="21"/>
       <c r="CT143" s="9"/>
       <c r="CU143" s="9"/>
       <c r="CV143" s="9"/>
@@ -33249,20 +33505,22 @@
       <c r="CK144" s="18">
         <v>20.04626171891482</v>
       </c>
-      <c r="CL144" s="35">
+      <c r="CL144" s="18">
         <v>7.7993638967651435</v>
       </c>
-      <c r="CM144" s="35">
+      <c r="CM144" s="18">
         <v>13.101858974631469</v>
       </c>
-      <c r="CN144" s="35">
-        <v>0.38262436048697168</v>
-      </c>
-      <c r="CO144" s="35"/>
-      <c r="CP144" s="35"/>
-      <c r="CQ144" s="35"/>
-      <c r="CR144" s="35"/>
-      <c r="CS144" s="9"/>
+      <c r="CN144" s="18">
+        <v>1.0344112408997574</v>
+      </c>
+      <c r="CO144" s="18">
+        <v>3.1998241104467695</v>
+      </c>
+      <c r="CP144" s="21"/>
+      <c r="CQ144" s="21"/>
+      <c r="CR144" s="21"/>
+      <c r="CS144" s="21"/>
       <c r="CT144" s="9"/>
       <c r="CU144" s="9"/>
       <c r="CV144" s="9"/>
@@ -33582,20 +33840,22 @@
       <c r="CK145" s="18">
         <v>6.8331401942381973</v>
       </c>
-      <c r="CL145" s="35">
+      <c r="CL145" s="18">
         <v>1.567084208334208</v>
       </c>
-      <c r="CM145" s="35">
+      <c r="CM145" s="18">
         <v>-2.1112477202724591</v>
       </c>
-      <c r="CN145" s="35">
-        <v>-9.9354779965756421</v>
-      </c>
-      <c r="CO145" s="35"/>
-      <c r="CP145" s="35"/>
-      <c r="CQ145" s="35"/>
-      <c r="CR145" s="35"/>
-      <c r="CS145" s="9"/>
+      <c r="CN145" s="18">
+        <v>-9.8782616604011935</v>
+      </c>
+      <c r="CO145" s="18">
+        <v>8.5080471934848418</v>
+      </c>
+      <c r="CP145" s="21"/>
+      <c r="CQ145" s="21"/>
+      <c r="CR145" s="21"/>
+      <c r="CS145" s="21"/>
       <c r="CT145" s="9"/>
       <c r="CU145" s="9"/>
       <c r="CV145" s="9"/>
@@ -33915,20 +34175,22 @@
       <c r="CK146" s="18">
         <v>14.516318095271671</v>
       </c>
-      <c r="CL146" s="35">
+      <c r="CL146" s="18">
         <v>15.058215933861291</v>
       </c>
-      <c r="CM146" s="35">
+      <c r="CM146" s="18">
         <v>11.506142159781277</v>
       </c>
-      <c r="CN146" s="35">
-        <v>3.3525376595289629</v>
-      </c>
-      <c r="CO146" s="35"/>
-      <c r="CP146" s="35"/>
-      <c r="CQ146" s="35"/>
-      <c r="CR146" s="35"/>
-      <c r="CS146" s="9"/>
+      <c r="CN146" s="18">
+        <v>3.438928806245741</v>
+      </c>
+      <c r="CO146" s="18">
+        <v>-5.2911720616051099</v>
+      </c>
+      <c r="CP146" s="21"/>
+      <c r="CQ146" s="21"/>
+      <c r="CR146" s="21"/>
+      <c r="CS146" s="21"/>
       <c r="CT146" s="9"/>
       <c r="CU146" s="9"/>
       <c r="CV146" s="9"/>
@@ -34248,20 +34510,22 @@
       <c r="CK147" s="18">
         <v>52.281991598247743</v>
       </c>
-      <c r="CL147" s="35">
+      <c r="CL147" s="18">
         <v>63.29201633764464</v>
       </c>
-      <c r="CM147" s="35">
+      <c r="CM147" s="18">
         <v>66.983214206736733</v>
       </c>
-      <c r="CN147" s="35">
-        <v>16.342874474077433</v>
-      </c>
-      <c r="CO147" s="35"/>
-      <c r="CP147" s="35"/>
-      <c r="CQ147" s="35"/>
-      <c r="CR147" s="35"/>
-      <c r="CS147" s="9"/>
+      <c r="CN147" s="18">
+        <v>17.493243244967502</v>
+      </c>
+      <c r="CO147" s="18">
+        <v>5.704138415435807</v>
+      </c>
+      <c r="CP147" s="21"/>
+      <c r="CQ147" s="21"/>
+      <c r="CR147" s="21"/>
+      <c r="CS147" s="21"/>
       <c r="CT147" s="9"/>
       <c r="CU147" s="9"/>
       <c r="CV147" s="9"/>
@@ -34581,20 +34845,22 @@
       <c r="CK148" s="18">
         <v>9.3030225321897291</v>
       </c>
-      <c r="CL148" s="35">
+      <c r="CL148" s="18">
         <v>-17.354928904850084</v>
       </c>
-      <c r="CM148" s="35">
+      <c r="CM148" s="18">
         <v>-12.44169575964716</v>
       </c>
-      <c r="CN148" s="35">
-        <v>-13.871250072458366</v>
-      </c>
-      <c r="CO148" s="35"/>
-      <c r="CP148" s="35"/>
-      <c r="CQ148" s="35"/>
-      <c r="CR148" s="35"/>
-      <c r="CS148" s="9"/>
+      <c r="CN148" s="18">
+        <v>-13.374566118019004</v>
+      </c>
+      <c r="CO148" s="18">
+        <v>1.1370244034280432</v>
+      </c>
+      <c r="CP148" s="21"/>
+      <c r="CQ148" s="21"/>
+      <c r="CR148" s="21"/>
+      <c r="CS148" s="21"/>
       <c r="CT148" s="9"/>
       <c r="CU148" s="9"/>
       <c r="CV148" s="9"/>
@@ -34914,20 +35180,22 @@
       <c r="CK149" s="18">
         <v>7.2799438838611223</v>
       </c>
-      <c r="CL149" s="35">
+      <c r="CL149" s="18">
         <v>13.50707783378698</v>
       </c>
-      <c r="CM149" s="35">
+      <c r="CM149" s="18">
         <v>16.908598202099839</v>
       </c>
-      <c r="CN149" s="35">
-        <v>9.3894649943317319</v>
-      </c>
-      <c r="CO149" s="35"/>
-      <c r="CP149" s="35"/>
-      <c r="CQ149" s="35"/>
-      <c r="CR149" s="35"/>
-      <c r="CS149" s="9"/>
+      <c r="CN149" s="18">
+        <v>9.3442460809065153</v>
+      </c>
+      <c r="CO149" s="18">
+        <v>26.93998486274856</v>
+      </c>
+      <c r="CP149" s="21"/>
+      <c r="CQ149" s="21"/>
+      <c r="CR149" s="21"/>
+      <c r="CS149" s="21"/>
       <c r="CT149" s="9"/>
       <c r="CU149" s="9"/>
       <c r="CV149" s="9"/>
@@ -35247,20 +35515,22 @@
       <c r="CK150" s="18">
         <v>20.261766374911858</v>
       </c>
-      <c r="CL150" s="35">
+      <c r="CL150" s="18">
         <v>23.949678041691087</v>
       </c>
-      <c r="CM150" s="35">
+      <c r="CM150" s="18">
         <v>20.976067981778598</v>
       </c>
-      <c r="CN150" s="35">
-        <v>9.47278962508706</v>
-      </c>
-      <c r="CO150" s="35"/>
-      <c r="CP150" s="35"/>
-      <c r="CQ150" s="35"/>
-      <c r="CR150" s="35"/>
-      <c r="CS150" s="9"/>
+      <c r="CN150" s="18">
+        <v>9.4056881160335308</v>
+      </c>
+      <c r="CO150" s="18">
+        <v>14.131837966677324</v>
+      </c>
+      <c r="CP150" s="21"/>
+      <c r="CQ150" s="21"/>
+      <c r="CR150" s="21"/>
+      <c r="CS150" s="21"/>
       <c r="CT150" s="9"/>
       <c r="CU150" s="9"/>
       <c r="CV150" s="9"/>
@@ -35580,20 +35850,22 @@
       <c r="CK151" s="18">
         <v>-99.618986213268911</v>
       </c>
-      <c r="CL151" s="35">
+      <c r="CL151" s="18">
         <v>-98.797319945373829</v>
       </c>
-      <c r="CM151" s="35">
+      <c r="CM151" s="18">
         <v>-99.231896637379378</v>
       </c>
-      <c r="CN151" s="35">
-        <v>-97.321105482911875</v>
-      </c>
-      <c r="CO151" s="35"/>
-      <c r="CP151" s="35"/>
-      <c r="CQ151" s="35"/>
-      <c r="CR151" s="35"/>
-      <c r="CS151" s="9"/>
+      <c r="CN151" s="18">
+        <v>-97.632311656220892</v>
+      </c>
+      <c r="CO151" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="CP151" s="21"/>
+      <c r="CQ151" s="21"/>
+      <c r="CR151" s="21"/>
+      <c r="CS151" s="21"/>
       <c r="CT151" s="9"/>
       <c r="CU151" s="9"/>
       <c r="CV151" s="9"/>
@@ -35913,20 +36185,22 @@
       <c r="CK152" s="18">
         <v>-73.259501765139021</v>
       </c>
-      <c r="CL152" s="35">
+      <c r="CL152" s="18">
         <v>-54.363327533508844</v>
       </c>
-      <c r="CM152" s="35">
+      <c r="CM152" s="18">
         <v>22.57871001099339</v>
       </c>
-      <c r="CN152" s="35">
-        <v>73.841955770166919</v>
-      </c>
-      <c r="CO152" s="35"/>
-      <c r="CP152" s="35"/>
-      <c r="CQ152" s="35"/>
-      <c r="CR152" s="35"/>
-      <c r="CS152" s="9"/>
+      <c r="CN152" s="18">
+        <v>73.840782305527853</v>
+      </c>
+      <c r="CO152" s="18">
+        <v>344.60940949645442</v>
+      </c>
+      <c r="CP152" s="21"/>
+      <c r="CQ152" s="21"/>
+      <c r="CR152" s="21"/>
+      <c r="CS152" s="21"/>
       <c r="CT152" s="9"/>
       <c r="CU152" s="9"/>
       <c r="CV152" s="9"/>
@@ -36246,20 +36520,22 @@
       <c r="CK153" s="18">
         <v>138.65813548488782</v>
       </c>
-      <c r="CL153" s="35">
+      <c r="CL153" s="18">
         <v>-29.745728934343802</v>
       </c>
-      <c r="CM153" s="35">
+      <c r="CM153" s="18">
         <v>-17.631853159198414</v>
       </c>
-      <c r="CN153" s="35">
-        <v>-49.117371797641987</v>
-      </c>
-      <c r="CO153" s="35"/>
-      <c r="CP153" s="35"/>
-      <c r="CQ153" s="35"/>
-      <c r="CR153" s="35"/>
-      <c r="CS153" s="9"/>
+      <c r="CN153" s="18">
+        <v>-48.613102852145254</v>
+      </c>
+      <c r="CO153" s="18">
+        <v>74.66509236192266</v>
+      </c>
+      <c r="CP153" s="21"/>
+      <c r="CQ153" s="21"/>
+      <c r="CR153" s="21"/>
+      <c r="CS153" s="21"/>
       <c r="CT153" s="9"/>
       <c r="CU153" s="9"/>
       <c r="CV153" s="9"/>
@@ -36579,20 +36855,22 @@
       <c r="CK154" s="18">
         <v>-2.800024065616725</v>
       </c>
-      <c r="CL154" s="35">
+      <c r="CL154" s="18">
         <v>6.2475315141696512</v>
       </c>
-      <c r="CM154" s="35">
+      <c r="CM154" s="18">
         <v>-1.6174877110140358</v>
       </c>
-      <c r="CN154" s="35">
-        <v>-5.0121833644254394</v>
-      </c>
-      <c r="CO154" s="35"/>
-      <c r="CP154" s="35"/>
-      <c r="CQ154" s="35"/>
-      <c r="CR154" s="35"/>
-      <c r="CS154" s="9"/>
+      <c r="CN154" s="18">
+        <v>-4.9748912325451187</v>
+      </c>
+      <c r="CO154" s="18">
+        <v>1.8473348338336564</v>
+      </c>
+      <c r="CP154" s="21"/>
+      <c r="CQ154" s="21"/>
+      <c r="CR154" s="21"/>
+      <c r="CS154" s="21"/>
       <c r="CT154" s="9"/>
       <c r="CU154" s="9"/>
       <c r="CV154" s="9"/>
@@ -36912,20 +37190,22 @@
       <c r="CK155" s="18">
         <v>45.362850793125432</v>
       </c>
-      <c r="CL155" s="35">
+      <c r="CL155" s="18">
         <v>21.954437554580892</v>
       </c>
-      <c r="CM155" s="35">
+      <c r="CM155" s="18">
         <v>10.938193302974895</v>
       </c>
-      <c r="CN155" s="35">
-        <v>-8.4456677153099236E-2</v>
-      </c>
-      <c r="CO155" s="35"/>
-      <c r="CP155" s="35"/>
-      <c r="CQ155" s="35"/>
-      <c r="CR155" s="35"/>
-      <c r="CS155" s="9"/>
+      <c r="CN155" s="18">
+        <v>-0.10454826441798559</v>
+      </c>
+      <c r="CO155" s="18">
+        <v>1.9786359687064277</v>
+      </c>
+      <c r="CP155" s="21"/>
+      <c r="CQ155" s="21"/>
+      <c r="CR155" s="21"/>
+      <c r="CS155" s="21"/>
       <c r="CT155" s="9"/>
       <c r="CU155" s="9"/>
       <c r="CV155" s="9"/>
@@ -37245,20 +37525,22 @@
       <c r="CK156" s="18">
         <v>-3.2384939480537014</v>
       </c>
-      <c r="CL156" s="35">
+      <c r="CL156" s="18">
         <v>2.5996821814846811</v>
       </c>
-      <c r="CM156" s="35">
+      <c r="CM156" s="18">
         <v>28.061576492259746</v>
       </c>
-      <c r="CN156" s="35">
-        <v>5.3740419597342139</v>
-      </c>
-      <c r="CO156" s="35"/>
-      <c r="CP156" s="35"/>
-      <c r="CQ156" s="35"/>
-      <c r="CR156" s="35"/>
-      <c r="CS156" s="9"/>
+      <c r="CN156" s="18">
+        <v>6.8839506161980211</v>
+      </c>
+      <c r="CO156" s="18">
+        <v>22.205369919416881</v>
+      </c>
+      <c r="CP156" s="21"/>
+      <c r="CQ156" s="21"/>
+      <c r="CR156" s="21"/>
+      <c r="CS156" s="21"/>
       <c r="CT156" s="9"/>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
@@ -37578,20 +37860,22 @@
       <c r="CK157" s="18">
         <v>-3.6410854091780323</v>
       </c>
-      <c r="CL157" s="35">
+      <c r="CL157" s="18">
         <v>5.6325077237335819</v>
       </c>
-      <c r="CM157" s="35">
+      <c r="CM157" s="18">
         <v>-8.5651408937831945</v>
       </c>
-      <c r="CN157" s="35">
-        <v>-1.8898626860098204</v>
-      </c>
-      <c r="CO157" s="35"/>
-      <c r="CP157" s="35"/>
-      <c r="CQ157" s="35"/>
-      <c r="CR157" s="35"/>
-      <c r="CS157" s="9"/>
+      <c r="CN157" s="18">
+        <v>-2.2855179531920129</v>
+      </c>
+      <c r="CO157" s="18">
+        <v>-1.9767215854736122</v>
+      </c>
+      <c r="CP157" s="21"/>
+      <c r="CQ157" s="21"/>
+      <c r="CR157" s="21"/>
+      <c r="CS157" s="21"/>
       <c r="CT157" s="9"/>
       <c r="CU157" s="9"/>
       <c r="CV157" s="9"/>
@@ -37911,20 +38195,22 @@
       <c r="CK158" s="18">
         <v>-12.432085783004126</v>
       </c>
-      <c r="CL158" s="35">
+      <c r="CL158" s="18">
         <v>5.2343559209397199</v>
       </c>
-      <c r="CM158" s="35">
+      <c r="CM158" s="18">
         <v>-10.860418391709288</v>
       </c>
-      <c r="CN158" s="35">
-        <v>-23.186651297268838</v>
-      </c>
-      <c r="CO158" s="35"/>
-      <c r="CP158" s="35"/>
-      <c r="CQ158" s="35"/>
-      <c r="CR158" s="35"/>
-      <c r="CS158" s="9"/>
+      <c r="CN158" s="18">
+        <v>-22.754547168413268</v>
+      </c>
+      <c r="CO158" s="18">
+        <v>-4.5322002535501156</v>
+      </c>
+      <c r="CP158" s="21"/>
+      <c r="CQ158" s="21"/>
+      <c r="CR158" s="21"/>
+      <c r="CS158" s="21"/>
       <c r="CT158" s="9"/>
       <c r="CU158" s="9"/>
       <c r="CV158" s="9"/>
@@ -38065,14 +38351,14 @@
       <c r="CI159" s="9"/>
       <c r="CJ159" s="9"/>
       <c r="CK159" s="9"/>
-      <c r="CL159" s="31"/>
-      <c r="CM159" s="31"/>
-      <c r="CN159" s="31"/>
-      <c r="CO159" s="31"/>
-      <c r="CP159" s="31"/>
-      <c r="CQ159" s="31"/>
-      <c r="CR159" s="31"/>
-      <c r="CS159" s="9"/>
+      <c r="CL159" s="9"/>
+      <c r="CM159" s="9"/>
+      <c r="CN159" s="9"/>
+      <c r="CO159" s="9"/>
+      <c r="CP159" s="29"/>
+      <c r="CQ159" s="29"/>
+      <c r="CR159" s="29"/>
+      <c r="CS159" s="29"/>
       <c r="CT159" s="9"/>
       <c r="CU159" s="9"/>
       <c r="CV159" s="9"/>
@@ -38392,20 +38678,22 @@
       <c r="CK160" s="23">
         <v>2.5778585668528393</v>
       </c>
-      <c r="CL160" s="36">
+      <c r="CL160" s="23">
         <v>8.0596688220710746</v>
       </c>
-      <c r="CM160" s="36">
+      <c r="CM160" s="23">
         <v>10.545137982989147</v>
       </c>
-      <c r="CN160" s="36">
-        <v>1.7321159102035466</v>
-      </c>
-      <c r="CO160" s="36"/>
-      <c r="CP160" s="36"/>
-      <c r="CQ160" s="36"/>
-      <c r="CR160" s="36"/>
-      <c r="CS160" s="9"/>
+      <c r="CN160" s="23">
+        <v>1.742632687760576</v>
+      </c>
+      <c r="CO160" s="23">
+        <v>14.551476889693092</v>
+      </c>
+      <c r="CP160" s="30"/>
+      <c r="CQ160" s="30"/>
+      <c r="CR160" s="30"/>
+      <c r="CS160" s="30"/>
       <c r="CT160" s="9"/>
       <c r="CU160" s="9"/>
       <c r="CV160" s="9"/>
@@ -38547,18 +38835,23 @@
       <c r="CI161" s="14"/>
       <c r="CJ161" s="14"/>
       <c r="CK161" s="14"/>
-      <c r="CL161" s="33"/>
-      <c r="CM161" s="33"/>
-      <c r="CN161" s="33"/>
-      <c r="CO161" s="33"/>
-      <c r="CP161" s="33"/>
-      <c r="CQ161" s="33"/>
-      <c r="CR161" s="33"/>
+      <c r="CL161" s="14"/>
+      <c r="CM161" s="14"/>
+      <c r="CN161" s="14"/>
+      <c r="CO161" s="14"/>
+      <c r="CP161" s="17"/>
+      <c r="CQ161" s="17"/>
+      <c r="CR161" s="17"/>
+      <c r="CS161" s="17"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="CP162" s="7"/>
+      <c r="CQ162" s="7"/>
+      <c r="CR162" s="7"/>
+      <c r="CS162" s="7"/>
     </row>
     <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
@@ -38652,13 +38945,13 @@
       <c r="CI163" s="9"/>
       <c r="CJ163" s="9"/>
       <c r="CK163" s="9"/>
-      <c r="CL163" s="31"/>
-      <c r="CM163" s="31"/>
-      <c r="CN163" s="31"/>
-      <c r="CO163" s="31"/>
-      <c r="CP163" s="31"/>
-      <c r="CQ163" s="31"/>
-      <c r="CR163" s="31"/>
+      <c r="CL163" s="9"/>
+      <c r="CM163" s="9"/>
+      <c r="CN163" s="9"/>
+      <c r="CO163" s="9"/>
+      <c r="CP163" s="9"/>
+      <c r="CQ163" s="9"/>
+      <c r="CR163" s="9"/>
       <c r="CS163" s="9"/>
       <c r="CT163" s="9"/>
       <c r="CU163" s="9"/>
@@ -38800,13 +39093,13 @@
       <c r="CI164" s="9"/>
       <c r="CJ164" s="9"/>
       <c r="CK164" s="9"/>
-      <c r="CL164" s="31"/>
-      <c r="CM164" s="31"/>
-      <c r="CN164" s="31"/>
-      <c r="CO164" s="31"/>
-      <c r="CP164" s="31"/>
-      <c r="CQ164" s="31"/>
-      <c r="CR164" s="31"/>
+      <c r="CL164" s="9"/>
+      <c r="CM164" s="9"/>
+      <c r="CN164" s="9"/>
+      <c r="CO164" s="9"/>
+      <c r="CP164" s="9"/>
+      <c r="CQ164" s="9"/>
+      <c r="CR164" s="9"/>
       <c r="CS164" s="9"/>
       <c r="CT164" s="9"/>
       <c r="CU164" s="9"/>
@@ -38871,7 +39164,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.2">
@@ -38881,7 +39174,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.2">
@@ -38891,149 +39184,150 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="37">
+      <c r="B172" s="31">
         <v>2000</v>
       </c>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37">
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31">
         <v>2001</v>
       </c>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="37">
+      <c r="G172" s="31"/>
+      <c r="H172" s="31"/>
+      <c r="I172" s="31"/>
+      <c r="J172" s="31">
         <v>2002</v>
       </c>
-      <c r="K172" s="37"/>
-      <c r="L172" s="37"/>
-      <c r="M172" s="37"/>
-      <c r="N172" s="37">
+      <c r="K172" s="31"/>
+      <c r="L172" s="31"/>
+      <c r="M172" s="31"/>
+      <c r="N172" s="31">
         <v>2003</v>
       </c>
-      <c r="O172" s="37"/>
-      <c r="P172" s="37"/>
-      <c r="Q172" s="37"/>
-      <c r="R172" s="37">
+      <c r="O172" s="31"/>
+      <c r="P172" s="31"/>
+      <c r="Q172" s="31"/>
+      <c r="R172" s="31">
         <v>2004</v>
       </c>
-      <c r="S172" s="37"/>
-      <c r="T172" s="37"/>
-      <c r="U172" s="37"/>
-      <c r="V172" s="37">
+      <c r="S172" s="31"/>
+      <c r="T172" s="31"/>
+      <c r="U172" s="31"/>
+      <c r="V172" s="31">
         <v>2005</v>
       </c>
-      <c r="W172" s="37"/>
-      <c r="X172" s="37"/>
-      <c r="Y172" s="37"/>
-      <c r="Z172" s="37">
+      <c r="W172" s="31"/>
+      <c r="X172" s="31"/>
+      <c r="Y172" s="31"/>
+      <c r="Z172" s="31">
         <v>2006</v>
       </c>
-      <c r="AA172" s="37"/>
-      <c r="AB172" s="37"/>
-      <c r="AC172" s="37"/>
-      <c r="AD172" s="37">
+      <c r="AA172" s="31"/>
+      <c r="AB172" s="31"/>
+      <c r="AC172" s="31"/>
+      <c r="AD172" s="31">
         <v>2007</v>
       </c>
-      <c r="AE172" s="37"/>
-      <c r="AF172" s="37"/>
-      <c r="AG172" s="37"/>
-      <c r="AH172" s="37">
+      <c r="AE172" s="31"/>
+      <c r="AF172" s="31"/>
+      <c r="AG172" s="31"/>
+      <c r="AH172" s="31">
         <v>2008</v>
       </c>
-      <c r="AI172" s="37"/>
-      <c r="AJ172" s="37"/>
-      <c r="AK172" s="37"/>
-      <c r="AL172" s="37">
+      <c r="AI172" s="31"/>
+      <c r="AJ172" s="31"/>
+      <c r="AK172" s="31"/>
+      <c r="AL172" s="31">
         <v>2009</v>
       </c>
-      <c r="AM172" s="37"/>
-      <c r="AN172" s="37"/>
-      <c r="AO172" s="37"/>
-      <c r="AP172" s="37">
+      <c r="AM172" s="31"/>
+      <c r="AN172" s="31"/>
+      <c r="AO172" s="31"/>
+      <c r="AP172" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="37"/>
-      <c r="AR172" s="37"/>
-      <c r="AS172" s="37"/>
-      <c r="AT172" s="37">
+      <c r="AQ172" s="31"/>
+      <c r="AR172" s="31"/>
+      <c r="AS172" s="31"/>
+      <c r="AT172" s="31">
         <v>2011</v>
       </c>
-      <c r="AU172" s="37"/>
-      <c r="AV172" s="37"/>
-      <c r="AW172" s="37"/>
-      <c r="AX172" s="37">
+      <c r="AU172" s="31"/>
+      <c r="AV172" s="31"/>
+      <c r="AW172" s="31"/>
+      <c r="AX172" s="31">
         <v>2012</v>
       </c>
-      <c r="AY172" s="37"/>
-      <c r="AZ172" s="37"/>
-      <c r="BA172" s="37"/>
-      <c r="BB172" s="37">
+      <c r="AY172" s="31"/>
+      <c r="AZ172" s="31"/>
+      <c r="BA172" s="31"/>
+      <c r="BB172" s="31">
         <v>2013</v>
       </c>
-      <c r="BC172" s="37"/>
-      <c r="BD172" s="37"/>
-      <c r="BE172" s="37"/>
-      <c r="BF172" s="37">
+      <c r="BC172" s="31"/>
+      <c r="BD172" s="31"/>
+      <c r="BE172" s="31"/>
+      <c r="BF172" s="31">
         <v>2014</v>
       </c>
-      <c r="BG172" s="37"/>
-      <c r="BH172" s="37"/>
-      <c r="BI172" s="37"/>
-      <c r="BJ172" s="37">
+      <c r="BG172" s="31"/>
+      <c r="BH172" s="31"/>
+      <c r="BI172" s="31"/>
+      <c r="BJ172" s="31">
         <v>2015</v>
       </c>
-      <c r="BK172" s="37"/>
-      <c r="BL172" s="37"/>
-      <c r="BM172" s="37"/>
-      <c r="BN172" s="37">
+      <c r="BK172" s="31"/>
+      <c r="BL172" s="31"/>
+      <c r="BM172" s="31"/>
+      <c r="BN172" s="31">
         <v>2016</v>
       </c>
-      <c r="BO172" s="37"/>
-      <c r="BP172" s="37"/>
-      <c r="BQ172" s="37"/>
-      <c r="BR172" s="37">
+      <c r="BO172" s="31"/>
+      <c r="BP172" s="31"/>
+      <c r="BQ172" s="31"/>
+      <c r="BR172" s="31">
         <v>2017</v>
       </c>
-      <c r="BS172" s="37"/>
-      <c r="BT172" s="37"/>
-      <c r="BU172" s="37"/>
-      <c r="BV172" s="37">
+      <c r="BS172" s="31"/>
+      <c r="BT172" s="31"/>
+      <c r="BU172" s="31"/>
+      <c r="BV172" s="31">
         <v>2018</v>
       </c>
-      <c r="BW172" s="37"/>
-      <c r="BX172" s="37"/>
-      <c r="BY172" s="37"/>
-      <c r="BZ172" s="37">
+      <c r="BW172" s="31"/>
+      <c r="BX172" s="31"/>
+      <c r="BY172" s="31"/>
+      <c r="BZ172" s="31">
         <v>2019</v>
       </c>
-      <c r="CA172" s="37"/>
-      <c r="CB172" s="37"/>
-      <c r="CC172" s="37"/>
-      <c r="CD172" s="38">
+      <c r="CA172" s="31"/>
+      <c r="CB172" s="31"/>
+      <c r="CC172" s="31"/>
+      <c r="CD172" s="32">
         <v>2020</v>
       </c>
-      <c r="CE172" s="38"/>
-      <c r="CF172" s="38"/>
-      <c r="CG172" s="38"/>
-      <c r="CH172" s="38">
+      <c r="CE172" s="32"/>
+      <c r="CF172" s="32"/>
+      <c r="CG172" s="32"/>
+      <c r="CH172" s="32">
         <v>2021</v>
       </c>
-      <c r="CI172" s="38"/>
-      <c r="CJ172" s="38"/>
-      <c r="CK172" s="38"/>
-      <c r="CL172" s="37">
+      <c r="CI172" s="32"/>
+      <c r="CJ172" s="32"/>
+      <c r="CK172" s="32"/>
+      <c r="CL172" s="28">
         <v>2022</v>
       </c>
-      <c r="CM172" s="37"/>
-      <c r="CN172" s="37"/>
-      <c r="CO172" s="37"/>
-      <c r="CP172" s="37">
+      <c r="CM172" s="28"/>
+      <c r="CN172" s="28"/>
+      <c r="CO172" s="28"/>
+      <c r="CP172" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ172" s="37"/>
-      <c r="CR172" s="37"/>
+      <c r="CQ172" s="28"/>
+      <c r="CR172" s="28"/>
+      <c r="CS172" s="28"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -39303,26 +39597,29 @@
       <c r="CK173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL173" s="34" t="s">
+      <c r="CL173" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM173" s="34" t="s">
+      <c r="CM173" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN173" s="34" t="s">
+      <c r="CN173" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO173" s="34" t="s">
+      <c r="CO173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP173" s="34" t="s">
+      <c r="CP173" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ173" s="34" t="s">
+      <c r="CQ173" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR173" s="34" t="s">
+      <c r="CR173" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CS173" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39596,28 +39893,30 @@
       <c r="CK175" s="23">
         <v>87.630222546200173</v>
       </c>
-      <c r="CL175" s="36">
+      <c r="CL175" s="23">
         <v>110.63553038068545</v>
       </c>
-      <c r="CM175" s="36">
+      <c r="CM175" s="23">
         <v>166.45716408242319</v>
       </c>
-      <c r="CN175" s="36">
+      <c r="CN175" s="23">
         <v>94.035674899611919</v>
       </c>
-      <c r="CO175" s="36">
+      <c r="CO175" s="23">
         <v>100.73568334616954</v>
       </c>
-      <c r="CP175" s="36">
+      <c r="CP175" s="23">
         <v>121.09108787942967</v>
       </c>
-      <c r="CQ175" s="36">
+      <c r="CQ175" s="23">
         <v>162.95926211645983</v>
       </c>
-      <c r="CR175" s="36">
-        <v>101.73247019981295</v>
-      </c>
-      <c r="CS175" s="9"/>
+      <c r="CR175" s="23">
+        <v>101.70865517790821</v>
+      </c>
+      <c r="CS175" s="23">
+        <v>97.931773570095544</v>
+      </c>
       <c r="CT175" s="9"/>
       <c r="CU175" s="9"/>
       <c r="CV175" s="9"/>
@@ -39942,28 +40241,30 @@
       <c r="CK176" s="23">
         <v>70.426817842058384</v>
       </c>
-      <c r="CL176" s="36">
+      <c r="CL176" s="23">
         <v>110.89080947214707</v>
       </c>
-      <c r="CM176" s="36">
+      <c r="CM176" s="23">
         <v>320.05305078833555</v>
       </c>
-      <c r="CN176" s="36">
+      <c r="CN176" s="23">
         <v>98.890854361163989</v>
       </c>
-      <c r="CO176" s="36">
+      <c r="CO176" s="23">
         <v>84.628480145575296</v>
       </c>
-      <c r="CP176" s="36">
+      <c r="CP176" s="23">
         <v>123.67918586677071</v>
       </c>
-      <c r="CQ176" s="36">
+      <c r="CQ176" s="23">
         <v>357.80181696877753</v>
       </c>
-      <c r="CR176" s="36">
-        <v>102.3020620098799</v>
-      </c>
-      <c r="CS176" s="9"/>
+      <c r="CR176" s="23">
+        <v>102.29962647461639</v>
+      </c>
+      <c r="CS176" s="23">
+        <v>83.548603900785594</v>
+      </c>
       <c r="CT176" s="9"/>
       <c r="CU176" s="9"/>
       <c r="CV176" s="9"/>
@@ -40288,28 +40589,30 @@
       <c r="CK177" s="23">
         <v>69.912003404083833</v>
       </c>
-      <c r="CL177" s="36">
+      <c r="CL177" s="23">
         <v>112.99888086627432</v>
       </c>
-      <c r="CM177" s="36">
+      <c r="CM177" s="23">
         <v>311.46039873559681</v>
       </c>
-      <c r="CN177" s="36">
+      <c r="CN177" s="23">
         <v>98.256628143608467</v>
       </c>
-      <c r="CO177" s="36">
+      <c r="CO177" s="23">
         <v>83.71182632042013</v>
       </c>
-      <c r="CP177" s="36">
+      <c r="CP177" s="23">
         <v>126.05117544558881</v>
       </c>
-      <c r="CQ177" s="36">
+      <c r="CQ177" s="23">
         <v>349.38794149980328</v>
       </c>
-      <c r="CR177" s="36">
-        <v>101.50927178592481</v>
-      </c>
-      <c r="CS177" s="9"/>
+      <c r="CR177" s="23">
+        <v>101.50180920738374</v>
+      </c>
+      <c r="CS177" s="23">
+        <v>82.873545343613515</v>
+      </c>
       <c r="CT177" s="9"/>
       <c r="CU177" s="9"/>
       <c r="CV177" s="9"/>
@@ -40634,28 +40937,30 @@
       <c r="CK178" s="23">
         <v>92.415085048282265</v>
       </c>
-      <c r="CL178" s="36">
+      <c r="CL178" s="23">
         <v>108.26810125076764</v>
       </c>
-      <c r="CM178" s="36">
+      <c r="CM178" s="23">
         <v>227.30747484807034</v>
       </c>
-      <c r="CN178" s="36">
+      <c r="CN178" s="23">
         <v>97.322358883957676</v>
       </c>
-      <c r="CO178" s="36">
+      <c r="CO178" s="23">
         <v>91.059743967799974</v>
       </c>
-      <c r="CP178" s="36">
+      <c r="CP178" s="23">
         <v>113.90858249506002</v>
       </c>
-      <c r="CQ178" s="36">
+      <c r="CQ178" s="23">
         <v>267.19812841122848</v>
       </c>
-      <c r="CR178" s="36">
-        <v>97.583008604057724</v>
-      </c>
-      <c r="CS178" s="9"/>
+      <c r="CR178" s="23">
+        <v>97.50986270523633</v>
+      </c>
+      <c r="CS178" s="23">
+        <v>90.135901482382891</v>
+      </c>
       <c r="CT178" s="9"/>
       <c r="CU178" s="9"/>
       <c r="CV178" s="9"/>
@@ -40980,28 +41285,30 @@
       <c r="CK179" s="23">
         <v>80.882675241517958</v>
       </c>
-      <c r="CL179" s="36">
+      <c r="CL179" s="23">
         <v>133.97655062430397</v>
       </c>
-      <c r="CM179" s="36">
+      <c r="CM179" s="23">
         <v>277.12970263225168</v>
       </c>
-      <c r="CN179" s="36">
+      <c r="CN179" s="23">
         <v>99.35752863497423</v>
       </c>
-      <c r="CO179" s="36">
+      <c r="CO179" s="23">
         <v>88.547258756093854</v>
       </c>
-      <c r="CP179" s="36">
+      <c r="CP179" s="23">
         <v>146.72011457216394</v>
       </c>
-      <c r="CQ179" s="36">
+      <c r="CQ179" s="23">
         <v>318.01607268564476</v>
       </c>
-      <c r="CR179" s="36">
-        <v>102.3664332147556</v>
-      </c>
-      <c r="CS179" s="9"/>
+      <c r="CR179" s="23">
+        <v>102.34972519168805</v>
+      </c>
+      <c r="CS179" s="23">
+        <v>88.076655548576753</v>
+      </c>
       <c r="CT179" s="9"/>
       <c r="CU179" s="9"/>
       <c r="CV179" s="9"/>
@@ -41326,28 +41633,30 @@
       <c r="CK180" s="23">
         <v>72.624793619167022</v>
       </c>
-      <c r="CL180" s="36">
+      <c r="CL180" s="23">
         <v>116.98399795135333</v>
       </c>
-      <c r="CM180" s="36">
+      <c r="CM180" s="23">
         <v>308.39448375881568</v>
       </c>
-      <c r="CN180" s="36">
+      <c r="CN180" s="23">
         <v>101.50532226306606</v>
       </c>
-      <c r="CO180" s="36">
+      <c r="CO180" s="23">
         <v>86.001490255464972</v>
       </c>
-      <c r="CP180" s="36">
+      <c r="CP180" s="23">
         <v>130.72074335934494</v>
       </c>
-      <c r="CQ180" s="36">
+      <c r="CQ180" s="23">
         <v>341.99252860036808</v>
       </c>
-      <c r="CR180" s="36">
-        <v>104.89648003956324</v>
-      </c>
-      <c r="CS180" s="9"/>
+      <c r="CR180" s="23">
+        <v>104.88296634644945</v>
+      </c>
+      <c r="CS180" s="23">
+        <v>85.173657403528011</v>
+      </c>
       <c r="CT180" s="9"/>
       <c r="CU180" s="9"/>
       <c r="CV180" s="9"/>
@@ -41672,28 +41981,30 @@
       <c r="CK181" s="23">
         <v>109.61765703014868</v>
       </c>
-      <c r="CL181" s="36">
+      <c r="CL181" s="23">
         <v>107.96360707677431</v>
       </c>
-      <c r="CM181" s="36">
+      <c r="CM181" s="23">
         <v>116.35408385514663</v>
       </c>
-      <c r="CN181" s="36">
+      <c r="CN181" s="23">
         <v>87.530686847831021</v>
       </c>
-      <c r="CO181" s="36">
+      <c r="CO181" s="23">
         <v>126.71445217622957</v>
       </c>
-      <c r="CP181" s="36">
+      <c r="CP181" s="23">
         <v>117.44671868373189</v>
       </c>
-      <c r="CQ181" s="36">
+      <c r="CQ181" s="23">
         <v>103.02587580611116</v>
       </c>
-      <c r="CR181" s="36">
-        <v>103.22837153473007</v>
-      </c>
-      <c r="CS181" s="9"/>
+      <c r="CR181" s="23">
+        <v>103.26147460965451</v>
+      </c>
+      <c r="CS181" s="23">
+        <v>115.03777368781113</v>
+      </c>
       <c r="CT181" s="9"/>
       <c r="CU181" s="9"/>
       <c r="CV181" s="9"/>
@@ -42018,28 +42329,30 @@
       <c r="CK182" s="23">
         <v>69.120085272219896</v>
       </c>
-      <c r="CL182" s="36">
+      <c r="CL182" s="23">
         <v>109.6908185880112</v>
       </c>
-      <c r="CM182" s="36">
+      <c r="CM182" s="23">
         <v>294.13937518805778</v>
       </c>
-      <c r="CN182" s="36">
+      <c r="CN182" s="23">
         <v>96.540934518176201</v>
       </c>
-      <c r="CO182" s="36">
+      <c r="CO182" s="23">
         <v>82.315687210593808</v>
       </c>
-      <c r="CP182" s="36">
+      <c r="CP182" s="23">
         <v>122.14702103850716</v>
       </c>
-      <c r="CQ182" s="36">
+      <c r="CQ182" s="23">
         <v>337.35160853231451</v>
       </c>
-      <c r="CR182" s="36">
-        <v>100.03245946925634</v>
-      </c>
-      <c r="CS182" s="9"/>
+      <c r="CR182" s="23">
+        <v>100.02299305157165</v>
+      </c>
+      <c r="CS182" s="23">
+        <v>81.624544959977143</v>
+      </c>
       <c r="CT182" s="9"/>
       <c r="CU182" s="9"/>
       <c r="CV182" s="9"/>
@@ -42364,28 +42677,30 @@
       <c r="CK183" s="23">
         <v>81.77053736495769</v>
       </c>
-      <c r="CL183" s="36">
+      <c r="CL183" s="23">
         <v>115.31543252645289</v>
       </c>
-      <c r="CM183" s="36">
+      <c r="CM183" s="23">
         <v>252.65049087215345</v>
       </c>
-      <c r="CN183" s="36">
+      <c r="CN183" s="23">
         <v>97.236584586383685</v>
       </c>
-      <c r="CO183" s="36">
+      <c r="CO183" s="23">
         <v>89.541440450473686</v>
       </c>
-      <c r="CP183" s="36">
+      <c r="CP183" s="23">
         <v>122.65235562976544</v>
       </c>
-      <c r="CQ183" s="36">
+      <c r="CQ183" s="23">
         <v>249.35530979287543</v>
       </c>
-      <c r="CR183" s="36">
-        <v>97.502461888828762</v>
-      </c>
-      <c r="CS183" s="9"/>
+      <c r="CR183" s="23">
+        <v>97.347634027022025</v>
+      </c>
+      <c r="CS183" s="23">
+        <v>89.02591415372126</v>
+      </c>
       <c r="CT183" s="9"/>
       <c r="CU183" s="9"/>
       <c r="CV183" s="9"/>
@@ -42710,28 +43025,30 @@
       <c r="CK184" s="23">
         <v>101.47870626445791</v>
       </c>
-      <c r="CL184" s="36">
+      <c r="CL184" s="23">
         <v>106.80279003685416</v>
       </c>
-      <c r="CM184" s="36">
+      <c r="CM184" s="23">
         <v>125.53960332551235</v>
       </c>
-      <c r="CN184" s="36">
+      <c r="CN184" s="23">
         <v>102.28484642986145</v>
       </c>
-      <c r="CO184" s="36">
+      <c r="CO184" s="23">
         <v>112.40782809888911</v>
       </c>
-      <c r="CP184" s="36">
+      <c r="CP184" s="23">
         <v>118.04892477097101</v>
       </c>
-      <c r="CQ184" s="36">
+      <c r="CQ184" s="23">
         <v>133.74611877641328</v>
       </c>
-      <c r="CR184" s="36">
-        <v>105.56014413622148</v>
-      </c>
-      <c r="CS184" s="9"/>
+      <c r="CR184" s="23">
+        <v>105.6442995422276</v>
+      </c>
+      <c r="CS184" s="23">
+        <v>112.12568328217563</v>
+      </c>
       <c r="CT184" s="9"/>
       <c r="CU184" s="9"/>
       <c r="CV184" s="9"/>
@@ -43056,28 +43373,30 @@
       <c r="CK185" s="23">
         <v>106.12423249886061</v>
       </c>
-      <c r="CL185" s="36">
+      <c r="CL185" s="23">
         <v>112.18629364378343</v>
       </c>
-      <c r="CM185" s="36">
+      <c r="CM185" s="23">
         <v>131.23218319426314</v>
       </c>
-      <c r="CN185" s="36">
+      <c r="CN185" s="23">
         <v>102.9492021169707</v>
       </c>
-      <c r="CO185" s="36">
+      <c r="CO185" s="23">
         <v>118.93669006545838</v>
       </c>
-      <c r="CP185" s="36">
+      <c r="CP185" s="23">
         <v>120.53089153529153</v>
       </c>
-      <c r="CQ185" s="36">
+      <c r="CQ185" s="23">
         <v>145.43827707848183</v>
       </c>
-      <c r="CR185" s="36">
-        <v>105.72422833659357</v>
-      </c>
-      <c r="CS185" s="9"/>
+      <c r="CR185" s="23">
+        <v>105.72282283643537</v>
+      </c>
+      <c r="CS185" s="23">
+        <v>117.76566274093183</v>
+      </c>
       <c r="CT185" s="9"/>
       <c r="CU185" s="9"/>
       <c r="CV185" s="9"/>
@@ -43402,28 +43721,30 @@
       <c r="CK186" s="23">
         <v>103.26014971012363</v>
       </c>
-      <c r="CL186" s="36">
+      <c r="CL186" s="23">
         <v>112.41474812048821</v>
       </c>
-      <c r="CM186" s="36">
+      <c r="CM186" s="23">
         <v>128.39695056604066</v>
       </c>
-      <c r="CN186" s="36">
+      <c r="CN186" s="23">
         <v>101.70076030291482</v>
       </c>
-      <c r="CO186" s="36">
+      <c r="CO186" s="23">
         <v>120.79318439411428</v>
       </c>
-      <c r="CP186" s="36">
+      <c r="CP186" s="23">
         <v>123.02365283783546</v>
       </c>
-      <c r="CQ186" s="36">
+      <c r="CQ186" s="23">
         <v>142.90047446812179</v>
       </c>
-      <c r="CR186" s="36">
-        <v>106.13860364509942</v>
-      </c>
-      <c r="CS186" s="9"/>
+      <c r="CR186" s="23">
+        <v>106.13776702278518</v>
+      </c>
+      <c r="CS186" s="23">
+        <v>122.58964495148344</v>
+      </c>
       <c r="CT186" s="9"/>
       <c r="CU186" s="9"/>
       <c r="CV186" s="9"/>
@@ -43748,28 +44069,30 @@
       <c r="CK187" s="23">
         <v>107.71473180788705</v>
       </c>
-      <c r="CL187" s="36">
+      <c r="CL187" s="23">
         <v>112.74333618932511</v>
       </c>
-      <c r="CM187" s="36">
+      <c r="CM187" s="23">
         <v>131.12459091259595</v>
       </c>
-      <c r="CN187" s="36">
+      <c r="CN187" s="23">
         <v>106.15652121795985</v>
       </c>
-      <c r="CO187" s="36">
+      <c r="CO187" s="23">
         <v>127.6230023507334</v>
       </c>
-      <c r="CP187" s="36">
+      <c r="CP187" s="23">
         <v>126.93872719937332</v>
       </c>
-      <c r="CQ187" s="36">
+      <c r="CQ187" s="23">
         <v>129.4387733211542</v>
       </c>
-      <c r="CR187" s="36">
-        <v>108.8092152157915</v>
-      </c>
-      <c r="CS187" s="9"/>
+      <c r="CR187" s="23">
+        <v>108.97712885134898</v>
+      </c>
+      <c r="CS187" s="23">
+        <v>127.01272088406755</v>
+      </c>
       <c r="CT187" s="9"/>
       <c r="CU187" s="9"/>
       <c r="CV187" s="9"/>
@@ -44094,28 +44417,30 @@
       <c r="CK188" s="23">
         <v>95.327040468438327</v>
       </c>
-      <c r="CL188" s="36">
+      <c r="CL188" s="23">
         <v>101.17667845633333</v>
       </c>
-      <c r="CM188" s="36">
+      <c r="CM188" s="23">
         <v>118.84635925177834</v>
       </c>
-      <c r="CN188" s="36">
+      <c r="CN188" s="23">
         <v>97.74707671046022</v>
       </c>
-      <c r="CO188" s="36">
+      <c r="CO188" s="23">
         <v>95.137932816791036</v>
       </c>
-      <c r="CP188" s="36">
+      <c r="CP188" s="23">
         <v>107.53325828102527</v>
       </c>
-      <c r="CQ188" s="36">
+      <c r="CQ188" s="23">
         <v>129.84083420479385</v>
       </c>
-      <c r="CR188" s="36">
-        <v>100.32841940263954</v>
-      </c>
-      <c r="CS188" s="9"/>
+      <c r="CR188" s="23">
+        <v>100.3303534151016</v>
+      </c>
+      <c r="CS188" s="23">
+        <v>94.413991749062475</v>
+      </c>
       <c r="CT188" s="9"/>
       <c r="CU188" s="9"/>
       <c r="CV188" s="9"/>
@@ -44440,28 +44765,30 @@
       <c r="CK189" s="23">
         <v>99.595139695632511</v>
       </c>
-      <c r="CL189" s="36">
+      <c r="CL189" s="23">
         <v>97.443217984366399</v>
       </c>
-      <c r="CM189" s="36">
+      <c r="CM189" s="23">
         <v>97.552619897113914</v>
       </c>
-      <c r="CN189" s="36">
+      <c r="CN189" s="23">
         <v>113.61966851575103</v>
       </c>
-      <c r="CO189" s="36">
+      <c r="CO189" s="23">
         <v>113.01917785514451</v>
       </c>
-      <c r="CP189" s="36">
+      <c r="CP189" s="23">
         <v>101.73009895584563</v>
       </c>
-      <c r="CQ189" s="36">
+      <c r="CQ189" s="23">
         <v>106.00275097627502</v>
       </c>
-      <c r="CR189" s="36">
-        <v>113.17152082295496</v>
-      </c>
-      <c r="CS189" s="9"/>
+      <c r="CR189" s="23">
+        <v>113.19829087808675</v>
+      </c>
+      <c r="CS189" s="23">
+        <v>114.36694647676164</v>
+      </c>
       <c r="CT189" s="9"/>
       <c r="CU189" s="9"/>
       <c r="CV189" s="9"/>
@@ -44786,28 +45113,30 @@
       <c r="CK190" s="23">
         <v>97.733178202741868</v>
       </c>
-      <c r="CL190" s="36">
+      <c r="CL190" s="23">
         <v>94.373972935113954</v>
       </c>
-      <c r="CM190" s="36">
+      <c r="CM190" s="23">
         <v>98.251893600077111</v>
       </c>
-      <c r="CN190" s="36">
+      <c r="CN190" s="23">
         <v>112.86888368003432</v>
       </c>
-      <c r="CO190" s="36">
+      <c r="CO190" s="23">
         <v>112.20241549885887</v>
       </c>
-      <c r="CP190" s="36">
+      <c r="CP190" s="23">
         <v>99.872548361270233</v>
       </c>
-      <c r="CQ190" s="36">
+      <c r="CQ190" s="23">
         <v>105.71797486095215</v>
       </c>
-      <c r="CR190" s="36">
-        <v>111.77947149428272</v>
-      </c>
-      <c r="CS190" s="9"/>
+      <c r="CR190" s="23">
+        <v>111.80096047767944</v>
+      </c>
+      <c r="CS190" s="23">
+        <v>110.92940045723105</v>
+      </c>
       <c r="CT190" s="9"/>
       <c r="CU190" s="9"/>
       <c r="CV190" s="9"/>
@@ -45132,28 +45461,30 @@
       <c r="CK191" s="23">
         <v>112.64926929216541</v>
       </c>
-      <c r="CL191" s="36">
+      <c r="CL191" s="23">
         <v>99.063917528128442</v>
       </c>
-      <c r="CM191" s="36">
+      <c r="CM191" s="23">
         <v>78.803988198212863</v>
       </c>
-      <c r="CN191" s="36">
+      <c r="CN191" s="23">
         <v>119.42817680762082</v>
       </c>
-      <c r="CO191" s="36">
+      <c r="CO191" s="23">
         <v>132.65113388444081</v>
       </c>
-      <c r="CP191" s="36">
+      <c r="CP191" s="23">
         <v>111.15709348108676</v>
       </c>
-      <c r="CQ191" s="36">
+      <c r="CQ191" s="23">
         <v>92.240989302510286</v>
       </c>
-      <c r="CR191" s="36">
-        <v>126.90880616534858</v>
-      </c>
-      <c r="CS191" s="9"/>
+      <c r="CR191" s="23">
+        <v>126.90880616534857</v>
+      </c>
+      <c r="CS191" s="23">
+        <v>138.28573880695626</v>
+      </c>
       <c r="CT191" s="9"/>
       <c r="CU191" s="9"/>
       <c r="CV191" s="9"/>
@@ -45478,28 +45809,30 @@
       <c r="CK192" s="23">
         <v>109.37199147128867</v>
       </c>
-      <c r="CL192" s="36">
+      <c r="CL192" s="23">
         <v>115.35199705178162</v>
       </c>
-      <c r="CM192" s="36">
+      <c r="CM192" s="23">
         <v>95.150010686727541</v>
       </c>
-      <c r="CN192" s="36">
+      <c r="CN192" s="23">
         <v>129.5112687852089</v>
       </c>
-      <c r="CO192" s="36">
+      <c r="CO192" s="23">
         <v>128.18268818728211</v>
       </c>
-      <c r="CP192" s="36">
+      <c r="CP192" s="23">
         <v>128.66084698800921</v>
       </c>
-      <c r="CQ192" s="36">
+      <c r="CQ192" s="23">
         <v>107.50404394628454</v>
       </c>
-      <c r="CR192" s="36">
-        <v>137.78653878787657</v>
-      </c>
-      <c r="CS192" s="9"/>
+      <c r="CR192" s="23">
+        <v>137.79099233297674</v>
+      </c>
+      <c r="CS192" s="23">
+        <v>134.26404954214038</v>
+      </c>
       <c r="CT192" s="9"/>
       <c r="CU192" s="9"/>
       <c r="CV192" s="9"/>
@@ -45824,28 +46157,30 @@
       <c r="CK193" s="23">
         <v>102.61542288804119</v>
       </c>
-      <c r="CL193" s="36">
+      <c r="CL193" s="23">
         <v>120.86140442024134</v>
       </c>
-      <c r="CM193" s="36">
+      <c r="CM193" s="23">
         <v>94.278800118081435</v>
       </c>
-      <c r="CN193" s="36">
+      <c r="CN193" s="23">
         <v>119.57781459527645</v>
       </c>
-      <c r="CO193" s="36">
+      <c r="CO193" s="23">
         <v>123.17422915756779</v>
       </c>
-      <c r="CP193" s="36">
+      <c r="CP193" s="23">
         <v>130.04384045191765</v>
       </c>
-      <c r="CQ193" s="36">
+      <c r="CQ193" s="23">
         <v>108.2073337969621</v>
       </c>
-      <c r="CR193" s="36">
-        <v>118.75821075530095</v>
-      </c>
-      <c r="CS193" s="9"/>
+      <c r="CR193" s="23">
+        <v>119.05093569693889</v>
+      </c>
+      <c r="CS193" s="23">
+        <v>129.27722887130247</v>
+      </c>
       <c r="CT193" s="9"/>
       <c r="CU193" s="9"/>
       <c r="CV193" s="9"/>
@@ -46170,28 +46505,30 @@
       <c r="CK194" s="23">
         <v>135.97329419336032</v>
       </c>
-      <c r="CL194" s="36">
+      <c r="CL194" s="23">
         <v>108.19824692462143</v>
       </c>
-      <c r="CM194" s="36">
+      <c r="CM194" s="23">
         <v>79.204150725034381</v>
       </c>
-      <c r="CN194" s="36">
+      <c r="CN194" s="23">
         <v>119.47104075353721</v>
       </c>
-      <c r="CO194" s="36">
+      <c r="CO194" s="23">
         <v>163.01740034680279</v>
       </c>
-      <c r="CP194" s="36">
+      <c r="CP194" s="23">
         <v>117.01822401527804</v>
       </c>
-      <c r="CQ194" s="36">
+      <c r="CQ194" s="23">
         <v>83.817977836197173</v>
       </c>
-      <c r="CR194" s="36">
-        <v>121.57682546667499</v>
-      </c>
-      <c r="CS194" s="9"/>
+      <c r="CR194" s="23">
+        <v>121.5460379148323</v>
+      </c>
+      <c r="CS194" s="23">
+        <v>165.39374384965632</v>
+      </c>
       <c r="CT194" s="9"/>
       <c r="CU194" s="9"/>
       <c r="CV194" s="9"/>
@@ -46516,28 +46853,30 @@
       <c r="CK195" s="23">
         <v>195.6579396504861</v>
       </c>
-      <c r="CL195" s="36">
+      <c r="CL195" s="23">
         <v>105.79936104191452</v>
       </c>
-      <c r="CM195" s="36">
+      <c r="CM195" s="23">
         <v>68.863432683335105</v>
       </c>
-      <c r="CN195" s="36">
+      <c r="CN195" s="23">
         <v>150.90829930733645</v>
       </c>
-      <c r="CO195" s="36">
+      <c r="CO195" s="23">
         <v>223.98619284757166</v>
       </c>
-      <c r="CP195" s="36">
+      <c r="CP195" s="23">
         <v>109.99421910178127</v>
       </c>
-      <c r="CQ195" s="36">
+      <c r="CQ195" s="23">
         <v>69.054818923667639</v>
       </c>
-      <c r="CR195" s="36">
-        <v>142.9813727909175</v>
-      </c>
-      <c r="CS195" s="9"/>
+      <c r="CR195" s="23">
+        <v>142.50314628483724</v>
+      </c>
+      <c r="CS195" s="23">
+        <v>211.62452395658607</v>
+      </c>
       <c r="CT195" s="9"/>
       <c r="CU195" s="9"/>
       <c r="CV195" s="9"/>
@@ -46862,28 +47201,30 @@
       <c r="CK196" s="23">
         <v>129.36786657640914</v>
       </c>
-      <c r="CL196" s="36">
+      <c r="CL196" s="23">
         <v>96.454995633357569</v>
       </c>
-      <c r="CM196" s="36">
+      <c r="CM196" s="23">
         <v>75.282946984283853</v>
       </c>
-      <c r="CN196" s="36">
+      <c r="CN196" s="23">
         <v>128.42196459268601</v>
       </c>
-      <c r="CO196" s="36">
+      <c r="CO196" s="23">
         <v>145.2651769104485</v>
       </c>
-      <c r="CP196" s="36">
+      <c r="CP196" s="23">
         <v>101.0837677577484</v>
       </c>
-      <c r="CQ196" s="36">
+      <c r="CQ196" s="23">
         <v>71.725624749258216</v>
       </c>
-      <c r="CR196" s="36">
-        <v>126.30673146242179</v>
-      </c>
-      <c r="CS196" s="9"/>
+      <c r="CR196" s="23">
+        <v>125.92861194983162</v>
+      </c>
+      <c r="CS196" s="23">
+        <v>149.1923110943265</v>
+      </c>
       <c r="CT196" s="9"/>
       <c r="CU196" s="9"/>
       <c r="CV196" s="9"/>
@@ -47208,28 +47549,30 @@
       <c r="CK197" s="23">
         <v>143.82994926177562</v>
       </c>
-      <c r="CL197" s="36">
+      <c r="CL197" s="23">
         <v>116.24668959227469</v>
       </c>
-      <c r="CM197" s="36">
+      <c r="CM197" s="23">
         <v>71.744135598138669</v>
       </c>
-      <c r="CN197" s="36">
+      <c r="CN197" s="23">
         <v>115.57500665990017</v>
       </c>
-      <c r="CO197" s="36">
+      <c r="CO197" s="23">
         <v>170.75335124908443</v>
       </c>
-      <c r="CP197" s="36">
+      <c r="CP197" s="23">
         <v>125.80747594568066</v>
       </c>
-      <c r="CQ197" s="36">
+      <c r="CQ197" s="23">
         <v>79.903545889443066</v>
       </c>
-      <c r="CR197" s="36">
-        <v>118.8132870819</v>
-      </c>
-      <c r="CS197" s="9"/>
+      <c r="CR197" s="23">
+        <v>118.89977356406646</v>
+      </c>
+      <c r="CS197" s="23">
+        <v>176.02452638719376</v>
+      </c>
       <c r="CT197" s="9"/>
       <c r="CU197" s="9"/>
       <c r="CV197" s="9"/>
@@ -47554,28 +47897,30 @@
       <c r="CK198" s="23">
         <v>108.16425674603971</v>
       </c>
-      <c r="CL198" s="36">
+      <c r="CL198" s="23">
         <v>102.93521531073462</v>
       </c>
-      <c r="CM198" s="36">
+      <c r="CM198" s="23">
         <v>106.67057989739079</v>
       </c>
-      <c r="CN198" s="36">
+      <c r="CN198" s="23">
         <v>113.31185125124885</v>
       </c>
-      <c r="CO198" s="36">
+      <c r="CO198" s="23">
         <v>132.67940313927625</v>
       </c>
-      <c r="CP198" s="36">
+      <c r="CP198" s="23">
         <v>115.11291090441121</v>
       </c>
-      <c r="CQ198" s="36">
+      <c r="CQ198" s="23">
         <v>115.67418592024742</v>
       </c>
-      <c r="CR198" s="36">
-        <v>117.2931322958743</v>
-      </c>
-      <c r="CS198" s="9"/>
+      <c r="CR198" s="23">
+        <v>117.268597268428</v>
+      </c>
+      <c r="CS198" s="23">
+        <v>134.19126240682863</v>
+      </c>
       <c r="CT198" s="9"/>
       <c r="CU198" s="9"/>
       <c r="CV198" s="9"/>
@@ -47721,13 +48066,13 @@
       <c r="CI199" s="9"/>
       <c r="CJ199" s="9"/>
       <c r="CK199" s="9"/>
-      <c r="CL199" s="31"/>
-      <c r="CM199" s="31"/>
-      <c r="CN199" s="31"/>
-      <c r="CO199" s="31"/>
-      <c r="CP199" s="31"/>
-      <c r="CQ199" s="31"/>
-      <c r="CR199" s="31"/>
+      <c r="CL199" s="9"/>
+      <c r="CM199" s="9"/>
+      <c r="CN199" s="9"/>
+      <c r="CO199" s="9"/>
+      <c r="CP199" s="9"/>
+      <c r="CQ199" s="9"/>
+      <c r="CR199" s="9"/>
       <c r="CS199" s="9"/>
       <c r="CT199" s="9"/>
       <c r="CU199" s="9"/>
@@ -48053,28 +48398,30 @@
       <c r="CK200" s="23">
         <v>102.3967435492559</v>
       </c>
-      <c r="CL200" s="36">
+      <c r="CL200" s="23">
         <v>102.98072951051338</v>
       </c>
-      <c r="CM200" s="36">
+      <c r="CM200" s="23">
         <v>103.49166399344993</v>
       </c>
-      <c r="CN200" s="36">
+      <c r="CN200" s="23">
         <v>109.38170811396103</v>
       </c>
-      <c r="CO200" s="36">
+      <c r="CO200" s="23">
         <v>117.422149054903</v>
       </c>
-      <c r="CP200" s="36">
+      <c r="CP200" s="23">
         <v>109.69159683028045</v>
       </c>
-      <c r="CQ200" s="36">
+      <c r="CQ200" s="23">
         <v>110.20586257678995</v>
       </c>
-      <c r="CR200" s="36">
-        <v>111.50838691790315</v>
-      </c>
-      <c r="CS200" s="9"/>
+      <c r="CR200" s="23">
+        <v>111.53361809304909</v>
+      </c>
+      <c r="CS200" s="23">
+        <v>117.38236329979304</v>
+      </c>
       <c r="CT200" s="9"/>
       <c r="CU200" s="9"/>
       <c r="CV200" s="9"/>
@@ -48221,13 +48568,14 @@
       <c r="CI201" s="14"/>
       <c r="CJ201" s="14"/>
       <c r="CK201" s="14"/>
-      <c r="CL201" s="33"/>
-      <c r="CM201" s="33"/>
-      <c r="CN201" s="33"/>
-      <c r="CO201" s="33"/>
-      <c r="CP201" s="33"/>
-      <c r="CQ201" s="33"/>
-      <c r="CR201" s="33"/>
+      <c r="CL201" s="14"/>
+      <c r="CM201" s="14"/>
+      <c r="CN201" s="14"/>
+      <c r="CO201" s="14"/>
+      <c r="CP201" s="14"/>
+      <c r="CQ201" s="14"/>
+      <c r="CR201" s="14"/>
+      <c r="CS201" s="14"/>
     </row>
     <row r="202" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A202" s="15" t="s">
@@ -48323,13 +48671,13 @@
       <c r="CI203" s="9"/>
       <c r="CJ203" s="9"/>
       <c r="CK203" s="9"/>
-      <c r="CL203" s="31"/>
-      <c r="CM203" s="31"/>
-      <c r="CN203" s="31"/>
-      <c r="CO203" s="31"/>
-      <c r="CP203" s="31"/>
-      <c r="CQ203" s="31"/>
-      <c r="CR203" s="31"/>
+      <c r="CL203" s="9"/>
+      <c r="CM203" s="9"/>
+      <c r="CN203" s="9"/>
+      <c r="CO203" s="9"/>
+      <c r="CP203" s="9"/>
+      <c r="CQ203" s="9"/>
+      <c r="CR203" s="9"/>
       <c r="CS203" s="9"/>
       <c r="CT203" s="9"/>
       <c r="CU203" s="9"/>
@@ -48476,13 +48824,13 @@
       <c r="CI204" s="9"/>
       <c r="CJ204" s="9"/>
       <c r="CK204" s="9"/>
-      <c r="CL204" s="31"/>
-      <c r="CM204" s="31"/>
-      <c r="CN204" s="31"/>
-      <c r="CO204" s="31"/>
-      <c r="CP204" s="31"/>
-      <c r="CQ204" s="31"/>
-      <c r="CR204" s="31"/>
+      <c r="CL204" s="9"/>
+      <c r="CM204" s="9"/>
+      <c r="CN204" s="9"/>
+      <c r="CO204" s="9"/>
+      <c r="CP204" s="9"/>
+      <c r="CQ204" s="9"/>
+      <c r="CR204" s="9"/>
       <c r="CS204" s="9"/>
       <c r="CT204" s="9"/>
       <c r="CU204" s="9"/>
@@ -48552,7 +48900,7 @@
     </row>
     <row r="207" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="209" spans="1:152" x14ac:dyDescent="0.2">
@@ -48562,7 +48910,7 @@
     </row>
     <row r="210" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="211" spans="1:152" x14ac:dyDescent="0.2">
@@ -48572,149 +48920,150 @@
     </row>
     <row r="213" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
-      <c r="B213" s="37">
+      <c r="B213" s="31">
         <v>2000</v>
       </c>
-      <c r="C213" s="37"/>
-      <c r="D213" s="37"/>
-      <c r="E213" s="37"/>
-      <c r="F213" s="37">
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31">
         <v>2001</v>
       </c>
-      <c r="G213" s="37"/>
-      <c r="H213" s="37"/>
-      <c r="I213" s="37"/>
-      <c r="J213" s="37">
+      <c r="G213" s="31"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
+      <c r="J213" s="31">
         <v>2002</v>
       </c>
-      <c r="K213" s="37"/>
-      <c r="L213" s="37"/>
-      <c r="M213" s="37"/>
-      <c r="N213" s="37">
+      <c r="K213" s="31"/>
+      <c r="L213" s="31"/>
+      <c r="M213" s="31"/>
+      <c r="N213" s="31">
         <v>2003</v>
       </c>
-      <c r="O213" s="37"/>
-      <c r="P213" s="37"/>
-      <c r="Q213" s="37"/>
-      <c r="R213" s="37">
+      <c r="O213" s="31"/>
+      <c r="P213" s="31"/>
+      <c r="Q213" s="31"/>
+      <c r="R213" s="31">
         <v>2004</v>
       </c>
-      <c r="S213" s="37"/>
-      <c r="T213" s="37"/>
-      <c r="U213" s="37"/>
-      <c r="V213" s="37">
+      <c r="S213" s="31"/>
+      <c r="T213" s="31"/>
+      <c r="U213" s="31"/>
+      <c r="V213" s="31">
         <v>2005</v>
       </c>
-      <c r="W213" s="37"/>
-      <c r="X213" s="37"/>
-      <c r="Y213" s="37"/>
-      <c r="Z213" s="37">
+      <c r="W213" s="31"/>
+      <c r="X213" s="31"/>
+      <c r="Y213" s="31"/>
+      <c r="Z213" s="31">
         <v>2006</v>
       </c>
-      <c r="AA213" s="37"/>
-      <c r="AB213" s="37"/>
-      <c r="AC213" s="37"/>
-      <c r="AD213" s="37">
+      <c r="AA213" s="31"/>
+      <c r="AB213" s="31"/>
+      <c r="AC213" s="31"/>
+      <c r="AD213" s="31">
         <v>2007</v>
       </c>
-      <c r="AE213" s="37"/>
-      <c r="AF213" s="37"/>
-      <c r="AG213" s="37"/>
-      <c r="AH213" s="37">
+      <c r="AE213" s="31"/>
+      <c r="AF213" s="31"/>
+      <c r="AG213" s="31"/>
+      <c r="AH213" s="31">
         <v>2008</v>
       </c>
-      <c r="AI213" s="37"/>
-      <c r="AJ213" s="37"/>
-      <c r="AK213" s="37"/>
-      <c r="AL213" s="37">
+      <c r="AI213" s="31"/>
+      <c r="AJ213" s="31"/>
+      <c r="AK213" s="31"/>
+      <c r="AL213" s="31">
         <v>2009</v>
       </c>
-      <c r="AM213" s="37"/>
-      <c r="AN213" s="37"/>
-      <c r="AO213" s="37"/>
-      <c r="AP213" s="37">
+      <c r="AM213" s="31"/>
+      <c r="AN213" s="31"/>
+      <c r="AO213" s="31"/>
+      <c r="AP213" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ213" s="37"/>
-      <c r="AR213" s="37"/>
-      <c r="AS213" s="37"/>
-      <c r="AT213" s="37">
+      <c r="AQ213" s="31"/>
+      <c r="AR213" s="31"/>
+      <c r="AS213" s="31"/>
+      <c r="AT213" s="31">
         <v>2011</v>
       </c>
-      <c r="AU213" s="37"/>
-      <c r="AV213" s="37"/>
-      <c r="AW213" s="37"/>
-      <c r="AX213" s="37">
+      <c r="AU213" s="31"/>
+      <c r="AV213" s="31"/>
+      <c r="AW213" s="31"/>
+      <c r="AX213" s="31">
         <v>2012</v>
       </c>
-      <c r="AY213" s="37"/>
-      <c r="AZ213" s="37"/>
-      <c r="BA213" s="37"/>
-      <c r="BB213" s="37">
+      <c r="AY213" s="31"/>
+      <c r="AZ213" s="31"/>
+      <c r="BA213" s="31"/>
+      <c r="BB213" s="31">
         <v>2013</v>
       </c>
-      <c r="BC213" s="37"/>
-      <c r="BD213" s="37"/>
-      <c r="BE213" s="37"/>
-      <c r="BF213" s="37">
+      <c r="BC213" s="31"/>
+      <c r="BD213" s="31"/>
+      <c r="BE213" s="31"/>
+      <c r="BF213" s="31">
         <v>2014</v>
       </c>
-      <c r="BG213" s="37"/>
-      <c r="BH213" s="37"/>
-      <c r="BI213" s="37"/>
-      <c r="BJ213" s="37">
+      <c r="BG213" s="31"/>
+      <c r="BH213" s="31"/>
+      <c r="BI213" s="31"/>
+      <c r="BJ213" s="31">
         <v>2015</v>
       </c>
-      <c r="BK213" s="37"/>
-      <c r="BL213" s="37"/>
-      <c r="BM213" s="37"/>
-      <c r="BN213" s="37">
+      <c r="BK213" s="31"/>
+      <c r="BL213" s="31"/>
+      <c r="BM213" s="31"/>
+      <c r="BN213" s="31">
         <v>2016</v>
       </c>
-      <c r="BO213" s="37"/>
-      <c r="BP213" s="37"/>
-      <c r="BQ213" s="37"/>
-      <c r="BR213" s="37">
+      <c r="BO213" s="31"/>
+      <c r="BP213" s="31"/>
+      <c r="BQ213" s="31"/>
+      <c r="BR213" s="31">
         <v>2017</v>
       </c>
-      <c r="BS213" s="37"/>
-      <c r="BT213" s="37"/>
-      <c r="BU213" s="37"/>
-      <c r="BV213" s="37">
+      <c r="BS213" s="31"/>
+      <c r="BT213" s="31"/>
+      <c r="BU213" s="31"/>
+      <c r="BV213" s="31">
         <v>2018</v>
       </c>
-      <c r="BW213" s="37"/>
-      <c r="BX213" s="37"/>
-      <c r="BY213" s="37"/>
-      <c r="BZ213" s="37">
+      <c r="BW213" s="31"/>
+      <c r="BX213" s="31"/>
+      <c r="BY213" s="31"/>
+      <c r="BZ213" s="31">
         <v>2019</v>
       </c>
-      <c r="CA213" s="37"/>
-      <c r="CB213" s="37"/>
-      <c r="CC213" s="37"/>
-      <c r="CD213" s="38">
+      <c r="CA213" s="31"/>
+      <c r="CB213" s="31"/>
+      <c r="CC213" s="31"/>
+      <c r="CD213" s="32">
         <v>2020</v>
       </c>
-      <c r="CE213" s="38"/>
-      <c r="CF213" s="38"/>
-      <c r="CG213" s="38"/>
-      <c r="CH213" s="38">
+      <c r="CE213" s="32"/>
+      <c r="CF213" s="32"/>
+      <c r="CG213" s="32"/>
+      <c r="CH213" s="32">
         <v>2021</v>
       </c>
-      <c r="CI213" s="38"/>
-      <c r="CJ213" s="38"/>
-      <c r="CK213" s="38"/>
-      <c r="CL213" s="37">
+      <c r="CI213" s="32"/>
+      <c r="CJ213" s="32"/>
+      <c r="CK213" s="32"/>
+      <c r="CL213" s="28">
         <v>2022</v>
       </c>
-      <c r="CM213" s="37"/>
-      <c r="CN213" s="37"/>
-      <c r="CO213" s="37"/>
-      <c r="CP213" s="37">
+      <c r="CM213" s="28"/>
+      <c r="CN213" s="28"/>
+      <c r="CO213" s="28"/>
+      <c r="CP213" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ213" s="37"/>
-      <c r="CR213" s="37"/>
+      <c r="CQ213" s="28"/>
+      <c r="CR213" s="28"/>
+      <c r="CS213" s="28"/>
     </row>
     <row r="214" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
@@ -48984,26 +49333,29 @@
       <c r="CK214" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL214" s="34" t="s">
+      <c r="CL214" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM214" s="34" t="s">
+      <c r="CM214" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN214" s="34" t="s">
+      <c r="CN214" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO214" s="34" t="s">
+      <c r="CO214" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP214" s="34" t="s">
+      <c r="CP214" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ214" s="34" t="s">
+      <c r="CQ214" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR214" s="34" t="s">
+      <c r="CR214" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CS214" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -49277,28 +49629,30 @@
       <c r="CK216" s="23">
         <v>19.755836619819288</v>
       </c>
-      <c r="CL216" s="36">
+      <c r="CL216" s="23">
         <v>18.050612250006182</v>
       </c>
-      <c r="CM216" s="36">
+      <c r="CM216" s="23">
         <v>16.218232370474251</v>
       </c>
-      <c r="CN216" s="36">
+      <c r="CN216" s="23">
         <v>13.045065793231997</v>
       </c>
-      <c r="CO216" s="36">
+      <c r="CO216" s="23">
         <v>16.267168765343023</v>
       </c>
-      <c r="CP216" s="36">
+      <c r="CP216" s="23">
         <v>16.11152995928596</v>
       </c>
-      <c r="CQ216" s="36">
+      <c r="CQ216" s="23">
         <v>14.328320418578331</v>
       </c>
-      <c r="CR216" s="36">
-        <v>11.671687332358752</v>
-      </c>
-      <c r="CS216" s="9"/>
+      <c r="CR216" s="23">
+        <v>11.575292759284363</v>
+      </c>
+      <c r="CS216" s="23">
+        <v>14.291678510438663</v>
+      </c>
       <c r="CT216" s="9"/>
       <c r="CU216" s="9"/>
       <c r="CV216" s="9"/>
@@ -49623,28 +49977,30 @@
       <c r="CK217" s="23">
         <v>1.463473468890409</v>
       </c>
-      <c r="CL217" s="36">
+      <c r="CL217" s="23">
         <v>0.72670418764357592</v>
       </c>
-      <c r="CM217" s="36">
+      <c r="CM217" s="23">
         <v>0.8015067914120142</v>
       </c>
-      <c r="CN217" s="36">
+      <c r="CN217" s="23">
         <v>0.93367020389674915</v>
       </c>
-      <c r="CO217" s="36">
+      <c r="CO217" s="23">
         <v>0.82248902797103507</v>
       </c>
-      <c r="CP217" s="36">
+      <c r="CP217" s="23">
         <v>0.74977551365334361</v>
       </c>
-      <c r="CQ217" s="36">
+      <c r="CQ217" s="23">
         <v>1.0046822083693379</v>
       </c>
-      <c r="CR217" s="36">
-        <v>1.108649209324611</v>
-      </c>
-      <c r="CS217" s="9"/>
+      <c r="CR217" s="23">
+        <v>1.1084436241024742</v>
+      </c>
+      <c r="CS217" s="23">
+        <v>1.223242938782328</v>
+      </c>
       <c r="CT217" s="9"/>
       <c r="CU217" s="9"/>
       <c r="CV217" s="9"/>
@@ -49969,28 +50325,30 @@
       <c r="CK218" s="23">
         <v>3.7720842676225628</v>
       </c>
-      <c r="CL218" s="36">
+      <c r="CL218" s="23">
         <v>2.7604542518695392</v>
       </c>
-      <c r="CM218" s="36">
+      <c r="CM218" s="23">
         <v>3.0613103608079473</v>
       </c>
-      <c r="CN218" s="36">
+      <c r="CN218" s="23">
         <v>3.2496005071778735</v>
       </c>
-      <c r="CO218" s="36">
+      <c r="CO218" s="23">
         <v>3.5675907092665833</v>
       </c>
-      <c r="CP218" s="36">
+      <c r="CP218" s="23">
         <v>3.2499211299362338</v>
       </c>
-      <c r="CQ218" s="36">
+      <c r="CQ218" s="23">
         <v>3.6761776001445443</v>
       </c>
-      <c r="CR218" s="36">
-        <v>2.5237529842196618</v>
-      </c>
-      <c r="CS218" s="9"/>
+      <c r="CR218" s="23">
+        <v>2.5062862078217929</v>
+      </c>
+      <c r="CS218" s="23">
+        <v>2.1868512711902266</v>
+      </c>
       <c r="CT218" s="9"/>
       <c r="CU218" s="9"/>
       <c r="CV218" s="9"/>
@@ -50315,28 +50673,30 @@
       <c r="CK219" s="23">
         <v>0.25937530075334297</v>
       </c>
-      <c r="CL219" s="36">
+      <c r="CL219" s="23">
         <v>0.18897861263598709</v>
       </c>
-      <c r="CM219" s="36">
+      <c r="CM219" s="23">
         <v>0.22967110501852825</v>
       </c>
-      <c r="CN219" s="36">
+      <c r="CN219" s="23">
         <v>0.22956700352428755</v>
       </c>
-      <c r="CO219" s="36">
+      <c r="CO219" s="23">
         <v>0.27073179341118642</v>
       </c>
-      <c r="CP219" s="36">
+      <c r="CP219" s="23">
         <v>0.17769745204837445</v>
       </c>
-      <c r="CQ219" s="36">
+      <c r="CQ219" s="23">
         <v>0.24491719861870556</v>
       </c>
-      <c r="CR219" s="36">
-        <v>0.19353959619343442</v>
-      </c>
-      <c r="CS219" s="9"/>
+      <c r="CR219" s="23">
+        <v>0.19461456871000332</v>
+      </c>
+      <c r="CS219" s="23">
+        <v>0.27926182290817597</v>
+      </c>
       <c r="CT219" s="9"/>
       <c r="CU219" s="9"/>
       <c r="CV219" s="9"/>
@@ -50661,28 +51021,30 @@
       <c r="CK220" s="23">
         <v>0.14947455117362529</v>
       </c>
-      <c r="CL220" s="36">
+      <c r="CL220" s="23">
         <v>0.12300201162825382</v>
       </c>
-      <c r="CM220" s="36">
+      <c r="CM220" s="23">
         <v>0.12367363072650905</v>
       </c>
-      <c r="CN220" s="36">
+      <c r="CN220" s="23">
         <v>0.17722226438681232</v>
       </c>
-      <c r="CO220" s="36">
+      <c r="CO220" s="23">
         <v>0.17748213283990483</v>
       </c>
-      <c r="CP220" s="36">
+      <c r="CP220" s="23">
         <v>0.11557529508909396</v>
       </c>
-      <c r="CQ220" s="36">
+      <c r="CQ220" s="23">
         <v>0.13626344048412048</v>
       </c>
-      <c r="CR220" s="36">
-        <v>0.16022978304075178</v>
-      </c>
-      <c r="CS220" s="9"/>
+      <c r="CR220" s="23">
+        <v>0.16036551423020257</v>
+      </c>
+      <c r="CS220" s="23">
+        <v>0.14145803150235878</v>
+      </c>
       <c r="CT220" s="9"/>
       <c r="CU220" s="9"/>
       <c r="CV220" s="9"/>
@@ -51007,28 +51369,30 @@
       <c r="CK221" s="23">
         <v>1.0169698993803824</v>
       </c>
-      <c r="CL221" s="36">
+      <c r="CL221" s="23">
         <v>1.0891605957255808</v>
       </c>
-      <c r="CM221" s="36">
+      <c r="CM221" s="23">
         <v>0.93144879135710312</v>
       </c>
-      <c r="CN221" s="36">
+      <c r="CN221" s="23">
         <v>0.81767938065643342</v>
       </c>
-      <c r="CO221" s="36">
+      <c r="CO221" s="23">
         <v>0.9563673898375572</v>
       </c>
-      <c r="CP221" s="36">
+      <c r="CP221" s="23">
         <v>1.0388842420924849</v>
       </c>
-      <c r="CQ221" s="36">
+      <c r="CQ221" s="23">
         <v>0.77673598149899903</v>
       </c>
-      <c r="CR221" s="36">
-        <v>0.90446620086730523</v>
-      </c>
-      <c r="CS221" s="9"/>
+      <c r="CR221" s="23">
+        <v>0.90212896990132452</v>
+      </c>
+      <c r="CS221" s="23">
+        <v>0.73079770258442656</v>
+      </c>
       <c r="CT221" s="9"/>
       <c r="CU221" s="9"/>
       <c r="CV221" s="9"/>
@@ -51353,28 +51717,30 @@
       <c r="CK222" s="23">
         <v>9.3894308303894292</v>
       </c>
-      <c r="CL222" s="36">
+      <c r="CL222" s="23">
         <v>10.092683768795997</v>
       </c>
-      <c r="CM222" s="36">
+      <c r="CM222" s="23">
         <v>7.9666068322535182</v>
       </c>
-      <c r="CN222" s="36">
+      <c r="CN222" s="23">
         <v>4.7864745471702781</v>
       </c>
-      <c r="CO222" s="36">
+      <c r="CO222" s="23">
         <v>7.4037750081157743</v>
       </c>
-      <c r="CP222" s="36">
+      <c r="CP222" s="23">
         <v>8.3431554949074762</v>
       </c>
-      <c r="CQ222" s="36">
+      <c r="CQ222" s="23">
         <v>6.5472796896842436</v>
       </c>
-      <c r="CR222" s="36">
-        <v>4.597402125362021</v>
-      </c>
-      <c r="CS222" s="9"/>
+      <c r="CR222" s="23">
+        <v>4.532766718370886</v>
+      </c>
+      <c r="CS222" s="23">
+        <v>7.0654064231501685</v>
+      </c>
       <c r="CT222" s="9"/>
       <c r="CU222" s="9"/>
       <c r="CV222" s="9"/>
@@ -51699,28 +52065,30 @@
       <c r="CK223" s="23">
         <v>0.48550305371411873</v>
       </c>
-      <c r="CL223" s="36">
+      <c r="CL223" s="23">
         <v>0.21565276442648235</v>
       </c>
-      <c r="CM223" s="36">
+      <c r="CM223" s="23">
         <v>0.2377834561236844</v>
       </c>
-      <c r="CN223" s="36">
+      <c r="CN223" s="23">
         <v>0.14158046504632688</v>
       </c>
-      <c r="CO223" s="36">
+      <c r="CO223" s="23">
         <v>0.35601545735569595</v>
       </c>
-      <c r="CP223" s="36">
+      <c r="CP223" s="23">
         <v>0.2974069170335582</v>
       </c>
-      <c r="CQ223" s="36">
+      <c r="CQ223" s="23">
         <v>0.34339121179956716</v>
       </c>
-      <c r="CR223" s="36">
-        <v>0.28212992504745837</v>
-      </c>
-      <c r="CS223" s="9"/>
+      <c r="CR223" s="23">
+        <v>0.28116777469936838</v>
+      </c>
+      <c r="CS223" s="23">
+        <v>0.26736358370903834</v>
+      </c>
       <c r="CT223" s="9"/>
       <c r="CU223" s="9"/>
       <c r="CV223" s="9"/>
@@ -52045,28 +52413,30 @@
       <c r="CK224" s="23">
         <v>3.2195252478954224</v>
       </c>
-      <c r="CL224" s="36">
+      <c r="CL224" s="23">
         <v>2.8539760572807662</v>
       </c>
-      <c r="CM224" s="36">
+      <c r="CM224" s="23">
         <v>2.8662314027749467</v>
       </c>
-      <c r="CN224" s="36">
+      <c r="CN224" s="23">
         <v>2.7092714213732378</v>
       </c>
-      <c r="CO224" s="36">
+      <c r="CO224" s="23">
         <v>2.7127172465452833</v>
       </c>
-      <c r="CP224" s="36">
+      <c r="CP224" s="23">
         <v>2.1391139145253919</v>
       </c>
-      <c r="CQ224" s="36">
+      <c r="CQ224" s="23">
         <v>1.5988730879788149</v>
       </c>
-      <c r="CR224" s="36">
-        <v>1.9015175083035087</v>
-      </c>
-      <c r="CS224" s="9"/>
+      <c r="CR224" s="23">
+        <v>1.8895193814483104</v>
+      </c>
+      <c r="CS224" s="23">
+        <v>2.3972967366119406</v>
+      </c>
       <c r="CT224" s="9"/>
       <c r="CU224" s="9"/>
       <c r="CV224" s="9"/>
@@ -52391,28 +52761,30 @@
       <c r="CK225" s="23">
         <v>16.067706346481458</v>
       </c>
-      <c r="CL225" s="36">
+      <c r="CL225" s="23">
         <v>16.027677062579244</v>
       </c>
-      <c r="CM225" s="36">
+      <c r="CM225" s="23">
         <v>16.147204801425939</v>
       </c>
-      <c r="CN225" s="36">
+      <c r="CN225" s="23">
         <v>18.219081362879937</v>
       </c>
-      <c r="CO225" s="36">
+      <c r="CO225" s="23">
         <v>18.163797588086084</v>
       </c>
-      <c r="CP225" s="36">
+      <c r="CP225" s="23">
         <v>16.591482462350108</v>
       </c>
-      <c r="CQ225" s="36">
+      <c r="CQ225" s="23">
         <v>16.528314130682094</v>
       </c>
-      <c r="CR225" s="36">
-        <v>18.199220555932168</v>
-      </c>
-      <c r="CS225" s="9"/>
+      <c r="CR225" s="23">
+        <v>18.325950112129533</v>
+      </c>
+      <c r="CS225" s="23">
+        <v>16.328287527565479</v>
+      </c>
       <c r="CT225" s="9"/>
       <c r="CU225" s="9"/>
       <c r="CV225" s="9"/>
@@ -52737,28 +53109,30 @@
       <c r="CK226" s="23">
         <v>3.3930042878305451</v>
       </c>
-      <c r="CL226" s="36">
+      <c r="CL226" s="23">
         <v>2.7973764283036724</v>
       </c>
-      <c r="CM226" s="36">
+      <c r="CM226" s="23">
         <v>3.2613854981300019</v>
       </c>
-      <c r="CN226" s="36">
+      <c r="CN226" s="23">
         <v>2.8862981129508771</v>
       </c>
-      <c r="CO226" s="36">
+      <c r="CO226" s="23">
         <v>3.453617057002706</v>
       </c>
-      <c r="CP226" s="36">
+      <c r="CP226" s="23">
         <v>2.6520483511187005</v>
       </c>
-      <c r="CQ226" s="36">
+      <c r="CQ226" s="23">
         <v>3.0056217267554874</v>
       </c>
-      <c r="CR226" s="36">
-        <v>2.5741008801476903</v>
-      </c>
-      <c r="CS226" s="9"/>
+      <c r="CR226" s="23">
+        <v>2.5748530600359878</v>
+      </c>
+      <c r="CS226" s="23">
+        <v>3.2403016587796976</v>
+      </c>
       <c r="CT226" s="9"/>
       <c r="CU226" s="9"/>
       <c r="CV226" s="9"/>
@@ -53083,28 +53457,30 @@
       <c r="CK227" s="23">
         <v>1.8591057433092146</v>
       </c>
-      <c r="CL227" s="36">
+      <c r="CL227" s="23">
         <v>1.638492335454782</v>
       </c>
-      <c r="CM227" s="36">
+      <c r="CM227" s="23">
         <v>1.8633867720853365</v>
       </c>
-      <c r="CN227" s="36">
+      <c r="CN227" s="23">
         <v>1.6359608693438117</v>
       </c>
-      <c r="CO227" s="36">
+      <c r="CO227" s="23">
         <v>2.1172085598585411</v>
       </c>
-      <c r="CP227" s="36">
+      <c r="CP227" s="23">
         <v>1.7924471078890849</v>
       </c>
-      <c r="CQ227" s="36">
+      <c r="CQ227" s="23">
         <v>1.9644536470891827</v>
       </c>
-      <c r="CR227" s="36">
-        <v>1.701462244240191</v>
-      </c>
-      <c r="CS227" s="9"/>
+      <c r="CR227" s="23">
+        <v>1.7023098493172888</v>
+      </c>
+      <c r="CS227" s="23">
+        <v>1.7771003101480189</v>
+      </c>
       <c r="CT227" s="9"/>
       <c r="CU227" s="9"/>
       <c r="CV227" s="9"/>
@@ -53429,28 +53805,30 @@
       <c r="CK228" s="23">
         <v>4.2258499491932717</v>
       </c>
-      <c r="CL228" s="36">
+      <c r="CL228" s="23">
         <v>3.957134737051577</v>
       </c>
-      <c r="CM228" s="36">
+      <c r="CM228" s="23">
         <v>4.426449035209874</v>
       </c>
-      <c r="CN228" s="36">
+      <c r="CN228" s="23">
         <v>7.5592679913090324</v>
       </c>
-      <c r="CO228" s="36">
+      <c r="CO228" s="23">
         <v>6.4818498316473905</v>
       </c>
-      <c r="CP228" s="36">
+      <c r="CP228" s="23">
         <v>6.3207413674975372</v>
       </c>
-      <c r="CQ228" s="36">
+      <c r="CQ228" s="23">
         <v>6.1982566136424326</v>
       </c>
-      <c r="CR228" s="36">
-        <v>8.6919580587975265</v>
-      </c>
-      <c r="CS228" s="9"/>
+      <c r="CR228" s="23">
+        <v>8.7885505889620159</v>
+      </c>
+      <c r="CS228" s="23">
+        <v>5.954642612739371</v>
+      </c>
       <c r="CT228" s="9"/>
       <c r="CU228" s="9"/>
       <c r="CV228" s="9"/>
@@ -53775,28 +54153,30 @@
       <c r="CK229" s="23">
         <v>6.589746366148427</v>
       </c>
-      <c r="CL229" s="36">
+      <c r="CL229" s="23">
         <v>7.6346735617692119</v>
       </c>
-      <c r="CM229" s="36">
+      <c r="CM229" s="23">
         <v>6.595983496000728</v>
       </c>
-      <c r="CN229" s="36">
+      <c r="CN229" s="23">
         <v>6.1375543892762137</v>
       </c>
-      <c r="CO229" s="36">
+      <c r="CO229" s="23">
         <v>6.1111221395774447</v>
       </c>
-      <c r="CP229" s="36">
+      <c r="CP229" s="23">
         <v>5.8262456358447858</v>
       </c>
-      <c r="CQ229" s="36">
+      <c r="CQ229" s="23">
         <v>5.3599821431949914</v>
       </c>
-      <c r="CR229" s="36">
-        <v>5.2316993727467613</v>
-      </c>
-      <c r="CS229" s="9"/>
+      <c r="CR229" s="23">
+        <v>5.2602366138142385</v>
+      </c>
+      <c r="CS229" s="23">
+        <v>5.3562429458983862</v>
+      </c>
       <c r="CT229" s="9"/>
       <c r="CU229" s="9"/>
       <c r="CV229" s="9"/>
@@ -54121,28 +54501,30 @@
       <c r="CK230" s="23">
         <v>44.982136294826795</v>
       </c>
-      <c r="CL230" s="36">
+      <c r="CL230" s="23">
         <v>47.609220111900065</v>
       </c>
-      <c r="CM230" s="36">
+      <c r="CM230" s="23">
         <v>47.88763454012291</v>
       </c>
-      <c r="CN230" s="36">
+      <c r="CN230" s="23">
         <v>51.150498240168233</v>
       </c>
-      <c r="CO230" s="36">
+      <c r="CO230" s="23">
         <v>46.553796709481368</v>
       </c>
-      <c r="CP230" s="36">
+      <c r="CP230" s="23">
         <v>49.015206065926321</v>
       </c>
-      <c r="CQ230" s="36">
+      <c r="CQ230" s="23">
         <v>51.678400416418228</v>
       </c>
-      <c r="CR230" s="36">
-        <v>53.738815694743934</v>
-      </c>
-      <c r="CS230" s="9"/>
+      <c r="CR230" s="23">
+        <v>53.711600519264699</v>
+      </c>
+      <c r="CS230" s="23">
+        <v>52.221388233339624</v>
+      </c>
       <c r="CT230" s="9"/>
       <c r="CU230" s="9"/>
       <c r="CV230" s="9"/>
@@ -54467,28 +54849,30 @@
       <c r="CK231" s="23">
         <v>37.019690775898596</v>
       </c>
-      <c r="CL231" s="36">
+      <c r="CL231" s="23">
         <v>39.556284306730547</v>
       </c>
-      <c r="CM231" s="36">
+      <c r="CM231" s="23">
         <v>40.283227481355262</v>
       </c>
-      <c r="CN231" s="36">
+      <c r="CN231" s="23">
         <v>47.453601706857391</v>
       </c>
-      <c r="CO231" s="36">
+      <c r="CO231" s="23">
         <v>43.451326780931396</v>
       </c>
-      <c r="CP231" s="36">
+      <c r="CP231" s="23">
         <v>45.078946610971684</v>
       </c>
-      <c r="CQ231" s="36">
+      <c r="CQ231" s="23">
         <v>44.544352985092338</v>
       </c>
-      <c r="CR231" s="36">
-        <v>49.606921710965075</v>
-      </c>
-      <c r="CS231" s="9"/>
+      <c r="CR231" s="23">
+        <v>49.569704136129722</v>
+      </c>
+      <c r="CS231" s="23">
+        <v>42.815477823639888</v>
+      </c>
       <c r="CT231" s="9"/>
       <c r="CU231" s="9"/>
       <c r="CV231" s="9"/>
@@ -54813,28 +55197,30 @@
       <c r="CK232" s="23">
         <v>1.0727001337570445</v>
       </c>
-      <c r="CL232" s="36">
+      <c r="CL232" s="23">
         <v>0.50482025284018595</v>
       </c>
-      <c r="CM232" s="36">
+      <c r="CM232" s="23">
         <v>0.2660955866850776</v>
       </c>
-      <c r="CN232" s="36">
+      <c r="CN232" s="23">
         <v>1.6391126073680012E-2</v>
       </c>
-      <c r="CO232" s="36">
+      <c r="CO232" s="23">
         <v>4.0915146012305203E-3</v>
       </c>
-      <c r="CP232" s="36">
+      <c r="CP232" s="23">
         <v>5.9187164661468079E-3</v>
       </c>
-      <c r="CQ232" s="36">
+      <c r="CQ232" s="23">
         <v>2.0323294876921989E-3</v>
       </c>
-      <c r="CR232" s="36">
-        <v>4.4991290534394831E-4</v>
-      </c>
-      <c r="CS232" s="9"/>
+      <c r="CR232" s="23">
+        <v>3.9751564172094215E-4</v>
+      </c>
+      <c r="CS232" s="23">
+        <v>0.30181026571059666</v>
+      </c>
       <c r="CT232" s="9"/>
       <c r="CU232" s="9"/>
       <c r="CV232" s="9"/>
@@ -55159,28 +55545,30 @@
       <c r="CK233" s="23">
         <v>6.3075389642536814</v>
       </c>
-      <c r="CL233" s="36">
+      <c r="CL233" s="23">
         <v>4.7869082254039856</v>
       </c>
-      <c r="CM233" s="36">
+      <c r="CM233" s="23">
         <v>3.3172623021008247</v>
       </c>
-      <c r="CN233" s="36">
+      <c r="CN233" s="23">
         <v>1.8039690564067943</v>
       </c>
-      <c r="CO233" s="36">
+      <c r="CO233" s="23">
         <v>1.6804871055422506</v>
       </c>
-      <c r="CP233" s="36">
+      <c r="CP233" s="23">
         <v>2.1169438243155621</v>
       </c>
-      <c r="CQ233" s="36">
+      <c r="CQ233" s="23">
         <v>3.9027600022933449</v>
       </c>
-      <c r="CR233" s="36">
-        <v>3.2170810764007887</v>
-      </c>
-      <c r="CS233" s="9"/>
+      <c r="CR233" s="23">
+        <v>3.2161030830546098</v>
+      </c>
+      <c r="CS233" s="23">
+        <v>6.8342471984468984</v>
+      </c>
       <c r="CT233" s="9"/>
       <c r="CU233" s="9"/>
       <c r="CV233" s="9"/>
@@ -55505,28 +55893,30 @@
       <c r="CK234" s="23">
         <v>0.58220642091746944</v>
       </c>
-      <c r="CL234" s="36">
+      <c r="CL234" s="23">
         <v>2.7612073269253408</v>
       </c>
-      <c r="CM234" s="36">
+      <c r="CM234" s="23">
         <v>4.0210491699817492</v>
       </c>
-      <c r="CN234" s="36">
+      <c r="CN234" s="23">
         <v>1.8765363508303694</v>
       </c>
-      <c r="CO234" s="36">
+      <c r="CO234" s="23">
         <v>1.4178913084064908</v>
       </c>
-      <c r="CP234" s="36">
+      <c r="CP234" s="23">
         <v>1.813396914172928</v>
       </c>
-      <c r="CQ234" s="36">
+      <c r="CQ234" s="23">
         <v>3.2292550995448464</v>
       </c>
-      <c r="CR234" s="36">
-        <v>0.91436299447273417</v>
-      </c>
-      <c r="CS234" s="9"/>
+      <c r="CR234" s="23">
+        <v>0.92539578443865433</v>
+      </c>
+      <c r="CS234" s="23">
+        <v>2.2698529455422332</v>
+      </c>
       <c r="CT234" s="9"/>
       <c r="CU234" s="9"/>
       <c r="CV234" s="9"/>
@@ -55851,28 +56241,30 @@
       <c r="CK235" s="23">
         <v>19.194320738872449</v>
       </c>
-      <c r="CL235" s="36">
+      <c r="CL235" s="23">
         <v>18.312490575514527</v>
       </c>
-      <c r="CM235" s="36">
+      <c r="CM235" s="23">
         <v>19.746928287976903</v>
       </c>
-      <c r="CN235" s="36">
+      <c r="CN235" s="23">
         <v>17.585354603719829</v>
       </c>
-      <c r="CO235" s="36">
+      <c r="CO235" s="23">
         <v>19.015236937089526</v>
       </c>
-      <c r="CP235" s="36">
+      <c r="CP235" s="23">
         <v>18.281781512437629</v>
       </c>
-      <c r="CQ235" s="36">
+      <c r="CQ235" s="23">
         <v>17.464965034321352</v>
       </c>
-      <c r="CR235" s="36">
-        <v>16.39027641696514</v>
-      </c>
-      <c r="CS235" s="9"/>
+      <c r="CR235" s="23">
+        <v>16.387156609321405</v>
+      </c>
+      <c r="CS235" s="23">
+        <v>17.158645728656239</v>
+      </c>
       <c r="CT235" s="9"/>
       <c r="CU235" s="9"/>
       <c r="CV235" s="9"/>
@@ -56197,28 +56589,30 @@
       <c r="CK236" s="23">
         <v>1.6118092401780006</v>
       </c>
-      <c r="CL236" s="36">
+      <c r="CL236" s="23">
         <v>1.4370315757981493</v>
       </c>
-      <c r="CM236" s="36">
+      <c r="CM236" s="23">
         <v>1.4984368659827334</v>
       </c>
-      <c r="CN236" s="36">
+      <c r="CN236" s="23">
         <v>1.7047355378666247</v>
       </c>
-      <c r="CO236" s="36">
+      <c r="CO236" s="23">
         <v>2.2802020781131467</v>
       </c>
-      <c r="CP236" s="36">
+      <c r="CP236" s="23">
         <v>1.5829591501531131</v>
       </c>
-      <c r="CQ236" s="36">
+      <c r="CQ236" s="23">
         <v>1.4160737985734322</v>
       </c>
-      <c r="CR236" s="36">
-        <v>1.5560928140353412</v>
-      </c>
-      <c r="CS236" s="9"/>
+      <c r="CR236" s="23">
+        <v>1.5500653114931164</v>
+      </c>
+      <c r="CS236" s="23">
+        <v>1.9185528391713156</v>
+      </c>
       <c r="CT236" s="9"/>
       <c r="CU236" s="9"/>
       <c r="CV236" s="9"/>
@@ -56543,28 +56937,30 @@
       <c r="CK237" s="23">
         <v>3.0534977473871305</v>
       </c>
-      <c r="CL237" s="36">
+      <c r="CL237" s="23">
         <v>3.2049301116196314</v>
       </c>
-      <c r="CM237" s="36">
+      <c r="CM237" s="23">
         <v>2.9291297073074642</v>
       </c>
-      <c r="CN237" s="36">
+      <c r="CN237" s="23">
         <v>2.3965042794223903</v>
       </c>
-      <c r="CO237" s="36">
+      <c r="CO237" s="23">
         <v>2.8204461791971536</v>
       </c>
-      <c r="CP237" s="36">
+      <c r="CP237" s="23">
         <v>2.9939203873082945</v>
       </c>
-      <c r="CQ237" s="36">
+      <c r="CQ237" s="23">
         <v>3.0359610907190451</v>
       </c>
-      <c r="CR237" s="36">
-        <v>2.394848945199977</v>
-      </c>
-      <c r="CS237" s="9"/>
+      <c r="CR237" s="23">
+        <v>2.4210945639680426</v>
+      </c>
+      <c r="CS237" s="23">
+        <v>3.0912883245219001</v>
+      </c>
       <c r="CT237" s="9"/>
       <c r="CU237" s="9"/>
       <c r="CV237" s="9"/>
@@ -56889,28 +57285,30 @@
       <c r="CK238" s="23">
         <v>10.905918690907207</v>
       </c>
-      <c r="CL238" s="36">
+      <c r="CL238" s="23">
         <v>9.3195074111446949</v>
       </c>
-      <c r="CM238" s="36">
+      <c r="CM238" s="23">
         <v>9.8680070397562787</v>
       </c>
-      <c r="CN238" s="36">
+      <c r="CN238" s="23">
         <v>10.209105941793831</v>
       </c>
-      <c r="CO238" s="36">
+      <c r="CO238" s="23">
         <v>10.606120474252821</v>
       </c>
-      <c r="CP238" s="36">
+      <c r="CP238" s="23">
         <v>9.2562564037920936</v>
       </c>
-      <c r="CQ238" s="36">
+      <c r="CQ238" s="23">
         <v>8.5365408187779668</v>
       </c>
-      <c r="CR238" s="36">
-        <v>9.9284572126572055</v>
-      </c>
-      <c r="CS238" s="9"/>
+      <c r="CR238" s="23">
+        <v>9.8923548005596018</v>
+      </c>
+      <c r="CS238" s="23">
+        <v>9.3591457492334555</v>
+      </c>
       <c r="CT238" s="9"/>
       <c r="CU238" s="9"/>
       <c r="CV238" s="9"/>
@@ -57235,28 +57633,30 @@
       <c r="CK239" s="23">
         <v>3.6230950604001095</v>
       </c>
-      <c r="CL239" s="36">
+      <c r="CL239" s="23">
         <v>4.3510214769520523</v>
       </c>
-      <c r="CM239" s="36">
+      <c r="CM239" s="23">
         <v>5.4513546749304282</v>
       </c>
-      <c r="CN239" s="36">
+      <c r="CN239" s="23">
         <v>3.2750088446369814</v>
       </c>
-      <c r="CO239" s="36">
+      <c r="CO239" s="23">
         <v>3.3084682055264047</v>
       </c>
-      <c r="CP239" s="36">
+      <c r="CP239" s="23">
         <v>4.4486455711841257</v>
       </c>
-      <c r="CQ239" s="36">
+      <c r="CQ239" s="23">
         <v>4.4763893262509091</v>
       </c>
-      <c r="CR239" s="36">
-        <v>2.5108774450726177</v>
-      </c>
-      <c r="CS239" s="9"/>
+      <c r="CR239" s="23">
+        <v>2.5236419333006475</v>
+      </c>
+      <c r="CS239" s="23">
+        <v>2.7896588157295734</v>
+      </c>
       <c r="CT239" s="9"/>
       <c r="CU239" s="9"/>
       <c r="CV239" s="9"/>
@@ -57402,13 +57802,13 @@
       <c r="CI240" s="9"/>
       <c r="CJ240" s="9"/>
       <c r="CK240" s="9"/>
-      <c r="CL240" s="31"/>
-      <c r="CM240" s="31"/>
-      <c r="CN240" s="31"/>
-      <c r="CO240" s="31"/>
-      <c r="CP240" s="31"/>
-      <c r="CQ240" s="31"/>
-      <c r="CR240" s="31"/>
+      <c r="CL240" s="9"/>
+      <c r="CM240" s="9"/>
+      <c r="CN240" s="9"/>
+      <c r="CO240" s="9"/>
+      <c r="CP240" s="9"/>
+      <c r="CQ240" s="9"/>
+      <c r="CR240" s="9"/>
       <c r="CS240" s="9"/>
       <c r="CT240" s="9"/>
       <c r="CU240" s="9"/>
@@ -57734,28 +58134,30 @@
       <c r="CK241" s="23">
         <v>100</v>
       </c>
-      <c r="CL241" s="36">
+      <c r="CL241" s="23">
         <v>100</v>
       </c>
-      <c r="CM241" s="36">
+      <c r="CM241" s="23">
         <v>100</v>
       </c>
-      <c r="CN241" s="36">
+      <c r="CN241" s="23">
         <v>100</v>
       </c>
-      <c r="CO241" s="36">
+      <c r="CO241" s="23">
         <v>100</v>
       </c>
-      <c r="CP241" s="36">
+      <c r="CP241" s="23">
         <v>100</v>
       </c>
-      <c r="CQ241" s="36">
+      <c r="CQ241" s="23">
         <v>100</v>
       </c>
-      <c r="CR241" s="36">
+      <c r="CR241" s="23">
         <v>100</v>
       </c>
-      <c r="CS241" s="9"/>
+      <c r="CS241" s="23">
+        <v>100</v>
+      </c>
       <c r="CT241" s="9"/>
       <c r="CU241" s="9"/>
       <c r="CV241" s="9"/>
@@ -57902,13 +58304,14 @@
       <c r="CI242" s="14"/>
       <c r="CJ242" s="14"/>
       <c r="CK242" s="14"/>
-      <c r="CL242" s="33"/>
-      <c r="CM242" s="33"/>
-      <c r="CN242" s="33"/>
-      <c r="CO242" s="33"/>
-      <c r="CP242" s="33"/>
-      <c r="CQ242" s="33"/>
-      <c r="CR242" s="33"/>
+      <c r="CL242" s="14"/>
+      <c r="CM242" s="14"/>
+      <c r="CN242" s="14"/>
+      <c r="CO242" s="14"/>
+      <c r="CP242" s="14"/>
+      <c r="CQ242" s="14"/>
+      <c r="CR242" s="14"/>
+      <c r="CS242" s="14"/>
     </row>
     <row r="243" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A243" s="15" t="s">
@@ -58004,13 +58407,13 @@
       <c r="CI244" s="9"/>
       <c r="CJ244" s="9"/>
       <c r="CK244" s="9"/>
-      <c r="CL244" s="31"/>
-      <c r="CM244" s="31"/>
-      <c r="CN244" s="31"/>
-      <c r="CO244" s="31"/>
-      <c r="CP244" s="31"/>
-      <c r="CQ244" s="31"/>
-      <c r="CR244" s="31"/>
+      <c r="CL244" s="9"/>
+      <c r="CM244" s="9"/>
+      <c r="CN244" s="9"/>
+      <c r="CO244" s="9"/>
+      <c r="CP244" s="9"/>
+      <c r="CQ244" s="9"/>
+      <c r="CR244" s="9"/>
       <c r="CS244" s="9"/>
       <c r="CT244" s="9"/>
       <c r="CU244" s="9"/>
@@ -58157,13 +58560,13 @@
       <c r="CI245" s="9"/>
       <c r="CJ245" s="9"/>
       <c r="CK245" s="9"/>
-      <c r="CL245" s="31"/>
-      <c r="CM245" s="31"/>
-      <c r="CN245" s="31"/>
-      <c r="CO245" s="31"/>
-      <c r="CP245" s="31"/>
-      <c r="CQ245" s="31"/>
-      <c r="CR245" s="31"/>
+      <c r="CL245" s="9"/>
+      <c r="CM245" s="9"/>
+      <c r="CN245" s="9"/>
+      <c r="CO245" s="9"/>
+      <c r="CP245" s="9"/>
+      <c r="CQ245" s="9"/>
+      <c r="CR245" s="9"/>
       <c r="CS245" s="9"/>
       <c r="CT245" s="9"/>
       <c r="CU245" s="9"/>
@@ -58233,7 +58636,7 @@
     </row>
     <row r="248" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:152" x14ac:dyDescent="0.2">
@@ -58243,7 +58646,7 @@
     </row>
     <row r="251" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:152" x14ac:dyDescent="0.2">
@@ -58253,149 +58656,150 @@
     </row>
     <row r="254" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
-      <c r="B254" s="37">
+      <c r="B254" s="31">
         <v>2000</v>
       </c>
-      <c r="C254" s="37"/>
-      <c r="D254" s="37"/>
-      <c r="E254" s="37"/>
-      <c r="F254" s="37">
+      <c r="C254" s="31"/>
+      <c r="D254" s="31"/>
+      <c r="E254" s="31"/>
+      <c r="F254" s="31">
         <v>2001</v>
       </c>
-      <c r="G254" s="37"/>
-      <c r="H254" s="37"/>
-      <c r="I254" s="37"/>
-      <c r="J254" s="37">
+      <c r="G254" s="31"/>
+      <c r="H254" s="31"/>
+      <c r="I254" s="31"/>
+      <c r="J254" s="31">
         <v>2002</v>
       </c>
-      <c r="K254" s="37"/>
-      <c r="L254" s="37"/>
-      <c r="M254" s="37"/>
-      <c r="N254" s="37">
+      <c r="K254" s="31"/>
+      <c r="L254" s="31"/>
+      <c r="M254" s="31"/>
+      <c r="N254" s="31">
         <v>2003</v>
       </c>
-      <c r="O254" s="37"/>
-      <c r="P254" s="37"/>
-      <c r="Q254" s="37"/>
-      <c r="R254" s="37">
+      <c r="O254" s="31"/>
+      <c r="P254" s="31"/>
+      <c r="Q254" s="31"/>
+      <c r="R254" s="31">
         <v>2004</v>
       </c>
-      <c r="S254" s="37"/>
-      <c r="T254" s="37"/>
-      <c r="U254" s="37"/>
-      <c r="V254" s="37">
+      <c r="S254" s="31"/>
+      <c r="T254" s="31"/>
+      <c r="U254" s="31"/>
+      <c r="V254" s="31">
         <v>2005</v>
       </c>
-      <c r="W254" s="37"/>
-      <c r="X254" s="37"/>
-      <c r="Y254" s="37"/>
-      <c r="Z254" s="37">
+      <c r="W254" s="31"/>
+      <c r="X254" s="31"/>
+      <c r="Y254" s="31"/>
+      <c r="Z254" s="31">
         <v>2006</v>
       </c>
-      <c r="AA254" s="37"/>
-      <c r="AB254" s="37"/>
-      <c r="AC254" s="37"/>
-      <c r="AD254" s="37">
+      <c r="AA254" s="31"/>
+      <c r="AB254" s="31"/>
+      <c r="AC254" s="31"/>
+      <c r="AD254" s="31">
         <v>2007</v>
       </c>
-      <c r="AE254" s="37"/>
-      <c r="AF254" s="37"/>
-      <c r="AG254" s="37"/>
-      <c r="AH254" s="37">
+      <c r="AE254" s="31"/>
+      <c r="AF254" s="31"/>
+      <c r="AG254" s="31"/>
+      <c r="AH254" s="31">
         <v>2008</v>
       </c>
-      <c r="AI254" s="37"/>
-      <c r="AJ254" s="37"/>
-      <c r="AK254" s="37"/>
-      <c r="AL254" s="37">
+      <c r="AI254" s="31"/>
+      <c r="AJ254" s="31"/>
+      <c r="AK254" s="31"/>
+      <c r="AL254" s="31">
         <v>2009</v>
       </c>
-      <c r="AM254" s="37"/>
-      <c r="AN254" s="37"/>
-      <c r="AO254" s="37"/>
-      <c r="AP254" s="37">
+      <c r="AM254" s="31"/>
+      <c r="AN254" s="31"/>
+      <c r="AO254" s="31"/>
+      <c r="AP254" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ254" s="37"/>
-      <c r="AR254" s="37"/>
-      <c r="AS254" s="37"/>
-      <c r="AT254" s="37">
+      <c r="AQ254" s="31"/>
+      <c r="AR254" s="31"/>
+      <c r="AS254" s="31"/>
+      <c r="AT254" s="31">
         <v>2011</v>
       </c>
-      <c r="AU254" s="37"/>
-      <c r="AV254" s="37"/>
-      <c r="AW254" s="37"/>
-      <c r="AX254" s="37">
+      <c r="AU254" s="31"/>
+      <c r="AV254" s="31"/>
+      <c r="AW254" s="31"/>
+      <c r="AX254" s="31">
         <v>2012</v>
       </c>
-      <c r="AY254" s="37"/>
-      <c r="AZ254" s="37"/>
-      <c r="BA254" s="37"/>
-      <c r="BB254" s="37">
+      <c r="AY254" s="31"/>
+      <c r="AZ254" s="31"/>
+      <c r="BA254" s="31"/>
+      <c r="BB254" s="31">
         <v>2013</v>
       </c>
-      <c r="BC254" s="37"/>
-      <c r="BD254" s="37"/>
-      <c r="BE254" s="37"/>
-      <c r="BF254" s="37">
+      <c r="BC254" s="31"/>
+      <c r="BD254" s="31"/>
+      <c r="BE254" s="31"/>
+      <c r="BF254" s="31">
         <v>2014</v>
       </c>
-      <c r="BG254" s="37"/>
-      <c r="BH254" s="37"/>
-      <c r="BI254" s="37"/>
-      <c r="BJ254" s="37">
+      <c r="BG254" s="31"/>
+      <c r="BH254" s="31"/>
+      <c r="BI254" s="31"/>
+      <c r="BJ254" s="31">
         <v>2015</v>
       </c>
-      <c r="BK254" s="37"/>
-      <c r="BL254" s="37"/>
-      <c r="BM254" s="37"/>
-      <c r="BN254" s="37">
+      <c r="BK254" s="31"/>
+      <c r="BL254" s="31"/>
+      <c r="BM254" s="31"/>
+      <c r="BN254" s="31">
         <v>2016</v>
       </c>
-      <c r="BO254" s="37"/>
-      <c r="BP254" s="37"/>
-      <c r="BQ254" s="37"/>
-      <c r="BR254" s="37">
+      <c r="BO254" s="31"/>
+      <c r="BP254" s="31"/>
+      <c r="BQ254" s="31"/>
+      <c r="BR254" s="31">
         <v>2017</v>
       </c>
-      <c r="BS254" s="37"/>
-      <c r="BT254" s="37"/>
-      <c r="BU254" s="37"/>
-      <c r="BV254" s="37">
+      <c r="BS254" s="31"/>
+      <c r="BT254" s="31"/>
+      <c r="BU254" s="31"/>
+      <c r="BV254" s="31">
         <v>2018</v>
       </c>
-      <c r="BW254" s="37"/>
-      <c r="BX254" s="37"/>
-      <c r="BY254" s="37"/>
-      <c r="BZ254" s="37">
+      <c r="BW254" s="31"/>
+      <c r="BX254" s="31"/>
+      <c r="BY254" s="31"/>
+      <c r="BZ254" s="31">
         <v>2019</v>
       </c>
-      <c r="CA254" s="37"/>
-      <c r="CB254" s="37"/>
-      <c r="CC254" s="37"/>
-      <c r="CD254" s="38">
+      <c r="CA254" s="31"/>
+      <c r="CB254" s="31"/>
+      <c r="CC254" s="31"/>
+      <c r="CD254" s="32">
         <v>2020</v>
       </c>
-      <c r="CE254" s="38"/>
-      <c r="CF254" s="38"/>
-      <c r="CG254" s="38"/>
-      <c r="CH254" s="38">
+      <c r="CE254" s="32"/>
+      <c r="CF254" s="32"/>
+      <c r="CG254" s="32"/>
+      <c r="CH254" s="32">
         <v>2021</v>
       </c>
-      <c r="CI254" s="38"/>
-      <c r="CJ254" s="38"/>
-      <c r="CK254" s="38"/>
-      <c r="CL254" s="37">
+      <c r="CI254" s="32"/>
+      <c r="CJ254" s="32"/>
+      <c r="CK254" s="32"/>
+      <c r="CL254" s="28">
         <v>2022</v>
       </c>
-      <c r="CM254" s="37"/>
-      <c r="CN254" s="37"/>
-      <c r="CO254" s="37"/>
-      <c r="CP254" s="37">
+      <c r="CM254" s="28"/>
+      <c r="CN254" s="28"/>
+      <c r="CO254" s="28"/>
+      <c r="CP254" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ254" s="37"/>
-      <c r="CR254" s="37"/>
+      <c r="CQ254" s="28"/>
+      <c r="CR254" s="28"/>
+      <c r="CS254" s="28"/>
     </row>
     <row r="255" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
@@ -58665,26 +59069,29 @@
       <c r="CK255" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CL255" s="34" t="s">
+      <c r="CL255" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CM255" s="34" t="s">
+      <c r="CM255" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CN255" s="34" t="s">
+      <c r="CN255" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CO255" s="34" t="s">
+      <c r="CO255" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP255" s="34" t="s">
+      <c r="CP255" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ255" s="34" t="s">
+      <c r="CQ255" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR255" s="34" t="s">
+      <c r="CR255" s="17" t="s">
         <v>8</v>
+      </c>
+      <c r="CS255" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -58958,28 +59365,30 @@
       <c r="CK257" s="23">
         <v>23.084881872736414</v>
       </c>
-      <c r="CL257" s="36">
+      <c r="CL257" s="23">
         <v>16.80170205015407</v>
       </c>
-      <c r="CM257" s="36">
+      <c r="CM257" s="23">
         <v>10.083386102995901</v>
       </c>
-      <c r="CN257" s="36">
+      <c r="CN257" s="23">
         <v>15.173938831682786</v>
       </c>
-      <c r="CO257" s="36">
+      <c r="CO257" s="23">
         <v>18.96176063948846</v>
       </c>
-      <c r="CP257" s="36">
+      <c r="CP257" s="23">
         <v>14.594793717376453</v>
       </c>
-      <c r="CQ257" s="36">
+      <c r="CQ257" s="23">
         <v>9.6899365552942207</v>
       </c>
-      <c r="CR257" s="36">
-        <v>12.793270668501291</v>
-      </c>
-      <c r="CS257" s="9"/>
+      <c r="CR257" s="23">
+        <v>12.693455435734439</v>
+      </c>
+      <c r="CS257" s="23">
+        <v>17.130201342421365</v>
+      </c>
       <c r="CT257" s="9"/>
       <c r="CU257" s="9"/>
       <c r="CV257" s="9"/>
@@ -59304,28 +59713,30 @@
       <c r="CK258" s="23">
         <v>2.1278104289928441</v>
       </c>
-      <c r="CL258" s="36">
+      <c r="CL258" s="23">
         <v>0.67486681482542044</v>
       </c>
-      <c r="CM258" s="36">
+      <c r="CM258" s="23">
         <v>0.259173506832585</v>
       </c>
-      <c r="CN258" s="36">
+      <c r="CN258" s="23">
         <v>1.0327187723988698</v>
       </c>
-      <c r="CO258" s="36">
+      <c r="CO258" s="23">
         <v>1.1412048174834992</v>
       </c>
-      <c r="CP258" s="36">
+      <c r="CP258" s="23">
         <v>0.66497909717382597</v>
       </c>
-      <c r="CQ258" s="36">
+      <c r="CQ258" s="23">
         <v>0.30945027145728243</v>
       </c>
-      <c r="CR258" s="36">
-        <v>1.2084183110371427</v>
-      </c>
-      <c r="CS258" s="9"/>
+      <c r="CR258" s="23">
+        <v>1.2084963758787197</v>
+      </c>
+      <c r="CS258" s="23">
+        <v>1.7186061805959583</v>
+      </c>
       <c r="CT258" s="9"/>
       <c r="CU258" s="9"/>
       <c r="CV258" s="9"/>
@@ -59650,28 +60061,30 @@
       <c r="CK259" s="23">
         <v>5.5247901160184449</v>
       </c>
-      <c r="CL259" s="36">
+      <c r="CL259" s="23">
         <v>2.515720425358372</v>
       </c>
-      <c r="CM259" s="36">
+      <c r="CM259" s="23">
         <v>1.0172083016863924</v>
       </c>
-      <c r="CN259" s="36">
+      <c r="CN259" s="23">
         <v>3.6175356398715537</v>
       </c>
-      <c r="CO259" s="36">
+      <c r="CO259" s="23">
         <v>5.004241174083675</v>
       </c>
-      <c r="CP259" s="36">
+      <c r="CP259" s="23">
         <v>2.8281294248545645</v>
       </c>
-      <c r="CQ259" s="36">
+      <c r="CQ259" s="23">
         <v>1.1595601201068675</v>
       </c>
-      <c r="CR259" s="36">
-        <v>2.7723538874662688</v>
-      </c>
-      <c r="CS259" s="9"/>
+      <c r="CR259" s="23">
+        <v>2.7539919821915584</v>
+      </c>
+      <c r="CS259" s="23">
+        <v>3.0974633622000258</v>
+      </c>
       <c r="CT259" s="9"/>
       <c r="CU259" s="9"/>
       <c r="CV259" s="9"/>
@@ -59996,28 +60409,30 @@
       <c r="CK260" s="23">
         <v>0.28739016082033936</v>
       </c>
-      <c r="CL260" s="36">
+      <c r="CL260" s="23">
         <v>0.17974966925912253</v>
       </c>
-      <c r="CM260" s="36">
+      <c r="CM260" s="23">
         <v>0.10456780994759997</v>
       </c>
-      <c r="CN260" s="36">
+      <c r="CN260" s="23">
         <v>0.25801297112034355</v>
       </c>
-      <c r="CO260" s="36">
+      <c r="CO260" s="23">
         <v>0.34911045885513253</v>
       </c>
-      <c r="CP260" s="36">
+      <c r="CP260" s="23">
         <v>0.1711189520658262</v>
       </c>
-      <c r="CQ260" s="36">
+      <c r="CQ260" s="23">
         <v>0.10101609354136172</v>
       </c>
-      <c r="CR260" s="36">
-        <v>0.22115825782578732</v>
-      </c>
-      <c r="CS260" s="9"/>
+      <c r="CR260" s="23">
+        <v>0.22260381031876225</v>
+      </c>
+      <c r="CS260" s="23">
+        <v>0.36367764911939032</v>
+      </c>
       <c r="CT260" s="9"/>
       <c r="CU260" s="9"/>
       <c r="CV260" s="9"/>
@@ -60342,28 +60757,30 @@
       <c r="CK261" s="23">
         <v>0.18923344508527395</v>
       </c>
-      <c r="CL261" s="36">
+      <c r="CL261" s="23">
         <v>9.4545178463793095E-2</v>
       </c>
-      <c r="CM261" s="36">
+      <c r="CM261" s="23">
         <v>4.6184835888855545E-2</v>
       </c>
-      <c r="CN261" s="36">
+      <c r="CN261" s="23">
         <v>0.19510221581366893</v>
       </c>
-      <c r="CO261" s="36">
+      <c r="CO261" s="23">
         <v>0.23535831317279668</v>
       </c>
-      <c r="CP261" s="36">
+      <c r="CP261" s="23">
         <v>8.6406957283407262E-2</v>
       </c>
-      <c r="CQ261" s="36">
+      <c r="CQ261" s="23">
         <v>4.7220978076406031E-2</v>
       </c>
-      <c r="CR261" s="36">
-        <v>0.17453929068327054</v>
-      </c>
-      <c r="CS261" s="9"/>
+      <c r="CR261" s="23">
+        <v>0.17475519339156367</v>
+      </c>
+      <c r="CS261" s="23">
+        <v>0.18852530153492827</v>
+      </c>
       <c r="CT261" s="9"/>
       <c r="CU261" s="9"/>
       <c r="CV261" s="9"/>
@@ -60688,28 +61105,30 @@
       <c r="CK262" s="23">
         <v>1.4338685288419544</v>
       </c>
-      <c r="CL262" s="36">
+      <c r="CL262" s="23">
         <v>0.95878542934194622</v>
       </c>
-      <c r="CM262" s="36">
+      <c r="CM262" s="23">
         <v>0.31257752787051524</v>
       </c>
-      <c r="CN262" s="36">
+      <c r="CN262" s="23">
         <v>0.88112785962071627</v>
       </c>
-      <c r="CO262" s="36">
+      <c r="CO262" s="23">
         <v>1.3057763751206408</v>
       </c>
-      <c r="CP262" s="36">
+      <c r="CP262" s="23">
         <v>0.87175813500140853</v>
       </c>
-      <c r="CQ262" s="36">
+      <c r="CQ262" s="23">
         <v>0.25030037698734275</v>
       </c>
-      <c r="CR262" s="36">
-        <v>0.96147713481365837</v>
-      </c>
-      <c r="CS262" s="9"/>
+      <c r="CR262" s="23">
+        <v>0.95933316442719274</v>
+      </c>
+      <c r="CS262" s="23">
+        <v>1.0071513192982364</v>
+      </c>
       <c r="CT262" s="9"/>
       <c r="CU262" s="9"/>
       <c r="CV262" s="9"/>
@@ -61034,28 +61453,30 @@
       <c r="CK263" s="23">
         <v>8.7709148951106641</v>
       </c>
-      <c r="CL263" s="36">
+      <c r="CL263" s="23">
         <v>9.6268730303761796</v>
       </c>
-      <c r="CM263" s="36">
+      <c r="CM263" s="23">
         <v>7.085934331947688</v>
       </c>
-      <c r="CN263" s="36">
+      <c r="CN263" s="23">
         <v>5.9813624303401269</v>
       </c>
-      <c r="CO263" s="36">
+      <c r="CO263" s="23">
         <v>6.8608367683494693</v>
       </c>
-      <c r="CP263" s="36">
+      <c r="CP263" s="23">
         <v>7.7922487668997338</v>
       </c>
-      <c r="CQ263" s="36">
+      <c r="CQ263" s="23">
         <v>7.003566823261596</v>
       </c>
-      <c r="CR263" s="36">
-        <v>4.9661627650454925</v>
-      </c>
-      <c r="CS263" s="9"/>
+      <c r="CR263" s="23">
+        <v>4.8958808111422654</v>
+      </c>
+      <c r="CS263" s="23">
+        <v>7.209406762978575</v>
+      </c>
       <c r="CT263" s="9"/>
       <c r="CU263" s="9"/>
       <c r="CV263" s="9"/>
@@ -61380,28 +61801,30 @@
       <c r="CK264" s="23">
         <v>0.71924002245879437</v>
       </c>
-      <c r="CL264" s="36">
+      <c r="CL264" s="23">
         <v>0.20246069167383623</v>
       </c>
-      <c r="CM264" s="36">
+      <c r="CM264" s="23">
         <v>8.366307818740723E-2</v>
       </c>
-      <c r="CN264" s="36">
+      <c r="CN264" s="23">
         <v>0.1604118831004325</v>
       </c>
-      <c r="CO264" s="36">
+      <c r="CO264" s="23">
         <v>0.5078509518182085</v>
       </c>
-      <c r="CP264" s="36">
+      <c r="CP264" s="23">
         <v>0.26708010854801967</v>
       </c>
-      <c r="CQ264" s="36">
+      <c r="CQ264" s="23">
         <v>0.11217887729157061</v>
       </c>
-      <c r="CR264" s="36">
-        <v>0.31449644455637693</v>
-      </c>
-      <c r="CS264" s="9"/>
+      <c r="CR264" s="23">
+        <v>0.31352450318321157</v>
+      </c>
+      <c r="CS264" s="23">
+        <v>0.3844893632357439</v>
+      </c>
       <c r="CT264" s="9"/>
       <c r="CU264" s="9"/>
       <c r="CV264" s="9"/>
@@ -61726,28 +62149,30 @@
       <c r="CK265" s="23">
         <v>4.0316342754080994</v>
       </c>
-      <c r="CL265" s="36">
+      <c r="CL265" s="23">
         <v>2.5487008108554035</v>
       </c>
-      <c r="CM265" s="36">
+      <c r="CM265" s="23">
         <v>1.1740767106348553</v>
       </c>
-      <c r="CN265" s="36">
+      <c r="CN265" s="23">
         <v>3.0476670594170767</v>
       </c>
-      <c r="CO265" s="36">
+      <c r="CO265" s="23">
         <v>3.557381780605041</v>
       </c>
-      <c r="CP265" s="36">
+      <c r="CP265" s="23">
         <v>1.9130722755496661</v>
       </c>
-      <c r="CQ265" s="36">
+      <c r="CQ265" s="23">
         <v>0.70664301457179379</v>
       </c>
-      <c r="CR265" s="36">
-        <v>2.1746645770732944</v>
-      </c>
-      <c r="CS265" s="9"/>
+      <c r="CR265" s="23">
+        <v>2.1648695952011638</v>
+      </c>
+      <c r="CS265" s="23">
+        <v>3.1608814034585082</v>
+      </c>
       <c r="CT265" s="9"/>
       <c r="CU265" s="9"/>
       <c r="CV265" s="9"/>
@@ -62072,28 +62497,30 @@
       <c r="CK266" s="23">
         <v>16.213064461994026</v>
       </c>
-      <c r="CL266" s="36">
+      <c r="CL266" s="23">
         <v>15.454108227826113</v>
       </c>
-      <c r="CM266" s="36">
+      <c r="CM266" s="23">
         <v>13.311345977488772</v>
       </c>
-      <c r="CN266" s="36">
+      <c r="CN266" s="23">
         <v>19.483181617773287</v>
       </c>
-      <c r="CO266" s="36">
+      <c r="CO266" s="23">
         <v>18.974053532241584</v>
       </c>
-      <c r="CP266" s="36">
+      <c r="CP266" s="23">
         <v>15.416880828077758</v>
       </c>
-      <c r="CQ266" s="36">
+      <c r="CQ266" s="23">
         <v>13.619214765828394</v>
       </c>
-      <c r="CR266" s="36">
-        <v>19.22473433473451</v>
-      </c>
-      <c r="CS266" s="9"/>
+      <c r="CR266" s="23">
+        <v>19.347560917676628</v>
+      </c>
+      <c r="CS266" s="23">
+        <v>17.093790847193493</v>
+      </c>
       <c r="CT266" s="9"/>
       <c r="CU266" s="9"/>
       <c r="CV266" s="9"/>
@@ -62418,28 +62845,30 @@
       <c r="CK267" s="23">
         <v>3.273828999670175</v>
       </c>
-      <c r="CL267" s="36">
+      <c r="CL267" s="23">
         <v>2.5678347679167639</v>
       </c>
-      <c r="CM267" s="36">
+      <c r="CM267" s="23">
         <v>2.5719774213154714</v>
       </c>
-      <c r="CN267" s="36">
+      <c r="CN267" s="23">
         <v>3.0666407434800922</v>
       </c>
-      <c r="CO267" s="36">
+      <c r="CO267" s="23">
         <v>3.4096386625753392</v>
       </c>
-      <c r="CP267" s="36">
+      <c r="CP267" s="23">
         <v>2.4135507072072442</v>
       </c>
-      <c r="CQ267" s="36">
+      <c r="CQ267" s="23">
         <v>2.2775100312683585</v>
       </c>
-      <c r="CR267" s="36">
-        <v>2.714929599631561</v>
-      </c>
-      <c r="CS267" s="9"/>
+      <c r="CR267" s="23">
+        <v>2.7163735335375536</v>
+      </c>
+      <c r="CS267" s="23">
+        <v>3.2297552415471671</v>
+      </c>
       <c r="CT267" s="9"/>
       <c r="CU267" s="9"/>
       <c r="CV267" s="9"/>
@@ -62764,28 +63193,30 @@
       <c r="CK268" s="23">
         <v>1.8435608951080078</v>
       </c>
-      <c r="CL268" s="36">
+      <c r="CL268" s="23">
         <v>1.5009875378777431</v>
       </c>
-      <c r="CM268" s="36">
+      <c r="CM268" s="23">
         <v>1.5019437522178971</v>
       </c>
-      <c r="CN268" s="36">
+      <c r="CN268" s="23">
         <v>1.7595167800461178</v>
       </c>
-      <c r="CO268" s="36">
+      <c r="CO268" s="23">
         <v>2.0581225699364842</v>
       </c>
-      <c r="CP268" s="36">
+      <c r="CP268" s="23">
         <v>1.5981998661456025</v>
       </c>
-      <c r="CQ268" s="36">
+      <c r="CQ268" s="23">
         <v>1.5150006287619413</v>
       </c>
-      <c r="CR268" s="36">
-        <v>1.787542927277799</v>
-      </c>
-      <c r="CS268" s="9"/>
+      <c r="CR268" s="23">
+        <v>1.7888521865080422</v>
+      </c>
+      <c r="CS268" s="23">
+        <v>1.7016138215305714</v>
+      </c>
       <c r="CT268" s="9"/>
       <c r="CU268" s="9"/>
       <c r="CV268" s="9"/>
@@ -63110,28 +63541,30 @@
       <c r="CK269" s="23">
         <v>4.0172153452225894</v>
       </c>
-      <c r="CL269" s="36">
+      <c r="CL269" s="23">
         <v>3.6144807823377962</v>
       </c>
-      <c r="CM269" s="36">
+      <c r="CM269" s="23">
         <v>3.4936282588017993</v>
       </c>
-      <c r="CN269" s="36">
+      <c r="CN269" s="23">
         <v>7.7889293610413173</v>
       </c>
-      <c r="CO269" s="36">
+      <c r="CO269" s="23">
         <v>5.9637582807487046</v>
       </c>
-      <c r="CP269" s="36">
+      <c r="CP269" s="23">
         <v>5.4619439555514804</v>
       </c>
-      <c r="CQ269" s="36">
+      <c r="CQ269" s="23">
         <v>5.2772766540666902</v>
       </c>
-      <c r="CR269" s="36">
-        <v>8.9075747892529318</v>
-      </c>
-      <c r="CS269" s="9"/>
+      <c r="CR269" s="23">
+        <v>8.9947207759327714</v>
+      </c>
+      <c r="CS269" s="23">
+        <v>5.5031497445598019</v>
+      </c>
       <c r="CT269" s="9"/>
       <c r="CU269" s="9"/>
       <c r="CV269" s="9"/>
@@ -63456,28 +63889,30 @@
       <c r="CK270" s="23">
         <v>7.0784592219932536</v>
       </c>
-      <c r="CL270" s="36">
+      <c r="CL270" s="23">
         <v>7.7708051396938096</v>
       </c>
-      <c r="CM270" s="36">
+      <c r="CM270" s="23">
         <v>5.7437965451536046</v>
       </c>
-      <c r="CN270" s="36">
+      <c r="CN270" s="23">
         <v>6.8680947332057585</v>
       </c>
-      <c r="CO270" s="36">
+      <c r="CO270" s="23">
         <v>7.5425340189810548</v>
       </c>
-      <c r="CP270" s="36">
+      <c r="CP270" s="23">
         <v>5.9431862991734308</v>
       </c>
-      <c r="CQ270" s="36">
+      <c r="CQ270" s="23">
         <v>4.5494274517314057</v>
       </c>
-      <c r="CR270" s="36">
-        <v>5.8146870185722168</v>
-      </c>
-      <c r="CS270" s="9"/>
+      <c r="CR270" s="23">
+        <v>5.8476144216982577</v>
+      </c>
+      <c r="CS270" s="23">
+        <v>6.6592720395559528</v>
+      </c>
       <c r="CT270" s="9"/>
       <c r="CU270" s="9"/>
       <c r="CV270" s="9"/>
@@ -63802,28 +64237,30 @@
       <c r="CK271" s="23">
         <v>46.24748043484135</v>
       </c>
-      <c r="CL271" s="36">
+      <c r="CL271" s="23">
         <v>50.314760944539771</v>
       </c>
-      <c r="CM271" s="36">
+      <c r="CM271" s="23">
         <v>50.803053659598838</v>
       </c>
-      <c r="CN271" s="36">
+      <c r="CN271" s="23">
         <v>49.242608621183727</v>
       </c>
-      <c r="CO271" s="36">
+      <c r="CO271" s="23">
         <v>48.367427192743008</v>
       </c>
-      <c r="CP271" s="36">
+      <c r="CP271" s="23">
         <v>52.851184433333906</v>
       </c>
-      <c r="CQ271" s="36">
+      <c r="CQ271" s="23">
         <v>53.727498975519929</v>
       </c>
-      <c r="CR271" s="36">
-        <v>52.94908656722717</v>
-      </c>
-      <c r="CS271" s="9"/>
+      <c r="CR271" s="23">
+        <v>52.92172781949462</v>
+      </c>
+      <c r="CS271" s="23">
+        <v>53.598265534447442</v>
+      </c>
       <c r="CT271" s="9"/>
       <c r="CU271" s="9"/>
       <c r="CV271" s="9"/>
@@ -64148,28 +64585,30 @@
       <c r="CK272" s="23">
         <v>38.786171209830727</v>
       </c>
-      <c r="CL272" s="36">
+      <c r="CL272" s="23">
         <v>43.163754666057237</v>
       </c>
-      <c r="CM272" s="36">
+      <c r="CM272" s="23">
         <v>42.431530735086568</v>
       </c>
-      <c r="CN272" s="36">
+      <c r="CN272" s="23">
         <v>45.987484252702053</v>
       </c>
-      <c r="CO272" s="36">
+      <c r="CO272" s="23">
         <v>45.472712394108079</v>
       </c>
-      <c r="CP272" s="36">
+      <c r="CP272" s="23">
         <v>49.510918849267995</v>
       </c>
-      <c r="CQ272" s="36">
+      <c r="CQ272" s="23">
         <v>46.435328051864794</v>
       </c>
-      <c r="CR272" s="36">
-        <v>49.486616334872849</v>
-      </c>
-      <c r="CS272" s="9"/>
+      <c r="CR272" s="23">
+        <v>49.451171318052381</v>
+      </c>
+      <c r="CS272" s="23">
+        <v>45.306131215289717</v>
+      </c>
       <c r="CT272" s="9"/>
       <c r="CU272" s="9"/>
       <c r="CV272" s="9"/>
@@ -64494,28 +64933,30 @@
       <c r="CK273" s="23">
         <v>0.97507068791268114</v>
       </c>
-      <c r="CL273" s="36">
+      <c r="CL273" s="23">
         <v>0.52477995224046059</v>
       </c>
-      <c r="CM273" s="36">
+      <c r="CM273" s="23">
         <v>0.34945788502588138</v>
       </c>
-      <c r="CN273" s="36">
+      <c r="CN273" s="23">
         <v>1.5012281153202679E-2</v>
       </c>
-      <c r="CO273" s="36">
+      <c r="CO273" s="23">
         <v>3.6217891494582564E-3</v>
       </c>
-      <c r="CP273" s="36">
+      <c r="CP273" s="23">
         <v>5.8406840267713929E-3</v>
       </c>
-      <c r="CQ273" s="36">
+      <c r="CQ273" s="23">
         <v>2.4281463796623553E-3</v>
       </c>
-      <c r="CR273" s="36">
-        <v>3.9531584800416459E-4</v>
-      </c>
-      <c r="CS273" s="9"/>
+      <c r="CR273" s="23">
+        <v>3.4935603847656855E-4</v>
+      </c>
+      <c r="CS273" s="23">
+        <v>0.25618840064703924</v>
+      </c>
       <c r="CT273" s="9"/>
       <c r="CU273" s="9"/>
       <c r="CV273" s="9"/>
@@ -64840,28 +65281,30 @@
       <c r="CK274" s="23">
         <v>5.9052728313827174</v>
       </c>
-      <c r="CL274" s="36">
+      <c r="CL274" s="23">
         <v>4.2735220347393685</v>
       </c>
-      <c r="CM274" s="36">
+      <c r="CM274" s="23">
         <v>3.6080815237895179</v>
       </c>
-      <c r="CN274" s="36">
+      <c r="CN274" s="23">
         <v>1.5235833810087815</v>
       </c>
-      <c r="CO274" s="36">
+      <c r="CO274" s="23">
         <v>1.5394154248311571</v>
       </c>
-      <c r="CP274" s="36">
+      <c r="CP274" s="23">
         <v>1.8048299379749611</v>
       </c>
-      <c r="CQ274" s="36">
+      <c r="CQ274" s="23">
         <v>4.0008451467913151</v>
       </c>
-      <c r="CR274" s="36">
-        <v>2.6035309731223708</v>
-      </c>
-      <c r="CS274" s="9"/>
+      <c r="CR274" s="23">
+        <v>2.6032442828082027</v>
+      </c>
+      <c r="CS274" s="23">
+        <v>5.9749433319222227</v>
+      </c>
       <c r="CT274" s="9"/>
       <c r="CU274" s="9"/>
       <c r="CV274" s="9"/>
@@ -65186,28 +65629,30 @@
       <c r="CK275" s="23">
         <v>0.58096570571521655</v>
       </c>
-      <c r="CL275" s="36">
+      <c r="CL275" s="23">
         <v>2.3527042915027088</v>
       </c>
-      <c r="CM275" s="36">
+      <c r="CM275" s="23">
         <v>4.4139835156968736</v>
       </c>
-      <c r="CN275" s="36">
+      <c r="CN275" s="23">
         <v>1.7165287063196852</v>
       </c>
-      <c r="CO275" s="36">
+      <c r="CO275" s="23">
         <v>1.3516775846543154</v>
       </c>
-      <c r="CP275" s="36">
+      <c r="CP275" s="23">
         <v>1.529594962064182</v>
       </c>
-      <c r="CQ275" s="36">
+      <c r="CQ275" s="23">
         <v>3.2888976304841626</v>
       </c>
-      <c r="CR275" s="36">
-        <v>0.85854394338394902</v>
-      </c>
-      <c r="CS275" s="9"/>
+      <c r="CR275" s="23">
+        <v>0.8669628625955631</v>
+      </c>
+      <c r="CS275" s="23">
+        <v>2.0610025865884678</v>
+      </c>
       <c r="CT275" s="9"/>
       <c r="CU275" s="9"/>
       <c r="CV275" s="9"/>
@@ -65532,28 +65977,30 @@
       <c r="CK276" s="23">
         <v>14.454573230428212</v>
       </c>
-      <c r="CL276" s="36">
+      <c r="CL276" s="23">
         <v>17.429428777480034</v>
       </c>
-      <c r="CM276" s="36">
+      <c r="CM276" s="23">
         <v>25.802214259916489</v>
       </c>
-      <c r="CN276" s="36">
+      <c r="CN276" s="23">
         <v>16.1002709293602</v>
       </c>
-      <c r="CO276" s="36">
+      <c r="CO276" s="23">
         <v>13.69675863552694</v>
       </c>
-      <c r="CP276" s="36">
+      <c r="CP276" s="23">
         <v>17.137141021211885</v>
       </c>
-      <c r="CQ276" s="36">
+      <c r="CQ276" s="23">
         <v>22.963349703357459</v>
       </c>
-      <c r="CR276" s="36">
-        <v>15.032908429537045</v>
-      </c>
-      <c r="CS276" s="9"/>
+      <c r="CR276" s="23">
+        <v>15.03725582709432</v>
+      </c>
+      <c r="CS276" s="23">
+        <v>12.177742275937689</v>
+      </c>
       <c r="CT276" s="9"/>
       <c r="CU276" s="9"/>
       <c r="CV276" s="9"/>
@@ -65878,28 +66325,30 @@
       <c r="CK277" s="23">
         <v>0.84353345288033998</v>
       </c>
-      <c r="CL277" s="36">
+      <c r="CL277" s="23">
         <v>1.3987471998692718</v>
       </c>
-      <c r="CM277" s="36">
+      <c r="CM277" s="23">
         <v>2.2519313749982639</v>
       </c>
-      <c r="CN277" s="36">
+      <c r="CN277" s="23">
         <v>1.2356304184083955</v>
       </c>
-      <c r="CO277" s="36">
+      <c r="CO277" s="23">
         <v>1.1953693434742636</v>
       </c>
-      <c r="CP277" s="36">
+      <c r="CP277" s="23">
         <v>1.5786040240599042</v>
       </c>
-      <c r="CQ277" s="36">
+      <c r="CQ277" s="23">
         <v>2.2599383631239847</v>
       </c>
-      <c r="CR277" s="36">
-        <v>1.2135664681395741</v>
-      </c>
-      <c r="CS277" s="9"/>
+      <c r="CR277" s="23">
+        <v>1.2131970204067828</v>
+      </c>
+      <c r="CS277" s="23">
+        <v>1.0641690394240721</v>
+      </c>
       <c r="CT277" s="9"/>
       <c r="CU277" s="9"/>
       <c r="CV277" s="9"/>
@@ -66224,28 +66673,30 @@
       <c r="CK278" s="23">
         <v>2.4168924945728918</v>
       </c>
-      <c r="CL278" s="36">
+      <c r="CL278" s="23">
         <v>3.4217620223566634</v>
       </c>
-      <c r="CM278" s="36">
+      <c r="CM278" s="23">
         <v>4.0266822647787732</v>
       </c>
-      <c r="CN278" s="36">
+      <c r="CN278" s="23">
         <v>2.0411907917546968</v>
       </c>
-      <c r="CO278" s="36">
+      <c r="CO278" s="23">
         <v>2.2798502621119159</v>
       </c>
-      <c r="CP278" s="36">
+      <c r="CP278" s="23">
         <v>3.2488688871750626</v>
       </c>
-      <c r="CQ278" s="36">
+      <c r="CQ278" s="23">
         <v>4.6647305188613863</v>
       </c>
-      <c r="CR278" s="36">
-        <v>2.1142637427106687</v>
-      </c>
-      <c r="CS278" s="9"/>
+      <c r="CR278" s="23">
+        <v>2.1443374328015845</v>
+      </c>
+      <c r="CS278" s="23">
+        <v>2.4321811661193391</v>
+      </c>
       <c r="CT278" s="9"/>
       <c r="CU278" s="9"/>
       <c r="CV278" s="9"/>
@@ -66570,28 +67021,30 @@
       <c r="CK279" s="23">
         <v>7.7642421838679256</v>
       </c>
-      <c r="CL279" s="36">
+      <c r="CL279" s="23">
         <v>8.2559742152183979</v>
       </c>
-      <c r="CM279" s="36">
+      <c r="CM279" s="23">
         <v>14.234703092163963</v>
       </c>
-      <c r="CN279" s="36">
+      <c r="CN279" s="23">
         <v>9.6620322896961071</v>
       </c>
-      <c r="CO279" s="36">
+      <c r="CO279" s="23">
         <v>7.2935227924473951</v>
       </c>
-      <c r="CP279" s="36">
+      <c r="CP279" s="23">
         <v>8.0705342665077389</v>
       </c>
-      <c r="CQ279" s="36">
+      <c r="CQ279" s="23">
         <v>11.773906074920498</v>
       </c>
-      <c r="CR279" s="36">
-        <v>9.3180339973565331</v>
-      </c>
-      <c r="CS279" s="9"/>
+      <c r="CR279" s="23">
+        <v>9.2794972546524725</v>
+      </c>
+      <c r="CS279" s="23">
+        <v>6.2411680295943182</v>
+      </c>
       <c r="CT279" s="9"/>
       <c r="CU279" s="9"/>
       <c r="CV279" s="9"/>
@@ -66916,28 +67369,30 @@
       <c r="CK280" s="23">
         <v>3.4299050991070508</v>
       </c>
-      <c r="CL280" s="36">
+      <c r="CL280" s="23">
         <v>4.3529453400357001</v>
       </c>
-      <c r="CM280" s="36">
+      <c r="CM280" s="23">
         <v>5.2888975279754922</v>
       </c>
-      <c r="CN280" s="36">
+      <c r="CN280" s="23">
         <v>3.161417429501002</v>
       </c>
-      <c r="CO280" s="36">
+      <c r="CO280" s="23">
         <v>2.928016237493364</v>
       </c>
-      <c r="CP280" s="36">
+      <c r="CP280" s="23">
         <v>4.2391338434691788</v>
       </c>
-      <c r="CQ280" s="36">
+      <c r="CQ280" s="23">
         <v>4.2647747464515877</v>
       </c>
-      <c r="CR280" s="36">
-        <v>2.3870442213302692</v>
-      </c>
-      <c r="CS280" s="9"/>
+      <c r="CR280" s="23">
+        <v>2.4002241192334823</v>
+      </c>
+      <c r="CS280" s="23">
+        <v>2.4402240407999605</v>
+      </c>
       <c r="CT280" s="9"/>
       <c r="CU280" s="9"/>
       <c r="CV280" s="9"/>
@@ -67083,13 +67538,13 @@
       <c r="CI281" s="9"/>
       <c r="CJ281" s="9"/>
       <c r="CK281" s="9"/>
-      <c r="CL281" s="31"/>
-      <c r="CM281" s="31"/>
-      <c r="CN281" s="31"/>
-      <c r="CO281" s="31"/>
-      <c r="CP281" s="31"/>
-      <c r="CQ281" s="31"/>
-      <c r="CR281" s="31"/>
+      <c r="CL281" s="9"/>
+      <c r="CM281" s="9"/>
+      <c r="CN281" s="9"/>
+      <c r="CO281" s="9"/>
+      <c r="CP281" s="9"/>
+      <c r="CQ281" s="9"/>
+      <c r="CR281" s="9"/>
       <c r="CS281" s="9"/>
       <c r="CT281" s="9"/>
       <c r="CU281" s="9"/>
@@ -67415,28 +67870,30 @@
       <c r="CK282" s="23">
         <v>100</v>
       </c>
-      <c r="CL282" s="36">
+      <c r="CL282" s="23">
         <v>100</v>
       </c>
-      <c r="CM282" s="36">
+      <c r="CM282" s="23">
         <v>100</v>
       </c>
-      <c r="CN282" s="36">
+      <c r="CN282" s="23">
         <v>100</v>
       </c>
-      <c r="CO282" s="36">
+      <c r="CO282" s="23">
         <v>100</v>
       </c>
-      <c r="CP282" s="36">
+      <c r="CP282" s="23">
         <v>100</v>
       </c>
-      <c r="CQ282" s="36">
+      <c r="CQ282" s="23">
         <v>100</v>
       </c>
-      <c r="CR282" s="36">
+      <c r="CR282" s="23">
         <v>100</v>
       </c>
-      <c r="CS282" s="9"/>
+      <c r="CS282" s="23">
+        <v>100</v>
+      </c>
       <c r="CT282" s="9"/>
       <c r="CU282" s="9"/>
       <c r="CV282" s="9"/>
@@ -67583,13 +68040,14 @@
       <c r="CI283" s="14"/>
       <c r="CJ283" s="14"/>
       <c r="CK283" s="14"/>
-      <c r="CL283" s="33"/>
-      <c r="CM283" s="33"/>
-      <c r="CN283" s="33"/>
-      <c r="CO283" s="33"/>
-      <c r="CP283" s="33"/>
-      <c r="CQ283" s="33"/>
-      <c r="CR283" s="33"/>
+      <c r="CL283" s="14"/>
+      <c r="CM283" s="14"/>
+      <c r="CN283" s="14"/>
+      <c r="CO283" s="14"/>
+      <c r="CP283" s="14"/>
+      <c r="CQ283" s="14"/>
+      <c r="CR283" s="14"/>
+      <c r="CS283" s="14"/>
     </row>
     <row r="284" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A284" s="15" t="s">
@@ -67597,28 +68055,17 @@
       </c>
     </row>
     <row r="285" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CL285" s="31"/>
-      <c r="CM285" s="31"/>
-      <c r="CN285" s="31"/>
-      <c r="CO285" s="31"/>
-      <c r="CP285" s="31"/>
-      <c r="CQ285" s="31"/>
-      <c r="CR285" s="31"/>
+      <c r="CL285" s="9"/>
+      <c r="CM285" s="9"/>
+      <c r="CN285" s="9"/>
+      <c r="CO285" s="9"/>
+      <c r="CP285" s="9"/>
+      <c r="CQ285" s="9"/>
+      <c r="CR285" s="9"/>
+      <c r="CS285" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL50:CO50"/>
-    <mergeCell ref="CL172:CO172"/>
-    <mergeCell ref="CL213:CO213"/>
-    <mergeCell ref="CL254:CO254"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP50:CR50"/>
-    <mergeCell ref="CL91:CN91"/>
-    <mergeCell ref="CL132:CN132"/>
-    <mergeCell ref="CP172:CR172"/>
-    <mergeCell ref="CP213:CR213"/>
-    <mergeCell ref="CP254:CR254"/>
+  <mergeCells count="154">
     <mergeCell ref="CH91:CK91"/>
     <mergeCell ref="CD132:CG132"/>
     <mergeCell ref="CH172:CK172"/>
@@ -67778,12 +68225,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="41" max="95" man="1"/>
-    <brk id="82" max="95" man="1"/>
-    <brk id="123" max="95" man="1"/>
-    <brk id="164" max="95" man="1"/>
-    <brk id="204" max="95" man="1"/>
-    <brk id="245" max="95" man="1"/>
+    <brk id="41" max="96" man="1"/>
+    <brk id="82" max="96" man="1"/>
+    <brk id="123" max="96" man="1"/>
+    <brk id="164" max="96" man="1"/>
+    <brk id="204" max="96" man="1"/>
+    <brk id="245" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-03DEQ_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A714E8-E345-4B69-9D96-A27934890BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C71A9F-D0AB-46DF-ADD3-2D33E9FABF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEQ" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="PCE_Per_Anl">#REF!</definedName>
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CT$286</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">DEQ!$A$1:$CU$286</definedName>
   </definedNames>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="77">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -267,13 +267,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -414,42 +414,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +771,7 @@
       <selection activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="topRight" activeCell="P1" sqref="P1:AF1048576"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:AF1048576"/>
-      <selection pane="bottomRight" activeCell="CX258" sqref="CX258"/>
+      <selection pane="bottomRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,8 +784,8 @@
     <col min="22" max="69" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="73" width="10" style="1" customWidth="1"/>
     <col min="74" max="93" width="9.21875" style="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="29" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="10.21875" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -823,7 +800,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -833,7 +810,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -843,132 +820,132 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="45">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="45"/>
-      <c r="BM9" s="45"/>
-      <c r="BN9" s="45">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="45"/>
-      <c r="BR9" s="45">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="45"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="45"/>
-      <c r="BX9" s="45"/>
-      <c r="BY9" s="45"/>
-      <c r="BZ9" s="45">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="45"/>
-      <c r="CB9" s="45"/>
-      <c r="CC9" s="45"/>
-      <c r="CD9" s="45">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="45"/>
-      <c r="CF9" s="45"/>
-      <c r="CG9" s="45"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
       <c r="CH9" s="27">
         <v>2021</v>
       </c>
@@ -981,15 +958,16 @@
       <c r="CM9" s="27"/>
       <c r="CN9" s="27"/>
       <c r="CO9" s="27"/>
-      <c r="CP9" s="30">
+      <c r="CP9" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30"/>
-      <c r="CT9" s="30">
+      <c r="CQ9" s="27"/>
+      <c r="CR9" s="27"/>
+      <c r="CS9" s="27"/>
+      <c r="CT9" s="27">
         <v>2024</v>
       </c>
+      <c r="CU9" s="27"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1271,20 +1249,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="17" t="s">
+      <c r="CP10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="CQ10" s="17" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CR10" s="17" t="s">
+      <c r="CR10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CS10" s="17" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="17" t="s">
+      <c r="CT10" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,22 +1551,24 @@
       <c r="CO12" s="25">
         <v>56378.187992181345</v>
       </c>
-      <c r="CP12" s="31">
+      <c r="CP12" s="25">
         <v>64143.137594949949</v>
       </c>
-      <c r="CQ12" s="31">
+      <c r="CQ12" s="25">
         <v>51325.411948972418</v>
       </c>
-      <c r="CR12" s="31">
+      <c r="CR12" s="25">
         <v>38509.999921373761</v>
       </c>
-      <c r="CS12" s="31">
+      <c r="CS12" s="25">
         <v>56559.018102336078</v>
       </c>
-      <c r="CT12" s="31">
-        <v>58359.620903878051</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="25">
+        <v>58077.087888459202</v>
+      </c>
+      <c r="CU12" s="25">
+        <v>53437.660715004298</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -1920,22 +1903,24 @@
       <c r="CO13" s="26">
         <v>2852.4718314112124</v>
       </c>
-      <c r="CP13" s="32">
+      <c r="CP13" s="26">
         <v>2975.6975128876211</v>
       </c>
-      <c r="CQ13" s="32">
+      <c r="CQ13" s="26">
         <v>3597.6148262871006</v>
       </c>
-      <c r="CR13" s="32">
+      <c r="CR13" s="26">
         <v>3659.6499256978127</v>
       </c>
-      <c r="CS13" s="32">
+      <c r="CS13" s="26">
         <v>4857.442992897164</v>
       </c>
-      <c r="CT13" s="32">
-        <v>3738.2521670190977</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="26">
+        <v>3734.6587729283056</v>
+      </c>
+      <c r="CU13" s="26">
+        <v>3720.3718908959968</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -2270,22 +2255,24 @@
       <c r="CO14" s="26">
         <v>12386.787464485182</v>
       </c>
-      <c r="CP14" s="32">
+      <c r="CP14" s="26">
         <v>12891.202652420796</v>
       </c>
-      <c r="CQ14" s="32">
+      <c r="CQ14" s="26">
         <v>13180.216398059274</v>
       </c>
-      <c r="CR14" s="32">
+      <c r="CR14" s="26">
         <v>8303.7457688900995</v>
       </c>
-      <c r="CS14" s="32">
+      <c r="CS14" s="26">
         <v>8755.9377726558123</v>
       </c>
-      <c r="CT14" s="32">
-        <v>8926.5743476289499</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="26">
+        <v>8896.690323677245</v>
+      </c>
+      <c r="CU14" s="26">
+        <v>12273.520877338749</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -2620,22 +2607,24 @@
       <c r="CO15" s="26">
         <v>930.2519234224344</v>
       </c>
-      <c r="CP15" s="32">
+      <c r="CP15" s="26">
         <v>737.3157091412495</v>
       </c>
-      <c r="CQ15" s="32">
+      <c r="CQ15" s="26">
         <v>876.98455062644996</v>
       </c>
-      <c r="CR15" s="32">
+      <c r="CR15" s="26">
         <v>687.45591068570684</v>
       </c>
-      <c r="CS15" s="32">
+      <c r="CS15" s="26">
         <v>1085.2885787912926</v>
       </c>
-      <c r="CT15" s="32">
-        <v>571.50582929632583</v>
-      </c>
-      <c r="CU15" s="9"/>
+      <c r="CT15" s="26">
+        <v>546.58199380360793</v>
+      </c>
+      <c r="CU15" s="26">
+        <v>841.23912668611888</v>
+      </c>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
@@ -2970,22 +2959,24 @@
       <c r="CO16" s="26">
         <v>613.18539607541436</v>
       </c>
-      <c r="CP16" s="32">
+      <c r="CP16" s="26">
         <v>463.5722443881026</v>
       </c>
-      <c r="CQ16" s="32">
+      <c r="CQ16" s="26">
         <v>487.93408418951969</v>
       </c>
-      <c r="CR16" s="32">
+      <c r="CR16" s="26">
         <v>534.64083796846489</v>
       </c>
-      <c r="CS16" s="32">
+      <c r="CS16" s="26">
         <v>555.02781100940751</v>
       </c>
-      <c r="CT16" s="32">
-        <v>846.74143190847576</v>
-      </c>
-      <c r="CU16" s="9"/>
+      <c r="CT16" s="26">
+        <v>842.9066517151042</v>
+      </c>
+      <c r="CU16" s="26">
+        <v>777.22605426473353</v>
+      </c>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
@@ -3320,22 +3311,24 @@
       <c r="CO17" s="26">
         <v>3314.6024372469051</v>
       </c>
-      <c r="CP17" s="32">
+      <c r="CP17" s="26">
         <v>4129.3463870132791</v>
       </c>
-      <c r="CQ17" s="32">
+      <c r="CQ17" s="26">
         <v>2775.3403591391407</v>
       </c>
-      <c r="CR17" s="32">
+      <c r="CR17" s="26">
         <v>2991.9461439009465</v>
       </c>
-      <c r="CS17" s="32">
+      <c r="CS17" s="26">
         <v>2903.1844271787709</v>
       </c>
-      <c r="CT17" s="32">
-        <v>2527.0963355184049</v>
-      </c>
-      <c r="CU17" s="9"/>
+      <c r="CT17" s="26">
+        <v>2495.1641575930521</v>
+      </c>
+      <c r="CU17" s="26">
+        <v>2496.8448611880858</v>
+      </c>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
@@ -3670,22 +3663,24 @@
       <c r="CO18" s="26">
         <v>25695.97743278596</v>
       </c>
-      <c r="CP18" s="32">
+      <c r="CP18" s="26">
         <v>33048.062172523925</v>
       </c>
-      <c r="CQ18" s="32">
+      <c r="CQ18" s="26">
         <v>23452.584007368278</v>
       </c>
-      <c r="CR18" s="32">
+      <c r="CR18" s="26">
         <v>14933.221016279243</v>
       </c>
-      <c r="CS18" s="32">
+      <c r="CS18" s="26">
         <v>28066.626880688695</v>
       </c>
-      <c r="CT18" s="32">
-        <v>32370.298131854317</v>
-      </c>
-      <c r="CU18" s="9"/>
+      <c r="CT18" s="26">
+        <v>32468.184744652917</v>
+      </c>
+      <c r="CU18" s="26">
+        <v>25247.663981128997</v>
+      </c>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
       <c r="CX18" s="9"/>
@@ -4020,22 +4015,24 @@
       <c r="CO19" s="26">
         <v>1233.7543237156306</v>
       </c>
-      <c r="CP19" s="32">
+      <c r="CP19" s="26">
         <v>1184.2468942560047</v>
       </c>
-      <c r="CQ19" s="32">
+      <c r="CQ19" s="26">
         <v>1229.6307391961614</v>
       </c>
-      <c r="CR19" s="32">
+      <c r="CR19" s="26">
         <v>932.7063984331138</v>
       </c>
-      <c r="CS19" s="32">
+      <c r="CS19" s="26">
         <v>1045.5878234709669</v>
       </c>
-      <c r="CT19" s="32">
-        <v>939.55080032674186</v>
-      </c>
-      <c r="CU19" s="9"/>
+      <c r="CT19" s="26">
+        <v>920.21637661495686</v>
+      </c>
+      <c r="CU19" s="26">
+        <v>1592.3605794461619</v>
+      </c>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
@@ -4370,22 +4367,24 @@
       <c r="CO20" s="26">
         <v>9351.1571830386092</v>
       </c>
-      <c r="CP20" s="32">
+      <c r="CP20" s="26">
         <v>8713.6940223189649</v>
       </c>
-      <c r="CQ20" s="32">
+      <c r="CQ20" s="26">
         <v>5725.1069841064964</v>
       </c>
-      <c r="CR20" s="32">
+      <c r="CR20" s="26">
         <v>6466.6339195183737</v>
       </c>
-      <c r="CS20" s="32">
+      <c r="CS20" s="26">
         <v>9289.9218156439692</v>
       </c>
-      <c r="CT20" s="32">
-        <v>8439.6018603257398</v>
-      </c>
-      <c r="CU20" s="9"/>
+      <c r="CT20" s="26">
+        <v>8172.6848674740168</v>
+      </c>
+      <c r="CU20" s="26">
+        <v>6488.4333440554574</v>
+      </c>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
       <c r="CX20" s="9"/>
@@ -4720,22 +4719,24 @@
       <c r="CO21" s="25">
         <v>63335.979300744541</v>
       </c>
-      <c r="CP21" s="31">
+      <c r="CP21" s="25">
         <v>65632.38343698527</v>
       </c>
-      <c r="CQ21" s="31">
+      <c r="CQ21" s="25">
         <v>59223.124792179064</v>
       </c>
-      <c r="CR21" s="31">
+      <c r="CR21" s="25">
         <v>60445.891320028</v>
       </c>
-      <c r="CS21" s="31">
+      <c r="CS21" s="25">
         <v>65039.017672435337</v>
       </c>
-      <c r="CT21" s="31">
-        <v>69134.451794491353</v>
-      </c>
-      <c r="CU21" s="9"/>
+      <c r="CT21" s="25">
+        <v>68152.811410148075</v>
+      </c>
+      <c r="CU21" s="25">
+        <v>68550.24604317054</v>
+      </c>
       <c r="CV21" s="9"/>
       <c r="CW21" s="9"/>
       <c r="CX21" s="9"/>
@@ -5070,22 +5071,24 @@
       <c r="CO22" s="26">
         <v>12027.825723612306</v>
       </c>
-      <c r="CP22" s="32">
+      <c r="CP22" s="26">
         <v>10510.641548977805</v>
       </c>
-      <c r="CQ22" s="32">
+      <c r="CQ22" s="26">
         <v>10762.471552900772</v>
       </c>
-      <c r="CR22" s="32">
+      <c r="CR22" s="26">
         <v>8484.8784909859551</v>
       </c>
-      <c r="CS22" s="32">
+      <c r="CS22" s="26">
         <v>12851.721692059031</v>
       </c>
-      <c r="CT22" s="32">
-        <v>11925.48310602359</v>
-      </c>
-      <c r="CU22" s="9"/>
+      <c r="CT22" s="26">
+        <v>11827.34531202857</v>
+      </c>
+      <c r="CU22" s="26">
+        <v>13371.608219564074</v>
+      </c>
       <c r="CV22" s="9"/>
       <c r="CW22" s="9"/>
       <c r="CX22" s="9"/>
@@ -5420,22 +5423,24 @@
       <c r="CO23" s="26">
         <v>7354.1313387621467</v>
       </c>
-      <c r="CP23" s="32">
+      <c r="CP23" s="26">
         <v>7102.2175814265493</v>
       </c>
-      <c r="CQ23" s="32">
+      <c r="CQ23" s="26">
         <v>7034.7570276430979</v>
       </c>
-      <c r="CR23" s="32">
+      <c r="CR23" s="26">
         <v>5612.3144269388922</v>
       </c>
-      <c r="CS23" s="32">
+      <c r="CS23" s="26">
         <v>7067.4921101299014</v>
       </c>
-      <c r="CT23" s="32">
-        <v>6670.319927651698</v>
-      </c>
-      <c r="CU23" s="9"/>
+      <c r="CT23" s="26">
+        <v>6638.6544274229072</v>
+      </c>
+      <c r="CU23" s="26">
+        <v>7376.480409951273</v>
+      </c>
       <c r="CV23" s="9"/>
       <c r="CW23" s="9"/>
       <c r="CX23" s="9"/>
@@ -5770,22 +5775,24 @@
       <c r="CO24" s="26">
         <v>22629.506951396019</v>
       </c>
-      <c r="CP24" s="32">
+      <c r="CP24" s="26">
         <v>24921.120574384266</v>
       </c>
-      <c r="CQ24" s="32">
+      <c r="CQ24" s="26">
         <v>22207.526552721116</v>
       </c>
-      <c r="CR24" s="32">
+      <c r="CR24" s="26">
         <v>29015.606783808598</v>
       </c>
-      <c r="CS24" s="32">
+      <c r="CS24" s="26">
         <v>23900.036505227934</v>
       </c>
-      <c r="CT24" s="32">
-        <v>26225.742210527977</v>
-      </c>
-      <c r="CU24" s="9"/>
+      <c r="CT24" s="26">
+        <v>26156.101698375678</v>
+      </c>
+      <c r="CU24" s="26">
+        <v>26635.180553825092</v>
+      </c>
       <c r="CV24" s="9"/>
       <c r="CW24" s="9"/>
       <c r="CX24" s="9"/>
@@ -6120,22 +6127,24 @@
       <c r="CO25" s="26">
         <v>21324.51528697407</v>
       </c>
-      <c r="CP25" s="32">
+      <c r="CP25" s="26">
         <v>23098.40373219665</v>
       </c>
-      <c r="CQ25" s="32">
+      <c r="CQ25" s="26">
         <v>19218.369658914075</v>
       </c>
-      <c r="CR25" s="32">
+      <c r="CR25" s="26">
         <v>17333.091618294558</v>
       </c>
-      <c r="CS25" s="32">
+      <c r="CS25" s="26">
         <v>21219.767365018473</v>
       </c>
-      <c r="CT25" s="32">
-        <v>24312.906550288084</v>
-      </c>
-      <c r="CU25" s="9"/>
+      <c r="CT25" s="26">
+        <v>23530.70997232091</v>
+      </c>
+      <c r="CU25" s="26">
+        <v>21166.976859830102</v>
+      </c>
       <c r="CV25" s="9"/>
       <c r="CW25" s="9"/>
       <c r="CX25" s="9"/>
@@ -6470,22 +6479,24 @@
       <c r="CO26" s="25">
         <v>161457.5481604634</v>
       </c>
-      <c r="CP26" s="31">
+      <c r="CP26" s="25">
         <v>194078.88193134186</v>
       </c>
-      <c r="CQ26" s="31">
+      <c r="CQ26" s="25">
         <v>185273.8246457848</v>
       </c>
-      <c r="CR26" s="31">
+      <c r="CR26" s="25">
         <v>176819.32266611914</v>
       </c>
-      <c r="CS26" s="31">
+      <c r="CS26" s="25">
         <v>207997.65829373035</v>
       </c>
-      <c r="CT26" s="31">
-        <v>183748.77222374975</v>
-      </c>
-      <c r="CU26" s="9"/>
+      <c r="CT26" s="25">
+        <v>183581.26841413396</v>
+      </c>
+      <c r="CU26" s="25">
+        <v>171600.26826867461</v>
+      </c>
       <c r="CV26" s="9"/>
       <c r="CW26" s="9"/>
       <c r="CX26" s="9"/>
@@ -6820,22 +6831,24 @@
       <c r="CO27" s="26">
         <v>150701.52631652195</v>
       </c>
-      <c r="CP27" s="32">
+      <c r="CP27" s="26">
         <v>178506.9165107474</v>
       </c>
-      <c r="CQ27" s="32">
+      <c r="CQ27" s="26">
         <v>159727.62114902635</v>
       </c>
-      <c r="CR27" s="32">
+      <c r="CR27" s="26">
         <v>163428.37284368149</v>
       </c>
-      <c r="CS27" s="32">
+      <c r="CS27" s="26">
         <v>170575.76216245498</v>
       </c>
-      <c r="CT27" s="32">
-        <v>162047.17236370727</v>
-      </c>
-      <c r="CU27" s="9"/>
+      <c r="CT27" s="26">
+        <v>161834.3161070777</v>
+      </c>
+      <c r="CU27" s="26">
+        <v>161372.88257610236</v>
+      </c>
       <c r="CV27" s="9"/>
       <c r="CW27" s="9"/>
       <c r="CX27" s="9"/>
@@ -7170,22 +7183,24 @@
       <c r="CO28" s="26">
         <v>14.196752864451399</v>
       </c>
-      <c r="CP28" s="32">
+      <c r="CP28" s="26">
         <v>22.330329740427789</v>
       </c>
-      <c r="CQ28" s="32">
+      <c r="CQ28" s="26">
         <v>6.9792670371366254</v>
       </c>
-      <c r="CR28" s="32">
+      <c r="CR28" s="26">
         <v>1.3101395044356217</v>
       </c>
-      <c r="CS28" s="32">
+      <c r="CS28" s="26">
         <v>1198.652595735346</v>
       </c>
-      <c r="CT28" s="32">
+      <c r="CT28" s="26">
         <v>3098.2056876864458</v>
       </c>
-      <c r="CU28" s="9"/>
+      <c r="CU28" s="26">
+        <v>1302.4892972365999</v>
+      </c>
       <c r="CV28" s="9"/>
       <c r="CW28" s="9"/>
       <c r="CX28" s="9"/>
@@ -7520,22 +7535,24 @@
       <c r="CO29" s="26">
         <v>5822.1286765320574</v>
       </c>
-      <c r="CP29" s="32">
+      <c r="CP29" s="26">
         <v>8385.0531694004421</v>
       </c>
-      <c r="CQ29" s="32">
+      <c r="CQ29" s="26">
         <v>13975.220915442764</v>
       </c>
-      <c r="CR29" s="32">
+      <c r="CR29" s="26">
         <v>10599.911839207309</v>
       </c>
-      <c r="CS29" s="32">
+      <c r="CS29" s="26">
         <v>27158.336015482608</v>
       </c>
-      <c r="CT29" s="32">
-        <v>13749.623318746484</v>
-      </c>
-      <c r="CU29" s="9"/>
+      <c r="CT29" s="26">
+        <v>13751.866652969822</v>
+      </c>
+      <c r="CU29" s="26">
+        <v>7539.8313374276631</v>
+      </c>
       <c r="CV29" s="9"/>
       <c r="CW29" s="9"/>
       <c r="CX29" s="9"/>
@@ -7870,22 +7887,24 @@
       <c r="CO30" s="26">
         <v>4919.6964145449138</v>
       </c>
-      <c r="CP30" s="32">
+      <c r="CP30" s="26">
         <v>7164.5819214536195</v>
       </c>
-      <c r="CQ30" s="32">
+      <c r="CQ30" s="26">
         <v>11564.003314278561</v>
       </c>
-      <c r="CR30" s="32">
+      <c r="CR30" s="26">
         <v>2789.7278437259006</v>
       </c>
-      <c r="CS30" s="32">
+      <c r="CS30" s="26">
         <v>9064.9075200574061</v>
       </c>
-      <c r="CT30" s="32">
-        <v>4853.7708536095479</v>
-      </c>
-      <c r="CU30" s="9"/>
+      <c r="CT30" s="26">
+        <v>4896.879966399978</v>
+      </c>
+      <c r="CU30" s="26">
+        <v>1385.0650579079811</v>
+      </c>
       <c r="CV30" s="9"/>
       <c r="CW30" s="9"/>
       <c r="CX30" s="9"/>
@@ -8220,22 +8239,24 @@
       <c r="CO31" s="25">
         <v>66437.709657369182</v>
       </c>
-      <c r="CP31" s="31">
+      <c r="CP31" s="25">
         <v>71839.969835733151</v>
       </c>
-      <c r="CQ31" s="31">
+      <c r="CQ31" s="25">
         <v>62584.069718047343</v>
       </c>
-      <c r="CR31" s="31">
+      <c r="CR31" s="25">
         <v>53960.124012674118</v>
       </c>
-      <c r="CS31" s="31">
+      <c r="CS31" s="25">
         <v>68626.647444923001</v>
       </c>
-      <c r="CT31" s="31">
-        <v>72856.630682593852</v>
-      </c>
-      <c r="CU31" s="9"/>
+      <c r="CT31" s="25">
+        <v>71823.6840070654</v>
+      </c>
+      <c r="CU31" s="25">
+        <v>67435.595755888353</v>
+      </c>
       <c r="CV31" s="9"/>
       <c r="CW31" s="9"/>
       <c r="CX31" s="9"/>
@@ -8570,22 +8591,24 @@
       <c r="CO32" s="26">
         <v>7914.1080765825245</v>
       </c>
-      <c r="CP32" s="32">
+      <c r="CP32" s="26">
         <v>6245.157530497956</v>
       </c>
-      <c r="CQ32" s="32">
+      <c r="CQ32" s="26">
         <v>5053.4532372981075</v>
       </c>
-      <c r="CR32" s="32">
+      <c r="CR32" s="26">
         <v>5076.4948346025558</v>
       </c>
-      <c r="CS32" s="32">
+      <c r="CS32" s="26">
         <v>7532.1893619104521</v>
       </c>
-      <c r="CT32" s="32">
-        <v>4887.0609800863986</v>
-      </c>
-      <c r="CU32" s="9"/>
+      <c r="CT32" s="26">
+        <v>4862.2415852369486</v>
+      </c>
+      <c r="CU32" s="26">
+        <v>6409.8185474343645</v>
+      </c>
       <c r="CV32" s="9"/>
       <c r="CW32" s="9"/>
       <c r="CX32" s="9"/>
@@ -8920,22 +8943,24 @@
       <c r="CO33" s="26">
         <v>9961.2840701429614</v>
       </c>
-      <c r="CP33" s="32">
+      <c r="CP33" s="26">
         <v>11952.173178530164</v>
       </c>
-      <c r="CQ33" s="32">
+      <c r="CQ33" s="26">
         <v>10930.679805498881</v>
       </c>
-      <c r="CR33" s="32">
+      <c r="CR33" s="26">
         <v>7975.9874670590725</v>
       </c>
-      <c r="CS33" s="32">
+      <c r="CS33" s="26">
         <v>12470.477504003382</v>
       </c>
-      <c r="CT33" s="32">
-        <v>15352.602274922381</v>
-      </c>
-      <c r="CU33" s="9"/>
+      <c r="CT33" s="26">
+        <v>15114.834536582006</v>
+      </c>
+      <c r="CU33" s="26">
+        <v>13333.343539775404</v>
+      </c>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
@@ -9270,22 +9295,24 @@
       <c r="CO34" s="26">
         <v>37161.164500448343</v>
       </c>
-      <c r="CP34" s="32">
+      <c r="CP34" s="26">
         <v>36183.290391128612</v>
       </c>
-      <c r="CQ34" s="32">
+      <c r="CQ34" s="26">
         <v>30512.373451915118</v>
       </c>
-      <c r="CR34" s="32">
+      <c r="CR34" s="26">
         <v>32629.22788512371</v>
       </c>
-      <c r="CS34" s="32">
+      <c r="CS34" s="26">
         <v>37538.600287595546</v>
       </c>
-      <c r="CT34" s="32">
-        <v>34476.679008118997</v>
-      </c>
-      <c r="CU34" s="9"/>
+      <c r="CT34" s="26">
+        <v>34170.263589806782</v>
+      </c>
+      <c r="CU34" s="26">
+        <v>30853.36997282497</v>
+      </c>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
@@ -9620,22 +9647,24 @@
       <c r="CO35" s="26">
         <v>11401.15301019535</v>
       </c>
-      <c r="CP35" s="32">
+      <c r="CP35" s="26">
         <v>17459.348735576419</v>
       </c>
-      <c r="CQ35" s="32">
+      <c r="CQ35" s="26">
         <v>16087.563223335235</v>
       </c>
-      <c r="CR35" s="32">
+      <c r="CR35" s="26">
         <v>8278.413825888787</v>
       </c>
-      <c r="CS35" s="32">
+      <c r="CS35" s="26">
         <v>11085.380291413625</v>
       </c>
-      <c r="CT35" s="32">
-        <v>18140.288419466073</v>
-      </c>
-      <c r="CU35" s="9"/>
+      <c r="CT35" s="26">
+        <v>17676.34429543966</v>
+      </c>
+      <c r="CU35" s="26">
+        <v>16839.06369585362</v>
+      </c>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
@@ -9783,11 +9812,11 @@
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
-      <c r="CP36" s="33"/>
-      <c r="CQ36" s="33"/>
-      <c r="CR36" s="33"/>
-      <c r="CS36" s="33"/>
-      <c r="CT36" s="33"/>
+      <c r="CP36" s="9"/>
+      <c r="CQ36" s="9"/>
+      <c r="CR36" s="9"/>
+      <c r="CS36" s="9"/>
+      <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -10123,22 +10152,24 @@
       <c r="CO37" s="13">
         <v>347609.42511075846</v>
       </c>
-      <c r="CP37" s="34">
+      <c r="CP37" s="13">
         <v>395694.37279901025</v>
       </c>
-      <c r="CQ37" s="34">
+      <c r="CQ37" s="13">
         <v>358406.43110498361</v>
       </c>
-      <c r="CR37" s="34">
+      <c r="CR37" s="13">
         <v>329735.33792019496</v>
       </c>
-      <c r="CS37" s="34">
+      <c r="CS37" s="13">
         <v>398222.34151342476</v>
       </c>
-      <c r="CT37" s="34">
-        <v>384099.47560471302</v>
-      </c>
-      <c r="CU37" s="9"/>
+      <c r="CT37" s="13">
+        <v>381634.85171980667</v>
+      </c>
+      <c r="CU37" s="13">
+        <v>361023.77078273776</v>
+      </c>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
@@ -10287,11 +10318,12 @@
       <c r="CM38" s="14"/>
       <c r="CN38" s="14"/>
       <c r="CO38" s="14"/>
-      <c r="CP38" s="35"/>
-      <c r="CQ38" s="35"/>
-      <c r="CR38" s="35"/>
-      <c r="CS38" s="35"/>
-      <c r="CT38" s="35"/>
+      <c r="CP38" s="14"/>
+      <c r="CQ38" s="14"/>
+      <c r="CR38" s="14"/>
+      <c r="CS38" s="14"/>
+      <c r="CT38" s="14"/>
+      <c r="CU38" s="14"/>
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
@@ -10411,11 +10443,11 @@
       <c r="CM40" s="9"/>
       <c r="CN40" s="9"/>
       <c r="CO40" s="9"/>
-      <c r="CP40" s="33"/>
-      <c r="CQ40" s="33"/>
-      <c r="CR40" s="33"/>
-      <c r="CS40" s="33"/>
-      <c r="CT40" s="33"/>
+      <c r="CP40" s="9"/>
+      <c r="CQ40" s="9"/>
+      <c r="CR40" s="9"/>
+      <c r="CS40" s="9"/>
+      <c r="CT40" s="9"/>
       <c r="CU40" s="9"/>
       <c r="CV40" s="9"/>
       <c r="CW40" s="9"/>
@@ -10564,11 +10596,11 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="33"/>
-      <c r="CQ41" s="33"/>
-      <c r="CR41" s="33"/>
-      <c r="CS41" s="33"/>
-      <c r="CT41" s="33"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
+      <c r="CS41" s="9"/>
+      <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -10636,7 +10668,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.2">
@@ -10646,7 +10678,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
@@ -10656,132 +10688,132 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="44">
+      <c r="B50" s="32">
         <v>2000</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32">
         <v>2001</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44">
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32">
         <v>2002</v>
       </c>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44">
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32">
         <v>2003</v>
       </c>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44">
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32">
         <v>2004</v>
       </c>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44">
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32">
         <v>2005</v>
       </c>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44">
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32">
         <v>2006</v>
       </c>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-      <c r="AC50" s="44"/>
-      <c r="AD50" s="44">
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32">
         <v>2007</v>
       </c>
-      <c r="AE50" s="44"/>
-      <c r="AF50" s="44"/>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44">
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32">
         <v>2008</v>
       </c>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44">
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="32"/>
+      <c r="AK50" s="32"/>
+      <c r="AL50" s="32">
         <v>2009</v>
       </c>
-      <c r="AM50" s="44"/>
-      <c r="AN50" s="44"/>
-      <c r="AO50" s="44"/>
-      <c r="AP50" s="44">
+      <c r="AM50" s="32"/>
+      <c r="AN50" s="32"/>
+      <c r="AO50" s="32"/>
+      <c r="AP50" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ50" s="44"/>
-      <c r="AR50" s="44"/>
-      <c r="AS50" s="44"/>
-      <c r="AT50" s="44">
+      <c r="AQ50" s="32"/>
+      <c r="AR50" s="32"/>
+      <c r="AS50" s="32"/>
+      <c r="AT50" s="32">
         <v>2011</v>
       </c>
-      <c r="AU50" s="44"/>
-      <c r="AV50" s="44"/>
-      <c r="AW50" s="44"/>
-      <c r="AX50" s="44">
+      <c r="AU50" s="32"/>
+      <c r="AV50" s="32"/>
+      <c r="AW50" s="32"/>
+      <c r="AX50" s="32">
         <v>2012</v>
       </c>
-      <c r="AY50" s="44"/>
-      <c r="AZ50" s="44"/>
-      <c r="BA50" s="44"/>
-      <c r="BB50" s="44">
+      <c r="AY50" s="32"/>
+      <c r="AZ50" s="32"/>
+      <c r="BA50" s="32"/>
+      <c r="BB50" s="32">
         <v>2013</v>
       </c>
-      <c r="BC50" s="44"/>
-      <c r="BD50" s="44"/>
-      <c r="BE50" s="44"/>
-      <c r="BF50" s="44">
+      <c r="BC50" s="32"/>
+      <c r="BD50" s="32"/>
+      <c r="BE50" s="32"/>
+      <c r="BF50" s="32">
         <v>2014</v>
       </c>
-      <c r="BG50" s="44"/>
-      <c r="BH50" s="44"/>
-      <c r="BI50" s="44"/>
-      <c r="BJ50" s="44">
+      <c r="BG50" s="32"/>
+      <c r="BH50" s="32"/>
+      <c r="BI50" s="32"/>
+      <c r="BJ50" s="32">
         <v>2015</v>
       </c>
-      <c r="BK50" s="44"/>
-      <c r="BL50" s="44"/>
-      <c r="BM50" s="44"/>
-      <c r="BN50" s="44">
+      <c r="BK50" s="32"/>
+      <c r="BL50" s="32"/>
+      <c r="BM50" s="32"/>
+      <c r="BN50" s="32">
         <v>2016</v>
       </c>
-      <c r="BO50" s="44"/>
-      <c r="BP50" s="44"/>
-      <c r="BQ50" s="44"/>
-      <c r="BR50" s="44">
+      <c r="BO50" s="32"/>
+      <c r="BP50" s="32"/>
+      <c r="BQ50" s="32"/>
+      <c r="BR50" s="32">
         <v>2017</v>
       </c>
-      <c r="BS50" s="44"/>
-      <c r="BT50" s="44"/>
-      <c r="BU50" s="44"/>
-      <c r="BV50" s="44">
+      <c r="BS50" s="32"/>
+      <c r="BT50" s="32"/>
+      <c r="BU50" s="32"/>
+      <c r="BV50" s="32">
         <v>2018</v>
       </c>
-      <c r="BW50" s="44"/>
-      <c r="BX50" s="44"/>
-      <c r="BY50" s="44"/>
-      <c r="BZ50" s="44">
+      <c r="BW50" s="32"/>
+      <c r="BX50" s="32"/>
+      <c r="BY50" s="32"/>
+      <c r="BZ50" s="32">
         <v>2019</v>
       </c>
-      <c r="CA50" s="44"/>
-      <c r="CB50" s="44"/>
-      <c r="CC50" s="44"/>
-      <c r="CD50" s="45">
+      <c r="CA50" s="32"/>
+      <c r="CB50" s="32"/>
+      <c r="CC50" s="32"/>
+      <c r="CD50" s="31">
         <v>2020</v>
       </c>
-      <c r="CE50" s="45"/>
-      <c r="CF50" s="45"/>
-      <c r="CG50" s="45"/>
+      <c r="CE50" s="31"/>
+      <c r="CF50" s="31"/>
+      <c r="CG50" s="31"/>
       <c r="CH50" s="27">
         <v>2021</v>
       </c>
@@ -10794,15 +10826,16 @@
       <c r="CM50" s="27"/>
       <c r="CN50" s="27"/>
       <c r="CO50" s="27"/>
-      <c r="CP50" s="30">
+      <c r="CP50" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ50" s="30"/>
-      <c r="CR50" s="30"/>
-      <c r="CS50" s="30"/>
-      <c r="CT50" s="30">
+      <c r="CQ50" s="27"/>
+      <c r="CR50" s="27"/>
+      <c r="CS50" s="27"/>
+      <c r="CT50" s="27">
         <v>2024</v>
       </c>
+      <c r="CU50" s="27"/>
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
@@ -11084,20 +11117,23 @@
       <c r="CO51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP51" s="36" t="s">
+      <c r="CP51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ51" s="36" t="s">
+      <c r="CQ51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR51" s="36" t="s">
+      <c r="CR51" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CS51" s="36" t="s">
+      <c r="CS51" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CT51" s="36" t="s">
+      <c r="CT51" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CU51" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -11383,22 +11419,24 @@
       <c r="CO53" s="25">
         <v>55960.902328886485</v>
       </c>
-      <c r="CP53" s="31">
+      <c r="CP53" s="25">
         <v>53059.69760942633</v>
       </c>
-      <c r="CQ53" s="31">
+      <c r="CQ53" s="25">
         <v>31495.784669737521</v>
       </c>
-      <c r="CR53" s="31">
+      <c r="CR53" s="25">
         <v>37939.921983171393</v>
       </c>
-      <c r="CS53" s="31">
+      <c r="CS53" s="25">
         <v>57743.91942639013</v>
       </c>
-      <c r="CT53" s="31">
-        <v>48068.081515709368</v>
-      </c>
-      <c r="CU53" s="9"/>
+      <c r="CT53" s="25">
+        <v>48088.194738576763</v>
+      </c>
+      <c r="CU53" s="25">
+        <v>32517.391459405764</v>
+      </c>
       <c r="CV53" s="9"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="9"/>
@@ -11733,22 +11771,24 @@
       <c r="CO54" s="26">
         <v>3370.7514892355198</v>
       </c>
-      <c r="CP54" s="32">
+      <c r="CP54" s="26">
         <v>2407.5461293794488</v>
       </c>
-      <c r="CQ54" s="32">
+      <c r="CQ54" s="26">
         <v>1005.4741071235705</v>
       </c>
-      <c r="CR54" s="32">
+      <c r="CR54" s="26">
         <v>3578.2166377332069</v>
       </c>
-      <c r="CS54" s="32">
+      <c r="CS54" s="26">
         <v>5814.4104464368811</v>
       </c>
-      <c r="CT54" s="32">
-        <v>3019.9144968242827</v>
-      </c>
-      <c r="CU54" s="9"/>
+      <c r="CT54" s="26">
+        <v>3015.5282098494577</v>
+      </c>
+      <c r="CU54" s="26">
+        <v>996.33671784244393</v>
+      </c>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
@@ -12083,22 +12123,24 @@
       <c r="CO55" s="26">
         <v>14795.872779192172</v>
       </c>
-      <c r="CP55" s="32">
+      <c r="CP55" s="26">
         <v>10235.089446830003</v>
       </c>
-      <c r="CQ55" s="32">
+      <c r="CQ55" s="26">
         <v>3772.2478772777836</v>
       </c>
-      <c r="CR55" s="32">
+      <c r="CR55" s="26">
         <v>8184.7833810944467</v>
       </c>
-      <c r="CS55" s="32">
+      <c r="CS55" s="26">
         <v>10565.743574709037</v>
       </c>
-      <c r="CT55" s="32">
-        <v>7107.6793863486182</v>
-      </c>
-      <c r="CU55" s="9"/>
+      <c r="CT55" s="26">
+        <v>7079.1743132762185</v>
+      </c>
+      <c r="CU55" s="26">
+        <v>3377.5997997637428</v>
+      </c>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
@@ -12433,22 +12475,24 @@
       <c r="CO56" s="26">
         <v>1021.9285109202021</v>
       </c>
-      <c r="CP56" s="32">
+      <c r="CP56" s="26">
         <v>654.65664618494486</v>
       </c>
-      <c r="CQ56" s="32">
+      <c r="CQ56" s="26">
         <v>328.19326326829162</v>
       </c>
-      <c r="CR56" s="32">
+      <c r="CR56" s="26">
         <v>709.00180503945501</v>
       </c>
-      <c r="CS56" s="32">
+      <c r="CS56" s="26">
         <v>1205.156224917524</v>
       </c>
-      <c r="CT56" s="32">
-        <v>533.59836060851308</v>
-      </c>
-      <c r="CU56" s="9"/>
+      <c r="CT56" s="26">
+        <v>507.7971833443944</v>
+      </c>
+      <c r="CU56" s="26">
+        <v>314.50990761011616</v>
+      </c>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
@@ -12783,22 +12827,24 @@
       <c r="CO57" s="26">
         <v>692.67704239079671</v>
       </c>
-      <c r="CP57" s="32">
+      <c r="CP57" s="26">
         <v>318.40146416046235</v>
       </c>
-      <c r="CQ57" s="32">
+      <c r="CQ57" s="26">
         <v>153.42550971664588</v>
       </c>
-      <c r="CR57" s="32">
+      <c r="CR57" s="26">
         <v>523.19182484545854</v>
       </c>
-      <c r="CS57" s="32">
+      <c r="CS57" s="26">
         <v>630.66474346325867</v>
       </c>
-      <c r="CT57" s="32">
-        <v>563.82963538872923</v>
-      </c>
-      <c r="CU57" s="9"/>
+      <c r="CT57" s="26">
+        <v>559.71319609388729</v>
+      </c>
+      <c r="CU57" s="26">
+        <v>225.01565078645115</v>
+      </c>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
@@ -13133,22 +13179,24 @@
       <c r="CO58" s="26">
         <v>3854.5112781585503</v>
       </c>
-      <c r="CP58" s="32">
+      <c r="CP58" s="26">
         <v>3161.8423095949856</v>
       </c>
-      <c r="CQ58" s="32">
+      <c r="CQ58" s="26">
         <v>811.61990065053669</v>
       </c>
-      <c r="CR58" s="32">
+      <c r="CR58" s="26">
         <v>2855.6196858014996</v>
       </c>
-      <c r="CS58" s="32">
+      <c r="CS58" s="26">
         <v>3409.7541810728949</v>
       </c>
-      <c r="CT58" s="32">
-        <v>1945.1414988496963</v>
-      </c>
-      <c r="CU58" s="9"/>
+      <c r="CT58" s="26">
+        <v>1919.1380562906875</v>
+      </c>
+      <c r="CU58" s="26">
+        <v>709.70481579242494</v>
+      </c>
       <c r="CV58" s="9"/>
       <c r="CW58" s="9"/>
       <c r="CX58" s="9"/>
@@ -13483,22 +13531,24 @@
       <c r="CO59" s="26">
         <v>20279.268753998695</v>
       </c>
-      <c r="CP59" s="32">
+      <c r="CP59" s="26">
         <v>28138.668534859047</v>
       </c>
-      <c r="CQ59" s="32">
+      <c r="CQ59" s="26">
         <v>22764.534951829264</v>
       </c>
-      <c r="CR59" s="32">
+      <c r="CR59" s="26">
         <v>14461.415217230537</v>
       </c>
-      <c r="CS59" s="32">
+      <c r="CS59" s="26">
         <v>24394.929982672395</v>
       </c>
-      <c r="CT59" s="32">
-        <v>27119.605788714027</v>
-      </c>
-      <c r="CU59" s="9"/>
+      <c r="CT59" s="26">
+        <v>27495.186736986485</v>
+      </c>
+      <c r="CU59" s="26">
+        <v>23968.830432066003</v>
+      </c>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
@@ -13833,22 +13883,24 @@
       <c r="CO60" s="26">
         <v>1499.0474300106625</v>
       </c>
-      <c r="CP60" s="32">
+      <c r="CP60" s="26">
         <v>971.2185221810372</v>
       </c>
-      <c r="CQ60" s="32">
+      <c r="CQ60" s="26">
         <v>364.49050498321111</v>
       </c>
-      <c r="CR60" s="32">
+      <c r="CR60" s="26">
         <v>933.16976595695451</v>
       </c>
-      <c r="CS60" s="32">
+      <c r="CS60" s="26">
         <v>1281.4306823967595</v>
       </c>
-      <c r="CT60" s="32">
-        <v>773.94742299581208</v>
-      </c>
-      <c r="CU60" s="9"/>
+      <c r="CT60" s="26">
+        <v>757.28502613007788</v>
+      </c>
+      <c r="CU60" s="26">
+        <v>448.84737248090198</v>
+      </c>
       <c r="CV60" s="9"/>
       <c r="CW60" s="9"/>
       <c r="CX60" s="9"/>
@@ -14183,22 +14235,24 @@
       <c r="CO61" s="26">
         <v>10446.84504497988</v>
       </c>
-      <c r="CP61" s="32">
+      <c r="CP61" s="26">
         <v>7172.2745562363971</v>
       </c>
-      <c r="CQ61" s="32">
+      <c r="CQ61" s="26">
         <v>2295.7985548882152</v>
       </c>
-      <c r="CR61" s="32">
+      <c r="CR61" s="26">
         <v>6694.5236654698365</v>
       </c>
-      <c r="CS61" s="32">
+      <c r="CS61" s="26">
         <v>10441.829590721385</v>
       </c>
-      <c r="CT61" s="32">
-        <v>7004.3649259796894</v>
-      </c>
-      <c r="CU61" s="9"/>
+      <c r="CT61" s="26">
+        <v>6754.3720166055573</v>
+      </c>
+      <c r="CU61" s="26">
+        <v>2476.5467630636799</v>
+      </c>
       <c r="CV61" s="9"/>
       <c r="CW61" s="9"/>
       <c r="CX61" s="9"/>
@@ -14533,22 +14587,24 @@
       <c r="CO62" s="25">
         <v>56436.910049342761</v>
       </c>
-      <c r="CP62" s="31">
+      <c r="CP62" s="25">
         <v>55582.574851140671</v>
       </c>
-      <c r="CQ62" s="31">
+      <c r="CQ62" s="25">
         <v>44277.815695243109</v>
       </c>
-      <c r="CR62" s="31">
+      <c r="CR62" s="25">
         <v>57219.327465164271</v>
       </c>
-      <c r="CS62" s="31">
+      <c r="CS62" s="25">
         <v>57987.603115864142</v>
       </c>
-      <c r="CT62" s="31">
-        <v>59157.232368885525</v>
-      </c>
-      <c r="CU62" s="9"/>
+      <c r="CT62" s="25">
+        <v>58027.395916054622</v>
+      </c>
+      <c r="CU62" s="25">
+        <v>48811.31257966585</v>
+      </c>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
@@ -14883,22 +14939,24 @@
       <c r="CO63" s="26">
         <v>10121.905780920308</v>
       </c>
-      <c r="CP63" s="32">
+      <c r="CP63" s="26">
         <v>8721.4663376271546</v>
       </c>
-      <c r="CQ63" s="32">
+      <c r="CQ63" s="26">
         <v>7399.9263568037231</v>
       </c>
-      <c r="CR63" s="32">
+      <c r="CR63" s="26">
         <v>8025.4349403007454</v>
       </c>
-      <c r="CS63" s="32">
+      <c r="CS63" s="26">
         <v>10907.787216991777</v>
       </c>
-      <c r="CT63" s="32">
-        <v>9836.5350393915178</v>
-      </c>
-      <c r="CU63" s="9"/>
+      <c r="CT63" s="26">
+        <v>9736.69997099188</v>
+      </c>
+      <c r="CU63" s="26">
+        <v>8859.2847175077241</v>
+      </c>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
@@ -15233,22 +15291,24 @@
       <c r="CO64" s="26">
         <v>6089.9064523477409</v>
       </c>
-      <c r="CP64" s="32">
+      <c r="CP64" s="26">
         <v>5773.4596442065658</v>
       </c>
-      <c r="CQ64" s="32">
+      <c r="CQ64" s="26">
         <v>4922.8035902502625</v>
       </c>
-      <c r="CR64" s="32">
+      <c r="CR64" s="26">
         <v>5287.615452105968</v>
       </c>
-      <c r="CS64" s="32">
+      <c r="CS64" s="26">
         <v>5763.9198081152617</v>
       </c>
-      <c r="CT64" s="32">
-        <v>5322.6527329712126</v>
-      </c>
-      <c r="CU64" s="9"/>
+      <c r="CT64" s="26">
+        <v>5290.3718155758397</v>
+      </c>
+      <c r="CU64" s="26">
+        <v>4883.0972098887114</v>
+      </c>
       <c r="CV64" s="9"/>
       <c r="CW64" s="9"/>
       <c r="CX64" s="9"/>
@@ -15583,22 +15643,24 @@
       <c r="CO65" s="26">
         <v>17762.099746527834</v>
       </c>
-      <c r="CP65" s="32">
+      <c r="CP65" s="26">
         <v>19598.351689194315</v>
       </c>
-      <c r="CQ65" s="32">
+      <c r="CQ65" s="26">
         <v>17156.468644443863</v>
       </c>
-      <c r="CR65" s="32">
+      <c r="CR65" s="26">
         <v>26630.249737276605</v>
       </c>
-      <c r="CS65" s="32">
+      <c r="CS65" s="26">
         <v>18869.322397047101</v>
       </c>
-      <c r="CT65" s="32">
-        <v>20698.860307734441</v>
-      </c>
-      <c r="CU65" s="9"/>
+      <c r="CT65" s="26">
+        <v>20625.323399010995</v>
+      </c>
+      <c r="CU65" s="26">
+        <v>19074.662111915794</v>
+      </c>
       <c r="CV65" s="9"/>
       <c r="CW65" s="9"/>
       <c r="CX65" s="9"/>
@@ -15933,22 +15995,24 @@
       <c r="CO66" s="26">
         <v>22462.998069546877</v>
       </c>
-      <c r="CP66" s="32">
+      <c r="CP66" s="26">
         <v>21489.29718011264</v>
       </c>
-      <c r="CQ66" s="32">
+      <c r="CQ66" s="26">
         <v>14798.617103745259</v>
       </c>
-      <c r="CR66" s="32">
+      <c r="CR66" s="26">
         <v>17276.027335480954</v>
       </c>
-      <c r="CS66" s="32">
+      <c r="CS66" s="26">
         <v>22446.573693710001</v>
       </c>
-      <c r="CT66" s="32">
-        <v>23299.184288788354</v>
-      </c>
-      <c r="CU66" s="9"/>
+      <c r="CT66" s="26">
+        <v>22375.000730475902</v>
+      </c>
+      <c r="CU66" s="26">
+        <v>15994.268540353625</v>
+      </c>
       <c r="CV66" s="9"/>
       <c r="CW66" s="9"/>
       <c r="CX66" s="9"/>
@@ -16283,22 +16347,24 @@
       <c r="CO67" s="25">
         <v>142868.90617903948</v>
       </c>
-      <c r="CP67" s="31">
+      <c r="CP67" s="25">
         <v>190789.53126717266</v>
       </c>
-      <c r="CQ67" s="31">
+      <c r="CQ67" s="25">
         <v>176198.34598307346</v>
       </c>
-      <c r="CR67" s="31">
+      <c r="CR67" s="25">
         <v>156115.904614028</v>
       </c>
-      <c r="CS67" s="31">
+      <c r="CS67" s="25">
         <v>181832.88779711342</v>
       </c>
-      <c r="CT67" s="31">
-        <v>174954.91285148935</v>
-      </c>
-      <c r="CU67" s="9"/>
+      <c r="CT67" s="25">
+        <v>174516.59099337328</v>
+      </c>
+      <c r="CU67" s="25">
+        <v>153467.84283569275</v>
+      </c>
       <c r="CV67" s="9"/>
       <c r="CW67" s="9"/>
       <c r="CX67" s="9"/>
@@ -16633,22 +16699,24 @@
       <c r="CO68" s="26">
         <v>134325.6510172589</v>
       </c>
-      <c r="CP68" s="32">
+      <c r="CP68" s="26">
         <v>178747.03248899253</v>
       </c>
-      <c r="CQ68" s="32">
+      <c r="CQ68" s="26">
         <v>152504.19215091688</v>
       </c>
-      <c r="CR68" s="32">
+      <c r="CR68" s="26">
         <v>146169.02276570248</v>
       </c>
-      <c r="CS68" s="32">
+      <c r="CS68" s="26">
         <v>153727.26069128391</v>
       </c>
-      <c r="CT68" s="32">
-        <v>158377.50454373169</v>
-      </c>
-      <c r="CU68" s="9"/>
+      <c r="CT68" s="26">
+        <v>157906.35902864978</v>
+      </c>
+      <c r="CU68" s="26">
+        <v>144578.97731731983</v>
+      </c>
       <c r="CV68" s="9"/>
       <c r="CW68" s="9"/>
       <c r="CX68" s="9"/>
@@ -16983,22 +17051,24 @@
       <c r="CO69" s="26">
         <v>10.702323039936408</v>
       </c>
-      <c r="CP69" s="32">
+      <c r="CP69" s="26">
         <v>20.088983114898795</v>
       </c>
-      <c r="CQ69" s="32">
+      <c r="CQ69" s="26">
         <v>7.5663401812047661</v>
       </c>
-      <c r="CR69" s="32">
+      <c r="CR69" s="26">
         <v>1.0323471979782477</v>
       </c>
-      <c r="CS69" s="32">
+      <c r="CS69" s="26">
         <v>866.79407875069307</v>
       </c>
-      <c r="CT69" s="32">
+      <c r="CT69" s="26">
         <v>2665.9003239419367</v>
       </c>
-      <c r="CU69" s="9"/>
+      <c r="CU69" s="26">
+        <v>1293.0840474016334</v>
+      </c>
       <c r="CV69" s="9"/>
       <c r="CW69" s="9"/>
       <c r="CX69" s="9"/>
@@ -17333,22 +17403,24 @@
       <c r="CO70" s="26">
         <v>4538.4974448573812</v>
       </c>
-      <c r="CP70" s="32">
+      <c r="CP70" s="26">
         <v>6516.5563308400806</v>
       </c>
-      <c r="CQ70" s="32">
+      <c r="CQ70" s="26">
         <v>12999.714293026276</v>
       </c>
-      <c r="CR70" s="32">
+      <c r="CR70" s="26">
         <v>7692.8431540022802</v>
       </c>
-      <c r="CS70" s="32">
+      <c r="CS70" s="26">
         <v>20229.81014833376</v>
       </c>
-      <c r="CT70" s="32">
-        <v>10179.5231826297</v>
-      </c>
-      <c r="CU70" s="9"/>
+      <c r="CT70" s="26">
+        <v>10182.204312499807</v>
+      </c>
+      <c r="CU70" s="26">
+        <v>6422.7212552546835</v>
+      </c>
       <c r="CV70" s="9"/>
       <c r="CW70" s="9"/>
       <c r="CX70" s="9"/>
@@ -17683,22 +17755,24 @@
       <c r="CO71" s="26">
         <v>3994.0553938832463</v>
       </c>
-      <c r="CP71" s="32">
+      <c r="CP71" s="26">
         <v>5505.8534642251489</v>
       </c>
-      <c r="CQ71" s="32">
+      <c r="CQ71" s="26">
         <v>10686.87319894911</v>
       </c>
-      <c r="CR71" s="32">
+      <c r="CR71" s="26">
         <v>2253.006347125267</v>
       </c>
-      <c r="CS71" s="32">
+      <c r="CS71" s="26">
         <v>7009.0228787450787</v>
       </c>
-      <c r="CT71" s="32">
-        <v>3731.984801186034</v>
-      </c>
-      <c r="CU71" s="9"/>
+      <c r="CT71" s="26">
+        <v>3762.1273282817683</v>
+      </c>
+      <c r="CU71" s="26">
+        <v>1173.0602157165911</v>
+      </c>
       <c r="CV71" s="9"/>
       <c r="CW71" s="9"/>
       <c r="CX71" s="9"/>
@@ -18033,22 +18107,24 @@
       <c r="CO72" s="25">
         <v>40865.302630889651</v>
       </c>
-      <c r="CP72" s="31">
+      <c r="CP72" s="25">
         <v>61355.210092419147</v>
       </c>
-      <c r="CQ72" s="31">
+      <c r="CQ72" s="25">
         <v>74683.660158490849</v>
       </c>
-      <c r="CR72" s="31">
+      <c r="CR72" s="25">
         <v>44395.374322286698</v>
       </c>
-      <c r="CS72" s="31">
+      <c r="CS72" s="25">
         <v>41739.020413824233</v>
       </c>
-      <c r="CT72" s="31">
-        <v>61373.402671673612</v>
-      </c>
-      <c r="CU72" s="9"/>
+      <c r="CT72" s="25">
+        <v>60424.677572283414</v>
+      </c>
+      <c r="CU72" s="25">
+        <v>76362.389235095136</v>
+      </c>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
@@ -18383,22 +18459,24 @@
       <c r="CO73" s="26">
         <v>3534.2780861990254</v>
       </c>
-      <c r="CP73" s="32">
+      <c r="CP73" s="26">
         <v>5677.7703531448342</v>
       </c>
-      <c r="CQ73" s="32">
+      <c r="CQ73" s="26">
         <v>7317.4792455405614</v>
       </c>
-      <c r="CR73" s="32">
+      <c r="CR73" s="26">
         <v>3560.9668993693767</v>
       </c>
-      <c r="CS73" s="32">
+      <c r="CS73" s="26">
         <v>3545.8016584413153</v>
       </c>
-      <c r="CT73" s="32">
-        <v>4145.5923466171107</v>
-      </c>
-      <c r="CU73" s="9"/>
+      <c r="CT73" s="26">
+        <v>4128.3479166864154</v>
+      </c>
+      <c r="CU73" s="26">
+        <v>9099.2415410031263</v>
+      </c>
       <c r="CV73" s="9"/>
       <c r="CW73" s="9"/>
       <c r="CX73" s="9"/>
@@ -18733,22 +18811,24 @@
       <c r="CO74" s="26">
         <v>6901.8637796803741</v>
       </c>
-      <c r="CP74" s="32">
+      <c r="CP74" s="26">
         <v>11822.592513363681</v>
       </c>
-      <c r="CQ74" s="32">
+      <c r="CQ74" s="26">
         <v>15247.593526607729</v>
       </c>
-      <c r="CR74" s="32">
+      <c r="CR74" s="26">
         <v>6332.7469154447717</v>
       </c>
-      <c r="CS74" s="32">
+      <c r="CS74" s="26">
         <v>8467.1609397324173</v>
       </c>
-      <c r="CT74" s="32">
-        <v>14693.072900155255</v>
-      </c>
-      <c r="CU74" s="9"/>
+      <c r="CT74" s="26">
+        <v>14375.609485625921</v>
+      </c>
+      <c r="CU74" s="26">
+        <v>18089.617455605032</v>
+      </c>
       <c r="CV74" s="9"/>
       <c r="CW74" s="9"/>
       <c r="CX74" s="9"/>
@@ -19083,22 +19163,24 @@
       <c r="CO75" s="26">
         <v>21842.85331684626</v>
       </c>
-      <c r="CP75" s="32">
+      <c r="CP75" s="26">
         <v>28696.327759037806</v>
       </c>
-      <c r="CQ75" s="32">
+      <c r="CQ75" s="26">
         <v>38217.730590009247</v>
       </c>
-      <c r="CR75" s="32">
+      <c r="CR75" s="26">
         <v>27443.281740309474</v>
       </c>
-      <c r="CS75" s="32">
+      <c r="CS75" s="26">
         <v>21465.317806103129</v>
       </c>
-      <c r="CT75" s="32">
-        <v>26931.709863263026</v>
-      </c>
-      <c r="CU75" s="9"/>
+      <c r="CT75" s="26">
+        <v>26666.011842239939</v>
+      </c>
+      <c r="CU75" s="26">
+        <v>35271.05280710529</v>
+      </c>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
@@ -19433,22 +19515,24 @@
       <c r="CO76" s="26">
         <v>8586.307448163996</v>
       </c>
-      <c r="CP76" s="32">
+      <c r="CP76" s="26">
         <v>15158.519466872825</v>
       </c>
-      <c r="CQ76" s="32">
+      <c r="CQ76" s="26">
         <v>13900.856796333304</v>
       </c>
-      <c r="CR76" s="32">
+      <c r="CR76" s="26">
         <v>7058.3787671630762</v>
       </c>
-      <c r="CS76" s="32">
+      <c r="CS76" s="26">
         <v>8260.7400095473731</v>
       </c>
-      <c r="CT76" s="32">
-        <v>15603.027561638219</v>
-      </c>
-      <c r="CU76" s="9"/>
+      <c r="CT76" s="26">
+        <v>15254.708327731138</v>
+      </c>
+      <c r="CU76" s="26">
+        <v>13902.477431381689</v>
+      </c>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
@@ -19596,11 +19680,11 @@
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
-      <c r="CP77" s="33"/>
-      <c r="CQ77" s="33"/>
-      <c r="CR77" s="33"/>
-      <c r="CS77" s="33"/>
-      <c r="CT77" s="33"/>
+      <c r="CP77" s="9"/>
+      <c r="CQ77" s="9"/>
+      <c r="CR77" s="9"/>
+      <c r="CS77" s="9"/>
+      <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
       <c r="CV77" s="9"/>
       <c r="CW77" s="9"/>
@@ -19936,22 +20020,24 @@
       <c r="CO78" s="13">
         <v>296132.02118815837</v>
       </c>
-      <c r="CP78" s="34">
+      <c r="CP78" s="13">
         <v>360787.01382015878</v>
       </c>
-      <c r="CQ78" s="34">
+      <c r="CQ78" s="13">
         <v>326655.60650654498</v>
       </c>
-      <c r="CR78" s="34">
+      <c r="CR78" s="13">
         <v>295670.52838465036</v>
       </c>
-      <c r="CS78" s="34">
+      <c r="CS78" s="13">
         <v>339303.43075319193</v>
       </c>
-      <c r="CT78" s="34">
-        <v>343553.62940775783</v>
-      </c>
-      <c r="CU78" s="9"/>
+      <c r="CT78" s="13">
+        <v>341056.85922028811</v>
+      </c>
+      <c r="CU78" s="13">
+        <v>311158.9361098595</v>
+      </c>
       <c r="CV78" s="9"/>
       <c r="CW78" s="9"/>
       <c r="CX78" s="9"/>
@@ -20100,11 +20186,12 @@
       <c r="CM79" s="14"/>
       <c r="CN79" s="14"/>
       <c r="CO79" s="14"/>
-      <c r="CP79" s="35"/>
-      <c r="CQ79" s="35"/>
-      <c r="CR79" s="35"/>
-      <c r="CS79" s="35"/>
-      <c r="CT79" s="35"/>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="14"/>
+      <c r="CR79" s="14"/>
+      <c r="CS79" s="14"/>
+      <c r="CT79" s="14"/>
+      <c r="CU79" s="14"/>
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
@@ -20225,11 +20312,11 @@
       <c r="CM81" s="18"/>
       <c r="CN81" s="18"/>
       <c r="CO81" s="18"/>
-      <c r="CP81" s="37"/>
-      <c r="CQ81" s="37"/>
-      <c r="CR81" s="37"/>
-      <c r="CS81" s="37"/>
-      <c r="CT81" s="37"/>
+      <c r="CP81" s="18"/>
+      <c r="CQ81" s="18"/>
+      <c r="CR81" s="18"/>
+      <c r="CS81" s="18"/>
+      <c r="CT81" s="18"/>
       <c r="CU81" s="18"/>
       <c r="CV81" s="18"/>
       <c r="CW81" s="18"/>
@@ -20379,11 +20466,11 @@
       <c r="CM82" s="18"/>
       <c r="CN82" s="18"/>
       <c r="CO82" s="18"/>
-      <c r="CP82" s="37"/>
-      <c r="CQ82" s="37"/>
-      <c r="CR82" s="37"/>
-      <c r="CS82" s="37"/>
-      <c r="CT82" s="37"/>
+      <c r="CP82" s="18"/>
+      <c r="CQ82" s="18"/>
+      <c r="CR82" s="18"/>
+      <c r="CS82" s="18"/>
+      <c r="CT82" s="18"/>
       <c r="CU82" s="18"/>
       <c r="CV82" s="18"/>
       <c r="CW82" s="18"/>
@@ -20451,179 +20538,180 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CP86" s="38"/>
-      <c r="CQ86" s="38"/>
-      <c r="CR86" s="38"/>
-      <c r="CS86" s="38"/>
-      <c r="CT86" s="38"/>
+      <c r="CP86" s="7"/>
+      <c r="CQ86" s="7"/>
+      <c r="CR86" s="7"/>
+      <c r="CS86" s="7"/>
+      <c r="CT86" s="7"/>
+      <c r="CU86" s="7"/>
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="CP87" s="38"/>
-      <c r="CQ87" s="38"/>
-      <c r="CR87" s="38"/>
-      <c r="CS87" s="38"/>
-      <c r="CT87" s="38"/>
+      <c r="CP87" s="7"/>
+      <c r="CQ87" s="7"/>
+      <c r="CR87" s="7"/>
+      <c r="CS87" s="7"/>
+      <c r="CT87" s="7"/>
+      <c r="CU87" s="7"/>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="CP88" s="38"/>
-      <c r="CQ88" s="38"/>
-      <c r="CR88" s="38"/>
-      <c r="CS88" s="38"/>
-      <c r="CT88" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="CP88" s="7"/>
+      <c r="CQ88" s="7"/>
+      <c r="CR88" s="7"/>
+      <c r="CS88" s="7"/>
+      <c r="CT88" s="7"/>
+      <c r="CU88" s="7"/>
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="CQ89" s="38"/>
-      <c r="CR89" s="38"/>
-      <c r="CS89" s="38"/>
-      <c r="CT89" s="38"/>
+      <c r="CR89" s="7"/>
+      <c r="CS89" s="7"/>
+      <c r="CU89" s="7"/>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CQ90" s="38"/>
-      <c r="CR90" s="38"/>
-      <c r="CS90" s="38"/>
-      <c r="CT90" s="38"/>
+      <c r="CR90" s="7"/>
+      <c r="CS90" s="7"/>
+      <c r="CU90" s="7"/>
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="45" t="s">
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="45" t="s">
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="45" t="s">
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="45" t="s">
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
+      <c r="Q91" s="32"/>
+      <c r="R91" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="S91" s="44"/>
-      <c r="T91" s="44"/>
-      <c r="U91" s="44"/>
-      <c r="V91" s="45" t="s">
+      <c r="S91" s="32"/>
+      <c r="T91" s="32"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="44"/>
-      <c r="X91" s="44"/>
-      <c r="Y91" s="44"/>
-      <c r="Z91" s="45" t="s">
+      <c r="W91" s="32"/>
+      <c r="X91" s="32"/>
+      <c r="Y91" s="32"/>
+      <c r="Z91" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AA91" s="44"/>
-      <c r="AB91" s="44"/>
-      <c r="AC91" s="44"/>
-      <c r="AD91" s="45" t="s">
+      <c r="AA91" s="32"/>
+      <c r="AB91" s="32"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AE91" s="44"/>
-      <c r="AF91" s="44"/>
-      <c r="AG91" s="44"/>
-      <c r="AH91" s="45" t="s">
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="32"/>
+      <c r="AH91" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AI91" s="44"/>
-      <c r="AJ91" s="44"/>
-      <c r="AK91" s="44"/>
-      <c r="AL91" s="45" t="s">
+      <c r="AI91" s="32"/>
+      <c r="AJ91" s="32"/>
+      <c r="AK91" s="32"/>
+      <c r="AL91" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AM91" s="44"/>
-      <c r="AN91" s="44"/>
-      <c r="AO91" s="44"/>
-      <c r="AP91" s="45" t="s">
+      <c r="AM91" s="32"/>
+      <c r="AN91" s="32"/>
+      <c r="AO91" s="32"/>
+      <c r="AP91" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AQ91" s="44"/>
-      <c r="AR91" s="44"/>
-      <c r="AS91" s="44"/>
-      <c r="AT91" s="45" t="s">
+      <c r="AQ91" s="32"/>
+      <c r="AR91" s="32"/>
+      <c r="AS91" s="32"/>
+      <c r="AT91" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AU91" s="44"/>
-      <c r="AV91" s="44"/>
-      <c r="AW91" s="44"/>
-      <c r="AX91" s="45" t="s">
+      <c r="AU91" s="32"/>
+      <c r="AV91" s="32"/>
+      <c r="AW91" s="32"/>
+      <c r="AX91" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AY91" s="44"/>
-      <c r="AZ91" s="44"/>
-      <c r="BA91" s="44"/>
-      <c r="BB91" s="45" t="s">
+      <c r="AY91" s="32"/>
+      <c r="AZ91" s="32"/>
+      <c r="BA91" s="32"/>
+      <c r="BB91" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="BC91" s="44"/>
-      <c r="BD91" s="44"/>
-      <c r="BE91" s="44"/>
-      <c r="BF91" s="45" t="s">
+      <c r="BC91" s="32"/>
+      <c r="BD91" s="32"/>
+      <c r="BE91" s="32"/>
+      <c r="BF91" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="BG91" s="44"/>
-      <c r="BH91" s="44"/>
-      <c r="BI91" s="44"/>
-      <c r="BJ91" s="45" t="s">
+      <c r="BG91" s="32"/>
+      <c r="BH91" s="32"/>
+      <c r="BI91" s="32"/>
+      <c r="BJ91" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="BK91" s="44"/>
-      <c r="BL91" s="44"/>
-      <c r="BM91" s="44"/>
-      <c r="BN91" s="45" t="s">
+      <c r="BK91" s="32"/>
+      <c r="BL91" s="32"/>
+      <c r="BM91" s="32"/>
+      <c r="BN91" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="BO91" s="44"/>
-      <c r="BP91" s="44"/>
-      <c r="BQ91" s="44"/>
-      <c r="BR91" s="45" t="s">
+      <c r="BO91" s="32"/>
+      <c r="BP91" s="32"/>
+      <c r="BQ91" s="32"/>
+      <c r="BR91" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="BS91" s="44"/>
-      <c r="BT91" s="44"/>
-      <c r="BU91" s="44"/>
-      <c r="BV91" s="45" t="s">
+      <c r="BS91" s="32"/>
+      <c r="BT91" s="32"/>
+      <c r="BU91" s="32"/>
+      <c r="BV91" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BW91" s="44"/>
-      <c r="BX91" s="44"/>
-      <c r="BY91" s="44"/>
-      <c r="BZ91" s="45" t="s">
+      <c r="BW91" s="32"/>
+      <c r="BX91" s="32"/>
+      <c r="BY91" s="32"/>
+      <c r="BZ91" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="CA91" s="44"/>
-      <c r="CB91" s="44"/>
-      <c r="CC91" s="44"/>
-      <c r="CD91" s="45" t="s">
+      <c r="CA91" s="32"/>
+      <c r="CB91" s="32"/>
+      <c r="CC91" s="32"/>
+      <c r="CD91" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="CE91" s="45"/>
-      <c r="CF91" s="45"/>
-      <c r="CG91" s="45"/>
+      <c r="CE91" s="31"/>
+      <c r="CF91" s="31"/>
+      <c r="CG91" s="31"/>
       <c r="CH91" s="27" t="s">
         <v>71</v>
       </c>
@@ -20636,13 +20724,14 @@
       <c r="CM91" s="27"/>
       <c r="CN91" s="27"/>
       <c r="CO91" s="27"/>
-      <c r="CP91" s="30" t="s">
+      <c r="CP91" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="CQ91" s="28"/>
+      <c r="CQ91" s="27"/>
       <c r="CR91" s="28"/>
       <c r="CS91" s="28"/>
-      <c r="CT91" s="28"/>
+      <c r="CT91" s="27"/>
+      <c r="CU91" s="28"/>
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -20924,20 +21013,22 @@
       <c r="CO92" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP92" s="36" t="s">
+      <c r="CP92" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ92" s="36"/>
-      <c r="CR92" s="36"/>
-      <c r="CS92" s="36"/>
-      <c r="CT92" s="36"/>
+      <c r="CQ92" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR92" s="17"/>
+      <c r="CS92" s="17"/>
+      <c r="CT92" s="17"/>
+      <c r="CU92" s="17"/>
     </row>
     <row r="93" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
-      <c r="CQ93" s="38"/>
-      <c r="CR93" s="38"/>
-      <c r="CS93" s="38"/>
-      <c r="CT93" s="38"/>
+      <c r="CR93" s="7"/>
+      <c r="CS93" s="7"/>
+      <c r="CU93" s="7"/>
     </row>
     <row r="94" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -21219,14 +21310,16 @@
       <c r="CO94" s="18">
         <v>0.32074480680330453</v>
       </c>
-      <c r="CP94" s="37">
-        <v>-9.0165790261049494</v>
-      </c>
-      <c r="CQ94" s="39"/>
-      <c r="CR94" s="39"/>
-      <c r="CS94" s="39"/>
-      <c r="CT94" s="39"/>
-      <c r="CU94" s="9"/>
+      <c r="CP94" s="18">
+        <v>-9.4570517345075018</v>
+      </c>
+      <c r="CQ94" s="18">
+        <v>4.1154053826823116</v>
+      </c>
+      <c r="CR94" s="21"/>
+      <c r="CS94" s="21"/>
+      <c r="CT94" s="18"/>
+      <c r="CU94" s="21"/>
       <c r="CV94" s="9"/>
       <c r="CW94" s="9"/>
       <c r="CX94" s="9"/>
@@ -21556,14 +21649,16 @@
       <c r="CO95" s="18">
         <v>70.288903098265678</v>
       </c>
-      <c r="CP95" s="37">
-        <v>25.626080971902709</v>
-      </c>
-      <c r="CQ95" s="39"/>
-      <c r="CR95" s="39"/>
-      <c r="CS95" s="39"/>
-      <c r="CT95" s="39"/>
-      <c r="CU95" s="9"/>
+      <c r="CP95" s="18">
+        <v>25.505322928612713</v>
+      </c>
+      <c r="CQ95" s="18">
+        <v>3.412179194724601</v>
+      </c>
+      <c r="CR95" s="21"/>
+      <c r="CS95" s="21"/>
+      <c r="CT95" s="18"/>
+      <c r="CU95" s="21"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
@@ -21893,14 +21988,16 @@
       <c r="CO96" s="18">
         <v>-29.312278928168993</v>
       </c>
-      <c r="CP96" s="37">
-        <v>-30.754526258629113</v>
-      </c>
-      <c r="CQ96" s="39"/>
-      <c r="CR96" s="39"/>
-      <c r="CS96" s="39"/>
-      <c r="CT96" s="39"/>
-      <c r="CU96" s="9"/>
+      <c r="CP96" s="18">
+        <v>-30.986343450224439</v>
+      </c>
+      <c r="CQ96" s="18">
+        <v>-6.8792157377175585</v>
+      </c>
+      <c r="CR96" s="21"/>
+      <c r="CS96" s="21"/>
+      <c r="CT96" s="18"/>
+      <c r="CU96" s="21"/>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
@@ -22230,14 +22327,16 @@
       <c r="CO97" s="18">
         <v>16.666093502765577</v>
       </c>
-      <c r="CP97" s="37">
-        <v>-22.488315085276326</v>
-      </c>
-      <c r="CQ97" s="39"/>
-      <c r="CR97" s="39"/>
-      <c r="CS97" s="39"/>
-      <c r="CT97" s="39"/>
-      <c r="CU97" s="9"/>
+      <c r="CP97" s="18">
+        <v>-25.868662904224422</v>
+      </c>
+      <c r="CQ97" s="18">
+        <v>-4.0759468242396366</v>
+      </c>
+      <c r="CR97" s="21"/>
+      <c r="CS97" s="21"/>
+      <c r="CT97" s="18"/>
+      <c r="CU97" s="21"/>
       <c r="CV97" s="9"/>
       <c r="CW97" s="9"/>
       <c r="CX97" s="9"/>
@@ -22567,14 +22666,16 @@
       <c r="CO98" s="18">
         <v>-9.4845026379027075</v>
       </c>
-      <c r="CP98" s="37">
-        <v>82.655765559506619</v>
-      </c>
-      <c r="CQ98" s="39"/>
-      <c r="CR98" s="39"/>
-      <c r="CS98" s="39"/>
-      <c r="CT98" s="39"/>
-      <c r="CU98" s="9"/>
+      <c r="CP98" s="18">
+        <v>81.828541703938356</v>
+      </c>
+      <c r="CQ98" s="18">
+        <v>59.289149794841819</v>
+      </c>
+      <c r="CR98" s="21"/>
+      <c r="CS98" s="21"/>
+      <c r="CT98" s="18"/>
+      <c r="CU98" s="21"/>
       <c r="CV98" s="9"/>
       <c r="CW98" s="9"/>
       <c r="CX98" s="9"/>
@@ -22904,14 +23005,16 @@
       <c r="CO99" s="18">
         <v>-12.412288286671753</v>
       </c>
-      <c r="CP99" s="37">
-        <v>-38.801541486902678</v>
-      </c>
-      <c r="CQ99" s="39"/>
-      <c r="CR99" s="39"/>
-      <c r="CS99" s="39"/>
-      <c r="CT99" s="39"/>
-      <c r="CU99" s="9"/>
+      <c r="CP99" s="18">
+        <v>-39.574840089940167</v>
+      </c>
+      <c r="CQ99" s="18">
+        <v>-10.034643031582576</v>
+      </c>
+      <c r="CR99" s="21"/>
+      <c r="CS99" s="21"/>
+      <c r="CT99" s="18"/>
+      <c r="CU99" s="21"/>
       <c r="CV99" s="9"/>
       <c r="CW99" s="9"/>
       <c r="CX99" s="9"/>
@@ -23241,14 +23344,16 @@
       <c r="CO100" s="18">
         <v>9.2257609351648284</v>
       </c>
-      <c r="CP100" s="37">
-        <v>-2.0508435173336608</v>
-      </c>
-      <c r="CQ100" s="39"/>
-      <c r="CR100" s="39"/>
-      <c r="CS100" s="39"/>
-      <c r="CT100" s="39"/>
-      <c r="CU100" s="9"/>
+      <c r="CP100" s="18">
+        <v>-1.7546488046525042</v>
+      </c>
+      <c r="CQ100" s="18">
+        <v>7.6540818410318678</v>
+      </c>
+      <c r="CR100" s="21"/>
+      <c r="CS100" s="21"/>
+      <c r="CT100" s="18"/>
+      <c r="CU100" s="21"/>
       <c r="CV100" s="9"/>
       <c r="CW100" s="9"/>
       <c r="CX100" s="9"/>
@@ -23578,14 +23683,16 @@
       <c r="CO101" s="18">
         <v>-15.251537249164244</v>
       </c>
-      <c r="CP101" s="37">
-        <v>-20.662591146839489</v>
-      </c>
-      <c r="CQ101" s="39"/>
-      <c r="CR101" s="39"/>
-      <c r="CS101" s="39"/>
-      <c r="CT101" s="39"/>
-      <c r="CU101" s="9"/>
+      <c r="CP101" s="18">
+        <v>-22.295225676477131</v>
+      </c>
+      <c r="CQ101" s="18">
+        <v>29.49908689556068</v>
+      </c>
+      <c r="CR101" s="21"/>
+      <c r="CS101" s="21"/>
+      <c r="CT101" s="18"/>
+      <c r="CU101" s="21"/>
       <c r="CV101" s="9"/>
       <c r="CW101" s="9"/>
       <c r="CX101" s="9"/>
@@ -23915,14 +24022,16 @@
       <c r="CO102" s="18">
         <v>-0.65484267022813469</v>
       </c>
-      <c r="CP102" s="37">
-        <v>-3.1455334705484717</v>
-      </c>
-      <c r="CQ102" s="39"/>
-      <c r="CR102" s="39"/>
-      <c r="CS102" s="39"/>
-      <c r="CT102" s="39"/>
-      <c r="CU102" s="9"/>
+      <c r="CP102" s="18">
+        <v>-6.2087233435007647</v>
+      </c>
+      <c r="CQ102" s="18">
+        <v>13.332962372022664</v>
+      </c>
+      <c r="CR102" s="21"/>
+      <c r="CS102" s="21"/>
+      <c r="CT102" s="18"/>
+      <c r="CU102" s="21"/>
       <c r="CV102" s="9"/>
       <c r="CW102" s="9"/>
       <c r="CX102" s="9"/>
@@ -24252,14 +24361,16 @@
       <c r="CO103" s="18">
         <v>2.6888956174563816</v>
       </c>
-      <c r="CP103" s="37">
-        <v>5.3358847783860739</v>
-      </c>
-      <c r="CQ103" s="39"/>
-      <c r="CR103" s="39"/>
-      <c r="CS103" s="39"/>
-      <c r="CT103" s="39"/>
-      <c r="CU103" s="9"/>
+      <c r="CP103" s="18">
+        <v>3.8402200882780875</v>
+      </c>
+      <c r="CQ103" s="18">
+        <v>15.749120438547351</v>
+      </c>
+      <c r="CR103" s="21"/>
+      <c r="CS103" s="21"/>
+      <c r="CT103" s="18"/>
+      <c r="CU103" s="21"/>
       <c r="CV103" s="9"/>
       <c r="CW103" s="9"/>
       <c r="CX103" s="9"/>
@@ -24589,14 +24700,16 @@
       <c r="CO104" s="18">
         <v>6.8499160810860502</v>
       </c>
-      <c r="CP104" s="37">
-        <v>13.461038990368607</v>
-      </c>
-      <c r="CQ104" s="39"/>
-      <c r="CR104" s="39"/>
-      <c r="CS104" s="39"/>
-      <c r="CT104" s="39"/>
-      <c r="CU104" s="9"/>
+      <c r="CP104" s="18">
+        <v>12.527339619709707</v>
+      </c>
+      <c r="CQ104" s="18">
+        <v>24.242913477992616</v>
+      </c>
+      <c r="CR104" s="21"/>
+      <c r="CS104" s="21"/>
+      <c r="CT104" s="18"/>
+      <c r="CU104" s="21"/>
       <c r="CV104" s="9"/>
       <c r="CW104" s="9"/>
       <c r="CX104" s="9"/>
@@ -24926,14 +25039,16 @@
       <c r="CO105" s="18">
         <v>-3.8976626256513498</v>
       </c>
-      <c r="CP105" s="37">
-        <v>-6.0811661825784284</v>
-      </c>
-      <c r="CQ105" s="39"/>
-      <c r="CR105" s="39"/>
-      <c r="CS105" s="39"/>
-      <c r="CT105" s="39"/>
-      <c r="CU105" s="9"/>
+      <c r="CP105" s="18">
+        <v>-6.5270198876465741</v>
+      </c>
+      <c r="CQ105" s="18">
+        <v>4.8576429998274477</v>
+      </c>
+      <c r="CR105" s="21"/>
+      <c r="CS105" s="21"/>
+      <c r="CT105" s="18"/>
+      <c r="CU105" s="21"/>
       <c r="CV105" s="9"/>
       <c r="CW105" s="9"/>
       <c r="CX105" s="9"/>
@@ -25263,14 +25378,16 @@
       <c r="CO106" s="18">
         <v>5.6144818203983675</v>
       </c>
-      <c r="CP106" s="37">
-        <v>5.2350039086312137</v>
-      </c>
-      <c r="CQ106" s="39"/>
-      <c r="CR106" s="39"/>
-      <c r="CS106" s="39"/>
-      <c r="CT106" s="39"/>
-      <c r="CU106" s="9"/>
+      <c r="CP106" s="18">
+        <v>4.9555601655441421</v>
+      </c>
+      <c r="CQ106" s="18">
+        <v>19.937627860503213</v>
+      </c>
+      <c r="CR106" s="21"/>
+      <c r="CS106" s="21"/>
+      <c r="CT106" s="18"/>
+      <c r="CU106" s="21"/>
       <c r="CV106" s="9"/>
       <c r="CW106" s="9"/>
       <c r="CX106" s="9"/>
@@ -25600,14 +25717,16 @@
       <c r="CO107" s="18">
         <v>-0.49120892337272437</v>
       </c>
-      <c r="CP107" s="37">
-        <v>5.2579512946972642</v>
-      </c>
-      <c r="CQ107" s="39"/>
-      <c r="CR107" s="39"/>
-      <c r="CS107" s="39"/>
-      <c r="CT107" s="39"/>
-      <c r="CU107" s="9"/>
+      <c r="CP107" s="18">
+        <v>1.8715849161544895</v>
+      </c>
+      <c r="CQ107" s="18">
+        <v>10.139295036466336</v>
+      </c>
+      <c r="CR107" s="21"/>
+      <c r="CS107" s="21"/>
+      <c r="CT107" s="18"/>
+      <c r="CU107" s="21"/>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
@@ -25937,14 +26056,16 @@
       <c r="CO108" s="18">
         <v>28.824982581188095</v>
       </c>
-      <c r="CP108" s="37">
-        <v>-5.3226345931065993</v>
-      </c>
-      <c r="CQ108" s="39"/>
-      <c r="CR108" s="39"/>
-      <c r="CS108" s="39"/>
-      <c r="CT108" s="39"/>
-      <c r="CU108" s="9"/>
+      <c r="CP108" s="18">
+        <v>-5.4089416698729735</v>
+      </c>
+      <c r="CQ108" s="18">
+        <v>-7.3801878939196826</v>
+      </c>
+      <c r="CR108" s="21"/>
+      <c r="CS108" s="21"/>
+      <c r="CT108" s="18"/>
+      <c r="CU108" s="21"/>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
@@ -26274,14 +26395,16 @@
       <c r="CO109" s="18">
         <v>13.187813243636754</v>
       </c>
-      <c r="CP109" s="37">
-        <v>-9.2207878936999776</v>
-      </c>
-      <c r="CQ109" s="39"/>
-      <c r="CR109" s="39"/>
-      <c r="CS109" s="39"/>
-      <c r="CT109" s="39"/>
-      <c r="CU109" s="9"/>
+      <c r="CP109" s="18">
+        <v>-9.3400304758868486</v>
+      </c>
+      <c r="CQ109" s="18">
+        <v>1.0300419021084508</v>
+      </c>
+      <c r="CR109" s="21"/>
+      <c r="CS109" s="21"/>
+      <c r="CT109" s="18"/>
+      <c r="CU109" s="21"/>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
@@ -26611,14 +26734,16 @@
       <c r="CO110" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="CP110" s="40" t="s">
+      <c r="CP110" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="CQ110" s="39"/>
-      <c r="CR110" s="39"/>
-      <c r="CS110" s="39"/>
-      <c r="CT110" s="39"/>
-      <c r="CU110" s="9"/>
+      <c r="CQ110" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR110" s="21"/>
+      <c r="CS110" s="21"/>
+      <c r="CT110" s="18"/>
+      <c r="CU110" s="21"/>
       <c r="CV110" s="9"/>
       <c r="CW110" s="9"/>
       <c r="CX110" s="9"/>
@@ -26948,14 +27073,16 @@
       <c r="CO111" s="18">
         <v>366.46746446798613</v>
       </c>
-      <c r="CP111" s="37">
-        <v>63.977771410239313</v>
-      </c>
-      <c r="CQ111" s="39"/>
-      <c r="CR111" s="39"/>
-      <c r="CS111" s="39"/>
-      <c r="CT111" s="39"/>
-      <c r="CU111" s="9"/>
+      <c r="CP111" s="18">
+        <v>64.00452537563487</v>
+      </c>
+      <c r="CQ111" s="18">
+        <v>-46.048571374667347</v>
+      </c>
+      <c r="CR111" s="21"/>
+      <c r="CS111" s="21"/>
+      <c r="CT111" s="18"/>
+      <c r="CU111" s="21"/>
       <c r="CV111" s="9"/>
       <c r="CW111" s="9"/>
       <c r="CX111" s="9"/>
@@ -27285,14 +27412,16 @@
       <c r="CO112" s="18">
         <v>84.257457294667972</v>
       </c>
-      <c r="CP112" s="37">
-        <v>-32.253257666362643</v>
-      </c>
-      <c r="CQ112" s="39"/>
-      <c r="CR112" s="39"/>
-      <c r="CS112" s="39"/>
-      <c r="CT112" s="39"/>
-      <c r="CU112" s="9"/>
+      <c r="CP112" s="18">
+        <v>-31.651560131697792</v>
+      </c>
+      <c r="CQ112" s="18">
+        <v>-88.022616214595999</v>
+      </c>
+      <c r="CR112" s="21"/>
+      <c r="CS112" s="21"/>
+      <c r="CT112" s="18"/>
+      <c r="CU112" s="21"/>
       <c r="CV112" s="9"/>
       <c r="CW112" s="9"/>
       <c r="CX112" s="9"/>
@@ -27622,14 +27751,16 @@
       <c r="CO113" s="18">
         <v>3.294721926512139</v>
       </c>
-      <c r="CP113" s="37">
-        <v>1.4151743788108035</v>
-      </c>
-      <c r="CQ113" s="39"/>
-      <c r="CR113" s="39"/>
-      <c r="CS113" s="39"/>
-      <c r="CT113" s="39"/>
-      <c r="CU113" s="9"/>
+      <c r="CP113" s="18">
+        <v>-2.2669592853375775E-2</v>
+      </c>
+      <c r="CQ113" s="18">
+        <v>7.7520143060334874</v>
+      </c>
+      <c r="CR113" s="21"/>
+      <c r="CS113" s="21"/>
+      <c r="CT113" s="18"/>
+      <c r="CU113" s="21"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
@@ -27959,14 +28090,16 @@
       <c r="CO114" s="18">
         <v>-4.825796046457242</v>
       </c>
-      <c r="CP114" s="37">
-        <v>-21.746393806390813</v>
-      </c>
-      <c r="CQ114" s="39"/>
-      <c r="CR114" s="39"/>
-      <c r="CS114" s="39"/>
-      <c r="CT114" s="39"/>
-      <c r="CU114" s="9"/>
+      <c r="CP114" s="18">
+        <v>-22.143812041691461</v>
+      </c>
+      <c r="CQ114" s="18">
+        <v>26.840365319407894</v>
+      </c>
+      <c r="CR114" s="21"/>
+      <c r="CS114" s="21"/>
+      <c r="CT114" s="18"/>
+      <c r="CU114" s="21"/>
       <c r="CV114" s="9"/>
       <c r="CW114" s="9"/>
       <c r="CX114" s="9"/>
@@ -28296,14 +28429,16 @@
       <c r="CO115" s="18">
         <v>25.189457666218431</v>
       </c>
-      <c r="CP115" s="37">
-        <v>28.450299753859412</v>
-      </c>
-      <c r="CQ115" s="39"/>
-      <c r="CR115" s="39"/>
-      <c r="CS115" s="39"/>
-      <c r="CT115" s="39"/>
-      <c r="CU115" s="9"/>
+      <c r="CP115" s="18">
+        <v>26.460973337743894</v>
+      </c>
+      <c r="CQ115" s="18">
+        <v>21.980917719937395</v>
+      </c>
+      <c r="CR115" s="21"/>
+      <c r="CS115" s="21"/>
+      <c r="CT115" s="18"/>
+      <c r="CU115" s="21"/>
       <c r="CV115" s="9"/>
       <c r="CW115" s="9"/>
       <c r="CX115" s="9"/>
@@ -28633,14 +28768,16 @@
       <c r="CO116" s="18">
         <v>1.0156726577894091</v>
       </c>
-      <c r="CP116" s="37">
-        <v>-4.7165732153205226</v>
-      </c>
-      <c r="CQ116" s="39"/>
-      <c r="CR116" s="39"/>
-      <c r="CS116" s="39"/>
-      <c r="CT116" s="39"/>
-      <c r="CU116" s="9"/>
+      <c r="CP116" s="18">
+        <v>-5.5634155422619642</v>
+      </c>
+      <c r="CQ116" s="18">
+        <v>1.117567997282265</v>
+      </c>
+      <c r="CR116" s="21"/>
+      <c r="CS116" s="21"/>
+      <c r="CT116" s="18"/>
+      <c r="CU116" s="21"/>
       <c r="CV116" s="9"/>
       <c r="CW116" s="9"/>
       <c r="CX116" s="9"/>
@@ -28970,14 +29107,16 @@
       <c r="CO117" s="18">
         <v>-2.7696560032073023</v>
       </c>
-      <c r="CP117" s="37">
-        <v>3.9001436663105551</v>
-      </c>
-      <c r="CQ117" s="39"/>
-      <c r="CR117" s="39"/>
-      <c r="CS117" s="39"/>
-      <c r="CT117" s="39"/>
-      <c r="CU117" s="9"/>
+      <c r="CP117" s="18">
+        <v>1.2428617077856643</v>
+      </c>
+      <c r="CQ117" s="18">
+        <v>4.6713132504015391</v>
+      </c>
+      <c r="CR117" s="21"/>
+      <c r="CS117" s="21"/>
+      <c r="CT117" s="18"/>
+      <c r="CU117" s="21"/>
       <c r="CV117" s="9"/>
       <c r="CW117" s="9"/>
       <c r="CX117" s="9"/>
@@ -29120,12 +29259,12 @@
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
-      <c r="CP118" s="33"/>
-      <c r="CQ118" s="41"/>
-      <c r="CR118" s="41"/>
-      <c r="CS118" s="41"/>
-      <c r="CT118" s="41"/>
-      <c r="CU118" s="9"/>
+      <c r="CP118" s="9"/>
+      <c r="CQ118" s="9"/>
+      <c r="CR118" s="29"/>
+      <c r="CS118" s="29"/>
+      <c r="CT118" s="9"/>
+      <c r="CU118" s="29"/>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
@@ -29455,14 +29594,16 @@
       <c r="CO119" s="23">
         <v>14.560283106978346</v>
       </c>
-      <c r="CP119" s="42">
-        <v>-2.9302658797694789</v>
-      </c>
-      <c r="CQ119" s="43"/>
-      <c r="CR119" s="43"/>
-      <c r="CS119" s="43"/>
-      <c r="CT119" s="43"/>
-      <c r="CU119" s="9"/>
+      <c r="CP119" s="23">
+        <v>-3.5531263636000716</v>
+      </c>
+      <c r="CQ119" s="23">
+        <v>0.73027140436201421</v>
+      </c>
+      <c r="CR119" s="30"/>
+      <c r="CS119" s="30"/>
+      <c r="CT119" s="23"/>
+      <c r="CU119" s="30"/>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
@@ -29606,20 +29747,20 @@
       <c r="CM120" s="14"/>
       <c r="CN120" s="14"/>
       <c r="CO120" s="14"/>
-      <c r="CP120" s="35"/>
-      <c r="CQ120" s="36"/>
-      <c r="CR120" s="36"/>
-      <c r="CS120" s="36"/>
-      <c r="CT120" s="36"/>
+      <c r="CP120" s="14"/>
+      <c r="CQ120" s="14"/>
+      <c r="CR120" s="17"/>
+      <c r="CS120" s="17"/>
+      <c r="CT120" s="14"/>
+      <c r="CU120" s="17"/>
     </row>
     <row r="121" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CQ121" s="38"/>
-      <c r="CR121" s="38"/>
-      <c r="CS121" s="38"/>
-      <c r="CT121" s="38"/>
+      <c r="CR121" s="7"/>
+      <c r="CS121" s="7"/>
+      <c r="CU121" s="7"/>
     </row>
     <row r="122" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
@@ -29717,12 +29858,12 @@
       <c r="CM122" s="9"/>
       <c r="CN122" s="9"/>
       <c r="CO122" s="9"/>
-      <c r="CP122" s="33"/>
-      <c r="CQ122" s="41"/>
-      <c r="CR122" s="41"/>
-      <c r="CS122" s="41"/>
-      <c r="CT122" s="41"/>
-      <c r="CU122" s="9"/>
+      <c r="CP122" s="9"/>
+      <c r="CQ122" s="9"/>
+      <c r="CR122" s="29"/>
+      <c r="CS122" s="29"/>
+      <c r="CT122" s="9"/>
+      <c r="CU122" s="29"/>
       <c r="CV122" s="9"/>
       <c r="CW122" s="9"/>
       <c r="CX122" s="9"/>
@@ -29865,12 +30006,12 @@
       <c r="CM123" s="9"/>
       <c r="CN123" s="9"/>
       <c r="CO123" s="9"/>
-      <c r="CP123" s="33"/>
-      <c r="CQ123" s="41"/>
-      <c r="CR123" s="41"/>
-      <c r="CS123" s="41"/>
-      <c r="CT123" s="41"/>
-      <c r="CU123" s="9"/>
+      <c r="CP123" s="9"/>
+      <c r="CQ123" s="9"/>
+      <c r="CR123" s="29"/>
+      <c r="CS123" s="29"/>
+      <c r="CT123" s="9"/>
+      <c r="CU123" s="29"/>
       <c r="CV123" s="9"/>
       <c r="CW123" s="9"/>
       <c r="CX123" s="9"/>
@@ -29924,196 +30065,188 @@
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CQ124" s="38"/>
-      <c r="CR124" s="38"/>
-      <c r="CS124" s="38"/>
-      <c r="CT124" s="38"/>
+      <c r="CR124" s="7"/>
+      <c r="CS124" s="7"/>
+      <c r="CU124" s="7"/>
     </row>
     <row r="125" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CQ125" s="38"/>
-      <c r="CR125" s="38"/>
-      <c r="CS125" s="38"/>
-      <c r="CT125" s="38"/>
+      <c r="CR125" s="7"/>
+      <c r="CS125" s="7"/>
+      <c r="CU125" s="7"/>
     </row>
     <row r="126" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CQ126" s="38"/>
-      <c r="CR126" s="38"/>
-      <c r="CS126" s="38"/>
-      <c r="CT126" s="38"/>
+        <v>74</v>
+      </c>
+      <c r="CR126" s="7"/>
+      <c r="CS126" s="7"/>
+      <c r="CU126" s="7"/>
     </row>
     <row r="127" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CQ127" s="38"/>
-      <c r="CR127" s="38"/>
-      <c r="CS127" s="38"/>
-      <c r="CT127" s="38"/>
+      <c r="CR127" s="7"/>
+      <c r="CS127" s="7"/>
+      <c r="CU127" s="7"/>
     </row>
     <row r="128" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CQ128" s="38"/>
-      <c r="CR128" s="38"/>
-      <c r="CS128" s="38"/>
-      <c r="CT128" s="38"/>
+      <c r="CR128" s="7"/>
+      <c r="CS128" s="7"/>
+      <c r="CU128" s="7"/>
     </row>
     <row r="129" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="CQ129" s="38"/>
-      <c r="CR129" s="38"/>
-      <c r="CS129" s="38"/>
-      <c r="CT129" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="CR129" s="7"/>
+      <c r="CS129" s="7"/>
+      <c r="CU129" s="7"/>
     </row>
     <row r="130" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="CQ130" s="38"/>
-      <c r="CR130" s="38"/>
-      <c r="CS130" s="38"/>
-      <c r="CT130" s="38"/>
+      <c r="CR130" s="7"/>
+      <c r="CS130" s="7"/>
+      <c r="CU130" s="7"/>
     </row>
     <row r="131" spans="1:147" x14ac:dyDescent="0.2">
-      <c r="CQ131" s="38"/>
-      <c r="CR131" s="38"/>
-      <c r="CS131" s="38"/>
-      <c r="CT131" s="38"/>
+      <c r="CR131" s="7"/>
+      <c r="CS131" s="7"/>
+      <c r="CU131" s="7"/>
     </row>
     <row r="132" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
-      <c r="B132" s="45" t="s">
+      <c r="B132" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="45" t="s">
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="45" t="s">
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="K132" s="44"/>
-      <c r="L132" s="44"/>
-      <c r="M132" s="44"/>
-      <c r="N132" s="45" t="s">
+      <c r="K132" s="32"/>
+      <c r="L132" s="32"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="O132" s="44"/>
-      <c r="P132" s="44"/>
-      <c r="Q132" s="44"/>
-      <c r="R132" s="45" t="s">
+      <c r="O132" s="32"/>
+      <c r="P132" s="32"/>
+      <c r="Q132" s="32"/>
+      <c r="R132" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="S132" s="44"/>
-      <c r="T132" s="44"/>
-      <c r="U132" s="44"/>
-      <c r="V132" s="45" t="s">
+      <c r="S132" s="32"/>
+      <c r="T132" s="32"/>
+      <c r="U132" s="32"/>
+      <c r="V132" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="W132" s="44"/>
-      <c r="X132" s="44"/>
-      <c r="Y132" s="44"/>
-      <c r="Z132" s="45" t="s">
+      <c r="W132" s="32"/>
+      <c r="X132" s="32"/>
+      <c r="Y132" s="32"/>
+      <c r="Z132" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AA132" s="44"/>
-      <c r="AB132" s="44"/>
-      <c r="AC132" s="44"/>
-      <c r="AD132" s="45" t="s">
+      <c r="AA132" s="32"/>
+      <c r="AB132" s="32"/>
+      <c r="AC132" s="32"/>
+      <c r="AD132" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AE132" s="44"/>
-      <c r="AF132" s="44"/>
-      <c r="AG132" s="44"/>
-      <c r="AH132" s="45" t="s">
+      <c r="AE132" s="32"/>
+      <c r="AF132" s="32"/>
+      <c r="AG132" s="32"/>
+      <c r="AH132" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AI132" s="44"/>
-      <c r="AJ132" s="44"/>
-      <c r="AK132" s="44"/>
-      <c r="AL132" s="45" t="s">
+      <c r="AI132" s="32"/>
+      <c r="AJ132" s="32"/>
+      <c r="AK132" s="32"/>
+      <c r="AL132" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AM132" s="44"/>
-      <c r="AN132" s="44"/>
-      <c r="AO132" s="44"/>
-      <c r="AP132" s="45" t="s">
+      <c r="AM132" s="32"/>
+      <c r="AN132" s="32"/>
+      <c r="AO132" s="32"/>
+      <c r="AP132" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AQ132" s="44"/>
-      <c r="AR132" s="44"/>
-      <c r="AS132" s="44"/>
-      <c r="AT132" s="45" t="s">
+      <c r="AQ132" s="32"/>
+      <c r="AR132" s="32"/>
+      <c r="AS132" s="32"/>
+      <c r="AT132" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AU132" s="44"/>
-      <c r="AV132" s="44"/>
-      <c r="AW132" s="44"/>
-      <c r="AX132" s="45" t="s">
+      <c r="AU132" s="32"/>
+      <c r="AV132" s="32"/>
+      <c r="AW132" s="32"/>
+      <c r="AX132" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AY132" s="44"/>
-      <c r="AZ132" s="44"/>
-      <c r="BA132" s="44"/>
-      <c r="BB132" s="45" t="s">
+      <c r="AY132" s="32"/>
+      <c r="AZ132" s="32"/>
+      <c r="BA132" s="32"/>
+      <c r="BB132" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="BC132" s="44"/>
-      <c r="BD132" s="44"/>
-      <c r="BE132" s="44"/>
-      <c r="BF132" s="45" t="s">
+      <c r="BC132" s="32"/>
+      <c r="BD132" s="32"/>
+      <c r="BE132" s="32"/>
+      <c r="BF132" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="BG132" s="44"/>
-      <c r="BH132" s="44"/>
-      <c r="BI132" s="44"/>
-      <c r="BJ132" s="45" t="s">
+      <c r="BG132" s="32"/>
+      <c r="BH132" s="32"/>
+      <c r="BI132" s="32"/>
+      <c r="BJ132" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="BK132" s="44"/>
-      <c r="BL132" s="44"/>
-      <c r="BM132" s="44"/>
-      <c r="BN132" s="45" t="s">
+      <c r="BK132" s="32"/>
+      <c r="BL132" s="32"/>
+      <c r="BM132" s="32"/>
+      <c r="BN132" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="BO132" s="44"/>
-      <c r="BP132" s="44"/>
-      <c r="BQ132" s="44"/>
-      <c r="BR132" s="45" t="s">
+      <c r="BO132" s="32"/>
+      <c r="BP132" s="32"/>
+      <c r="BQ132" s="32"/>
+      <c r="BR132" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="BS132" s="44"/>
-      <c r="BT132" s="44"/>
-      <c r="BU132" s="44"/>
-      <c r="BV132" s="45" t="s">
+      <c r="BS132" s="32"/>
+      <c r="BT132" s="32"/>
+      <c r="BU132" s="32"/>
+      <c r="BV132" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BW132" s="44"/>
-      <c r="BX132" s="44"/>
-      <c r="BY132" s="44"/>
-      <c r="BZ132" s="45" t="s">
+      <c r="BW132" s="32"/>
+      <c r="BX132" s="32"/>
+      <c r="BY132" s="32"/>
+      <c r="BZ132" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="CA132" s="44"/>
-      <c r="CB132" s="44"/>
-      <c r="CC132" s="44"/>
-      <c r="CD132" s="45" t="s">
+      <c r="CA132" s="32"/>
+      <c r="CB132" s="32"/>
+      <c r="CC132" s="32"/>
+      <c r="CD132" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="CE132" s="45"/>
-      <c r="CF132" s="45"/>
-      <c r="CG132" s="45"/>
+      <c r="CE132" s="31"/>
+      <c r="CF132" s="31"/>
+      <c r="CG132" s="31"/>
       <c r="CH132" s="27" t="s">
         <v>71</v>
       </c>
@@ -30126,13 +30259,14 @@
       <c r="CM132" s="27"/>
       <c r="CN132" s="27"/>
       <c r="CO132" s="27"/>
-      <c r="CP132" s="30" t="s">
+      <c r="CP132" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="CQ132" s="28"/>
+      <c r="CQ132" s="27"/>
       <c r="CR132" s="28"/>
       <c r="CS132" s="28"/>
-      <c r="CT132" s="28"/>
+      <c r="CT132" s="27"/>
+      <c r="CU132" s="28"/>
     </row>
     <row r="133" spans="1:147" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -30414,20 +30548,22 @@
       <c r="CO133" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP133" s="36" t="s">
+      <c r="CP133" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ133" s="36"/>
-      <c r="CR133" s="36"/>
-      <c r="CS133" s="36"/>
-      <c r="CT133" s="36"/>
+      <c r="CQ133" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="CR133" s="17"/>
+      <c r="CS133" s="17"/>
+      <c r="CT133" s="17"/>
+      <c r="CU133" s="17"/>
     </row>
     <row r="134" spans="1:147" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
-      <c r="CQ134" s="38"/>
-      <c r="CR134" s="38"/>
-      <c r="CS134" s="38"/>
-      <c r="CT134" s="38"/>
+      <c r="CR134" s="7"/>
+      <c r="CS134" s="7"/>
+      <c r="CU134" s="7"/>
     </row>
     <row r="135" spans="1:147" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -30709,14 +30845,16 @@
       <c r="CO135" s="18">
         <v>3.1861836090932201</v>
       </c>
-      <c r="CP135" s="37">
-        <v>-9.4075471942195463</v>
-      </c>
-      <c r="CQ135" s="39"/>
-      <c r="CR135" s="39"/>
-      <c r="CS135" s="39"/>
-      <c r="CT135" s="39"/>
-      <c r="CU135" s="9"/>
+      <c r="CP135" s="18">
+        <v>-9.3696404141706893</v>
+      </c>
+      <c r="CQ135" s="18">
+        <v>3.2436302203000764</v>
+      </c>
+      <c r="CR135" s="21"/>
+      <c r="CS135" s="21"/>
+      <c r="CT135" s="18"/>
+      <c r="CU135" s="21"/>
       <c r="CV135" s="9"/>
       <c r="CW135" s="9"/>
       <c r="CX135" s="9"/>
@@ -31046,14 +31184,16 @@
       <c r="CO136" s="18">
         <v>72.495969074112253</v>
       </c>
-      <c r="CP136" s="37">
-        <v>25.435374216595946</v>
-      </c>
-      <c r="CQ136" s="39"/>
-      <c r="CR136" s="39"/>
-      <c r="CS136" s="39"/>
-      <c r="CT136" s="39"/>
-      <c r="CU136" s="9"/>
+      <c r="CP136" s="18">
+        <v>25.253185102073957</v>
+      </c>
+      <c r="CQ136" s="18">
+        <v>-0.90876425522947102</v>
+      </c>
+      <c r="CR136" s="21"/>
+      <c r="CS136" s="21"/>
+      <c r="CT136" s="18"/>
+      <c r="CU136" s="21"/>
       <c r="CV136" s="9"/>
       <c r="CW136" s="9"/>
       <c r="CX136" s="9"/>
@@ -31383,14 +31523,16 @@
       <c r="CO137" s="18">
         <v>-28.589926850628771</v>
       </c>
-      <c r="CP137" s="37">
-        <v>-30.555766773977737</v>
-      </c>
-      <c r="CQ137" s="39"/>
-      <c r="CR137" s="39"/>
-      <c r="CS137" s="39"/>
-      <c r="CT137" s="39"/>
-      <c r="CU137" s="9"/>
+      <c r="CP137" s="18">
+        <v>-30.834270183454322</v>
+      </c>
+      <c r="CQ137" s="18">
+        <v>-10.461880829497233</v>
+      </c>
+      <c r="CR137" s="21"/>
+      <c r="CS137" s="21"/>
+      <c r="CT137" s="18"/>
+      <c r="CU137" s="21"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
@@ -31720,14 +31862,16 @@
       <c r="CO138" s="18">
         <v>17.929601928057878</v>
       </c>
-      <c r="CP138" s="37">
-        <v>-18.491874524135213</v>
-      </c>
-      <c r="CQ138" s="39"/>
-      <c r="CR138" s="39"/>
-      <c r="CS138" s="39"/>
-      <c r="CT138" s="39"/>
-      <c r="CU138" s="9"/>
+      <c r="CP138" s="18">
+        <v>-22.433051538754512</v>
+      </c>
+      <c r="CQ138" s="18">
+        <v>-4.1692981513120202</v>
+      </c>
+      <c r="CR138" s="21"/>
+      <c r="CS138" s="21"/>
+      <c r="CT138" s="18"/>
+      <c r="CU138" s="21"/>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
@@ -32057,14 +32201,16 @@
       <c r="CO139" s="18">
         <v>-8.9525558279657531</v>
       </c>
-      <c r="CP139" s="37">
-        <v>77.081357611025425</v>
-      </c>
-      <c r="CQ139" s="39"/>
-      <c r="CR139" s="39"/>
-      <c r="CS139" s="39"/>
-      <c r="CT139" s="39"/>
-      <c r="CU139" s="9"/>
+      <c r="CP139" s="18">
+        <v>75.788512018843278</v>
+      </c>
+      <c r="CQ139" s="18">
+        <v>46.661172058037579</v>
+      </c>
+      <c r="CR139" s="21"/>
+      <c r="CS139" s="21"/>
+      <c r="CT139" s="18"/>
+      <c r="CU139" s="21"/>
       <c r="CV139" s="9"/>
       <c r="CW139" s="9"/>
       <c r="CX139" s="9"/>
@@ -32394,14 +32540,16 @@
       <c r="CO140" s="18">
         <v>-11.538611901484259</v>
       </c>
-      <c r="CP140" s="37">
-        <v>-38.480755572568128</v>
-      </c>
-      <c r="CQ140" s="39"/>
-      <c r="CR140" s="39"/>
-      <c r="CS140" s="39"/>
-      <c r="CT140" s="39"/>
-      <c r="CU140" s="9"/>
+      <c r="CP140" s="18">
+        <v>-39.303169849209894</v>
+      </c>
+      <c r="CQ140" s="18">
+        <v>-12.55699678832714</v>
+      </c>
+      <c r="CR140" s="21"/>
+      <c r="CS140" s="21"/>
+      <c r="CT140" s="18"/>
+      <c r="CU140" s="21"/>
       <c r="CV140" s="9"/>
       <c r="CW140" s="9"/>
       <c r="CX140" s="9"/>
@@ -32731,14 +32879,16 @@
       <c r="CO141" s="18">
         <v>20.294919302068863</v>
       </c>
-      <c r="CP141" s="37">
-        <v>-3.6215741511812212</v>
-      </c>
-      <c r="CQ141" s="39"/>
-      <c r="CR141" s="39"/>
-      <c r="CS141" s="39"/>
-      <c r="CT141" s="39"/>
-      <c r="CU141" s="9"/>
+      <c r="CP141" s="18">
+        <v>-2.2868239024010535</v>
+      </c>
+      <c r="CQ141" s="18">
+        <v>5.2902265861572744</v>
+      </c>
+      <c r="CR141" s="21"/>
+      <c r="CS141" s="21"/>
+      <c r="CT141" s="18"/>
+      <c r="CU141" s="21"/>
       <c r="CV141" s="9"/>
       <c r="CW141" s="9"/>
       <c r="CX141" s="9"/>
@@ -33068,14 +33218,16 @@
       <c r="CO142" s="18">
         <v>-14.517002147981088</v>
       </c>
-      <c r="CP142" s="37">
-        <v>-20.311710977486214</v>
-      </c>
-      <c r="CQ142" s="39"/>
-      <c r="CR142" s="39"/>
-      <c r="CS142" s="39"/>
-      <c r="CT142" s="39"/>
-      <c r="CU142" s="9"/>
+      <c r="CP142" s="18">
+        <v>-22.027328676818797</v>
+      </c>
+      <c r="CQ142" s="18">
+        <v>23.143776406898837</v>
+      </c>
+      <c r="CR142" s="21"/>
+      <c r="CS142" s="21"/>
+      <c r="CT142" s="18"/>
+      <c r="CU142" s="21"/>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
@@ -33405,14 +33557,16 @@
       <c r="CO143" s="18">
         <v>-4.8009272051999119E-2</v>
       </c>
-      <c r="CP143" s="37">
-        <v>-2.3410931767901673</v>
-      </c>
-      <c r="CQ143" s="39"/>
-      <c r="CR143" s="39"/>
-      <c r="CS143" s="39"/>
-      <c r="CT143" s="39"/>
-      <c r="CU143" s="9"/>
+      <c r="CP143" s="18">
+        <v>-5.8266389044946294</v>
+      </c>
+      <c r="CQ143" s="18">
+        <v>7.8729994750896424</v>
+      </c>
+      <c r="CR143" s="21"/>
+      <c r="CS143" s="21"/>
+      <c r="CT143" s="18"/>
+      <c r="CU143" s="21"/>
       <c r="CV143" s="9"/>
       <c r="CW143" s="9"/>
       <c r="CX143" s="9"/>
@@ -33742,14 +33896,16 @@
       <c r="CO144" s="18">
         <v>2.747657632506133</v>
       </c>
-      <c r="CP144" s="37">
-        <v>6.4312557079595081</v>
-      </c>
-      <c r="CQ144" s="39"/>
-      <c r="CR144" s="39"/>
-      <c r="CS144" s="39"/>
-      <c r="CT144" s="39"/>
-      <c r="CU144" s="9"/>
+      <c r="CP144" s="18">
+        <v>4.3985386993344378</v>
+      </c>
+      <c r="CQ144" s="18">
+        <v>10.238754584521644</v>
+      </c>
+      <c r="CR144" s="21"/>
+      <c r="CS144" s="21"/>
+      <c r="CT144" s="18"/>
+      <c r="CU144" s="21"/>
       <c r="CV144" s="9"/>
       <c r="CW144" s="9"/>
       <c r="CX144" s="9"/>
@@ -34079,14 +34235,16 @@
       <c r="CO145" s="18">
         <v>7.7641647045643083</v>
       </c>
-      <c r="CP145" s="37">
-        <v>12.785335155782292</v>
-      </c>
-      <c r="CQ145" s="39"/>
-      <c r="CR145" s="39"/>
-      <c r="CS145" s="39"/>
-      <c r="CT145" s="39"/>
-      <c r="CU145" s="9"/>
+      <c r="CP145" s="18">
+        <v>11.64063007369171</v>
+      </c>
+      <c r="CQ145" s="18">
+        <v>19.721255190090119</v>
+      </c>
+      <c r="CR145" s="21"/>
+      <c r="CS145" s="21"/>
+      <c r="CT145" s="18"/>
+      <c r="CU145" s="21"/>
       <c r="CV145" s="9"/>
       <c r="CW145" s="9"/>
       <c r="CX145" s="9"/>
@@ -34416,14 +34574,16 @@
       <c r="CO146" s="18">
         <v>-5.3529006854745091</v>
       </c>
-      <c r="CP146" s="37">
-        <v>-7.8082629656504139</v>
-      </c>
-      <c r="CQ146" s="39"/>
-      <c r="CR146" s="39"/>
-      <c r="CS146" s="39"/>
-      <c r="CT146" s="39"/>
-      <c r="CU146" s="9"/>
+      <c r="CP146" s="18">
+        <v>-8.3673890249754379</v>
+      </c>
+      <c r="CQ146" s="18">
+        <v>-0.8065806330398857</v>
+      </c>
+      <c r="CR146" s="21"/>
+      <c r="CS146" s="21"/>
+      <c r="CT146" s="18"/>
+      <c r="CU146" s="21"/>
       <c r="CV146" s="9"/>
       <c r="CW146" s="9"/>
       <c r="CX146" s="9"/>
@@ -34753,14 +34913,16 @@
       <c r="CO147" s="18">
         <v>6.2336247758979511</v>
       </c>
-      <c r="CP147" s="37">
-        <v>5.6153121241665502</v>
-      </c>
-      <c r="CQ147" s="39"/>
-      <c r="CR147" s="39"/>
-      <c r="CS147" s="39"/>
-      <c r="CT147" s="39"/>
-      <c r="CU147" s="9"/>
+      <c r="CP147" s="18">
+        <v>5.240092259304177</v>
+      </c>
+      <c r="CQ147" s="18">
+        <v>11.180584461902882</v>
+      </c>
+      <c r="CR147" s="21"/>
+      <c r="CS147" s="21"/>
+      <c r="CT147" s="18"/>
+      <c r="CU147" s="21"/>
       <c r="CV147" s="9"/>
       <c r="CW147" s="9"/>
       <c r="CX147" s="9"/>
@@ -35090,14 +35252,16 @@
       <c r="CO148" s="18">
         <v>-7.3117469832055804E-2</v>
       </c>
-      <c r="CP148" s="37">
-        <v>8.4222722293155243</v>
-      </c>
-      <c r="CQ148" s="39"/>
-      <c r="CR148" s="39"/>
-      <c r="CS148" s="39"/>
-      <c r="CT148" s="39"/>
-      <c r="CU148" s="9"/>
+      <c r="CP148" s="18">
+        <v>4.1216031540712237</v>
+      </c>
+      <c r="CQ148" s="18">
+        <v>8.0794808611256599</v>
+      </c>
+      <c r="CR148" s="21"/>
+      <c r="CS148" s="21"/>
+      <c r="CT148" s="18"/>
+      <c r="CU148" s="21"/>
       <c r="CV148" s="9"/>
       <c r="CW148" s="9"/>
       <c r="CX148" s="9"/>
@@ -35427,14 +35591,16 @@
       <c r="CO149" s="18">
         <v>27.272541422865885</v>
       </c>
-      <c r="CP149" s="37">
-        <v>-8.2995216302037278</v>
-      </c>
-      <c r="CQ149" s="39"/>
-      <c r="CR149" s="39"/>
-      <c r="CS149" s="39"/>
-      <c r="CT149" s="39"/>
-      <c r="CU149" s="9"/>
+      <c r="CP149" s="18">
+        <v>-8.5292626727047889</v>
+      </c>
+      <c r="CQ149" s="18">
+        <v>-12.900520161275708</v>
+      </c>
+      <c r="CR149" s="21"/>
+      <c r="CS149" s="21"/>
+      <c r="CT149" s="18"/>
+      <c r="CU149" s="21"/>
       <c r="CV149" s="9"/>
       <c r="CW149" s="9"/>
       <c r="CX149" s="9"/>
@@ -35764,14 +35930,16 @@
       <c r="CO150" s="18">
         <v>14.443711627001292</v>
       </c>
-      <c r="CP150" s="37">
-        <v>-11.395729294982957</v>
-      </c>
-      <c r="CQ150" s="39"/>
-      <c r="CR150" s="39"/>
-      <c r="CS150" s="39"/>
-      <c r="CT150" s="39"/>
-      <c r="CU150" s="9"/>
+      <c r="CP150" s="18">
+        <v>-11.659311581369124</v>
+      </c>
+      <c r="CQ150" s="18">
+        <v>-5.1967193306753927</v>
+      </c>
+      <c r="CR150" s="21"/>
+      <c r="CS150" s="21"/>
+      <c r="CT150" s="18"/>
+      <c r="CU150" s="21"/>
       <c r="CV150" s="9"/>
       <c r="CW150" s="9"/>
       <c r="CX150" s="9"/>
@@ -36101,14 +36269,16 @@
       <c r="CO151" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="CP151" s="40" t="s">
+      <c r="CP151" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="CQ151" s="39"/>
-      <c r="CR151" s="39"/>
-      <c r="CS151" s="39"/>
-      <c r="CT151" s="39"/>
-      <c r="CU151" s="9"/>
+      <c r="CQ151" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="CR151" s="21"/>
+      <c r="CS151" s="21"/>
+      <c r="CT151" s="18"/>
+      <c r="CU151" s="21"/>
       <c r="CV151" s="9"/>
       <c r="CW151" s="9"/>
       <c r="CX151" s="9"/>
@@ -36438,14 +36608,16 @@
       <c r="CO152" s="18">
         <v>345.73805304785105</v>
       </c>
-      <c r="CP152" s="37">
-        <v>56.210161714621591</v>
-      </c>
-      <c r="CQ152" s="39"/>
-      <c r="CR152" s="39"/>
-      <c r="CS152" s="39"/>
-      <c r="CT152" s="39"/>
-      <c r="CU152" s="9"/>
+      <c r="CP152" s="18">
+        <v>56.251305069086555</v>
+      </c>
+      <c r="CQ152" s="18">
+        <v>-50.593366050358775</v>
+      </c>
+      <c r="CR152" s="21"/>
+      <c r="CS152" s="21"/>
+      <c r="CT152" s="18"/>
+      <c r="CU152" s="21"/>
       <c r="CV152" s="9"/>
       <c r="CW152" s="9"/>
       <c r="CX152" s="9"/>
@@ -36775,14 +36947,16 @@
       <c r="CO153" s="18">
         <v>75.486371307697624</v>
       </c>
-      <c r="CP153" s="37">
-        <v>-32.217869119928636</v>
-      </c>
-      <c r="CQ153" s="39"/>
-      <c r="CR153" s="39"/>
-      <c r="CS153" s="39"/>
-      <c r="CT153" s="39"/>
-      <c r="CU153" s="9"/>
+      <c r="CP153" s="18">
+        <v>-31.670405819432375</v>
+      </c>
+      <c r="CQ153" s="18">
+        <v>-89.023354222711802</v>
+      </c>
+      <c r="CR153" s="21"/>
+      <c r="CS153" s="21"/>
+      <c r="CT153" s="18"/>
+      <c r="CU153" s="21"/>
       <c r="CV153" s="9"/>
       <c r="CW153" s="9"/>
       <c r="CX153" s="9"/>
@@ -37112,14 +37286,16 @@
       <c r="CO154" s="18">
         <v>2.1380430993655324</v>
       </c>
-      <c r="CP154" s="37">
-        <v>2.9651237811847864E-2</v>
-      </c>
-      <c r="CQ154" s="39"/>
-      <c r="CR154" s="39"/>
-      <c r="CS154" s="39"/>
-      <c r="CT154" s="39"/>
-      <c r="CU154" s="9"/>
+      <c r="CP154" s="18">
+        <v>-1.5166316254708931</v>
+      </c>
+      <c r="CQ154" s="18">
+        <v>2.2477862936039088</v>
+      </c>
+      <c r="CR154" s="21"/>
+      <c r="CS154" s="21"/>
+      <c r="CT154" s="18"/>
+      <c r="CU154" s="21"/>
       <c r="CV154" s="9"/>
       <c r="CW154" s="9"/>
       <c r="CX154" s="9"/>
@@ -37449,14 +37625,16 @@
       <c r="CO155" s="18">
         <v>0.32605165641288636</v>
       </c>
-      <c r="CP155" s="37">
-        <v>-26.985557907939565</v>
-      </c>
-      <c r="CQ155" s="39"/>
-      <c r="CR155" s="39"/>
-      <c r="CS155" s="39"/>
-      <c r="CT155" s="39"/>
-      <c r="CU155" s="9"/>
+      <c r="CP155" s="18">
+        <v>-27.289276249086342</v>
+      </c>
+      <c r="CQ155" s="18">
+        <v>24.349400055332055</v>
+      </c>
+      <c r="CR155" s="21"/>
+      <c r="CS155" s="21"/>
+      <c r="CT155" s="18"/>
+      <c r="CU155" s="21"/>
       <c r="CV155" s="9"/>
       <c r="CW155" s="9"/>
       <c r="CX155" s="9"/>
@@ -37786,14 +37964,16 @@
       <c r="CO156" s="18">
         <v>22.679340103181971</v>
       </c>
-      <c r="CP156" s="37">
-        <v>24.279618734612768</v>
-      </c>
-      <c r="CQ156" s="39"/>
-      <c r="CR156" s="39"/>
-      <c r="CS156" s="39"/>
-      <c r="CT156" s="39"/>
-      <c r="CU156" s="9"/>
+      <c r="CP156" s="18">
+        <v>21.594392003077445</v>
+      </c>
+      <c r="CQ156" s="18">
+        <v>18.639163773862705</v>
+      </c>
+      <c r="CR156" s="21"/>
+      <c r="CS156" s="21"/>
+      <c r="CT156" s="18"/>
+      <c r="CU156" s="21"/>
       <c r="CV156" s="9"/>
       <c r="CW156" s="9"/>
       <c r="CX156" s="9"/>
@@ -38123,14 +38303,16 @@
       <c r="CO157" s="18">
         <v>-1.7284166370881451</v>
       </c>
-      <c r="CP157" s="37">
-        <v>-6.1492812271738018</v>
-      </c>
-      <c r="CQ157" s="39"/>
-      <c r="CR157" s="39"/>
-      <c r="CS157" s="39"/>
-      <c r="CT157" s="39"/>
-      <c r="CU157" s="9"/>
+      <c r="CP157" s="18">
+        <v>-7.075176774695251</v>
+      </c>
+      <c r="CQ157" s="18">
+        <v>-7.7102374667800575</v>
+      </c>
+      <c r="CR157" s="21"/>
+      <c r="CS157" s="21"/>
+      <c r="CT157" s="18"/>
+      <c r="CU157" s="21"/>
       <c r="CV157" s="9"/>
       <c r="CW157" s="9"/>
       <c r="CX157" s="9"/>
@@ -38460,14 +38642,16 @@
       <c r="CO158" s="18">
         <v>-3.7917048810806193</v>
       </c>
-      <c r="CP158" s="37">
-        <v>2.9323978224708185</v>
-      </c>
-      <c r="CQ158" s="39"/>
-      <c r="CR158" s="39"/>
-      <c r="CS158" s="39"/>
-      <c r="CT158" s="39"/>
-      <c r="CU158" s="9"/>
+      <c r="CP158" s="18">
+        <v>0.63455313738603536</v>
+      </c>
+      <c r="CQ158" s="18">
+        <v>1.1658526320573515E-2</v>
+      </c>
+      <c r="CR158" s="21"/>
+      <c r="CS158" s="21"/>
+      <c r="CT158" s="18"/>
+      <c r="CU158" s="21"/>
       <c r="CV158" s="9"/>
       <c r="CW158" s="9"/>
       <c r="CX158" s="9"/>
@@ -38610,12 +38794,12 @@
       <c r="CM159" s="9"/>
       <c r="CN159" s="9"/>
       <c r="CO159" s="9"/>
-      <c r="CP159" s="33"/>
-      <c r="CQ159" s="41"/>
-      <c r="CR159" s="41"/>
-      <c r="CS159" s="41"/>
-      <c r="CT159" s="41"/>
-      <c r="CU159" s="9"/>
+      <c r="CP159" s="9"/>
+      <c r="CQ159" s="9"/>
+      <c r="CR159" s="29"/>
+      <c r="CS159" s="29"/>
+      <c r="CT159" s="9"/>
+      <c r="CU159" s="29"/>
       <c r="CV159" s="9"/>
       <c r="CW159" s="9"/>
       <c r="CX159" s="9"/>
@@ -38945,14 +39129,16 @@
       <c r="CO160" s="23">
         <v>14.57843342702985</v>
       </c>
-      <c r="CP160" s="42">
-        <v>-4.7766088446274466</v>
-      </c>
-      <c r="CQ160" s="43"/>
-      <c r="CR160" s="43"/>
-      <c r="CS160" s="43"/>
-      <c r="CT160" s="43"/>
-      <c r="CU160" s="9"/>
+      <c r="CP160" s="23">
+        <v>-5.468643228302426</v>
+      </c>
+      <c r="CQ160" s="23">
+        <v>-4.7440393148050788</v>
+      </c>
+      <c r="CR160" s="30"/>
+      <c r="CS160" s="30"/>
+      <c r="CT160" s="23"/>
+      <c r="CU160" s="30"/>
       <c r="CV160" s="9"/>
       <c r="CW160" s="9"/>
       <c r="CX160" s="9"/>
@@ -39096,20 +39282,20 @@
       <c r="CM161" s="14"/>
       <c r="CN161" s="14"/>
       <c r="CO161" s="14"/>
-      <c r="CP161" s="35"/>
-      <c r="CQ161" s="36"/>
-      <c r="CR161" s="36"/>
-      <c r="CS161" s="36"/>
-      <c r="CT161" s="36"/>
+      <c r="CP161" s="14"/>
+      <c r="CQ161" s="14"/>
+      <c r="CR161" s="17"/>
+      <c r="CS161" s="17"/>
+      <c r="CT161" s="14"/>
+      <c r="CU161" s="17"/>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CQ162" s="38"/>
-      <c r="CR162" s="38"/>
-      <c r="CS162" s="38"/>
-      <c r="CT162" s="38"/>
+      <c r="CR162" s="7"/>
+      <c r="CS162" s="7"/>
+      <c r="CU162" s="7"/>
     </row>
     <row r="163" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
@@ -39207,11 +39393,11 @@
       <c r="CM163" s="9"/>
       <c r="CN163" s="9"/>
       <c r="CO163" s="9"/>
-      <c r="CP163" s="33"/>
-      <c r="CQ163" s="33"/>
-      <c r="CR163" s="33"/>
-      <c r="CS163" s="33"/>
-      <c r="CT163" s="33"/>
+      <c r="CP163" s="9"/>
+      <c r="CQ163" s="9"/>
+      <c r="CR163" s="9"/>
+      <c r="CS163" s="9"/>
+      <c r="CT163" s="9"/>
       <c r="CU163" s="9"/>
       <c r="CV163" s="9"/>
       <c r="CW163" s="9"/>
@@ -39355,11 +39541,11 @@
       <c r="CM164" s="9"/>
       <c r="CN164" s="9"/>
       <c r="CO164" s="9"/>
-      <c r="CP164" s="33"/>
-      <c r="CQ164" s="33"/>
-      <c r="CR164" s="33"/>
-      <c r="CS164" s="33"/>
-      <c r="CT164" s="33"/>
+      <c r="CP164" s="9"/>
+      <c r="CQ164" s="9"/>
+      <c r="CR164" s="9"/>
+      <c r="CS164" s="9"/>
+      <c r="CT164" s="9"/>
       <c r="CU164" s="9"/>
       <c r="CV164" s="9"/>
       <c r="CW164" s="9"/>
@@ -39422,7 +39608,7 @@
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.2">
@@ -39432,7 +39618,7 @@
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.2">
@@ -39442,132 +39628,132 @@
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
-      <c r="B172" s="44">
+      <c r="B172" s="32">
         <v>2000</v>
       </c>
-      <c r="C172" s="44"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="44">
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32">
         <v>2001</v>
       </c>
-      <c r="G172" s="44"/>
-      <c r="H172" s="44"/>
-      <c r="I172" s="44"/>
-      <c r="J172" s="44">
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32">
         <v>2002</v>
       </c>
-      <c r="K172" s="44"/>
-      <c r="L172" s="44"/>
-      <c r="M172" s="44"/>
-      <c r="N172" s="44">
+      <c r="K172" s="32"/>
+      <c r="L172" s="32"/>
+      <c r="M172" s="32"/>
+      <c r="N172" s="32">
         <v>2003</v>
       </c>
-      <c r="O172" s="44"/>
-      <c r="P172" s="44"/>
-      <c r="Q172" s="44"/>
-      <c r="R172" s="44">
+      <c r="O172" s="32"/>
+      <c r="P172" s="32"/>
+      <c r="Q172" s="32"/>
+      <c r="R172" s="32">
         <v>2004</v>
       </c>
-      <c r="S172" s="44"/>
-      <c r="T172" s="44"/>
-      <c r="U172" s="44"/>
-      <c r="V172" s="44">
+      <c r="S172" s="32"/>
+      <c r="T172" s="32"/>
+      <c r="U172" s="32"/>
+      <c r="V172" s="32">
         <v>2005</v>
       </c>
-      <c r="W172" s="44"/>
-      <c r="X172" s="44"/>
-      <c r="Y172" s="44"/>
-      <c r="Z172" s="44">
+      <c r="W172" s="32"/>
+      <c r="X172" s="32"/>
+      <c r="Y172" s="32"/>
+      <c r="Z172" s="32">
         <v>2006</v>
       </c>
-      <c r="AA172" s="44"/>
-      <c r="AB172" s="44"/>
-      <c r="AC172" s="44"/>
-      <c r="AD172" s="44">
+      <c r="AA172" s="32"/>
+      <c r="AB172" s="32"/>
+      <c r="AC172" s="32"/>
+      <c r="AD172" s="32">
         <v>2007</v>
       </c>
-      <c r="AE172" s="44"/>
-      <c r="AF172" s="44"/>
-      <c r="AG172" s="44"/>
-      <c r="AH172" s="44">
+      <c r="AE172" s="32"/>
+      <c r="AF172" s="32"/>
+      <c r="AG172" s="32"/>
+      <c r="AH172" s="32">
         <v>2008</v>
       </c>
-      <c r="AI172" s="44"/>
-      <c r="AJ172" s="44"/>
-      <c r="AK172" s="44"/>
-      <c r="AL172" s="44">
+      <c r="AI172" s="32"/>
+      <c r="AJ172" s="32"/>
+      <c r="AK172" s="32"/>
+      <c r="AL172" s="32">
         <v>2009</v>
       </c>
-      <c r="AM172" s="44"/>
-      <c r="AN172" s="44"/>
-      <c r="AO172" s="44"/>
-      <c r="AP172" s="44">
+      <c r="AM172" s="32"/>
+      <c r="AN172" s="32"/>
+      <c r="AO172" s="32"/>
+      <c r="AP172" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ172" s="44"/>
-      <c r="AR172" s="44"/>
-      <c r="AS172" s="44"/>
-      <c r="AT172" s="44">
+      <c r="AQ172" s="32"/>
+      <c r="AR172" s="32"/>
+      <c r="AS172" s="32"/>
+      <c r="AT172" s="32">
         <v>2011</v>
       </c>
-      <c r="AU172" s="44"/>
-      <c r="AV172" s="44"/>
-      <c r="AW172" s="44"/>
-      <c r="AX172" s="44">
+      <c r="AU172" s="32"/>
+      <c r="AV172" s="32"/>
+      <c r="AW172" s="32"/>
+      <c r="AX172" s="32">
         <v>2012</v>
       </c>
-      <c r="AY172" s="44"/>
-      <c r="AZ172" s="44"/>
-      <c r="BA172" s="44"/>
-      <c r="BB172" s="44">
+      <c r="AY172" s="32"/>
+      <c r="AZ172" s="32"/>
+      <c r="BA172" s="32"/>
+      <c r="BB172" s="32">
         <v>2013</v>
       </c>
-      <c r="BC172" s="44"/>
-      <c r="BD172" s="44"/>
-      <c r="BE172" s="44"/>
-      <c r="BF172" s="44">
+      <c r="BC172" s="32"/>
+      <c r="BD172" s="32"/>
+      <c r="BE172" s="32"/>
+      <c r="BF172" s="32">
         <v>2014</v>
       </c>
-      <c r="BG172" s="44"/>
-      <c r="BH172" s="44"/>
-      <c r="BI172" s="44"/>
-      <c r="BJ172" s="44">
+      <c r="BG172" s="32"/>
+      <c r="BH172" s="32"/>
+      <c r="BI172" s="32"/>
+      <c r="BJ172" s="32">
         <v>2015</v>
       </c>
-      <c r="BK172" s="44"/>
-      <c r="BL172" s="44"/>
-      <c r="BM172" s="44"/>
-      <c r="BN172" s="44">
+      <c r="BK172" s="32"/>
+      <c r="BL172" s="32"/>
+      <c r="BM172" s="32"/>
+      <c r="BN172" s="32">
         <v>2016</v>
       </c>
-      <c r="BO172" s="44"/>
-      <c r="BP172" s="44"/>
-      <c r="BQ172" s="44"/>
-      <c r="BR172" s="44">
+      <c r="BO172" s="32"/>
+      <c r="BP172" s="32"/>
+      <c r="BQ172" s="32"/>
+      <c r="BR172" s="32">
         <v>2017</v>
       </c>
-      <c r="BS172" s="44"/>
-      <c r="BT172" s="44"/>
-      <c r="BU172" s="44"/>
-      <c r="BV172" s="44">
+      <c r="BS172" s="32"/>
+      <c r="BT172" s="32"/>
+      <c r="BU172" s="32"/>
+      <c r="BV172" s="32">
         <v>2018</v>
       </c>
-      <c r="BW172" s="44"/>
-      <c r="BX172" s="44"/>
-      <c r="BY172" s="44"/>
-      <c r="BZ172" s="44">
+      <c r="BW172" s="32"/>
+      <c r="BX172" s="32"/>
+      <c r="BY172" s="32"/>
+      <c r="BZ172" s="32">
         <v>2019</v>
       </c>
-      <c r="CA172" s="44"/>
-      <c r="CB172" s="44"/>
-      <c r="CC172" s="44"/>
-      <c r="CD172" s="45">
+      <c r="CA172" s="32"/>
+      <c r="CB172" s="32"/>
+      <c r="CC172" s="32"/>
+      <c r="CD172" s="31">
         <v>2020</v>
       </c>
-      <c r="CE172" s="45"/>
-      <c r="CF172" s="45"/>
-      <c r="CG172" s="45"/>
+      <c r="CE172" s="31"/>
+      <c r="CF172" s="31"/>
+      <c r="CG172" s="31"/>
       <c r="CH172" s="27">
         <v>2021</v>
       </c>
@@ -39580,15 +39766,16 @@
       <c r="CM172" s="27"/>
       <c r="CN172" s="27"/>
       <c r="CO172" s="27"/>
-      <c r="CP172" s="30">
+      <c r="CP172" s="27">
         <v>2023</v>
       </c>
-      <c r="CQ172" s="30"/>
-      <c r="CR172" s="30"/>
-      <c r="CS172" s="30"/>
-      <c r="CT172" s="30">
+      <c r="CQ172" s="27"/>
+      <c r="CR172" s="27"/>
+      <c r="CS172" s="27"/>
+      <c r="CT172" s="27">
         <v>2024</v>
       </c>
+      <c r="CU172" s="27"/>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
@@ -39870,20 +40057,23 @@
       <c r="CO173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CP173" s="36" t="s">
+      <c r="CP173" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="CQ173" s="36" t="s">
+      <c r="CQ173" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CR173" s="36" t="s">
+      <c r="CR173" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CS173" s="36" t="s">
+      <c r="CS173" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CT173" s="36" t="s">
+      <c r="CT173" s="17" t="s">
         <v>6</v>
+      </c>
+      <c r="CU173" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40169,22 +40359,24 @@
       <c r="CO175" s="23">
         <v>100.74567357910429</v>
       </c>
-      <c r="CP175" s="42">
+      <c r="CP175" s="23">
         <v>120.88862259847215</v>
       </c>
-      <c r="CQ175" s="42">
+      <c r="CQ175" s="23">
         <v>162.95962296912717</v>
       </c>
-      <c r="CR175" s="42">
+      <c r="CR175" s="23">
         <v>101.50258068125504</v>
       </c>
-      <c r="CS175" s="42">
+      <c r="CS175" s="23">
         <v>97.948006758418046</v>
       </c>
-      <c r="CT175" s="42">
-        <v>121.4103393845774</v>
-      </c>
-      <c r="CU175" s="9"/>
+      <c r="CT175" s="23">
+        <v>120.77202773817012</v>
+      </c>
+      <c r="CU175" s="23">
+        <v>164.33563184708433</v>
+      </c>
       <c r="CV175" s="9"/>
       <c r="CW175" s="9"/>
       <c r="CX175" s="9"/>
@@ -40519,22 +40711,24 @@
       <c r="CO176" s="23">
         <v>84.62421037328231</v>
       </c>
-      <c r="CP176" s="42">
+      <c r="CP176" s="23">
         <v>123.59877456032858</v>
       </c>
-      <c r="CQ176" s="42">
+      <c r="CQ176" s="23">
         <v>357.80283159941797</v>
       </c>
-      <c r="CR176" s="42">
+      <c r="CR176" s="23">
         <v>102.27580653183128</v>
       </c>
-      <c r="CS176" s="42">
+      <c r="CS176" s="23">
         <v>83.541453388001614</v>
       </c>
-      <c r="CT176" s="42">
-        <v>123.78668902547449</v>
-      </c>
-      <c r="CU176" s="9"/>
+      <c r="CT176" s="23">
+        <v>123.84758201664275</v>
+      </c>
+      <c r="CU176" s="23">
+        <v>373.40507724661808</v>
+      </c>
       <c r="CV176" s="9"/>
       <c r="CW176" s="9"/>
       <c r="CX176" s="9"/>
@@ -40869,22 +41063,24 @@
       <c r="CO177" s="23">
         <v>83.717855981467011</v>
       </c>
-      <c r="CP177" s="42">
+      <c r="CP177" s="23">
         <v>125.9510502510893</v>
       </c>
-      <c r="CQ177" s="42">
+      <c r="CQ177" s="23">
         <v>349.3995311774338</v>
       </c>
-      <c r="CR177" s="42">
+      <c r="CR177" s="23">
         <v>101.45345798729917</v>
       </c>
-      <c r="CS177" s="42">
+      <c r="CS177" s="23">
         <v>82.871003926450442</v>
       </c>
-      <c r="CT177" s="42">
-        <v>125.59056004655748</v>
-      </c>
-      <c r="CU177" s="9"/>
+      <c r="CT177" s="23">
+        <v>125.67412426887799</v>
+      </c>
+      <c r="CU177" s="23">
+        <v>363.37996225003508</v>
+      </c>
       <c r="CV177" s="9"/>
       <c r="CW177" s="9"/>
       <c r="CX177" s="9"/>
@@ -41219,22 +41415,24 @@
       <c r="CO178" s="23">
         <v>91.029060592974659</v>
       </c>
-      <c r="CP178" s="42">
+      <c r="CP178" s="23">
         <v>112.62632304094151</v>
       </c>
-      <c r="CQ178" s="42">
+      <c r="CQ178" s="23">
         <v>267.21589038515157</v>
       </c>
-      <c r="CR178" s="42">
+      <c r="CR178" s="23">
         <v>96.961094569773465</v>
       </c>
-      <c r="CS178" s="42">
+      <c r="CS178" s="23">
         <v>90.053767001499352</v>
       </c>
-      <c r="CT178" s="42">
-        <v>107.10412015595085</v>
-      </c>
-      <c r="CU178" s="9"/>
+      <c r="CT178" s="23">
+        <v>107.63785458670203</v>
+      </c>
+      <c r="CU178" s="23">
+        <v>267.47619274651447</v>
+      </c>
       <c r="CV178" s="9"/>
       <c r="CW178" s="9"/>
       <c r="CX178" s="9"/>
@@ -41569,22 +41767,24 @@
       <c r="CO179" s="23">
         <v>88.52399582336173</v>
       </c>
-      <c r="CP179" s="42">
+      <c r="CP179" s="23">
         <v>145.59362834917104</v>
       </c>
-      <c r="CQ179" s="42">
+      <c r="CQ179" s="23">
         <v>318.02669913931618</v>
       </c>
-      <c r="CR179" s="42">
+      <c r="CR179" s="23">
         <v>102.18830122706679</v>
       </c>
-      <c r="CS179" s="42">
+      <c r="CS179" s="23">
         <v>88.006792319086145</v>
       </c>
-      <c r="CT179" s="42">
-        <v>150.17682270721627</v>
-      </c>
-      <c r="CU179" s="9"/>
+      <c r="CT179" s="23">
+        <v>150.59617275375325</v>
+      </c>
+      <c r="CU179" s="23">
+        <v>345.4097755192825</v>
+      </c>
       <c r="CV179" s="9"/>
       <c r="CW179" s="9"/>
       <c r="CX179" s="9"/>
@@ -41919,22 +42119,24 @@
       <c r="CO180" s="23">
         <v>85.992806819089637</v>
       </c>
-      <c r="CP180" s="42">
+      <c r="CP180" s="23">
         <v>130.59937791591591</v>
       </c>
-      <c r="CQ180" s="42">
+      <c r="CQ180" s="23">
         <v>341.95075267555978</v>
       </c>
-      <c r="CR180" s="42">
+      <c r="CR180" s="23">
         <v>104.77397108506008</v>
       </c>
-      <c r="CS180" s="42">
+      <c r="CS180" s="23">
         <v>85.143511027685591</v>
       </c>
-      <c r="CT180" s="42">
-        <v>129.91838059148196</v>
-      </c>
-      <c r="CU180" s="9"/>
+      <c r="CT180" s="23">
+        <v>130.01483397269024</v>
+      </c>
+      <c r="CU180" s="23">
+        <v>351.81455805681969</v>
+      </c>
       <c r="CV180" s="9"/>
       <c r="CW180" s="9"/>
       <c r="CX180" s="9"/>
@@ -42269,22 +42471,24 @@
       <c r="CO181" s="23">
         <v>126.71057198607909</v>
       </c>
-      <c r="CP181" s="42">
+      <c r="CP181" s="23">
         <v>117.44714264494417</v>
       </c>
-      <c r="CQ181" s="42">
+      <c r="CQ181" s="23">
         <v>103.02246040604368</v>
       </c>
-      <c r="CR181" s="42">
+      <c r="CR181" s="23">
         <v>103.2625147121601</v>
       </c>
-      <c r="CS181" s="42">
+      <c r="CS181" s="23">
         <v>115.05106553133906</v>
       </c>
-      <c r="CT181" s="42">
-        <v>119.36124139874258</v>
-      </c>
-      <c r="CU181" s="9"/>
+      <c r="CT181" s="23">
+        <v>118.08679480971395</v>
+      </c>
+      <c r="CU181" s="23">
+        <v>105.33540237888346</v>
+      </c>
       <c r="CV181" s="9"/>
       <c r="CW181" s="9"/>
       <c r="CX181" s="9"/>
@@ -42619,22 +42823,24 @@
       <c r="CO182" s="23">
         <v>82.302554209832778</v>
       </c>
-      <c r="CP182" s="42">
+      <c r="CP182" s="23">
         <v>121.93413399865727</v>
       </c>
-      <c r="CQ182" s="42">
+      <c r="CQ182" s="23">
         <v>337.35604148393378</v>
       </c>
-      <c r="CR182" s="42">
+      <c r="CR182" s="23">
         <v>99.950344777472992</v>
       </c>
-      <c r="CS182" s="42">
+      <c r="CS182" s="23">
         <v>81.5953479056177</v>
       </c>
-      <c r="CT182" s="42">
-        <v>121.39723867674483</v>
-      </c>
-      <c r="CU182" s="9"/>
+      <c r="CT182" s="23">
+        <v>121.51519505376996</v>
+      </c>
+      <c r="CU182" s="23">
+        <v>354.76660376661005</v>
+      </c>
       <c r="CV182" s="9"/>
       <c r="CW182" s="9"/>
       <c r="CX182" s="9"/>
@@ -42969,22 +43175,24 @@
       <c r="CO183" s="23">
         <v>89.511782196216345</v>
       </c>
-      <c r="CP183" s="42">
+      <c r="CP183" s="23">
         <v>121.49136168723882</v>
       </c>
-      <c r="CQ183" s="42">
+      <c r="CQ183" s="23">
         <v>249.37322884521365</v>
       </c>
-      <c r="CR183" s="42">
+      <c r="CR183" s="23">
         <v>96.595878103666848</v>
       </c>
-      <c r="CS183" s="42">
+      <c r="CS183" s="23">
         <v>88.968333900976489</v>
       </c>
-      <c r="CT183" s="42">
-        <v>120.49060763557098</v>
-      </c>
-      <c r="CU183" s="9"/>
+      <c r="CT183" s="23">
+        <v>120.99844141515379</v>
+      </c>
+      <c r="CU183" s="23">
+        <v>261.99518784893701</v>
+      </c>
       <c r="CV183" s="9"/>
       <c r="CW183" s="9"/>
       <c r="CX183" s="9"/>
@@ -43319,22 +43527,24 @@
       <c r="CO184" s="23">
         <v>112.22439223793424</v>
       </c>
-      <c r="CP184" s="42">
+      <c r="CP184" s="23">
         <v>118.08086187579407</v>
       </c>
-      <c r="CQ184" s="42">
+      <c r="CQ184" s="23">
         <v>133.75349226755461</v>
       </c>
-      <c r="CR184" s="42">
+      <c r="CR184" s="23">
         <v>105.63894054299763</v>
       </c>
-      <c r="CS184" s="42">
+      <c r="CS184" s="23">
         <v>112.1602104202891</v>
       </c>
-      <c r="CT184" s="42">
-        <v>116.86559533987509</v>
-      </c>
-      <c r="CU184" s="9"/>
+      <c r="CT184" s="23">
+        <v>117.44937082605153</v>
+      </c>
+      <c r="CU184" s="23">
+        <v>140.43925971318311</v>
+      </c>
       <c r="CV184" s="9"/>
       <c r="CW184" s="9"/>
       <c r="CX184" s="9"/>
@@ -43669,22 +43879,24 @@
       <c r="CO185" s="23">
         <v>118.82965504662806</v>
       </c>
-      <c r="CP185" s="42">
+      <c r="CP185" s="23">
         <v>120.51461465409301</v>
       </c>
-      <c r="CQ185" s="42">
+      <c r="CQ185" s="23">
         <v>145.44025215879913</v>
       </c>
-      <c r="CR185" s="42">
+      <c r="CR185" s="23">
         <v>105.72484300356177</v>
       </c>
-      <c r="CS185" s="42">
+      <c r="CS185" s="23">
         <v>117.82152911856456</v>
       </c>
-      <c r="CT185" s="42">
-        <v>121.23662507444585</v>
-      </c>
-      <c r="CU185" s="9"/>
+      <c r="CT185" s="23">
+        <v>121.4718061280029</v>
+      </c>
+      <c r="CU185" s="23">
+        <v>150.93327109285801</v>
+      </c>
       <c r="CV185" s="9"/>
       <c r="CW185" s="9"/>
       <c r="CX185" s="9"/>
@@ -44019,22 +44231,24 @@
       <c r="CO186" s="23">
         <v>120.75934821506216</v>
       </c>
-      <c r="CP186" s="42">
+      <c r="CP186" s="23">
         <v>123.01493418341182</v>
       </c>
-      <c r="CQ186" s="42">
+      <c r="CQ186" s="23">
         <v>142.901436116111</v>
       </c>
-      <c r="CR186" s="42">
+      <c r="CR186" s="23">
         <v>106.14074487401692</v>
       </c>
-      <c r="CS186" s="42">
+      <c r="CS186" s="23">
         <v>122.61607283604616</v>
       </c>
-      <c r="CT186" s="42">
-        <v>125.31946497903857</v>
-      </c>
-      <c r="CU186" s="9"/>
+      <c r="CT186" s="23">
+        <v>125.48559267379795</v>
+      </c>
+      <c r="CU186" s="23">
+        <v>151.06151061283884</v>
+      </c>
       <c r="CV186" s="9"/>
       <c r="CW186" s="9"/>
       <c r="CX186" s="9"/>
@@ -44369,22 +44583,24 @@
       <c r="CO187" s="23">
         <v>127.40333223170686</v>
       </c>
-      <c r="CP187" s="42">
+      <c r="CP187" s="23">
         <v>127.15926813439467</v>
       </c>
-      <c r="CQ187" s="42">
+      <c r="CQ187" s="23">
         <v>129.44112808385566</v>
       </c>
-      <c r="CR187" s="42">
+      <c r="CR187" s="23">
         <v>108.9573213547187</v>
       </c>
-      <c r="CS187" s="42">
+      <c r="CS187" s="23">
         <v>126.66080955280144</v>
       </c>
-      <c r="CT187" s="42">
-        <v>126.70138268785907</v>
-      </c>
-      <c r="CU187" s="9"/>
+      <c r="CT187" s="23">
+        <v>126.81547431944698</v>
+      </c>
+      <c r="CU187" s="23">
+        <v>139.63644754255594</v>
+      </c>
       <c r="CV187" s="9"/>
       <c r="CW187" s="9"/>
       <c r="CX187" s="9"/>
@@ -44719,22 +44935,24 @@
       <c r="CO188" s="23">
         <v>94.931741617712873</v>
       </c>
-      <c r="CP188" s="42">
+      <c r="CP188" s="23">
         <v>107.48794406162881</v>
       </c>
-      <c r="CQ188" s="42">
+      <c r="CQ188" s="23">
         <v>129.86598358606264</v>
       </c>
-      <c r="CR188" s="42">
+      <c r="CR188" s="23">
         <v>100.33030905604328</v>
       </c>
-      <c r="CS188" s="42">
+      <c r="CS188" s="23">
         <v>94.534549702633214</v>
       </c>
-      <c r="CT188" s="42">
-        <v>104.35089164038904</v>
-      </c>
-      <c r="CU188" s="9"/>
+      <c r="CT188" s="23">
+        <v>105.1651808005122</v>
+      </c>
+      <c r="CU188" s="23">
+        <v>132.34101207207885</v>
+      </c>
       <c r="CV188" s="9"/>
       <c r="CW188" s="9"